--- a/2021_Summer/jp.hong/Datebook_jph.xlsx
+++ b/2021_Summer/jp.hong/Datebook_jph.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="8568"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="17580" windowHeight="6696"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Datebook" sheetId="1" r:id="rId4"/>
@@ -20,20 +20,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
-  <x:si>
-    <x:t>1. 실습 환경 설정 및 설명
- - Git 
-   └ git 사용법 이수
-   └ git 설치 및 SSH key 설명
- - 잔디
-   └ 사내 채팅 및 파일 공유 프로그램 사용법 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06.22, 06.23 회의록 작성
-2. Git 환경 설정
-3. Git 설정 화면 캡처 및 보고서 작성
-4. 캡스톤 아이디어 도출</x:t>
-  </x:si>
   <x:si>
     <x:t>1. 현장실습 OT
  - 기업 소개 및 업무 설명
@@ -49,12 +35,18 @@
 2-3) 개발 설계  { ex : Flow chart, DB구성, 언어, 시스템 아키텍쳐</x:t>
   </x:si>
   <x:si>
-    <x:t>10:00
-17:00</x:t>
+    <x:t>1. 실습 환경 설정 및 설명
+ - Git 
+   └ git 사용법 이수
+   └ git 설치 및 SSH key 설명
+ - 잔디
+   └ 사내 채팅 및 파일 공유 프로그램 사용법 설명</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 계약서 작성
-2. 현장실습 오리엔테이션</x:t>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment</x:t>
   </x:si>
   <x:si>
     <x:t>Goal</x:t>
@@ -63,10 +55,18 @@
     <x:t>Time</x:t>
   </x:si>
   <x:si>
-    <x:t>Date</x:t>
+    <x:t>1. 06.22, 06.23 회의록 작성
+2. Git 환경 설정
+3. Git 설정 화면 캡처 및 보고서 작성
+4. 캡스톤 아이디어 도출</x:t>
   </x:si>
   <x:si>
-    <x:t>Comment</x:t>
+    <x:t>09:00
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 계약서 작성
+2. 현장실습 오리엔테이션</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -312,6 +312,22 @@
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="20" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
@@ -322,22 +338,6 @@
       <mc:Fallback>
         <x:xf numFmtId="20" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1047,7 +1047,7 @@
   <x:dimension ref="B2:E31"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D4" activeCellId="0" sqref="D4:D4"/>
+      <x:selection activeCell="E4" activeCellId="0" sqref="E4:E4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.199999999999999"/>
@@ -1063,44 +1063,44 @@
     <x:row r="1" ht="6.5999999999999996" customHeight="1"/>
     <x:row r="2" spans="2:5" ht="31.199999999999999" customHeight="1">
       <x:c r="B2" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D2" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E2" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:5" ht="184.80000000000001">
       <x:c r="B3" s="6">
         <x:v>44004</x:v>
       </x:c>
-      <x:c r="C3" s="10" t="s">
-        <x:v>3</x:v>
+      <x:c r="C3" s="12" t="s">
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D3" s="7" t="s">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E3" s="7" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:5" ht="79.049999999999997">
-      <x:c r="B4" s="12">
+      <x:c r="B4" s="11">
         <x:v>44005</x:v>
       </x:c>
       <x:c r="C4" s="13" t="s">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
-      <x:c r="D4" s="11" t="s">
+      <x:c r="D4" s="10" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E4" s="10" t="s">
         <x:v>1</x:v>
-      </x:c>
-      <x:c r="E4" s="11" t="s">
-        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:5">
@@ -1266,7 +1266,7 @@
       <x:c r="E31" s="9"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/2021_Summer/jp.hong/Datebook_jph.xlsx
+++ b/2021_Summer/jp.hong/Datebook_jph.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="17580" windowHeight="6696"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="8568"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Datebook" sheetId="1" r:id="rId4"/>
@@ -20,6 +20,20 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+  <x:si>
+    <x:t>1. 실습 환경 설정 및 설명
+ - Git 
+   └ git 사용법 이수
+   └ git 설치 및 SSH key 설명
+ - 잔디
+   └ 사내 채팅 및 파일 공유 프로그램 사용법 설명
+2. 06.22, 06.23 회의록 작성
+3. Git 단순 명령어 정리 ppt 파일 작성
+4. 아이디어 도출
+   └ 식단 관리 어플
+   └ 원격 벨소리/진동 변경
+   └ 차량 관리 어플</x:t>
+  </x:si>
   <x:si>
     <x:t>1. 현장실습 OT
  - 기업 소개 및 업무 설명
@@ -33,14 +47,6 @@
                 { 마케팅 -&gt; 판매전략
 2-2) 개발 기획  { ex : 기능 구현 방법, UI/UX, 디자인
 2-3) 개발 설계  { ex : Flow chart, DB구성, 언어, 시스템 아키텍쳐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 실습 환경 설정 및 설명
- - Git 
-   └ git 사용법 이수
-   └ git 설치 및 SSH key 설명
- - 잔디
-   └ 사내 채팅 및 파일 공유 프로그램 사용법 설명</x:t>
   </x:si>
   <x:si>
     <x:t>Date</x:t>
@@ -1047,7 +1053,7 @@
   <x:dimension ref="B2:E31"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E4" activeCellId="0" sqref="E4:E4"/>
+      <x:selection activeCell="D4" activeCellId="0" sqref="D4:D4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.199999999999999"/>
@@ -1086,10 +1092,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E3" s="7" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="2:5" ht="79.049999999999997">
+    <x:row r="4" spans="2:5" ht="158.05000000000001">
       <x:c r="B4" s="11">
         <x:v>44005</x:v>
       </x:c>
@@ -1100,7 +1106,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="E4" s="10" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:5">

--- a/2021_Summer/jp.hong/Datebook_jph.xlsx
+++ b/2021_Summer/jp.hong/Datebook_jph.xlsx
@@ -19,20 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <x:si>
-    <x:t>1. 실습 환경 설정 및 설명
- - Git 
-   └ git 사용법 이수
-   └ git 설치 및 SSH key 설명
- - 잔디
-   └ 사내 채팅 및 파일 공유 프로그램 사용법 설명
-2. 06.22, 06.23 회의록 작성
-3. Git 단순 명령어 정리 ppt 파일 작성
-4. 아이디어 도출
-   └ 식단 관리 어플
-   └ 원격 벨소리/진동 변경
-   └ 차량 관리 어플</x:t>
+    <x:t>1. 06.22, 06.23 회의록 작성
+2. Git 환경 설정
+3. Git 설정 화면 캡처 및 보고서 작성
+4. 캡스톤 아이디어 도출</x:t>
   </x:si>
   <x:si>
     <x:t>1. 현장실습 OT
@@ -49,22 +41,30 @@
 2-3) 개발 설계  { ex : Flow chart, DB구성, 언어, 시스템 아키텍쳐</x:t>
   </x:si>
   <x:si>
-    <x:t>Date</x:t>
+    <x:t>1. 실습 환경 설정 및 설명
+ - Git 
+   └ git 사용법 이수
+   └ git 설치 및 SSH key 설명
+ - 잔디
+   └ 사내 채팅 및 파일 공유 프로그램 사용법 설명
+2. 06.22, 06.23 회의록 작성
+3. Git 단순 명령어 정리 ppt 파일 작성
+4. 아이디어 도출
+   └ 식단 관리 어플
+   └ 원격 벨소리/진동 변경
+   └ 차량 관리 어플</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goal</x:t>
   </x:si>
   <x:si>
     <x:t>Comment</x:t>
   </x:si>
   <x:si>
-    <x:t>Goal</x:t>
+    <x:t>Date</x:t>
   </x:si>
   <x:si>
     <x:t>Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06.22, 06.23 회의록 작성
-2. Git 환경 설정
-3. Git 설정 화면 캡처 및 보고서 작성
-4. 캡스톤 아이디어 도출</x:t>
   </x:si>
   <x:si>
     <x:t>09:00
@@ -73,6 +73,32 @@
   <x:si>
     <x:t>1. 계약서 작성
 2. 현장실습 오리엔테이션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+ - 컴퓨터 견적 추천 앱
+   └ 사용자에게 사용목적(게임용, 사무용, 그래픽작업용 등)을 물어봄
+   └ 물어본 프로그램에 적합한 PC 가격대 별 추천
+   └ 부품별 최저가 추천
+ - 주차 후 사고 발생시 알림 앱
+   └ 주차를 해둔 뒤 충격 발생시 -&gt; 블랙박스 촬영
+   └ 촬영 외에도 핸드폰으로 연동시 알림
+   └ 알림 기능 외 블랙박스와 연동하여 주차 위치를 잊은 경우 사진촬                                    영으로 주차 위치 확인 및 지도로 확인 가능
+2. 주제 아이디어 최종 선정
+ - 차량 관리 어플
+   └ 차량의 부품 별 정비 받아야 할 시점이 다름
+   └ 부품별(ex : 엔진, 타이어, 냉각수 등) 정비 시점을 알림
+   └ 부품 교체 예상 비용
+ - 추가 기능으로 부품별 관리 tip, 가까운 정비소 위치, 자동차 관련 소식 등의 정보 제공
+ - 한계점
+   └ 관련 어플 다수 존재
+   └ 운전자의 운전 습관에 따라 부품의 마모 상태 달라짐
+3. 개발 계획서 및 요구사항 작성 (미완)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+2. 최종 아이디어 선정
+3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -227,7 +253,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="14">
+  <x:cellXfs count="15">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -357,6 +383,19 @@
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1052,15 +1091,15 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B2:E31"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D4" activeCellId="0" sqref="D4:D4"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="E4" activeCellId="0" sqref="E4:E4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.199999999999999"/>
   <x:cols>
     <x:col min="1" max="1" width="1.796875" style="1" customWidth="1"/>
     <x:col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="8.796875" style="1"/>
+    <x:col min="3" max="3" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <x:col min="4" max="4" width="44.19921875" style="2" customWidth="1"/>
     <x:col min="5" max="5" width="55.09765625" style="2" customWidth="1"/>
     <x:col min="6" max="16384" width="8.796875" style="1"/>
@@ -1069,16 +1108,16 @@
     <x:row r="1" ht="6.5999999999999996" customHeight="1"/>
     <x:row r="2" spans="2:5" ht="31.199999999999999" customHeight="1">
       <x:c r="B2" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D2" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E2" s="5" t="s">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="E2" s="5" t="s">
-        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:5" ht="184.80000000000001">
@@ -1103,17 +1142,25 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D4" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E4" s="10" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="2:5">
-      <x:c r="B5" s="8"/>
-      <x:c r="C5" s="8"/>
-      <x:c r="D5" s="9"/>
-      <x:c r="E5" s="9"/>
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="2:5" ht="316.10000000000002">
+      <x:c r="B5" s="11">
+        <x:v>44006</x:v>
+      </x:c>
+      <x:c r="C5" s="14">
+        <x:v>0.35416666666666669</x:v>
+      </x:c>
+      <x:c r="D5" s="10" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E5" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
     </x:row>
     <x:row r="6" spans="2:5">
       <x:c r="B6" s="8"/>
@@ -1272,7 +1319,7 @@
       <x:c r="E31" s="9"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/2021_Summer/jp.hong/Datebook_jph.xlsx
+++ b/2021_Summer/jp.hong/Datebook_jph.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="8568"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8592"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Datebook" sheetId="1" r:id="rId4"/>
@@ -19,12 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <x:si>
-    <x:t>1. 06.22, 06.23 회의록 작성
-2. Git 환경 설정
-3. Git 설정 화면 캡처 및 보고서 작성
-4. 캡스톤 아이디어 도출</x:t>
+    <x:t>1. 아이디어 도출
+2. 최종 아이디어 선정
+3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
   </x:si>
   <x:si>
     <x:t>1. 현장실습 OT
@@ -41,21 +40,38 @@
 2-3) 개발 설계  { ex : Flow chart, DB구성, 언어, 시스템 아키텍쳐</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 실습 환경 설정 및 설명
- - Git 
-   └ git 사용법 이수
-   └ git 설치 및 SSH key 설명
- - 잔디
-   └ 사내 채팅 및 파일 공유 프로그램 사용법 설명
-2. 06.22, 06.23 회의록 작성
-3. Git 단순 명령어 정리 ppt 파일 작성
-4. 아이디어 도출
-   └ 식단 관리 어플
-   └ 원격 벨소리/진동 변경
-   └ 차량 관리 어플</x:t>
+    <x:t>09:00
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06.22, 06.23 회의록 작성
+2. Git 환경 설정
+3. Git 설정 화면 캡처 및 보고서 작성
+4. 캡스톤 아이디어 도출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-1. Datebook Comment 부분 요약
+1-2. PPT 머릿글 요약 작성
+1-3. GIT 보고서 다시 작성
+2. 파일명 수정 (코딩 표준 - 변수 명명법)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+ - 컴퓨터 견적 추천 앱
+ - 주차시 사고발생 알림 앱
+2. 주제 아이디어 최종 선정
+ - 차량 관리 어플
+3. 개발 계획서 및 요구사항 작성 (미완)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:30
+18:00</x:t>
   </x:si>
   <x:si>
     <x:t>Goal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Time</x:t>
   </x:si>
   <x:si>
     <x:t>Comment</x:t>
@@ -64,41 +80,19 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09:00
-18:00</x:t>
-  </x:si>
-  <x:si>
     <x:t>1. 계약서 작성
 2. 현장실습 오리엔테이션</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 아이디어 도출
- - 컴퓨터 견적 추천 앱
-   └ 사용자에게 사용목적(게임용, 사무용, 그래픽작업용 등)을 물어봄
-   └ 물어본 프로그램에 적합한 PC 가격대 별 추천
-   └ 부품별 최저가 추천
- - 주차 후 사고 발생시 알림 앱
-   └ 주차를 해둔 뒤 충격 발생시 -&gt; 블랙박스 촬영
-   └ 촬영 외에도 핸드폰으로 연동시 알림
-   └ 알림 기능 외 블랙박스와 연동하여 주차 위치를 잊은 경우 사진촬                                    영으로 주차 위치 확인 및 지도로 확인 가능
-2. 주제 아이디어 최종 선정
- - 차량 관리 어플
-   └ 차량의 부품 별 정비 받아야 할 시점이 다름
-   └ 부품별(ex : 엔진, 타이어, 냉각수 등) 정비 시점을 알림
-   └ 부품 교체 예상 비용
- - 추가 기능으로 부품별 관리 tip, 가까운 정비소 위치, 자동차 관련 소식 등의 정보 제공
- - 한계점
-   └ 관련 어플 다수 존재
-   └ 운전자의 운전 습관에 따라 부품의 마모 상태 달라짐
-3. 개발 계획서 및 요구사항 작성 (미완)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
-2. 최종 아이디어 선정
-3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
+    <x:t>1. 실습 환경 설정 및 설명
+ - Git 
+ - 잔디
+2. 06.22, 06.23 회의록 작성
+3. Git 단순 명령어 정리 ppt 파일 작성
+4. 아이디어 도출
+   └ 식단 관리 어플
+   └ 원격 벨소리/진동 변경
+   └ 차량 관리 어플</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -253,7 +247,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="15">
+  <x:cellXfs count="16">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -362,6 +356,32 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="20" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -375,27 +395,14 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1091,8 +1098,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B2:E31"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E4" activeCellId="0" sqref="E4:E4"/>
+    <x:sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="G6" activeCellId="0" sqref="G6:G6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.199999999999999"/>
@@ -1108,64 +1115,70 @@
     <x:row r="1" ht="6.5999999999999996" customHeight="1"/>
     <x:row r="2" spans="2:5" ht="31.199999999999999" customHeight="1">
       <x:c r="B2" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D2" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:5" ht="184.80000000000001">
       <x:c r="B3" s="6">
         <x:v>44004</x:v>
       </x:c>
-      <x:c r="C3" s="12" t="s">
-        <x:v>7</x:v>
+      <x:c r="C3" s="14" t="s">
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D3" s="7" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="7" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="2:5" ht="158.05000000000001">
+    <x:row r="4" spans="2:5" ht="118.55">
       <x:c r="B4" s="11">
         <x:v>44005</x:v>
       </x:c>
-      <x:c r="C4" s="13" t="s">
-        <x:v>7</x:v>
+      <x:c r="C4" s="12" t="s">
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D4" s="10" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E4" s="10" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="2:5" ht="316.10000000000002">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="2:5" ht="92.200000000000003">
       <x:c r="B5" s="11">
         <x:v>44006</x:v>
       </x:c>
-      <x:c r="C5" s="14">
+      <x:c r="C5" s="15" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D5" s="10" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E5" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="2:5" ht="52.700000000000003">
+      <x:c r="B6" s="11">
+        <x:v>44007</x:v>
+      </x:c>
+      <x:c r="C6" s="13">
         <x:v>0.35416666666666669</x:v>
       </x:c>
-      <x:c r="D5" s="10" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E5" s="10" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="2:5">
-      <x:c r="B6" s="8"/>
-      <x:c r="C6" s="8"/>
-      <x:c r="D6" s="9"/>
+      <x:c r="D6" s="10" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="E6" s="9"/>
     </x:row>
     <x:row r="7" spans="2:5">

--- a/2021_Summer/jp.hong/Datebook_jph.xlsx
+++ b/2021_Summer/jp.hong/Datebook_jph.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8592"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="8568"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Datebook" sheetId="1" r:id="rId4"/>
@@ -19,41 +19,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
-  <x:si>
-    <x:t>1. 아이디어 도출
-2. 최종 아이디어 선정
-3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 현장실습 OT
- - 기업 소개 및 업무 설명
- - 앞으로 수행하게 될 프로젝트 설명
-2. 기존에 진행했던 캡스톤프로젝트 첨언
- - 목적 : 만든 APP -&gt; 설문{질환, 관심사} -&gt; 영양제 추천,      약먹는 시간, 약국DISP
- - 방법 : 아이디어 수집, 설문(요구사항), 구현, 기능추가)
- - 제품의 질을 높이기 위해서는 체계적인 절차가 필요함
-2-1) 제품 기획  {시장성 -&gt; 시장조사 
-                {생산 -&gt; 빌드시스템(릴리즈)
-                { 마케팅 -&gt; 판매전략
-2-2) 개발 기획  { ex : 기능 구현 방법, UI/UX, 디자인
-2-3) 개발 설계  { ex : Flow chart, DB구성, 언어, 시스템 아키텍쳐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09:00
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06.22, 06.23 회의록 작성
-2. Git 환경 설정
-3. Git 설정 화면 캡처 및 보고서 작성
-4. 캡스톤 아이디어 도출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-1. Datebook Comment 부분 요약
-1-2. PPT 머릿글 요약 작성
-1-3. GIT 보고서 다시 작성
-2. 파일명 수정 (코딩 표준 - 변수 명명법)</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+  <x:si>
+    <x:t>1. DateBook_Comment 부분 수정
+2. GIT보고서 수정
+ - 설치 과정 추가
+ - 명령어 부분 내용 추가
+3. PPT 머릿글 요약 작성 - (미완)</x:t>
   </x:si>
   <x:si>
     <x:t>1. 아이디어 도출
@@ -61,27 +33,23 @@
  - 주차시 사고발생 알림 앱
 2. 주제 아이디어 최종 선정
  - 차량 관리 어플
-3. 개발 계획서 및 요구사항 작성 (미완)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:30
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 계약서 작성
-2. 현장실습 오리엔테이션</x:t>
+3. 개발 계획서 및 요구사항 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 현장실습 OT
+ - 기업 소개 및 업무 설명
+ - 앞으로 수행하게 될 프로젝트 설명
+2. 기존에 진행했던 캡스톤프로젝트 첨언
+3. 제품 개발 과정 설명
+ - 제품 기획 
+ - 개발 기획  
+ - 개발 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06.22, 06.23 회의록 작성
+2. Git 환경 설정
+3. Git 설정 화면 캡처 및 보고서 작성
+4. 캡스톤 아이디어 도출</x:t>
   </x:si>
   <x:si>
     <x:t>1. 실습 환경 설정 및 설명
@@ -90,9 +58,51 @@
 2. 06.22, 06.23 회의록 작성
 3. Git 단순 명령어 정리 ppt 파일 작성
 4. 아이디어 도출
-   └ 식단 관리 어플
-   └ 원격 벨소리/진동 변경
-   └ 차량 관리 어플</x:t>
+ - 식단 관리 어플
+ - 원격 벨소리/진동 변경
+ - 차량 관리 어플</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:30
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09:00
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+2. 최종 아이디어 선정
+3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 계약서 작성
+2. 현장실습 오리엔테이션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-1. Datebook Comment 부분 요약 (완)
+1-2. GIT 보고서 다시 작성 (완)
+1-3. PPT 머릿글 요약 작성
+1-4. 파일명 수정 (완)
+1-5 최종 아이디어 선정 이유 작성
+2. 요구사항 수집 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-1. PPT 머릿글 보완
+1-2. 교통사고 그래프 검색
+1-3. 최종 아이디어 선정 이유 보완</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -247,7 +257,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="16">
+  <x:cellXfs count="17">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -369,19 +379,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="20" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -393,6 +390,22 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="58" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
@@ -1098,8 +1111,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B2:E31"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="G6" activeCellId="0" sqref="G6:G6"/>
+    <x:sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="E5" activeCellId="0" sqref="E5:E5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.199999999999999"/>
@@ -1115,76 +1128,82 @@
     <x:row r="1" ht="6.5999999999999996" customHeight="1"/>
     <x:row r="2" spans="2:5" ht="31.199999999999999" customHeight="1">
       <x:c r="B2" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C2" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D2" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E2" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="2:5" ht="105.75">
+      <x:c r="B3" s="6">
+        <x:v>44369</x:v>
+      </x:c>
+      <x:c r="C3" s="13" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C2" s="4" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D2" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E2" s="5" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="2:5" ht="184.80000000000001">
-      <x:c r="B3" s="6">
-        <x:v>44004</x:v>
-      </x:c>
-      <x:c r="C3" s="14" t="s">
+      <x:c r="D3" s="7" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E3" s="7" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D3" s="7" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E3" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
     </x:row>
     <x:row r="4" spans="2:5" ht="118.55">
-      <x:c r="B4" s="11">
-        <x:v>44005</x:v>
+      <x:c r="B4" s="6">
+        <x:v>44370</x:v>
       </x:c>
       <x:c r="C4" s="12" t="s">
-        <x:v>2</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D4" s="10" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E4" s="10" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="2:5" ht="92.200000000000003">
-      <x:c r="B5" s="11">
-        <x:v>44006</x:v>
-      </x:c>
-      <x:c r="C5" s="15" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="2:5" ht="79.049999999999997">
+      <x:c r="B5" s="6">
+        <x:v>44371</x:v>
+      </x:c>
+      <x:c r="C5" s="14" t="s">
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D5" s="10" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E5" s="10" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="2:5" ht="79.049999999999997">
+      <x:c r="B6" s="6">
+        <x:v>44372</x:v>
+      </x:c>
+      <x:c r="C6" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D6" s="10" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E6" s="15" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E5" s="10" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="2:5" ht="52.700000000000003">
-      <x:c r="B6" s="11">
-        <x:v>44007</x:v>
-      </x:c>
-      <x:c r="C6" s="13">
-        <x:v>0.35416666666666669</x:v>
-      </x:c>
-      <x:c r="D6" s="10" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E6" s="9"/>
-    </x:row>
-    <x:row r="7" spans="2:5">
-      <x:c r="B7" s="8"/>
+    </x:row>
+    <x:row r="7" spans="2:5" ht="39.549999999999997">
+      <x:c r="B7" s="11">
+        <x:v>44375</x:v>
+      </x:c>
       <x:c r="C7" s="8"/>
-      <x:c r="D7" s="9"/>
+      <x:c r="D7" s="10" t="s">
+        <x:v>14</x:v>
+      </x:c>
       <x:c r="E7" s="9"/>
     </x:row>
     <x:row r="8" spans="2:5">

--- a/2021_Summer/jp.hong/Datebook_jph.xlsx
+++ b/2021_Summer/jp.hong/Datebook_jph.xlsx
@@ -19,7 +19,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+  <x:si>
+    <x:t>1. 06.22, 06.23 회의록 작성
+2. Git 환경 설정
+3. Git 설정 화면 캡처 및 보고서 작성
+4. 캡스톤 아이디어 도출</x:t>
+  </x:si>
   <x:si>
     <x:t>1. DateBook_Comment 부분 수정
 2. GIT보고서 수정
@@ -46,10 +52,24 @@
  - 개발 설계</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 06.22, 06.23 회의록 작성
-2. Git 환경 설정
-3. Git 설정 화면 캡처 및 보고서 작성
-4. 캡스톤 아이디어 도출</x:t>
+    <x:t>1-1. Datebook Comment 부분 요약
+1-2. GIT 보고서 다시 작성
+1-3. PPT 머릿글 요약 작성
+1-4. 파일명 수정
+1-5 최종 아이디어 선정 이유 작성
+2. 요구사항 수집 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment</x:t>
   </x:si>
   <x:si>
     <x:t>1. 실습 환경 설정 및 설명
@@ -63,46 +83,37 @@
  - 차량 관리 어플</x:t>
   </x:si>
   <x:si>
-    <x:t>Comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:30
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09:00
-18:00</x:t>
-  </x:si>
-  <x:si>
     <x:t>1. 아이디어 도출
 2. 최종 아이디어 선정
 3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
   </x:si>
   <x:si>
+    <x:t>08:30
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09:00
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 진행사항 체크 및 2주차 목표 설정
+2. 06.28 회의록 작성
+3. 상용화 된 타 앱 기능 분석
+4. 요구사항 정의
+ - 회원가입, DB, 무결성 (미완)
+5. vi사용법 설명</x:t>
+  </x:si>
+  <x:si>
     <x:t>1. 계약서 작성
 2. 현장실습 오리엔테이션</x:t>
   </x:si>
   <x:si>
-    <x:t>1-1. Datebook Comment 부분 요약 (완)
-1-2. GIT 보고서 다시 작성 (완)
-1-3. PPT 머릿글 요약 작성
-1-4. 파일명 수정 (완)
-1-5 최종 아이디어 선정 이유 작성
-2. 요구사항 수집 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-1. PPT 머릿글 보완
-1-2. 교통사고 그래프 검색
-1-3. 최종 아이디어 선정 이유 보완</x:t>
+    <x:t>1. vi 명령어 설명서 작성
+2. 요구사항 정의 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06.28 회의록 작성
+2. 요구사항 정의 및 분석</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -145,12 +156,28 @@
       <x:sz val="10"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ffffffff"/>
-      <x:b val="1"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ffffffff"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ffffffff"/>
+          <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:fonts>
   <x:fills count="3">
     <x:fill>
@@ -257,7 +284,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="17">
+  <x:cellXfs count="18">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -415,6 +442,19 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
@@ -1111,8 +1151,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B2:E31"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E5" activeCellId="0" sqref="E5:E5"/>
+    <x:sheetView tabSelected="1" topLeftCell="C4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="D7" activeCellId="0" sqref="D7:D7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.199999999999999"/>
@@ -1134,10 +1174,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D2" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E2" s="5" t="s">
         <x:v>8</x:v>
-      </x:c>
-      <x:c r="E2" s="5" t="s">
-        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:5" ht="105.75">
@@ -1145,13 +1185,13 @@
         <x:v>44369</x:v>
       </x:c>
       <x:c r="C3" s="13" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D3" s="7" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E3" s="7" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:5" ht="118.55">
@@ -1159,13 +1199,13 @@
         <x:v>44370</x:v>
       </x:c>
       <x:c r="C4" s="12" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D4" s="10" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E4" s="10" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:5" ht="79.049999999999997">
@@ -1173,13 +1213,13 @@
         <x:v>44371</x:v>
       </x:c>
       <x:c r="C5" s="14" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D5" s="10" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E5" s="10" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:5" ht="79.049999999999997">
@@ -1187,29 +1227,35 @@
         <x:v>44372</x:v>
       </x:c>
       <x:c r="C6" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D6" s="10" t="s">
-        <x:v>13</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E6" s="15" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="2:5" ht="39.549999999999997">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="2:5" ht="79.049999999999997">
       <x:c r="B7" s="11">
         <x:v>44375</x:v>
       </x:c>
-      <x:c r="C7" s="8"/>
+      <x:c r="C7" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
       <x:c r="D7" s="10" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E7" s="9"/>
-    </x:row>
-    <x:row r="8" spans="2:5">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E7" s="10" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="2:5" ht="26.350000000000001">
       <x:c r="B8" s="8"/>
       <x:c r="C8" s="8"/>
-      <x:c r="D8" s="9"/>
+      <x:c r="D8" s="10" t="s">
+        <x:v>15</x:v>
+      </x:c>
       <x:c r="E8" s="9"/>
     </x:row>
     <x:row r="9" spans="2:5">

--- a/2021_Summer/jp.hong/Datebook_jph.xlsx
+++ b/2021_Summer/jp.hong/Datebook_jph.xlsx
@@ -19,12 +19,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
-  <x:si>
-    <x:t>1. 06.22, 06.23 회의록 작성
-2. Git 환경 설정
-3. Git 설정 화면 캡처 및 보고서 작성
-4. 캡스톤 아이디어 도출</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+  <x:si>
+    <x:t>1. 진행사항 체크 및 2주차 목표 설정
+2. 06.28 회의록 작성
+3. 상용화 된 타 앱 기능 분석
+4. 요구사항 정의
+ - 회원가입, DB, 무결성 (미완)
+5. vi사용법 설명</x:t>
   </x:si>
   <x:si>
     <x:t>1. DateBook_Comment 부분 수정
@@ -42,16 +44,6 @@
 3. 개발 계획서 및 요구사항 작성</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 현장실습 OT
- - 기업 소개 및 업무 설명
- - 앞으로 수행하게 될 프로젝트 설명
-2. 기존에 진행했던 캡스톤프로젝트 첨언
-3. 제품 개발 과정 설명
- - 제품 기획 
- - 개발 기획  
- - 개발 설계</x:t>
-  </x:si>
-  <x:si>
     <x:t>1-1. Datebook Comment 부분 요약
 1-2. GIT 보고서 다시 작성
 1-3. PPT 머릿글 요약 작성
@@ -60,16 +52,10 @@
 2. 요구사항 수집 및 분석</x:t>
   </x:si>
   <x:si>
-    <x:t>Goal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comment</x:t>
+    <x:t>1. 06.22, 06.23 회의록 작성
+2. Git 환경 설정
+3. Git 설정 화면 캡처 및 보고서 작성
+4. 캡스톤 아이디어 도출</x:t>
   </x:si>
   <x:si>
     <x:t>1. 실습 환경 설정 및 설명
@@ -83,37 +69,60 @@
  - 차량 관리 어플</x:t>
   </x:si>
   <x:si>
+    <x:t>1. 현장실습 OT
+ - 기업 소개 및 업무 설명
+ - 앞으로 수행하게 될 프로젝트 설명
+2. 기존에 진행했던 캡스톤프로젝트 첨언
+3. 제품 개발 과정 설명
+ - 제품 기획 
+ - 개발 기획  
+ - 개발 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:30
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09:00
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. vi 명령어 설명서 작성
+2. 요구사항 정의 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment</x:t>
+  </x:si>
+  <x:si>
     <x:t>1. 아이디어 도출
 2. 최종 아이디어 선정
 3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
   </x:si>
   <x:si>
-    <x:t>08:30
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09:00
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 진행사항 체크 및 2주차 목표 설정
-2. 06.28 회의록 작성
-3. 상용화 된 타 앱 기능 분석
-4. 요구사항 정의
- - 회원가입, DB, 무결성 (미완)
-5. vi사용법 설명</x:t>
+    <x:t>1. 06.28 회의록 작성
+2. 요구사항 정의 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 정의 및 분석 - 체계화</x:t>
   </x:si>
   <x:si>
     <x:t>1. 계약서 작성
 2. 현장실습 오리엔테이션</x:t>
   </x:si>
   <x:si>
-    <x:t>1. vi 명령어 설명서 작성
-2. 요구사항 정의 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06.28 회의록 작성
-2. 요구사항 정의 및 분석</x:t>
+    <x:t>1. vi 명령어 설명서 작성 완료
+2. 요구사항 정의 및 분류
+ - 기능적 요구사항
+ - 비기능적 요구사항</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -156,28 +165,12 @@
       <x:sz val="10"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ffffffff"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ffffffff"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ffffffff"/>
+      <x:b val="1"/>
+    </x:font>
   </x:fonts>
   <x:fills count="3">
     <x:fill>
@@ -284,7 +277,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="18">
+  <x:cellXfs count="20">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -456,6 +449,32 @@
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1149,10 +1168,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="B2:E31"/>
+  <x:dimension ref="B2:E36"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="C4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D7" activeCellId="0" sqref="D7:D7"/>
+      <x:selection activeCell="D6" activeCellId="0" sqref="D6:D6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.199999999999999"/>
@@ -1168,16 +1187,16 @@
     <x:row r="1" ht="6.5999999999999996" customHeight="1"/>
     <x:row r="2" spans="2:5" ht="31.199999999999999" customHeight="1">
       <x:c r="B2" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:5" ht="105.75">
@@ -1185,13 +1204,13 @@
         <x:v>44369</x:v>
       </x:c>
       <x:c r="C3" s="13" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D3" s="7" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E3" s="7" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:5" ht="118.55">
@@ -1199,13 +1218,13 @@
         <x:v>44370</x:v>
       </x:c>
       <x:c r="C4" s="12" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D4" s="10" t="s">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E4" s="10" t="s">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:5" ht="79.049999999999997">
@@ -1213,10 +1232,10 @@
         <x:v>44371</x:v>
       </x:c>
       <x:c r="C5" s="14" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D5" s="10" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E5" s="10" t="s">
         <x:v>2</x:v>
@@ -1227,10 +1246,10 @@
         <x:v>44372</x:v>
       </x:c>
       <x:c r="C6" s="16" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D6" s="10" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E6" s="15" t="s">
         <x:v>1</x:v>
@@ -1241,160 +1260,229 @@
         <x:v>44375</x:v>
       </x:c>
       <x:c r="C7" s="17" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D7" s="10" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E7" s="10" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="2:5" ht="52.700000000000003">
+      <x:c r="B8" s="11">
+        <x:v>44376</x:v>
+      </x:c>
+      <x:c r="C8" s="18" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D8" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E8" s="10" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="2:5">
+      <x:c r="B9" s="11">
+        <x:v>44377</x:v>
+      </x:c>
+      <x:c r="C9" s="8"/>
+      <x:c r="D9" s="10" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="E7" s="10" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="2:5" ht="26.350000000000001">
-      <x:c r="B8" s="8"/>
-      <x:c r="C8" s="8"/>
-      <x:c r="D8" s="10" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E8" s="9"/>
-    </x:row>
-    <x:row r="9" spans="2:5">
-      <x:c r="B9" s="8"/>
-      <x:c r="C9" s="8"/>
-      <x:c r="D9" s="9"/>
       <x:c r="E9" s="9"/>
     </x:row>
     <x:row r="10" spans="2:5">
-      <x:c r="B10" s="8"/>
+      <x:c r="B10" s="11">
+        <x:v>44378</x:v>
+      </x:c>
       <x:c r="C10" s="8"/>
       <x:c r="D10" s="9"/>
       <x:c r="E10" s="9"/>
     </x:row>
     <x:row r="11" spans="2:5">
-      <x:c r="B11" s="8"/>
+      <x:c r="B11" s="11">
+        <x:v>44379</x:v>
+      </x:c>
       <x:c r="C11" s="8"/>
       <x:c r="D11" s="9"/>
       <x:c r="E11" s="9"/>
     </x:row>
     <x:row r="12" spans="2:5">
-      <x:c r="B12" s="8"/>
+      <x:c r="B12" s="11">
+        <x:v>44382</x:v>
+      </x:c>
       <x:c r="C12" s="8"/>
       <x:c r="D12" s="9"/>
       <x:c r="E12" s="9"/>
     </x:row>
     <x:row r="13" spans="2:5">
-      <x:c r="B13" s="8"/>
+      <x:c r="B13" s="11">
+        <x:v>44383</x:v>
+      </x:c>
       <x:c r="C13" s="8"/>
       <x:c r="D13" s="9"/>
       <x:c r="E13" s="9"/>
     </x:row>
     <x:row r="14" spans="2:5">
-      <x:c r="B14" s="8"/>
+      <x:c r="B14" s="11">
+        <x:v>44384</x:v>
+      </x:c>
       <x:c r="C14" s="8"/>
       <x:c r="D14" s="9"/>
       <x:c r="E14" s="9"/>
     </x:row>
     <x:row r="15" spans="2:5">
-      <x:c r="B15" s="8"/>
+      <x:c r="B15" s="11">
+        <x:v>44385</x:v>
+      </x:c>
       <x:c r="C15" s="8"/>
       <x:c r="D15" s="9"/>
       <x:c r="E15" s="9"/>
     </x:row>
     <x:row r="16" spans="2:5">
-      <x:c r="B16" s="8"/>
+      <x:c r="B16" s="11">
+        <x:v>44386</x:v>
+      </x:c>
       <x:c r="C16" s="8"/>
       <x:c r="D16" s="9"/>
       <x:c r="E16" s="9"/>
     </x:row>
     <x:row r="17" spans="2:5">
-      <x:c r="B17" s="8"/>
+      <x:c r="B17" s="11">
+        <x:v>44389</x:v>
+      </x:c>
       <x:c r="C17" s="8"/>
       <x:c r="D17" s="9"/>
       <x:c r="E17" s="9"/>
     </x:row>
     <x:row r="18" spans="2:5">
-      <x:c r="B18" s="8"/>
+      <x:c r="B18" s="11">
+        <x:v>44390</x:v>
+      </x:c>
       <x:c r="C18" s="8"/>
       <x:c r="D18" s="9"/>
       <x:c r="E18" s="9"/>
     </x:row>
     <x:row r="19" spans="2:5">
-      <x:c r="B19" s="8"/>
+      <x:c r="B19" s="11">
+        <x:v>44391</x:v>
+      </x:c>
       <x:c r="C19" s="8"/>
       <x:c r="D19" s="9"/>
       <x:c r="E19" s="9"/>
     </x:row>
     <x:row r="20" spans="2:5">
-      <x:c r="B20" s="8"/>
+      <x:c r="B20" s="11">
+        <x:v>44392</x:v>
+      </x:c>
       <x:c r="C20" s="8"/>
       <x:c r="D20" s="9"/>
       <x:c r="E20" s="9"/>
     </x:row>
     <x:row r="21" spans="2:5">
-      <x:c r="B21" s="8"/>
+      <x:c r="B21" s="11">
+        <x:v>44393</x:v>
+      </x:c>
       <x:c r="C21" s="8"/>
       <x:c r="D21" s="9"/>
       <x:c r="E21" s="9"/>
     </x:row>
     <x:row r="22" spans="2:5">
-      <x:c r="B22" s="8"/>
+      <x:c r="B22" s="11">
+        <x:v>44396</x:v>
+      </x:c>
       <x:c r="C22" s="8"/>
       <x:c r="D22" s="9"/>
       <x:c r="E22" s="9"/>
     </x:row>
     <x:row r="23" spans="2:5">
-      <x:c r="B23" s="8"/>
+      <x:c r="B23" s="11">
+        <x:v>44397</x:v>
+      </x:c>
       <x:c r="C23" s="8"/>
       <x:c r="D23" s="9"/>
       <x:c r="E23" s="9"/>
     </x:row>
     <x:row r="24" spans="2:5">
-      <x:c r="B24" s="8"/>
+      <x:c r="B24" s="11">
+        <x:v>44398</x:v>
+      </x:c>
       <x:c r="C24" s="8"/>
       <x:c r="D24" s="9"/>
       <x:c r="E24" s="9"/>
     </x:row>
     <x:row r="25" spans="2:5">
-      <x:c r="B25" s="8"/>
+      <x:c r="B25" s="11">
+        <x:v>44399</x:v>
+      </x:c>
       <x:c r="C25" s="8"/>
       <x:c r="D25" s="9"/>
       <x:c r="E25" s="9"/>
     </x:row>
     <x:row r="26" spans="2:5">
-      <x:c r="B26" s="8"/>
+      <x:c r="B26" s="11">
+        <x:v>44400</x:v>
+      </x:c>
       <x:c r="C26" s="8"/>
       <x:c r="D26" s="9"/>
       <x:c r="E26" s="9"/>
     </x:row>
     <x:row r="27" spans="2:5">
-      <x:c r="B27" s="8"/>
+      <x:c r="B27" s="11">
+        <x:v>44403</x:v>
+      </x:c>
       <x:c r="C27" s="8"/>
       <x:c r="D27" s="9"/>
       <x:c r="E27" s="9"/>
     </x:row>
     <x:row r="28" spans="2:5">
-      <x:c r="B28" s="8"/>
+      <x:c r="B28" s="11">
+        <x:v>44404</x:v>
+      </x:c>
       <x:c r="C28" s="8"/>
       <x:c r="D28" s="9"/>
       <x:c r="E28" s="9"/>
     </x:row>
     <x:row r="29" spans="2:5">
-      <x:c r="B29" s="8"/>
+      <x:c r="B29" s="11">
+        <x:v>44405</x:v>
+      </x:c>
       <x:c r="C29" s="8"/>
       <x:c r="D29" s="9"/>
       <x:c r="E29" s="9"/>
     </x:row>
     <x:row r="30" spans="2:5">
-      <x:c r="B30" s="8"/>
+      <x:c r="B30" s="11">
+        <x:v>44406</x:v>
+      </x:c>
       <x:c r="C30" s="8"/>
       <x:c r="D30" s="9"/>
       <x:c r="E30" s="9"/>
     </x:row>
     <x:row r="31" spans="2:5">
-      <x:c r="B31" s="8"/>
+      <x:c r="B31" s="11">
+        <x:v>44407</x:v>
+      </x:c>
       <x:c r="C31" s="8"/>
       <x:c r="D31" s="9"/>
       <x:c r="E31" s="9"/>
+    </x:row>
+    <x:row r="32" spans="2:2">
+      <x:c r="B32" s="19"/>
+    </x:row>
+    <x:row r="33" spans="2:2">
+      <x:c r="B33" s="19"/>
+    </x:row>
+    <x:row r="34" spans="2:2">
+      <x:c r="B34" s="19"/>
+    </x:row>
+    <x:row r="35" spans="2:2">
+      <x:c r="B35" s="19"/>
+    </x:row>
+    <x:row r="36" spans="2:2">
+      <x:c r="B36" s="19"/>
     </x:row>
   </x:sheetData>
   <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/2021_Summer/jp.hong/Datebook_jph.xlsx
+++ b/2021_Summer/jp.hong/Datebook_jph.xlsx
@@ -19,43 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
-  <x:si>
-    <x:t>1. 진행사항 체크 및 2주차 목표 설정
-2. 06.28 회의록 작성
-3. 상용화 된 타 앱 기능 분석
-4. 요구사항 정의
- - 회원가입, DB, 무결성 (미완)
-5. vi사용법 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. DateBook_Comment 부분 수정
-2. GIT보고서 수정
- - 설치 과정 추가
- - 명령어 부분 내용 추가
-3. PPT 머릿글 요약 작성 - (미완)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
- - 컴퓨터 견적 추천 앱
- - 주차시 사고발생 알림 앱
-2. 주제 아이디어 최종 선정
- - 차량 관리 어플
-3. 개발 계획서 및 요구사항 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-1. Datebook Comment 부분 요약
-1-2. GIT 보고서 다시 작성
-1-3. PPT 머릿글 요약 작성
-1-4. 파일명 수정
-1-5 최종 아이디어 선정 이유 작성
-2. 요구사항 수집 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06.22, 06.23 회의록 작성
-2. Git 환경 설정
-3. Git 설정 화면 캡처 및 보고서 작성
-4. 캡스톤 아이디어 도출</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+  <x:si>
+    <x:t>1. 06_30 회의록 작성
+2. 요구사항 수정 및 관련 필요 자료 조사
+3. 15:00 ~ 지도교수 면담</x:t>
   </x:si>
   <x:si>
     <x:t>1. 실습 환경 설정 및 설명
@@ -69,6 +37,20 @@
  - 차량 관리 어플</x:t>
   </x:si>
   <x:si>
+    <x:t>1. 요구사항 수집 및 정의
+ - 관련 필요 자료 조사
+ - 기능적/ 비기능적 요구사항 내용 추가
+2. 개발에 필요한 요구사항 분석 (실현성 확인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-1. Datebook Comment 부분 요약
+1-2. GIT 보고서 다시 작성
+1-3. PPT 머릿글 요약 작성
+1-4. 파일명 수정
+1-5 최종 아이디어 선정 이유 작성
+2. 요구사항 수집 및 분석</x:t>
+  </x:si>
+  <x:si>
     <x:t>1. 현장실습 OT
  - 기업 소개 및 업무 설명
  - 앞으로 수행하게 될 프로젝트 설명
@@ -79,50 +61,107 @@
  - 개발 설계</x:t>
   </x:si>
   <x:si>
+    <x:t>1. vi 명령어 설명서 작성
+2. 요구사항 정의 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. DateBook_Comment 부분 수정
+2. GIT보고서 수정
+ - 설치 과정 추가
+ - 명령어 부분 내용 추가
+3. PPT 머릿글 요약 작성 - (미완)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+ - 컴퓨터 견적 추천 앱
+ - 주차시 사고발생 알림 앱
+2. 주제 아이디어 최종 선정
+ - 차량 관리 어플
+3. 개발 계획서 및 요구사항 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 진행사항 체크 및 2주차 목표 설정
+2. 06.28 회의록 작성
+3. 상용화 된 타 앱 기능 분석
+4. 요구사항 정의
+ - 회원가입, DB, 무결성 (미완)
+5. vi사용법 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 분석
+2. 요구사항 검증</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:32
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:23
+15:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09:00
+18:00</x:t>
+  </x:si>
+  <x:si>
     <x:t>08:30
 18:00</x:t>
   </x:si>
   <x:si>
-    <x:t>09:00
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. vi 명령어 설명서 작성
-2. 요구사항 정의 및 분석</x:t>
+    <x:t>08:36
+18:07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:27
+18:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 수집 및 정의
+2. 요구사항 분석
+3. 구현 가능 여부 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment</x:t>
   </x:si>
   <x:si>
     <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
-2. 최종 아이디어 선정
-3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06.28 회의록 작성
-2. 요구사항 정의 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 정의 및 분석 - 체계화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 계약서 작성
-2. 현장실습 오리엔테이션</x:t>
   </x:si>
   <x:si>
     <x:t>1. vi 명령어 설명서 작성 완료
 2. 요구사항 정의 및 분류
  - 기능적 요구사항
  - 비기능적 요구사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+2. 최종 아이디어 선정
+3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 정의 및 분석 - 체계화
+ - 기능 / 비기능적 요구사항 분류 및 수정
+2. 요구사항 분석
+3. 구현 가능 여부 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06.22, 06.23 회의록 작성
+2. Git 환경 설정
+3. Git 설정 화면 캡처 및 보고서 작성
+4. 캡스톤 아이디어 도출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06.28 회의록 작성
+2. 요구사항 정의 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 계약서 작성
+2. 현장실습 오리엔테이션</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -165,12 +204,28 @@
       <x:sz val="10"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ffffffff"/>
-      <x:b val="1"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ffffffff"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ffffffff"/>
+          <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:fonts>
   <x:fills count="3">
     <x:fill>
@@ -441,6 +496,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -454,27 +522,14 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1170,8 +1225,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B2:E36"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="C4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D6" activeCellId="0" sqref="D6:D6"/>
+    <x:sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="E22" activeCellId="0" sqref="E22:E22"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.199999999999999"/>
@@ -1187,16 +1242,16 @@
     <x:row r="1" ht="6.5999999999999996" customHeight="1"/>
     <x:row r="2" spans="2:5" ht="31.199999999999999" customHeight="1">
       <x:c r="B2" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D2" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E2" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:5" ht="105.75">
@@ -1204,13 +1259,13 @@
         <x:v>44369</x:v>
       </x:c>
       <x:c r="C3" s="13" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D3" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E3" s="7" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:5" ht="118.55">
@@ -1218,13 +1273,13 @@
         <x:v>44370</x:v>
       </x:c>
       <x:c r="C4" s="12" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D4" s="10" t="s">
-        <x:v>4</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E4" s="10" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:5" ht="79.049999999999997">
@@ -1232,13 +1287,13 @@
         <x:v>44371</x:v>
       </x:c>
       <x:c r="C5" s="14" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D5" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E5" s="10" t="s">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="D5" s="10" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E5" s="10" t="s">
-        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:5" ht="79.049999999999997">
@@ -1246,67 +1301,79 @@
         <x:v>44372</x:v>
       </x:c>
       <x:c r="C6" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D6" s="10" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E6" s="15" t="s">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:5" ht="79.049999999999997">
       <x:c r="B7" s="11">
         <x:v>44375</x:v>
       </x:c>
-      <x:c r="C7" s="17" t="s">
-        <x:v>7</x:v>
+      <x:c r="C7" s="12" t="s">
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D7" s="10" t="s">
-        <x:v>15</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E7" s="10" t="s">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:5" ht="52.700000000000003">
       <x:c r="B8" s="11">
         <x:v>44376</x:v>
       </x:c>
-      <x:c r="C8" s="18" t="s">
-        <x:v>7</x:v>
+      <x:c r="C8" s="12" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D8" s="10" t="s">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E8" s="10" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="2:5">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="2:5" ht="52.700000000000003">
       <x:c r="B9" s="11">
         <x:v>44377</x:v>
       </x:c>
-      <x:c r="C9" s="8"/>
+      <x:c r="C9" s="18" t="s">
+        <x:v>11</x:v>
+      </x:c>
       <x:c r="D9" s="10" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E9" s="9"/>
-    </x:row>
-    <x:row r="10" spans="2:5">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E9" s="10" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="2:5" ht="52.700000000000003">
       <x:c r="B10" s="11">
         <x:v>44378</x:v>
       </x:c>
-      <x:c r="C10" s="8"/>
-      <x:c r="D10" s="9"/>
-      <x:c r="E10" s="9"/>
-    </x:row>
-    <x:row r="11" spans="2:5">
+      <x:c r="C10" s="19" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D10" s="10" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E10" s="10" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="2:5" ht="26.350000000000001">
       <x:c r="B11" s="11">
         <x:v>44379</x:v>
       </x:c>
       <x:c r="C11" s="8"/>
-      <x:c r="D11" s="9"/>
+      <x:c r="D11" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
       <x:c r="E11" s="9"/>
     </x:row>
     <x:row r="12" spans="2:5">
@@ -1470,19 +1537,19 @@
       <x:c r="E31" s="9"/>
     </x:row>
     <x:row r="32" spans="2:2">
-      <x:c r="B32" s="19"/>
+      <x:c r="B32" s="17"/>
     </x:row>
     <x:row r="33" spans="2:2">
-      <x:c r="B33" s="19"/>
+      <x:c r="B33" s="17"/>
     </x:row>
     <x:row r="34" spans="2:2">
-      <x:c r="B34" s="19"/>
+      <x:c r="B34" s="17"/>
     </x:row>
     <x:row r="35" spans="2:2">
-      <x:c r="B35" s="19"/>
+      <x:c r="B35" s="17"/>
     </x:row>
     <x:row r="36" spans="2:2">
-      <x:c r="B36" s="19"/>
+      <x:c r="B36" s="17"/>
     </x:row>
   </x:sheetData>
   <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/2021_Summer/jp.hong/Datebook_jph.xlsx
+++ b/2021_Summer/jp.hong/Datebook_jph.xlsx
@@ -21,9 +21,63 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <x:si>
-    <x:t>1. 06_30 회의록 작성
-2. 요구사항 수정 및 관련 필요 자료 조사
-3. 15:00 ~ 지도교수 면담</x:t>
+    <x:t>1. DateBook_Comment 부분 수정
+2. GIT보고서 수정
+ - 설치 과정 추가
+ - 명령어 부분 내용 추가
+3. PPT 머릿글 요약 작성 - (미완)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+ - 컴퓨터 견적 추천 앱
+ - 주차시 사고발생 알림 앱
+2. 주제 아이디어 최종 선정
+ - 차량 관리 어플
+3. 개발 계획서 및 요구사항 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-1. Datebook Comment 부분 요약
+1-2. GIT 보고서 다시 작성
+1-3. PPT 머릿글 요약 작성
+1-4. 파일명 수정
+1-5 최종 아이디어 선정 이유 작성
+2. 요구사항 수집 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 현장실습 OT
+ - 기업 소개 및 업무 설명
+ - 앞으로 수행하게 될 프로젝트 설명
+2. 기존에 진행했던 캡스톤프로젝트 첨언
+3. 제품 개발 과정 설명
+ - 제품 기획 
+ - 개발 기획  
+ - 개발 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. vi 명령어 설명서 작성 완료
+2. 요구사항 정의 및 분류
+ - 기능적 요구사항
+ - 비기능적 요구사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06.22, 06.23 회의록 작성
+2. Git 환경 설정
+3. Git 설정 화면 캡처 및 보고서 작성
+4. 캡스톤 아이디어 도출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 정의 및 분석 - 체계화
+ - 기능 / 비기능적 요구사항 분류 및 수정
+2. 요구사항 분석
+3. 구현 가능 여부 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 진행사항 체크 및 2주차 목표 설정
+2. 06.28 회의록 작성
+3. 상용화 된 타 앱 기능 분석
+4. 요구사항 정의
+ - 회원가입, DB, 무결성 (미완)
+5. vi사용법 설명</x:t>
   </x:si>
   <x:si>
     <x:t>1. 실습 환경 설정 및 설명
@@ -37,59 +91,46 @@
  - 차량 관리 어플</x:t>
   </x:si>
   <x:si>
+    <x:t>1. vi 명령어 설명서 작성
+2. 요구사항 정의 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 수집 및 정의
+2. 요구사항 분석
+3. 구현 가능 여부 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+2. 최종 아이디어 선정
+3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06_30 회의록 작성
+2. 요구사항 수정 및 관련 필요 자료 조사
+3. 15:00 ~ 지도교수 면담</x:t>
+  </x:si>
+  <x:si>
     <x:t>1. 요구사항 수집 및 정의
  - 관련 필요 자료 조사
  - 기능적/ 비기능적 요구사항 내용 추가
 2. 개발에 필요한 요구사항 분석 (실현성 확인)</x:t>
   </x:si>
   <x:si>
-    <x:t>1-1. Datebook Comment 부분 요약
-1-2. GIT 보고서 다시 작성
-1-3. PPT 머릿글 요약 작성
-1-4. 파일명 수정
-1-5 최종 아이디어 선정 이유 작성
-2. 요구사항 수집 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 현장실습 OT
- - 기업 소개 및 업무 설명
- - 앞으로 수행하게 될 프로젝트 설명
-2. 기존에 진행했던 캡스톤프로젝트 첨언
-3. 제품 개발 과정 설명
- - 제품 기획 
- - 개발 기획  
- - 개발 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. vi 명령어 설명서 작성
-2. 요구사항 정의 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. DateBook_Comment 부분 수정
-2. GIT보고서 수정
- - 설치 과정 추가
- - 명령어 부분 내용 추가
-3. PPT 머릿글 요약 작성 - (미완)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
- - 컴퓨터 견적 추천 앱
- - 주차시 사고발생 알림 앱
-2. 주제 아이디어 최종 선정
- - 차량 관리 어플
-3. 개발 계획서 및 요구사항 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 진행사항 체크 및 2주차 목표 설정
-2. 06.28 회의록 작성
-3. 상용화 된 타 앱 기능 분석
-4. 요구사항 정의
- - 회원가입, DB, 무결성 (미완)
-5. vi사용법 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 분석
-2. 요구사항 검증</x:t>
+    <x:t>1. Git 목록 삭제
+2. 요구사항 분석
+3. 요구사항 검증</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:30
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09:00
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:36
+18:07</x:t>
   </x:si>
   <x:si>
     <x:t>08:32
@@ -100,64 +141,24 @@
 15:03</x:t>
   </x:si>
   <x:si>
-    <x:t>09:00
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:30
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:36
-18:07</x:t>
-  </x:si>
-  <x:si>
     <x:t>08:27
 18:05</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 요구사항 수집 및 정의
-2. 요구사항 분석
-3. 구현 가능 여부 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. vi 명령어 설명서 작성 완료
-2. 요구사항 정의 및 분류
- - 기능적 요구사항
- - 비기능적 요구사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
-2. 최종 아이디어 선정
-3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 정의 및 분석 - 체계화
- - 기능 / 비기능적 요구사항 분류 및 수정
-2. 요구사항 분석
-3. 구현 가능 여부 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06.22, 06.23 회의록 작성
-2. Git 환경 설정
-3. Git 설정 화면 캡처 및 보고서 작성
-4. 캡스톤 아이디어 도출</x:t>
-  </x:si>
-  <x:si>
     <x:t>1. 06.28 회의록 작성
 2. 요구사항 정의 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
   </x:si>
   <x:si>
     <x:t>1. 계약서 작성
@@ -204,28 +205,12 @@
       <x:sz val="10"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ffffffff"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ffffffff"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ffffffff"/>
+      <x:b val="1"/>
+    </x:font>
   </x:fonts>
   <x:fills count="3">
     <x:fill>
@@ -1226,7 +1211,7 @@
   <x:dimension ref="B2:E36"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E22" activeCellId="0" sqref="E22:E22"/>
+      <x:selection activeCell="D13" activeCellId="0" sqref="D13:D13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.199999999999999"/>
@@ -1242,16 +1227,16 @@
     <x:row r="1" ht="6.5999999999999996" customHeight="1"/>
     <x:row r="2" spans="2:5" ht="31.199999999999999" customHeight="1">
       <x:c r="B2" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D2" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E2" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:5" ht="105.75">
@@ -1259,13 +1244,13 @@
         <x:v>44369</x:v>
       </x:c>
       <x:c r="C3" s="13" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D3" s="7" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="E3" s="7" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:5" ht="118.55">
@@ -1273,13 +1258,13 @@
         <x:v>44370</x:v>
       </x:c>
       <x:c r="C4" s="12" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D4" s="10" t="s">
-        <x:v>24</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E4" s="10" t="s">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:5" ht="79.049999999999997">
@@ -1287,13 +1272,13 @@
         <x:v>44371</x:v>
       </x:c>
       <x:c r="C5" s="14" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D5" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="10" t="s">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:5" ht="79.049999999999997">
@@ -1301,13 +1286,13 @@
         <x:v>44372</x:v>
       </x:c>
       <x:c r="C6" s="16" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D6" s="10" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E6" s="15" t="s">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:5" ht="79.049999999999997">
@@ -1315,13 +1300,13 @@
         <x:v>44375</x:v>
       </x:c>
       <x:c r="C7" s="12" t="s">
-        <x:v>15</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D7" s="10" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="10" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:5" ht="52.700000000000003">
@@ -1329,13 +1314,13 @@
         <x:v>44376</x:v>
       </x:c>
       <x:c r="C8" s="12" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D8" s="10" t="s">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E8" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:5" ht="52.700000000000003">
@@ -1343,13 +1328,13 @@
         <x:v>44377</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
-        <x:v>11</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D9" s="10" t="s">
-        <x:v>23</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E9" s="10" t="s">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:5" ht="52.700000000000003">
@@ -1357,22 +1342,22 @@
         <x:v>44378</x:v>
       </x:c>
       <x:c r="C10" s="19" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D10" s="10" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D10" s="10" t="s">
-        <x:v>16</x:v>
-      </x:c>
       <x:c r="E10" s="10" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="2:5" ht="26.350000000000001">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="2:5" ht="39.549999999999997">
       <x:c r="B11" s="11">
         <x:v>44379</x:v>
       </x:c>
       <x:c r="C11" s="8"/>
       <x:c r="D11" s="10" t="s">
-        <x:v>9</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E11" s="9"/>
     </x:row>

--- a/2021_Summer/jp.hong/Datebook_jph.xlsx
+++ b/2021_Summer/jp.hong/Datebook_jph.xlsx
@@ -21,11 +21,35 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <x:si>
-    <x:t>1. DateBook_Comment 부분 수정
-2. GIT보고서 수정
- - 설치 과정 추가
- - 명령어 부분 내용 추가
-3. PPT 머릿글 요약 작성 - (미완)</x:t>
+    <x:t>1. 진행사항 체크 및 2주차 목표 설정
+2. 06.28 회의록 작성
+3. 상용화 된 타 앱 기능 분석
+4. 요구사항 정의
+ - 회원가입, DB, 무결성 (미완)
+5. vi사용법 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. vi 명령어 설명서 작성 완료
+2. 요구사항 정의 및 분류
+ - 기능적 요구사항
+ - 비기능적 요구사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Git 목록 삭제
+2. 요구사항 분석
+3. 요구사항 검증</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. vi 명령어 설명서 작성
+2. 요구사항 정의 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-1. Datebook Comment 부분 요약
+1-2. GIT 보고서 다시 작성
+1-3. PPT 머릿글 요약 작성
+1-4. 파일명 수정
+1-5 최종 아이디어 선정 이유 작성
+2. 요구사항 수집 및 분석</x:t>
   </x:si>
   <x:si>
     <x:t>1. 아이디어 도출
@@ -36,48 +60,35 @@
 3. 개발 계획서 및 요구사항 작성</x:t>
   </x:si>
   <x:si>
-    <x:t>1-1. Datebook Comment 부분 요약
-1-2. GIT 보고서 다시 작성
-1-3. PPT 머릿글 요약 작성
-1-4. 파일명 수정
-1-5 최종 아이디어 선정 이유 작성
-2. 요구사항 수집 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 현장실습 OT
- - 기업 소개 및 업무 설명
- - 앞으로 수행하게 될 프로젝트 설명
-2. 기존에 진행했던 캡스톤프로젝트 첨언
-3. 제품 개발 과정 설명
- - 제품 기획 
- - 개발 기획  
- - 개발 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. vi 명령어 설명서 작성 완료
-2. 요구사항 정의 및 분류
- - 기능적 요구사항
- - 비기능적 요구사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06.22, 06.23 회의록 작성
-2. Git 환경 설정
-3. Git 설정 화면 캡처 및 보고서 작성
-4. 캡스톤 아이디어 도출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 정의 및 분석 - 체계화
- - 기능 / 비기능적 요구사항 분류 및 수정
-2. 요구사항 분석
-3. 구현 가능 여부 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 진행사항 체크 및 2주차 목표 설정
-2. 06.28 회의록 작성
-3. 상용화 된 타 앱 기능 분석
-4. 요구사항 정의
- - 회원가입, DB, 무결성 (미완)
-5. vi사용법 설명</x:t>
+    <x:t>1. DateBook_Comment 부분 수정
+2. GIT보고서 수정
+ - 설치 과정 추가
+ - 명령어 부분 내용 추가
+3. PPT 머릿글 요약 작성 - (미완)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:32
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09:00
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:23
+15:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:36
+18:07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:30
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:27
+18:05</x:t>
   </x:si>
   <x:si>
     <x:t>1. 실습 환경 설정 및 설명
@@ -91,23 +102,48 @@
  - 차량 관리 어플</x:t>
   </x:si>
   <x:si>
-    <x:t>1. vi 명령어 설명서 작성
-2. 요구사항 정의 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 수집 및 정의
+    <x:t>1. 현장실습 OT
+ - 기업 소개 및 업무 설명
+ - 앞으로 수행하게 될 프로젝트 설명
+2. 기존에 진행했던 캡스톤프로젝트 첨언
+3. 제품 개발 과정 설명
+ - 제품 기획 
+ - 개발 기획  
+ - 개발 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06.22, 06.23 회의록 작성
+2. Git 환경 설정
+3. Git 설정 화면 캡처 및 보고서 작성
+4. 캡스톤 아이디어 도출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 정의 및 분석 - 체계화
+ - 기능 / 비기능적 요구사항 분류 및 수정
 2. 요구사항 분석
 3. 구현 가능 여부 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06_30 회의록 작성
+2. 요구사항 수정 및 관련 필요 자료 조사
+3. 15:00 ~ 지도교수 면담</x:t>
   </x:si>
   <x:si>
     <x:t>1. 아이디어 도출
 2. 최종 아이디어 선정
 3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06_30 회의록 작성
-2. 요구사항 수정 및 관련 필요 자료 조사
-3. 15:00 ~ 지도교수 면담</x:t>
   </x:si>
   <x:si>
     <x:t>1. 요구사항 수집 및 정의
@@ -116,49 +152,13 @@
 2. 개발에 필요한 요구사항 분석 (실현성 확인)</x:t>
   </x:si>
   <x:si>
-    <x:t>1. Git 목록 삭제
+    <x:t>1. 요구사항 수집 및 정의
 2. 요구사항 분석
-3. 요구사항 검증</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:30
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09:00
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:36
-18:07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:32
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:23
-15:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:27
-18:05</x:t>
+3. 구현 가능 여부 확인</x:t>
   </x:si>
   <x:si>
     <x:t>1. 06.28 회의록 작성
 2. 요구사항 정의 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date</x:t>
   </x:si>
   <x:si>
     <x:t>1. 계약서 작성
@@ -1211,7 +1211,7 @@
   <x:dimension ref="B2:E36"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D13" activeCellId="0" sqref="D13:D13"/>
+      <x:selection activeCell="C12" activeCellId="0" sqref="C12:C12"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.199999999999999"/>
@@ -1227,16 +1227,16 @@
     <x:row r="1" ht="6.5999999999999996" customHeight="1"/>
     <x:row r="2" spans="2:5" ht="31.199999999999999" customHeight="1">
       <x:c r="B2" s="3" t="s">
-        <x:v>25</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s">
-        <x:v>22</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D2" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E2" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:5" ht="105.75">
@@ -1244,13 +1244,13 @@
         <x:v>44369</x:v>
       </x:c>
       <x:c r="C3" s="13" t="s">
-        <x:v>16</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D3" s="7" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="E3" s="7" t="s">
-        <x:v>3</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:5" ht="118.55">
@@ -1258,13 +1258,13 @@
         <x:v>44370</x:v>
       </x:c>
       <x:c r="C4" s="12" t="s">
-        <x:v>16</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D4" s="10" t="s">
-        <x:v>5</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E4" s="10" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:5" ht="79.049999999999997">
@@ -1272,13 +1272,13 @@
         <x:v>44371</x:v>
       </x:c>
       <x:c r="C5" s="14" t="s">
-        <x:v>15</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D5" s="10" t="s">
-        <x:v>11</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E5" s="10" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:5" ht="79.049999999999997">
@@ -1286,13 +1286,13 @@
         <x:v>44372</x:v>
       </x:c>
       <x:c r="C6" s="16" t="s">
-        <x:v>15</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D6" s="10" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E6" s="15" t="s">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:5" ht="79.049999999999997">
@@ -1300,13 +1300,13 @@
         <x:v>44375</x:v>
       </x:c>
       <x:c r="C7" s="12" t="s">
-        <x:v>20</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D7" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E7" s="10" t="s">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:5" ht="52.700000000000003">
@@ -1314,13 +1314,13 @@
         <x:v>44376</x:v>
       </x:c>
       <x:c r="C8" s="12" t="s">
-        <x:v>17</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D8" s="10" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E8" s="10" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:5" ht="52.700000000000003">
@@ -1328,13 +1328,13 @@
         <x:v>44377</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
-        <x:v>19</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D9" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E9" s="10" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:5" ht="52.700000000000003">
@@ -1342,22 +1342,24 @@
         <x:v>44378</x:v>
       </x:c>
       <x:c r="C10" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D10" s="10" t="s">
-        <x:v>10</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E10" s="10" t="s">
-        <x:v>13</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:5" ht="39.549999999999997">
       <x:c r="B11" s="11">
         <x:v>44379</x:v>
       </x:c>
-      <x:c r="C11" s="8"/>
+      <x:c r="C11" s="14">
+        <x:v>0.35208333333333336</x:v>
+      </x:c>
       <x:c r="D11" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E11" s="9"/>
     </x:row>

--- a/2021_Summer/jp.hong/Datebook_jph.xlsx
+++ b/2021_Summer/jp.hong/Datebook_jph.xlsx
@@ -21,74 +21,93 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <x:si>
+    <x:t>1. 아이디어 도출
+ - 컴퓨터 견적 추천 앱
+ - 주차시 사고발생 알림 앱
+2. 주제 아이디어 최종 선정
+ - 차량 관리 어플
+3. 개발 계획서 및 요구사항 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. DateBook_Comment 부분 수정
+2. GIT보고서 수정
+ - 설치 과정 추가
+ - 명령어 부분 내용 추가
+3. PPT 머릿글 요약 작성 - (미완)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 수집 및 정의
+ - 관련 필요 자료 조사
+ - 기능적/ 비기능적 요구사항 내용 추가
+2. 개발에 필요한 요구사항 분석 (실현성 확인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 현장실습 OT
+ - 기업 소개 및 업무 설명
+ - 앞으로 수행하게 될 프로젝트 설명
+2. 기존에 진행했던 캡스톤프로젝트 첨언
+3. 제품 개발 과정 설명
+ - 제품 기획 
+ - 개발 기획  
+ - 개발 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-1. Datebook Comment 부분 요약
+1-2. GIT 보고서 다시 작성
+1-3. PPT 머릿글 요약 작성
+1-4. 파일명 수정
+1-5 최종 아이디어 선정 이유 작성
+2. 요구사항 수집 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Git 목록 삭제
+2. 요구사항 분석
+3. 요구사항 검증</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. vi 명령어 설명서 작성
+2. 요구사항 정의 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 정의 및 분석 - 체계화
+ - 기능 / 비기능적 요구사항 분류 및 수정
+2. 요구사항 분석
+3. 구현 가능 여부 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06.22, 06.23 회의록 작성
+2. Git 환경 설정
+3. Git 설정 화면 캡처 및 보고서 작성
+4. 캡스톤 아이디어 도출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 수집 및 정의
+2. 요구사항 분석
+3. 구현 가능 여부 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. vi 명령어 설명서 작성 완료
+2. 요구사항 정의 및 분류
+ - 기능적 요구사항
+ - 비기능적 요구사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+2. 최종 아이디어 선정
+3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06_30 회의록 작성
+2. 요구사항 수정 및 관련 필요 자료 조사
+3. 15:00 ~ 지도교수 면담</x:t>
+  </x:si>
+  <x:si>
     <x:t>1. 진행사항 체크 및 2주차 목표 설정
 2. 06.28 회의록 작성
 3. 상용화 된 타 앱 기능 분석
 4. 요구사항 정의
  - 회원가입, DB, 무결성 (미완)
 5. vi사용법 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. vi 명령어 설명서 작성 완료
-2. 요구사항 정의 및 분류
- - 기능적 요구사항
- - 비기능적 요구사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. Git 목록 삭제
-2. 요구사항 분석
-3. 요구사항 검증</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. vi 명령어 설명서 작성
-2. 요구사항 정의 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-1. Datebook Comment 부분 요약
-1-2. GIT 보고서 다시 작성
-1-3. PPT 머릿글 요약 작성
-1-4. 파일명 수정
-1-5 최종 아이디어 선정 이유 작성
-2. 요구사항 수집 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
- - 컴퓨터 견적 추천 앱
- - 주차시 사고발생 알림 앱
-2. 주제 아이디어 최종 선정
- - 차량 관리 어플
-3. 개발 계획서 및 요구사항 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. DateBook_Comment 부분 수정
-2. GIT보고서 수정
- - 설치 과정 추가
- - 명령어 부분 내용 추가
-3. PPT 머릿글 요약 작성 - (미완)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:32
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09:00
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:23
-15:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:36
-18:07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:30
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:27
-18:05</x:t>
   </x:si>
   <x:si>
     <x:t>1. 실습 환경 설정 및 설명
@@ -102,63 +121,44 @@
  - 차량 관리 어플</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 현장실습 OT
- - 기업 소개 및 업무 설명
- - 앞으로 수행하게 될 프로젝트 설명
-2. 기존에 진행했던 캡스톤프로젝트 첨언
-3. 제품 개발 과정 설명
- - 제품 기획 
- - 개발 기획  
- - 개발 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06.22, 06.23 회의록 작성
-2. Git 환경 설정
-3. Git 설정 화면 캡처 및 보고서 작성
-4. 캡스톤 아이디어 도출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 정의 및 분석 - 체계화
- - 기능 / 비기능적 요구사항 분류 및 수정
-2. 요구사항 분석
-3. 구현 가능 여부 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06_30 회의록 작성
-2. 요구사항 수정 및 관련 필요 자료 조사
-3. 15:00 ~ 지도교수 면담</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
-2. 최종 아이디어 선정
-3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 수집 및 정의
- - 관련 필요 자료 조사
- - 기능적/ 비기능적 요구사항 내용 추가
-2. 개발에 필요한 요구사항 분석 (실현성 확인)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 수집 및 정의
-2. 요구사항 분석
-3. 구현 가능 여부 확인</x:t>
-  </x:si>
-  <x:si>
     <x:t>1. 06.28 회의록 작성
 2. 요구사항 정의 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:32
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09:00
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:30
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:27
+18:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:36
+18:07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:23
+15:03</x:t>
   </x:si>
   <x:si>
     <x:t>1. 계약서 작성
@@ -1210,8 +1210,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B2:E36"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C12" activeCellId="0" sqref="C12:C12"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="D13" activeCellId="0" sqref="D13:D13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.199999999999999"/>
@@ -1227,16 +1227,16 @@
     <x:row r="1" ht="6.5999999999999996" customHeight="1"/>
     <x:row r="2" spans="2:5" ht="31.199999999999999" customHeight="1">
       <x:c r="B2" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D2" s="4" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="E2" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:5" ht="105.75">
@@ -1244,13 +1244,13 @@
         <x:v>44369</x:v>
       </x:c>
       <x:c r="C3" s="13" t="s">
-        <x:v>8</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D3" s="7" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="E3" s="7" t="s">
-        <x:v>14</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:5" ht="118.55">
@@ -1258,13 +1258,13 @@
         <x:v>44370</x:v>
       </x:c>
       <x:c r="C4" s="12" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D4" s="10" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D4" s="10" t="s">
-        <x:v>15</x:v>
-      </x:c>
       <x:c r="E4" s="10" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:5" ht="79.049999999999997">
@@ -1272,13 +1272,13 @@
         <x:v>44371</x:v>
       </x:c>
       <x:c r="C5" s="14" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D5" s="10" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D5" s="10" t="s">
-        <x:v>22</x:v>
-      </x:c>
       <x:c r="E5" s="10" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:5" ht="79.049999999999997">
@@ -1286,13 +1286,13 @@
         <x:v>44372</x:v>
       </x:c>
       <x:c r="C6" s="16" t="s">
-        <x:v>11</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D6" s="10" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E6" s="15" t="s">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:5" ht="79.049999999999997">
@@ -1300,13 +1300,13 @@
         <x:v>44375</x:v>
       </x:c>
       <x:c r="C7" s="12" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D7" s="10" t="s">
-        <x:v>25</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E7" s="10" t="s">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:5" ht="52.700000000000003">
@@ -1314,13 +1314,13 @@
         <x:v>44376</x:v>
       </x:c>
       <x:c r="C8" s="12" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D8" s="10" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E8" s="10" t="s">
         <x:v>10</x:v>
-      </x:c>
-      <x:c r="D8" s="10" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E8" s="10" t="s">
-        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:5" ht="52.700000000000003">
@@ -1328,13 +1328,13 @@
         <x:v>44377</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
-        <x:v>9</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D9" s="10" t="s">
-        <x:v>16</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E9" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:5" ht="52.700000000000003">
@@ -1342,13 +1342,13 @@
         <x:v>44378</x:v>
       </x:c>
       <x:c r="C10" s="19" t="s">
-        <x:v>7</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D10" s="10" t="s">
-        <x:v>24</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E10" s="10" t="s">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:5" ht="39.549999999999997">
@@ -1359,7 +1359,7 @@
         <x:v>0.35208333333333336</x:v>
       </x:c>
       <x:c r="D11" s="10" t="s">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E11" s="9"/>
     </x:row>

--- a/2021_Summer/jp.hong/Datebook_jph.xlsx
+++ b/2021_Summer/jp.hong/Datebook_jph.xlsx
@@ -19,28 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
-  <x:si>
-    <x:t>1. 아이디어 도출
- - 컴퓨터 견적 추천 앱
- - 주차시 사고발생 알림 앱
-2. 주제 아이디어 최종 선정
- - 차량 관리 어플
-3. 개발 계획서 및 요구사항 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. DateBook_Comment 부분 수정
-2. GIT보고서 수정
- - 설치 과정 추가
- - 명령어 부분 내용 추가
-3. PPT 머릿글 요약 작성 - (미완)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 수집 및 정의
- - 관련 필요 자료 조사
- - 기능적/ 비기능적 요구사항 내용 추가
-2. 개발에 필요한 요구사항 분석 (실현성 확인)</x:t>
-  </x:si>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <x:si>
     <x:t>1. 현장실습 OT
  - 기업 소개 및 업무 설명
@@ -52,35 +31,6 @@
  - 개발 설계</x:t>
   </x:si>
   <x:si>
-    <x:t>1-1. Datebook Comment 부분 요약
-1-2. GIT 보고서 다시 작성
-1-3. PPT 머릿글 요약 작성
-1-4. 파일명 수정
-1-5 최종 아이디어 선정 이유 작성
-2. 요구사항 수집 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. Git 목록 삭제
-2. 요구사항 분석
-3. 요구사항 검증</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. vi 명령어 설명서 작성
-2. 요구사항 정의 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 정의 및 분석 - 체계화
- - 기능 / 비기능적 요구사항 분류 및 수정
-2. 요구사항 분석
-3. 구현 가능 여부 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06.22, 06.23 회의록 작성
-2. Git 환경 설정
-3. Git 설정 화면 캡처 및 보고서 작성
-4. 캡스톤 아이디어 도출</x:t>
-  </x:si>
-  <x:si>
     <x:t>1. 요구사항 수집 및 정의
 2. 요구사항 분석
 3. 구현 가능 여부 확인</x:t>
@@ -90,24 +40,6 @@
 2. 요구사항 정의 및 분류
  - 기능적 요구사항
  - 비기능적 요구사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
-2. 최종 아이디어 선정
-3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06_30 회의록 작성
-2. 요구사항 수정 및 관련 필요 자료 조사
-3. 15:00 ~ 지도교수 면담</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 진행사항 체크 및 2주차 목표 설정
-2. 06.28 회의록 작성
-3. 상용화 된 타 앱 기능 분석
-4. 요구사항 정의
- - 회원가입, DB, 무결성 (미완)
-5. vi사용법 설명</x:t>
   </x:si>
   <x:si>
     <x:t>1. 실습 환경 설정 및 설명
@@ -121,48 +53,126 @@
  - 차량 관리 어플</x:t>
   </x:si>
   <x:si>
+    <x:t>1. DateBook_Comment 부분 수정
+2. GIT보고서 수정
+ - 설치 과정 추가
+ - 명령어 부분 내용 추가
+3. PPT 머릿글 요약 작성 - (미완)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+ - 컴퓨터 견적 추천 앱
+ - 주차시 사고발생 알림 앱
+2. 주제 아이디어 최종 선정
+ - 차량 관리 어플
+3. 개발 계획서 및 요구사항 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-1. Datebook Comment 부분 요약
+1-2. GIT 보고서 다시 작성
+1-3. PPT 머릿글 요약 작성
+1-4. 파일명 수정
+1-5 최종 아이디어 선정 이유 작성
+2. 요구사항 수집 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. vi 명령어 설명서 작성
+2. 요구사항 정의 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 정의 및 분석 - 체계화
+ - 기능 / 비기능적 요구사항 분류 및 수정
+2. 요구사항 분석
+3. 구현 가능 여부 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06.22, 06.23 회의록 작성
+2. Git 환경 설정
+3. Git 설정 화면 캡처 및 보고서 작성
+4. 캡스톤 아이디어 도출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 수집 및 정의
+ - 관련 필요 자료 조사
+ - 기능적/ 비기능적 요구사항 내용 추가
+2. 개발에 필요한 요구사항 분석 (실현성 확인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+2. 최종 아이디어 선정
+3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06_30 회의록 작성
+2. 요구사항 수정 및 관련 필요 자료 조사
+3. 15:00 ~ 지도교수 면담</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:32
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:36
+18:07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:23
+15:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:27
+18:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09:00
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:30
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 진행사항 체크 및 2주차 목표 설정
+2. 06.28 회의록 작성
+3. 상용화 된 타 앱 기능 분석
+4. 요구사항 정의
+ - 회원가입, DB, 무결성 (미완)
+5. vi사용법 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 07.02 회의록 작성
+2. Git 업로드 한 것 중 중복된 것들 삭제
+3. 어플 흐름 구상도 작성
+4. 요구사항/기능 정의/기능 설계 3가지 부분으로 나누어 요구사항 수정(미완)</x:t>
+  </x:si>
+  <x:si>
     <x:t>1. 06.28 회의록 작성
 2. 요구사항 정의 및 분석</x:t>
   </x:si>
   <x:si>
-    <x:t>Comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:32
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09:00
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:30
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:27
-18:05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:36
-18:07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:23
-15:03</x:t>
-  </x:si>
-  <x:si>
     <x:t>1. 계약서 작성
 2. 현장실습 오리엔테이션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 인터페이스 구상도 작성
+2. 요구사항 분류하여 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Git 목록 삭제
+2. 요구사항 분석
+3. 인터페이스 구상도 작성</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1211,7 +1221,7 @@
   <x:dimension ref="B2:E36"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D13" activeCellId="0" sqref="D13:D13"/>
+      <x:selection activeCell="D4" activeCellId="0" sqref="D4:D4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.199999999999999"/>
@@ -1227,16 +1237,16 @@
     <x:row r="1" ht="6.5999999999999996" customHeight="1"/>
     <x:row r="2" spans="2:5" ht="31.199999999999999" customHeight="1">
       <x:c r="B2" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D2" s="4" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E2" s="5" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:5" ht="105.75">
@@ -1244,13 +1254,13 @@
         <x:v>44369</x:v>
       </x:c>
       <x:c r="C3" s="13" t="s">
-        <x:v>21</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D3" s="7" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="E3" s="7" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:5" ht="118.55">
@@ -1258,13 +1268,13 @@
         <x:v>44370</x:v>
       </x:c>
       <x:c r="C4" s="12" t="s">
-        <x:v>21</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D4" s="10" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E4" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:5" ht="79.049999999999997">
@@ -1272,13 +1282,13 @@
         <x:v>44371</x:v>
       </x:c>
       <x:c r="C5" s="14" t="s">
-        <x:v>22</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D5" s="10" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="10" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:5" ht="79.049999999999997">
@@ -1286,13 +1296,13 @@
         <x:v>44372</x:v>
       </x:c>
       <x:c r="C6" s="16" t="s">
-        <x:v>22</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="10" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E6" s="15" t="s">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="E6" s="15" t="s">
-        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:5" ht="79.049999999999997">
@@ -1300,13 +1310,13 @@
         <x:v>44375</x:v>
       </x:c>
       <x:c r="C7" s="12" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D7" s="10" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E7" s="10" t="s">
         <x:v>23</x:v>
-      </x:c>
-      <x:c r="D7" s="10" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E7" s="10" t="s">
-        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:5" ht="52.700000000000003">
@@ -1314,13 +1324,13 @@
         <x:v>44376</x:v>
       </x:c>
       <x:c r="C8" s="12" t="s">
-        <x:v>24</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D8" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E8" s="10" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:5" ht="52.700000000000003">
@@ -1328,10 +1338,10 @@
         <x:v>44377</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
-        <x:v>25</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D9" s="10" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E9" s="10" t="s">
         <x:v>12</x:v>
@@ -1342,16 +1352,16 @@
         <x:v>44378</x:v>
       </x:c>
       <x:c r="C10" s="19" t="s">
-        <x:v>20</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D10" s="10" t="s">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E10" s="10" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="2:5" ht="39.549999999999997">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="2:5" ht="65.849999999999994">
       <x:c r="B11" s="11">
         <x:v>44379</x:v>
       </x:c>
@@ -1359,16 +1369,20 @@
         <x:v>0.35208333333333336</x:v>
       </x:c>
       <x:c r="D11" s="10" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E11" s="9"/>
-    </x:row>
-    <x:row r="12" spans="2:5">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E11" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="2:5" ht="26.350000000000001">
       <x:c r="B12" s="11">
         <x:v>44382</x:v>
       </x:c>
       <x:c r="C12" s="8"/>
-      <x:c r="D12" s="9"/>
+      <x:c r="D12" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
       <x:c r="E12" s="9"/>
     </x:row>
     <x:row r="13" spans="2:5">

--- a/2021_Summer/jp.hong/Datebook_jph.xlsx
+++ b/2021_Summer/jp.hong/Datebook_jph.xlsx
@@ -19,7 +19,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+  <x:si>
+    <x:t>1. 요구사항 분석 (실현성 확인)
+2. 데이터 흐름도 수정
+ - 차량 관련 새소식 창 삭제 및 다른 사항 수정
+3. Menu_Tree 작성
+4. Flow_Chart 작성
+5. 필요 자료 추가 조사
+ -&gt; 주유, 부품들의 수명정보(?) 어떻게 자동으로 받아올지 알아봐야함 -&gt; 블루투스 =&gt; 블루투스 연동 어떻게?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 수집 및 정의
+ - 관련 필요 자료 조사
+ - 기능적/ 비기능적 요구사항 내용 추가
+2. 개발에 필요한 요구사항 분석 (실현성 확인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+ - 컴퓨터 견적 추천 앱
+ - 주차시 사고발생 알림 앱
+2. 주제 아이디어 최종 선정
+ - 차량 관리 어플
+3. 개발 계획서 및 요구사항 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. DateBook_Comment 부분 수정
+2. GIT보고서 수정
+ - 설치 과정 추가
+ - 명령어 부분 내용 추가
+3. PPT 머릿글 요약 작성 - (미완)</x:t>
+  </x:si>
   <x:si>
     <x:t>1. 현장실습 OT
  - 기업 소개 및 업무 설명
@@ -29,17 +59,6 @@
  - 제품 기획 
  - 개발 기획  
  - 개발 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 수집 및 정의
-2. 요구사항 분석
-3. 구현 가능 여부 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. vi 명령어 설명서 작성 완료
-2. 요구사항 정의 및 분류
- - 기능적 요구사항
- - 비기능적 요구사항</x:t>
   </x:si>
   <x:si>
     <x:t>1. 실습 환경 설정 및 설명
@@ -53,21 +72,6 @@
  - 차량 관리 어플</x:t>
   </x:si>
   <x:si>
-    <x:t>1. DateBook_Comment 부분 수정
-2. GIT보고서 수정
- - 설치 과정 추가
- - 명령어 부분 내용 추가
-3. PPT 머릿글 요약 작성 - (미완)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
- - 컴퓨터 견적 추천 앱
- - 주차시 사고발생 알림 앱
-2. 주제 아이디어 최종 선정
- - 차량 관리 어플
-3. 개발 계획서 및 요구사항 작성</x:t>
-  </x:si>
-  <x:si>
     <x:t>1-1. Datebook Comment 부분 요약
 1-2. GIT 보고서 다시 작성
 1-3. PPT 머릿글 요약 작성
@@ -76,8 +80,10 @@
 2. 요구사항 수집 및 분석</x:t>
   </x:si>
   <x:si>
-    <x:t>1. vi 명령어 설명서 작성
-2. 요구사항 정의 및 분석</x:t>
+    <x:t>1. 06.22, 06.23 회의록 작성
+2. Git 환경 설정
+3. Git 설정 화면 캡처 및 보고서 작성
+4. 캡스톤 아이디어 도출</x:t>
   </x:si>
   <x:si>
     <x:t>1. 요구사항 정의 및 분석 - 체계화
@@ -86,16 +92,15 @@
 3. 구현 가능 여부 확인</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 06.22, 06.23 회의록 작성
-2. Git 환경 설정
-3. Git 설정 화면 캡처 및 보고서 작성
-4. 캡스톤 아이디어 도출</x:t>
+    <x:t>1. vi 명령어 설명서 작성 완료
+2. 요구사항 정의 및 분류
+ - 기능적 요구사항
+ - 비기능적 요구사항</x:t>
   </x:si>
   <x:si>
     <x:t>1. 요구사항 수집 및 정의
- - 관련 필요 자료 조사
- - 기능적/ 비기능적 요구사항 내용 추가
-2. 개발에 필요한 요구사항 분석 (실현성 확인)</x:t>
+2. 요구사항 분석
+3. 구현 가능 여부 확인</x:t>
   </x:si>
   <x:si>
     <x:t>1. 아이디어 도출
@@ -108,40 +113,19 @@
 3. 15:00 ~ 지도교수 면담</x:t>
   </x:si>
   <x:si>
-    <x:t>08:32
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:36
-18:07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:23
-15:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:27
-18:05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09:00
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:30
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goal</x:t>
+    <x:t>1. Git 목록 삭제
+2. 요구사항 분석
+3. 인터페이스 구상도 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:25
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 07.02 회의록 작성
+2. Git 업로드 한 것 중 중복된 것들 삭제
+3. 어플 흐름 구상도 작성
+4. 요구사항/기능 정의/기능 설계 3가지 부분으로 나누어 요구사항 수정(미완)</x:t>
   </x:si>
   <x:si>
     <x:t>1. 진행사항 체크 및 2주차 목표 설정
@@ -152,27 +136,64 @@
 5. vi사용법 설명</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 07.02 회의록 작성
-2. Git 업로드 한 것 중 중복된 것들 삭제
-3. 어플 흐름 구상도 작성
-4. 요구사항/기능 정의/기능 설계 3가지 부분으로 나누어 요구사항 수정(미완)</x:t>
+    <x:t>08:27
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. vi 명령어 설명서 작성
+2. 요구사항 정의 및 분석</x:t>
   </x:si>
   <x:si>
     <x:t>1. 06.28 회의록 작성
 2. 요구사항 정의 및 분석</x:t>
   </x:si>
   <x:si>
+    <x:t>Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:36
+18:07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:27
+18:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:32
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09:00
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:30
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:23
+15:03</x:t>
+  </x:si>
+  <x:si>
     <x:t>1. 계약서 작성
 2. 현장실습 오리엔테이션</x:t>
   </x:si>
   <x:si>
     <x:t>1. 인터페이스 구상도 작성
-2. 요구사항 분류하여 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. Git 목록 삭제
-2. 요구사항 분석
-3. 인터페이스 구상도 작성</x:t>
+2. 요구사항 분류하여 수정
+3. 추가 자료조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추가 자료조사</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -327,7 +348,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="20">
+  <x:cellXfs count="22">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -499,6 +520,32 @@
       <mc:Fallback>
         <x:xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1220,8 +1267,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B2:E36"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D4" activeCellId="0" sqref="D4:D4"/>
+    <x:sheetView tabSelected="1" topLeftCell="C10" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="D12" activeCellId="0" sqref="D12:D12"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.199999999999999"/>
@@ -1237,16 +1284,16 @@
     <x:row r="1" ht="6.5999999999999996" customHeight="1"/>
     <x:row r="2" spans="2:5" ht="31.199999999999999" customHeight="1">
       <x:c r="B2" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D2" s="4" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D2" s="4" t="s">
+      <x:c r="E2" s="5" t="s">
         <x:v>22</x:v>
-      </x:c>
-      <x:c r="E2" s="5" t="s">
-        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:5" ht="105.75">
@@ -1254,13 +1301,13 @@
         <x:v>44369</x:v>
       </x:c>
       <x:c r="C3" s="13" t="s">
-        <x:v>17</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D3" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E3" s="7" t="s">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:5" ht="118.55">
@@ -1268,13 +1315,13 @@
         <x:v>44370</x:v>
       </x:c>
       <x:c r="C4" s="12" t="s">
-        <x:v>17</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D4" s="10" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E4" s="10" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:5" ht="79.049999999999997">
@@ -1282,13 +1329,13 @@
         <x:v>44371</x:v>
       </x:c>
       <x:c r="C5" s="14" t="s">
-        <x:v>18</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D5" s="10" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="10" t="s">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:5" ht="79.049999999999997">
@@ -1296,13 +1343,13 @@
         <x:v>44372</x:v>
       </x:c>
       <x:c r="C6" s="16" t="s">
-        <x:v>18</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D6" s="10" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="E6" s="15" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:5" ht="79.049999999999997">
@@ -1310,13 +1357,13 @@
         <x:v>44375</x:v>
       </x:c>
       <x:c r="C7" s="12" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D7" s="10" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E7" s="10" t="s">
         <x:v>16</x:v>
-      </x:c>
-      <x:c r="D7" s="10" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E7" s="10" t="s">
-        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:5" ht="52.700000000000003">
@@ -1324,13 +1371,13 @@
         <x:v>44376</x:v>
       </x:c>
       <x:c r="C8" s="12" t="s">
-        <x:v>14</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D8" s="10" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E8" s="10" t="s">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:5" ht="52.700000000000003">
@@ -1338,7 +1385,7 @@
         <x:v>44377</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
-        <x:v>15</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D9" s="10" t="s">
         <x:v>8</x:v>
@@ -1352,45 +1399,51 @@
         <x:v>44378</x:v>
       </x:c>
       <x:c r="C10" s="19" t="s">
-        <x:v>13</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D10" s="10" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E10" s="10" t="s">
         <x:v>1</x:v>
-      </x:c>
-      <x:c r="E10" s="10" t="s">
-        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:5" ht="65.849999999999994">
       <x:c r="B11" s="11">
         <x:v>44379</x:v>
       </x:c>
-      <x:c r="C11" s="14">
-        <x:v>0.35208333333333336</x:v>
+      <x:c r="C11" s="21" t="s">
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D11" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E11" s="10" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="2:5" ht="26.350000000000001">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="2:5" ht="105.40000000000001">
       <x:c r="B12" s="11">
         <x:v>44382</x:v>
       </x:c>
-      <x:c r="C12" s="8"/>
+      <x:c r="C12" s="20" t="s">
+        <x:v>14</x:v>
+      </x:c>
       <x:c r="D12" s="10" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E12" s="9"/>
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E12" s="10" t="s">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="13" spans="2:5">
       <x:c r="B13" s="11">
         <x:v>44383</x:v>
       </x:c>
       <x:c r="C13" s="8"/>
-      <x:c r="D13" s="9"/>
+      <x:c r="D13" s="9" t="s">
+        <x:v>32</x:v>
+      </x:c>
       <x:c r="E13" s="9"/>
     </x:row>
     <x:row r="14" spans="2:5">

--- a/2021_Summer/jp.hong/Datebook_jph.xlsx
+++ b/2021_Summer/jp.hong/Datebook_jph.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <x:si>
     <x:t>1. 요구사항 분석 (실현성 확인)
 2. 데이터 흐름도 수정
@@ -30,25 +30,12 @@
  -&gt; 주유, 부품들의 수명정보(?) 어떻게 자동으로 받아올지 알아봐야함 -&gt; 블루투스 =&gt; 블루투스 연동 어떻게?</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 요구사항 수집 및 정의
- - 관련 필요 자료 조사
- - 기능적/ 비기능적 요구사항 내용 추가
-2. 개발에 필요한 요구사항 분석 (실현성 확인)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
- - 컴퓨터 견적 추천 앱
- - 주차시 사고발생 알림 앱
-2. 주제 아이디어 최종 선정
- - 차량 관리 어플
-3. 개발 계획서 및 요구사항 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. DateBook_Comment 부분 수정
-2. GIT보고서 수정
- - 설치 과정 추가
- - 명령어 부분 내용 추가
-3. PPT 머릿글 요약 작성 - (미완)</x:t>
+    <x:t>1-1. Datebook Comment 부분 요약
+1-2. GIT 보고서 다시 작성
+1-3. PPT 머릿글 요약 작성
+1-4. 파일명 수정
+1-5 최종 아이디어 선정 이유 작성
+2. 요구사항 수집 및 분석</x:t>
   </x:si>
   <x:si>
     <x:t>1. 현장실습 OT
@@ -59,6 +46,146 @@
  - 제품 기획 
  - 개발 기획  
  - 개발 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06_30 회의록 작성
+2. 요구사항 수정 및 관련 필요 자료 조사
+3. 15:00 ~ 지도교수 면담</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+2. 최종 아이디어 선정
+3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 수집 및 정의
+2. 요구사항 분석
+3. 구현 가능 여부 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 인터페이스 구상도 작성
+2. 요구사항 분류하여 수정
+3. 추가 자료조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. DateBook_Comment 부분 수정
+2. GIT보고서 수정
+ - 설치 과정 추가
+ - 명령어 부분 내용 추가
+3. PPT 머릿글 요약 작성 - (미완)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+ - 컴퓨터 견적 추천 앱
+ - 주차시 사고발생 알림 앱
+2. 주제 아이디어 최종 선정
+ - 차량 관리 어플
+3. 개발 계획서 및 요구사항 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 진행사항 체크 및 2주차 목표 설정
+2. 06.28 회의록 작성
+3. 상용화 된 타 앱 기능 분석
+4. 요구사항 정의
+ - 회원가입, DB, 무결성 (미완)
+5. vi사용법 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 07.02 회의록 작성
+2. Git 업로드 한 것 중 중복된 것들 삭제
+3. 어플 흐름 구상도 작성
+4. 요구사항/기능 정의/기능 설계 3가지 부분으로 나누어 요구사항 수정(미완)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Git 목록 삭제
+2. 요구사항 분석
+3. 인터페이스 구상도 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. vi 명령어 설명서 작성
+2. 요구사항 정의 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 수집 및 정의
+ - 관련 필요 자료 조사
+ - 기능적/ 비기능적 요구사항 내용 추가
+2. 개발에 필요한 요구사항 분석 (실현성 확인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 정의 및 분석 - 체계화
+ - 기능 / 비기능적 요구사항 분류 및 수정
+2. 요구사항 분석
+3. 구현 가능 여부 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06.22, 06.23 회의록 작성
+2. Git 환경 설정
+3. Git 설정 화면 캡처 및 보고서 작성
+4. 캡스톤 아이디어 도출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 필요 자료 추가 조사
+2. 한계점 및 필요기술 추가
+ - 차량 블루투스와 어플 연결 어떻게?
+ - 연결이 된다면 원하는 정보만 어떻게 가져 올건지?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. vi 명령어 설명서 작성 완료
+2. 요구사항 정의 및 분류
+ - 기능적 요구사항
+ - 비기능적 요구사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09:00
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:25
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:32
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:27
+18:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:30
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:27
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:36
+18:07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:23
+15:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 추가 자료조사(관련 코드)
+2. FlowChart 수정 및 보완</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06.28 회의록 작성
+2. 요구사항 정의 및 분석</x:t>
   </x:si>
   <x:si>
     <x:t>1. 실습 환경 설정 및 설명
@@ -72,128 +199,12 @@
  - 차량 관리 어플</x:t>
   </x:si>
   <x:si>
-    <x:t>1-1. Datebook Comment 부분 요약
-1-2. GIT 보고서 다시 작성
-1-3. PPT 머릿글 요약 작성
-1-4. 파일명 수정
-1-5 최종 아이디어 선정 이유 작성
-2. 요구사항 수집 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06.22, 06.23 회의록 작성
-2. Git 환경 설정
-3. Git 설정 화면 캡처 및 보고서 작성
-4. 캡스톤 아이디어 도출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 정의 및 분석 - 체계화
- - 기능 / 비기능적 요구사항 분류 및 수정
-2. 요구사항 분석
-3. 구현 가능 여부 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. vi 명령어 설명서 작성 완료
-2. 요구사항 정의 및 분류
- - 기능적 요구사항
- - 비기능적 요구사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 수집 및 정의
-2. 요구사항 분석
-3. 구현 가능 여부 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
-2. 최종 아이디어 선정
-3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06_30 회의록 작성
-2. 요구사항 수정 및 관련 필요 자료 조사
-3. 15:00 ~ 지도교수 면담</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. Git 목록 삭제
-2. 요구사항 분석
-3. 인터페이스 구상도 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:25
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 07.02 회의록 작성
-2. Git 업로드 한 것 중 중복된 것들 삭제
-3. 어플 흐름 구상도 작성
-4. 요구사항/기능 정의/기능 설계 3가지 부분으로 나누어 요구사항 수정(미완)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 진행사항 체크 및 2주차 목표 설정
-2. 06.28 회의록 작성
-3. 상용화 된 타 앱 기능 분석
-4. 요구사항 정의
- - 회원가입, DB, 무결성 (미완)
-5. vi사용법 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:27
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. vi 명령어 설명서 작성
-2. 요구사항 정의 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06.28 회의록 작성
-2. 요구사항 정의 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:36
-18:07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:27
-18:05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:32
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09:00
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:30
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:23
-15:03</x:t>
-  </x:si>
-  <x:si>
     <x:t>1. 계약서 작성
 2. 현장실습 오리엔테이션</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 인터페이스 구상도 작성
-2. 요구사항 분류하여 수정
-3. 추가 자료조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추가 자료조사</x:t>
+    <x:t>1. 앱 화면별 Sequence 작성
+2. 앱 화면별 어떻게 구성할 것인지 구상</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -348,7 +359,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="22">
+  <x:cellXfs count="23">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -571,6 +582,19 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
@@ -1267,8 +1291,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B2:E36"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="C10" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D12" activeCellId="0" sqref="D12:D12"/>
+    <x:sheetView tabSelected="1" topLeftCell="C8" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="E14" activeCellId="0" sqref="E14:E14"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.199999999999999"/>
@@ -1284,16 +1308,16 @@
     <x:row r="1" ht="6.5999999999999996" customHeight="1"/>
     <x:row r="2" spans="2:5" ht="31.199999999999999" customHeight="1">
       <x:c r="B2" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D2" s="4" t="s">
-        <x:v>21</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="5" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:5" ht="105.75">
@@ -1301,13 +1325,13 @@
         <x:v>44369</x:v>
       </x:c>
       <x:c r="C3" s="13" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D3" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E3" s="7" t="s">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:5" ht="118.55">
@@ -1315,13 +1339,13 @@
         <x:v>44370</x:v>
       </x:c>
       <x:c r="C4" s="12" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D4" s="10" t="s">
-        <x:v>7</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E4" s="10" t="s">
-        <x:v>5</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:5" ht="79.049999999999997">
@@ -1329,13 +1353,13 @@
         <x:v>44371</x:v>
       </x:c>
       <x:c r="C5" s="14" t="s">
-        <x:v>28</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D5" s="10" t="s">
-        <x:v>11</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E5" s="10" t="s">
-        <x:v>2</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:5" ht="79.049999999999997">
@@ -1343,13 +1367,13 @@
         <x:v>44372</x:v>
       </x:c>
       <x:c r="C6" s="16" t="s">
-        <x:v>28</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D6" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E6" s="15" t="s">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:5" ht="79.049999999999997">
@@ -1360,10 +1384,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D7" s="10" t="s">
-        <x:v>19</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E7" s="10" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:5" ht="52.700000000000003">
@@ -1371,13 +1395,13 @@
         <x:v>44376</x:v>
       </x:c>
       <x:c r="C8" s="12" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D8" s="10" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E8" s="10" t="s">
-        <x:v>9</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:5" ht="52.700000000000003">
@@ -1388,10 +1412,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="D9" s="10" t="s">
-        <x:v>8</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E9" s="10" t="s">
-        <x:v>12</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:5" ht="52.700000000000003">
@@ -1399,13 +1423,13 @@
         <x:v>44378</x:v>
       </x:c>
       <x:c r="C10" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D10" s="10" t="s">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E10" s="10" t="s">
-        <x:v>1</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:5" ht="65.849999999999994">
@@ -1413,13 +1437,13 @@
         <x:v>44379</x:v>
       </x:c>
       <x:c r="C11" s="21" t="s">
-        <x:v>17</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D11" s="10" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E11" s="10" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:5" ht="105.40000000000001">
@@ -1427,31 +1451,37 @@
         <x:v>44382</x:v>
       </x:c>
       <x:c r="C12" s="20" t="s">
-        <x:v>14</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D12" s="10" t="s">
-        <x:v>31</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E12" s="10" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="2:5">
+    <x:row r="13" spans="2:5" ht="52.700000000000003">
       <x:c r="B13" s="11">
         <x:v>44383</x:v>
       </x:c>
-      <x:c r="C13" s="8"/>
-      <x:c r="D13" s="9" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E13" s="9"/>
-    </x:row>
-    <x:row r="14" spans="2:5">
+      <x:c r="C13" s="22" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D13" s="10" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E13" s="10" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="2:5" ht="26.350000000000001">
       <x:c r="B14" s="11">
         <x:v>44384</x:v>
       </x:c>
       <x:c r="C14" s="8"/>
-      <x:c r="D14" s="9"/>
+      <x:c r="D14" s="10" t="s">
+        <x:v>34</x:v>
+      </x:c>
       <x:c r="E14" s="9"/>
     </x:row>
     <x:row r="15" spans="2:5">

--- a/2021_Summer/jp.hong/Datebook_jph.xlsx
+++ b/2021_Summer/jp.hong/Datebook_jph.xlsx
@@ -19,7 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+  <x:si>
+    <x:t>1. 진행사항 체크 및 2주차 목표 설정
+2. 06.28 회의록 작성
+3. 상용화 된 타 앱 기능 분석
+4. 요구사항 정의
+ - 회원가입, DB, 무결성 (미완)
+5. vi사용법 설명</x:t>
+  </x:si>
   <x:si>
     <x:t>1. 요구사항 분석 (실현성 확인)
 2. 데이터 흐름도 수정
@@ -30,12 +38,21 @@
  -&gt; 주유, 부품들의 수명정보(?) 어떻게 자동으로 받아올지 알아봐야함 -&gt; 블루투스 =&gt; 블루투스 연동 어떻게?</x:t>
   </x:si>
   <x:si>
-    <x:t>1-1. Datebook Comment 부분 요약
-1-2. GIT 보고서 다시 작성
-1-3. PPT 머릿글 요약 작성
-1-4. 파일명 수정
-1-5 최종 아이디어 선정 이유 작성
-2. 요구사항 수집 및 분석</x:t>
+    <x:t>1. (2-2) 수익적 요소 추가
+2. (4-1) 기능정의 추가
+3. 추가 자료 조사
+ - 비슷한 어플(마이클) 화면 구성 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 07.02 회의록 작성
+2. Git 업로드 한 것 중 중복된 것들 삭제
+3. 어플 흐름 구상도 작성
+4. 요구사항/기능 정의/기능 설계 3가지 부분으로 나누어 요구사항 수정(미완)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 추가 자료조사
+2. 요구사항 추가 조사
+3. 경쟁 어플 기능 비교 보완</x:t>
   </x:si>
   <x:si>
     <x:t>1. 현장실습 OT
@@ -48,31 +65,18 @@
  - 개발 설계</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 06_30 회의록 작성
-2. 요구사항 수정 및 관련 필요 자료 조사
-3. 15:00 ~ 지도교수 면담</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
-2. 최종 아이디어 선정
-3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 수집 및 정의
-2. 요구사항 분석
-3. 구현 가능 여부 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 인터페이스 구상도 작성
-2. 요구사항 분류하여 수정
-3. 추가 자료조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. DateBook_Comment 부분 수정
-2. GIT보고서 수정
- - 설치 과정 추가
- - 명령어 부분 내용 추가
-3. PPT 머릿글 요약 작성 - (미완)</x:t>
+    <x:t>1. 필요 자료 추가 조사
+2. 한계점 및 필요기술 추가
+ - 차량 블루투스와 어플 연결 어떻게?
+ - 연결이 된다면 원하는 정보만 어떻게 가져 올건지?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-1. Datebook Comment 부분 요약
+1-2. GIT 보고서 다시 작성
+1-3. PPT 머릿글 요약 작성
+1-4. 파일명 수정
+1-5 최종 아이디어 선정 이유 작성
+2. 요구사항 수집 및 분석</x:t>
   </x:si>
   <x:si>
     <x:t>1. 아이디어 도출
@@ -83,109 +87,11 @@
 3. 개발 계획서 및 요구사항 작성</x:t>
   </x:si>
   <x:si>
-    <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 진행사항 체크 및 2주차 목표 설정
-2. 06.28 회의록 작성
-3. 상용화 된 타 앱 기능 분석
-4. 요구사항 정의
- - 회원가입, DB, 무결성 (미완)
-5. vi사용법 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 07.02 회의록 작성
-2. Git 업로드 한 것 중 중복된 것들 삭제
-3. 어플 흐름 구상도 작성
-4. 요구사항/기능 정의/기능 설계 3가지 부분으로 나누어 요구사항 수정(미완)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. Git 목록 삭제
-2. 요구사항 분석
-3. 인터페이스 구상도 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. vi 명령어 설명서 작성
-2. 요구사항 정의 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 수집 및 정의
- - 관련 필요 자료 조사
- - 기능적/ 비기능적 요구사항 내용 추가
-2. 개발에 필요한 요구사항 분석 (실현성 확인)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 정의 및 분석 - 체계화
- - 기능 / 비기능적 요구사항 분류 및 수정
-2. 요구사항 분석
-3. 구현 가능 여부 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06.22, 06.23 회의록 작성
-2. Git 환경 설정
-3. Git 설정 화면 캡처 및 보고서 작성
-4. 캡스톤 아이디어 도출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 필요 자료 추가 조사
-2. 한계점 및 필요기술 추가
- - 차량 블루투스와 어플 연결 어떻게?
- - 연결이 된다면 원하는 정보만 어떻게 가져 올건지?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. vi 명령어 설명서 작성 완료
-2. 요구사항 정의 및 분류
- - 기능적 요구사항
- - 비기능적 요구사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09:00
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:25
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:32
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:27
-18:05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:30
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:27
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:36
-18:07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:23
-15:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 추가 자료조사(관련 코드)
-2. FlowChart 수정 및 보완</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06.28 회의록 작성
-2. 요구사항 정의 및 분석</x:t>
+    <x:t>1. DateBook_Comment 부분 수정
+2. GIT보고서 수정
+ - 설치 과정 추가
+ - 명령어 부분 내용 추가
+3. PPT 머릿글 요약 작성 - (미완)</x:t>
   </x:si>
   <x:si>
     <x:t>1. 실습 환경 설정 및 설명
@@ -199,12 +105,122 @@
  - 차량 관리 어플</x:t>
   </x:si>
   <x:si>
+    <x:t>08:22
+18:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 인터페이스 구상도 작성
+2. 요구사항 분류하여 수정
+3. 추가 자료조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 수집 및 정의
+2. 요구사항 분석
+3. 구현 가능 여부 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. vi 명령어 설명서 작성
+2. 요구사항 정의 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Git 목록 삭제
+2. 요구사항 분석
+3. 인터페이스 구상도 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 추가 자료조사(관련 코드)
+2. FlowChart 수정 및 보완</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06.22, 06.23 회의록 작성
+2. Git 환경 설정
+3. Git 설정 화면 캡처 및 보고서 작성
+4. 캡스톤 아이디어 도출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 정의 및 분석 - 체계화
+ - 기능 / 비기능적 요구사항 분류 및 수정
+2. 요구사항 분석
+3. 구현 가능 여부 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:25
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:23
+15:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09:00
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:32
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:27
+18:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:27
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:36
+18:07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:30
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. vi 명령어 설명서 작성 완료
+2. 요구사항 정의 및 분류
+ - 기능적 요구사항
+ - 비기능적 요구사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 수집 및 정의
+ - 관련 필요 자료 조사
+ - 기능적/ 비기능적 요구사항 내용 추가
+2. 개발에 필요한 요구사항 분석 (실현성 확인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06_30 회의록 작성
+2. 요구사항 수정 및 관련 필요 자료 조사
+3. 15:00 ~ 지도교수 면담</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+2. 최종 아이디어 선정
+3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06.28 회의록 작성
+2. 요구사항 정의 및 분석</x:t>
+  </x:si>
+  <x:si>
     <x:t>1. 계약서 작성
 2. 현장실습 오리엔테이션</x:t>
   </x:si>
   <x:si>
     <x:t>1. 앱 화면별 Sequence 작성
-2. 앱 화면별 어떻게 구성할 것인지 구상</x:t>
+2. 앱 화면별 어떻게 구성할 것인지 구상
+3. 추가 자료조사</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -359,7 +375,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="23">
+  <x:cellXfs count="24">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -582,6 +598,19 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
@@ -1291,8 +1320,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B2:E36"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="C8" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E14" activeCellId="0" sqref="E14:E14"/>
+    <x:sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="D15" activeCellId="0" sqref="D15:D15"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.199999999999999"/>
@@ -1308,16 +1337,16 @@
     <x:row r="1" ht="6.5999999999999996" customHeight="1"/>
     <x:row r="2" spans="2:5" ht="31.199999999999999" customHeight="1">
       <x:c r="B2" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D2" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E2" s="5" t="s">
-        <x:v>12</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:5" ht="105.75">
@@ -1325,13 +1354,13 @@
         <x:v>44369</x:v>
       </x:c>
       <x:c r="C3" s="13" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D3" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E3" s="7" t="s">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:5" ht="118.55">
@@ -1339,13 +1368,13 @@
         <x:v>44370</x:v>
       </x:c>
       <x:c r="C4" s="12" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D4" s="10" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E4" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:5" ht="79.049999999999997">
@@ -1353,10 +1382,10 @@
         <x:v>44371</x:v>
       </x:c>
       <x:c r="C5" s="14" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D5" s="10" t="s">
-        <x:v>4</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E5" s="10" t="s">
         <x:v>8</x:v>
@@ -1367,13 +1396,13 @@
         <x:v>44372</x:v>
       </x:c>
       <x:c r="C6" s="16" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D6" s="10" t="s">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E6" s="15" t="s">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:5" ht="79.049999999999997">
@@ -1381,13 +1410,13 @@
         <x:v>44375</x:v>
       </x:c>
       <x:c r="C7" s="12" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D7" s="10" t="s">
-        <x:v>31</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E7" s="10" t="s">
-        <x:v>13</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:5" ht="52.700000000000003">
@@ -1395,13 +1424,13 @@
         <x:v>44376</x:v>
       </x:c>
       <x:c r="C8" s="12" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D8" s="10" t="s">
-        <x:v>16</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E8" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:5" ht="52.700000000000003">
@@ -1409,13 +1438,13 @@
         <x:v>44377</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
-        <x:v>29</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D9" s="10" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E9" s="10" t="s">
-        <x:v>3</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:5" ht="52.700000000000003">
@@ -1423,13 +1452,13 @@
         <x:v>44378</x:v>
       </x:c>
       <x:c r="C10" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D10" s="10" t="s">
-        <x:v>5</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E10" s="10" t="s">
-        <x:v>17</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:5" ht="65.849999999999994">
@@ -1437,13 +1466,13 @@
         <x:v>44379</x:v>
       </x:c>
       <x:c r="C11" s="21" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D11" s="10" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="E11" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:5" ht="105.40000000000001">
@@ -1454,10 +1483,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D12" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E12" s="10" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:5" ht="52.700000000000003">
@@ -1465,31 +1494,37 @@
         <x:v>44383</x:v>
       </x:c>
       <x:c r="C13" s="22" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D13" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E13" s="10" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="2:5" ht="26.350000000000001">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="2:5" ht="52.700000000000003">
       <x:c r="B14" s="11">
         <x:v>44384</x:v>
       </x:c>
-      <x:c r="C14" s="8"/>
+      <x:c r="C14" s="23" t="s">
+        <x:v>11</x:v>
+      </x:c>
       <x:c r="D14" s="10" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="E14" s="9"/>
-    </x:row>
-    <x:row r="15" spans="2:5">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E14" s="10" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="2:5" ht="39.549999999999997">
       <x:c r="B15" s="11">
         <x:v>44385</x:v>
       </x:c>
       <x:c r="C15" s="8"/>
-      <x:c r="D15" s="9"/>
+      <x:c r="D15" s="10" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="E15" s="9"/>
     </x:row>
     <x:row r="16" spans="2:5">

--- a/2021_Summer/jp.hong/Datebook_jph.xlsx
+++ b/2021_Summer/jp.hong/Datebook_jph.xlsx
@@ -9,24 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="8568"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="8568" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Datebook" sheetId="1" r:id="rId4"/>
+    <x:sheet name="Menu_Tree" sheetId="2" r:id="rId5"/>
   </x:sheets>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
-  <x:si>
-    <x:t>1. 진행사항 체크 및 2주차 목표 설정
-2. 06.28 회의록 작성
-3. 상용화 된 타 앱 기능 분석
-4. 요구사항 정의
- - 회원가입, DB, 무결성 (미완)
-5. vi사용법 설명</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="137">
+  <x:si>
+    <x:t>주유, 연비, 운행거리, 정비 및 기타비용 총액/월별 지출액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. vi 명령어 설명서 작성
+2. 요구사항 정의 및 분석</x:t>
   </x:si>
   <x:si>
     <x:t>1. 요구사항 분석 (실현성 확인)
@@ -38,60 +38,13 @@
  -&gt; 주유, 부품들의 수명정보(?) 어떻게 자동으로 받아올지 알아봐야함 -&gt; 블루투스 =&gt; 블루투스 연동 어떻게?</x:t>
   </x:si>
   <x:si>
-    <x:t>1. (2-2) 수익적 요소 추가
-2. (4-1) 기능정의 추가
-3. 추가 자료 조사
- - 비슷한 어플(마이클) 화면 구성 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 07.02 회의록 작성
-2. Git 업로드 한 것 중 중복된 것들 삭제
-3. 어플 흐름 구상도 작성
-4. 요구사항/기능 정의/기능 설계 3가지 부분으로 나누어 요구사항 수정(미완)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 추가 자료조사
-2. 요구사항 추가 조사
-3. 경쟁 어플 기능 비교 보완</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 현장실습 OT
- - 기업 소개 및 업무 설명
- - 앞으로 수행하게 될 프로젝트 설명
-2. 기존에 진행했던 캡스톤프로젝트 첨언
-3. 제품 개발 과정 설명
- - 제품 기획 
- - 개발 기획  
- - 개발 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 필요 자료 추가 조사
-2. 한계점 및 필요기술 추가
- - 차량 블루투스와 어플 연결 어떻게?
- - 연결이 된다면 원하는 정보만 어떻게 가져 올건지?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-1. Datebook Comment 부분 요약
-1-2. GIT 보고서 다시 작성
-1-3. PPT 머릿글 요약 작성
-1-4. 파일명 수정
-1-5 최종 아이디어 선정 이유 작성
-2. 요구사항 수집 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
- - 컴퓨터 견적 추천 앱
- - 주차시 사고발생 알림 앱
-2. 주제 아이디어 최종 선정
- - 차량 관리 어플
-3. 개발 계획서 및 요구사항 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. DateBook_Comment 부분 수정
-2. GIT보고서 수정
- - 설치 과정 추가
- - 명령어 부분 내용 추가
-3. PPT 머릿글 요약 작성 - (미완)</x:t>
+    <x:t>자동차 보험 선호도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 정보 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험료 계산</x:t>
   </x:si>
   <x:si>
     <x:t>1. 실습 환경 설정 및 설명
@@ -105,8 +58,12 @@
  - 차량 관리 어플</x:t>
   </x:si>
   <x:si>
-    <x:t>08:22
-18:01</x:t>
+    <x:t>1-1. Datebook Comment 부분 요약
+1-2. GIT 보고서 다시 작성
+1-3. PPT 머릿글 요약 작성
+1-4. 파일명 수정
+1-5 최종 아이디어 선정 이유 작성
+2. 요구사항 수집 및 분석</x:t>
   </x:si>
   <x:si>
     <x:t>1. 인터페이스 구상도 작성
@@ -119,8 +76,12 @@
 3. 구현 가능 여부 확인</x:t>
   </x:si>
   <x:si>
-    <x:t>1. vi 명령어 설명서 작성
-2. 요구사항 정의 및 분석</x:t>
+    <x:t>1. 추가 자료조사
+2. 요구사항 추가 조사
+3. 경쟁 어플 기능 비교 보완</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰 보유 목록</x:t>
   </x:si>
   <x:si>
     <x:t>1. Git 목록 삭제
@@ -132,16 +93,89 @@
 2. FlowChart 수정 및 보완</x:t>
   </x:si>
   <x:si>
-    <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Time</x:t>
+    <x:t>1. 현장실습 OT
+ - 기업 소개 및 업무 설명
+ - 앞으로 수행하게 될 프로젝트 설명
+2. 기존에 진행했던 캡스톤프로젝트 첨언
+3. 제품 개발 과정 설명
+ - 제품 기획 
+ - 개발 기획  
+ - 개발 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. (2-2) 수익적 요소 추가
+2. (4-1) 기능정의 추가
+3. 추가 자료 조사
+ - 비슷한 어플(마이클) 화면 구성 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+ - 컴퓨터 견적 추천 앱
+ - 주차시 사고발생 알림 앱
+2. 주제 아이디어 최종 선정
+ - 차량 관리 어플
+3. 개발 계획서 및 요구사항 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. DateBook_Comment 부분 수정
+2. GIT보고서 수정
+ - 설치 과정 추가
+ - 명령어 부분 내용 추가
+3. PPT 머릿글 요약 작성 - (미완)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 경쟁 어플 메뉴트리 수정
+2. 요구사항, 기능정의 순서 수정
+3. 한계점 수정
+블루투스 -&gt; 사진 촬영 ====&gt; 대체하게 되면 글자 인식하는 코드 필요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타이어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Q&amp;A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 정의 및 분석 - 체계화
+ - 기능 / 비기능적 요구사항 분류 및 수정
+2. 요구사항 분석
+3. 구현 가능 여부 확인</x:t>
   </x:si>
   <x:si>
     <x:t>1. 06.22, 06.23 회의록 작성
@@ -150,42 +184,120 @@
 4. 캡스톤 아이디어 도출</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 요구사항 정의 및 분석 - 체계화
- - 기능 / 비기능적 요구사항 분류 및 수정
-2. 요구사항 분석
-3. 구현 가능 여부 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:25
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:23
-15:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09:00
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:32
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:27
-18:05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:27
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:36
-18:07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:30
-18:00</x:t>
+    <x:t>경기/인천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이클</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결함/리콜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자차 게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차 정보 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최근 기록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 시기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메모 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오늘 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>더 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수리견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내일예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이클 이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용 가이드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에어컨필터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사진 촬영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험사 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검 스케쥴 및 일정 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험료 확인 및 갱신일 알림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운전자 추천 서비스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운전자 보험료 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친구 초대 이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>할인 쿠폰 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험, 범칙금, 주차요금, 톨게이트 비용, 차량용품 등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 앱 화면별 Sequence 작성
+2. 앱 화면별 어떻게 구성할 것인지 구상
+3. 추가 자료조사</x:t>
   </x:si>
   <x:si>
     <x:t>1. vi 명령어 설명서 작성 완료
@@ -194,6 +306,61 @@
  - 비기능적 요구사항</x:t>
   </x:si>
   <x:si>
+    <x:t>데이터 연동 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진행 방향 ---&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 필요 자료 추가 조사
+2. 한계점 및 필요기술 추가
+ - 차량 블루투스와 어플 연결 어떻게?
+ - 연결이 된다면 원하는 정보만 어떻게 가져 올건지?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06.28 회의록 작성
+2. 요구사항 정의 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:22
+18:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:27
+18:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:23
+15:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:25
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:27
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:36
+18:07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:30
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:32
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09:00
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 형태로 존재, 결함/리콜 내역</x:t>
+  </x:si>
+  <x:si>
     <x:t>1. 요구사항 수집 및 정의
  - 관련 필요 자료 조사
  - 기능적/ 비기능적 요구사항 내용 추가
@@ -210,17 +377,153 @@
 3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 06.28 회의록 작성
-2. 요구사항 정의 및 분석</x:t>
+    <x:t>1. 진행사항 체크 및 2주차 목표 설정
+2. 06.28 회의록 작성
+3. 상용화 된 타 앱 기능 분석
+4. 요구사항 정의
+ - 회원가입, DB, 무결성 (미완)
+5. vi사용법 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 07.02 회의록 작성
+2. Git 업로드 한 것 중 중복된 것들 삭제
+3. 어플 흐름 구상도 작성
+4. 요구사항/기능 정의/기능 설계 3가지 부분으로 나누어 요구사항 수정(미완)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신 글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엔진오일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모두의 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>디테일링</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 후기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차고</x:t>
   </x:si>
   <x:si>
     <x:t>1. 계약서 작성
 2. 현장실습 오리엔테이션</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 앱 화면별 Sequence 작성
-2. 앱 화면별 어떻게 구성할 것인지 구상
-3. 추가 자료조사</x:t>
+    <x:t>무료 수리 견적 받기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리뷰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인기글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>안심점검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카카오톡 문의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 시세</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타 항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 방문 장소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균 연비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tips</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객상담</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유소 포인트 적립 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 정비소 예약하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 무료 판매 견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이달의 정비/세차 혜택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 정의 및 분석 보완
+2. 기능정의 보완</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기아 커넥티드카 연동하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 2. 상품 추천 및 제품 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 지점 예약하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 판매견적 받기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유사 모델 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약/견적 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 추천 및 구매</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜/업체/시간 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 보험료 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:43
+18:02</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -270,7 +573,7 @@
       <x:b val="1"/>
     </x:font>
   </x:fonts>
-  <x:fills count="3">
+  <x:fills count="4">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -283,8 +586,14 @@
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffd1d1d1"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
   </x:fills>
-  <x:borders count="6">
+  <x:borders count="21">
     <x:border>
       <x:left>
         <x:color indexed="64"/>
@@ -363,6 +672,216 @@
         <x:color indexed="64"/>
       </x:right>
       <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
         <x:color indexed="64"/>
       </x:top>
       <x:bottom style="thin">
@@ -375,7 +894,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="24">
+  <x:cellXfs count="46">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -539,19 +1058,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -624,6 +1130,195 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
@@ -1318,10 +2013,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="B2:E36"/>
+  <x:dimension ref="B2:E42"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D15" activeCellId="0" sqref="D15:D15"/>
+    <x:sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:pane xSplit="0" ySplit="2" topLeftCell="B12" activePane="bottomLeft" state="frozen"/>
+      <x:selection pane="bottomLeft" activeCell="E15" activeCellId="0" sqref="E15:E15"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.199999999999999"/>
@@ -1337,16 +2033,16 @@
     <x:row r="1" ht="6.5999999999999996" customHeight="1"/>
     <x:row r="2" spans="2:5" ht="31.199999999999999" customHeight="1">
       <x:c r="B2" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s">
-        <x:v>20</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D2" s="4" t="s">
-        <x:v>18</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E2" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:5" ht="105.75">
@@ -1354,13 +2050,13 @@
         <x:v>44369</x:v>
       </x:c>
       <x:c r="C3" s="13" t="s">
-        <x:v>25</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D3" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E3" s="7" t="s">
-        <x:v>5</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:5" ht="118.55">
@@ -1368,13 +2064,13 @@
         <x:v>44370</x:v>
       </x:c>
       <x:c r="C4" s="12" t="s">
-        <x:v>25</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D4" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E4" s="10" t="s">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:5" ht="79.049999999999997">
@@ -1382,13 +2078,13 @@
         <x:v>44371</x:v>
       </x:c>
       <x:c r="C5" s="14" t="s">
-        <x:v>30</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D5" s="10" t="s">
-        <x:v>34</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E5" s="10" t="s">
-        <x:v>8</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:5" ht="79.049999999999997">
@@ -1396,13 +2092,13 @@
         <x:v>44372</x:v>
       </x:c>
       <x:c r="C6" s="16" t="s">
-        <x:v>30</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D6" s="10" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="E6" s="15" t="s">
-        <x:v>9</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:5" ht="79.049999999999997">
@@ -1410,13 +2106,13 @@
         <x:v>44375</x:v>
       </x:c>
       <x:c r="C7" s="12" t="s">
-        <x:v>27</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D7" s="10" t="s">
-        <x:v>35</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E7" s="10" t="s">
-        <x:v>0</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:5" ht="52.700000000000003">
@@ -1424,115 +2120,121 @@
         <x:v>44376</x:v>
       </x:c>
       <x:c r="C8" s="12" t="s">
-        <x:v>29</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D8" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E8" s="10" t="s">
-        <x:v>31</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:5" ht="52.700000000000003">
       <x:c r="B9" s="11">
         <x:v>44377</x:v>
       </x:c>
-      <x:c r="C9" s="18" t="s">
-        <x:v>24</x:v>
+      <x:c r="C9" s="17" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D9" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E9" s="10" t="s">
-        <x:v>33</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:5" ht="52.700000000000003">
       <x:c r="B10" s="11">
         <x:v>44378</x:v>
       </x:c>
-      <x:c r="C10" s="19" t="s">
-        <x:v>26</x:v>
+      <x:c r="C10" s="18" t="s">
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D10" s="10" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E10" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:5" ht="65.849999999999994">
       <x:c r="B11" s="11">
         <x:v>44379</x:v>
       </x:c>
-      <x:c r="C11" s="21" t="s">
-        <x:v>28</x:v>
+      <x:c r="C11" s="20" t="s">
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D11" s="10" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E11" s="10" t="s">
-        <x:v>3</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:5" ht="105.40000000000001">
       <x:c r="B12" s="11">
         <x:v>44382</x:v>
       </x:c>
-      <x:c r="C12" s="20" t="s">
-        <x:v>23</x:v>
+      <x:c r="C12" s="19" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D12" s="10" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E12" s="10" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:5" ht="52.700000000000003">
       <x:c r="B13" s="11">
         <x:v>44383</x:v>
       </x:c>
-      <x:c r="C13" s="22" t="s">
-        <x:v>26</x:v>
+      <x:c r="C13" s="21" t="s">
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D13" s="10" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E13" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:5" ht="52.700000000000003">
       <x:c r="B14" s="11">
         <x:v>44384</x:v>
       </x:c>
-      <x:c r="C14" s="23" t="s">
-        <x:v>11</x:v>
+      <x:c r="C14" s="22" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D14" s="10" t="s">
-        <x:v>37</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E14" s="10" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="2:5" ht="39.549999999999997">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="2:5" ht="52.700000000000003">
       <x:c r="B15" s="11">
         <x:v>44385</x:v>
       </x:c>
-      <x:c r="C15" s="8"/>
+      <x:c r="C15" s="45" t="s">
+        <x:v>136</x:v>
+      </x:c>
       <x:c r="D15" s="10" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E15" s="9"/>
-    </x:row>
-    <x:row r="16" spans="2:5">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E15" s="10" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="2:5" ht="26.350000000000001">
       <x:c r="B16" s="11">
         <x:v>44386</x:v>
       </x:c>
       <x:c r="C16" s="8"/>
-      <x:c r="D16" s="9"/>
+      <x:c r="D16" s="10" t="s">
+        <x:v>124</x:v>
+      </x:c>
       <x:c r="E16" s="9"/>
     </x:row>
     <x:row r="17" spans="2:5">
@@ -1655,23 +2357,5535 @@
       <x:c r="D31" s="9"/>
       <x:c r="E31" s="9"/>
     </x:row>
-    <x:row r="32" spans="2:2">
-      <x:c r="B32" s="17"/>
-    </x:row>
-    <x:row r="33" spans="2:2">
-      <x:c r="B33" s="17"/>
-    </x:row>
-    <x:row r="34" spans="2:2">
-      <x:c r="B34" s="17"/>
-    </x:row>
-    <x:row r="35" spans="2:2">
-      <x:c r="B35" s="17"/>
-    </x:row>
-    <x:row r="36" spans="2:2">
-      <x:c r="B36" s="17"/>
+    <x:row r="32" spans="2:5">
+      <x:c r="B32" s="11">
+        <x:v>44410</x:v>
+      </x:c>
+      <x:c r="C32" s="8"/>
+      <x:c r="D32" s="9"/>
+      <x:c r="E32" s="9"/>
+    </x:row>
+    <x:row r="33" spans="2:5">
+      <x:c r="B33" s="11">
+        <x:v>44411</x:v>
+      </x:c>
+      <x:c r="C33" s="8"/>
+      <x:c r="D33" s="9"/>
+      <x:c r="E33" s="9"/>
+    </x:row>
+    <x:row r="34" spans="2:5">
+      <x:c r="B34" s="11">
+        <x:v>44412</x:v>
+      </x:c>
+      <x:c r="C34" s="8"/>
+      <x:c r="D34" s="9"/>
+      <x:c r="E34" s="9"/>
+    </x:row>
+    <x:row r="35" spans="2:5">
+      <x:c r="B35" s="11">
+        <x:v>44413</x:v>
+      </x:c>
+      <x:c r="C35" s="8"/>
+      <x:c r="D35" s="9"/>
+      <x:c r="E35" s="9"/>
+    </x:row>
+    <x:row r="36" spans="2:5">
+      <x:c r="B36" s="11">
+        <x:v>44414</x:v>
+      </x:c>
+      <x:c r="C36" s="8"/>
+      <x:c r="D36" s="9"/>
+      <x:c r="E36" s="9"/>
+    </x:row>
+    <x:row r="37" spans="2:5">
+      <x:c r="B37" s="11">
+        <x:v>44417</x:v>
+      </x:c>
+      <x:c r="C37" s="8"/>
+      <x:c r="D37" s="9"/>
+      <x:c r="E37" s="9"/>
+    </x:row>
+    <x:row r="38" spans="2:5">
+      <x:c r="B38" s="11">
+        <x:v>44418</x:v>
+      </x:c>
+      <x:c r="C38" s="8"/>
+      <x:c r="D38" s="9"/>
+      <x:c r="E38" s="9"/>
+    </x:row>
+    <x:row r="39" spans="2:5">
+      <x:c r="B39" s="11">
+        <x:v>44419</x:v>
+      </x:c>
+      <x:c r="C39" s="8"/>
+      <x:c r="D39" s="9"/>
+      <x:c r="E39" s="9"/>
+    </x:row>
+    <x:row r="40" spans="2:5">
+      <x:c r="B40" s="11">
+        <x:v>44420</x:v>
+      </x:c>
+      <x:c r="C40" s="8"/>
+      <x:c r="D40" s="9"/>
+      <x:c r="E40" s="9"/>
+    </x:row>
+    <x:row r="41" spans="2:5">
+      <x:c r="B41" s="11">
+        <x:v>44421</x:v>
+      </x:c>
+      <x:c r="C41" s="8"/>
+      <x:c r="D41" s="9"/>
+      <x:c r="E41" s="9"/>
+    </x:row>
+    <x:row r="42" spans="2:5">
+      <x:c r="B42" s="11">
+        <x:v>44424</x:v>
+      </x:c>
+      <x:c r="C42" s="8"/>
+      <x:c r="D42" s="9"/>
+      <x:c r="E42" s="9"/>
     </x:row>
   </x:sheetData>
   <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet2"/>
+  <x:dimension ref="A1:CI1048570"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <x:selection pane="bottomLeft" activeCell="I24" activeCellId="0" sqref="I24:I24"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="1" max="1" width="13.58203125" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="17.20703125" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="22.78125" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="18.22265625" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="13.765625" bestFit="1" customWidth="1"/>
+    <x:col min="9" max="9" width="49.46484375" bestFit="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:9" ht="17.149999999999999">
+      <x:c r="A1" s="27" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B1" s="28" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C1" s="24" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D1" s="24" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E1" s="24" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F1" s="24" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G1" s="24" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H1" s="24" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="I1" s="25" t="s">
+        <x:v>104</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:9">
+      <x:c r="A2" s="42" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B2" s="33" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C2" s="36" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D2" s="36" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E2" s="26" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="F2" s="26"/>
+      <x:c r="G2" s="26"/>
+      <x:c r="H2" s="26"/>
+      <x:c r="I2" s="26" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:9">
+      <x:c r="A3" s="43"/>
+      <x:c r="B3" s="34"/>
+      <x:c r="C3" s="37"/>
+      <x:c r="D3" s="37"/>
+      <x:c r="E3" s="23" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="F3" s="23"/>
+      <x:c r="G3" s="23"/>
+      <x:c r="H3" s="23"/>
+      <x:c r="I3" s="23" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:9">
+      <x:c r="A4" s="43"/>
+      <x:c r="B4" s="34"/>
+      <x:c r="C4" s="37"/>
+      <x:c r="D4" s="37"/>
+      <x:c r="E4" s="23" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F4" s="23"/>
+      <x:c r="G4" s="23"/>
+      <x:c r="H4" s="23"/>
+      <x:c r="I4" s="23"/>
+    </x:row>
+    <x:row r="5" spans="1:9">
+      <x:c r="A5" s="43"/>
+      <x:c r="B5" s="34"/>
+      <x:c r="C5" s="37"/>
+      <x:c r="D5" s="37"/>
+      <x:c r="E5" s="32" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="F5" s="23" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="G5" s="23"/>
+      <x:c r="H5" s="23"/>
+      <x:c r="I5" s="23"/>
+    </x:row>
+    <x:row r="6" spans="1:9">
+      <x:c r="A6" s="43"/>
+      <x:c r="B6" s="34"/>
+      <x:c r="C6" s="37"/>
+      <x:c r="D6" s="38"/>
+      <x:c r="E6" s="31"/>
+      <x:c r="F6" s="23" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G6" s="23"/>
+      <x:c r="H6" s="23"/>
+      <x:c r="I6" s="23"/>
+    </x:row>
+    <x:row r="7" spans="1:9">
+      <x:c r="A7" s="43"/>
+      <x:c r="B7" s="34"/>
+      <x:c r="C7" s="37"/>
+      <x:c r="D7" s="39" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E7" s="23" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F7" s="23"/>
+      <x:c r="G7" s="23"/>
+      <x:c r="H7" s="23"/>
+      <x:c r="I7" s="23"/>
+    </x:row>
+    <x:row r="8" spans="1:9">
+      <x:c r="A8" s="43"/>
+      <x:c r="B8" s="34"/>
+      <x:c r="C8" s="37"/>
+      <x:c r="D8" s="37"/>
+      <x:c r="E8" s="23" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F8" s="23"/>
+      <x:c r="G8" s="23"/>
+      <x:c r="H8" s="23"/>
+      <x:c r="I8" s="23" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:9">
+      <x:c r="A9" s="43"/>
+      <x:c r="B9" s="34"/>
+      <x:c r="C9" s="37"/>
+      <x:c r="D9" s="37"/>
+      <x:c r="E9" s="23" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F9" s="23"/>
+      <x:c r="G9" s="23"/>
+      <x:c r="H9" s="23"/>
+      <x:c r="I9" s="23" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:9">
+      <x:c r="A10" s="43"/>
+      <x:c r="B10" s="34"/>
+      <x:c r="C10" s="37"/>
+      <x:c r="D10" s="37"/>
+      <x:c r="E10" s="23" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="F10" s="23" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="G10" s="23"/>
+      <x:c r="H10" s="23"/>
+      <x:c r="I10" s="23"/>
+    </x:row>
+    <x:row r="11" spans="1:9">
+      <x:c r="A11" s="43"/>
+      <x:c r="B11" s="34"/>
+      <x:c r="C11" s="37"/>
+      <x:c r="D11" s="38"/>
+      <x:c r="E11" s="23"/>
+      <x:c r="F11" s="23" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="G11" s="23"/>
+      <x:c r="H11" s="23"/>
+      <x:c r="I11" s="23" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:9">
+      <x:c r="A12" s="43"/>
+      <x:c r="B12" s="34"/>
+      <x:c r="C12" s="37"/>
+      <x:c r="D12" s="23" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E12" s="23"/>
+      <x:c r="F12" s="23"/>
+      <x:c r="G12" s="23"/>
+      <x:c r="H12" s="23"/>
+      <x:c r="I12" s="23"/>
+    </x:row>
+    <x:row r="13" spans="1:28">
+      <x:c r="A13" s="43"/>
+      <x:c r="B13" s="34"/>
+      <x:c r="C13" s="38"/>
+      <x:c r="D13" s="23" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E13" s="23" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="F13" s="23"/>
+      <x:c r="G13" s="23"/>
+      <x:c r="H13" s="23"/>
+      <x:c r="I13" s="23"/>
+      <x:c r="J13" s="41"/>
+      <x:c r="K13" s="41"/>
+      <x:c r="L13" s="41"/>
+      <x:c r="M13" s="41"/>
+      <x:c r="N13" s="41"/>
+      <x:c r="O13" s="41"/>
+      <x:c r="P13" s="41"/>
+      <x:c r="Q13" s="41"/>
+      <x:c r="R13" s="41"/>
+      <x:c r="S13" s="41"/>
+      <x:c r="T13" s="41"/>
+      <x:c r="U13" s="41"/>
+      <x:c r="V13" s="41"/>
+      <x:c r="W13" s="41"/>
+      <x:c r="X13" s="41"/>
+      <x:c r="Y13" s="41"/>
+      <x:c r="Z13" s="41"/>
+      <x:c r="AA13" s="41"/>
+      <x:c r="AB13" s="41"/>
+    </x:row>
+    <x:row r="14" spans="1:28">
+      <x:c r="A14" s="43"/>
+      <x:c r="B14" s="34"/>
+      <x:c r="C14" s="39" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D14" s="39" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E14" s="23" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F14" s="23"/>
+      <x:c r="G14" s="23"/>
+      <x:c r="H14" s="23"/>
+      <x:c r="I14" s="23"/>
+      <x:c r="J14" s="41"/>
+      <x:c r="K14" s="41"/>
+      <x:c r="L14" s="41"/>
+      <x:c r="M14" s="41"/>
+      <x:c r="N14" s="41"/>
+      <x:c r="O14" s="41"/>
+      <x:c r="P14" s="41"/>
+      <x:c r="Q14" s="41"/>
+      <x:c r="R14" s="41"/>
+      <x:c r="S14" s="41"/>
+      <x:c r="T14" s="41"/>
+      <x:c r="U14" s="41"/>
+      <x:c r="V14" s="41"/>
+      <x:c r="W14" s="41"/>
+      <x:c r="X14" s="41"/>
+      <x:c r="Y14" s="41"/>
+      <x:c r="Z14" s="41"/>
+      <x:c r="AA14" s="41"/>
+      <x:c r="AB14" s="41"/>
+    </x:row>
+    <x:row r="15" spans="1:28">
+      <x:c r="A15" s="43"/>
+      <x:c r="B15" s="34"/>
+      <x:c r="C15" s="37"/>
+      <x:c r="D15" s="37"/>
+      <x:c r="E15" s="23" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="F15" s="23"/>
+      <x:c r="G15" s="23"/>
+      <x:c r="H15" s="23"/>
+      <x:c r="I15" s="23"/>
+      <x:c r="J15" s="41"/>
+      <x:c r="K15" s="41"/>
+      <x:c r="L15" s="41"/>
+      <x:c r="M15" s="41"/>
+      <x:c r="N15" s="41"/>
+      <x:c r="O15" s="41"/>
+      <x:c r="P15" s="41"/>
+      <x:c r="Q15" s="41"/>
+      <x:c r="R15" s="41"/>
+      <x:c r="S15" s="41"/>
+      <x:c r="T15" s="41"/>
+      <x:c r="U15" s="41"/>
+      <x:c r="V15" s="41"/>
+      <x:c r="W15" s="41"/>
+      <x:c r="X15" s="41"/>
+      <x:c r="Y15" s="41"/>
+      <x:c r="Z15" s="41"/>
+      <x:c r="AA15" s="41"/>
+      <x:c r="AB15" s="41"/>
+    </x:row>
+    <x:row r="16" spans="1:28">
+      <x:c r="A16" s="43"/>
+      <x:c r="B16" s="34"/>
+      <x:c r="C16" s="37"/>
+      <x:c r="D16" s="37"/>
+      <x:c r="E16" s="23" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F16" s="23"/>
+      <x:c r="G16" s="23"/>
+      <x:c r="H16" s="23"/>
+      <x:c r="I16" s="23"/>
+      <x:c r="J16" s="41"/>
+      <x:c r="L16" s="41"/>
+      <x:c r="M16" s="41"/>
+      <x:c r="N16" s="41"/>
+      <x:c r="O16" s="41"/>
+      <x:c r="P16" s="41"/>
+      <x:c r="Q16" s="41"/>
+      <x:c r="R16" s="41"/>
+      <x:c r="S16" s="41"/>
+      <x:c r="T16" s="41"/>
+      <x:c r="U16" s="41"/>
+      <x:c r="V16" s="41"/>
+      <x:c r="W16" s="41"/>
+      <x:c r="X16" s="41"/>
+      <x:c r="Y16" s="41"/>
+      <x:c r="Z16" s="41"/>
+      <x:c r="AA16" s="41"/>
+      <x:c r="AB16" s="41"/>
+    </x:row>
+    <x:row r="17" spans="1:28">
+      <x:c r="A17" s="43"/>
+      <x:c r="B17" s="34"/>
+      <x:c r="C17" s="37"/>
+      <x:c r="D17" s="38"/>
+      <x:c r="E17" s="23" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F17" s="23"/>
+      <x:c r="G17" s="23"/>
+      <x:c r="H17" s="23"/>
+      <x:c r="I17" s="23" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="J17" s="41"/>
+      <x:c r="K17" s="41"/>
+      <x:c r="L17" s="41"/>
+      <x:c r="M17" s="41"/>
+      <x:c r="N17" s="41"/>
+      <x:c r="O17" s="41"/>
+      <x:c r="P17" s="41"/>
+      <x:c r="Q17" s="41"/>
+      <x:c r="R17" s="41"/>
+      <x:c r="S17" s="41"/>
+      <x:c r="T17" s="41"/>
+      <x:c r="U17" s="41"/>
+      <x:c r="V17" s="41"/>
+      <x:c r="W17" s="41"/>
+      <x:c r="X17" s="41"/>
+      <x:c r="Y17" s="41"/>
+      <x:c r="Z17" s="41"/>
+      <x:c r="AA17" s="41"/>
+      <x:c r="AB17" s="41"/>
+    </x:row>
+    <x:row r="18" spans="1:28">
+      <x:c r="A18" s="43"/>
+      <x:c r="B18" s="34"/>
+      <x:c r="C18" s="37"/>
+      <x:c r="D18" s="23" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E18" s="23" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F18" s="23" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="G18" s="23"/>
+      <x:c r="H18" s="23"/>
+      <x:c r="I18" s="23"/>
+      <x:c r="J18" s="41"/>
+      <x:c r="K18" s="41"/>
+      <x:c r="L18" s="41"/>
+      <x:c r="M18" s="41"/>
+      <x:c r="N18" s="41"/>
+      <x:c r="O18" s="41"/>
+      <x:c r="P18" s="41"/>
+      <x:c r="Q18" s="41"/>
+      <x:c r="R18" s="41"/>
+      <x:c r="S18" s="41"/>
+      <x:c r="T18" s="41"/>
+      <x:c r="U18" s="41"/>
+      <x:c r="V18" s="41"/>
+      <x:c r="W18" s="41"/>
+      <x:c r="X18" s="41"/>
+      <x:c r="Y18" s="41"/>
+      <x:c r="Z18" s="41"/>
+      <x:c r="AA18" s="41"/>
+      <x:c r="AB18" s="41"/>
+    </x:row>
+    <x:row r="19" spans="1:28">
+      <x:c r="A19" s="43"/>
+      <x:c r="B19" s="34"/>
+      <x:c r="C19" s="37"/>
+      <x:c r="D19" s="23" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E19" s="23"/>
+      <x:c r="F19" s="23"/>
+      <x:c r="G19" s="23"/>
+      <x:c r="H19" s="23"/>
+      <x:c r="I19" s="23"/>
+      <x:c r="J19" s="41"/>
+      <x:c r="K19" s="41"/>
+      <x:c r="L19" s="41"/>
+      <x:c r="M19" s="41"/>
+      <x:c r="N19" s="41"/>
+      <x:c r="O19" s="41"/>
+      <x:c r="P19" s="41"/>
+      <x:c r="Q19" s="41"/>
+      <x:c r="R19" s="41"/>
+      <x:c r="S19" s="41"/>
+      <x:c r="T19" s="41"/>
+      <x:c r="U19" s="41"/>
+      <x:c r="V19" s="41"/>
+      <x:c r="W19" s="41"/>
+      <x:c r="X19" s="41"/>
+      <x:c r="Y19" s="41"/>
+      <x:c r="Z19" s="41"/>
+      <x:c r="AA19" s="41"/>
+      <x:c r="AB19" s="41"/>
+    </x:row>
+    <x:row r="20" spans="1:28">
+      <x:c r="A20" s="43"/>
+      <x:c r="B20" s="34"/>
+      <x:c r="C20" s="37"/>
+      <x:c r="D20" s="23" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E20" s="23"/>
+      <x:c r="F20" s="23"/>
+      <x:c r="G20" s="23"/>
+      <x:c r="H20" s="23"/>
+      <x:c r="I20" s="23"/>
+      <x:c r="J20" s="41"/>
+      <x:c r="K20" s="41"/>
+      <x:c r="L20" s="41"/>
+      <x:c r="M20" s="41"/>
+      <x:c r="N20" s="41"/>
+      <x:c r="O20" s="41"/>
+      <x:c r="P20" s="41"/>
+      <x:c r="Q20" s="41"/>
+      <x:c r="R20" s="41"/>
+      <x:c r="S20" s="41"/>
+      <x:c r="T20" s="41"/>
+      <x:c r="U20" s="41"/>
+      <x:c r="V20" s="41"/>
+      <x:c r="W20" s="41"/>
+      <x:c r="X20" s="41"/>
+      <x:c r="Y20" s="41"/>
+      <x:c r="Z20" s="41"/>
+      <x:c r="AA20" s="41"/>
+      <x:c r="AB20" s="41"/>
+    </x:row>
+    <x:row r="21" spans="1:28">
+      <x:c r="A21" s="43"/>
+      <x:c r="B21" s="34"/>
+      <x:c r="C21" s="37"/>
+      <x:c r="D21" s="23" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E21" s="23"/>
+      <x:c r="F21" s="23"/>
+      <x:c r="G21" s="23"/>
+      <x:c r="H21" s="23"/>
+      <x:c r="I21" s="23"/>
+      <x:c r="J21" s="41"/>
+      <x:c r="K21" s="41"/>
+      <x:c r="L21" s="41"/>
+      <x:c r="M21" s="41"/>
+      <x:c r="N21" s="41"/>
+      <x:c r="O21" s="41"/>
+      <x:c r="P21" s="41"/>
+      <x:c r="Q21" s="41"/>
+      <x:c r="R21" s="41"/>
+      <x:c r="S21" s="41"/>
+      <x:c r="T21" s="41"/>
+      <x:c r="U21" s="41"/>
+      <x:c r="V21" s="41"/>
+      <x:c r="W21" s="41"/>
+      <x:c r="X21" s="41"/>
+      <x:c r="Y21" s="41"/>
+      <x:c r="Z21" s="41"/>
+      <x:c r="AA21" s="41"/>
+      <x:c r="AB21" s="41"/>
+    </x:row>
+    <x:row r="22" spans="1:28">
+      <x:c r="A22" s="43"/>
+      <x:c r="B22" s="35"/>
+      <x:c r="C22" s="38"/>
+      <x:c r="D22" s="23" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E22" s="23"/>
+      <x:c r="F22" s="23"/>
+      <x:c r="G22" s="23"/>
+      <x:c r="H22" s="23"/>
+      <x:c r="I22" s="23"/>
+      <x:c r="J22" s="41"/>
+      <x:c r="K22" s="41"/>
+      <x:c r="L22" s="41"/>
+      <x:c r="M22" s="41"/>
+      <x:c r="N22" s="41"/>
+      <x:c r="O22" s="41"/>
+      <x:c r="P22" s="41"/>
+      <x:c r="Q22" s="41"/>
+      <x:c r="R22" s="41"/>
+      <x:c r="S22" s="41"/>
+      <x:c r="T22" s="41"/>
+      <x:c r="U22" s="41"/>
+      <x:c r="V22" s="41"/>
+      <x:c r="W22" s="41"/>
+      <x:c r="X22" s="41"/>
+      <x:c r="Y22" s="41"/>
+      <x:c r="Z22" s="41"/>
+      <x:c r="AA22" s="41"/>
+      <x:c r="AB22" s="41"/>
+    </x:row>
+    <x:row r="23" spans="1:28">
+      <x:c r="A23" s="43"/>
+      <x:c r="B23" s="40" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C23" s="23" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D23" s="23"/>
+      <x:c r="E23" s="23"/>
+      <x:c r="F23" s="23"/>
+      <x:c r="G23" s="23"/>
+      <x:c r="H23" s="23"/>
+      <x:c r="I23" s="23"/>
+      <x:c r="J23" s="41"/>
+      <x:c r="K23" s="41"/>
+      <x:c r="L23" s="41"/>
+      <x:c r="M23" s="41"/>
+      <x:c r="N23" s="41"/>
+      <x:c r="O23" s="41"/>
+      <x:c r="P23" s="41"/>
+      <x:c r="Q23" s="41"/>
+      <x:c r="R23" s="41"/>
+      <x:c r="S23" s="41"/>
+      <x:c r="T23" s="41"/>
+      <x:c r="U23" s="41"/>
+      <x:c r="V23" s="41"/>
+      <x:c r="W23" s="41"/>
+      <x:c r="X23" s="41"/>
+      <x:c r="Y23" s="41"/>
+      <x:c r="Z23" s="41"/>
+      <x:c r="AA23" s="41"/>
+      <x:c r="AB23" s="41"/>
+    </x:row>
+    <x:row r="24" spans="1:28">
+      <x:c r="A24" s="43"/>
+      <x:c r="B24" s="34"/>
+      <x:c r="C24" s="23" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D24" s="23"/>
+      <x:c r="E24" s="23"/>
+      <x:c r="F24" s="23"/>
+      <x:c r="G24" s="23"/>
+      <x:c r="H24" s="23"/>
+      <x:c r="I24" s="23"/>
+      <x:c r="J24" s="41"/>
+      <x:c r="K24" s="41"/>
+      <x:c r="L24" s="41"/>
+      <x:c r="M24" s="41"/>
+      <x:c r="N24" s="41"/>
+      <x:c r="O24" s="41"/>
+      <x:c r="P24" s="41"/>
+      <x:c r="Q24" s="41"/>
+      <x:c r="R24" s="41"/>
+      <x:c r="S24" s="41"/>
+      <x:c r="T24" s="41"/>
+      <x:c r="U24" s="41"/>
+      <x:c r="V24" s="41"/>
+      <x:c r="W24" s="41"/>
+      <x:c r="X24" s="41"/>
+      <x:c r="Y24" s="41"/>
+      <x:c r="Z24" s="41"/>
+      <x:c r="AA24" s="41"/>
+      <x:c r="AB24" s="41"/>
+    </x:row>
+    <x:row r="25" spans="1:28">
+      <x:c r="A25" s="43"/>
+      <x:c r="B25" s="34"/>
+      <x:c r="C25" s="23" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D25" s="23"/>
+      <x:c r="E25" s="23"/>
+      <x:c r="F25" s="23"/>
+      <x:c r="G25" s="23"/>
+      <x:c r="H25" s="23"/>
+      <x:c r="I25" s="23" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="J25" s="41"/>
+      <x:c r="K25" s="41"/>
+      <x:c r="L25" s="41"/>
+      <x:c r="M25" s="41"/>
+      <x:c r="N25" s="41"/>
+      <x:c r="O25" s="41"/>
+      <x:c r="P25" s="41"/>
+      <x:c r="Q25" s="41"/>
+      <x:c r="R25" s="41"/>
+      <x:c r="S25" s="41"/>
+      <x:c r="T25" s="41"/>
+      <x:c r="U25" s="41"/>
+      <x:c r="V25" s="41"/>
+      <x:c r="W25" s="41"/>
+      <x:c r="X25" s="41"/>
+      <x:c r="Y25" s="41"/>
+      <x:c r="Z25" s="41"/>
+      <x:c r="AA25" s="41"/>
+      <x:c r="AB25" s="41"/>
+    </x:row>
+    <x:row r="26" spans="1:87">
+      <x:c r="A26" s="43"/>
+      <x:c r="B26" s="34"/>
+      <x:c r="C26" s="39" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D26" s="23" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E26" s="23" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F26" s="23"/>
+      <x:c r="G26" s="23"/>
+      <x:c r="H26" s="23"/>
+      <x:c r="I26" s="23"/>
+      <x:c r="J26" s="41"/>
+      <x:c r="K26" s="41"/>
+      <x:c r="L26" s="41"/>
+      <x:c r="M26" s="41"/>
+      <x:c r="N26" s="41"/>
+      <x:c r="O26" s="41"/>
+      <x:c r="P26" s="41"/>
+      <x:c r="Q26" s="41"/>
+      <x:c r="R26" s="41"/>
+      <x:c r="S26" s="41"/>
+      <x:c r="T26" s="41"/>
+      <x:c r="U26" s="41"/>
+      <x:c r="V26" s="41"/>
+      <x:c r="W26" s="41"/>
+      <x:c r="X26" s="41"/>
+      <x:c r="Y26" s="41"/>
+      <x:c r="Z26" s="41"/>
+      <x:c r="AA26" s="41"/>
+      <x:c r="AB26" s="41"/>
+      <x:c r="AC26" s="41"/>
+      <x:c r="AD26" s="41"/>
+      <x:c r="AE26" s="41"/>
+      <x:c r="AF26" s="41"/>
+      <x:c r="AG26" s="41"/>
+      <x:c r="AH26" s="41"/>
+      <x:c r="AI26" s="41"/>
+      <x:c r="AJ26" s="41"/>
+      <x:c r="AK26" s="41"/>
+      <x:c r="AL26" s="41"/>
+      <x:c r="AM26" s="41"/>
+      <x:c r="AN26" s="41"/>
+      <x:c r="AO26" s="41"/>
+      <x:c r="AP26" s="41"/>
+      <x:c r="AQ26" s="41"/>
+      <x:c r="AR26" s="41"/>
+      <x:c r="AS26" s="41"/>
+      <x:c r="AT26" s="41"/>
+      <x:c r="AU26" s="41"/>
+      <x:c r="AV26" s="41"/>
+      <x:c r="AW26" s="41"/>
+      <x:c r="AX26" s="41"/>
+      <x:c r="AY26" s="41"/>
+      <x:c r="AZ26" s="41"/>
+      <x:c r="BA26" s="41"/>
+      <x:c r="BB26" s="41"/>
+      <x:c r="BC26" s="41"/>
+      <x:c r="BD26" s="41"/>
+      <x:c r="BE26" s="41"/>
+      <x:c r="BF26" s="41"/>
+      <x:c r="BG26" s="41"/>
+      <x:c r="BH26" s="41"/>
+      <x:c r="BI26" s="41"/>
+      <x:c r="BJ26" s="41"/>
+      <x:c r="BK26" s="41"/>
+      <x:c r="BL26" s="41"/>
+      <x:c r="BM26" s="41"/>
+      <x:c r="BN26" s="41"/>
+      <x:c r="BO26" s="41"/>
+      <x:c r="BP26" s="41"/>
+      <x:c r="BQ26" s="41"/>
+      <x:c r="BR26" s="41"/>
+      <x:c r="BS26" s="41"/>
+      <x:c r="BT26" s="41"/>
+      <x:c r="BU26" s="41"/>
+      <x:c r="BV26" s="41"/>
+      <x:c r="BW26" s="41"/>
+      <x:c r="BX26" s="41"/>
+      <x:c r="BY26" s="41"/>
+      <x:c r="BZ26" s="41"/>
+      <x:c r="CA26" s="41"/>
+      <x:c r="CB26" s="41"/>
+      <x:c r="CC26" s="41"/>
+      <x:c r="CD26" s="41"/>
+      <x:c r="CE26" s="41"/>
+      <x:c r="CF26" s="41"/>
+      <x:c r="CG26" s="41"/>
+      <x:c r="CH26" s="41"/>
+      <x:c r="CI26" s="41"/>
+    </x:row>
+    <x:row r="27" spans="1:87">
+      <x:c r="A27" s="43"/>
+      <x:c r="B27" s="34"/>
+      <x:c r="C27" s="38"/>
+      <x:c r="D27" s="23" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E27" s="23" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F27" s="23"/>
+      <x:c r="G27" s="23"/>
+      <x:c r="H27" s="23"/>
+      <x:c r="I27" s="23"/>
+      <x:c r="J27" s="41"/>
+      <x:c r="K27" s="41"/>
+      <x:c r="L27" s="41"/>
+      <x:c r="M27" s="41"/>
+      <x:c r="N27" s="41"/>
+      <x:c r="O27" s="41"/>
+      <x:c r="P27" s="41"/>
+      <x:c r="Q27" s="41"/>
+      <x:c r="R27" s="41"/>
+      <x:c r="S27" s="41"/>
+      <x:c r="T27" s="41"/>
+      <x:c r="U27" s="41"/>
+      <x:c r="V27" s="41"/>
+      <x:c r="W27" s="41"/>
+      <x:c r="X27" s="41"/>
+      <x:c r="Y27" s="41"/>
+      <x:c r="Z27" s="41"/>
+      <x:c r="AA27" s="41"/>
+      <x:c r="AB27" s="41"/>
+      <x:c r="AC27" s="41"/>
+      <x:c r="AD27" s="41"/>
+      <x:c r="AE27" s="41"/>
+      <x:c r="AF27" s="41"/>
+      <x:c r="AG27" s="41"/>
+      <x:c r="AH27" s="41"/>
+      <x:c r="AI27" s="41"/>
+      <x:c r="AJ27" s="41"/>
+      <x:c r="AK27" s="41"/>
+      <x:c r="AL27" s="41"/>
+      <x:c r="AM27" s="41"/>
+      <x:c r="AN27" s="41"/>
+      <x:c r="AO27" s="41"/>
+      <x:c r="AP27" s="41"/>
+      <x:c r="AQ27" s="41"/>
+      <x:c r="AR27" s="41"/>
+      <x:c r="AS27" s="41"/>
+      <x:c r="AT27" s="41"/>
+      <x:c r="AU27" s="41"/>
+      <x:c r="AV27" s="41"/>
+      <x:c r="AW27" s="41"/>
+      <x:c r="AX27" s="41"/>
+      <x:c r="AY27" s="41"/>
+      <x:c r="AZ27" s="41"/>
+      <x:c r="BA27" s="41"/>
+      <x:c r="BB27" s="41"/>
+      <x:c r="BC27" s="41"/>
+      <x:c r="BD27" s="41"/>
+      <x:c r="BE27" s="41"/>
+      <x:c r="BF27" s="41"/>
+      <x:c r="BG27" s="41"/>
+      <x:c r="BH27" s="41"/>
+      <x:c r="BI27" s="41"/>
+      <x:c r="BJ27" s="41"/>
+      <x:c r="BK27" s="41"/>
+      <x:c r="BL27" s="41"/>
+      <x:c r="BM27" s="41"/>
+      <x:c r="BN27" s="41"/>
+      <x:c r="BO27" s="41"/>
+      <x:c r="BP27" s="41"/>
+      <x:c r="BQ27" s="41"/>
+      <x:c r="BR27" s="41"/>
+      <x:c r="BS27" s="41"/>
+      <x:c r="BT27" s="41"/>
+      <x:c r="BU27" s="41"/>
+      <x:c r="BV27" s="41"/>
+      <x:c r="BW27" s="41"/>
+      <x:c r="BX27" s="41"/>
+      <x:c r="BY27" s="41"/>
+      <x:c r="BZ27" s="41"/>
+      <x:c r="CA27" s="41"/>
+      <x:c r="CB27" s="41"/>
+      <x:c r="CC27" s="41"/>
+      <x:c r="CD27" s="41"/>
+      <x:c r="CE27" s="41"/>
+      <x:c r="CF27" s="41"/>
+      <x:c r="CG27" s="41"/>
+      <x:c r="CH27" s="41"/>
+      <x:c r="CI27" s="41"/>
+    </x:row>
+    <x:row r="28" spans="1:87">
+      <x:c r="A28" s="43"/>
+      <x:c r="B28" s="34"/>
+      <x:c r="C28" s="23" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D28" s="23" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E28" s="23"/>
+      <x:c r="F28" s="23"/>
+      <x:c r="G28" s="23"/>
+      <x:c r="H28" s="23"/>
+      <x:c r="I28" s="23"/>
+      <x:c r="J28" s="41"/>
+      <x:c r="K28" s="41"/>
+      <x:c r="L28" s="41"/>
+      <x:c r="M28" s="41"/>
+      <x:c r="N28" s="41"/>
+      <x:c r="O28" s="41"/>
+      <x:c r="P28" s="41"/>
+      <x:c r="Q28" s="41"/>
+      <x:c r="R28" s="41"/>
+      <x:c r="S28" s="41"/>
+      <x:c r="T28" s="41"/>
+      <x:c r="U28" s="41"/>
+      <x:c r="V28" s="41"/>
+      <x:c r="W28" s="41"/>
+      <x:c r="X28" s="41"/>
+      <x:c r="Y28" s="41"/>
+      <x:c r="Z28" s="41"/>
+      <x:c r="AA28" s="41"/>
+      <x:c r="AB28" s="41"/>
+      <x:c r="AC28" s="41"/>
+      <x:c r="AD28" s="41"/>
+      <x:c r="AE28" s="41"/>
+      <x:c r="AF28" s="41"/>
+      <x:c r="AG28" s="41"/>
+      <x:c r="AH28" s="41"/>
+      <x:c r="AI28" s="41"/>
+      <x:c r="AJ28" s="41"/>
+      <x:c r="AK28" s="41"/>
+      <x:c r="AL28" s="41"/>
+      <x:c r="AM28" s="41"/>
+      <x:c r="AN28" s="41"/>
+      <x:c r="AO28" s="41"/>
+      <x:c r="AP28" s="41"/>
+      <x:c r="AQ28" s="41"/>
+      <x:c r="AR28" s="41"/>
+      <x:c r="AS28" s="41"/>
+      <x:c r="AT28" s="41"/>
+      <x:c r="AU28" s="41"/>
+      <x:c r="AV28" s="41"/>
+      <x:c r="AW28" s="41"/>
+      <x:c r="AX28" s="41"/>
+      <x:c r="AY28" s="41"/>
+      <x:c r="AZ28" s="41"/>
+      <x:c r="BA28" s="41"/>
+      <x:c r="BB28" s="41"/>
+      <x:c r="BC28" s="41"/>
+      <x:c r="BD28" s="41"/>
+      <x:c r="BE28" s="41"/>
+      <x:c r="BF28" s="41"/>
+      <x:c r="BG28" s="41"/>
+      <x:c r="BH28" s="41"/>
+      <x:c r="BI28" s="41"/>
+      <x:c r="BJ28" s="41"/>
+      <x:c r="BK28" s="41"/>
+      <x:c r="BL28" s="41"/>
+      <x:c r="BM28" s="41"/>
+      <x:c r="BN28" s="41"/>
+      <x:c r="BO28" s="41"/>
+      <x:c r="BP28" s="41"/>
+      <x:c r="BQ28" s="41"/>
+      <x:c r="BR28" s="41"/>
+      <x:c r="BS28" s="41"/>
+      <x:c r="BT28" s="41"/>
+      <x:c r="BU28" s="41"/>
+      <x:c r="BV28" s="41"/>
+      <x:c r="BW28" s="41"/>
+      <x:c r="BX28" s="41"/>
+      <x:c r="BY28" s="41"/>
+      <x:c r="BZ28" s="41"/>
+      <x:c r="CA28" s="41"/>
+      <x:c r="CB28" s="41"/>
+      <x:c r="CC28" s="41"/>
+      <x:c r="CD28" s="41"/>
+      <x:c r="CE28" s="41"/>
+      <x:c r="CF28" s="41"/>
+      <x:c r="CG28" s="41"/>
+      <x:c r="CH28" s="41"/>
+      <x:c r="CI28" s="41"/>
+    </x:row>
+    <x:row r="29" spans="1:87">
+      <x:c r="A29" s="43"/>
+      <x:c r="B29" s="34"/>
+      <x:c r="C29" s="23" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D29" s="23" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="E29" s="23" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="F29" s="23"/>
+      <x:c r="G29" s="23"/>
+      <x:c r="H29" s="23"/>
+      <x:c r="I29" s="23"/>
+      <x:c r="J29" s="41"/>
+      <x:c r="K29" s="41"/>
+      <x:c r="L29" s="41"/>
+      <x:c r="M29" s="41"/>
+      <x:c r="N29" s="41"/>
+      <x:c r="O29" s="41"/>
+      <x:c r="P29" s="41"/>
+      <x:c r="Q29" s="41"/>
+      <x:c r="R29" s="41"/>
+      <x:c r="S29" s="41"/>
+      <x:c r="T29" s="41"/>
+      <x:c r="U29" s="41"/>
+      <x:c r="V29" s="41"/>
+      <x:c r="W29" s="41"/>
+      <x:c r="X29" s="41"/>
+      <x:c r="Y29" s="41"/>
+      <x:c r="Z29" s="41"/>
+      <x:c r="AA29" s="41"/>
+      <x:c r="AB29" s="41"/>
+      <x:c r="AC29" s="41"/>
+      <x:c r="AD29" s="41"/>
+      <x:c r="AE29" s="41"/>
+      <x:c r="AF29" s="41"/>
+      <x:c r="AG29" s="41"/>
+      <x:c r="AH29" s="41"/>
+      <x:c r="AI29" s="41"/>
+      <x:c r="AJ29" s="41"/>
+      <x:c r="AK29" s="41"/>
+      <x:c r="AL29" s="41"/>
+      <x:c r="AM29" s="41"/>
+      <x:c r="AN29" s="41"/>
+      <x:c r="AO29" s="41"/>
+      <x:c r="AP29" s="41"/>
+      <x:c r="AQ29" s="41"/>
+      <x:c r="AR29" s="41"/>
+      <x:c r="AS29" s="41"/>
+      <x:c r="AT29" s="41"/>
+      <x:c r="AU29" s="41"/>
+      <x:c r="AV29" s="41"/>
+      <x:c r="AW29" s="41"/>
+      <x:c r="AX29" s="41"/>
+      <x:c r="AY29" s="41"/>
+      <x:c r="AZ29" s="41"/>
+      <x:c r="BA29" s="41"/>
+      <x:c r="BB29" s="41"/>
+      <x:c r="BC29" s="41"/>
+      <x:c r="BD29" s="41"/>
+      <x:c r="BE29" s="41"/>
+      <x:c r="BF29" s="41"/>
+      <x:c r="BG29" s="41"/>
+      <x:c r="BH29" s="41"/>
+      <x:c r="BI29" s="41"/>
+      <x:c r="BJ29" s="41"/>
+      <x:c r="BK29" s="41"/>
+      <x:c r="BL29" s="41"/>
+      <x:c r="BM29" s="41"/>
+      <x:c r="BN29" s="41"/>
+      <x:c r="BO29" s="41"/>
+      <x:c r="BP29" s="41"/>
+      <x:c r="BQ29" s="41"/>
+      <x:c r="BR29" s="41"/>
+      <x:c r="BS29" s="41"/>
+      <x:c r="BT29" s="41"/>
+      <x:c r="BU29" s="41"/>
+      <x:c r="BV29" s="41"/>
+      <x:c r="BW29" s="41"/>
+      <x:c r="BX29" s="41"/>
+      <x:c r="BY29" s="41"/>
+      <x:c r="BZ29" s="41"/>
+      <x:c r="CA29" s="41"/>
+      <x:c r="CB29" s="41"/>
+      <x:c r="CC29" s="41"/>
+      <x:c r="CD29" s="41"/>
+      <x:c r="CE29" s="41"/>
+      <x:c r="CF29" s="41"/>
+      <x:c r="CG29" s="41"/>
+      <x:c r="CH29" s="41"/>
+      <x:c r="CI29" s="41"/>
+    </x:row>
+    <x:row r="30" spans="1:87">
+      <x:c r="A30" s="43"/>
+      <x:c r="B30" s="34"/>
+      <x:c r="C30" s="39" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D30" s="23" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="E30" s="23"/>
+      <x:c r="F30" s="23"/>
+      <x:c r="G30" s="23"/>
+      <x:c r="H30" s="23"/>
+      <x:c r="I30" s="23"/>
+      <x:c r="J30" s="41"/>
+      <x:c r="K30" s="41"/>
+      <x:c r="L30" s="41"/>
+      <x:c r="M30" s="41"/>
+      <x:c r="N30" s="41"/>
+      <x:c r="O30" s="41"/>
+      <x:c r="P30" s="41"/>
+      <x:c r="Q30" s="41"/>
+      <x:c r="R30" s="41"/>
+      <x:c r="S30" s="41"/>
+      <x:c r="T30" s="41"/>
+      <x:c r="U30" s="41"/>
+      <x:c r="V30" s="41"/>
+      <x:c r="W30" s="41"/>
+      <x:c r="X30" s="41"/>
+      <x:c r="Y30" s="41"/>
+      <x:c r="Z30" s="41"/>
+      <x:c r="AA30" s="41"/>
+      <x:c r="AB30" s="41"/>
+      <x:c r="AC30" s="41"/>
+      <x:c r="AD30" s="41"/>
+      <x:c r="AE30" s="41"/>
+      <x:c r="AF30" s="41"/>
+      <x:c r="AG30" s="41"/>
+      <x:c r="AH30" s="41"/>
+      <x:c r="AI30" s="41"/>
+      <x:c r="AJ30" s="41"/>
+      <x:c r="AK30" s="41"/>
+      <x:c r="AL30" s="41"/>
+      <x:c r="AM30" s="41"/>
+      <x:c r="AN30" s="41"/>
+      <x:c r="AO30" s="41"/>
+      <x:c r="AP30" s="41"/>
+      <x:c r="AQ30" s="41"/>
+      <x:c r="AR30" s="41"/>
+      <x:c r="AS30" s="41"/>
+      <x:c r="AT30" s="41"/>
+      <x:c r="AU30" s="41"/>
+      <x:c r="AV30" s="41"/>
+      <x:c r="AW30" s="41"/>
+      <x:c r="AX30" s="41"/>
+      <x:c r="AY30" s="41"/>
+      <x:c r="AZ30" s="41"/>
+      <x:c r="BA30" s="41"/>
+      <x:c r="BB30" s="41"/>
+      <x:c r="BC30" s="41"/>
+      <x:c r="BD30" s="41"/>
+      <x:c r="BE30" s="41"/>
+      <x:c r="BF30" s="41"/>
+      <x:c r="BG30" s="41"/>
+      <x:c r="BH30" s="41"/>
+      <x:c r="BI30" s="41"/>
+      <x:c r="BJ30" s="41"/>
+      <x:c r="BK30" s="41"/>
+      <x:c r="BL30" s="41"/>
+      <x:c r="BM30" s="41"/>
+      <x:c r="BN30" s="41"/>
+      <x:c r="BO30" s="41"/>
+      <x:c r="BP30" s="41"/>
+      <x:c r="BQ30" s="41"/>
+      <x:c r="BR30" s="41"/>
+      <x:c r="BS30" s="41"/>
+      <x:c r="BT30" s="41"/>
+      <x:c r="BU30" s="41"/>
+      <x:c r="BV30" s="41"/>
+      <x:c r="BW30" s="41"/>
+      <x:c r="BX30" s="41"/>
+      <x:c r="BY30" s="41"/>
+      <x:c r="BZ30" s="41"/>
+      <x:c r="CA30" s="41"/>
+      <x:c r="CB30" s="41"/>
+      <x:c r="CC30" s="41"/>
+      <x:c r="CD30" s="41"/>
+      <x:c r="CE30" s="41"/>
+      <x:c r="CF30" s="41"/>
+      <x:c r="CG30" s="41"/>
+      <x:c r="CH30" s="41"/>
+      <x:c r="CI30" s="41"/>
+    </x:row>
+    <x:row r="31" spans="1:87">
+      <x:c r="A31" s="43"/>
+      <x:c r="B31" s="34"/>
+      <x:c r="C31" s="38"/>
+      <x:c r="D31" s="23" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E31" s="23"/>
+      <x:c r="F31" s="23"/>
+      <x:c r="G31" s="23"/>
+      <x:c r="H31" s="23"/>
+      <x:c r="I31" s="23"/>
+      <x:c r="J31" s="41"/>
+      <x:c r="K31" s="41"/>
+      <x:c r="L31" s="41"/>
+      <x:c r="M31" s="41"/>
+      <x:c r="N31" s="41"/>
+      <x:c r="O31" s="41"/>
+      <x:c r="P31" s="41"/>
+      <x:c r="Q31" s="41"/>
+      <x:c r="R31" s="41"/>
+      <x:c r="S31" s="41"/>
+      <x:c r="T31" s="41"/>
+      <x:c r="U31" s="41"/>
+      <x:c r="V31" s="41"/>
+      <x:c r="W31" s="41"/>
+      <x:c r="X31" s="41"/>
+      <x:c r="Y31" s="41"/>
+      <x:c r="Z31" s="41"/>
+      <x:c r="AA31" s="41"/>
+      <x:c r="AB31" s="41"/>
+      <x:c r="AC31" s="41"/>
+      <x:c r="AD31" s="41"/>
+      <x:c r="AE31" s="41"/>
+      <x:c r="AF31" s="41"/>
+      <x:c r="AG31" s="41"/>
+      <x:c r="AH31" s="41"/>
+      <x:c r="AI31" s="41"/>
+      <x:c r="AJ31" s="41"/>
+      <x:c r="AK31" s="41"/>
+      <x:c r="AL31" s="41"/>
+      <x:c r="AM31" s="41"/>
+      <x:c r="AN31" s="41"/>
+      <x:c r="AO31" s="41"/>
+      <x:c r="AP31" s="41"/>
+      <x:c r="AQ31" s="41"/>
+      <x:c r="AR31" s="41"/>
+      <x:c r="AS31" s="41"/>
+      <x:c r="AT31" s="41"/>
+      <x:c r="AU31" s="41"/>
+      <x:c r="AV31" s="41"/>
+      <x:c r="AW31" s="41"/>
+      <x:c r="AX31" s="41"/>
+      <x:c r="AY31" s="41"/>
+      <x:c r="AZ31" s="41"/>
+      <x:c r="BA31" s="41"/>
+      <x:c r="BB31" s="41"/>
+      <x:c r="BC31" s="41"/>
+      <x:c r="BD31" s="41"/>
+      <x:c r="BE31" s="41"/>
+      <x:c r="BF31" s="41"/>
+      <x:c r="BG31" s="41"/>
+      <x:c r="BH31" s="41"/>
+      <x:c r="BI31" s="41"/>
+      <x:c r="BJ31" s="41"/>
+      <x:c r="BK31" s="41"/>
+      <x:c r="BL31" s="41"/>
+      <x:c r="BM31" s="41"/>
+      <x:c r="BN31" s="41"/>
+      <x:c r="BO31" s="41"/>
+      <x:c r="BP31" s="41"/>
+      <x:c r="BQ31" s="41"/>
+      <x:c r="BR31" s="41"/>
+      <x:c r="BS31" s="41"/>
+      <x:c r="BT31" s="41"/>
+      <x:c r="BU31" s="41"/>
+      <x:c r="BV31" s="41"/>
+      <x:c r="BW31" s="41"/>
+      <x:c r="BX31" s="41"/>
+      <x:c r="BY31" s="41"/>
+      <x:c r="BZ31" s="41"/>
+      <x:c r="CA31" s="41"/>
+      <x:c r="CB31" s="41"/>
+      <x:c r="CC31" s="41"/>
+      <x:c r="CD31" s="41"/>
+      <x:c r="CE31" s="41"/>
+      <x:c r="CF31" s="41"/>
+      <x:c r="CG31" s="41"/>
+      <x:c r="CH31" s="41"/>
+      <x:c r="CI31" s="41"/>
+    </x:row>
+    <x:row r="32" spans="1:87">
+      <x:c r="A32" s="43"/>
+      <x:c r="B32" s="35"/>
+      <x:c r="C32" s="23" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D32" s="23" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="E32" s="23"/>
+      <x:c r="F32" s="23"/>
+      <x:c r="G32" s="23"/>
+      <x:c r="H32" s="23"/>
+      <x:c r="I32" s="23"/>
+      <x:c r="J32" s="41"/>
+      <x:c r="K32" s="41"/>
+      <x:c r="L32" s="41"/>
+      <x:c r="M32" s="41"/>
+      <x:c r="N32" s="41"/>
+      <x:c r="O32" s="41"/>
+      <x:c r="P32" s="41"/>
+      <x:c r="Q32" s="41"/>
+      <x:c r="R32" s="41"/>
+      <x:c r="S32" s="41"/>
+      <x:c r="T32" s="41"/>
+      <x:c r="U32" s="41"/>
+      <x:c r="V32" s="41"/>
+      <x:c r="W32" s="41"/>
+      <x:c r="X32" s="41"/>
+      <x:c r="Y32" s="41"/>
+      <x:c r="Z32" s="41"/>
+      <x:c r="AA32" s="41"/>
+      <x:c r="AB32" s="41"/>
+      <x:c r="AC32" s="41"/>
+      <x:c r="AD32" s="41"/>
+      <x:c r="AE32" s="41"/>
+      <x:c r="AF32" s="41"/>
+      <x:c r="AG32" s="41"/>
+      <x:c r="AH32" s="41"/>
+      <x:c r="AI32" s="41"/>
+      <x:c r="AJ32" s="41"/>
+      <x:c r="AK32" s="41"/>
+      <x:c r="AL32" s="41"/>
+      <x:c r="AM32" s="41"/>
+      <x:c r="AN32" s="41"/>
+      <x:c r="AO32" s="41"/>
+      <x:c r="AP32" s="41"/>
+      <x:c r="AQ32" s="41"/>
+      <x:c r="AR32" s="41"/>
+      <x:c r="AS32" s="41"/>
+      <x:c r="AT32" s="41"/>
+      <x:c r="AU32" s="41"/>
+      <x:c r="AV32" s="41"/>
+      <x:c r="AW32" s="41"/>
+      <x:c r="AX32" s="41"/>
+      <x:c r="AY32" s="41"/>
+      <x:c r="AZ32" s="41"/>
+      <x:c r="BA32" s="41"/>
+      <x:c r="BB32" s="41"/>
+      <x:c r="BC32" s="41"/>
+      <x:c r="BD32" s="41"/>
+      <x:c r="BE32" s="41"/>
+      <x:c r="BF32" s="41"/>
+      <x:c r="BG32" s="41"/>
+      <x:c r="BH32" s="41"/>
+      <x:c r="BI32" s="41"/>
+      <x:c r="BJ32" s="41"/>
+      <x:c r="BK32" s="41"/>
+      <x:c r="BL32" s="41"/>
+      <x:c r="BM32" s="41"/>
+      <x:c r="BN32" s="41"/>
+      <x:c r="BO32" s="41"/>
+      <x:c r="BP32" s="41"/>
+      <x:c r="BQ32" s="41"/>
+      <x:c r="BR32" s="41"/>
+      <x:c r="BS32" s="41"/>
+      <x:c r="BT32" s="41"/>
+      <x:c r="BU32" s="41"/>
+      <x:c r="BV32" s="41"/>
+      <x:c r="BW32" s="41"/>
+      <x:c r="BX32" s="41"/>
+      <x:c r="BY32" s="41"/>
+      <x:c r="BZ32" s="41"/>
+      <x:c r="CA32" s="41"/>
+      <x:c r="CB32" s="41"/>
+      <x:c r="CC32" s="41"/>
+      <x:c r="CD32" s="41"/>
+      <x:c r="CE32" s="41"/>
+      <x:c r="CF32" s="41"/>
+      <x:c r="CG32" s="41"/>
+      <x:c r="CH32" s="41"/>
+      <x:c r="CI32" s="41"/>
+    </x:row>
+    <x:row r="33" spans="1:87">
+      <x:c r="A33" s="43"/>
+      <x:c r="B33" s="40" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C33" s="23" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D33" s="23"/>
+      <x:c r="E33" s="23"/>
+      <x:c r="F33" s="23"/>
+      <x:c r="G33" s="23"/>
+      <x:c r="H33" s="23"/>
+      <x:c r="I33" s="23"/>
+      <x:c r="J33" s="41"/>
+      <x:c r="K33" s="41"/>
+      <x:c r="L33" s="41"/>
+      <x:c r="M33" s="41"/>
+      <x:c r="N33" s="41"/>
+      <x:c r="O33" s="41"/>
+      <x:c r="P33" s="41"/>
+      <x:c r="Q33" s="41"/>
+      <x:c r="R33" s="41"/>
+      <x:c r="S33" s="41"/>
+      <x:c r="T33" s="41"/>
+      <x:c r="U33" s="41"/>
+      <x:c r="V33" s="41"/>
+      <x:c r="W33" s="41"/>
+      <x:c r="X33" s="41"/>
+      <x:c r="Y33" s="41"/>
+      <x:c r="Z33" s="41"/>
+      <x:c r="AA33" s="41"/>
+      <x:c r="AB33" s="41"/>
+      <x:c r="AC33" s="41"/>
+      <x:c r="AD33" s="41"/>
+      <x:c r="AE33" s="41"/>
+      <x:c r="AF33" s="41"/>
+      <x:c r="AG33" s="41"/>
+      <x:c r="AH33" s="41"/>
+      <x:c r="AI33" s="41"/>
+      <x:c r="AJ33" s="41"/>
+      <x:c r="AK33" s="41"/>
+      <x:c r="AL33" s="41"/>
+      <x:c r="AM33" s="41"/>
+      <x:c r="AN33" s="41"/>
+      <x:c r="AO33" s="41"/>
+      <x:c r="AP33" s="41"/>
+      <x:c r="AQ33" s="41"/>
+      <x:c r="AR33" s="41"/>
+      <x:c r="AS33" s="41"/>
+      <x:c r="AT33" s="41"/>
+      <x:c r="AU33" s="41"/>
+      <x:c r="AV33" s="41"/>
+      <x:c r="AW33" s="41"/>
+      <x:c r="AX33" s="41"/>
+      <x:c r="AY33" s="41"/>
+      <x:c r="AZ33" s="41"/>
+      <x:c r="BA33" s="41"/>
+      <x:c r="BB33" s="41"/>
+      <x:c r="BC33" s="41"/>
+      <x:c r="BD33" s="41"/>
+      <x:c r="BE33" s="41"/>
+      <x:c r="BF33" s="41"/>
+      <x:c r="BG33" s="41"/>
+      <x:c r="BH33" s="41"/>
+      <x:c r="BI33" s="41"/>
+      <x:c r="BJ33" s="41"/>
+      <x:c r="BK33" s="41"/>
+      <x:c r="BL33" s="41"/>
+      <x:c r="BM33" s="41"/>
+      <x:c r="BN33" s="41"/>
+      <x:c r="BO33" s="41"/>
+      <x:c r="BP33" s="41"/>
+      <x:c r="BQ33" s="41"/>
+      <x:c r="BR33" s="41"/>
+      <x:c r="BS33" s="41"/>
+      <x:c r="BT33" s="41"/>
+      <x:c r="BU33" s="41"/>
+      <x:c r="BV33" s="41"/>
+      <x:c r="BW33" s="41"/>
+      <x:c r="BX33" s="41"/>
+      <x:c r="BY33" s="41"/>
+      <x:c r="BZ33" s="41"/>
+      <x:c r="CA33" s="41"/>
+      <x:c r="CB33" s="41"/>
+      <x:c r="CC33" s="41"/>
+      <x:c r="CD33" s="41"/>
+      <x:c r="CE33" s="41"/>
+      <x:c r="CF33" s="41"/>
+      <x:c r="CG33" s="41"/>
+      <x:c r="CH33" s="41"/>
+      <x:c r="CI33" s="41"/>
+    </x:row>
+    <x:row r="34" spans="1:87">
+      <x:c r="A34" s="43"/>
+      <x:c r="B34" s="34"/>
+      <x:c r="C34" s="23" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D34" s="23"/>
+      <x:c r="E34" s="23"/>
+      <x:c r="F34" s="23"/>
+      <x:c r="G34" s="23"/>
+      <x:c r="H34" s="23"/>
+      <x:c r="I34" s="23"/>
+      <x:c r="J34" s="41"/>
+      <x:c r="K34" s="41"/>
+      <x:c r="L34" s="41"/>
+      <x:c r="M34" s="41"/>
+      <x:c r="N34" s="41"/>
+      <x:c r="O34" s="41"/>
+      <x:c r="P34" s="41"/>
+      <x:c r="Q34" s="41"/>
+      <x:c r="R34" s="41"/>
+      <x:c r="S34" s="41"/>
+      <x:c r="T34" s="41"/>
+      <x:c r="U34" s="41"/>
+      <x:c r="V34" s="41"/>
+      <x:c r="W34" s="41"/>
+      <x:c r="X34" s="41"/>
+      <x:c r="Y34" s="41"/>
+      <x:c r="Z34" s="41"/>
+      <x:c r="AA34" s="41"/>
+      <x:c r="AB34" s="41"/>
+      <x:c r="AC34" s="41"/>
+      <x:c r="AD34" s="41"/>
+      <x:c r="AE34" s="41"/>
+      <x:c r="AF34" s="41"/>
+      <x:c r="AG34" s="41"/>
+      <x:c r="AH34" s="41"/>
+      <x:c r="AI34" s="41"/>
+      <x:c r="AJ34" s="41"/>
+      <x:c r="AK34" s="41"/>
+      <x:c r="AL34" s="41"/>
+      <x:c r="AM34" s="41"/>
+      <x:c r="AN34" s="41"/>
+      <x:c r="AO34" s="41"/>
+      <x:c r="AP34" s="41"/>
+      <x:c r="AQ34" s="41"/>
+      <x:c r="AR34" s="41"/>
+      <x:c r="AS34" s="41"/>
+      <x:c r="AT34" s="41"/>
+      <x:c r="AU34" s="41"/>
+      <x:c r="AV34" s="41"/>
+      <x:c r="AW34" s="41"/>
+      <x:c r="AX34" s="41"/>
+      <x:c r="AY34" s="41"/>
+      <x:c r="AZ34" s="41"/>
+      <x:c r="BA34" s="41"/>
+      <x:c r="BB34" s="41"/>
+      <x:c r="BC34" s="41"/>
+      <x:c r="BD34" s="41"/>
+      <x:c r="BE34" s="41"/>
+      <x:c r="BF34" s="41"/>
+      <x:c r="BG34" s="41"/>
+      <x:c r="BH34" s="41"/>
+      <x:c r="BI34" s="41"/>
+      <x:c r="BJ34" s="41"/>
+      <x:c r="BK34" s="41"/>
+      <x:c r="BL34" s="41"/>
+      <x:c r="BM34" s="41"/>
+      <x:c r="BN34" s="41"/>
+      <x:c r="BO34" s="41"/>
+      <x:c r="BP34" s="41"/>
+      <x:c r="BQ34" s="41"/>
+      <x:c r="BR34" s="41"/>
+      <x:c r="BS34" s="41"/>
+      <x:c r="BT34" s="41"/>
+      <x:c r="BU34" s="41"/>
+      <x:c r="BV34" s="41"/>
+      <x:c r="BW34" s="41"/>
+      <x:c r="BX34" s="41"/>
+      <x:c r="BY34" s="41"/>
+      <x:c r="BZ34" s="41"/>
+      <x:c r="CA34" s="41"/>
+      <x:c r="CB34" s="41"/>
+      <x:c r="CC34" s="41"/>
+      <x:c r="CD34" s="41"/>
+      <x:c r="CE34" s="41"/>
+      <x:c r="CF34" s="41"/>
+      <x:c r="CG34" s="41"/>
+      <x:c r="CH34" s="41"/>
+      <x:c r="CI34" s="41"/>
+    </x:row>
+    <x:row r="35" spans="1:87">
+      <x:c r="A35" s="43"/>
+      <x:c r="B35" s="34"/>
+      <x:c r="C35" s="23" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D35" s="23"/>
+      <x:c r="E35" s="23"/>
+      <x:c r="F35" s="23"/>
+      <x:c r="G35" s="23"/>
+      <x:c r="H35" s="23"/>
+      <x:c r="I35" s="23"/>
+      <x:c r="J35" s="41"/>
+      <x:c r="K35" s="41"/>
+      <x:c r="L35" s="41"/>
+      <x:c r="M35" s="41"/>
+      <x:c r="N35" s="41"/>
+      <x:c r="O35" s="41"/>
+      <x:c r="P35" s="41"/>
+      <x:c r="Q35" s="41"/>
+      <x:c r="R35" s="41"/>
+      <x:c r="S35" s="41"/>
+      <x:c r="T35" s="41"/>
+      <x:c r="U35" s="41"/>
+      <x:c r="V35" s="41"/>
+      <x:c r="W35" s="41"/>
+      <x:c r="X35" s="41"/>
+      <x:c r="Y35" s="41"/>
+      <x:c r="Z35" s="41"/>
+      <x:c r="AA35" s="41"/>
+      <x:c r="AB35" s="41"/>
+      <x:c r="AC35" s="41"/>
+      <x:c r="AD35" s="41"/>
+      <x:c r="AE35" s="41"/>
+      <x:c r="AF35" s="41"/>
+      <x:c r="AG35" s="41"/>
+      <x:c r="AH35" s="41"/>
+      <x:c r="AI35" s="41"/>
+      <x:c r="AJ35" s="41"/>
+      <x:c r="AK35" s="41"/>
+      <x:c r="AL35" s="41"/>
+      <x:c r="AM35" s="41"/>
+      <x:c r="AN35" s="41"/>
+      <x:c r="AO35" s="41"/>
+      <x:c r="AP35" s="41"/>
+      <x:c r="AQ35" s="41"/>
+      <x:c r="AR35" s="41"/>
+      <x:c r="AS35" s="41"/>
+      <x:c r="AT35" s="41"/>
+      <x:c r="AU35" s="41"/>
+      <x:c r="AV35" s="41"/>
+      <x:c r="AW35" s="41"/>
+      <x:c r="AX35" s="41"/>
+      <x:c r="AY35" s="41"/>
+      <x:c r="AZ35" s="41"/>
+      <x:c r="BA35" s="41"/>
+      <x:c r="BB35" s="41"/>
+      <x:c r="BC35" s="41"/>
+      <x:c r="BD35" s="41"/>
+      <x:c r="BE35" s="41"/>
+      <x:c r="BF35" s="41"/>
+      <x:c r="BG35" s="41"/>
+      <x:c r="BH35" s="41"/>
+      <x:c r="BI35" s="41"/>
+      <x:c r="BJ35" s="41"/>
+      <x:c r="BK35" s="41"/>
+      <x:c r="BL35" s="41"/>
+      <x:c r="BM35" s="41"/>
+      <x:c r="BN35" s="41"/>
+      <x:c r="BO35" s="41"/>
+      <x:c r="BP35" s="41"/>
+      <x:c r="BQ35" s="41"/>
+      <x:c r="BR35" s="41"/>
+      <x:c r="BS35" s="41"/>
+      <x:c r="BT35" s="41"/>
+      <x:c r="BU35" s="41"/>
+      <x:c r="BV35" s="41"/>
+      <x:c r="BW35" s="41"/>
+      <x:c r="BX35" s="41"/>
+      <x:c r="BY35" s="41"/>
+      <x:c r="BZ35" s="41"/>
+      <x:c r="CA35" s="41"/>
+      <x:c r="CB35" s="41"/>
+      <x:c r="CC35" s="41"/>
+      <x:c r="CD35" s="41"/>
+      <x:c r="CE35" s="41"/>
+      <x:c r="CF35" s="41"/>
+      <x:c r="CG35" s="41"/>
+      <x:c r="CH35" s="41"/>
+      <x:c r="CI35" s="41"/>
+    </x:row>
+    <x:row r="36" spans="1:87">
+      <x:c r="A36" s="43"/>
+      <x:c r="B36" s="34"/>
+      <x:c r="C36" s="23" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D36" s="23"/>
+      <x:c r="E36" s="23"/>
+      <x:c r="F36" s="23"/>
+      <x:c r="G36" s="23"/>
+      <x:c r="H36" s="23"/>
+      <x:c r="I36" s="23"/>
+      <x:c r="J36" s="41"/>
+      <x:c r="K36" s="41"/>
+      <x:c r="L36" s="41"/>
+      <x:c r="M36" s="41"/>
+      <x:c r="N36" s="41"/>
+      <x:c r="O36" s="41"/>
+      <x:c r="P36" s="41"/>
+      <x:c r="Q36" s="41"/>
+      <x:c r="R36" s="41"/>
+      <x:c r="S36" s="41"/>
+      <x:c r="T36" s="41"/>
+      <x:c r="U36" s="41"/>
+      <x:c r="V36" s="41"/>
+      <x:c r="W36" s="41"/>
+      <x:c r="X36" s="41"/>
+      <x:c r="Y36" s="41"/>
+      <x:c r="Z36" s="41"/>
+      <x:c r="AA36" s="41"/>
+      <x:c r="AB36" s="41"/>
+      <x:c r="AC36" s="41"/>
+      <x:c r="AD36" s="41"/>
+      <x:c r="AE36" s="41"/>
+      <x:c r="AF36" s="41"/>
+      <x:c r="AG36" s="41"/>
+      <x:c r="AH36" s="41"/>
+      <x:c r="AI36" s="41"/>
+      <x:c r="AJ36" s="41"/>
+      <x:c r="AK36" s="41"/>
+      <x:c r="AL36" s="41"/>
+      <x:c r="AM36" s="41"/>
+      <x:c r="AN36" s="41"/>
+      <x:c r="AO36" s="41"/>
+      <x:c r="AP36" s="41"/>
+      <x:c r="AQ36" s="41"/>
+      <x:c r="AR36" s="41"/>
+      <x:c r="AS36" s="41"/>
+      <x:c r="AT36" s="41"/>
+      <x:c r="AU36" s="41"/>
+      <x:c r="AV36" s="41"/>
+      <x:c r="AW36" s="41"/>
+      <x:c r="AX36" s="41"/>
+      <x:c r="AY36" s="41"/>
+      <x:c r="AZ36" s="41"/>
+      <x:c r="BA36" s="41"/>
+      <x:c r="BB36" s="41"/>
+      <x:c r="BC36" s="41"/>
+      <x:c r="BD36" s="41"/>
+      <x:c r="BE36" s="41"/>
+      <x:c r="BF36" s="41"/>
+      <x:c r="BG36" s="41"/>
+      <x:c r="BH36" s="41"/>
+      <x:c r="BI36" s="41"/>
+      <x:c r="BJ36" s="41"/>
+      <x:c r="BK36" s="41"/>
+      <x:c r="BL36" s="41"/>
+      <x:c r="BM36" s="41"/>
+      <x:c r="BN36" s="41"/>
+      <x:c r="BO36" s="41"/>
+      <x:c r="BP36" s="41"/>
+      <x:c r="BQ36" s="41"/>
+      <x:c r="BR36" s="41"/>
+      <x:c r="BS36" s="41"/>
+      <x:c r="BT36" s="41"/>
+      <x:c r="BU36" s="41"/>
+      <x:c r="BV36" s="41"/>
+      <x:c r="BW36" s="41"/>
+      <x:c r="BX36" s="41"/>
+      <x:c r="BY36" s="41"/>
+      <x:c r="BZ36" s="41"/>
+      <x:c r="CA36" s="41"/>
+      <x:c r="CB36" s="41"/>
+      <x:c r="CC36" s="41"/>
+      <x:c r="CD36" s="41"/>
+      <x:c r="CE36" s="41"/>
+      <x:c r="CF36" s="41"/>
+      <x:c r="CG36" s="41"/>
+      <x:c r="CH36" s="41"/>
+      <x:c r="CI36" s="41"/>
+    </x:row>
+    <x:row r="37" spans="1:87">
+      <x:c r="A37" s="43"/>
+      <x:c r="B37" s="34"/>
+      <x:c r="C37" s="23" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D37" s="23"/>
+      <x:c r="E37" s="23"/>
+      <x:c r="F37" s="23"/>
+      <x:c r="G37" s="23"/>
+      <x:c r="H37" s="23"/>
+      <x:c r="I37" s="23"/>
+      <x:c r="J37" s="41"/>
+      <x:c r="K37" s="41"/>
+      <x:c r="L37" s="41"/>
+      <x:c r="M37" s="41"/>
+      <x:c r="N37" s="41"/>
+      <x:c r="O37" s="41"/>
+      <x:c r="P37" s="41"/>
+      <x:c r="Q37" s="41"/>
+      <x:c r="R37" s="41"/>
+      <x:c r="S37" s="41"/>
+      <x:c r="T37" s="41"/>
+      <x:c r="U37" s="41"/>
+      <x:c r="V37" s="41"/>
+      <x:c r="W37" s="41"/>
+      <x:c r="X37" s="41"/>
+      <x:c r="Y37" s="41"/>
+      <x:c r="Z37" s="41"/>
+      <x:c r="AA37" s="41"/>
+      <x:c r="AB37" s="41"/>
+      <x:c r="AC37" s="41"/>
+      <x:c r="AD37" s="41"/>
+      <x:c r="AE37" s="41"/>
+      <x:c r="AF37" s="41"/>
+      <x:c r="AG37" s="41"/>
+      <x:c r="AH37" s="41"/>
+      <x:c r="AI37" s="41"/>
+      <x:c r="AJ37" s="41"/>
+      <x:c r="AK37" s="41"/>
+      <x:c r="AL37" s="41"/>
+      <x:c r="AM37" s="41"/>
+      <x:c r="AN37" s="41"/>
+      <x:c r="AO37" s="41"/>
+      <x:c r="AP37" s="41"/>
+      <x:c r="AQ37" s="41"/>
+      <x:c r="AR37" s="41"/>
+      <x:c r="AS37" s="41"/>
+      <x:c r="AT37" s="41"/>
+      <x:c r="AU37" s="41"/>
+      <x:c r="AV37" s="41"/>
+      <x:c r="AW37" s="41"/>
+      <x:c r="AX37" s="41"/>
+      <x:c r="AY37" s="41"/>
+      <x:c r="AZ37" s="41"/>
+      <x:c r="BA37" s="41"/>
+      <x:c r="BB37" s="41"/>
+      <x:c r="BC37" s="41"/>
+      <x:c r="BD37" s="41"/>
+      <x:c r="BE37" s="41"/>
+      <x:c r="BF37" s="41"/>
+      <x:c r="BG37" s="41"/>
+      <x:c r="BH37" s="41"/>
+      <x:c r="BI37" s="41"/>
+      <x:c r="BJ37" s="41"/>
+      <x:c r="BK37" s="41"/>
+      <x:c r="BL37" s="41"/>
+      <x:c r="BM37" s="41"/>
+      <x:c r="BN37" s="41"/>
+      <x:c r="BO37" s="41"/>
+      <x:c r="BP37" s="41"/>
+      <x:c r="BQ37" s="41"/>
+      <x:c r="BR37" s="41"/>
+      <x:c r="BS37" s="41"/>
+      <x:c r="BT37" s="41"/>
+      <x:c r="BU37" s="41"/>
+      <x:c r="BV37" s="41"/>
+      <x:c r="BW37" s="41"/>
+      <x:c r="BX37" s="41"/>
+      <x:c r="BY37" s="41"/>
+      <x:c r="BZ37" s="41"/>
+      <x:c r="CA37" s="41"/>
+      <x:c r="CB37" s="41"/>
+      <x:c r="CC37" s="41"/>
+      <x:c r="CD37" s="41"/>
+      <x:c r="CE37" s="41"/>
+      <x:c r="CF37" s="41"/>
+      <x:c r="CG37" s="41"/>
+      <x:c r="CH37" s="41"/>
+      <x:c r="CI37" s="41"/>
+    </x:row>
+    <x:row r="38" spans="1:87">
+      <x:c r="A38" s="43"/>
+      <x:c r="B38" s="35"/>
+      <x:c r="C38" s="23" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D38" s="23"/>
+      <x:c r="E38" s="23"/>
+      <x:c r="F38" s="23"/>
+      <x:c r="G38" s="23"/>
+      <x:c r="H38" s="23"/>
+      <x:c r="I38" s="23"/>
+      <x:c r="J38" s="41"/>
+      <x:c r="K38" s="41"/>
+      <x:c r="L38" s="41"/>
+      <x:c r="M38" s="41"/>
+      <x:c r="N38" s="41"/>
+      <x:c r="O38" s="41"/>
+      <x:c r="P38" s="41"/>
+      <x:c r="Q38" s="41"/>
+      <x:c r="R38" s="41"/>
+      <x:c r="S38" s="41"/>
+      <x:c r="T38" s="41"/>
+      <x:c r="U38" s="41"/>
+      <x:c r="V38" s="41"/>
+      <x:c r="W38" s="41"/>
+      <x:c r="X38" s="41"/>
+      <x:c r="Y38" s="41"/>
+      <x:c r="Z38" s="41"/>
+      <x:c r="AA38" s="41"/>
+      <x:c r="AB38" s="41"/>
+      <x:c r="AC38" s="41"/>
+      <x:c r="AD38" s="41"/>
+      <x:c r="AE38" s="41"/>
+      <x:c r="AF38" s="41"/>
+      <x:c r="AG38" s="41"/>
+      <x:c r="AH38" s="41"/>
+      <x:c r="AI38" s="41"/>
+      <x:c r="AJ38" s="41"/>
+      <x:c r="AK38" s="41"/>
+      <x:c r="AL38" s="41"/>
+      <x:c r="AM38" s="41"/>
+      <x:c r="AN38" s="41"/>
+      <x:c r="AO38" s="41"/>
+      <x:c r="AP38" s="41"/>
+      <x:c r="AQ38" s="41"/>
+      <x:c r="AR38" s="41"/>
+      <x:c r="AS38" s="41"/>
+      <x:c r="AT38" s="41"/>
+      <x:c r="AU38" s="41"/>
+      <x:c r="AV38" s="41"/>
+      <x:c r="AW38" s="41"/>
+      <x:c r="AX38" s="41"/>
+      <x:c r="AY38" s="41"/>
+      <x:c r="AZ38" s="41"/>
+      <x:c r="BA38" s="41"/>
+      <x:c r="BB38" s="41"/>
+      <x:c r="BC38" s="41"/>
+      <x:c r="BD38" s="41"/>
+      <x:c r="BE38" s="41"/>
+      <x:c r="BF38" s="41"/>
+      <x:c r="BG38" s="41"/>
+      <x:c r="BH38" s="41"/>
+      <x:c r="BI38" s="41"/>
+      <x:c r="BJ38" s="41"/>
+      <x:c r="BK38" s="41"/>
+      <x:c r="BL38" s="41"/>
+      <x:c r="BM38" s="41"/>
+      <x:c r="BN38" s="41"/>
+      <x:c r="BO38" s="41"/>
+      <x:c r="BP38" s="41"/>
+      <x:c r="BQ38" s="41"/>
+      <x:c r="BR38" s="41"/>
+      <x:c r="BS38" s="41"/>
+      <x:c r="BT38" s="41"/>
+      <x:c r="BU38" s="41"/>
+      <x:c r="BV38" s="41"/>
+      <x:c r="BW38" s="41"/>
+      <x:c r="BX38" s="41"/>
+      <x:c r="BY38" s="41"/>
+      <x:c r="BZ38" s="41"/>
+      <x:c r="CA38" s="41"/>
+      <x:c r="CB38" s="41"/>
+      <x:c r="CC38" s="41"/>
+      <x:c r="CD38" s="41"/>
+      <x:c r="CE38" s="41"/>
+      <x:c r="CF38" s="41"/>
+      <x:c r="CG38" s="41"/>
+      <x:c r="CH38" s="41"/>
+      <x:c r="CI38" s="41"/>
+    </x:row>
+    <x:row r="39" spans="1:87">
+      <x:c r="A39" s="43"/>
+      <x:c r="B39" s="40" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C39" s="23" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D39" s="23"/>
+      <x:c r="E39" s="23"/>
+      <x:c r="F39" s="23"/>
+      <x:c r="G39" s="23"/>
+      <x:c r="H39" s="23"/>
+      <x:c r="I39" s="23"/>
+      <x:c r="J39" s="41"/>
+      <x:c r="K39" s="41"/>
+      <x:c r="L39" s="41"/>
+      <x:c r="M39" s="41"/>
+      <x:c r="N39" s="41"/>
+      <x:c r="O39" s="41"/>
+      <x:c r="P39" s="41"/>
+      <x:c r="Q39" s="41"/>
+      <x:c r="R39" s="41"/>
+      <x:c r="S39" s="41"/>
+      <x:c r="T39" s="41"/>
+      <x:c r="U39" s="41"/>
+      <x:c r="V39" s="41"/>
+      <x:c r="W39" s="41"/>
+      <x:c r="X39" s="41"/>
+      <x:c r="Y39" s="41"/>
+      <x:c r="Z39" s="41"/>
+      <x:c r="AA39" s="41"/>
+      <x:c r="AB39" s="41"/>
+      <x:c r="AC39" s="41"/>
+      <x:c r="AD39" s="41"/>
+      <x:c r="AE39" s="41"/>
+      <x:c r="AF39" s="41"/>
+      <x:c r="AG39" s="41"/>
+      <x:c r="AH39" s="41"/>
+      <x:c r="AI39" s="41"/>
+      <x:c r="AJ39" s="41"/>
+      <x:c r="AK39" s="41"/>
+      <x:c r="AL39" s="41"/>
+      <x:c r="AM39" s="41"/>
+      <x:c r="AN39" s="41"/>
+      <x:c r="AO39" s="41"/>
+      <x:c r="AP39" s="41"/>
+      <x:c r="AQ39" s="41"/>
+      <x:c r="AR39" s="41"/>
+      <x:c r="AS39" s="41"/>
+      <x:c r="AT39" s="41"/>
+      <x:c r="AU39" s="41"/>
+      <x:c r="AV39" s="41"/>
+      <x:c r="AW39" s="41"/>
+      <x:c r="AX39" s="41"/>
+      <x:c r="AY39" s="41"/>
+      <x:c r="AZ39" s="41"/>
+      <x:c r="BA39" s="41"/>
+      <x:c r="BB39" s="41"/>
+      <x:c r="BC39" s="41"/>
+      <x:c r="BD39" s="41"/>
+      <x:c r="BE39" s="41"/>
+      <x:c r="BF39" s="41"/>
+      <x:c r="BG39" s="41"/>
+      <x:c r="BH39" s="41"/>
+      <x:c r="BI39" s="41"/>
+      <x:c r="BJ39" s="41"/>
+      <x:c r="BK39" s="41"/>
+      <x:c r="BL39" s="41"/>
+      <x:c r="BM39" s="41"/>
+      <x:c r="BN39" s="41"/>
+      <x:c r="BO39" s="41"/>
+      <x:c r="BP39" s="41"/>
+      <x:c r="BQ39" s="41"/>
+      <x:c r="BR39" s="41"/>
+      <x:c r="BS39" s="41"/>
+      <x:c r="BT39" s="41"/>
+      <x:c r="BU39" s="41"/>
+      <x:c r="BV39" s="41"/>
+      <x:c r="BW39" s="41"/>
+      <x:c r="BX39" s="41"/>
+      <x:c r="BY39" s="41"/>
+      <x:c r="BZ39" s="41"/>
+      <x:c r="CA39" s="41"/>
+      <x:c r="CB39" s="41"/>
+      <x:c r="CC39" s="41"/>
+      <x:c r="CD39" s="41"/>
+      <x:c r="CE39" s="41"/>
+      <x:c r="CF39" s="41"/>
+      <x:c r="CG39" s="41"/>
+      <x:c r="CH39" s="41"/>
+      <x:c r="CI39" s="41"/>
+    </x:row>
+    <x:row r="40" spans="1:87">
+      <x:c r="A40" s="43"/>
+      <x:c r="B40" s="34"/>
+      <x:c r="C40" s="23" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D40" s="23"/>
+      <x:c r="E40" s="23"/>
+      <x:c r="F40" s="23"/>
+      <x:c r="G40" s="23"/>
+      <x:c r="H40" s="23"/>
+      <x:c r="I40" s="23"/>
+      <x:c r="J40" s="41"/>
+      <x:c r="K40" s="41"/>
+      <x:c r="L40" s="41"/>
+      <x:c r="M40" s="41"/>
+      <x:c r="N40" s="41"/>
+      <x:c r="O40" s="41"/>
+      <x:c r="P40" s="41"/>
+      <x:c r="Q40" s="41"/>
+      <x:c r="R40" s="41"/>
+      <x:c r="S40" s="41"/>
+      <x:c r="T40" s="41"/>
+      <x:c r="U40" s="41"/>
+      <x:c r="V40" s="41"/>
+      <x:c r="W40" s="41"/>
+      <x:c r="X40" s="41"/>
+      <x:c r="Y40" s="41"/>
+      <x:c r="Z40" s="41"/>
+      <x:c r="AA40" s="41"/>
+      <x:c r="AB40" s="41"/>
+      <x:c r="AC40" s="41"/>
+      <x:c r="AD40" s="41"/>
+      <x:c r="AE40" s="41"/>
+      <x:c r="AF40" s="41"/>
+      <x:c r="AG40" s="41"/>
+      <x:c r="AH40" s="41"/>
+      <x:c r="AI40" s="41"/>
+      <x:c r="AJ40" s="41"/>
+      <x:c r="AK40" s="41"/>
+      <x:c r="AL40" s="41"/>
+      <x:c r="AM40" s="41"/>
+      <x:c r="AN40" s="41"/>
+      <x:c r="AO40" s="41"/>
+      <x:c r="AP40" s="41"/>
+      <x:c r="AQ40" s="41"/>
+      <x:c r="AR40" s="41"/>
+      <x:c r="AS40" s="41"/>
+      <x:c r="AT40" s="41"/>
+      <x:c r="AU40" s="41"/>
+      <x:c r="AV40" s="41"/>
+      <x:c r="AW40" s="41"/>
+      <x:c r="AX40" s="41"/>
+      <x:c r="AY40" s="41"/>
+      <x:c r="AZ40" s="41"/>
+      <x:c r="BA40" s="41"/>
+      <x:c r="BB40" s="41"/>
+      <x:c r="BC40" s="41"/>
+      <x:c r="BD40" s="41"/>
+      <x:c r="BE40" s="41"/>
+      <x:c r="BF40" s="41"/>
+      <x:c r="BG40" s="41"/>
+      <x:c r="BH40" s="41"/>
+      <x:c r="BI40" s="41"/>
+      <x:c r="BJ40" s="41"/>
+      <x:c r="BK40" s="41"/>
+      <x:c r="BL40" s="41"/>
+      <x:c r="BM40" s="41"/>
+      <x:c r="BN40" s="41"/>
+      <x:c r="BO40" s="41"/>
+      <x:c r="BP40" s="41"/>
+      <x:c r="BQ40" s="41"/>
+      <x:c r="BR40" s="41"/>
+      <x:c r="BS40" s="41"/>
+      <x:c r="BT40" s="41"/>
+      <x:c r="BU40" s="41"/>
+      <x:c r="BV40" s="41"/>
+      <x:c r="BW40" s="41"/>
+      <x:c r="BX40" s="41"/>
+      <x:c r="BY40" s="41"/>
+      <x:c r="BZ40" s="41"/>
+      <x:c r="CA40" s="41"/>
+      <x:c r="CB40" s="41"/>
+      <x:c r="CC40" s="41"/>
+      <x:c r="CD40" s="41"/>
+      <x:c r="CE40" s="41"/>
+      <x:c r="CF40" s="41"/>
+      <x:c r="CG40" s="41"/>
+      <x:c r="CH40" s="41"/>
+      <x:c r="CI40" s="41"/>
+    </x:row>
+    <x:row r="41" spans="1:87">
+      <x:c r="A41" s="43"/>
+      <x:c r="B41" s="34"/>
+      <x:c r="C41" s="23" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D41" s="23"/>
+      <x:c r="E41" s="23"/>
+      <x:c r="F41" s="23"/>
+      <x:c r="G41" s="23"/>
+      <x:c r="H41" s="23"/>
+      <x:c r="I41" s="23"/>
+      <x:c r="J41" s="41"/>
+      <x:c r="K41" s="41"/>
+      <x:c r="L41" s="41"/>
+      <x:c r="M41" s="41"/>
+      <x:c r="N41" s="41"/>
+      <x:c r="O41" s="41"/>
+      <x:c r="P41" s="41"/>
+      <x:c r="Q41" s="41"/>
+      <x:c r="R41" s="41"/>
+      <x:c r="S41" s="41"/>
+      <x:c r="T41" s="41"/>
+      <x:c r="U41" s="41"/>
+      <x:c r="V41" s="41"/>
+      <x:c r="W41" s="41"/>
+      <x:c r="X41" s="41"/>
+      <x:c r="Y41" s="41"/>
+      <x:c r="Z41" s="41"/>
+      <x:c r="AA41" s="41"/>
+      <x:c r="AB41" s="41"/>
+      <x:c r="AC41" s="41"/>
+      <x:c r="AD41" s="41"/>
+      <x:c r="AE41" s="41"/>
+      <x:c r="AF41" s="41"/>
+      <x:c r="AG41" s="41"/>
+      <x:c r="AH41" s="41"/>
+      <x:c r="AI41" s="41"/>
+      <x:c r="AJ41" s="41"/>
+      <x:c r="AK41" s="41"/>
+      <x:c r="AL41" s="41"/>
+      <x:c r="AM41" s="41"/>
+      <x:c r="AN41" s="41"/>
+      <x:c r="AO41" s="41"/>
+      <x:c r="AP41" s="41"/>
+      <x:c r="AQ41" s="41"/>
+      <x:c r="AR41" s="41"/>
+      <x:c r="AS41" s="41"/>
+      <x:c r="AT41" s="41"/>
+      <x:c r="AU41" s="41"/>
+      <x:c r="AV41" s="41"/>
+      <x:c r="AW41" s="41"/>
+      <x:c r="AX41" s="41"/>
+      <x:c r="AY41" s="41"/>
+      <x:c r="AZ41" s="41"/>
+      <x:c r="BA41" s="41"/>
+      <x:c r="BB41" s="41"/>
+      <x:c r="BC41" s="41"/>
+      <x:c r="BD41" s="41"/>
+      <x:c r="BE41" s="41"/>
+      <x:c r="BF41" s="41"/>
+      <x:c r="BG41" s="41"/>
+      <x:c r="BH41" s="41"/>
+      <x:c r="BI41" s="41"/>
+      <x:c r="BJ41" s="41"/>
+      <x:c r="BK41" s="41"/>
+      <x:c r="BL41" s="41"/>
+      <x:c r="BM41" s="41"/>
+      <x:c r="BN41" s="41"/>
+      <x:c r="BO41" s="41"/>
+      <x:c r="BP41" s="41"/>
+      <x:c r="BQ41" s="41"/>
+      <x:c r="BR41" s="41"/>
+      <x:c r="BS41" s="41"/>
+      <x:c r="BT41" s="41"/>
+      <x:c r="BU41" s="41"/>
+      <x:c r="BV41" s="41"/>
+      <x:c r="BW41" s="41"/>
+      <x:c r="BX41" s="41"/>
+      <x:c r="BY41" s="41"/>
+      <x:c r="BZ41" s="41"/>
+      <x:c r="CA41" s="41"/>
+      <x:c r="CB41" s="41"/>
+      <x:c r="CC41" s="41"/>
+      <x:c r="CD41" s="41"/>
+      <x:c r="CE41" s="41"/>
+      <x:c r="CF41" s="41"/>
+      <x:c r="CG41" s="41"/>
+      <x:c r="CH41" s="41"/>
+      <x:c r="CI41" s="41"/>
+    </x:row>
+    <x:row r="42" spans="1:87">
+      <x:c r="A42" s="43"/>
+      <x:c r="B42" s="35"/>
+      <x:c r="C42" s="23" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D42" s="23"/>
+      <x:c r="E42" s="23"/>
+      <x:c r="F42" s="23"/>
+      <x:c r="G42" s="23"/>
+      <x:c r="H42" s="23"/>
+      <x:c r="I42" s="23"/>
+      <x:c r="J42" s="41"/>
+      <x:c r="K42" s="41"/>
+      <x:c r="L42" s="41"/>
+      <x:c r="M42" s="41"/>
+      <x:c r="N42" s="41"/>
+      <x:c r="O42" s="41"/>
+      <x:c r="P42" s="41"/>
+      <x:c r="Q42" s="41"/>
+      <x:c r="R42" s="41"/>
+      <x:c r="S42" s="41"/>
+      <x:c r="T42" s="41"/>
+      <x:c r="U42" s="41"/>
+      <x:c r="V42" s="41"/>
+      <x:c r="W42" s="41"/>
+      <x:c r="X42" s="41"/>
+      <x:c r="Y42" s="41"/>
+      <x:c r="Z42" s="41"/>
+      <x:c r="AA42" s="41"/>
+      <x:c r="AB42" s="41"/>
+      <x:c r="AC42" s="41"/>
+      <x:c r="AD42" s="41"/>
+      <x:c r="AE42" s="41"/>
+      <x:c r="AF42" s="41"/>
+      <x:c r="AG42" s="41"/>
+      <x:c r="AH42" s="41"/>
+      <x:c r="AI42" s="41"/>
+      <x:c r="AJ42" s="41"/>
+      <x:c r="AK42" s="41"/>
+      <x:c r="AL42" s="41"/>
+      <x:c r="AM42" s="41"/>
+      <x:c r="AN42" s="41"/>
+      <x:c r="AO42" s="41"/>
+      <x:c r="AP42" s="41"/>
+      <x:c r="AQ42" s="41"/>
+      <x:c r="AR42" s="41"/>
+      <x:c r="AS42" s="41"/>
+      <x:c r="AT42" s="41"/>
+      <x:c r="AU42" s="41"/>
+      <x:c r="AV42" s="41"/>
+      <x:c r="AW42" s="41"/>
+      <x:c r="AX42" s="41"/>
+      <x:c r="AY42" s="41"/>
+      <x:c r="AZ42" s="41"/>
+      <x:c r="BA42" s="41"/>
+      <x:c r="BB42" s="41"/>
+      <x:c r="BC42" s="41"/>
+      <x:c r="BD42" s="41"/>
+      <x:c r="BE42" s="41"/>
+      <x:c r="BF42" s="41"/>
+      <x:c r="BG42" s="41"/>
+      <x:c r="BH42" s="41"/>
+      <x:c r="BI42" s="41"/>
+      <x:c r="BJ42" s="41"/>
+      <x:c r="BK42" s="41"/>
+      <x:c r="BL42" s="41"/>
+      <x:c r="BM42" s="41"/>
+      <x:c r="BN42" s="41"/>
+      <x:c r="BO42" s="41"/>
+      <x:c r="BP42" s="41"/>
+      <x:c r="BQ42" s="41"/>
+      <x:c r="BR42" s="41"/>
+      <x:c r="BS42" s="41"/>
+      <x:c r="BT42" s="41"/>
+      <x:c r="BU42" s="41"/>
+      <x:c r="BV42" s="41"/>
+      <x:c r="BW42" s="41"/>
+      <x:c r="BX42" s="41"/>
+      <x:c r="BY42" s="41"/>
+      <x:c r="BZ42" s="41"/>
+      <x:c r="CA42" s="41"/>
+      <x:c r="CB42" s="41"/>
+      <x:c r="CC42" s="41"/>
+      <x:c r="CD42" s="41"/>
+      <x:c r="CE42" s="41"/>
+      <x:c r="CF42" s="41"/>
+      <x:c r="CG42" s="41"/>
+      <x:c r="CH42" s="41"/>
+      <x:c r="CI42" s="41"/>
+    </x:row>
+    <x:row r="43" spans="1:87">
+      <x:c r="A43" s="43"/>
+      <x:c r="B43" s="40" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C43" s="39" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D43" s="23" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E43" s="23"/>
+      <x:c r="F43" s="23"/>
+      <x:c r="G43" s="23"/>
+      <x:c r="H43" s="23"/>
+      <x:c r="I43" s="23"/>
+      <x:c r="J43" s="41"/>
+      <x:c r="K43" s="41"/>
+      <x:c r="L43" s="41"/>
+      <x:c r="M43" s="41"/>
+      <x:c r="N43" s="41"/>
+      <x:c r="O43" s="41"/>
+      <x:c r="P43" s="41"/>
+      <x:c r="Q43" s="41"/>
+      <x:c r="R43" s="41"/>
+      <x:c r="S43" s="41"/>
+      <x:c r="T43" s="41"/>
+      <x:c r="U43" s="41"/>
+      <x:c r="V43" s="41"/>
+      <x:c r="W43" s="41"/>
+      <x:c r="X43" s="41"/>
+      <x:c r="Y43" s="41"/>
+      <x:c r="Z43" s="41"/>
+      <x:c r="AA43" s="41"/>
+      <x:c r="AB43" s="41"/>
+      <x:c r="AC43" s="41"/>
+      <x:c r="AD43" s="41"/>
+      <x:c r="AE43" s="41"/>
+      <x:c r="AF43" s="41"/>
+      <x:c r="AG43" s="41"/>
+      <x:c r="AH43" s="41"/>
+      <x:c r="AI43" s="41"/>
+      <x:c r="AJ43" s="41"/>
+      <x:c r="AK43" s="41"/>
+      <x:c r="AL43" s="41"/>
+      <x:c r="AM43" s="41"/>
+      <x:c r="AN43" s="41"/>
+      <x:c r="AO43" s="41"/>
+      <x:c r="AP43" s="41"/>
+      <x:c r="AQ43" s="41"/>
+      <x:c r="AR43" s="41"/>
+      <x:c r="AS43" s="41"/>
+      <x:c r="AT43" s="41"/>
+      <x:c r="AU43" s="41"/>
+      <x:c r="AV43" s="41"/>
+      <x:c r="AW43" s="41"/>
+      <x:c r="AX43" s="41"/>
+      <x:c r="AY43" s="41"/>
+      <x:c r="AZ43" s="41"/>
+      <x:c r="BA43" s="41"/>
+      <x:c r="BB43" s="41"/>
+      <x:c r="BC43" s="41"/>
+      <x:c r="BD43" s="41"/>
+      <x:c r="BE43" s="41"/>
+      <x:c r="BF43" s="41"/>
+      <x:c r="BG43" s="41"/>
+      <x:c r="BH43" s="41"/>
+      <x:c r="BI43" s="41"/>
+      <x:c r="BJ43" s="41"/>
+      <x:c r="BK43" s="41"/>
+      <x:c r="BL43" s="41"/>
+      <x:c r="BM43" s="41"/>
+      <x:c r="BN43" s="41"/>
+      <x:c r="BO43" s="41"/>
+      <x:c r="BP43" s="41"/>
+      <x:c r="BQ43" s="41"/>
+      <x:c r="BR43" s="41"/>
+      <x:c r="BS43" s="41"/>
+      <x:c r="BT43" s="41"/>
+      <x:c r="BU43" s="41"/>
+      <x:c r="BV43" s="41"/>
+      <x:c r="BW43" s="41"/>
+      <x:c r="BX43" s="41"/>
+      <x:c r="BY43" s="41"/>
+      <x:c r="BZ43" s="41"/>
+      <x:c r="CA43" s="41"/>
+      <x:c r="CB43" s="41"/>
+      <x:c r="CC43" s="41"/>
+      <x:c r="CD43" s="41"/>
+      <x:c r="CE43" s="41"/>
+      <x:c r="CF43" s="41"/>
+      <x:c r="CG43" s="41"/>
+      <x:c r="CH43" s="41"/>
+      <x:c r="CI43" s="41"/>
+    </x:row>
+    <x:row r="44" spans="1:87">
+      <x:c r="A44" s="43"/>
+      <x:c r="B44" s="34"/>
+      <x:c r="C44" s="38"/>
+      <x:c r="D44" s="23" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E44" s="23"/>
+      <x:c r="F44" s="23"/>
+      <x:c r="G44" s="23"/>
+      <x:c r="H44" s="23"/>
+      <x:c r="I44" s="23"/>
+      <x:c r="J44" s="41"/>
+      <x:c r="K44" s="41"/>
+      <x:c r="L44" s="41"/>
+      <x:c r="M44" s="41"/>
+      <x:c r="N44" s="41"/>
+      <x:c r="O44" s="41"/>
+      <x:c r="P44" s="41"/>
+      <x:c r="Q44" s="41"/>
+      <x:c r="R44" s="41"/>
+      <x:c r="S44" s="41"/>
+      <x:c r="T44" s="41"/>
+      <x:c r="U44" s="41"/>
+      <x:c r="V44" s="41"/>
+      <x:c r="W44" s="41"/>
+      <x:c r="X44" s="41"/>
+      <x:c r="Y44" s="41"/>
+      <x:c r="Z44" s="41"/>
+      <x:c r="AA44" s="41"/>
+      <x:c r="AB44" s="41"/>
+      <x:c r="AC44" s="41"/>
+      <x:c r="AD44" s="41"/>
+      <x:c r="AE44" s="41"/>
+      <x:c r="AF44" s="41"/>
+      <x:c r="AG44" s="41"/>
+      <x:c r="AH44" s="41"/>
+      <x:c r="AI44" s="41"/>
+      <x:c r="AJ44" s="41"/>
+      <x:c r="AK44" s="41"/>
+      <x:c r="AL44" s="41"/>
+      <x:c r="AM44" s="41"/>
+      <x:c r="AN44" s="41"/>
+      <x:c r="AO44" s="41"/>
+      <x:c r="AP44" s="41"/>
+      <x:c r="AQ44" s="41"/>
+      <x:c r="AR44" s="41"/>
+      <x:c r="AS44" s="41"/>
+      <x:c r="AT44" s="41"/>
+      <x:c r="AU44" s="41"/>
+      <x:c r="AV44" s="41"/>
+      <x:c r="AW44" s="41"/>
+      <x:c r="AX44" s="41"/>
+      <x:c r="AY44" s="41"/>
+      <x:c r="AZ44" s="41"/>
+      <x:c r="BA44" s="41"/>
+      <x:c r="BB44" s="41"/>
+      <x:c r="BC44" s="41"/>
+      <x:c r="BD44" s="41"/>
+      <x:c r="BE44" s="41"/>
+      <x:c r="BF44" s="41"/>
+      <x:c r="BG44" s="41"/>
+      <x:c r="BH44" s="41"/>
+      <x:c r="BI44" s="41"/>
+      <x:c r="BJ44" s="41"/>
+      <x:c r="BK44" s="41"/>
+      <x:c r="BL44" s="41"/>
+      <x:c r="BM44" s="41"/>
+      <x:c r="BN44" s="41"/>
+      <x:c r="BO44" s="41"/>
+      <x:c r="BP44" s="41"/>
+      <x:c r="BQ44" s="41"/>
+      <x:c r="BR44" s="41"/>
+      <x:c r="BS44" s="41"/>
+      <x:c r="BT44" s="41"/>
+      <x:c r="BU44" s="41"/>
+      <x:c r="BV44" s="41"/>
+      <x:c r="BW44" s="41"/>
+      <x:c r="BX44" s="41"/>
+      <x:c r="BY44" s="41"/>
+      <x:c r="BZ44" s="41"/>
+      <x:c r="CA44" s="41"/>
+      <x:c r="CB44" s="41"/>
+      <x:c r="CC44" s="41"/>
+      <x:c r="CD44" s="41"/>
+      <x:c r="CE44" s="41"/>
+      <x:c r="CF44" s="41"/>
+      <x:c r="CG44" s="41"/>
+      <x:c r="CH44" s="41"/>
+      <x:c r="CI44" s="41"/>
+    </x:row>
+    <x:row r="45" spans="1:87">
+      <x:c r="A45" s="43"/>
+      <x:c r="B45" s="34"/>
+      <x:c r="C45" s="39" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D45" s="23" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E45" s="23"/>
+      <x:c r="F45" s="23"/>
+      <x:c r="G45" s="23"/>
+      <x:c r="H45" s="23"/>
+      <x:c r="I45" s="23"/>
+      <x:c r="J45" s="41"/>
+      <x:c r="K45" s="41"/>
+      <x:c r="L45" s="41"/>
+      <x:c r="M45" s="41"/>
+      <x:c r="N45" s="41"/>
+      <x:c r="O45" s="41"/>
+      <x:c r="P45" s="41"/>
+      <x:c r="Q45" s="41"/>
+      <x:c r="R45" s="41"/>
+      <x:c r="S45" s="41"/>
+      <x:c r="T45" s="41"/>
+      <x:c r="U45" s="41"/>
+      <x:c r="V45" s="41"/>
+      <x:c r="W45" s="41"/>
+      <x:c r="X45" s="41"/>
+      <x:c r="Y45" s="41"/>
+      <x:c r="Z45" s="41"/>
+      <x:c r="AA45" s="41"/>
+      <x:c r="AB45" s="41"/>
+      <x:c r="AC45" s="41"/>
+      <x:c r="AD45" s="41"/>
+      <x:c r="AE45" s="41"/>
+      <x:c r="AF45" s="41"/>
+      <x:c r="AG45" s="41"/>
+      <x:c r="AH45" s="41"/>
+      <x:c r="AI45" s="41"/>
+      <x:c r="AJ45" s="41"/>
+      <x:c r="AK45" s="41"/>
+      <x:c r="AL45" s="41"/>
+      <x:c r="AM45" s="41"/>
+      <x:c r="AN45" s="41"/>
+      <x:c r="AO45" s="41"/>
+      <x:c r="AP45" s="41"/>
+      <x:c r="AQ45" s="41"/>
+      <x:c r="AR45" s="41"/>
+      <x:c r="AS45" s="41"/>
+      <x:c r="AT45" s="41"/>
+      <x:c r="AU45" s="41"/>
+      <x:c r="AV45" s="41"/>
+      <x:c r="AW45" s="41"/>
+      <x:c r="AX45" s="41"/>
+      <x:c r="AY45" s="41"/>
+      <x:c r="AZ45" s="41"/>
+      <x:c r="BA45" s="41"/>
+      <x:c r="BB45" s="41"/>
+      <x:c r="BC45" s="41"/>
+      <x:c r="BD45" s="41"/>
+      <x:c r="BE45" s="41"/>
+      <x:c r="BF45" s="41"/>
+      <x:c r="BG45" s="41"/>
+      <x:c r="BH45" s="41"/>
+      <x:c r="BI45" s="41"/>
+      <x:c r="BJ45" s="41"/>
+      <x:c r="BK45" s="41"/>
+      <x:c r="BL45" s="41"/>
+      <x:c r="BM45" s="41"/>
+      <x:c r="BN45" s="41"/>
+      <x:c r="BO45" s="41"/>
+      <x:c r="BP45" s="41"/>
+      <x:c r="BQ45" s="41"/>
+      <x:c r="BR45" s="41"/>
+      <x:c r="BS45" s="41"/>
+      <x:c r="BT45" s="41"/>
+      <x:c r="BU45" s="41"/>
+      <x:c r="BV45" s="41"/>
+      <x:c r="BW45" s="41"/>
+      <x:c r="BX45" s="41"/>
+      <x:c r="BY45" s="41"/>
+      <x:c r="BZ45" s="41"/>
+      <x:c r="CA45" s="41"/>
+      <x:c r="CB45" s="41"/>
+      <x:c r="CC45" s="41"/>
+      <x:c r="CD45" s="41"/>
+      <x:c r="CE45" s="41"/>
+      <x:c r="CF45" s="41"/>
+      <x:c r="CG45" s="41"/>
+      <x:c r="CH45" s="41"/>
+      <x:c r="CI45" s="41"/>
+    </x:row>
+    <x:row r="46" spans="1:87">
+      <x:c r="A46" s="43"/>
+      <x:c r="B46" s="34"/>
+      <x:c r="C46" s="38"/>
+      <x:c r="D46" s="23" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E46" s="23"/>
+      <x:c r="F46" s="23"/>
+      <x:c r="G46" s="23"/>
+      <x:c r="H46" s="23"/>
+      <x:c r="I46" s="23"/>
+      <x:c r="J46" s="41"/>
+      <x:c r="K46" s="41"/>
+      <x:c r="L46" s="41"/>
+      <x:c r="M46" s="41"/>
+      <x:c r="N46" s="41"/>
+      <x:c r="O46" s="41"/>
+      <x:c r="P46" s="41"/>
+      <x:c r="Q46" s="41"/>
+      <x:c r="R46" s="41"/>
+      <x:c r="S46" s="41"/>
+      <x:c r="T46" s="41"/>
+      <x:c r="U46" s="41"/>
+      <x:c r="V46" s="41"/>
+      <x:c r="W46" s="41"/>
+      <x:c r="X46" s="41"/>
+      <x:c r="Y46" s="41"/>
+      <x:c r="Z46" s="41"/>
+      <x:c r="AA46" s="41"/>
+      <x:c r="AB46" s="41"/>
+      <x:c r="AC46" s="41"/>
+      <x:c r="AD46" s="41"/>
+      <x:c r="AE46" s="41"/>
+      <x:c r="AF46" s="41"/>
+      <x:c r="AG46" s="41"/>
+      <x:c r="AH46" s="41"/>
+      <x:c r="AI46" s="41"/>
+      <x:c r="AJ46" s="41"/>
+      <x:c r="AK46" s="41"/>
+      <x:c r="AL46" s="41"/>
+      <x:c r="AM46" s="41"/>
+      <x:c r="AN46" s="41"/>
+      <x:c r="AO46" s="41"/>
+      <x:c r="AP46" s="41"/>
+      <x:c r="AQ46" s="41"/>
+      <x:c r="AR46" s="41"/>
+      <x:c r="AS46" s="41"/>
+      <x:c r="AT46" s="41"/>
+      <x:c r="AU46" s="41"/>
+      <x:c r="AV46" s="41"/>
+      <x:c r="AW46" s="41"/>
+      <x:c r="AX46" s="41"/>
+      <x:c r="AY46" s="41"/>
+      <x:c r="AZ46" s="41"/>
+      <x:c r="BA46" s="41"/>
+      <x:c r="BB46" s="41"/>
+      <x:c r="BC46" s="41"/>
+      <x:c r="BD46" s="41"/>
+      <x:c r="BE46" s="41"/>
+      <x:c r="BF46" s="41"/>
+      <x:c r="BG46" s="41"/>
+      <x:c r="BH46" s="41"/>
+      <x:c r="BI46" s="41"/>
+      <x:c r="BJ46" s="41"/>
+      <x:c r="BK46" s="41"/>
+      <x:c r="BL46" s="41"/>
+      <x:c r="BM46" s="41"/>
+      <x:c r="BN46" s="41"/>
+      <x:c r="BO46" s="41"/>
+      <x:c r="BP46" s="41"/>
+      <x:c r="BQ46" s="41"/>
+      <x:c r="BR46" s="41"/>
+      <x:c r="BS46" s="41"/>
+      <x:c r="BT46" s="41"/>
+      <x:c r="BU46" s="41"/>
+      <x:c r="BV46" s="41"/>
+      <x:c r="BW46" s="41"/>
+      <x:c r="BX46" s="41"/>
+      <x:c r="BY46" s="41"/>
+      <x:c r="BZ46" s="41"/>
+      <x:c r="CA46" s="41"/>
+      <x:c r="CB46" s="41"/>
+      <x:c r="CC46" s="41"/>
+      <x:c r="CD46" s="41"/>
+      <x:c r="CE46" s="41"/>
+      <x:c r="CF46" s="41"/>
+      <x:c r="CG46" s="41"/>
+      <x:c r="CH46" s="41"/>
+      <x:c r="CI46" s="41"/>
+    </x:row>
+    <x:row r="47" spans="1:87">
+      <x:c r="A47" s="43"/>
+      <x:c r="B47" s="34"/>
+      <x:c r="C47" s="39" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D47" s="23" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="E47" s="23"/>
+      <x:c r="F47" s="23"/>
+      <x:c r="G47" s="23"/>
+      <x:c r="H47" s="23"/>
+      <x:c r="I47" s="23"/>
+      <x:c r="J47" s="41"/>
+      <x:c r="K47" s="41"/>
+      <x:c r="L47" s="41"/>
+      <x:c r="M47" s="41"/>
+      <x:c r="N47" s="41"/>
+      <x:c r="O47" s="41"/>
+      <x:c r="P47" s="41"/>
+      <x:c r="Q47" s="41"/>
+      <x:c r="R47" s="41"/>
+      <x:c r="S47" s="41"/>
+      <x:c r="T47" s="41"/>
+      <x:c r="U47" s="41"/>
+      <x:c r="V47" s="41"/>
+      <x:c r="W47" s="41"/>
+      <x:c r="X47" s="41"/>
+      <x:c r="Y47" s="41"/>
+      <x:c r="Z47" s="41"/>
+      <x:c r="AA47" s="41"/>
+      <x:c r="AB47" s="41"/>
+      <x:c r="AC47" s="41"/>
+      <x:c r="AD47" s="41"/>
+      <x:c r="AE47" s="41"/>
+      <x:c r="AF47" s="41"/>
+      <x:c r="AG47" s="41"/>
+      <x:c r="AH47" s="41"/>
+      <x:c r="AI47" s="41"/>
+      <x:c r="AJ47" s="41"/>
+      <x:c r="AK47" s="41"/>
+      <x:c r="AL47" s="41"/>
+      <x:c r="AM47" s="41"/>
+      <x:c r="AN47" s="41"/>
+      <x:c r="AO47" s="41"/>
+      <x:c r="AP47" s="41"/>
+      <x:c r="AQ47" s="41"/>
+      <x:c r="AR47" s="41"/>
+      <x:c r="AS47" s="41"/>
+      <x:c r="AT47" s="41"/>
+      <x:c r="AU47" s="41"/>
+      <x:c r="AV47" s="41"/>
+      <x:c r="AW47" s="41"/>
+      <x:c r="AX47" s="41"/>
+      <x:c r="AY47" s="41"/>
+      <x:c r="AZ47" s="41"/>
+      <x:c r="BA47" s="41"/>
+      <x:c r="BB47" s="41"/>
+      <x:c r="BC47" s="41"/>
+      <x:c r="BD47" s="41"/>
+      <x:c r="BE47" s="41"/>
+      <x:c r="BF47" s="41"/>
+      <x:c r="BG47" s="41"/>
+      <x:c r="BH47" s="41"/>
+      <x:c r="BI47" s="41"/>
+      <x:c r="BJ47" s="41"/>
+      <x:c r="BK47" s="41"/>
+      <x:c r="BL47" s="41"/>
+      <x:c r="BM47" s="41"/>
+      <x:c r="BN47" s="41"/>
+      <x:c r="BO47" s="41"/>
+      <x:c r="BP47" s="41"/>
+      <x:c r="BQ47" s="41"/>
+      <x:c r="BR47" s="41"/>
+      <x:c r="BS47" s="41"/>
+      <x:c r="BT47" s="41"/>
+      <x:c r="BU47" s="41"/>
+      <x:c r="BV47" s="41"/>
+      <x:c r="BW47" s="41"/>
+      <x:c r="BX47" s="41"/>
+      <x:c r="BY47" s="41"/>
+      <x:c r="BZ47" s="41"/>
+      <x:c r="CA47" s="41"/>
+      <x:c r="CB47" s="41"/>
+      <x:c r="CC47" s="41"/>
+      <x:c r="CD47" s="41"/>
+      <x:c r="CE47" s="41"/>
+      <x:c r="CF47" s="41"/>
+      <x:c r="CG47" s="41"/>
+      <x:c r="CH47" s="41"/>
+      <x:c r="CI47" s="41"/>
+    </x:row>
+    <x:row r="48" spans="1:87">
+      <x:c r="A48" s="43"/>
+      <x:c r="B48" s="34"/>
+      <x:c r="C48" s="37"/>
+      <x:c r="D48" s="23" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E48" s="23"/>
+      <x:c r="F48" s="23"/>
+      <x:c r="G48" s="23"/>
+      <x:c r="H48" s="23"/>
+      <x:c r="I48" s="23"/>
+      <x:c r="J48" s="41"/>
+      <x:c r="K48" s="41"/>
+      <x:c r="L48" s="41"/>
+      <x:c r="M48" s="41"/>
+      <x:c r="N48" s="41"/>
+      <x:c r="O48" s="41"/>
+      <x:c r="P48" s="41"/>
+      <x:c r="Q48" s="41"/>
+      <x:c r="R48" s="41"/>
+      <x:c r="S48" s="41"/>
+      <x:c r="T48" s="41"/>
+      <x:c r="U48" s="41"/>
+      <x:c r="V48" s="41"/>
+      <x:c r="W48" s="41"/>
+      <x:c r="X48" s="41"/>
+      <x:c r="Y48" s="41"/>
+      <x:c r="Z48" s="41"/>
+      <x:c r="AA48" s="41"/>
+      <x:c r="AB48" s="41"/>
+      <x:c r="AC48" s="41"/>
+      <x:c r="AD48" s="41"/>
+      <x:c r="AE48" s="41"/>
+      <x:c r="AF48" s="41"/>
+      <x:c r="AG48" s="41"/>
+      <x:c r="AH48" s="41"/>
+      <x:c r="AI48" s="41"/>
+      <x:c r="AJ48" s="41"/>
+      <x:c r="AK48" s="41"/>
+      <x:c r="AL48" s="41"/>
+      <x:c r="AM48" s="41"/>
+      <x:c r="AN48" s="41"/>
+      <x:c r="AO48" s="41"/>
+      <x:c r="AP48" s="41"/>
+      <x:c r="AQ48" s="41"/>
+      <x:c r="AR48" s="41"/>
+      <x:c r="AS48" s="41"/>
+      <x:c r="AT48" s="41"/>
+      <x:c r="AU48" s="41"/>
+      <x:c r="AV48" s="41"/>
+      <x:c r="AW48" s="41"/>
+      <x:c r="AX48" s="41"/>
+      <x:c r="AY48" s="41"/>
+      <x:c r="AZ48" s="41"/>
+      <x:c r="BA48" s="41"/>
+      <x:c r="BB48" s="41"/>
+      <x:c r="BC48" s="41"/>
+      <x:c r="BD48" s="41"/>
+      <x:c r="BE48" s="41"/>
+      <x:c r="BF48" s="41"/>
+      <x:c r="BG48" s="41"/>
+      <x:c r="BH48" s="41"/>
+      <x:c r="BI48" s="41"/>
+      <x:c r="BJ48" s="41"/>
+      <x:c r="BK48" s="41"/>
+      <x:c r="BL48" s="41"/>
+      <x:c r="BM48" s="41"/>
+      <x:c r="BN48" s="41"/>
+      <x:c r="BO48" s="41"/>
+      <x:c r="BP48" s="41"/>
+      <x:c r="BQ48" s="41"/>
+      <x:c r="BR48" s="41"/>
+      <x:c r="BS48" s="41"/>
+      <x:c r="BT48" s="41"/>
+      <x:c r="BU48" s="41"/>
+      <x:c r="BV48" s="41"/>
+      <x:c r="BW48" s="41"/>
+      <x:c r="BX48" s="41"/>
+      <x:c r="BY48" s="41"/>
+      <x:c r="BZ48" s="41"/>
+      <x:c r="CA48" s="41"/>
+      <x:c r="CB48" s="41"/>
+      <x:c r="CC48" s="41"/>
+      <x:c r="CD48" s="41"/>
+      <x:c r="CE48" s="41"/>
+      <x:c r="CF48" s="41"/>
+      <x:c r="CG48" s="41"/>
+      <x:c r="CH48" s="41"/>
+      <x:c r="CI48" s="41"/>
+    </x:row>
+    <x:row r="49" spans="1:87">
+      <x:c r="A49" s="43"/>
+      <x:c r="B49" s="34"/>
+      <x:c r="C49" s="38"/>
+      <x:c r="D49" s="23" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="E49" s="23"/>
+      <x:c r="F49" s="23"/>
+      <x:c r="G49" s="23"/>
+      <x:c r="H49" s="23"/>
+      <x:c r="I49" s="23"/>
+      <x:c r="J49" s="41"/>
+      <x:c r="K49" s="41"/>
+      <x:c r="L49" s="41"/>
+      <x:c r="M49" s="41"/>
+      <x:c r="N49" s="41"/>
+      <x:c r="O49" s="41"/>
+      <x:c r="P49" s="41"/>
+      <x:c r="Q49" s="41"/>
+      <x:c r="R49" s="41"/>
+      <x:c r="S49" s="41"/>
+      <x:c r="T49" s="41"/>
+      <x:c r="U49" s="41"/>
+      <x:c r="V49" s="41"/>
+      <x:c r="W49" s="41"/>
+      <x:c r="X49" s="41"/>
+      <x:c r="Y49" s="41"/>
+      <x:c r="Z49" s="41"/>
+      <x:c r="AA49" s="41"/>
+      <x:c r="AB49" s="41"/>
+      <x:c r="AC49" s="41"/>
+      <x:c r="AD49" s="41"/>
+      <x:c r="AE49" s="41"/>
+      <x:c r="AF49" s="41"/>
+      <x:c r="AG49" s="41"/>
+      <x:c r="AH49" s="41"/>
+      <x:c r="AI49" s="41"/>
+      <x:c r="AJ49" s="41"/>
+      <x:c r="AK49" s="41"/>
+      <x:c r="AL49" s="41"/>
+      <x:c r="AM49" s="41"/>
+      <x:c r="AN49" s="41"/>
+      <x:c r="AO49" s="41"/>
+      <x:c r="AP49" s="41"/>
+      <x:c r="AQ49" s="41"/>
+      <x:c r="AR49" s="41"/>
+      <x:c r="AS49" s="41"/>
+      <x:c r="AT49" s="41"/>
+      <x:c r="AU49" s="41"/>
+      <x:c r="AV49" s="41"/>
+      <x:c r="AW49" s="41"/>
+      <x:c r="AX49" s="41"/>
+      <x:c r="AY49" s="41"/>
+      <x:c r="AZ49" s="41"/>
+      <x:c r="BA49" s="41"/>
+      <x:c r="BB49" s="41"/>
+      <x:c r="BC49" s="41"/>
+      <x:c r="BD49" s="41"/>
+      <x:c r="BE49" s="41"/>
+      <x:c r="BF49" s="41"/>
+      <x:c r="BG49" s="41"/>
+      <x:c r="BH49" s="41"/>
+      <x:c r="BI49" s="41"/>
+      <x:c r="BJ49" s="41"/>
+      <x:c r="BK49" s="41"/>
+      <x:c r="BL49" s="41"/>
+      <x:c r="BM49" s="41"/>
+      <x:c r="BN49" s="41"/>
+      <x:c r="BO49" s="41"/>
+      <x:c r="BP49" s="41"/>
+      <x:c r="BQ49" s="41"/>
+      <x:c r="BR49" s="41"/>
+      <x:c r="BS49" s="41"/>
+      <x:c r="BT49" s="41"/>
+      <x:c r="BU49" s="41"/>
+      <x:c r="BV49" s="41"/>
+      <x:c r="BW49" s="41"/>
+      <x:c r="BX49" s="41"/>
+      <x:c r="BY49" s="41"/>
+      <x:c r="BZ49" s="41"/>
+      <x:c r="CA49" s="41"/>
+      <x:c r="CB49" s="41"/>
+      <x:c r="CC49" s="41"/>
+      <x:c r="CD49" s="41"/>
+      <x:c r="CE49" s="41"/>
+      <x:c r="CF49" s="41"/>
+      <x:c r="CG49" s="41"/>
+      <x:c r="CH49" s="41"/>
+      <x:c r="CI49" s="41"/>
+    </x:row>
+    <x:row r="50" spans="1:87">
+      <x:c r="A50" s="43"/>
+      <x:c r="B50" s="34"/>
+      <x:c r="C50" s="39" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D50" s="23" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="E50" s="23"/>
+      <x:c r="F50" s="23"/>
+      <x:c r="G50" s="23"/>
+      <x:c r="H50" s="23"/>
+      <x:c r="I50" s="23"/>
+      <x:c r="J50" s="41"/>
+      <x:c r="K50" s="41"/>
+      <x:c r="L50" s="41"/>
+      <x:c r="M50" s="41"/>
+      <x:c r="N50" s="41"/>
+      <x:c r="O50" s="41"/>
+      <x:c r="P50" s="41"/>
+      <x:c r="Q50" s="41"/>
+      <x:c r="R50" s="41"/>
+      <x:c r="S50" s="41"/>
+      <x:c r="T50" s="41"/>
+      <x:c r="U50" s="41"/>
+      <x:c r="V50" s="41"/>
+      <x:c r="W50" s="41"/>
+      <x:c r="X50" s="41"/>
+      <x:c r="Y50" s="41"/>
+      <x:c r="Z50" s="41"/>
+      <x:c r="AA50" s="41"/>
+      <x:c r="AB50" s="41"/>
+      <x:c r="AC50" s="41"/>
+      <x:c r="AD50" s="41"/>
+      <x:c r="AE50" s="41"/>
+      <x:c r="AF50" s="41"/>
+      <x:c r="AG50" s="41"/>
+      <x:c r="AH50" s="41"/>
+      <x:c r="AI50" s="41"/>
+      <x:c r="AJ50" s="41"/>
+      <x:c r="AK50" s="41"/>
+      <x:c r="AL50" s="41"/>
+      <x:c r="AM50" s="41"/>
+      <x:c r="AN50" s="41"/>
+      <x:c r="AO50" s="41"/>
+      <x:c r="AP50" s="41"/>
+      <x:c r="AQ50" s="41"/>
+      <x:c r="AR50" s="41"/>
+      <x:c r="AS50" s="41"/>
+      <x:c r="AT50" s="41"/>
+      <x:c r="AU50" s="41"/>
+      <x:c r="AV50" s="41"/>
+      <x:c r="AW50" s="41"/>
+      <x:c r="AX50" s="41"/>
+      <x:c r="AY50" s="41"/>
+      <x:c r="AZ50" s="41"/>
+      <x:c r="BA50" s="41"/>
+      <x:c r="BB50" s="41"/>
+      <x:c r="BC50" s="41"/>
+      <x:c r="BD50" s="41"/>
+      <x:c r="BE50" s="41"/>
+      <x:c r="BF50" s="41"/>
+      <x:c r="BG50" s="41"/>
+      <x:c r="BH50" s="41"/>
+      <x:c r="BI50" s="41"/>
+      <x:c r="BJ50" s="41"/>
+      <x:c r="BK50" s="41"/>
+      <x:c r="BL50" s="41"/>
+      <x:c r="BM50" s="41"/>
+      <x:c r="BN50" s="41"/>
+      <x:c r="BO50" s="41"/>
+      <x:c r="BP50" s="41"/>
+      <x:c r="BQ50" s="41"/>
+      <x:c r="BR50" s="41"/>
+      <x:c r="BS50" s="41"/>
+      <x:c r="BT50" s="41"/>
+      <x:c r="BU50" s="41"/>
+      <x:c r="BV50" s="41"/>
+      <x:c r="BW50" s="41"/>
+      <x:c r="BX50" s="41"/>
+      <x:c r="BY50" s="41"/>
+      <x:c r="BZ50" s="41"/>
+      <x:c r="CA50" s="41"/>
+      <x:c r="CB50" s="41"/>
+      <x:c r="CC50" s="41"/>
+      <x:c r="CD50" s="41"/>
+      <x:c r="CE50" s="41"/>
+      <x:c r="CF50" s="41"/>
+      <x:c r="CG50" s="41"/>
+      <x:c r="CH50" s="41"/>
+      <x:c r="CI50" s="41"/>
+    </x:row>
+    <x:row r="51" spans="1:87">
+      <x:c r="A51" s="43"/>
+      <x:c r="B51" s="34"/>
+      <x:c r="C51" s="38"/>
+      <x:c r="D51" s="23" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E51" s="23"/>
+      <x:c r="F51" s="23"/>
+      <x:c r="G51" s="23"/>
+      <x:c r="H51" s="23"/>
+      <x:c r="I51" s="23"/>
+      <x:c r="J51" s="41"/>
+      <x:c r="K51" s="41"/>
+      <x:c r="L51" s="41"/>
+      <x:c r="M51" s="41"/>
+      <x:c r="N51" s="41"/>
+      <x:c r="O51" s="41"/>
+      <x:c r="P51" s="41"/>
+      <x:c r="Q51" s="41"/>
+      <x:c r="R51" s="41"/>
+      <x:c r="S51" s="41"/>
+      <x:c r="T51" s="41"/>
+      <x:c r="U51" s="41"/>
+      <x:c r="V51" s="41"/>
+      <x:c r="W51" s="41"/>
+      <x:c r="X51" s="41"/>
+      <x:c r="Y51" s="41"/>
+      <x:c r="Z51" s="41"/>
+      <x:c r="AA51" s="41"/>
+      <x:c r="AB51" s="41"/>
+      <x:c r="AC51" s="41"/>
+      <x:c r="AD51" s="41"/>
+      <x:c r="AE51" s="41"/>
+      <x:c r="AF51" s="41"/>
+      <x:c r="AG51" s="41"/>
+      <x:c r="AH51" s="41"/>
+      <x:c r="AI51" s="41"/>
+      <x:c r="AJ51" s="41"/>
+      <x:c r="AK51" s="41"/>
+      <x:c r="AL51" s="41"/>
+      <x:c r="AM51" s="41"/>
+      <x:c r="AN51" s="41"/>
+      <x:c r="AO51" s="41"/>
+      <x:c r="AP51" s="41"/>
+      <x:c r="AQ51" s="41"/>
+      <x:c r="AR51" s="41"/>
+      <x:c r="AS51" s="41"/>
+      <x:c r="AT51" s="41"/>
+      <x:c r="AU51" s="41"/>
+      <x:c r="AV51" s="41"/>
+      <x:c r="AW51" s="41"/>
+      <x:c r="AX51" s="41"/>
+      <x:c r="AY51" s="41"/>
+      <x:c r="AZ51" s="41"/>
+      <x:c r="BA51" s="41"/>
+      <x:c r="BB51" s="41"/>
+      <x:c r="BC51" s="41"/>
+      <x:c r="BD51" s="41"/>
+      <x:c r="BE51" s="41"/>
+      <x:c r="BF51" s="41"/>
+      <x:c r="BG51" s="41"/>
+      <x:c r="BH51" s="41"/>
+      <x:c r="BI51" s="41"/>
+      <x:c r="BJ51" s="41"/>
+      <x:c r="BK51" s="41"/>
+      <x:c r="BL51" s="41"/>
+      <x:c r="BM51" s="41"/>
+      <x:c r="BN51" s="41"/>
+      <x:c r="BO51" s="41"/>
+      <x:c r="BP51" s="41"/>
+      <x:c r="BQ51" s="41"/>
+      <x:c r="BR51" s="41"/>
+      <x:c r="BS51" s="41"/>
+      <x:c r="BT51" s="41"/>
+      <x:c r="BU51" s="41"/>
+      <x:c r="BV51" s="41"/>
+      <x:c r="BW51" s="41"/>
+      <x:c r="BX51" s="41"/>
+      <x:c r="BY51" s="41"/>
+      <x:c r="BZ51" s="41"/>
+      <x:c r="CA51" s="41"/>
+      <x:c r="CB51" s="41"/>
+      <x:c r="CC51" s="41"/>
+      <x:c r="CD51" s="41"/>
+      <x:c r="CE51" s="41"/>
+      <x:c r="CF51" s="41"/>
+      <x:c r="CG51" s="41"/>
+      <x:c r="CH51" s="41"/>
+      <x:c r="CI51" s="41"/>
+    </x:row>
+    <x:row r="52" spans="1:87">
+      <x:c r="A52" s="43"/>
+      <x:c r="B52" s="34"/>
+      <x:c r="C52" s="39" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D52" s="23" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="E52" s="23"/>
+      <x:c r="F52" s="23"/>
+      <x:c r="G52" s="23"/>
+      <x:c r="H52" s="23"/>
+      <x:c r="I52" s="23"/>
+      <x:c r="J52" s="41"/>
+      <x:c r="K52" s="41"/>
+      <x:c r="L52" s="41"/>
+      <x:c r="M52" s="41"/>
+      <x:c r="N52" s="41"/>
+      <x:c r="O52" s="41"/>
+      <x:c r="P52" s="41"/>
+      <x:c r="Q52" s="41"/>
+      <x:c r="R52" s="41"/>
+      <x:c r="S52" s="41"/>
+      <x:c r="T52" s="41"/>
+      <x:c r="U52" s="41"/>
+      <x:c r="V52" s="41"/>
+      <x:c r="W52" s="41"/>
+      <x:c r="X52" s="41"/>
+      <x:c r="Y52" s="41"/>
+      <x:c r="Z52" s="41"/>
+      <x:c r="AA52" s="41"/>
+      <x:c r="AB52" s="41"/>
+      <x:c r="AC52" s="41"/>
+      <x:c r="AD52" s="41"/>
+      <x:c r="AE52" s="41"/>
+      <x:c r="AF52" s="41"/>
+      <x:c r="AG52" s="41"/>
+      <x:c r="AH52" s="41"/>
+      <x:c r="AI52" s="41"/>
+      <x:c r="AJ52" s="41"/>
+      <x:c r="AK52" s="41"/>
+      <x:c r="AL52" s="41"/>
+      <x:c r="AM52" s="41"/>
+      <x:c r="AN52" s="41"/>
+      <x:c r="AO52" s="41"/>
+      <x:c r="AP52" s="41"/>
+      <x:c r="AQ52" s="41"/>
+      <x:c r="AR52" s="41"/>
+      <x:c r="AS52" s="41"/>
+      <x:c r="AT52" s="41"/>
+      <x:c r="AU52" s="41"/>
+      <x:c r="AV52" s="41"/>
+      <x:c r="AW52" s="41"/>
+      <x:c r="AX52" s="41"/>
+      <x:c r="AY52" s="41"/>
+      <x:c r="AZ52" s="41"/>
+      <x:c r="BA52" s="41"/>
+      <x:c r="BB52" s="41"/>
+      <x:c r="BC52" s="41"/>
+      <x:c r="BD52" s="41"/>
+      <x:c r="BE52" s="41"/>
+      <x:c r="BF52" s="41"/>
+      <x:c r="BG52" s="41"/>
+      <x:c r="BH52" s="41"/>
+      <x:c r="BI52" s="41"/>
+      <x:c r="BJ52" s="41"/>
+      <x:c r="BK52" s="41"/>
+      <x:c r="BL52" s="41"/>
+      <x:c r="BM52" s="41"/>
+      <x:c r="BN52" s="41"/>
+      <x:c r="BO52" s="41"/>
+      <x:c r="BP52" s="41"/>
+      <x:c r="BQ52" s="41"/>
+      <x:c r="BR52" s="41"/>
+      <x:c r="BS52" s="41"/>
+      <x:c r="BT52" s="41"/>
+      <x:c r="BU52" s="41"/>
+      <x:c r="BV52" s="41"/>
+      <x:c r="BW52" s="41"/>
+      <x:c r="BX52" s="41"/>
+      <x:c r="BY52" s="41"/>
+      <x:c r="BZ52" s="41"/>
+      <x:c r="CA52" s="41"/>
+      <x:c r="CB52" s="41"/>
+      <x:c r="CC52" s="41"/>
+      <x:c r="CD52" s="41"/>
+      <x:c r="CE52" s="41"/>
+      <x:c r="CF52" s="41"/>
+      <x:c r="CG52" s="41"/>
+      <x:c r="CH52" s="41"/>
+      <x:c r="CI52" s="41"/>
+    </x:row>
+    <x:row r="53" spans="1:87">
+      <x:c r="A53" s="43"/>
+      <x:c r="B53" s="34"/>
+      <x:c r="C53" s="38"/>
+      <x:c r="D53" s="23" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="E53" s="23"/>
+      <x:c r="F53" s="23"/>
+      <x:c r="G53" s="23"/>
+      <x:c r="H53" s="23"/>
+      <x:c r="I53" s="23"/>
+      <x:c r="J53" s="41"/>
+      <x:c r="K53" s="41"/>
+      <x:c r="L53" s="41"/>
+      <x:c r="M53" s="41"/>
+      <x:c r="N53" s="41"/>
+      <x:c r="O53" s="41"/>
+      <x:c r="P53" s="41"/>
+      <x:c r="Q53" s="41"/>
+      <x:c r="R53" s="41"/>
+      <x:c r="S53" s="41"/>
+      <x:c r="T53" s="41"/>
+      <x:c r="U53" s="41"/>
+      <x:c r="V53" s="41"/>
+      <x:c r="W53" s="41"/>
+      <x:c r="X53" s="41"/>
+      <x:c r="Y53" s="41"/>
+      <x:c r="Z53" s="41"/>
+      <x:c r="AA53" s="41"/>
+      <x:c r="AB53" s="41"/>
+      <x:c r="AC53" s="41"/>
+      <x:c r="AD53" s="41"/>
+      <x:c r="AE53" s="41"/>
+      <x:c r="AF53" s="41"/>
+      <x:c r="AG53" s="41"/>
+      <x:c r="AH53" s="41"/>
+      <x:c r="AI53" s="41"/>
+      <x:c r="AJ53" s="41"/>
+      <x:c r="AK53" s="41"/>
+      <x:c r="AL53" s="41"/>
+      <x:c r="AM53" s="41"/>
+      <x:c r="AN53" s="41"/>
+      <x:c r="AO53" s="41"/>
+      <x:c r="AP53" s="41"/>
+      <x:c r="AQ53" s="41"/>
+      <x:c r="AR53" s="41"/>
+      <x:c r="AS53" s="41"/>
+      <x:c r="AT53" s="41"/>
+      <x:c r="AU53" s="41"/>
+      <x:c r="AV53" s="41"/>
+      <x:c r="AW53" s="41"/>
+      <x:c r="AX53" s="41"/>
+      <x:c r="AY53" s="41"/>
+      <x:c r="AZ53" s="41"/>
+      <x:c r="BA53" s="41"/>
+      <x:c r="BB53" s="41"/>
+      <x:c r="BC53" s="41"/>
+      <x:c r="BD53" s="41"/>
+      <x:c r="BE53" s="41"/>
+      <x:c r="BF53" s="41"/>
+      <x:c r="BG53" s="41"/>
+      <x:c r="BH53" s="41"/>
+      <x:c r="BI53" s="41"/>
+      <x:c r="BJ53" s="41"/>
+      <x:c r="BK53" s="41"/>
+      <x:c r="BL53" s="41"/>
+      <x:c r="BM53" s="41"/>
+      <x:c r="BN53" s="41"/>
+      <x:c r="BO53" s="41"/>
+      <x:c r="BP53" s="41"/>
+      <x:c r="BQ53" s="41"/>
+      <x:c r="BR53" s="41"/>
+      <x:c r="BS53" s="41"/>
+      <x:c r="BT53" s="41"/>
+      <x:c r="BU53" s="41"/>
+      <x:c r="BV53" s="41"/>
+      <x:c r="BW53" s="41"/>
+      <x:c r="BX53" s="41"/>
+      <x:c r="BY53" s="41"/>
+      <x:c r="BZ53" s="41"/>
+      <x:c r="CA53" s="41"/>
+      <x:c r="CB53" s="41"/>
+      <x:c r="CC53" s="41"/>
+      <x:c r="CD53" s="41"/>
+      <x:c r="CE53" s="41"/>
+      <x:c r="CF53" s="41"/>
+      <x:c r="CG53" s="41"/>
+      <x:c r="CH53" s="41"/>
+      <x:c r="CI53" s="41"/>
+    </x:row>
+    <x:row r="54" spans="1:87">
+      <x:c r="A54" s="43"/>
+      <x:c r="B54" s="34"/>
+      <x:c r="C54" s="39" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D54" s="23" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E54" s="23"/>
+      <x:c r="F54" s="23"/>
+      <x:c r="G54" s="23"/>
+      <x:c r="H54" s="23"/>
+      <x:c r="I54" s="23"/>
+      <x:c r="J54" s="41"/>
+      <x:c r="K54" s="41"/>
+      <x:c r="L54" s="41"/>
+      <x:c r="M54" s="41"/>
+      <x:c r="N54" s="41"/>
+      <x:c r="O54" s="41"/>
+      <x:c r="P54" s="41"/>
+      <x:c r="Q54" s="41"/>
+      <x:c r="R54" s="41"/>
+      <x:c r="S54" s="41"/>
+      <x:c r="T54" s="41"/>
+      <x:c r="U54" s="41"/>
+      <x:c r="V54" s="41"/>
+      <x:c r="W54" s="41"/>
+      <x:c r="X54" s="41"/>
+      <x:c r="Y54" s="41"/>
+      <x:c r="Z54" s="41"/>
+      <x:c r="AA54" s="41"/>
+      <x:c r="AB54" s="41"/>
+      <x:c r="AC54" s="41"/>
+      <x:c r="AD54" s="41"/>
+      <x:c r="AE54" s="41"/>
+      <x:c r="AF54" s="41"/>
+      <x:c r="AG54" s="41"/>
+      <x:c r="AH54" s="41"/>
+      <x:c r="AI54" s="41"/>
+      <x:c r="AJ54" s="41"/>
+      <x:c r="AK54" s="41"/>
+      <x:c r="AL54" s="41"/>
+      <x:c r="AM54" s="41"/>
+      <x:c r="AN54" s="41"/>
+      <x:c r="AO54" s="41"/>
+      <x:c r="AP54" s="41"/>
+      <x:c r="AQ54" s="41"/>
+      <x:c r="AR54" s="41"/>
+      <x:c r="AS54" s="41"/>
+      <x:c r="AT54" s="41"/>
+      <x:c r="AU54" s="41"/>
+      <x:c r="AV54" s="41"/>
+      <x:c r="AW54" s="41"/>
+      <x:c r="AX54" s="41"/>
+      <x:c r="AY54" s="41"/>
+      <x:c r="AZ54" s="41"/>
+      <x:c r="BA54" s="41"/>
+      <x:c r="BB54" s="41"/>
+      <x:c r="BC54" s="41"/>
+      <x:c r="BD54" s="41"/>
+      <x:c r="BE54" s="41"/>
+      <x:c r="BF54" s="41"/>
+      <x:c r="BG54" s="41"/>
+      <x:c r="BH54" s="41"/>
+      <x:c r="BI54" s="41"/>
+      <x:c r="BJ54" s="41"/>
+      <x:c r="BK54" s="41"/>
+      <x:c r="BL54" s="41"/>
+      <x:c r="BM54" s="41"/>
+      <x:c r="BN54" s="41"/>
+      <x:c r="BO54" s="41"/>
+      <x:c r="BP54" s="41"/>
+      <x:c r="BQ54" s="41"/>
+      <x:c r="BR54" s="41"/>
+      <x:c r="BS54" s="41"/>
+      <x:c r="BT54" s="41"/>
+      <x:c r="BU54" s="41"/>
+      <x:c r="BV54" s="41"/>
+      <x:c r="BW54" s="41"/>
+      <x:c r="BX54" s="41"/>
+      <x:c r="BY54" s="41"/>
+      <x:c r="BZ54" s="41"/>
+      <x:c r="CA54" s="41"/>
+      <x:c r="CB54" s="41"/>
+      <x:c r="CC54" s="41"/>
+      <x:c r="CD54" s="41"/>
+      <x:c r="CE54" s="41"/>
+      <x:c r="CF54" s="41"/>
+      <x:c r="CG54" s="41"/>
+      <x:c r="CH54" s="41"/>
+      <x:c r="CI54" s="41"/>
+    </x:row>
+    <x:row r="55" spans="1:87">
+      <x:c r="A55" s="44"/>
+      <x:c r="B55" s="35"/>
+      <x:c r="C55" s="38"/>
+      <x:c r="D55" s="23" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="E55" s="23"/>
+      <x:c r="F55" s="23"/>
+      <x:c r="G55" s="23"/>
+      <x:c r="H55" s="23"/>
+      <x:c r="I55" s="23"/>
+      <x:c r="J55" s="41"/>
+      <x:c r="K55" s="41"/>
+      <x:c r="L55" s="41"/>
+      <x:c r="M55" s="41"/>
+      <x:c r="N55" s="41"/>
+      <x:c r="O55" s="41"/>
+      <x:c r="P55" s="41"/>
+      <x:c r="Q55" s="41"/>
+      <x:c r="R55" s="41"/>
+      <x:c r="S55" s="41"/>
+      <x:c r="T55" s="41"/>
+      <x:c r="U55" s="41"/>
+      <x:c r="V55" s="41"/>
+      <x:c r="W55" s="41"/>
+      <x:c r="X55" s="41"/>
+      <x:c r="Y55" s="41"/>
+      <x:c r="Z55" s="41"/>
+      <x:c r="AA55" s="41"/>
+      <x:c r="AB55" s="41"/>
+      <x:c r="AC55" s="41"/>
+      <x:c r="AD55" s="41"/>
+      <x:c r="AE55" s="41"/>
+      <x:c r="AF55" s="41"/>
+      <x:c r="AG55" s="41"/>
+      <x:c r="AH55" s="41"/>
+      <x:c r="AI55" s="41"/>
+      <x:c r="AJ55" s="41"/>
+      <x:c r="AK55" s="41"/>
+      <x:c r="AL55" s="41"/>
+      <x:c r="AM55" s="41"/>
+      <x:c r="AN55" s="41"/>
+      <x:c r="AO55" s="41"/>
+      <x:c r="AP55" s="41"/>
+      <x:c r="AQ55" s="41"/>
+      <x:c r="AR55" s="41"/>
+      <x:c r="AS55" s="41"/>
+      <x:c r="AT55" s="41"/>
+      <x:c r="AU55" s="41"/>
+      <x:c r="AV55" s="41"/>
+      <x:c r="AW55" s="41"/>
+      <x:c r="AX55" s="41"/>
+      <x:c r="AY55" s="41"/>
+      <x:c r="AZ55" s="41"/>
+      <x:c r="BA55" s="41"/>
+      <x:c r="BB55" s="41"/>
+      <x:c r="BC55" s="41"/>
+      <x:c r="BD55" s="41"/>
+      <x:c r="BE55" s="41"/>
+      <x:c r="BF55" s="41"/>
+      <x:c r="BG55" s="41"/>
+      <x:c r="BH55" s="41"/>
+      <x:c r="BI55" s="41"/>
+      <x:c r="BJ55" s="41"/>
+      <x:c r="BK55" s="41"/>
+      <x:c r="BL55" s="41"/>
+      <x:c r="BM55" s="41"/>
+      <x:c r="BN55" s="41"/>
+      <x:c r="BO55" s="41"/>
+      <x:c r="BP55" s="41"/>
+      <x:c r="BQ55" s="41"/>
+      <x:c r="BR55" s="41"/>
+      <x:c r="BS55" s="41"/>
+      <x:c r="BT55" s="41"/>
+      <x:c r="BU55" s="41"/>
+      <x:c r="BV55" s="41"/>
+      <x:c r="BW55" s="41"/>
+      <x:c r="BX55" s="41"/>
+      <x:c r="BY55" s="41"/>
+      <x:c r="BZ55" s="41"/>
+      <x:c r="CA55" s="41"/>
+      <x:c r="CB55" s="41"/>
+      <x:c r="CC55" s="41"/>
+      <x:c r="CD55" s="41"/>
+      <x:c r="CE55" s="41"/>
+      <x:c r="CF55" s="41"/>
+      <x:c r="CG55" s="41"/>
+      <x:c r="CH55" s="41"/>
+      <x:c r="CI55" s="41"/>
+    </x:row>
+    <x:row r="56" spans="1:87">
+      <x:c r="A56" s="29"/>
+      <x:c r="B56" s="30"/>
+      <x:c r="C56" s="23"/>
+      <x:c r="D56" s="23"/>
+      <x:c r="E56" s="23"/>
+      <x:c r="F56" s="23"/>
+      <x:c r="G56" s="23"/>
+      <x:c r="H56" s="23"/>
+      <x:c r="I56" s="23"/>
+      <x:c r="J56" s="41"/>
+      <x:c r="K56" s="41"/>
+      <x:c r="L56" s="41"/>
+      <x:c r="M56" s="41"/>
+      <x:c r="N56" s="41"/>
+      <x:c r="O56" s="41"/>
+      <x:c r="P56" s="41"/>
+      <x:c r="Q56" s="41"/>
+      <x:c r="R56" s="41"/>
+      <x:c r="S56" s="41"/>
+      <x:c r="T56" s="41"/>
+      <x:c r="U56" s="41"/>
+      <x:c r="V56" s="41"/>
+      <x:c r="W56" s="41"/>
+      <x:c r="X56" s="41"/>
+      <x:c r="Y56" s="41"/>
+      <x:c r="Z56" s="41"/>
+      <x:c r="AA56" s="41"/>
+      <x:c r="AB56" s="41"/>
+      <x:c r="AC56" s="41"/>
+      <x:c r="AD56" s="41"/>
+      <x:c r="AE56" s="41"/>
+      <x:c r="AF56" s="41"/>
+      <x:c r="AG56" s="41"/>
+      <x:c r="AH56" s="41"/>
+      <x:c r="AI56" s="41"/>
+      <x:c r="AJ56" s="41"/>
+      <x:c r="AK56" s="41"/>
+      <x:c r="AL56" s="41"/>
+      <x:c r="AM56" s="41"/>
+      <x:c r="AN56" s="41"/>
+      <x:c r="AO56" s="41"/>
+      <x:c r="AP56" s="41"/>
+      <x:c r="AQ56" s="41"/>
+      <x:c r="AR56" s="41"/>
+      <x:c r="AS56" s="41"/>
+      <x:c r="AT56" s="41"/>
+      <x:c r="AU56" s="41"/>
+      <x:c r="AV56" s="41"/>
+      <x:c r="AW56" s="41"/>
+      <x:c r="AX56" s="41"/>
+      <x:c r="AY56" s="41"/>
+      <x:c r="AZ56" s="41"/>
+      <x:c r="BA56" s="41"/>
+      <x:c r="BB56" s="41"/>
+      <x:c r="BC56" s="41"/>
+      <x:c r="BD56" s="41"/>
+      <x:c r="BE56" s="41"/>
+      <x:c r="BF56" s="41"/>
+      <x:c r="BG56" s="41"/>
+      <x:c r="BH56" s="41"/>
+      <x:c r="BI56" s="41"/>
+      <x:c r="BJ56" s="41"/>
+      <x:c r="BK56" s="41"/>
+      <x:c r="BL56" s="41"/>
+      <x:c r="BM56" s="41"/>
+      <x:c r="BN56" s="41"/>
+      <x:c r="BO56" s="41"/>
+      <x:c r="BP56" s="41"/>
+      <x:c r="BQ56" s="41"/>
+      <x:c r="BR56" s="41"/>
+      <x:c r="BS56" s="41"/>
+      <x:c r="BT56" s="41"/>
+      <x:c r="BU56" s="41"/>
+      <x:c r="BV56" s="41"/>
+      <x:c r="BW56" s="41"/>
+      <x:c r="BX56" s="41"/>
+      <x:c r="BY56" s="41"/>
+      <x:c r="BZ56" s="41"/>
+      <x:c r="CA56" s="41"/>
+      <x:c r="CB56" s="41"/>
+      <x:c r="CC56" s="41"/>
+      <x:c r="CD56" s="41"/>
+      <x:c r="CE56" s="41"/>
+      <x:c r="CF56" s="41"/>
+      <x:c r="CG56" s="41"/>
+      <x:c r="CH56" s="41"/>
+      <x:c r="CI56" s="41"/>
+    </x:row>
+    <x:row r="57" spans="1:87">
+      <x:c r="A57" s="29"/>
+      <x:c r="B57" s="30"/>
+      <x:c r="C57" s="23"/>
+      <x:c r="D57" s="23"/>
+      <x:c r="E57" s="23"/>
+      <x:c r="F57" s="23"/>
+      <x:c r="G57" s="23"/>
+      <x:c r="H57" s="23"/>
+      <x:c r="I57" s="23"/>
+      <x:c r="J57" s="41"/>
+      <x:c r="K57" s="41"/>
+      <x:c r="L57" s="41"/>
+      <x:c r="M57" s="41"/>
+      <x:c r="N57" s="41"/>
+      <x:c r="O57" s="41"/>
+      <x:c r="P57" s="41"/>
+      <x:c r="Q57" s="41"/>
+      <x:c r="R57" s="41"/>
+      <x:c r="S57" s="41"/>
+      <x:c r="T57" s="41"/>
+      <x:c r="U57" s="41"/>
+      <x:c r="V57" s="41"/>
+      <x:c r="W57" s="41"/>
+      <x:c r="X57" s="41"/>
+      <x:c r="Y57" s="41"/>
+      <x:c r="Z57" s="41"/>
+      <x:c r="AA57" s="41"/>
+      <x:c r="AB57" s="41"/>
+      <x:c r="AC57" s="41"/>
+      <x:c r="AD57" s="41"/>
+      <x:c r="AE57" s="41"/>
+      <x:c r="AF57" s="41"/>
+      <x:c r="AG57" s="41"/>
+      <x:c r="AH57" s="41"/>
+      <x:c r="AI57" s="41"/>
+      <x:c r="AJ57" s="41"/>
+      <x:c r="AK57" s="41"/>
+      <x:c r="AL57" s="41"/>
+      <x:c r="AM57" s="41"/>
+      <x:c r="AN57" s="41"/>
+      <x:c r="AO57" s="41"/>
+      <x:c r="AP57" s="41"/>
+      <x:c r="AQ57" s="41"/>
+      <x:c r="AR57" s="41"/>
+      <x:c r="AS57" s="41"/>
+      <x:c r="AT57" s="41"/>
+      <x:c r="AU57" s="41"/>
+      <x:c r="AV57" s="41"/>
+      <x:c r="AW57" s="41"/>
+      <x:c r="AX57" s="41"/>
+      <x:c r="AY57" s="41"/>
+      <x:c r="AZ57" s="41"/>
+      <x:c r="BA57" s="41"/>
+      <x:c r="BB57" s="41"/>
+      <x:c r="BC57" s="41"/>
+      <x:c r="BD57" s="41"/>
+      <x:c r="BE57" s="41"/>
+      <x:c r="BF57" s="41"/>
+      <x:c r="BG57" s="41"/>
+      <x:c r="BH57" s="41"/>
+      <x:c r="BI57" s="41"/>
+      <x:c r="BJ57" s="41"/>
+      <x:c r="BK57" s="41"/>
+      <x:c r="BL57" s="41"/>
+      <x:c r="BM57" s="41"/>
+      <x:c r="BN57" s="41"/>
+      <x:c r="BO57" s="41"/>
+      <x:c r="BP57" s="41"/>
+      <x:c r="BQ57" s="41"/>
+      <x:c r="BR57" s="41"/>
+      <x:c r="BS57" s="41"/>
+      <x:c r="BT57" s="41"/>
+      <x:c r="BU57" s="41"/>
+      <x:c r="BV57" s="41"/>
+      <x:c r="BW57" s="41"/>
+      <x:c r="BX57" s="41"/>
+      <x:c r="BY57" s="41"/>
+      <x:c r="BZ57" s="41"/>
+      <x:c r="CA57" s="41"/>
+      <x:c r="CB57" s="41"/>
+      <x:c r="CC57" s="41"/>
+      <x:c r="CD57" s="41"/>
+      <x:c r="CE57" s="41"/>
+      <x:c r="CF57" s="41"/>
+      <x:c r="CG57" s="41"/>
+      <x:c r="CH57" s="41"/>
+      <x:c r="CI57" s="41"/>
+    </x:row>
+    <x:row r="58" spans="1:87">
+      <x:c r="A58" s="29"/>
+      <x:c r="B58" s="30"/>
+      <x:c r="C58" s="23"/>
+      <x:c r="D58" s="23"/>
+      <x:c r="E58" s="23"/>
+      <x:c r="F58" s="23"/>
+      <x:c r="G58" s="23"/>
+      <x:c r="H58" s="23"/>
+      <x:c r="I58" s="23"/>
+      <x:c r="J58" s="41"/>
+      <x:c r="K58" s="41"/>
+      <x:c r="L58" s="41"/>
+      <x:c r="M58" s="41"/>
+      <x:c r="N58" s="41"/>
+      <x:c r="O58" s="41"/>
+      <x:c r="P58" s="41"/>
+      <x:c r="Q58" s="41"/>
+      <x:c r="R58" s="41"/>
+      <x:c r="S58" s="41"/>
+      <x:c r="T58" s="41"/>
+      <x:c r="U58" s="41"/>
+      <x:c r="V58" s="41"/>
+      <x:c r="W58" s="41"/>
+      <x:c r="X58" s="41"/>
+      <x:c r="Y58" s="41"/>
+      <x:c r="Z58" s="41"/>
+      <x:c r="AA58" s="41"/>
+      <x:c r="AB58" s="41"/>
+      <x:c r="AC58" s="41"/>
+      <x:c r="AD58" s="41"/>
+      <x:c r="AE58" s="41"/>
+      <x:c r="AF58" s="41"/>
+      <x:c r="AG58" s="41"/>
+      <x:c r="AH58" s="41"/>
+      <x:c r="AI58" s="41"/>
+      <x:c r="AJ58" s="41"/>
+      <x:c r="AK58" s="41"/>
+      <x:c r="AL58" s="41"/>
+      <x:c r="AM58" s="41"/>
+      <x:c r="AN58" s="41"/>
+      <x:c r="AO58" s="41"/>
+      <x:c r="AP58" s="41"/>
+      <x:c r="AQ58" s="41"/>
+      <x:c r="AR58" s="41"/>
+      <x:c r="AS58" s="41"/>
+      <x:c r="AT58" s="41"/>
+      <x:c r="AU58" s="41"/>
+      <x:c r="AV58" s="41"/>
+      <x:c r="AW58" s="41"/>
+      <x:c r="AX58" s="41"/>
+      <x:c r="AY58" s="41"/>
+      <x:c r="AZ58" s="41"/>
+      <x:c r="BA58" s="41"/>
+      <x:c r="BB58" s="41"/>
+      <x:c r="BC58" s="41"/>
+      <x:c r="BD58" s="41"/>
+      <x:c r="BE58" s="41"/>
+      <x:c r="BF58" s="41"/>
+      <x:c r="BG58" s="41"/>
+      <x:c r="BH58" s="41"/>
+      <x:c r="BI58" s="41"/>
+      <x:c r="BJ58" s="41"/>
+      <x:c r="BK58" s="41"/>
+      <x:c r="BL58" s="41"/>
+      <x:c r="BM58" s="41"/>
+      <x:c r="BN58" s="41"/>
+      <x:c r="BO58" s="41"/>
+      <x:c r="BP58" s="41"/>
+      <x:c r="BQ58" s="41"/>
+      <x:c r="BR58" s="41"/>
+      <x:c r="BS58" s="41"/>
+      <x:c r="BT58" s="41"/>
+      <x:c r="BU58" s="41"/>
+      <x:c r="BV58" s="41"/>
+      <x:c r="BW58" s="41"/>
+      <x:c r="BX58" s="41"/>
+      <x:c r="BY58" s="41"/>
+      <x:c r="BZ58" s="41"/>
+      <x:c r="CA58" s="41"/>
+      <x:c r="CB58" s="41"/>
+      <x:c r="CC58" s="41"/>
+      <x:c r="CD58" s="41"/>
+      <x:c r="CE58" s="41"/>
+      <x:c r="CF58" s="41"/>
+      <x:c r="CG58" s="41"/>
+      <x:c r="CH58" s="41"/>
+      <x:c r="CI58" s="41"/>
+    </x:row>
+    <x:row r="59" spans="1:87">
+      <x:c r="A59" s="29"/>
+      <x:c r="B59" s="30"/>
+      <x:c r="C59" s="23"/>
+      <x:c r="D59" s="23"/>
+      <x:c r="E59" s="23"/>
+      <x:c r="F59" s="23"/>
+      <x:c r="G59" s="23"/>
+      <x:c r="H59" s="23"/>
+      <x:c r="I59" s="23"/>
+      <x:c r="J59" s="41"/>
+      <x:c r="K59" s="41"/>
+      <x:c r="L59" s="41"/>
+      <x:c r="M59" s="41"/>
+      <x:c r="N59" s="41"/>
+      <x:c r="O59" s="41"/>
+      <x:c r="P59" s="41"/>
+      <x:c r="Q59" s="41"/>
+      <x:c r="R59" s="41"/>
+      <x:c r="S59" s="41"/>
+      <x:c r="T59" s="41"/>
+      <x:c r="U59" s="41"/>
+      <x:c r="V59" s="41"/>
+      <x:c r="W59" s="41"/>
+      <x:c r="X59" s="41"/>
+      <x:c r="Y59" s="41"/>
+      <x:c r="Z59" s="41"/>
+      <x:c r="AA59" s="41"/>
+      <x:c r="AB59" s="41"/>
+      <x:c r="AC59" s="41"/>
+      <x:c r="AD59" s="41"/>
+      <x:c r="AE59" s="41"/>
+      <x:c r="AF59" s="41"/>
+      <x:c r="AG59" s="41"/>
+      <x:c r="AH59" s="41"/>
+      <x:c r="AI59" s="41"/>
+      <x:c r="AJ59" s="41"/>
+      <x:c r="AK59" s="41"/>
+      <x:c r="AL59" s="41"/>
+      <x:c r="AM59" s="41"/>
+      <x:c r="AN59" s="41"/>
+      <x:c r="AO59" s="41"/>
+      <x:c r="AP59" s="41"/>
+      <x:c r="AQ59" s="41"/>
+      <x:c r="AR59" s="41"/>
+      <x:c r="AS59" s="41"/>
+      <x:c r="AT59" s="41"/>
+      <x:c r="AU59" s="41"/>
+      <x:c r="AV59" s="41"/>
+      <x:c r="AW59" s="41"/>
+      <x:c r="AX59" s="41"/>
+      <x:c r="AY59" s="41"/>
+      <x:c r="AZ59" s="41"/>
+      <x:c r="BA59" s="41"/>
+      <x:c r="BB59" s="41"/>
+      <x:c r="BC59" s="41"/>
+      <x:c r="BD59" s="41"/>
+      <x:c r="BE59" s="41"/>
+      <x:c r="BF59" s="41"/>
+      <x:c r="BG59" s="41"/>
+      <x:c r="BH59" s="41"/>
+      <x:c r="BI59" s="41"/>
+      <x:c r="BJ59" s="41"/>
+      <x:c r="BK59" s="41"/>
+      <x:c r="BL59" s="41"/>
+      <x:c r="BM59" s="41"/>
+      <x:c r="BN59" s="41"/>
+      <x:c r="BO59" s="41"/>
+      <x:c r="BP59" s="41"/>
+      <x:c r="BQ59" s="41"/>
+      <x:c r="BR59" s="41"/>
+      <x:c r="BS59" s="41"/>
+      <x:c r="BT59" s="41"/>
+      <x:c r="BU59" s="41"/>
+      <x:c r="BV59" s="41"/>
+      <x:c r="BW59" s="41"/>
+      <x:c r="BX59" s="41"/>
+      <x:c r="BY59" s="41"/>
+      <x:c r="BZ59" s="41"/>
+      <x:c r="CA59" s="41"/>
+      <x:c r="CB59" s="41"/>
+      <x:c r="CC59" s="41"/>
+      <x:c r="CD59" s="41"/>
+      <x:c r="CE59" s="41"/>
+      <x:c r="CF59" s="41"/>
+      <x:c r="CG59" s="41"/>
+      <x:c r="CH59" s="41"/>
+      <x:c r="CI59" s="41"/>
+    </x:row>
+    <x:row r="60" spans="1:87">
+      <x:c r="A60" s="29"/>
+      <x:c r="B60" s="30"/>
+      <x:c r="C60" s="23"/>
+      <x:c r="D60" s="23"/>
+      <x:c r="E60" s="23"/>
+      <x:c r="F60" s="23"/>
+      <x:c r="G60" s="23"/>
+      <x:c r="H60" s="23"/>
+      <x:c r="I60" s="23"/>
+      <x:c r="J60" s="41"/>
+      <x:c r="K60" s="41"/>
+      <x:c r="L60" s="41"/>
+      <x:c r="M60" s="41"/>
+      <x:c r="N60" s="41"/>
+      <x:c r="O60" s="41"/>
+      <x:c r="P60" s="41"/>
+      <x:c r="Q60" s="41"/>
+      <x:c r="R60" s="41"/>
+      <x:c r="S60" s="41"/>
+      <x:c r="T60" s="41"/>
+      <x:c r="U60" s="41"/>
+      <x:c r="V60" s="41"/>
+      <x:c r="W60" s="41"/>
+      <x:c r="X60" s="41"/>
+      <x:c r="Y60" s="41"/>
+      <x:c r="Z60" s="41"/>
+      <x:c r="AA60" s="41"/>
+      <x:c r="AB60" s="41"/>
+      <x:c r="AC60" s="41"/>
+      <x:c r="AD60" s="41"/>
+      <x:c r="AE60" s="41"/>
+      <x:c r="AF60" s="41"/>
+      <x:c r="AG60" s="41"/>
+      <x:c r="AH60" s="41"/>
+      <x:c r="AI60" s="41"/>
+      <x:c r="AJ60" s="41"/>
+      <x:c r="AK60" s="41"/>
+      <x:c r="AL60" s="41"/>
+      <x:c r="AM60" s="41"/>
+      <x:c r="AN60" s="41"/>
+      <x:c r="AO60" s="41"/>
+      <x:c r="AP60" s="41"/>
+      <x:c r="AQ60" s="41"/>
+      <x:c r="AR60" s="41"/>
+      <x:c r="AS60" s="41"/>
+      <x:c r="AT60" s="41"/>
+      <x:c r="AU60" s="41"/>
+      <x:c r="AV60" s="41"/>
+      <x:c r="AW60" s="41"/>
+      <x:c r="AX60" s="41"/>
+      <x:c r="AY60" s="41"/>
+      <x:c r="AZ60" s="41"/>
+      <x:c r="BA60" s="41"/>
+      <x:c r="BB60" s="41"/>
+      <x:c r="BC60" s="41"/>
+      <x:c r="BD60" s="41"/>
+      <x:c r="BE60" s="41"/>
+      <x:c r="BF60" s="41"/>
+      <x:c r="BG60" s="41"/>
+      <x:c r="BH60" s="41"/>
+      <x:c r="BI60" s="41"/>
+      <x:c r="BJ60" s="41"/>
+      <x:c r="BK60" s="41"/>
+      <x:c r="BL60" s="41"/>
+      <x:c r="BM60" s="41"/>
+      <x:c r="BN60" s="41"/>
+      <x:c r="BO60" s="41"/>
+      <x:c r="BP60" s="41"/>
+      <x:c r="BQ60" s="41"/>
+      <x:c r="BR60" s="41"/>
+      <x:c r="BS60" s="41"/>
+      <x:c r="BT60" s="41"/>
+      <x:c r="BU60" s="41"/>
+      <x:c r="BV60" s="41"/>
+      <x:c r="BW60" s="41"/>
+      <x:c r="BX60" s="41"/>
+      <x:c r="BY60" s="41"/>
+      <x:c r="BZ60" s="41"/>
+      <x:c r="CA60" s="41"/>
+      <x:c r="CB60" s="41"/>
+      <x:c r="CC60" s="41"/>
+      <x:c r="CD60" s="41"/>
+      <x:c r="CE60" s="41"/>
+      <x:c r="CF60" s="41"/>
+      <x:c r="CG60" s="41"/>
+      <x:c r="CH60" s="41"/>
+      <x:c r="CI60" s="41"/>
+    </x:row>
+    <x:row r="61" spans="1:87">
+      <x:c r="A61" s="29"/>
+      <x:c r="B61" s="30"/>
+      <x:c r="C61" s="23"/>
+      <x:c r="D61" s="23"/>
+      <x:c r="E61" s="23"/>
+      <x:c r="F61" s="23"/>
+      <x:c r="G61" s="23"/>
+      <x:c r="H61" s="23"/>
+      <x:c r="I61" s="23"/>
+      <x:c r="J61" s="41"/>
+      <x:c r="K61" s="41"/>
+      <x:c r="L61" s="41"/>
+      <x:c r="M61" s="41"/>
+      <x:c r="N61" s="41"/>
+      <x:c r="O61" s="41"/>
+      <x:c r="P61" s="41"/>
+      <x:c r="Q61" s="41"/>
+      <x:c r="R61" s="41"/>
+      <x:c r="S61" s="41"/>
+      <x:c r="T61" s="41"/>
+      <x:c r="U61" s="41"/>
+      <x:c r="V61" s="41"/>
+      <x:c r="W61" s="41"/>
+      <x:c r="X61" s="41"/>
+      <x:c r="Y61" s="41"/>
+      <x:c r="Z61" s="41"/>
+      <x:c r="AA61" s="41"/>
+      <x:c r="AB61" s="41"/>
+      <x:c r="AC61" s="41"/>
+      <x:c r="AD61" s="41"/>
+      <x:c r="AE61" s="41"/>
+      <x:c r="AF61" s="41"/>
+      <x:c r="AG61" s="41"/>
+      <x:c r="AH61" s="41"/>
+      <x:c r="AI61" s="41"/>
+      <x:c r="AJ61" s="41"/>
+      <x:c r="AK61" s="41"/>
+      <x:c r="AL61" s="41"/>
+      <x:c r="AM61" s="41"/>
+      <x:c r="AN61" s="41"/>
+      <x:c r="AO61" s="41"/>
+      <x:c r="AP61" s="41"/>
+      <x:c r="AQ61" s="41"/>
+      <x:c r="AR61" s="41"/>
+      <x:c r="AS61" s="41"/>
+      <x:c r="AT61" s="41"/>
+      <x:c r="AU61" s="41"/>
+      <x:c r="AV61" s="41"/>
+      <x:c r="AW61" s="41"/>
+      <x:c r="AX61" s="41"/>
+      <x:c r="AY61" s="41"/>
+      <x:c r="AZ61" s="41"/>
+      <x:c r="BA61" s="41"/>
+      <x:c r="BB61" s="41"/>
+      <x:c r="BC61" s="41"/>
+      <x:c r="BD61" s="41"/>
+      <x:c r="BE61" s="41"/>
+      <x:c r="BF61" s="41"/>
+      <x:c r="BG61" s="41"/>
+      <x:c r="BH61" s="41"/>
+      <x:c r="BI61" s="41"/>
+      <x:c r="BJ61" s="41"/>
+      <x:c r="BK61" s="41"/>
+      <x:c r="BL61" s="41"/>
+      <x:c r="BM61" s="41"/>
+      <x:c r="BN61" s="41"/>
+      <x:c r="BO61" s="41"/>
+      <x:c r="BP61" s="41"/>
+      <x:c r="BQ61" s="41"/>
+      <x:c r="BR61" s="41"/>
+      <x:c r="BS61" s="41"/>
+      <x:c r="BT61" s="41"/>
+      <x:c r="BU61" s="41"/>
+      <x:c r="BV61" s="41"/>
+      <x:c r="BW61" s="41"/>
+      <x:c r="BX61" s="41"/>
+      <x:c r="BY61" s="41"/>
+      <x:c r="BZ61" s="41"/>
+      <x:c r="CA61" s="41"/>
+      <x:c r="CB61" s="41"/>
+      <x:c r="CC61" s="41"/>
+      <x:c r="CD61" s="41"/>
+      <x:c r="CE61" s="41"/>
+      <x:c r="CF61" s="41"/>
+      <x:c r="CG61" s="41"/>
+      <x:c r="CH61" s="41"/>
+      <x:c r="CI61" s="41"/>
+    </x:row>
+    <x:row r="62" spans="1:87">
+      <x:c r="A62" s="29"/>
+      <x:c r="B62" s="30"/>
+      <x:c r="C62" s="23"/>
+      <x:c r="D62" s="23"/>
+      <x:c r="E62" s="23"/>
+      <x:c r="F62" s="23"/>
+      <x:c r="G62" s="23"/>
+      <x:c r="H62" s="23"/>
+      <x:c r="I62" s="23"/>
+      <x:c r="J62" s="41"/>
+      <x:c r="K62" s="41"/>
+      <x:c r="L62" s="41"/>
+      <x:c r="M62" s="41"/>
+      <x:c r="N62" s="41"/>
+      <x:c r="O62" s="41"/>
+      <x:c r="P62" s="41"/>
+      <x:c r="Q62" s="41"/>
+      <x:c r="R62" s="41"/>
+      <x:c r="S62" s="41"/>
+      <x:c r="T62" s="41"/>
+      <x:c r="U62" s="41"/>
+      <x:c r="V62" s="41"/>
+      <x:c r="W62" s="41"/>
+      <x:c r="X62" s="41"/>
+      <x:c r="Y62" s="41"/>
+      <x:c r="Z62" s="41"/>
+      <x:c r="AA62" s="41"/>
+      <x:c r="AB62" s="41"/>
+      <x:c r="AC62" s="41"/>
+      <x:c r="AD62" s="41"/>
+      <x:c r="AE62" s="41"/>
+      <x:c r="AF62" s="41"/>
+      <x:c r="AG62" s="41"/>
+      <x:c r="AH62" s="41"/>
+      <x:c r="AI62" s="41"/>
+      <x:c r="AJ62" s="41"/>
+      <x:c r="AK62" s="41"/>
+      <x:c r="AL62" s="41"/>
+      <x:c r="AM62" s="41"/>
+      <x:c r="AN62" s="41"/>
+      <x:c r="AO62" s="41"/>
+      <x:c r="AP62" s="41"/>
+      <x:c r="AQ62" s="41"/>
+      <x:c r="AR62" s="41"/>
+      <x:c r="AS62" s="41"/>
+      <x:c r="AT62" s="41"/>
+      <x:c r="AU62" s="41"/>
+      <x:c r="AV62" s="41"/>
+      <x:c r="AW62" s="41"/>
+      <x:c r="AX62" s="41"/>
+      <x:c r="AY62" s="41"/>
+      <x:c r="AZ62" s="41"/>
+      <x:c r="BA62" s="41"/>
+      <x:c r="BB62" s="41"/>
+      <x:c r="BC62" s="41"/>
+      <x:c r="BD62" s="41"/>
+      <x:c r="BE62" s="41"/>
+      <x:c r="BF62" s="41"/>
+      <x:c r="BG62" s="41"/>
+      <x:c r="BH62" s="41"/>
+      <x:c r="BI62" s="41"/>
+      <x:c r="BJ62" s="41"/>
+      <x:c r="BK62" s="41"/>
+      <x:c r="BL62" s="41"/>
+      <x:c r="BM62" s="41"/>
+      <x:c r="BN62" s="41"/>
+      <x:c r="BO62" s="41"/>
+      <x:c r="BP62" s="41"/>
+      <x:c r="BQ62" s="41"/>
+      <x:c r="BR62" s="41"/>
+      <x:c r="BS62" s="41"/>
+      <x:c r="BT62" s="41"/>
+      <x:c r="BU62" s="41"/>
+      <x:c r="BV62" s="41"/>
+      <x:c r="BW62" s="41"/>
+      <x:c r="BX62" s="41"/>
+      <x:c r="BY62" s="41"/>
+      <x:c r="BZ62" s="41"/>
+      <x:c r="CA62" s="41"/>
+      <x:c r="CB62" s="41"/>
+      <x:c r="CC62" s="41"/>
+      <x:c r="CD62" s="41"/>
+      <x:c r="CE62" s="41"/>
+      <x:c r="CF62" s="41"/>
+      <x:c r="CG62" s="41"/>
+      <x:c r="CH62" s="41"/>
+      <x:c r="CI62" s="41"/>
+    </x:row>
+    <x:row r="63" spans="1:87">
+      <x:c r="A63" s="29"/>
+      <x:c r="B63" s="30"/>
+      <x:c r="C63" s="23"/>
+      <x:c r="D63" s="23"/>
+      <x:c r="E63" s="23"/>
+      <x:c r="F63" s="23"/>
+      <x:c r="G63" s="23"/>
+      <x:c r="H63" s="23"/>
+      <x:c r="I63" s="23"/>
+      <x:c r="J63" s="41"/>
+      <x:c r="K63" s="41"/>
+      <x:c r="L63" s="41"/>
+      <x:c r="M63" s="41"/>
+      <x:c r="N63" s="41"/>
+      <x:c r="O63" s="41"/>
+      <x:c r="P63" s="41"/>
+      <x:c r="Q63" s="41"/>
+      <x:c r="R63" s="41"/>
+      <x:c r="S63" s="41"/>
+      <x:c r="T63" s="41"/>
+      <x:c r="U63" s="41"/>
+      <x:c r="V63" s="41"/>
+      <x:c r="W63" s="41"/>
+      <x:c r="X63" s="41"/>
+      <x:c r="Y63" s="41"/>
+      <x:c r="Z63" s="41"/>
+      <x:c r="AA63" s="41"/>
+      <x:c r="AB63" s="41"/>
+      <x:c r="AC63" s="41"/>
+      <x:c r="AD63" s="41"/>
+      <x:c r="AE63" s="41"/>
+      <x:c r="AF63" s="41"/>
+      <x:c r="AG63" s="41"/>
+      <x:c r="AH63" s="41"/>
+      <x:c r="AI63" s="41"/>
+      <x:c r="AJ63" s="41"/>
+      <x:c r="AK63" s="41"/>
+      <x:c r="AL63" s="41"/>
+      <x:c r="AM63" s="41"/>
+      <x:c r="AN63" s="41"/>
+      <x:c r="AO63" s="41"/>
+      <x:c r="AP63" s="41"/>
+      <x:c r="AQ63" s="41"/>
+      <x:c r="AR63" s="41"/>
+      <x:c r="AS63" s="41"/>
+      <x:c r="AT63" s="41"/>
+      <x:c r="AU63" s="41"/>
+      <x:c r="AV63" s="41"/>
+      <x:c r="AW63" s="41"/>
+      <x:c r="AX63" s="41"/>
+      <x:c r="AY63" s="41"/>
+      <x:c r="AZ63" s="41"/>
+      <x:c r="BA63" s="41"/>
+      <x:c r="BB63" s="41"/>
+      <x:c r="BC63" s="41"/>
+      <x:c r="BD63" s="41"/>
+      <x:c r="BE63" s="41"/>
+      <x:c r="BF63" s="41"/>
+      <x:c r="BG63" s="41"/>
+      <x:c r="BH63" s="41"/>
+      <x:c r="BI63" s="41"/>
+      <x:c r="BJ63" s="41"/>
+      <x:c r="BK63" s="41"/>
+      <x:c r="BL63" s="41"/>
+      <x:c r="BM63" s="41"/>
+      <x:c r="BN63" s="41"/>
+      <x:c r="BO63" s="41"/>
+      <x:c r="BP63" s="41"/>
+      <x:c r="BQ63" s="41"/>
+      <x:c r="BR63" s="41"/>
+      <x:c r="BS63" s="41"/>
+      <x:c r="BT63" s="41"/>
+      <x:c r="BU63" s="41"/>
+      <x:c r="BV63" s="41"/>
+      <x:c r="BW63" s="41"/>
+      <x:c r="BX63" s="41"/>
+      <x:c r="BY63" s="41"/>
+      <x:c r="BZ63" s="41"/>
+      <x:c r="CA63" s="41"/>
+      <x:c r="CB63" s="41"/>
+      <x:c r="CC63" s="41"/>
+      <x:c r="CD63" s="41"/>
+      <x:c r="CE63" s="41"/>
+      <x:c r="CF63" s="41"/>
+      <x:c r="CG63" s="41"/>
+      <x:c r="CH63" s="41"/>
+      <x:c r="CI63" s="41"/>
+    </x:row>
+    <x:row r="64" spans="1:87">
+      <x:c r="A64" s="29"/>
+      <x:c r="B64" s="30"/>
+      <x:c r="C64" s="23"/>
+      <x:c r="D64" s="23"/>
+      <x:c r="E64" s="23"/>
+      <x:c r="F64" s="23"/>
+      <x:c r="G64" s="23"/>
+      <x:c r="H64" s="23"/>
+      <x:c r="I64" s="23"/>
+      <x:c r="J64" s="41"/>
+      <x:c r="K64" s="41"/>
+      <x:c r="L64" s="41"/>
+      <x:c r="M64" s="41"/>
+      <x:c r="N64" s="41"/>
+      <x:c r="O64" s="41"/>
+      <x:c r="P64" s="41"/>
+      <x:c r="Q64" s="41"/>
+      <x:c r="R64" s="41"/>
+      <x:c r="S64" s="41"/>
+      <x:c r="T64" s="41"/>
+      <x:c r="U64" s="41"/>
+      <x:c r="V64" s="41"/>
+      <x:c r="W64" s="41"/>
+      <x:c r="X64" s="41"/>
+      <x:c r="Y64" s="41"/>
+      <x:c r="Z64" s="41"/>
+      <x:c r="AA64" s="41"/>
+      <x:c r="AB64" s="41"/>
+      <x:c r="AC64" s="41"/>
+      <x:c r="AD64" s="41"/>
+      <x:c r="AE64" s="41"/>
+      <x:c r="AF64" s="41"/>
+      <x:c r="AG64" s="41"/>
+      <x:c r="AH64" s="41"/>
+      <x:c r="AI64" s="41"/>
+      <x:c r="AJ64" s="41"/>
+      <x:c r="AK64" s="41"/>
+      <x:c r="AL64" s="41"/>
+      <x:c r="AM64" s="41"/>
+      <x:c r="AN64" s="41"/>
+      <x:c r="AO64" s="41"/>
+      <x:c r="AP64" s="41"/>
+      <x:c r="AQ64" s="41"/>
+      <x:c r="AR64" s="41"/>
+      <x:c r="AS64" s="41"/>
+      <x:c r="AT64" s="41"/>
+      <x:c r="AU64" s="41"/>
+      <x:c r="AV64" s="41"/>
+      <x:c r="AW64" s="41"/>
+      <x:c r="AX64" s="41"/>
+      <x:c r="AY64" s="41"/>
+      <x:c r="AZ64" s="41"/>
+      <x:c r="BA64" s="41"/>
+      <x:c r="BB64" s="41"/>
+      <x:c r="BC64" s="41"/>
+      <x:c r="BD64" s="41"/>
+      <x:c r="BE64" s="41"/>
+      <x:c r="BF64" s="41"/>
+      <x:c r="BG64" s="41"/>
+      <x:c r="BH64" s="41"/>
+      <x:c r="BI64" s="41"/>
+      <x:c r="BJ64" s="41"/>
+      <x:c r="BK64" s="41"/>
+      <x:c r="BL64" s="41"/>
+      <x:c r="BM64" s="41"/>
+      <x:c r="BN64" s="41"/>
+      <x:c r="BO64" s="41"/>
+      <x:c r="BP64" s="41"/>
+      <x:c r="BQ64" s="41"/>
+      <x:c r="BR64" s="41"/>
+      <x:c r="BS64" s="41"/>
+      <x:c r="BT64" s="41"/>
+      <x:c r="BU64" s="41"/>
+      <x:c r="BV64" s="41"/>
+      <x:c r="BW64" s="41"/>
+      <x:c r="BX64" s="41"/>
+      <x:c r="BY64" s="41"/>
+      <x:c r="BZ64" s="41"/>
+      <x:c r="CA64" s="41"/>
+      <x:c r="CB64" s="41"/>
+      <x:c r="CC64" s="41"/>
+      <x:c r="CD64" s="41"/>
+      <x:c r="CE64" s="41"/>
+      <x:c r="CF64" s="41"/>
+      <x:c r="CG64" s="41"/>
+      <x:c r="CH64" s="41"/>
+      <x:c r="CI64" s="41"/>
+    </x:row>
+    <x:row r="65" spans="1:87">
+      <x:c r="A65" s="29"/>
+      <x:c r="B65" s="30"/>
+      <x:c r="C65" s="23"/>
+      <x:c r="D65" s="23"/>
+      <x:c r="E65" s="23"/>
+      <x:c r="F65" s="23"/>
+      <x:c r="G65" s="23"/>
+      <x:c r="H65" s="23"/>
+      <x:c r="I65" s="23"/>
+      <x:c r="J65" s="41"/>
+      <x:c r="K65" s="41"/>
+      <x:c r="L65" s="41"/>
+      <x:c r="M65" s="41"/>
+      <x:c r="N65" s="41"/>
+      <x:c r="O65" s="41"/>
+      <x:c r="P65" s="41"/>
+      <x:c r="Q65" s="41"/>
+      <x:c r="R65" s="41"/>
+      <x:c r="S65" s="41"/>
+      <x:c r="T65" s="41"/>
+      <x:c r="U65" s="41"/>
+      <x:c r="V65" s="41"/>
+      <x:c r="W65" s="41"/>
+      <x:c r="X65" s="41"/>
+      <x:c r="Y65" s="41"/>
+      <x:c r="Z65" s="41"/>
+      <x:c r="AA65" s="41"/>
+      <x:c r="AB65" s="41"/>
+      <x:c r="AC65" s="41"/>
+      <x:c r="AD65" s="41"/>
+      <x:c r="AE65" s="41"/>
+      <x:c r="AF65" s="41"/>
+      <x:c r="AG65" s="41"/>
+      <x:c r="AH65" s="41"/>
+      <x:c r="AI65" s="41"/>
+      <x:c r="AJ65" s="41"/>
+      <x:c r="AK65" s="41"/>
+      <x:c r="AL65" s="41"/>
+      <x:c r="AM65" s="41"/>
+      <x:c r="AN65" s="41"/>
+      <x:c r="AO65" s="41"/>
+      <x:c r="AP65" s="41"/>
+      <x:c r="AQ65" s="41"/>
+      <x:c r="AR65" s="41"/>
+      <x:c r="AS65" s="41"/>
+      <x:c r="AT65" s="41"/>
+      <x:c r="AU65" s="41"/>
+      <x:c r="AV65" s="41"/>
+      <x:c r="AW65" s="41"/>
+      <x:c r="AX65" s="41"/>
+      <x:c r="AY65" s="41"/>
+      <x:c r="AZ65" s="41"/>
+      <x:c r="BA65" s="41"/>
+      <x:c r="BB65" s="41"/>
+      <x:c r="BC65" s="41"/>
+      <x:c r="BD65" s="41"/>
+      <x:c r="BE65" s="41"/>
+      <x:c r="BF65" s="41"/>
+      <x:c r="BG65" s="41"/>
+      <x:c r="BH65" s="41"/>
+      <x:c r="BI65" s="41"/>
+      <x:c r="BJ65" s="41"/>
+      <x:c r="BK65" s="41"/>
+      <x:c r="BL65" s="41"/>
+      <x:c r="BM65" s="41"/>
+      <x:c r="BN65" s="41"/>
+      <x:c r="BO65" s="41"/>
+      <x:c r="BP65" s="41"/>
+      <x:c r="BQ65" s="41"/>
+      <x:c r="BR65" s="41"/>
+      <x:c r="BS65" s="41"/>
+      <x:c r="BT65" s="41"/>
+      <x:c r="BU65" s="41"/>
+      <x:c r="BV65" s="41"/>
+      <x:c r="BW65" s="41"/>
+      <x:c r="BX65" s="41"/>
+      <x:c r="BY65" s="41"/>
+      <x:c r="BZ65" s="41"/>
+      <x:c r="CA65" s="41"/>
+      <x:c r="CB65" s="41"/>
+      <x:c r="CC65" s="41"/>
+      <x:c r="CD65" s="41"/>
+      <x:c r="CE65" s="41"/>
+      <x:c r="CF65" s="41"/>
+      <x:c r="CG65" s="41"/>
+      <x:c r="CH65" s="41"/>
+      <x:c r="CI65" s="41"/>
+    </x:row>
+    <x:row r="66" spans="1:87">
+      <x:c r="A66" s="29"/>
+      <x:c r="B66" s="30"/>
+      <x:c r="C66" s="23"/>
+      <x:c r="D66" s="23"/>
+      <x:c r="E66" s="23"/>
+      <x:c r="F66" s="23"/>
+      <x:c r="G66" s="23"/>
+      <x:c r="H66" s="23"/>
+      <x:c r="I66" s="23"/>
+      <x:c r="J66" s="41"/>
+      <x:c r="K66" s="41"/>
+      <x:c r="L66" s="41"/>
+      <x:c r="M66" s="41"/>
+      <x:c r="N66" s="41"/>
+      <x:c r="O66" s="41"/>
+      <x:c r="P66" s="41"/>
+      <x:c r="Q66" s="41"/>
+      <x:c r="R66" s="41"/>
+      <x:c r="S66" s="41"/>
+      <x:c r="T66" s="41"/>
+      <x:c r="U66" s="41"/>
+      <x:c r="V66" s="41"/>
+      <x:c r="W66" s="41"/>
+      <x:c r="X66" s="41"/>
+      <x:c r="Y66" s="41"/>
+      <x:c r="Z66" s="41"/>
+      <x:c r="AA66" s="41"/>
+      <x:c r="AB66" s="41"/>
+      <x:c r="AC66" s="41"/>
+      <x:c r="AD66" s="41"/>
+      <x:c r="AE66" s="41"/>
+      <x:c r="AF66" s="41"/>
+      <x:c r="AG66" s="41"/>
+      <x:c r="AH66" s="41"/>
+      <x:c r="AI66" s="41"/>
+      <x:c r="AJ66" s="41"/>
+      <x:c r="AK66" s="41"/>
+      <x:c r="AL66" s="41"/>
+      <x:c r="AM66" s="41"/>
+      <x:c r="AN66" s="41"/>
+      <x:c r="AO66" s="41"/>
+      <x:c r="AP66" s="41"/>
+      <x:c r="AQ66" s="41"/>
+      <x:c r="AR66" s="41"/>
+      <x:c r="AS66" s="41"/>
+      <x:c r="AT66" s="41"/>
+      <x:c r="AU66" s="41"/>
+      <x:c r="AV66" s="41"/>
+      <x:c r="AW66" s="41"/>
+      <x:c r="AX66" s="41"/>
+      <x:c r="AY66" s="41"/>
+      <x:c r="AZ66" s="41"/>
+      <x:c r="BA66" s="41"/>
+      <x:c r="BB66" s="41"/>
+      <x:c r="BC66" s="41"/>
+      <x:c r="BD66" s="41"/>
+      <x:c r="BE66" s="41"/>
+      <x:c r="BF66" s="41"/>
+      <x:c r="BG66" s="41"/>
+      <x:c r="BH66" s="41"/>
+      <x:c r="BI66" s="41"/>
+      <x:c r="BJ66" s="41"/>
+      <x:c r="BK66" s="41"/>
+      <x:c r="BL66" s="41"/>
+      <x:c r="BM66" s="41"/>
+      <x:c r="BN66" s="41"/>
+      <x:c r="BO66" s="41"/>
+      <x:c r="BP66" s="41"/>
+      <x:c r="BQ66" s="41"/>
+      <x:c r="BR66" s="41"/>
+      <x:c r="BS66" s="41"/>
+      <x:c r="BT66" s="41"/>
+      <x:c r="BU66" s="41"/>
+      <x:c r="BV66" s="41"/>
+      <x:c r="BW66" s="41"/>
+      <x:c r="BX66" s="41"/>
+      <x:c r="BY66" s="41"/>
+      <x:c r="BZ66" s="41"/>
+      <x:c r="CA66" s="41"/>
+      <x:c r="CB66" s="41"/>
+      <x:c r="CC66" s="41"/>
+      <x:c r="CD66" s="41"/>
+      <x:c r="CE66" s="41"/>
+      <x:c r="CF66" s="41"/>
+      <x:c r="CG66" s="41"/>
+      <x:c r="CH66" s="41"/>
+      <x:c r="CI66" s="41"/>
+    </x:row>
+    <x:row r="67" spans="1:28">
+      <x:c r="A67" s="29"/>
+      <x:c r="B67" s="30"/>
+      <x:c r="C67" s="23"/>
+      <x:c r="D67" s="23"/>
+      <x:c r="E67" s="23"/>
+      <x:c r="F67" s="23"/>
+      <x:c r="G67" s="23"/>
+      <x:c r="H67" s="23"/>
+      <x:c r="I67" s="23"/>
+      <x:c r="J67" s="41"/>
+      <x:c r="K67" s="41"/>
+      <x:c r="L67" s="41"/>
+      <x:c r="M67" s="41"/>
+      <x:c r="N67" s="41"/>
+      <x:c r="O67" s="41"/>
+      <x:c r="P67" s="41"/>
+      <x:c r="Q67" s="41"/>
+      <x:c r="R67" s="41"/>
+      <x:c r="S67" s="41"/>
+      <x:c r="T67" s="41"/>
+      <x:c r="U67" s="41"/>
+      <x:c r="V67" s="41"/>
+      <x:c r="W67" s="41"/>
+      <x:c r="X67" s="41"/>
+      <x:c r="Y67" s="41"/>
+      <x:c r="Z67" s="41"/>
+      <x:c r="AA67" s="41"/>
+      <x:c r="AB67" s="41"/>
+    </x:row>
+    <x:row r="68" spans="1:28">
+      <x:c r="A68" s="29"/>
+      <x:c r="B68" s="30"/>
+      <x:c r="C68" s="23"/>
+      <x:c r="D68" s="23"/>
+      <x:c r="E68" s="23"/>
+      <x:c r="F68" s="23"/>
+      <x:c r="G68" s="23"/>
+      <x:c r="H68" s="23"/>
+      <x:c r="I68" s="23"/>
+      <x:c r="J68" s="41"/>
+      <x:c r="K68" s="41"/>
+      <x:c r="L68" s="41"/>
+      <x:c r="M68" s="41"/>
+      <x:c r="N68" s="41"/>
+      <x:c r="O68" s="41"/>
+      <x:c r="P68" s="41"/>
+      <x:c r="Q68" s="41"/>
+      <x:c r="R68" s="41"/>
+      <x:c r="S68" s="41"/>
+      <x:c r="T68" s="41"/>
+      <x:c r="U68" s="41"/>
+      <x:c r="V68" s="41"/>
+      <x:c r="W68" s="41"/>
+      <x:c r="X68" s="41"/>
+      <x:c r="Y68" s="41"/>
+      <x:c r="Z68" s="41"/>
+      <x:c r="AA68" s="41"/>
+      <x:c r="AB68" s="41"/>
+    </x:row>
+    <x:row r="69" spans="1:28">
+      <x:c r="A69" s="29"/>
+      <x:c r="B69" s="30"/>
+      <x:c r="C69" s="23"/>
+      <x:c r="D69" s="23"/>
+      <x:c r="E69" s="23"/>
+      <x:c r="F69" s="23"/>
+      <x:c r="G69" s="23"/>
+      <x:c r="H69" s="23"/>
+      <x:c r="I69" s="23"/>
+      <x:c r="J69" s="41"/>
+      <x:c r="K69" s="41"/>
+      <x:c r="L69" s="41"/>
+      <x:c r="M69" s="41"/>
+      <x:c r="N69" s="41"/>
+      <x:c r="O69" s="41"/>
+      <x:c r="P69" s="41"/>
+      <x:c r="Q69" s="41"/>
+      <x:c r="R69" s="41"/>
+      <x:c r="S69" s="41"/>
+      <x:c r="T69" s="41"/>
+      <x:c r="U69" s="41"/>
+      <x:c r="V69" s="41"/>
+      <x:c r="W69" s="41"/>
+      <x:c r="X69" s="41"/>
+      <x:c r="Y69" s="41"/>
+      <x:c r="Z69" s="41"/>
+      <x:c r="AA69" s="41"/>
+      <x:c r="AB69" s="41"/>
+    </x:row>
+    <x:row r="70" spans="1:28">
+      <x:c r="A70" s="29"/>
+      <x:c r="B70" s="30"/>
+      <x:c r="C70" s="23"/>
+      <x:c r="D70" s="23"/>
+      <x:c r="E70" s="23"/>
+      <x:c r="F70" s="23"/>
+      <x:c r="G70" s="23"/>
+      <x:c r="H70" s="23"/>
+      <x:c r="I70" s="23"/>
+      <x:c r="J70" s="41"/>
+      <x:c r="K70" s="41"/>
+      <x:c r="L70" s="41"/>
+      <x:c r="M70" s="41"/>
+      <x:c r="N70" s="41"/>
+      <x:c r="O70" s="41"/>
+      <x:c r="P70" s="41"/>
+      <x:c r="Q70" s="41"/>
+      <x:c r="R70" s="41"/>
+      <x:c r="S70" s="41"/>
+      <x:c r="T70" s="41"/>
+      <x:c r="U70" s="41"/>
+      <x:c r="V70" s="41"/>
+      <x:c r="W70" s="41"/>
+      <x:c r="X70" s="41"/>
+      <x:c r="Y70" s="41"/>
+      <x:c r="Z70" s="41"/>
+      <x:c r="AA70" s="41"/>
+      <x:c r="AB70" s="41"/>
+    </x:row>
+    <x:row r="71" spans="1:9">
+      <x:c r="A71" s="29"/>
+      <x:c r="B71" s="30"/>
+      <x:c r="C71" s="23"/>
+      <x:c r="D71" s="23"/>
+      <x:c r="E71" s="23"/>
+      <x:c r="F71" s="23"/>
+      <x:c r="G71" s="23"/>
+      <x:c r="H71" s="23"/>
+      <x:c r="I71" s="23"/>
+    </x:row>
+    <x:row r="72" spans="1:9">
+      <x:c r="A72" s="29"/>
+      <x:c r="B72" s="30"/>
+      <x:c r="C72" s="23"/>
+      <x:c r="D72" s="23"/>
+      <x:c r="E72" s="23"/>
+      <x:c r="F72" s="23"/>
+      <x:c r="G72" s="23"/>
+      <x:c r="H72" s="23"/>
+      <x:c r="I72" s="23"/>
+    </x:row>
+    <x:row r="73" spans="1:9">
+      <x:c r="A73" s="29"/>
+      <x:c r="B73" s="30"/>
+      <x:c r="C73" s="23"/>
+      <x:c r="D73" s="23"/>
+      <x:c r="E73" s="23"/>
+      <x:c r="F73" s="23"/>
+      <x:c r="G73" s="23"/>
+      <x:c r="H73" s="23"/>
+      <x:c r="I73" s="23"/>
+    </x:row>
+    <x:row r="74" spans="1:9">
+      <x:c r="A74" s="29"/>
+      <x:c r="B74" s="30"/>
+      <x:c r="C74" s="23"/>
+      <x:c r="D74" s="23"/>
+      <x:c r="E74" s="23"/>
+      <x:c r="F74" s="23"/>
+      <x:c r="G74" s="23"/>
+      <x:c r="H74" s="23"/>
+      <x:c r="I74" s="23"/>
+    </x:row>
+    <x:row r="75" spans="1:9">
+      <x:c r="A75" s="29"/>
+      <x:c r="B75" s="30"/>
+      <x:c r="C75" s="23"/>
+      <x:c r="D75" s="23"/>
+      <x:c r="E75" s="23"/>
+      <x:c r="F75" s="23"/>
+      <x:c r="G75" s="23"/>
+      <x:c r="H75" s="23"/>
+      <x:c r="I75" s="23"/>
+    </x:row>
+    <x:row r="76" spans="1:9">
+      <x:c r="A76" s="29"/>
+      <x:c r="B76" s="30"/>
+      <x:c r="C76" s="23"/>
+      <x:c r="D76" s="23"/>
+      <x:c r="E76" s="23"/>
+      <x:c r="F76" s="23"/>
+      <x:c r="G76" s="23"/>
+      <x:c r="H76" s="23"/>
+      <x:c r="I76" s="23"/>
+    </x:row>
+    <x:row r="77" spans="1:9">
+      <x:c r="A77" s="29"/>
+      <x:c r="B77" s="30"/>
+      <x:c r="C77" s="23"/>
+      <x:c r="D77" s="23"/>
+      <x:c r="E77" s="23"/>
+      <x:c r="F77" s="23"/>
+      <x:c r="G77" s="23"/>
+      <x:c r="H77" s="23"/>
+      <x:c r="I77" s="23"/>
+    </x:row>
+    <x:row r="78" spans="1:9">
+      <x:c r="A78" s="29"/>
+      <x:c r="B78" s="30"/>
+      <x:c r="C78" s="23"/>
+      <x:c r="D78" s="23"/>
+      <x:c r="E78" s="23"/>
+      <x:c r="F78" s="23"/>
+      <x:c r="G78" s="23"/>
+      <x:c r="H78" s="23"/>
+      <x:c r="I78" s="23"/>
+    </x:row>
+    <x:row r="79" spans="1:9">
+      <x:c r="A79" s="29"/>
+      <x:c r="B79" s="30"/>
+      <x:c r="C79" s="23"/>
+      <x:c r="D79" s="23"/>
+      <x:c r="E79" s="23"/>
+      <x:c r="F79" s="23"/>
+      <x:c r="G79" s="23"/>
+      <x:c r="H79" s="23"/>
+      <x:c r="I79" s="23"/>
+    </x:row>
+    <x:row r="80" spans="1:9">
+      <x:c r="A80" s="29"/>
+      <x:c r="B80" s="30"/>
+      <x:c r="C80" s="23"/>
+      <x:c r="D80" s="23"/>
+      <x:c r="E80" s="23"/>
+      <x:c r="F80" s="23"/>
+      <x:c r="G80" s="23"/>
+      <x:c r="H80" s="23"/>
+      <x:c r="I80" s="23"/>
+    </x:row>
+    <x:row r="81" spans="1:9">
+      <x:c r="A81" s="29"/>
+      <x:c r="B81" s="30"/>
+      <x:c r="C81" s="23"/>
+      <x:c r="D81" s="23"/>
+      <x:c r="E81" s="23"/>
+      <x:c r="F81" s="23"/>
+      <x:c r="G81" s="23"/>
+      <x:c r="H81" s="23"/>
+      <x:c r="I81" s="23"/>
+    </x:row>
+    <x:row r="1048541" spans="11:34">
+      <x:c r="K1048541" s="41"/>
+      <x:c r="L1048541" s="41"/>
+      <x:c r="M1048541" s="41"/>
+      <x:c r="N1048541" s="41"/>
+      <x:c r="O1048541" s="41"/>
+      <x:c r="P1048541" s="41"/>
+      <x:c r="Q1048541" s="41"/>
+      <x:c r="R1048541" s="41"/>
+      <x:c r="S1048541" s="41"/>
+      <x:c r="T1048541" s="41"/>
+      <x:c r="U1048541" s="41"/>
+      <x:c r="V1048541" s="41"/>
+      <x:c r="W1048541" s="41"/>
+      <x:c r="X1048541" s="41"/>
+      <x:c r="Y1048541" s="41"/>
+      <x:c r="Z1048541" s="41"/>
+      <x:c r="AA1048541" s="41"/>
+      <x:c r="AB1048541" s="41"/>
+      <x:c r="AC1048541" s="41"/>
+      <x:c r="AD1048541" s="41"/>
+      <x:c r="AE1048541" s="41"/>
+      <x:c r="AF1048541" s="41"/>
+      <x:c r="AG1048541" s="41"/>
+      <x:c r="AH1048541" s="41"/>
+    </x:row>
+    <x:row r="1048542" spans="11:34">
+      <x:c r="K1048542" s="41"/>
+      <x:c r="L1048542" s="41"/>
+      <x:c r="M1048542" s="41"/>
+      <x:c r="N1048542" s="41"/>
+      <x:c r="O1048542" s="41"/>
+      <x:c r="P1048542" s="41"/>
+      <x:c r="Q1048542" s="41"/>
+      <x:c r="R1048542" s="41"/>
+      <x:c r="S1048542" s="41"/>
+      <x:c r="T1048542" s="41"/>
+      <x:c r="U1048542" s="41"/>
+      <x:c r="V1048542" s="41"/>
+      <x:c r="W1048542" s="41"/>
+      <x:c r="X1048542" s="41"/>
+      <x:c r="Y1048542" s="41"/>
+      <x:c r="Z1048542" s="41"/>
+      <x:c r="AA1048542" s="41"/>
+      <x:c r="AB1048542" s="41"/>
+      <x:c r="AC1048542" s="41"/>
+      <x:c r="AD1048542" s="41"/>
+      <x:c r="AE1048542" s="41"/>
+      <x:c r="AF1048542" s="41"/>
+      <x:c r="AG1048542" s="41"/>
+      <x:c r="AH1048542" s="41"/>
+    </x:row>
+    <x:row r="1048543" spans="11:34">
+      <x:c r="K1048543" s="41"/>
+      <x:c r="L1048543" s="41"/>
+      <x:c r="M1048543" s="41"/>
+      <x:c r="N1048543" s="41"/>
+      <x:c r="O1048543" s="41"/>
+      <x:c r="P1048543" s="41"/>
+      <x:c r="Q1048543" s="41"/>
+      <x:c r="R1048543" s="41"/>
+      <x:c r="S1048543" s="41"/>
+      <x:c r="T1048543" s="41"/>
+      <x:c r="U1048543" s="41"/>
+      <x:c r="V1048543" s="41"/>
+      <x:c r="W1048543" s="41"/>
+      <x:c r="X1048543" s="41"/>
+      <x:c r="Y1048543" s="41"/>
+      <x:c r="Z1048543" s="41"/>
+      <x:c r="AA1048543" s="41"/>
+      <x:c r="AB1048543" s="41"/>
+      <x:c r="AC1048543" s="41"/>
+      <x:c r="AD1048543" s="41"/>
+      <x:c r="AE1048543" s="41"/>
+      <x:c r="AF1048543" s="41"/>
+      <x:c r="AG1048543" s="41"/>
+      <x:c r="AH1048543" s="41"/>
+    </x:row>
+    <x:row r="1048544" spans="11:34">
+      <x:c r="K1048544" s="41"/>
+      <x:c r="L1048544" s="41"/>
+      <x:c r="M1048544" s="41"/>
+      <x:c r="N1048544" s="41"/>
+      <x:c r="O1048544" s="41"/>
+      <x:c r="P1048544" s="41"/>
+      <x:c r="Q1048544" s="41"/>
+      <x:c r="R1048544" s="41"/>
+      <x:c r="S1048544" s="41"/>
+      <x:c r="T1048544" s="41"/>
+      <x:c r="U1048544" s="41"/>
+      <x:c r="V1048544" s="41"/>
+      <x:c r="W1048544" s="41"/>
+      <x:c r="X1048544" s="41"/>
+      <x:c r="Y1048544" s="41"/>
+      <x:c r="Z1048544" s="41"/>
+      <x:c r="AA1048544" s="41"/>
+      <x:c r="AB1048544" s="41"/>
+      <x:c r="AC1048544" s="41"/>
+      <x:c r="AD1048544" s="41"/>
+      <x:c r="AE1048544" s="41"/>
+      <x:c r="AF1048544" s="41"/>
+      <x:c r="AG1048544" s="41"/>
+      <x:c r="AH1048544" s="41"/>
+    </x:row>
+    <x:row r="1048545" spans="11:34">
+      <x:c r="K1048545" s="41"/>
+      <x:c r="L1048545" s="41"/>
+      <x:c r="M1048545" s="41"/>
+      <x:c r="N1048545" s="41"/>
+      <x:c r="O1048545" s="41"/>
+      <x:c r="P1048545" s="41"/>
+      <x:c r="Q1048545" s="41"/>
+      <x:c r="R1048545" s="41"/>
+      <x:c r="S1048545" s="41"/>
+      <x:c r="T1048545" s="41"/>
+      <x:c r="U1048545" s="41"/>
+      <x:c r="V1048545" s="41"/>
+      <x:c r="W1048545" s="41"/>
+      <x:c r="X1048545" s="41"/>
+      <x:c r="Y1048545" s="41"/>
+      <x:c r="Z1048545" s="41"/>
+      <x:c r="AA1048545" s="41"/>
+      <x:c r="AB1048545" s="41"/>
+      <x:c r="AC1048545" s="41"/>
+      <x:c r="AD1048545" s="41"/>
+      <x:c r="AE1048545" s="41"/>
+      <x:c r="AF1048545" s="41"/>
+      <x:c r="AG1048545" s="41"/>
+      <x:c r="AH1048545" s="41"/>
+    </x:row>
+    <x:row r="1048546" spans="11:34">
+      <x:c r="K1048546" s="41"/>
+      <x:c r="L1048546" s="41"/>
+      <x:c r="M1048546" s="41"/>
+      <x:c r="N1048546" s="41"/>
+      <x:c r="O1048546" s="41"/>
+      <x:c r="P1048546" s="41"/>
+      <x:c r="Q1048546" s="41"/>
+      <x:c r="R1048546" s="41"/>
+      <x:c r="S1048546" s="41"/>
+      <x:c r="T1048546" s="41"/>
+      <x:c r="U1048546" s="41"/>
+      <x:c r="V1048546" s="41"/>
+      <x:c r="W1048546" s="41"/>
+      <x:c r="X1048546" s="41"/>
+      <x:c r="Y1048546" s="41"/>
+      <x:c r="Z1048546" s="41"/>
+      <x:c r="AA1048546" s="41"/>
+      <x:c r="AB1048546" s="41"/>
+      <x:c r="AC1048546" s="41"/>
+      <x:c r="AD1048546" s="41"/>
+      <x:c r="AE1048546" s="41"/>
+      <x:c r="AF1048546" s="41"/>
+      <x:c r="AG1048546" s="41"/>
+      <x:c r="AH1048546" s="41"/>
+    </x:row>
+    <x:row r="1048547" spans="11:34">
+      <x:c r="K1048547" s="41"/>
+      <x:c r="L1048547" s="41"/>
+      <x:c r="M1048547" s="41"/>
+      <x:c r="N1048547" s="41"/>
+      <x:c r="O1048547" s="41"/>
+      <x:c r="P1048547" s="41"/>
+      <x:c r="Q1048547" s="41"/>
+      <x:c r="R1048547" s="41"/>
+      <x:c r="S1048547" s="41"/>
+      <x:c r="T1048547" s="41"/>
+      <x:c r="U1048547" s="41"/>
+      <x:c r="V1048547" s="41"/>
+      <x:c r="W1048547" s="41"/>
+      <x:c r="X1048547" s="41"/>
+      <x:c r="Y1048547" s="41"/>
+      <x:c r="Z1048547" s="41"/>
+      <x:c r="AA1048547" s="41"/>
+      <x:c r="AB1048547" s="41"/>
+      <x:c r="AC1048547" s="41"/>
+      <x:c r="AD1048547" s="41"/>
+      <x:c r="AE1048547" s="41"/>
+      <x:c r="AF1048547" s="41"/>
+      <x:c r="AG1048547" s="41"/>
+      <x:c r="AH1048547" s="41"/>
+    </x:row>
+    <x:row r="1048548" spans="11:34">
+      <x:c r="K1048548" s="41"/>
+      <x:c r="L1048548" s="41"/>
+      <x:c r="M1048548" s="41"/>
+      <x:c r="N1048548" s="41"/>
+      <x:c r="O1048548" s="41"/>
+      <x:c r="P1048548" s="41"/>
+      <x:c r="Q1048548" s="41"/>
+      <x:c r="R1048548" s="41"/>
+      <x:c r="S1048548" s="41"/>
+      <x:c r="T1048548" s="41"/>
+      <x:c r="U1048548" s="41"/>
+      <x:c r="V1048548" s="41"/>
+      <x:c r="W1048548" s="41"/>
+      <x:c r="X1048548" s="41"/>
+      <x:c r="Y1048548" s="41"/>
+      <x:c r="Z1048548" s="41"/>
+      <x:c r="AA1048548" s="41"/>
+      <x:c r="AB1048548" s="41"/>
+      <x:c r="AC1048548" s="41"/>
+      <x:c r="AD1048548" s="41"/>
+      <x:c r="AE1048548" s="41"/>
+      <x:c r="AF1048548" s="41"/>
+      <x:c r="AG1048548" s="41"/>
+      <x:c r="AH1048548" s="41"/>
+    </x:row>
+    <x:row r="1048549" spans="11:34">
+      <x:c r="K1048549" s="41"/>
+      <x:c r="L1048549" s="41"/>
+      <x:c r="M1048549" s="41"/>
+      <x:c r="N1048549" s="41"/>
+      <x:c r="O1048549" s="41"/>
+      <x:c r="P1048549" s="41"/>
+      <x:c r="Q1048549" s="41"/>
+      <x:c r="R1048549" s="41"/>
+      <x:c r="S1048549" s="41"/>
+      <x:c r="T1048549" s="41"/>
+      <x:c r="U1048549" s="41"/>
+      <x:c r="V1048549" s="41"/>
+      <x:c r="W1048549" s="41"/>
+      <x:c r="X1048549" s="41"/>
+      <x:c r="Y1048549" s="41"/>
+      <x:c r="Z1048549" s="41"/>
+      <x:c r="AA1048549" s="41"/>
+      <x:c r="AB1048549" s="41"/>
+      <x:c r="AC1048549" s="41"/>
+      <x:c r="AD1048549" s="41"/>
+      <x:c r="AE1048549" s="41"/>
+      <x:c r="AF1048549" s="41"/>
+      <x:c r="AG1048549" s="41"/>
+      <x:c r="AH1048549" s="41"/>
+    </x:row>
+    <x:row r="1048550" spans="11:34">
+      <x:c r="K1048550" s="41"/>
+      <x:c r="L1048550" s="41"/>
+      <x:c r="M1048550" s="41"/>
+      <x:c r="N1048550" s="41"/>
+      <x:c r="O1048550" s="41"/>
+      <x:c r="P1048550" s="41"/>
+      <x:c r="Q1048550" s="41"/>
+      <x:c r="R1048550" s="41"/>
+      <x:c r="S1048550" s="41"/>
+      <x:c r="T1048550" s="41"/>
+      <x:c r="U1048550" s="41"/>
+      <x:c r="V1048550" s="41"/>
+      <x:c r="W1048550" s="41"/>
+      <x:c r="X1048550" s="41"/>
+      <x:c r="Y1048550" s="41"/>
+      <x:c r="Z1048550" s="41"/>
+      <x:c r="AA1048550" s="41"/>
+      <x:c r="AB1048550" s="41"/>
+      <x:c r="AC1048550" s="41"/>
+      <x:c r="AD1048550" s="41"/>
+      <x:c r="AE1048550" s="41"/>
+      <x:c r="AF1048550" s="41"/>
+      <x:c r="AG1048550" s="41"/>
+      <x:c r="AH1048550" s="41"/>
+    </x:row>
+    <x:row r="1048551" spans="11:34">
+      <x:c r="K1048551" s="41"/>
+      <x:c r="L1048551" s="41"/>
+      <x:c r="M1048551" s="41"/>
+      <x:c r="N1048551" s="41"/>
+      <x:c r="O1048551" s="41"/>
+      <x:c r="P1048551" s="41"/>
+      <x:c r="Q1048551" s="41"/>
+      <x:c r="R1048551" s="41"/>
+      <x:c r="S1048551" s="41"/>
+      <x:c r="T1048551" s="41"/>
+      <x:c r="U1048551" s="41"/>
+      <x:c r="V1048551" s="41"/>
+      <x:c r="W1048551" s="41"/>
+      <x:c r="X1048551" s="41"/>
+      <x:c r="Y1048551" s="41"/>
+      <x:c r="Z1048551" s="41"/>
+      <x:c r="AA1048551" s="41"/>
+      <x:c r="AB1048551" s="41"/>
+      <x:c r="AC1048551" s="41"/>
+      <x:c r="AD1048551" s="41"/>
+      <x:c r="AE1048551" s="41"/>
+      <x:c r="AF1048551" s="41"/>
+      <x:c r="AG1048551" s="41"/>
+      <x:c r="AH1048551" s="41"/>
+    </x:row>
+    <x:row r="1048552" spans="11:34">
+      <x:c r="K1048552" s="41"/>
+      <x:c r="L1048552" s="41"/>
+      <x:c r="M1048552" s="41"/>
+      <x:c r="N1048552" s="41"/>
+      <x:c r="O1048552" s="41"/>
+      <x:c r="P1048552" s="41"/>
+      <x:c r="Q1048552" s="41"/>
+      <x:c r="R1048552" s="41"/>
+      <x:c r="S1048552" s="41"/>
+      <x:c r="T1048552" s="41"/>
+      <x:c r="U1048552" s="41"/>
+      <x:c r="V1048552" s="41"/>
+      <x:c r="W1048552" s="41"/>
+      <x:c r="X1048552" s="41"/>
+      <x:c r="Y1048552" s="41"/>
+      <x:c r="Z1048552" s="41"/>
+      <x:c r="AA1048552" s="41"/>
+      <x:c r="AB1048552" s="41"/>
+      <x:c r="AC1048552" s="41"/>
+      <x:c r="AD1048552" s="41"/>
+      <x:c r="AE1048552" s="41"/>
+      <x:c r="AF1048552" s="41"/>
+      <x:c r="AG1048552" s="41"/>
+      <x:c r="AH1048552" s="41"/>
+    </x:row>
+    <x:row r="1048553" spans="11:34">
+      <x:c r="K1048553" s="41"/>
+      <x:c r="L1048553" s="41"/>
+      <x:c r="M1048553" s="41"/>
+      <x:c r="N1048553" s="41"/>
+      <x:c r="O1048553" s="41"/>
+      <x:c r="P1048553" s="41"/>
+      <x:c r="Q1048553" s="41"/>
+      <x:c r="R1048553" s="41"/>
+      <x:c r="S1048553" s="41"/>
+      <x:c r="T1048553" s="41"/>
+      <x:c r="U1048553" s="41"/>
+      <x:c r="V1048553" s="41"/>
+      <x:c r="W1048553" s="41"/>
+      <x:c r="X1048553" s="41"/>
+      <x:c r="Y1048553" s="41"/>
+      <x:c r="Z1048553" s="41"/>
+      <x:c r="AA1048553" s="41"/>
+      <x:c r="AB1048553" s="41"/>
+      <x:c r="AC1048553" s="41"/>
+      <x:c r="AD1048553" s="41"/>
+      <x:c r="AE1048553" s="41"/>
+      <x:c r="AF1048553" s="41"/>
+      <x:c r="AG1048553" s="41"/>
+      <x:c r="AH1048553" s="41"/>
+    </x:row>
+    <x:row r="1048554" spans="11:34">
+      <x:c r="K1048554" s="41"/>
+      <x:c r="L1048554" s="41"/>
+      <x:c r="M1048554" s="41"/>
+      <x:c r="N1048554" s="41"/>
+      <x:c r="O1048554" s="41"/>
+      <x:c r="P1048554" s="41"/>
+      <x:c r="Q1048554" s="41"/>
+      <x:c r="R1048554" s="41"/>
+      <x:c r="S1048554" s="41"/>
+      <x:c r="T1048554" s="41"/>
+      <x:c r="U1048554" s="41"/>
+      <x:c r="V1048554" s="41"/>
+      <x:c r="W1048554" s="41"/>
+      <x:c r="X1048554" s="41"/>
+      <x:c r="Y1048554" s="41"/>
+      <x:c r="Z1048554" s="41"/>
+      <x:c r="AA1048554" s="41"/>
+      <x:c r="AB1048554" s="41"/>
+      <x:c r="AC1048554" s="41"/>
+      <x:c r="AD1048554" s="41"/>
+      <x:c r="AE1048554" s="41"/>
+      <x:c r="AF1048554" s="41"/>
+      <x:c r="AG1048554" s="41"/>
+      <x:c r="AH1048554" s="41"/>
+    </x:row>
+    <x:row r="1048555" spans="11:34">
+      <x:c r="K1048555" s="41"/>
+      <x:c r="L1048555" s="41"/>
+      <x:c r="M1048555" s="41"/>
+      <x:c r="N1048555" s="41"/>
+      <x:c r="O1048555" s="41"/>
+      <x:c r="P1048555" s="41"/>
+      <x:c r="Q1048555" s="41"/>
+      <x:c r="R1048555" s="41"/>
+      <x:c r="S1048555" s="41"/>
+      <x:c r="T1048555" s="41"/>
+      <x:c r="U1048555" s="41"/>
+      <x:c r="V1048555" s="41"/>
+      <x:c r="W1048555" s="41"/>
+      <x:c r="X1048555" s="41"/>
+      <x:c r="Y1048555" s="41"/>
+      <x:c r="Z1048555" s="41"/>
+      <x:c r="AA1048555" s="41"/>
+      <x:c r="AB1048555" s="41"/>
+      <x:c r="AC1048555" s="41"/>
+      <x:c r="AD1048555" s="41"/>
+      <x:c r="AE1048555" s="41"/>
+      <x:c r="AF1048555" s="41"/>
+      <x:c r="AG1048555" s="41"/>
+      <x:c r="AH1048555" s="41"/>
+    </x:row>
+    <x:row r="1048556" spans="11:34">
+      <x:c r="K1048556" s="41"/>
+      <x:c r="L1048556" s="41"/>
+      <x:c r="M1048556" s="41"/>
+      <x:c r="N1048556" s="41"/>
+      <x:c r="O1048556" s="41"/>
+      <x:c r="P1048556" s="41"/>
+      <x:c r="Q1048556" s="41"/>
+      <x:c r="R1048556" s="41"/>
+      <x:c r="S1048556" s="41"/>
+      <x:c r="T1048556" s="41"/>
+      <x:c r="U1048556" s="41"/>
+      <x:c r="V1048556" s="41"/>
+      <x:c r="W1048556" s="41"/>
+      <x:c r="X1048556" s="41"/>
+      <x:c r="Y1048556" s="41"/>
+      <x:c r="Z1048556" s="41"/>
+      <x:c r="AA1048556" s="41"/>
+      <x:c r="AB1048556" s="41"/>
+      <x:c r="AC1048556" s="41"/>
+      <x:c r="AD1048556" s="41"/>
+      <x:c r="AE1048556" s="41"/>
+      <x:c r="AF1048556" s="41"/>
+      <x:c r="AG1048556" s="41"/>
+      <x:c r="AH1048556" s="41"/>
+    </x:row>
+    <x:row r="1048557" spans="11:34">
+      <x:c r="K1048557" s="41"/>
+      <x:c r="L1048557" s="41"/>
+      <x:c r="M1048557" s="41"/>
+      <x:c r="N1048557" s="41"/>
+      <x:c r="O1048557" s="41"/>
+      <x:c r="P1048557" s="41"/>
+      <x:c r="Q1048557" s="41"/>
+      <x:c r="R1048557" s="41"/>
+      <x:c r="S1048557" s="41"/>
+      <x:c r="T1048557" s="41"/>
+      <x:c r="U1048557" s="41"/>
+      <x:c r="V1048557" s="41"/>
+      <x:c r="W1048557" s="41"/>
+      <x:c r="X1048557" s="41"/>
+      <x:c r="Y1048557" s="41"/>
+      <x:c r="Z1048557" s="41"/>
+      <x:c r="AA1048557" s="41"/>
+      <x:c r="AB1048557" s="41"/>
+      <x:c r="AC1048557" s="41"/>
+      <x:c r="AD1048557" s="41"/>
+      <x:c r="AE1048557" s="41"/>
+      <x:c r="AF1048557" s="41"/>
+      <x:c r="AG1048557" s="41"/>
+      <x:c r="AH1048557" s="41"/>
+    </x:row>
+    <x:row r="1048558" spans="11:34">
+      <x:c r="K1048558" s="41"/>
+      <x:c r="L1048558" s="41"/>
+      <x:c r="M1048558" s="41"/>
+      <x:c r="N1048558" s="41"/>
+      <x:c r="O1048558" s="41"/>
+      <x:c r="P1048558" s="41"/>
+      <x:c r="Q1048558" s="41"/>
+      <x:c r="R1048558" s="41"/>
+      <x:c r="S1048558" s="41"/>
+      <x:c r="T1048558" s="41"/>
+      <x:c r="U1048558" s="41"/>
+      <x:c r="V1048558" s="41"/>
+      <x:c r="W1048558" s="41"/>
+      <x:c r="X1048558" s="41"/>
+      <x:c r="Y1048558" s="41"/>
+      <x:c r="Z1048558" s="41"/>
+      <x:c r="AA1048558" s="41"/>
+      <x:c r="AB1048558" s="41"/>
+      <x:c r="AC1048558" s="41"/>
+      <x:c r="AD1048558" s="41"/>
+      <x:c r="AE1048558" s="41"/>
+      <x:c r="AF1048558" s="41"/>
+      <x:c r="AG1048558" s="41"/>
+      <x:c r="AH1048558" s="41"/>
+    </x:row>
+    <x:row r="1048559" spans="11:34">
+      <x:c r="K1048559" s="41"/>
+      <x:c r="L1048559" s="41"/>
+      <x:c r="M1048559" s="41"/>
+      <x:c r="N1048559" s="41"/>
+      <x:c r="O1048559" s="41"/>
+      <x:c r="P1048559" s="41"/>
+      <x:c r="Q1048559" s="41"/>
+      <x:c r="R1048559" s="41"/>
+      <x:c r="S1048559" s="41"/>
+      <x:c r="T1048559" s="41"/>
+      <x:c r="U1048559" s="41"/>
+      <x:c r="V1048559" s="41"/>
+      <x:c r="W1048559" s="41"/>
+      <x:c r="X1048559" s="41"/>
+      <x:c r="Y1048559" s="41"/>
+      <x:c r="Z1048559" s="41"/>
+      <x:c r="AA1048559" s="41"/>
+      <x:c r="AB1048559" s="41"/>
+      <x:c r="AC1048559" s="41"/>
+      <x:c r="AD1048559" s="41"/>
+      <x:c r="AE1048559" s="41"/>
+      <x:c r="AF1048559" s="41"/>
+      <x:c r="AG1048559" s="41"/>
+      <x:c r="AH1048559" s="41"/>
+    </x:row>
+    <x:row r="1048560" spans="11:34">
+      <x:c r="K1048560" s="41"/>
+      <x:c r="L1048560" s="41"/>
+      <x:c r="M1048560" s="41"/>
+      <x:c r="N1048560" s="41"/>
+      <x:c r="O1048560" s="41"/>
+      <x:c r="P1048560" s="41"/>
+      <x:c r="Q1048560" s="41"/>
+      <x:c r="R1048560" s="41"/>
+      <x:c r="S1048560" s="41"/>
+      <x:c r="T1048560" s="41"/>
+      <x:c r="U1048560" s="41"/>
+      <x:c r="V1048560" s="41"/>
+      <x:c r="W1048560" s="41"/>
+      <x:c r="X1048560" s="41"/>
+      <x:c r="Y1048560" s="41"/>
+      <x:c r="Z1048560" s="41"/>
+      <x:c r="AA1048560" s="41"/>
+      <x:c r="AB1048560" s="41"/>
+      <x:c r="AC1048560" s="41"/>
+      <x:c r="AD1048560" s="41"/>
+      <x:c r="AE1048560" s="41"/>
+      <x:c r="AF1048560" s="41"/>
+      <x:c r="AG1048560" s="41"/>
+      <x:c r="AH1048560" s="41"/>
+    </x:row>
+    <x:row r="1048561" spans="11:34">
+      <x:c r="K1048561" s="41"/>
+      <x:c r="L1048561" s="41"/>
+      <x:c r="M1048561" s="41"/>
+      <x:c r="N1048561" s="41"/>
+      <x:c r="O1048561" s="41"/>
+      <x:c r="P1048561" s="41"/>
+      <x:c r="Q1048561" s="41"/>
+      <x:c r="R1048561" s="41"/>
+      <x:c r="S1048561" s="41"/>
+      <x:c r="T1048561" s="41"/>
+      <x:c r="U1048561" s="41"/>
+      <x:c r="V1048561" s="41"/>
+      <x:c r="W1048561" s="41"/>
+      <x:c r="X1048561" s="41"/>
+      <x:c r="Y1048561" s="41"/>
+      <x:c r="Z1048561" s="41"/>
+      <x:c r="AA1048561" s="41"/>
+      <x:c r="AB1048561" s="41"/>
+      <x:c r="AC1048561" s="41"/>
+      <x:c r="AD1048561" s="41"/>
+      <x:c r="AE1048561" s="41"/>
+      <x:c r="AF1048561" s="41"/>
+      <x:c r="AG1048561" s="41"/>
+      <x:c r="AH1048561" s="41"/>
+    </x:row>
+    <x:row r="1048562" spans="11:34">
+      <x:c r="K1048562" s="41"/>
+      <x:c r="L1048562" s="41"/>
+      <x:c r="M1048562" s="41"/>
+      <x:c r="N1048562" s="41"/>
+      <x:c r="O1048562" s="41"/>
+      <x:c r="P1048562" s="41"/>
+      <x:c r="Q1048562" s="41"/>
+      <x:c r="R1048562" s="41"/>
+      <x:c r="S1048562" s="41"/>
+      <x:c r="T1048562" s="41"/>
+      <x:c r="U1048562" s="41"/>
+      <x:c r="V1048562" s="41"/>
+      <x:c r="W1048562" s="41"/>
+      <x:c r="X1048562" s="41"/>
+      <x:c r="Y1048562" s="41"/>
+      <x:c r="Z1048562" s="41"/>
+      <x:c r="AA1048562" s="41"/>
+      <x:c r="AB1048562" s="41"/>
+      <x:c r="AC1048562" s="41"/>
+      <x:c r="AD1048562" s="41"/>
+      <x:c r="AE1048562" s="41"/>
+      <x:c r="AF1048562" s="41"/>
+      <x:c r="AG1048562" s="41"/>
+      <x:c r="AH1048562" s="41"/>
+    </x:row>
+    <x:row r="1048563" spans="11:34">
+      <x:c r="K1048563" s="41"/>
+      <x:c r="L1048563" s="41"/>
+      <x:c r="M1048563" s="41"/>
+      <x:c r="N1048563" s="41"/>
+      <x:c r="O1048563" s="41"/>
+      <x:c r="P1048563" s="41"/>
+      <x:c r="Q1048563" s="41"/>
+      <x:c r="R1048563" s="41"/>
+      <x:c r="S1048563" s="41"/>
+      <x:c r="T1048563" s="41"/>
+      <x:c r="U1048563" s="41"/>
+      <x:c r="V1048563" s="41"/>
+      <x:c r="W1048563" s="41"/>
+      <x:c r="X1048563" s="41"/>
+      <x:c r="Y1048563" s="41"/>
+      <x:c r="Z1048563" s="41"/>
+      <x:c r="AA1048563" s="41"/>
+      <x:c r="AB1048563" s="41"/>
+      <x:c r="AC1048563" s="41"/>
+      <x:c r="AD1048563" s="41"/>
+      <x:c r="AE1048563" s="41"/>
+      <x:c r="AF1048563" s="41"/>
+      <x:c r="AG1048563" s="41"/>
+      <x:c r="AH1048563" s="41"/>
+    </x:row>
+    <x:row r="1048564" spans="11:34">
+      <x:c r="K1048564" s="41"/>
+      <x:c r="L1048564" s="41"/>
+      <x:c r="M1048564" s="41"/>
+      <x:c r="N1048564" s="41"/>
+      <x:c r="O1048564" s="41"/>
+      <x:c r="P1048564" s="41"/>
+      <x:c r="Q1048564" s="41"/>
+      <x:c r="R1048564" s="41"/>
+      <x:c r="S1048564" s="41"/>
+      <x:c r="T1048564" s="41"/>
+      <x:c r="U1048564" s="41"/>
+      <x:c r="V1048564" s="41"/>
+      <x:c r="W1048564" s="41"/>
+      <x:c r="X1048564" s="41"/>
+      <x:c r="Y1048564" s="41"/>
+      <x:c r="Z1048564" s="41"/>
+      <x:c r="AA1048564" s="41"/>
+      <x:c r="AB1048564" s="41"/>
+      <x:c r="AC1048564" s="41"/>
+      <x:c r="AD1048564" s="41"/>
+      <x:c r="AE1048564" s="41"/>
+      <x:c r="AF1048564" s="41"/>
+      <x:c r="AG1048564" s="41"/>
+      <x:c r="AH1048564" s="41"/>
+    </x:row>
+    <x:row r="1048565" spans="11:34">
+      <x:c r="K1048565" s="41"/>
+      <x:c r="L1048565" s="41"/>
+      <x:c r="M1048565" s="41"/>
+      <x:c r="N1048565" s="41"/>
+      <x:c r="O1048565" s="41"/>
+      <x:c r="P1048565" s="41"/>
+      <x:c r="Q1048565" s="41"/>
+      <x:c r="R1048565" s="41"/>
+      <x:c r="S1048565" s="41"/>
+      <x:c r="T1048565" s="41"/>
+      <x:c r="U1048565" s="41"/>
+      <x:c r="V1048565" s="41"/>
+      <x:c r="W1048565" s="41"/>
+      <x:c r="X1048565" s="41"/>
+      <x:c r="Y1048565" s="41"/>
+      <x:c r="Z1048565" s="41"/>
+      <x:c r="AA1048565" s="41"/>
+      <x:c r="AB1048565" s="41"/>
+      <x:c r="AC1048565" s="41"/>
+      <x:c r="AD1048565" s="41"/>
+      <x:c r="AE1048565" s="41"/>
+      <x:c r="AF1048565" s="41"/>
+      <x:c r="AG1048565" s="41"/>
+      <x:c r="AH1048565" s="41"/>
+    </x:row>
+    <x:row r="1048566" spans="11:34">
+      <x:c r="K1048566" s="41"/>
+      <x:c r="L1048566" s="41"/>
+      <x:c r="M1048566" s="41"/>
+      <x:c r="N1048566" s="41"/>
+      <x:c r="O1048566" s="41"/>
+      <x:c r="P1048566" s="41"/>
+      <x:c r="Q1048566" s="41"/>
+      <x:c r="R1048566" s="41"/>
+      <x:c r="S1048566" s="41"/>
+      <x:c r="T1048566" s="41"/>
+      <x:c r="U1048566" s="41"/>
+      <x:c r="V1048566" s="41"/>
+      <x:c r="W1048566" s="41"/>
+      <x:c r="X1048566" s="41"/>
+      <x:c r="Y1048566" s="41"/>
+      <x:c r="Z1048566" s="41"/>
+      <x:c r="AA1048566" s="41"/>
+      <x:c r="AB1048566" s="41"/>
+      <x:c r="AC1048566" s="41"/>
+      <x:c r="AD1048566" s="41"/>
+      <x:c r="AE1048566" s="41"/>
+      <x:c r="AF1048566" s="41"/>
+      <x:c r="AG1048566" s="41"/>
+      <x:c r="AH1048566" s="41"/>
+    </x:row>
+    <x:row r="1048567" spans="11:34">
+      <x:c r="K1048567" s="41"/>
+      <x:c r="L1048567" s="41"/>
+      <x:c r="M1048567" s="41"/>
+      <x:c r="N1048567" s="41"/>
+      <x:c r="O1048567" s="41"/>
+      <x:c r="P1048567" s="41"/>
+      <x:c r="Q1048567" s="41"/>
+      <x:c r="R1048567" s="41"/>
+      <x:c r="S1048567" s="41"/>
+      <x:c r="T1048567" s="41"/>
+      <x:c r="U1048567" s="41"/>
+      <x:c r="V1048567" s="41"/>
+      <x:c r="W1048567" s="41"/>
+      <x:c r="X1048567" s="41"/>
+      <x:c r="Y1048567" s="41"/>
+      <x:c r="Z1048567" s="41"/>
+      <x:c r="AA1048567" s="41"/>
+      <x:c r="AB1048567" s="41"/>
+      <x:c r="AC1048567" s="41"/>
+      <x:c r="AD1048567" s="41"/>
+      <x:c r="AE1048567" s="41"/>
+      <x:c r="AF1048567" s="41"/>
+      <x:c r="AG1048567" s="41"/>
+      <x:c r="AH1048567" s="41"/>
+    </x:row>
+    <x:row r="1048568" spans="11:34">
+      <x:c r="K1048568" s="41"/>
+      <x:c r="L1048568" s="41"/>
+      <x:c r="M1048568" s="41"/>
+      <x:c r="N1048568" s="41"/>
+      <x:c r="O1048568" s="41"/>
+      <x:c r="P1048568" s="41"/>
+      <x:c r="Q1048568" s="41"/>
+      <x:c r="R1048568" s="41"/>
+      <x:c r="S1048568" s="41"/>
+      <x:c r="T1048568" s="41"/>
+      <x:c r="U1048568" s="41"/>
+      <x:c r="V1048568" s="41"/>
+      <x:c r="W1048568" s="41"/>
+      <x:c r="X1048568" s="41"/>
+      <x:c r="Y1048568" s="41"/>
+      <x:c r="Z1048568" s="41"/>
+      <x:c r="AA1048568" s="41"/>
+      <x:c r="AB1048568" s="41"/>
+      <x:c r="AC1048568" s="41"/>
+      <x:c r="AD1048568" s="41"/>
+      <x:c r="AE1048568" s="41"/>
+      <x:c r="AF1048568" s="41"/>
+      <x:c r="AG1048568" s="41"/>
+      <x:c r="AH1048568" s="41"/>
+    </x:row>
+    <x:row r="1048569" spans="11:34">
+      <x:c r="K1048569" s="41"/>
+      <x:c r="L1048569" s="41"/>
+      <x:c r="M1048569" s="41"/>
+      <x:c r="N1048569" s="41"/>
+      <x:c r="O1048569" s="41"/>
+      <x:c r="P1048569" s="41"/>
+      <x:c r="Q1048569" s="41"/>
+      <x:c r="R1048569" s="41"/>
+      <x:c r="S1048569" s="41"/>
+      <x:c r="T1048569" s="41"/>
+      <x:c r="U1048569" s="41"/>
+      <x:c r="V1048569" s="41"/>
+      <x:c r="W1048569" s="41"/>
+      <x:c r="X1048569" s="41"/>
+      <x:c r="Y1048569" s="41"/>
+      <x:c r="Z1048569" s="41"/>
+      <x:c r="AA1048569" s="41"/>
+      <x:c r="AB1048569" s="41"/>
+      <x:c r="AC1048569" s="41"/>
+      <x:c r="AD1048569" s="41"/>
+      <x:c r="AE1048569" s="41"/>
+      <x:c r="AF1048569" s="41"/>
+      <x:c r="AG1048569" s="41"/>
+      <x:c r="AH1048569" s="41"/>
+    </x:row>
+    <x:row r="1048570" spans="11:34">
+      <x:c r="K1048570" s="41"/>
+      <x:c r="L1048570" s="41"/>
+      <x:c r="M1048570" s="41"/>
+      <x:c r="N1048570" s="41"/>
+      <x:c r="O1048570" s="41"/>
+      <x:c r="P1048570" s="41"/>
+      <x:c r="Q1048570" s="41"/>
+      <x:c r="R1048570" s="41"/>
+      <x:c r="S1048570" s="41"/>
+      <x:c r="T1048570" s="41"/>
+      <x:c r="U1048570" s="41"/>
+      <x:c r="V1048570" s="41"/>
+      <x:c r="W1048570" s="41"/>
+      <x:c r="X1048570" s="41"/>
+      <x:c r="Y1048570" s="41"/>
+      <x:c r="Z1048570" s="41"/>
+      <x:c r="AA1048570" s="41"/>
+      <x:c r="AB1048570" s="41"/>
+      <x:c r="AC1048570" s="41"/>
+      <x:c r="AD1048570" s="41"/>
+      <x:c r="AE1048570" s="41"/>
+      <x:c r="AF1048570" s="41"/>
+      <x:c r="AG1048570" s="41"/>
+      <x:c r="AH1048570" s="41"/>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="20">
+    <x:mergeCell ref="E5:E6"/>
+    <x:mergeCell ref="B2:B22"/>
+    <x:mergeCell ref="C2:C13"/>
+    <x:mergeCell ref="C14:C22"/>
+    <x:mergeCell ref="D2:D6"/>
+    <x:mergeCell ref="D7:D11"/>
+    <x:mergeCell ref="D14:D17"/>
+    <x:mergeCell ref="B23:B32"/>
+    <x:mergeCell ref="C26:C27"/>
+    <x:mergeCell ref="C30:C31"/>
+    <x:mergeCell ref="B33:B38"/>
+    <x:mergeCell ref="C43:C44"/>
+    <x:mergeCell ref="C45:C46"/>
+    <x:mergeCell ref="C47:C49"/>
+    <x:mergeCell ref="C50:C51"/>
+    <x:mergeCell ref="C52:C53"/>
+    <x:mergeCell ref="C54:C55"/>
+    <x:mergeCell ref="B43:B55"/>
+    <x:mergeCell ref="B39:B42"/>
+    <x:mergeCell ref="A2:A55"/>
+  </x:mergeCells>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
 </file>
--- a/2021_Summer/jp.hong/Datebook_jph.xlsx
+++ b/2021_Summer/jp.hong/Datebook_jph.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="8568" activeTab="2"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="8568"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Datebook" sheetId="1" r:id="rId4"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="240">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="242">
   <x:si>
     <x:t>1. 요구사항 수집 및 정의
  - 관련 필요 자료 조사
@@ -279,6 +279,10 @@
     <x:t>정비 예약을 하는 과정에서 사용자가 선택한 지점과 선택된 지점의 정보가 일치해야 한다.</x:t>
   </x:si>
   <x:si>
+    <x:t>1. 계획하고 있는 어플의 메뉴트리 작성 및 ppt 수정
+2. 요구사항 추가 및 수정</x:t>
+  </x:si>
+  <x:si>
     <x:t>로그인 화면을 들어가게 되면 아이디와 비밀번호의 입력 창, 회원가입 버튼과
 로그인 버튼이 나와야 한다.</x:t>
   </x:si>
@@ -712,6 +716,10 @@
   </x:si>
   <x:si>
     <x:t>봄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 플로우 차트 작성
+2. 설계 계획서 작성</x:t>
   </x:si>
   <x:si>
     <x:t>중복되는 아이디는 가입이 되어선 안된다.</x:t>
@@ -2867,9 +2875,9 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B2:E42"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:pane xSplit="0" ySplit="2" topLeftCell="C12" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" activeCell="E24" activeCellId="0" sqref="E24:E24"/>
+      <x:selection pane="bottomLeft" activeCell="D18" activeCellId="0" sqref="D18:D18"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.199999999999999"/>
@@ -2885,16 +2893,16 @@
     <x:row r="1" ht="6.5999999999999996" customHeight="1"/>
     <x:row r="2" spans="2:5" ht="31.199999999999999" customHeight="1">
       <x:c r="B2" s="4" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C2" s="5" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D2" s="5" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E2" s="6" t="s">
         <x:v>86</x:v>
-      </x:c>
-      <x:c r="C2" s="5" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D2" s="5" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E2" s="6" t="s">
-        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:5" ht="105.75">
@@ -2902,10 +2910,10 @@
         <x:v>44369</x:v>
       </x:c>
       <x:c r="C3" s="14" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D3" s="8" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="E3" s="8" t="s">
         <x:v>13</x:v>
@@ -2916,7 +2924,7 @@
         <x:v>44370</x:v>
       </x:c>
       <x:c r="C4" s="13" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D4" s="11" t="s">
         <x:v>51</x:v>
@@ -2930,10 +2938,10 @@
         <x:v>44371</x:v>
       </x:c>
       <x:c r="C5" s="15" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D5" s="11" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E5" s="11" t="s">
         <x:v>5</x:v>
@@ -2944,7 +2952,7 @@
         <x:v>44372</x:v>
       </x:c>
       <x:c r="C6" s="17" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D6" s="11" t="s">
         <x:v>9</x:v>
@@ -2958,10 +2966,10 @@
         <x:v>44375</x:v>
       </x:c>
       <x:c r="C7" s="13" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D7" s="11" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E7" s="11" t="s">
         <x:v>46</x:v>
@@ -2972,7 +2980,7 @@
         <x:v>44376</x:v>
       </x:c>
       <x:c r="C8" s="13" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D8" s="11" t="s">
         <x:v>30</x:v>
@@ -2986,13 +2994,13 @@
         <x:v>44377</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D9" s="11" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="E9" s="11" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:5" ht="52.700000000000003">
@@ -3000,7 +3008,7 @@
         <x:v>44378</x:v>
       </x:c>
       <x:c r="C10" s="19" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D10" s="11" t="s">
         <x:v>36</x:v>
@@ -3014,7 +3022,7 @@
         <x:v>44379</x:v>
       </x:c>
       <x:c r="C11" s="21" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D11" s="11" t="s">
         <x:v>55</x:v>
@@ -3028,7 +3036,7 @@
         <x:v>44382</x:v>
       </x:c>
       <x:c r="C12" s="20" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D12" s="11" t="s">
         <x:v>38</x:v>
@@ -3042,13 +3050,13 @@
         <x:v>44383</x:v>
       </x:c>
       <x:c r="C13" s="22" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D13" s="11" t="s">
         <x:v>54</x:v>
       </x:c>
       <x:c r="E13" s="11" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:5" ht="52.700000000000003">
@@ -3056,7 +3064,7 @@
         <x:v>44384</x:v>
       </x:c>
       <x:c r="C14" s="23" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D14" s="11" t="s">
         <x:v>50</x:v>
@@ -3070,7 +3078,7 @@
         <x:v>44385</x:v>
       </x:c>
       <x:c r="C15" s="29" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D15" s="11" t="s">
         <x:v>37</x:v>
@@ -3087,16 +3095,20 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="D16" s="11" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="E16" s="10"/>
-    </x:row>
-    <x:row r="17" spans="2:5">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E16" s="11" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="2:5" ht="26.350000000000001">
       <x:c r="B17" s="12">
         <x:v>44389</x:v>
       </x:c>
       <x:c r="C17" s="9"/>
-      <x:c r="D17" s="10"/>
+      <x:c r="D17" s="11" t="s">
+        <x:v>199</x:v>
+      </x:c>
       <x:c r="E17" s="10"/>
     </x:row>
     <x:row r="18" spans="2:5">
@@ -3327,54 +3339,54 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="17.149999999999999">
       <x:c r="A1" s="25" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B1" s="43" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C1" s="44" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D1" s="44" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E1" s="44" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F1" s="44" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G1" s="44" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H1" s="44" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="I1" s="45" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:9">
       <x:c r="A2" s="38" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B2" s="30" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C2" s="33" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D2" s="33" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E2" s="48" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F2" s="48"/>
       <x:c r="G2" s="48"/>
       <x:c r="H2" s="48"/>
       <x:c r="I2" s="48" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -3383,13 +3395,13 @@
       <x:c r="C3" s="34"/>
       <x:c r="D3" s="34"/>
       <x:c r="E3" s="47" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="F3" s="47"/>
       <x:c r="G3" s="47"/>
       <x:c r="H3" s="47"/>
       <x:c r="I3" s="47" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -3398,7 +3410,7 @@
       <x:c r="C4" s="34"/>
       <x:c r="D4" s="34"/>
       <x:c r="E4" s="47" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F4" s="47"/>
       <x:c r="G4" s="47"/>
@@ -3411,10 +3423,10 @@
       <x:c r="C5" s="34"/>
       <x:c r="D5" s="34"/>
       <x:c r="E5" s="36" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F5" s="47" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G5" s="47"/>
       <x:c r="H5" s="47"/>
@@ -3427,7 +3439,7 @@
       <x:c r="D6" s="35"/>
       <x:c r="E6" s="35"/>
       <x:c r="F6" s="47" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G6" s="47"/>
       <x:c r="H6" s="47"/>
@@ -3438,10 +3450,10 @@
       <x:c r="B7" s="31"/>
       <x:c r="C7" s="34"/>
       <x:c r="D7" s="36" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E7" s="47" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="F7" s="47"/>
       <x:c r="G7" s="47"/>
@@ -3454,7 +3466,7 @@
       <x:c r="C8" s="34"/>
       <x:c r="D8" s="34"/>
       <x:c r="E8" s="47" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="F8" s="47"/>
       <x:c r="G8" s="47"/>
@@ -3469,13 +3481,13 @@
       <x:c r="C9" s="34"/>
       <x:c r="D9" s="34"/>
       <x:c r="E9" s="47" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F9" s="47"/>
       <x:c r="G9" s="47"/>
       <x:c r="H9" s="47"/>
       <x:c r="I9" s="47" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -3484,10 +3496,10 @@
       <x:c r="C10" s="34"/>
       <x:c r="D10" s="34"/>
       <x:c r="E10" s="36" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F10" s="47" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G10" s="47"/>
       <x:c r="H10" s="47"/>
@@ -3500,12 +3512,12 @@
       <x:c r="D11" s="34"/>
       <x:c r="E11" s="34"/>
       <x:c r="F11" s="47" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G11" s="47"/>
       <x:c r="H11" s="47"/>
       <x:c r="I11" s="47" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -3515,7 +3527,7 @@
       <x:c r="D12" s="34"/>
       <x:c r="E12" s="34"/>
       <x:c r="F12" s="47" t="s">
-        <x:v>203</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="G12" s="47"/>
       <x:c r="H12" s="47"/>
@@ -3559,19 +3571,19 @@
       <x:c r="A14" s="39"/>
       <x:c r="B14" s="31"/>
       <x:c r="C14" s="36" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D14" s="36" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E14" s="47" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F14" s="47"/>
       <x:c r="G14" s="47"/>
       <x:c r="H14" s="47"/>
       <x:c r="I14" s="47" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="J14" s="28"/>
       <x:c r="K14" s="28"/>
@@ -3599,7 +3611,7 @@
       <x:c r="C15" s="34"/>
       <x:c r="D15" s="34"/>
       <x:c r="E15" s="47" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F15" s="47"/>
       <x:c r="G15" s="47"/>
@@ -3633,7 +3645,7 @@
       <x:c r="C16" s="34"/>
       <x:c r="D16" s="34"/>
       <x:c r="E16" s="47" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F16" s="47"/>
       <x:c r="G16" s="47"/>
@@ -3664,13 +3676,13 @@
       <x:c r="C17" s="34"/>
       <x:c r="D17" s="35"/>
       <x:c r="E17" s="47" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F17" s="47"/>
       <x:c r="G17" s="47"/>
       <x:c r="H17" s="47"/>
       <x:c r="I17" s="47" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="J17" s="28"/>
       <x:c r="K17" s="28"/>
@@ -3697,13 +3709,13 @@
       <x:c r="B18" s="31"/>
       <x:c r="C18" s="34"/>
       <x:c r="D18" s="47" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E18" s="47" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F18" s="47" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G18" s="47"/>
       <x:c r="H18" s="47"/>
@@ -3733,14 +3745,14 @@
       <x:c r="B19" s="31"/>
       <x:c r="C19" s="34"/>
       <x:c r="D19" s="47" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E19" s="47"/>
       <x:c r="F19" s="47"/>
       <x:c r="G19" s="47"/>
       <x:c r="H19" s="47"/>
       <x:c r="I19" s="36" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="J19" s="28"/>
       <x:c r="K19" s="28"/>
@@ -3767,7 +3779,7 @@
       <x:c r="B20" s="31"/>
       <x:c r="C20" s="34"/>
       <x:c r="D20" s="47" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E20" s="47"/>
       <x:c r="F20" s="47"/>
@@ -3799,7 +3811,7 @@
       <x:c r="B21" s="31"/>
       <x:c r="C21" s="34"/>
       <x:c r="D21" s="47" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E21" s="47"/>
       <x:c r="F21" s="47"/>
@@ -3831,7 +3843,7 @@
       <x:c r="B22" s="32"/>
       <x:c r="C22" s="35"/>
       <x:c r="D22" s="47" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E22" s="47"/>
       <x:c r="F22" s="47"/>
@@ -3861,10 +3873,10 @@
     <x:row r="23" spans="1:28">
       <x:c r="A23" s="39"/>
       <x:c r="B23" s="37" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C23" s="47" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D23" s="47"/>
       <x:c r="E23" s="47"/>
@@ -3896,7 +3908,7 @@
       <x:c r="A24" s="39"/>
       <x:c r="B24" s="31"/>
       <x:c r="C24" s="47" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D24" s="47"/>
       <x:c r="E24" s="47"/>
@@ -3928,7 +3940,7 @@
       <x:c r="A25" s="39"/>
       <x:c r="B25" s="31"/>
       <x:c r="C25" s="47" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D25" s="47"/>
       <x:c r="E25" s="47"/>
@@ -3960,13 +3972,13 @@
       <x:c r="A26" s="39"/>
       <x:c r="B26" s="31"/>
       <x:c r="C26" s="36" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D26" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E26" s="47" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F26" s="47"/>
       <x:c r="G26" s="47"/>
@@ -4056,10 +4068,10 @@
       <x:c r="B27" s="37"/>
       <x:c r="C27" s="34"/>
       <x:c r="D27" s="36" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E27" s="47" t="s">
-        <x:v>207</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="F27" s="47" t="s">
         <x:v>49</x:v>
@@ -4152,7 +4164,7 @@
       <x:c r="C28" s="34"/>
       <x:c r="D28" s="35"/>
       <x:c r="E28" s="47" t="s">
-        <x:v>226</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="F28" s="47" t="s">
         <x:v>49</x:v>
@@ -4244,10 +4256,10 @@
       <x:c r="B29" s="31"/>
       <x:c r="C29" s="34"/>
       <x:c r="D29" s="47" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E29" s="49" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="F29" s="49"/>
       <x:c r="G29" s="47"/>
@@ -4337,10 +4349,10 @@
       <x:c r="B30" s="31"/>
       <x:c r="C30" s="34"/>
       <x:c r="D30" s="47" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E30" s="47" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="F30" s="47"/>
       <x:c r="G30" s="47"/>
@@ -4431,7 +4443,7 @@
       <x:c r="C31" s="34"/>
       <x:c r="D31" s="47"/>
       <x:c r="E31" s="47" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F31" s="47"/>
       <x:c r="G31" s="47"/>
@@ -4521,10 +4533,10 @@
       <x:c r="B32" s="31"/>
       <x:c r="C32" s="34"/>
       <x:c r="D32" s="47" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E32" s="47" t="s">
-        <x:v>200</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="F32" s="47"/>
       <x:c r="G32" s="47"/>
@@ -4614,7 +4626,7 @@
       <x:c r="B33" s="31"/>
       <x:c r="C33" s="35"/>
       <x:c r="D33" s="47" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E33" s="47"/>
       <x:c r="F33" s="47"/>
@@ -4707,7 +4719,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D34" s="47" t="s">
-        <x:v>229</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="E34" s="47"/>
       <x:c r="F34" s="47"/>
@@ -4798,7 +4810,7 @@
       <x:c r="B35" s="31"/>
       <x:c r="C35" s="34"/>
       <x:c r="D35" s="47" t="s">
-        <x:v>202</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E35" s="47"/>
       <x:c r="F35" s="47"/>
@@ -4889,7 +4901,7 @@
       <x:c r="B36" s="31"/>
       <x:c r="C36" s="34"/>
       <x:c r="D36" s="47" t="s">
-        <x:v>204</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="E36" s="47"/>
       <x:c r="F36" s="47"/>
@@ -4980,7 +4992,7 @@
       <x:c r="B37" s="31"/>
       <x:c r="C37" s="34"/>
       <x:c r="D37" s="47" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="E37" s="47"/>
       <x:c r="F37" s="47"/>
@@ -5071,7 +5083,7 @@
       <x:c r="B38" s="31"/>
       <x:c r="C38" s="34"/>
       <x:c r="D38" s="47" t="s">
-        <x:v>201</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E38" s="47"/>
       <x:c r="F38" s="47"/>
@@ -5162,7 +5174,7 @@
       <x:c r="B39" s="37"/>
       <x:c r="C39" s="35"/>
       <x:c r="D39" s="47" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E39" s="47"/>
       <x:c r="F39" s="47"/>
@@ -5251,10 +5263,10 @@
     <x:row r="40" spans="1:87">
       <x:c r="A40" s="39"/>
       <x:c r="B40" s="37" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C40" s="47" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D40" s="47"/>
       <x:c r="E40" s="47"/>
@@ -5345,7 +5357,7 @@
       <x:c r="A41" s="39"/>
       <x:c r="B41" s="31"/>
       <x:c r="C41" s="47" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D41" s="47"/>
       <x:c r="E41" s="47"/>
@@ -5436,7 +5448,7 @@
       <x:c r="A42" s="39"/>
       <x:c r="B42" s="31"/>
       <x:c r="C42" s="47" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D42" s="47"/>
       <x:c r="E42" s="47"/>
@@ -5527,7 +5539,7 @@
       <x:c r="A43" s="39"/>
       <x:c r="B43" s="31"/>
       <x:c r="C43" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D43" s="47"/>
       <x:c r="E43" s="47"/>
@@ -5618,7 +5630,7 @@
       <x:c r="A44" s="39"/>
       <x:c r="B44" s="31"/>
       <x:c r="C44" s="47" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D44" s="47"/>
       <x:c r="E44" s="47"/>
@@ -5709,7 +5721,7 @@
       <x:c r="A45" s="39"/>
       <x:c r="B45" s="32"/>
       <x:c r="C45" s="47" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D45" s="47"/>
       <x:c r="E45" s="47"/>
@@ -5799,10 +5811,10 @@
     <x:row r="46" spans="1:87">
       <x:c r="A46" s="39"/>
       <x:c r="B46" s="37" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C46" s="47" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D46" s="47"/>
       <x:c r="E46" s="47"/>
@@ -5893,7 +5905,7 @@
       <x:c r="A47" s="39"/>
       <x:c r="B47" s="31"/>
       <x:c r="C47" s="47" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D47" s="47"/>
       <x:c r="E47" s="47"/>
@@ -5984,7 +5996,7 @@
       <x:c r="A48" s="39"/>
       <x:c r="B48" s="31"/>
       <x:c r="C48" s="47" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D48" s="47"/>
       <x:c r="E48" s="47"/>
@@ -6075,7 +6087,7 @@
       <x:c r="A49" s="39"/>
       <x:c r="B49" s="32"/>
       <x:c r="C49" s="47" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D49" s="47"/>
       <x:c r="E49" s="47"/>
@@ -6165,13 +6177,13 @@
     <x:row r="50" spans="1:87">
       <x:c r="A50" s="39"/>
       <x:c r="B50" s="37" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C50" s="36" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D50" s="47" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E50" s="47"/>
       <x:c r="F50" s="47"/>
@@ -6262,7 +6274,7 @@
       <x:c r="B51" s="31"/>
       <x:c r="C51" s="35"/>
       <x:c r="D51" s="47" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E51" s="47"/>
       <x:c r="F51" s="47"/>
@@ -6352,10 +6364,10 @@
       <x:c r="A52" s="39"/>
       <x:c r="B52" s="31"/>
       <x:c r="C52" s="36" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D52" s="47" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E52" s="47"/>
       <x:c r="F52" s="47"/>
@@ -6446,7 +6458,7 @@
       <x:c r="B53" s="31"/>
       <x:c r="C53" s="35"/>
       <x:c r="D53" s="47" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E53" s="47"/>
       <x:c r="F53" s="47"/>
@@ -6536,10 +6548,10 @@
       <x:c r="A54" s="39"/>
       <x:c r="B54" s="31"/>
       <x:c r="C54" s="36" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D54" s="47" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E54" s="47"/>
       <x:c r="F54" s="47"/>
@@ -6630,7 +6642,7 @@
       <x:c r="B55" s="31"/>
       <x:c r="C55" s="34"/>
       <x:c r="D55" s="47" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E55" s="47"/>
       <x:c r="F55" s="47"/>
@@ -6721,7 +6733,7 @@
       <x:c r="B56" s="31"/>
       <x:c r="C56" s="35"/>
       <x:c r="D56" s="47" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E56" s="47"/>
       <x:c r="F56" s="47"/>
@@ -6811,10 +6823,10 @@
       <x:c r="A57" s="39"/>
       <x:c r="B57" s="31"/>
       <x:c r="C57" s="36" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D57" s="47" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E57" s="47"/>
       <x:c r="F57" s="47"/>
@@ -6905,7 +6917,7 @@
       <x:c r="B58" s="31"/>
       <x:c r="C58" s="35"/>
       <x:c r="D58" s="47" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E58" s="47"/>
       <x:c r="F58" s="47"/>
@@ -6995,10 +7007,10 @@
       <x:c r="A59" s="39"/>
       <x:c r="B59" s="31"/>
       <x:c r="C59" s="36" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D59" s="47" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E59" s="47"/>
       <x:c r="F59" s="47"/>
@@ -7089,7 +7101,7 @@
       <x:c r="B60" s="31"/>
       <x:c r="C60" s="35"/>
       <x:c r="D60" s="47" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E60" s="47"/>
       <x:c r="F60" s="47"/>
@@ -7179,10 +7191,10 @@
       <x:c r="A61" s="39"/>
       <x:c r="B61" s="31"/>
       <x:c r="C61" s="36" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D61" s="47" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="E61" s="47"/>
       <x:c r="F61" s="47"/>
@@ -7273,7 +7285,7 @@
       <x:c r="B62" s="32"/>
       <x:c r="C62" s="35"/>
       <x:c r="D62" s="47" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E62" s="47"/>
       <x:c r="F62" s="47"/>
@@ -9297,9 +9309,9 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="A1:H60"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" activeCell="F26" activeCellId="0" sqref="F26:F26"/>
+      <x:selection pane="bottomLeft" activeCell="F35" activeCellId="0" sqref="F35:F35"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -9315,28 +9327,28 @@
   <x:sheetData>
     <x:row r="1" spans="1:8" ht="17.149999999999999">
       <x:c r="A1" s="42" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B1" s="43" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C1" s="44" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D1" s="44" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E1" s="44" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F1" s="44" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G1" s="44" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="H1" s="45" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8" ht="16.75" customHeight="1">
@@ -9347,13 +9359,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C2" s="74" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D2" s="79" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E2" s="80" t="s">
-        <x:v>210</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="F2" s="80"/>
       <x:c r="G2" s="80"/>
@@ -9367,12 +9379,12 @@
       <x:c r="C3" s="75"/>
       <x:c r="D3" s="81"/>
       <x:c r="E3" s="82" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="F3" s="82"/>
       <x:c r="G3" s="82"/>
       <x:c r="H3" s="82" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -9381,7 +9393,7 @@
       <x:c r="C4" s="75"/>
       <x:c r="D4" s="83"/>
       <x:c r="E4" s="82" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F4" s="82"/>
       <x:c r="G4" s="82"/>
@@ -9394,15 +9406,15 @@
       <x:c r="B5" s="31"/>
       <x:c r="C5" s="75"/>
       <x:c r="D5" s="84" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E5" s="85" t="s">
-        <x:v>224</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="F5" s="82"/>
       <x:c r="G5" s="82"/>
       <x:c r="H5" s="82" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
@@ -9411,7 +9423,7 @@
       <x:c r="C6" s="54"/>
       <x:c r="D6" s="83"/>
       <x:c r="E6" s="85" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F6" s="82"/>
       <x:c r="G6" s="82"/>
@@ -9423,16 +9435,16 @@
       <x:c r="A7" s="39"/>
       <x:c r="B7" s="31"/>
       <x:c r="C7" s="53" t="s">
-        <x:v>218</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="D7" s="84" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="E7" s="84" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F7" s="82" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="G7" s="82"/>
       <x:c r="H7" s="82"/>
@@ -9444,7 +9456,7 @@
       <x:c r="D8" s="81"/>
       <x:c r="E8" s="81"/>
       <x:c r="F8" s="82" t="s">
-        <x:v>211</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="G8" s="82"/>
       <x:c r="H8" s="82"/>
@@ -9456,7 +9468,7 @@
       <x:c r="D9" s="81"/>
       <x:c r="E9" s="81"/>
       <x:c r="F9" s="82" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="G9" s="82"/>
       <x:c r="H9" s="82"/>
@@ -9468,7 +9480,7 @@
       <x:c r="D10" s="81"/>
       <x:c r="E10" s="81"/>
       <x:c r="F10" s="82" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="G10" s="82"/>
       <x:c r="H10" s="82"/>
@@ -9480,7 +9492,7 @@
       <x:c r="D11" s="88"/>
       <x:c r="E11" s="88"/>
       <x:c r="F11" s="89" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="G11" s="89"/>
       <x:c r="H11" s="89"/>
@@ -9491,10 +9503,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C12" s="75" t="s">
-        <x:v>225</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="D12" s="80" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E12" s="81" t="s">
         <x:v>19</x:v>
@@ -9508,7 +9520,7 @@
       <x:c r="B13" s="31"/>
       <x:c r="C13" s="75"/>
       <x:c r="D13" s="85" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E13" s="81"/>
       <x:c r="F13" s="82"/>
@@ -9520,7 +9532,7 @@
       <x:c r="B14" s="31"/>
       <x:c r="C14" s="75"/>
       <x:c r="D14" s="85" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="E14" s="81"/>
       <x:c r="F14" s="82"/>
@@ -9532,7 +9544,7 @@
       <x:c r="B15" s="31"/>
       <x:c r="C15" s="54"/>
       <x:c r="D15" s="85" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E15" s="83"/>
       <x:c r="F15" s="82"/>
@@ -9549,14 +9561,14 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E16" s="84" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F16" s="82" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G16" s="82"/>
       <x:c r="H16" s="84" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -9564,11 +9576,11 @@
       <x:c r="B17" s="31"/>
       <x:c r="C17" s="54"/>
       <x:c r="D17" s="82" t="s">
-        <x:v>205</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E17" s="83"/>
       <x:c r="F17" s="82" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G17" s="82"/>
       <x:c r="H17" s="83"/>
@@ -9590,13 +9602,13 @@
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="39"/>
       <x:c r="B19" s="31" t="s">
-        <x:v>232</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="C19" s="75" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D19" s="80" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E19" s="80"/>
       <x:c r="F19" s="80"/>
@@ -9608,7 +9620,7 @@
       <x:c r="B20" s="31"/>
       <x:c r="C20" s="75"/>
       <x:c r="D20" s="82" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E20" s="82"/>
       <x:c r="F20" s="82"/>
@@ -9620,7 +9632,7 @@
       <x:c r="B21" s="31"/>
       <x:c r="C21" s="75"/>
       <x:c r="D21" s="82" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E21" s="82"/>
       <x:c r="F21" s="82"/>
@@ -9632,7 +9644,7 @@
       <x:c r="B22" s="31"/>
       <x:c r="C22" s="75"/>
       <x:c r="D22" s="82" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E22" s="82"/>
       <x:c r="F22" s="82"/>
@@ -9644,7 +9656,7 @@
       <x:c r="B23" s="31"/>
       <x:c r="C23" s="54"/>
       <x:c r="D23" s="82" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E23" s="82"/>
       <x:c r="F23" s="82"/>
@@ -9655,13 +9667,13 @@
       <x:c r="A24" s="38"/>
       <x:c r="B24" s="37"/>
       <x:c r="C24" s="53" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D24" s="84" t="s">
-        <x:v>213</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E24" s="82" t="s">
-        <x:v>222</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="F24" s="82"/>
       <x:c r="G24" s="82"/>
@@ -9673,7 +9685,7 @@
       <x:c r="C25" s="75"/>
       <x:c r="D25" s="83"/>
       <x:c r="E25" s="82" t="s">
-        <x:v>235</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="F25" s="82"/>
       <x:c r="G25" s="82"/>
@@ -9687,7 +9699,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E26" s="82" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="F26" s="82"/>
       <x:c r="G26" s="82"/>
@@ -9699,7 +9711,7 @@
       <x:c r="C27" s="75"/>
       <x:c r="D27" s="81"/>
       <x:c r="E27" s="82" t="s">
-        <x:v>221</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="F27" s="82"/>
       <x:c r="G27" s="82"/>
@@ -9711,7 +9723,7 @@
       <x:c r="C28" s="75"/>
       <x:c r="D28" s="81"/>
       <x:c r="E28" s="82" t="s">
-        <x:v>220</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="F28" s="82"/>
       <x:c r="G28" s="82"/>
@@ -9723,7 +9735,7 @@
       <x:c r="C29" s="87"/>
       <x:c r="D29" s="88"/>
       <x:c r="E29" s="89" t="s">
-        <x:v>216</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="F29" s="89"/>
       <x:c r="G29" s="89"/>
@@ -9732,10 +9744,10 @@
     <x:row r="30" spans="1:8">
       <x:c r="A30" s="39"/>
       <x:c r="B30" s="31" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C30" s="91" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D30" s="80"/>
       <x:c r="E30" s="80"/>
@@ -9747,7 +9759,7 @@
       <x:c r="A31" s="39"/>
       <x:c r="B31" s="31"/>
       <x:c r="C31" s="76" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D31" s="82"/>
       <x:c r="E31" s="82"/>
@@ -9759,7 +9771,7 @@
       <x:c r="A32" s="39"/>
       <x:c r="B32" s="31"/>
       <x:c r="C32" s="76" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D32" s="82"/>
       <x:c r="E32" s="82"/>
@@ -9771,7 +9783,7 @@
       <x:c r="A33" s="39"/>
       <x:c r="B33" s="69"/>
       <x:c r="C33" s="92" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D33" s="89"/>
       <x:c r="E33" s="89"/>
@@ -9782,10 +9794,10 @@
     <x:row r="34" spans="1:8">
       <x:c r="A34" s="39"/>
       <x:c r="B34" s="31" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="C34" s="91" t="s">
-        <x:v>233</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="D34" s="80"/>
       <x:c r="E34" s="80"/>
@@ -9797,10 +9809,10 @@
       <x:c r="A35" s="39"/>
       <x:c r="B35" s="31"/>
       <x:c r="C35" s="53" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D35" s="82" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="E35" s="82"/>
       <x:c r="F35" s="82"/>
@@ -9812,7 +9824,7 @@
       <x:c r="B36" s="31"/>
       <x:c r="C36" s="75"/>
       <x:c r="D36" s="82" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E36" s="82"/>
       <x:c r="F36" s="82"/>
@@ -9824,7 +9836,7 @@
       <x:c r="B37" s="69"/>
       <x:c r="C37" s="87"/>
       <x:c r="D37" s="89" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E37" s="89"/>
       <x:c r="F37" s="89"/>
@@ -10148,7 +10160,7 @@
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="62"/>
       <x:c r="B2" s="46" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C2" s="46" t="s">
         <x:v>20</x:v>
@@ -10157,22 +10169,22 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="E2" s="46" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F2" s="46" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="62"/>
       <x:c r="B3" s="30" t="s">
-        <x:v>234</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="C3" s="33" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D3" s="33" t="s">
-        <x:v>206</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E3" s="63" t="s">
         <x:v>57</x:v>
@@ -10185,7 +10197,7 @@
       <x:c r="C4" s="34"/>
       <x:c r="D4" s="34"/>
       <x:c r="E4" s="64" t="s">
-        <x:v>198</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="F4" s="94"/>
     </x:row>
@@ -10195,7 +10207,7 @@
       <x:c r="C5" s="34"/>
       <x:c r="D5" s="34"/>
       <x:c r="E5" s="64" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F5" s="94"/>
     </x:row>
@@ -10205,7 +10217,7 @@
       <x:c r="C6" s="34"/>
       <x:c r="D6" s="34"/>
       <x:c r="E6" s="64" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F6" s="94"/>
     </x:row>
@@ -10224,7 +10236,7 @@
       <x:c r="B8" s="31"/>
       <x:c r="C8" s="34"/>
       <x:c r="D8" s="36" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E8" s="66" t="s">
         <x:v>58</x:v>
@@ -10247,7 +10259,7 @@
       <x:c r="C10" s="34"/>
       <x:c r="D10" s="35"/>
       <x:c r="E10" s="67" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="F10" s="94"/>
     </x:row>
@@ -10256,7 +10268,7 @@
       <x:c r="B11" s="31"/>
       <x:c r="C11" s="34"/>
       <x:c r="D11" s="36" t="s">
-        <x:v>219</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="E11" s="66" t="s">
         <x:v>24</x:v>
@@ -10277,13 +10289,13 @@
       <x:c r="A13" s="62"/>
       <x:c r="B13" s="31"/>
       <x:c r="C13" s="36" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D13" s="36" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E13" s="66" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F13" s="94"/>
     </x:row>
@@ -10303,7 +10315,7 @@
       <x:c r="C15" s="34"/>
       <x:c r="D15" s="34"/>
       <x:c r="E15" s="64" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="F15" s="94"/>
     </x:row>
@@ -10322,7 +10334,7 @@
       <x:c r="B17" s="31"/>
       <x:c r="C17" s="34"/>
       <x:c r="D17" s="36" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="E17" s="66" t="s">
         <x:v>4</x:v>
@@ -10335,7 +10347,7 @@
       <x:c r="C18" s="35"/>
       <x:c r="D18" s="35"/>
       <x:c r="E18" s="65" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F18" s="94"/>
     </x:row>
@@ -10343,13 +10355,13 @@
       <x:c r="A19" s="62"/>
       <x:c r="B19" s="31"/>
       <x:c r="C19" s="36" t="s">
-        <x:v>214</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D19" s="36" t="s">
-        <x:v>238</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="E19" s="66" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="F19" s="94"/>
     </x:row>
@@ -10359,7 +10371,7 @@
       <x:c r="C20" s="34"/>
       <x:c r="D20" s="35"/>
       <x:c r="E20" s="67" t="s">
-        <x:v>230</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="F20" s="94"/>
     </x:row>
@@ -10368,10 +10380,10 @@
       <x:c r="B21" s="31"/>
       <x:c r="C21" s="34"/>
       <x:c r="D21" s="36" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="66" t="s">
-        <x:v>223</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="F21" s="94"/>
     </x:row>
@@ -10390,7 +10402,7 @@
       <x:c r="B23" s="31"/>
       <x:c r="C23" s="34"/>
       <x:c r="D23" s="47" t="s">
-        <x:v>205</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E23" s="68" t="s">
         <x:v>27</x:v>
@@ -10402,10 +10414,10 @@
       <x:c r="B24" s="31"/>
       <x:c r="C24" s="34"/>
       <x:c r="D24" s="36" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E24" s="66" t="s">
-        <x:v>212</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="F24" s="94"/>
     </x:row>
@@ -10435,7 +10447,7 @@
       <x:c r="C27" s="70"/>
       <x:c r="D27" s="70"/>
       <x:c r="E27" s="71" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F27" s="95"/>
     </x:row>
@@ -10445,13 +10457,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C28" s="96" t="s">
-        <x:v>228</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="D28" s="96" t="s">
-        <x:v>231</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="E28" s="97" t="s">
-        <x:v>237</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="F28" s="93"/>
     </x:row>
@@ -10459,10 +10471,10 @@
       <x:c r="A29" s="62"/>
       <x:c r="B29" s="31"/>
       <x:c r="C29" s="36" t="s">
-        <x:v>209</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="D29" s="47" t="s">
-        <x:v>215</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="E29" s="68" t="s">
         <x:v>25</x:v>
@@ -10474,10 +10486,10 @@
       <x:c r="B30" s="31"/>
       <x:c r="C30" s="34"/>
       <x:c r="D30" s="36" t="s">
-        <x:v>217</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="E30" s="66" t="s">
-        <x:v>199</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="F30" s="94"/>
     </x:row>
@@ -10507,19 +10519,19 @@
       <x:c r="C33" s="70"/>
       <x:c r="D33" s="70"/>
       <x:c r="E33" s="71" t="s">
-        <x:v>227</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="F33" s="95"/>
     </x:row>
     <x:row r="34" spans="1:6">
       <x:c r="A34" s="62"/>
       <x:c r="B34" s="31" t="s">
-        <x:v>208</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="C34" s="34"/>
       <x:c r="D34" s="34"/>
       <x:c r="E34" s="64" t="s">
-        <x:v>236</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="F34" s="94"/>
     </x:row>
@@ -10529,7 +10541,7 @@
       <x:c r="C35" s="70"/>
       <x:c r="D35" s="70"/>
       <x:c r="E35" s="71" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="F35" s="95"/>
     </x:row>

--- a/2021_Summer/jp.hong/Datebook_jph.xlsx
+++ b/2021_Summer/jp.hong/Datebook_jph.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="8568"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="8568" activeTab="2"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Datebook" sheetId="1" r:id="rId4"/>
@@ -718,122 +718,123 @@
     <x:t>봄</x:t>
   </x:si>
   <x:si>
+    <x:t>중복되는 아이디는 가입이 되어선 안된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APP종료시 입력된 데이터는 변조가 없어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 구매</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타이어샵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>편집</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>달력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오늘 교체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수익적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALL*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 기본 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고장사례(리콜사례)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교체할 부품을 선택 받아야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상황별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보안성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>겨울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무결성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오너들의 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가을</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장마철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정확한 위치의 지도 정보를 받아와야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기록 및 통계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약 교체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DB에 저장된 내용들은 변조가 없어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>함수의 계산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공식 서비스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주행 거리 정보를 받아 계산하여 남은 수명에 대해 알려 주어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>community</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 정보 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭설철</x:t>
+  </x:si>
+  <x:si>
     <x:t>1. 플로우 차트 작성
-2. 설계 계획서 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중복되는 아이디는 가입이 되어선 안된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>APP종료시 입력된 데이터는 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 구매</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타이어샵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>편집</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>달력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오늘 교체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수익적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALL*</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 기본 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고장사례(리콜사례)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교체할 부품을 선택 받아야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상황별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보안성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>겨울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무결성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오너들의 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가을</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장마철</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정확한 위치의 지도 정보를 받아와야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기록 및 통계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약 교체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DB에 저장된 내용들은 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>함수의 계산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공식 서비스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주행 거리 정보를 받아 계산하여 남은 수명에 대해 알려 주어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>community</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 정보 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭설철</x:t>
+2. 설계 계획서 작성
+3. Menu_Tree 도식화 수정</x:t>
   </x:si>
   <x:si>
     <x:t>어플의 예약기능을 통해 예약한 경우 업체로부터 일정 수수료를 받는다.</x:t>
@@ -2875,7 +2876,7 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B2:E42"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:pane xSplit="0" ySplit="2" topLeftCell="C12" activePane="bottomLeft" state="frozen"/>
       <x:selection pane="bottomLeft" activeCell="D18" activeCellId="0" sqref="D18:D18"/>
     </x:sheetView>
@@ -3101,13 +3102,13 @@
         <x:v>60</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="2:5" ht="26.350000000000001">
+    <x:row r="17" spans="2:5" ht="39.549999999999997">
       <x:c r="B17" s="12">
         <x:v>44389</x:v>
       </x:c>
       <x:c r="C17" s="9"/>
       <x:c r="D17" s="11" t="s">
-        <x:v>199</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="E17" s="10"/>
     </x:row>
@@ -3527,7 +3528,7 @@
       <x:c r="D12" s="34"/>
       <x:c r="E12" s="34"/>
       <x:c r="F12" s="47" t="s">
-        <x:v>205</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="G12" s="47"/>
       <x:c r="H12" s="47"/>
@@ -4071,7 +4072,7 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="E27" s="47" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="F27" s="47" t="s">
         <x:v>49</x:v>
@@ -4164,7 +4165,7 @@
       <x:c r="C28" s="34"/>
       <x:c r="D28" s="35"/>
       <x:c r="E28" s="47" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="F28" s="47" t="s">
         <x:v>49</x:v>
@@ -4536,7 +4537,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E32" s="47" t="s">
-        <x:v>202</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="F32" s="47"/>
       <x:c r="G32" s="47"/>
@@ -4719,7 +4720,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D34" s="47" t="s">
-        <x:v>231</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E34" s="47"/>
       <x:c r="F34" s="47"/>
@@ -4810,7 +4811,7 @@
       <x:c r="B35" s="31"/>
       <x:c r="C35" s="34"/>
       <x:c r="D35" s="47" t="s">
-        <x:v>204</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E35" s="47"/>
       <x:c r="F35" s="47"/>
@@ -4901,7 +4902,7 @@
       <x:c r="B36" s="31"/>
       <x:c r="C36" s="34"/>
       <x:c r="D36" s="47" t="s">
-        <x:v>206</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="E36" s="47"/>
       <x:c r="F36" s="47"/>
@@ -5083,7 +5084,7 @@
       <x:c r="B38" s="31"/>
       <x:c r="C38" s="34"/>
       <x:c r="D38" s="47" t="s">
-        <x:v>203</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E38" s="47"/>
       <x:c r="F38" s="47"/>
@@ -9309,9 +9310,9 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="A1:H60"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" activeCell="F35" activeCellId="0" sqref="F35:F35"/>
+      <x:selection pane="bottomLeft" activeCell="F21" activeCellId="0" sqref="F21:F21"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -9365,7 +9366,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E2" s="80" t="s">
-        <x:v>212</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="F2" s="80"/>
       <x:c r="G2" s="80"/>
@@ -9409,7 +9410,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E5" s="85" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="F5" s="82"/>
       <x:c r="G5" s="82"/>
@@ -9435,7 +9436,7 @@
       <x:c r="A7" s="39"/>
       <x:c r="B7" s="31"/>
       <x:c r="C7" s="53" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D7" s="84" t="s">
         <x:v>31</x:v>
@@ -9456,7 +9457,7 @@
       <x:c r="D8" s="81"/>
       <x:c r="E8" s="81"/>
       <x:c r="F8" s="82" t="s">
-        <x:v>213</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="G8" s="82"/>
       <x:c r="H8" s="82"/>
@@ -9503,7 +9504,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C12" s="75" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="D12" s="80" t="s">
         <x:v>147</x:v>
@@ -9576,7 +9577,7 @@
       <x:c r="B17" s="31"/>
       <x:c r="C17" s="54"/>
       <x:c r="D17" s="82" t="s">
-        <x:v>207</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="E17" s="83"/>
       <x:c r="F17" s="82" t="s">
@@ -9602,7 +9603,7 @@
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="39"/>
       <x:c r="B19" s="31" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="C19" s="75" t="s">
         <x:v>151</x:v>
@@ -9670,10 +9671,10 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="D24" s="84" t="s">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="E24" s="82" t="s">
-        <x:v>224</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="F24" s="82"/>
       <x:c r="G24" s="82"/>
@@ -9685,7 +9686,7 @@
       <x:c r="C25" s="75"/>
       <x:c r="D25" s="83"/>
       <x:c r="E25" s="82" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="F25" s="82"/>
       <x:c r="G25" s="82"/>
@@ -9711,7 +9712,7 @@
       <x:c r="C27" s="75"/>
       <x:c r="D27" s="81"/>
       <x:c r="E27" s="82" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="F27" s="82"/>
       <x:c r="G27" s="82"/>
@@ -9723,7 +9724,7 @@
       <x:c r="C28" s="75"/>
       <x:c r="D28" s="81"/>
       <x:c r="E28" s="82" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="F28" s="82"/>
       <x:c r="G28" s="82"/>
@@ -9735,7 +9736,7 @@
       <x:c r="C29" s="87"/>
       <x:c r="D29" s="88"/>
       <x:c r="E29" s="89" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="F29" s="89"/>
       <x:c r="G29" s="89"/>
@@ -9797,7 +9798,7 @@
         <x:v>194</x:v>
       </x:c>
       <x:c r="C34" s="91" t="s">
-        <x:v>235</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="D34" s="80"/>
       <x:c r="E34" s="80"/>
@@ -10178,13 +10179,13 @@
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="62"/>
       <x:c r="B3" s="30" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="C3" s="33" t="s">
         <x:v>191</x:v>
       </x:c>
       <x:c r="D3" s="33" t="s">
-        <x:v>208</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E3" s="63" t="s">
         <x:v>57</x:v>
@@ -10197,7 +10198,7 @@
       <x:c r="C4" s="34"/>
       <x:c r="D4" s="34"/>
       <x:c r="E4" s="64" t="s">
-        <x:v>200</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="F4" s="94"/>
     </x:row>
@@ -10268,7 +10269,7 @@
       <x:c r="B11" s="31"/>
       <x:c r="C11" s="34"/>
       <x:c r="D11" s="36" t="s">
-        <x:v>221</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="E11" s="66" t="s">
         <x:v>24</x:v>
@@ -10355,7 +10356,7 @@
       <x:c r="A19" s="62"/>
       <x:c r="B19" s="31"/>
       <x:c r="C19" s="36" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="D19" s="36" t="s">
         <x:v>240</x:v>
@@ -10371,7 +10372,7 @@
       <x:c r="C20" s="34"/>
       <x:c r="D20" s="35"/>
       <x:c r="E20" s="67" t="s">
-        <x:v>232</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="F20" s="94"/>
     </x:row>
@@ -10383,7 +10384,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="66" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="F21" s="94"/>
     </x:row>
@@ -10402,7 +10403,7 @@
       <x:c r="B23" s="31"/>
       <x:c r="C23" s="34"/>
       <x:c r="D23" s="47" t="s">
-        <x:v>207</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="E23" s="68" t="s">
         <x:v>27</x:v>
@@ -10417,7 +10418,7 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="E24" s="66" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="F24" s="94"/>
     </x:row>
@@ -10457,10 +10458,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C28" s="96" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="D28" s="96" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="E28" s="97" t="s">
         <x:v>239</x:v>
@@ -10471,10 +10472,10 @@
       <x:c r="A29" s="62"/>
       <x:c r="B29" s="31"/>
       <x:c r="C29" s="36" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D29" s="47" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E29" s="68" t="s">
         <x:v>25</x:v>
@@ -10486,10 +10487,10 @@
       <x:c r="B30" s="31"/>
       <x:c r="C30" s="34"/>
       <x:c r="D30" s="36" t="s">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="E30" s="66" t="s">
-        <x:v>201</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="F30" s="94"/>
     </x:row>
@@ -10519,14 +10520,14 @@
       <x:c r="C33" s="70"/>
       <x:c r="D33" s="70"/>
       <x:c r="E33" s="71" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="F33" s="95"/>
     </x:row>
     <x:row r="34" spans="1:6">
       <x:c r="A34" s="62"/>
       <x:c r="B34" s="31" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="C34" s="34"/>
       <x:c r="D34" s="34"/>

--- a/2021_Summer/jp.hong/Datebook_jph.xlsx
+++ b/2021_Summer/jp.hong/Datebook_jph.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="8568"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="10956" windowHeight="8568"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Datebook" sheetId="1" r:id="rId4"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="248">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="249">
   <x:si>
     <x:t>1. 요구사항 분석 (실현성 확인)
 2. 데이터 흐름도 수정
@@ -33,30 +33,37 @@
  -&gt; 주유, 부품들의 수명정보(?) 어떻게 자동으로 받아올지 알아봐야함 -&gt; 블루투스 =&gt; 블루투스 연동 어떻게?</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 필요 자료 추가 조사
-2. 한계점 및 필요기술 추가
- - 차량 블루투스와 어플 연결 어떻게?
- - 연결이 된다면 원하는 정보만 어떻게 가져 올건지?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정확한 위치의 지도 정보를 받아와야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중복되는 아이디는 가입이 되어선 안된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이어리에 메모한 사항 달력에 날짜 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 형태로 존재, 결함/리콜 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-1. Datebook Comment 부분 요약
-1-2. GIT 보고서 다시 작성
-1-3. PPT 머릿글 요약 작성
-1-4. 파일명 수정
-1-5 최종 아이디어 선정 이유 작성
-2. 요구사항 수집 및 분석</x:t>
+    <x:t>1. 메뉴시퀀스 작성(login, join, 내 차고, 차량 정보) 미완
+2. 블루투스 관련 자료 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 현장실습 OT
+ - 기업 소개 및 업무 설명
+ - 앞으로 수행하게 될 프로젝트 설명
+2. 기존에 진행했던 캡스톤프로젝트 첨언
+3. 제품 개발 과정 설명
+ - 제품 기획 
+ - 개발 기획  
+ - 개발 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 수집 및 정의
+2. 요구사항 분석
+3. 구현 가능 여부 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 추가 자료조사
+2. 요구사항 추가 조사
+3. 경쟁 어플 기능 비교 보완</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호는 특수문자 포함 8자리 이상 12자리 이하 이어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소유한 차량이 여러 대일 경우 차량의 정보를 추가할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주행 거리 정보를 받아 계산하여 남은 수명에 대해 알려 주어야 한다.</x:t>
   </x:si>
   <x:si>
     <x:t>1. Git 목록 삭제
@@ -64,20 +71,11 @@
 3. 인터페이스 구상도 작성</x:t>
   </x:si>
   <x:si>
-    <x:t>주행 거리 정보를 받아 계산하여 남은 수명에 대해 알려 주어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호는 특수문자 포함 8자리 이상 12자리 이하 이어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소유한 차량이 여러 대일 경우 차량의 정보를 추가할 수 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어플의 예약기능을 통해 예약한 경우 업체로부터 일정 수수료를 받는다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>1. 추가 자료조사(관련 코드)
 2. FlowChart 수정 및 보완</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어플의 예약기능을 통해 예약한 경우 업체로부터 일정 수수료를 받는다.</x:t>
   </x:si>
   <x:si>
     <x:t>1. 실습 환경 설정 및 설명
@@ -91,10 +89,25 @@
  - 차량 관리 어플</x:t>
   </x:si>
   <x:si>
-    <x:t>1. (2-2) 수익적 요소 추가
-2. (4-1) 기능정의 추가
-3. 추가 자료 조사
- - 비슷한 어플(마이클) 화면 구성 조사</x:t>
+    <x:t>1. 필요 자료 추가 조사
+2. 한계점 및 필요기술 추가
+ - 차량 블루투스와 어플 연결 어떻게?
+ - 연결이 된다면 원하는 정보만 어떻게 가져 올건지?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-1. Datebook Comment 부분 요약
+1-2. GIT 보고서 다시 작성
+1-3. PPT 머릿글 요약 작성
+1-4. 파일명 수정
+1-5 최종 아이디어 선정 이유 작성
+2. 요구사항 수집 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. DateBook_Comment 부분 수정
+2. GIT보고서 수정
+ - 설치 과정 추가
+ - 명령어 부분 내용 추가
+3. PPT 머릿글 요약 작성 - (미완)</x:t>
   </x:si>
   <x:si>
     <x:t>1. 아이디어 도출
@@ -111,92 +124,25 @@
 블루투스 -&gt; 사진 촬영 ====&gt; 대체하게 되면 글자 인식하는 코드 필요</x:t>
   </x:si>
   <x:si>
-    <x:t>1. DateBook_Comment 부분 수정
-2. GIT보고서 수정
- - 설치 과정 추가
- - 명령어 부분 내용 추가
-3. PPT 머릿글 요약 작성 - (미완)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. vi 명령어 설명서 작성 완료
-2. 요구사항 정의 및 분류
- - 기능적 요구사항
- - 비기능적 요구사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 수집 및 정의
- - 관련 필요 자료 조사
- - 기능적/ 비기능적 요구사항 내용 추가
-2. 개발에 필요한 요구사항 분석 (실현성 확인)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 앱 화면별 Sequence 작성
-2. 앱 화면별 어떻게 구성할 것인지 구상
-3. 추가 자료조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품 별 남은 수명 보여줌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차종, 차번호, 연식 등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 무료 판매 견적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 정비소 찾아보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유소 포인트 적립 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방문 정비소 기록, 메모</x:t>
-  </x:si>
-  <x:si>
-    <x:t>항목 및 정비 주기 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점검 스케쥴 및 일정 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이달의 정비/세차 혜택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험료 확인 및 갱신일 알림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기아 커넥티드카 연동하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. vi 명령어 설명서 작성
-2. 요구사항 정의 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택 된 부품은 값의 변조 없이 알맞은 값이 저장되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외부에서 받아오는 정보(지도, 가격 등)에 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유, 연비, 운행거리, 정비 및 기타비용 총액/월별 지출액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정 기능을 통해 작성했던 글을 수정 할 수 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 날짜를 기록할 수 있도록 다이어리 형식으로 제공해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품의 종류를 다르게 하여 여러가지를 선택 할 수 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록된 사용자만이 자신이 등록한 차량의 정보를 확인해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사라지거나 위치가 바뀐 정보를 수시로 업데이트 해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입시 필요한 정보 및 소유한 차량의 정보를 포함해야 한다.</x:t>
+    <x:t>1. 계획하고 있는 어플의 메뉴트리 작성 및 ppt 수정
+2. 요구사항 추가 및 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 플로우 차트 작성
+2. 설계 계획서 작성
+3. Menu_Tree 도식화 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06.22, 06.23 회의록 작성
+2. Git 환경 설정
+3. Git 설정 화면 캡처 및 보고서 작성
+4. 캡스톤 아이디어 도출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 정의 및 분석 - 체계화
+ - 기능 / 비기능적 요구사항 분류 및 수정
+2. 요구사항 분석
+3. 구현 가능 여부 확인</x:t>
   </x:si>
   <x:si>
     <x:t>1. 07.02 회의록 작성
@@ -213,6 +159,599 @@
 5. vi사용법 설명</x:t>
   </x:si>
   <x:si>
+    <x:t>1. 앱 화면별 Sequence 작성
+2. 앱 화면별 어떻게 구성할 것인지 구상
+3. 추가 자료조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알맞은 ID값과 패스워드 값이 입력 될 경우 그에 맞는 회원 정보가 로그인 되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판의 글을 삭제하거나 올리기 위한 '글쓰기'버튼과 '글 삭제' 버튼이 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 가입시 아이디, 비밀번호, 이름, 전화번호, 생년월일, 차종의 정보를 받아야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 예약을 하는 과정에서 사용자가 선택한 지점과 선택된 지점의 정보가 일치해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 화면 시퀀스 작성 (설명, 커뮤니티, 알림, 설정화면 추가)
+2. 추가 자료 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중복되는 아이디로 가입시도시 아이디 입력 오류 메세지가 출력되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. vi 명령어 설명서 작성 완료
+2. 요구사항 정의 및 분류
+ - 기능적 요구사항
+ - 비기능적 요구사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06_30 회의록 작성
+2. 요구사항 수정 및 관련 필요 자료 조사
+3. 15:00 ~ 지도교수 면담</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+2. 최종 아이디어 선정
+3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 화면을 들어가게 되면 아이디와 비밀번호의 입력 창, 회원가입 버튼과
+로그인 버튼이 나와야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입을 위해 시도한 비밀번호가 7자리 이하이거나 13자리 이상일 경우
+비밀번호 입력 오류 메세지가 출력되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. vi 명령어 설명서 작성
+2. 요구사항 정의 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택 된 부품은 값의 변조 없이 알맞은 값이 저장되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:43
+18:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검내역서(정비소 제공 문서)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교체할 부품을 선택 받아야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주행 거리별 check list</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 정보(오너들의 평균 정보)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. (2-2) 수익적 요소 추가
+2. (4-1) 기능정의 추가
+3. 추가 자료 조사
+ - 비슷한 어플(마이클) 화면 구성 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 수집 및 정의
+ - 관련 필요 자료 조사
+ - 기능적/ 비기능적 요구사항 내용 추가
+2. 개발에 필요한 요구사항 분석 (실현성 확인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:32
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 정보 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 기본 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>community</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고장사례(리콜사례)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자주 하는 질문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 판매견적 받기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 형태로 존재</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 정비소 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유사 모델 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품 교체 예상 견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Community</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 정보 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:40
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운전자 추천 서비스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:22
+18:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운전자 보험료 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:23
+15:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:27
+18:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진행 방향 ---&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:27
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스 (메뉴)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 장착점 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비소 지도 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:36
+18:07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 보험료 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:25
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약/견적 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험료 계산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:30
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:43
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰 보유 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09:00
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:32
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>할인 쿠폰 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 연동 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험 선호도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친구 초대 이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필요 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 시기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차 정보 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일정 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균 연비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 후기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Home</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비기능적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연비 랭킹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험사 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모두의 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모아보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메모 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 시세</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결함/리콜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에어컨필터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엔진오일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첫예약할인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카카오톡 문의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>setting</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 구매</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타 항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용 가이드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에어컨 필터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>디테일링</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타이어샵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수리견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tips</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 방문 장소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공유게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경기/인천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>견적 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객상담</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연차, 보험료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균연비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이클 이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 검사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신 글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기록 및 통계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자차 게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>함수의 계산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALL*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오늘 교체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>더 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오너들의 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공식 서비스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약 교체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수익적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 주변 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이어리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정 기능을 통해 작성했던 글을 수정 할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품의 종류를 다르게 하여 여러가지를 선택 할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 날짜를 기록할 수 있도록 다이어리 형식으로 제공해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록된 사용자만이 자신이 등록한 차량의 정보를 확인해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유, 연비, 운행거리, 정비 및 기타비용 총액/월별 지출액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외부에서 받아오는 정보(지도, 가격 등)에 변조가 없어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입시 필요한 정보 및 소유한 차량의 정보를 포함해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사라지거나 위치가 바뀐 정보를 수시로 업데이트 해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Q&amp;A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장마철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>만족도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상황별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이클</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가을</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채팅창</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보안성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>편집</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>겨울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무결성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>달력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭설철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>봄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인기글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계절별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타이어</x:t>
+  </x:si>
+  <x:si>
     <x:t>로그인</x:t>
   </x:si>
   <x:si>
@@ -225,424 +764,56 @@
     <x:t>최신글</x:t>
   </x:si>
   <x:si>
-    <x:t>타이어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점검</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>만족도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>봄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이클</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>달력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상황별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보안성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>편집</x:t>
-  </x:si>
-  <x:si>
-    <x:t>겨울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무결성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Q&amp;A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장마철</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭설철</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채팅창</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가을</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인기글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계절별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 현장실습 OT
- - 기업 소개 및 업무 설명
- - 앞으로 수행하게 될 프로젝트 설명
-2. 기존에 진행했던 캡스톤프로젝트 첨언
-3. 제품 개발 과정 설명
- - 제품 기획 
- - 개발 기획  
- - 개발 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주행 거리별 check list</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교체할 부품을 선택 받아야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점검내역서(정비소 제공 문서)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 정보(오너들의 평균 정보)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06.22, 06.23 회의록 작성
-2. Git 환경 설정
-3. Git 설정 화면 캡처 및 보고서 작성
-4. 캡스톤 아이디어 도출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 정의 및 분석 - 체계화
- - 기능 / 비기능적 요구사항 분류 및 수정
-2. 요구사항 분석
-3. 구현 가능 여부 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오너들의 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기록 및 통계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수익적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>함수의 계산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALL*</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오늘 교체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공식 서비스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>더 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Menu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약 교체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자차 게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 주변 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이어리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연비 랭킹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차 정보 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모두의 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 후기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험사 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Home</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일정 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모아보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비기능적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필요 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 시기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균 연비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경기/인천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>디테일링</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 항목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에어컨필터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 시세</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메모 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용 가이드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타 항목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수리견적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카카오톡 문의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엔진오일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 방문 장소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결함/리콜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첫예약할인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 구매</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>setting</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tips</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에어컨 필터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타이어샵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공유게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이클 이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연차, 보험료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신 글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객상담</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균연비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>견적 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 검사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성
+    <x:t>DB에 저장된 내용들은 변조가 없어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유량, 연비, 운행 거리 및 기타 비용 통계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 계약서 작성
+2. 현장실습 오리엔테이션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어플 내 광고를 통해 일정 수입료를 받는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APP종료시 입력된 데이터는 변조가 없어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판을 이용하기 위해서는 로그인을 해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이콘을 활용하여 한 눈에 확인하기 쉬워야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채팅방 및 게시판에 들어가기 위해서는 로그인을 해야한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06.28 회의록 작성
+2. 요구사항 정의 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 정의 및 분석 보완
+2. 기능정의 보완</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Menu_Tree 수정(완료)
 2. 추가 자료 조사</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 계획하고 있는 어플의 메뉴트리 작성 및 ppt 수정
-2. 요구사항 추가 및 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 플로우 차트 작성
-2. 설계 계획서 작성
-3. Menu_Tree 도식화 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 수집 및 정의
-2. 요구사항 분석
-3. 구현 가능 여부 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 추가 자료조사
-2. 요구사항 추가 조사
-3. 경쟁 어플 기능 비교 보완</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중복되는 아이디로 가입시도시 아이디 입력 오류 메세지가 출력되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인에 성공했다면 로그인 버튼이 아닌 로그 아웃 버튼을 보여주어야 한다.</x:t>
+    <x:t>할인률, 총액의 계산 과정에 오류가 있어선 안된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판의 글들은 페이지당 20개씩 보여주어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품들의 시세변동을 지속적으로 업데이트 해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 실패시 로그인 오류 메세지를 출력해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험, 범칙금, 주차요금, 톨게이트 비용, 차량용품 등</x:t>
   </x:si>
   <x:si>
     <x:t>1. 인터페이스 구상도 작성
@@ -650,227 +821,60 @@
 3. 추가 자료조사</x:t>
   </x:si>
   <x:si>
-    <x:t>회원가입을 위해 시도한 비밀번호가 7자리 이하이거나 13자리 이상일 경우
-비밀번호 입력 오류 메세지가 출력되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알맞은 ID값과 패스워드 값이 입력 될 경우 그에 맞는 회원 정보가 로그인 되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판의 글을 삭제하거나 올리기 위한 '글쓰기'버튼과 '글 삭제' 버튼이 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 가입시 아이디, 비밀번호, 이름, 전화번호, 생년월일, 차종의 정보를 받아야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 예약을 하는 과정에서 사용자가 선택한 지점과 선택된 지점의 정보가 일치해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:27
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 정보 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:27
-18:05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스 (메뉴)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:40
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 장착점 예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:22
-18:01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운전자 보험료 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비소 지도 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:23
-15:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운전자 추천 서비스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진행 방향 ---&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 연동 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 보험료 계산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:25
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 보험 선호도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:32
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰 보유 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:36
-18:07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>할인 쿠폰 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09:00
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 보험료 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약/견적 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친구 초대 이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:30
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:43
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 보험 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유사 모델 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품 교체 예상 견적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 형태로 존재</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 판매견적 받기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 정비소 예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자주 하는 질문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Community</x:t>
-  </x:si>
-  <x:si>
-    <x:t>community</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 기본 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고장사례(리콜사례)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 정보 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:43
-18:05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:32
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. Menu_Tree 수정(완료)
+    <x:t>로그인에 성공했다면 로그인 버튼이 아닌 로그 아웃 버튼을 보여주어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이달의 정비/세차 혜택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기아 커넥티드카 연동하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유소 포인트 적립 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 무료 판매 견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품 별 남은 수명 보여줌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검 스케쥴 및 일정 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험료 확인 및 갱신일 알림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 정비소 찾아보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차종, 차번호, 연식 등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방문 정비소 기록, 메모</x:t>
+  </x:si>
+  <x:si>
+    <x:t>항목 및 정비 주기 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 형태로 존재, 결함/리콜 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중복되는 아이디는 가입이 되어선 안된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정확한 위치의 지도 정보를 받아와야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이어리에 메모한 사항 달력에 날짜 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 화면 시퀀스 작성
 2. 추가 자료 조사</x:t>
   </x:si>
   <x:si>
-    <x:t>채팅방 및 게시판에 들어가기 위해서는 로그인을 해야한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06.28 회의록 작성
-2. 요구사항 정의 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 정의 및 분석 보완
-2. 기능정의 보완</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 실패시 로그인 오류 메세지를 출력해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판의 글들은 페이지당 20개씩 보여주어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험, 범칙금, 주차요금, 톨게이트 비용, 차량용품 등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품들의 시세변동을 지속적으로 업데이트 해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>할인률, 총액의 계산 과정에 오류가 있어선 안된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06_30 회의록 작성
-2. 요구사항 수정 및 관련 필요 자료 조사
-3. 15:00 ~ 지도교수 면담</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
-2. 최종 아이디어 선정
-3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 화면을 들어가게 되면 아이디와 비밀번호의 입력 창, 회원가입 버튼과
-로그인 버튼이 나와야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성(login, join, 내 차고, 차량 정보) 미완
-2. 블루투스 관련 자료 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판을 이용하기 위해서는 로그인을 해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 계약서 작성
-2. 현장실습 오리엔테이션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>APP종료시 입력된 데이터는 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유량, 연비, 운행 거리 및 기타 비용 통계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴 시퀀스 작성
-2. 추가 자료 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DB에 저장된 내용들은 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이콘을 활용하여 한 눈에 확인하기 쉬워야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어플 내 광고를 통해 일정 수입료를 받는다.</x:t>
+    <x:t>1. 메뉴시퀀스 작성 (미완)
+2. 스피너 및 캘린더 뷰 다이어리 조사</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1463,7 +1467,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="100">
+  <x:cellXfs count="101">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -2224,6 +2228,19 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2917,8 +2934,8 @@
   <x:dimension ref="B2:E42"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:pane xSplit="0" ySplit="2" topLeftCell="C12" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" activeCell="D20" activeCellId="0" sqref="D20:D20"/>
+      <x:pane xSplit="0" ySplit="2" topLeftCell="C15" activePane="bottomLeft" state="frozen"/>
+      <x:selection pane="bottomLeft" activeCell="E20" activeCellId="0" sqref="E20:E20"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.199999999999999"/>
@@ -2934,16 +2951,16 @@
     <x:row r="1" ht="6.5999999999999996" customHeight="1"/>
     <x:row r="2" spans="2:5" ht="31.199999999999999" customHeight="1">
       <x:c r="B2" s="5" t="s">
-        <x:v>154</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C2" s="6" t="s">
-        <x:v>120</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D2" s="6" t="s">
-        <x:v>140</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E2" s="7" t="s">
-        <x:v>142</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:5" ht="105.75">
@@ -2951,13 +2968,13 @@
         <x:v>44369</x:v>
       </x:c>
       <x:c r="C3" s="15" t="s">
-        <x:v>207</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D3" s="9" t="s">
-        <x:v>241</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E3" s="9" t="s">
-        <x:v>90</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:5" ht="118.55">
@@ -2965,13 +2982,13 @@
         <x:v>44370</x:v>
       </x:c>
       <x:c r="C4" s="14" t="s">
-        <x:v>207</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D4" s="12" t="s">
-        <x:v>95</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E4" s="12" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:5" ht="79.049999999999997">
@@ -2979,10 +2996,10 @@
         <x:v>44371</x:v>
       </x:c>
       <x:c r="C5" s="16" t="s">
-        <x:v>211</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D5" s="12" t="s">
-        <x:v>237</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E5" s="12" t="s">
         <x:v>15</x:v>
@@ -2993,13 +3010,13 @@
         <x:v>44372</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
-        <x:v>211</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D6" s="12" t="s">
-        <x:v>6</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E6" s="17" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:5" ht="79.049999999999997">
@@ -3007,13 +3024,13 @@
         <x:v>44375</x:v>
       </x:c>
       <x:c r="C7" s="14" t="s">
-        <x:v>189</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D7" s="12" t="s">
-        <x:v>229</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="E7" s="12" t="s">
-        <x:v>43</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:5" ht="52.700000000000003">
@@ -3021,13 +3038,13 @@
         <x:v>44376</x:v>
       </x:c>
       <x:c r="C8" s="14" t="s">
-        <x:v>205</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D8" s="12" t="s">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E8" s="12" t="s">
-        <x:v>18</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:5" ht="52.700000000000003">
@@ -3035,13 +3052,13 @@
         <x:v>44377</x:v>
       </x:c>
       <x:c r="C9" s="19" t="s">
-        <x:v>196</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D9" s="12" t="s">
-        <x:v>96</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E9" s="12" t="s">
-        <x:v>236</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:5" ht="52.700000000000003">
@@ -3049,13 +3066,13 @@
         <x:v>44378</x:v>
       </x:c>
       <x:c r="C10" s="20" t="s">
-        <x:v>203</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D10" s="12" t="s">
-        <x:v>177</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E10" s="12" t="s">
-        <x:v>19</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:5" ht="65.849999999999994">
@@ -3063,13 +3080,13 @@
         <x:v>44379</x:v>
       </x:c>
       <x:c r="C11" s="22" t="s">
-        <x:v>187</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D11" s="12" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E11" s="12" t="s">
-        <x:v>42</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:5" ht="105.40000000000001">
@@ -3077,10 +3094,10 @@
         <x:v>44382</x:v>
       </x:c>
       <x:c r="C12" s="21" t="s">
-        <x:v>201</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D12" s="12" t="s">
-        <x:v>181</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E12" s="12" t="s">
         <x:v>0</x:v>
@@ -3091,13 +3108,13 @@
         <x:v>44383</x:v>
       </x:c>
       <x:c r="C13" s="23" t="s">
-        <x:v>203</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D13" s="12" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E13" s="12" t="s">
         <x:v>12</x:v>
-      </x:c>
-      <x:c r="E13" s="12" t="s">
-        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:5" ht="52.700000000000003">
@@ -3105,13 +3122,13 @@
         <x:v>44384</x:v>
       </x:c>
       <x:c r="C14" s="24" t="s">
-        <x:v>193</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D14" s="12" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E14" s="12" t="s">
-        <x:v>14</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:5" ht="52.700000000000003">
@@ -3119,10 +3136,10 @@
         <x:v>44385</x:v>
       </x:c>
       <x:c r="C15" s="30" t="s">
-        <x:v>212</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D15" s="12" t="s">
-        <x:v>178</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E15" s="12" t="s">
         <x:v>16</x:v>
@@ -3133,13 +3150,13 @@
         <x:v>44386</x:v>
       </x:c>
       <x:c r="C16" s="31" t="s">
-        <x:v>191</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D16" s="12" t="s">
-        <x:v>230</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E16" s="12" t="s">
-        <x:v>175</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:5" ht="39.549999999999997">
@@ -3147,45 +3164,51 @@
         <x:v>44389</x:v>
       </x:c>
       <x:c r="C17" s="74" t="s">
-        <x:v>226</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D17" s="12" t="s">
-        <x:v>176</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E17" s="12" t="s">
-        <x:v>227</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:5" ht="26.350000000000001">
       <x:c r="B18" s="13">
         <x:v>44390</x:v>
       </x:c>
-      <x:c r="C18" s="14" t="s">
-        <x:v>225</x:v>
+      <x:c r="C18" s="100" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D18" s="12" t="s">
-        <x:v>244</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="E18" s="12" t="s">
-        <x:v>239</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:5" ht="26.350000000000001">
       <x:c r="B19" s="13">
         <x:v>44391</x:v>
       </x:c>
-      <x:c r="C19" s="10"/>
+      <x:c r="C19" s="100" t="s">
+        <x:v>78</x:v>
+      </x:c>
       <x:c r="D19" s="12" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="E19" s="11"/>
-    </x:row>
-    <x:row r="20" spans="2:5">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="E19" s="12" t="s">
+        <x:v>248</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="2:5" ht="26.350000000000001">
       <x:c r="B20" s="13">
         <x:v>44392</x:v>
       </x:c>
       <x:c r="C20" s="10"/>
-      <x:c r="D20" s="11"/>
+      <x:c r="D20" s="12" t="s">
+        <x:v>28</x:v>
+      </x:c>
       <x:c r="E20" s="11"/>
     </x:row>
     <x:row r="21" spans="2:5">
@@ -3392,54 +3415,54 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="17.149999999999999">
       <x:c r="A1" s="26" t="s">
-        <x:v>198</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B1" s="33" t="s">
-        <x:v>108</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C1" s="34" t="s">
-        <x:v>117</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D1" s="34" t="s">
-        <x:v>106</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E1" s="34" t="s">
-        <x:v>159</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F1" s="34" t="s">
-        <x:v>125</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G1" s="34" t="s">
-        <x:v>128</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H1" s="34" t="s">
-        <x:v>88</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="I1" s="35" t="s">
-        <x:v>56</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:9">
       <x:c r="A2" s="83" t="s">
-        <x:v>59</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B2" s="77" t="s">
-        <x:v>69</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="C2" s="80" t="s">
-        <x:v>131</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D2" s="80" t="s">
-        <x:v>115</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E2" s="38" t="s">
-        <x:v>135</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F2" s="38"/>
       <x:c r="G2" s="38"/>
       <x:c r="H2" s="38"/>
       <x:c r="I2" s="38" t="s">
-        <x:v>217</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -3448,13 +3471,13 @@
       <x:c r="C3" s="81"/>
       <x:c r="D3" s="81"/>
       <x:c r="E3" s="37" t="s">
-        <x:v>213</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F3" s="37"/>
       <x:c r="G3" s="37"/>
       <x:c r="H3" s="37"/>
       <x:c r="I3" s="37" t="s">
-        <x:v>30</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -3463,7 +3486,7 @@
       <x:c r="C4" s="81"/>
       <x:c r="D4" s="81"/>
       <x:c r="E4" s="37" t="s">
-        <x:v>136</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F4" s="37"/>
       <x:c r="G4" s="37"/>
@@ -3476,10 +3499,10 @@
       <x:c r="C5" s="81"/>
       <x:c r="D5" s="81"/>
       <x:c r="E5" s="75" t="s">
-        <x:v>148</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F5" s="37" t="s">
-        <x:v>146</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G5" s="37"/>
       <x:c r="H5" s="37"/>
@@ -3492,7 +3515,7 @@
       <x:c r="D6" s="76"/>
       <x:c r="E6" s="76"/>
       <x:c r="F6" s="37" t="s">
-        <x:v>188</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G6" s="37"/>
       <x:c r="H6" s="37"/>
@@ -3503,10 +3526,10 @@
       <x:c r="B7" s="78"/>
       <x:c r="C7" s="81"/>
       <x:c r="D7" s="75" t="s">
-        <x:v>161</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E7" s="37" t="s">
-        <x:v>66</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="F7" s="37"/>
       <x:c r="G7" s="37"/>
@@ -3519,13 +3542,13 @@
       <x:c r="C8" s="81"/>
       <x:c r="D8" s="81"/>
       <x:c r="E8" s="37" t="s">
-        <x:v>57</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="F8" s="37"/>
       <x:c r="G8" s="37"/>
       <x:c r="H8" s="37"/>
       <x:c r="I8" s="37" t="s">
-        <x:v>35</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -3534,13 +3557,13 @@
       <x:c r="C9" s="81"/>
       <x:c r="D9" s="81"/>
       <x:c r="E9" s="37" t="s">
-        <x:v>50</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="F9" s="37"/>
       <x:c r="G9" s="37"/>
       <x:c r="H9" s="37"/>
       <x:c r="I9" s="37" t="s">
-        <x:v>28</x:v>
+        <x:v>237</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -3549,10 +3572,10 @@
       <x:c r="C10" s="81"/>
       <x:c r="D10" s="81"/>
       <x:c r="E10" s="75" t="s">
-        <x:v>169</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="F10" s="37" t="s">
-        <x:v>133</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="G10" s="37"/>
       <x:c r="H10" s="37"/>
@@ -3565,12 +3588,12 @@
       <x:c r="D11" s="81"/>
       <x:c r="E11" s="81"/>
       <x:c r="F11" s="37" t="s">
-        <x:v>139</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="G11" s="37"/>
       <x:c r="H11" s="37"/>
       <x:c r="I11" s="37" t="s">
-        <x:v>233</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -3580,7 +3603,7 @@
       <x:c r="D12" s="81"/>
       <x:c r="E12" s="81"/>
       <x:c r="F12" s="37" t="s">
-        <x:v>70</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G12" s="37"/>
       <x:c r="H12" s="37"/>
@@ -3593,12 +3616,12 @@
       <x:c r="D13" s="76"/>
       <x:c r="E13" s="76"/>
       <x:c r="F13" s="37" t="s">
-        <x:v>86</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="G13" s="37"/>
       <x:c r="H13" s="37"/>
       <x:c r="I13" s="37" t="s">
-        <x:v>27</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="J13" s="29"/>
       <x:c r="K13" s="29"/>
@@ -3624,19 +3647,19 @@
       <x:c r="A14" s="84"/>
       <x:c r="B14" s="78"/>
       <x:c r="C14" s="75" t="s">
-        <x:v>116</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D14" s="75" t="s">
-        <x:v>144</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E14" s="37" t="s">
-        <x:v>81</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="F14" s="37"/>
       <x:c r="G14" s="37"/>
       <x:c r="H14" s="37"/>
       <x:c r="I14" s="37" t="s">
-        <x:v>52</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="J14" s="29"/>
       <x:c r="K14" s="29"/>
@@ -3664,13 +3687,13 @@
       <x:c r="C15" s="81"/>
       <x:c r="D15" s="81"/>
       <x:c r="E15" s="37" t="s">
-        <x:v>129</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F15" s="37"/>
       <x:c r="G15" s="37"/>
       <x:c r="H15" s="37"/>
       <x:c r="I15" s="37" t="s">
-        <x:v>113</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="J15" s="29"/>
       <x:c r="K15" s="29"/>
@@ -3698,7 +3721,7 @@
       <x:c r="C16" s="81"/>
       <x:c r="D16" s="81"/>
       <x:c r="E16" s="37" t="s">
-        <x:v>118</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F16" s="37"/>
       <x:c r="G16" s="37"/>
@@ -3729,13 +3752,13 @@
       <x:c r="C17" s="81"/>
       <x:c r="D17" s="76"/>
       <x:c r="E17" s="37" t="s">
-        <x:v>147</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F17" s="37"/>
       <x:c r="G17" s="37"/>
       <x:c r="H17" s="37"/>
       <x:c r="I17" s="37" t="s">
-        <x:v>5</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="J17" s="29"/>
       <x:c r="K17" s="29"/>
@@ -3762,13 +3785,13 @@
       <x:c r="B18" s="78"/>
       <x:c r="C18" s="81"/>
       <x:c r="D18" s="37" t="s">
-        <x:v>202</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E18" s="37" t="s">
-        <x:v>200</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F18" s="37" t="s">
-        <x:v>119</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G18" s="37"/>
       <x:c r="H18" s="37"/>
@@ -3798,14 +3821,14 @@
       <x:c r="B19" s="78"/>
       <x:c r="C19" s="81"/>
       <x:c r="D19" s="37" t="s">
-        <x:v>46</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E19" s="37"/>
       <x:c r="F19" s="37"/>
       <x:c r="G19" s="37"/>
       <x:c r="H19" s="37"/>
       <x:c r="I19" s="75" t="s">
-        <x:v>216</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J19" s="29"/>
       <x:c r="K19" s="29"/>
@@ -3832,7 +3855,7 @@
       <x:c r="B20" s="78"/>
       <x:c r="C20" s="81"/>
       <x:c r="D20" s="37" t="s">
-        <x:v>147</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E20" s="37"/>
       <x:c r="F20" s="37"/>
@@ -3864,7 +3887,7 @@
       <x:c r="B21" s="78"/>
       <x:c r="C21" s="81"/>
       <x:c r="D21" s="37" t="s">
-        <x:v>118</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E21" s="37"/>
       <x:c r="F21" s="37"/>
@@ -3896,7 +3919,7 @@
       <x:c r="B22" s="79"/>
       <x:c r="C22" s="76"/>
       <x:c r="D22" s="37" t="s">
-        <x:v>214</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E22" s="37"/>
       <x:c r="F22" s="37"/>
@@ -3926,10 +3949,10 @@
     <x:row r="23" spans="1:28">
       <x:c r="A23" s="84"/>
       <x:c r="B23" s="82" t="s">
-        <x:v>149</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C23" s="37" t="s">
-        <x:v>209</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D23" s="37"/>
       <x:c r="E23" s="37"/>
@@ -3961,7 +3984,7 @@
       <x:c r="A24" s="84"/>
       <x:c r="B24" s="78"/>
       <x:c r="C24" s="37" t="s">
-        <x:v>82</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="D24" s="37"/>
       <x:c r="E24" s="37"/>
@@ -3993,7 +4016,7 @@
       <x:c r="A25" s="84"/>
       <x:c r="B25" s="78"/>
       <x:c r="C25" s="37" t="s">
-        <x:v>68</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D25" s="37"/>
       <x:c r="E25" s="37"/>
@@ -4025,13 +4048,13 @@
       <x:c r="A26" s="84"/>
       <x:c r="B26" s="78"/>
       <x:c r="C26" s="75" t="s">
-        <x:v>149</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D26" s="37" t="s">
-        <x:v>145</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E26" s="37" t="s">
-        <x:v>218</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F26" s="37"/>
       <x:c r="G26" s="37"/>
@@ -4121,13 +4144,13 @@
       <x:c r="B27" s="82"/>
       <x:c r="C27" s="81"/>
       <x:c r="D27" s="75" t="s">
-        <x:v>48</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E27" s="37" t="s">
-        <x:v>104</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="F27" s="37" t="s">
-        <x:v>192</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G27" s="37"/>
       <x:c r="H27" s="37"/>
@@ -4217,10 +4240,10 @@
       <x:c r="C28" s="81"/>
       <x:c r="D28" s="76"/>
       <x:c r="E28" s="37" t="s">
-        <x:v>109</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="F28" s="37" t="s">
-        <x:v>192</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G28" s="37"/>
       <x:c r="H28" s="37"/>
@@ -4309,10 +4332,10 @@
       <x:c r="B29" s="78"/>
       <x:c r="C29" s="81"/>
       <x:c r="D29" s="37" t="s">
-        <x:v>141</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E29" s="39" t="s">
-        <x:v>172</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F29" s="39"/>
       <x:c r="G29" s="37"/>
@@ -4402,10 +4425,10 @@
       <x:c r="B30" s="78"/>
       <x:c r="C30" s="81"/>
       <x:c r="D30" s="37" t="s">
-        <x:v>132</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E30" s="37" t="s">
-        <x:v>54</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="F30" s="37"/>
       <x:c r="G30" s="37"/>
@@ -4586,10 +4609,10 @@
       <x:c r="B32" s="78"/>
       <x:c r="C32" s="81"/>
       <x:c r="D32" s="37" t="s">
-        <x:v>134</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E32" s="37" t="s">
-        <x:v>151</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F32" s="37"/>
       <x:c r="G32" s="37"/>
@@ -4679,7 +4702,7 @@
       <x:c r="B33" s="78"/>
       <x:c r="C33" s="76"/>
       <x:c r="D33" s="37" t="s">
-        <x:v>150</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E33" s="37"/>
       <x:c r="F33" s="37"/>
@@ -4769,10 +4792,10 @@
       <x:c r="A34" s="83"/>
       <x:c r="B34" s="82"/>
       <x:c r="C34" s="75" t="s">
-        <x:v>111</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D34" s="37" t="s">
-        <x:v>105</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E34" s="37"/>
       <x:c r="F34" s="37"/>
@@ -4863,7 +4886,7 @@
       <x:c r="B35" s="78"/>
       <x:c r="C35" s="81"/>
       <x:c r="D35" s="37" t="s">
-        <x:v>53</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E35" s="37"/>
       <x:c r="F35" s="37"/>
@@ -4954,7 +4977,7 @@
       <x:c r="B36" s="78"/>
       <x:c r="C36" s="81"/>
       <x:c r="D36" s="37" t="s">
-        <x:v>60</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E36" s="37"/>
       <x:c r="F36" s="37"/>
@@ -5045,7 +5068,7 @@
       <x:c r="B37" s="78"/>
       <x:c r="C37" s="81"/>
       <x:c r="D37" s="37" t="s">
-        <x:v>45</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E37" s="37"/>
       <x:c r="F37" s="37"/>
@@ -5136,7 +5159,7 @@
       <x:c r="B38" s="78"/>
       <x:c r="C38" s="81"/>
       <x:c r="D38" s="37" t="s">
-        <x:v>157</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E38" s="37"/>
       <x:c r="F38" s="37"/>
@@ -5227,7 +5250,7 @@
       <x:c r="B39" s="82"/>
       <x:c r="C39" s="76"/>
       <x:c r="D39" s="37" t="s">
-        <x:v>173</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E39" s="37"/>
       <x:c r="F39" s="37"/>
@@ -5316,10 +5339,10 @@
     <x:row r="40" spans="1:87">
       <x:c r="A40" s="84"/>
       <x:c r="B40" s="82" t="s">
-        <x:v>89</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="C40" s="37" t="s">
-        <x:v>83</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D40" s="37"/>
       <x:c r="E40" s="37"/>
@@ -5410,7 +5433,7 @@
       <x:c r="A41" s="84"/>
       <x:c r="B41" s="78"/>
       <x:c r="C41" s="37" t="s">
-        <x:v>168</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D41" s="37"/>
       <x:c r="E41" s="37"/>
@@ -5501,7 +5524,7 @@
       <x:c r="A42" s="84"/>
       <x:c r="B42" s="78"/>
       <x:c r="C42" s="37" t="s">
-        <x:v>110</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D42" s="37"/>
       <x:c r="E42" s="37"/>
@@ -5592,7 +5615,7 @@
       <x:c r="A43" s="84"/>
       <x:c r="B43" s="78"/>
       <x:c r="C43" s="37" t="s">
-        <x:v>155</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D43" s="37"/>
       <x:c r="E43" s="37"/>
@@ -5683,7 +5706,7 @@
       <x:c r="A44" s="84"/>
       <x:c r="B44" s="78"/>
       <x:c r="C44" s="37" t="s">
-        <x:v>68</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D44" s="37"/>
       <x:c r="E44" s="37"/>
@@ -5774,7 +5797,7 @@
       <x:c r="A45" s="84"/>
       <x:c r="B45" s="79"/>
       <x:c r="C45" s="37" t="s">
-        <x:v>137</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D45" s="37"/>
       <x:c r="E45" s="37"/>
@@ -5864,10 +5887,10 @@
     <x:row r="46" spans="1:87">
       <x:c r="A46" s="84"/>
       <x:c r="B46" s="82" t="s">
-        <x:v>55</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="C46" s="37" t="s">
-        <x:v>84</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="D46" s="37"/>
       <x:c r="E46" s="37"/>
@@ -5958,7 +5981,7 @@
       <x:c r="A47" s="84"/>
       <x:c r="B47" s="78"/>
       <x:c r="C47" s="37" t="s">
-        <x:v>64</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D47" s="37"/>
       <x:c r="E47" s="37"/>
@@ -6049,7 +6072,7 @@
       <x:c r="A48" s="84"/>
       <x:c r="B48" s="78"/>
       <x:c r="C48" s="37" t="s">
-        <x:v>127</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D48" s="37"/>
       <x:c r="E48" s="37"/>
@@ -6140,7 +6163,7 @@
       <x:c r="A49" s="84"/>
       <x:c r="B49" s="79"/>
       <x:c r="C49" s="37" t="s">
-        <x:v>158</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D49" s="37"/>
       <x:c r="E49" s="37"/>
@@ -6230,13 +6253,13 @@
     <x:row r="50" spans="1:87">
       <x:c r="A50" s="84"/>
       <x:c r="B50" s="82" t="s">
-        <x:v>107</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C50" s="75" t="s">
-        <x:v>209</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D50" s="37" t="s">
-        <x:v>167</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E50" s="37"/>
       <x:c r="F50" s="37"/>
@@ -6327,7 +6350,7 @@
       <x:c r="B51" s="78"/>
       <x:c r="C51" s="76"/>
       <x:c r="D51" s="37" t="s">
-        <x:v>143</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E51" s="37"/>
       <x:c r="F51" s="37"/>
@@ -6417,10 +6440,10 @@
       <x:c r="A52" s="84"/>
       <x:c r="B52" s="78"/>
       <x:c r="C52" s="75" t="s">
-        <x:v>51</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D52" s="37" t="s">
-        <x:v>206</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E52" s="37"/>
       <x:c r="F52" s="37"/>
@@ -6511,7 +6534,7 @@
       <x:c r="B53" s="78"/>
       <x:c r="C53" s="76"/>
       <x:c r="D53" s="37" t="s">
-        <x:v>204</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E53" s="37"/>
       <x:c r="F53" s="37"/>
@@ -6601,10 +6624,10 @@
       <x:c r="A54" s="84"/>
       <x:c r="B54" s="78"/>
       <x:c r="C54" s="75" t="s">
-        <x:v>197</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D54" s="37" t="s">
-        <x:v>208</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E54" s="37"/>
       <x:c r="F54" s="37"/>
@@ -6695,7 +6718,7 @@
       <x:c r="B55" s="78"/>
       <x:c r="C55" s="81"/>
       <x:c r="D55" s="37" t="s">
-        <x:v>194</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E55" s="37"/>
       <x:c r="F55" s="37"/>
@@ -6786,7 +6809,7 @@
       <x:c r="B56" s="78"/>
       <x:c r="C56" s="76"/>
       <x:c r="D56" s="37" t="s">
-        <x:v>23</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="E56" s="37"/>
       <x:c r="F56" s="37"/>
@@ -6876,10 +6899,10 @@
       <x:c r="A57" s="84"/>
       <x:c r="B57" s="78"/>
       <x:c r="C57" s="75" t="s">
-        <x:v>165</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D57" s="37" t="s">
-        <x:v>29</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="E57" s="37"/>
       <x:c r="F57" s="37"/>
@@ -6970,7 +6993,7 @@
       <x:c r="B58" s="78"/>
       <x:c r="C58" s="76"/>
       <x:c r="D58" s="37" t="s">
-        <x:v>210</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E58" s="37"/>
       <x:c r="F58" s="37"/>
@@ -7060,10 +7083,10 @@
       <x:c r="A59" s="84"/>
       <x:c r="B59" s="78"/>
       <x:c r="C59" s="75" t="s">
-        <x:v>199</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D59" s="37" t="s">
-        <x:v>31</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="E59" s="37"/>
       <x:c r="F59" s="37"/>
@@ -7154,7 +7177,7 @@
       <x:c r="B60" s="78"/>
       <x:c r="C60" s="76"/>
       <x:c r="D60" s="37" t="s">
-        <x:v>25</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="E60" s="37"/>
       <x:c r="F60" s="37"/>
@@ -7244,10 +7267,10 @@
       <x:c r="A61" s="84"/>
       <x:c r="B61" s="78"/>
       <x:c r="C61" s="75" t="s">
-        <x:v>138</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D61" s="37" t="s">
-        <x:v>74</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E61" s="37"/>
       <x:c r="F61" s="37"/>
@@ -7338,7 +7361,7 @@
       <x:c r="B62" s="79"/>
       <x:c r="C62" s="76"/>
       <x:c r="D62" s="37" t="s">
-        <x:v>170</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E62" s="37"/>
       <x:c r="F62" s="37"/>
@@ -9364,7 +9387,7 @@
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" activeCell="H23" activeCellId="0" sqref="H23:H23"/>
+      <x:selection pane="bottomLeft" activeCell="D31" activeCellId="0" sqref="D31:D31"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -9380,50 +9403,50 @@
   <x:sheetData>
     <x:row r="1" spans="1:8" ht="17.149999999999999">
       <x:c r="A1" s="32" t="s">
-        <x:v>198</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B1" s="33" t="s">
-        <x:v>108</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C1" s="34" t="s">
-        <x:v>117</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D1" s="34" t="s">
-        <x:v>106</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E1" s="34" t="s">
-        <x:v>159</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F1" s="34" t="s">
-        <x:v>125</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G1" s="34" t="s">
-        <x:v>88</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="H1" s="35" t="s">
-        <x:v>67</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8" ht="16.75" customHeight="1">
       <x:c r="A2" s="83" t="s">
-        <x:v>114</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B2" s="77" t="s">
-        <x:v>121</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C2" s="90" t="s">
-        <x:v>131</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D2" s="88" t="s">
-        <x:v>144</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E2" s="61" t="s">
-        <x:v>222</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F2" s="61"/>
       <x:c r="G2" s="61"/>
       <x:c r="H2" s="61" t="s">
-        <x:v>22</x:v>
+        <x:v>240</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -9432,12 +9455,12 @@
       <x:c r="C3" s="91"/>
       <x:c r="D3" s="89"/>
       <x:c r="E3" s="62" t="s">
-        <x:v>162</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="F3" s="62"/>
       <x:c r="G3" s="62"/>
       <x:c r="H3" s="62" t="s">
-        <x:v>166</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -9446,12 +9469,12 @@
       <x:c r="C4" s="91"/>
       <x:c r="D4" s="87"/>
       <x:c r="E4" s="62" t="s">
-        <x:v>148</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F4" s="62"/>
       <x:c r="G4" s="62"/>
       <x:c r="H4" s="62" t="s">
-        <x:v>26</x:v>
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
@@ -9459,15 +9482,15 @@
       <x:c r="B5" s="78"/>
       <x:c r="C5" s="91"/>
       <x:c r="D5" s="86" t="s">
-        <x:v>161</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E5" s="63" t="s">
-        <x:v>98</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="F5" s="62"/>
       <x:c r="G5" s="62"/>
       <x:c r="H5" s="62" t="s">
-        <x:v>243</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
@@ -9476,28 +9499,28 @@
       <x:c r="C6" s="92"/>
       <x:c r="D6" s="87"/>
       <x:c r="E6" s="63" t="s">
-        <x:v>50</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="F6" s="62"/>
       <x:c r="G6" s="62"/>
       <x:c r="H6" s="62" t="s">
-        <x:v>93</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="84"/>
       <x:c r="B7" s="78"/>
       <x:c r="C7" s="94" t="s">
-        <x:v>97</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D7" s="86" t="s">
-        <x:v>94</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E7" s="86" t="s">
-        <x:v>144</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F7" s="62" t="s">
-        <x:v>81</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="G7" s="62"/>
       <x:c r="H7" s="62"/>
@@ -9509,7 +9532,7 @@
       <x:c r="D8" s="89"/>
       <x:c r="E8" s="89"/>
       <x:c r="F8" s="62" t="s">
-        <x:v>223</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G8" s="62"/>
       <x:c r="H8" s="62"/>
@@ -9521,7 +9544,7 @@
       <x:c r="D9" s="89"/>
       <x:c r="E9" s="89"/>
       <x:c r="F9" s="62" t="s">
-        <x:v>171</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="G9" s="62"/>
       <x:c r="H9" s="62"/>
@@ -9533,7 +9556,7 @@
       <x:c r="D10" s="89"/>
       <x:c r="E10" s="89"/>
       <x:c r="F10" s="62" t="s">
-        <x:v>46</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="G10" s="62"/>
       <x:c r="H10" s="62"/>
@@ -9545,7 +9568,7 @@
       <x:c r="D11" s="93"/>
       <x:c r="E11" s="93"/>
       <x:c r="F11" s="65" t="s">
-        <x:v>160</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="G11" s="65"/>
       <x:c r="H11" s="65"/>
@@ -9553,16 +9576,16 @@
     <x:row r="12" spans="1:8">
       <x:c r="A12" s="84"/>
       <x:c r="B12" s="78" t="s">
-        <x:v>87</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="C12" s="91" t="s">
-        <x:v>102</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D12" s="61" t="s">
-        <x:v>48</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E12" s="89" t="s">
-        <x:v>24</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="F12" s="61"/>
       <x:c r="G12" s="61"/>
@@ -9573,7 +9596,7 @@
       <x:c r="B13" s="78"/>
       <x:c r="C13" s="91"/>
       <x:c r="D13" s="63" t="s">
-        <x:v>145</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E13" s="89"/>
       <x:c r="F13" s="62"/>
@@ -9585,7 +9608,7 @@
       <x:c r="B14" s="78"/>
       <x:c r="C14" s="91"/>
       <x:c r="D14" s="63" t="s">
-        <x:v>156</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E14" s="89"/>
       <x:c r="F14" s="62"/>
@@ -9597,7 +9620,7 @@
       <x:c r="B15" s="78"/>
       <x:c r="C15" s="92"/>
       <x:c r="D15" s="63" t="s">
-        <x:v>173</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E15" s="87"/>
       <x:c r="F15" s="62"/>
@@ -9608,20 +9631,20 @@
       <x:c r="A16" s="84"/>
       <x:c r="B16" s="78"/>
       <x:c r="C16" s="94" t="s">
-        <x:v>122</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D16" s="63" t="s">
-        <x:v>112</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="E16" s="86" t="s">
-        <x:v>209</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F16" s="62" t="s">
-        <x:v>167</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="G16" s="62"/>
       <x:c r="H16" s="86" t="s">
-        <x:v>4</x:v>
+        <x:v>246</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -9629,11 +9652,11 @@
       <x:c r="B17" s="78"/>
       <x:c r="C17" s="92"/>
       <x:c r="D17" s="62" t="s">
-        <x:v>61</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E17" s="87"/>
       <x:c r="F17" s="62" t="s">
-        <x:v>143</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="G17" s="62"/>
       <x:c r="H17" s="87"/>
@@ -9642,26 +9665,26 @@
       <x:c r="A18" s="84"/>
       <x:c r="B18" s="95"/>
       <x:c r="C18" s="66" t="s">
-        <x:v>123</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D18" s="65"/>
       <x:c r="E18" s="65"/>
       <x:c r="F18" s="65"/>
       <x:c r="G18" s="65"/>
       <x:c r="H18" s="65" t="s">
-        <x:v>21</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="84"/>
       <x:c r="B19" s="78" t="s">
-        <x:v>221</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C19" s="91" t="s">
-        <x:v>89</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D19" s="61" t="s">
-        <x:v>83</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E19" s="61"/>
       <x:c r="F19" s="61"/>
@@ -9673,7 +9696,7 @@
       <x:c r="B20" s="78"/>
       <x:c r="C20" s="91"/>
       <x:c r="D20" s="62" t="s">
-        <x:v>47</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E20" s="62"/>
       <x:c r="F20" s="62"/>
@@ -9685,7 +9708,7 @@
       <x:c r="B21" s="78"/>
       <x:c r="C21" s="91"/>
       <x:c r="D21" s="62" t="s">
-        <x:v>110</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E21" s="62"/>
       <x:c r="F21" s="62"/>
@@ -9697,7 +9720,7 @@
       <x:c r="B22" s="78"/>
       <x:c r="C22" s="91"/>
       <x:c r="D22" s="62" t="s">
-        <x:v>68</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E22" s="62"/>
       <x:c r="F22" s="62"/>
@@ -9709,7 +9732,7 @@
       <x:c r="B23" s="78"/>
       <x:c r="C23" s="92"/>
       <x:c r="D23" s="62" t="s">
-        <x:v>137</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E23" s="62"/>
       <x:c r="F23" s="62"/>
@@ -9720,13 +9743,13 @@
       <x:c r="A24" s="83"/>
       <x:c r="B24" s="82"/>
       <x:c r="C24" s="94" t="s">
-        <x:v>155</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D24" s="86" t="s">
-        <x:v>62</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E24" s="62" t="s">
-        <x:v>76</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="F24" s="62"/>
       <x:c r="G24" s="62"/>
@@ -9738,7 +9761,7 @@
       <x:c r="C25" s="91"/>
       <x:c r="D25" s="87"/>
       <x:c r="E25" s="62" t="s">
-        <x:v>77</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="F25" s="62"/>
       <x:c r="G25" s="62"/>
@@ -9749,10 +9772,10 @@
       <x:c r="B26" s="82"/>
       <x:c r="C26" s="91"/>
       <x:c r="D26" s="86" t="s">
-        <x:v>85</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E26" s="62" t="s">
-        <x:v>58</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="F26" s="62"/>
       <x:c r="G26" s="62"/>
@@ -9764,7 +9787,7 @@
       <x:c r="C27" s="91"/>
       <x:c r="D27" s="89"/>
       <x:c r="E27" s="62" t="s">
-        <x:v>79</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F27" s="62"/>
       <x:c r="G27" s="62"/>
@@ -9776,7 +9799,7 @@
       <x:c r="C28" s="91"/>
       <x:c r="D28" s="89"/>
       <x:c r="E28" s="62" t="s">
-        <x:v>80</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="F28" s="62"/>
       <x:c r="G28" s="62"/>
@@ -9788,7 +9811,7 @@
       <x:c r="C29" s="96"/>
       <x:c r="D29" s="93"/>
       <x:c r="E29" s="65" t="s">
-        <x:v>71</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="F29" s="65"/>
       <x:c r="G29" s="65"/>
@@ -9797,10 +9820,10 @@
     <x:row r="30" spans="1:8">
       <x:c r="A30" s="84"/>
       <x:c r="B30" s="78" t="s">
-        <x:v>55</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="C30" s="67" t="s">
-        <x:v>84</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="D30" s="61"/>
       <x:c r="E30" s="61"/>
@@ -9812,7 +9835,7 @@
       <x:c r="A31" s="84"/>
       <x:c r="B31" s="78"/>
       <x:c r="C31" s="58" t="s">
-        <x:v>64</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D31" s="62"/>
       <x:c r="E31" s="62"/>
@@ -9824,7 +9847,7 @@
       <x:c r="A32" s="84"/>
       <x:c r="B32" s="78"/>
       <x:c r="C32" s="58" t="s">
-        <x:v>127</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D32" s="62"/>
       <x:c r="E32" s="62"/>
@@ -9836,7 +9859,7 @@
       <x:c r="A33" s="84"/>
       <x:c r="B33" s="95"/>
       <x:c r="C33" s="68" t="s">
-        <x:v>158</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D33" s="65"/>
       <x:c r="E33" s="65"/>
@@ -9847,10 +9870,10 @@
     <x:row r="34" spans="1:8">
       <x:c r="A34" s="84"/>
       <x:c r="B34" s="78" t="s">
-        <x:v>153</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C34" s="67" t="s">
-        <x:v>224</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D34" s="61"/>
       <x:c r="E34" s="61"/>
@@ -9862,10 +9885,10 @@
       <x:c r="A35" s="84"/>
       <x:c r="B35" s="78"/>
       <x:c r="C35" s="94" t="s">
-        <x:v>138</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D35" s="62" t="s">
-        <x:v>74</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E35" s="62"/>
       <x:c r="F35" s="62"/>
@@ -9877,7 +9900,7 @@
       <x:c r="B36" s="78"/>
       <x:c r="C36" s="91"/>
       <x:c r="D36" s="62" t="s">
-        <x:v>170</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E36" s="62"/>
       <x:c r="F36" s="62"/>
@@ -9889,7 +9912,7 @@
       <x:c r="B37" s="95"/>
       <x:c r="C37" s="96"/>
       <x:c r="D37" s="65" t="s">
-        <x:v>219</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E37" s="65"/>
       <x:c r="F37" s="65"/>
@@ -10150,7 +10173,7 @@
     <x:mergeCell ref="C35:C37"/>
     <x:mergeCell ref="B34:B37"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -10213,34 +10236,34 @@
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="49"/>
       <x:c r="B2" s="36" t="s">
-        <x:v>49</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="C2" s="36" t="s">
-        <x:v>190</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D2" s="36" t="s">
-        <x:v>126</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E2" s="36" t="s">
-        <x:v>152</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F2" s="36" t="s">
-        <x:v>67</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6" ht="16.75">
       <x:c r="A3" s="49"/>
       <x:c r="B3" s="77" t="s">
-        <x:v>99</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C3" s="80" t="s">
-        <x:v>164</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D3" s="80" t="s">
-        <x:v>163</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E3" s="50" t="s">
-        <x:v>185</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F3" s="69"/>
     </x:row>
@@ -10250,7 +10273,7 @@
       <x:c r="C4" s="81"/>
       <x:c r="D4" s="81"/>
       <x:c r="E4" s="51" t="s">
-        <x:v>3</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="F4" s="70"/>
     </x:row>
@@ -10260,7 +10283,7 @@
       <x:c r="C5" s="81"/>
       <x:c r="D5" s="81"/>
       <x:c r="E5" s="51" t="s">
-        <x:v>179</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F5" s="70"/>
     </x:row>
@@ -10270,7 +10293,7 @@
       <x:c r="C6" s="81"/>
       <x:c r="D6" s="81"/>
       <x:c r="E6" s="51" t="s">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F6" s="70"/>
     </x:row>
@@ -10280,7 +10303,7 @@
       <x:c r="C7" s="81"/>
       <x:c r="D7" s="76"/>
       <x:c r="E7" s="52" t="s">
-        <x:v>182</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F7" s="70"/>
     </x:row>
@@ -10289,10 +10312,10 @@
       <x:c r="B8" s="78"/>
       <x:c r="C8" s="81"/>
       <x:c r="D8" s="75" t="s">
-        <x:v>44</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="E8" s="53" t="s">
-        <x:v>183</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F8" s="70"/>
     </x:row>
@@ -10302,7 +10325,7 @@
       <x:c r="C9" s="81"/>
       <x:c r="D9" s="81"/>
       <x:c r="E9" s="51" t="s">
-        <x:v>231</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="F9" s="70"/>
     </x:row>
@@ -10312,7 +10335,7 @@
       <x:c r="C10" s="81"/>
       <x:c r="D10" s="76"/>
       <x:c r="E10" s="54" t="s">
-        <x:v>180</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="F10" s="70"/>
     </x:row>
@@ -10321,10 +10344,10 @@
       <x:c r="B11" s="78"/>
       <x:c r="C11" s="81"/>
       <x:c r="D11" s="75" t="s">
-        <x:v>75</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="E11" s="53" t="s">
-        <x:v>41</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F11" s="70"/>
     </x:row>
@@ -10334,7 +10357,7 @@
       <x:c r="C12" s="76"/>
       <x:c r="D12" s="76"/>
       <x:c r="E12" s="54" t="s">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F12" s="70"/>
     </x:row>
@@ -10342,13 +10365,13 @@
       <x:c r="A13" s="49"/>
       <x:c r="B13" s="78"/>
       <x:c r="C13" s="75" t="s">
-        <x:v>220</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D13" s="75" t="s">
-        <x:v>89</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E13" s="53" t="s">
-        <x:v>240</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="F13" s="70"/>
     </x:row>
@@ -10358,7 +10381,7 @@
       <x:c r="C14" s="81"/>
       <x:c r="D14" s="81"/>
       <x:c r="E14" s="51" t="s">
-        <x:v>184</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F14" s="70"/>
     </x:row>
@@ -10368,7 +10391,7 @@
       <x:c r="C15" s="81"/>
       <x:c r="D15" s="81"/>
       <x:c r="E15" s="51" t="s">
-        <x:v>232</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="F15" s="70"/>
     </x:row>
@@ -10378,7 +10401,7 @@
       <x:c r="C16" s="81"/>
       <x:c r="D16" s="76"/>
       <x:c r="E16" s="54" t="s">
-        <x:v>36</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="F16" s="70"/>
     </x:row>
@@ -10387,10 +10410,10 @@
       <x:c r="B17" s="78"/>
       <x:c r="C17" s="81"/>
       <x:c r="D17" s="75" t="s">
-        <x:v>78</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E17" s="53" t="s">
-        <x:v>228</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="F17" s="70"/>
     </x:row>
@@ -10400,7 +10423,7 @@
       <x:c r="C18" s="76"/>
       <x:c r="D18" s="76"/>
       <x:c r="E18" s="52" t="s">
-        <x:v>238</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F18" s="70"/>
     </x:row>
@@ -10408,13 +10431,13 @@
       <x:c r="A19" s="49"/>
       <x:c r="B19" s="78"/>
       <x:c r="C19" s="75" t="s">
-        <x:v>65</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D19" s="75" t="s">
-        <x:v>91</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E19" s="53" t="s">
-        <x:v>246</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="F19" s="70"/>
     </x:row>
@@ -10424,7 +10447,7 @@
       <x:c r="C20" s="81"/>
       <x:c r="D20" s="76"/>
       <x:c r="E20" s="54" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F20" s="70"/>
     </x:row>
@@ -10433,10 +10456,10 @@
       <x:c r="B21" s="78"/>
       <x:c r="C21" s="81"/>
       <x:c r="D21" s="75" t="s">
-        <x:v>195</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E21" s="53" t="s">
-        <x:v>2</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="F21" s="70"/>
     </x:row>
@@ -10446,7 +10469,7 @@
       <x:c r="C22" s="81"/>
       <x:c r="D22" s="76"/>
       <x:c r="E22" s="54" t="s">
-        <x:v>40</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="F22" s="70"/>
     </x:row>
@@ -10455,10 +10478,10 @@
       <x:c r="B23" s="78"/>
       <x:c r="C23" s="81"/>
       <x:c r="D23" s="37" t="s">
-        <x:v>61</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E23" s="55" t="s">
-        <x:v>37</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="F23" s="70"/>
     </x:row>
@@ -10467,10 +10490,10 @@
       <x:c r="B24" s="78"/>
       <x:c r="C24" s="81"/>
       <x:c r="D24" s="75" t="s">
-        <x:v>215</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E24" s="53" t="s">
-        <x:v>92</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F24" s="70"/>
     </x:row>
@@ -10480,7 +10503,7 @@
       <x:c r="C25" s="81"/>
       <x:c r="D25" s="81"/>
       <x:c r="E25" s="51" t="s">
-        <x:v>38</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F25" s="70"/>
     </x:row>
@@ -10490,7 +10513,7 @@
       <x:c r="C26" s="81"/>
       <x:c r="D26" s="81"/>
       <x:c r="E26" s="51" t="s">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F26" s="70"/>
     </x:row>
@@ -10500,23 +10523,23 @@
       <x:c r="C27" s="99"/>
       <x:c r="D27" s="99"/>
       <x:c r="E27" s="56" t="s">
-        <x:v>234</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="F27" s="71"/>
     </x:row>
     <x:row r="28" spans="1:6" ht="16.75">
       <x:c r="A28" s="49"/>
       <x:c r="B28" s="77" t="s">
-        <x:v>124</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C28" s="72" t="s">
-        <x:v>101</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D28" s="72" t="s">
-        <x:v>73</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E28" s="73" t="s">
-        <x:v>235</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="F28" s="69"/>
     </x:row>
@@ -10524,13 +10547,13 @@
       <x:c r="A29" s="49"/>
       <x:c r="B29" s="78"/>
       <x:c r="C29" s="75" t="s">
-        <x:v>103</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D29" s="37" t="s">
-        <x:v>63</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="E29" s="55" t="s">
-        <x:v>39</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F29" s="70"/>
     </x:row>
@@ -10539,10 +10562,10 @@
       <x:c r="B30" s="78"/>
       <x:c r="C30" s="81"/>
       <x:c r="D30" s="75" t="s">
-        <x:v>72</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="E30" s="53" t="s">
-        <x:v>242</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="F30" s="70"/>
     </x:row>
@@ -10552,7 +10575,7 @@
       <x:c r="C31" s="81"/>
       <x:c r="D31" s="81"/>
       <x:c r="E31" s="51" t="s">
-        <x:v>34</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="F31" s="70"/>
     </x:row>
@@ -10562,7 +10585,7 @@
       <x:c r="C32" s="81"/>
       <x:c r="D32" s="81"/>
       <x:c r="E32" s="51" t="s">
-        <x:v>186</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F32" s="70"/>
     </x:row>
@@ -10572,19 +10595,19 @@
       <x:c r="C33" s="99"/>
       <x:c r="D33" s="99"/>
       <x:c r="E33" s="56" t="s">
-        <x:v>245</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="F33" s="71"/>
     </x:row>
     <x:row r="34" spans="1:6">
       <x:c r="A34" s="49"/>
       <x:c r="B34" s="78" t="s">
-        <x:v>100</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C34" s="81"/>
       <x:c r="D34" s="81"/>
       <x:c r="E34" s="51" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F34" s="70"/>
     </x:row>
@@ -10594,7 +10617,7 @@
       <x:c r="C35" s="99"/>
       <x:c r="D35" s="99"/>
       <x:c r="E35" s="56" t="s">
-        <x:v>247</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="F35" s="71"/>
     </x:row>
@@ -10669,7 +10692,7 @@
     <x:mergeCell ref="D34:D35"/>
     <x:mergeCell ref="C34:C35"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/2021_Summer/jp.hong/Datebook_jph.xlsx
+++ b/2021_Summer/jp.hong/Datebook_jph.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="10956" windowHeight="8568"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="8568"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Datebook" sheetId="1" r:id="rId4"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="249">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="252">
   <x:si>
     <x:t>1. 요구사항 분석 (실현성 확인)
 2. 데이터 흐름도 수정
@@ -33,49 +33,79 @@
  -&gt; 주유, 부품들의 수명정보(?) 어떻게 자동으로 받아올지 알아봐야함 -&gt; 블루투스 =&gt; 블루투스 연동 어떻게?</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 메뉴시퀀스 작성(login, join, 내 차고, 차량 정보) 미완
-2. 블루투스 관련 자료 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 현장실습 OT
- - 기업 소개 및 업무 설명
- - 앞으로 수행하게 될 프로젝트 설명
-2. 기존에 진행했던 캡스톤프로젝트 첨언
-3. 제품 개발 과정 설명
- - 제품 기획 
- - 개발 기획  
- - 개발 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 수집 및 정의
+    <x:t>1. 요구사항 정의 및 분석 - 체계화
+ - 기능 / 비기능적 요구사항 분류 및 수정
 2. 요구사항 분석
 3. 구현 가능 여부 확인</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 추가 자료조사
-2. 요구사항 추가 조사
-3. 경쟁 어플 기능 비교 보완</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호는 특수문자 포함 8자리 이상 12자리 이하 이어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소유한 차량이 여러 대일 경우 차량의 정보를 추가할 수 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주행 거리 정보를 받아 계산하여 남은 수명에 대해 알려 주어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. Git 목록 삭제
-2. 요구사항 분석
-3. 인터페이스 구상도 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 추가 자료조사(관련 코드)
-2. FlowChart 수정 및 보완</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어플의 예약기능을 통해 예약한 경우 업체로부터 일정 수수료를 받는다.</x:t>
+    <x:t>1. 06.22, 06.23 회의록 작성
+2. Git 환경 설정
+3. Git 설정 화면 캡처 및 보고서 작성
+4. 캡스톤 아이디어 도출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 수집 및 정의
+ - 관련 필요 자료 조사
+ - 기능적/ 비기능적 요구사항 내용 추가
+2. 개발에 필요한 요구사항 분석 (실현성 확인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 필요 자료 추가 조사
+2. 한계점 및 필요기술 추가
+ - 차량 블루투스와 어플 연결 어떻게?
+ - 연결이 된다면 원하는 정보만 어떻게 가져 올건지?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 화면 시퀀스 작성 (설명, 커뮤니티, 알림, 설정화면 추가)
+2. 추가 자료 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 예약을 하는 과정에서 사용자가 선택한 지점과 선택된 지점의 정보가 일치해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알맞은 ID값과 패스워드 값이 입력 될 경우 그에 맞는 회원 정보가 로그인 되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판의 글을 삭제하거나 올리기 위한 '글쓰기'버튼과 '글 삭제' 버튼이 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 가입시 아이디, 비밀번호, 이름, 전화번호, 생년월일, 차종의 정보를 받아야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. DateBook_Comment 부분 수정
+2. GIT보고서 수정
+ - 설치 과정 추가
+ - 명령어 부분 내용 추가
+3. PPT 머릿글 요약 작성 - (미완)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 경쟁 어플 메뉴트리 수정
+2. 요구사항, 기능정의 순서 수정
+3. 한계점 수정
+블루투스 -&gt; 사진 촬영 ====&gt; 대체하게 되면 글자 인식하는 코드 필요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+ - 컴퓨터 견적 추천 앱
+ - 주차시 사고발생 알림 앱
+2. 주제 아이디어 최종 선정
+ - 차량 관리 어플
+3. 개발 계획서 및 요구사항 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 진행사항 체크 및 2주차 목표 설정
+2. 06.28 회의록 작성
+3. 상용화 된 타 앱 기능 분석
+4. 요구사항 정의
+ - 회원가입, DB, 무결성 (미완)
+5. vi사용법 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 07.02 회의록 작성
+2. Git 업로드 한 것 중 중복된 것들 삭제
+3. 어플 흐름 구상도 작성
+4. 요구사항/기능 정의/기능 설계 3가지 부분으로 나누어 요구사항 수정(미완)</x:t>
   </x:si>
   <x:si>
     <x:t>1. 실습 환경 설정 및 설명
@@ -89,12 +119,6 @@
  - 차량 관리 어플</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 필요 자료 추가 조사
-2. 한계점 및 필요기술 추가
- - 차량 블루투스와 어플 연결 어떻게?
- - 연결이 된다면 원하는 정보만 어떻게 가져 올건지?</x:t>
-  </x:si>
-  <x:si>
     <x:t>1-1. Datebook Comment 부분 요약
 1-2. GIT 보고서 다시 작성
 1-3. PPT 머릿글 요약 작성
@@ -103,25 +127,45 @@
 2. 요구사항 수집 및 분석</x:t>
   </x:si>
   <x:si>
-    <x:t>1. DateBook_Comment 부분 수정
-2. GIT보고서 수정
- - 설치 과정 추가
- - 명령어 부분 내용 추가
-3. PPT 머릿글 요약 작성 - (미완)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
- - 컴퓨터 견적 추천 앱
- - 주차시 사고발생 알림 앱
-2. 주제 아이디어 최종 선정
- - 차량 관리 어플
-3. 개발 계획서 및 요구사항 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 경쟁 어플 메뉴트리 수정
-2. 요구사항, 기능정의 순서 수정
-3. 한계점 수정
-블루투스 -&gt; 사진 촬영 ====&gt; 대체하게 되면 글자 인식하는 코드 필요</x:t>
+    <x:t>1. 현장실습 OT
+ - 기업 소개 및 업무 설명
+ - 앞으로 수행하게 될 프로젝트 설명
+2. 기존에 진행했던 캡스톤프로젝트 첨언
+3. 제품 개발 과정 설명
+ - 제품 기획 
+ - 개발 기획  
+ - 개발 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Git 목록 삭제
+2. 요구사항 분석
+3. 인터페이스 구상도 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성 (미완)
+2. 스피너 및 캘린더 뷰 다이어리 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 추가 자료조사(관련 코드)
+2. FlowChart 수정 및 보완</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어플의 예약기능을 통해 예약한 경우 업체로부터 일정 수수료를 받는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호는 특수문자 포함 8자리 이상 12자리 이하 이어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주행 거리 정보를 받아 계산하여 남은 수명에 대해 알려 주어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소유한 차량이 여러 대일 경우 차량의 정보를 추가할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. (2-2) 수익적 요소 추가
+2. (4-1) 기능정의 추가
+3. 추가 자료 조사
+ - 비슷한 어플(마이클) 화면 구성 조사</x:t>
   </x:si>
   <x:si>
     <x:t>1. 계획하고 있는 어플의 메뉴트리 작성 및 ppt 수정
@@ -133,54 +177,425 @@
 3. Menu_Tree 도식화 수정</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 06.22, 06.23 회의록 작성
-2. Git 환경 설정
-3. Git 설정 화면 캡처 및 보고서 작성
-4. 캡스톤 아이디어 도출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 정의 및 분석 - 체계화
- - 기능 / 비기능적 요구사항 분류 및 수정
-2. 요구사항 분석
-3. 구현 가능 여부 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 07.02 회의록 작성
-2. Git 업로드 한 것 중 중복된 것들 삭제
-3. 어플 흐름 구상도 작성
-4. 요구사항/기능 정의/기능 설계 3가지 부분으로 나누어 요구사항 수정(미완)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 진행사항 체크 및 2주차 목표 설정
-2. 06.28 회의록 작성
-3. 상용화 된 타 앱 기능 분석
-4. 요구사항 정의
- - 회원가입, DB, 무결성 (미완)
-5. vi사용법 설명</x:t>
-  </x:si>
-  <x:si>
     <x:t>1. 앱 화면별 Sequence 작성
 2. 앱 화면별 어떻게 구성할 것인지 구상
 3. 추가 자료조사</x:t>
   </x:si>
   <x:si>
-    <x:t>알맞은 ID값과 패스워드 값이 입력 될 경우 그에 맞는 회원 정보가 로그인 되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판의 글을 삭제하거나 올리기 위한 '글쓰기'버튼과 '글 삭제' 버튼이 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 가입시 아이디, 비밀번호, 이름, 전화번호, 생년월일, 차종의 정보를 받아야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 예약을 하는 과정에서 사용자가 선택한 지점과 선택된 지점의 정보가 일치해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 화면 시퀀스 작성 (설명, 커뮤니티, 알림, 설정화면 추가)
-2. 추가 자료 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중복되는 아이디로 가입시도시 아이디 입력 오류 메세지가 출력되어야 한다.</x:t>
+    <x:t>1. vi 명령어 설명서 작성
+2. 요구사항 정의 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 날짜를 기록할 수 있도록 다이어리 형식으로 제공해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록된 사용자만이 자신이 등록한 차량의 정보를 확인해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택 된 부품은 값의 변조 없이 알맞은 값이 저장되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외부에서 받아오는 정보(지도, 가격 등)에 변조가 없어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유, 연비, 운행거리, 정비 및 기타비용 총액/월별 지출액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정 기능을 통해 작성했던 글을 수정 할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사라지거나 위치가 바뀐 정보를 수시로 업데이트 해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품의 종류를 다르게 하여 여러가지를 선택 할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입시 필요한 정보 및 소유한 차량의 정보를 포함해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+2. 최종 아이디어 선정
+3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06_30 회의록 작성
+2. 요구사항 수정 및 관련 필요 자료 조사
+3. 15:00 ~ 지도교수 면담</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 화면을 들어가게 되면 아이디와 비밀번호의 입력 창, 회원가입 버튼과
+로그인 버튼이 나와야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성(login, join, 내 차고, 차량 정보) 미완
+2. 블루투스 관련 자료 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검내역서(정비소 제공 문서)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주행 거리별 check list</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 정보(오너들의 평균 정보)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교체할 부품을 선택 받아야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입을 위해 시도한 비밀번호가 7자리 이하이거나 13자리 이상일 경우
+비밀번호 입력 오류 메세지가 출력되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경기/인천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오너들의 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수리견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>견적 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객상담</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이클 이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신 글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기록 및 통계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오늘 교체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균연비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연차, 보험료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tips</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공유게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>더 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 방문 장소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 검사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자차 게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>함수의 계산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALL*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공식 서비스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이어리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 주변 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수익적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약 교체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험사 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비기능적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메모 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 시기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결함/리콜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에어컨필터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균 연비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첫예약할인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카카오톡 문의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>setting</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 후기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모두의 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엔진오일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 시세</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필요 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일정 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차 정보 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Home</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연비 랭킹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모아보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용 가이드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에어컨 필터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>디테일링</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타이어샵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타 항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 구매</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Community</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:23
+15:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 장착점 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운전자 추천 서비스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:27
+18:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비소 지도 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:36
+18:07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:27
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 보험료 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:25
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 정보 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운전자 보험료 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:22
+18:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진행 방향 ---&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:40
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스 (메뉴)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:43
+18:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:32
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 정보 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 기본 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 형태로 존재</x:t>
+  </x:si>
+  <x:si>
+    <x:t>community</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고장사례(리콜사례)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 판매견적 받기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자주 하는 질문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 정비소 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유사 모델 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품 교체 예상 견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약/견적 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험료 계산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:30
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:43
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰 보유 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09:00
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성</x:t>
   </x:si>
   <x:si>
     <x:t>1. vi 명령어 설명서 작성 완료
@@ -189,631 +604,8 @@
  - 비기능적 요구사항</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 06_30 회의록 작성
-2. 요구사항 수정 및 관련 필요 자료 조사
-3. 15:00 ~ 지도교수 면담</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
-2. 최종 아이디어 선정
-3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 화면을 들어가게 되면 아이디와 비밀번호의 입력 창, 회원가입 버튼과
-로그인 버튼이 나와야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입을 위해 시도한 비밀번호가 7자리 이하이거나 13자리 이상일 경우
-비밀번호 입력 오류 메세지가 출력되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. vi 명령어 설명서 작성
-2. 요구사항 정의 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택 된 부품은 값의 변조 없이 알맞은 값이 저장되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:43
-18:01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점검내역서(정비소 제공 문서)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교체할 부품을 선택 받아야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주행 거리별 check list</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 정보(오너들의 평균 정보)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. (2-2) 수익적 요소 추가
-2. (4-1) 기능정의 추가
-3. 추가 자료 조사
- - 비슷한 어플(마이클) 화면 구성 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 수집 및 정의
- - 관련 필요 자료 조사
- - 기능적/ 비기능적 요구사항 내용 추가
-2. 개발에 필요한 요구사항 분석 (실현성 확인)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:32
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 정보 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 기본 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 보험 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>community</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고장사례(리콜사례)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자주 하는 질문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 판매견적 받기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 형태로 존재</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 정비소 예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유사 모델 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품 교체 예상 견적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Community</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 정보 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:40
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운전자 추천 서비스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:22
-18:01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운전자 보험료 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:23
-15:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:27
-18:05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진행 방향 ---&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:27
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스 (메뉴)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 장착점 예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비소 지도 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:36
-18:07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 보험료 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:25
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약/견적 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 보험료 계산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:30
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:43
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰 보유 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09:00
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:32
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>할인 쿠폰 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 연동 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 보험 선호도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친구 초대 이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필요 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 시기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차 정보 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일정 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균 연비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 후기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Home</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비기능적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연비 랭킹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험사 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모두의 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모아보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메모 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 시세</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결함/리콜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에어컨필터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엔진오일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첫예약할인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 항목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카카오톡 문의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>setting</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 구매</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타 항목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용 가이드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에어컨 필터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>디테일링</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타이어샵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수리견적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tips</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 방문 장소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공유게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경기/인천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>견적 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객상담</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연차, 보험료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균연비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이클 이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 검사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신 글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기록 및 통계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자차 게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>함수의 계산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALL*</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오늘 교체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>더 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오너들의 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Menu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공식 서비스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약 교체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수익적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 주변 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이어리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정 기능을 통해 작성했던 글을 수정 할 수 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품의 종류를 다르게 하여 여러가지를 선택 할 수 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 날짜를 기록할 수 있도록 다이어리 형식으로 제공해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록된 사용자만이 자신이 등록한 차량의 정보를 확인해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유, 연비, 운행거리, 정비 및 기타비용 총액/월별 지출액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외부에서 받아오는 정보(지도, 가격 등)에 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입시 필요한 정보 및 소유한 차량의 정보를 포함해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사라지거나 위치가 바뀐 정보를 수시로 업데이트 해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Q&amp;A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장마철</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>만족도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상황별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이클</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가을</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채팅창</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보안성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>편집</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점검</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>겨울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무결성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>달력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭설철</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>봄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인기글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계절별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타이어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>손세차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리뷰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DB에 저장된 내용들은 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유량, 연비, 운행 거리 및 기타 비용 통계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 계약서 작성
-2. 현장실습 오리엔테이션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어플 내 광고를 통해 일정 수입료를 받는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>APP종료시 입력된 데이터는 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판을 이용하기 위해서는 로그인을 해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이콘을 활용하여 한 눈에 확인하기 쉬워야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채팅방 및 게시판에 들어가기 위해서는 로그인을 해야한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06.28 회의록 작성
-2. 요구사항 정의 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 정의 및 분석 보완
-2. 기능정의 보완</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. Menu_Tree 수정(완료)
-2. 추가 자료 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>할인률, 총액의 계산 과정에 오류가 있어선 안된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판의 글들은 페이지당 20개씩 보여주어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품들의 시세변동을 지속적으로 업데이트 해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 실패시 로그인 오류 메세지를 출력해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험, 범칙금, 주차요금, 톨게이트 비용, 차량용품 등</x:t>
+    <x:t>1. 메뉴시퀀스 작성(설명,컨테이너등 정보 채우기)
+2. 기능플로우 작성</x:t>
   </x:si>
   <x:si>
     <x:t>1. 인터페이스 구상도 작성
@@ -821,60 +613,279 @@
 3. 추가 자료조사</x:t>
   </x:si>
   <x:si>
+    <x:t>1. 요구사항 수집 및 정의
+2. 요구사항 분석
+3. 구현 가능 여부 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 추가 자료조사
+2. 요구사항 추가 조사
+3. 경쟁 어플 기능 비교 보완</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중복되는 아이디로 가입시도시 아이디 입력 오류 메세지가 출력되어야 한다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>로그인에 성공했다면 로그인 버튼이 아닌 로그 아웃 버튼을 보여주어야 한다.</x:t>
   </x:si>
   <x:si>
+    <x:t>데이터 연동 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친구 초대 이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:32
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험 선호도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>할인 쿠폰 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가을</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장마철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>만족도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이클</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Q&amp;A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상황별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭설철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채팅창</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타이어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>달력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>봄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>편집</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보안성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인기글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>손세차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리뷰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>겨울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계절별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무결성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방문 정비소 기록, 메모</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차종, 차번호, 연식 등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>항목 및 정비 주기 추가</x:t>
+  </x:si>
+  <x:si>
     <x:t>이달의 정비/세차 혜택</x:t>
   </x:si>
   <x:si>
+    <x:t>부품 별 남은 수명 보여줌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유소 포인트 적립 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 무료 판매 견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검 스케쥴 및 일정 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 정비소 찾아보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험료 확인 및 갱신일 알림</x:t>
+  </x:si>
+  <x:si>
     <x:t>기아 커넥티드카 연동하기</x:t>
   </x:si>
   <x:si>
-    <x:t>주유소 포인트 적립 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 무료 판매 견적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품 별 남은 수명 보여줌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점검 스케쥴 및 일정 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험료 확인 및 갱신일 알림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 정비소 찾아보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차종, 차번호, 연식 등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방문 정비소 기록, 메모</x:t>
-  </x:si>
-  <x:si>
-    <x:t>항목 및 정비 주기 추가</x:t>
+    <x:t>1. Menu_Tree 수정(완료)
+2. 추가 자료 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채팅방 및 게시판에 들어가기 위해서는 로그인을 해야한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06.28 회의록 작성
+2. 요구사항 정의 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 정의 및 분석 보완
+2. 기능정의 보완</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 실패시 로그인 오류 메세지를 출력해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>할인률, 총액의 계산 과정에 오류가 있어선 안된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험, 범칙금, 주차요금, 톨게이트 비용, 차량용품 등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판의 글들은 페이지당 20개씩 보여주어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품들의 시세변동을 지속적으로 업데이트 해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:36
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중복되는 아이디는 가입이 되어선 안된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이어리에 메모한 사항 달력에 날짜 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정확한 위치의 지도 정보를 받아와야 한다.</x:t>
   </x:si>
   <x:si>
     <x:t>게시판 형태로 존재, 결함/리콜 내역</x:t>
   </x:si>
   <x:si>
-    <x:t>중복되는 아이디는 가입이 되어선 안된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정확한 위치의 지도 정보를 받아와야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이어리에 메모한 사항 달력에 날짜 표시</x:t>
+    <x:t>주유량, 연비, 운행 거리 및 기타 비용 통계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어플 내 광고를 통해 일정 수입료를 받는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판을 이용하기 위해서는 로그인을 해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이콘을 활용하여 한 눈에 확인하기 쉬워야 한다.</x:t>
   </x:si>
   <x:si>
     <x:t>1. 화면 시퀀스 작성
 2. 추가 자료 조사</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 메뉴시퀀스 작성 (미완)
-2. 스피너 및 캘린더 뷰 다이어리 조사</x:t>
+    <x:t>DB에 저장된 내용들은 변조가 없어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APP종료시 입력된 데이터는 변조가 없어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 계약서 작성
+2. 현장실습 오리엔테이션</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2005,6 +2016,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -2225,19 +2249,6 @@
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -2934,8 +2945,8 @@
   <x:dimension ref="B2:E42"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:pane xSplit="0" ySplit="2" topLeftCell="C15" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" activeCell="E20" activeCellId="0" sqref="E20:E20"/>
+      <x:pane xSplit="0" ySplit="2" topLeftCell="C12" activePane="bottomLeft" state="frozen"/>
+      <x:selection pane="bottomLeft" activeCell="D21" activeCellId="0" sqref="D21:D21"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.199999999999999"/>
@@ -2951,16 +2962,16 @@
     <x:row r="1" ht="6.5999999999999996" customHeight="1"/>
     <x:row r="2" spans="2:5" ht="31.199999999999999" customHeight="1">
       <x:c r="B2" s="5" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C2" s="6" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D2" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="E2" s="7" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="C2" s="6" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="D2" s="6" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="E2" s="7" t="s">
-        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:5" ht="105.75">
@@ -2968,13 +2979,13 @@
         <x:v>44369</x:v>
       </x:c>
       <x:c r="C3" s="15" t="s">
-        <x:v>77</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D3" s="9" t="s">
-        <x:v>216</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="E3" s="9" t="s">
-        <x:v>2</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:5" ht="118.55">
@@ -2982,13 +2993,13 @@
         <x:v>44370</x:v>
       </x:c>
       <x:c r="C4" s="14" t="s">
-        <x:v>77</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D4" s="12" t="s">
-        <x:v>19</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E4" s="12" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:5" ht="79.049999999999997">
@@ -2996,13 +3007,13 @@
         <x:v>44371</x:v>
       </x:c>
       <x:c r="C5" s="16" t="s">
-        <x:v>74</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D5" s="12" t="s">
-        <x:v>32</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E5" s="12" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:5" ht="79.049999999999997">
@@ -3010,13 +3021,13 @@
         <x:v>44372</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
-        <x:v>74</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D6" s="12" t="s">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E6" s="17" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:5" ht="79.049999999999997">
@@ -3024,13 +3035,13 @@
         <x:v>44375</x:v>
       </x:c>
       <x:c r="C7" s="14" t="s">
-        <x:v>63</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D7" s="12" t="s">
-        <x:v>222</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="E7" s="12" t="s">
-        <x:v>22</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:5" ht="52.700000000000003">
@@ -3038,13 +3049,13 @@
         <x:v>44376</x:v>
       </x:c>
       <x:c r="C8" s="14" t="s">
-        <x:v>69</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D8" s="12" t="s">
-        <x:v>35</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E8" s="12" t="s">
-        <x:v>30</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:5" ht="52.700000000000003">
@@ -3052,13 +3063,13 @@
         <x:v>44377</x:v>
       </x:c>
       <x:c r="C9" s="19" t="s">
-        <x:v>62</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D9" s="12" t="s">
-        <x:v>20</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E9" s="12" t="s">
-        <x:v>31</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:5" ht="52.700000000000003">
@@ -3066,13 +3077,13 @@
         <x:v>44378</x:v>
       </x:c>
       <x:c r="C10" s="20" t="s">
-        <x:v>78</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D10" s="12" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="E10" s="12" t="s">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="E10" s="12" t="s">
-        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:5" ht="65.849999999999994">
@@ -3080,13 +3091,13 @@
         <x:v>44379</x:v>
       </x:c>
       <x:c r="C11" s="22" t="s">
-        <x:v>65</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D11" s="12" t="s">
-        <x:v>8</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E11" s="12" t="s">
-        <x:v>21</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:5" ht="105.40000000000001">
@@ -3094,10 +3105,10 @@
         <x:v>44382</x:v>
       </x:c>
       <x:c r="C12" s="21" t="s">
-        <x:v>71</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D12" s="12" t="s">
-        <x:v>230</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="E12" s="12" t="s">
         <x:v>0</x:v>
@@ -3108,13 +3119,13 @@
         <x:v>44383</x:v>
       </x:c>
       <x:c r="C13" s="23" t="s">
-        <x:v>78</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D13" s="12" t="s">
-        <x:v>9</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E13" s="12" t="s">
-        <x:v>12</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:5" ht="52.700000000000003">
@@ -3122,13 +3133,13 @@
         <x:v>44384</x:v>
       </x:c>
       <x:c r="C14" s="24" t="s">
-        <x:v>60</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D14" s="12" t="s">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E14" s="12" t="s">
-        <x:v>42</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:5" ht="52.700000000000003">
@@ -3136,13 +3147,13 @@
         <x:v>44385</x:v>
       </x:c>
       <x:c r="C15" s="30" t="s">
-        <x:v>75</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D15" s="12" t="s">
-        <x:v>4</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E15" s="12" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:5" ht="26.350000000000001">
@@ -3150,13 +3161,13 @@
         <x:v>44386</x:v>
       </x:c>
       <x:c r="C16" s="31" t="s">
-        <x:v>58</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D16" s="12" t="s">
-        <x:v>223</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="E16" s="12" t="s">
-        <x:v>17</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:5" ht="39.549999999999997">
@@ -3164,59 +3175,65 @@
         <x:v>44389</x:v>
       </x:c>
       <x:c r="C17" s="74" t="s">
-        <x:v>44</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D17" s="12" t="s">
-        <x:v>18</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E17" s="12" t="s">
-        <x:v>224</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:5" ht="26.350000000000001">
       <x:c r="B18" s="13">
         <x:v>44390</x:v>
       </x:c>
-      <x:c r="C18" s="100" t="s">
-        <x:v>37</x:v>
+      <x:c r="C18" s="75" t="s">
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D18" s="12" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E18" s="12" t="s">
-        <x:v>1</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:5" ht="26.350000000000001">
       <x:c r="B19" s="13">
         <x:v>44391</x:v>
       </x:c>
-      <x:c r="C19" s="100" t="s">
-        <x:v>78</x:v>
+      <x:c r="C19" s="75" t="s">
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D19" s="12" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E19" s="12" t="s">
-        <x:v>248</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:5" ht="26.350000000000001">
       <x:c r="B20" s="13">
         <x:v>44392</x:v>
       </x:c>
-      <x:c r="C20" s="10"/>
+      <x:c r="C20" s="14" t="s">
+        <x:v>239</x:v>
+      </x:c>
       <x:c r="D20" s="12" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E20" s="11"/>
-    </x:row>
-    <x:row r="21" spans="2:5">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E20" s="11" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="2:5" ht="26.350000000000001">
       <x:c r="B21" s="13">
         <x:v>44393</x:v>
       </x:c>
       <x:c r="C21" s="10"/>
-      <x:c r="D21" s="11"/>
+      <x:c r="D21" s="12" t="s">
+        <x:v>162</x:v>
+      </x:c>
       <x:c r="E21" s="11"/>
     </x:row>
     <x:row r="22" spans="2:5">
@@ -3415,78 +3432,78 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="17.149999999999999">
       <x:c r="A1" s="26" t="s">
-        <x:v>64</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B1" s="33" t="s">
-        <x:v>154</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C1" s="34" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D1" s="34" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E1" s="34" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F1" s="34" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="D1" s="34" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="E1" s="34" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="F1" s="34" t="s">
-        <x:v>87</x:v>
-      </x:c>
       <x:c r="G1" s="34" t="s">
-        <x:v>90</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="H1" s="34" t="s">
-        <x:v>206</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="I1" s="35" t="s">
-        <x:v>184</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:9">
-      <x:c r="A2" s="83" t="s">
-        <x:v>178</x:v>
-      </x:c>
-      <x:c r="B2" s="77" t="s">
-        <x:v>198</x:v>
-      </x:c>
-      <x:c r="C2" s="80" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="D2" s="80" t="s">
-        <x:v>86</x:v>
+      <x:c r="A2" s="84" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B2" s="78" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="C2" s="81" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D2" s="81" t="s">
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E2" s="38" t="s">
-        <x:v>102</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F2" s="38"/>
       <x:c r="G2" s="38"/>
       <x:c r="H2" s="38"/>
       <x:c r="I2" s="38" t="s">
-        <x:v>51</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
-      <x:c r="A3" s="84"/>
-      <x:c r="B3" s="78"/>
-      <x:c r="C3" s="81"/>
-      <x:c r="D3" s="81"/>
+      <x:c r="A3" s="85"/>
+      <x:c r="B3" s="79"/>
+      <x:c r="C3" s="82"/>
+      <x:c r="D3" s="82"/>
       <x:c r="E3" s="37" t="s">
-        <x:v>47</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="F3" s="37"/>
       <x:c r="G3" s="37"/>
       <x:c r="H3" s="37"/>
       <x:c r="I3" s="37" t="s">
-        <x:v>238</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
-      <x:c r="A4" s="84"/>
-      <x:c r="B4" s="78"/>
-      <x:c r="C4" s="81"/>
-      <x:c r="D4" s="81"/>
+      <x:c r="A4" s="85"/>
+      <x:c r="B4" s="79"/>
+      <x:c r="C4" s="82"/>
+      <x:c r="D4" s="82"/>
       <x:c r="E4" s="37" t="s">
-        <x:v>101</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F4" s="37"/>
       <x:c r="G4" s="37"/>
@@ -3494,42 +3511,42 @@
       <x:c r="I4" s="37"/>
     </x:row>
     <x:row r="5" spans="1:9">
-      <x:c r="A5" s="84"/>
-      <x:c r="B5" s="78"/>
-      <x:c r="C5" s="81"/>
-      <x:c r="D5" s="81"/>
-      <x:c r="E5" s="75" t="s">
-        <x:v>105</x:v>
+      <x:c r="A5" s="85"/>
+      <x:c r="B5" s="79"/>
+      <x:c r="C5" s="82"/>
+      <x:c r="D5" s="82"/>
+      <x:c r="E5" s="76" t="s">
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F5" s="37" t="s">
-        <x:v>127</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G5" s="37"/>
       <x:c r="H5" s="37"/>
       <x:c r="I5" s="37"/>
     </x:row>
     <x:row r="6" spans="1:9">
-      <x:c r="A6" s="84"/>
-      <x:c r="B6" s="78"/>
-      <x:c r="C6" s="81"/>
-      <x:c r="D6" s="76"/>
-      <x:c r="E6" s="76"/>
+      <x:c r="A6" s="85"/>
+      <x:c r="B6" s="79"/>
+      <x:c r="C6" s="82"/>
+      <x:c r="D6" s="77"/>
+      <x:c r="E6" s="77"/>
       <x:c r="F6" s="37" t="s">
-        <x:v>57</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G6" s="37"/>
       <x:c r="H6" s="37"/>
       <x:c r="I6" s="37"/>
     </x:row>
     <x:row r="7" spans="1:9">
-      <x:c r="A7" s="84"/>
-      <x:c r="B7" s="78"/>
-      <x:c r="C7" s="81"/>
-      <x:c r="D7" s="75" t="s">
-        <x:v>129</x:v>
+      <x:c r="A7" s="85"/>
+      <x:c r="B7" s="79"/>
+      <x:c r="C7" s="82"/>
+      <x:c r="D7" s="76" t="s">
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E7" s="37" t="s">
-        <x:v>172</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="F7" s="37"/>
       <x:c r="G7" s="37"/>
@@ -3537,91 +3554,91 @@
       <x:c r="I7" s="37"/>
     </x:row>
     <x:row r="8" spans="1:9">
-      <x:c r="A8" s="84"/>
-      <x:c r="B8" s="78"/>
-      <x:c r="C8" s="81"/>
-      <x:c r="D8" s="81"/>
+      <x:c r="A8" s="85"/>
+      <x:c r="B8" s="79"/>
+      <x:c r="C8" s="82"/>
+      <x:c r="D8" s="82"/>
       <x:c r="E8" s="37" t="s">
-        <x:v>190</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="F8" s="37"/>
       <x:c r="G8" s="37"/>
       <x:c r="H8" s="37"/>
       <x:c r="I8" s="37" t="s">
-        <x:v>164</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
-      <x:c r="A9" s="84"/>
-      <x:c r="B9" s="78"/>
-      <x:c r="C9" s="81"/>
-      <x:c r="D9" s="81"/>
+      <x:c r="A9" s="85"/>
+      <x:c r="B9" s="79"/>
+      <x:c r="C9" s="82"/>
+      <x:c r="D9" s="82"/>
       <x:c r="E9" s="37" t="s">
-        <x:v>188</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="F9" s="37"/>
       <x:c r="G9" s="37"/>
       <x:c r="H9" s="37"/>
       <x:c r="I9" s="37" t="s">
-        <x:v>237</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
-      <x:c r="A10" s="84"/>
-      <x:c r="B10" s="78"/>
-      <x:c r="C10" s="81"/>
-      <x:c r="D10" s="81"/>
-      <x:c r="E10" s="75" t="s">
-        <x:v>140</x:v>
+      <x:c r="A10" s="85"/>
+      <x:c r="B10" s="79"/>
+      <x:c r="C10" s="82"/>
+      <x:c r="D10" s="82"/>
+      <x:c r="E10" s="76" t="s">
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F10" s="37" t="s">
-        <x:v>111</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G10" s="37"/>
       <x:c r="H10" s="37"/>
       <x:c r="I10" s="37"/>
     </x:row>
     <x:row r="11" spans="1:9">
-      <x:c r="A11" s="84"/>
-      <x:c r="B11" s="78"/>
-      <x:c r="C11" s="81"/>
-      <x:c r="D11" s="81"/>
-      <x:c r="E11" s="81"/>
+      <x:c r="A11" s="85"/>
+      <x:c r="B11" s="79"/>
+      <x:c r="C11" s="82"/>
+      <x:c r="D11" s="82"/>
+      <x:c r="E11" s="82"/>
       <x:c r="F11" s="37" t="s">
-        <x:v>116</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G11" s="37"/>
       <x:c r="H11" s="37"/>
       <x:c r="I11" s="37" t="s">
-        <x:v>229</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
-      <x:c r="A12" s="84"/>
-      <x:c r="B12" s="78"/>
-      <x:c r="C12" s="81"/>
-      <x:c r="D12" s="81"/>
-      <x:c r="E12" s="81"/>
+      <x:c r="A12" s="85"/>
+      <x:c r="B12" s="79"/>
+      <x:c r="C12" s="82"/>
+      <x:c r="D12" s="82"/>
+      <x:c r="E12" s="82"/>
       <x:c r="F12" s="37" t="s">
-        <x:v>187</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="G12" s="37"/>
       <x:c r="H12" s="37"/>
       <x:c r="I12" s="37"/>
     </x:row>
     <x:row r="13" spans="1:28">
-      <x:c r="A13" s="84"/>
-      <x:c r="B13" s="78"/>
-      <x:c r="C13" s="76"/>
-      <x:c r="D13" s="76"/>
-      <x:c r="E13" s="76"/>
+      <x:c r="A13" s="85"/>
+      <x:c r="B13" s="79"/>
+      <x:c r="C13" s="77"/>
+      <x:c r="D13" s="77"/>
+      <x:c r="E13" s="77"/>
       <x:c r="F13" s="37" t="s">
-        <x:v>201</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="G13" s="37"/>
       <x:c r="H13" s="37"/>
       <x:c r="I13" s="37" t="s">
-        <x:v>242</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="J13" s="29"/>
       <x:c r="K13" s="29"/>
@@ -3644,22 +3661,22 @@
       <x:c r="AB13" s="29"/>
     </x:row>
     <x:row r="14" spans="1:28">
-      <x:c r="A14" s="84"/>
-      <x:c r="B14" s="78"/>
-      <x:c r="C14" s="75" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="D14" s="75" t="s">
-        <x:v>113</x:v>
+      <x:c r="A14" s="85"/>
+      <x:c r="B14" s="79"/>
+      <x:c r="C14" s="76" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D14" s="76" t="s">
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E14" s="37" t="s">
-        <x:v>182</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="F14" s="37"/>
       <x:c r="G14" s="37"/>
       <x:c r="H14" s="37"/>
       <x:c r="I14" s="37" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="J14" s="29"/>
       <x:c r="K14" s="29"/>
@@ -3682,18 +3699,18 @@
       <x:c r="AB14" s="29"/>
     </x:row>
     <x:row r="15" spans="1:28">
-      <x:c r="A15" s="84"/>
-      <x:c r="B15" s="78"/>
-      <x:c r="C15" s="81"/>
-      <x:c r="D15" s="81"/>
+      <x:c r="A15" s="85"/>
+      <x:c r="B15" s="79"/>
+      <x:c r="C15" s="82"/>
+      <x:c r="D15" s="82"/>
       <x:c r="E15" s="37" t="s">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F15" s="37"/>
       <x:c r="G15" s="37"/>
       <x:c r="H15" s="37"/>
       <x:c r="I15" s="37" t="s">
-        <x:v>95</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="J15" s="29"/>
       <x:c r="K15" s="29"/>
@@ -3716,12 +3733,12 @@
       <x:c r="AB15" s="29"/>
     </x:row>
     <x:row r="16" spans="1:28">
-      <x:c r="A16" s="84"/>
-      <x:c r="B16" s="78"/>
-      <x:c r="C16" s="81"/>
-      <x:c r="D16" s="81"/>
+      <x:c r="A16" s="85"/>
+      <x:c r="B16" s="79"/>
+      <x:c r="C16" s="82"/>
+      <x:c r="D16" s="82"/>
       <x:c r="E16" s="37" t="s">
-        <x:v>92</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F16" s="37"/>
       <x:c r="G16" s="37"/>
@@ -3747,12 +3764,12 @@
       <x:c r="AB16" s="29"/>
     </x:row>
     <x:row r="17" spans="1:28">
-      <x:c r="A17" s="84"/>
-      <x:c r="B17" s="78"/>
-      <x:c r="C17" s="81"/>
-      <x:c r="D17" s="76"/>
+      <x:c r="A17" s="85"/>
+      <x:c r="B17" s="79"/>
+      <x:c r="C17" s="82"/>
+      <x:c r="D17" s="77"/>
       <x:c r="E17" s="37" t="s">
-        <x:v>103</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F17" s="37"/>
       <x:c r="G17" s="37"/>
@@ -3781,17 +3798,17 @@
       <x:c r="AB17" s="29"/>
     </x:row>
     <x:row r="18" spans="1:28">
-      <x:c r="A18" s="84"/>
-      <x:c r="B18" s="78"/>
-      <x:c r="C18" s="81"/>
+      <x:c r="A18" s="85"/>
+      <x:c r="B18" s="79"/>
+      <x:c r="C18" s="82"/>
       <x:c r="D18" s="37" t="s">
-        <x:v>81</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="E18" s="37" t="s">
-        <x:v>73</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="F18" s="37" t="s">
-        <x:v>96</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G18" s="37"/>
       <x:c r="H18" s="37"/>
@@ -3817,18 +3834,18 @@
       <x:c r="AB18" s="29"/>
     </x:row>
     <x:row r="19" spans="1:28">
-      <x:c r="A19" s="84"/>
-      <x:c r="B19" s="78"/>
-      <x:c r="C19" s="81"/>
+      <x:c r="A19" s="85"/>
+      <x:c r="B19" s="79"/>
+      <x:c r="C19" s="82"/>
       <x:c r="D19" s="37" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E19" s="37"/>
       <x:c r="F19" s="37"/>
       <x:c r="G19" s="37"/>
       <x:c r="H19" s="37"/>
-      <x:c r="I19" s="75" t="s">
-        <x:v>52</x:v>
+      <x:c r="I19" s="76" t="s">
+        <x:v>145</x:v>
       </x:c>
       <x:c r="J19" s="29"/>
       <x:c r="K19" s="29"/>
@@ -3851,17 +3868,17 @@
       <x:c r="AB19" s="29"/>
     </x:row>
     <x:row r="20" spans="1:28">
-      <x:c r="A20" s="84"/>
-      <x:c r="B20" s="78"/>
-      <x:c r="C20" s="81"/>
+      <x:c r="A20" s="85"/>
+      <x:c r="B20" s="79"/>
+      <x:c r="C20" s="82"/>
       <x:c r="D20" s="37" t="s">
-        <x:v>103</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E20" s="37"/>
       <x:c r="F20" s="37"/>
       <x:c r="G20" s="37"/>
       <x:c r="H20" s="37"/>
-      <x:c r="I20" s="81"/>
+      <x:c r="I20" s="82"/>
       <x:c r="J20" s="29"/>
       <x:c r="K20" s="29"/>
       <x:c r="L20" s="29"/>
@@ -3883,17 +3900,17 @@
       <x:c r="AB20" s="29"/>
     </x:row>
     <x:row r="21" spans="1:28">
-      <x:c r="A21" s="84"/>
-      <x:c r="B21" s="78"/>
-      <x:c r="C21" s="81"/>
+      <x:c r="A21" s="85"/>
+      <x:c r="B21" s="79"/>
+      <x:c r="C21" s="82"/>
       <x:c r="D21" s="37" t="s">
-        <x:v>92</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E21" s="37"/>
       <x:c r="F21" s="37"/>
       <x:c r="G21" s="37"/>
       <x:c r="H21" s="37"/>
-      <x:c r="I21" s="76"/>
+      <x:c r="I21" s="77"/>
       <x:c r="J21" s="29"/>
       <x:c r="K21" s="29"/>
       <x:c r="L21" s="29"/>
@@ -3915,11 +3932,11 @@
       <x:c r="AB21" s="29"/>
     </x:row>
     <x:row r="22" spans="1:28">
-      <x:c r="A22" s="84"/>
-      <x:c r="B22" s="79"/>
-      <x:c r="C22" s="76"/>
+      <x:c r="A22" s="85"/>
+      <x:c r="B22" s="80"/>
+      <x:c r="C22" s="77"/>
       <x:c r="D22" s="37" t="s">
-        <x:v>54</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E22" s="37"/>
       <x:c r="F22" s="37"/>
@@ -3947,12 +3964,12 @@
       <x:c r="AB22" s="29"/>
     </x:row>
     <x:row r="23" spans="1:28">
-      <x:c r="A23" s="84"/>
-      <x:c r="B23" s="82" t="s">
-        <x:v>107</x:v>
+      <x:c r="A23" s="85"/>
+      <x:c r="B23" s="83" t="s">
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C23" s="37" t="s">
-        <x:v>72</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D23" s="37"/>
       <x:c r="E23" s="37"/>
@@ -3981,10 +3998,10 @@
       <x:c r="AB23" s="29"/>
     </x:row>
     <x:row r="24" spans="1:28">
-      <x:c r="A24" s="84"/>
-      <x:c r="B24" s="78"/>
+      <x:c r="A24" s="85"/>
+      <x:c r="B24" s="79"/>
       <x:c r="C24" s="37" t="s">
-        <x:v>207</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="D24" s="37"/>
       <x:c r="E24" s="37"/>
@@ -4013,10 +4030,10 @@
       <x:c r="AB24" s="29"/>
     </x:row>
     <x:row r="25" spans="1:28">
-      <x:c r="A25" s="84"/>
-      <x:c r="B25" s="78"/>
+      <x:c r="A25" s="85"/>
+      <x:c r="B25" s="79"/>
       <x:c r="C25" s="37" t="s">
-        <x:v>179</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D25" s="37"/>
       <x:c r="E25" s="37"/>
@@ -4045,16 +4062,16 @@
       <x:c r="AB25" s="29"/>
     </x:row>
     <x:row r="26" spans="1:87">
-      <x:c r="A26" s="84"/>
-      <x:c r="B26" s="78"/>
-      <x:c r="C26" s="75" t="s">
+      <x:c r="A26" s="85"/>
+      <x:c r="B26" s="79"/>
+      <x:c r="C26" s="76" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D26" s="37" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="D26" s="37" t="s">
-        <x:v>106</x:v>
-      </x:c>
       <x:c r="E26" s="37" t="s">
-        <x:v>53</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="F26" s="37"/>
       <x:c r="G26" s="37"/>
@@ -4140,17 +4157,17 @@
       <x:c r="CI26" s="29"/>
     </x:row>
     <x:row r="27" spans="1:87" s="1" customFormat="1">
-      <x:c r="A27" s="83"/>
-      <x:c r="B27" s="82"/>
-      <x:c r="C27" s="81"/>
-      <x:c r="D27" s="75" t="s">
-        <x:v>209</x:v>
+      <x:c r="A27" s="84"/>
+      <x:c r="B27" s="83"/>
+      <x:c r="C27" s="82"/>
+      <x:c r="D27" s="76" t="s">
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E27" s="37" t="s">
-        <x:v>150</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F27" s="37" t="s">
-        <x:v>67</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G27" s="37"/>
       <x:c r="H27" s="37"/>
@@ -4235,15 +4252,15 @@
       <x:c r="CI27" s="29"/>
     </x:row>
     <x:row r="28" spans="1:87">
-      <x:c r="A28" s="84"/>
-      <x:c r="B28" s="78"/>
-      <x:c r="C28" s="81"/>
-      <x:c r="D28" s="76"/>
+      <x:c r="A28" s="85"/>
+      <x:c r="B28" s="79"/>
+      <x:c r="C28" s="82"/>
+      <x:c r="D28" s="77"/>
       <x:c r="E28" s="37" t="s">
-        <x:v>156</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F28" s="37" t="s">
-        <x:v>67</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G28" s="37"/>
       <x:c r="H28" s="37"/>
@@ -4328,14 +4345,14 @@
       <x:c r="CI28" s="29"/>
     </x:row>
     <x:row r="29" spans="1:87">
-      <x:c r="A29" s="84"/>
-      <x:c r="B29" s="78"/>
-      <x:c r="C29" s="81"/>
+      <x:c r="A29" s="85"/>
+      <x:c r="B29" s="79"/>
+      <x:c r="C29" s="82"/>
       <x:c r="D29" s="37" t="s">
-        <x:v>125</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E29" s="39" t="s">
-        <x:v>132</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F29" s="39"/>
       <x:c r="G29" s="37"/>
@@ -4421,14 +4438,14 @@
       <x:c r="CI29" s="29"/>
     </x:row>
     <x:row r="30" spans="1:87">
-      <x:c r="A30" s="84"/>
-      <x:c r="B30" s="78"/>
-      <x:c r="C30" s="81"/>
+      <x:c r="A30" s="85"/>
+      <x:c r="B30" s="79"/>
+      <x:c r="C30" s="82"/>
       <x:c r="D30" s="37" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E30" s="37" t="s">
-        <x:v>183</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="F30" s="37"/>
       <x:c r="G30" s="37"/>
@@ -4514,12 +4531,12 @@
       <x:c r="CI30" s="29"/>
     </x:row>
     <x:row r="31" spans="1:87" s="1" customFormat="1">
-      <x:c r="A31" s="83"/>
-      <x:c r="B31" s="82"/>
-      <x:c r="C31" s="81"/>
+      <x:c r="A31" s="84"/>
+      <x:c r="B31" s="83"/>
+      <x:c r="C31" s="82"/>
       <x:c r="D31" s="37"/>
       <x:c r="E31" s="37" t="s">
-        <x:v>130</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F31" s="37"/>
       <x:c r="G31" s="37"/>
@@ -4605,14 +4622,14 @@
       <x:c r="CI31" s="29"/>
     </x:row>
     <x:row r="32" spans="1:87">
-      <x:c r="A32" s="84"/>
-      <x:c r="B32" s="78"/>
-      <x:c r="C32" s="81"/>
+      <x:c r="A32" s="85"/>
+      <x:c r="B32" s="79"/>
+      <x:c r="C32" s="82"/>
       <x:c r="D32" s="37" t="s">
-        <x:v>104</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E32" s="37" t="s">
-        <x:v>115</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F32" s="37"/>
       <x:c r="G32" s="37"/>
@@ -4698,11 +4715,11 @@
       <x:c r="CI32" s="29"/>
     </x:row>
     <x:row r="33" spans="1:87">
-      <x:c r="A33" s="84"/>
-      <x:c r="B33" s="78"/>
-      <x:c r="C33" s="76"/>
+      <x:c r="A33" s="85"/>
+      <x:c r="B33" s="79"/>
+      <x:c r="C33" s="77"/>
       <x:c r="D33" s="37" t="s">
-        <x:v>108</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E33" s="37"/>
       <x:c r="F33" s="37"/>
@@ -4789,13 +4806,13 @@
       <x:c r="CI33" s="29"/>
     </x:row>
     <x:row r="34" spans="1:87" s="1" customFormat="1">
-      <x:c r="A34" s="83"/>
-      <x:c r="B34" s="82"/>
-      <x:c r="C34" s="75" t="s">
-        <x:v>158</x:v>
+      <x:c r="A34" s="84"/>
+      <x:c r="B34" s="83"/>
+      <x:c r="C34" s="76" t="s">
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D34" s="37" t="s">
-        <x:v>155</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E34" s="37"/>
       <x:c r="F34" s="37"/>
@@ -4882,11 +4899,11 @@
       <x:c r="CI34" s="29"/>
     </x:row>
     <x:row r="35" spans="1:87" s="1" customFormat="1">
-      <x:c r="A35" s="84"/>
-      <x:c r="B35" s="78"/>
-      <x:c r="C35" s="81"/>
+      <x:c r="A35" s="85"/>
+      <x:c r="B35" s="79"/>
+      <x:c r="C35" s="82"/>
       <x:c r="D35" s="37" t="s">
-        <x:v>200</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E35" s="37"/>
       <x:c r="F35" s="37"/>
@@ -4973,11 +4990,11 @@
       <x:c r="CI35" s="29"/>
     </x:row>
     <x:row r="36" spans="1:87" s="1" customFormat="1">
-      <x:c r="A36" s="84"/>
-      <x:c r="B36" s="78"/>
-      <x:c r="C36" s="81"/>
+      <x:c r="A36" s="85"/>
+      <x:c r="B36" s="79"/>
+      <x:c r="C36" s="82"/>
       <x:c r="D36" s="37" t="s">
-        <x:v>189</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E36" s="37"/>
       <x:c r="F36" s="37"/>
@@ -5064,11 +5081,11 @@
       <x:c r="CI36" s="29"/>
     </x:row>
     <x:row r="37" spans="1:87" s="1" customFormat="1">
-      <x:c r="A37" s="84"/>
-      <x:c r="B37" s="78"/>
-      <x:c r="C37" s="81"/>
+      <x:c r="A37" s="85"/>
+      <x:c r="B37" s="79"/>
+      <x:c r="C37" s="82"/>
       <x:c r="D37" s="37" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="E37" s="37"/>
       <x:c r="F37" s="37"/>
@@ -5155,11 +5172,11 @@
       <x:c r="CI37" s="29"/>
     </x:row>
     <x:row r="38" spans="1:87" s="1" customFormat="1">
-      <x:c r="A38" s="84"/>
-      <x:c r="B38" s="78"/>
-      <x:c r="C38" s="81"/>
+      <x:c r="A38" s="85"/>
+      <x:c r="B38" s="79"/>
+      <x:c r="C38" s="82"/>
       <x:c r="D38" s="37" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E38" s="37"/>
       <x:c r="F38" s="37"/>
@@ -5246,11 +5263,11 @@
       <x:c r="CI38" s="29"/>
     </x:row>
     <x:row r="39" spans="1:87" s="1" customFormat="1">
-      <x:c r="A39" s="83"/>
-      <x:c r="B39" s="82"/>
-      <x:c r="C39" s="76"/>
+      <x:c r="A39" s="84"/>
+      <x:c r="B39" s="83"/>
+      <x:c r="C39" s="77"/>
       <x:c r="D39" s="37" t="s">
-        <x:v>142</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E39" s="37"/>
       <x:c r="F39" s="37"/>
@@ -5337,12 +5354,12 @@
       <x:c r="CI39" s="29"/>
     </x:row>
     <x:row r="40" spans="1:87">
-      <x:c r="A40" s="84"/>
-      <x:c r="B40" s="82" t="s">
-        <x:v>208</x:v>
+      <x:c r="A40" s="85"/>
+      <x:c r="B40" s="83" t="s">
+        <x:v>216</x:v>
       </x:c>
       <x:c r="C40" s="37" t="s">
-        <x:v>202</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="D40" s="37"/>
       <x:c r="E40" s="37"/>
@@ -5430,10 +5447,10 @@
       <x:c r="CI40" s="29"/>
     </x:row>
     <x:row r="41" spans="1:87">
-      <x:c r="A41" s="84"/>
-      <x:c r="B41" s="78"/>
+      <x:c r="A41" s="85"/>
+      <x:c r="B41" s="79"/>
       <x:c r="C41" s="37" t="s">
-        <x:v>143</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D41" s="37"/>
       <x:c r="E41" s="37"/>
@@ -5521,10 +5538,10 @@
       <x:c r="CI41" s="29"/>
     </x:row>
     <x:row r="42" spans="1:87">
-      <x:c r="A42" s="84"/>
-      <x:c r="B42" s="78"/>
+      <x:c r="A42" s="85"/>
+      <x:c r="B42" s="79"/>
       <x:c r="C42" s="37" t="s">
-        <x:v>145</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D42" s="37"/>
       <x:c r="E42" s="37"/>
@@ -5612,10 +5629,10 @@
       <x:c r="CI42" s="29"/>
     </x:row>
     <x:row r="43" spans="1:87">
-      <x:c r="A43" s="84"/>
-      <x:c r="B43" s="78"/>
+      <x:c r="A43" s="85"/>
+      <x:c r="B43" s="79"/>
       <x:c r="C43" s="37" t="s">
-        <x:v>126</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D43" s="37"/>
       <x:c r="E43" s="37"/>
@@ -5703,10 +5720,10 @@
       <x:c r="CI43" s="29"/>
     </x:row>
     <x:row r="44" spans="1:87">
-      <x:c r="A44" s="84"/>
-      <x:c r="B44" s="78"/>
+      <x:c r="A44" s="85"/>
+      <x:c r="B44" s="79"/>
       <x:c r="C44" s="37" t="s">
-        <x:v>179</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D44" s="37"/>
       <x:c r="E44" s="37"/>
@@ -5794,10 +5811,10 @@
       <x:c r="CI44" s="29"/>
     </x:row>
     <x:row r="45" spans="1:87">
-      <x:c r="A45" s="84"/>
-      <x:c r="B45" s="79"/>
+      <x:c r="A45" s="85"/>
+      <x:c r="B45" s="80"/>
       <x:c r="C45" s="37" t="s">
-        <x:v>123</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D45" s="37"/>
       <x:c r="E45" s="37"/>
@@ -5885,12 +5902,12 @@
       <x:c r="CI45" s="29"/>
     </x:row>
     <x:row r="46" spans="1:87">
-      <x:c r="A46" s="84"/>
-      <x:c r="B46" s="82" t="s">
+      <x:c r="A46" s="85"/>
+      <x:c r="B46" s="83" t="s">
         <x:v>195</x:v>
       </x:c>
       <x:c r="C46" s="37" t="s">
-        <x:v>205</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D46" s="37"/>
       <x:c r="E46" s="37"/>
@@ -5978,10 +5995,10 @@
       <x:c r="CI46" s="29"/>
     </x:row>
     <x:row r="47" spans="1:87">
-      <x:c r="A47" s="84"/>
-      <x:c r="B47" s="78"/>
+      <x:c r="A47" s="85"/>
+      <x:c r="B47" s="79"/>
       <x:c r="C47" s="37" t="s">
-        <x:v>169</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D47" s="37"/>
       <x:c r="E47" s="37"/>
@@ -6069,10 +6086,10 @@
       <x:c r="CI47" s="29"/>
     </x:row>
     <x:row r="48" spans="1:87">
-      <x:c r="A48" s="84"/>
-      <x:c r="B48" s="78"/>
+      <x:c r="A48" s="85"/>
+      <x:c r="B48" s="79"/>
       <x:c r="C48" s="37" t="s">
-        <x:v>84</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D48" s="37"/>
       <x:c r="E48" s="37"/>
@@ -6160,10 +6177,10 @@
       <x:c r="CI48" s="29"/>
     </x:row>
     <x:row r="49" spans="1:87">
-      <x:c r="A49" s="84"/>
-      <x:c r="B49" s="79"/>
+      <x:c r="A49" s="85"/>
+      <x:c r="B49" s="80"/>
       <x:c r="C49" s="37" t="s">
-        <x:v>110</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D49" s="37"/>
       <x:c r="E49" s="37"/>
@@ -6251,15 +6268,15 @@
       <x:c r="CI49" s="29"/>
     </x:row>
     <x:row r="50" spans="1:87">
-      <x:c r="A50" s="84"/>
-      <x:c r="B50" s="82" t="s">
-        <x:v>152</x:v>
-      </x:c>
-      <x:c r="C50" s="75" t="s">
-        <x:v>72</x:v>
+      <x:c r="A50" s="85"/>
+      <x:c r="B50" s="83" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C50" s="76" t="s">
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D50" s="37" t="s">
-        <x:v>133</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E50" s="37"/>
       <x:c r="F50" s="37"/>
@@ -6346,11 +6363,11 @@
       <x:c r="CI50" s="29"/>
     </x:row>
     <x:row r="51" spans="1:87">
-      <x:c r="A51" s="84"/>
-      <x:c r="B51" s="78"/>
-      <x:c r="C51" s="76"/>
+      <x:c r="A51" s="85"/>
+      <x:c r="B51" s="79"/>
+      <x:c r="C51" s="77"/>
       <x:c r="D51" s="37" t="s">
-        <x:v>112</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E51" s="37"/>
       <x:c r="F51" s="37"/>
@@ -6437,13 +6454,13 @@
       <x:c r="CI51" s="29"/>
     </x:row>
     <x:row r="52" spans="1:87">
-      <x:c r="A52" s="84"/>
-      <x:c r="B52" s="78"/>
-      <x:c r="C52" s="75" t="s">
-        <x:v>171</x:v>
+      <x:c r="A52" s="85"/>
+      <x:c r="B52" s="79"/>
+      <x:c r="C52" s="76" t="s">
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D52" s="37" t="s">
-        <x:v>79</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="E52" s="37"/>
       <x:c r="F52" s="37"/>
@@ -6530,11 +6547,11 @@
       <x:c r="CI52" s="29"/>
     </x:row>
     <x:row r="53" spans="1:87">
-      <x:c r="A53" s="84"/>
-      <x:c r="B53" s="78"/>
-      <x:c r="C53" s="76"/>
+      <x:c r="A53" s="85"/>
+      <x:c r="B53" s="79"/>
+      <x:c r="C53" s="77"/>
       <x:c r="D53" s="37" t="s">
-        <x:v>76</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E53" s="37"/>
       <x:c r="F53" s="37"/>
@@ -6621,13 +6638,13 @@
       <x:c r="CI53" s="29"/>
     </x:row>
     <x:row r="54" spans="1:87">
-      <x:c r="A54" s="84"/>
-      <x:c r="B54" s="78"/>
-      <x:c r="C54" s="75" t="s">
-        <x:v>59</x:v>
+      <x:c r="A54" s="85"/>
+      <x:c r="B54" s="79"/>
+      <x:c r="C54" s="76" t="s">
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D54" s="37" t="s">
-        <x:v>70</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E54" s="37"/>
       <x:c r="F54" s="37"/>
@@ -6714,11 +6731,11 @@
       <x:c r="CI54" s="29"/>
     </x:row>
     <x:row r="55" spans="1:87">
-      <x:c r="A55" s="84"/>
-      <x:c r="B55" s="78"/>
-      <x:c r="C55" s="81"/>
+      <x:c r="A55" s="85"/>
+      <x:c r="B55" s="79"/>
+      <x:c r="C55" s="82"/>
       <x:c r="D55" s="37" t="s">
-        <x:v>61</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E55" s="37"/>
       <x:c r="F55" s="37"/>
@@ -6805,11 +6822,11 @@
       <x:c r="CI55" s="29"/>
     </x:row>
     <x:row r="56" spans="1:87">
-      <x:c r="A56" s="84"/>
-      <x:c r="B56" s="78"/>
-      <x:c r="C56" s="76"/>
+      <x:c r="A56" s="85"/>
+      <x:c r="B56" s="79"/>
+      <x:c r="C56" s="77"/>
       <x:c r="D56" s="37" t="s">
-        <x:v>235</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="E56" s="37"/>
       <x:c r="F56" s="37"/>
@@ -6896,13 +6913,13 @@
       <x:c r="CI56" s="29"/>
     </x:row>
     <x:row r="57" spans="1:87">
-      <x:c r="A57" s="84"/>
-      <x:c r="B57" s="78"/>
-      <x:c r="C57" s="75" t="s">
-        <x:v>141</x:v>
+      <x:c r="A57" s="85"/>
+      <x:c r="B57" s="79"/>
+      <x:c r="C57" s="76" t="s">
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D57" s="37" t="s">
-        <x:v>232</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="E57" s="37"/>
       <x:c r="F57" s="37"/>
@@ -6989,11 +7006,11 @@
       <x:c r="CI57" s="29"/>
     </x:row>
     <x:row r="58" spans="1:87">
-      <x:c r="A58" s="84"/>
-      <x:c r="B58" s="78"/>
-      <x:c r="C58" s="76"/>
+      <x:c r="A58" s="85"/>
+      <x:c r="B58" s="79"/>
+      <x:c r="C58" s="77"/>
       <x:c r="D58" s="37" t="s">
-        <x:v>82</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E58" s="37"/>
       <x:c r="F58" s="37"/>
@@ -7080,13 +7097,13 @@
       <x:c r="CI58" s="29"/>
     </x:row>
     <x:row r="59" spans="1:87">
-      <x:c r="A59" s="84"/>
-      <x:c r="B59" s="78"/>
-      <x:c r="C59" s="75" t="s">
-        <x:v>80</x:v>
+      <x:c r="A59" s="85"/>
+      <x:c r="B59" s="79"/>
+      <x:c r="C59" s="76" t="s">
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D59" s="37" t="s">
-        <x:v>233</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E59" s="37"/>
       <x:c r="F59" s="37"/>
@@ -7173,11 +7190,11 @@
       <x:c r="CI59" s="29"/>
     </x:row>
     <x:row r="60" spans="1:87">
-      <x:c r="A60" s="84"/>
-      <x:c r="B60" s="78"/>
-      <x:c r="C60" s="76"/>
+      <x:c r="A60" s="85"/>
+      <x:c r="B60" s="79"/>
+      <x:c r="C60" s="77"/>
       <x:c r="D60" s="37" t="s">
-        <x:v>234</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E60" s="37"/>
       <x:c r="F60" s="37"/>
@@ -7264,13 +7281,13 @@
       <x:c r="CI60" s="29"/>
     </x:row>
     <x:row r="61" spans="1:87">
-      <x:c r="A61" s="84"/>
-      <x:c r="B61" s="78"/>
-      <x:c r="C61" s="75" t="s">
-        <x:v>119</x:v>
+      <x:c r="A61" s="85"/>
+      <x:c r="B61" s="79"/>
+      <x:c r="C61" s="76" t="s">
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D61" s="37" t="s">
-        <x:v>170</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="E61" s="37"/>
       <x:c r="F61" s="37"/>
@@ -7357,11 +7374,11 @@
       <x:c r="CI61" s="29"/>
     </x:row>
     <x:row r="62" spans="1:87">
-      <x:c r="A62" s="85"/>
-      <x:c r="B62" s="79"/>
-      <x:c r="C62" s="76"/>
+      <x:c r="A62" s="86"/>
+      <x:c r="B62" s="80"/>
+      <x:c r="C62" s="77"/>
       <x:c r="D62" s="37" t="s">
-        <x:v>134</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E62" s="37"/>
       <x:c r="F62" s="37"/>
@@ -9387,7 +9404,7 @@
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" activeCell="D31" activeCellId="0" sqref="D31:D31"/>
+      <x:selection pane="bottomLeft" activeCell="G28" activeCellId="0" sqref="G28:G28"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -9403,288 +9420,288 @@
   <x:sheetData>
     <x:row r="1" spans="1:8" ht="17.149999999999999">
       <x:c r="A1" s="32" t="s">
-        <x:v>64</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B1" s="33" t="s">
-        <x:v>154</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C1" s="34" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D1" s="34" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E1" s="34" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F1" s="34" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="D1" s="34" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="E1" s="34" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="F1" s="34" t="s">
-        <x:v>87</x:v>
-      </x:c>
       <x:c r="G1" s="34" t="s">
-        <x:v>206</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="H1" s="35" t="s">
-        <x:v>197</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8" ht="16.75" customHeight="1">
-      <x:c r="A2" s="83" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="B2" s="77" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="C2" s="90" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="D2" s="88" t="s">
-        <x:v>113</x:v>
+      <x:c r="A2" s="84" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B2" s="78" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C2" s="91" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D2" s="89" t="s">
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E2" s="61" t="s">
-        <x:v>46</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="F2" s="61"/>
       <x:c r="G2" s="61"/>
       <x:c r="H2" s="61" t="s">
-        <x:v>240</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="84"/>
-      <x:c r="B3" s="78"/>
-      <x:c r="C3" s="91"/>
-      <x:c r="D3" s="89"/>
+      <x:c r="A3" s="85"/>
+      <x:c r="B3" s="79"/>
+      <x:c r="C3" s="92"/>
+      <x:c r="D3" s="90"/>
       <x:c r="E3" s="62" t="s">
-        <x:v>139</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F3" s="62"/>
       <x:c r="G3" s="62"/>
       <x:c r="H3" s="62" t="s">
-        <x:v>136</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="A4" s="84"/>
-      <x:c r="B4" s="78"/>
-      <x:c r="C4" s="91"/>
-      <x:c r="D4" s="87"/>
+      <x:c r="A4" s="85"/>
+      <x:c r="B4" s="79"/>
+      <x:c r="C4" s="92"/>
+      <x:c r="D4" s="88"/>
       <x:c r="E4" s="62" t="s">
-        <x:v>105</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F4" s="62"/>
       <x:c r="G4" s="62"/>
       <x:c r="H4" s="62" t="s">
-        <x:v>241</x:v>
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="84"/>
-      <x:c r="B5" s="78"/>
-      <x:c r="C5" s="91"/>
-      <x:c r="D5" s="86" t="s">
-        <x:v>129</x:v>
+      <x:c r="A5" s="85"/>
+      <x:c r="B5" s="79"/>
+      <x:c r="C5" s="92"/>
+      <x:c r="D5" s="87" t="s">
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E5" s="63" t="s">
-        <x:v>144</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F5" s="62"/>
       <x:c r="G5" s="62"/>
       <x:c r="H5" s="62" t="s">
-        <x:v>215</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="A6" s="84"/>
-      <x:c r="B6" s="78"/>
-      <x:c r="C6" s="92"/>
-      <x:c r="D6" s="87"/>
+      <x:c r="A6" s="85"/>
+      <x:c r="B6" s="79"/>
+      <x:c r="C6" s="93"/>
+      <x:c r="D6" s="88"/>
       <x:c r="E6" s="63" t="s">
-        <x:v>188</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="F6" s="62"/>
       <x:c r="G6" s="62"/>
       <x:c r="H6" s="62" t="s">
-        <x:v>38</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="84"/>
-      <x:c r="B7" s="78"/>
-      <x:c r="C7" s="94" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="D7" s="86" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="E7" s="86" t="s">
-        <x:v>113</x:v>
+      <x:c r="A7" s="85"/>
+      <x:c r="B7" s="79"/>
+      <x:c r="C7" s="95" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D7" s="87" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E7" s="87" t="s">
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F7" s="62" t="s">
-        <x:v>182</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="G7" s="62"/>
       <x:c r="H7" s="62"/>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="84"/>
-      <x:c r="B8" s="78"/>
-      <x:c r="C8" s="91"/>
-      <x:c r="D8" s="89"/>
-      <x:c r="E8" s="89"/>
+      <x:c r="A8" s="85"/>
+      <x:c r="B8" s="79"/>
+      <x:c r="C8" s="92"/>
+      <x:c r="D8" s="90"/>
+      <x:c r="E8" s="90"/>
       <x:c r="F8" s="62" t="s">
-        <x:v>49</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="G8" s="62"/>
       <x:c r="H8" s="62"/>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="84"/>
-      <x:c r="B9" s="78"/>
-      <x:c r="C9" s="91"/>
-      <x:c r="D9" s="89"/>
-      <x:c r="E9" s="89"/>
+      <x:c r="A9" s="85"/>
+      <x:c r="B9" s="79"/>
+      <x:c r="C9" s="92"/>
+      <x:c r="D9" s="90"/>
+      <x:c r="E9" s="90"/>
       <x:c r="F9" s="62" t="s">
-        <x:v>137</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G9" s="62"/>
       <x:c r="H9" s="62"/>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="84"/>
-      <x:c r="B10" s="78"/>
-      <x:c r="C10" s="91"/>
-      <x:c r="D10" s="89"/>
-      <x:c r="E10" s="89"/>
+      <x:c r="A10" s="85"/>
+      <x:c r="B10" s="79"/>
+      <x:c r="C10" s="92"/>
+      <x:c r="D10" s="90"/>
+      <x:c r="E10" s="90"/>
       <x:c r="F10" s="62" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="G10" s="62"/>
       <x:c r="H10" s="62"/>
     </x:row>
     <x:row r="11" spans="1:8" ht="16.75">
-      <x:c r="A11" s="84"/>
-      <x:c r="B11" s="95"/>
-      <x:c r="C11" s="96"/>
-      <x:c r="D11" s="93"/>
-      <x:c r="E11" s="93"/>
+      <x:c r="A11" s="85"/>
+      <x:c r="B11" s="96"/>
+      <x:c r="C11" s="97"/>
+      <x:c r="D11" s="94"/>
+      <x:c r="E11" s="94"/>
       <x:c r="F11" s="65" t="s">
-        <x:v>128</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G11" s="65"/>
       <x:c r="H11" s="65"/>
     </x:row>
     <x:row r="12" spans="1:8">
-      <x:c r="A12" s="84"/>
-      <x:c r="B12" s="78" t="s">
-        <x:v>203</x:v>
-      </x:c>
-      <x:c r="C12" s="91" t="s">
-        <x:v>147</x:v>
+      <x:c r="A12" s="85"/>
+      <x:c r="B12" s="79" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="C12" s="92" t="s">
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D12" s="61" t="s">
-        <x:v>209</x:v>
-      </x:c>
-      <x:c r="E12" s="89" t="s">
-        <x:v>239</x:v>
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="E12" s="90" t="s">
+        <x:v>227</x:v>
       </x:c>
       <x:c r="F12" s="61"/>
       <x:c r="G12" s="61"/>
       <x:c r="H12" s="61"/>
     </x:row>
     <x:row r="13" spans="1:8">
-      <x:c r="A13" s="84"/>
-      <x:c r="B13" s="78"/>
-      <x:c r="C13" s="91"/>
+      <x:c r="A13" s="85"/>
+      <x:c r="B13" s="79"/>
+      <x:c r="C13" s="92"/>
       <x:c r="D13" s="63" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E13" s="89"/>
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="E13" s="90"/>
       <x:c r="F13" s="62"/>
       <x:c r="G13" s="62"/>
       <x:c r="H13" s="62"/>
     </x:row>
     <x:row r="14" spans="1:8">
-      <x:c r="A14" s="84"/>
-      <x:c r="B14" s="78"/>
-      <x:c r="C14" s="91"/>
+      <x:c r="A14" s="85"/>
+      <x:c r="B14" s="79"/>
+      <x:c r="C14" s="92"/>
       <x:c r="D14" s="63" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="E14" s="89"/>
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="E14" s="90"/>
       <x:c r="F14" s="62"/>
       <x:c r="G14" s="62"/>
       <x:c r="H14" s="62"/>
     </x:row>
     <x:row r="15" spans="1:8">
-      <x:c r="A15" s="84"/>
-      <x:c r="B15" s="78"/>
-      <x:c r="C15" s="92"/>
+      <x:c r="A15" s="85"/>
+      <x:c r="B15" s="79"/>
+      <x:c r="C15" s="93"/>
       <x:c r="D15" s="63" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="E15" s="87"/>
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E15" s="88"/>
       <x:c r="F15" s="62"/>
       <x:c r="G15" s="62"/>
       <x:c r="H15" s="62"/>
     </x:row>
     <x:row r="16" spans="1:8">
-      <x:c r="A16" s="84"/>
-      <x:c r="B16" s="78"/>
-      <x:c r="C16" s="94" t="s">
-        <x:v>89</x:v>
+      <x:c r="A16" s="85"/>
+      <x:c r="B16" s="79"/>
+      <x:c r="C16" s="95" t="s">
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D16" s="63" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="E16" s="86" t="s">
-        <x:v>72</x:v>
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E16" s="87" t="s">
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F16" s="62" t="s">
-        <x:v>133</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G16" s="62"/>
-      <x:c r="H16" s="86" t="s">
-        <x:v>246</x:v>
+      <x:c r="H16" s="87" t="s">
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
-      <x:c r="A17" s="84"/>
-      <x:c r="B17" s="78"/>
-      <x:c r="C17" s="92"/>
+      <x:c r="A17" s="85"/>
+      <x:c r="B17" s="79"/>
+      <x:c r="C17" s="93"/>
       <x:c r="D17" s="62" t="s">
-        <x:v>194</x:v>
-      </x:c>
-      <x:c r="E17" s="87"/>
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="E17" s="88"/>
       <x:c r="F17" s="62" t="s">
-        <x:v>112</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G17" s="62"/>
-      <x:c r="H17" s="87"/>
+      <x:c r="H17" s="88"/>
     </x:row>
     <x:row r="18" spans="1:8" ht="16.75">
-      <x:c r="A18" s="84"/>
-      <x:c r="B18" s="95"/>
+      <x:c r="A18" s="85"/>
+      <x:c r="B18" s="96"/>
       <x:c r="C18" s="66" t="s">
-        <x:v>99</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D18" s="65"/>
       <x:c r="E18" s="65"/>
       <x:c r="F18" s="65"/>
       <x:c r="G18" s="65"/>
       <x:c r="H18" s="65" t="s">
-        <x:v>236</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
-      <x:c r="A19" s="84"/>
-      <x:c r="B19" s="78" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="C19" s="91" t="s">
-        <x:v>208</x:v>
+      <x:c r="A19" s="85"/>
+      <x:c r="B19" s="79" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C19" s="92" t="s">
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D19" s="61" t="s">
-        <x:v>202</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E19" s="61"/>
       <x:c r="F19" s="61"/>
@@ -9692,11 +9709,11 @@
       <x:c r="H19" s="61"/>
     </x:row>
     <x:row r="20" spans="1:8">
-      <x:c r="A20" s="84"/>
-      <x:c r="B20" s="78"/>
-      <x:c r="C20" s="91"/>
+      <x:c r="A20" s="85"/>
+      <x:c r="B20" s="79"/>
+      <x:c r="C20" s="92"/>
       <x:c r="D20" s="62" t="s">
-        <x:v>213</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="E20" s="62"/>
       <x:c r="F20" s="62"/>
@@ -9704,11 +9721,11 @@
       <x:c r="H20" s="62"/>
     </x:row>
     <x:row r="21" spans="1:8">
-      <x:c r="A21" s="84"/>
-      <x:c r="B21" s="78"/>
-      <x:c r="C21" s="91"/>
+      <x:c r="A21" s="85"/>
+      <x:c r="B21" s="79"/>
+      <x:c r="C21" s="92"/>
       <x:c r="D21" s="62" t="s">
-        <x:v>145</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E21" s="62"/>
       <x:c r="F21" s="62"/>
@@ -9716,11 +9733,11 @@
       <x:c r="H21" s="62"/>
     </x:row>
     <x:row r="22" spans="1:8">
-      <x:c r="A22" s="84"/>
-      <x:c r="B22" s="78"/>
-      <x:c r="C22" s="91"/>
+      <x:c r="A22" s="85"/>
+      <x:c r="B22" s="79"/>
+      <x:c r="C22" s="92"/>
       <x:c r="D22" s="62" t="s">
-        <x:v>179</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="E22" s="62"/>
       <x:c r="F22" s="62"/>
@@ -9728,11 +9745,11 @@
       <x:c r="H22" s="62"/>
     </x:row>
     <x:row r="23" spans="1:8">
-      <x:c r="A23" s="84"/>
-      <x:c r="B23" s="78"/>
-      <x:c r="C23" s="92"/>
+      <x:c r="A23" s="85"/>
+      <x:c r="B23" s="79"/>
+      <x:c r="C23" s="93"/>
       <x:c r="D23" s="62" t="s">
-        <x:v>123</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="62"/>
       <x:c r="F23" s="62"/>
@@ -9740,90 +9757,90 @@
       <x:c r="H23" s="62"/>
     </x:row>
     <x:row r="24" spans="1:8">
-      <x:c r="A24" s="83"/>
-      <x:c r="B24" s="82"/>
-      <x:c r="C24" s="94" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="D24" s="86" t="s">
-        <x:v>177</x:v>
+      <x:c r="A24" s="84"/>
+      <x:c r="B24" s="83"/>
+      <x:c r="C24" s="95" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D24" s="87" t="s">
+        <x:v>184</x:v>
       </x:c>
       <x:c r="E24" s="62" t="s">
-        <x:v>174</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="F24" s="62"/>
       <x:c r="G24" s="62"/>
       <x:c r="H24" s="62"/>
     </x:row>
     <x:row r="25" spans="1:8">
-      <x:c r="A25" s="84"/>
-      <x:c r="B25" s="78"/>
-      <x:c r="C25" s="91"/>
-      <x:c r="D25" s="87"/>
+      <x:c r="A25" s="85"/>
+      <x:c r="B25" s="79"/>
+      <x:c r="C25" s="92"/>
+      <x:c r="D25" s="88"/>
       <x:c r="E25" s="62" t="s">
-        <x:v>196</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="F25" s="62"/>
       <x:c r="G25" s="62"/>
       <x:c r="H25" s="62"/>
     </x:row>
     <x:row r="26" spans="1:8">
-      <x:c r="A26" s="83"/>
-      <x:c r="B26" s="82"/>
-      <x:c r="C26" s="91"/>
-      <x:c r="D26" s="86" t="s">
-        <x:v>204</x:v>
+      <x:c r="A26" s="84"/>
+      <x:c r="B26" s="83"/>
+      <x:c r="C26" s="92"/>
+      <x:c r="D26" s="87" t="s">
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E26" s="62" t="s">
-        <x:v>199</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="F26" s="62"/>
       <x:c r="G26" s="62"/>
       <x:c r="H26" s="62"/>
     </x:row>
     <x:row r="27" spans="1:8">
-      <x:c r="A27" s="84"/>
-      <x:c r="B27" s="78"/>
-      <x:c r="C27" s="91"/>
-      <x:c r="D27" s="89"/>
+      <x:c r="A27" s="85"/>
+      <x:c r="B27" s="79"/>
+      <x:c r="C27" s="92"/>
+      <x:c r="D27" s="90"/>
       <x:c r="E27" s="62" t="s">
-        <x:v>175</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="F27" s="62"/>
       <x:c r="G27" s="62"/>
       <x:c r="H27" s="62"/>
     </x:row>
     <x:row r="28" spans="1:8">
-      <x:c r="A28" s="84"/>
-      <x:c r="B28" s="78"/>
-      <x:c r="C28" s="91"/>
-      <x:c r="D28" s="89"/>
+      <x:c r="A28" s="85"/>
+      <x:c r="B28" s="79"/>
+      <x:c r="C28" s="92"/>
+      <x:c r="D28" s="90"/>
       <x:c r="E28" s="62" t="s">
-        <x:v>180</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="F28" s="62"/>
       <x:c r="G28" s="62"/>
       <x:c r="H28" s="62"/>
     </x:row>
     <x:row r="29" spans="1:8" ht="16.75">
-      <x:c r="A29" s="84"/>
-      <x:c r="B29" s="95"/>
-      <x:c r="C29" s="96"/>
-      <x:c r="D29" s="93"/>
+      <x:c r="A29" s="85"/>
+      <x:c r="B29" s="96"/>
+      <x:c r="C29" s="97"/>
+      <x:c r="D29" s="94"/>
       <x:c r="E29" s="65" t="s">
-        <x:v>191</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="F29" s="65"/>
       <x:c r="G29" s="65"/>
       <x:c r="H29" s="65"/>
     </x:row>
     <x:row r="30" spans="1:8">
-      <x:c r="A30" s="84"/>
-      <x:c r="B30" s="78" t="s">
+      <x:c r="A30" s="85"/>
+      <x:c r="B30" s="79" t="s">
         <x:v>195</x:v>
       </x:c>
       <x:c r="C30" s="67" t="s">
-        <x:v>205</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D30" s="61"/>
       <x:c r="E30" s="61"/>
@@ -9832,10 +9849,10 @@
       <x:c r="H30" s="61"/>
     </x:row>
     <x:row r="31" spans="1:8">
-      <x:c r="A31" s="84"/>
-      <x:c r="B31" s="78"/>
+      <x:c r="A31" s="85"/>
+      <x:c r="B31" s="79"/>
       <x:c r="C31" s="58" t="s">
-        <x:v>169</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D31" s="62"/>
       <x:c r="E31" s="62"/>
@@ -9844,10 +9861,10 @@
       <x:c r="H31" s="62"/>
     </x:row>
     <x:row r="32" spans="1:8">
-      <x:c r="A32" s="84"/>
-      <x:c r="B32" s="78"/>
+      <x:c r="A32" s="85"/>
+      <x:c r="B32" s="79"/>
       <x:c r="C32" s="58" t="s">
-        <x:v>84</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D32" s="62"/>
       <x:c r="E32" s="62"/>
@@ -9856,10 +9873,10 @@
       <x:c r="H32" s="62"/>
     </x:row>
     <x:row r="33" spans="1:8" ht="16.75">
-      <x:c r="A33" s="84"/>
-      <x:c r="B33" s="95"/>
+      <x:c r="A33" s="85"/>
+      <x:c r="B33" s="96"/>
       <x:c r="C33" s="68" t="s">
-        <x:v>110</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D33" s="65"/>
       <x:c r="E33" s="65"/>
@@ -9868,12 +9885,12 @@
       <x:c r="H33" s="65"/>
     </x:row>
     <x:row r="34" spans="1:8">
-      <x:c r="A34" s="84"/>
-      <x:c r="B34" s="78" t="s">
-        <x:v>114</x:v>
+      <x:c r="A34" s="85"/>
+      <x:c r="B34" s="79" t="s">
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C34" s="67" t="s">
-        <x:v>45</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D34" s="61"/>
       <x:c r="E34" s="61"/>
@@ -9882,13 +9899,13 @@
       <x:c r="H34" s="61"/>
     </x:row>
     <x:row r="35" spans="1:8">
-      <x:c r="A35" s="84"/>
-      <x:c r="B35" s="78"/>
-      <x:c r="C35" s="94" t="s">
-        <x:v>119</x:v>
+      <x:c r="A35" s="85"/>
+      <x:c r="B35" s="79"/>
+      <x:c r="C35" s="95" t="s">
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D35" s="62" t="s">
-        <x:v>170</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="E35" s="62"/>
       <x:c r="F35" s="62"/>
@@ -9896,11 +9913,11 @@
       <x:c r="H35" s="62"/>
     </x:row>
     <x:row r="36" spans="1:8">
-      <x:c r="A36" s="84"/>
-      <x:c r="B36" s="78"/>
-      <x:c r="C36" s="91"/>
+      <x:c r="A36" s="85"/>
+      <x:c r="B36" s="79"/>
+      <x:c r="C36" s="92"/>
       <x:c r="D36" s="62" t="s">
-        <x:v>134</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E36" s="62"/>
       <x:c r="F36" s="62"/>
@@ -9908,11 +9925,11 @@
       <x:c r="H36" s="62"/>
     </x:row>
     <x:row r="37" spans="1:8" ht="16.75">
-      <x:c r="A37" s="84"/>
-      <x:c r="B37" s="95"/>
-      <x:c r="C37" s="96"/>
+      <x:c r="A37" s="85"/>
+      <x:c r="B37" s="96"/>
+      <x:c r="C37" s="97"/>
       <x:c r="D37" s="65" t="s">
-        <x:v>50</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E37" s="65"/>
       <x:c r="F37" s="65"/>
@@ -9920,7 +9937,7 @@
       <x:c r="H37" s="65"/>
     </x:row>
     <x:row r="38" spans="1:8">
-      <x:c r="A38" s="84"/>
+      <x:c r="A38" s="85"/>
       <x:c r="B38" s="64"/>
       <x:c r="C38" s="67"/>
       <x:c r="D38" s="61"/>
@@ -9930,7 +9947,7 @@
       <x:c r="H38" s="61"/>
     </x:row>
     <x:row r="39" spans="1:8">
-      <x:c r="A39" s="84"/>
+      <x:c r="A39" s="85"/>
       <x:c r="B39" s="59"/>
       <x:c r="C39" s="60"/>
       <x:c r="D39" s="62"/>
@@ -9940,7 +9957,7 @@
       <x:c r="H39" s="62"/>
     </x:row>
     <x:row r="40" spans="1:8" ht="16.75">
-      <x:c r="A40" s="97"/>
+      <x:c r="A40" s="98"/>
       <x:c r="B40" s="47"/>
       <x:c r="C40" s="48"/>
       <x:c r="D40" s="48"/>
@@ -9992,7 +10009,7 @@
     <x:row r="45" spans="1:8">
       <x:c r="A45" s="44"/>
       <x:c r="B45" s="44"/>
-      <x:c r="C45" s="98"/>
+      <x:c r="C45" s="99"/>
       <x:c r="D45" s="57"/>
       <x:c r="E45" s="46"/>
       <x:c r="F45" s="46"/>
@@ -10002,7 +10019,7 @@
     <x:row r="46" spans="1:8">
       <x:c r="A46" s="44"/>
       <x:c r="B46" s="44"/>
-      <x:c r="C46" s="98"/>
+      <x:c r="C46" s="99"/>
       <x:c r="D46" s="57"/>
       <x:c r="E46" s="46"/>
       <x:c r="F46" s="46"/>
@@ -10012,7 +10029,7 @@
     <x:row r="47" spans="1:8">
       <x:c r="A47" s="44"/>
       <x:c r="B47" s="44"/>
-      <x:c r="C47" s="98"/>
+      <x:c r="C47" s="99"/>
       <x:c r="D47" s="57"/>
       <x:c r="E47" s="46"/>
       <x:c r="F47" s="46"/>
@@ -10022,7 +10039,7 @@
     <x:row r="48" spans="1:8">
       <x:c r="A48" s="44"/>
       <x:c r="B48" s="44"/>
-      <x:c r="C48" s="98"/>
+      <x:c r="C48" s="99"/>
       <x:c r="D48" s="57"/>
       <x:c r="E48" s="46"/>
       <x:c r="F48" s="46"/>
@@ -10032,7 +10049,7 @@
     <x:row r="49" spans="1:8">
       <x:c r="A49" s="44"/>
       <x:c r="B49" s="44"/>
-      <x:c r="C49" s="98"/>
+      <x:c r="C49" s="99"/>
       <x:c r="D49" s="57"/>
       <x:c r="E49" s="46"/>
       <x:c r="F49" s="46"/>
@@ -10042,7 +10059,7 @@
     <x:row r="50" spans="1:8">
       <x:c r="A50" s="44"/>
       <x:c r="B50" s="44"/>
-      <x:c r="C50" s="98"/>
+      <x:c r="C50" s="99"/>
       <x:c r="D50" s="57"/>
       <x:c r="E50" s="46"/>
       <x:c r="F50" s="46"/>
@@ -10052,7 +10069,7 @@
     <x:row r="51" spans="1:8">
       <x:c r="A51" s="44"/>
       <x:c r="B51" s="44"/>
-      <x:c r="C51" s="98"/>
+      <x:c r="C51" s="99"/>
       <x:c r="D51" s="57"/>
       <x:c r="E51" s="46"/>
       <x:c r="F51" s="46"/>
@@ -10062,7 +10079,7 @@
     <x:row r="52" spans="1:8">
       <x:c r="A52" s="44"/>
       <x:c r="B52" s="44"/>
-      <x:c r="C52" s="98"/>
+      <x:c r="C52" s="99"/>
       <x:c r="D52" s="57"/>
       <x:c r="E52" s="46"/>
       <x:c r="F52" s="46"/>
@@ -10072,7 +10089,7 @@
     <x:row r="53" spans="1:8">
       <x:c r="A53" s="44"/>
       <x:c r="B53" s="44"/>
-      <x:c r="C53" s="98"/>
+      <x:c r="C53" s="99"/>
       <x:c r="D53" s="57"/>
       <x:c r="E53" s="46"/>
       <x:c r="F53" s="46"/>
@@ -10082,7 +10099,7 @@
     <x:row r="54" spans="1:8">
       <x:c r="A54" s="44"/>
       <x:c r="B54" s="44"/>
-      <x:c r="C54" s="98"/>
+      <x:c r="C54" s="99"/>
       <x:c r="D54" s="57"/>
       <x:c r="E54" s="46"/>
       <x:c r="F54" s="46"/>
@@ -10092,7 +10109,7 @@
     <x:row r="55" spans="1:8">
       <x:c r="A55" s="44"/>
       <x:c r="B55" s="44"/>
-      <x:c r="C55" s="98"/>
+      <x:c r="C55" s="99"/>
       <x:c r="D55" s="57"/>
       <x:c r="E55" s="46"/>
       <x:c r="F55" s="46"/>
@@ -10102,7 +10119,7 @@
     <x:row r="56" spans="1:8">
       <x:c r="A56" s="44"/>
       <x:c r="B56" s="44"/>
-      <x:c r="C56" s="98"/>
+      <x:c r="C56" s="99"/>
       <x:c r="D56" s="57"/>
       <x:c r="E56" s="46"/>
       <x:c r="F56" s="46"/>
@@ -10112,7 +10129,7 @@
     <x:row r="57" spans="1:8">
       <x:c r="A57" s="44"/>
       <x:c r="B57" s="44"/>
-      <x:c r="C57" s="98"/>
+      <x:c r="C57" s="99"/>
       <x:c r="D57" s="57"/>
       <x:c r="E57" s="46"/>
       <x:c r="F57" s="46"/>
@@ -10236,388 +10253,388 @@
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="49"/>
       <x:c r="B2" s="36" t="s">
-        <x:v>168</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C2" s="36" t="s">
-        <x:v>66</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D2" s="36" t="s">
-        <x:v>83</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E2" s="36" t="s">
         <x:v>109</x:v>
       </x:c>
       <x:c r="F2" s="36" t="s">
-        <x:v>197</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6" ht="16.75">
       <x:c r="A3" s="49"/>
-      <x:c r="B3" s="77" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="C3" s="80" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="D3" s="80" t="s">
-        <x:v>138</x:v>
+      <x:c r="B3" s="78" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C3" s="81" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D3" s="81" t="s">
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E3" s="50" t="s">
-        <x:v>26</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F3" s="69"/>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="49"/>
-      <x:c r="B4" s="78"/>
-      <x:c r="C4" s="81"/>
-      <x:c r="D4" s="81"/>
+      <x:c r="B4" s="79"/>
+      <x:c r="C4" s="82"/>
+      <x:c r="D4" s="82"/>
       <x:c r="E4" s="51" t="s">
-        <x:v>244</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="F4" s="70"/>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="49"/>
-      <x:c r="B5" s="78"/>
-      <x:c r="C5" s="81"/>
-      <x:c r="D5" s="81"/>
+      <x:c r="B5" s="79"/>
+      <x:c r="C5" s="82"/>
+      <x:c r="D5" s="82"/>
       <x:c r="E5" s="51" t="s">
-        <x:v>29</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F5" s="70"/>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="49"/>
-      <x:c r="B6" s="78"/>
-      <x:c r="C6" s="81"/>
-      <x:c r="D6" s="81"/>
+      <x:c r="B6" s="79"/>
+      <x:c r="C6" s="82"/>
+      <x:c r="D6" s="82"/>
       <x:c r="E6" s="51" t="s">
-        <x:v>5</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F6" s="70"/>
     </x:row>
     <x:row r="7" spans="1:6" ht="32.75">
       <x:c r="A7" s="49"/>
-      <x:c r="B7" s="78"/>
-      <x:c r="C7" s="81"/>
-      <x:c r="D7" s="76"/>
+      <x:c r="B7" s="79"/>
+      <x:c r="C7" s="82"/>
+      <x:c r="D7" s="77"/>
       <x:c r="E7" s="52" t="s">
-        <x:v>34</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F7" s="70"/>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="49"/>
-      <x:c r="B8" s="78"/>
-      <x:c r="C8" s="81"/>
-      <x:c r="D8" s="75" t="s">
-        <x:v>210</x:v>
+      <x:c r="B8" s="79"/>
+      <x:c r="C8" s="82"/>
+      <x:c r="D8" s="76" t="s">
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E8" s="53" t="s">
-        <x:v>24</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F8" s="70"/>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="49"/>
-      <x:c r="B9" s="78"/>
-      <x:c r="C9" s="81"/>
-      <x:c r="D9" s="81"/>
+      <x:c r="B9" s="79"/>
+      <x:c r="C9" s="82"/>
+      <x:c r="D9" s="82"/>
       <x:c r="E9" s="51" t="s">
-        <x:v>228</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="F9" s="70"/>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="49"/>
-      <x:c r="B10" s="78"/>
-      <x:c r="C10" s="81"/>
-      <x:c r="D10" s="76"/>
+      <x:c r="B10" s="79"/>
+      <x:c r="C10" s="82"/>
+      <x:c r="D10" s="77"/>
       <x:c r="E10" s="54" t="s">
-        <x:v>231</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="F10" s="70"/>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="49"/>
-      <x:c r="B11" s="78"/>
-      <x:c r="C11" s="81"/>
-      <x:c r="D11" s="75" t="s">
-        <x:v>193</x:v>
+      <x:c r="B11" s="79"/>
+      <x:c r="C11" s="82"/>
+      <x:c r="D11" s="76" t="s">
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E11" s="53" t="s">
-        <x:v>166</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F11" s="70"/>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="49"/>
-      <x:c r="B12" s="78"/>
-      <x:c r="C12" s="76"/>
-      <x:c r="D12" s="76"/>
+      <x:c r="B12" s="79"/>
+      <x:c r="C12" s="77"/>
+      <x:c r="D12" s="77"/>
       <x:c r="E12" s="54" t="s">
-        <x:v>6</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F12" s="70"/>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="49"/>
-      <x:c r="B13" s="78"/>
-      <x:c r="C13" s="75" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="D13" s="75" t="s">
-        <x:v>208</x:v>
+      <x:c r="B13" s="79"/>
+      <x:c r="C13" s="76" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="D13" s="76" t="s">
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E13" s="53" t="s">
-        <x:v>219</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="F13" s="70"/>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="49"/>
-      <x:c r="B14" s="78"/>
-      <x:c r="C14" s="81"/>
-      <x:c r="D14" s="81"/>
+      <x:c r="B14" s="79"/>
+      <x:c r="C14" s="82"/>
+      <x:c r="D14" s="82"/>
       <x:c r="E14" s="51" t="s">
-        <x:v>25</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F14" s="70"/>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="49"/>
-      <x:c r="B15" s="78"/>
-      <x:c r="C15" s="81"/>
-      <x:c r="D15" s="81"/>
+      <x:c r="B15" s="79"/>
+      <x:c r="C15" s="82"/>
+      <x:c r="D15" s="82"/>
       <x:c r="E15" s="51" t="s">
-        <x:v>226</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="F15" s="70"/>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="49"/>
-      <x:c r="B16" s="78"/>
-      <x:c r="C16" s="81"/>
-      <x:c r="D16" s="76"/>
+      <x:c r="B16" s="79"/>
+      <x:c r="C16" s="82"/>
+      <x:c r="D16" s="77"/>
       <x:c r="E16" s="54" t="s">
-        <x:v>160</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F16" s="70"/>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="49"/>
-      <x:c r="B17" s="78"/>
-      <x:c r="C17" s="81"/>
-      <x:c r="D17" s="75" t="s">
-        <x:v>181</x:v>
+      <x:c r="B17" s="79"/>
+      <x:c r="C17" s="82"/>
+      <x:c r="D17" s="76" t="s">
+        <x:v>193</x:v>
       </x:c>
       <x:c r="E17" s="53" t="s">
-        <x:v>221</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="F17" s="70"/>
     </x:row>
     <x:row r="18" spans="1:6" ht="32.75">
       <x:c r="A18" s="49"/>
-      <x:c r="B18" s="78"/>
-      <x:c r="C18" s="76"/>
-      <x:c r="D18" s="76"/>
+      <x:c r="B18" s="79"/>
+      <x:c r="C18" s="77"/>
+      <x:c r="D18" s="77"/>
       <x:c r="E18" s="52" t="s">
-        <x:v>33</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F18" s="70"/>
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="49"/>
-      <x:c r="B19" s="78"/>
-      <x:c r="C19" s="75" t="s">
-        <x:v>185</x:v>
-      </x:c>
-      <x:c r="D19" s="75" t="s">
-        <x:v>40</x:v>
+      <x:c r="B19" s="79"/>
+      <x:c r="C19" s="76" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="D19" s="76" t="s">
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E19" s="53" t="s">
-        <x:v>220</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="F19" s="70"/>
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="49"/>
-      <x:c r="B20" s="78"/>
-      <x:c r="C20" s="81"/>
-      <x:c r="D20" s="76"/>
+      <x:c r="B20" s="79"/>
+      <x:c r="C20" s="82"/>
+      <x:c r="D20" s="77"/>
       <x:c r="E20" s="54" t="s">
-        <x:v>7</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F20" s="70"/>
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="49"/>
-      <x:c r="B21" s="78"/>
-      <x:c r="C21" s="81"/>
-      <x:c r="D21" s="75" t="s">
-        <x:v>68</x:v>
+      <x:c r="B21" s="79"/>
+      <x:c r="C21" s="82"/>
+      <x:c r="D21" s="76" t="s">
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E21" s="53" t="s">
-        <x:v>245</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="F21" s="70"/>
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="49"/>
-      <x:c r="B22" s="78"/>
-      <x:c r="C22" s="81"/>
-      <x:c r="D22" s="76"/>
+      <x:c r="B22" s="79"/>
+      <x:c r="C22" s="82"/>
+      <x:c r="D22" s="77"/>
       <x:c r="E22" s="54" t="s">
-        <x:v>167</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F22" s="70"/>
     </x:row>
     <x:row r="23" spans="1:6">
       <x:c r="A23" s="49"/>
-      <x:c r="B23" s="78"/>
-      <x:c r="C23" s="81"/>
+      <x:c r="B23" s="79"/>
+      <x:c r="C23" s="82"/>
       <x:c r="D23" s="37" t="s">
-        <x:v>194</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="E23" s="55" t="s">
-        <x:v>162</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F23" s="70"/>
     </x:row>
     <x:row r="24" spans="1:6">
       <x:c r="A24" s="49"/>
-      <x:c r="B24" s="78"/>
-      <x:c r="C24" s="81"/>
-      <x:c r="D24" s="75" t="s">
-        <x:v>55</x:v>
+      <x:c r="B24" s="79"/>
+      <x:c r="C24" s="82"/>
+      <x:c r="D24" s="76" t="s">
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E24" s="53" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F24" s="70"/>
     </x:row>
     <x:row r="25" spans="1:6">
       <x:c r="A25" s="49"/>
-      <x:c r="B25" s="78"/>
-      <x:c r="C25" s="81"/>
-      <x:c r="D25" s="81"/>
+      <x:c r="B25" s="79"/>
+      <x:c r="C25" s="82"/>
+      <x:c r="D25" s="82"/>
       <x:c r="E25" s="51" t="s">
-        <x:v>161</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F25" s="70"/>
     </x:row>
     <x:row r="26" spans="1:6">
       <x:c r="A26" s="49"/>
-      <x:c r="B26" s="78"/>
-      <x:c r="C26" s="81"/>
-      <x:c r="D26" s="81"/>
+      <x:c r="B26" s="79"/>
+      <x:c r="C26" s="82"/>
+      <x:c r="D26" s="82"/>
       <x:c r="E26" s="51" t="s">
-        <x:v>36</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F26" s="70"/>
     </x:row>
     <x:row r="27" spans="1:6" ht="16.75">
       <x:c r="A27" s="49"/>
-      <x:c r="B27" s="95"/>
-      <x:c r="C27" s="99"/>
-      <x:c r="D27" s="99"/>
+      <x:c r="B27" s="96"/>
+      <x:c r="C27" s="100"/>
+      <x:c r="D27" s="100"/>
       <x:c r="E27" s="56" t="s">
-        <x:v>227</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="F27" s="71"/>
     </x:row>
     <x:row r="28" spans="1:6" ht="16.75">
       <x:c r="A28" s="49"/>
-      <x:c r="B28" s="77" t="s">
-        <x:v>94</x:v>
+      <x:c r="B28" s="78" t="s">
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C28" s="72" t="s">
-        <x:v>148</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D28" s="72" t="s">
-        <x:v>173</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E28" s="73" t="s">
-        <x:v>225</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="F28" s="69"/>
     </x:row>
     <x:row r="29" spans="1:6">
       <x:c r="A29" s="49"/>
-      <x:c r="B29" s="78"/>
-      <x:c r="C29" s="75" t="s">
-        <x:v>149</x:v>
+      <x:c r="B29" s="79"/>
+      <x:c r="C29" s="76" t="s">
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D29" s="37" t="s">
-        <x:v>186</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E29" s="55" t="s">
-        <x:v>163</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F29" s="70"/>
     </x:row>
     <x:row r="30" spans="1:6">
       <x:c r="A30" s="49"/>
-      <x:c r="B30" s="78"/>
-      <x:c r="C30" s="81"/>
-      <x:c r="D30" s="75" t="s">
-        <x:v>192</x:v>
+      <x:c r="B30" s="79"/>
+      <x:c r="C30" s="82"/>
+      <x:c r="D30" s="76" t="s">
+        <x:v>217</x:v>
       </x:c>
       <x:c r="E30" s="53" t="s">
-        <x:v>218</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="F30" s="70"/>
     </x:row>
     <x:row r="31" spans="1:6">
       <x:c r="A31" s="49"/>
-      <x:c r="B31" s="78"/>
-      <x:c r="C31" s="81"/>
-      <x:c r="D31" s="81"/>
+      <x:c r="B31" s="79"/>
+      <x:c r="C31" s="82"/>
+      <x:c r="D31" s="82"/>
       <x:c r="E31" s="51" t="s">
-        <x:v>165</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F31" s="70"/>
     </x:row>
     <x:row r="32" spans="1:6">
       <x:c r="A32" s="49"/>
-      <x:c r="B32" s="78"/>
-      <x:c r="C32" s="81"/>
-      <x:c r="D32" s="81"/>
+      <x:c r="B32" s="79"/>
+      <x:c r="C32" s="82"/>
+      <x:c r="D32" s="82"/>
       <x:c r="E32" s="51" t="s">
-        <x:v>27</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F32" s="70"/>
     </x:row>
     <x:row r="33" spans="1:6" ht="16.75">
       <x:c r="A33" s="49"/>
-      <x:c r="B33" s="95"/>
-      <x:c r="C33" s="99"/>
-      <x:c r="D33" s="99"/>
+      <x:c r="B33" s="96"/>
+      <x:c r="C33" s="100"/>
+      <x:c r="D33" s="100"/>
       <x:c r="E33" s="56" t="s">
-        <x:v>214</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="F33" s="71"/>
     </x:row>
     <x:row r="34" spans="1:6">
       <x:c r="A34" s="49"/>
-      <x:c r="B34" s="78" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="C34" s="81"/>
-      <x:c r="D34" s="81"/>
+      <x:c r="B34" s="79" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C34" s="82"/>
+      <x:c r="D34" s="82"/>
       <x:c r="E34" s="51" t="s">
-        <x:v>10</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F34" s="70"/>
     </x:row>
     <x:row r="35" spans="1:6" ht="16.75">
       <x:c r="A35" s="49"/>
-      <x:c r="B35" s="95"/>
-      <x:c r="C35" s="99"/>
-      <x:c r="D35" s="99"/>
+      <x:c r="B35" s="96"/>
+      <x:c r="C35" s="100"/>
+      <x:c r="D35" s="100"/>
       <x:c r="E35" s="56" t="s">
-        <x:v>217</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="F35" s="71"/>
     </x:row>

--- a/2021_Summer/jp.hong/Datebook_jph.xlsx
+++ b/2021_Summer/jp.hong/Datebook_jph.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="252">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="254">
   <x:si>
     <x:t>1. 요구사항 분석 (실현성 확인)
 2. 데이터 흐름도 수정
@@ -33,79 +33,10 @@
  -&gt; 주유, 부품들의 수명정보(?) 어떻게 자동으로 받아올지 알아봐야함 -&gt; 블루투스 =&gt; 블루투스 연동 어떻게?</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 요구사항 정의 및 분석 - 체계화
- - 기능 / 비기능적 요구사항 분류 및 수정
-2. 요구사항 분석
-3. 구현 가능 여부 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06.22, 06.23 회의록 작성
-2. Git 환경 설정
-3. Git 설정 화면 캡처 및 보고서 작성
-4. 캡스톤 아이디어 도출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 수집 및 정의
- - 관련 필요 자료 조사
- - 기능적/ 비기능적 요구사항 내용 추가
-2. 개발에 필요한 요구사항 분석 (실현성 확인)</x:t>
-  </x:si>
-  <x:si>
     <x:t>1. 필요 자료 추가 조사
 2. 한계점 및 필요기술 추가
  - 차량 블루투스와 어플 연결 어떻게?
  - 연결이 된다면 원하는 정보만 어떻게 가져 올건지?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 화면 시퀀스 작성 (설명, 커뮤니티, 알림, 설정화면 추가)
-2. 추가 자료 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 예약을 하는 과정에서 사용자가 선택한 지점과 선택된 지점의 정보가 일치해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알맞은 ID값과 패스워드 값이 입력 될 경우 그에 맞는 회원 정보가 로그인 되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판의 글을 삭제하거나 올리기 위한 '글쓰기'버튼과 '글 삭제' 버튼이 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 가입시 아이디, 비밀번호, 이름, 전화번호, 생년월일, 차종의 정보를 받아야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. DateBook_Comment 부분 수정
-2. GIT보고서 수정
- - 설치 과정 추가
- - 명령어 부분 내용 추가
-3. PPT 머릿글 요약 작성 - (미완)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 경쟁 어플 메뉴트리 수정
-2. 요구사항, 기능정의 순서 수정
-3. 한계점 수정
-블루투스 -&gt; 사진 촬영 ====&gt; 대체하게 되면 글자 인식하는 코드 필요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
- - 컴퓨터 견적 추천 앱
- - 주차시 사고발생 알림 앱
-2. 주제 아이디어 최종 선정
- - 차량 관리 어플
-3. 개발 계획서 및 요구사항 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 진행사항 체크 및 2주차 목표 설정
-2. 06.28 회의록 작성
-3. 상용화 된 타 앱 기능 분석
-4. 요구사항 정의
- - 회원가입, DB, 무결성 (미완)
-5. vi사용법 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 07.02 회의록 작성
-2. Git 업로드 한 것 중 중복된 것들 삭제
-3. 어플 흐름 구상도 작성
-4. 요구사항/기능 정의/기능 설계 3가지 부분으로 나누어 요구사항 수정(미완)</x:t>
   </x:si>
   <x:si>
     <x:t>1. 실습 환경 설정 및 설명
@@ -119,12 +50,13 @@
  - 차량 관리 어플</x:t>
   </x:si>
   <x:si>
-    <x:t>1-1. Datebook Comment 부분 요약
-1-2. GIT 보고서 다시 작성
-1-3. PPT 머릿글 요약 작성
-1-4. 파일명 수정
-1-5 최종 아이디어 선정 이유 작성
-2. 요구사항 수집 및 분석</x:t>
+    <x:t>1. 계획하고 있는 어플의 메뉴트리 작성 및 ppt 수정
+2. 요구사항 추가 및 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 플로우 차트 작성
+2. 설계 계획서 작성
+3. Menu_Tree 도식화 수정</x:t>
   </x:si>
   <x:si>
     <x:t>1. 현장실습 OT
@@ -137,29 +69,101 @@
  - 개발 설계</x:t>
   </x:si>
   <x:si>
-    <x:t>1. Git 목록 삭제
+    <x:t>1. 아이디어 도출
+ - 컴퓨터 견적 추천 앱
+ - 주차시 사고발생 알림 앱
+2. 주제 아이디어 최종 선정
+ - 차량 관리 어플
+3. 개발 계획서 및 요구사항 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. DateBook_Comment 부분 수정
+2. GIT보고서 수정
+ - 설치 과정 추가
+ - 명령어 부분 내용 추가
+3. PPT 머릿글 요약 작성 - (미완)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 경쟁 어플 메뉴트리 수정
+2. 요구사항, 기능정의 순서 수정
+3. 한계점 수정
+블루투스 -&gt; 사진 촬영 ====&gt; 대체하게 되면 글자 인식하는 코드 필요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-1. Datebook Comment 부분 요약
+1-2. GIT 보고서 다시 작성
+1-3. PPT 머릿글 요약 작성
+1-4. 파일명 수정
+1-5 최종 아이디어 선정 이유 작성
+2. 요구사항 수집 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06_30 회의록 작성
+2. 요구사항 수정 및 관련 필요 자료 조사
+3. 15:00 ~ 지도교수 면담</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성(login, join, 내 차고, 차량 정보) 미완
+2. 블루투스 관련 자료 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+2. 최종 아이디어 선정
+3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 화면을 들어가게 되면 아이디와 비밀번호의 입력 창, 회원가입 버튼과
+로그인 버튼이 나와야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성
+ - 화면별 세부기능 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 날짜를 기록할 수 있도록 다이어리 형식으로 제공해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외부에서 받아오는 정보(지도, 가격 등)에 변조가 없어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록된 사용자만이 자신이 등록한 차량의 정보를 확인해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사라지거나 위치가 바뀐 정보를 수시로 업데이트 해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택 된 부품은 값의 변조 없이 알맞은 값이 저장되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정 기능을 통해 작성했던 글을 수정 할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품의 종류를 다르게 하여 여러가지를 선택 할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. vi 명령어 설명서 작성
+2. 요구사항 정의 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입시 필요한 정보 및 소유한 차량의 정보를 포함해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유, 연비, 운행거리, 정비 및 기타비용 총액/월별 지출액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>각 버튼 및 창 기능 설명 + 기능 플로우 + 설계 기획 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 정의 및 분석 - 체계화
+ - 기능 / 비기능적 요구사항 분류 및 수정
 2. 요구사항 분석
-3. 인터페이스 구상도 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성 (미완)
-2. 스피너 및 캘린더 뷰 다이어리 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 추가 자료조사(관련 코드)
-2. FlowChart 수정 및 보완</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어플의 예약기능을 통해 예약한 경우 업체로부터 일정 수수료를 받는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호는 특수문자 포함 8자리 이상 12자리 이하 이어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주행 거리 정보를 받아 계산하여 남은 수명에 대해 알려 주어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소유한 차량이 여러 대일 경우 차량의 정보를 추가할 수 있어야 한다.</x:t>
+3. 구현 가능 여부 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06.22, 06.23 회의록 작성
+2. Git 환경 설정
+3. Git 설정 화면 캡처 및 보고서 작성
+4. 캡스톤 아이디어 도출</x:t>
   </x:si>
   <x:si>
     <x:t>1. (2-2) 수익적 요소 추가
@@ -168,434 +172,79 @@
  - 비슷한 어플(마이클) 화면 구성 조사</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 계획하고 있는 어플의 메뉴트리 작성 및 ppt 수정
-2. 요구사항 추가 및 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 플로우 차트 작성
-2. 설계 계획서 작성
-3. Menu_Tree 도식화 수정</x:t>
-  </x:si>
-  <x:si>
     <x:t>1. 앱 화면별 Sequence 작성
 2. 앱 화면별 어떻게 구성할 것인지 구상
 3. 추가 자료조사</x:t>
   </x:si>
   <x:si>
-    <x:t>1. vi 명령어 설명서 작성
-2. 요구사항 정의 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 날짜를 기록할 수 있도록 다이어리 형식으로 제공해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록된 사용자만이 자신이 등록한 차량의 정보를 확인해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택 된 부품은 값의 변조 없이 알맞은 값이 저장되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외부에서 받아오는 정보(지도, 가격 등)에 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유, 연비, 운행거리, 정비 및 기타비용 총액/월별 지출액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정 기능을 통해 작성했던 글을 수정 할 수 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사라지거나 위치가 바뀐 정보를 수시로 업데이트 해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품의 종류를 다르게 하여 여러가지를 선택 할 수 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입시 필요한 정보 및 소유한 차량의 정보를 포함해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
-2. 최종 아이디어 선정
-3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06_30 회의록 작성
-2. 요구사항 수정 및 관련 필요 자료 조사
-3. 15:00 ~ 지도교수 면담</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 화면을 들어가게 되면 아이디와 비밀번호의 입력 창, 회원가입 버튼과
-로그인 버튼이 나와야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성(login, join, 내 차고, 차량 정보) 미완
-2. 블루투스 관련 자료 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점검내역서(정비소 제공 문서)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주행 거리별 check list</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 정보(오너들의 평균 정보)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교체할 부품을 선택 받아야 한다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>회원가입을 위해 시도한 비밀번호가 7자리 이하이거나 13자리 이상일 경우
 비밀번호 입력 오류 메세지가 출력되어야 한다.</x:t>
   </x:si>
   <x:si>
-    <x:t>경기/인천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오너들의 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수리견적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>견적 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객상담</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이클 이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신 글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기록 및 통계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오늘 교체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균연비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연차, 보험료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tips</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공유게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>더 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 방문 장소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Menu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 검사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자차 게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>함수의 계산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALL*</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공식 서비스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이어리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 주변 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수익적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약 교체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험사 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비기능적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메모 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 시기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결함/리콜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에어컨필터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균 연비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첫예약할인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 항목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카카오톡 문의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>setting</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 후기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모두의 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엔진오일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 시세</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필요 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일정 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차 정보 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Home</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연비 랭킹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모아보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용 가이드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에어컨 필터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>디테일링</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타이어샵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타 항목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 구매</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Community</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:23
-15:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 장착점 예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운전자 추천 서비스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:27
-18:05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비소 지도 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:36
-18:07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:27
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 보험료 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:25
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 정보 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운전자 보험료 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:22
-18:01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진행 방향 ---&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:40
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스 (메뉴)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:43
-18:01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:32
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 정보 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 기본 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 형태로 존재</x:t>
-  </x:si>
-  <x:si>
-    <x:t>community</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고장사례(리콜사례)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 판매견적 받기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자주 하는 질문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 정비소 예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유사 모델 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 보험 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품 교체 예상 견적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약/견적 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 보험료 계산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:30
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:43
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰 보유 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09:00
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성</x:t>
+    <x:t>로그인에 성공했다면 로그인 버튼이 아닌 로그 아웃 버튼을 보여주어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중복되는 아이디로 가입시도시 아이디 입력 오류 메세지가 출력되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 인터페이스 구상도 작성
+2. 요구사항 분류하여 수정
+3. 추가 자료조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 수집 및 정의
+2. 요구사항 분석
+3. 구현 가능 여부 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 추가 자료조사
+2. 요구사항 추가 조사
+3. 경쟁 어플 기능 비교 보완</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성(설명,컨테이너등 정보 채우기)
+2. 기능플로우 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성 (미완)
+2. 스피너 및 캘린더 뷰 다이어리 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Git 목록 삭제
+2. 요구사항 분석
+3. 인터페이스 구상도 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 추가 자료조사(관련 코드)
+2. FlowChart 수정 및 보완</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어플의 예약기능을 통해 예약한 경우 업체로부터 일정 수수료를 받는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호는 특수문자 포함 8자리 이상 12자리 이하 이어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주행 거리 정보를 받아 계산하여 남은 수명에 대해 알려 주어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소유한 차량이 여러 대일 경우 차량의 정보를 추가할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알맞은 ID값과 패스워드 값이 입력 될 경우 그에 맞는 회원 정보가 로그인 되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 예약을 하는 과정에서 사용자가 선택한 지점과 선택된 지점의 정보가 일치해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 가입시 아이디, 비밀번호, 이름, 전화번호, 생년월일, 차종의 정보를 받아야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판의 글을 삭제하거나 올리기 위한 '글쓰기'버튼과 '글 삭제' 버튼이 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 화면 시퀀스 작성 (설명, 커뮤니티, 알림, 설정화면 추가)
+2. 추가 자료 조사</x:t>
   </x:si>
   <x:si>
     <x:t>1. vi 명령어 설명서 작성 완료
@@ -604,45 +253,184 @@
  - 비기능적 요구사항</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 메뉴시퀀스 작성(설명,컨테이너등 정보 채우기)
-2. 기능플로우 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 인터페이스 구상도 작성
-2. 요구사항 분류하여 수정
-3. 추가 자료조사</x:t>
-  </x:si>
-  <x:si>
     <x:t>1. 요구사항 수집 및 정의
-2. 요구사항 분석
-3. 구현 가능 여부 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 추가 자료조사
-2. 요구사항 추가 조사
-3. 경쟁 어플 기능 비교 보완</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중복되는 아이디로 가입시도시 아이디 입력 오류 메세지가 출력되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인에 성공했다면 로그인 버튼이 아닌 로그 아웃 버튼을 보여주어야 한다.</x:t>
+ - 관련 필요 자료 조사
+ - 기능적/ 비기능적 요구사항 내용 추가
+2. 개발에 필요한 요구사항 분석 (실현성 확인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 진행사항 체크 및 2주차 목표 설정
+2. 06.28 회의록 작성
+3. 상용화 된 타 앱 기능 분석
+4. 요구사항 정의
+ - 회원가입, DB, 무결성 (미완)
+5. vi사용법 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 07.02 회의록 작성
+2. Git 업로드 한 것 중 중복된 것들 삭제
+3. 어플 흐름 구상도 작성
+4. 요구사항/기능 정의/기능 설계 3가지 부분으로 나누어 요구사항 수정(미완)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교체할 부품을 선택 받아야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 정보(오너들의 평균 정보)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검내역서(정비소 제공 문서)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주행 거리별 check list</x:t>
   </x:si>
   <x:si>
     <x:t>데이터 연동 설정</x:t>
   </x:si>
   <x:si>
     <x:t>친구 초대 이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험료 계산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰 보유 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 정비소 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09:00
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품 교체 예상 견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유사 모델 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약/견적 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:43
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:30
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험 선호도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>할인 쿠폰 등록</x:t>
   </x:si>
   <x:si>
     <x:t>08:32
 18:03</x:t>
   </x:si>
   <x:si>
-    <x:t>자동차 보험 선호도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>할인 쿠폰 등록</x:t>
+    <x:t>08:36
+18:07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:25
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 보험료 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운전자 추천 서비스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:27
+18:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비소 지도 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:23
+15:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 장착점 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Community</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:27
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고장사례(리콜사례)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 판매견적 받기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:32
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자주 하는 질문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 기본 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진행 방향 ---&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:40
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:43
+18:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 정보 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스 (메뉴)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 형태로 존재</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:22
+18:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 정보 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운전자 보험료 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>community</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장마철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Q&amp;A</x:t>
   </x:si>
   <x:si>
     <x:t>쿠폰함</x:t>
@@ -651,129 +439,117 @@
     <x:t>가을</x:t>
   </x:si>
   <x:si>
-    <x:t>이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장마철</x:t>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이클</x:t>
   </x:si>
   <x:si>
     <x:t>만족도</x:t>
   </x:si>
   <x:si>
-    <x:t>기록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이클</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Q&amp;A</x:t>
+    <x:t>겨울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>편집</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보안성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채팅창</x:t>
+  </x:si>
+  <x:si>
+    <x:t>봄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계절별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭설철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비소</x:t>
   </x:si>
   <x:si>
     <x:t>상황별</x:t>
   </x:si>
   <x:si>
+    <x:t>DB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인기글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>손세차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타이어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검</x:t>
+  </x:si>
+  <x:si>
     <x:t>검색</x:t>
   </x:si>
   <x:si>
-    <x:t>평점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭설철</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채팅창</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타이어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점검</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비</x:t>
-  </x:si>
-  <x:si>
     <x:t>달력</x:t>
   </x:si>
   <x:si>
-    <x:t>봄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>편집</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보안성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인기글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>손세차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
     <x:t>리뷰</x:t>
   </x:si>
   <x:si>
-    <x:t>겨울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계절별</x:t>
-  </x:si>
-  <x:si>
     <x:t>게시판</x:t>
   </x:si>
   <x:si>
@@ -783,71 +559,331 @@
     <x:t>최신글</x:t>
   </x:si>
   <x:si>
+    <x:t>경기/인천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수리견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오너들의 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>견적 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이클 이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객상담</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균연비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비기능적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자차 게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>함수의 계산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메모 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신 글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 방문 장소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tips</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공식 서비스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연차, 보험료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기록 및 통계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공유게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 검사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오늘 교체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>더 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이어리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 주변 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수익적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험사 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALL*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약 교체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>setting</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 후기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 시세</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에어컨필터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Home</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연비 랭킹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용 가이드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>디테일링</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에어컨 필터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타이어샵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 시기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필요 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일정 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엔진오일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균 연비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카카오톡 문의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첫예약할인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모두의 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차 정보 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모아보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결함/리콜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 구매</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타 항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 무료 판매 견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품 별 남은 수명 보여줌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유소 포인트 적립 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이달의 정비/세차 혜택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험료 확인 및 갱신일 알림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차종, 차번호, 연식 등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 정비소 찾아보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기아 커넥티드카 연동하기</x:t>
+  </x:si>
+  <x:si>
     <x:t>방문 정비소 기록, 메모</x:t>
   </x:si>
   <x:si>
-    <x:t>차종, 차번호, 연식 등</x:t>
-  </x:si>
-  <x:si>
     <x:t>항목 및 정비 주기 추가</x:t>
   </x:si>
   <x:si>
-    <x:t>이달의 정비/세차 혜택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품 별 남은 수명 보여줌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유소 포인트 적립 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 무료 판매 견적</x:t>
-  </x:si>
-  <x:si>
     <x:t>점검 스케쥴 및 일정 관리</x:t>
   </x:si>
   <x:si>
-    <x:t>가까운 정비소 찾아보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험료 확인 및 갱신일 알림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기아 커넥티드카 연동하기</x:t>
+    <x:t>APP종료시 입력된 데이터는 변조가 없어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 화면 시퀀스 작성
+2. 추가 자료 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유량, 연비, 운행 거리 및 기타 비용 통계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DB에 저장된 내용들은 변조가 없어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판을 이용하기 위해서는 로그인을 해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 계약서 작성
+2. 현장실습 오리엔테이션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어플 내 광고를 통해 일정 수입료를 받는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이콘을 활용하여 한 눈에 확인하기 쉬워야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:36
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험, 범칙금, 주차요금, 톨게이트 비용, 차량용품 등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 실패시 로그인 오류 메세지를 출력해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 정의 및 분석 보완
+2. 기능정의 보완</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채팅방 및 게시판에 들어가기 위해서는 로그인을 해야한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품들의 시세변동을 지속적으로 업데이트 해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>할인률, 총액의 계산 과정에 오류가 있어선 안된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판의 글들은 페이지당 20개씩 보여주어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06.28 회의록 작성
+2. 요구사항 정의 및 분석</x:t>
   </x:si>
   <x:si>
     <x:t>1. Menu_Tree 수정(완료)
 2. 추가 자료 조사</x:t>
   </x:si>
   <x:si>
-    <x:t>채팅방 및 게시판에 들어가기 위해서는 로그인을 해야한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06.28 회의록 작성
-2. 요구사항 정의 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 정의 및 분석 보완
-2. 기능정의 보완</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 실패시 로그인 오류 메세지를 출력해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>할인률, 총액의 계산 과정에 오류가 있어선 안된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험, 범칙금, 주차요금, 톨게이트 비용, 차량용품 등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판의 글들은 페이지당 20개씩 보여주어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품들의 시세변동을 지속적으로 업데이트 해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:36
-18:02</x:t>
+    <x:t>게시판 형태로 존재, 결함/리콜 내역</x:t>
   </x:si>
   <x:si>
     <x:t>중복되는 아이디는 가입이 되어선 안된다.</x:t>
@@ -857,35 +893,6 @@
   </x:si>
   <x:si>
     <x:t>정확한 위치의 지도 정보를 받아와야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 형태로 존재, 결함/리콜 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유량, 연비, 운행 거리 및 기타 비용 통계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어플 내 광고를 통해 일정 수입료를 받는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판을 이용하기 위해서는 로그인을 해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이콘을 활용하여 한 눈에 확인하기 쉬워야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 화면 시퀀스 작성
-2. 추가 자료 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DB에 저장된 내용들은 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>APP종료시 입력된 데이터는 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 계약서 작성
-2. 현장실습 오리엔테이션</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2946,7 +2953,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:pane xSplit="0" ySplit="2" topLeftCell="C12" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" activeCell="D21" activeCellId="0" sqref="D21:D21"/>
+      <x:selection pane="bottomLeft" activeCell="E22" activeCellId="0" sqref="E22:E22"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.199999999999999"/>
@@ -2962,16 +2969,16 @@
     <x:row r="1" ht="6.5999999999999996" customHeight="1"/>
     <x:row r="2" spans="2:5" ht="31.199999999999999" customHeight="1">
       <x:c r="B2" s="5" t="s">
-        <x:v>122</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="C2" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="D2" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E2" s="7" t="s">
-        <x:v>117</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:5" ht="105.75">
@@ -2979,13 +2986,13 @@
         <x:v>44369</x:v>
       </x:c>
       <x:c r="C3" s="15" t="s">
-        <x:v>159</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D3" s="9" t="s">
-        <x:v>251</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="E3" s="9" t="s">
-        <x:v>17</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:5" ht="118.55">
@@ -2993,13 +3000,13 @@
         <x:v>44370</x:v>
       </x:c>
       <x:c r="C4" s="14" t="s">
-        <x:v>159</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D4" s="12" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E4" s="12" t="s">
         <x:v>2</x:v>
-      </x:c>
-      <x:c r="E4" s="12" t="s">
-        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:5" ht="79.049999999999997">
@@ -3007,13 +3014,13 @@
         <x:v>44371</x:v>
       </x:c>
       <x:c r="C5" s="16" t="s">
-        <x:v>156</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D5" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E5" s="12" t="s">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:5" ht="79.049999999999997">
@@ -3021,13 +3028,13 @@
         <x:v>44372</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
-        <x:v>156</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D6" s="12" t="s">
-        <x:v>16</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E6" s="17" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:5" ht="79.049999999999997">
@@ -3035,13 +3042,13 @@
         <x:v>44375</x:v>
       </x:c>
       <x:c r="C7" s="14" t="s">
-        <x:v>129</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D7" s="12" t="s">
-        <x:v>232</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E7" s="12" t="s">
-        <x:v>13</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:5" ht="52.700000000000003">
@@ -3049,13 +3056,13 @@
         <x:v>44376</x:v>
       </x:c>
       <x:c r="C8" s="14" t="s">
-        <x:v>131</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D8" s="12" t="s">
-        <x:v>29</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E8" s="12" t="s">
-        <x:v>161</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:5" ht="52.700000000000003">
@@ -3063,13 +3070,13 @@
         <x:v>44377</x:v>
       </x:c>
       <x:c r="C9" s="19" t="s">
-        <x:v>126</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D9" s="12" t="s">
-        <x:v>1</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E9" s="12" t="s">
-        <x:v>40</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:5" ht="52.700000000000003">
@@ -3077,13 +3084,13 @@
         <x:v>44378</x:v>
       </x:c>
       <x:c r="C10" s="20" t="s">
-        <x:v>170</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D10" s="12" t="s">
-        <x:v>164</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E10" s="12" t="s">
-        <x:v>3</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:5" ht="65.849999999999994">
@@ -3091,13 +3098,13 @@
         <x:v>44379</x:v>
       </x:c>
       <x:c r="C11" s="22" t="s">
-        <x:v>132</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D11" s="12" t="s">
-        <x:v>18</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E11" s="12" t="s">
-        <x:v>14</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:5" ht="105.40000000000001">
@@ -3105,10 +3112,10 @@
         <x:v>44382</x:v>
       </x:c>
       <x:c r="C12" s="21" t="s">
-        <x:v>134</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D12" s="12" t="s">
-        <x:v>163</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E12" s="12" t="s">
         <x:v>0</x:v>
@@ -3119,13 +3126,13 @@
         <x:v>44383</x:v>
       </x:c>
       <x:c r="C13" s="23" t="s">
-        <x:v>170</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D13" s="12" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="12" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:5" ht="52.700000000000003">
@@ -3133,13 +3140,13 @@
         <x:v>44384</x:v>
       </x:c>
       <x:c r="C14" s="24" t="s">
-        <x:v>137</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D14" s="12" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E14" s="12" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="E14" s="12" t="s">
-        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:5" ht="52.700000000000003">
@@ -3147,13 +3154,13 @@
         <x:v>44385</x:v>
       </x:c>
       <x:c r="C15" s="30" t="s">
-        <x:v>157</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D15" s="12" t="s">
-        <x:v>165</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E15" s="12" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:5" ht="26.350000000000001">
@@ -3161,13 +3168,13 @@
         <x:v>44386</x:v>
       </x:c>
       <x:c r="C16" s="31" t="s">
-        <x:v>139</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D16" s="12" t="s">
-        <x:v>233</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="E16" s="12" t="s">
-        <x:v>26</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:5" ht="39.549999999999997">
@@ -3175,13 +3182,13 @@
         <x:v>44389</x:v>
       </x:c>
       <x:c r="C17" s="74" t="s">
-        <x:v>142</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D17" s="12" t="s">
-        <x:v>27</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E17" s="12" t="s">
-        <x:v>230</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:5" ht="26.350000000000001">
@@ -3189,13 +3196,13 @@
         <x:v>44390</x:v>
       </x:c>
       <x:c r="C18" s="75" t="s">
-        <x:v>141</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D18" s="12" t="s">
-        <x:v>248</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="E18" s="12" t="s">
-        <x:v>42</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:5" ht="26.350000000000001">
@@ -3203,13 +3210,13 @@
         <x:v>44391</x:v>
       </x:c>
       <x:c r="C19" s="75" t="s">
-        <x:v>170</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D19" s="12" t="s">
-        <x:v>248</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="E19" s="12" t="s">
-        <x:v>19</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:5" ht="26.350000000000001">
@@ -3217,13 +3224,13 @@
         <x:v>44392</x:v>
       </x:c>
       <x:c r="C20" s="14" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="D20" s="12" t="s">
-        <x:v>5</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E20" s="11" t="s">
-        <x:v>160</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="2:5" ht="26.350000000000001">
@@ -3232,16 +3239,20 @@
       </x:c>
       <x:c r="C21" s="10"/>
       <x:c r="D21" s="12" t="s">
-        <x:v>162</x:v>
-      </x:c>
-      <x:c r="E21" s="11"/>
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E21" s="12" t="s">
+        <x:v>14</x:v>
+      </x:c>
     </x:row>
     <x:row r="22" spans="2:5">
       <x:c r="B22" s="13">
         <x:v>44396</x:v>
       </x:c>
       <x:c r="C22" s="10"/>
-      <x:c r="D22" s="11"/>
+      <x:c r="D22" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
       <x:c r="E22" s="11"/>
     </x:row>
     <x:row r="23" spans="2:5">
@@ -3432,54 +3443,54 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="17.149999999999999">
       <x:c r="A1" s="26" t="s">
-        <x:v>138</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B1" s="33" t="s">
-        <x:v>72</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C1" s="34" t="s">
-        <x:v>87</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D1" s="34" t="s">
-        <x:v>66</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="E1" s="34" t="s">
-        <x:v>51</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F1" s="34" t="s">
-        <x:v>98</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="G1" s="34" t="s">
-        <x:v>113</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="H1" s="34" t="s">
-        <x:v>198</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="I1" s="35" t="s">
-        <x:v>188</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:9">
       <x:c r="A2" s="84" t="s">
-        <x:v>182</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B2" s="78" t="s">
-        <x:v>197</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C2" s="81" t="s">
-        <x:v>88</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D2" s="81" t="s">
-        <x:v>112</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E2" s="38" t="s">
-        <x:v>108</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="F2" s="38"/>
       <x:c r="G2" s="38"/>
       <x:c r="H2" s="38"/>
       <x:c r="I2" s="38" t="s">
-        <x:v>148</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -3488,13 +3499,13 @@
       <x:c r="C3" s="82"/>
       <x:c r="D3" s="82"/>
       <x:c r="E3" s="37" t="s">
-        <x:v>152</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F3" s="37"/>
       <x:c r="G3" s="37"/>
       <x:c r="H3" s="37"/>
       <x:c r="I3" s="37" t="s">
-        <x:v>228</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -3503,7 +3514,7 @@
       <x:c r="C4" s="82"/>
       <x:c r="D4" s="82"/>
       <x:c r="E4" s="37" t="s">
-        <x:v>89</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="F4" s="37"/>
       <x:c r="G4" s="37"/>
@@ -3516,10 +3527,10 @@
       <x:c r="C5" s="82"/>
       <x:c r="D5" s="82"/>
       <x:c r="E5" s="76" t="s">
-        <x:v>94</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="F5" s="37" t="s">
-        <x:v>70</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="G5" s="37"/>
       <x:c r="H5" s="37"/>
@@ -3532,7 +3543,7 @@
       <x:c r="D6" s="77"/>
       <x:c r="E6" s="77"/>
       <x:c r="F6" s="37" t="s">
-        <x:v>135</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G6" s="37"/>
       <x:c r="H6" s="37"/>
@@ -3543,10 +3554,10 @@
       <x:c r="B7" s="79"/>
       <x:c r="C7" s="82"/>
       <x:c r="D7" s="76" t="s">
-        <x:v>52</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E7" s="37" t="s">
-        <x:v>178</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F7" s="37"/>
       <x:c r="G7" s="37"/>
@@ -3559,13 +3570,13 @@
       <x:c r="C8" s="82"/>
       <x:c r="D8" s="82"/>
       <x:c r="E8" s="37" t="s">
-        <x:v>202</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F8" s="37"/>
       <x:c r="G8" s="37"/>
       <x:c r="H8" s="37"/>
       <x:c r="I8" s="37" t="s">
-        <x:v>34</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -3574,13 +3585,13 @@
       <x:c r="C9" s="82"/>
       <x:c r="D9" s="82"/>
       <x:c r="E9" s="37" t="s">
-        <x:v>201</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F9" s="37"/>
       <x:c r="G9" s="37"/>
       <x:c r="H9" s="37"/>
       <x:c r="I9" s="37" t="s">
-        <x:v>226</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -3589,10 +3600,10 @@
       <x:c r="C10" s="82"/>
       <x:c r="D10" s="82"/>
       <x:c r="E10" s="76" t="s">
-        <x:v>71</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F10" s="37" t="s">
-        <x:v>100</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="G10" s="37"/>
       <x:c r="H10" s="37"/>
@@ -3605,12 +3616,12 @@
       <x:c r="D11" s="82"/>
       <x:c r="E11" s="82"/>
       <x:c r="F11" s="37" t="s">
-        <x:v>123</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="G11" s="37"/>
       <x:c r="H11" s="37"/>
       <x:c r="I11" s="37" t="s">
-        <x:v>236</x:v>
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -3620,7 +3631,7 @@
       <x:c r="D12" s="82"/>
       <x:c r="E12" s="82"/>
       <x:c r="F12" s="37" t="s">
-        <x:v>207</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G12" s="37"/>
       <x:c r="H12" s="37"/>
@@ -3633,12 +3644,12 @@
       <x:c r="D13" s="77"/>
       <x:c r="E13" s="77"/>
       <x:c r="F13" s="37" t="s">
-        <x:v>194</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="G13" s="37"/>
       <x:c r="H13" s="37"/>
       <x:c r="I13" s="37" t="s">
-        <x:v>221</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="J13" s="29"/>
       <x:c r="K13" s="29"/>
@@ -3664,19 +3675,19 @@
       <x:c r="A14" s="85"/>
       <x:c r="B14" s="79"/>
       <x:c r="C14" s="76" t="s">
-        <x:v>106</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="D14" s="76" t="s">
-        <x:v>102</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="E14" s="37" t="s">
-        <x:v>186</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F14" s="37"/>
       <x:c r="G14" s="37"/>
       <x:c r="H14" s="37"/>
       <x:c r="I14" s="37" t="s">
-        <x:v>177</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="J14" s="29"/>
       <x:c r="K14" s="29"/>
@@ -3704,13 +3715,13 @@
       <x:c r="C15" s="82"/>
       <x:c r="D15" s="82"/>
       <x:c r="E15" s="37" t="s">
-        <x:v>95</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="F15" s="37"/>
       <x:c r="G15" s="37"/>
       <x:c r="H15" s="37"/>
       <x:c r="I15" s="37" t="s">
-        <x:v>115</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="J15" s="29"/>
       <x:c r="K15" s="29"/>
@@ -3738,7 +3749,7 @@
       <x:c r="C16" s="82"/>
       <x:c r="D16" s="82"/>
       <x:c r="E16" s="37" t="s">
-        <x:v>104</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="F16" s="37"/>
       <x:c r="G16" s="37"/>
@@ -3769,13 +3780,13 @@
       <x:c r="C17" s="82"/>
       <x:c r="D17" s="77"/>
       <x:c r="E17" s="37" t="s">
-        <x:v>91</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="F17" s="37"/>
       <x:c r="G17" s="37"/>
       <x:c r="H17" s="37"/>
       <x:c r="I17" s="37" t="s">
-        <x:v>243</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="J17" s="29"/>
       <x:c r="K17" s="29"/>
@@ -3802,13 +3813,13 @@
       <x:c r="B18" s="79"/>
       <x:c r="C18" s="82"/>
       <x:c r="D18" s="37" t="s">
-        <x:v>171</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E18" s="37" t="s">
-        <x:v>155</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F18" s="37" t="s">
-        <x:v>85</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="G18" s="37"/>
       <x:c r="H18" s="37"/>
@@ -3838,14 +3849,14 @@
       <x:c r="B19" s="79"/>
       <x:c r="C19" s="82"/>
       <x:c r="D19" s="37" t="s">
-        <x:v>213</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E19" s="37"/>
       <x:c r="F19" s="37"/>
       <x:c r="G19" s="37"/>
       <x:c r="H19" s="37"/>
       <x:c r="I19" s="76" t="s">
-        <x:v>145</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="J19" s="29"/>
       <x:c r="K19" s="29"/>
@@ -3872,7 +3883,7 @@
       <x:c r="B20" s="79"/>
       <x:c r="C20" s="82"/>
       <x:c r="D20" s="37" t="s">
-        <x:v>91</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="E20" s="37"/>
       <x:c r="F20" s="37"/>
@@ -3904,7 +3915,7 @@
       <x:c r="B21" s="79"/>
       <x:c r="C21" s="82"/>
       <x:c r="D21" s="37" t="s">
-        <x:v>104</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="E21" s="37"/>
       <x:c r="F21" s="37"/>
@@ -3936,7 +3947,7 @@
       <x:c r="B22" s="80"/>
       <x:c r="C22" s="77"/>
       <x:c r="D22" s="37" t="s">
-        <x:v>151</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E22" s="37"/>
       <x:c r="F22" s="37"/>
@@ -3966,10 +3977,10 @@
     <x:row r="23" spans="1:28">
       <x:c r="A23" s="85"/>
       <x:c r="B23" s="83" t="s">
-        <x:v>96</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="C23" s="37" t="s">
-        <x:v>154</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D23" s="37"/>
       <x:c r="E23" s="37"/>
@@ -4001,7 +4012,7 @@
       <x:c r="A24" s="85"/>
       <x:c r="B24" s="79"/>
       <x:c r="C24" s="37" t="s">
-        <x:v>192</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D24" s="37"/>
       <x:c r="E24" s="37"/>
@@ -4033,7 +4044,7 @@
       <x:c r="A25" s="85"/>
       <x:c r="B25" s="79"/>
       <x:c r="C25" s="37" t="s">
-        <x:v>185</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D25" s="37"/>
       <x:c r="E25" s="37"/>
@@ -4065,13 +4076,13 @@
       <x:c r="A26" s="85"/>
       <x:c r="B26" s="79"/>
       <x:c r="C26" s="76" t="s">
-        <x:v>96</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D26" s="37" t="s">
-        <x:v>107</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E26" s="37" t="s">
-        <x:v>150</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F26" s="37"/>
       <x:c r="G26" s="37"/>
@@ -4161,13 +4172,13 @@
       <x:c r="B27" s="83"/>
       <x:c r="C27" s="82"/>
       <x:c r="D27" s="76" t="s">
-        <x:v>199</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E27" s="37" t="s">
-        <x:v>60</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="F27" s="37" t="s">
-        <x:v>127</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G27" s="37"/>
       <x:c r="H27" s="37"/>
@@ -4257,10 +4268,10 @@
       <x:c r="C28" s="82"/>
       <x:c r="D28" s="77"/>
       <x:c r="E28" s="37" t="s">
-        <x:v>84</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="F28" s="37" t="s">
-        <x:v>127</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G28" s="37"/>
       <x:c r="H28" s="37"/>
@@ -4349,10 +4360,10 @@
       <x:c r="B29" s="79"/>
       <x:c r="C29" s="82"/>
       <x:c r="D29" s="37" t="s">
-        <x:v>50</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E29" s="39" t="s">
-        <x:v>53</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="F29" s="39"/>
       <x:c r="G29" s="37"/>
@@ -4442,10 +4453,10 @@
       <x:c r="B30" s="79"/>
       <x:c r="C30" s="82"/>
       <x:c r="D30" s="37" t="s">
-        <x:v>120</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E30" s="37" t="s">
-        <x:v>200</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F30" s="37"/>
       <x:c r="G30" s="37"/>
@@ -4536,7 +4547,7 @@
       <x:c r="C31" s="82"/>
       <x:c r="D31" s="37"/>
       <x:c r="E31" s="37" t="s">
-        <x:v>48</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="F31" s="37"/>
       <x:c r="G31" s="37"/>
@@ -4626,10 +4637,10 @@
       <x:c r="B32" s="79"/>
       <x:c r="C32" s="82"/>
       <x:c r="D32" s="37" t="s">
-        <x:v>93</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="E32" s="37" t="s">
-        <x:v>124</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="F32" s="37"/>
       <x:c r="G32" s="37"/>
@@ -4719,7 +4730,7 @@
       <x:c r="B33" s="79"/>
       <x:c r="C33" s="77"/>
       <x:c r="D33" s="37" t="s">
-        <x:v>97</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E33" s="37"/>
       <x:c r="F33" s="37"/>
@@ -4809,10 +4820,10 @@
       <x:c r="A34" s="84"/>
       <x:c r="B34" s="83"/>
       <x:c r="C34" s="76" t="s">
-        <x:v>82</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D34" s="37" t="s">
-        <x:v>80</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E34" s="37"/>
       <x:c r="F34" s="37"/>
@@ -4903,7 +4914,7 @@
       <x:c r="B35" s="79"/>
       <x:c r="C35" s="82"/>
       <x:c r="D35" s="37" t="s">
-        <x:v>203</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E35" s="37"/>
       <x:c r="F35" s="37"/>
@@ -4994,7 +5005,7 @@
       <x:c r="B36" s="79"/>
       <x:c r="C36" s="82"/>
       <x:c r="D36" s="37" t="s">
-        <x:v>196</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E36" s="37"/>
       <x:c r="F36" s="37"/>
@@ -5085,7 +5096,7 @@
       <x:c r="B37" s="79"/>
       <x:c r="C37" s="82"/>
       <x:c r="D37" s="37" t="s">
-        <x:v>210</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E37" s="37"/>
       <x:c r="F37" s="37"/>
@@ -5176,7 +5187,7 @@
       <x:c r="B38" s="79"/>
       <x:c r="C38" s="82"/>
       <x:c r="D38" s="37" t="s">
-        <x:v>121</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="E38" s="37"/>
       <x:c r="F38" s="37"/>
@@ -5267,7 +5278,7 @@
       <x:c r="B39" s="83"/>
       <x:c r="C39" s="77"/>
       <x:c r="D39" s="37" t="s">
-        <x:v>73</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E39" s="37"/>
       <x:c r="F39" s="37"/>
@@ -5356,10 +5367,10 @@
     <x:row r="40" spans="1:87">
       <x:c r="A40" s="85"/>
       <x:c r="B40" s="83" t="s">
-        <x:v>216</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C40" s="37" t="s">
-        <x:v>209</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D40" s="37"/>
       <x:c r="E40" s="37"/>
@@ -5450,7 +5461,7 @@
       <x:c r="A41" s="85"/>
       <x:c r="B41" s="79"/>
       <x:c r="C41" s="37" t="s">
-        <x:v>58</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="D41" s="37"/>
       <x:c r="E41" s="37"/>
@@ -5541,7 +5552,7 @@
       <x:c r="A42" s="85"/>
       <x:c r="B42" s="79"/>
       <x:c r="C42" s="37" t="s">
-        <x:v>75</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D42" s="37"/>
       <x:c r="E42" s="37"/>
@@ -5632,7 +5643,7 @@
       <x:c r="A43" s="85"/>
       <x:c r="B43" s="79"/>
       <x:c r="C43" s="37" t="s">
-        <x:v>64</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D43" s="37"/>
       <x:c r="E43" s="37"/>
@@ -5723,7 +5734,7 @@
       <x:c r="A44" s="85"/>
       <x:c r="B44" s="79"/>
       <x:c r="C44" s="37" t="s">
-        <x:v>185</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D44" s="37"/>
       <x:c r="E44" s="37"/>
@@ -5814,7 +5825,7 @@
       <x:c r="A45" s="85"/>
       <x:c r="B45" s="80"/>
       <x:c r="C45" s="37" t="s">
-        <x:v>69</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D45" s="37"/>
       <x:c r="E45" s="37"/>
@@ -5904,10 +5915,10 @@
     <x:row r="46" spans="1:87">
       <x:c r="A46" s="85"/>
       <x:c r="B46" s="83" t="s">
-        <x:v>195</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C46" s="37" t="s">
-        <x:v>191</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D46" s="37"/>
       <x:c r="E46" s="37"/>
@@ -5998,7 +6009,7 @@
       <x:c r="A47" s="85"/>
       <x:c r="B47" s="79"/>
       <x:c r="C47" s="37" t="s">
-        <x:v>175</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D47" s="37"/>
       <x:c r="E47" s="37"/>
@@ -6089,7 +6100,7 @@
       <x:c r="A48" s="85"/>
       <x:c r="B48" s="79"/>
       <x:c r="C48" s="37" t="s">
-        <x:v>90</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D48" s="37"/>
       <x:c r="E48" s="37"/>
@@ -6180,7 +6191,7 @@
       <x:c r="A49" s="85"/>
       <x:c r="B49" s="80"/>
       <x:c r="C49" s="37" t="s">
-        <x:v>99</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="D49" s="37"/>
       <x:c r="E49" s="37"/>
@@ -6270,13 +6281,13 @@
     <x:row r="50" spans="1:87">
       <x:c r="A50" s="85"/>
       <x:c r="B50" s="83" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="C50" s="76" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="C50" s="76" t="s">
-        <x:v>154</x:v>
-      </x:c>
       <x:c r="D50" s="37" t="s">
-        <x:v>56</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="37"/>
       <x:c r="F50" s="37"/>
@@ -6367,7 +6378,7 @@
       <x:c r="B51" s="79"/>
       <x:c r="C51" s="77"/>
       <x:c r="D51" s="37" t="s">
-        <x:v>101</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E51" s="37"/>
       <x:c r="F51" s="37"/>
@@ -6457,10 +6468,10 @@
       <x:c r="A52" s="85"/>
       <x:c r="B52" s="79"/>
       <x:c r="C52" s="76" t="s">
-        <x:v>173</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D52" s="37" t="s">
-        <x:v>172</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E52" s="37"/>
       <x:c r="F52" s="37"/>
@@ -6551,7 +6562,7 @@
       <x:c r="B53" s="79"/>
       <x:c r="C53" s="77"/>
       <x:c r="D53" s="37" t="s">
-        <x:v>158</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E53" s="37"/>
       <x:c r="F53" s="37"/>
@@ -6641,10 +6652,10 @@
       <x:c r="A54" s="85"/>
       <x:c r="B54" s="79"/>
       <x:c r="C54" s="76" t="s">
-        <x:v>128</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D54" s="37" t="s">
-        <x:v>133</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E54" s="37"/>
       <x:c r="F54" s="37"/>
@@ -6735,7 +6746,7 @@
       <x:c r="B55" s="79"/>
       <x:c r="C55" s="82"/>
       <x:c r="D55" s="37" t="s">
-        <x:v>136</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E55" s="37"/>
       <x:c r="F55" s="37"/>
@@ -6826,7 +6837,7 @@
       <x:c r="B56" s="79"/>
       <x:c r="C56" s="77"/>
       <x:c r="D56" s="37" t="s">
-        <x:v>225</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="E56" s="37"/>
       <x:c r="F56" s="37"/>
@@ -6916,10 +6927,10 @@
       <x:c r="A57" s="85"/>
       <x:c r="B57" s="79"/>
       <x:c r="C57" s="76" t="s">
-        <x:v>57</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D57" s="37" t="s">
-        <x:v>222</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E57" s="37"/>
       <x:c r="F57" s="37"/>
@@ -7010,7 +7021,7 @@
       <x:c r="B58" s="79"/>
       <x:c r="C58" s="77"/>
       <x:c r="D58" s="37" t="s">
-        <x:v>169</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E58" s="37"/>
       <x:c r="F58" s="37"/>
@@ -7100,10 +7111,10 @@
       <x:c r="A59" s="85"/>
       <x:c r="B59" s="79"/>
       <x:c r="C59" s="76" t="s">
-        <x:v>168</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D59" s="37" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E59" s="37"/>
       <x:c r="F59" s="37"/>
@@ -7194,7 +7205,7 @@
       <x:c r="B60" s="79"/>
       <x:c r="C60" s="77"/>
       <x:c r="D60" s="37" t="s">
-        <x:v>224</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E60" s="37"/>
       <x:c r="F60" s="37"/>
@@ -7284,10 +7295,10 @@
       <x:c r="A61" s="85"/>
       <x:c r="B61" s="79"/>
       <x:c r="C61" s="76" t="s">
-        <x:v>118</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="D61" s="37" t="s">
-        <x:v>183</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E61" s="37"/>
       <x:c r="F61" s="37"/>
@@ -7378,7 +7389,7 @@
       <x:c r="B62" s="80"/>
       <x:c r="C62" s="77"/>
       <x:c r="D62" s="37" t="s">
-        <x:v>54</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E62" s="37"/>
       <x:c r="F62" s="37"/>
@@ -9420,50 +9431,50 @@
   <x:sheetData>
     <x:row r="1" spans="1:8" ht="17.149999999999999">
       <x:c r="A1" s="32" t="s">
-        <x:v>138</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B1" s="33" t="s">
-        <x:v>72</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C1" s="34" t="s">
-        <x:v>87</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D1" s="34" t="s">
-        <x:v>66</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="E1" s="34" t="s">
-        <x:v>51</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F1" s="34" t="s">
-        <x:v>98</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="G1" s="34" t="s">
-        <x:v>198</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="H1" s="35" t="s">
-        <x:v>212</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8" ht="16.75" customHeight="1">
       <x:c r="A2" s="84" t="s">
-        <x:v>92</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B2" s="78" t="s">
-        <x:v>114</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="C2" s="91" t="s">
-        <x:v>88</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D2" s="89" t="s">
-        <x:v>102</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="E2" s="61" t="s">
-        <x:v>144</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F2" s="61"/>
       <x:c r="G2" s="61"/>
       <x:c r="H2" s="61" t="s">
-        <x:v>220</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -9472,12 +9483,12 @@
       <x:c r="C3" s="92"/>
       <x:c r="D3" s="90"/>
       <x:c r="E3" s="62" t="s">
-        <x:v>77</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="F3" s="62"/>
       <x:c r="G3" s="62"/>
       <x:c r="H3" s="62" t="s">
-        <x:v>63</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -9486,12 +9497,12 @@
       <x:c r="C4" s="92"/>
       <x:c r="D4" s="88"/>
       <x:c r="E4" s="62" t="s">
-        <x:v>94</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="F4" s="62"/>
       <x:c r="G4" s="62"/>
       <x:c r="H4" s="62" t="s">
-        <x:v>219</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
@@ -9499,15 +9510,15 @@
       <x:c r="B5" s="79"/>
       <x:c r="C5" s="92"/>
       <x:c r="D5" s="87" t="s">
-        <x:v>52</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E5" s="63" t="s">
-        <x:v>59</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F5" s="62"/>
       <x:c r="G5" s="62"/>
       <x:c r="H5" s="62" t="s">
-        <x:v>244</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
@@ -9516,28 +9527,28 @@
       <x:c r="C6" s="93"/>
       <x:c r="D6" s="88"/>
       <x:c r="E6" s="63" t="s">
-        <x:v>201</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F6" s="62"/>
       <x:c r="G6" s="62"/>
       <x:c r="H6" s="62" t="s">
-        <x:v>43</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="85"/>
       <x:c r="B7" s="79"/>
       <x:c r="C7" s="95" t="s">
-        <x:v>49</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D7" s="87" t="s">
-        <x:v>45</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E7" s="87" t="s">
-        <x:v>102</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="F7" s="62" t="s">
-        <x:v>186</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="G7" s="62"/>
       <x:c r="H7" s="62"/>
@@ -9549,7 +9560,7 @@
       <x:c r="D8" s="90"/>
       <x:c r="E8" s="90"/>
       <x:c r="F8" s="62" t="s">
-        <x:v>147</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G8" s="62"/>
       <x:c r="H8" s="62"/>
@@ -9561,7 +9572,7 @@
       <x:c r="D9" s="90"/>
       <x:c r="E9" s="90"/>
       <x:c r="F9" s="62" t="s">
-        <x:v>62</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="G9" s="62"/>
       <x:c r="H9" s="62"/>
@@ -9573,7 +9584,7 @@
       <x:c r="D10" s="90"/>
       <x:c r="E10" s="90"/>
       <x:c r="F10" s="62" t="s">
-        <x:v>213</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="G10" s="62"/>
       <x:c r="H10" s="62"/>
@@ -9585,7 +9596,7 @@
       <x:c r="D11" s="94"/>
       <x:c r="E11" s="94"/>
       <x:c r="F11" s="65" t="s">
-        <x:v>65</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="G11" s="65"/>
       <x:c r="H11" s="65"/>
@@ -9593,13 +9604,13 @@
     <x:row r="12" spans="1:8">
       <x:c r="A12" s="85"/>
       <x:c r="B12" s="79" t="s">
-        <x:v>204</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C12" s="92" t="s">
-        <x:v>68</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D12" s="61" t="s">
-        <x:v>199</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E12" s="90" t="s">
         <x:v>227</x:v>
@@ -9613,7 +9624,7 @@
       <x:c r="B13" s="79"/>
       <x:c r="C13" s="92"/>
       <x:c r="D13" s="63" t="s">
-        <x:v>107</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E13" s="90"/>
       <x:c r="F13" s="62"/>
@@ -9625,7 +9636,7 @@
       <x:c r="B14" s="79"/>
       <x:c r="C14" s="92"/>
       <x:c r="D14" s="63" t="s">
-        <x:v>119</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E14" s="90"/>
       <x:c r="F14" s="62"/>
@@ -9637,7 +9648,7 @@
       <x:c r="B15" s="79"/>
       <x:c r="C15" s="93"/>
       <x:c r="D15" s="63" t="s">
-        <x:v>73</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E15" s="88"/>
       <x:c r="F15" s="62"/>
@@ -9648,20 +9659,20 @@
       <x:c r="A16" s="85"/>
       <x:c r="B16" s="79"/>
       <x:c r="C16" s="95" t="s">
-        <x:v>111</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D16" s="63" t="s">
-        <x:v>81</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E16" s="87" t="s">
-        <x:v>154</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F16" s="62" t="s">
-        <x:v>56</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="G16" s="62"/>
       <x:c r="H16" s="87" t="s">
-        <x:v>241</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -9669,11 +9680,11 @@
       <x:c r="B17" s="79"/>
       <x:c r="C17" s="93"/>
       <x:c r="D17" s="62" t="s">
-        <x:v>205</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E17" s="88"/>
       <x:c r="F17" s="62" t="s">
-        <x:v>101</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="G17" s="62"/>
       <x:c r="H17" s="88"/>
@@ -9682,26 +9693,26 @@
       <x:c r="A18" s="85"/>
       <x:c r="B18" s="96"/>
       <x:c r="C18" s="66" t="s">
-        <x:v>116</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="D18" s="65"/>
       <x:c r="E18" s="65"/>
       <x:c r="F18" s="65"/>
       <x:c r="G18" s="65"/>
       <x:c r="H18" s="65" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="85"/>
       <x:c r="B19" s="79" t="s">
-        <x:v>146</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C19" s="92" t="s">
-        <x:v>216</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D19" s="61" t="s">
-        <x:v>209</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E19" s="61"/>
       <x:c r="F19" s="61"/>
@@ -9713,7 +9724,7 @@
       <x:c r="B20" s="79"/>
       <x:c r="C20" s="92"/>
       <x:c r="D20" s="62" t="s">
-        <x:v>218</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E20" s="62"/>
       <x:c r="F20" s="62"/>
@@ -9725,7 +9736,7 @@
       <x:c r="B21" s="79"/>
       <x:c r="C21" s="92"/>
       <x:c r="D21" s="62" t="s">
-        <x:v>75</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E21" s="62"/>
       <x:c r="F21" s="62"/>
@@ -9737,7 +9748,7 @@
       <x:c r="B22" s="79"/>
       <x:c r="C22" s="92"/>
       <x:c r="D22" s="62" t="s">
-        <x:v>185</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E22" s="62"/>
       <x:c r="F22" s="62"/>
@@ -9749,7 +9760,7 @@
       <x:c r="B23" s="79"/>
       <x:c r="C23" s="93"/>
       <x:c r="D23" s="62" t="s">
-        <x:v>69</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E23" s="62"/>
       <x:c r="F23" s="62"/>
@@ -9760,13 +9771,13 @@
       <x:c r="A24" s="84"/>
       <x:c r="B24" s="83"/>
       <x:c r="C24" s="95" t="s">
-        <x:v>64</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D24" s="87" t="s">
-        <x:v>184</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E24" s="62" t="s">
-        <x:v>176</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F24" s="62"/>
       <x:c r="G24" s="62"/>
@@ -9778,7 +9789,7 @@
       <x:c r="C25" s="92"/>
       <x:c r="D25" s="88"/>
       <x:c r="E25" s="62" t="s">
-        <x:v>190</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F25" s="62"/>
       <x:c r="G25" s="62"/>
@@ -9789,10 +9800,10 @@
       <x:c r="B26" s="83"/>
       <x:c r="C26" s="92"/>
       <x:c r="D26" s="87" t="s">
-        <x:v>215</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E26" s="62" t="s">
-        <x:v>206</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F26" s="62"/>
       <x:c r="G26" s="62"/>
@@ -9804,7 +9815,7 @@
       <x:c r="C27" s="92"/>
       <x:c r="D27" s="90"/>
       <x:c r="E27" s="62" t="s">
-        <x:v>180</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F27" s="62"/>
       <x:c r="G27" s="62"/>
@@ -9816,7 +9827,7 @@
       <x:c r="C28" s="92"/>
       <x:c r="D28" s="90"/>
       <x:c r="E28" s="62" t="s">
-        <x:v>174</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F28" s="62"/>
       <x:c r="G28" s="62"/>
@@ -9828,7 +9839,7 @@
       <x:c r="C29" s="97"/>
       <x:c r="D29" s="94"/>
       <x:c r="E29" s="65" t="s">
-        <x:v>214</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F29" s="65"/>
       <x:c r="G29" s="65"/>
@@ -9837,10 +9848,10 @@
     <x:row r="30" spans="1:8">
       <x:c r="A30" s="85"/>
       <x:c r="B30" s="79" t="s">
-        <x:v>195</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C30" s="67" t="s">
-        <x:v>191</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D30" s="61"/>
       <x:c r="E30" s="61"/>
@@ -9852,7 +9863,7 @@
       <x:c r="A31" s="85"/>
       <x:c r="B31" s="79"/>
       <x:c r="C31" s="58" t="s">
-        <x:v>175</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D31" s="62"/>
       <x:c r="E31" s="62"/>
@@ -9864,7 +9875,7 @@
       <x:c r="A32" s="85"/>
       <x:c r="B32" s="79"/>
       <x:c r="C32" s="58" t="s">
-        <x:v>90</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D32" s="62"/>
       <x:c r="E32" s="62"/>
@@ -9876,7 +9887,7 @@
       <x:c r="A33" s="85"/>
       <x:c r="B33" s="96"/>
       <x:c r="C33" s="68" t="s">
-        <x:v>99</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="D33" s="65"/>
       <x:c r="E33" s="65"/>
@@ -9887,10 +9898,10 @@
     <x:row r="34" spans="1:8">
       <x:c r="A34" s="85"/>
       <x:c r="B34" s="79" t="s">
-        <x:v>103</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C34" s="67" t="s">
-        <x:v>143</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D34" s="61"/>
       <x:c r="E34" s="61"/>
@@ -9902,10 +9913,10 @@
       <x:c r="A35" s="85"/>
       <x:c r="B35" s="79"/>
       <x:c r="C35" s="95" t="s">
-        <x:v>118</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="D35" s="62" t="s">
-        <x:v>183</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E35" s="62"/>
       <x:c r="F35" s="62"/>
@@ -9917,7 +9928,7 @@
       <x:c r="B36" s="79"/>
       <x:c r="C36" s="92"/>
       <x:c r="D36" s="62" t="s">
-        <x:v>54</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E36" s="62"/>
       <x:c r="F36" s="62"/>
@@ -9929,7 +9940,7 @@
       <x:c r="B37" s="96"/>
       <x:c r="C37" s="97"/>
       <x:c r="D37" s="65" t="s">
-        <x:v>149</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E37" s="65"/>
       <x:c r="F37" s="65"/>
@@ -10253,34 +10264,34 @@
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="49"/>
       <x:c r="B2" s="36" t="s">
-        <x:v>181</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C2" s="36" t="s">
-        <x:v>140</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D2" s="36" t="s">
-        <x:v>110</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E2" s="36" t="s">
-        <x:v>109</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="F2" s="36" t="s">
-        <x:v>212</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6" ht="16.75">
       <x:c r="A3" s="49"/>
       <x:c r="B3" s="78" t="s">
-        <x:v>61</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C3" s="81" t="s">
-        <x:v>76</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D3" s="81" t="s">
-        <x:v>55</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E3" s="50" t="s">
-        <x:v>9</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F3" s="69"/>
     </x:row>
@@ -10290,7 +10301,7 @@
       <x:c r="C4" s="82"/>
       <x:c r="D4" s="82"/>
       <x:c r="E4" s="51" t="s">
-        <x:v>240</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="F4" s="70"/>
     </x:row>
@@ -10300,7 +10311,7 @@
       <x:c r="C5" s="82"/>
       <x:c r="D5" s="82"/>
       <x:c r="E5" s="51" t="s">
-        <x:v>166</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F5" s="70"/>
     </x:row>
@@ -10310,7 +10321,7 @@
       <x:c r="C6" s="82"/>
       <x:c r="D6" s="82"/>
       <x:c r="E6" s="51" t="s">
-        <x:v>22</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F6" s="70"/>
     </x:row>
@@ -10320,7 +10331,7 @@
       <x:c r="C7" s="82"/>
       <x:c r="D7" s="77"/>
       <x:c r="E7" s="52" t="s">
-        <x:v>47</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F7" s="70"/>
     </x:row>
@@ -10329,10 +10340,10 @@
       <x:c r="B8" s="79"/>
       <x:c r="C8" s="82"/>
       <x:c r="D8" s="76" t="s">
-        <x:v>187</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E8" s="53" t="s">
-        <x:v>7</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F8" s="70"/>
     </x:row>
@@ -10342,7 +10353,7 @@
       <x:c r="C9" s="82"/>
       <x:c r="D9" s="82"/>
       <x:c r="E9" s="51" t="s">
-        <x:v>234</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="F9" s="70"/>
     </x:row>
@@ -10352,7 +10363,7 @@
       <x:c r="C10" s="82"/>
       <x:c r="D10" s="77"/>
       <x:c r="E10" s="54" t="s">
-        <x:v>167</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F10" s="70"/>
     </x:row>
@@ -10361,10 +10372,10 @@
       <x:c r="B11" s="79"/>
       <x:c r="C11" s="82"/>
       <x:c r="D11" s="76" t="s">
-        <x:v>189</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E11" s="53" t="s">
-        <x:v>38</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F11" s="70"/>
     </x:row>
@@ -10374,7 +10385,7 @@
       <x:c r="C12" s="77"/>
       <x:c r="D12" s="77"/>
       <x:c r="E12" s="54" t="s">
-        <x:v>24</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F12" s="70"/>
     </x:row>
@@ -10382,13 +10393,13 @@
       <x:c r="A13" s="49"/>
       <x:c r="B13" s="79"/>
       <x:c r="C13" s="76" t="s">
-        <x:v>125</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D13" s="76" t="s">
-        <x:v>216</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E13" s="53" t="s">
-        <x:v>246</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="F13" s="70"/>
     </x:row>
@@ -10398,7 +10409,7 @@
       <x:c r="C14" s="82"/>
       <x:c r="D14" s="82"/>
       <x:c r="E14" s="51" t="s">
-        <x:v>8</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F14" s="70"/>
     </x:row>
@@ -10408,7 +10419,7 @@
       <x:c r="C15" s="82"/>
       <x:c r="D15" s="82"/>
       <x:c r="E15" s="51" t="s">
-        <x:v>237</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="F15" s="70"/>
     </x:row>
@@ -10418,7 +10429,7 @@
       <x:c r="C16" s="82"/>
       <x:c r="D16" s="77"/>
       <x:c r="E16" s="54" t="s">
-        <x:v>35</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F16" s="70"/>
     </x:row>
@@ -10427,10 +10438,10 @@
       <x:c r="B17" s="79"/>
       <x:c r="C17" s="82"/>
       <x:c r="D17" s="76" t="s">
-        <x:v>193</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E17" s="53" t="s">
-        <x:v>231</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="F17" s="70"/>
     </x:row>
@@ -10440,7 +10451,7 @@
       <x:c r="C18" s="77"/>
       <x:c r="D18" s="77"/>
       <x:c r="E18" s="52" t="s">
-        <x:v>41</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F18" s="70"/>
     </x:row>
@@ -10448,13 +10459,13 @@
       <x:c r="A19" s="49"/>
       <x:c r="B19" s="79"/>
       <x:c r="C19" s="76" t="s">
-        <x:v>211</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D19" s="76" t="s">
-        <x:v>44</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="53" t="s">
-        <x:v>247</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="F19" s="70"/>
     </x:row>
@@ -10464,7 +10475,7 @@
       <x:c r="C20" s="82"/>
       <x:c r="D20" s="77"/>
       <x:c r="E20" s="54" t="s">
-        <x:v>23</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F20" s="70"/>
     </x:row>
@@ -10473,10 +10484,10 @@
       <x:c r="B21" s="79"/>
       <x:c r="C21" s="82"/>
       <x:c r="D21" s="76" t="s">
-        <x:v>130</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E21" s="53" t="s">
-        <x:v>242</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="F21" s="70"/>
     </x:row>
@@ -10486,7 +10497,7 @@
       <x:c r="C22" s="82"/>
       <x:c r="D22" s="77"/>
       <x:c r="E22" s="54" t="s">
-        <x:v>36</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F22" s="70"/>
     </x:row>
@@ -10495,10 +10506,10 @@
       <x:c r="B23" s="79"/>
       <x:c r="C23" s="82"/>
       <x:c r="D23" s="37" t="s">
-        <x:v>205</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E23" s="55" t="s">
-        <x:v>30</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F23" s="70"/>
     </x:row>
@@ -10507,10 +10518,10 @@
       <x:c r="B24" s="79"/>
       <x:c r="C24" s="82"/>
       <x:c r="D24" s="76" t="s">
-        <x:v>153</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E24" s="53" t="s">
-        <x:v>46</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F24" s="70"/>
     </x:row>
@@ -10520,7 +10531,7 @@
       <x:c r="C25" s="82"/>
       <x:c r="D25" s="82"/>
       <x:c r="E25" s="51" t="s">
-        <x:v>37</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F25" s="70"/>
     </x:row>
@@ -10530,7 +10541,7 @@
       <x:c r="C26" s="82"/>
       <x:c r="D26" s="82"/>
       <x:c r="E26" s="51" t="s">
-        <x:v>32</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F26" s="70"/>
     </x:row>
@@ -10540,23 +10551,23 @@
       <x:c r="C27" s="100"/>
       <x:c r="D27" s="100"/>
       <x:c r="E27" s="56" t="s">
-        <x:v>238</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="F27" s="71"/>
     </x:row>
     <x:row r="28" spans="1:6" ht="16.75">
       <x:c r="A28" s="49"/>
       <x:c r="B28" s="78" t="s">
-        <x:v>86</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C28" s="72" t="s">
-        <x:v>78</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D28" s="72" t="s">
-        <x:v>179</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E28" s="73" t="s">
-        <x:v>235</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="F28" s="69"/>
     </x:row>
@@ -10564,13 +10575,13 @@
       <x:c r="A29" s="49"/>
       <x:c r="B29" s="79"/>
       <x:c r="C29" s="76" t="s">
-        <x:v>79</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D29" s="37" t="s">
-        <x:v>208</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E29" s="55" t="s">
-        <x:v>31</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F29" s="70"/>
     </x:row>
@@ -10579,10 +10590,10 @@
       <x:c r="B30" s="79"/>
       <x:c r="C30" s="82"/>
       <x:c r="D30" s="76" t="s">
-        <x:v>217</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E30" s="53" t="s">
-        <x:v>250</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="F30" s="70"/>
     </x:row>
@@ -10592,7 +10603,7 @@
       <x:c r="C31" s="82"/>
       <x:c r="D31" s="82"/>
       <x:c r="E31" s="51" t="s">
-        <x:v>33</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F31" s="70"/>
     </x:row>
@@ -10602,7 +10613,7 @@
       <x:c r="C32" s="82"/>
       <x:c r="D32" s="82"/>
       <x:c r="E32" s="51" t="s">
-        <x:v>6</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F32" s="70"/>
     </x:row>
@@ -10612,19 +10623,19 @@
       <x:c r="C33" s="100"/>
       <x:c r="D33" s="100"/>
       <x:c r="E33" s="56" t="s">
-        <x:v>249</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="F33" s="71"/>
     </x:row>
     <x:row r="34" spans="1:6">
       <x:c r="A34" s="49"/>
       <x:c r="B34" s="79" t="s">
-        <x:v>83</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="C34" s="82"/>
       <x:c r="D34" s="82"/>
       <x:c r="E34" s="51" t="s">
-        <x:v>21</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F34" s="70"/>
     </x:row>
@@ -10634,7 +10645,7 @@
       <x:c r="C35" s="100"/>
       <x:c r="D35" s="100"/>
       <x:c r="E35" s="56" t="s">
-        <x:v>245</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="F35" s="71"/>
     </x:row>

--- a/2021_Summer/jp.hong/Datebook_jph.xlsx
+++ b/2021_Summer/jp.hong/Datebook_jph.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="254">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="257">
   <x:si>
     <x:t>1. 요구사항 분석 (실현성 확인)
 2. 데이터 흐름도 수정
@@ -33,10 +33,66 @@
  -&gt; 주유, 부품들의 수명정보(?) 어떻게 자동으로 받아올지 알아봐야함 -&gt; 블루투스 =&gt; 블루투스 연동 어떻게?</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 필요 자료 추가 조사
-2. 한계점 및 필요기술 추가
- - 차량 블루투스와 어플 연결 어떻게?
- - 연결이 된다면 원하는 정보만 어떻게 가져 올건지?</x:t>
+    <x:t>1. 각 버튼 및 창 기능 설명, 기능 플로우 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성(설명,컨테이너등 정보 채우기)
+2. 기능플로우 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 경쟁 어플 메뉴트리 수정
+2. 요구사항, 기능정의 순서 수정
+3. 한계점 수정
+블루투스 -&gt; 사진 촬영 ====&gt; 대체하게 되면 글자 인식하는 코드 필요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. DateBook_Comment 부분 수정
+2. GIT보고서 수정
+ - 설치 과정 추가
+ - 명령어 부분 내용 추가
+3. PPT 머릿글 요약 작성 - (미완)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+ - 컴퓨터 견적 추천 앱
+ - 주차시 사고발생 알림 앱
+2. 주제 아이디어 최종 선정
+ - 차량 관리 어플
+3. 개발 계획서 및 요구사항 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-1. Datebook Comment 부분 요약
+1-2. GIT 보고서 다시 작성
+1-3. PPT 머릿글 요약 작성
+1-4. 파일명 수정
+1-5 최종 아이디어 선정 이유 작성
+2. 요구사항 수집 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중복되는 아이디로 가입시도시 아이디 입력 오류 메세지가 출력되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 인터페이스 구상도 작성
+2. 요구사항 분류하여 수정
+3. 추가 자료조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 수집 및 정의
+2. 요구사항 분석
+3. 구현 가능 여부 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인에 성공했다면 로그인 버튼이 아닌 로그 아웃 버튼을 보여주어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 현장실습 OT
+ - 기업 소개 및 업무 설명
+ - 앞으로 수행하게 될 프로젝트 설명
+2. 기존에 진행했던 캡스톤프로젝트 첨언
+3. 제품 개발 과정 설명
+ - 제품 기획 
+ - 개발 기획  
+ - 개발 설계</x:t>
   </x:si>
   <x:si>
     <x:t>1. 실습 환경 설정 및 설명
@@ -50,92 +106,42 @@
  - 차량 관리 어플</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 계획하고 있는 어플의 메뉴트리 작성 및 ppt 수정
-2. 요구사항 추가 및 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 플로우 차트 작성
-2. 설계 계획서 작성
-3. Menu_Tree 도식화 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 현장실습 OT
- - 기업 소개 및 업무 설명
- - 앞으로 수행하게 될 프로젝트 설명
-2. 기존에 진행했던 캡스톤프로젝트 첨언
-3. 제품 개발 과정 설명
- - 제품 기획 
- - 개발 기획  
- - 개발 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
- - 컴퓨터 견적 추천 앱
- - 주차시 사고발생 알림 앱
-2. 주제 아이디어 최종 선정
- - 차량 관리 어플
-3. 개발 계획서 및 요구사항 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. DateBook_Comment 부분 수정
-2. GIT보고서 수정
- - 설치 과정 추가
- - 명령어 부분 내용 추가
-3. PPT 머릿글 요약 작성 - (미완)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 경쟁 어플 메뉴트리 수정
-2. 요구사항, 기능정의 순서 수정
-3. 한계점 수정
-블루투스 -&gt; 사진 촬영 ====&gt; 대체하게 되면 글자 인식하는 코드 필요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-1. Datebook Comment 부분 요약
-1-2. GIT 보고서 다시 작성
-1-3. PPT 머릿글 요약 작성
-1-4. 파일명 수정
-1-5 최종 아이디어 선정 이유 작성
-2. 요구사항 수집 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06_30 회의록 작성
-2. 요구사항 수정 및 관련 필요 자료 조사
-3. 15:00 ~ 지도교수 면담</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성(login, join, 내 차고, 차량 정보) 미완
-2. 블루투스 관련 자료 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
-2. 최종 아이디어 선정
-3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 화면을 들어가게 되면 아이디와 비밀번호의 입력 창, 회원가입 버튼과
-로그인 버튼이 나와야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성
- - 화면별 세부기능 설계</x:t>
+    <x:t>1. 메뉴시퀀스 작성(각 화면 기능 설명 채우기)
+2. 각 화면 플로우 차트 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. (2-2) 수익적 요소 추가
+2. (4-1) 기능정의 추가
+3. 추가 자료 조사
+ - 비슷한 어플(마이클) 화면 구성 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입을 위해 시도한 비밀번호가 7자리 이하이거나 13자리 이상일 경우
+비밀번호 입력 오류 메세지가 출력되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사라지거나 위치가 바뀐 정보를 수시로 업데이트 해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택 된 부품은 값의 변조 없이 알맞은 값이 저장되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입시 필요한 정보 및 소유한 차량의 정보를 포함해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유, 연비, 운행거리, 정비 및 기타비용 총액/월별 지출액</x:t>
   </x:si>
   <x:si>
     <x:t>정비 날짜를 기록할 수 있도록 다이어리 형식으로 제공해야 한다.</x:t>
   </x:si>
   <x:si>
+    <x:t>등록된 사용자만이 자신이 등록한 차량의 정보를 확인해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정 기능을 통해 작성했던 글을 수정 할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>외부에서 받아오는 정보(지도, 가격 등)에 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록된 사용자만이 자신이 등록한 차량의 정보를 확인해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사라지거나 위치가 바뀐 정보를 수시로 업데이트 해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택 된 부품은 값의 변조 없이 알맞은 값이 저장되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정 기능을 통해 작성했던 글을 수정 할 수 있어야 한다.</x:t>
   </x:si>
   <x:si>
     <x:t>부품의 종류를 다르게 하여 여러가지를 선택 할 수 있어야 한다.</x:t>
@@ -145,13 +151,142 @@
 2. 요구사항 정의 및 분석</x:t>
   </x:si>
   <x:si>
-    <x:t>회원가입시 필요한 정보 및 소유한 차량의 정보를 포함해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유, 연비, 운행거리, 정비 및 기타비용 총액/월별 지출액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>각 버튼 및 창 기능 설명 + 기능 플로우 + 설계 기획 추가</x:t>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>달력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭설철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리뷰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무결성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상황별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인기글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>손세차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타이어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계절별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보안성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Q&amp;A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채팅창</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이클</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장마철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가을</x:t>
+  </x:si>
+  <x:si>
+    <x:t>만족도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>겨울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>편집</x:t>
+  </x:si>
+  <x:si>
+    <x:t>봄</x:t>
   </x:si>
   <x:si>
     <x:t>1. 요구사항 정의 및 분석 - 체계화
@@ -166,97 +301,54 @@
 4. 캡스톤 아이디어 도출</x:t>
   </x:si>
   <x:si>
-    <x:t>1. (2-2) 수익적 요소 추가
-2. (4-1) 기능정의 추가
-3. 추가 자료 조사
- - 비슷한 어플(마이클) 화면 구성 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 앱 화면별 Sequence 작성
-2. 앱 화면별 어떻게 구성할 것인지 구상
-3. 추가 자료조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입을 위해 시도한 비밀번호가 7자리 이하이거나 13자리 이상일 경우
-비밀번호 입력 오류 메세지가 출력되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인에 성공했다면 로그인 버튼이 아닌 로그 아웃 버튼을 보여주어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중복되는 아이디로 가입시도시 아이디 입력 오류 메세지가 출력되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 인터페이스 구상도 작성
-2. 요구사항 분류하여 수정
-3. 추가 자료조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 수집 및 정의
-2. 요구사항 분석
-3. 구현 가능 여부 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 추가 자료조사
-2. 요구사항 추가 조사
-3. 경쟁 어플 기능 비교 보완</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성(설명,컨테이너등 정보 채우기)
-2. 기능플로우 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성 (미완)
-2. 스피너 및 캘린더 뷰 다이어리 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. Git 목록 삭제
-2. 요구사항 분석
-3. 인터페이스 구상도 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 추가 자료조사(관련 코드)
-2. FlowChart 수정 및 보완</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어플의 예약기능을 통해 예약한 경우 업체로부터 일정 수수료를 받는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호는 특수문자 포함 8자리 이상 12자리 이하 이어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주행 거리 정보를 받아 계산하여 남은 수명에 대해 알려 주어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소유한 차량이 여러 대일 경우 차량의 정보를 추가할 수 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알맞은 ID값과 패스워드 값이 입력 될 경우 그에 맞는 회원 정보가 로그인 되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 예약을 하는 과정에서 사용자가 선택한 지점과 선택된 지점의 정보가 일치해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 가입시 아이디, 비밀번호, 이름, 전화번호, 생년월일, 차종의 정보를 받아야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판의 글을 삭제하거나 올리기 위한 '글쓰기'버튼과 '글 삭제' 버튼이 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 화면 시퀀스 작성 (설명, 커뮤니티, 알림, 설정화면 추가)
-2. 추가 자료 조사</x:t>
-  </x:si>
-  <x:si>
     <x:t>1. vi 명령어 설명서 작성 완료
 2. 요구사항 정의 및 분류
  - 기능적 요구사항
  - 비기능적 요구사항</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 요구사항 수집 및 정의
- - 관련 필요 자료 조사
- - 기능적/ 비기능적 요구사항 내용 추가
-2. 개발에 필요한 요구사항 분석 (실현성 확인)</x:t>
+    <x:t>1. 추가 자료조사
+2. 요구사항 추가 조사
+3. 경쟁 어플 기능 비교 보완</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Git 목록 삭제
+2. 요구사항 분석
+3. 인터페이스 구상도 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주행 거리 정보를 받아 계산하여 남은 수명에 대해 알려 주어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 추가 자료조사(관련 코드)
+2. FlowChart 수정 및 보완</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어플의 예약기능을 통해 예약한 경우 업체로부터 일정 수수료를 받는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성 (미완)
+2. 스피너 및 캘린더 뷰 다이어리 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호는 특수문자 포함 8자리 이상 12자리 이하 이어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소유한 차량이 여러 대일 경우 차량의 정보를 추가할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 앱 화면별 Sequence 작성
+2. 앱 화면별 어떻게 구성할 것인지 구상
+3. 추가 자료조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 계획하고 있는 어플의 메뉴트리 작성 및 ppt 수정
+2. 요구사항 추가 및 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 플로우 차트 작성
+2. 설계 계획서 작성
+3. Menu_Tree 도식화 수정</x:t>
   </x:si>
   <x:si>
     <x:t>1. 진행사항 체크 및 2주차 목표 설정
@@ -273,557 +365,484 @@
 4. 요구사항/기능 정의/기능 설계 3가지 부분으로 나누어 요구사항 수정(미완)</x:t>
   </x:si>
   <x:si>
+    <x:t>1. 화면 시퀀스 작성 (설명, 커뮤니티, 알림, 설정화면 추가)
+2. 추가 자료 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 예약을 하는 과정에서 사용자가 선택한 지점과 선택된 지점의 정보가 일치해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알맞은 ID값과 패스워드 값이 입력 될 경우 그에 맞는 회원 정보가 로그인 되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판의 글을 삭제하거나 올리기 위한 '글쓰기'버튼과 '글 삭제' 버튼이 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 가입시 아이디, 비밀번호, 이름, 전화번호, 생년월일, 차종의 정보를 받아야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 수집 및 정의
+ - 관련 필요 자료 조사
+ - 기능적/ 비기능적 요구사항 내용 추가
+2. 개발에 필요한 요구사항 분석 (실현성 확인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 화면을 들어가게 되면 아이디와 비밀번호의 입력 창, 회원가입 버튼과
+로그인 버튼이 나와야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성(login, join, 내 차고, 차량 정보) 미완
+2. 블루투스 관련 자료 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+2. 최종 아이디어 선정
+3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06_30 회의록 작성
+2. 요구사항 수정 및 관련 필요 자료 조사
+3. 15:00 ~ 지도교수 면담</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 필요 자료 추가 조사
+2. 한계점 및 필요기술 추가
+ - 차량 블루투스와 어플 연결 어떻게?
+ - 연결이 된다면 원하는 정보만 어떻게 가져 올건지?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주행 거리별 check list</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검내역서(정비소 제공 문서)</x:t>
+  </x:si>
+  <x:si>
     <x:t>교체할 부품을 선택 받아야 한다.</x:t>
   </x:si>
   <x:si>
     <x:t>차량 정보(오너들의 평균 정보)</x:t>
   </x:si>
   <x:si>
-    <x:t>점검내역서(정비소 제공 문서)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주행 거리별 check list</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 연동 설정</x:t>
+    <x:t>08:22
+18:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진행 방향 ---&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>community</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 정보 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자주 하는 질문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스 (메뉴)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 판매견적 받기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:40
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 정보 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 형태로 존재</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운전자 보험료 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 기본 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:43
+18:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:32
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:33
+18:02</x:t>
   </x:si>
   <x:si>
     <x:t>친구 초대 이벤트</x:t>
   </x:si>
   <x:si>
+    <x:t>자동차 보험 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약/견적 내역</x:t>
+  </x:si>
+  <x:si>
     <x:t>자동차 보험료 계산</x:t>
   </x:si>
   <x:si>
+    <x:t>유사 모델 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:43
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품 교체 예상 견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 정비소 예약</x:t>
+  </x:si>
+  <x:si>
     <x:t>쿠폰 보유 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 정비소 예약</x:t>
   </x:si>
   <x:si>
     <x:t>09:00
 18:00</x:t>
   </x:si>
   <x:si>
-    <x:t>부품 교체 예상 견적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유사 모델 보기</x:t>
-  </x:si>
-  <x:si>
     <x:t>1. 메뉴시퀀스 작성</x:t>
   </x:si>
   <x:si>
-    <x:t>자동차 보험 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약/견적 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:43
+    <x:t>데이터 연동 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:23
+15:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고장사례(리콜사례)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비소 지도 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>할인 쿠폰 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:25
 18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운전자 추천 서비스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:27
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 보험료 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험 선호도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:27
+18:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:32
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 장착점 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Community</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:36
+18:07</x:t>
   </x:si>
   <x:si>
     <x:t>08:30
 18:00</x:t>
   </x:si>
   <x:si>
-    <x:t>자동차 보험 선호도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>할인 쿠폰 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:32
-18:03</x:t>
-  </x:si>
-  <x:si>
     <x:t>08:36
-18:07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:25
 18:02</x:t>
   </x:si>
   <x:si>
-    <x:t>내 차 보험료 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운전자 추천 서비스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:27
-18:05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비소 지도 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:23
-15:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 장착점 예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Community</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:27
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고장사례(리콜사례)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 판매견적 받기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:32
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자주 하는 질문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 기본 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진행 방향 ---&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:40
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:43
-18:01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 정보 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스 (메뉴)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 형태로 존재</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:22
-18:01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 정보 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운전자 보험료 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>community</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장마철</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Q&amp;A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가을</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이클</x:t>
-  </x:si>
-  <x:si>
-    <x:t>만족도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>겨울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>편집</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보안성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채팅창</x:t>
-  </x:si>
-  <x:si>
-    <x:t>봄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계절별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭설철</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상황별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인기글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>손세차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타이어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점검</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>달력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리뷰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무결성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신글</x:t>
+    <x:t>결함/리콜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 구매</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차 정보 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모두의 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모아보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타 항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수리견적</x:t>
   </x:si>
   <x:si>
     <x:t>경기/인천</x:t>
   </x:si>
   <x:si>
-    <x:t>수리견적</x:t>
-  </x:si>
-  <x:si>
     <x:t>회원가입</x:t>
   </x:si>
   <x:si>
+    <x:t>내 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 방문 장소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tips</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공식 서비스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연차, 보험료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신 글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>함수의 계산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메모 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균연비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오너들의 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이클 이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>견적 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자차 게시판</x:t>
+  </x:si>
+  <x:si>
     <x:t>Depth 3</x:t>
   </x:si>
   <x:si>
-    <x:t>오너들의 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>견적 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이클 이벤트</x:t>
-  </x:si>
-  <x:si>
     <x:t>고객상담</x:t>
   </x:si>
   <x:si>
-    <x:t>평균연비</x:t>
-  </x:si>
-  <x:si>
     <x:t>비기능적 요소</x:t>
   </x:si>
   <x:si>
     <x:t>Depth 1</x:t>
   </x:si>
   <x:si>
-    <x:t>자차 게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>함수의 계산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메모 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신 글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 방문 장소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Menu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tips</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공식 서비스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연차, 보험료</x:t>
+    <x:t>Home</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연비 랭킹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 시세</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에어컨 필터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공유게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약 교체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 시기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment</x:t>
   </x:si>
   <x:si>
     <x:t>기록 및 통계</x:t>
   </x:si>
   <x:si>
-    <x:t>공유게시판</x:t>
+    <x:t>필요 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 후기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용 가이드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>더 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>setting</x:t>
+  </x:si>
+  <x:si>
+    <x:t>디테일링</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에어컨필터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이어리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오늘 교체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험사 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수익적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타이어샵</x:t>
   </x:si>
   <x:si>
     <x:t>자동차 검사</x:t>
   </x:si>
   <x:si>
-    <x:t>오늘 교체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>더 보기</x:t>
-  </x:si>
-  <x:si>
     <x:t>보험 정보</x:t>
   </x:si>
   <x:si>
-    <x:t>회원 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이어리</x:t>
+    <x:t>ALL*</x:t>
   </x:si>
   <x:si>
     <x:t>내 주변 검색</x:t>
   </x:si>
   <x:si>
-    <x:t>수익적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험사 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALL*</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약 교체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>setting</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 후기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 시세</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에어컨필터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Home</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연비 랭킹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용 가이드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>디테일링</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에어컨 필터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타이어샵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 시기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필요 기능</x:t>
+    <x:t>카카오톡 문의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첫예약할인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 항목</x:t>
   </x:si>
   <x:si>
     <x:t>일정 관리</x:t>
   </x:si>
   <x:si>
-    <x:t>정비 항목</x:t>
-  </x:si>
-  <x:si>
     <x:t>엔진오일</x:t>
   </x:si>
   <x:si>
+    <x:t>정비 내역</x:t>
+  </x:si>
+  <x:si>
     <x:t>평균 연비</x:t>
   </x:si>
   <x:si>
-    <x:t>정비 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카카오톡 문의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첫예약할인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모두의 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차 정보 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모아보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결함/리콜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 구매</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타 항목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 무료 판매 견적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품 별 남은 수명 보여줌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유소 포인트 적립 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이달의 정비/세차 혜택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험료 확인 및 갱신일 알림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차종, 차번호, 연식 등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 정비소 찾아보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기아 커넥티드카 연동하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방문 정비소 기록, 메모</x:t>
-  </x:si>
-  <x:si>
-    <x:t>항목 및 정비 주기 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점검 스케쥴 및 일정 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>APP종료시 입력된 데이터는 변조가 없어야 한다.</x:t>
+    <x:t>게시판의 글들은 페이지당 20개씩 보여주어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Menu_Tree 수정(완료)
+2. 추가 자료 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06.28 회의록 작성
+2. 요구사항 정의 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 정의 및 분석 보완
+2. 기능정의 보완</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채팅방 및 게시판에 들어가기 위해서는 로그인을 해야한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품들의 시세변동을 지속적으로 업데이트 해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 실패시 로그인 오류 메세지를 출력해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험, 범칙금, 주차요금, 톨게이트 비용, 차량용품 등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>할인률, 총액의 계산 과정에 오류가 있어선 안된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 계약서 작성
+2. 현장실습 오리엔테이션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이콘을 활용하여 한 눈에 확인하기 쉬워야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어플 내 광고를 통해 일정 수입료를 받는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성
+ - 화면별 세부기능 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DB에 저장된 내용들은 변조가 없어야 한다.</x:t>
   </x:si>
   <x:si>
     <x:t>1. 화면 시퀀스 작성
@@ -833,66 +852,59 @@
     <x:t>주유량, 연비, 운행 거리 및 기타 비용 통계</x:t>
   </x:si>
   <x:si>
-    <x:t>DB에 저장된 내용들은 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>게시판을 이용하기 위해서는 로그인을 해야 한다.</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 계약서 작성
-2. 현장실습 오리엔테이션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어플 내 광고를 통해 일정 수입료를 받는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이콘을 활용하여 한 눈에 확인하기 쉬워야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:36
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험, 범칙금, 주차요금, 톨게이트 비용, 차량용품 등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 실패시 로그인 오류 메세지를 출력해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 정의 및 분석 보완
-2. 기능정의 보완</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채팅방 및 게시판에 들어가기 위해서는 로그인을 해야한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품들의 시세변동을 지속적으로 업데이트 해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>할인률, 총액의 계산 과정에 오류가 있어선 안된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판의 글들은 페이지당 20개씩 보여주어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06.28 회의록 작성
-2. 요구사항 정의 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. Menu_Tree 수정(완료)
-2. 추가 자료 조사</x:t>
+    <x:t>APP종료시 입력된 데이터는 변조가 없어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험료 확인 및 갱신일 알림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 무료 판매 견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품 별 남은 수명 보여줌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이달의 정비/세차 혜택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유소 포인트 적립 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기아 커넥티드카 연동하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차종, 차번호, 연식 등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검 스케쥴 및 일정 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방문 정비소 기록, 메모</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 정비소 찾아보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>항목 및 정비 주기 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중복되는 아이디는 가입이 되어선 안된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이어리에 메모한 사항 달력에 날짜 표시</x:t>
   </x:si>
   <x:si>
     <x:t>게시판 형태로 존재, 결함/리콜 내역</x:t>
   </x:si>
   <x:si>
-    <x:t>중복되는 아이디는 가입이 되어선 안된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이어리에 메모한 사항 달력에 날짜 표시</x:t>
-  </x:si>
-  <x:si>
     <x:t>정확한 위치의 지도 정보를 받아와야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:30
+18:04</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1368,7 +1380,7 @@
       </x:bottom>
     </x:border>
     <x:border>
-      <x:left style="medium">
+      <x:left style="thin">
         <x:color indexed="64"/>
       </x:left>
       <x:right style="thin">
@@ -1378,6 +1390,34 @@
         <x:color indexed="64"/>
       </x:top>
       <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -1396,30 +1436,16 @@
       </x:bottom>
     </x:border>
     <x:border>
-      <x:left style="thin">
+      <x:left style="medium">
         <x:color indexed="64"/>
       </x:left>
       <x:right style="thin">
         <x:color indexed="64"/>
       </x:right>
-      <x:top style="medium">
+      <x:top>
         <x:color indexed="64"/>
       </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom>
+      <x:bottom style="medium">
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -1441,27 +1467,13 @@
       <x:left style="medium">
         <x:color indexed="64"/>
       </x:left>
-      <x:right style="medium">
+      <x:right style="thin">
         <x:color indexed="64"/>
       </x:right>
-      <x:top>
+      <x:top style="medium">
         <x:color indexed="64"/>
       </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="medium">
+      <x:bottom>
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -1469,13 +1481,13 @@
       <x:left style="medium">
         <x:color indexed="64"/>
       </x:left>
-      <x:right style="thin">
+      <x:right style="medium">
         <x:color indexed="64"/>
       </x:right>
       <x:top>
         <x:color indexed="64"/>
       </x:top>
-      <x:bottom style="medium">
+      <x:bottom style="thin">
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -1485,7 +1497,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="101">
+  <x:cellXfs count="103">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -2036,6 +2048,153 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -2056,6 +2215,19 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -2088,13 +2260,13 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -2114,148 +2286,14 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -2951,9 +2989,9 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B2:E42"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:pane xSplit="0" ySplit="2" topLeftCell="C12" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" activeCell="E22" activeCellId="0" sqref="E22:E22"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:pane xSplit="0" ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <x:selection pane="bottomLeft" activeCell="C23" activeCellId="0" sqref="C23:C23"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.199999999999999"/>
@@ -2961,7 +2999,7 @@
     <x:col min="1" max="1" width="1.796875" style="3" customWidth="1"/>
     <x:col min="2" max="2" width="10" style="3" bestFit="1" customWidth="1"/>
     <x:col min="3" max="3" width="8.796875" style="3" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="4" width="44.19921875" style="4" customWidth="1"/>
+    <x:col min="4" max="4" width="45.68359375" style="4" bestFit="1" customWidth="1"/>
     <x:col min="5" max="5" width="55.09765625" style="4" customWidth="1"/>
     <x:col min="6" max="16384" width="8.796875" style="3"/>
   </x:cols>
@@ -2969,13 +3007,13 @@
     <x:row r="1" ht="6.5999999999999996" customHeight="1"/>
     <x:row r="2" spans="2:5" ht="31.199999999999999" customHeight="1">
       <x:c r="B2" s="5" t="s">
-        <x:v>218</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C2" s="6" t="s">
-        <x:v>209</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D2" s="6" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E2" s="7" t="s">
         <x:v>193</x:v>
@@ -2986,13 +3024,13 @@
         <x:v>44369</x:v>
       </x:c>
       <x:c r="C3" s="15" t="s">
-        <x:v>62</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D3" s="9" t="s">
-        <x:v>237</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="E3" s="9" t="s">
-        <x:v>5</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:5" ht="118.55">
@@ -3000,13 +3038,13 @@
         <x:v>44370</x:v>
       </x:c>
       <x:c r="C4" s="14" t="s">
-        <x:v>62</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D4" s="12" t="s">
-        <x:v>27</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E4" s="12" t="s">
-        <x:v>2</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:5" ht="79.049999999999997">
@@ -3014,13 +3052,13 @@
         <x:v>44371</x:v>
       </x:c>
       <x:c r="C5" s="16" t="s">
-        <x:v>69</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D5" s="12" t="s">
-        <x:v>12</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E5" s="12" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:5" ht="79.049999999999997">
@@ -3028,13 +3066,13 @@
         <x:v>44372</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
-        <x:v>69</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D6" s="12" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E6" s="17" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:5" ht="79.049999999999997">
@@ -3042,13 +3080,13 @@
         <x:v>44375</x:v>
       </x:c>
       <x:c r="C7" s="14" t="s">
-        <x:v>77</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D7" s="12" t="s">
-        <x:v>248</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="E7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:5" ht="52.700000000000003">
@@ -3056,13 +3094,13 @@
         <x:v>44376</x:v>
       </x:c>
       <x:c r="C8" s="14" t="s">
-        <x:v>73</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D8" s="12" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:5" ht="52.700000000000003">
@@ -3070,13 +3108,13 @@
         <x:v>44377</x:v>
       </x:c>
       <x:c r="C9" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D9" s="12" t="s">
-        <x:v>26</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E9" s="12" t="s">
-        <x:v>10</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:5" ht="52.700000000000003">
@@ -3084,13 +3122,13 @@
         <x:v>44378</x:v>
       </x:c>
       <x:c r="C10" s="20" t="s">
-        <x:v>72</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D10" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E10" s="12" t="s">
-        <x:v>50</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:5" ht="65.849999999999994">
@@ -3098,13 +3136,13 @@
         <x:v>44379</x:v>
       </x:c>
       <x:c r="C11" s="22" t="s">
-        <x:v>82</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D11" s="12" t="s">
-        <x:v>38</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E11" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:5" ht="105.40000000000001">
@@ -3112,10 +3150,10 @@
         <x:v>44382</x:v>
       </x:c>
       <x:c r="C12" s="21" t="s">
-        <x:v>74</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D12" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E12" s="12" t="s">
         <x:v>0</x:v>
@@ -3126,13 +3164,13 @@
         <x:v>44383</x:v>
       </x:c>
       <x:c r="C13" s="23" t="s">
-        <x:v>72</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D13" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E13" s="12" t="s">
-        <x:v>1</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:5" ht="52.700000000000003">
@@ -3140,13 +3178,13 @@
         <x:v>44384</x:v>
       </x:c>
       <x:c r="C14" s="24" t="s">
-        <x:v>94</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D14" s="12" t="s">
-        <x:v>29</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E14" s="12" t="s">
-        <x:v>28</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:5" ht="52.700000000000003">
@@ -3154,13 +3192,13 @@
         <x:v>44385</x:v>
       </x:c>
       <x:c r="C15" s="30" t="s">
-        <x:v>68</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D15" s="12" t="s">
-        <x:v>35</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E15" s="12" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:5" ht="26.350000000000001">
@@ -3168,13 +3206,13 @@
         <x:v>44386</x:v>
       </x:c>
       <x:c r="C16" s="31" t="s">
-        <x:v>89</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D16" s="12" t="s">
-        <x:v>243</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="E16" s="12" t="s">
-        <x:v>3</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:5" ht="39.549999999999997">
@@ -3182,13 +3220,13 @@
         <x:v>44389</x:v>
       </x:c>
       <x:c r="C17" s="74" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="D17" s="12" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="D17" s="12" t="s">
-        <x:v>4</x:v>
-      </x:c>
       <x:c r="E17" s="12" t="s">
-        <x:v>249</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:5" ht="26.350000000000001">
@@ -3196,13 +3234,13 @@
         <x:v>44390</x:v>
       </x:c>
       <x:c r="C18" s="75" t="s">
-        <x:v>90</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D18" s="12" t="s">
-        <x:v>233</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="E18" s="12" t="s">
-        <x:v>11</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:5" ht="26.350000000000001">
@@ -3210,13 +3248,13 @@
         <x:v>44391</x:v>
       </x:c>
       <x:c r="C19" s="75" t="s">
-        <x:v>72</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D19" s="12" t="s">
-        <x:v>233</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="E19" s="12" t="s">
-        <x:v>37</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:5" ht="26.350000000000001">
@@ -3224,36 +3262,42 @@
         <x:v>44392</x:v>
       </x:c>
       <x:c r="C20" s="14" t="s">
-        <x:v>240</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D20" s="12" t="s">
-        <x:v>48</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E20" s="11" t="s">
-        <x:v>65</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="2:5" ht="26.350000000000001">
       <x:c r="B21" s="13">
         <x:v>44393</x:v>
       </x:c>
-      <x:c r="C21" s="10"/>
+      <x:c r="C21" s="76" t="s">
+        <x:v>117</x:v>
+      </x:c>
       <x:c r="D21" s="12" t="s">
-        <x:v>36</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E21" s="12" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="2:5">
+        <x:v>235</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="2:5" ht="26.350000000000001">
       <x:c r="B22" s="13">
         <x:v>44396</x:v>
       </x:c>
-      <x:c r="C22" s="10"/>
+      <x:c r="C22" s="102" t="s">
+        <x:v>256</x:v>
+      </x:c>
       <x:c r="D22" s="11" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E22" s="11"/>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E22" s="12" t="s">
+        <x:v>13</x:v>
+      </x:c>
     </x:row>
     <x:row r="23" spans="2:5">
       <x:c r="B23" s="13">
@@ -3443,78 +3487,78 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="17.149999999999999">
       <x:c r="A1" s="26" t="s">
-        <x:v>88</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B1" s="33" t="s">
-        <x:v>167</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C1" s="34" t="s">
-        <x:v>156</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D1" s="34" t="s">
-        <x:v>185</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E1" s="34" t="s">
-        <x:v>147</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="F1" s="34" t="s">
-        <x:v>215</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="G1" s="34" t="s">
-        <x:v>213</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="H1" s="34" t="s">
-        <x:v>131</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I1" s="35" t="s">
-        <x:v>120</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:9">
-      <x:c r="A2" s="84" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="B2" s="78" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="C2" s="81" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="D2" s="81" t="s">
-        <x:v>212</x:v>
+      <x:c r="A2" s="91" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B2" s="89" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C2" s="98" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="D2" s="98" t="s">
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E2" s="38" t="s">
-        <x:v>189</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="F2" s="38"/>
       <x:c r="G2" s="38"/>
       <x:c r="H2" s="38"/>
       <x:c r="I2" s="38" t="s">
-        <x:v>84</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
-      <x:c r="A3" s="85"/>
-      <x:c r="B3" s="79"/>
-      <x:c r="C3" s="82"/>
-      <x:c r="D3" s="82"/>
+      <x:c r="A3" s="92"/>
+      <x:c r="B3" s="86"/>
+      <x:c r="C3" s="99"/>
+      <x:c r="D3" s="99"/>
       <x:c r="E3" s="37" t="s">
-        <x:v>66</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F3" s="37"/>
       <x:c r="G3" s="37"/>
       <x:c r="H3" s="37"/>
       <x:c r="I3" s="37" t="s">
-        <x:v>225</x:v>
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
-      <x:c r="A4" s="85"/>
-      <x:c r="B4" s="79"/>
-      <x:c r="C4" s="82"/>
-      <x:c r="D4" s="82"/>
+      <x:c r="A4" s="92"/>
+      <x:c r="B4" s="86"/>
+      <x:c r="C4" s="99"/>
+      <x:c r="D4" s="99"/>
       <x:c r="E4" s="37" t="s">
-        <x:v>162</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="F4" s="37"/>
       <x:c r="G4" s="37"/>
@@ -3522,42 +3566,42 @@
       <x:c r="I4" s="37"/>
     </x:row>
     <x:row r="5" spans="1:9">
-      <x:c r="A5" s="85"/>
-      <x:c r="B5" s="79"/>
-      <x:c r="C5" s="82"/>
-      <x:c r="D5" s="82"/>
-      <x:c r="E5" s="76" t="s">
-        <x:v>216</x:v>
+      <x:c r="A5" s="92"/>
+      <x:c r="B5" s="86"/>
+      <x:c r="C5" s="99"/>
+      <x:c r="D5" s="99"/>
+      <x:c r="E5" s="95" t="s">
+        <x:v>156</x:v>
       </x:c>
       <x:c r="F5" s="37" t="s">
-        <x:v>166</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="G5" s="37"/>
       <x:c r="H5" s="37"/>
       <x:c r="I5" s="37"/>
     </x:row>
     <x:row r="6" spans="1:9">
-      <x:c r="A6" s="85"/>
-      <x:c r="B6" s="79"/>
-      <x:c r="C6" s="82"/>
-      <x:c r="D6" s="77"/>
-      <x:c r="E6" s="77"/>
+      <x:c r="A6" s="92"/>
+      <x:c r="B6" s="86"/>
+      <x:c r="C6" s="99"/>
+      <x:c r="D6" s="96"/>
+      <x:c r="E6" s="96"/>
       <x:c r="F6" s="37" t="s">
-        <x:v>95</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G6" s="37"/>
       <x:c r="H6" s="37"/>
       <x:c r="I6" s="37"/>
     </x:row>
     <x:row r="7" spans="1:9">
-      <x:c r="A7" s="85"/>
-      <x:c r="B7" s="79"/>
-      <x:c r="C7" s="82"/>
-      <x:c r="D7" s="76" t="s">
-        <x:v>149</x:v>
+      <x:c r="A7" s="92"/>
+      <x:c r="B7" s="86"/>
+      <x:c r="C7" s="99"/>
+      <x:c r="D7" s="95" t="s">
+        <x:v>164</x:v>
       </x:c>
       <x:c r="E7" s="37" t="s">
-        <x:v>98</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F7" s="37"/>
       <x:c r="G7" s="37"/>
@@ -3565,91 +3609,91 @@
       <x:c r="I7" s="37"/>
     </x:row>
     <x:row r="8" spans="1:9">
-      <x:c r="A8" s="85"/>
-      <x:c r="B8" s="79"/>
-      <x:c r="C8" s="82"/>
-      <x:c r="D8" s="82"/>
+      <x:c r="A8" s="92"/>
+      <x:c r="B8" s="86"/>
+      <x:c r="C8" s="99"/>
+      <x:c r="D8" s="99"/>
       <x:c r="E8" s="37" t="s">
-        <x:v>122</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F8" s="37"/>
       <x:c r="G8" s="37"/>
       <x:c r="H8" s="37"/>
       <x:c r="I8" s="37" t="s">
-        <x:v>24</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
-      <x:c r="A9" s="85"/>
-      <x:c r="B9" s="79"/>
-      <x:c r="C9" s="82"/>
-      <x:c r="D9" s="82"/>
+      <x:c r="A9" s="92"/>
+      <x:c r="B9" s="86"/>
+      <x:c r="C9" s="99"/>
+      <x:c r="D9" s="99"/>
       <x:c r="E9" s="37" t="s">
-        <x:v>137</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F9" s="37"/>
       <x:c r="G9" s="37"/>
       <x:c r="H9" s="37"/>
       <x:c r="I9" s="37" t="s">
-        <x:v>231</x:v>
+        <x:v>248</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
-      <x:c r="A10" s="85"/>
-      <x:c r="B10" s="79"/>
-      <x:c r="C10" s="82"/>
-      <x:c r="D10" s="82"/>
-      <x:c r="E10" s="76" t="s">
-        <x:v>161</x:v>
+      <x:c r="A10" s="92"/>
+      <x:c r="B10" s="86"/>
+      <x:c r="C10" s="99"/>
+      <x:c r="D10" s="99"/>
+      <x:c r="E10" s="95" t="s">
+        <x:v>162</x:v>
       </x:c>
       <x:c r="F10" s="37" t="s">
-        <x:v>203</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="G10" s="37"/>
       <x:c r="H10" s="37"/>
       <x:c r="I10" s="37"/>
     </x:row>
     <x:row r="11" spans="1:9">
-      <x:c r="A11" s="85"/>
-      <x:c r="B11" s="79"/>
-      <x:c r="C11" s="82"/>
-      <x:c r="D11" s="82"/>
-      <x:c r="E11" s="82"/>
+      <x:c r="A11" s="92"/>
+      <x:c r="B11" s="86"/>
+      <x:c r="C11" s="99"/>
+      <x:c r="D11" s="99"/>
+      <x:c r="E11" s="99"/>
       <x:c r="F11" s="37" t="s">
-        <x:v>220</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="G11" s="37"/>
       <x:c r="H11" s="37"/>
       <x:c r="I11" s="37" t="s">
-        <x:v>241</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
-      <x:c r="A12" s="85"/>
-      <x:c r="B12" s="79"/>
-      <x:c r="C12" s="82"/>
-      <x:c r="D12" s="82"/>
-      <x:c r="E12" s="82"/>
+      <x:c r="A12" s="92"/>
+      <x:c r="B12" s="86"/>
+      <x:c r="C12" s="99"/>
+      <x:c r="D12" s="99"/>
+      <x:c r="E12" s="99"/>
       <x:c r="F12" s="37" t="s">
-        <x:v>110</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G12" s="37"/>
       <x:c r="H12" s="37"/>
       <x:c r="I12" s="37"/>
     </x:row>
     <x:row r="13" spans="1:28">
-      <x:c r="A13" s="85"/>
-      <x:c r="B13" s="79"/>
-      <x:c r="C13" s="77"/>
-      <x:c r="D13" s="77"/>
-      <x:c r="E13" s="77"/>
+      <x:c r="A13" s="92"/>
+      <x:c r="B13" s="86"/>
+      <x:c r="C13" s="96"/>
+      <x:c r="D13" s="96"/>
+      <x:c r="E13" s="96"/>
       <x:c r="F13" s="37" t="s">
-        <x:v>130</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G13" s="37"/>
       <x:c r="H13" s="37"/>
       <x:c r="I13" s="37" t="s">
-        <x:v>230</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="J13" s="29"/>
       <x:c r="K13" s="29"/>
@@ -3672,22 +3716,22 @@
       <x:c r="AB13" s="29"/>
     </x:row>
     <x:row r="14" spans="1:28">
-      <x:c r="A14" s="85"/>
-      <x:c r="B14" s="79"/>
-      <x:c r="C14" s="76" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="D14" s="76" t="s">
-        <x:v>210</x:v>
+      <x:c r="A14" s="92"/>
+      <x:c r="B14" s="86"/>
+      <x:c r="C14" s="95" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="D14" s="95" t="s">
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E14" s="37" t="s">
-        <x:v>124</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F14" s="37"/>
       <x:c r="G14" s="37"/>
       <x:c r="H14" s="37"/>
       <x:c r="I14" s="37" t="s">
-        <x:v>108</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="J14" s="29"/>
       <x:c r="K14" s="29"/>
@@ -3710,18 +3754,18 @@
       <x:c r="AB14" s="29"/>
     </x:row>
     <x:row r="15" spans="1:28">
-      <x:c r="A15" s="85"/>
-      <x:c r="B15" s="79"/>
-      <x:c r="C15" s="82"/>
-      <x:c r="D15" s="82"/>
+      <x:c r="A15" s="92"/>
+      <x:c r="B15" s="86"/>
+      <x:c r="C15" s="99"/>
+      <x:c r="D15" s="99"/>
       <x:c r="E15" s="37" t="s">
-        <x:v>205</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="F15" s="37"/>
       <x:c r="G15" s="37"/>
       <x:c r="H15" s="37"/>
       <x:c r="I15" s="37" t="s">
-        <x:v>192</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="J15" s="29"/>
       <x:c r="K15" s="29"/>
@@ -3744,12 +3788,12 @@
       <x:c r="AB15" s="29"/>
     </x:row>
     <x:row r="16" spans="1:28">
-      <x:c r="A16" s="85"/>
-      <x:c r="B16" s="79"/>
-      <x:c r="C16" s="82"/>
-      <x:c r="D16" s="82"/>
+      <x:c r="A16" s="92"/>
+      <x:c r="B16" s="86"/>
+      <x:c r="C16" s="99"/>
+      <x:c r="D16" s="99"/>
       <x:c r="E16" s="37" t="s">
-        <x:v>188</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="F16" s="37"/>
       <x:c r="G16" s="37"/>
@@ -3775,18 +3819,18 @@
       <x:c r="AB16" s="29"/>
     </x:row>
     <x:row r="17" spans="1:28">
-      <x:c r="A17" s="85"/>
-      <x:c r="B17" s="79"/>
-      <x:c r="C17" s="82"/>
-      <x:c r="D17" s="77"/>
+      <x:c r="A17" s="92"/>
+      <x:c r="B17" s="86"/>
+      <x:c r="C17" s="99"/>
+      <x:c r="D17" s="96"/>
       <x:c r="E17" s="37" t="s">
-        <x:v>217</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="F17" s="37"/>
       <x:c r="G17" s="37"/>
       <x:c r="H17" s="37"/>
       <x:c r="I17" s="37" t="s">
-        <x:v>250</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="J17" s="29"/>
       <x:c r="K17" s="29"/>
@@ -3809,17 +3853,17 @@
       <x:c r="AB17" s="29"/>
     </x:row>
     <x:row r="18" spans="1:28">
-      <x:c r="A18" s="85"/>
-      <x:c r="B18" s="79"/>
-      <x:c r="C18" s="82"/>
+      <x:c r="A18" s="92"/>
+      <x:c r="B18" s="86"/>
+      <x:c r="C18" s="99"/>
       <x:c r="D18" s="37" t="s">
-        <x:v>70</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E18" s="37" t="s">
-        <x:v>59</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F18" s="37" t="s">
-        <x:v>182</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="G18" s="37"/>
       <x:c r="H18" s="37"/>
@@ -3845,18 +3889,18 @@
       <x:c r="AB18" s="29"/>
     </x:row>
     <x:row r="19" spans="1:28">
-      <x:c r="A19" s="85"/>
-      <x:c r="B19" s="79"/>
-      <x:c r="C19" s="82"/>
+      <x:c r="A19" s="92"/>
+      <x:c r="B19" s="86"/>
+      <x:c r="C19" s="99"/>
       <x:c r="D19" s="37" t="s">
-        <x:v>140</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E19" s="37"/>
       <x:c r="F19" s="37"/>
       <x:c r="G19" s="37"/>
       <x:c r="H19" s="37"/>
-      <x:c r="I19" s="76" t="s">
-        <x:v>93</x:v>
+      <x:c r="I19" s="95" t="s">
+        <x:v>112</x:v>
       </x:c>
       <x:c r="J19" s="29"/>
       <x:c r="K19" s="29"/>
@@ -3879,17 +3923,17 @@
       <x:c r="AB19" s="29"/>
     </x:row>
     <x:row r="20" spans="1:28">
-      <x:c r="A20" s="85"/>
-      <x:c r="B20" s="79"/>
-      <x:c r="C20" s="82"/>
+      <x:c r="A20" s="92"/>
+      <x:c r="B20" s="86"/>
+      <x:c r="C20" s="99"/>
       <x:c r="D20" s="37" t="s">
-        <x:v>217</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E20" s="37"/>
       <x:c r="F20" s="37"/>
       <x:c r="G20" s="37"/>
       <x:c r="H20" s="37"/>
-      <x:c r="I20" s="82"/>
+      <x:c r="I20" s="99"/>
       <x:c r="J20" s="29"/>
       <x:c r="K20" s="29"/>
       <x:c r="L20" s="29"/>
@@ -3911,17 +3955,17 @@
       <x:c r="AB20" s="29"/>
     </x:row>
     <x:row r="21" spans="1:28">
-      <x:c r="A21" s="85"/>
-      <x:c r="B21" s="79"/>
-      <x:c r="C21" s="82"/>
+      <x:c r="A21" s="92"/>
+      <x:c r="B21" s="86"/>
+      <x:c r="C21" s="99"/>
       <x:c r="D21" s="37" t="s">
-        <x:v>188</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="E21" s="37"/>
       <x:c r="F21" s="37"/>
       <x:c r="G21" s="37"/>
       <x:c r="H21" s="37"/>
-      <x:c r="I21" s="77"/>
+      <x:c r="I21" s="96"/>
       <x:c r="J21" s="29"/>
       <x:c r="K21" s="29"/>
       <x:c r="L21" s="29"/>
@@ -3943,11 +3987,11 @@
       <x:c r="AB21" s="29"/>
     </x:row>
     <x:row r="22" spans="1:28">
-      <x:c r="A22" s="85"/>
-      <x:c r="B22" s="80"/>
-      <x:c r="C22" s="77"/>
+      <x:c r="A22" s="92"/>
+      <x:c r="B22" s="97"/>
+      <x:c r="C22" s="96"/>
       <x:c r="D22" s="37" t="s">
-        <x:v>64</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E22" s="37"/>
       <x:c r="F22" s="37"/>
@@ -3975,12 +4019,12 @@
       <x:c r="AB22" s="29"/>
     </x:row>
     <x:row r="23" spans="1:28">
-      <x:c r="A23" s="85"/>
-      <x:c r="B23" s="83" t="s">
-        <x:v>186</x:v>
+      <x:c r="A23" s="92"/>
+      <x:c r="B23" s="88" t="s">
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C23" s="37" t="s">
-        <x:v>67</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D23" s="37"/>
       <x:c r="E23" s="37"/>
@@ -4009,10 +4053,10 @@
       <x:c r="AB23" s="29"/>
     </x:row>
     <x:row r="24" spans="1:28">
-      <x:c r="A24" s="85"/>
-      <x:c r="B24" s="79"/>
+      <x:c r="A24" s="92"/>
+      <x:c r="B24" s="86"/>
       <x:c r="C24" s="37" t="s">
-        <x:v>115</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D24" s="37"/>
       <x:c r="E24" s="37"/>
@@ -4041,10 +4085,10 @@
       <x:c r="AB24" s="29"/>
     </x:row>
     <x:row r="25" spans="1:28">
-      <x:c r="A25" s="85"/>
-      <x:c r="B25" s="79"/>
+      <x:c r="A25" s="92"/>
+      <x:c r="B25" s="86"/>
       <x:c r="C25" s="37" t="s">
-        <x:v>138</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D25" s="37"/>
       <x:c r="E25" s="37"/>
@@ -4073,16 +4117,16 @@
       <x:c r="AB25" s="29"/>
     </x:row>
     <x:row r="26" spans="1:87">
-      <x:c r="A26" s="85"/>
-      <x:c r="B26" s="79"/>
-      <x:c r="C26" s="76" t="s">
-        <x:v>186</x:v>
+      <x:c r="A26" s="92"/>
+      <x:c r="B26" s="86"/>
+      <x:c r="C26" s="95" t="s">
+        <x:v>192</x:v>
       </x:c>
       <x:c r="D26" s="37" t="s">
-        <x:v>204</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="E26" s="37" t="s">
-        <x:v>61</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F26" s="37"/>
       <x:c r="G26" s="37"/>
@@ -4168,17 +4212,17 @@
       <x:c r="CI26" s="29"/>
     </x:row>
     <x:row r="27" spans="1:87" s="1" customFormat="1">
-      <x:c r="A27" s="84"/>
-      <x:c r="B27" s="83"/>
-      <x:c r="C27" s="82"/>
-      <x:c r="D27" s="76" t="s">
-        <x:v>136</x:v>
+      <x:c r="A27" s="91"/>
+      <x:c r="B27" s="88"/>
+      <x:c r="C27" s="99"/>
+      <x:c r="D27" s="95" t="s">
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E27" s="37" t="s">
-        <x:v>174</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="F27" s="37" t="s">
-        <x:v>80</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="G27" s="37"/>
       <x:c r="H27" s="37"/>
@@ -4263,15 +4307,15 @@
       <x:c r="CI27" s="29"/>
     </x:row>
     <x:row r="28" spans="1:87">
-      <x:c r="A28" s="85"/>
-      <x:c r="B28" s="79"/>
-      <x:c r="C28" s="82"/>
-      <x:c r="D28" s="77"/>
+      <x:c r="A28" s="92"/>
+      <x:c r="B28" s="86"/>
+      <x:c r="C28" s="99"/>
+      <x:c r="D28" s="96"/>
       <x:c r="E28" s="37" t="s">
-        <x:v>184</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="F28" s="37" t="s">
-        <x:v>80</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="G28" s="37"/>
       <x:c r="H28" s="37"/>
@@ -4356,14 +4400,14 @@
       <x:c r="CI28" s="29"/>
     </x:row>
     <x:row r="29" spans="1:87">
-      <x:c r="A29" s="85"/>
-      <x:c r="B29" s="79"/>
-      <x:c r="C29" s="82"/>
+      <x:c r="A29" s="92"/>
+      <x:c r="B29" s="86"/>
+      <x:c r="C29" s="99"/>
       <x:c r="D29" s="37" t="s">
-        <x:v>145</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E29" s="39" t="s">
-        <x:v>150</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="F29" s="39"/>
       <x:c r="G29" s="37"/>
@@ -4449,14 +4493,14 @@
       <x:c r="CI29" s="29"/>
     </x:row>
     <x:row r="30" spans="1:87">
-      <x:c r="A30" s="85"/>
-      <x:c r="B30" s="79"/>
-      <x:c r="C30" s="82"/>
+      <x:c r="A30" s="92"/>
+      <x:c r="B30" s="86"/>
+      <x:c r="C30" s="99"/>
       <x:c r="D30" s="37" t="s">
-        <x:v>195</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E30" s="37" t="s">
-        <x:v>129</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F30" s="37"/>
       <x:c r="G30" s="37"/>
@@ -4542,12 +4586,12 @@
       <x:c r="CI30" s="29"/>
     </x:row>
     <x:row r="31" spans="1:87" s="1" customFormat="1">
-      <x:c r="A31" s="84"/>
-      <x:c r="B31" s="83"/>
-      <x:c r="C31" s="82"/>
+      <x:c r="A31" s="91"/>
+      <x:c r="B31" s="88"/>
+      <x:c r="C31" s="99"/>
       <x:c r="D31" s="37"/>
       <x:c r="E31" s="37" t="s">
-        <x:v>144</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="F31" s="37"/>
       <x:c r="G31" s="37"/>
@@ -4633,14 +4677,14 @@
       <x:c r="CI31" s="29"/>
     </x:row>
     <x:row r="32" spans="1:87">
-      <x:c r="A32" s="85"/>
-      <x:c r="B32" s="79"/>
-      <x:c r="C32" s="82"/>
+      <x:c r="A32" s="92"/>
+      <x:c r="B32" s="86"/>
+      <x:c r="C32" s="99"/>
       <x:c r="D32" s="37" t="s">
-        <x:v>190</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E32" s="37" t="s">
-        <x:v>219</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F32" s="37"/>
       <x:c r="G32" s="37"/>
@@ -4726,11 +4770,11 @@
       <x:c r="CI32" s="29"/>
     </x:row>
     <x:row r="33" spans="1:87">
-      <x:c r="A33" s="85"/>
-      <x:c r="B33" s="79"/>
-      <x:c r="C33" s="77"/>
+      <x:c r="A33" s="92"/>
+      <x:c r="B33" s="86"/>
+      <x:c r="C33" s="96"/>
       <x:c r="D33" s="37" t="s">
-        <x:v>208</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E33" s="37"/>
       <x:c r="F33" s="37"/>
@@ -4817,13 +4861,13 @@
       <x:c r="CI33" s="29"/>
     </x:row>
     <x:row r="34" spans="1:87" s="1" customFormat="1">
-      <x:c r="A34" s="84"/>
-      <x:c r="B34" s="83"/>
-      <x:c r="C34" s="76" t="s">
-        <x:v>179</x:v>
+      <x:c r="A34" s="91"/>
+      <x:c r="B34" s="88"/>
+      <x:c r="C34" s="95" t="s">
+        <x:v>214</x:v>
       </x:c>
       <x:c r="D34" s="37" t="s">
-        <x:v>169</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="E34" s="37"/>
       <x:c r="F34" s="37"/>
@@ -4910,11 +4954,11 @@
       <x:c r="CI34" s="29"/>
     </x:row>
     <x:row r="35" spans="1:87" s="1" customFormat="1">
-      <x:c r="A35" s="85"/>
-      <x:c r="B35" s="79"/>
-      <x:c r="C35" s="82"/>
+      <x:c r="A35" s="92"/>
+      <x:c r="B35" s="86"/>
+      <x:c r="C35" s="99"/>
       <x:c r="D35" s="37" t="s">
-        <x:v>119</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E35" s="37"/>
       <x:c r="F35" s="37"/>
@@ -5001,11 +5045,11 @@
       <x:c r="CI35" s="29"/>
     </x:row>
     <x:row r="36" spans="1:87" s="1" customFormat="1">
-      <x:c r="A36" s="85"/>
-      <x:c r="B36" s="79"/>
-      <x:c r="C36" s="82"/>
+      <x:c r="A36" s="92"/>
+      <x:c r="B36" s="86"/>
+      <x:c r="C36" s="99"/>
       <x:c r="D36" s="37" t="s">
-        <x:v>125</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E36" s="37"/>
       <x:c r="F36" s="37"/>
@@ -5092,11 +5136,11 @@
       <x:c r="CI36" s="29"/>
     </x:row>
     <x:row r="37" spans="1:87" s="1" customFormat="1">
-      <x:c r="A37" s="85"/>
-      <x:c r="B37" s="79"/>
-      <x:c r="C37" s="82"/>
+      <x:c r="A37" s="92"/>
+      <x:c r="B37" s="86"/>
+      <x:c r="C37" s="99"/>
       <x:c r="D37" s="37" t="s">
-        <x:v>133</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E37" s="37"/>
       <x:c r="F37" s="37"/>
@@ -5183,11 +5227,11 @@
       <x:c r="CI37" s="29"/>
     </x:row>
     <x:row r="38" spans="1:87" s="1" customFormat="1">
-      <x:c r="A38" s="85"/>
-      <x:c r="B38" s="79"/>
-      <x:c r="C38" s="82"/>
+      <x:c r="A38" s="92"/>
+      <x:c r="B38" s="86"/>
+      <x:c r="C38" s="99"/>
       <x:c r="D38" s="37" t="s">
-        <x:v>197</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="E38" s="37"/>
       <x:c r="F38" s="37"/>
@@ -5274,11 +5318,11 @@
       <x:c r="CI38" s="29"/>
     </x:row>
     <x:row r="39" spans="1:87" s="1" customFormat="1">
-      <x:c r="A39" s="84"/>
-      <x:c r="B39" s="83"/>
-      <x:c r="C39" s="77"/>
+      <x:c r="A39" s="91"/>
+      <x:c r="B39" s="88"/>
+      <x:c r="C39" s="96"/>
       <x:c r="D39" s="37" t="s">
-        <x:v>173</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E39" s="37"/>
       <x:c r="F39" s="37"/>
@@ -5365,12 +5409,12 @@
       <x:c r="CI39" s="29"/>
     </x:row>
     <x:row r="40" spans="1:87">
-      <x:c r="A40" s="85"/>
-      <x:c r="B40" s="83" t="s">
-        <x:v>141</x:v>
+      <x:c r="A40" s="92"/>
+      <x:c r="B40" s="88" t="s">
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C40" s="37" t="s">
-        <x:v>128</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D40" s="37"/>
       <x:c r="E40" s="37"/>
@@ -5458,10 +5502,10 @@
       <x:c r="CI40" s="29"/>
     </x:row>
     <x:row r="41" spans="1:87">
-      <x:c r="A41" s="85"/>
-      <x:c r="B41" s="79"/>
+      <x:c r="A41" s="92"/>
+      <x:c r="B41" s="86"/>
       <x:c r="C41" s="37" t="s">
-        <x:v>163</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D41" s="37"/>
       <x:c r="E41" s="37"/>
@@ -5549,10 +5593,10 @@
       <x:c r="CI41" s="29"/>
     </x:row>
     <x:row r="42" spans="1:87">
-      <x:c r="A42" s="85"/>
-      <x:c r="B42" s="79"/>
+      <x:c r="A42" s="92"/>
+      <x:c r="B42" s="86"/>
       <x:c r="C42" s="37" t="s">
-        <x:v>157</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D42" s="37"/>
       <x:c r="E42" s="37"/>
@@ -5640,10 +5684,10 @@
       <x:c r="CI42" s="29"/>
     </x:row>
     <x:row r="43" spans="1:87">
-      <x:c r="A43" s="85"/>
-      <x:c r="B43" s="79"/>
+      <x:c r="A43" s="92"/>
+      <x:c r="B43" s="86"/>
       <x:c r="C43" s="37" t="s">
-        <x:v>168</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D43" s="37"/>
       <x:c r="E43" s="37"/>
@@ -5731,10 +5775,10 @@
       <x:c r="CI43" s="29"/>
     </x:row>
     <x:row r="44" spans="1:87">
-      <x:c r="A44" s="85"/>
-      <x:c r="B44" s="79"/>
+      <x:c r="A44" s="92"/>
+      <x:c r="B44" s="86"/>
       <x:c r="C44" s="37" t="s">
-        <x:v>138</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D44" s="37"/>
       <x:c r="E44" s="37"/>
@@ -5822,10 +5866,10 @@
       <x:c r="CI44" s="29"/>
     </x:row>
     <x:row r="45" spans="1:87">
-      <x:c r="A45" s="85"/>
-      <x:c r="B45" s="80"/>
+      <x:c r="A45" s="92"/>
+      <x:c r="B45" s="97"/>
       <x:c r="C45" s="37" t="s">
-        <x:v>165</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D45" s="37"/>
       <x:c r="E45" s="37"/>
@@ -5913,12 +5957,12 @@
       <x:c r="CI45" s="29"/>
     </x:row>
     <x:row r="46" spans="1:87">
-      <x:c r="A46" s="85"/>
-      <x:c r="B46" s="83" t="s">
-        <x:v>134</x:v>
+      <x:c r="A46" s="92"/>
+      <x:c r="B46" s="88" t="s">
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C46" s="37" t="s">
-        <x:v>118</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D46" s="37"/>
       <x:c r="E46" s="37"/>
@@ -6006,10 +6050,10 @@
       <x:c r="CI46" s="29"/>
     </x:row>
     <x:row r="47" spans="1:87">
-      <x:c r="A47" s="85"/>
-      <x:c r="B47" s="79"/>
+      <x:c r="A47" s="92"/>
+      <x:c r="B47" s="86"/>
       <x:c r="C47" s="37" t="s">
-        <x:v>99</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D47" s="37"/>
       <x:c r="E47" s="37"/>
@@ -6097,10 +6141,10 @@
       <x:c r="CI47" s="29"/>
     </x:row>
     <x:row r="48" spans="1:87">
-      <x:c r="A48" s="85"/>
-      <x:c r="B48" s="79"/>
+      <x:c r="A48" s="92"/>
+      <x:c r="B48" s="86"/>
       <x:c r="C48" s="37" t="s">
-        <x:v>199</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D48" s="37"/>
       <x:c r="E48" s="37"/>
@@ -6188,10 +6232,10 @@
       <x:c r="CI48" s="29"/>
     </x:row>
     <x:row r="49" spans="1:87">
-      <x:c r="A49" s="85"/>
-      <x:c r="B49" s="80"/>
+      <x:c r="A49" s="92"/>
+      <x:c r="B49" s="97"/>
       <x:c r="C49" s="37" t="s">
-        <x:v>206</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D49" s="37"/>
       <x:c r="E49" s="37"/>
@@ -6279,15 +6323,15 @@
       <x:c r="CI49" s="29"/>
     </x:row>
     <x:row r="50" spans="1:87">
-      <x:c r="A50" s="85"/>
-      <x:c r="B50" s="83" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="C50" s="76" t="s">
-        <x:v>67</x:v>
+      <x:c r="A50" s="92"/>
+      <x:c r="B50" s="88" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="C50" s="95" t="s">
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D50" s="37" t="s">
-        <x:v>151</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E50" s="37"/>
       <x:c r="F50" s="37"/>
@@ -6374,11 +6418,11 @@
       <x:c r="CI50" s="29"/>
     </x:row>
     <x:row r="51" spans="1:87">
-      <x:c r="A51" s="85"/>
-      <x:c r="B51" s="79"/>
-      <x:c r="C51" s="77"/>
+      <x:c r="A51" s="92"/>
+      <x:c r="B51" s="86"/>
+      <x:c r="C51" s="96"/>
       <x:c r="D51" s="37" t="s">
-        <x:v>207</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E51" s="37"/>
       <x:c r="F51" s="37"/>
@@ -6465,13 +6509,13 @@
       <x:c r="CI51" s="29"/>
     </x:row>
     <x:row r="52" spans="1:87">
-      <x:c r="A52" s="85"/>
-      <x:c r="B52" s="79"/>
-      <x:c r="C52" s="76" t="s">
-        <x:v>102</x:v>
+      <x:c r="A52" s="92"/>
+      <x:c r="B52" s="86"/>
+      <x:c r="C52" s="95" t="s">
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D52" s="37" t="s">
-        <x:v>71</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E52" s="37"/>
       <x:c r="F52" s="37"/>
@@ -6558,11 +6602,11 @@
       <x:c r="CI52" s="29"/>
     </x:row>
     <x:row r="53" spans="1:87">
-      <x:c r="A53" s="85"/>
-      <x:c r="B53" s="79"/>
-      <x:c r="C53" s="77"/>
+      <x:c r="A53" s="92"/>
+      <x:c r="B53" s="86"/>
+      <x:c r="C53" s="96"/>
       <x:c r="D53" s="37" t="s">
-        <x:v>60</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E53" s="37"/>
       <x:c r="F53" s="37"/>
@@ -6649,13 +6693,13 @@
       <x:c r="CI53" s="29"/>
     </x:row>
     <x:row r="54" spans="1:87">
-      <x:c r="A54" s="85"/>
-      <x:c r="B54" s="79"/>
-      <x:c r="C54" s="76" t="s">
-        <x:v>76</x:v>
+      <x:c r="A54" s="92"/>
+      <x:c r="B54" s="86"/>
+      <x:c r="C54" s="95" t="s">
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D54" s="37" t="s">
-        <x:v>75</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E54" s="37"/>
       <x:c r="F54" s="37"/>
@@ -6742,11 +6786,11 @@
       <x:c r="CI54" s="29"/>
     </x:row>
     <x:row r="55" spans="1:87">
-      <x:c r="A55" s="85"/>
-      <x:c r="B55" s="79"/>
-      <x:c r="C55" s="82"/>
+      <x:c r="A55" s="92"/>
+      <x:c r="B55" s="86"/>
+      <x:c r="C55" s="99"/>
       <x:c r="D55" s="37" t="s">
-        <x:v>96</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E55" s="37"/>
       <x:c r="F55" s="37"/>
@@ -6833,11 +6877,11 @@
       <x:c r="CI55" s="29"/>
     </x:row>
     <x:row r="56" spans="1:87">
-      <x:c r="A56" s="85"/>
-      <x:c r="B56" s="79"/>
-      <x:c r="C56" s="77"/>
+      <x:c r="A56" s="92"/>
+      <x:c r="B56" s="86"/>
+      <x:c r="C56" s="96"/>
       <x:c r="D56" s="37" t="s">
-        <x:v>221</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E56" s="37"/>
       <x:c r="F56" s="37"/>
@@ -6924,13 +6968,13 @@
       <x:c r="CI56" s="29"/>
     </x:row>
     <x:row r="57" spans="1:87">
-      <x:c r="A57" s="85"/>
-      <x:c r="B57" s="79"/>
-      <x:c r="C57" s="76" t="s">
-        <x:v>152</x:v>
+      <x:c r="A57" s="92"/>
+      <x:c r="B57" s="86"/>
+      <x:c r="C57" s="95" t="s">
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D57" s="37" t="s">
-        <x:v>224</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="E57" s="37"/>
       <x:c r="F57" s="37"/>
@@ -7017,11 +7061,11 @@
       <x:c r="CI57" s="29"/>
     </x:row>
     <x:row r="58" spans="1:87">
-      <x:c r="A58" s="85"/>
-      <x:c r="B58" s="79"/>
-      <x:c r="C58" s="77"/>
+      <x:c r="A58" s="92"/>
+      <x:c r="B58" s="86"/>
+      <x:c r="C58" s="96"/>
       <x:c r="D58" s="37" t="s">
-        <x:v>58</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E58" s="37"/>
       <x:c r="F58" s="37"/>
@@ -7108,13 +7152,13 @@
       <x:c r="CI58" s="29"/>
     </x:row>
     <x:row r="59" spans="1:87">
-      <x:c r="A59" s="85"/>
-      <x:c r="B59" s="79"/>
-      <x:c r="C59" s="76" t="s">
-        <x:v>57</x:v>
+      <x:c r="A59" s="92"/>
+      <x:c r="B59" s="86"/>
+      <x:c r="C59" s="95" t="s">
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D59" s="37" t="s">
-        <x:v>228</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="E59" s="37"/>
       <x:c r="F59" s="37"/>
@@ -7201,11 +7245,11 @@
       <x:c r="CI59" s="29"/>
     </x:row>
     <x:row r="60" spans="1:87">
-      <x:c r="A60" s="85"/>
-      <x:c r="B60" s="79"/>
-      <x:c r="C60" s="77"/>
+      <x:c r="A60" s="92"/>
+      <x:c r="B60" s="86"/>
+      <x:c r="C60" s="96"/>
       <x:c r="D60" s="37" t="s">
-        <x:v>223</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="E60" s="37"/>
       <x:c r="F60" s="37"/>
@@ -7292,13 +7336,13 @@
       <x:c r="CI60" s="29"/>
     </x:row>
     <x:row r="61" spans="1:87">
-      <x:c r="A61" s="85"/>
-      <x:c r="B61" s="79"/>
-      <x:c r="C61" s="76" t="s">
-        <x:v>194</x:v>
+      <x:c r="A61" s="92"/>
+      <x:c r="B61" s="86"/>
+      <x:c r="C61" s="95" t="s">
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D61" s="37" t="s">
-        <x:v>101</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E61" s="37"/>
       <x:c r="F61" s="37"/>
@@ -7385,11 +7429,11 @@
       <x:c r="CI61" s="29"/>
     </x:row>
     <x:row r="62" spans="1:87">
-      <x:c r="A62" s="86"/>
-      <x:c r="B62" s="80"/>
-      <x:c r="C62" s="77"/>
+      <x:c r="A62" s="100"/>
+      <x:c r="B62" s="97"/>
+      <x:c r="C62" s="96"/>
       <x:c r="D62" s="37" t="s">
-        <x:v>153</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E62" s="37"/>
       <x:c r="F62" s="37"/>
@@ -9415,7 +9459,7 @@
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" activeCell="G28" activeCellId="0" sqref="G28:G28"/>
+      <x:selection pane="bottomLeft" activeCell="F26" activeCellId="0" sqref="F26:F26"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -9431,288 +9475,288 @@
   <x:sheetData>
     <x:row r="1" spans="1:8" ht="17.149999999999999">
       <x:c r="A1" s="32" t="s">
-        <x:v>88</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B1" s="33" t="s">
-        <x:v>167</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C1" s="34" t="s">
-        <x:v>156</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D1" s="34" t="s">
-        <x:v>185</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E1" s="34" t="s">
-        <x:v>147</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="F1" s="34" t="s">
-        <x:v>215</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="G1" s="34" t="s">
-        <x:v>131</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H1" s="35" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8" ht="16.75" customHeight="1">
+      <x:c r="A2" s="91" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="B2" s="89" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="C2" s="81" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="D2" s="79" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="E2" s="61" t="s">
         <x:v>114</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:8" ht="16.75" customHeight="1">
-      <x:c r="A2" s="84" t="s">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="B2" s="78" t="s">
-        <x:v>191</x:v>
-      </x:c>
-      <x:c r="C2" s="91" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="D2" s="89" t="s">
-        <x:v>210</x:v>
-      </x:c>
-      <x:c r="E2" s="61" t="s">
-        <x:v>87</x:v>
       </x:c>
       <x:c r="F2" s="61"/>
       <x:c r="G2" s="61"/>
       <x:c r="H2" s="61" t="s">
-        <x:v>226</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="85"/>
-      <x:c r="B3" s="79"/>
-      <x:c r="C3" s="92"/>
-      <x:c r="D3" s="90"/>
+      <x:c r="A3" s="92"/>
+      <x:c r="B3" s="86"/>
+      <x:c r="C3" s="82"/>
+      <x:c r="D3" s="80"/>
       <x:c r="E3" s="62" t="s">
-        <x:v>176</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="F3" s="62"/>
       <x:c r="G3" s="62"/>
       <x:c r="H3" s="62" t="s">
-        <x:v>170</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="A4" s="85"/>
-      <x:c r="B4" s="79"/>
-      <x:c r="C4" s="92"/>
-      <x:c r="D4" s="88"/>
+      <x:c r="A4" s="92"/>
+      <x:c r="B4" s="86"/>
+      <x:c r="C4" s="82"/>
+      <x:c r="D4" s="78"/>
       <x:c r="E4" s="62" t="s">
-        <x:v>216</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="F4" s="62"/>
       <x:c r="G4" s="62"/>
       <x:c r="H4" s="62" t="s">
-        <x:v>229</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="85"/>
-      <x:c r="B5" s="79"/>
-      <x:c r="C5" s="92"/>
-      <x:c r="D5" s="87" t="s">
-        <x:v>149</x:v>
+      <x:c r="A5" s="92"/>
+      <x:c r="B5" s="86"/>
+      <x:c r="C5" s="82"/>
+      <x:c r="D5" s="77" t="s">
+        <x:v>164</x:v>
       </x:c>
       <x:c r="E5" s="63" t="s">
-        <x:v>171</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F5" s="62"/>
       <x:c r="G5" s="62"/>
       <x:c r="H5" s="62" t="s">
-        <x:v>234</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="A6" s="85"/>
-      <x:c r="B6" s="79"/>
-      <x:c r="C6" s="93"/>
-      <x:c r="D6" s="88"/>
+      <x:c r="A6" s="92"/>
+      <x:c r="B6" s="86"/>
+      <x:c r="C6" s="83"/>
+      <x:c r="D6" s="78"/>
       <x:c r="E6" s="63" t="s">
-        <x:v>137</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F6" s="62"/>
       <x:c r="G6" s="62"/>
       <x:c r="H6" s="62" t="s">
-        <x:v>55</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="85"/>
-      <x:c r="B7" s="79"/>
-      <x:c r="C7" s="95" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D7" s="87" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="E7" s="87" t="s">
-        <x:v>210</x:v>
+      <x:c r="A7" s="92"/>
+      <x:c r="B7" s="86"/>
+      <x:c r="C7" s="85" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="D7" s="77" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E7" s="77" t="s">
+        <x:v>149</x:v>
       </x:c>
       <x:c r="F7" s="62" t="s">
-        <x:v>124</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G7" s="62"/>
       <x:c r="H7" s="62"/>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="85"/>
-      <x:c r="B8" s="79"/>
-      <x:c r="C8" s="92"/>
-      <x:c r="D8" s="90"/>
-      <x:c r="E8" s="90"/>
+      <x:c r="A8" s="92"/>
+      <x:c r="B8" s="86"/>
+      <x:c r="C8" s="82"/>
+      <x:c r="D8" s="80"/>
+      <x:c r="E8" s="80"/>
       <x:c r="F8" s="62" t="s">
-        <x:v>83</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G8" s="62"/>
       <x:c r="H8" s="62"/>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="85"/>
-      <x:c r="B9" s="79"/>
-      <x:c r="C9" s="92"/>
-      <x:c r="D9" s="90"/>
-      <x:c r="E9" s="90"/>
+      <x:c r="A9" s="92"/>
+      <x:c r="B9" s="86"/>
+      <x:c r="C9" s="82"/>
+      <x:c r="D9" s="80"/>
+      <x:c r="E9" s="80"/>
       <x:c r="F9" s="62" t="s">
-        <x:v>154</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="G9" s="62"/>
       <x:c r="H9" s="62"/>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="85"/>
-      <x:c r="B10" s="79"/>
-      <x:c r="C10" s="92"/>
-      <x:c r="D10" s="90"/>
-      <x:c r="E10" s="90"/>
+      <x:c r="A10" s="92"/>
+      <x:c r="B10" s="86"/>
+      <x:c r="C10" s="82"/>
+      <x:c r="D10" s="80"/>
+      <x:c r="E10" s="80"/>
       <x:c r="F10" s="62" t="s">
-        <x:v>140</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G10" s="62"/>
       <x:c r="H10" s="62"/>
     </x:row>
     <x:row r="11" spans="1:8" ht="16.75">
-      <x:c r="A11" s="85"/>
-      <x:c r="B11" s="96"/>
-      <x:c r="C11" s="97"/>
-      <x:c r="D11" s="94"/>
-      <x:c r="E11" s="94"/>
+      <x:c r="A11" s="92"/>
+      <x:c r="B11" s="87"/>
+      <x:c r="C11" s="90"/>
+      <x:c r="D11" s="84"/>
+      <x:c r="E11" s="84"/>
       <x:c r="F11" s="65" t="s">
-        <x:v>172</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="G11" s="65"/>
       <x:c r="H11" s="65"/>
     </x:row>
     <x:row r="12" spans="1:8">
-      <x:c r="A12" s="85"/>
-      <x:c r="B12" s="79" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="C12" s="92" t="s">
-        <x:v>164</x:v>
+      <x:c r="A12" s="92"/>
+      <x:c r="B12" s="86" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C12" s="82" t="s">
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D12" s="61" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E12" s="90" t="s">
-        <x:v>227</x:v>
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E12" s="80" t="s">
+        <x:v>250</x:v>
       </x:c>
       <x:c r="F12" s="61"/>
       <x:c r="G12" s="61"/>
       <x:c r="H12" s="61"/>
     </x:row>
     <x:row r="13" spans="1:8">
-      <x:c r="A13" s="85"/>
-      <x:c r="B13" s="79"/>
-      <x:c r="C13" s="92"/>
+      <x:c r="A13" s="92"/>
+      <x:c r="B13" s="86"/>
+      <x:c r="C13" s="82"/>
       <x:c r="D13" s="63" t="s">
-        <x:v>204</x:v>
-      </x:c>
-      <x:c r="E13" s="90"/>
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="E13" s="80"/>
       <x:c r="F13" s="62"/>
       <x:c r="G13" s="62"/>
       <x:c r="H13" s="62"/>
     </x:row>
     <x:row r="14" spans="1:8">
-      <x:c r="A14" s="85"/>
-      <x:c r="B14" s="79"/>
-      <x:c r="C14" s="92"/>
+      <x:c r="A14" s="92"/>
+      <x:c r="B14" s="86"/>
+      <x:c r="C14" s="82"/>
       <x:c r="D14" s="63" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="E14" s="90"/>
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="E14" s="80"/>
       <x:c r="F14" s="62"/>
       <x:c r="G14" s="62"/>
       <x:c r="H14" s="62"/>
     </x:row>
     <x:row r="15" spans="1:8">
-      <x:c r="A15" s="85"/>
-      <x:c r="B15" s="79"/>
-      <x:c r="C15" s="93"/>
+      <x:c r="A15" s="92"/>
+      <x:c r="B15" s="86"/>
+      <x:c r="C15" s="83"/>
       <x:c r="D15" s="63" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="E15" s="88"/>
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="E15" s="78"/>
       <x:c r="F15" s="62"/>
       <x:c r="G15" s="62"/>
       <x:c r="H15" s="62"/>
     </x:row>
     <x:row r="16" spans="1:8">
-      <x:c r="A16" s="85"/>
-      <x:c r="B16" s="79"/>
-      <x:c r="C16" s="95" t="s">
-        <x:v>202</x:v>
+      <x:c r="A16" s="92"/>
+      <x:c r="B16" s="86"/>
+      <x:c r="C16" s="85" t="s">
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D16" s="63" t="s">
-        <x:v>178</x:v>
-      </x:c>
-      <x:c r="E16" s="87" t="s">
-        <x:v>67</x:v>
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="E16" s="77" t="s">
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F16" s="62" t="s">
-        <x:v>151</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="G16" s="62"/>
-      <x:c r="H16" s="87" t="s">
-        <x:v>252</x:v>
+      <x:c r="H16" s="77" t="s">
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
-      <x:c r="A17" s="85"/>
-      <x:c r="B17" s="79"/>
-      <x:c r="C17" s="93"/>
+      <x:c r="A17" s="92"/>
+      <x:c r="B17" s="86"/>
+      <x:c r="C17" s="83"/>
       <x:c r="D17" s="62" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="E17" s="88"/>
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E17" s="78"/>
       <x:c r="F17" s="62" t="s">
-        <x:v>207</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="G17" s="62"/>
-      <x:c r="H17" s="88"/>
+      <x:c r="H17" s="78"/>
     </x:row>
     <x:row r="18" spans="1:8" ht="16.75">
-      <x:c r="A18" s="85"/>
-      <x:c r="B18" s="96"/>
+      <x:c r="A18" s="92"/>
+      <x:c r="B18" s="87"/>
       <x:c r="C18" s="66" t="s">
-        <x:v>214</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D18" s="65"/>
       <x:c r="E18" s="65"/>
       <x:c r="F18" s="65"/>
       <x:c r="G18" s="65"/>
       <x:c r="H18" s="65" t="s">
-        <x:v>222</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
-      <x:c r="A19" s="85"/>
-      <x:c r="B19" s="79" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="C19" s="92" t="s">
-        <x:v>141</x:v>
+      <x:c r="A19" s="92"/>
+      <x:c r="B19" s="86" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C19" s="82" t="s">
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D19" s="61" t="s">
-        <x:v>128</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E19" s="61"/>
       <x:c r="F19" s="61"/>
@@ -9720,11 +9764,11 @@
       <x:c r="H19" s="61"/>
     </x:row>
     <x:row r="20" spans="1:8">
-      <x:c r="A20" s="85"/>
-      <x:c r="B20" s="79"/>
-      <x:c r="C20" s="92"/>
+      <x:c r="A20" s="92"/>
+      <x:c r="B20" s="86"/>
+      <x:c r="C20" s="82"/>
       <x:c r="D20" s="62" t="s">
-        <x:v>143</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E20" s="62"/>
       <x:c r="F20" s="62"/>
@@ -9732,11 +9776,11 @@
       <x:c r="H20" s="62"/>
     </x:row>
     <x:row r="21" spans="1:8">
-      <x:c r="A21" s="85"/>
-      <x:c r="B21" s="79"/>
-      <x:c r="C21" s="92"/>
+      <x:c r="A21" s="92"/>
+      <x:c r="B21" s="86"/>
+      <x:c r="C21" s="82"/>
       <x:c r="D21" s="62" t="s">
-        <x:v>157</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E21" s="62"/>
       <x:c r="F21" s="62"/>
@@ -9744,11 +9788,11 @@
       <x:c r="H21" s="62"/>
     </x:row>
     <x:row r="22" spans="1:8">
-      <x:c r="A22" s="85"/>
-      <x:c r="B22" s="79"/>
-      <x:c r="C22" s="92"/>
+      <x:c r="A22" s="92"/>
+      <x:c r="B22" s="86"/>
+      <x:c r="C22" s="82"/>
       <x:c r="D22" s="62" t="s">
-        <x:v>138</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E22" s="62"/>
       <x:c r="F22" s="62"/>
@@ -9756,11 +9800,11 @@
       <x:c r="H22" s="62"/>
     </x:row>
     <x:row r="23" spans="1:8">
-      <x:c r="A23" s="85"/>
-      <x:c r="B23" s="79"/>
-      <x:c r="C23" s="93"/>
+      <x:c r="A23" s="92"/>
+      <x:c r="B23" s="86"/>
+      <x:c r="C23" s="83"/>
       <x:c r="D23" s="62" t="s">
-        <x:v>165</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E23" s="62"/>
       <x:c r="F23" s="62"/>
@@ -9768,90 +9812,90 @@
       <x:c r="H23" s="62"/>
     </x:row>
     <x:row r="24" spans="1:8">
-      <x:c r="A24" s="84"/>
-      <x:c r="B24" s="83"/>
-      <x:c r="C24" s="95" t="s">
-        <x:v>168</x:v>
-      </x:c>
-      <x:c r="D24" s="87" t="s">
-        <x:v>126</x:v>
+      <x:c r="A24" s="91"/>
+      <x:c r="B24" s="88"/>
+      <x:c r="C24" s="85" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="D24" s="77" t="s">
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E24" s="62" t="s">
-        <x:v>100</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F24" s="62"/>
       <x:c r="G24" s="62"/>
       <x:c r="H24" s="62"/>
     </x:row>
     <x:row r="25" spans="1:8">
-      <x:c r="A25" s="85"/>
-      <x:c r="B25" s="79"/>
-      <x:c r="C25" s="92"/>
-      <x:c r="D25" s="88"/>
+      <x:c r="A25" s="92"/>
+      <x:c r="B25" s="86"/>
+      <x:c r="C25" s="82"/>
+      <x:c r="D25" s="78"/>
       <x:c r="E25" s="62" t="s">
-        <x:v>121</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F25" s="62"/>
       <x:c r="G25" s="62"/>
       <x:c r="H25" s="62"/>
     </x:row>
     <x:row r="26" spans="1:8">
-      <x:c r="A26" s="84"/>
-      <x:c r="B26" s="83"/>
-      <x:c r="C26" s="92"/>
-      <x:c r="D26" s="87" t="s">
-        <x:v>117</x:v>
+      <x:c r="A26" s="91"/>
+      <x:c r="B26" s="88"/>
+      <x:c r="C26" s="82"/>
+      <x:c r="D26" s="77" t="s">
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E26" s="62" t="s">
-        <x:v>113</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F26" s="62"/>
       <x:c r="G26" s="62"/>
       <x:c r="H26" s="62"/>
     </x:row>
     <x:row r="27" spans="1:8">
-      <x:c r="A27" s="85"/>
-      <x:c r="B27" s="79"/>
-      <x:c r="C27" s="92"/>
-      <x:c r="D27" s="90"/>
+      <x:c r="A27" s="92"/>
+      <x:c r="B27" s="86"/>
+      <x:c r="C27" s="82"/>
+      <x:c r="D27" s="80"/>
       <x:c r="E27" s="62" t="s">
-        <x:v>105</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F27" s="62"/>
       <x:c r="G27" s="62"/>
       <x:c r="H27" s="62"/>
     </x:row>
     <x:row r="28" spans="1:8">
-      <x:c r="A28" s="85"/>
-      <x:c r="B28" s="79"/>
-      <x:c r="C28" s="92"/>
-      <x:c r="D28" s="90"/>
+      <x:c r="A28" s="92"/>
+      <x:c r="B28" s="86"/>
+      <x:c r="C28" s="82"/>
+      <x:c r="D28" s="80"/>
       <x:c r="E28" s="62" t="s">
-        <x:v>103</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F28" s="62"/>
       <x:c r="G28" s="62"/>
       <x:c r="H28" s="62"/>
     </x:row>
     <x:row r="29" spans="1:8" ht="16.75">
-      <x:c r="A29" s="85"/>
-      <x:c r="B29" s="96"/>
-      <x:c r="C29" s="97"/>
-      <x:c r="D29" s="94"/>
+      <x:c r="A29" s="92"/>
+      <x:c r="B29" s="87"/>
+      <x:c r="C29" s="90"/>
+      <x:c r="D29" s="84"/>
       <x:c r="E29" s="65" t="s">
-        <x:v>109</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F29" s="65"/>
       <x:c r="G29" s="65"/>
       <x:c r="H29" s="65"/>
     </x:row>
     <x:row r="30" spans="1:8">
-      <x:c r="A30" s="85"/>
-      <x:c r="B30" s="79" t="s">
-        <x:v>134</x:v>
+      <x:c r="A30" s="92"/>
+      <x:c r="B30" s="86" t="s">
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C30" s="67" t="s">
-        <x:v>118</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D30" s="61"/>
       <x:c r="E30" s="61"/>
@@ -9860,10 +9904,10 @@
       <x:c r="H30" s="61"/>
     </x:row>
     <x:row r="31" spans="1:8">
-      <x:c r="A31" s="85"/>
-      <x:c r="B31" s="79"/>
+      <x:c r="A31" s="92"/>
+      <x:c r="B31" s="86"/>
       <x:c r="C31" s="58" t="s">
-        <x:v>99</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D31" s="62"/>
       <x:c r="E31" s="62"/>
@@ -9872,10 +9916,10 @@
       <x:c r="H31" s="62"/>
     </x:row>
     <x:row r="32" spans="1:8">
-      <x:c r="A32" s="85"/>
-      <x:c r="B32" s="79"/>
+      <x:c r="A32" s="92"/>
+      <x:c r="B32" s="86"/>
       <x:c r="C32" s="58" t="s">
-        <x:v>199</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D32" s="62"/>
       <x:c r="E32" s="62"/>
@@ -9884,10 +9928,10 @@
       <x:c r="H32" s="62"/>
     </x:row>
     <x:row r="33" spans="1:8" ht="16.75">
-      <x:c r="A33" s="85"/>
-      <x:c r="B33" s="96"/>
+      <x:c r="A33" s="92"/>
+      <x:c r="B33" s="87"/>
       <x:c r="C33" s="68" t="s">
-        <x:v>206</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D33" s="65"/>
       <x:c r="E33" s="65"/>
@@ -9896,12 +9940,12 @@
       <x:c r="H33" s="65"/>
     </x:row>
     <x:row r="34" spans="1:8">
-      <x:c r="A34" s="85"/>
-      <x:c r="B34" s="79" t="s">
-        <x:v>187</x:v>
+      <x:c r="A34" s="92"/>
+      <x:c r="B34" s="86" t="s">
+        <x:v>201</x:v>
       </x:c>
       <x:c r="C34" s="67" t="s">
-        <x:v>91</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D34" s="61"/>
       <x:c r="E34" s="61"/>
@@ -9910,13 +9954,13 @@
       <x:c r="H34" s="61"/>
     </x:row>
     <x:row r="35" spans="1:8">
-      <x:c r="A35" s="85"/>
-      <x:c r="B35" s="79"/>
-      <x:c r="C35" s="95" t="s">
-        <x:v>194</x:v>
+      <x:c r="A35" s="92"/>
+      <x:c r="B35" s="86"/>
+      <x:c r="C35" s="85" t="s">
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D35" s="62" t="s">
-        <x:v>101</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E35" s="62"/>
       <x:c r="F35" s="62"/>
@@ -9924,11 +9968,11 @@
       <x:c r="H35" s="62"/>
     </x:row>
     <x:row r="36" spans="1:8">
-      <x:c r="A36" s="85"/>
-      <x:c r="B36" s="79"/>
-      <x:c r="C36" s="92"/>
+      <x:c r="A36" s="92"/>
+      <x:c r="B36" s="86"/>
+      <x:c r="C36" s="82"/>
       <x:c r="D36" s="62" t="s">
-        <x:v>153</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E36" s="62"/>
       <x:c r="F36" s="62"/>
@@ -9936,11 +9980,11 @@
       <x:c r="H36" s="62"/>
     </x:row>
     <x:row r="37" spans="1:8" ht="16.75">
-      <x:c r="A37" s="85"/>
-      <x:c r="B37" s="96"/>
-      <x:c r="C37" s="97"/>
+      <x:c r="A37" s="92"/>
+      <x:c r="B37" s="87"/>
+      <x:c r="C37" s="90"/>
       <x:c r="D37" s="65" t="s">
-        <x:v>86</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E37" s="65"/>
       <x:c r="F37" s="65"/>
@@ -9948,7 +9992,7 @@
       <x:c r="H37" s="65"/>
     </x:row>
     <x:row r="38" spans="1:8">
-      <x:c r="A38" s="85"/>
+      <x:c r="A38" s="92"/>
       <x:c r="B38" s="64"/>
       <x:c r="C38" s="67"/>
       <x:c r="D38" s="61"/>
@@ -9958,7 +10002,7 @@
       <x:c r="H38" s="61"/>
     </x:row>
     <x:row r="39" spans="1:8">
-      <x:c r="A39" s="85"/>
+      <x:c r="A39" s="92"/>
       <x:c r="B39" s="59"/>
       <x:c r="C39" s="60"/>
       <x:c r="D39" s="62"/>
@@ -9968,7 +10012,7 @@
       <x:c r="H39" s="62"/>
     </x:row>
     <x:row r="40" spans="1:8" ht="16.75">
-      <x:c r="A40" s="98"/>
+      <x:c r="A40" s="93"/>
       <x:c r="B40" s="47"/>
       <x:c r="C40" s="48"/>
       <x:c r="D40" s="48"/>
@@ -10020,7 +10064,7 @@
     <x:row r="45" spans="1:8">
       <x:c r="A45" s="44"/>
       <x:c r="B45" s="44"/>
-      <x:c r="C45" s="99"/>
+      <x:c r="C45" s="94"/>
       <x:c r="D45" s="57"/>
       <x:c r="E45" s="46"/>
       <x:c r="F45" s="46"/>
@@ -10030,7 +10074,7 @@
     <x:row r="46" spans="1:8">
       <x:c r="A46" s="44"/>
       <x:c r="B46" s="44"/>
-      <x:c r="C46" s="99"/>
+      <x:c r="C46" s="94"/>
       <x:c r="D46" s="57"/>
       <x:c r="E46" s="46"/>
       <x:c r="F46" s="46"/>
@@ -10040,7 +10084,7 @@
     <x:row r="47" spans="1:8">
       <x:c r="A47" s="44"/>
       <x:c r="B47" s="44"/>
-      <x:c r="C47" s="99"/>
+      <x:c r="C47" s="94"/>
       <x:c r="D47" s="57"/>
       <x:c r="E47" s="46"/>
       <x:c r="F47" s="46"/>
@@ -10050,7 +10094,7 @@
     <x:row r="48" spans="1:8">
       <x:c r="A48" s="44"/>
       <x:c r="B48" s="44"/>
-      <x:c r="C48" s="99"/>
+      <x:c r="C48" s="94"/>
       <x:c r="D48" s="57"/>
       <x:c r="E48" s="46"/>
       <x:c r="F48" s="46"/>
@@ -10060,7 +10104,7 @@
     <x:row r="49" spans="1:8">
       <x:c r="A49" s="44"/>
       <x:c r="B49" s="44"/>
-      <x:c r="C49" s="99"/>
+      <x:c r="C49" s="94"/>
       <x:c r="D49" s="57"/>
       <x:c r="E49" s="46"/>
       <x:c r="F49" s="46"/>
@@ -10070,7 +10114,7 @@
     <x:row r="50" spans="1:8">
       <x:c r="A50" s="44"/>
       <x:c r="B50" s="44"/>
-      <x:c r="C50" s="99"/>
+      <x:c r="C50" s="94"/>
       <x:c r="D50" s="57"/>
       <x:c r="E50" s="46"/>
       <x:c r="F50" s="46"/>
@@ -10080,7 +10124,7 @@
     <x:row r="51" spans="1:8">
       <x:c r="A51" s="44"/>
       <x:c r="B51" s="44"/>
-      <x:c r="C51" s="99"/>
+      <x:c r="C51" s="94"/>
       <x:c r="D51" s="57"/>
       <x:c r="E51" s="46"/>
       <x:c r="F51" s="46"/>
@@ -10090,7 +10134,7 @@
     <x:row r="52" spans="1:8">
       <x:c r="A52" s="44"/>
       <x:c r="B52" s="44"/>
-      <x:c r="C52" s="99"/>
+      <x:c r="C52" s="94"/>
       <x:c r="D52" s="57"/>
       <x:c r="E52" s="46"/>
       <x:c r="F52" s="46"/>
@@ -10100,7 +10144,7 @@
     <x:row r="53" spans="1:8">
       <x:c r="A53" s="44"/>
       <x:c r="B53" s="44"/>
-      <x:c r="C53" s="99"/>
+      <x:c r="C53" s="94"/>
       <x:c r="D53" s="57"/>
       <x:c r="E53" s="46"/>
       <x:c r="F53" s="46"/>
@@ -10110,7 +10154,7 @@
     <x:row r="54" spans="1:8">
       <x:c r="A54" s="44"/>
       <x:c r="B54" s="44"/>
-      <x:c r="C54" s="99"/>
+      <x:c r="C54" s="94"/>
       <x:c r="D54" s="57"/>
       <x:c r="E54" s="46"/>
       <x:c r="F54" s="46"/>
@@ -10120,7 +10164,7 @@
     <x:row r="55" spans="1:8">
       <x:c r="A55" s="44"/>
       <x:c r="B55" s="44"/>
-      <x:c r="C55" s="99"/>
+      <x:c r="C55" s="94"/>
       <x:c r="D55" s="57"/>
       <x:c r="E55" s="46"/>
       <x:c r="F55" s="46"/>
@@ -10130,7 +10174,7 @@
     <x:row r="56" spans="1:8">
       <x:c r="A56" s="44"/>
       <x:c r="B56" s="44"/>
-      <x:c r="C56" s="99"/>
+      <x:c r="C56" s="94"/>
       <x:c r="D56" s="57"/>
       <x:c r="E56" s="46"/>
       <x:c r="F56" s="46"/>
@@ -10140,7 +10184,7 @@
     <x:row r="57" spans="1:8">
       <x:c r="A57" s="44"/>
       <x:c r="B57" s="44"/>
-      <x:c r="C57" s="99"/>
+      <x:c r="C57" s="94"/>
       <x:c r="D57" s="57"/>
       <x:c r="E57" s="46"/>
       <x:c r="F57" s="46"/>
@@ -10264,388 +10308,388 @@
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="49"/>
       <x:c r="B2" s="36" t="s">
-        <x:v>104</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C2" s="36" t="s">
-        <x:v>92</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D2" s="36" t="s">
-        <x:v>201</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E2" s="36" t="s">
         <x:v>198</x:v>
       </x:c>
       <x:c r="F2" s="36" t="s">
-        <x:v>114</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6" ht="16.75">
       <x:c r="A3" s="49"/>
-      <x:c r="B3" s="78" t="s">
-        <x:v>181</x:v>
-      </x:c>
-      <x:c r="C3" s="81" t="s">
-        <x:v>177</x:v>
-      </x:c>
-      <x:c r="D3" s="81" t="s">
-        <x:v>146</x:v>
+      <x:c r="B3" s="89" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="C3" s="98" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="D3" s="98" t="s">
+        <x:v>159</x:v>
       </x:c>
       <x:c r="E3" s="50" t="s">
-        <x:v>46</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F3" s="69"/>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="49"/>
-      <x:c r="B4" s="79"/>
-      <x:c r="C4" s="82"/>
-      <x:c r="D4" s="82"/>
+      <x:c r="B4" s="86"/>
+      <x:c r="C4" s="99"/>
+      <x:c r="D4" s="99"/>
       <x:c r="E4" s="51" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="F4" s="70"/>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="49"/>
-      <x:c r="B5" s="79"/>
-      <x:c r="C5" s="82"/>
-      <x:c r="D5" s="82"/>
+      <x:c r="B5" s="86"/>
+      <x:c r="C5" s="99"/>
+      <x:c r="D5" s="99"/>
       <x:c r="E5" s="51" t="s">
-        <x:v>32</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F5" s="70"/>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="49"/>
-      <x:c r="B6" s="79"/>
-      <x:c r="C6" s="82"/>
-      <x:c r="D6" s="82"/>
+      <x:c r="B6" s="86"/>
+      <x:c r="C6" s="99"/>
+      <x:c r="D6" s="99"/>
       <x:c r="E6" s="51" t="s">
-        <x:v>41</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F6" s="70"/>
     </x:row>
     <x:row r="7" spans="1:6" ht="32.75">
       <x:c r="A7" s="49"/>
-      <x:c r="B7" s="79"/>
-      <x:c r="C7" s="82"/>
-      <x:c r="D7" s="77"/>
+      <x:c r="B7" s="86"/>
+      <x:c r="C7" s="99"/>
+      <x:c r="D7" s="96"/>
       <x:c r="E7" s="52" t="s">
-        <x:v>30</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F7" s="70"/>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="49"/>
-      <x:c r="B8" s="79"/>
-      <x:c r="C8" s="82"/>
-      <x:c r="D8" s="76" t="s">
-        <x:v>135</x:v>
+      <x:c r="B8" s="86"/>
+      <x:c r="C8" s="99"/>
+      <x:c r="D8" s="95" t="s">
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E8" s="53" t="s">
-        <x:v>44</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F8" s="70"/>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="49"/>
-      <x:c r="B9" s="79"/>
-      <x:c r="C9" s="82"/>
-      <x:c r="D9" s="82"/>
+      <x:c r="B9" s="86"/>
+      <x:c r="C9" s="99"/>
+      <x:c r="D9" s="99"/>
       <x:c r="E9" s="51" t="s">
-        <x:v>242</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="F9" s="70"/>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="49"/>
-      <x:c r="B10" s="79"/>
-      <x:c r="C10" s="82"/>
-      <x:c r="D10" s="77"/>
+      <x:c r="B10" s="86"/>
+      <x:c r="C10" s="99"/>
+      <x:c r="D10" s="96"/>
       <x:c r="E10" s="54" t="s">
-        <x:v>31</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F10" s="70"/>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="49"/>
-      <x:c r="B11" s="79"/>
-      <x:c r="C11" s="82"/>
-      <x:c r="D11" s="76" t="s">
-        <x:v>127</x:v>
+      <x:c r="B11" s="86"/>
+      <x:c r="C11" s="99"/>
+      <x:c r="D11" s="95" t="s">
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E11" s="53" t="s">
-        <x:v>23</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F11" s="70"/>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="49"/>
-      <x:c r="B12" s="79"/>
-      <x:c r="C12" s="77"/>
-      <x:c r="D12" s="77"/>
+      <x:c r="B12" s="86"/>
+      <x:c r="C12" s="96"/>
+      <x:c r="D12" s="96"/>
       <x:c r="E12" s="54" t="s">
-        <x:v>43</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F12" s="70"/>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="49"/>
-      <x:c r="B13" s="79"/>
-      <x:c r="C13" s="76" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D13" s="76" t="s">
-        <x:v>141</x:v>
+      <x:c r="B13" s="86"/>
+      <x:c r="C13" s="95" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D13" s="95" t="s">
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E13" s="53" t="s">
-        <x:v>236</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="F13" s="70"/>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="49"/>
-      <x:c r="B14" s="79"/>
-      <x:c r="C14" s="82"/>
-      <x:c r="D14" s="82"/>
+      <x:c r="B14" s="86"/>
+      <x:c r="C14" s="99"/>
+      <x:c r="D14" s="99"/>
       <x:c r="E14" s="51" t="s">
-        <x:v>47</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F14" s="70"/>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="49"/>
-      <x:c r="B15" s="79"/>
-      <x:c r="C15" s="82"/>
-      <x:c r="D15" s="82"/>
+      <x:c r="B15" s="86"/>
+      <x:c r="C15" s="99"/>
+      <x:c r="D15" s="99"/>
       <x:c r="E15" s="51" t="s">
-        <x:v>247</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="F15" s="70"/>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="49"/>
-      <x:c r="B16" s="79"/>
-      <x:c r="C16" s="82"/>
-      <x:c r="D16" s="77"/>
+      <x:c r="B16" s="86"/>
+      <x:c r="C16" s="99"/>
+      <x:c r="D16" s="96"/>
       <x:c r="E16" s="54" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F16" s="70"/>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="49"/>
-      <x:c r="B17" s="79"/>
-      <x:c r="C17" s="82"/>
-      <x:c r="D17" s="76" t="s">
-        <x:v>112</x:v>
+      <x:c r="B17" s="86"/>
+      <x:c r="C17" s="99"/>
+      <x:c r="D17" s="95" t="s">
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E17" s="53" t="s">
-        <x:v>244</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="F17" s="70"/>
     </x:row>
     <x:row r="18" spans="1:6" ht="32.75">
       <x:c r="A18" s="49"/>
-      <x:c r="B18" s="79"/>
-      <x:c r="C18" s="77"/>
-      <x:c r="D18" s="77"/>
+      <x:c r="B18" s="86"/>
+      <x:c r="C18" s="96"/>
+      <x:c r="D18" s="96"/>
       <x:c r="E18" s="52" t="s">
-        <x:v>13</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F18" s="70"/>
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="49"/>
-      <x:c r="B19" s="79"/>
-      <x:c r="C19" s="76" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="D19" s="76" t="s">
-        <x:v>56</x:v>
+      <x:c r="B19" s="86"/>
+      <x:c r="C19" s="95" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D19" s="95" t="s">
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E19" s="53" t="s">
-        <x:v>239</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="F19" s="70"/>
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="49"/>
-      <x:c r="B20" s="79"/>
-      <x:c r="C20" s="82"/>
-      <x:c r="D20" s="77"/>
+      <x:c r="B20" s="86"/>
+      <x:c r="C20" s="99"/>
+      <x:c r="D20" s="96"/>
       <x:c r="E20" s="54" t="s">
-        <x:v>42</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F20" s="70"/>
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="49"/>
-      <x:c r="B21" s="79"/>
-      <x:c r="C21" s="82"/>
-      <x:c r="D21" s="76" t="s">
-        <x:v>78</x:v>
+      <x:c r="B21" s="86"/>
+      <x:c r="C21" s="99"/>
+      <x:c r="D21" s="95" t="s">
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E21" s="53" t="s">
-        <x:v>253</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="F21" s="70"/>
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="49"/>
-      <x:c r="B22" s="79"/>
-      <x:c r="C22" s="82"/>
-      <x:c r="D22" s="77"/>
+      <x:c r="B22" s="86"/>
+      <x:c r="C22" s="99"/>
+      <x:c r="D22" s="96"/>
       <x:c r="E22" s="54" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F22" s="70"/>
     </x:row>
     <x:row r="23" spans="1:6">
       <x:c r="A23" s="49"/>
-      <x:c r="B23" s="79"/>
-      <x:c r="C23" s="82"/>
+      <x:c r="B23" s="86"/>
+      <x:c r="C23" s="99"/>
       <x:c r="D23" s="37" t="s">
-        <x:v>139</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E23" s="55" t="s">
-        <x:v>15</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F23" s="70"/>
     </x:row>
     <x:row r="24" spans="1:6">
       <x:c r="A24" s="49"/>
-      <x:c r="B24" s="79"/>
-      <x:c r="C24" s="82"/>
-      <x:c r="D24" s="76" t="s">
-        <x:v>63</x:v>
+      <x:c r="B24" s="86"/>
+      <x:c r="C24" s="99"/>
+      <x:c r="D24" s="95" t="s">
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E24" s="53" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F24" s="70"/>
     </x:row>
     <x:row r="25" spans="1:6">
       <x:c r="A25" s="49"/>
-      <x:c r="B25" s="79"/>
-      <x:c r="C25" s="82"/>
-      <x:c r="D25" s="82"/>
+      <x:c r="B25" s="86"/>
+      <x:c r="C25" s="99"/>
+      <x:c r="D25" s="99"/>
       <x:c r="E25" s="51" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F25" s="70"/>
     </x:row>
     <x:row r="26" spans="1:6">
       <x:c r="A26" s="49"/>
-      <x:c r="B26" s="79"/>
-      <x:c r="C26" s="82"/>
-      <x:c r="D26" s="82"/>
+      <x:c r="B26" s="86"/>
+      <x:c r="C26" s="99"/>
+      <x:c r="D26" s="99"/>
       <x:c r="E26" s="51" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F26" s="70"/>
     </x:row>
     <x:row r="27" spans="1:6" ht="16.75">
       <x:c r="A27" s="49"/>
-      <x:c r="B27" s="96"/>
-      <x:c r="C27" s="100"/>
-      <x:c r="D27" s="100"/>
+      <x:c r="B27" s="87"/>
+      <x:c r="C27" s="101"/>
+      <x:c r="D27" s="101"/>
       <x:c r="E27" s="56" t="s">
-        <x:v>245</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="F27" s="71"/>
     </x:row>
     <x:row r="28" spans="1:6" ht="16.75">
       <x:c r="A28" s="49"/>
-      <x:c r="B28" s="78" t="s">
-        <x:v>155</x:v>
+      <x:c r="B28" s="89" t="s">
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C28" s="72" t="s">
-        <x:v>158</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D28" s="72" t="s">
-        <x:v>106</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E28" s="73" t="s">
-        <x:v>246</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="F28" s="69"/>
     </x:row>
     <x:row r="29" spans="1:6">
       <x:c r="A29" s="49"/>
-      <x:c r="B29" s="79"/>
-      <x:c r="C29" s="76" t="s">
-        <x:v>183</x:v>
+      <x:c r="B29" s="86"/>
+      <x:c r="C29" s="95" t="s">
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D29" s="37" t="s">
-        <x:v>111</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E29" s="55" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F29" s="70"/>
     </x:row>
     <x:row r="30" spans="1:6">
       <x:c r="A30" s="49"/>
-      <x:c r="B30" s="79"/>
-      <x:c r="C30" s="82"/>
-      <x:c r="D30" s="76" t="s">
-        <x:v>142</x:v>
+      <x:c r="B30" s="86"/>
+      <x:c r="C30" s="99"/>
+      <x:c r="D30" s="95" t="s">
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E30" s="53" t="s">
-        <x:v>232</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="F30" s="70"/>
     </x:row>
     <x:row r="31" spans="1:6">
       <x:c r="A31" s="49"/>
-      <x:c r="B31" s="79"/>
-      <x:c r="C31" s="82"/>
-      <x:c r="D31" s="82"/>
+      <x:c r="B31" s="86"/>
+      <x:c r="C31" s="99"/>
+      <x:c r="D31" s="99"/>
       <x:c r="E31" s="51" t="s">
-        <x:v>16</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F31" s="70"/>
     </x:row>
     <x:row r="32" spans="1:6">
       <x:c r="A32" s="49"/>
-      <x:c r="B32" s="79"/>
-      <x:c r="C32" s="82"/>
-      <x:c r="D32" s="82"/>
+      <x:c r="B32" s="86"/>
+      <x:c r="C32" s="99"/>
+      <x:c r="D32" s="99"/>
       <x:c r="E32" s="51" t="s">
-        <x:v>45</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F32" s="70"/>
     </x:row>
     <x:row r="33" spans="1:6" ht="16.75">
       <x:c r="A33" s="49"/>
-      <x:c r="B33" s="96"/>
-      <x:c r="C33" s="100"/>
-      <x:c r="D33" s="100"/>
+      <x:c r="B33" s="87"/>
+      <x:c r="C33" s="101"/>
+      <x:c r="D33" s="101"/>
       <x:c r="E33" s="56" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="F33" s="71"/>
     </x:row>
     <x:row r="34" spans="1:6">
       <x:c r="A34" s="49"/>
-      <x:c r="B34" s="79" t="s">
-        <x:v>180</x:v>
-      </x:c>
-      <x:c r="C34" s="82"/>
-      <x:c r="D34" s="82"/>
+      <x:c r="B34" s="86" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="C34" s="99"/>
+      <x:c r="D34" s="99"/>
       <x:c r="E34" s="51" t="s">
-        <x:v>40</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F34" s="70"/>
     </x:row>
     <x:row r="35" spans="1:6" ht="16.75">
       <x:c r="A35" s="49"/>
-      <x:c r="B35" s="96"/>
-      <x:c r="C35" s="100"/>
-      <x:c r="D35" s="100"/>
+      <x:c r="B35" s="87"/>
+      <x:c r="C35" s="101"/>
+      <x:c r="D35" s="101"/>
       <x:c r="E35" s="56" t="s">
-        <x:v>238</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="F35" s="71"/>
     </x:row>

--- a/2021_Summer/jp.hong/Datebook_jph.xlsx
+++ b/2021_Summer/jp.hong/Datebook_jph.xlsx
@@ -22,77 +22,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="257">
-  <x:si>
-    <x:t>1. 요구사항 분석 (실현성 확인)
-2. 데이터 흐름도 수정
- - 차량 관련 새소식 창 삭제 및 다른 사항 수정
-3. Menu_Tree 작성
-4. Flow_Chart 작성
-5. 필요 자료 추가 조사
- -&gt; 주유, 부품들의 수명정보(?) 어떻게 자동으로 받아올지 알아봐야함 -&gt; 블루투스 =&gt; 블루투스 연동 어떻게?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 각 버튼 및 창 기능 설명, 기능 플로우 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성(설명,컨테이너등 정보 채우기)
-2. 기능플로우 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 경쟁 어플 메뉴트리 수정
-2. 요구사항, 기능정의 순서 수정
-3. 한계점 수정
-블루투스 -&gt; 사진 촬영 ====&gt; 대체하게 되면 글자 인식하는 코드 필요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. DateBook_Comment 부분 수정
-2. GIT보고서 수정
- - 설치 과정 추가
- - 명령어 부분 내용 추가
-3. PPT 머릿글 요약 작성 - (미완)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
- - 컴퓨터 견적 추천 앱
- - 주차시 사고발생 알림 앱
-2. 주제 아이디어 최종 선정
- - 차량 관리 어플
-3. 개발 계획서 및 요구사항 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-1. Datebook Comment 부분 요약
-1-2. GIT 보고서 다시 작성
-1-3. PPT 머릿글 요약 작성
-1-4. 파일명 수정
-1-5 최종 아이디어 선정 이유 작성
-2. 요구사항 수집 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중복되는 아이디로 가입시도시 아이디 입력 오류 메세지가 출력되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 인터페이스 구상도 작성
-2. 요구사항 분류하여 수정
-3. 추가 자료조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 수집 및 정의
-2. 요구사항 분석
-3. 구현 가능 여부 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인에 성공했다면 로그인 버튼이 아닌 로그 아웃 버튼을 보여주어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 현장실습 OT
- - 기업 소개 및 업무 설명
- - 앞으로 수행하게 될 프로젝트 설명
-2. 기존에 진행했던 캡스톤프로젝트 첨언
-3. 제품 개발 과정 설명
- - 제품 기획 
- - 개발 기획  
- - 개발 설계</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="264">
+  <x:si>
+    <x:t>회원 가입시 아이디, 비밀번호, 이름, 전화번호, 생년월일, 차종의 정보를 받아야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알맞은 ID값과 패스워드 값이 입력 될 경우 그에 맞는 회원 정보가 로그인 되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 예약을 하는 과정에서 사용자가 선택한 지점과 선택된 지점의 정보가 일치해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판의 글을 삭제하거나 올리기 위한 '글쓰기'버튼과 '글 삭제' 버튼이 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 화면 시퀀스 작성 (설명, 커뮤니티, 알림, 설정화면 추가)
+2. 추가 자료 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. vi 명령어 설명서 작성
+2. 요구사항 정의 및 분석</x:t>
   </x:si>
   <x:si>
     <x:t>1. 실습 환경 설정 및 설명
@@ -106,8 +55,62 @@
  - 차량 관리 어플</x:t>
   </x:si>
   <x:si>
+    <x:t>1. 요구사항 분석 (실현성 확인)
+2. 데이터 흐름도 수정
+ - 차량 관련 새소식 창 삭제 및 다른 사항 수정
+3. Menu_Tree 작성
+4. Flow_Chart 작성
+5. 필요 자료 추가 조사
+ -&gt; 주유, 부품들의 수명정보(?) 어떻게 자동으로 받아올지 알아봐야함 -&gt; 블루투스 =&gt; 블루투스 연동 어떻게?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 필요 자료 추가 조사
+2. 한계점 및 필요기술 추가
+ - 차량 블루투스와 어플 연결 어떻게?
+ - 연결이 된다면 원하는 정보만 어떻게 가져 올건지?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 현장실습 OT
+ - 기업 소개 및 업무 설명
+ - 앞으로 수행하게 될 프로젝트 설명
+2. 기존에 진행했던 캡스톤프로젝트 첨언
+3. 제품 개발 과정 설명
+ - 제품 기획 
+ - 개발 기획  
+ - 개발 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-1. Datebook Comment 부분 요약
+1-2. GIT 보고서 다시 작성
+1-3. PPT 머릿글 요약 작성
+1-4. 파일명 수정
+1-5 최종 아이디어 선정 이유 작성
+2. 요구사항 수집 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 정보(오너들의 평균 정보)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교체할 부품을 선택 받아야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주행 거리별 check list</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검내역서(정비소 제공 문서)</x:t>
+  </x:si>
+  <x:si>
     <x:t>1. 메뉴시퀀스 작성(각 화면 기능 설명 채우기)
 2. 각 화면 플로우 차트 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 계획하고 있는 어플의 메뉴트리 작성 및 ppt 수정
+2. 요구사항 추가 및 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 플로우 차트 작성
+2. 설계 계획서 작성
+3. Menu_Tree 도식화 수정</x:t>
   </x:si>
   <x:si>
     <x:t>1. (2-2) 수익적 요소 추가
@@ -120,173 +123,43 @@
 비밀번호 입력 오류 메세지가 출력되어야 한다.</x:t>
   </x:si>
   <x:si>
-    <x:t>사라지거나 위치가 바뀐 정보를 수시로 업데이트 해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택 된 부품은 값의 변조 없이 알맞은 값이 저장되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입시 필요한 정보 및 소유한 차량의 정보를 포함해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유, 연비, 운행거리, 정비 및 기타비용 총액/월별 지출액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 날짜를 기록할 수 있도록 다이어리 형식으로 제공해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록된 사용자만이 자신이 등록한 차량의 정보를 확인해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정 기능을 통해 작성했던 글을 수정 할 수 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외부에서 받아오는 정보(지도, 가격 등)에 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품의 종류를 다르게 하여 여러가지를 선택 할 수 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. vi 명령어 설명서 작성
-2. 요구사항 정의 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>달력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭설철</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리뷰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점검</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무결성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상황별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인기글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>손세차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타이어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계절별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보안성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Q&amp;A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채팅창</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이클</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장마철</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가을</x:t>
-  </x:si>
-  <x:si>
-    <x:t>만족도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>겨울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>편집</x:t>
-  </x:si>
-  <x:si>
-    <x:t>봄</x:t>
+    <x:t>1. 화면 플로우 마무리
+2. Setting창 화면 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. DateBook_Comment 부분 수정
+2. GIT보고서 수정
+ - 설치 과정 추가
+ - 명령어 부분 내용 추가
+3. PPT 머릿글 요약 작성 - (미완)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+ - 컴퓨터 견적 추천 앱
+ - 주차시 사고발생 알림 앱
+2. 주제 아이디어 최종 선정
+ - 차량 관리 어플
+3. 개발 계획서 및 요구사항 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 경쟁 어플 메뉴트리 수정
+2. 요구사항, 기능정의 순서 수정
+3. 한계점 수정
+블루투스 -&gt; 사진 촬영 ====&gt; 대체하게 되면 글자 인식하는 코드 필요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Git 목록 삭제
+2. 요구사항 분석
+3. 인터페이스 구상도 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06.22, 06.23 회의록 작성
+2. Git 환경 설정
+3. Git 설정 화면 캡처 및 보고서 작성
+4. 캡스톤 아이디어 도출</x:t>
   </x:si>
   <x:si>
     <x:t>1. 요구사항 정의 및 분석 - 체계화
@@ -295,10 +168,222 @@
 3. 구현 가능 여부 확인</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 06.22, 06.23 회의록 작성
-2. Git 환경 설정
-3. Git 설정 화면 캡처 및 보고서 작성
-4. 캡스톤 아이디어 도출</x:t>
+    <x:t>쿠폰 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어플 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 화면 플로우 마무리
+2. 정비예약화면 아이콘 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택 된 부품은 값의 변조 없이 알맞은 값이 저장되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입시 필요한 정보 및 소유한 차량의 정보를 포함해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유, 연비, 운행거리, 정비 및 기타비용 총액/월별 지출액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품의 종류를 다르게 하여 여러가지를 선택 할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사라지거나 위치가 바뀐 정보를 수시로 업데이트 해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 날짜를 기록할 수 있도록 다이어리 형식으로 제공해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록된 사용자만이 자신이 등록한 차량의 정보를 확인해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정 기능을 통해 작성했던 글을 수정 할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외부에서 받아오는 정보(지도, 가격 등)에 변조가 없어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 수집 및 정의
+ - 관련 필요 자료 조사
+ - 기능적/ 비기능적 요구사항 내용 추가
+2. 개발에 필요한 요구사항 분석 (실현성 확인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 앱 화면별 Sequence 작성
+2. 앱 화면별 어떻게 구성할 것인지 구상
+3. 추가 자료조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:34
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스 (메뉴)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:22
+18:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 정보 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:40
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 정보 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 형태로 존재</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진행 방향 ---&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자주 하는 질문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>community</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 판매견적 받기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 기본 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약/견적 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:43
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 정비소 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험료 계산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09:00
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유사 모델 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:33
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품 교체 예상 견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운전자 보험료 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:43
+18:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰 보유 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친구 초대 이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:32
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운전자 추천 서비스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 장착점 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험 선호도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:23
+15:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:25
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Community</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:32
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고장사례(리콜사례)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:30
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 연동 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 보험료 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:27
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:36
+18:07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비소 지도 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>할인 쿠폰 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:27
+18:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:36
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:30
+18:04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+2. 최종 아이디어 선정
+3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 화면을 들어가게 되면 아이디와 비밀번호의 입력 창, 회원가입 버튼과
+로그인 버튼이 나와야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06_30 회의록 작성
+2. 요구사항 수정 및 관련 필요 자료 조사
+3. 15:00 ~ 지도교수 면담</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성(login, join, 내 차고, 차량 정보) 미완
+2. 블루투스 관련 자료 조사</x:t>
   </x:si>
   <x:si>
     <x:t>1. vi 명령어 설명서 작성 완료
@@ -307,48 +392,35 @@
  - 비기능적 요구사항</x:t>
   </x:si>
   <x:si>
+    <x:t>로그인에 성공했다면 로그인 버튼이 아닌 로그 아웃 버튼을 보여주어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성(설명,컨테이너등 정보 채우기)
+2. 기능플로우 작성</x:t>
+  </x:si>
+  <x:si>
     <x:t>1. 추가 자료조사
 2. 요구사항 추가 조사
 3. 경쟁 어플 기능 비교 보완</x:t>
   </x:si>
   <x:si>
-    <x:t>1. Git 목록 삭제
+    <x:t>중복되는 아이디로 가입시도시 아이디 입력 오류 메세지가 출력되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 인터페이스 구상도 작성
+2. 요구사항 분류하여 수정
+3. 추가 자료조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 수집 및 정의
 2. 요구사항 분석
-3. 인터페이스 구상도 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주행 거리 정보를 받아 계산하여 남은 수명에 대해 알려 주어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 추가 자료조사(관련 코드)
-2. FlowChart 수정 및 보완</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어플의 예약기능을 통해 예약한 경우 업체로부터 일정 수수료를 받는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성 (미완)
-2. 스피너 및 캘린더 뷰 다이어리 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호는 특수문자 포함 8자리 이상 12자리 이하 이어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소유한 차량이 여러 대일 경우 차량의 정보를 추가할 수 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 앱 화면별 Sequence 작성
-2. 앱 화면별 어떻게 구성할 것인지 구상
-3. 추가 자료조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 계획하고 있는 어플의 메뉴트리 작성 및 ppt 수정
-2. 요구사항 추가 및 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 플로우 차트 작성
-2. 설계 계획서 작성
-3. Menu_Tree 도식화 수정</x:t>
+3. 구현 가능 여부 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 07.02 회의록 작성
+2. Git 업로드 한 것 중 중복된 것들 삭제
+3. 어플 흐름 구상도 작성
+4. 요구사항/기능 정의/기능 설계 3가지 부분으로 나누어 요구사항 수정(미완)</x:t>
   </x:si>
   <x:si>
     <x:t>1. 진행사항 체크 및 2주차 목표 설정
@@ -359,552 +431,504 @@
 5. vi사용법 설명</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 07.02 회의록 작성
-2. Git 업로드 한 것 중 중복된 것들 삭제
-3. 어플 흐름 구상도 작성
-4. 요구사항/기능 정의/기능 설계 3가지 부분으로 나누어 요구사항 수정(미완)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 화면 시퀀스 작성 (설명, 커뮤니티, 알림, 설정화면 추가)
-2. 추가 자료 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 예약을 하는 과정에서 사용자가 선택한 지점과 선택된 지점의 정보가 일치해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알맞은 ID값과 패스워드 값이 입력 될 경우 그에 맞는 회원 정보가 로그인 되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판의 글을 삭제하거나 올리기 위한 '글쓰기'버튼과 '글 삭제' 버튼이 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 가입시 아이디, 비밀번호, 이름, 전화번호, 생년월일, 차종의 정보를 받아야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 수집 및 정의
- - 관련 필요 자료 조사
- - 기능적/ 비기능적 요구사항 내용 추가
-2. 개발에 필요한 요구사항 분석 (실현성 확인)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 화면을 들어가게 되면 아이디와 비밀번호의 입력 창, 회원가입 버튼과
-로그인 버튼이 나와야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성(login, join, 내 차고, 차량 정보) 미완
-2. 블루투스 관련 자료 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
-2. 최종 아이디어 선정
-3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06_30 회의록 작성
-2. 요구사항 수정 및 관련 필요 자료 조사
-3. 15:00 ~ 지도교수 면담</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 필요 자료 추가 조사
-2. 한계점 및 필요기술 추가
- - 차량 블루투스와 어플 연결 어떻게?
- - 연결이 된다면 원하는 정보만 어떻게 가져 올건지?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주행 거리별 check list</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점검내역서(정비소 제공 문서)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교체할 부품을 선택 받아야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 정보(오너들의 평균 정보)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:22
-18:01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진행 방향 ---&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>community</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 정보 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자주 하는 질문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스 (메뉴)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 판매견적 받기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:40
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 정보 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 형태로 존재</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운전자 보험료 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 기본 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:43
-18:01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:32
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:33
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친구 초대 이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 보험 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약/견적 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 보험료 계산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유사 모델 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:43
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품 교체 예상 견적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 정비소 예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰 보유 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09:00
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 연동 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:23
-15:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고장사례(리콜사례)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비소 지도 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>할인 쿠폰 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:25
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운전자 추천 서비스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:27
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 보험료 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 보험 선호도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:27
-18:05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:32
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 장착점 예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Community</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:36
-18:07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:30
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:36
-18:02</x:t>
+    <x:t>1. 추가 자료조사(관련 코드)
+2. FlowChart 수정 및 보완</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주행 거리 정보를 받아 계산하여 남은 수명에 대해 알려 주어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성 (미완)
+2. 스피너 및 캘린더 뷰 다이어리 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소유한 차량이 여러 대일 경우 차량의 정보를 추가할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호는 특수문자 포함 8자리 이상 12자리 이하 이어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어플의 예약기능을 통해 예약한 경우 업체로부터 일정 수수료를 받는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 각 버튼 및 창 기능 설명, 기능 플로우 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차 정보 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수리견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경기/인천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 방문 장소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 구매</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타 항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모두의 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모아보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타 정보</x:t>
   </x:si>
   <x:si>
     <x:t>결함/리콜</x:t>
   </x:si>
   <x:si>
-    <x:t>상품 구매</x:t>
-  </x:si>
-  <x:si>
     <x:t>Depth 4</x:t>
   </x:si>
   <x:si>
-    <x:t>차량 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차 정보 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모두의 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모아보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타 항목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수리견적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경기/인천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 방문 장소</x:t>
+    <x:t>자차 게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공식 서비스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연비 랭킹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 시세</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Home</x:t>
   </x:si>
   <x:si>
     <x:t>내 차 메뉴</x:t>
   </x:si>
   <x:si>
+    <x:t>최신 글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>함수의 계산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에어컨 필터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공유게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약 교체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기록 및 통계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균연비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이클 이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 시기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필요 기능</x:t>
+  </x:si>
+  <x:si>
     <x:t>tips</x:t>
   </x:si>
   <x:si>
-    <x:t>공식 서비스</x:t>
+    <x:t>고객상담</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비기능적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메모 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 1</x:t>
   </x:si>
   <x:si>
     <x:t>연차, 보험료</x:t>
   </x:si>
   <x:si>
+    <x:t>오너들의 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>견적 요청</x:t>
+  </x:si>
+  <x:si>
     <x:t>글 작성</x:t>
   </x:si>
   <x:si>
-    <x:t>최신 글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Menu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>함수의 계산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메모 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균연비</x:t>
-  </x:si>
-  <x:si>
     <x:t>예약하기</x:t>
   </x:si>
   <x:si>
-    <x:t>오너들의 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이클 이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>견적 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자차 게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객상담</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비기능적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Home</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연비 랭킹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 시세</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에어컨 필터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공유게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약 교체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 시기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기록 및 통계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필요 기능</x:t>
+    <x:t>보험 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용 가이드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALL*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 주변 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첫예약할인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오늘 교체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일정 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카카오톡 문의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균 연비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>더 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엔진오일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>디테일링</x:t>
+  </x:si>
+  <x:si>
+    <x:t>setting</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에어컨필터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이어리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 후기</x:t>
   </x:si>
   <x:si>
     <x:t>Depth 2</x:t>
   </x:si>
   <x:si>
-    <x:t>정비 후기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용 가이드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>더 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>setting</x:t>
-  </x:si>
-  <x:si>
-    <x:t>디테일링</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에어컨필터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이어리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오늘 교체</x:t>
-  </x:si>
-  <x:si>
     <x:t>보험사 선택</x:t>
   </x:si>
   <x:si>
-    <x:t>회원 정보</x:t>
-  </x:si>
-  <x:si>
     <x:t>수익적 요소</x:t>
   </x:si>
   <x:si>
+    <x:t>자동차 검사</x:t>
+  </x:si>
+  <x:si>
     <x:t>타이어샵</x:t>
   </x:si>
   <x:si>
-    <x:t>자동차 검사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALL*</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 주변 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카카오톡 문의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첫예약할인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 항목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일정 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엔진오일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균 연비</x:t>
+    <x:t>서울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무결성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭설철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>달력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리뷰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>손세차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가을</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상황별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>만족도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Q&amp;A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보안성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>겨울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>편집</x:t>
+  </x:si>
+  <x:si>
+    <x:t>봄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타이어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장마철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인기글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채팅창</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계절별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이클</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유소 포인트 적립 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차종, 차번호, 연식 등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이달의 정비/세차 혜택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기아 커넥티드카 연동하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험료 확인 및 갱신일 알림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방문 정비소 기록, 메모</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검 스케쥴 및 일정 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 무료 판매 견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>항목 및 정비 주기 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품 별 남은 수명 보여줌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 정비소 찾아보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이어리에 메모한 사항 달력에 날짜 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중복되는 아이디는 가입이 되어선 안된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 형태로 존재, 결함/리콜 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정확한 위치의 지도 정보를 받아와야 한다.</x:t>
   </x:si>
   <x:si>
     <x:t>게시판의 글들은 페이지당 20개씩 보여주어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 정의 및 분석 보완
+2. 기능정의 보완</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06.28 회의록 작성
+2. 요구사항 정의 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 실패시 로그인 오류 메세지를 출력해야 한다.</x:t>
   </x:si>
   <x:si>
     <x:t>1. Menu_Tree 수정(완료)
 2. 추가 자료 조사</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 06.28 회의록 작성
-2. 요구사항 정의 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 정의 및 분석 보완
-2. 기능정의 보완</x:t>
+    <x:t>할인률, 총액의 계산 과정에 오류가 있어선 안된다.</x:t>
   </x:si>
   <x:si>
     <x:t>채팅방 및 게시판에 들어가기 위해서는 로그인을 해야한다.</x:t>
   </x:si>
   <x:si>
+    <x:t>보험, 범칙금, 주차요금, 톨게이트 비용, 차량용품 등</x:t>
+  </x:si>
+  <x:si>
     <x:t>부품들의 시세변동을 지속적으로 업데이트 해야 한다.</x:t>
   </x:si>
   <x:si>
-    <x:t>로그인 실패시 로그인 오류 메세지를 출력해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험, 범칙금, 주차요금, 톨게이트 비용, 차량용품 등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>할인률, 총액의 계산 과정에 오류가 있어선 안된다.</x:t>
+    <x:t>1. 화면 시퀀스 작성
+2. 추가 자료 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성
+ - 화면별 세부기능 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DB에 저장된 내용들은 변조가 없어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유량, 연비, 운행 거리 및 기타 비용 통계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APP종료시 입력된 데이터는 변조가 없어야 한다.</x:t>
   </x:si>
   <x:si>
     <x:t>1. 계약서 작성
 2. 현장실습 오리엔테이션</x:t>
   </x:si>
   <x:si>
+    <x:t>어플 내 광고를 통해 일정 수입료를 받는다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>아이콘을 활용하여 한 눈에 확인하기 쉬워야 한다.</x:t>
   </x:si>
   <x:si>
-    <x:t>어플 내 광고를 통해 일정 수입료를 받는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성
- - 화면별 세부기능 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DB에 저장된 내용들은 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 화면 시퀀스 작성
-2. 추가 자료 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유량, 연비, 운행 거리 및 기타 비용 통계</x:t>
-  </x:si>
-  <x:si>
     <x:t>게시판을 이용하기 위해서는 로그인을 해야 한다.</x:t>
   </x:si>
   <x:si>
-    <x:t>APP종료시 입력된 데이터는 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험료 확인 및 갱신일 알림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 무료 판매 견적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품 별 남은 수명 보여줌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이달의 정비/세차 혜택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유소 포인트 적립 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기아 커넥티드카 연동하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차종, 차번호, 연식 등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점검 스케쥴 및 일정 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방문 정비소 기록, 메모</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 정비소 찾아보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>항목 및 정비 주기 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중복되는 아이디는 가입이 되어선 안된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이어리에 메모한 사항 달력에 날짜 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 형태로 존재, 결함/리콜 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정확한 위치의 지도 정보를 받아와야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:30
-18:04</x:t>
+    <x:t>1. 아이디어 도출</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -986,7 +1010,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="36">
+  <x:borders count="34">
     <x:border>
       <x:left>
         <x:color indexed="64"/>
@@ -1170,7 +1194,7 @@
       </x:bottom>
     </x:border>
     <x:border>
-      <x:left style="medium">
+      <x:left style="thin">
         <x:color indexed="64"/>
       </x:left>
       <x:right style="thin">
@@ -1180,6 +1204,146 @@
         <x:color indexed="64"/>
       </x:top>
       <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -1193,104 +1357,6 @@
       <x:top style="thin">
         <x:color indexed="64"/>
       </x:top>
-      <x:bottom style="medium">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="medium">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="medium">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="medium">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="medium">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="medium">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="medium">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="medium">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
       <x:bottom>
         <x:color indexed="64"/>
       </x:bottom>
@@ -1302,10 +1368,10 @@
       <x:right style="thin">
         <x:color indexed="64"/>
       </x:right>
-      <x:top>
+      <x:top style="medium">
         <x:color indexed="64"/>
       </x:top>
-      <x:bottom style="thin">
+      <x:bottom>
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -1313,10 +1379,10 @@
       <x:left style="medium">
         <x:color indexed="64"/>
       </x:left>
-      <x:right style="medium">
+      <x:right style="thin">
         <x:color indexed="64"/>
       </x:right>
-      <x:top style="medium">
+      <x:top>
         <x:color indexed="64"/>
       </x:top>
       <x:bottom>
@@ -1327,7 +1393,35 @@
       <x:left style="medium">
         <x:color indexed="64"/>
       </x:left>
-      <x:right style="medium">
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
         <x:color indexed="64"/>
       </x:right>
       <x:top>
@@ -1341,24 +1435,24 @@
       <x:left style="medium">
         <x:color indexed="64"/>
       </x:left>
-      <x:right style="medium">
+      <x:right style="thin">
         <x:color indexed="64"/>
       </x:right>
-      <x:top>
+      <x:top style="thin">
         <x:color indexed="64"/>
       </x:top>
-      <x:bottom style="medium">
+      <x:bottom>
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
     <x:border>
-      <x:left>
+      <x:left style="medium">
         <x:color indexed="64"/>
       </x:left>
       <x:right style="medium">
         <x:color indexed="64"/>
       </x:right>
-      <x:top style="medium">
+      <x:top>
         <x:color indexed="64"/>
       </x:top>
       <x:bottom style="thin">
@@ -1372,48 +1466,6 @@
       <x:right style="thin">
         <x:color indexed="64"/>
       </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="medium">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
       <x:top>
         <x:color indexed="64"/>
       </x:top>
@@ -1431,63 +1483,7 @@
       <x:top>
         <x:color indexed="64"/>
       </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="medium">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
       <x:bottom style="medium">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="medium">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="medium">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="medium">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="medium">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="medium">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -1497,7 +1493,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="103">
+  <x:cellXfs count="100">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -1919,34 +1915,31 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1965,12 +1958,6 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
@@ -1980,28 +1967,25 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2017,7 +2001,7 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2059,149 +2043,28 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -2221,13 +2084,39 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -2260,19 +2149,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -2280,6 +2156,127 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -2989,9 +2986,9 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B2:E42"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:pane xSplit="0" ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" activeCell="C23" activeCellId="0" sqref="C23:C23"/>
+    <x:sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:pane xSplit="0" ySplit="2" topLeftCell="C18" activePane="bottomLeft" state="frozen"/>
+      <x:selection pane="bottomLeft" activeCell="E31" activeCellId="0" sqref="E31:E31"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.199999999999999"/>
@@ -3007,16 +3004,16 @@
     <x:row r="1" ht="6.5999999999999996" customHeight="1"/>
     <x:row r="2" spans="2:5" ht="31.199999999999999" customHeight="1">
       <x:c r="B2" s="5" t="s">
-        <x:v>153</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C2" s="6" t="s">
-        <x:v>217</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D2" s="6" t="s">
-        <x:v>161</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E2" s="7" t="s">
-        <x:v>193</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:5" ht="105.75">
@@ -3024,13 +3021,13 @@
         <x:v>44369</x:v>
       </x:c>
       <x:c r="C3" s="15" t="s">
-        <x:v>127</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D3" s="9" t="s">
-        <x:v>232</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="E3" s="9" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:5" ht="118.55">
@@ -3038,13 +3035,13 @@
         <x:v>44370</x:v>
       </x:c>
       <x:c r="C4" s="14" t="s">
-        <x:v>127</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D4" s="12" t="s">
-        <x:v>73</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E4" s="12" t="s">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:5" ht="79.049999999999997">
@@ -3052,13 +3049,13 @@
         <x:v>44371</x:v>
       </x:c>
       <x:c r="C5" s="16" t="s">
-        <x:v>144</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D5" s="12" t="s">
-        <x:v>96</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E5" s="12" t="s">
-        <x:v>5</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:5" ht="79.049999999999997">
@@ -3066,13 +3063,13 @@
         <x:v>44372</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
-        <x:v>144</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D6" s="12" t="s">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E6" s="17" t="s">
-        <x:v>4</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:5" ht="79.049999999999997">
@@ -3080,13 +3077,13 @@
         <x:v>44375</x:v>
       </x:c>
       <x:c r="C7" s="14" t="s">
-        <x:v>139</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D7" s="12" t="s">
-        <x:v>225</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="E7" s="12" t="s">
-        <x:v>86</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:5" ht="52.700000000000003">
@@ -3094,13 +3091,13 @@
         <x:v>44376</x:v>
       </x:c>
       <x:c r="C8" s="14" t="s">
-        <x:v>143</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D8" s="12" t="s">
-        <x:v>25</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E8" s="12" t="s">
-        <x:v>74</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:5" ht="52.700000000000003">
@@ -3108,13 +3105,13 @@
         <x:v>44377</x:v>
       </x:c>
       <x:c r="C9" s="19" t="s">
-        <x:v>130</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D9" s="12" t="s">
-        <x:v>72</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="12" t="s">
-        <x:v>97</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:5" ht="52.700000000000003">
@@ -3122,13 +3119,13 @@
         <x:v>44378</x:v>
       </x:c>
       <x:c r="C10" s="20" t="s">
-        <x:v>140</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D10" s="12" t="s">
-        <x:v>9</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E10" s="12" t="s">
-        <x:v>93</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:5" ht="65.849999999999994">
@@ -3136,13 +3133,13 @@
         <x:v>44379</x:v>
       </x:c>
       <x:c r="C11" s="22" t="s">
-        <x:v>136</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D11" s="12" t="s">
-        <x:v>76</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E11" s="12" t="s">
-        <x:v>87</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:5" ht="105.40000000000001">
@@ -3150,13 +3147,13 @@
         <x:v>44382</x:v>
       </x:c>
       <x:c r="C12" s="21" t="s">
-        <x:v>134</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D12" s="12" t="s">
-        <x:v>8</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E12" s="12" t="s">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:5" ht="52.700000000000003">
@@ -3164,13 +3161,13 @@
         <x:v>44383</x:v>
       </x:c>
       <x:c r="C13" s="23" t="s">
-        <x:v>140</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D13" s="12" t="s">
-        <x:v>78</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E13" s="12" t="s">
-        <x:v>98</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:5" ht="52.700000000000003">
@@ -3178,13 +3175,13 @@
         <x:v>44384</x:v>
       </x:c>
       <x:c r="C14" s="24" t="s">
-        <x:v>103</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D14" s="12" t="s">
-        <x:v>83</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E14" s="12" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:5" ht="52.700000000000003">
@@ -3192,13 +3189,13 @@
         <x:v>44385</x:v>
       </x:c>
       <x:c r="C15" s="30" t="s">
-        <x:v>123</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D15" s="12" t="s">
-        <x:v>75</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E15" s="12" t="s">
-        <x:v>3</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:5" ht="26.350000000000001">
@@ -3206,55 +3203,55 @@
         <x:v>44386</x:v>
       </x:c>
       <x:c r="C16" s="31" t="s">
-        <x:v>110</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D16" s="12" t="s">
-        <x:v>226</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="E16" s="12" t="s">
-        <x:v>84</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:5" ht="39.549999999999997">
       <x:c r="B17" s="13">
         <x:v>44389</x:v>
       </x:c>
-      <x:c r="C17" s="74" t="s">
-        <x:v>116</x:v>
+      <x:c r="C17" s="70" t="s">
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D17" s="12" t="s">
-        <x:v>85</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E17" s="12" t="s">
-        <x:v>224</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:5" ht="26.350000000000001">
       <x:c r="B18" s="13">
         <x:v>44390</x:v>
       </x:c>
-      <x:c r="C18" s="75" t="s">
-        <x:v>115</x:v>
+      <x:c r="C18" s="71" t="s">
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D18" s="12" t="s">
-        <x:v>237</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E18" s="12" t="s">
-        <x:v>95</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:5" ht="26.350000000000001">
       <x:c r="B19" s="13">
         <x:v>44391</x:v>
       </x:c>
-      <x:c r="C19" s="75" t="s">
-        <x:v>140</x:v>
+      <x:c r="C19" s="71" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D19" s="12" t="s">
-        <x:v>237</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E19" s="12" t="s">
-        <x:v>80</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:5" ht="26.350000000000001">
@@ -3262,57 +3259,65 @@
         <x:v>44392</x:v>
       </x:c>
       <x:c r="C20" s="14" t="s">
-        <x:v>145</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D20" s="12" t="s">
-        <x:v>88</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E20" s="11" t="s">
-        <x:v>128</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="2:5" ht="26.350000000000001">
       <x:c r="B21" s="13">
         <x:v>44393</x:v>
       </x:c>
-      <x:c r="C21" s="76" t="s">
-        <x:v>117</x:v>
+      <x:c r="C21" s="72" t="s">
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D21" s="12" t="s">
-        <x:v>2</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E21" s="12" t="s">
-        <x:v>235</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="2:5" ht="26.350000000000001">
       <x:c r="B22" s="13">
         <x:v>44396</x:v>
       </x:c>
-      <x:c r="C22" s="102" t="s">
-        <x:v>256</x:v>
+      <x:c r="C22" s="73" t="s">
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D22" s="11" t="s">
-        <x:v>1</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E22" s="12" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="2:5">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="2:5" ht="26.350000000000001">
       <x:c r="B23" s="13">
         <x:v>44397</x:v>
       </x:c>
-      <x:c r="C23" s="10"/>
-      <x:c r="D23" s="11"/>
-      <x:c r="E23" s="11"/>
+      <x:c r="C23" s="99" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D23" s="12" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E23" s="12" t="s">
+        <x:v>30</x:v>
+      </x:c>
     </x:row>
     <x:row r="24" spans="2:5">
       <x:c r="B24" s="13">
         <x:v>44398</x:v>
       </x:c>
       <x:c r="C24" s="10"/>
-      <x:c r="D24" s="11"/>
+      <x:c r="D24" s="11" t="s">
+        <x:v>263</x:v>
+      </x:c>
       <x:c r="E24" s="11"/>
     </x:row>
     <x:row r="25" spans="2:5">
@@ -3471,7 +3476,7 @@
   <x:dimension ref="A1:CI1048573"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <x:pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <x:selection pane="bottomLeft" activeCell="F49" activeCellId="0" sqref="F46:F49"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3487,78 +3492,78 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="17.149999999999999">
       <x:c r="A1" s="26" t="s">
-        <x:v>104</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B1" s="33" t="s">
-        <x:v>170</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C1" s="34" t="s">
-        <x:v>183</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D1" s="34" t="s">
-        <x:v>196</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E1" s="34" t="s">
-        <x:v>180</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F1" s="34" t="s">
-        <x:v>148</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="G1" s="34" t="s">
-        <x:v>154</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H1" s="34" t="s">
-        <x:v>43</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="I1" s="35" t="s">
-        <x:v>45</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:9">
-      <x:c r="A2" s="91" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="B2" s="89" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C2" s="98" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="D2" s="98" t="s">
-        <x:v>150</x:v>
+      <x:c r="A2" s="82" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B2" s="76" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="C2" s="79" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D2" s="79" t="s">
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E2" s="38" t="s">
-        <x:v>187</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F2" s="38"/>
       <x:c r="G2" s="38"/>
       <x:c r="H2" s="38"/>
       <x:c r="I2" s="38" t="s">
-        <x:v>109</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
-      <x:c r="A3" s="92"/>
-      <x:c r="B3" s="86"/>
-      <x:c r="C3" s="99"/>
-      <x:c r="D3" s="99"/>
+      <x:c r="A3" s="83"/>
+      <x:c r="B3" s="77"/>
+      <x:c r="C3" s="80"/>
+      <x:c r="D3" s="80"/>
       <x:c r="E3" s="37" t="s">
-        <x:v>119</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F3" s="37"/>
       <x:c r="G3" s="37"/>
       <x:c r="H3" s="37"/>
       <x:c r="I3" s="37" t="s">
-        <x:v>241</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
-      <x:c r="A4" s="92"/>
-      <x:c r="B4" s="86"/>
-      <x:c r="C4" s="99"/>
-      <x:c r="D4" s="99"/>
+      <x:c r="A4" s="83"/>
+      <x:c r="B4" s="77"/>
+      <x:c r="C4" s="80"/>
+      <x:c r="D4" s="80"/>
       <x:c r="E4" s="37" t="s">
-        <x:v>172</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="F4" s="37"/>
       <x:c r="G4" s="37"/>
@@ -3566,42 +3571,42 @@
       <x:c r="I4" s="37"/>
     </x:row>
     <x:row r="5" spans="1:9">
-      <x:c r="A5" s="92"/>
-      <x:c r="B5" s="86"/>
-      <x:c r="C5" s="99"/>
-      <x:c r="D5" s="99"/>
-      <x:c r="E5" s="95" t="s">
-        <x:v>156</x:v>
+      <x:c r="A5" s="83"/>
+      <x:c r="B5" s="77"/>
+      <x:c r="C5" s="80"/>
+      <x:c r="D5" s="80"/>
+      <x:c r="E5" s="74" t="s">
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F5" s="37" t="s">
-        <x:v>163</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="G5" s="37"/>
       <x:c r="H5" s="37"/>
       <x:c r="I5" s="37"/>
     </x:row>
     <x:row r="6" spans="1:9">
-      <x:c r="A6" s="92"/>
-      <x:c r="B6" s="86"/>
-      <x:c r="C6" s="99"/>
-      <x:c r="D6" s="96"/>
-      <x:c r="E6" s="96"/>
+      <x:c r="A6" s="83"/>
+      <x:c r="B6" s="77"/>
+      <x:c r="C6" s="80"/>
+      <x:c r="D6" s="75"/>
+      <x:c r="E6" s="75"/>
       <x:c r="F6" s="37" t="s">
-        <x:v>106</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G6" s="37"/>
       <x:c r="H6" s="37"/>
       <x:c r="I6" s="37"/>
     </x:row>
     <x:row r="7" spans="1:9">
-      <x:c r="A7" s="92"/>
-      <x:c r="B7" s="86"/>
-      <x:c r="C7" s="99"/>
-      <x:c r="D7" s="95" t="s">
-        <x:v>164</x:v>
+      <x:c r="A7" s="83"/>
+      <x:c r="B7" s="77"/>
+      <x:c r="C7" s="80"/>
+      <x:c r="D7" s="74" t="s">
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E7" s="37" t="s">
-        <x:v>60</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="F7" s="37"/>
       <x:c r="G7" s="37"/>
@@ -3609,91 +3614,91 @@
       <x:c r="I7" s="37"/>
     </x:row>
     <x:row r="8" spans="1:9">
-      <x:c r="A8" s="92"/>
-      <x:c r="B8" s="86"/>
-      <x:c r="C8" s="99"/>
-      <x:c r="D8" s="99"/>
+      <x:c r="A8" s="83"/>
+      <x:c r="B8" s="77"/>
+      <x:c r="C8" s="80"/>
+      <x:c r="D8" s="80"/>
       <x:c r="E8" s="37" t="s">
-        <x:v>31</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="F8" s="37"/>
       <x:c r="G8" s="37"/>
       <x:c r="H8" s="37"/>
       <x:c r="I8" s="37" t="s">
-        <x:v>19</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
-      <x:c r="A9" s="92"/>
-      <x:c r="B9" s="86"/>
-      <x:c r="C9" s="99"/>
-      <x:c r="D9" s="99"/>
+      <x:c r="A9" s="83"/>
+      <x:c r="B9" s="77"/>
+      <x:c r="C9" s="80"/>
+      <x:c r="D9" s="80"/>
       <x:c r="E9" s="37" t="s">
-        <x:v>33</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="F9" s="37"/>
       <x:c r="G9" s="37"/>
       <x:c r="H9" s="37"/>
       <x:c r="I9" s="37" t="s">
-        <x:v>248</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
-      <x:c r="A10" s="92"/>
-      <x:c r="B10" s="86"/>
-      <x:c r="C10" s="99"/>
-      <x:c r="D10" s="99"/>
-      <x:c r="E10" s="95" t="s">
-        <x:v>162</x:v>
+      <x:c r="A10" s="83"/>
+      <x:c r="B10" s="77"/>
+      <x:c r="C10" s="80"/>
+      <x:c r="D10" s="80"/>
+      <x:c r="E10" s="74" t="s">
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F10" s="37" t="s">
-        <x:v>218</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="G10" s="37"/>
       <x:c r="H10" s="37"/>
       <x:c r="I10" s="37"/>
     </x:row>
     <x:row r="11" spans="1:9">
-      <x:c r="A11" s="92"/>
-      <x:c r="B11" s="86"/>
-      <x:c r="C11" s="99"/>
-      <x:c r="D11" s="99"/>
-      <x:c r="E11" s="99"/>
+      <x:c r="A11" s="83"/>
+      <x:c r="B11" s="77"/>
+      <x:c r="C11" s="80"/>
+      <x:c r="D11" s="80"/>
+      <x:c r="E11" s="80"/>
       <x:c r="F11" s="37" t="s">
-        <x:v>155</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="G11" s="37"/>
       <x:c r="H11" s="37"/>
       <x:c r="I11" s="37" t="s">
-        <x:v>230</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
-      <x:c r="A12" s="92"/>
-      <x:c r="B12" s="86"/>
-      <x:c r="C12" s="99"/>
-      <x:c r="D12" s="99"/>
-      <x:c r="E12" s="99"/>
+      <x:c r="A12" s="83"/>
+      <x:c r="B12" s="77"/>
+      <x:c r="C12" s="80"/>
+      <x:c r="D12" s="80"/>
+      <x:c r="E12" s="80"/>
       <x:c r="F12" s="37" t="s">
-        <x:v>70</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="G12" s="37"/>
       <x:c r="H12" s="37"/>
       <x:c r="I12" s="37"/>
     </x:row>
     <x:row r="13" spans="1:28">
-      <x:c r="A13" s="92"/>
-      <x:c r="B13" s="86"/>
-      <x:c r="C13" s="96"/>
-      <x:c r="D13" s="96"/>
-      <x:c r="E13" s="96"/>
+      <x:c r="A13" s="83"/>
+      <x:c r="B13" s="77"/>
+      <x:c r="C13" s="75"/>
+      <x:c r="D13" s="75"/>
+      <x:c r="E13" s="75"/>
       <x:c r="F13" s="37" t="s">
-        <x:v>47</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="G13" s="37"/>
       <x:c r="H13" s="37"/>
       <x:c r="I13" s="37" t="s">
-        <x:v>251</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="J13" s="29"/>
       <x:c r="K13" s="29"/>
@@ -3716,22 +3721,22 @@
       <x:c r="AB13" s="29"/>
     </x:row>
     <x:row r="14" spans="1:28">
-      <x:c r="A14" s="92"/>
-      <x:c r="B14" s="86"/>
-      <x:c r="C14" s="95" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="D14" s="95" t="s">
-        <x:v>149</x:v>
+      <x:c r="A14" s="83"/>
+      <x:c r="B14" s="77"/>
+      <x:c r="C14" s="74" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D14" s="74" t="s">
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E14" s="37" t="s">
-        <x:v>50</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="F14" s="37"/>
       <x:c r="G14" s="37"/>
       <x:c r="H14" s="37"/>
       <x:c r="I14" s="37" t="s">
-        <x:v>68</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="J14" s="29"/>
       <x:c r="K14" s="29"/>
@@ -3754,18 +3759,18 @@
       <x:c r="AB14" s="29"/>
     </x:row>
     <x:row r="15" spans="1:28">
-      <x:c r="A15" s="92"/>
-      <x:c r="B15" s="86"/>
-      <x:c r="C15" s="99"/>
-      <x:c r="D15" s="99"/>
+      <x:c r="A15" s="83"/>
+      <x:c r="B15" s="77"/>
+      <x:c r="C15" s="80"/>
+      <x:c r="D15" s="80"/>
       <x:c r="E15" s="37" t="s">
-        <x:v>222</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="F15" s="37"/>
       <x:c r="G15" s="37"/>
       <x:c r="H15" s="37"/>
       <x:c r="I15" s="37" t="s">
-        <x:v>186</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="J15" s="29"/>
       <x:c r="K15" s="29"/>
@@ -3788,12 +3793,12 @@
       <x:c r="AB15" s="29"/>
     </x:row>
     <x:row r="16" spans="1:28">
-      <x:c r="A16" s="92"/>
-      <x:c r="B16" s="86"/>
-      <x:c r="C16" s="99"/>
-      <x:c r="D16" s="99"/>
+      <x:c r="A16" s="83"/>
+      <x:c r="B16" s="77"/>
+      <x:c r="C16" s="80"/>
+      <x:c r="D16" s="80"/>
       <x:c r="E16" s="37" t="s">
-        <x:v>197</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="F16" s="37"/>
       <x:c r="G16" s="37"/>
@@ -3819,18 +3824,18 @@
       <x:c r="AB16" s="29"/>
     </x:row>
     <x:row r="17" spans="1:28">
-      <x:c r="A17" s="92"/>
-      <x:c r="B17" s="86"/>
-      <x:c r="C17" s="99"/>
-      <x:c r="D17" s="96"/>
+      <x:c r="A17" s="83"/>
+      <x:c r="B17" s="77"/>
+      <x:c r="C17" s="80"/>
+      <x:c r="D17" s="75"/>
       <x:c r="E17" s="37" t="s">
-        <x:v>146</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F17" s="37"/>
       <x:c r="G17" s="37"/>
       <x:c r="H17" s="37"/>
       <x:c r="I17" s="37" t="s">
-        <x:v>254</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="J17" s="29"/>
       <x:c r="K17" s="29"/>
@@ -3853,17 +3858,17 @@
       <x:c r="AB17" s="29"/>
     </x:row>
     <x:row r="18" spans="1:28">
-      <x:c r="A18" s="92"/>
-      <x:c r="B18" s="86"/>
-      <x:c r="C18" s="99"/>
+      <x:c r="A18" s="83"/>
+      <x:c r="B18" s="77"/>
+      <x:c r="C18" s="80"/>
       <x:c r="D18" s="37" t="s">
-        <x:v>138</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E18" s="37" t="s">
-        <x:v>121</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F18" s="37" t="s">
-        <x:v>207</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="G18" s="37"/>
       <x:c r="H18" s="37"/>
@@ -3889,18 +3894,18 @@
       <x:c r="AB18" s="29"/>
     </x:row>
     <x:row r="19" spans="1:28">
-      <x:c r="A19" s="92"/>
-      <x:c r="B19" s="86"/>
-      <x:c r="C19" s="99"/>
+      <x:c r="A19" s="83"/>
+      <x:c r="B19" s="77"/>
+      <x:c r="C19" s="80"/>
       <x:c r="D19" s="37" t="s">
-        <x:v>32</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E19" s="37"/>
       <x:c r="F19" s="37"/>
       <x:c r="G19" s="37"/>
       <x:c r="H19" s="37"/>
-      <x:c r="I19" s="95" t="s">
-        <x:v>112</x:v>
+      <x:c r="I19" s="74" t="s">
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J19" s="29"/>
       <x:c r="K19" s="29"/>
@@ -3923,17 +3928,17 @@
       <x:c r="AB19" s="29"/>
     </x:row>
     <x:row r="20" spans="1:28">
-      <x:c r="A20" s="92"/>
-      <x:c r="B20" s="86"/>
-      <x:c r="C20" s="99"/>
+      <x:c r="A20" s="83"/>
+      <x:c r="B20" s="77"/>
+      <x:c r="C20" s="80"/>
       <x:c r="D20" s="37" t="s">
-        <x:v>146</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E20" s="37"/>
       <x:c r="F20" s="37"/>
       <x:c r="G20" s="37"/>
       <x:c r="H20" s="37"/>
-      <x:c r="I20" s="99"/>
+      <x:c r="I20" s="80"/>
       <x:c r="J20" s="29"/>
       <x:c r="K20" s="29"/>
       <x:c r="L20" s="29"/>
@@ -3955,17 +3960,17 @@
       <x:c r="AB20" s="29"/>
     </x:row>
     <x:row r="21" spans="1:28">
-      <x:c r="A21" s="92"/>
-      <x:c r="B21" s="86"/>
-      <x:c r="C21" s="99"/>
+      <x:c r="A21" s="83"/>
+      <x:c r="B21" s="77"/>
+      <x:c r="C21" s="80"/>
       <x:c r="D21" s="37" t="s">
-        <x:v>197</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E21" s="37"/>
       <x:c r="F21" s="37"/>
       <x:c r="G21" s="37"/>
       <x:c r="H21" s="37"/>
-      <x:c r="I21" s="96"/>
+      <x:c r="I21" s="75"/>
       <x:c r="J21" s="29"/>
       <x:c r="K21" s="29"/>
       <x:c r="L21" s="29"/>
@@ -3987,11 +3992,11 @@
       <x:c r="AB21" s="29"/>
     </x:row>
     <x:row r="22" spans="1:28">
-      <x:c r="A22" s="92"/>
-      <x:c r="B22" s="97"/>
-      <x:c r="C22" s="96"/>
+      <x:c r="A22" s="83"/>
+      <x:c r="B22" s="78"/>
+      <x:c r="C22" s="75"/>
       <x:c r="D22" s="37" t="s">
-        <x:v>122</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E22" s="37"/>
       <x:c r="F22" s="37"/>
@@ -4019,12 +4024,12 @@
       <x:c r="AB22" s="29"/>
     </x:row>
     <x:row r="23" spans="1:28">
-      <x:c r="A23" s="92"/>
-      <x:c r="B23" s="88" t="s">
-        <x:v>192</x:v>
+      <x:c r="A23" s="83"/>
+      <x:c r="B23" s="81" t="s">
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C23" s="37" t="s">
-        <x:v>120</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D23" s="37"/>
       <x:c r="E23" s="37"/>
@@ -4053,10 +4058,10 @@
       <x:c r="AB23" s="29"/>
     </x:row>
     <x:row r="24" spans="1:28">
-      <x:c r="A24" s="92"/>
-      <x:c r="B24" s="86"/>
+      <x:c r="A24" s="83"/>
+      <x:c r="B24" s="77"/>
       <x:c r="C24" s="37" t="s">
-        <x:v>29</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D24" s="37"/>
       <x:c r="E24" s="37"/>
@@ -4085,10 +4090,10 @@
       <x:c r="AB24" s="29"/>
     </x:row>
     <x:row r="25" spans="1:28">
-      <x:c r="A25" s="92"/>
-      <x:c r="B25" s="86"/>
+      <x:c r="A25" s="83"/>
+      <x:c r="B25" s="77"/>
       <x:c r="C25" s="37" t="s">
-        <x:v>52</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="D25" s="37"/>
       <x:c r="E25" s="37"/>
@@ -4117,16 +4122,16 @@
       <x:c r="AB25" s="29"/>
     </x:row>
     <x:row r="26" spans="1:87">
-      <x:c r="A26" s="92"/>
-      <x:c r="B26" s="86"/>
-      <x:c r="C26" s="95" t="s">
-        <x:v>192</x:v>
+      <x:c r="A26" s="83"/>
+      <x:c r="B26" s="77"/>
+      <x:c r="C26" s="74" t="s">
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D26" s="37" t="s">
-        <x:v>220</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="E26" s="37" t="s">
-        <x:v>125</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F26" s="37"/>
       <x:c r="G26" s="37"/>
@@ -4212,17 +4217,17 @@
       <x:c r="CI26" s="29"/>
     </x:row>
     <x:row r="27" spans="1:87" s="1" customFormat="1">
-      <x:c r="A27" s="91"/>
-      <x:c r="B27" s="88"/>
-      <x:c r="C27" s="99"/>
-      <x:c r="D27" s="95" t="s">
-        <x:v>51</x:v>
+      <x:c r="A27" s="82"/>
+      <x:c r="B27" s="81"/>
+      <x:c r="C27" s="80"/>
+      <x:c r="D27" s="74" t="s">
+        <x:v>214</x:v>
       </x:c>
       <x:c r="E27" s="37" t="s">
-        <x:v>206</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F27" s="37" t="s">
-        <x:v>141</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G27" s="37"/>
       <x:c r="H27" s="37"/>
@@ -4307,15 +4312,15 @@
       <x:c r="CI27" s="29"/>
     </x:row>
     <x:row r="28" spans="1:87">
-      <x:c r="A28" s="92"/>
-      <x:c r="B28" s="86"/>
-      <x:c r="C28" s="99"/>
-      <x:c r="D28" s="96"/>
+      <x:c r="A28" s="83"/>
+      <x:c r="B28" s="77"/>
+      <x:c r="C28" s="80"/>
+      <x:c r="D28" s="75"/>
       <x:c r="E28" s="37" t="s">
-        <x:v>190</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="F28" s="37" t="s">
-        <x:v>141</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G28" s="37"/>
       <x:c r="H28" s="37"/>
@@ -4400,14 +4405,14 @@
       <x:c r="CI28" s="29"/>
     </x:row>
     <x:row r="29" spans="1:87">
-      <x:c r="A29" s="92"/>
-      <x:c r="B29" s="86"/>
-      <x:c r="C29" s="99"/>
+      <x:c r="A29" s="83"/>
+      <x:c r="B29" s="77"/>
+      <x:c r="C29" s="80"/>
       <x:c r="D29" s="37" t="s">
-        <x:v>157</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E29" s="39" t="s">
-        <x:v>178</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F29" s="39"/>
       <x:c r="G29" s="37"/>
@@ -4493,14 +4498,14 @@
       <x:c r="CI29" s="29"/>
     </x:row>
     <x:row r="30" spans="1:87">
-      <x:c r="A30" s="92"/>
-      <x:c r="B30" s="86"/>
-      <x:c r="C30" s="99"/>
+      <x:c r="A30" s="83"/>
+      <x:c r="B30" s="77"/>
+      <x:c r="C30" s="80"/>
       <x:c r="D30" s="37" t="s">
-        <x:v>202</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E30" s="37" t="s">
-        <x:v>39</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="F30" s="37"/>
       <x:c r="G30" s="37"/>
@@ -4586,12 +4591,12 @@
       <x:c r="CI30" s="29"/>
     </x:row>
     <x:row r="31" spans="1:87" s="1" customFormat="1">
-      <x:c r="A31" s="91"/>
-      <x:c r="B31" s="88"/>
-      <x:c r="C31" s="99"/>
+      <x:c r="A31" s="82"/>
+      <x:c r="B31" s="81"/>
+      <x:c r="C31" s="80"/>
       <x:c r="D31" s="37"/>
       <x:c r="E31" s="37" t="s">
-        <x:v>158</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F31" s="37"/>
       <x:c r="G31" s="37"/>
@@ -4677,14 +4682,14 @@
       <x:c r="CI31" s="29"/>
     </x:row>
     <x:row r="32" spans="1:87">
-      <x:c r="A32" s="92"/>
-      <x:c r="B32" s="86"/>
-      <x:c r="C32" s="99"/>
+      <x:c r="A32" s="83"/>
+      <x:c r="B32" s="77"/>
+      <x:c r="C32" s="80"/>
       <x:c r="D32" s="37" t="s">
-        <x:v>204</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E32" s="37" t="s">
-        <x:v>147</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F32" s="37"/>
       <x:c r="G32" s="37"/>
@@ -4770,11 +4775,11 @@
       <x:c r="CI32" s="29"/>
     </x:row>
     <x:row r="33" spans="1:87">
-      <x:c r="A33" s="92"/>
-      <x:c r="B33" s="86"/>
-      <x:c r="C33" s="96"/>
+      <x:c r="A33" s="83"/>
+      <x:c r="B33" s="77"/>
+      <x:c r="C33" s="75"/>
       <x:c r="D33" s="37" t="s">
-        <x:v>216</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="E33" s="37"/>
       <x:c r="F33" s="37"/>
@@ -4861,13 +4866,13 @@
       <x:c r="CI33" s="29"/>
     </x:row>
     <x:row r="34" spans="1:87" s="1" customFormat="1">
-      <x:c r="A34" s="91"/>
-      <x:c r="B34" s="88"/>
-      <x:c r="C34" s="95" t="s">
-        <x:v>214</x:v>
+      <x:c r="A34" s="82"/>
+      <x:c r="B34" s="81"/>
+      <x:c r="C34" s="74" t="s">
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D34" s="37" t="s">
-        <x:v>166</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E34" s="37"/>
       <x:c r="F34" s="37"/>
@@ -4954,11 +4959,11 @@
       <x:c r="CI34" s="29"/>
     </x:row>
     <x:row r="35" spans="1:87" s="1" customFormat="1">
-      <x:c r="A35" s="92"/>
-      <x:c r="B35" s="86"/>
-      <x:c r="C35" s="99"/>
+      <x:c r="A35" s="83"/>
+      <x:c r="B35" s="77"/>
+      <x:c r="C35" s="80"/>
       <x:c r="D35" s="37" t="s">
-        <x:v>38</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E35" s="37"/>
       <x:c r="F35" s="37"/>
@@ -5045,11 +5050,11 @@
       <x:c r="CI35" s="29"/>
     </x:row>
     <x:row r="36" spans="1:87" s="1" customFormat="1">
-      <x:c r="A36" s="92"/>
-      <x:c r="B36" s="86"/>
-      <x:c r="C36" s="99"/>
+      <x:c r="A36" s="83"/>
+      <x:c r="B36" s="77"/>
+      <x:c r="C36" s="80"/>
       <x:c r="D36" s="37" t="s">
-        <x:v>48</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E36" s="37"/>
       <x:c r="F36" s="37"/>
@@ -5136,11 +5141,11 @@
       <x:c r="CI36" s="29"/>
     </x:row>
     <x:row r="37" spans="1:87" s="1" customFormat="1">
-      <x:c r="A37" s="92"/>
-      <x:c r="B37" s="86"/>
-      <x:c r="C37" s="99"/>
+      <x:c r="A37" s="83"/>
+      <x:c r="B37" s="77"/>
+      <x:c r="C37" s="80"/>
       <x:c r="D37" s="37" t="s">
-        <x:v>49</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E37" s="37"/>
       <x:c r="F37" s="37"/>
@@ -5227,11 +5232,11 @@
       <x:c r="CI37" s="29"/>
     </x:row>
     <x:row r="38" spans="1:87" s="1" customFormat="1">
-      <x:c r="A38" s="92"/>
-      <x:c r="B38" s="86"/>
-      <x:c r="C38" s="99"/>
+      <x:c r="A38" s="83"/>
+      <x:c r="B38" s="77"/>
+      <x:c r="C38" s="80"/>
       <x:c r="D38" s="37" t="s">
-        <x:v>210</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="E38" s="37"/>
       <x:c r="F38" s="37"/>
@@ -5318,11 +5323,11 @@
       <x:c r="CI38" s="29"/>
     </x:row>
     <x:row r="39" spans="1:87" s="1" customFormat="1">
-      <x:c r="A39" s="91"/>
-      <x:c r="B39" s="88"/>
-      <x:c r="C39" s="96"/>
+      <x:c r="A39" s="82"/>
+      <x:c r="B39" s="81"/>
+      <x:c r="C39" s="75"/>
       <x:c r="D39" s="37" t="s">
-        <x:v>211</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="E39" s="37"/>
       <x:c r="F39" s="37"/>
@@ -5409,12 +5414,12 @@
       <x:c r="CI39" s="29"/>
     </x:row>
     <x:row r="40" spans="1:87">
-      <x:c r="A40" s="92"/>
-      <x:c r="B40" s="88" t="s">
-        <x:v>35</x:v>
+      <x:c r="A40" s="83"/>
+      <x:c r="B40" s="81" t="s">
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C40" s="37" t="s">
-        <x:v>44</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="D40" s="37"/>
       <x:c r="E40" s="37"/>
@@ -5502,10 +5507,10 @@
       <x:c r="CI40" s="29"/>
     </x:row>
     <x:row r="41" spans="1:87">
-      <x:c r="A41" s="92"/>
-      <x:c r="B41" s="86"/>
+      <x:c r="A41" s="83"/>
+      <x:c r="B41" s="77"/>
       <x:c r="C41" s="37" t="s">
-        <x:v>169</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D41" s="37"/>
       <x:c r="E41" s="37"/>
@@ -5593,10 +5598,10 @@
       <x:c r="CI41" s="29"/>
     </x:row>
     <x:row r="42" spans="1:87">
-      <x:c r="A42" s="92"/>
-      <x:c r="B42" s="86"/>
+      <x:c r="A42" s="83"/>
+      <x:c r="B42" s="77"/>
       <x:c r="C42" s="37" t="s">
-        <x:v>179</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D42" s="37"/>
       <x:c r="E42" s="37"/>
@@ -5684,10 +5689,10 @@
       <x:c r="CI42" s="29"/>
     </x:row>
     <x:row r="43" spans="1:87">
-      <x:c r="A43" s="92"/>
-      <x:c r="B43" s="86"/>
+      <x:c r="A43" s="83"/>
+      <x:c r="B43" s="77"/>
       <x:c r="C43" s="37" t="s">
-        <x:v>165</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D43" s="37"/>
       <x:c r="E43" s="37"/>
@@ -5775,10 +5780,10 @@
       <x:c r="CI43" s="29"/>
     </x:row>
     <x:row r="44" spans="1:87">
-      <x:c r="A44" s="92"/>
-      <x:c r="B44" s="86"/>
+      <x:c r="A44" s="83"/>
+      <x:c r="B44" s="77"/>
       <x:c r="C44" s="37" t="s">
-        <x:v>52</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="D44" s="37"/>
       <x:c r="E44" s="37"/>
@@ -5866,10 +5871,10 @@
       <x:c r="CI44" s="29"/>
     </x:row>
     <x:row r="45" spans="1:87">
-      <x:c r="A45" s="92"/>
-      <x:c r="B45" s="97"/>
+      <x:c r="A45" s="83"/>
+      <x:c r="B45" s="78"/>
       <x:c r="C45" s="37" t="s">
-        <x:v>168</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D45" s="37"/>
       <x:c r="E45" s="37"/>
@@ -5957,12 +5962,12 @@
       <x:c r="CI45" s="29"/>
     </x:row>
     <x:row r="46" spans="1:87">
-      <x:c r="A46" s="92"/>
-      <x:c r="B46" s="88" t="s">
-        <x:v>41</x:v>
+      <x:c r="A46" s="83"/>
+      <x:c r="B46" s="81" t="s">
+        <x:v>219</x:v>
       </x:c>
       <x:c r="C46" s="37" t="s">
-        <x:v>42</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D46" s="37"/>
       <x:c r="E46" s="37"/>
@@ -6050,10 +6055,10 @@
       <x:c r="CI46" s="29"/>
     </x:row>
     <x:row r="47" spans="1:87">
-      <x:c r="A47" s="92"/>
-      <x:c r="B47" s="86"/>
+      <x:c r="A47" s="83"/>
+      <x:c r="B47" s="77"/>
       <x:c r="C47" s="37" t="s">
-        <x:v>66</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="D47" s="37"/>
       <x:c r="E47" s="37"/>
@@ -6141,10 +6146,10 @@
       <x:c r="CI47" s="29"/>
     </x:row>
     <x:row r="48" spans="1:87">
-      <x:c r="A48" s="92"/>
-      <x:c r="B48" s="86"/>
+      <x:c r="A48" s="83"/>
+      <x:c r="B48" s="77"/>
       <x:c r="C48" s="37" t="s">
-        <x:v>191</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D48" s="37"/>
       <x:c r="E48" s="37"/>
@@ -6232,10 +6237,10 @@
       <x:c r="CI48" s="29"/>
     </x:row>
     <x:row r="49" spans="1:87">
-      <x:c r="A49" s="92"/>
-      <x:c r="B49" s="97"/>
+      <x:c r="A49" s="83"/>
+      <x:c r="B49" s="78"/>
       <x:c r="C49" s="37" t="s">
-        <x:v>221</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D49" s="37"/>
       <x:c r="E49" s="37"/>
@@ -6323,15 +6328,15 @@
       <x:c r="CI49" s="29"/>
     </x:row>
     <x:row r="50" spans="1:87">
-      <x:c r="A50" s="92"/>
-      <x:c r="B50" s="88" t="s">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="C50" s="95" t="s">
-        <x:v>120</x:v>
+      <x:c r="A50" s="83"/>
+      <x:c r="B50" s="81" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C50" s="74" t="s">
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D50" s="37" t="s">
-        <x:v>176</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E50" s="37"/>
       <x:c r="F50" s="37"/>
@@ -6418,11 +6423,11 @@
       <x:c r="CI50" s="29"/>
     </x:row>
     <x:row r="51" spans="1:87">
-      <x:c r="A51" s="92"/>
-      <x:c r="B51" s="86"/>
-      <x:c r="C51" s="96"/>
+      <x:c r="A51" s="83"/>
+      <x:c r="B51" s="77"/>
+      <x:c r="C51" s="75"/>
       <x:c r="D51" s="37" t="s">
-        <x:v>215</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E51" s="37"/>
       <x:c r="F51" s="37"/>
@@ -6509,13 +6514,13 @@
       <x:c r="CI51" s="29"/>
     </x:row>
     <x:row r="52" spans="1:87">
-      <x:c r="A52" s="92"/>
-      <x:c r="B52" s="86"/>
-      <x:c r="C52" s="95" t="s">
-        <x:v>59</x:v>
+      <x:c r="A52" s="83"/>
+      <x:c r="B52" s="77"/>
+      <x:c r="C52" s="74" t="s">
+        <x:v>222</x:v>
       </x:c>
       <x:c r="D52" s="37" t="s">
-        <x:v>133</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E52" s="37"/>
       <x:c r="F52" s="37"/>
@@ -6602,11 +6607,11 @@
       <x:c r="CI52" s="29"/>
     </x:row>
     <x:row r="53" spans="1:87">
-      <x:c r="A53" s="92"/>
-      <x:c r="B53" s="86"/>
-      <x:c r="C53" s="96"/>
+      <x:c r="A53" s="83"/>
+      <x:c r="B53" s="77"/>
+      <x:c r="C53" s="75"/>
       <x:c r="D53" s="37" t="s">
-        <x:v>126</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E53" s="37"/>
       <x:c r="F53" s="37"/>
@@ -6693,13 +6698,13 @@
       <x:c r="CI53" s="29"/>
     </x:row>
     <x:row r="54" spans="1:87">
-      <x:c r="A54" s="92"/>
-      <x:c r="B54" s="86"/>
-      <x:c r="C54" s="95" t="s">
-        <x:v>135</x:v>
+      <x:c r="A54" s="83"/>
+      <x:c r="B54" s="77"/>
+      <x:c r="C54" s="74" t="s">
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D54" s="37" t="s">
-        <x:v>137</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E54" s="37"/>
       <x:c r="F54" s="37"/>
@@ -6786,11 +6791,11 @@
       <x:c r="CI54" s="29"/>
     </x:row>
     <x:row r="55" spans="1:87">
-      <x:c r="A55" s="92"/>
-      <x:c r="B55" s="86"/>
-      <x:c r="C55" s="99"/>
+      <x:c r="A55" s="83"/>
+      <x:c r="B55" s="77"/>
+      <x:c r="C55" s="80"/>
       <x:c r="D55" s="37" t="s">
-        <x:v>113</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E55" s="37"/>
       <x:c r="F55" s="37"/>
@@ -6877,11 +6882,11 @@
       <x:c r="CI55" s="29"/>
     </x:row>
     <x:row r="56" spans="1:87">
-      <x:c r="A56" s="92"/>
-      <x:c r="B56" s="86"/>
-      <x:c r="C56" s="96"/>
+      <x:c r="A56" s="83"/>
+      <x:c r="B56" s="77"/>
+      <x:c r="C56" s="75"/>
       <x:c r="D56" s="37" t="s">
-        <x:v>242</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="E56" s="37"/>
       <x:c r="F56" s="37"/>
@@ -6968,13 +6973,13 @@
       <x:c r="CI56" s="29"/>
     </x:row>
     <x:row r="57" spans="1:87">
-      <x:c r="A57" s="92"/>
-      <x:c r="B57" s="86"/>
-      <x:c r="C57" s="95" t="s">
-        <x:v>177</x:v>
+      <x:c r="A57" s="83"/>
+      <x:c r="B57" s="77"/>
+      <x:c r="C57" s="74" t="s">
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D57" s="37" t="s">
-        <x:v>244</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="E57" s="37"/>
       <x:c r="F57" s="37"/>
@@ -7061,11 +7066,11 @@
       <x:c r="CI57" s="29"/>
     </x:row>
     <x:row r="58" spans="1:87">
-      <x:c r="A58" s="92"/>
-      <x:c r="B58" s="86"/>
-      <x:c r="C58" s="96"/>
+      <x:c r="A58" s="83"/>
+      <x:c r="B58" s="77"/>
+      <x:c r="C58" s="75"/>
       <x:c r="D58" s="37" t="s">
-        <x:v>118</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E58" s="37"/>
       <x:c r="F58" s="37"/>
@@ -7152,13 +7157,13 @@
       <x:c r="CI58" s="29"/>
     </x:row>
     <x:row r="59" spans="1:87">
-      <x:c r="A59" s="92"/>
-      <x:c r="B59" s="86"/>
-      <x:c r="C59" s="95" t="s">
-        <x:v>129</x:v>
+      <x:c r="A59" s="83"/>
+      <x:c r="B59" s="77"/>
+      <x:c r="C59" s="74" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D59" s="37" t="s">
-        <x:v>246</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="E59" s="37"/>
       <x:c r="F59" s="37"/>
@@ -7245,11 +7250,11 @@
       <x:c r="CI59" s="29"/>
     </x:row>
     <x:row r="60" spans="1:87">
-      <x:c r="A60" s="92"/>
-      <x:c r="B60" s="86"/>
-      <x:c r="C60" s="96"/>
+      <x:c r="A60" s="83"/>
+      <x:c r="B60" s="77"/>
+      <x:c r="C60" s="75"/>
       <x:c r="D60" s="37" t="s">
-        <x:v>245</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E60" s="37"/>
       <x:c r="F60" s="37"/>
@@ -7336,13 +7341,13 @@
       <x:c r="CI60" s="29"/>
     </x:row>
     <x:row r="61" spans="1:87">
-      <x:c r="A61" s="92"/>
-      <x:c r="B61" s="86"/>
-      <x:c r="C61" s="95" t="s">
-        <x:v>199</x:v>
+      <x:c r="A61" s="83"/>
+      <x:c r="B61" s="77"/>
+      <x:c r="C61" s="74" t="s">
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D61" s="37" t="s">
-        <x:v>57</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E61" s="37"/>
       <x:c r="F61" s="37"/>
@@ -7429,11 +7434,11 @@
       <x:c r="CI61" s="29"/>
     </x:row>
     <x:row r="62" spans="1:87">
-      <x:c r="A62" s="100"/>
-      <x:c r="B62" s="97"/>
-      <x:c r="C62" s="96"/>
+      <x:c r="A62" s="84"/>
+      <x:c r="B62" s="78"/>
+      <x:c r="C62" s="75"/>
       <x:c r="D62" s="37" t="s">
-        <x:v>181</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E62" s="37"/>
       <x:c r="F62" s="37"/>
@@ -9458,8 +9463,8 @@
   <x:dimension ref="A1:H60"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" activeCell="F26" activeCellId="0" sqref="F26:F26"/>
+      <x:pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <x:selection pane="bottomLeft" activeCell="E27" activeCellId="0" sqref="E27:E27"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -9475,551 +9480,557 @@
   <x:sheetData>
     <x:row r="1" spans="1:8" ht="17.149999999999999">
       <x:c r="A1" s="32" t="s">
-        <x:v>104</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B1" s="33" t="s">
-        <x:v>170</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C1" s="34" t="s">
-        <x:v>183</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D1" s="34" t="s">
-        <x:v>196</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E1" s="34" t="s">
-        <x:v>180</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F1" s="34" t="s">
-        <x:v>148</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="G1" s="34" t="s">
-        <x:v>43</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="H1" s="35" t="s">
-        <x:v>26</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8" ht="16.75" customHeight="1">
-      <x:c r="A2" s="91" t="s">
-        <x:v>203</x:v>
-      </x:c>
-      <x:c r="B2" s="89" t="s">
-        <x:v>184</x:v>
-      </x:c>
-      <x:c r="C2" s="81" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="D2" s="79" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="E2" s="61" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="F2" s="61"/>
-      <x:c r="G2" s="61"/>
-      <x:c r="H2" s="61" t="s">
-        <x:v>247</x:v>
+      <x:c r="A2" s="82" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B2" s="76" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C2" s="89" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D2" s="87" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="E2" s="58" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F2" s="58"/>
+      <x:c r="G2" s="58"/>
+      <x:c r="H2" s="58" t="s">
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="92"/>
-      <x:c r="B3" s="86"/>
-      <x:c r="C3" s="82"/>
-      <x:c r="D3" s="80"/>
-      <x:c r="E3" s="62" t="s">
+      <x:c r="A3" s="83"/>
+      <x:c r="B3" s="77"/>
+      <x:c r="C3" s="90"/>
+      <x:c r="D3" s="88"/>
+      <x:c r="E3" s="59" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="F3" s="59"/>
+      <x:c r="G3" s="59"/>
+      <x:c r="H3" s="59" t="s">
+        <x:v>151</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8">
+      <x:c r="A4" s="83"/>
+      <x:c r="B4" s="77"/>
+      <x:c r="C4" s="90"/>
+      <x:c r="D4" s="86"/>
+      <x:c r="E4" s="59" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="F4" s="59"/>
+      <x:c r="G4" s="59"/>
+      <x:c r="H4" s="59" t="s">
+        <x:v>235</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:8">
+      <x:c r="A5" s="83"/>
+      <x:c r="B5" s="77"/>
+      <x:c r="C5" s="90"/>
+      <x:c r="D5" s="85" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E5" s="60" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="F5" s="59"/>
+      <x:c r="G5" s="59"/>
+      <x:c r="H5" s="59" t="s">
+        <x:v>257</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8">
+      <x:c r="A6" s="83"/>
+      <x:c r="B6" s="77"/>
+      <x:c r="C6" s="91"/>
+      <x:c r="D6" s="86"/>
+      <x:c r="E6" s="60" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="F6" s="59"/>
+      <x:c r="G6" s="59"/>
+      <x:c r="H6" s="59" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8">
+      <x:c r="A7" s="83"/>
+      <x:c r="B7" s="77"/>
+      <x:c r="C7" s="93" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D7" s="85" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E7" s="85" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F7" s="59" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="G7" s="59"/>
+      <x:c r="H7" s="59"/>
+    </x:row>
+    <x:row r="8" spans="1:8">
+      <x:c r="A8" s="83"/>
+      <x:c r="B8" s="77"/>
+      <x:c r="C8" s="90"/>
+      <x:c r="D8" s="88"/>
+      <x:c r="E8" s="88"/>
+      <x:c r="F8" s="59" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="G8" s="59"/>
+      <x:c r="H8" s="59"/>
+    </x:row>
+    <x:row r="9" spans="1:8">
+      <x:c r="A9" s="83"/>
+      <x:c r="B9" s="77"/>
+      <x:c r="C9" s="90"/>
+      <x:c r="D9" s="88"/>
+      <x:c r="E9" s="88"/>
+      <x:c r="F9" s="59" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="G9" s="59"/>
+      <x:c r="H9" s="59"/>
+    </x:row>
+    <x:row r="10" spans="1:8">
+      <x:c r="A10" s="83"/>
+      <x:c r="B10" s="77"/>
+      <x:c r="C10" s="90"/>
+      <x:c r="D10" s="88"/>
+      <x:c r="E10" s="88"/>
+      <x:c r="F10" s="59" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="G10" s="59"/>
+      <x:c r="H10" s="59"/>
+    </x:row>
+    <x:row r="11" spans="1:8" ht="16.75">
+      <x:c r="A11" s="83"/>
+      <x:c r="B11" s="94"/>
+      <x:c r="C11" s="95"/>
+      <x:c r="D11" s="92"/>
+      <x:c r="E11" s="92"/>
+      <x:c r="F11" s="61" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="G11" s="61"/>
+      <x:c r="H11" s="61"/>
+    </x:row>
+    <x:row r="12" spans="1:8">
+      <x:c r="A12" s="83"/>
+      <x:c r="B12" s="77" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="C12" s="90" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="D12" s="58" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="E12" s="88" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="F12" s="58"/>
+      <x:c r="G12" s="58"/>
+      <x:c r="H12" s="58"/>
+    </x:row>
+    <x:row r="13" spans="1:8">
+      <x:c r="A13" s="83"/>
+      <x:c r="B13" s="77"/>
+      <x:c r="C13" s="90"/>
+      <x:c r="D13" s="60" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="E13" s="88"/>
+      <x:c r="F13" s="59"/>
+      <x:c r="G13" s="59"/>
+      <x:c r="H13" s="59"/>
+    </x:row>
+    <x:row r="14" spans="1:8">
+      <x:c r="A14" s="83"/>
+      <x:c r="B14" s="77"/>
+      <x:c r="C14" s="90"/>
+      <x:c r="D14" s="60" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E14" s="88"/>
+      <x:c r="F14" s="59"/>
+      <x:c r="G14" s="59"/>
+      <x:c r="H14" s="59"/>
+    </x:row>
+    <x:row r="15" spans="1:8">
+      <x:c r="A15" s="83"/>
+      <x:c r="B15" s="77"/>
+      <x:c r="C15" s="91"/>
+      <x:c r="D15" s="60" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="E15" s="86"/>
+      <x:c r="F15" s="59"/>
+      <x:c r="G15" s="59"/>
+      <x:c r="H15" s="59"/>
+    </x:row>
+    <x:row r="16" spans="1:8">
+      <x:c r="A16" s="83"/>
+      <x:c r="B16" s="77"/>
+      <x:c r="C16" s="93" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="D16" s="60" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="E16" s="85" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="F16" s="59" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="G16" s="59"/>
+      <x:c r="H16" s="85" t="s">
+        <x:v>241</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:8">
+      <x:c r="A17" s="83"/>
+      <x:c r="B17" s="77"/>
+      <x:c r="C17" s="91"/>
+      <x:c r="D17" s="59" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="E17" s="86"/>
+      <x:c r="F17" s="59" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="G17" s="59"/>
+      <x:c r="H17" s="86"/>
+    </x:row>
+    <x:row r="18" spans="1:8" ht="16.75">
+      <x:c r="A18" s="83"/>
+      <x:c r="B18" s="94"/>
+      <x:c r="C18" s="62" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="D18" s="61"/>
+      <x:c r="E18" s="61"/>
+      <x:c r="F18" s="61"/>
+      <x:c r="G18" s="61"/>
+      <x:c r="H18" s="61" t="s">
+        <x:v>239</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:8">
+      <x:c r="A19" s="83"/>
+      <x:c r="B19" s="77" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C19" s="90" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="D19" s="58" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="E19" s="58"/>
+      <x:c r="F19" s="58"/>
+      <x:c r="G19" s="58"/>
+      <x:c r="H19" s="58"/>
+    </x:row>
+    <x:row r="20" spans="1:8">
+      <x:c r="A20" s="83"/>
+      <x:c r="B20" s="77"/>
+      <x:c r="C20" s="90"/>
+      <x:c r="D20" s="59" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="E20" s="59"/>
+      <x:c r="F20" s="59"/>
+      <x:c r="G20" s="59"/>
+      <x:c r="H20" s="59"/>
+    </x:row>
+    <x:row r="21" spans="1:8">
+      <x:c r="A21" s="83"/>
+      <x:c r="B21" s="77"/>
+      <x:c r="C21" s="90"/>
+      <x:c r="D21" s="59" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="E21" s="59"/>
+      <x:c r="F21" s="59"/>
+      <x:c r="G21" s="59"/>
+      <x:c r="H21" s="59"/>
+    </x:row>
+    <x:row r="22" spans="1:8">
+      <x:c r="A22" s="83"/>
+      <x:c r="B22" s="77"/>
+      <x:c r="C22" s="90"/>
+      <x:c r="D22" s="59" t="s">
         <x:v>212</x:v>
       </x:c>
-      <x:c r="F3" s="62"/>
-      <x:c r="G3" s="62"/>
-      <x:c r="H3" s="62" t="s">
-        <x:v>167</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:8">
-      <x:c r="A4" s="92"/>
-      <x:c r="B4" s="86"/>
-      <x:c r="C4" s="82"/>
-      <x:c r="D4" s="78"/>
-      <x:c r="E4" s="62" t="s">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="F4" s="62"/>
-      <x:c r="G4" s="62"/>
-      <x:c r="H4" s="62" t="s">
-        <x:v>249</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:8">
-      <x:c r="A5" s="92"/>
-      <x:c r="B5" s="86"/>
-      <x:c r="C5" s="82"/>
-      <x:c r="D5" s="77" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="E5" s="63" t="s">
-        <x:v>194</x:v>
-      </x:c>
-      <x:c r="F5" s="62"/>
-      <x:c r="G5" s="62"/>
-      <x:c r="H5" s="62" t="s">
-        <x:v>238</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:8">
-      <x:c r="A6" s="92"/>
-      <x:c r="B6" s="86"/>
-      <x:c r="C6" s="83"/>
-      <x:c r="D6" s="78"/>
-      <x:c r="E6" s="63" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F6" s="62"/>
-      <x:c r="G6" s="62"/>
-      <x:c r="H6" s="62" t="s">
-        <x:v>100</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:8">
-      <x:c r="A7" s="92"/>
-      <x:c r="B7" s="86"/>
-      <x:c r="C7" s="85" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="D7" s="77" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="E7" s="77" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="F7" s="62" t="s">
+      <x:c r="E22" s="59"/>
+      <x:c r="F22" s="59"/>
+      <x:c r="G22" s="59"/>
+      <x:c r="H22" s="59"/>
+    </x:row>
+    <x:row r="23" spans="1:8">
+      <x:c r="A23" s="83"/>
+      <x:c r="B23" s="77"/>
+      <x:c r="C23" s="91"/>
+      <x:c r="D23" s="59" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="E23" s="59"/>
+      <x:c r="F23" s="59"/>
+      <x:c r="G23" s="59"/>
+      <x:c r="H23" s="59"/>
+    </x:row>
+    <x:row r="24" spans="1:8">
+      <x:c r="A24" s="82"/>
+      <x:c r="B24" s="81"/>
+      <x:c r="C24" s="93" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="D24" s="85" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="E24" s="59" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="F24" s="59"/>
+      <x:c r="G24" s="59"/>
+      <x:c r="H24" s="59"/>
+    </x:row>
+    <x:row r="25" spans="1:8">
+      <x:c r="A25" s="83"/>
+      <x:c r="B25" s="77"/>
+      <x:c r="C25" s="90"/>
+      <x:c r="D25" s="86"/>
+      <x:c r="E25" s="59" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="F25" s="59"/>
+      <x:c r="G25" s="59"/>
+      <x:c r="H25" s="59"/>
+    </x:row>
+    <x:row r="26" spans="1:8">
+      <x:c r="A26" s="82"/>
+      <x:c r="B26" s="81"/>
+      <x:c r="C26" s="90"/>
+      <x:c r="D26" s="85" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="E26" s="59" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="F26" s="59"/>
+      <x:c r="G26" s="59"/>
+      <x:c r="H26" s="59"/>
+    </x:row>
+    <x:row r="27" spans="1:8">
+      <x:c r="A27" s="83"/>
+      <x:c r="B27" s="77"/>
+      <x:c r="C27" s="90"/>
+      <x:c r="D27" s="88"/>
+      <x:c r="E27" s="59" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="F27" s="59"/>
+      <x:c r="G27" s="59"/>
+      <x:c r="H27" s="59"/>
+    </x:row>
+    <x:row r="28" spans="1:8">
+      <x:c r="A28" s="83"/>
+      <x:c r="B28" s="77"/>
+      <x:c r="C28" s="90"/>
+      <x:c r="D28" s="88"/>
+      <x:c r="E28" s="59" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="F28" s="59"/>
+      <x:c r="G28" s="59"/>
+      <x:c r="H28" s="59"/>
+    </x:row>
+    <x:row r="29" spans="1:8" ht="16.75">
+      <x:c r="A29" s="83"/>
+      <x:c r="B29" s="94"/>
+      <x:c r="C29" s="95"/>
+      <x:c r="D29" s="92"/>
+      <x:c r="E29" s="61" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="F29" s="61"/>
+      <x:c r="G29" s="61"/>
+      <x:c r="H29" s="61"/>
+    </x:row>
+    <x:row r="30" spans="1:8">
+      <x:c r="A30" s="83"/>
+      <x:c r="B30" s="77" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="C30" s="63" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="D30" s="58"/>
+      <x:c r="E30" s="58"/>
+      <x:c r="F30" s="58"/>
+      <x:c r="G30" s="58"/>
+      <x:c r="H30" s="58"/>
+    </x:row>
+    <x:row r="31" spans="1:8">
+      <x:c r="A31" s="83"/>
+      <x:c r="B31" s="77"/>
+      <x:c r="C31" s="57" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="D31" s="59"/>
+      <x:c r="E31" s="59"/>
+      <x:c r="F31" s="59"/>
+      <x:c r="G31" s="59"/>
+      <x:c r="H31" s="59"/>
+    </x:row>
+    <x:row r="32" spans="1:8">
+      <x:c r="A32" s="83"/>
+      <x:c r="B32" s="77"/>
+      <x:c r="C32" s="57" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D32" s="59"/>
+      <x:c r="E32" s="59"/>
+      <x:c r="F32" s="59"/>
+      <x:c r="G32" s="59"/>
+      <x:c r="H32" s="59"/>
+    </x:row>
+    <x:row r="33" spans="1:8" ht="16.75">
+      <x:c r="A33" s="83"/>
+      <x:c r="B33" s="94"/>
+      <x:c r="C33" s="64" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="D33" s="61"/>
+      <x:c r="E33" s="61"/>
+      <x:c r="F33" s="61"/>
+      <x:c r="G33" s="61"/>
+      <x:c r="H33" s="61"/>
+    </x:row>
+    <x:row r="34" spans="1:8" ht="16.75" customHeight="1">
+      <x:c r="A34" s="83"/>
+      <x:c r="B34" s="76" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="C34" s="63" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D34" s="58"/>
+      <x:c r="E34" s="58"/>
+      <x:c r="F34" s="58"/>
+      <x:c r="G34" s="58"/>
+      <x:c r="H34" s="58"/>
+    </x:row>
+    <x:row r="35" spans="1:8">
+      <x:c r="A35" s="83"/>
+      <x:c r="B35" s="77"/>
+      <x:c r="C35" s="74" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="D35" s="59" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="E35" s="59"/>
+      <x:c r="F35" s="59"/>
+      <x:c r="G35" s="59"/>
+      <x:c r="H35" s="59"/>
+    </x:row>
+    <x:row r="36" spans="1:8">
+      <x:c r="A36" s="83"/>
+      <x:c r="B36" s="77"/>
+      <x:c r="C36" s="80"/>
+      <x:c r="D36" s="59" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="E36" s="59"/>
+      <x:c r="F36" s="59"/>
+      <x:c r="G36" s="59"/>
+      <x:c r="H36" s="59"/>
+    </x:row>
+    <x:row r="37" spans="1:8">
+      <x:c r="A37" s="83"/>
+      <x:c r="B37" s="77"/>
+      <x:c r="C37" s="80"/>
+      <x:c r="D37" s="59" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G7" s="62"/>
-      <x:c r="H7" s="62"/>
-    </x:row>
-    <x:row r="8" spans="1:8">
-      <x:c r="A8" s="92"/>
-      <x:c r="B8" s="86"/>
-      <x:c r="C8" s="82"/>
-      <x:c r="D8" s="80"/>
-      <x:c r="E8" s="80"/>
-      <x:c r="F8" s="62" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="G8" s="62"/>
-      <x:c r="H8" s="62"/>
-    </x:row>
-    <x:row r="9" spans="1:8">
-      <x:c r="A9" s="92"/>
-      <x:c r="B9" s="86"/>
-      <x:c r="C9" s="82"/>
-      <x:c r="D9" s="80"/>
-      <x:c r="E9" s="80"/>
-      <x:c r="F9" s="62" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="G9" s="62"/>
-      <x:c r="H9" s="62"/>
-    </x:row>
-    <x:row r="10" spans="1:8">
-      <x:c r="A10" s="92"/>
-      <x:c r="B10" s="86"/>
-      <x:c r="C10" s="82"/>
-      <x:c r="D10" s="80"/>
-      <x:c r="E10" s="80"/>
-      <x:c r="F10" s="62" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G10" s="62"/>
-      <x:c r="H10" s="62"/>
-    </x:row>
-    <x:row r="11" spans="1:8" ht="16.75">
-      <x:c r="A11" s="92"/>
-      <x:c r="B11" s="87"/>
-      <x:c r="C11" s="90"/>
-      <x:c r="D11" s="84"/>
-      <x:c r="E11" s="84"/>
-      <x:c r="F11" s="65" t="s">
-        <x:v>189</x:v>
-      </x:c>
-      <x:c r="G11" s="65"/>
-      <x:c r="H11" s="65"/>
-    </x:row>
-    <x:row r="12" spans="1:8">
-      <x:c r="A12" s="92"/>
-      <x:c r="B12" s="86" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C12" s="82" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="D12" s="61" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="E12" s="80" t="s">
-        <x:v>250</x:v>
-      </x:c>
-      <x:c r="F12" s="61"/>
-      <x:c r="G12" s="61"/>
-      <x:c r="H12" s="61"/>
-    </x:row>
-    <x:row r="13" spans="1:8">
-      <x:c r="A13" s="92"/>
-      <x:c r="B13" s="86"/>
-      <x:c r="C13" s="82"/>
-      <x:c r="D13" s="63" t="s">
-        <x:v>220</x:v>
-      </x:c>
-      <x:c r="E13" s="80"/>
-      <x:c r="F13" s="62"/>
-      <x:c r="G13" s="62"/>
-      <x:c r="H13" s="62"/>
-    </x:row>
-    <x:row r="14" spans="1:8">
-      <x:c r="A14" s="92"/>
-      <x:c r="B14" s="86"/>
-      <x:c r="C14" s="82"/>
-      <x:c r="D14" s="63" t="s">
-        <x:v>188</x:v>
-      </x:c>
-      <x:c r="E14" s="80"/>
-      <x:c r="F14" s="62"/>
-      <x:c r="G14" s="62"/>
-      <x:c r="H14" s="62"/>
-    </x:row>
-    <x:row r="15" spans="1:8">
-      <x:c r="A15" s="92"/>
-      <x:c r="B15" s="86"/>
-      <x:c r="C15" s="83"/>
-      <x:c r="D15" s="63" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="E15" s="78"/>
-      <x:c r="F15" s="62"/>
-      <x:c r="G15" s="62"/>
-      <x:c r="H15" s="62"/>
-    </x:row>
-    <x:row r="16" spans="1:8">
-      <x:c r="A16" s="92"/>
-      <x:c r="B16" s="86"/>
-      <x:c r="C16" s="85" t="s">
-        <x:v>219</x:v>
-      </x:c>
-      <x:c r="D16" s="63" t="s">
-        <x:v>205</x:v>
-      </x:c>
-      <x:c r="E16" s="77" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="F16" s="62" t="s">
-        <x:v>176</x:v>
-      </x:c>
-      <x:c r="G16" s="62"/>
-      <x:c r="H16" s="77" t="s">
-        <x:v>253</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:8">
-      <x:c r="A17" s="92"/>
-      <x:c r="B17" s="86"/>
-      <x:c r="C17" s="83"/>
-      <x:c r="D17" s="62" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E17" s="78"/>
-      <x:c r="F17" s="62" t="s">
-        <x:v>215</x:v>
-      </x:c>
-      <x:c r="G17" s="62"/>
-      <x:c r="H17" s="78"/>
-    </x:row>
-    <x:row r="18" spans="1:8" ht="16.75">
-      <x:c r="A18" s="92"/>
-      <x:c r="B18" s="87"/>
-      <x:c r="C18" s="66" t="s">
-        <x:v>152</x:v>
-      </x:c>
-      <x:c r="D18" s="65"/>
-      <x:c r="E18" s="65"/>
-      <x:c r="F18" s="65"/>
-      <x:c r="G18" s="65"/>
-      <x:c r="H18" s="65" t="s">
-        <x:v>243</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:8">
-      <x:c r="A19" s="92"/>
-      <x:c r="B19" s="86" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="C19" s="82" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D19" s="61" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="E19" s="61"/>
-      <x:c r="F19" s="61"/>
-      <x:c r="G19" s="61"/>
-      <x:c r="H19" s="61"/>
-    </x:row>
-    <x:row r="20" spans="1:8">
-      <x:c r="A20" s="92"/>
-      <x:c r="B20" s="86"/>
-      <x:c r="C20" s="82"/>
-      <x:c r="D20" s="62" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="E20" s="62"/>
-      <x:c r="F20" s="62"/>
-      <x:c r="G20" s="62"/>
-      <x:c r="H20" s="62"/>
-    </x:row>
-    <x:row r="21" spans="1:8">
-      <x:c r="A21" s="92"/>
-      <x:c r="B21" s="86"/>
-      <x:c r="C21" s="82"/>
-      <x:c r="D21" s="62" t="s">
-        <x:v>179</x:v>
-      </x:c>
-      <x:c r="E21" s="62"/>
-      <x:c r="F21" s="62"/>
-      <x:c r="G21" s="62"/>
-      <x:c r="H21" s="62"/>
-    </x:row>
-    <x:row r="22" spans="1:8">
-      <x:c r="A22" s="92"/>
-      <x:c r="B22" s="86"/>
-      <x:c r="C22" s="82"/>
-      <x:c r="D22" s="62" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="E22" s="62"/>
-      <x:c r="F22" s="62"/>
-      <x:c r="G22" s="62"/>
-      <x:c r="H22" s="62"/>
-    </x:row>
-    <x:row r="23" spans="1:8">
-      <x:c r="A23" s="92"/>
-      <x:c r="B23" s="86"/>
-      <x:c r="C23" s="83"/>
-      <x:c r="D23" s="62" t="s">
-        <x:v>168</x:v>
-      </x:c>
-      <x:c r="E23" s="62"/>
-      <x:c r="F23" s="62"/>
-      <x:c r="G23" s="62"/>
-      <x:c r="H23" s="62"/>
-    </x:row>
-    <x:row r="24" spans="1:8">
-      <x:c r="A24" s="91"/>
-      <x:c r="B24" s="88"/>
-      <x:c r="C24" s="85" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="D24" s="77" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="E24" s="62" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="F24" s="62"/>
-      <x:c r="G24" s="62"/>
-      <x:c r="H24" s="62"/>
-    </x:row>
-    <x:row r="25" spans="1:8">
-      <x:c r="A25" s="92"/>
-      <x:c r="B25" s="86"/>
-      <x:c r="C25" s="82"/>
-      <x:c r="D25" s="78"/>
-      <x:c r="E25" s="62" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F25" s="62"/>
-      <x:c r="G25" s="62"/>
-      <x:c r="H25" s="62"/>
-    </x:row>
-    <x:row r="26" spans="1:8">
-      <x:c r="A26" s="91"/>
-      <x:c r="B26" s="88"/>
-      <x:c r="C26" s="82"/>
-      <x:c r="D26" s="77" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="E26" s="62" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="F26" s="62"/>
-      <x:c r="G26" s="62"/>
-      <x:c r="H26" s="62"/>
-    </x:row>
-    <x:row r="27" spans="1:8">
-      <x:c r="A27" s="92"/>
-      <x:c r="B27" s="86"/>
-      <x:c r="C27" s="82"/>
-      <x:c r="D27" s="80"/>
-      <x:c r="E27" s="62" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F27" s="62"/>
-      <x:c r="G27" s="62"/>
-      <x:c r="H27" s="62"/>
-    </x:row>
-    <x:row r="28" spans="1:8">
-      <x:c r="A28" s="92"/>
-      <x:c r="B28" s="86"/>
-      <x:c r="C28" s="82"/>
-      <x:c r="D28" s="80"/>
-      <x:c r="E28" s="62" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="F28" s="62"/>
-      <x:c r="G28" s="62"/>
-      <x:c r="H28" s="62"/>
-    </x:row>
-    <x:row r="29" spans="1:8" ht="16.75">
-      <x:c r="A29" s="92"/>
-      <x:c r="B29" s="87"/>
-      <x:c r="C29" s="90"/>
-      <x:c r="D29" s="84"/>
-      <x:c r="E29" s="65" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="F29" s="65"/>
-      <x:c r="G29" s="65"/>
-      <x:c r="H29" s="65"/>
-    </x:row>
-    <x:row r="30" spans="1:8">
-      <x:c r="A30" s="92"/>
-      <x:c r="B30" s="86" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C30" s="67" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D30" s="61"/>
-      <x:c r="E30" s="61"/>
-      <x:c r="F30" s="61"/>
-      <x:c r="G30" s="61"/>
-      <x:c r="H30" s="61"/>
-    </x:row>
-    <x:row r="31" spans="1:8">
-      <x:c r="A31" s="92"/>
-      <x:c r="B31" s="86"/>
-      <x:c r="C31" s="58" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="D31" s="62"/>
-      <x:c r="E31" s="62"/>
-      <x:c r="F31" s="62"/>
-      <x:c r="G31" s="62"/>
-      <x:c r="H31" s="62"/>
-    </x:row>
-    <x:row r="32" spans="1:8">
-      <x:c r="A32" s="92"/>
-      <x:c r="B32" s="86"/>
-      <x:c r="C32" s="58" t="s">
-        <x:v>191</x:v>
-      </x:c>
-      <x:c r="D32" s="62"/>
-      <x:c r="E32" s="62"/>
-      <x:c r="F32" s="62"/>
-      <x:c r="G32" s="62"/>
-      <x:c r="H32" s="62"/>
-    </x:row>
-    <x:row r="33" spans="1:8" ht="16.75">
-      <x:c r="A33" s="92"/>
-      <x:c r="B33" s="87"/>
-      <x:c r="C33" s="68" t="s">
-        <x:v>221</x:v>
-      </x:c>
-      <x:c r="D33" s="65"/>
-      <x:c r="E33" s="65"/>
-      <x:c r="F33" s="65"/>
-      <x:c r="G33" s="65"/>
-      <x:c r="H33" s="65"/>
-    </x:row>
-    <x:row r="34" spans="1:8">
-      <x:c r="A34" s="92"/>
-      <x:c r="B34" s="86" t="s">
-        <x:v>201</x:v>
-      </x:c>
-      <x:c r="C34" s="67" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D34" s="61"/>
-      <x:c r="E34" s="61"/>
-      <x:c r="F34" s="61"/>
-      <x:c r="G34" s="61"/>
-      <x:c r="H34" s="61"/>
-    </x:row>
-    <x:row r="35" spans="1:8">
-      <x:c r="A35" s="92"/>
-      <x:c r="B35" s="86"/>
-      <x:c r="C35" s="85" t="s">
-        <x:v>199</x:v>
-      </x:c>
-      <x:c r="D35" s="62" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="E35" s="62"/>
-      <x:c r="F35" s="62"/>
-      <x:c r="G35" s="62"/>
-      <x:c r="H35" s="62"/>
-    </x:row>
-    <x:row r="36" spans="1:8">
-      <x:c r="A36" s="92"/>
-      <x:c r="B36" s="86"/>
-      <x:c r="C36" s="82"/>
-      <x:c r="D36" s="62" t="s">
-        <x:v>181</x:v>
-      </x:c>
-      <x:c r="E36" s="62"/>
-      <x:c r="F36" s="62"/>
-      <x:c r="G36" s="62"/>
-      <x:c r="H36" s="62"/>
-    </x:row>
-    <x:row r="37" spans="1:8" ht="16.75">
-      <x:c r="A37" s="92"/>
-      <x:c r="B37" s="87"/>
-      <x:c r="C37" s="90"/>
-      <x:c r="D37" s="65" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="E37" s="65"/>
-      <x:c r="F37" s="65"/>
-      <x:c r="G37" s="65"/>
-      <x:c r="H37" s="65"/>
+      <x:c r="E37" s="59"/>
+      <x:c r="F37" s="59"/>
+      <x:c r="G37" s="59"/>
+      <x:c r="H37" s="59"/>
     </x:row>
     <x:row r="38" spans="1:8">
-      <x:c r="A38" s="92"/>
-      <x:c r="B38" s="64"/>
-      <x:c r="C38" s="67"/>
-      <x:c r="D38" s="61"/>
-      <x:c r="E38" s="61"/>
-      <x:c r="F38" s="61"/>
-      <x:c r="G38" s="61"/>
-      <x:c r="H38" s="61"/>
+      <x:c r="A38" s="83"/>
+      <x:c r="B38" s="77"/>
+      <x:c r="C38" s="80"/>
+      <x:c r="D38" s="58" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E38" s="58"/>
+      <x:c r="F38" s="58"/>
+      <x:c r="G38" s="58"/>
+      <x:c r="H38" s="58"/>
     </x:row>
     <x:row r="39" spans="1:8">
-      <x:c r="A39" s="92"/>
-      <x:c r="B39" s="59"/>
-      <x:c r="C39" s="60"/>
-      <x:c r="D39" s="62"/>
-      <x:c r="E39" s="62"/>
-      <x:c r="F39" s="62"/>
-      <x:c r="G39" s="62"/>
-      <x:c r="H39" s="62"/>
+      <x:c r="A39" s="83"/>
+      <x:c r="B39" s="77"/>
+      <x:c r="C39" s="80"/>
+      <x:c r="D39" s="59" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E39" s="59"/>
+      <x:c r="F39" s="59"/>
+      <x:c r="G39" s="59"/>
+      <x:c r="H39" s="59"/>
     </x:row>
     <x:row r="40" spans="1:8" ht="16.75">
-      <x:c r="A40" s="93"/>
-      <x:c r="B40" s="47"/>
-      <x:c r="C40" s="48"/>
-      <x:c r="D40" s="48"/>
-      <x:c r="E40" s="48"/>
-      <x:c r="F40" s="48"/>
-      <x:c r="G40" s="48"/>
-      <x:c r="H40" s="48"/>
+      <x:c r="A40" s="96"/>
+      <x:c r="B40" s="94"/>
+      <x:c r="C40" s="98"/>
+      <x:c r="D40" s="47" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E40" s="47"/>
+      <x:c r="F40" s="47"/>
+      <x:c r="G40" s="47"/>
+      <x:c r="H40" s="47"/>
     </x:row>
     <x:row r="41" spans="1:8">
       <x:c r="A41" s="44"/>
@@ -10064,8 +10075,8 @@
     <x:row r="45" spans="1:8">
       <x:c r="A45" s="44"/>
       <x:c r="B45" s="44"/>
-      <x:c r="C45" s="94"/>
-      <x:c r="D45" s="57"/>
+      <x:c r="C45" s="97"/>
+      <x:c r="D45" s="56"/>
       <x:c r="E45" s="46"/>
       <x:c r="F45" s="46"/>
       <x:c r="G45" s="46"/>
@@ -10074,8 +10085,8 @@
     <x:row r="46" spans="1:8">
       <x:c r="A46" s="44"/>
       <x:c r="B46" s="44"/>
-      <x:c r="C46" s="94"/>
-      <x:c r="D46" s="57"/>
+      <x:c r="C46" s="97"/>
+      <x:c r="D46" s="56"/>
       <x:c r="E46" s="46"/>
       <x:c r="F46" s="46"/>
       <x:c r="G46" s="46"/>
@@ -10084,8 +10095,8 @@
     <x:row r="47" spans="1:8">
       <x:c r="A47" s="44"/>
       <x:c r="B47" s="44"/>
-      <x:c r="C47" s="94"/>
-      <x:c r="D47" s="57"/>
+      <x:c r="C47" s="97"/>
+      <x:c r="D47" s="56"/>
       <x:c r="E47" s="46"/>
       <x:c r="F47" s="46"/>
       <x:c r="G47" s="46"/>
@@ -10094,8 +10105,8 @@
     <x:row r="48" spans="1:8">
       <x:c r="A48" s="44"/>
       <x:c r="B48" s="44"/>
-      <x:c r="C48" s="94"/>
-      <x:c r="D48" s="57"/>
+      <x:c r="C48" s="97"/>
+      <x:c r="D48" s="56"/>
       <x:c r="E48" s="46"/>
       <x:c r="F48" s="46"/>
       <x:c r="G48" s="46"/>
@@ -10104,8 +10115,8 @@
     <x:row r="49" spans="1:8">
       <x:c r="A49" s="44"/>
       <x:c r="B49" s="44"/>
-      <x:c r="C49" s="94"/>
-      <x:c r="D49" s="57"/>
+      <x:c r="C49" s="97"/>
+      <x:c r="D49" s="56"/>
       <x:c r="E49" s="46"/>
       <x:c r="F49" s="46"/>
       <x:c r="G49" s="46"/>
@@ -10114,8 +10125,8 @@
     <x:row r="50" spans="1:8">
       <x:c r="A50" s="44"/>
       <x:c r="B50" s="44"/>
-      <x:c r="C50" s="94"/>
-      <x:c r="D50" s="57"/>
+      <x:c r="C50" s="97"/>
+      <x:c r="D50" s="56"/>
       <x:c r="E50" s="46"/>
       <x:c r="F50" s="46"/>
       <x:c r="G50" s="46"/>
@@ -10124,8 +10135,8 @@
     <x:row r="51" spans="1:8">
       <x:c r="A51" s="44"/>
       <x:c r="B51" s="44"/>
-      <x:c r="C51" s="94"/>
-      <x:c r="D51" s="57"/>
+      <x:c r="C51" s="97"/>
+      <x:c r="D51" s="56"/>
       <x:c r="E51" s="46"/>
       <x:c r="F51" s="46"/>
       <x:c r="G51" s="46"/>
@@ -10134,8 +10145,8 @@
     <x:row r="52" spans="1:8">
       <x:c r="A52" s="44"/>
       <x:c r="B52" s="44"/>
-      <x:c r="C52" s="94"/>
-      <x:c r="D52" s="57"/>
+      <x:c r="C52" s="97"/>
+      <x:c r="D52" s="56"/>
       <x:c r="E52" s="46"/>
       <x:c r="F52" s="46"/>
       <x:c r="G52" s="46"/>
@@ -10144,8 +10155,8 @@
     <x:row r="53" spans="1:8">
       <x:c r="A53" s="44"/>
       <x:c r="B53" s="44"/>
-      <x:c r="C53" s="94"/>
-      <x:c r="D53" s="57"/>
+      <x:c r="C53" s="97"/>
+      <x:c r="D53" s="56"/>
       <x:c r="E53" s="46"/>
       <x:c r="F53" s="46"/>
       <x:c r="G53" s="46"/>
@@ -10154,8 +10165,8 @@
     <x:row r="54" spans="1:8">
       <x:c r="A54" s="44"/>
       <x:c r="B54" s="44"/>
-      <x:c r="C54" s="94"/>
-      <x:c r="D54" s="57"/>
+      <x:c r="C54" s="97"/>
+      <x:c r="D54" s="56"/>
       <x:c r="E54" s="46"/>
       <x:c r="F54" s="46"/>
       <x:c r="G54" s="46"/>
@@ -10164,8 +10175,8 @@
     <x:row r="55" spans="1:8">
       <x:c r="A55" s="44"/>
       <x:c r="B55" s="44"/>
-      <x:c r="C55" s="94"/>
-      <x:c r="D55" s="57"/>
+      <x:c r="C55" s="97"/>
+      <x:c r="D55" s="56"/>
       <x:c r="E55" s="46"/>
       <x:c r="F55" s="46"/>
       <x:c r="G55" s="46"/>
@@ -10174,8 +10185,8 @@
     <x:row r="56" spans="1:8">
       <x:c r="A56" s="44"/>
       <x:c r="B56" s="44"/>
-      <x:c r="C56" s="94"/>
-      <x:c r="D56" s="57"/>
+      <x:c r="C56" s="97"/>
+      <x:c r="D56" s="56"/>
       <x:c r="E56" s="46"/>
       <x:c r="F56" s="46"/>
       <x:c r="G56" s="46"/>
@@ -10184,8 +10195,8 @@
     <x:row r="57" spans="1:8">
       <x:c r="A57" s="44"/>
       <x:c r="B57" s="44"/>
-      <x:c r="C57" s="94"/>
-      <x:c r="D57" s="57"/>
+      <x:c r="C57" s="97"/>
+      <x:c r="D57" s="56"/>
       <x:c r="E57" s="46"/>
       <x:c r="F57" s="46"/>
       <x:c r="G57" s="46"/>
@@ -10242,8 +10253,8 @@
     <x:mergeCell ref="C54:C55"/>
     <x:mergeCell ref="C56:C57"/>
     <x:mergeCell ref="E16:E17"/>
-    <x:mergeCell ref="C35:C37"/>
-    <x:mergeCell ref="B34:B37"/>
+    <x:mergeCell ref="C35:C40"/>
+    <x:mergeCell ref="B34:B40"/>
   </x:mergeCells>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -10257,7 +10268,7 @@
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" activeCell="E41" activeCellId="0" sqref="E41:E41"/>
+      <x:selection pane="bottomLeft" activeCell="E35" activeCellId="0" sqref="E35:E35"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -10270,428 +10281,428 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:34">
-      <x:c r="A1" s="49"/>
-      <x:c r="B1" s="49"/>
-      <x:c r="C1" s="49"/>
-      <x:c r="D1" s="49"/>
-      <x:c r="E1" s="49"/>
-      <x:c r="F1" s="49"/>
-      <x:c r="G1" s="49"/>
-      <x:c r="H1" s="49"/>
-      <x:c r="I1" s="49"/>
-      <x:c r="J1" s="49"/>
-      <x:c r="K1" s="49"/>
-      <x:c r="L1" s="49"/>
-      <x:c r="M1" s="49"/>
-      <x:c r="N1" s="49"/>
-      <x:c r="O1" s="49"/>
-      <x:c r="P1" s="49"/>
-      <x:c r="Q1" s="49"/>
-      <x:c r="R1" s="49"/>
-      <x:c r="S1" s="49"/>
-      <x:c r="T1" s="49"/>
-      <x:c r="U1" s="49"/>
-      <x:c r="V1" s="49"/>
-      <x:c r="W1" s="49"/>
-      <x:c r="X1" s="49"/>
-      <x:c r="Y1" s="49"/>
-      <x:c r="Z1" s="49"/>
-      <x:c r="AA1" s="49"/>
-      <x:c r="AB1" s="49"/>
-      <x:c r="AC1" s="49"/>
-      <x:c r="AD1" s="49"/>
-      <x:c r="AE1" s="49"/>
-      <x:c r="AF1" s="49"/>
-      <x:c r="AG1" s="49"/>
-      <x:c r="AH1" s="49"/>
+      <x:c r="A1" s="48"/>
+      <x:c r="B1" s="48"/>
+      <x:c r="C1" s="48"/>
+      <x:c r="D1" s="48"/>
+      <x:c r="E1" s="48"/>
+      <x:c r="F1" s="48"/>
+      <x:c r="G1" s="48"/>
+      <x:c r="H1" s="48"/>
+      <x:c r="I1" s="48"/>
+      <x:c r="J1" s="48"/>
+      <x:c r="K1" s="48"/>
+      <x:c r="L1" s="48"/>
+      <x:c r="M1" s="48"/>
+      <x:c r="N1" s="48"/>
+      <x:c r="O1" s="48"/>
+      <x:c r="P1" s="48"/>
+      <x:c r="Q1" s="48"/>
+      <x:c r="R1" s="48"/>
+      <x:c r="S1" s="48"/>
+      <x:c r="T1" s="48"/>
+      <x:c r="U1" s="48"/>
+      <x:c r="V1" s="48"/>
+      <x:c r="W1" s="48"/>
+      <x:c r="X1" s="48"/>
+      <x:c r="Y1" s="48"/>
+      <x:c r="Z1" s="48"/>
+      <x:c r="AA1" s="48"/>
+      <x:c r="AB1" s="48"/>
+      <x:c r="AC1" s="48"/>
+      <x:c r="AD1" s="48"/>
+      <x:c r="AE1" s="48"/>
+      <x:c r="AF1" s="48"/>
+      <x:c r="AG1" s="48"/>
+      <x:c r="AH1" s="48"/>
     </x:row>
     <x:row r="2" spans="1:6">
-      <x:c r="A2" s="49"/>
+      <x:c r="A2" s="48"/>
       <x:c r="B2" s="36" t="s">
-        <x:v>65</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="C2" s="36" t="s">
-        <x:v>108</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D2" s="36" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="E2" s="36" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F2" s="36" t="s">
+        <x:v>197</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6" ht="16.75">
+      <x:c r="A3" s="48"/>
+      <x:c r="B3" s="76" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C3" s="79" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="D3" s="79" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E3" s="49" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F3" s="65"/>
+    </x:row>
+    <x:row r="4" spans="1:6">
+      <x:c r="A4" s="48"/>
+      <x:c r="B4" s="77"/>
+      <x:c r="C4" s="80"/>
+      <x:c r="D4" s="80"/>
+      <x:c r="E4" s="50" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="F4" s="66"/>
+    </x:row>
+    <x:row r="5" spans="1:6">
+      <x:c r="A5" s="48"/>
+      <x:c r="B5" s="77"/>
+      <x:c r="C5" s="80"/>
+      <x:c r="D5" s="80"/>
+      <x:c r="E5" s="50" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="F5" s="66"/>
+    </x:row>
+    <x:row r="6" spans="1:6">
+      <x:c r="A6" s="48"/>
+      <x:c r="B6" s="77"/>
+      <x:c r="C6" s="80"/>
+      <x:c r="D6" s="80"/>
+      <x:c r="E6" s="50" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F6" s="66"/>
+    </x:row>
+    <x:row r="7" spans="1:6" ht="32.75">
+      <x:c r="A7" s="48"/>
+      <x:c r="B7" s="77"/>
+      <x:c r="C7" s="80"/>
+      <x:c r="D7" s="75"/>
+      <x:c r="E7" s="51" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F7" s="66"/>
+    </x:row>
+    <x:row r="8" spans="1:6">
+      <x:c r="A8" s="48"/>
+      <x:c r="B8" s="77"/>
+      <x:c r="C8" s="80"/>
+      <x:c r="D8" s="74" t="s">
         <x:v>195</x:v>
       </x:c>
-      <x:c r="E2" s="36" t="s">
-        <x:v>198</x:v>
-      </x:c>
-      <x:c r="F2" s="36" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:6" ht="16.75">
-      <x:c r="A3" s="49"/>
-      <x:c r="B3" s="89" t="s">
-        <x:v>185</x:v>
-      </x:c>
-      <x:c r="C3" s="98" t="s">
-        <x:v>208</x:v>
-      </x:c>
-      <x:c r="D3" s="98" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="E3" s="50" t="s">
+      <x:c r="E8" s="52" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F8" s="66"/>
+    </x:row>
+    <x:row r="9" spans="1:6">
+      <x:c r="A9" s="48"/>
+      <x:c r="B9" s="77"/>
+      <x:c r="C9" s="80"/>
+      <x:c r="D9" s="80"/>
+      <x:c r="E9" s="50" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="F9" s="66"/>
+    </x:row>
+    <x:row r="10" spans="1:6">
+      <x:c r="A10" s="48"/>
+      <x:c r="B10" s="77"/>
+      <x:c r="C10" s="80"/>
+      <x:c r="D10" s="75"/>
+      <x:c r="E10" s="53" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="F3" s="69"/>
-    </x:row>
-    <x:row r="4" spans="1:6">
-      <x:c r="A4" s="49"/>
-      <x:c r="B4" s="86"/>
-      <x:c r="C4" s="99"/>
-      <x:c r="D4" s="99"/>
-      <x:c r="E4" s="51" t="s">
-        <x:v>252</x:v>
-      </x:c>
-      <x:c r="F4" s="70"/>
-    </x:row>
-    <x:row r="5" spans="1:6">
-      <x:c r="A5" s="49"/>
-      <x:c r="B5" s="86"/>
-      <x:c r="C5" s="99"/>
-      <x:c r="D5" s="99"/>
-      <x:c r="E5" s="51" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F5" s="70"/>
-    </x:row>
-    <x:row r="6" spans="1:6">
-      <x:c r="A6" s="49"/>
-      <x:c r="B6" s="86"/>
-      <x:c r="C6" s="99"/>
-      <x:c r="D6" s="99"/>
-      <x:c r="E6" s="51" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="F6" s="70"/>
-    </x:row>
-    <x:row r="7" spans="1:6" ht="32.75">
-      <x:c r="A7" s="49"/>
-      <x:c r="B7" s="86"/>
-      <x:c r="C7" s="99"/>
-      <x:c r="D7" s="96"/>
-      <x:c r="E7" s="52" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F7" s="70"/>
-    </x:row>
-    <x:row r="8" spans="1:6">
-      <x:c r="A8" s="49"/>
-      <x:c r="B8" s="86"/>
-      <x:c r="C8" s="99"/>
-      <x:c r="D8" s="95" t="s">
+      <x:c r="F10" s="66"/>
+    </x:row>
+    <x:row r="11" spans="1:6">
+      <x:c r="A11" s="48"/>
+      <x:c r="B11" s="77"/>
+      <x:c r="C11" s="80"/>
+      <x:c r="D11" s="74" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="E11" s="52" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F11" s="66"/>
+    </x:row>
+    <x:row r="12" spans="1:6">
+      <x:c r="A12" s="48"/>
+      <x:c r="B12" s="77"/>
+      <x:c r="C12" s="75"/>
+      <x:c r="D12" s="75"/>
+      <x:c r="E12" s="53" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="F12" s="66"/>
+    </x:row>
+    <x:row r="13" spans="1:6">
+      <x:c r="A13" s="48"/>
+      <x:c r="B13" s="77"/>
+      <x:c r="C13" s="74" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D13" s="74" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="E13" s="52" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F13" s="66"/>
+    </x:row>
+    <x:row r="14" spans="1:6">
+      <x:c r="A14" s="48"/>
+      <x:c r="B14" s="77"/>
+      <x:c r="C14" s="80"/>
+      <x:c r="D14" s="80"/>
+      <x:c r="E14" s="50" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F14" s="66"/>
+    </x:row>
+    <x:row r="15" spans="1:6">
+      <x:c r="A15" s="48"/>
+      <x:c r="B15" s="77"/>
+      <x:c r="C15" s="80"/>
+      <x:c r="D15" s="80"/>
+      <x:c r="E15" s="50" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="F15" s="66"/>
+    </x:row>
+    <x:row r="16" spans="1:6">
+      <x:c r="A16" s="48"/>
+      <x:c r="B16" s="77"/>
+      <x:c r="C16" s="80"/>
+      <x:c r="D16" s="75"/>
+      <x:c r="E16" s="53" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F16" s="66"/>
+    </x:row>
+    <x:row r="17" spans="1:6">
+      <x:c r="A17" s="48"/>
+      <x:c r="B17" s="77"/>
+      <x:c r="C17" s="80"/>
+      <x:c r="D17" s="74" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="E17" s="52" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="F17" s="66"/>
+    </x:row>
+    <x:row r="18" spans="1:6" ht="32.75">
+      <x:c r="A18" s="48"/>
+      <x:c r="B18" s="77"/>
+      <x:c r="C18" s="75"/>
+      <x:c r="D18" s="75"/>
+      <x:c r="E18" s="51" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="F18" s="66"/>
+    </x:row>
+    <x:row r="19" spans="1:6">
+      <x:c r="A19" s="48"/>
+      <x:c r="B19" s="77"/>
+      <x:c r="C19" s="74" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="D19" s="74" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E19" s="52" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="F19" s="66"/>
+    </x:row>
+    <x:row r="20" spans="1:6">
+      <x:c r="A20" s="48"/>
+      <x:c r="B20" s="77"/>
+      <x:c r="C20" s="80"/>
+      <x:c r="D20" s="75"/>
+      <x:c r="E20" s="53" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="F20" s="66"/>
+    </x:row>
+    <x:row r="21" spans="1:6">
+      <x:c r="A21" s="48"/>
+      <x:c r="B21" s="77"/>
+      <x:c r="C21" s="80"/>
+      <x:c r="D21" s="74" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E21" s="52" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="F21" s="66"/>
+    </x:row>
+    <x:row r="22" spans="1:6">
+      <x:c r="A22" s="48"/>
+      <x:c r="B22" s="77"/>
+      <x:c r="C22" s="80"/>
+      <x:c r="D22" s="75"/>
+      <x:c r="E22" s="53" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F22" s="66"/>
+    </x:row>
+    <x:row r="23" spans="1:6">
+      <x:c r="A23" s="48"/>
+      <x:c r="B23" s="77"/>
+      <x:c r="C23" s="80"/>
+      <x:c r="D23" s="37" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="E23" s="54" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F23" s="66"/>
+    </x:row>
+    <x:row r="24" spans="1:6">
+      <x:c r="A24" s="48"/>
+      <x:c r="B24" s="77"/>
+      <x:c r="C24" s="80"/>
+      <x:c r="D24" s="74" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E24" s="52" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F24" s="66"/>
+    </x:row>
+    <x:row r="25" spans="1:6">
+      <x:c r="A25" s="48"/>
+      <x:c r="B25" s="77"/>
+      <x:c r="C25" s="80"/>
+      <x:c r="D25" s="80"/>
+      <x:c r="E25" s="50" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="E8" s="53" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="F8" s="70"/>
-    </x:row>
-    <x:row r="9" spans="1:6">
-      <x:c r="A9" s="49"/>
-      <x:c r="B9" s="86"/>
-      <x:c r="C9" s="99"/>
-      <x:c r="D9" s="99"/>
-      <x:c r="E9" s="51" t="s">
-        <x:v>229</x:v>
-      </x:c>
-      <x:c r="F9" s="70"/>
-    </x:row>
-    <x:row r="10" spans="1:6">
-      <x:c r="A10" s="49"/>
-      <x:c r="B10" s="86"/>
-      <x:c r="C10" s="99"/>
-      <x:c r="D10" s="96"/>
-      <x:c r="E10" s="54" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F10" s="70"/>
-    </x:row>
-    <x:row r="11" spans="1:6">
-      <x:c r="A11" s="49"/>
-      <x:c r="B11" s="86"/>
-      <x:c r="C11" s="99"/>
-      <x:c r="D11" s="95" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E11" s="53" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F11" s="70"/>
-    </x:row>
-    <x:row r="12" spans="1:6">
-      <x:c r="A12" s="49"/>
-      <x:c r="B12" s="86"/>
-      <x:c r="C12" s="96"/>
-      <x:c r="D12" s="96"/>
-      <x:c r="E12" s="54" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="F12" s="70"/>
-    </x:row>
-    <x:row r="13" spans="1:6">
-      <x:c r="A13" s="49"/>
-      <x:c r="B13" s="86"/>
-      <x:c r="C13" s="95" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="D13" s="95" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="E13" s="53" t="s">
-        <x:v>239</x:v>
-      </x:c>
-      <x:c r="F13" s="70"/>
-    </x:row>
-    <x:row r="14" spans="1:6">
-      <x:c r="A14" s="49"/>
-      <x:c r="B14" s="86"/>
-      <x:c r="C14" s="99"/>
-      <x:c r="D14" s="99"/>
-      <x:c r="E14" s="51" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="F14" s="70"/>
-    </x:row>
-    <x:row r="15" spans="1:6">
-      <x:c r="A15" s="49"/>
-      <x:c r="B15" s="86"/>
-      <x:c r="C15" s="99"/>
-      <x:c r="D15" s="99"/>
-      <x:c r="E15" s="51" t="s">
-        <x:v>223</x:v>
-      </x:c>
-      <x:c r="F15" s="70"/>
-    </x:row>
-    <x:row r="16" spans="1:6">
-      <x:c r="A16" s="49"/>
-      <x:c r="B16" s="86"/>
-      <x:c r="C16" s="99"/>
-      <x:c r="D16" s="96"/>
-      <x:c r="E16" s="54" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F16" s="70"/>
-    </x:row>
-    <x:row r="17" spans="1:6">
-      <x:c r="A17" s="49"/>
-      <x:c r="B17" s="86"/>
-      <x:c r="C17" s="99"/>
-      <x:c r="D17" s="95" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="E17" s="53" t="s">
+      <x:c r="F25" s="66"/>
+    </x:row>
+    <x:row r="26" spans="1:6">
+      <x:c r="A26" s="48"/>
+      <x:c r="B26" s="77"/>
+      <x:c r="C26" s="80"/>
+      <x:c r="D26" s="80"/>
+      <x:c r="E26" s="50" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F26" s="66"/>
+    </x:row>
+    <x:row r="27" spans="1:6" ht="16.75">
+      <x:c r="A27" s="48"/>
+      <x:c r="B27" s="94"/>
+      <x:c r="C27" s="98"/>
+      <x:c r="D27" s="98"/>
+      <x:c r="E27" s="55" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="F27" s="67"/>
+    </x:row>
+    <x:row r="28" spans="1:6" ht="16.75">
+      <x:c r="A28" s="48"/>
+      <x:c r="B28" s="76" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C28" s="68" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D28" s="68" t="s">
         <x:v>227</x:v>
       </x:c>
-      <x:c r="F17" s="70"/>
-    </x:row>
-    <x:row r="18" spans="1:6" ht="32.75">
-      <x:c r="A18" s="49"/>
-      <x:c r="B18" s="86"/>
-      <x:c r="C18" s="96"/>
-      <x:c r="D18" s="96"/>
-      <x:c r="E18" s="52" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="F18" s="70"/>
-    </x:row>
-    <x:row r="19" spans="1:6">
-      <x:c r="A19" s="49"/>
-      <x:c r="B19" s="86"/>
-      <x:c r="C19" s="95" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="D19" s="95" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="E19" s="53" t="s">
-        <x:v>233</x:v>
-      </x:c>
-      <x:c r="F19" s="70"/>
-    </x:row>
-    <x:row r="20" spans="1:6">
-      <x:c r="A20" s="49"/>
-      <x:c r="B20" s="86"/>
-      <x:c r="C20" s="99"/>
-      <x:c r="D20" s="96"/>
-      <x:c r="E20" s="54" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="F20" s="70"/>
-    </x:row>
-    <x:row r="21" spans="1:6">
-      <x:c r="A21" s="49"/>
-      <x:c r="B21" s="86"/>
-      <x:c r="C21" s="99"/>
-      <x:c r="D21" s="95" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="E21" s="53" t="s">
-        <x:v>255</x:v>
-      </x:c>
-      <x:c r="F21" s="70"/>
-    </x:row>
-    <x:row r="22" spans="1:6">
-      <x:c r="A22" s="49"/>
-      <x:c r="B22" s="86"/>
-      <x:c r="C22" s="99"/>
-      <x:c r="D22" s="96"/>
-      <x:c r="E22" s="54" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="F22" s="70"/>
-    </x:row>
-    <x:row r="23" spans="1:6">
-      <x:c r="A23" s="49"/>
-      <x:c r="B23" s="86"/>
-      <x:c r="C23" s="99"/>
-      <x:c r="D23" s="37" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E23" s="55" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F23" s="70"/>
-    </x:row>
-    <x:row r="24" spans="1:6">
-      <x:c r="A24" s="49"/>
-      <x:c r="B24" s="86"/>
-      <x:c r="C24" s="99"/>
-      <x:c r="D24" s="95" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="E24" s="53" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="F24" s="70"/>
-    </x:row>
-    <x:row r="25" spans="1:6">
-      <x:c r="A25" s="49"/>
-      <x:c r="B25" s="86"/>
-      <x:c r="C25" s="99"/>
-      <x:c r="D25" s="99"/>
-      <x:c r="E25" s="51" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F25" s="70"/>
-    </x:row>
-    <x:row r="26" spans="1:6">
-      <x:c r="A26" s="49"/>
-      <x:c r="B26" s="86"/>
-      <x:c r="C26" s="99"/>
-      <x:c r="D26" s="99"/>
-      <x:c r="E26" s="51" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F26" s="70"/>
-    </x:row>
-    <x:row r="27" spans="1:6" ht="16.75">
-      <x:c r="A27" s="49"/>
-      <x:c r="B27" s="87"/>
-      <x:c r="C27" s="101"/>
-      <x:c r="D27" s="101"/>
-      <x:c r="E27" s="56" t="s">
-        <x:v>228</x:v>
-      </x:c>
-      <x:c r="F27" s="71"/>
-    </x:row>
-    <x:row r="28" spans="1:6" ht="16.75">
-      <x:c r="A28" s="49"/>
-      <x:c r="B28" s="89" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="C28" s="72" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="D28" s="72" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="E28" s="73" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="F28" s="69"/>
+      <x:c r="E28" s="69" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="F28" s="65"/>
     </x:row>
     <x:row r="29" spans="1:6">
-      <x:c r="A29" s="49"/>
-      <x:c r="B29" s="86"/>
-      <x:c r="C29" s="95" t="s">
-        <x:v>213</x:v>
+      <x:c r="A29" s="48"/>
+      <x:c r="B29" s="77"/>
+      <x:c r="C29" s="74" t="s">
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D29" s="37" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="E29" s="55" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F29" s="70"/>
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="E29" s="54" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F29" s="66"/>
     </x:row>
     <x:row r="30" spans="1:6">
-      <x:c r="A30" s="49"/>
-      <x:c r="B30" s="86"/>
-      <x:c r="C30" s="99"/>
-      <x:c r="D30" s="95" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="E30" s="53" t="s">
-        <x:v>240</x:v>
-      </x:c>
-      <x:c r="F30" s="70"/>
+      <x:c r="A30" s="48"/>
+      <x:c r="B30" s="77"/>
+      <x:c r="C30" s="80"/>
+      <x:c r="D30" s="74" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="E30" s="52" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="F30" s="66"/>
     </x:row>
     <x:row r="31" spans="1:6">
-      <x:c r="A31" s="49"/>
-      <x:c r="B31" s="86"/>
-      <x:c r="C31" s="99"/>
-      <x:c r="D31" s="99"/>
-      <x:c r="E31" s="51" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F31" s="70"/>
+      <x:c r="A31" s="48"/>
+      <x:c r="B31" s="77"/>
+      <x:c r="C31" s="80"/>
+      <x:c r="D31" s="80"/>
+      <x:c r="E31" s="50" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F31" s="66"/>
     </x:row>
     <x:row r="32" spans="1:6">
-      <x:c r="A32" s="49"/>
-      <x:c r="B32" s="86"/>
-      <x:c r="C32" s="99"/>
-      <x:c r="D32" s="99"/>
-      <x:c r="E32" s="51" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="F32" s="70"/>
+      <x:c r="A32" s="48"/>
+      <x:c r="B32" s="77"/>
+      <x:c r="C32" s="80"/>
+      <x:c r="D32" s="80"/>
+      <x:c r="E32" s="50" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F32" s="66"/>
     </x:row>
     <x:row r="33" spans="1:6" ht="16.75">
-      <x:c r="A33" s="49"/>
-      <x:c r="B33" s="87"/>
-      <x:c r="C33" s="101"/>
-      <x:c r="D33" s="101"/>
-      <x:c r="E33" s="56" t="s">
-        <x:v>236</x:v>
-      </x:c>
-      <x:c r="F33" s="71"/>
+      <x:c r="A33" s="48"/>
+      <x:c r="B33" s="94"/>
+      <x:c r="C33" s="98"/>
+      <x:c r="D33" s="98"/>
+      <x:c r="E33" s="55" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="F33" s="67"/>
     </x:row>
     <x:row r="34" spans="1:6">
-      <x:c r="A34" s="49"/>
-      <x:c r="B34" s="86" t="s">
-        <x:v>209</x:v>
-      </x:c>
-      <x:c r="C34" s="99"/>
-      <x:c r="D34" s="99"/>
-      <x:c r="E34" s="51" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F34" s="70"/>
+      <x:c r="A34" s="48"/>
+      <x:c r="B34" s="77" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="C34" s="80"/>
+      <x:c r="D34" s="80"/>
+      <x:c r="E34" s="50" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="F34" s="66"/>
     </x:row>
     <x:row r="35" spans="1:6" ht="16.75">
-      <x:c r="A35" s="49"/>
-      <x:c r="B35" s="87"/>
-      <x:c r="C35" s="101"/>
-      <x:c r="D35" s="101"/>
-      <x:c r="E35" s="56" t="s">
-        <x:v>234</x:v>
-      </x:c>
-      <x:c r="F35" s="71"/>
+      <x:c r="A35" s="48"/>
+      <x:c r="B35" s="94"/>
+      <x:c r="C35" s="98"/>
+      <x:c r="D35" s="98"/>
+      <x:c r="E35" s="55" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="F35" s="67"/>
     </x:row>
     <x:row r="36" spans="2:4">
       <x:c r="B36" s="39"/>

--- a/2021_Summer/jp.hong/Datebook_jph.xlsx
+++ b/2021_Summer/jp.hong/Datebook_jph.xlsx
@@ -22,26 +22,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="264">
-  <x:si>
-    <x:t>회원 가입시 아이디, 비밀번호, 이름, 전화번호, 생년월일, 차종의 정보를 받아야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알맞은 ID값과 패스워드 값이 입력 될 경우 그에 맞는 회원 정보가 로그인 되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 예약을 하는 과정에서 사용자가 선택한 지점과 선택된 지점의 정보가 일치해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판의 글을 삭제하거나 올리기 위한 '글쓰기'버튼과 '글 삭제' 버튼이 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 화면 시퀀스 작성 (설명, 커뮤니티, 알림, 설정화면 추가)
-2. 추가 자료 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. vi 명령어 설명서 작성
-2. 요구사항 정의 및 분석</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="266">
+  <x:si>
+    <x:t>1. 요구사항 분석 (실현성 확인)
+2. 데이터 흐름도 수정
+ - 차량 관련 새소식 창 삭제 및 다른 사항 수정
+3. Menu_Tree 작성
+4. Flow_Chart 작성
+5. 필요 자료 추가 조사
+ -&gt; 주유, 부품들의 수명정보(?) 어떻게 자동으로 받아올지 알아봐야함 -&gt; 블루투스 =&gt; 블루투스 연동 어떻게?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. vi 명령어 설명서 작성 완료
+2. 요구사항 정의 및 분류
+ - 기능적 요구사항
+ - 비기능적 요구사항</x:t>
   </x:si>
   <x:si>
     <x:t>1. 실습 환경 설정 및 설명
@@ -55,19 +50,63 @@
  - 차량 관리 어플</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 요구사항 분석 (실현성 확인)
-2. 데이터 흐름도 수정
- - 차량 관련 새소식 창 삭제 및 다른 사항 수정
-3. Menu_Tree 작성
-4. Flow_Chart 작성
-5. 필요 자료 추가 조사
- -&gt; 주유, 부품들의 수명정보(?) 어떻게 자동으로 받아올지 알아봐야함 -&gt; 블루투스 =&gt; 블루투스 연동 어떻게?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 필요 자료 추가 조사
-2. 한계점 및 필요기술 추가
- - 차량 블루투스와 어플 연결 어떻게?
- - 연결이 된다면 원하는 정보만 어떻게 가져 올건지?</x:t>
+    <x:t>1. 메뉴시퀀스 작성 (미완)
+2. 스피너 및 캘린더 뷰 다이어리 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Git 목록 삭제
+2. 요구사항 분석
+3. 인터페이스 구상도 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 추가 자료조사(관련 코드)
+2. FlowChart 수정 및 보완</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호는 특수문자 포함 8자리 이상 12자리 이하 이어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주행 거리 정보를 받아 계산하여 남은 수명에 대해 알려 주어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소유한 차량이 여러 대일 경우 차량의 정보를 추가할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어플의 예약기능을 통해 예약한 경우 업체로부터 일정 수수료를 받는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 계획하고 있는 어플의 메뉴트리 작성 및 ppt 수정
+2. 요구사항 추가 및 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 플로우 차트 작성
+2. 설계 계획서 작성
+3. Menu_Tree 도식화 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성(각 화면 기능 설명 채우기)
+2. 각 화면 플로우 차트 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 경쟁 어플 메뉴트리 수정
+2. 요구사항, 기능정의 순서 수정
+3. 한계점 수정
+블루투스 -&gt; 사진 촬영 ====&gt; 대체하게 되면 글자 인식하는 코드 필요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. DateBook_Comment 부분 수정
+2. GIT보고서 수정
+ - 설치 과정 추가
+ - 명령어 부분 내용 추가
+3. PPT 머릿글 요약 작성 - (미완)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+ - 컴퓨터 견적 추천 앱
+ - 주차시 사고발생 알림 앱
+2. 주제 아이디어 최종 선정
+ - 차량 관리 어플
+3. 개발 계획서 및 요구사항 작성</x:t>
   </x:si>
   <x:si>
     <x:t>1. 현장실습 OT
@@ -80,6 +119,18 @@
  - 개발 설계</x:t>
   </x:si>
   <x:si>
+    <x:t>1. 06.22, 06.23 회의록 작성
+2. Git 환경 설정
+3. Git 설정 화면 캡처 및 보고서 작성
+4. 캡스톤 아이디어 도출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 정의 및 분석 - 체계화
+ - 기능 / 비기능적 요구사항 분류 및 수정
+2. 요구사항 분석
+3. 구현 가능 여부 확인</x:t>
+  </x:si>
+  <x:si>
     <x:t>1-1. Datebook Comment 부분 요약
 1-2. GIT 보고서 다시 작성
 1-3. PPT 머릿글 요약 작성
@@ -88,333 +139,532 @@
 2. 요구사항 수집 및 분석</x:t>
   </x:si>
   <x:si>
-    <x:t>차량 정보(오너들의 평균 정보)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교체할 부품을 선택 받아야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주행 거리별 check list</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점검내역서(정비소 제공 문서)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성(각 화면 기능 설명 채우기)
-2. 각 화면 플로우 차트 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 계획하고 있는 어플의 메뉴트리 작성 및 ppt 수정
-2. 요구사항 추가 및 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 플로우 차트 작성
-2. 설계 계획서 작성
-3. Menu_Tree 도식화 수정</x:t>
+    <x:t>내 차 정보 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:40
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 판매견적 받기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 형태로 존재</x:t>
+  </x:si>
+  <x:si>
+    <x:t>community</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 기본 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:34
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 정보 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:22
+18:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진행 방향 ---&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자주 하는 질문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스 (메뉴)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유사 모델 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운전자 추천 서비스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09:00
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친구 초대 이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운전자 보험료 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:43
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:33
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:43
+18:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 정비소 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험료 계산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약/견적 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품 교체 예상 견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰 보유 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:32
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 장착점 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험 선호도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:36
+18:07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비소 지도 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Community</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:27
+18:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:25
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:36
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>할인 쿠폰 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:32
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고장사례(리콜사례)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 연동 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:23
+15:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 보험료 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:30
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:27
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:30
+18:04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 화면 플로우 마무리
+2. Setting창 화면 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+ - 파일 헥사코드 분석 툴
+ - 헤더와 푸터를 이용한 카빙 툴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중복되는 아이디는 가입이 되어선 안된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이어리에 메모한 사항 달력에 날짜 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 형태로 존재, 결함/리콜 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정확한 위치의 지도 정보를 받아와야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 화면 플로우 작업
+2. 정비예약화면 아이콘 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인에 성공했다면 로그인 버튼이 아닌 로그 아웃 버튼을 보여주어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성(설명,컨테이너등 정보 채우기)
+2. 기능플로우 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 추가 자료조사
+2. 요구사항 추가 조사
+3. 경쟁 어플 기능 비교 보완</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중복되는 아이디로 가입시도시 아이디 입력 오류 메세지가 출력되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 인터페이스 구상도 작성
+2. 요구사항 분류하여 수정
+3. 추가 자료조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 수집 및 정의
+2. 요구사항 분석
+3. 구현 가능 여부 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 앱 화면별 Sequence 작성
+2. 앱 화면별 어떻게 구성할 것인지 구상
+3. 추가 자료조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 예약을 하는 과정에서 사용자가 선택한 지점과 선택된 지점의 정보가 일치해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 가입시 아이디, 비밀번호, 이름, 전화번호, 생년월일, 차종의 정보를 받아야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알맞은 ID값과 패스워드 값이 입력 될 경우 그에 맞는 회원 정보가 로그인 되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 화면 시퀀스 작성 (설명, 커뮤니티, 알림, 설정화면 추가)
+2. 추가 자료 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판의 글을 삭제하거나 올리기 위한 '글쓰기'버튼과 '글 삭제' 버튼이 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택 된 부품은 값의 변조 없이 알맞은 값이 저장되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입시 필요한 정보 및 소유한 차량의 정보를 포함해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유, 연비, 운행거리, 정비 및 기타비용 총액/월별 지출액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품의 종류를 다르게 하여 여러가지를 선택 할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. vi 명령어 설명서 작성
+2. 요구사항 정의 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사라지거나 위치가 바뀐 정보를 수시로 업데이트 해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 날짜를 기록할 수 있도록 다이어리 형식으로 제공해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정 기능을 통해 작성했던 글을 수정 할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외부에서 받아오는 정보(지도, 가격 등)에 변조가 없어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록된 사용자만이 자신이 등록한 차량의 정보를 확인해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차 정보 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경기/인천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어플 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수리견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자차 게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 방문 장소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 구매</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모아보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타 항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결함/리콜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모두의 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공유게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신 글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>함수의 계산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기록 및 통계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Home</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균연비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공식 서비스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연비 랭킹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 시세</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에어컨 필터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약 교체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 시기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이클 이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tips</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객상담</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메모 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비기능적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연차, 보험료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>견적 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필요 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오너들의 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오늘 교체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALL*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일정 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엔진오일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 후기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 주변 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험사 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균 연비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>디테일링</x:t>
+  </x:si>
+  <x:si>
+    <x:t>setting</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카카오톡 문의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에어컨필터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이어리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첫예약할인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수익적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타이어샵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 검사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용 가이드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>더 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입을 위해 시도한 비밀번호가 7자리 이하이거나 13자리 이상일 경우
+비밀번호 입력 오류 메세지가 출력되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06_30 회의록 작성
+2. 요구사항 수정 및 관련 필요 자료 조사
+3. 15:00 ~ 지도교수 면담</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 화면을 들어가게 되면 아이디와 비밀번호의 입력 창, 회원가입 버튼과
+로그인 버튼이 나와야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+2. 최종 아이디어 선정
+3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성(login, join, 내 차고, 차량 정보) 미완
+2. 블루투스 관련 자료 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 수집 및 정의
+ - 관련 필요 자료 조사
+ - 기능적/ 비기능적 요구사항 내용 추가
+2. 개발에 필요한 요구사항 분석 (실현성 확인)</x:t>
   </x:si>
   <x:si>
     <x:t>1. (2-2) 수익적 요소 추가
 2. (4-1) 기능정의 추가
 3. 추가 자료 조사
  - 비슷한 어플(마이클) 화면 구성 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입을 위해 시도한 비밀번호가 7자리 이하이거나 13자리 이상일 경우
-비밀번호 입력 오류 메세지가 출력되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 화면 플로우 마무리
-2. Setting창 화면 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. DateBook_Comment 부분 수정
-2. GIT보고서 수정
- - 설치 과정 추가
- - 명령어 부분 내용 추가
-3. PPT 머릿글 요약 작성 - (미완)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
- - 컴퓨터 견적 추천 앱
- - 주차시 사고발생 알림 앱
-2. 주제 아이디어 최종 선정
- - 차량 관리 어플
-3. 개발 계획서 및 요구사항 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 경쟁 어플 메뉴트리 수정
-2. 요구사항, 기능정의 순서 수정
-3. 한계점 수정
-블루투스 -&gt; 사진 촬영 ====&gt; 대체하게 되면 글자 인식하는 코드 필요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. Git 목록 삭제
-2. 요구사항 분석
-3. 인터페이스 구상도 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06.22, 06.23 회의록 작성
-2. Git 환경 설정
-3. Git 설정 화면 캡처 및 보고서 작성
-4. 캡스톤 아이디어 도출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 정의 및 분석 - 체계화
- - 기능 / 비기능적 요구사항 분류 및 수정
-2. 요구사항 분석
-3. 구현 가능 여부 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어플 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 화면 플로우 마무리
-2. 정비예약화면 아이콘 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택 된 부품은 값의 변조 없이 알맞은 값이 저장되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입시 필요한 정보 및 소유한 차량의 정보를 포함해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유, 연비, 운행거리, 정비 및 기타비용 총액/월별 지출액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품의 종류를 다르게 하여 여러가지를 선택 할 수 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사라지거나 위치가 바뀐 정보를 수시로 업데이트 해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 날짜를 기록할 수 있도록 다이어리 형식으로 제공해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록된 사용자만이 자신이 등록한 차량의 정보를 확인해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정 기능을 통해 작성했던 글을 수정 할 수 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외부에서 받아오는 정보(지도, 가격 등)에 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 수집 및 정의
- - 관련 필요 자료 조사
- - 기능적/ 비기능적 요구사항 내용 추가
-2. 개발에 필요한 요구사항 분석 (실현성 확인)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 앱 화면별 Sequence 작성
-2. 앱 화면별 어떻게 구성할 것인지 구상
-3. 추가 자료조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:34
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스 (메뉴)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:22
-18:01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 정보 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:40
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 정보 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 형태로 존재</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진행 방향 ---&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자주 하는 질문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>community</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 판매견적 받기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 기본 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약/견적 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:43
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 정비소 예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 보험료 계산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09:00
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유사 모델 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:33
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품 교체 예상 견적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운전자 보험료 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:43
-18:01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰 보유 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친구 초대 이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 보험 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:32
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운전자 추천 서비스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 장착점 예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 보험 선호도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:23
-15:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:25
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Community</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:32
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고장사례(리콜사례)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:30
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 연동 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 보험료 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:27
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:36
-18:07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비소 지도 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>할인 쿠폰 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:27
-18:05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:36
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:30
-18:04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
-2. 최종 아이디어 선정
-3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 화면을 들어가게 되면 아이디와 비밀번호의 입력 창, 회원가입 버튼과
-로그인 버튼이 나와야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06_30 회의록 작성
-2. 요구사항 수정 및 관련 필요 자료 조사
-3. 15:00 ~ 지도교수 면담</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성(login, join, 내 차고, 차량 정보) 미완
-2. 블루투스 관련 자료 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. vi 명령어 설명서 작성 완료
-2. 요구사항 정의 및 분류
- - 기능적 요구사항
- - 비기능적 요구사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인에 성공했다면 로그인 버튼이 아닌 로그 아웃 버튼을 보여주어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성(설명,컨테이너등 정보 채우기)
-2. 기능플로우 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 추가 자료조사
-2. 요구사항 추가 조사
-3. 경쟁 어플 기능 비교 보완</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중복되는 아이디로 가입시도시 아이디 입력 오류 메세지가 출력되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 인터페이스 구상도 작성
-2. 요구사항 분류하여 수정
-3. 추가 자료조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 수집 및 정의
-2. 요구사항 분석
-3. 구현 가능 여부 확인</x:t>
   </x:si>
   <x:si>
     <x:t>1. 07.02 회의록 작성
@@ -431,504 +681,263 @@
 5. vi사용법 설명</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 추가 자료조사(관련 코드)
-2. FlowChart 수정 및 보완</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주행 거리 정보를 받아 계산하여 남은 수명에 대해 알려 주어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성 (미완)
-2. 스피너 및 캘린더 뷰 다이어리 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소유한 차량이 여러 대일 경우 차량의 정보를 추가할 수 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호는 특수문자 포함 8자리 이상 12자리 이하 이어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어플의 예약기능을 통해 예약한 경우 업체로부터 일정 수수료를 받는다.</x:t>
+    <x:t>주행 거리별 check list</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검내역서(정비소 제공 문서)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교체할 부품을 선택 받아야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 정보(오너들의 평균 정보)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 필요 자료 추가 조사
+2. 한계점 및 필요기술 추가
+ - 차량 블루투스와 어플 연결 어떻게?
+ - 연결이 된다면 원하는 정보만 어떻게 가져 올건지?</x:t>
   </x:si>
   <x:si>
     <x:t>1. 각 버튼 및 창 기능 설명, 기능 플로우 추가</x:t>
   </x:si>
   <x:si>
-    <x:t>차 정보 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수리견적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경기/인천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 방문 장소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 구매</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타 항목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모두의 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모아보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결함/리콜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자차 게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공식 서비스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연비 랭킹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 시세</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Home</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신 글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>함수의 계산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에어컨 필터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공유게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약 교체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기록 및 통계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균연비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이클 이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 시기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필요 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tips</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객상담</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비기능적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메모 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연차, 보험료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오너들의 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Menu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>견적 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용 가이드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALL*</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 주변 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첫예약할인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오늘 교체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일정 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카카오톡 문의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균 연비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 항목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>더 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엔진오일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>디테일링</x:t>
-  </x:si>
-  <x:si>
-    <x:t>setting</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에어컨필터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이어리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 후기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험사 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수익적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 검사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타이어샵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점검</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무결성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭설철</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>달력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리뷰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>손세차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가을</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상황별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>만족도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Q&amp;A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보안성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>겨울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>편집</x:t>
-  </x:si>
-  <x:si>
-    <x:t>봄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타이어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장마철</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인기글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채팅창</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계절별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이클</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유소 포인트 적립 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차종, 차번호, 연식 등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이달의 정비/세차 혜택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기아 커넥티드카 연동하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험료 확인 및 갱신일 알림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방문 정비소 기록, 메모</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점검 스케쥴 및 일정 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 무료 판매 견적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>항목 및 정비 주기 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품 별 남은 수명 보여줌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 정비소 찾아보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이어리에 메모한 사항 달력에 날짜 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중복되는 아이디는 가입이 되어선 안된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 형태로 존재, 결함/리콜 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정확한 위치의 지도 정보를 받아와야 한다.</x:t>
+    <x:t>1. Menu_Tree 수정(완료)
+2. 추가 자료 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채팅방 및 게시판에 들어가기 위해서는 로그인을 해야한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06.28 회의록 작성
+2. 요구사항 정의 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험, 범칙금, 주차요금, 톨게이트 비용, 차량용품 등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 실패시 로그인 오류 메세지를 출력해야 한다.</x:t>
   </x:si>
   <x:si>
     <x:t>게시판의 글들은 페이지당 20개씩 보여주어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>할인률, 총액의 계산 과정에 오류가 있어선 안된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품들의 시세변동을 지속적으로 업데이트 해야 한다.</x:t>
   </x:si>
   <x:si>
     <x:t>1. 요구사항 정의 및 분석 보완
 2. 기능정의 보완</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 06.28 회의록 작성
-2. 요구사항 정의 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 실패시 로그인 오류 메세지를 출력해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. Menu_Tree 수정(완료)
-2. 추가 자료 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>할인률, 총액의 계산 과정에 오류가 있어선 안된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채팅방 및 게시판에 들어가기 위해서는 로그인을 해야한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험, 범칙금, 주차요금, 톨게이트 비용, 차량용품 등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품들의 시세변동을 지속적으로 업데이트 해야 한다.</x:t>
+    <x:t>만족도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>봄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리뷰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>겨울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인기글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채팅창</x:t>
+  </x:si>
+  <x:si>
+    <x:t>손세차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타이어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보안성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Q&amp;A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장마철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상황별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>편집</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계절별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가을</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이클</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭설철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>달력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무결성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품 별 남은 수명 보여줌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검 스케쥴 및 일정 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방문 정비소 기록, 메모</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기아 커넥티드카 연동하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차종, 차번호, 연식 등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험료 확인 및 갱신일 알림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 정비소 찾아보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유소 포인트 적립 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이달의 정비/세차 혜택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>항목 및 정비 주기 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 무료 판매 견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성
+ - 화면별 세부기능 설계</x:t>
   </x:si>
   <x:si>
     <x:t>1. 화면 시퀀스 작성
 2. 추가 자료 조사</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 메뉴시퀀스 작성
- - 화면별 세부기능 설계</x:t>
-  </x:si>
-  <x:si>
     <x:t>DB에 저장된 내용들은 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유량, 연비, 운행 거리 및 기타 비용 통계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>APP종료시 입력된 데이터는 변조가 없어야 한다.</x:t>
   </x:si>
   <x:si>
     <x:t>1. 계약서 작성
 2. 현장실습 오리엔테이션</x:t>
   </x:si>
   <x:si>
+    <x:t>아이콘을 활용하여 한 눈에 확인하기 쉬워야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판을 이용하기 위해서는 로그인을 해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유량, 연비, 운행 거리 및 기타 비용 통계</x:t>
+  </x:si>
+  <x:si>
     <x:t>어플 내 광고를 통해 일정 수입료를 받는다.</x:t>
   </x:si>
   <x:si>
-    <x:t>아이콘을 활용하여 한 눈에 확인하기 쉬워야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판을 이용하기 위해서는 로그인을 해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출</x:t>
+    <x:t>APP종료시 입력된 데이터는 변조가 없어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:35
+18:03</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1493,7 +1502,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="100">
+  <x:cellXfs count="101">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -2004,6 +2013,19 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
@@ -2988,7 +3010,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:pane xSplit="0" ySplit="2" topLeftCell="C18" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" activeCell="E31" activeCellId="0" sqref="E31:E31"/>
+      <x:selection pane="bottomLeft" activeCell="E24" activeCellId="0" sqref="E24:E24"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.199999999999999"/>
@@ -3004,16 +3026,16 @@
     <x:row r="1" ht="6.5999999999999996" customHeight="1"/>
     <x:row r="2" spans="2:5" ht="31.199999999999999" customHeight="1">
       <x:c r="B2" s="5" t="s">
-        <x:v>113</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C2" s="6" t="s">
-        <x:v>169</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D2" s="6" t="s">
-        <x:v>109</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E2" s="7" t="s">
-        <x:v>140</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:5" ht="105.75">
@@ -3021,13 +3043,13 @@
         <x:v>44369</x:v>
       </x:c>
       <x:c r="C3" s="15" t="s">
-        <x:v>58</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D3" s="9" t="s">
         <x:v>259</x:v>
       </x:c>
       <x:c r="E3" s="9" t="s">
-        <x:v>9</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:5" ht="118.55">
@@ -3035,13 +3057,13 @@
         <x:v>44370</x:v>
       </x:c>
       <x:c r="C4" s="14" t="s">
-        <x:v>58</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D4" s="12" t="s">
-        <x:v>26</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E4" s="12" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:5" ht="79.049999999999997">
@@ -3049,13 +3071,13 @@
         <x:v>44371</x:v>
       </x:c>
       <x:c r="C5" s="16" t="s">
-        <x:v>77</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D5" s="12" t="s">
-        <x:v>87</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E5" s="12" t="s">
-        <x:v>22</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:5" ht="79.049999999999997">
@@ -3063,13 +3085,13 @@
         <x:v>44372</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
-        <x:v>77</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D6" s="12" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="17" t="s">
-        <x:v>21</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:5" ht="79.049999999999997">
@@ -3077,13 +3099,13 @@
         <x:v>44375</x:v>
       </x:c>
       <x:c r="C7" s="14" t="s">
-        <x:v>84</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D7" s="12" t="s">
-        <x:v>247</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E7" s="12" t="s">
-        <x:v>99</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:5" ht="52.700000000000003">
@@ -3091,13 +3113,13 @@
         <x:v>44376</x:v>
       </x:c>
       <x:c r="C8" s="14" t="s">
-        <x:v>81</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D8" s="12" t="s">
-        <x:v>5</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E8" s="12" t="s">
-        <x:v>91</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:5" ht="52.700000000000003">
@@ -3105,13 +3127,13 @@
         <x:v>44377</x:v>
       </x:c>
       <x:c r="C9" s="19" t="s">
-        <x:v>72</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D9" s="12" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E9" s="12" t="s">
-        <x:v>89</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:5" ht="52.700000000000003">
@@ -3119,13 +3141,13 @@
         <x:v>44378</x:v>
       </x:c>
       <x:c r="C10" s="20" t="s">
-        <x:v>75</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D10" s="12" t="s">
-        <x:v>97</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E10" s="12" t="s">
-        <x:v>40</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:5" ht="65.849999999999994">
@@ -3133,13 +3155,13 @@
         <x:v>44379</x:v>
       </x:c>
       <x:c r="C11" s="22" t="s">
-        <x:v>80</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D11" s="12" t="s">
-        <x:v>24</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E11" s="12" t="s">
-        <x:v>98</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:5" ht="105.40000000000001">
@@ -3147,13 +3169,13 @@
         <x:v>44382</x:v>
       </x:c>
       <x:c r="C12" s="21" t="s">
-        <x:v>73</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D12" s="12" t="s">
-        <x:v>96</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E12" s="12" t="s">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:5" ht="52.700000000000003">
@@ -3161,13 +3183,13 @@
         <x:v>44383</x:v>
       </x:c>
       <x:c r="C13" s="23" t="s">
-        <x:v>75</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D13" s="12" t="s">
-        <x:v>100</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E13" s="12" t="s">
-        <x:v>8</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:5" ht="52.700000000000003">
@@ -3175,13 +3197,13 @@
         <x:v>44384</x:v>
       </x:c>
       <x:c r="C14" s="24" t="s">
-        <x:v>44</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D14" s="12" t="s">
-        <x:v>41</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E14" s="12" t="s">
-        <x:v>18</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:5" ht="52.700000000000003">
@@ -3189,13 +3211,13 @@
         <x:v>44385</x:v>
       </x:c>
       <x:c r="C15" s="30" t="s">
-        <x:v>55</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D15" s="12" t="s">
-        <x:v>94</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E15" s="12" t="s">
-        <x:v>23</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:5" ht="26.350000000000001">
@@ -3203,13 +3225,13 @@
         <x:v>44386</x:v>
       </x:c>
       <x:c r="C16" s="31" t="s">
-        <x:v>46</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D16" s="12" t="s">
-        <x:v>246</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="E16" s="12" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:5" ht="39.549999999999997">
@@ -3217,13 +3239,13 @@
         <x:v>44389</x:v>
       </x:c>
       <x:c r="C17" s="70" t="s">
-        <x:v>68</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D17" s="12" t="s">
-        <x:v>17</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="12" t="s">
-        <x:v>249</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:5" ht="26.350000000000001">
@@ -3231,13 +3253,13 @@
         <x:v>44390</x:v>
       </x:c>
       <x:c r="C18" s="71" t="s">
-        <x:v>63</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D18" s="12" t="s">
-        <x:v>254</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="E18" s="12" t="s">
-        <x:v>90</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:5" ht="26.350000000000001">
@@ -3245,13 +3267,13 @@
         <x:v>44391</x:v>
       </x:c>
       <x:c r="C19" s="71" t="s">
-        <x:v>75</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D19" s="12" t="s">
-        <x:v>254</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="E19" s="12" t="s">
-        <x:v>102</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:5" ht="26.350000000000001">
@@ -3259,13 +3281,13 @@
         <x:v>44392</x:v>
       </x:c>
       <x:c r="C20" s="14" t="s">
-        <x:v>85</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D20" s="12" t="s">
-        <x:v>4</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E20" s="11" t="s">
-        <x:v>65</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="2:5" ht="26.350000000000001">
@@ -3273,13 +3295,13 @@
         <x:v>44393</x:v>
       </x:c>
       <x:c r="C21" s="72" t="s">
-        <x:v>60</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D21" s="12" t="s">
-        <x:v>93</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E21" s="12" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="2:5" ht="26.350000000000001">
@@ -3287,45 +3309,51 @@
         <x:v>44396</x:v>
       </x:c>
       <x:c r="C22" s="73" t="s">
-        <x:v>86</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D22" s="11" t="s">
-        <x:v>106</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="E22" s="12" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="2:5" ht="26.350000000000001">
       <x:c r="B23" s="13">
         <x:v>44397</x:v>
       </x:c>
-      <x:c r="C23" s="99" t="s">
-        <x:v>42</x:v>
+      <x:c r="C23" s="74" t="s">
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D23" s="12" t="s">
-        <x:v>20</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E23" s="12" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="2:5">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="2:5" ht="39.549999999999997">
       <x:c r="B24" s="13">
         <x:v>44398</x:v>
       </x:c>
-      <x:c r="C24" s="10"/>
+      <x:c r="C24" s="100" t="s">
+        <x:v>265</x:v>
+      </x:c>
       <x:c r="D24" s="11" t="s">
-        <x:v>263</x:v>
-      </x:c>
-      <x:c r="E24" s="11"/>
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="E24" s="12" t="s">
+        <x:v>66</x:v>
+      </x:c>
     </x:row>
     <x:row r="25" spans="2:5">
       <x:c r="B25" s="13">
         <x:v>44399</x:v>
       </x:c>
       <x:c r="C25" s="10"/>
-      <x:c r="D25" s="11"/>
+      <x:c r="D25" s="11" t="s">
+        <x:v>255</x:v>
+      </x:c>
       <x:c r="E25" s="11"/>
     </x:row>
     <x:row r="26" spans="2:5">
@@ -3492,78 +3520,78 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="17.149999999999999">
       <x:c r="A1" s="26" t="s">
-        <x:v>49</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B1" s="33" t="s">
-        <x:v>153</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C1" s="34" t="s">
-        <x:v>150</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D1" s="34" t="s">
-        <x:v>179</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E1" s="34" t="s">
-        <x:v>135</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F1" s="34" t="s">
-        <x:v>124</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G1" s="34" t="s">
-        <x:v>110</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H1" s="34" t="s">
-        <x:v>217</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="I1" s="35" t="s">
-        <x:v>207</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:9">
-      <x:c r="A2" s="82" t="s">
-        <x:v>229</x:v>
-      </x:c>
-      <x:c r="B2" s="76" t="s">
-        <x:v>220</x:v>
-      </x:c>
-      <x:c r="C2" s="79" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D2" s="79" t="s">
-        <x:v>107</x:v>
+      <x:c r="A2" s="83" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="B2" s="77" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="C2" s="80" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D2" s="80" t="s">
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E2" s="38" t="s">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F2" s="38"/>
       <x:c r="G2" s="38"/>
       <x:c r="H2" s="38"/>
       <x:c r="I2" s="38" t="s">
-        <x:v>52</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
-      <x:c r="A3" s="83"/>
-      <x:c r="B3" s="77"/>
-      <x:c r="C3" s="80"/>
-      <x:c r="D3" s="80"/>
+      <x:c r="A3" s="84"/>
+      <x:c r="B3" s="78"/>
+      <x:c r="C3" s="81"/>
+      <x:c r="D3" s="81"/>
       <x:c r="E3" s="37" t="s">
-        <x:v>67</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F3" s="37"/>
       <x:c r="G3" s="37"/>
       <x:c r="H3" s="37"/>
       <x:c r="I3" s="37" t="s">
-        <x:v>234</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
-      <x:c r="A4" s="83"/>
-      <x:c r="B4" s="77"/>
-      <x:c r="C4" s="80"/>
-      <x:c r="D4" s="80"/>
+      <x:c r="A4" s="84"/>
+      <x:c r="B4" s="78"/>
+      <x:c r="C4" s="81"/>
+      <x:c r="D4" s="81"/>
       <x:c r="E4" s="37" t="s">
-        <x:v>149</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F4" s="37"/>
       <x:c r="G4" s="37"/>
@@ -3571,42 +3599,42 @@
       <x:c r="I4" s="37"/>
     </x:row>
     <x:row r="5" spans="1:9">
-      <x:c r="A5" s="83"/>
-      <x:c r="B5" s="77"/>
-      <x:c r="C5" s="80"/>
-      <x:c r="D5" s="80"/>
-      <x:c r="E5" s="74" t="s">
-        <x:v>122</x:v>
+      <x:c r="A5" s="84"/>
+      <x:c r="B5" s="78"/>
+      <x:c r="C5" s="81"/>
+      <x:c r="D5" s="81"/>
+      <x:c r="E5" s="75" t="s">
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F5" s="37" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="G5" s="37"/>
       <x:c r="H5" s="37"/>
       <x:c r="I5" s="37"/>
     </x:row>
     <x:row r="6" spans="1:9">
-      <x:c r="A6" s="83"/>
-      <x:c r="B6" s="77"/>
-      <x:c r="C6" s="80"/>
-      <x:c r="D6" s="75"/>
-      <x:c r="E6" s="75"/>
+      <x:c r="A6" s="84"/>
+      <x:c r="B6" s="78"/>
+      <x:c r="C6" s="81"/>
+      <x:c r="D6" s="76"/>
+      <x:c r="E6" s="76"/>
       <x:c r="F6" s="37" t="s">
-        <x:v>45</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G6" s="37"/>
       <x:c r="H6" s="37"/>
       <x:c r="I6" s="37"/>
     </x:row>
     <x:row r="7" spans="1:9">
-      <x:c r="A7" s="83"/>
-      <x:c r="B7" s="77"/>
-      <x:c r="C7" s="80"/>
-      <x:c r="D7" s="74" t="s">
-        <x:v>131</x:v>
+      <x:c r="A7" s="84"/>
+      <x:c r="B7" s="78"/>
+      <x:c r="C7" s="81"/>
+      <x:c r="D7" s="75" t="s">
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E7" s="37" t="s">
-        <x:v>200</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="F7" s="37"/>
       <x:c r="G7" s="37"/>
@@ -3614,91 +3642,91 @@
       <x:c r="I7" s="37"/>
     </x:row>
     <x:row r="8" spans="1:9">
-      <x:c r="A8" s="83"/>
-      <x:c r="B8" s="77"/>
-      <x:c r="C8" s="80"/>
-      <x:c r="D8" s="80"/>
+      <x:c r="A8" s="84"/>
+      <x:c r="B8" s="78"/>
+      <x:c r="C8" s="81"/>
+      <x:c r="D8" s="81"/>
       <x:c r="E8" s="37" t="s">
-        <x:v>192</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="F8" s="37"/>
       <x:c r="G8" s="37"/>
       <x:c r="H8" s="37"/>
       <x:c r="I8" s="37" t="s">
-        <x:v>33</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
-      <x:c r="A9" s="83"/>
-      <x:c r="B9" s="77"/>
-      <x:c r="C9" s="80"/>
-      <x:c r="D9" s="80"/>
+      <x:c r="A9" s="84"/>
+      <x:c r="B9" s="78"/>
+      <x:c r="C9" s="81"/>
+      <x:c r="D9" s="81"/>
       <x:c r="E9" s="37" t="s">
-        <x:v>186</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="F9" s="37"/>
       <x:c r="G9" s="37"/>
       <x:c r="H9" s="37"/>
       <x:c r="I9" s="37" t="s">
-        <x:v>236</x:v>
+        <x:v>245</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
-      <x:c r="A10" s="83"/>
-      <x:c r="B10" s="77"/>
-      <x:c r="C10" s="80"/>
-      <x:c r="D10" s="80"/>
-      <x:c r="E10" s="74" t="s">
-        <x:v>112</x:v>
+      <x:c r="A10" s="84"/>
+      <x:c r="B10" s="78"/>
+      <x:c r="C10" s="81"/>
+      <x:c r="D10" s="81"/>
+      <x:c r="E10" s="75" t="s">
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F10" s="37" t="s">
-        <x:v>168</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G10" s="37"/>
       <x:c r="H10" s="37"/>
       <x:c r="I10" s="37"/>
     </x:row>
     <x:row r="11" spans="1:9">
-      <x:c r="A11" s="83"/>
-      <x:c r="B11" s="77"/>
-      <x:c r="C11" s="80"/>
-      <x:c r="D11" s="80"/>
-      <x:c r="E11" s="80"/>
+      <x:c r="A11" s="84"/>
+      <x:c r="B11" s="78"/>
+      <x:c r="C11" s="81"/>
+      <x:c r="D11" s="81"/>
+      <x:c r="E11" s="81"/>
       <x:c r="F11" s="37" t="s">
-        <x:v>119</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="G11" s="37"/>
       <x:c r="H11" s="37"/>
       <x:c r="I11" s="37" t="s">
-        <x:v>252</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
-      <x:c r="A12" s="83"/>
-      <x:c r="B12" s="77"/>
-      <x:c r="C12" s="80"/>
-      <x:c r="D12" s="80"/>
-      <x:c r="E12" s="80"/>
+      <x:c r="A12" s="84"/>
+      <x:c r="B12" s="78"/>
+      <x:c r="C12" s="81"/>
+      <x:c r="D12" s="81"/>
+      <x:c r="E12" s="81"/>
       <x:c r="F12" s="37" t="s">
-        <x:v>209</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="G12" s="37"/>
       <x:c r="H12" s="37"/>
       <x:c r="I12" s="37"/>
     </x:row>
     <x:row r="13" spans="1:28">
-      <x:c r="A13" s="83"/>
-      <x:c r="B13" s="77"/>
-      <x:c r="C13" s="75"/>
-      <x:c r="D13" s="75"/>
-      <x:c r="E13" s="75"/>
+      <x:c r="A13" s="84"/>
+      <x:c r="B13" s="78"/>
+      <x:c r="C13" s="76"/>
+      <x:c r="D13" s="76"/>
+      <x:c r="E13" s="76"/>
       <x:c r="F13" s="37" t="s">
-        <x:v>225</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="G13" s="37"/>
       <x:c r="H13" s="37"/>
       <x:c r="I13" s="37" t="s">
-        <x:v>238</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="J13" s="29"/>
       <x:c r="K13" s="29"/>
@@ -3721,22 +3749,22 @@
       <x:c r="AB13" s="29"/>
     </x:row>
     <x:row r="14" spans="1:28">
-      <x:c r="A14" s="83"/>
-      <x:c r="B14" s="77"/>
-      <x:c r="C14" s="74" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="D14" s="74" t="s">
-        <x:v>115</x:v>
+      <x:c r="A14" s="84"/>
+      <x:c r="B14" s="78"/>
+      <x:c r="C14" s="75" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="D14" s="75" t="s">
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E14" s="37" t="s">
-        <x:v>206</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="F14" s="37"/>
       <x:c r="G14" s="37"/>
       <x:c r="H14" s="37"/>
       <x:c r="I14" s="37" t="s">
-        <x:v>203</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="J14" s="29"/>
       <x:c r="K14" s="29"/>
@@ -3759,18 +3787,18 @@
       <x:c r="AB14" s="29"/>
     </x:row>
     <x:row r="15" spans="1:28">
-      <x:c r="A15" s="83"/>
-      <x:c r="B15" s="77"/>
-      <x:c r="C15" s="80"/>
-      <x:c r="D15" s="80"/>
+      <x:c r="A15" s="84"/>
+      <x:c r="B15" s="78"/>
+      <x:c r="C15" s="81"/>
+      <x:c r="D15" s="81"/>
       <x:c r="E15" s="37" t="s">
-        <x:v>167</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F15" s="37"/>
       <x:c r="G15" s="37"/>
       <x:c r="H15" s="37"/>
       <x:c r="I15" s="37" t="s">
-        <x:v>128</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="J15" s="29"/>
       <x:c r="K15" s="29"/>
@@ -3793,12 +3821,12 @@
       <x:c r="AB15" s="29"/>
     </x:row>
     <x:row r="16" spans="1:28">
-      <x:c r="A16" s="83"/>
-      <x:c r="B16" s="77"/>
-      <x:c r="C16" s="80"/>
-      <x:c r="D16" s="80"/>
+      <x:c r="A16" s="84"/>
+      <x:c r="B16" s="78"/>
+      <x:c r="C16" s="81"/>
+      <x:c r="D16" s="81"/>
       <x:c r="E16" s="37" t="s">
-        <x:v>178</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F16" s="37"/>
       <x:c r="G16" s="37"/>
@@ -3824,18 +3852,18 @@
       <x:c r="AB16" s="29"/>
     </x:row>
     <x:row r="17" spans="1:28">
-      <x:c r="A17" s="83"/>
-      <x:c r="B17" s="77"/>
-      <x:c r="C17" s="80"/>
-      <x:c r="D17" s="75"/>
+      <x:c r="A17" s="84"/>
+      <x:c r="B17" s="78"/>
+      <x:c r="C17" s="81"/>
+      <x:c r="D17" s="76"/>
       <x:c r="E17" s="37" t="s">
-        <x:v>123</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F17" s="37"/>
       <x:c r="G17" s="37"/>
       <x:c r="H17" s="37"/>
       <x:c r="I17" s="37" t="s">
-        <x:v>243</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="J17" s="29"/>
       <x:c r="K17" s="29"/>
@@ -3858,17 +3886,17 @@
       <x:c r="AB17" s="29"/>
     </x:row>
     <x:row r="18" spans="1:28">
-      <x:c r="A18" s="83"/>
-      <x:c r="B18" s="77"/>
-      <x:c r="C18" s="80"/>
+      <x:c r="A18" s="84"/>
+      <x:c r="B18" s="78"/>
+      <x:c r="C18" s="81"/>
       <x:c r="D18" s="37" t="s">
-        <x:v>71</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E18" s="37" t="s">
-        <x:v>57</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F18" s="37" t="s">
-        <x:v>180</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="G18" s="37"/>
       <x:c r="H18" s="37"/>
@@ -3894,18 +3922,18 @@
       <x:c r="AB18" s="29"/>
     </x:row>
     <x:row r="19" spans="1:28">
-      <x:c r="A19" s="83"/>
-      <x:c r="B19" s="77"/>
-      <x:c r="C19" s="80"/>
+      <x:c r="A19" s="84"/>
+      <x:c r="B19" s="78"/>
+      <x:c r="C19" s="81"/>
       <x:c r="D19" s="37" t="s">
-        <x:v>194</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E19" s="37"/>
       <x:c r="F19" s="37"/>
       <x:c r="G19" s="37"/>
       <x:c r="H19" s="37"/>
-      <x:c r="I19" s="74" t="s">
-        <x:v>48</x:v>
+      <x:c r="I19" s="75" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J19" s="29"/>
       <x:c r="K19" s="29"/>
@@ -3928,17 +3956,17 @@
       <x:c r="AB19" s="29"/>
     </x:row>
     <x:row r="20" spans="1:28">
-      <x:c r="A20" s="83"/>
-      <x:c r="B20" s="77"/>
-      <x:c r="C20" s="80"/>
+      <x:c r="A20" s="84"/>
+      <x:c r="B20" s="78"/>
+      <x:c r="C20" s="81"/>
       <x:c r="D20" s="37" t="s">
-        <x:v>123</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E20" s="37"/>
       <x:c r="F20" s="37"/>
       <x:c r="G20" s="37"/>
       <x:c r="H20" s="37"/>
-      <x:c r="I20" s="80"/>
+      <x:c r="I20" s="81"/>
       <x:c r="J20" s="29"/>
       <x:c r="K20" s="29"/>
       <x:c r="L20" s="29"/>
@@ -3960,17 +3988,17 @@
       <x:c r="AB20" s="29"/>
     </x:row>
     <x:row r="21" spans="1:28">
-      <x:c r="A21" s="83"/>
-      <x:c r="B21" s="77"/>
-      <x:c r="C21" s="80"/>
+      <x:c r="A21" s="84"/>
+      <x:c r="B21" s="78"/>
+      <x:c r="C21" s="81"/>
       <x:c r="D21" s="37" t="s">
-        <x:v>178</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E21" s="37"/>
       <x:c r="F21" s="37"/>
       <x:c r="G21" s="37"/>
       <x:c r="H21" s="37"/>
-      <x:c r="I21" s="75"/>
+      <x:c r="I21" s="76"/>
       <x:c r="J21" s="29"/>
       <x:c r="K21" s="29"/>
       <x:c r="L21" s="29"/>
@@ -3992,11 +4020,11 @@
       <x:c r="AB21" s="29"/>
     </x:row>
     <x:row r="22" spans="1:28">
-      <x:c r="A22" s="83"/>
-      <x:c r="B22" s="78"/>
-      <x:c r="C22" s="75"/>
+      <x:c r="A22" s="84"/>
+      <x:c r="B22" s="79"/>
+      <x:c r="C22" s="76"/>
       <x:c r="D22" s="37" t="s">
-        <x:v>59</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E22" s="37"/>
       <x:c r="F22" s="37"/>
@@ -4024,12 +4052,12 @@
       <x:c r="AB22" s="29"/>
     </x:row>
     <x:row r="23" spans="1:28">
-      <x:c r="A23" s="83"/>
-      <x:c r="B23" s="81" t="s">
-        <x:v>139</x:v>
+      <x:c r="A23" s="84"/>
+      <x:c r="B23" s="82" t="s">
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C23" s="37" t="s">
-        <x:v>54</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D23" s="37"/>
       <x:c r="E23" s="37"/>
@@ -4058,10 +4086,10 @@
       <x:c r="AB23" s="29"/>
     </x:row>
     <x:row r="24" spans="1:28">
-      <x:c r="A24" s="83"/>
-      <x:c r="B24" s="77"/>
+      <x:c r="A24" s="84"/>
+      <x:c r="B24" s="78"/>
       <x:c r="C24" s="37" t="s">
-        <x:v>185</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="D24" s="37"/>
       <x:c r="E24" s="37"/>
@@ -4090,10 +4118,10 @@
       <x:c r="AB24" s="29"/>
     </x:row>
     <x:row r="25" spans="1:28">
-      <x:c r="A25" s="83"/>
-      <x:c r="B25" s="77"/>
+      <x:c r="A25" s="84"/>
+      <x:c r="B25" s="78"/>
       <x:c r="C25" s="37" t="s">
-        <x:v>212</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D25" s="37"/>
       <x:c r="E25" s="37"/>
@@ -4122,16 +4150,16 @@
       <x:c r="AB25" s="29"/>
     </x:row>
     <x:row r="26" spans="1:87">
-      <x:c r="A26" s="83"/>
-      <x:c r="B26" s="77"/>
-      <x:c r="C26" s="74" t="s">
-        <x:v>139</x:v>
+      <x:c r="A26" s="84"/>
+      <x:c r="B26" s="78"/>
+      <x:c r="C26" s="75" t="s">
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D26" s="37" t="s">
-        <x:v>172</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E26" s="37" t="s">
-        <x:v>56</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F26" s="37"/>
       <x:c r="G26" s="37"/>
@@ -4217,17 +4245,17 @@
       <x:c r="CI26" s="29"/>
     </x:row>
     <x:row r="27" spans="1:87" s="1" customFormat="1">
-      <x:c r="A27" s="82"/>
-      <x:c r="B27" s="81"/>
-      <x:c r="C27" s="80"/>
-      <x:c r="D27" s="74" t="s">
-        <x:v>214</x:v>
+      <x:c r="A27" s="83"/>
+      <x:c r="B27" s="82"/>
+      <x:c r="C27" s="81"/>
+      <x:c r="D27" s="75" t="s">
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E27" s="37" t="s">
-        <x:v>163</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F27" s="37" t="s">
-        <x:v>70</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G27" s="37"/>
       <x:c r="H27" s="37"/>
@@ -4312,15 +4340,15 @@
       <x:c r="CI27" s="29"/>
     </x:row>
     <x:row r="28" spans="1:87">
-      <x:c r="A28" s="83"/>
-      <x:c r="B28" s="77"/>
-      <x:c r="C28" s="80"/>
-      <x:c r="D28" s="75"/>
+      <x:c r="A28" s="84"/>
+      <x:c r="B28" s="78"/>
+      <x:c r="C28" s="81"/>
+      <x:c r="D28" s="76"/>
       <x:c r="E28" s="37" t="s">
-        <x:v>138</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F28" s="37" t="s">
-        <x:v>70</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G28" s="37"/>
       <x:c r="H28" s="37"/>
@@ -4405,14 +4433,14 @@
       <x:c r="CI28" s="29"/>
     </x:row>
     <x:row r="29" spans="1:87">
-      <x:c r="A29" s="83"/>
-      <x:c r="B29" s="77"/>
-      <x:c r="C29" s="80"/>
+      <x:c r="A29" s="84"/>
+      <x:c r="B29" s="78"/>
+      <x:c r="C29" s="81"/>
       <x:c r="D29" s="37" t="s">
-        <x:v>108</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E29" s="39" t="s">
-        <x:v>154</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="F29" s="39"/>
       <x:c r="G29" s="37"/>
@@ -4498,14 +4526,14 @@
       <x:c r="CI29" s="29"/>
     </x:row>
     <x:row r="30" spans="1:87">
-      <x:c r="A30" s="83"/>
-      <x:c r="B30" s="77"/>
-      <x:c r="C30" s="80"/>
+      <x:c r="A30" s="84"/>
+      <x:c r="B30" s="78"/>
+      <x:c r="C30" s="81"/>
       <x:c r="D30" s="37" t="s">
-        <x:v>173</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E30" s="37" t="s">
-        <x:v>184</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="F30" s="37"/>
       <x:c r="G30" s="37"/>
@@ -4591,12 +4619,12 @@
       <x:c r="CI30" s="29"/>
     </x:row>
     <x:row r="31" spans="1:87" s="1" customFormat="1">
-      <x:c r="A31" s="82"/>
-      <x:c r="B31" s="81"/>
-      <x:c r="C31" s="80"/>
+      <x:c r="A31" s="83"/>
+      <x:c r="B31" s="82"/>
+      <x:c r="C31" s="81"/>
       <x:c r="D31" s="37"/>
       <x:c r="E31" s="37" t="s">
-        <x:v>114</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F31" s="37"/>
       <x:c r="G31" s="37"/>
@@ -4682,14 +4710,14 @@
       <x:c r="CI31" s="29"/>
     </x:row>
     <x:row r="32" spans="1:87">
-      <x:c r="A32" s="83"/>
-      <x:c r="B32" s="77"/>
-      <x:c r="C32" s="80"/>
+      <x:c r="A32" s="84"/>
+      <x:c r="B32" s="78"/>
+      <x:c r="C32" s="81"/>
       <x:c r="D32" s="37" t="s">
-        <x:v>176</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="E32" s="37" t="s">
-        <x:v>117</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F32" s="37"/>
       <x:c r="G32" s="37"/>
@@ -4775,11 +4803,11 @@
       <x:c r="CI32" s="29"/>
     </x:row>
     <x:row r="33" spans="1:87">
-      <x:c r="A33" s="83"/>
-      <x:c r="B33" s="77"/>
-      <x:c r="C33" s="75"/>
+      <x:c r="A33" s="84"/>
+      <x:c r="B33" s="78"/>
+      <x:c r="C33" s="76"/>
       <x:c r="D33" s="37" t="s">
-        <x:v>162</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E33" s="37"/>
       <x:c r="F33" s="37"/>
@@ -4866,13 +4894,13 @@
       <x:c r="CI33" s="29"/>
     </x:row>
     <x:row r="34" spans="1:87" s="1" customFormat="1">
-      <x:c r="A34" s="82"/>
-      <x:c r="B34" s="81"/>
-      <x:c r="C34" s="74" t="s">
-        <x:v>161</x:v>
+      <x:c r="A34" s="83"/>
+      <x:c r="B34" s="82"/>
+      <x:c r="C34" s="75" t="s">
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D34" s="37" t="s">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E34" s="37"/>
       <x:c r="F34" s="37"/>
@@ -4959,11 +4987,11 @@
       <x:c r="CI34" s="29"/>
     </x:row>
     <x:row r="35" spans="1:87" s="1" customFormat="1">
-      <x:c r="A35" s="83"/>
-      <x:c r="B35" s="77"/>
-      <x:c r="C35" s="80"/>
+      <x:c r="A35" s="84"/>
+      <x:c r="B35" s="78"/>
+      <x:c r="C35" s="81"/>
       <x:c r="D35" s="37" t="s">
-        <x:v>196</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E35" s="37"/>
       <x:c r="F35" s="37"/>
@@ -5050,11 +5078,11 @@
       <x:c r="CI35" s="29"/>
     </x:row>
     <x:row r="36" spans="1:87" s="1" customFormat="1">
-      <x:c r="A36" s="83"/>
-      <x:c r="B36" s="77"/>
-      <x:c r="C36" s="80"/>
+      <x:c r="A36" s="84"/>
+      <x:c r="B36" s="78"/>
+      <x:c r="C36" s="81"/>
       <x:c r="D36" s="37" t="s">
-        <x:v>201</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E36" s="37"/>
       <x:c r="F36" s="37"/>
@@ -5141,11 +5169,11 @@
       <x:c r="CI36" s="29"/>
     </x:row>
     <x:row r="37" spans="1:87" s="1" customFormat="1">
-      <x:c r="A37" s="83"/>
-      <x:c r="B37" s="77"/>
-      <x:c r="C37" s="80"/>
+      <x:c r="A37" s="84"/>
+      <x:c r="B37" s="78"/>
+      <x:c r="C37" s="81"/>
       <x:c r="D37" s="37" t="s">
-        <x:v>198</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E37" s="37"/>
       <x:c r="F37" s="37"/>
@@ -5232,11 +5260,11 @@
       <x:c r="CI37" s="29"/>
     </x:row>
     <x:row r="38" spans="1:87" s="1" customFormat="1">
-      <x:c r="A38" s="83"/>
-      <x:c r="B38" s="77"/>
-      <x:c r="C38" s="80"/>
+      <x:c r="A38" s="84"/>
+      <x:c r="B38" s="78"/>
+      <x:c r="C38" s="81"/>
       <x:c r="D38" s="37" t="s">
-        <x:v>183</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E38" s="37"/>
       <x:c r="F38" s="37"/>
@@ -5323,11 +5351,11 @@
       <x:c r="CI38" s="29"/>
     </x:row>
     <x:row r="39" spans="1:87" s="1" customFormat="1">
-      <x:c r="A39" s="82"/>
-      <x:c r="B39" s="81"/>
-      <x:c r="C39" s="75"/>
+      <x:c r="A39" s="83"/>
+      <x:c r="B39" s="82"/>
+      <x:c r="C39" s="76"/>
       <x:c r="D39" s="37" t="s">
-        <x:v>182</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="E39" s="37"/>
       <x:c r="F39" s="37"/>
@@ -5414,12 +5442,12 @@
       <x:c r="CI39" s="29"/>
     </x:row>
     <x:row r="40" spans="1:87">
-      <x:c r="A40" s="83"/>
-      <x:c r="B40" s="81" t="s">
-        <x:v>188</x:v>
+      <x:c r="A40" s="84"/>
+      <x:c r="B40" s="82" t="s">
+        <x:v>235</x:v>
       </x:c>
       <x:c r="C40" s="37" t="s">
-        <x:v>218</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="D40" s="37"/>
       <x:c r="E40" s="37"/>
@@ -5507,10 +5535,10 @@
       <x:c r="CI40" s="29"/>
     </x:row>
     <x:row r="41" spans="1:87">
-      <x:c r="A41" s="83"/>
-      <x:c r="B41" s="77"/>
+      <x:c r="A41" s="84"/>
+      <x:c r="B41" s="78"/>
       <x:c r="C41" s="37" t="s">
-        <x:v>132</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D41" s="37"/>
       <x:c r="E41" s="37"/>
@@ -5598,10 +5626,10 @@
       <x:c r="CI41" s="29"/>
     </x:row>
     <x:row r="42" spans="1:87">
-      <x:c r="A42" s="83"/>
-      <x:c r="B42" s="77"/>
+      <x:c r="A42" s="84"/>
+      <x:c r="B42" s="78"/>
       <x:c r="C42" s="37" t="s">
-        <x:v>125</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D42" s="37"/>
       <x:c r="E42" s="37"/>
@@ -5689,10 +5717,10 @@
       <x:c r="CI42" s="29"/>
     </x:row>
     <x:row r="43" spans="1:87">
-      <x:c r="A43" s="83"/>
-      <x:c r="B43" s="77"/>
+      <x:c r="A43" s="84"/>
+      <x:c r="B43" s="78"/>
       <x:c r="C43" s="37" t="s">
-        <x:v>146</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D43" s="37"/>
       <x:c r="E43" s="37"/>
@@ -5780,10 +5808,10 @@
       <x:c r="CI43" s="29"/>
     </x:row>
     <x:row r="44" spans="1:87">
-      <x:c r="A44" s="83"/>
-      <x:c r="B44" s="77"/>
+      <x:c r="A44" s="84"/>
+      <x:c r="B44" s="78"/>
       <x:c r="C44" s="37" t="s">
-        <x:v>212</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D44" s="37"/>
       <x:c r="E44" s="37"/>
@@ -5871,10 +5899,10 @@
       <x:c r="CI44" s="29"/>
     </x:row>
     <x:row r="45" spans="1:87">
-      <x:c r="A45" s="83"/>
-      <x:c r="B45" s="78"/>
+      <x:c r="A45" s="84"/>
+      <x:c r="B45" s="79"/>
       <x:c r="C45" s="37" t="s">
-        <x:v>155</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D45" s="37"/>
       <x:c r="E45" s="37"/>
@@ -5962,12 +5990,12 @@
       <x:c r="CI45" s="29"/>
     </x:row>
     <x:row r="46" spans="1:87">
-      <x:c r="A46" s="83"/>
-      <x:c r="B46" s="81" t="s">
-        <x:v>219</x:v>
+      <x:c r="A46" s="84"/>
+      <x:c r="B46" s="82" t="s">
+        <x:v>204</x:v>
       </x:c>
       <x:c r="C46" s="37" t="s">
-        <x:v>213</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D46" s="37"/>
       <x:c r="E46" s="37"/>
@@ -6055,10 +6083,10 @@
       <x:c r="CI46" s="29"/>
     </x:row>
     <x:row r="47" spans="1:87">
-      <x:c r="A47" s="83"/>
-      <x:c r="B47" s="77"/>
+      <x:c r="A47" s="84"/>
+      <x:c r="B47" s="78"/>
       <x:c r="C47" s="37" t="s">
-        <x:v>228</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="D47" s="37"/>
       <x:c r="E47" s="37"/>
@@ -6146,10 +6174,10 @@
       <x:c r="CI47" s="29"/>
     </x:row>
     <x:row r="48" spans="1:87">
-      <x:c r="A48" s="83"/>
-      <x:c r="B48" s="77"/>
+      <x:c r="A48" s="84"/>
+      <x:c r="B48" s="78"/>
       <x:c r="C48" s="37" t="s">
-        <x:v>144</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D48" s="37"/>
       <x:c r="E48" s="37"/>
@@ -6237,10 +6265,10 @@
       <x:c r="CI48" s="29"/>
     </x:row>
     <x:row r="49" spans="1:87">
-      <x:c r="A49" s="83"/>
-      <x:c r="B49" s="78"/>
+      <x:c r="A49" s="84"/>
+      <x:c r="B49" s="79"/>
       <x:c r="C49" s="37" t="s">
-        <x:v>166</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D49" s="37"/>
       <x:c r="E49" s="37"/>
@@ -6328,15 +6356,15 @@
       <x:c r="CI49" s="29"/>
     </x:row>
     <x:row r="50" spans="1:87">
-      <x:c r="A50" s="83"/>
-      <x:c r="B50" s="81" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="C50" s="74" t="s">
-        <x:v>54</x:v>
+      <x:c r="A50" s="84"/>
+      <x:c r="B50" s="82" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C50" s="75" t="s">
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D50" s="37" t="s">
-        <x:v>133</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E50" s="37"/>
       <x:c r="F50" s="37"/>
@@ -6423,11 +6451,11 @@
       <x:c r="CI50" s="29"/>
     </x:row>
     <x:row r="51" spans="1:87">
-      <x:c r="A51" s="83"/>
-      <x:c r="B51" s="77"/>
-      <x:c r="C51" s="75"/>
+      <x:c r="A51" s="84"/>
+      <x:c r="B51" s="78"/>
+      <x:c r="C51" s="76"/>
       <x:c r="D51" s="37" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="E51" s="37"/>
       <x:c r="F51" s="37"/>
@@ -6514,13 +6542,13 @@
       <x:c r="CI51" s="29"/>
     </x:row>
     <x:row r="52" spans="1:87">
-      <x:c r="A52" s="83"/>
-      <x:c r="B52" s="77"/>
-      <x:c r="C52" s="74" t="s">
-        <x:v>222</x:v>
+      <x:c r="A52" s="84"/>
+      <x:c r="B52" s="78"/>
+      <x:c r="C52" s="75" t="s">
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D52" s="37" t="s">
-        <x:v>83</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E52" s="37"/>
       <x:c r="F52" s="37"/>
@@ -6607,11 +6635,11 @@
       <x:c r="CI52" s="29"/>
     </x:row>
     <x:row r="53" spans="1:87">
-      <x:c r="A53" s="83"/>
-      <x:c r="B53" s="77"/>
-      <x:c r="C53" s="75"/>
+      <x:c r="A53" s="84"/>
+      <x:c r="B53" s="78"/>
+      <x:c r="C53" s="76"/>
       <x:c r="D53" s="37" t="s">
-        <x:v>64</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E53" s="37"/>
       <x:c r="F53" s="37"/>
@@ -6698,13 +6726,13 @@
       <x:c r="CI53" s="29"/>
     </x:row>
     <x:row r="54" spans="1:87">
-      <x:c r="A54" s="83"/>
-      <x:c r="B54" s="77"/>
-      <x:c r="C54" s="74" t="s">
-        <x:v>69</x:v>
+      <x:c r="A54" s="84"/>
+      <x:c r="B54" s="78"/>
+      <x:c r="C54" s="75" t="s">
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D54" s="37" t="s">
-        <x:v>79</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E54" s="37"/>
       <x:c r="F54" s="37"/>
@@ -6791,11 +6819,11 @@
       <x:c r="CI54" s="29"/>
     </x:row>
     <x:row r="55" spans="1:87">
-      <x:c r="A55" s="83"/>
-      <x:c r="B55" s="77"/>
-      <x:c r="C55" s="80"/>
+      <x:c r="A55" s="84"/>
+      <x:c r="B55" s="78"/>
+      <x:c r="C55" s="81"/>
       <x:c r="D55" s="37" t="s">
-        <x:v>62</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E55" s="37"/>
       <x:c r="F55" s="37"/>
@@ -6882,11 +6910,11 @@
       <x:c r="CI55" s="29"/>
     </x:row>
     <x:row r="56" spans="1:87">
-      <x:c r="A56" s="83"/>
-      <x:c r="B56" s="77"/>
-      <x:c r="C56" s="75"/>
+      <x:c r="A56" s="84"/>
+      <x:c r="B56" s="78"/>
+      <x:c r="C56" s="76"/>
       <x:c r="D56" s="37" t="s">
-        <x:v>237</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E56" s="37"/>
       <x:c r="F56" s="37"/>
@@ -6973,13 +7001,13 @@
       <x:c r="CI56" s="29"/>
     </x:row>
     <x:row r="57" spans="1:87">
-      <x:c r="A57" s="83"/>
-      <x:c r="B57" s="77"/>
-      <x:c r="C57" s="74" t="s">
-        <x:v>143</x:v>
+      <x:c r="A57" s="84"/>
+      <x:c r="B57" s="78"/>
+      <x:c r="C57" s="75" t="s">
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D57" s="37" t="s">
-        <x:v>232</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="E57" s="37"/>
       <x:c r="F57" s="37"/>
@@ -7066,11 +7094,11 @@
       <x:c r="CI57" s="29"/>
     </x:row>
     <x:row r="58" spans="1:87">
-      <x:c r="A58" s="83"/>
-      <x:c r="B58" s="77"/>
-      <x:c r="C58" s="75"/>
+      <x:c r="A58" s="84"/>
+      <x:c r="B58" s="78"/>
+      <x:c r="C58" s="76"/>
       <x:c r="D58" s="37" t="s">
-        <x:v>66</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E58" s="37"/>
       <x:c r="F58" s="37"/>
@@ -7157,13 +7185,13 @@
       <x:c r="CI58" s="29"/>
     </x:row>
     <x:row r="59" spans="1:87">
-      <x:c r="A59" s="83"/>
-      <x:c r="B59" s="77"/>
-      <x:c r="C59" s="74" t="s">
-        <x:v>78</x:v>
+      <x:c r="A59" s="84"/>
+      <x:c r="B59" s="78"/>
+      <x:c r="C59" s="75" t="s">
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D59" s="37" t="s">
-        <x:v>233</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="E59" s="37"/>
       <x:c r="F59" s="37"/>
@@ -7250,11 +7278,11 @@
       <x:c r="CI59" s="29"/>
     </x:row>
     <x:row r="60" spans="1:87">
-      <x:c r="A60" s="83"/>
-      <x:c r="B60" s="77"/>
-      <x:c r="C60" s="75"/>
+      <x:c r="A60" s="84"/>
+      <x:c r="B60" s="78"/>
+      <x:c r="C60" s="76"/>
       <x:c r="D60" s="37" t="s">
-        <x:v>230</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="E60" s="37"/>
       <x:c r="F60" s="37"/>
@@ -7341,13 +7369,13 @@
       <x:c r="CI60" s="29"/>
     </x:row>
     <x:row r="61" spans="1:87">
-      <x:c r="A61" s="83"/>
-      <x:c r="B61" s="77"/>
-      <x:c r="C61" s="74" t="s">
-        <x:v>159</x:v>
+      <x:c r="A61" s="84"/>
+      <x:c r="B61" s="78"/>
+      <x:c r="C61" s="75" t="s">
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D61" s="37" t="s">
-        <x:v>204</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E61" s="37"/>
       <x:c r="F61" s="37"/>
@@ -7434,11 +7462,11 @@
       <x:c r="CI61" s="29"/>
     </x:row>
     <x:row r="62" spans="1:87">
-      <x:c r="A62" s="84"/>
-      <x:c r="B62" s="78"/>
-      <x:c r="C62" s="75"/>
+      <x:c r="A62" s="85"/>
+      <x:c r="B62" s="79"/>
+      <x:c r="C62" s="76"/>
       <x:c r="D62" s="37" t="s">
-        <x:v>147</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E62" s="37"/>
       <x:c r="F62" s="37"/>
@@ -9480,288 +9508,288 @@
   <x:sheetData>
     <x:row r="1" spans="1:8" ht="17.149999999999999">
       <x:c r="A1" s="32" t="s">
-        <x:v>49</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B1" s="33" t="s">
-        <x:v>153</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C1" s="34" t="s">
-        <x:v>150</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D1" s="34" t="s">
-        <x:v>179</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E1" s="34" t="s">
-        <x:v>135</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F1" s="34" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="G1" s="34" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="H1" s="35" t="s">
+        <x:v>227</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8" ht="16.75" customHeight="1">
+      <x:c r="A2" s="83" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="B2" s="77" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="G1" s="34" t="s">
-        <x:v>217</x:v>
-      </x:c>
-      <x:c r="H1" s="35" t="s">
-        <x:v>197</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:8" ht="16.75" customHeight="1">
-      <x:c r="A2" s="82" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="B2" s="76" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="C2" s="89" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D2" s="87" t="s">
-        <x:v>115</x:v>
+      <x:c r="C2" s="90" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D2" s="88" t="s">
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E2" s="58" t="s">
-        <x:v>53</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F2" s="58"/>
       <x:c r="G2" s="58"/>
       <x:c r="H2" s="58" t="s">
-        <x:v>231</x:v>
+        <x:v>248</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="83"/>
-      <x:c r="B3" s="77"/>
-      <x:c r="C3" s="90"/>
-      <x:c r="D3" s="88"/>
+      <x:c r="A3" s="84"/>
+      <x:c r="B3" s="78"/>
+      <x:c r="C3" s="91"/>
+      <x:c r="D3" s="89"/>
       <x:c r="E3" s="59" t="s">
-        <x:v>157</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="F3" s="59"/>
       <x:c r="G3" s="59"/>
       <x:c r="H3" s="59" t="s">
-        <x:v>151</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="A4" s="83"/>
-      <x:c r="B4" s="77"/>
-      <x:c r="C4" s="90"/>
-      <x:c r="D4" s="86"/>
+      <x:c r="A4" s="84"/>
+      <x:c r="B4" s="78"/>
+      <x:c r="C4" s="91"/>
+      <x:c r="D4" s="87"/>
       <x:c r="E4" s="59" t="s">
-        <x:v>122</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F4" s="59"/>
       <x:c r="G4" s="59"/>
       <x:c r="H4" s="59" t="s">
-        <x:v>235</x:v>
+        <x:v>246</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="83"/>
-      <x:c r="B5" s="77"/>
-      <x:c r="C5" s="90"/>
-      <x:c r="D5" s="85" t="s">
-        <x:v>131</x:v>
+      <x:c r="A5" s="84"/>
+      <x:c r="B5" s="78"/>
+      <x:c r="C5" s="91"/>
+      <x:c r="D5" s="86" t="s">
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E5" s="60" t="s">
-        <x:v>141</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F5" s="59"/>
       <x:c r="G5" s="59"/>
       <x:c r="H5" s="59" t="s">
-        <x:v>257</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="A6" s="83"/>
-      <x:c r="B6" s="77"/>
-      <x:c r="C6" s="91"/>
-      <x:c r="D6" s="86"/>
+      <x:c r="A6" s="84"/>
+      <x:c r="B6" s="78"/>
+      <x:c r="C6" s="92"/>
+      <x:c r="D6" s="87"/>
       <x:c r="E6" s="60" t="s">
-        <x:v>186</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="F6" s="59"/>
       <x:c r="G6" s="59"/>
       <x:c r="H6" s="59" t="s">
-        <x:v>14</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="83"/>
-      <x:c r="B7" s="77"/>
-      <x:c r="C7" s="93" t="s">
-        <x:v>152</x:v>
-      </x:c>
-      <x:c r="D7" s="85" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E7" s="85" t="s">
-        <x:v>115</x:v>
+      <x:c r="A7" s="84"/>
+      <x:c r="B7" s="78"/>
+      <x:c r="C7" s="94" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D7" s="86" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="E7" s="86" t="s">
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F7" s="59" t="s">
-        <x:v>206</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="G7" s="59"/>
       <x:c r="H7" s="59"/>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="83"/>
-      <x:c r="B8" s="77"/>
-      <x:c r="C8" s="90"/>
-      <x:c r="D8" s="88"/>
-      <x:c r="E8" s="88"/>
+      <x:c r="A8" s="84"/>
+      <x:c r="B8" s="78"/>
+      <x:c r="C8" s="91"/>
+      <x:c r="D8" s="89"/>
+      <x:c r="E8" s="89"/>
       <x:c r="F8" s="59" t="s">
-        <x:v>76</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G8" s="59"/>
       <x:c r="H8" s="59"/>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="83"/>
-      <x:c r="B9" s="77"/>
-      <x:c r="C9" s="90"/>
-      <x:c r="D9" s="88"/>
-      <x:c r="E9" s="88"/>
+      <x:c r="A9" s="84"/>
+      <x:c r="B9" s="78"/>
+      <x:c r="C9" s="91"/>
+      <x:c r="D9" s="89"/>
+      <x:c r="E9" s="89"/>
       <x:c r="F9" s="59" t="s">
-        <x:v>142</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="G9" s="59"/>
       <x:c r="H9" s="59"/>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="83"/>
-      <x:c r="B10" s="77"/>
-      <x:c r="C10" s="90"/>
-      <x:c r="D10" s="88"/>
-      <x:c r="E10" s="88"/>
+      <x:c r="A10" s="84"/>
+      <x:c r="B10" s="78"/>
+      <x:c r="C10" s="91"/>
+      <x:c r="D10" s="89"/>
+      <x:c r="E10" s="89"/>
       <x:c r="F10" s="59" t="s">
-        <x:v>194</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="G10" s="59"/>
       <x:c r="H10" s="59"/>
     </x:row>
     <x:row r="11" spans="1:8" ht="16.75">
-      <x:c r="A11" s="83"/>
-      <x:c r="B11" s="94"/>
-      <x:c r="C11" s="95"/>
-      <x:c r="D11" s="92"/>
-      <x:c r="E11" s="92"/>
+      <x:c r="A11" s="84"/>
+      <x:c r="B11" s="95"/>
+      <x:c r="C11" s="96"/>
+      <x:c r="D11" s="93"/>
+      <x:c r="E11" s="93"/>
       <x:c r="F11" s="61" t="s">
-        <x:v>137</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G11" s="61"/>
       <x:c r="H11" s="61"/>
     </x:row>
     <x:row r="12" spans="1:8">
-      <x:c r="A12" s="83"/>
-      <x:c r="B12" s="77" t="s">
-        <x:v>221</x:v>
-      </x:c>
-      <x:c r="C12" s="90" t="s">
-        <x:v>156</x:v>
+      <x:c r="A12" s="84"/>
+      <x:c r="B12" s="78" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="C12" s="91" t="s">
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D12" s="58" t="s">
-        <x:v>214</x:v>
-      </x:c>
-      <x:c r="E12" s="88" t="s">
-        <x:v>240</x:v>
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="E12" s="89" t="s">
+        <x:v>250</x:v>
       </x:c>
       <x:c r="F12" s="58"/>
       <x:c r="G12" s="58"/>
       <x:c r="H12" s="58"/>
     </x:row>
     <x:row r="13" spans="1:8">
-      <x:c r="A13" s="83"/>
-      <x:c r="B13" s="77"/>
-      <x:c r="C13" s="90"/>
+      <x:c r="A13" s="84"/>
+      <x:c r="B13" s="78"/>
+      <x:c r="C13" s="91"/>
       <x:c r="D13" s="60" t="s">
-        <x:v>172</x:v>
-      </x:c>
-      <x:c r="E13" s="88"/>
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="E13" s="89"/>
       <x:c r="F13" s="59"/>
       <x:c r="G13" s="59"/>
       <x:c r="H13" s="59"/>
     </x:row>
     <x:row r="14" spans="1:8">
-      <x:c r="A14" s="83"/>
-      <x:c r="B14" s="77"/>
-      <x:c r="C14" s="90"/>
+      <x:c r="A14" s="84"/>
+      <x:c r="B14" s="78"/>
+      <x:c r="C14" s="91"/>
       <x:c r="D14" s="60" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E14" s="88"/>
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E14" s="89"/>
       <x:c r="F14" s="59"/>
       <x:c r="G14" s="59"/>
       <x:c r="H14" s="59"/>
     </x:row>
     <x:row r="15" spans="1:8">
-      <x:c r="A15" s="83"/>
-      <x:c r="B15" s="77"/>
-      <x:c r="C15" s="91"/>
+      <x:c r="A15" s="84"/>
+      <x:c r="B15" s="78"/>
+      <x:c r="C15" s="92"/>
       <x:c r="D15" s="60" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="E15" s="86"/>
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="E15" s="87"/>
       <x:c r="F15" s="59"/>
       <x:c r="G15" s="59"/>
       <x:c r="H15" s="59"/>
     </x:row>
     <x:row r="16" spans="1:8">
-      <x:c r="A16" s="83"/>
-      <x:c r="B16" s="77"/>
-      <x:c r="C16" s="93" t="s">
+      <x:c r="A16" s="84"/>
+      <x:c r="B16" s="78"/>
+      <x:c r="C16" s="94" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="D16" s="60" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="E16" s="86" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F16" s="59" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="G16" s="59"/>
+      <x:c r="H16" s="86" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:8">
+      <x:c r="A17" s="84"/>
+      <x:c r="B17" s="78"/>
+      <x:c r="C17" s="92"/>
+      <x:c r="D17" s="59" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="E17" s="87"/>
+      <x:c r="F17" s="59" t="s">
         <x:v>164</x:v>
       </x:c>
-      <x:c r="D16" s="60" t="s">
-        <x:v>177</x:v>
-      </x:c>
-      <x:c r="E16" s="85" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="F16" s="59" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="G16" s="59"/>
-      <x:c r="H16" s="85" t="s">
-        <x:v>241</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:8">
-      <x:c r="A17" s="83"/>
-      <x:c r="B17" s="77"/>
-      <x:c r="C17" s="91"/>
-      <x:c r="D17" s="59" t="s">
-        <x:v>193</x:v>
-      </x:c>
-      <x:c r="E17" s="86"/>
-      <x:c r="F17" s="59" t="s">
-        <x:v>165</x:v>
-      </x:c>
       <x:c r="G17" s="59"/>
-      <x:c r="H17" s="86"/>
+      <x:c r="H17" s="87"/>
     </x:row>
     <x:row r="18" spans="1:8" ht="16.75">
-      <x:c r="A18" s="83"/>
-      <x:c r="B18" s="94"/>
+      <x:c r="A18" s="84"/>
+      <x:c r="B18" s="95"/>
       <x:c r="C18" s="62" t="s">
-        <x:v>121</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D18" s="61"/>
       <x:c r="E18" s="61"/>
       <x:c r="F18" s="61"/>
       <x:c r="G18" s="61"/>
       <x:c r="H18" s="61" t="s">
-        <x:v>239</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
-      <x:c r="A19" s="83"/>
-      <x:c r="B19" s="77" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C19" s="90" t="s">
-        <x:v>188</x:v>
+      <x:c r="A19" s="84"/>
+      <x:c r="B19" s="78" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C19" s="91" t="s">
+        <x:v>235</x:v>
       </x:c>
       <x:c r="D19" s="58" t="s">
-        <x:v>218</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="E19" s="58"/>
       <x:c r="F19" s="58"/>
@@ -9769,11 +9797,11 @@
       <x:c r="H19" s="58"/>
     </x:row>
     <x:row r="20" spans="1:8">
-      <x:c r="A20" s="83"/>
-      <x:c r="B20" s="77"/>
-      <x:c r="C20" s="90"/>
+      <x:c r="A20" s="84"/>
+      <x:c r="B20" s="78"/>
+      <x:c r="C20" s="91"/>
       <x:c r="D20" s="59" t="s">
-        <x:v>191</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="E20" s="59"/>
       <x:c r="F20" s="59"/>
@@ -9781,11 +9809,11 @@
       <x:c r="H20" s="59"/>
     </x:row>
     <x:row r="21" spans="1:8">
-      <x:c r="A21" s="83"/>
-      <x:c r="B21" s="77"/>
-      <x:c r="C21" s="90"/>
+      <x:c r="A21" s="84"/>
+      <x:c r="B21" s="78"/>
+      <x:c r="C21" s="91"/>
       <x:c r="D21" s="59" t="s">
-        <x:v>125</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E21" s="59"/>
       <x:c r="F21" s="59"/>
@@ -9793,11 +9821,11 @@
       <x:c r="H21" s="59"/>
     </x:row>
     <x:row r="22" spans="1:8">
-      <x:c r="A22" s="83"/>
-      <x:c r="B22" s="77"/>
-      <x:c r="C22" s="90"/>
+      <x:c r="A22" s="84"/>
+      <x:c r="B22" s="78"/>
+      <x:c r="C22" s="91"/>
       <x:c r="D22" s="59" t="s">
-        <x:v>212</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="E22" s="59"/>
       <x:c r="F22" s="59"/>
@@ -9805,11 +9833,11 @@
       <x:c r="H22" s="59"/>
     </x:row>
     <x:row r="23" spans="1:8">
-      <x:c r="A23" s="83"/>
-      <x:c r="B23" s="77"/>
-      <x:c r="C23" s="91"/>
+      <x:c r="A23" s="84"/>
+      <x:c r="B23" s="78"/>
+      <x:c r="C23" s="92"/>
       <x:c r="D23" s="59" t="s">
-        <x:v>155</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E23" s="59"/>
       <x:c r="F23" s="59"/>
@@ -9817,90 +9845,90 @@
       <x:c r="H23" s="59"/>
     </x:row>
     <x:row r="24" spans="1:8">
-      <x:c r="A24" s="82"/>
-      <x:c r="B24" s="81"/>
-      <x:c r="C24" s="93" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="D24" s="85" t="s">
-        <x:v>202</x:v>
+      <x:c r="A24" s="83"/>
+      <x:c r="B24" s="82"/>
+      <x:c r="C24" s="94" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D24" s="86" t="s">
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E24" s="59" t="s">
-        <x:v>215</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="F24" s="59"/>
       <x:c r="G24" s="59"/>
       <x:c r="H24" s="59"/>
     </x:row>
     <x:row r="25" spans="1:8">
-      <x:c r="A25" s="83"/>
-      <x:c r="B25" s="77"/>
-      <x:c r="C25" s="90"/>
-      <x:c r="D25" s="86"/>
+      <x:c r="A25" s="84"/>
+      <x:c r="B25" s="78"/>
+      <x:c r="C25" s="91"/>
+      <x:c r="D25" s="87"/>
       <x:c r="E25" s="59" t="s">
-        <x:v>190</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="F25" s="59"/>
       <x:c r="G25" s="59"/>
       <x:c r="H25" s="59"/>
     </x:row>
     <x:row r="26" spans="1:8">
-      <x:c r="A26" s="82"/>
-      <x:c r="B26" s="81"/>
-      <x:c r="C26" s="90"/>
-      <x:c r="D26" s="85" t="s">
-        <x:v>224</x:v>
+      <x:c r="A26" s="83"/>
+      <x:c r="B26" s="82"/>
+      <x:c r="C26" s="91"/>
+      <x:c r="D26" s="86" t="s">
+        <x:v>226</x:v>
       </x:c>
       <x:c r="E26" s="59" t="s">
-        <x:v>210</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="F26" s="59"/>
       <x:c r="G26" s="59"/>
       <x:c r="H26" s="59"/>
     </x:row>
     <x:row r="27" spans="1:8">
-      <x:c r="A27" s="83"/>
-      <x:c r="B27" s="77"/>
-      <x:c r="C27" s="90"/>
-      <x:c r="D27" s="88"/>
+      <x:c r="A27" s="84"/>
+      <x:c r="B27" s="78"/>
+      <x:c r="C27" s="91"/>
+      <x:c r="D27" s="89"/>
       <x:c r="E27" s="59" t="s">
-        <x:v>226</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="F27" s="59"/>
       <x:c r="G27" s="59"/>
       <x:c r="H27" s="59"/>
     </x:row>
     <x:row r="28" spans="1:8">
-      <x:c r="A28" s="83"/>
-      <x:c r="B28" s="77"/>
-      <x:c r="C28" s="90"/>
-      <x:c r="D28" s="88"/>
+      <x:c r="A28" s="84"/>
+      <x:c r="B28" s="78"/>
+      <x:c r="C28" s="91"/>
+      <x:c r="D28" s="89"/>
       <x:c r="E28" s="59" t="s">
-        <x:v>199</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="F28" s="59"/>
       <x:c r="G28" s="59"/>
       <x:c r="H28" s="59"/>
     </x:row>
     <x:row r="29" spans="1:8" ht="16.75">
-      <x:c r="A29" s="83"/>
-      <x:c r="B29" s="94"/>
-      <x:c r="C29" s="95"/>
-      <x:c r="D29" s="92"/>
+      <x:c r="A29" s="84"/>
+      <x:c r="B29" s="95"/>
+      <x:c r="C29" s="96"/>
+      <x:c r="D29" s="93"/>
       <x:c r="E29" s="61" t="s">
-        <x:v>208</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="F29" s="61"/>
       <x:c r="G29" s="61"/>
       <x:c r="H29" s="61"/>
     </x:row>
     <x:row r="30" spans="1:8">
-      <x:c r="A30" s="83"/>
-      <x:c r="B30" s="77" t="s">
-        <x:v>219</x:v>
+      <x:c r="A30" s="84"/>
+      <x:c r="B30" s="78" t="s">
+        <x:v>204</x:v>
       </x:c>
       <x:c r="C30" s="63" t="s">
-        <x:v>213</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D30" s="58"/>
       <x:c r="E30" s="58"/>
@@ -9909,10 +9937,10 @@
       <x:c r="H30" s="58"/>
     </x:row>
     <x:row r="31" spans="1:8">
-      <x:c r="A31" s="83"/>
-      <x:c r="B31" s="77"/>
+      <x:c r="A31" s="84"/>
+      <x:c r="B31" s="78"/>
       <x:c r="C31" s="57" t="s">
-        <x:v>228</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="D31" s="59"/>
       <x:c r="E31" s="59"/>
@@ -9921,10 +9949,10 @@
       <x:c r="H31" s="59"/>
     </x:row>
     <x:row r="32" spans="1:8">
-      <x:c r="A32" s="83"/>
-      <x:c r="B32" s="77"/>
+      <x:c r="A32" s="84"/>
+      <x:c r="B32" s="78"/>
       <x:c r="C32" s="57" t="s">
-        <x:v>144</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D32" s="59"/>
       <x:c r="E32" s="59"/>
@@ -9933,10 +9961,10 @@
       <x:c r="H32" s="59"/>
     </x:row>
     <x:row r="33" spans="1:8" ht="16.75">
-      <x:c r="A33" s="83"/>
-      <x:c r="B33" s="94"/>
+      <x:c r="A33" s="84"/>
+      <x:c r="B33" s="95"/>
       <x:c r="C33" s="64" t="s">
-        <x:v>166</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D33" s="61"/>
       <x:c r="E33" s="61"/>
@@ -9945,12 +9973,12 @@
       <x:c r="H33" s="61"/>
     </x:row>
     <x:row r="34" spans="1:8" ht="16.75" customHeight="1">
-      <x:c r="A34" s="83"/>
-      <x:c r="B34" s="76" t="s">
-        <x:v>174</x:v>
+      <x:c r="A34" s="84"/>
+      <x:c r="B34" s="77" t="s">
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C34" s="63" t="s">
-        <x:v>47</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D34" s="58"/>
       <x:c r="E34" s="58"/>
@@ -9959,13 +9987,13 @@
       <x:c r="H34" s="58"/>
     </x:row>
     <x:row r="35" spans="1:8">
-      <x:c r="A35" s="83"/>
-      <x:c r="B35" s="77"/>
-      <x:c r="C35" s="74" t="s">
-        <x:v>159</x:v>
+      <x:c r="A35" s="84"/>
+      <x:c r="B35" s="78"/>
+      <x:c r="C35" s="75" t="s">
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D35" s="59" t="s">
-        <x:v>204</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E35" s="59"/>
       <x:c r="F35" s="59"/>
@@ -9973,11 +10001,11 @@
       <x:c r="H35" s="59"/>
     </x:row>
     <x:row r="36" spans="1:8">
-      <x:c r="A36" s="83"/>
-      <x:c r="B36" s="77"/>
-      <x:c r="C36" s="80"/>
+      <x:c r="A36" s="84"/>
+      <x:c r="B36" s="78"/>
+      <x:c r="C36" s="81"/>
       <x:c r="D36" s="59" t="s">
-        <x:v>147</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E36" s="59"/>
       <x:c r="F36" s="59"/>
@@ -9985,11 +10013,11 @@
       <x:c r="H36" s="59"/>
     </x:row>
     <x:row r="37" spans="1:8">
-      <x:c r="A37" s="83"/>
-      <x:c r="B37" s="77"/>
-      <x:c r="C37" s="80"/>
+      <x:c r="A37" s="84"/>
+      <x:c r="B37" s="78"/>
+      <x:c r="C37" s="81"/>
       <x:c r="D37" s="59" t="s">
-        <x:v>50</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E37" s="59"/>
       <x:c r="F37" s="59"/>
@@ -9997,11 +10025,11 @@
       <x:c r="H37" s="59"/>
     </x:row>
     <x:row r="38" spans="1:8">
-      <x:c r="A38" s="83"/>
-      <x:c r="B38" s="77"/>
-      <x:c r="C38" s="80"/>
+      <x:c r="A38" s="84"/>
+      <x:c r="B38" s="78"/>
+      <x:c r="C38" s="81"/>
       <x:c r="D38" s="58" t="s">
-        <x:v>25</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E38" s="58"/>
       <x:c r="F38" s="58"/>
@@ -10009,11 +10037,11 @@
       <x:c r="H38" s="58"/>
     </x:row>
     <x:row r="39" spans="1:8">
-      <x:c r="A39" s="83"/>
-      <x:c r="B39" s="77"/>
-      <x:c r="C39" s="80"/>
+      <x:c r="A39" s="84"/>
+      <x:c r="B39" s="78"/>
+      <x:c r="C39" s="81"/>
       <x:c r="D39" s="59" t="s">
-        <x:v>29</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E39" s="59"/>
       <x:c r="F39" s="59"/>
@@ -10021,11 +10049,11 @@
       <x:c r="H39" s="59"/>
     </x:row>
     <x:row r="40" spans="1:8" ht="16.75">
-      <x:c r="A40" s="96"/>
-      <x:c r="B40" s="94"/>
-      <x:c r="C40" s="98"/>
+      <x:c r="A40" s="97"/>
+      <x:c r="B40" s="95"/>
+      <x:c r="C40" s="99"/>
       <x:c r="D40" s="47" t="s">
-        <x:v>28</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E40" s="47"/>
       <x:c r="F40" s="47"/>
@@ -10075,7 +10103,7 @@
     <x:row r="45" spans="1:8">
       <x:c r="A45" s="44"/>
       <x:c r="B45" s="44"/>
-      <x:c r="C45" s="97"/>
+      <x:c r="C45" s="98"/>
       <x:c r="D45" s="56"/>
       <x:c r="E45" s="46"/>
       <x:c r="F45" s="46"/>
@@ -10085,7 +10113,7 @@
     <x:row r="46" spans="1:8">
       <x:c r="A46" s="44"/>
       <x:c r="B46" s="44"/>
-      <x:c r="C46" s="97"/>
+      <x:c r="C46" s="98"/>
       <x:c r="D46" s="56"/>
       <x:c r="E46" s="46"/>
       <x:c r="F46" s="46"/>
@@ -10095,7 +10123,7 @@
     <x:row r="47" spans="1:8">
       <x:c r="A47" s="44"/>
       <x:c r="B47" s="44"/>
-      <x:c r="C47" s="97"/>
+      <x:c r="C47" s="98"/>
       <x:c r="D47" s="56"/>
       <x:c r="E47" s="46"/>
       <x:c r="F47" s="46"/>
@@ -10105,7 +10133,7 @@
     <x:row r="48" spans="1:8">
       <x:c r="A48" s="44"/>
       <x:c r="B48" s="44"/>
-      <x:c r="C48" s="97"/>
+      <x:c r="C48" s="98"/>
       <x:c r="D48" s="56"/>
       <x:c r="E48" s="46"/>
       <x:c r="F48" s="46"/>
@@ -10115,7 +10143,7 @@
     <x:row r="49" spans="1:8">
       <x:c r="A49" s="44"/>
       <x:c r="B49" s="44"/>
-      <x:c r="C49" s="97"/>
+      <x:c r="C49" s="98"/>
       <x:c r="D49" s="56"/>
       <x:c r="E49" s="46"/>
       <x:c r="F49" s="46"/>
@@ -10125,7 +10153,7 @@
     <x:row r="50" spans="1:8">
       <x:c r="A50" s="44"/>
       <x:c r="B50" s="44"/>
-      <x:c r="C50" s="97"/>
+      <x:c r="C50" s="98"/>
       <x:c r="D50" s="56"/>
       <x:c r="E50" s="46"/>
       <x:c r="F50" s="46"/>
@@ -10135,7 +10163,7 @@
     <x:row r="51" spans="1:8">
       <x:c r="A51" s="44"/>
       <x:c r="B51" s="44"/>
-      <x:c r="C51" s="97"/>
+      <x:c r="C51" s="98"/>
       <x:c r="D51" s="56"/>
       <x:c r="E51" s="46"/>
       <x:c r="F51" s="46"/>
@@ -10145,7 +10173,7 @@
     <x:row r="52" spans="1:8">
       <x:c r="A52" s="44"/>
       <x:c r="B52" s="44"/>
-      <x:c r="C52" s="97"/>
+      <x:c r="C52" s="98"/>
       <x:c r="D52" s="56"/>
       <x:c r="E52" s="46"/>
       <x:c r="F52" s="46"/>
@@ -10155,7 +10183,7 @@
     <x:row r="53" spans="1:8">
       <x:c r="A53" s="44"/>
       <x:c r="B53" s="44"/>
-      <x:c r="C53" s="97"/>
+      <x:c r="C53" s="98"/>
       <x:c r="D53" s="56"/>
       <x:c r="E53" s="46"/>
       <x:c r="F53" s="46"/>
@@ -10165,7 +10193,7 @@
     <x:row r="54" spans="1:8">
       <x:c r="A54" s="44"/>
       <x:c r="B54" s="44"/>
-      <x:c r="C54" s="97"/>
+      <x:c r="C54" s="98"/>
       <x:c r="D54" s="56"/>
       <x:c r="E54" s="46"/>
       <x:c r="F54" s="46"/>
@@ -10175,7 +10203,7 @@
     <x:row r="55" spans="1:8">
       <x:c r="A55" s="44"/>
       <x:c r="B55" s="44"/>
-      <x:c r="C55" s="97"/>
+      <x:c r="C55" s="98"/>
       <x:c r="D55" s="56"/>
       <x:c r="E55" s="46"/>
       <x:c r="F55" s="46"/>
@@ -10185,7 +10213,7 @@
     <x:row r="56" spans="1:8">
       <x:c r="A56" s="44"/>
       <x:c r="B56" s="44"/>
-      <x:c r="C56" s="97"/>
+      <x:c r="C56" s="98"/>
       <x:c r="D56" s="56"/>
       <x:c r="E56" s="46"/>
       <x:c r="F56" s="46"/>
@@ -10195,7 +10223,7 @@
     <x:row r="57" spans="1:8">
       <x:c r="A57" s="44"/>
       <x:c r="B57" s="44"/>
-      <x:c r="C57" s="97"/>
+      <x:c r="C57" s="98"/>
       <x:c r="D57" s="56"/>
       <x:c r="E57" s="46"/>
       <x:c r="F57" s="46"/>
@@ -10319,388 +10347,388 @@
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="48"/>
       <x:c r="B2" s="36" t="s">
-        <x:v>216</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="C2" s="36" t="s">
-        <x:v>43</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D2" s="36" t="s">
-        <x:v>145</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E2" s="36" t="s">
         <x:v>158</x:v>
       </x:c>
       <x:c r="F2" s="36" t="s">
-        <x:v>197</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6" ht="16.75">
       <x:c r="A3" s="48"/>
-      <x:c r="B3" s="76" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="C3" s="79" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="D3" s="79" t="s">
-        <x:v>118</x:v>
+      <x:c r="B3" s="77" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C3" s="80" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="D3" s="80" t="s">
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E3" s="49" t="s">
-        <x:v>0</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F3" s="65"/>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="48"/>
-      <x:c r="B4" s="77"/>
-      <x:c r="C4" s="80"/>
-      <x:c r="D4" s="80"/>
+      <x:c r="B4" s="78"/>
+      <x:c r="C4" s="81"/>
+      <x:c r="D4" s="81"/>
       <x:c r="E4" s="50" t="s">
-        <x:v>242</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F4" s="66"/>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="48"/>
-      <x:c r="B5" s="77"/>
-      <x:c r="C5" s="80"/>
-      <x:c r="D5" s="80"/>
+      <x:c r="B5" s="78"/>
+      <x:c r="C5" s="81"/>
+      <x:c r="D5" s="81"/>
       <x:c r="E5" s="50" t="s">
-        <x:v>95</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F5" s="66"/>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="48"/>
-      <x:c r="B6" s="77"/>
-      <x:c r="C6" s="80"/>
-      <x:c r="D6" s="80"/>
+      <x:c r="B6" s="78"/>
+      <x:c r="C6" s="81"/>
+      <x:c r="D6" s="81"/>
       <x:c r="E6" s="50" t="s">
-        <x:v>104</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F6" s="66"/>
     </x:row>
     <x:row r="7" spans="1:6" ht="32.75">
       <x:c r="A7" s="48"/>
-      <x:c r="B7" s="77"/>
-      <x:c r="C7" s="80"/>
-      <x:c r="D7" s="75"/>
+      <x:c r="B7" s="78"/>
+      <x:c r="C7" s="81"/>
+      <x:c r="D7" s="76"/>
       <x:c r="E7" s="51" t="s">
-        <x:v>19</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="F7" s="66"/>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="48"/>
-      <x:c r="B8" s="77"/>
-      <x:c r="C8" s="80"/>
-      <x:c r="D8" s="74" t="s">
-        <x:v>195</x:v>
+      <x:c r="B8" s="78"/>
+      <x:c r="C8" s="81"/>
+      <x:c r="D8" s="75" t="s">
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E8" s="52" t="s">
-        <x:v>1</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F8" s="66"/>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="48"/>
-      <x:c r="B9" s="77"/>
-      <x:c r="C9" s="80"/>
-      <x:c r="D9" s="80"/>
+      <x:c r="B9" s="78"/>
+      <x:c r="C9" s="81"/>
+      <x:c r="D9" s="81"/>
       <x:c r="E9" s="50" t="s">
-        <x:v>248</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F9" s="66"/>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="48"/>
-      <x:c r="B10" s="77"/>
-      <x:c r="C10" s="80"/>
-      <x:c r="D10" s="75"/>
+      <x:c r="B10" s="78"/>
+      <x:c r="C10" s="81"/>
+      <x:c r="D10" s="76"/>
       <x:c r="E10" s="53" t="s">
-        <x:v>92</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F10" s="66"/>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="48"/>
-      <x:c r="B11" s="77"/>
-      <x:c r="C11" s="80"/>
-      <x:c r="D11" s="74" t="s">
-        <x:v>189</x:v>
+      <x:c r="B11" s="78"/>
+      <x:c r="C11" s="81"/>
+      <x:c r="D11" s="75" t="s">
+        <x:v>237</x:v>
       </x:c>
       <x:c r="E11" s="52" t="s">
-        <x:v>32</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F11" s="66"/>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="48"/>
-      <x:c r="B12" s="77"/>
-      <x:c r="C12" s="75"/>
-      <x:c r="D12" s="75"/>
+      <x:c r="B12" s="78"/>
+      <x:c r="C12" s="76"/>
+      <x:c r="D12" s="76"/>
       <x:c r="E12" s="53" t="s">
-        <x:v>103</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F12" s="66"/>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="48"/>
-      <x:c r="B13" s="77"/>
-      <x:c r="C13" s="74" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="D13" s="74" t="s">
-        <x:v>188</x:v>
+      <x:c r="B13" s="78"/>
+      <x:c r="C13" s="75" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D13" s="75" t="s">
+        <x:v>235</x:v>
       </x:c>
       <x:c r="E13" s="52" t="s">
-        <x:v>262</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="F13" s="66"/>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="48"/>
-      <x:c r="B14" s="77"/>
-      <x:c r="C14" s="80"/>
-      <x:c r="D14" s="80"/>
+      <x:c r="B14" s="78"/>
+      <x:c r="C14" s="81"/>
+      <x:c r="D14" s="81"/>
       <x:c r="E14" s="50" t="s">
-        <x:v>3</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F14" s="66"/>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="48"/>
-      <x:c r="B15" s="77"/>
-      <x:c r="C15" s="80"/>
-      <x:c r="D15" s="80"/>
+      <x:c r="B15" s="78"/>
+      <x:c r="C15" s="81"/>
+      <x:c r="D15" s="81"/>
       <x:c r="E15" s="50" t="s">
-        <x:v>245</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F15" s="66"/>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="48"/>
-      <x:c r="B16" s="77"/>
-      <x:c r="C16" s="80"/>
-      <x:c r="D16" s="75"/>
+      <x:c r="B16" s="78"/>
+      <x:c r="C16" s="81"/>
+      <x:c r="D16" s="76"/>
       <x:c r="E16" s="53" t="s">
-        <x:v>38</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F16" s="66"/>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="48"/>
-      <x:c r="B17" s="77"/>
-      <x:c r="C17" s="80"/>
-      <x:c r="D17" s="74" t="s">
-        <x:v>223</x:v>
+      <x:c r="B17" s="78"/>
+      <x:c r="C17" s="81"/>
+      <x:c r="D17" s="75" t="s">
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E17" s="52" t="s">
-        <x:v>251</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="F17" s="66"/>
     </x:row>
     <x:row r="18" spans="1:6" ht="32.75">
       <x:c r="A18" s="48"/>
-      <x:c r="B18" s="77"/>
-      <x:c r="C18" s="75"/>
-      <x:c r="D18" s="75"/>
+      <x:c r="B18" s="78"/>
+      <x:c r="C18" s="76"/>
+      <x:c r="D18" s="76"/>
       <x:c r="E18" s="51" t="s">
-        <x:v>88</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="F18" s="66"/>
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="48"/>
-      <x:c r="B19" s="77"/>
-      <x:c r="C19" s="74" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="D19" s="74" t="s">
-        <x:v>13</x:v>
+      <x:c r="B19" s="78"/>
+      <x:c r="C19" s="75" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="D19" s="75" t="s">
+        <x:v>183</x:v>
       </x:c>
       <x:c r="E19" s="52" t="s">
-        <x:v>261</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="F19" s="66"/>
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="48"/>
-      <x:c r="B20" s="77"/>
-      <x:c r="C20" s="80"/>
-      <x:c r="D20" s="75"/>
+      <x:c r="B20" s="78"/>
+      <x:c r="C20" s="81"/>
+      <x:c r="D20" s="76"/>
       <x:c r="E20" s="53" t="s">
-        <x:v>101</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F20" s="66"/>
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="48"/>
-      <x:c r="B21" s="77"/>
-      <x:c r="C21" s="80"/>
-      <x:c r="D21" s="74" t="s">
-        <x:v>82</x:v>
+      <x:c r="B21" s="78"/>
+      <x:c r="C21" s="81"/>
+      <x:c r="D21" s="75" t="s">
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E21" s="52" t="s">
-        <x:v>244</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F21" s="66"/>
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="48"/>
-      <x:c r="B22" s="77"/>
-      <x:c r="C22" s="80"/>
-      <x:c r="D22" s="75"/>
+      <x:c r="B22" s="78"/>
+      <x:c r="C22" s="81"/>
+      <x:c r="D22" s="76"/>
       <x:c r="E22" s="53" t="s">
-        <x:v>35</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F22" s="66"/>
     </x:row>
     <x:row r="23" spans="1:6">
       <x:c r="A23" s="48"/>
-      <x:c r="B23" s="77"/>
-      <x:c r="C23" s="80"/>
+      <x:c r="B23" s="78"/>
+      <x:c r="C23" s="81"/>
       <x:c r="D23" s="37" t="s">
-        <x:v>193</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="E23" s="54" t="s">
-        <x:v>36</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F23" s="66"/>
     </x:row>
     <x:row r="24" spans="1:6">
       <x:c r="A24" s="48"/>
-      <x:c r="B24" s="77"/>
-      <x:c r="C24" s="80"/>
-      <x:c r="D24" s="74" t="s">
-        <x:v>61</x:v>
+      <x:c r="B24" s="78"/>
+      <x:c r="C24" s="81"/>
+      <x:c r="D24" s="75" t="s">
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E24" s="52" t="s">
-        <x:v>12</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="F24" s="66"/>
     </x:row>
     <x:row r="25" spans="1:6">
       <x:c r="A25" s="48"/>
-      <x:c r="B25" s="77"/>
-      <x:c r="C25" s="80"/>
-      <x:c r="D25" s="80"/>
+      <x:c r="B25" s="78"/>
+      <x:c r="C25" s="81"/>
+      <x:c r="D25" s="81"/>
       <x:c r="E25" s="50" t="s">
-        <x:v>34</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F25" s="66"/>
     </x:row>
     <x:row r="26" spans="1:6">
       <x:c r="A26" s="48"/>
-      <x:c r="B26" s="77"/>
-      <x:c r="C26" s="80"/>
-      <x:c r="D26" s="80"/>
+      <x:c r="B26" s="78"/>
+      <x:c r="C26" s="81"/>
+      <x:c r="D26" s="81"/>
       <x:c r="E26" s="50" t="s">
-        <x:v>31</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F26" s="66"/>
     </x:row>
     <x:row r="27" spans="1:6" ht="16.75">
       <x:c r="A27" s="48"/>
-      <x:c r="B27" s="94"/>
-      <x:c r="C27" s="98"/>
-      <x:c r="D27" s="98"/>
+      <x:c r="B27" s="95"/>
+      <x:c r="C27" s="99"/>
+      <x:c r="D27" s="99"/>
       <x:c r="E27" s="55" t="s">
-        <x:v>253</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="F27" s="67"/>
     </x:row>
     <x:row r="28" spans="1:6" ht="16.75">
       <x:c r="A28" s="48"/>
-      <x:c r="B28" s="76" t="s">
-        <x:v>148</x:v>
+      <x:c r="B28" s="77" t="s">
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C28" s="68" t="s">
-        <x:v>134</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D28" s="68" t="s">
-        <x:v>227</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="E28" s="69" t="s">
-        <x:v>250</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F28" s="65"/>
     </x:row>
     <x:row r="29" spans="1:6">
       <x:c r="A29" s="48"/>
-      <x:c r="B29" s="77"/>
-      <x:c r="C29" s="74" t="s">
-        <x:v>160</x:v>
+      <x:c r="B29" s="78"/>
+      <x:c r="C29" s="75" t="s">
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D29" s="37" t="s">
-        <x:v>205</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="E29" s="54" t="s">
-        <x:v>37</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F29" s="66"/>
     </x:row>
     <x:row r="30" spans="1:6">
       <x:c r="A30" s="48"/>
-      <x:c r="B30" s="77"/>
-      <x:c r="C30" s="80"/>
-      <x:c r="D30" s="74" t="s">
-        <x:v>187</x:v>
+      <x:c r="B30" s="78"/>
+      <x:c r="C30" s="81"/>
+      <x:c r="D30" s="75" t="s">
+        <x:v>243</x:v>
       </x:c>
       <x:c r="E30" s="52" t="s">
-        <x:v>258</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="F30" s="66"/>
     </x:row>
     <x:row r="31" spans="1:6">
       <x:c r="A31" s="48"/>
-      <x:c r="B31" s="77"/>
-      <x:c r="C31" s="80"/>
-      <x:c r="D31" s="80"/>
+      <x:c r="B31" s="78"/>
+      <x:c r="C31" s="81"/>
+      <x:c r="D31" s="81"/>
       <x:c r="E31" s="50" t="s">
-        <x:v>39</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F31" s="66"/>
     </x:row>
     <x:row r="32" spans="1:6">
       <x:c r="A32" s="48"/>
-      <x:c r="B32" s="77"/>
-      <x:c r="C32" s="80"/>
-      <x:c r="D32" s="80"/>
+      <x:c r="B32" s="78"/>
+      <x:c r="C32" s="81"/>
+      <x:c r="D32" s="81"/>
       <x:c r="E32" s="50" t="s">
-        <x:v>2</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F32" s="66"/>
     </x:row>
     <x:row r="33" spans="1:6" ht="16.75">
       <x:c r="A33" s="48"/>
-      <x:c r="B33" s="94"/>
-      <x:c r="C33" s="98"/>
-      <x:c r="D33" s="98"/>
+      <x:c r="B33" s="95"/>
+      <x:c r="C33" s="99"/>
+      <x:c r="D33" s="99"/>
       <x:c r="E33" s="55" t="s">
-        <x:v>256</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="F33" s="67"/>
     </x:row>
     <x:row r="34" spans="1:6">
       <x:c r="A34" s="48"/>
-      <x:c r="B34" s="77" t="s">
-        <x:v>181</x:v>
-      </x:c>
-      <x:c r="C34" s="80"/>
-      <x:c r="D34" s="80"/>
+      <x:c r="B34" s="78" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="C34" s="81"/>
+      <x:c r="D34" s="81"/>
       <x:c r="E34" s="50" t="s">
-        <x:v>105</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F34" s="66"/>
     </x:row>
     <x:row r="35" spans="1:6" ht="16.75">
       <x:c r="A35" s="48"/>
-      <x:c r="B35" s="94"/>
-      <x:c r="C35" s="98"/>
-      <x:c r="D35" s="98"/>
+      <x:c r="B35" s="95"/>
+      <x:c r="C35" s="99"/>
+      <x:c r="D35" s="99"/>
       <x:c r="E35" s="55" t="s">
-        <x:v>260</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="F35" s="67"/>
     </x:row>

--- a/2021_Summer/jp.hong/Datebook_jph.xlsx
+++ b/2021_Summer/jp.hong/Datebook_jph.xlsx
@@ -22,7 +22,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="266">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="269">
+  <x:si>
+    <x:t>어플의 예약기능을 통해 예약한 경우 업체로부터 일정 수수료를 받는다.</x:t>
+  </x:si>
   <x:si>
     <x:t>1. 요구사항 분석 (실현성 확인)
 2. 데이터 흐름도 수정
@@ -37,6 +40,43 @@
 2. 요구사항 정의 및 분류
  - 기능적 요구사항
  - 비기능적 요구사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Git 목록 삭제
+2. 요구사항 분석
+3. 인터페이스 구상도 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 추가 자료조사(관련 코드)
+2. FlowChart 수정 및 보완</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호는 특수문자 포함 8자리 이상 12자리 이하 이어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성 (미완)
+2. 스피너 및 캘린더 뷰 다이어리 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 예약을 하는 과정에서 사용자가 선택한 지점과 선택된 지점의 정보가 일치해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+ - 디스크 바이너리 데이터 분석 툴
+ - 헤더와 푸터를 이용한 카빙 툴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 화면 시퀀스 작성 (설명, 커뮤니티, 알림, 설정화면 추가)
+2. 추가 자료 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판의 글을 삭제하거나 올리기 위한 '글쓰기'버튼과 '글 삭제' 버튼이 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알맞은 ID값과 패스워드 값이 입력 될 경우 그에 맞는 회원 정보가 로그인 되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 가입시 아이디, 비밀번호, 이름, 전화번호, 생년월일, 차종의 정보를 받아야 한다.</x:t>
   </x:si>
   <x:si>
     <x:t>1. 실습 환경 설정 및 설명
@@ -50,55 +90,10 @@
  - 차량 관리 어플</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 메뉴시퀀스 작성 (미완)
-2. 스피너 및 캘린더 뷰 다이어리 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. Git 목록 삭제
-2. 요구사항 분석
-3. 인터페이스 구상도 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 추가 자료조사(관련 코드)
-2. FlowChart 수정 및 보완</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호는 특수문자 포함 8자리 이상 12자리 이하 이어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주행 거리 정보를 받아 계산하여 남은 수명에 대해 알려 주어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소유한 차량이 여러 대일 경우 차량의 정보를 추가할 수 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어플의 예약기능을 통해 예약한 경우 업체로부터 일정 수수료를 받는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 계획하고 있는 어플의 메뉴트리 작성 및 ppt 수정
-2. 요구사항 추가 및 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 플로우 차트 작성
-2. 설계 계획서 작성
-3. Menu_Tree 도식화 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성(각 화면 기능 설명 채우기)
-2. 각 화면 플로우 차트 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 경쟁 어플 메뉴트리 수정
-2. 요구사항, 기능정의 순서 수정
-3. 한계점 수정
-블루투스 -&gt; 사진 촬영 ====&gt; 대체하게 되면 글자 인식하는 코드 필요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. DateBook_Comment 부분 수정
-2. GIT보고서 수정
- - 설치 과정 추가
- - 명령어 부분 내용 추가
-3. PPT 머릿글 요약 작성 - (미완)</x:t>
+    <x:t>1. 요구사항 수집 및 정의
+ - 관련 필요 자료 조사
+ - 기능적/ 비기능적 요구사항 내용 추가
+2. 개발에 필요한 요구사항 분석 (실현성 확인)</x:t>
   </x:si>
   <x:si>
     <x:t>1. 아이디어 도출
@@ -107,6 +102,58 @@
 2. 주제 아이디어 최종 선정
  - 차량 관리 어플
 3. 개발 계획서 및 요구사항 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. DateBook_Comment 부분 수정
+2. GIT보고서 수정
+ - 설치 과정 추가
+ - 명령어 부분 내용 추가
+3. PPT 머릿글 요약 작성 - (미완)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 경쟁 어플 메뉴트리 수정
+2. 요구사항, 기능정의 순서 수정
+3. 한계점 수정
+블루투스 -&gt; 사진 촬영 ====&gt; 대체하게 되면 글자 인식하는 코드 필요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. (2-2) 수익적 요소 추가
+2. (4-1) 기능정의 추가
+3. 추가 자료 조사
+ - 비슷한 어플(마이클) 화면 구성 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-1. Datebook Comment 부분 요약
+1-2. GIT 보고서 다시 작성
+1-3. PPT 머릿글 요약 작성
+1-4. 파일명 수정
+1-5 최종 아이디어 선정 이유 작성
+2. 요구사항 수집 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06.22, 06.23 회의록 작성
+2. Git 환경 설정
+3. Git 설정 화면 캡처 및 보고서 작성
+4. 캡스톤 아이디어 도출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 정의 및 분석 - 체계화
+ - 기능 / 비기능적 요구사항 분류 및 수정
+2. 요구사항 분석
+3. 구현 가능 여부 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 계획하고 있는 어플의 메뉴트리 작성 및 ppt 수정
+2. 요구사항 추가 및 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 플로우 차트 작성
+2. 설계 계획서 작성
+3. Menu_Tree 도식화 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성(각 화면 기능 설명 채우기)
+2. 각 화면 플로우 차트 작성</x:t>
   </x:si>
   <x:si>
     <x:t>1. 현장실습 OT
@@ -119,208 +166,498 @@
  - 개발 설계</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 06.22, 06.23 회의록 작성
-2. Git 환경 설정
-3. Git 설정 화면 캡처 및 보고서 작성
-4. 캡스톤 아이디어 도출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 정의 및 분석 - 체계화
- - 기능 / 비기능적 요구사항 분류 및 수정
-2. 요구사항 분석
-3. 구현 가능 여부 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-1. Datebook Comment 부분 요약
-1-2. GIT 보고서 다시 작성
-1-3. PPT 머릿글 요약 작성
-1-4. 파일명 수정
-1-5 최종 아이디어 선정 이유 작성
-2. 요구사항 수집 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 정보 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:40
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 판매견적 받기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 형태로 존재</x:t>
-  </x:si>
-  <x:si>
-    <x:t>community</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 기본 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:34
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 정보 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:22
-18:01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진행 방향 ---&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자주 하는 질문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스 (메뉴)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유사 모델 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운전자 추천 서비스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09:00
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친구 초대 이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운전자 보험료 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:43
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:33
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:43
-18:01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 정비소 예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 보험료 계산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약/견적 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품 교체 예상 견적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰 보유 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 보험 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:32
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 장착점 예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 보험 선호도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:36
-18:07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비소 지도 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Community</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:27
-18:05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:25
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:36
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>할인 쿠폰 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:32
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고장사례(리콜사례)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 연동 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:23
-15:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 보험료 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:30
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:27
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:30
-18:04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 화면 플로우 마무리
-2. Setting창 화면 추가</x:t>
+    <x:t>1. 필요 자료 추가 조사
+2. 한계점 및 필요기술 추가
+ - 차량 블루투스와 어플 연결 어떻게?
+ - 연결이 된다면 원하는 정보만 어떻게 가져 올건지?</x:t>
   </x:si>
   <x:si>
     <x:t>1. 아이디어 도출
- - 파일 헥사코드 분석 툴
- - 헤더와 푸터를 이용한 카빙 툴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중복되는 아이디는 가입이 되어선 안된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이어리에 메모한 사항 달력에 날짜 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 형태로 존재, 결함/리콜 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정확한 위치의 지도 정보를 받아와야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 화면 플로우 작업
-2. 정비예약화면 아이콘 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인에 성공했다면 로그인 버튼이 아닌 로그 아웃 버튼을 보여주어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성(설명,컨테이너등 정보 채우기)
-2. 기능플로우 작성</x:t>
+ - USB 복구 툴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>코엑스 전시회 견학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보안성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리뷰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>만족도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채팅창</x:t>
+  </x:si>
+  <x:si>
+    <x:t>편집</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Q&amp;A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>봄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계절별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>겨울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>손세차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인기글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상황별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타이어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장마철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무결성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭설철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가을</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>달력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이클</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차 정보 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어플 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수리견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경기/인천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 방문 장소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자차 게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 구매</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신 글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Home</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균연비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타 항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공식 서비스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연비 랭킹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결함/리콜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>함수의 계산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기록 및 통계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모두의 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모아보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공유게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연차, 보험료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오너들의 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 시기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에어컨 필터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메모 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약 교체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비기능적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>견적 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필요 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 시세</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이클 이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객상담</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tips</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오늘 교체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALL*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엔진오일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에어컨필터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이어리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첫예약할인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수익적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타이어샵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험사 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용 가이드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균 연비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카카오톡 문의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>더 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 검사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 후기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>디테일링</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 주변 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일정 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>setting</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품 별 남은 수명 보여줌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>항목 및 정비 주기 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험료 확인 및 갱신일 알림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유소 포인트 적립 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검 스케쥴 및 일정 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방문 정비소 기록, 메모</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기아 커넥티드카 연동하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 무료 판매 견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차종, 차번호, 연식 등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 정비소 찾아보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이달의 정비/세차 혜택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 정보(오너들의 평균 정보)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주행 거리별 check list</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교체할 부품을 선택 받아야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검내역서(정비소 제공 문서)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. vi 명령어 설명서 작성
+2. 요구사항 정의 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외부에서 받아오는 정보(지도, 가격 등)에 변조가 없어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록된 사용자만이 자신이 등록한 차량의 정보를 확인해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사라지거나 위치가 바뀐 정보를 수시로 업데이트 해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입시 필요한 정보 및 소유한 차량의 정보를 포함해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 날짜를 기록할 수 있도록 다이어리 형식으로 제공해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품의 종류를 다르게 하여 여러가지를 선택 할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정 기능을 통해 작성했던 글을 수정 할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택 된 부품은 값의 변조 없이 알맞은 값이 저장되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유, 연비, 운행거리, 정비 및 기타비용 총액/월별 지출액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 앱 화면별 Sequence 작성
+2. 앱 화면별 어떻게 구성할 것인지 구상
+3. 추가 자료조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입을 위해 시도한 비밀번호가 7자리 이하이거나 13자리 이상일 경우
+비밀번호 입력 오류 메세지가 출력되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06_30 회의록 작성
+2. 요구사항 수정 및 관련 필요 자료 조사
+3. 15:00 ~ 지도교수 면담</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+2. 최종 아이디어 선정
+3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성(login, join, 내 차고, 차량 정보) 미완
+2. 블루투스 관련 자료 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 화면을 들어가게 되면 아이디와 비밀번호의 입력 창, 회원가입 버튼과
+로그인 버튼이 나와야 한다.</x:t>
   </x:si>
   <x:si>
     <x:t>1. 추가 자료조사
@@ -328,9 +665,6 @@
 3. 경쟁 어플 기능 비교 보완</x:t>
   </x:si>
   <x:si>
-    <x:t>중복되는 아이디로 가입시도시 아이디 입력 오류 메세지가 출력되어야 한다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>1. 인터페이스 구상도 작성
 2. 요구사항 분류하여 수정
 3. 추가 자료조사</x:t>
@@ -341,336 +675,20 @@
 3. 구현 가능 여부 확인</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 앱 화면별 Sequence 작성
-2. 앱 화면별 어떻게 구성할 것인지 구상
-3. 추가 자료조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 예약을 하는 과정에서 사용자가 선택한 지점과 선택된 지점의 정보가 일치해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 가입시 아이디, 비밀번호, 이름, 전화번호, 생년월일, 차종의 정보를 받아야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알맞은 ID값과 패스워드 값이 입력 될 경우 그에 맞는 회원 정보가 로그인 되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 화면 시퀀스 작성 (설명, 커뮤니티, 알림, 설정화면 추가)
-2. 추가 자료 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판의 글을 삭제하거나 올리기 위한 '글쓰기'버튼과 '글 삭제' 버튼이 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택 된 부품은 값의 변조 없이 알맞은 값이 저장되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입시 필요한 정보 및 소유한 차량의 정보를 포함해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유, 연비, 운행거리, 정비 및 기타비용 총액/월별 지출액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품의 종류를 다르게 하여 여러가지를 선택 할 수 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. vi 명령어 설명서 작성
-2. 요구사항 정의 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사라지거나 위치가 바뀐 정보를 수시로 업데이트 해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 날짜를 기록할 수 있도록 다이어리 형식으로 제공해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정 기능을 통해 작성했던 글을 수정 할 수 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외부에서 받아오는 정보(지도, 가격 등)에 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록된 사용자만이 자신이 등록한 차량의 정보를 확인해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차 정보 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경기/인천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어플 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수리견적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자차 게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 방문 장소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 구매</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모아보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타 항목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결함/리콜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모두의 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공유게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신 글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>함수의 계산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기록 및 통계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Home</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균연비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공식 서비스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연비 랭킹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 시세</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에어컨 필터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약 교체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 시기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이클 이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tips</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객상담</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메모 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비기능적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연차, 보험료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>견적 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필요 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Menu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오너들의 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오늘 교체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALL*</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일정 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엔진오일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 후기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 주변 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험사 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균 연비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>디테일링</x:t>
-  </x:si>
-  <x:si>
-    <x:t>setting</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 항목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카카오톡 문의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에어컨필터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이어리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첫예약할인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수익적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타이어샵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 검사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용 가이드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>더 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입을 위해 시도한 비밀번호가 7자리 이하이거나 13자리 이상일 경우
-비밀번호 입력 오류 메세지가 출력되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06_30 회의록 작성
-2. 요구사항 수정 및 관련 필요 자료 조사
-3. 15:00 ~ 지도교수 면담</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 화면을 들어가게 되면 아이디와 비밀번호의 입력 창, 회원가입 버튼과
-로그인 버튼이 나와야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
-2. 최종 아이디어 선정
-3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성(login, join, 내 차고, 차량 정보) 미완
-2. 블루투스 관련 자료 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 수집 및 정의
- - 관련 필요 자료 조사
- - 기능적/ 비기능적 요구사항 내용 추가
-2. 개발에 필요한 요구사항 분석 (실현성 확인)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. (2-2) 수익적 요소 추가
-2. (4-1) 기능정의 추가
-3. 추가 자료 조사
- - 비슷한 어플(마이클) 화면 구성 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 07.02 회의록 작성
-2. Git 업로드 한 것 중 중복된 것들 삭제
-3. 어플 흐름 구상도 작성
-4. 요구사항/기능 정의/기능 설계 3가지 부분으로 나누어 요구사항 수정(미완)</x:t>
+    <x:t>1. 메뉴시퀀스 작성(설명,컨테이너등 정보 채우기)
+2. 기능플로우 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중복되는 아이디로 가입시도시 아이디 입력 오류 메세지가 출력되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인에 성공했다면 로그인 버튼이 아닌 로그 아웃 버튼을 보여주어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소유한 차량이 여러 대일 경우 차량의 정보를 추가할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주행 거리 정보를 받아 계산하여 남은 수명에 대해 알려 주어야 한다.</x:t>
   </x:si>
   <x:si>
     <x:t>1. 진행사항 체크 및 2주차 목표 설정
@@ -681,22 +699,177 @@
 5. vi사용법 설명</x:t>
   </x:si>
   <x:si>
-    <x:t>주행 거리별 check list</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점검내역서(정비소 제공 문서)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교체할 부품을 선택 받아야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 정보(오너들의 평균 정보)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 필요 자료 추가 조사
-2. 한계점 및 필요기술 추가
- - 차량 블루투스와 어플 연결 어떻게?
- - 연결이 된다면 원하는 정보만 어떻게 가져 올건지?</x:t>
+    <x:t>1. 07.02 회의록 작성
+2. Git 업로드 한 것 중 중복된 것들 삭제
+3. 어플 흐름 구상도 작성
+4. 요구사항/기능 정의/기능 설계 3가지 부분으로 나누어 요구사항 수정(미완)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 화면 플로우 마무리
+2. Setting창 화면 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 화면 플로우 작업
+2. 정비예약화면 아이콘 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:35
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 정보 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:40
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자주 하는 질문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유사 모델 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:34
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 판매견적 받기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 형태로 존재</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:22
+18:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친구 초대 이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진행 방향 ---&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:43
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 기본 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 정보 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운전자 보험료 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>community</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운전자 추천 서비스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09:00
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스 (메뉴)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약/견적 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:36
+18:07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비소 지도 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:33
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Community</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험료 계산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:27
+18:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품 교체 예상 견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:43
+18:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:32
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰 보유 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 정비소 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 장착점 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험 선호도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>할인 쿠폰 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:25
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:23
+15:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 보험료 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:36
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 연동 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:30
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:27
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고장사례(리콜사례)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:32
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:30
+18:04</x:t>
   </x:si>
   <x:si>
     <x:t>1. 각 버튼 및 창 기능 설명, 기능 플로우 추가</x:t>
@@ -709,235 +882,73 @@
     <x:t>채팅방 및 게시판에 들어가기 위해서는 로그인을 해야한다.</x:t>
   </x:si>
   <x:si>
+    <x:t>부품들의 시세변동을 지속적으로 업데이트 해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험, 범칙금, 주차요금, 톨게이트 비용, 차량용품 등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판의 글들은 페이지당 20개씩 보여주어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 정의 및 분석 보완
+2. 기능정의 보완</x:t>
+  </x:si>
+  <x:si>
     <x:t>1. 06.28 회의록 작성
 2. 요구사항 정의 및 분석</x:t>
   </x:si>
   <x:si>
-    <x:t>보험, 범칙금, 주차요금, 톨게이트 비용, 차량용품 등</x:t>
-  </x:si>
-  <x:si>
     <x:t>로그인 실패시 로그인 오류 메세지를 출력해야 한다.</x:t>
   </x:si>
   <x:si>
-    <x:t>게시판의 글들은 페이지당 20개씩 보여주어야 한다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>할인률, 총액의 계산 과정에 오류가 있어선 안된다.</x:t>
   </x:si>
   <x:si>
-    <x:t>부품들의 시세변동을 지속적으로 업데이트 해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 정의 및 분석 보완
-2. 기능정의 보완</x:t>
-  </x:si>
-  <x:si>
-    <x:t>만족도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>봄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리뷰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>겨울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인기글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채팅창</x:t>
-  </x:si>
-  <x:si>
-    <x:t>손세차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타이어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보안성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Q&amp;A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장마철</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상황별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>편집</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계절별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가을</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이클</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점검</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭설철</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>달력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무결성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품 별 남은 수명 보여줌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점검 스케쥴 및 일정 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방문 정비소 기록, 메모</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기아 커넥티드카 연동하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차종, 차번호, 연식 등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험료 확인 및 갱신일 알림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 정비소 찾아보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유소 포인트 적립 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이달의 정비/세차 혜택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>항목 및 정비 주기 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 무료 판매 견적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출</x:t>
+    <x:t>1. 계약서 작성
+2. 현장실습 오리엔테이션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APP종료시 입력된 데이터는 변조가 없어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DB에 저장된 내용들은 변조가 없어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 화면 시퀀스 작성
+2. 추가 자료 조사</x:t>
   </x:si>
   <x:si>
     <x:t>1. 메뉴시퀀스 작성
  - 화면별 세부기능 설계</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 화면 시퀀스 작성
-2. 추가 자료 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DB에 저장된 내용들은 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 계약서 작성
-2. 현장실습 오리엔테이션</x:t>
+    <x:t>게시판을 이용하기 위해서는 로그인을 해야 한다.</x:t>
   </x:si>
   <x:si>
     <x:t>아이콘을 활용하여 한 눈에 확인하기 쉬워야 한다.</x:t>
   </x:si>
   <x:si>
-    <x:t>게시판을 이용하기 위해서는 로그인을 해야 한다.</x:t>
+    <x:t>어플 내 광고를 통해 일정 수입료를 받는다.</x:t>
   </x:si>
   <x:si>
     <x:t>주유량, 연비, 운행 거리 및 기타 비용 통계</x:t>
   </x:si>
   <x:si>
-    <x:t>어플 내 광고를 통해 일정 수입료를 받는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>APP종료시 입력된 데이터는 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:35
-18:03</x:t>
+    <x:t>다이어리에 메모한 사항 달력에 날짜 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 형태로 존재, 결함/리콜 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정확한 위치의 지도 정보를 받아와야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중복되는 아이디는 가입이 되어선 안된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:36
+18:04</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -3009,8 +3020,8 @@
   <x:dimension ref="B2:E42"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:pane xSplit="0" ySplit="2" topLeftCell="C18" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" activeCell="E24" activeCellId="0" sqref="E24:E24"/>
+      <x:pane xSplit="0" ySplit="2" topLeftCell="C24" activePane="bottomLeft" state="frozen"/>
+      <x:selection pane="bottomLeft" activeCell="C26" activeCellId="0" sqref="C26:C26"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.199999999999999"/>
@@ -3026,16 +3037,16 @@
     <x:row r="1" ht="6.5999999999999996" customHeight="1"/>
     <x:row r="2" spans="2:5" ht="31.199999999999999" customHeight="1">
       <x:c r="B2" s="5" t="s">
-        <x:v>101</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C2" s="6" t="s">
-        <x:v>160</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D2" s="6" t="s">
-        <x:v>95</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E2" s="7" t="s">
-        <x:v>122</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:5" ht="105.75">
@@ -3043,13 +3054,13 @@
         <x:v>44369</x:v>
       </x:c>
       <x:c r="C3" s="15" t="s">
-        <x:v>34</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D3" s="9" t="s">
-        <x:v>259</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="E3" s="9" t="s">
-        <x:v>16</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:5" ht="118.55">
@@ -3057,13 +3068,13 @@
         <x:v>44370</x:v>
       </x:c>
       <x:c r="C4" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D4" s="12" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E4" s="12" t="s">
-        <x:v>2</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:5" ht="79.049999999999997">
@@ -3071,10 +3082,10 @@
         <x:v>44371</x:v>
       </x:c>
       <x:c r="C5" s="16" t="s">
-        <x:v>62</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="D5" s="12" t="s">
-        <x:v>177</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="E5" s="12" t="s">
         <x:v>15</x:v>
@@ -3085,13 +3096,13 @@
         <x:v>44372</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
-        <x:v>62</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="D6" s="12" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="17" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:5" ht="79.049999999999997">
@@ -3099,13 +3110,13 @@
         <x:v>44375</x:v>
       </x:c>
       <x:c r="C7" s="14" t="s">
-        <x:v>53</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="D7" s="12" t="s">
-        <x:v>191</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="E7" s="12" t="s">
-        <x:v>182</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:5" ht="52.700000000000003">
@@ -3113,13 +3124,13 @@
         <x:v>44376</x:v>
       </x:c>
       <x:c r="C8" s="14" t="s">
-        <x:v>50</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D8" s="12" t="s">
-        <x:v>88</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E8" s="12" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:5" ht="52.700000000000003">
@@ -3127,13 +3138,13 @@
         <x:v>44377</x:v>
       </x:c>
       <x:c r="C9" s="19" t="s">
-        <x:v>60</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D9" s="12" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E9" s="12" t="s">
-        <x:v>175</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:5" ht="52.700000000000003">
@@ -3141,13 +3152,13 @@
         <x:v>44378</x:v>
       </x:c>
       <x:c r="C10" s="20" t="s">
-        <x:v>57</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D10" s="12" t="s">
-        <x:v>77</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="E10" s="12" t="s">
-        <x:v>179</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:5" ht="65.849999999999994">
@@ -3155,13 +3166,13 @@
         <x:v>44379</x:v>
       </x:c>
       <x:c r="C11" s="22" t="s">
-        <x:v>63</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="D11" s="12" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E11" s="12" t="s">
-        <x:v>181</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:5" ht="105.40000000000001">
@@ -3169,13 +3180,13 @@
         <x:v>44382</x:v>
       </x:c>
       <x:c r="C12" s="21" t="s">
-        <x:v>54</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="D12" s="12" t="s">
-        <x:v>76</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E12" s="12" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:5" ht="52.700000000000003">
@@ -3183,13 +3194,13 @@
         <x:v>44383</x:v>
       </x:c>
       <x:c r="C13" s="23" t="s">
-        <x:v>57</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D13" s="12" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E13" s="12" t="s">
-        <x:v>187</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:5" ht="52.700000000000003">
@@ -3197,13 +3208,13 @@
         <x:v>44384</x:v>
       </x:c>
       <x:c r="C14" s="24" t="s">
-        <x:v>28</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="D14" s="12" t="s">
-        <x:v>78</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E14" s="12" t="s">
-        <x:v>180</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:5" ht="52.700000000000003">
@@ -3211,13 +3222,13 @@
         <x:v>44385</x:v>
       </x:c>
       <x:c r="C15" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D15" s="12" t="s">
-        <x:v>74</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="E15" s="12" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:5" ht="26.350000000000001">
@@ -3225,13 +3236,13 @@
         <x:v>44386</x:v>
       </x:c>
       <x:c r="C16" s="31" t="s">
-        <x:v>21</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D16" s="12" t="s">
-        <x:v>197</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="E16" s="12" t="s">
-        <x:v>10</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:5" ht="39.549999999999997">
@@ -3239,13 +3250,13 @@
         <x:v>44389</x:v>
       </x:c>
       <x:c r="C17" s="70" t="s">
-        <x:v>47</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="D17" s="12" t="s">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E17" s="12" t="s">
-        <x:v>189</x:v>
+        <x:v>246</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:5" ht="26.350000000000001">
@@ -3253,13 +3264,13 @@
         <x:v>44390</x:v>
       </x:c>
       <x:c r="C18" s="71" t="s">
-        <x:v>39</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="D18" s="12" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="E18" s="12" t="s">
-        <x:v>178</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:5" ht="26.350000000000001">
@@ -3267,13 +3278,13 @@
         <x:v>44391</x:v>
       </x:c>
       <x:c r="C19" s="71" t="s">
-        <x:v>57</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D19" s="12" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="E19" s="12" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:5" ht="26.350000000000001">
@@ -3281,13 +3292,13 @@
         <x:v>44392</x:v>
       </x:c>
       <x:c r="C20" s="14" t="s">
-        <x:v>55</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="D20" s="12" t="s">
-        <x:v>82</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E20" s="11" t="s">
-        <x:v>45</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="2:5" ht="26.350000000000001">
@@ -3295,13 +3306,13 @@
         <x:v>44393</x:v>
       </x:c>
       <x:c r="C21" s="72" t="s">
-        <x:v>38</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="D21" s="12" t="s">
-        <x:v>73</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E21" s="12" t="s">
-        <x:v>256</x:v>
+        <x:v>259</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="2:5" ht="26.350000000000001">
@@ -3309,13 +3320,13 @@
         <x:v>44396</x:v>
       </x:c>
       <x:c r="C22" s="73" t="s">
-        <x:v>64</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="D22" s="11" t="s">
-        <x:v>188</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="E22" s="12" t="s">
-        <x:v>12</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="2:5" ht="26.350000000000001">
@@ -3323,46 +3334,54 @@
         <x:v>44397</x:v>
       </x:c>
       <x:c r="C23" s="74" t="s">
-        <x:v>26</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D23" s="12" t="s">
-        <x:v>65</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E23" s="12" t="s">
-        <x:v>71</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="2:5" ht="39.549999999999997">
       <x:c r="B24" s="13">
         <x:v>44398</x:v>
       </x:c>
-      <x:c r="C24" s="100" t="s">
-        <x:v>265</x:v>
+      <x:c r="C24" s="14" t="s">
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D24" s="11" t="s">
-        <x:v>255</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E24" s="12" t="s">
-        <x:v>66</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="2:5">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="2:5" ht="26.350000000000001">
       <x:c r="B25" s="13">
         <x:v>44399</x:v>
       </x:c>
-      <x:c r="C25" s="10"/>
+      <x:c r="C25" s="100" t="s">
+        <x:v>268</x:v>
+      </x:c>
       <x:c r="D25" s="11" t="s">
-        <x:v>255</x:v>
-      </x:c>
-      <x:c r="E25" s="11"/>
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="E25" s="12" t="s">
+        <x:v>27</x:v>
+      </x:c>
     </x:row>
     <x:row r="26" spans="2:5">
       <x:c r="B26" s="13">
         <x:v>44400</x:v>
       </x:c>
       <x:c r="C26" s="10"/>
-      <x:c r="D26" s="11"/>
-      <x:c r="E26" s="11"/>
+      <x:c r="D26" s="11" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E26" s="11" t="s">
+        <x:v>28</x:v>
+      </x:c>
     </x:row>
     <x:row r="27" spans="2:5">
       <x:c r="B27" s="13">
@@ -3520,54 +3539,54 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="17.149999999999999">
       <x:c r="A1" s="26" t="s">
-        <x:v>29</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B1" s="33" t="s">
-        <x:v>142</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C1" s="34" t="s">
-        <x:v>143</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D1" s="34" t="s">
-        <x:v>157</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E1" s="34" t="s">
-        <x:v>130</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F1" s="34" t="s">
-        <x:v>106</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G1" s="34" t="s">
-        <x:v>96</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H1" s="34" t="s">
-        <x:v>220</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I1" s="35" t="s">
-        <x:v>201</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:9">
       <x:c r="A2" s="83" t="s">
-        <x:v>230</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B2" s="77" t="s">
-        <x:v>210</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C2" s="80" t="s">
-        <x:v>99</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D2" s="80" t="s">
-        <x:v>97</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E2" s="38" t="s">
-        <x:v>128</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F2" s="38"/>
       <x:c r="G2" s="38"/>
       <x:c r="H2" s="38"/>
       <x:c r="I2" s="38" t="s">
-        <x:v>22</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -3576,13 +3595,13 @@
       <x:c r="C3" s="81"/>
       <x:c r="D3" s="81"/>
       <x:c r="E3" s="37" t="s">
-        <x:v>46</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="F3" s="37"/>
       <x:c r="G3" s="37"/>
       <x:c r="H3" s="37"/>
       <x:c r="I3" s="37" t="s">
-        <x:v>249</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -3591,7 +3610,7 @@
       <x:c r="C4" s="81"/>
       <x:c r="D4" s="81"/>
       <x:c r="E4" s="37" t="s">
-        <x:v>137</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F4" s="37"/>
       <x:c r="G4" s="37"/>
@@ -3604,10 +3623,10 @@
       <x:c r="C5" s="81"/>
       <x:c r="D5" s="81"/>
       <x:c r="E5" s="75" t="s">
-        <x:v>112</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F5" s="37" t="s">
-        <x:v>109</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G5" s="37"/>
       <x:c r="H5" s="37"/>
@@ -3620,7 +3639,7 @@
       <x:c r="D6" s="76"/>
       <x:c r="E6" s="76"/>
       <x:c r="F6" s="37" t="s">
-        <x:v>20</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="G6" s="37"/>
       <x:c r="H6" s="37"/>
@@ -3631,10 +3650,10 @@
       <x:c r="B7" s="78"/>
       <x:c r="C7" s="81"/>
       <x:c r="D7" s="75" t="s">
-        <x:v>118</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E7" s="37" t="s">
-        <x:v>222</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F7" s="37"/>
       <x:c r="G7" s="37"/>
@@ -3647,13 +3666,13 @@
       <x:c r="C8" s="81"/>
       <x:c r="D8" s="81"/>
       <x:c r="E8" s="37" t="s">
-        <x:v>236</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F8" s="37"/>
       <x:c r="G8" s="37"/>
       <x:c r="H8" s="37"/>
       <x:c r="I8" s="37" t="s">
-        <x:v>86</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -3662,13 +3681,13 @@
       <x:c r="C9" s="81"/>
       <x:c r="D9" s="81"/>
       <x:c r="E9" s="37" t="s">
-        <x:v>234</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F9" s="37"/>
       <x:c r="G9" s="37"/>
       <x:c r="H9" s="37"/>
       <x:c r="I9" s="37" t="s">
-        <x:v>245</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -3677,10 +3696,10 @@
       <x:c r="C10" s="81"/>
       <x:c r="D10" s="81"/>
       <x:c r="E10" s="75" t="s">
-        <x:v>98</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F10" s="37" t="s">
-        <x:v>159</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G10" s="37"/>
       <x:c r="H10" s="37"/>
@@ -3693,12 +3712,12 @@
       <x:c r="D11" s="81"/>
       <x:c r="E11" s="81"/>
       <x:c r="F11" s="37" t="s">
-        <x:v>113</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G11" s="37"/>
       <x:c r="H11" s="37"/>
       <x:c r="I11" s="37" t="s">
-        <x:v>192</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -3708,7 +3727,7 @@
       <x:c r="D12" s="81"/>
       <x:c r="E12" s="81"/>
       <x:c r="F12" s="37" t="s">
-        <x:v>225</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G12" s="37"/>
       <x:c r="H12" s="37"/>
@@ -3721,12 +3740,12 @@
       <x:c r="D13" s="76"/>
       <x:c r="E13" s="76"/>
       <x:c r="F13" s="37" t="s">
-        <x:v>211</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G13" s="37"/>
       <x:c r="H13" s="37"/>
       <x:c r="I13" s="37" t="s">
-        <x:v>253</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="J13" s="29"/>
       <x:c r="K13" s="29"/>
@@ -3752,19 +3771,19 @@
       <x:c r="A14" s="84"/>
       <x:c r="B14" s="78"/>
       <x:c r="C14" s="75" t="s">
-        <x:v>116</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D14" s="75" t="s">
-        <x:v>105</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E14" s="37" t="s">
-        <x:v>199</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F14" s="37"/>
       <x:c r="G14" s="37"/>
       <x:c r="H14" s="37"/>
       <x:c r="I14" s="37" t="s">
-        <x:v>198</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J14" s="29"/>
       <x:c r="K14" s="29"/>
@@ -3792,13 +3811,13 @@
       <x:c r="C15" s="81"/>
       <x:c r="D15" s="81"/>
       <x:c r="E15" s="37" t="s">
-        <x:v>154</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="F15" s="37"/>
       <x:c r="G15" s="37"/>
       <x:c r="H15" s="37"/>
       <x:c r="I15" s="37" t="s">
-        <x:v>127</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="J15" s="29"/>
       <x:c r="K15" s="29"/>
@@ -3826,7 +3845,7 @@
       <x:c r="C16" s="81"/>
       <x:c r="D16" s="81"/>
       <x:c r="E16" s="37" t="s">
-        <x:v>151</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F16" s="37"/>
       <x:c r="G16" s="37"/>
@@ -3857,13 +3876,13 @@
       <x:c r="C17" s="81"/>
       <x:c r="D17" s="76"/>
       <x:c r="E17" s="37" t="s">
-        <x:v>115</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F17" s="37"/>
       <x:c r="G17" s="37"/>
       <x:c r="H17" s="37"/>
       <x:c r="I17" s="37" t="s">
-        <x:v>69</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="J17" s="29"/>
       <x:c r="K17" s="29"/>
@@ -3890,13 +3909,13 @@
       <x:c r="B18" s="78"/>
       <x:c r="C18" s="81"/>
       <x:c r="D18" s="37" t="s">
-        <x:v>49</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="E18" s="37" t="s">
-        <x:v>41</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="F18" s="37" t="s">
-        <x:v>153</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="G18" s="37"/>
       <x:c r="H18" s="37"/>
@@ -3926,14 +3945,14 @@
       <x:c r="B19" s="78"/>
       <x:c r="C19" s="81"/>
       <x:c r="D19" s="37" t="s">
-        <x:v>202</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E19" s="37"/>
       <x:c r="F19" s="37"/>
       <x:c r="G19" s="37"/>
       <x:c r="H19" s="37"/>
       <x:c r="I19" s="75" t="s">
-        <x:v>23</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="J19" s="29"/>
       <x:c r="K19" s="29"/>
@@ -3960,7 +3979,7 @@
       <x:c r="B20" s="78"/>
       <x:c r="C20" s="81"/>
       <x:c r="D20" s="37" t="s">
-        <x:v>115</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E20" s="37"/>
       <x:c r="F20" s="37"/>
@@ -3992,7 +4011,7 @@
       <x:c r="B21" s="78"/>
       <x:c r="C21" s="81"/>
       <x:c r="D21" s="37" t="s">
-        <x:v>151</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E21" s="37"/>
       <x:c r="F21" s="37"/>
@@ -4024,7 +4043,7 @@
       <x:c r="B22" s="79"/>
       <x:c r="C22" s="76"/>
       <x:c r="D22" s="37" t="s">
-        <x:v>32</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E22" s="37"/>
       <x:c r="F22" s="37"/>
@@ -4054,10 +4073,10 @@
     <x:row r="23" spans="1:28">
       <x:c r="A23" s="84"/>
       <x:c r="B23" s="82" t="s">
-        <x:v>129</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C23" s="37" t="s">
-        <x:v>42</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="D23" s="37"/>
       <x:c r="E23" s="37"/>
@@ -4089,7 +4108,7 @@
       <x:c r="A24" s="84"/>
       <x:c r="B24" s="78"/>
       <x:c r="C24" s="37" t="s">
-        <x:v>242</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D24" s="37"/>
       <x:c r="E24" s="37"/>
@@ -4121,7 +4140,7 @@
       <x:c r="A25" s="84"/>
       <x:c r="B25" s="78"/>
       <x:c r="C25" s="37" t="s">
-        <x:v>219</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D25" s="37"/>
       <x:c r="E25" s="37"/>
@@ -4153,13 +4172,13 @@
       <x:c r="A26" s="84"/>
       <x:c r="B26" s="78"/>
       <x:c r="C26" s="75" t="s">
-        <x:v>129</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D26" s="37" t="s">
-        <x:v>150</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E26" s="37" t="s">
-        <x:v>40</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="F26" s="37"/>
       <x:c r="G26" s="37"/>
@@ -4249,13 +4268,13 @@
       <x:c r="B27" s="82"/>
       <x:c r="C27" s="81"/>
       <x:c r="D27" s="75" t="s">
-        <x:v>209</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E27" s="37" t="s">
-        <x:v>147</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F27" s="37" t="s">
-        <x:v>48</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="G27" s="37"/>
       <x:c r="H27" s="37"/>
@@ -4345,10 +4364,10 @@
       <x:c r="C28" s="81"/>
       <x:c r="D28" s="76"/>
       <x:c r="E28" s="37" t="s">
-        <x:v>132</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F28" s="37" t="s">
-        <x:v>48</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="G28" s="37"/>
       <x:c r="H28" s="37"/>
@@ -4437,10 +4456,10 @@
       <x:c r="B29" s="78"/>
       <x:c r="C29" s="81"/>
       <x:c r="D29" s="37" t="s">
-        <x:v>104</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E29" s="39" t="s">
-        <x:v>140</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F29" s="39"/>
       <x:c r="G29" s="37"/>
@@ -4530,10 +4549,10 @@
       <x:c r="B30" s="78"/>
       <x:c r="C30" s="81"/>
       <x:c r="D30" s="37" t="s">
-        <x:v>155</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E30" s="37" t="s">
-        <x:v>240</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F30" s="37"/>
       <x:c r="G30" s="37"/>
@@ -4624,7 +4643,7 @@
       <x:c r="C31" s="81"/>
       <x:c r="D31" s="37"/>
       <x:c r="E31" s="37" t="s">
-        <x:v>100</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F31" s="37"/>
       <x:c r="G31" s="37"/>
@@ -4714,10 +4733,10 @@
       <x:c r="B32" s="78"/>
       <x:c r="C32" s="81"/>
       <x:c r="D32" s="37" t="s">
-        <x:v>166</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E32" s="37" t="s">
-        <x:v>110</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F32" s="37"/>
       <x:c r="G32" s="37"/>
@@ -4807,7 +4826,7 @@
       <x:c r="B33" s="78"/>
       <x:c r="C33" s="76"/>
       <x:c r="D33" s="37" t="s">
-        <x:v>168</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E33" s="37"/>
       <x:c r="F33" s="37"/>
@@ -4900,7 +4919,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="D34" s="37" t="s">
-        <x:v>126</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E34" s="37"/>
       <x:c r="F34" s="37"/>
@@ -4991,7 +5010,7 @@
       <x:c r="B35" s="78"/>
       <x:c r="C35" s="81"/>
       <x:c r="D35" s="37" t="s">
-        <x:v>223</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E35" s="37"/>
       <x:c r="F35" s="37"/>
@@ -5082,7 +5101,7 @@
       <x:c r="B36" s="78"/>
       <x:c r="C36" s="81"/>
       <x:c r="D36" s="37" t="s">
-        <x:v>213</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E36" s="37"/>
       <x:c r="F36" s="37"/>
@@ -5173,7 +5192,7 @@
       <x:c r="B37" s="78"/>
       <x:c r="C37" s="81"/>
       <x:c r="D37" s="37" t="s">
-        <x:v>208</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E37" s="37"/>
       <x:c r="F37" s="37"/>
@@ -5264,7 +5283,7 @@
       <x:c r="B38" s="78"/>
       <x:c r="C38" s="81"/>
       <x:c r="D38" s="37" t="s">
-        <x:v>170</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E38" s="37"/>
       <x:c r="F38" s="37"/>
@@ -5355,7 +5374,7 @@
       <x:c r="B39" s="82"/>
       <x:c r="C39" s="76"/>
       <x:c r="D39" s="37" t="s">
-        <x:v>171</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E39" s="37"/>
       <x:c r="F39" s="37"/>
@@ -5444,10 +5463,10 @@
     <x:row r="40" spans="1:87">
       <x:c r="A40" s="84"/>
       <x:c r="B40" s="82" t="s">
-        <x:v>235</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C40" s="37" t="s">
-        <x:v>206</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D40" s="37"/>
       <x:c r="E40" s="37"/>
@@ -5538,7 +5557,7 @@
       <x:c r="A41" s="84"/>
       <x:c r="B41" s="78"/>
       <x:c r="C41" s="37" t="s">
-        <x:v>119</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D41" s="37"/>
       <x:c r="E41" s="37"/>
@@ -5629,7 +5648,7 @@
       <x:c r="A42" s="84"/>
       <x:c r="B42" s="78"/>
       <x:c r="C42" s="37" t="s">
-        <x:v>108</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D42" s="37"/>
       <x:c r="E42" s="37"/>
@@ -5720,7 +5739,7 @@
       <x:c r="A43" s="84"/>
       <x:c r="B43" s="78"/>
       <x:c r="C43" s="37" t="s">
-        <x:v>135</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D43" s="37"/>
       <x:c r="E43" s="37"/>
@@ -5811,7 +5830,7 @@
       <x:c r="A44" s="84"/>
       <x:c r="B44" s="78"/>
       <x:c r="C44" s="37" t="s">
-        <x:v>219</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D44" s="37"/>
       <x:c r="E44" s="37"/>
@@ -5902,7 +5921,7 @@
       <x:c r="A45" s="84"/>
       <x:c r="B45" s="79"/>
       <x:c r="C45" s="37" t="s">
-        <x:v>145</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D45" s="37"/>
       <x:c r="E45" s="37"/>
@@ -5992,10 +6011,10 @@
     <x:row r="46" spans="1:87">
       <x:c r="A46" s="84"/>
       <x:c r="B46" s="82" t="s">
-        <x:v>204</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C46" s="37" t="s">
-        <x:v>216</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D46" s="37"/>
       <x:c r="E46" s="37"/>
@@ -6086,7 +6105,7 @@
       <x:c r="A47" s="84"/>
       <x:c r="B47" s="78"/>
       <x:c r="C47" s="37" t="s">
-        <x:v>233</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D47" s="37"/>
       <x:c r="E47" s="37"/>
@@ -6177,7 +6196,7 @@
       <x:c r="A48" s="84"/>
       <x:c r="B48" s="78"/>
       <x:c r="C48" s="37" t="s">
-        <x:v>133</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D48" s="37"/>
       <x:c r="E48" s="37"/>
@@ -6268,7 +6287,7 @@
       <x:c r="A49" s="84"/>
       <x:c r="B49" s="79"/>
       <x:c r="C49" s="37" t="s">
-        <x:v>161</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D49" s="37"/>
       <x:c r="E49" s="37"/>
@@ -6358,13 +6377,13 @@
     <x:row r="50" spans="1:87">
       <x:c r="A50" s="84"/>
       <x:c r="B50" s="82" t="s">
-        <x:v>173</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C50" s="75" t="s">
-        <x:v>42</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="D50" s="37" t="s">
-        <x:v>120</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E50" s="37"/>
       <x:c r="F50" s="37"/>
@@ -6455,7 +6474,7 @@
       <x:c r="B51" s="78"/>
       <x:c r="C51" s="76"/>
       <x:c r="D51" s="37" t="s">
-        <x:v>164</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E51" s="37"/>
       <x:c r="F51" s="37"/>
@@ -6545,10 +6564,10 @@
       <x:c r="A52" s="84"/>
       <x:c r="B52" s="78"/>
       <x:c r="C52" s="75" t="s">
-        <x:v>221</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D52" s="37" t="s">
-        <x:v>56</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="E52" s="37"/>
       <x:c r="F52" s="37"/>
@@ -6639,7 +6658,7 @@
       <x:c r="B53" s="78"/>
       <x:c r="C53" s="76"/>
       <x:c r="D53" s="37" t="s">
-        <x:v>44</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E53" s="37"/>
       <x:c r="F53" s="37"/>
@@ -6729,10 +6748,10 @@
       <x:c r="A54" s="84"/>
       <x:c r="B54" s="78"/>
       <x:c r="C54" s="75" t="s">
-        <x:v>33</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="D54" s="37" t="s">
-        <x:v>61</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="E54" s="37"/>
       <x:c r="F54" s="37"/>
@@ -6823,7 +6842,7 @@
       <x:c r="B55" s="78"/>
       <x:c r="C55" s="81"/>
       <x:c r="D55" s="37" t="s">
-        <x:v>36</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E55" s="37"/>
       <x:c r="F55" s="37"/>
@@ -6914,7 +6933,7 @@
       <x:c r="B56" s="78"/>
       <x:c r="C56" s="76"/>
       <x:c r="D56" s="37" t="s">
-        <x:v>254</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="E56" s="37"/>
       <x:c r="F56" s="37"/>
@@ -7004,10 +7023,10 @@
       <x:c r="A57" s="84"/>
       <x:c r="B57" s="78"/>
       <x:c r="C57" s="75" t="s">
-        <x:v>134</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D57" s="37" t="s">
-        <x:v>252</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E57" s="37"/>
       <x:c r="F57" s="37"/>
@@ -7098,7 +7117,7 @@
       <x:c r="B58" s="78"/>
       <x:c r="C58" s="76"/>
       <x:c r="D58" s="37" t="s">
-        <x:v>35</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E58" s="37"/>
       <x:c r="F58" s="37"/>
@@ -7188,10 +7207,10 @@
       <x:c r="A59" s="84"/>
       <x:c r="B59" s="78"/>
       <x:c r="C59" s="75" t="s">
-        <x:v>59</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="D59" s="37" t="s">
-        <x:v>247</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E59" s="37"/>
       <x:c r="F59" s="37"/>
@@ -7282,7 +7301,7 @@
       <x:c r="B60" s="78"/>
       <x:c r="C60" s="76"/>
       <x:c r="D60" s="37" t="s">
-        <x:v>251</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E60" s="37"/>
       <x:c r="F60" s="37"/>
@@ -7372,10 +7391,10 @@
       <x:c r="A61" s="84"/>
       <x:c r="B61" s="78"/>
       <x:c r="C61" s="75" t="s">
-        <x:v>172</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D61" s="37" t="s">
-        <x:v>215</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E61" s="37"/>
       <x:c r="F61" s="37"/>
@@ -7466,7 +7485,7 @@
       <x:c r="B62" s="79"/>
       <x:c r="C62" s="76"/>
       <x:c r="D62" s="37" t="s">
-        <x:v>136</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E62" s="37"/>
       <x:c r="F62" s="37"/>
@@ -9508,50 +9527,50 @@
   <x:sheetData>
     <x:row r="1" spans="1:8" ht="17.149999999999999">
       <x:c r="A1" s="32" t="s">
-        <x:v>29</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B1" s="33" t="s">
-        <x:v>142</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C1" s="34" t="s">
-        <x:v>143</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D1" s="34" t="s">
-        <x:v>157</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E1" s="34" t="s">
-        <x:v>130</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F1" s="34" t="s">
-        <x:v>106</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G1" s="34" t="s">
-        <x:v>220</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H1" s="35" t="s">
-        <x:v>227</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8" ht="16.75" customHeight="1">
       <x:c r="A2" s="83" t="s">
-        <x:v>165</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B2" s="77" t="s">
-        <x:v>124</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C2" s="90" t="s">
-        <x:v>99</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D2" s="88" t="s">
-        <x:v>105</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E2" s="58" t="s">
-        <x:v>25</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="F2" s="58"/>
       <x:c r="G2" s="58"/>
       <x:c r="H2" s="58" t="s">
-        <x:v>248</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -9560,12 +9579,12 @@
       <x:c r="C3" s="91"/>
       <x:c r="D3" s="89"/>
       <x:c r="E3" s="59" t="s">
-        <x:v>162</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F3" s="59"/>
       <x:c r="G3" s="59"/>
       <x:c r="H3" s="59" t="s">
-        <x:v>139</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -9574,12 +9593,12 @@
       <x:c r="C4" s="91"/>
       <x:c r="D4" s="87"/>
       <x:c r="E4" s="59" t="s">
-        <x:v>112</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F4" s="59"/>
       <x:c r="G4" s="59"/>
       <x:c r="H4" s="59" t="s">
-        <x:v>246</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
@@ -9587,15 +9606,15 @@
       <x:c r="B5" s="78"/>
       <x:c r="C5" s="91"/>
       <x:c r="D5" s="86" t="s">
-        <x:v>118</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E5" s="60" t="s">
-        <x:v>123</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F5" s="59"/>
       <x:c r="G5" s="59"/>
       <x:c r="H5" s="59" t="s">
-        <x:v>262</x:v>
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
@@ -9604,28 +9623,28 @@
       <x:c r="C6" s="92"/>
       <x:c r="D6" s="87"/>
       <x:c r="E6" s="60" t="s">
-        <x:v>234</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F6" s="59"/>
       <x:c r="G6" s="59"/>
       <x:c r="H6" s="59" t="s">
-        <x:v>184</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="84"/>
       <x:c r="B7" s="78"/>
       <x:c r="C7" s="94" t="s">
-        <x:v>144</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D7" s="86" t="s">
-        <x:v>186</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="E7" s="86" t="s">
-        <x:v>105</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F7" s="59" t="s">
-        <x:v>199</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G7" s="59"/>
       <x:c r="H7" s="59"/>
@@ -9637,7 +9656,7 @@
       <x:c r="D8" s="89"/>
       <x:c r="E8" s="89"/>
       <x:c r="F8" s="59" t="s">
-        <x:v>58</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="G8" s="59"/>
       <x:c r="H8" s="59"/>
@@ -9649,7 +9668,7 @@
       <x:c r="D9" s="89"/>
       <x:c r="E9" s="89"/>
       <x:c r="F9" s="59" t="s">
-        <x:v>125</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G9" s="59"/>
       <x:c r="H9" s="59"/>
@@ -9661,7 +9680,7 @@
       <x:c r="D10" s="89"/>
       <x:c r="E10" s="89"/>
       <x:c r="F10" s="59" t="s">
-        <x:v>202</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G10" s="59"/>
       <x:c r="H10" s="59"/>
@@ -9673,7 +9692,7 @@
       <x:c r="D11" s="93"/>
       <x:c r="E11" s="93"/>
       <x:c r="F11" s="61" t="s">
-        <x:v>117</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G11" s="61"/>
       <x:c r="H11" s="61"/>
@@ -9681,16 +9700,16 @@
     <x:row r="12" spans="1:8">
       <x:c r="A12" s="84"/>
       <x:c r="B12" s="78" t="s">
-        <x:v>212</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C12" s="91" t="s">
-        <x:v>146</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D12" s="58" t="s">
-        <x:v>209</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E12" s="89" t="s">
-        <x:v>250</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F12" s="58"/>
       <x:c r="G12" s="58"/>
@@ -9701,7 +9720,7 @@
       <x:c r="B13" s="78"/>
       <x:c r="C13" s="91"/>
       <x:c r="D13" s="60" t="s">
-        <x:v>150</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E13" s="89"/>
       <x:c r="F13" s="59"/>
@@ -9713,7 +9732,7 @@
       <x:c r="B14" s="78"/>
       <x:c r="C14" s="91"/>
       <x:c r="D14" s="60" t="s">
-        <x:v>131</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E14" s="89"/>
       <x:c r="F14" s="59"/>
@@ -9725,7 +9744,7 @@
       <x:c r="B15" s="78"/>
       <x:c r="C15" s="92"/>
       <x:c r="D15" s="60" t="s">
-        <x:v>171</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E15" s="87"/>
       <x:c r="F15" s="59"/>
@@ -9736,20 +9755,20 @@
       <x:c r="A16" s="84"/>
       <x:c r="B16" s="78"/>
       <x:c r="C16" s="94" t="s">
-        <x:v>149</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D16" s="60" t="s">
-        <x:v>167</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E16" s="86" t="s">
-        <x:v>42</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="F16" s="59" t="s">
-        <x:v>120</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G16" s="59"/>
       <x:c r="H16" s="86" t="s">
-        <x:v>68</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -9757,11 +9776,11 @@
       <x:c r="B17" s="78"/>
       <x:c r="C17" s="92"/>
       <x:c r="D17" s="59" t="s">
-        <x:v>241</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E17" s="87"/>
       <x:c r="F17" s="59" t="s">
-        <x:v>164</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G17" s="59"/>
       <x:c r="H17" s="87"/>
@@ -9770,26 +9789,26 @@
       <x:c r="A18" s="84"/>
       <x:c r="B18" s="95"/>
       <x:c r="C18" s="62" t="s">
-        <x:v>111</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D18" s="61"/>
       <x:c r="E18" s="61"/>
       <x:c r="F18" s="61"/>
       <x:c r="G18" s="61"/>
       <x:c r="H18" s="61" t="s">
-        <x:v>244</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="84"/>
       <x:c r="B19" s="78" t="s">
-        <x:v>24</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="C19" s="91" t="s">
-        <x:v>235</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D19" s="58" t="s">
-        <x:v>206</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E19" s="58"/>
       <x:c r="F19" s="58"/>
@@ -9801,7 +9820,7 @@
       <x:c r="B20" s="78"/>
       <x:c r="C20" s="91"/>
       <x:c r="D20" s="59" t="s">
-        <x:v>239</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E20" s="59"/>
       <x:c r="F20" s="59"/>
@@ -9813,7 +9832,7 @@
       <x:c r="B21" s="78"/>
       <x:c r="C21" s="91"/>
       <x:c r="D21" s="59" t="s">
-        <x:v>108</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E21" s="59"/>
       <x:c r="F21" s="59"/>
@@ -9825,7 +9844,7 @@
       <x:c r="B22" s="78"/>
       <x:c r="C22" s="91"/>
       <x:c r="D22" s="59" t="s">
-        <x:v>219</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E22" s="59"/>
       <x:c r="F22" s="59"/>
@@ -9837,7 +9856,7 @@
       <x:c r="B23" s="78"/>
       <x:c r="C23" s="92"/>
       <x:c r="D23" s="59" t="s">
-        <x:v>145</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E23" s="59"/>
       <x:c r="F23" s="59"/>
@@ -9848,13 +9867,13 @@
       <x:c r="A24" s="83"/>
       <x:c r="B24" s="82"/>
       <x:c r="C24" s="94" t="s">
-        <x:v>135</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D24" s="86" t="s">
-        <x:v>224</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E24" s="59" t="s">
-        <x:v>217</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F24" s="59"/>
       <x:c r="G24" s="59"/>
@@ -9866,7 +9885,7 @@
       <x:c r="C25" s="91"/>
       <x:c r="D25" s="87"/>
       <x:c r="E25" s="59" t="s">
-        <x:v>238</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F25" s="59"/>
       <x:c r="G25" s="59"/>
@@ -9877,10 +9896,10 @@
       <x:c r="B26" s="82"/>
       <x:c r="C26" s="91"/>
       <x:c r="D26" s="86" t="s">
-        <x:v>226</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E26" s="59" t="s">
-        <x:v>200</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F26" s="59"/>
       <x:c r="G26" s="59"/>
@@ -9892,7 +9911,7 @@
       <x:c r="C27" s="91"/>
       <x:c r="D27" s="89"/>
       <x:c r="E27" s="59" t="s">
-        <x:v>232</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F27" s="59"/>
       <x:c r="G27" s="59"/>
@@ -9904,7 +9923,7 @@
       <x:c r="C28" s="91"/>
       <x:c r="D28" s="89"/>
       <x:c r="E28" s="59" t="s">
-        <x:v>229</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F28" s="59"/>
       <x:c r="G28" s="59"/>
@@ -9916,7 +9935,7 @@
       <x:c r="C29" s="96"/>
       <x:c r="D29" s="93"/>
       <x:c r="E29" s="61" t="s">
-        <x:v>205</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F29" s="61"/>
       <x:c r="G29" s="61"/>
@@ -9925,10 +9944,10 @@
     <x:row r="30" spans="1:8">
       <x:c r="A30" s="84"/>
       <x:c r="B30" s="78" t="s">
-        <x:v>204</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C30" s="63" t="s">
-        <x:v>216</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D30" s="58"/>
       <x:c r="E30" s="58"/>
@@ -9940,7 +9959,7 @@
       <x:c r="A31" s="84"/>
       <x:c r="B31" s="78"/>
       <x:c r="C31" s="57" t="s">
-        <x:v>233</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D31" s="59"/>
       <x:c r="E31" s="59"/>
@@ -9952,7 +9971,7 @@
       <x:c r="A32" s="84"/>
       <x:c r="B32" s="78"/>
       <x:c r="C32" s="57" t="s">
-        <x:v>133</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D32" s="59"/>
       <x:c r="E32" s="59"/>
@@ -9964,7 +9983,7 @@
       <x:c r="A33" s="84"/>
       <x:c r="B33" s="95"/>
       <x:c r="C33" s="64" t="s">
-        <x:v>161</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D33" s="61"/>
       <x:c r="E33" s="61"/>
@@ -9975,10 +9994,10 @@
     <x:row r="34" spans="1:8" ht="16.75" customHeight="1">
       <x:c r="A34" s="84"/>
       <x:c r="B34" s="77" t="s">
-        <x:v>156</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C34" s="63" t="s">
-        <x:v>27</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="D34" s="58"/>
       <x:c r="E34" s="58"/>
@@ -9990,10 +10009,10 @@
       <x:c r="A35" s="84"/>
       <x:c r="B35" s="78"/>
       <x:c r="C35" s="75" t="s">
-        <x:v>172</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D35" s="59" t="s">
-        <x:v>215</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E35" s="59"/>
       <x:c r="F35" s="59"/>
@@ -10005,7 +10024,7 @@
       <x:c r="B36" s="78"/>
       <x:c r="C36" s="81"/>
       <x:c r="D36" s="59" t="s">
-        <x:v>136</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E36" s="59"/>
       <x:c r="F36" s="59"/>
@@ -10017,7 +10036,7 @@
       <x:c r="B37" s="78"/>
       <x:c r="C37" s="81"/>
       <x:c r="D37" s="59" t="s">
-        <x:v>30</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E37" s="59"/>
       <x:c r="F37" s="59"/>
@@ -10029,7 +10048,7 @@
       <x:c r="B38" s="78"/>
       <x:c r="C38" s="81"/>
       <x:c r="D38" s="58" t="s">
-        <x:v>102</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E38" s="58"/>
       <x:c r="F38" s="58"/>
@@ -10041,7 +10060,7 @@
       <x:c r="B39" s="78"/>
       <x:c r="C39" s="81"/>
       <x:c r="D39" s="59" t="s">
-        <x:v>103</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E39" s="59"/>
       <x:c r="F39" s="59"/>
@@ -10053,7 +10072,7 @@
       <x:c r="B40" s="95"/>
       <x:c r="C40" s="99"/>
       <x:c r="D40" s="47" t="s">
-        <x:v>94</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E40" s="47"/>
       <x:c r="F40" s="47"/>
@@ -10347,34 +10366,34 @@
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="48"/>
       <x:c r="B2" s="36" t="s">
-        <x:v>218</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C2" s="36" t="s">
-        <x:v>31</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D2" s="36" t="s">
-        <x:v>141</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E2" s="36" t="s">
-        <x:v>158</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="F2" s="36" t="s">
-        <x:v>227</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6" ht="16.75">
       <x:c r="A3" s="48"/>
       <x:c r="B3" s="77" t="s">
-        <x:v>107</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C3" s="80" t="s">
-        <x:v>163</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D3" s="80" t="s">
-        <x:v>114</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E3" s="49" t="s">
-        <x:v>80</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F3" s="65"/>
     </x:row>
@@ -10384,7 +10403,7 @@
       <x:c r="C4" s="81"/>
       <x:c r="D4" s="81"/>
       <x:c r="E4" s="50" t="s">
-        <x:v>67</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="F4" s="66"/>
     </x:row>
@@ -10394,7 +10413,7 @@
       <x:c r="C5" s="81"/>
       <x:c r="D5" s="81"/>
       <x:c r="E5" s="50" t="s">
-        <x:v>75</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="F5" s="66"/>
     </x:row>
@@ -10404,7 +10423,7 @@
       <x:c r="C6" s="81"/>
       <x:c r="D6" s="81"/>
       <x:c r="E6" s="50" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F6" s="66"/>
     </x:row>
@@ -10414,7 +10433,7 @@
       <x:c r="C7" s="81"/>
       <x:c r="D7" s="76"/>
       <x:c r="E7" s="51" t="s">
-        <x:v>174</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="F7" s="66"/>
     </x:row>
@@ -10423,10 +10442,10 @@
       <x:c r="B8" s="78"/>
       <x:c r="C8" s="81"/>
       <x:c r="D8" s="75" t="s">
-        <x:v>228</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E8" s="52" t="s">
-        <x:v>81</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F8" s="66"/>
     </x:row>
@@ -10436,7 +10455,7 @@
       <x:c r="C9" s="81"/>
       <x:c r="D9" s="81"/>
       <x:c r="E9" s="50" t="s">
-        <x:v>193</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="F9" s="66"/>
     </x:row>
@@ -10446,7 +10465,7 @@
       <x:c r="C10" s="81"/>
       <x:c r="D10" s="76"/>
       <x:c r="E10" s="53" t="s">
-        <x:v>72</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="F10" s="66"/>
     </x:row>
@@ -10455,10 +10474,10 @@
       <x:c r="B11" s="78"/>
       <x:c r="C11" s="81"/>
       <x:c r="D11" s="75" t="s">
-        <x:v>237</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E11" s="52" t="s">
-        <x:v>85</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="F11" s="66"/>
     </x:row>
@@ -10468,7 +10487,7 @@
       <x:c r="C12" s="76"/>
       <x:c r="D12" s="76"/>
       <x:c r="E12" s="53" t="s">
-        <x:v>8</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="F12" s="66"/>
     </x:row>
@@ -10476,13 +10495,13 @@
       <x:c r="A13" s="48"/>
       <x:c r="B13" s="78"/>
       <x:c r="C13" s="75" t="s">
-        <x:v>52</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D13" s="75" t="s">
-        <x:v>235</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E13" s="52" t="s">
-        <x:v>261</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="F13" s="66"/>
     </x:row>
@@ -10492,7 +10511,7 @@
       <x:c r="C14" s="81"/>
       <x:c r="D14" s="81"/>
       <x:c r="E14" s="50" t="s">
-        <x:v>83</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F14" s="66"/>
     </x:row>
@@ -10502,7 +10521,7 @@
       <x:c r="C15" s="81"/>
       <x:c r="D15" s="81"/>
       <x:c r="E15" s="50" t="s">
-        <x:v>194</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="F15" s="66"/>
     </x:row>
@@ -10512,7 +10531,7 @@
       <x:c r="C16" s="81"/>
       <x:c r="D16" s="76"/>
       <x:c r="E16" s="53" t="s">
-        <x:v>91</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="F16" s="66"/>
     </x:row>
@@ -10521,10 +10540,10 @@
       <x:c r="B17" s="78"/>
       <x:c r="C17" s="81"/>
       <x:c r="D17" s="75" t="s">
-        <x:v>207</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E17" s="52" t="s">
-        <x:v>190</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="F17" s="66"/>
     </x:row>
@@ -10534,7 +10553,7 @@
       <x:c r="C18" s="76"/>
       <x:c r="D18" s="76"/>
       <x:c r="E18" s="51" t="s">
-        <x:v>176</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="F18" s="66"/>
     </x:row>
@@ -10542,13 +10561,13 @@
       <x:c r="A19" s="48"/>
       <x:c r="B19" s="78"/>
       <x:c r="C19" s="75" t="s">
-        <x:v>203</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D19" s="75" t="s">
-        <x:v>183</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="E19" s="52" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="F19" s="66"/>
     </x:row>
@@ -10558,7 +10577,7 @@
       <x:c r="C20" s="81"/>
       <x:c r="D20" s="76"/>
       <x:c r="E20" s="53" t="s">
-        <x:v>7</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F20" s="66"/>
     </x:row>
@@ -10567,10 +10586,10 @@
       <x:c r="B21" s="78"/>
       <x:c r="C21" s="81"/>
       <x:c r="D21" s="75" t="s">
-        <x:v>51</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="E21" s="52" t="s">
-        <x:v>70</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="F21" s="66"/>
     </x:row>
@@ -10580,7 +10599,7 @@
       <x:c r="C22" s="81"/>
       <x:c r="D22" s="76"/>
       <x:c r="E22" s="53" t="s">
-        <x:v>89</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F22" s="66"/>
     </x:row>
@@ -10589,10 +10608,10 @@
       <x:c r="B23" s="78"/>
       <x:c r="C23" s="81"/>
       <x:c r="D23" s="37" t="s">
-        <x:v>241</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="54" t="s">
-        <x:v>90</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F23" s="66"/>
     </x:row>
@@ -10601,10 +10620,10 @@
       <x:c r="B24" s="78"/>
       <x:c r="C24" s="81"/>
       <x:c r="D24" s="75" t="s">
-        <x:v>43</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="E24" s="52" t="s">
-        <x:v>185</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F24" s="66"/>
     </x:row>
@@ -10614,7 +10633,7 @@
       <x:c r="C25" s="81"/>
       <x:c r="D25" s="81"/>
       <x:c r="E25" s="50" t="s">
-        <x:v>87</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="F25" s="66"/>
     </x:row>
@@ -10624,7 +10643,7 @@
       <x:c r="C26" s="81"/>
       <x:c r="D26" s="81"/>
       <x:c r="E26" s="50" t="s">
-        <x:v>84</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="F26" s="66"/>
     </x:row>
@@ -10634,23 +10653,23 @@
       <x:c r="C27" s="99"/>
       <x:c r="D27" s="99"/>
       <x:c r="E27" s="55" t="s">
-        <x:v>196</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="F27" s="67"/>
     </x:row>
     <x:row r="28" spans="1:6" ht="16.75">
       <x:c r="A28" s="48"/>
       <x:c r="B28" s="77" t="s">
-        <x:v>138</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C28" s="68" t="s">
-        <x:v>121</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D28" s="68" t="s">
-        <x:v>231</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E28" s="69" t="s">
-        <x:v>195</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="F28" s="65"/>
     </x:row>
@@ -10658,13 +10677,13 @@
       <x:c r="A29" s="48"/>
       <x:c r="B29" s="78"/>
       <x:c r="C29" s="75" t="s">
-        <x:v>148</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D29" s="37" t="s">
-        <x:v>214</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E29" s="54" t="s">
-        <x:v>93</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="F29" s="66"/>
     </x:row>
@@ -10673,10 +10692,10 @@
       <x:c r="B30" s="78"/>
       <x:c r="C30" s="81"/>
       <x:c r="D30" s="75" t="s">
-        <x:v>243</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E30" s="52" t="s">
-        <x:v>264</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="F30" s="66"/>
     </x:row>
@@ -10686,7 +10705,7 @@
       <x:c r="C31" s="81"/>
       <x:c r="D31" s="81"/>
       <x:c r="E31" s="50" t="s">
-        <x:v>92</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F31" s="66"/>
     </x:row>
@@ -10696,7 +10715,7 @@
       <x:c r="C32" s="81"/>
       <x:c r="D32" s="81"/>
       <x:c r="E32" s="50" t="s">
-        <x:v>79</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F32" s="66"/>
     </x:row>
@@ -10706,19 +10725,19 @@
       <x:c r="C33" s="99"/>
       <x:c r="D33" s="99"/>
       <x:c r="E33" s="55" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="F33" s="67"/>
     </x:row>
     <x:row r="34" spans="1:6">
       <x:c r="A34" s="48"/>
       <x:c r="B34" s="78" t="s">
-        <x:v>169</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C34" s="81"/>
       <x:c r="D34" s="81"/>
       <x:c r="E34" s="50" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F34" s="66"/>
     </x:row>
@@ -10728,7 +10747,7 @@
       <x:c r="C35" s="99"/>
       <x:c r="D35" s="99"/>
       <x:c r="E35" s="55" t="s">
-        <x:v>263</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="F35" s="67"/>
     </x:row>

--- a/2021_Summer/jp.hong/Datebook_jph.xlsx
+++ b/2021_Summer/jp.hong/Datebook_jph.xlsx
@@ -22,9 +22,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="269">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="274">
+  <x:si>
+    <x:t>비밀번호는 특수문자 포함 8자리 이상 12자리 이하 이어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주행 거리 정보를 받아 계산하여 남은 수명에 대해 알려 주어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 추가 자료조사(관련 코드)
+2. FlowChart 수정 및 보완</x:t>
+  </x:si>
   <x:si>
     <x:t>어플의 예약기능을 통해 예약한 경우 업체로부터 일정 수수료를 받는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Git 목록 삭제
+2. 요구사항 분석
+3. 인터페이스 구상도 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성 (미완)
+2. 스피너 및 캘린더 뷰 다이어리 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소유한 차량이 여러 대일 경우 차량의 정보를 추가할 수 있어야 한다.</x:t>
   </x:si>
   <x:si>
     <x:t>1. 요구사항 분석 (실현성 확인)
@@ -36,29 +58,369 @@
  -&gt; 주유, 부품들의 수명정보(?) 어떻게 자동으로 받아올지 알아봐야함 -&gt; 블루투스 =&gt; 블루투스 연동 어떻게?</x:t>
   </x:si>
   <x:si>
-    <x:t>1. vi 명령어 설명서 작성 완료
-2. 요구사항 정의 및 분류
- - 기능적 요구사항
- - 비기능적 요구사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. Git 목록 삭제
+    <x:t>로그인 화면을 들어가게 되면 아이디와 비밀번호의 입력 창, 회원가입 버튼과
+로그인 버튼이 나와야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 경쟁 어플 메뉴트리 수정
+2. 요구사항, 기능정의 순서 수정
+3. 한계점 수정
+블루투스 -&gt; 사진 촬영 ====&gt; 대체하게 되면 글자 인식하는 코드 필요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+ - 컴퓨터 견적 추천 앱
+ - 주차시 사고발생 알림 앱
+2. 주제 아이디어 최종 선정
+ - 차량 관리 어플
+3. 개발 계획서 및 요구사항 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. DateBook_Comment 부분 수정
+2. GIT보고서 수정
+ - 설치 과정 추가
+ - 명령어 부분 내용 추가
+3. PPT 머릿글 요약 작성 - (미완)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-1. Datebook Comment 부분 요약
+1-2. GIT 보고서 다시 작성
+1-3. PPT 머릿글 요약 작성
+1-4. 파일명 수정
+1-5 최종 아이디어 선정 이유 작성
+2. 요구사항 수집 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 필요 자료 추가 조사
+2. 한계점 및 필요기술 추가
+ - 차량 블루투스와 어플 연결 어떻게?
+ - 연결이 된다면 원하는 정보만 어떻게 가져 올건지?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 현장실습 OT
+ - 기업 소개 및 업무 설명
+ - 앞으로 수행하게 될 프로젝트 설명
+2. 기존에 진행했던 캡스톤프로젝트 첨언
+3. 제품 개발 과정 설명
+ - 제품 기획 
+ - 개발 기획  
+ - 개발 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 수집 및 정의
+ - 관련 필요 자료 조사
+ - 기능적/ 비기능적 요구사항 내용 추가
+2. 개발에 필요한 요구사항 분석 (실현성 확인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 진행사항 체크 및 2주차 목표 설정
+2. 06.28 회의록 작성
+3. 상용화 된 타 앱 기능 분석
+4. 요구사항 정의
+ - 회원가입, DB, 무결성 (미완)
+5. vi사용법 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 07.02 회의록 작성
+2. Git 업로드 한 것 중 중복된 것들 삭제
+3. 어플 흐름 구상도 작성
+4. 요구사항/기능 정의/기능 설계 3가지 부분으로 나누어 요구사항 수정(미완)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 정의 및 분석 - 체계화
+ - 기능 / 비기능적 요구사항 분류 및 수정
 2. 요구사항 분석
-3. 인터페이스 구상도 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 추가 자료조사(관련 코드)
-2. FlowChart 수정 및 보완</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호는 특수문자 포함 8자리 이상 12자리 이하 이어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성 (미완)
-2. 스피너 및 캘린더 뷰 다이어리 조사</x:t>
+3. 구현 가능 여부 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06.22, 06.23 회의록 작성
+2. Git 환경 설정
+3. Git 설정 화면 캡처 및 보고서 작성
+4. 캡스톤 아이디어 도출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+2. 최종 아이디어 선정
+3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성(login, join, 내 차고, 차량 정보) 미완
+2. 블루투스 관련 자료 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06_30 회의록 작성
+2. 요구사항 수정 및 관련 필요 자료 조사
+3. 15:00 ~ 지도교수 면담</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. (2-2) 수익적 요소 추가
+2. (4-1) 기능정의 추가
+3. 추가 자료 조사
+ - 비슷한 어플(마이클) 화면 구성 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품의 종류를 다르게 하여 여러가지를 선택 할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정 기능을 통해 작성했던 글을 수정 할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택 된 부품은 값의 변조 없이 알맞은 값이 저장되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유, 연비, 운행거리, 정비 및 기타비용 총액/월별 지출액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사라지거나 위치가 바뀐 정보를 수시로 업데이트 해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. vi 명령어 설명서 작성
+2. 요구사항 정의 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록된 사용자만이 자신이 등록한 차량의 정보를 확인해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입시 필요한 정보 및 소유한 차량의 정보를 포함해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외부에서 받아오는 정보(지도, 가격 등)에 변조가 없어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 날짜를 기록할 수 있도록 다이어리 형식으로 제공해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검 스케쥴 및 일정 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차종, 차번호, 연식 등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 정비소 찾아보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험료 확인 및 갱신일 알림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이달의 정비/세차 혜택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유소 포인트 적립 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방문 정비소 기록, 메모</x:t>
+  </x:si>
+  <x:si>
+    <x:t>항목 및 정비 주기 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기아 커넥티드카 연동하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 무료 판매 견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품 별 남은 수명 보여줌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+2. 브리핑 준비
+3. 견학 보고서 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성(각 화면 기능 설명 채우기)
+2. 각 화면 플로우 차트 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 플로우 차트 작성
+2. 설계 계획서 작성
+3. Menu_Tree 도식화 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 계획하고 있는 어플의 메뉴트리 작성 및 ppt 수정
+2. 요구사항 추가 및 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>코엑스 전시회 견학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 판매견적 받기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 형태로 존재</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:22
+18:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:34
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친구 초대 이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 정보 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:40
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자주 하는 질문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진행 방향 ---&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유사 모델 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:35
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 정보 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 기본 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09:00
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>community</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:33
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Community</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약/견적 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:43
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:36
+18:07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비소 지도 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험료 계산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운전자 보험료 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운전자 추천 서비스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스 (메뉴)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험 선호도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:25
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰 보유 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:23
+15:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:36
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:27
+18:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 장착점 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 정비소 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:30
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 보험료 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 연동 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:27
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:32
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>할인 쿠폰 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품 교체 예상 견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:43
+18:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:36
+18:04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고장사례(리콜사례)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:30
+18:04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:32
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판의 글을 삭제하거나 올리기 위한 '글쓰기'버튼과 '글 삭제' 버튼이 있어야 한다.</x:t>
   </x:si>
   <x:si>
     <x:t>정비 예약을 하는 과정에서 사용자가 선택한 지점과 선택된 지점의 정보가 일치해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 가입시 아이디, 비밀번호, 이름, 전화번호, 생년월일, 차종의 정보를 받아야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알맞은 ID값과 패스워드 값이 입력 될 경우 그에 맞는 회원 정보가 로그인 되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 화면 시퀀스 작성 (설명, 커뮤니티, 알림, 설정화면 추가)
+2. 추가 자료 조사</x:t>
   </x:si>
   <x:si>
     <x:t>1. 아이디어 도출
@@ -66,17 +428,9 @@
  - 헤더와 푸터를 이용한 카빙 툴</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 화면 시퀀스 작성 (설명, 커뮤니티, 알림, 설정화면 추가)
-2. 추가 자료 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판의 글을 삭제하거나 올리기 위한 '글쓰기'버튼과 '글 삭제' 버튼이 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알맞은 ID값과 패스워드 값이 입력 될 경우 그에 맞는 회원 정보가 로그인 되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 가입시 아이디, 비밀번호, 이름, 전화번호, 생년월일, 차종의 정보를 받아야 한다.</x:t>
+    <x:t>1. 앱 화면별 Sequence 작성
+2. 앱 화면별 어떻게 구성할 것인지 구상
+3. 추가 자료조사</x:t>
   </x:si>
   <x:si>
     <x:t>1. 실습 환경 설정 및 설명
@@ -90,574 +444,26 @@
  - 차량 관리 어플</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 요구사항 수집 및 정의
- - 관련 필요 자료 조사
- - 기능적/ 비기능적 요구사항 내용 추가
-2. 개발에 필요한 요구사항 분석 (실현성 확인)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
- - 컴퓨터 견적 추천 앱
- - 주차시 사고발생 알림 앱
-2. 주제 아이디어 최종 선정
- - 차량 관리 어플
-3. 개발 계획서 및 요구사항 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. DateBook_Comment 부분 수정
-2. GIT보고서 수정
- - 설치 과정 추가
- - 명령어 부분 내용 추가
-3. PPT 머릿글 요약 작성 - (미완)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 경쟁 어플 메뉴트리 수정
-2. 요구사항, 기능정의 순서 수정
-3. 한계점 수정
-블루투스 -&gt; 사진 촬영 ====&gt; 대체하게 되면 글자 인식하는 코드 필요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. (2-2) 수익적 요소 추가
-2. (4-1) 기능정의 추가
-3. 추가 자료 조사
- - 비슷한 어플(마이클) 화면 구성 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-1. Datebook Comment 부분 요약
-1-2. GIT 보고서 다시 작성
-1-3. PPT 머릿글 요약 작성
-1-4. 파일명 수정
-1-5 최종 아이디어 선정 이유 작성
-2. 요구사항 수집 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06.22, 06.23 회의록 작성
-2. Git 환경 설정
-3. Git 설정 화면 캡처 및 보고서 작성
-4. 캡스톤 아이디어 도출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 정의 및 분석 - 체계화
- - 기능 / 비기능적 요구사항 분류 및 수정
-2. 요구사항 분석
-3. 구현 가능 여부 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 계획하고 있는 어플의 메뉴트리 작성 및 ppt 수정
-2. 요구사항 추가 및 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 플로우 차트 작성
-2. 설계 계획서 작성
-3. Menu_Tree 도식화 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성(각 화면 기능 설명 채우기)
-2. 각 화면 플로우 차트 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 현장실습 OT
- - 기업 소개 및 업무 설명
- - 앞으로 수행하게 될 프로젝트 설명
-2. 기존에 진행했던 캡스톤프로젝트 첨언
-3. 제품 개발 과정 설명
- - 제품 기획 
- - 개발 기획  
- - 개발 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 필요 자료 추가 조사
-2. 한계점 및 필요기술 추가
- - 차량 블루투스와 어플 연결 어떻게?
- - 연결이 된다면 원하는 정보만 어떻게 가져 올건지?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
- - USB 복구 툴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>코엑스 전시회 견학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보안성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리뷰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>만족도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채팅창</x:t>
-  </x:si>
-  <x:si>
-    <x:t>편집</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Q&amp;A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>봄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계절별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>겨울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>손세차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인기글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상황별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타이어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장마철</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무결성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭설철</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가을</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점검</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>달력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이클</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차 정보 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어플 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수리견적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경기/인천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 방문 장소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자차 게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 구매</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신 글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Home</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균연비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타 항목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공식 서비스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연비 랭킹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결함/리콜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>함수의 계산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기록 및 통계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모두의 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모아보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공유게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연차, 보험료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오너들의 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 시기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에어컨 필터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메모 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약 교체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비기능적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>견적 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필요 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 시세</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이클 이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객상담</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tips</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Menu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오늘 교체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALL*</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엔진오일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에어컨필터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이어리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첫예약할인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수익적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타이어샵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험사 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용 가이드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균 연비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 항목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카카오톡 문의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>더 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 검사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 후기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>디테일링</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 주변 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일정 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>setting</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품 별 남은 수명 보여줌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>항목 및 정비 주기 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험료 확인 및 갱신일 알림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유소 포인트 적립 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점검 스케쥴 및 일정 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방문 정비소 기록, 메모</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기아 커넥티드카 연동하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 무료 판매 견적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차종, 차번호, 연식 등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 정비소 찾아보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이달의 정비/세차 혜택</x:t>
+    <x:t>1. vi 명령어 설명서 작성 완료
+2. 요구사항 정의 및 분류
+ - 기능적 요구사항
+ - 비기능적 요구사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주행 거리별 check list</x:t>
   </x:si>
   <x:si>
     <x:t>차량 정보(오너들의 평균 정보)</x:t>
   </x:si>
   <x:si>
-    <x:t>주행 거리별 check list</x:t>
-  </x:si>
-  <x:si>
     <x:t>교체할 부품을 선택 받아야 한다.</x:t>
   </x:si>
   <x:si>
     <x:t>점검내역서(정비소 제공 문서)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. vi 명령어 설명서 작성
-2. 요구사항 정의 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외부에서 받아오는 정보(지도, 가격 등)에 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록된 사용자만이 자신이 등록한 차량의 정보를 확인해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사라지거나 위치가 바뀐 정보를 수시로 업데이트 해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입시 필요한 정보 및 소유한 차량의 정보를 포함해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 날짜를 기록할 수 있도록 다이어리 형식으로 제공해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품의 종류를 다르게 하여 여러가지를 선택 할 수 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정 기능을 통해 작성했던 글을 수정 할 수 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택 된 부품은 값의 변조 없이 알맞은 값이 저장되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유, 연비, 운행거리, 정비 및 기타비용 총액/월별 지출액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 앱 화면별 Sequence 작성
-2. 앱 화면별 어떻게 구성할 것인지 구상
-3. 추가 자료조사</x:t>
   </x:si>
   <x:si>
     <x:t>회원가입을 위해 시도한 비밀번호가 7자리 이하이거나 13자리 이상일 경우
 비밀번호 입력 오류 메세지가 출력되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06_30 회의록 작성
-2. 요구사항 수정 및 관련 필요 자료 조사
-3. 15:00 ~ 지도교수 면담</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
-2. 최종 아이디어 선정
-3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성(login, join, 내 차고, 차량 정보) 미완
-2. 블루투스 관련 자료 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 화면을 들어가게 되면 아이디와 비밀번호의 입력 창, 회원가입 버튼과
-로그인 버튼이 나와야 한다.</x:t>
   </x:si>
   <x:si>
     <x:t>1. 추가 자료조사
@@ -685,254 +491,457 @@
     <x:t>로그인에 성공했다면 로그인 버튼이 아닌 로그 아웃 버튼을 보여주어야 한다.</x:t>
   </x:si>
   <x:si>
-    <x:t>소유한 차량이 여러 대일 경우 차량의 정보를 추가할 수 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주행 거리 정보를 받아 계산하여 남은 수명에 대해 알려 주어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 진행사항 체크 및 2주차 목표 설정
-2. 06.28 회의록 작성
-3. 상용화 된 타 앱 기능 분석
-4. 요구사항 정의
- - 회원가입, DB, 무결성 (미완)
-5. vi사용법 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 07.02 회의록 작성
-2. Git 업로드 한 것 중 중복된 것들 삭제
-3. 어플 흐름 구상도 작성
-4. 요구사항/기능 정의/기능 설계 3가지 부분으로 나누어 요구사항 수정(미완)</x:t>
+    <x:t>알림설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차 정보 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어플 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수리견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경기/인천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공식 서비스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타 항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>함수의 계산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모아보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공유게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기록 및 통계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오너들의 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균연비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모두의 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 구매</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 시기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결함/리콜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연차, 보험료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자차 게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신 글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 방문 장소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Home</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연비 랭킹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험사 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용 가이드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균 연비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오늘 교체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이클 이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>더 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에어컨필터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tips</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비기능적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약 교체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필요 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 시세</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수익적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카카오톡 문의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 검사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첫예약할인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메모 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에어컨 필터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>견적 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이어리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객상담</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALL*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엔진오일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타이어샵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>디테일링</x:t>
+  </x:si>
+  <x:si>
+    <x:t>setting</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 후기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일정 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 주변 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상황별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>편집</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보안성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>만족도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>봄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계절별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>손세차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인기글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Q&amp;A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>겨울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채팅창</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리뷰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭설철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>달력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이클</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가을</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타이어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장마철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무결성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06.28 회의록 작성
+2. 요구사항 정의 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품들의 시세변동을 지속적으로 업데이트 해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>할인률, 총액의 계산 과정에 오류가 있어선 안된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험, 범칙금, 주차요금, 톨게이트 비용, 차량용품 등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채팅방 및 게시판에 들어가기 위해서는 로그인을 해야한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 각 버튼 및 창 기능 설명, 기능 플로우 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Menu_Tree 수정(완료)
+2. 추가 자료 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판의 글들은 페이지당 20개씩 보여주어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 정의 및 분석 보완
+2. 기능정의 보완</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 실패시 로그인 오류 메세지를 출력해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 화면 플로우 작업
+2. 정비예약화면 아이콘 추가</x:t>
   </x:si>
   <x:si>
     <x:t>1. 화면 플로우 마무리
 2. Setting창 화면 추가</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 화면 플로우 작업
-2. 정비예약화면 아이콘 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:35
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 정보 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:40
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자주 하는 질문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유사 모델 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:34
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 판매견적 받기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 형태로 존재</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:22
-18:01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친구 초대 이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진행 방향 ---&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:43
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 기본 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 정보 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운전자 보험료 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>community</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운전자 추천 서비스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09:00
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스 (메뉴)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약/견적 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:36
-18:07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 보험 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비소 지도 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:33
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Community</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 보험료 계산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:27
+    <x:t>08:32
 18:05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품 교체 예상 견적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:43
-18:01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:32
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰 보유 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 정비소 예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 장착점 예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 보험 선호도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>할인 쿠폰 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:25
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:23
-15:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 보험료 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:36
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 연동 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:30
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:27
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고장사례(리콜사례)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:32
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:30
-18:04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 각 버튼 및 창 기능 설명, 기능 플로우 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. Menu_Tree 수정(완료)
-2. 추가 자료 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채팅방 및 게시판에 들어가기 위해서는 로그인을 해야한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품들의 시세변동을 지속적으로 업데이트 해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험, 범칙금, 주차요금, 톨게이트 비용, 차량용품 등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판의 글들은 페이지당 20개씩 보여주어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 정의 및 분석 보완
-2. 기능정의 보완</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06.28 회의록 작성
-2. 요구사항 정의 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 실패시 로그인 오류 메세지를 출력해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>할인률, 총액의 계산 과정에 오류가 있어선 안된다.</x:t>
   </x:si>
   <x:si>
     <x:t>1. 계약서 작성
 2. 현장실습 오리엔테이션</x:t>
   </x:si>
   <x:si>
-    <x:t>APP종료시 입력된 데이터는 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DB에 저장된 내용들은 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>1. 화면 시퀀스 작성
 2. 추가 자료 조사</x:t>
   </x:si>
   <x:si>
+    <x:t>주유량, 연비, 운행 거리 및 기타 비용 통계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어플 내 광고를 통해 일정 수입료를 받는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판을 이용하기 위해서는 로그인을 해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이콘을 활용하여 한 눈에 확인하기 쉬워야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APP종료시 입력된 데이터는 변조가 없어야 한다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>1. 메뉴시퀀스 작성
  - 화면별 세부기능 설계</x:t>
   </x:si>
   <x:si>
-    <x:t>게시판을 이용하기 위해서는 로그인을 해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이콘을 활용하여 한 눈에 확인하기 쉬워야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어플 내 광고를 통해 일정 수입료를 받는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유량, 연비, 운행 거리 및 기타 비용 통계</x:t>
+    <x:t>DB에 저장된 내용들은 변조가 없어야 한다.</x:t>
   </x:si>
   <x:si>
     <x:t>다이어리에 메모한 사항 달력에 날짜 표시</x:t>
@@ -941,14 +950,27 @@
     <x:t>게시판 형태로 존재, 결함/리콜 내역</x:t>
   </x:si>
   <x:si>
+    <x:t>1. 아이디어 도출
+ - USB 복구 툴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중복되는 아이디는 가입이 되어선 안된다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>정확한 위치의 지도 정보를 받아와야 한다.</x:t>
   </x:si>
   <x:si>
-    <x:t>중복되는 아이디는 가입이 되어선 안된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:36
-18:04</x:t>
+    <x:t>1. 주제 아이디어 선정
+2. 요구사항 정의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 브리핑 준비
+ - 메모장 정리
+2. 견학 보고서 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:34
+12:37</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1513,7 +1535,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="101">
+  <x:cellXfs count="102">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -2024,6 +2046,19 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
@@ -3019,9 +3054,9 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B2:E42"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:pane xSplit="0" ySplit="2" topLeftCell="C24" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" activeCell="C26" activeCellId="0" sqref="C26:C26"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:pane xSplit="0" ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <x:selection pane="bottomLeft" activeCell="D28" activeCellId="0" sqref="D28:D28"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.199999999999999"/>
@@ -3037,16 +3072,16 @@
     <x:row r="1" ht="6.5999999999999996" customHeight="1"/>
     <x:row r="2" spans="2:5" ht="31.199999999999999" customHeight="1">
       <x:c r="B2" s="5" t="s">
-        <x:v>78</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C2" s="6" t="s">
-        <x:v>151</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="D2" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E2" s="7" t="s">
-        <x:v>102</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:5" ht="105.75">
@@ -3054,13 +3089,13 @@
         <x:v>44369</x:v>
       </x:c>
       <x:c r="C3" s="15" t="s">
-        <x:v>216</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D3" s="9" t="s">
-        <x:v>255</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="E3" s="9" t="s">
-        <x:v>25</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:5" ht="118.55">
@@ -3068,13 +3103,13 @@
         <x:v>44370</x:v>
       </x:c>
       <x:c r="C4" s="14" t="s">
-        <x:v>216</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D4" s="12" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E4" s="12" t="s">
-        <x:v>13</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:5" ht="79.049999999999997">
@@ -3082,13 +3117,13 @@
         <x:v>44371</x:v>
       </x:c>
       <x:c r="C5" s="16" t="s">
-        <x:v>240</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D5" s="12" t="s">
-        <x:v>183</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E5" s="12" t="s">
-        <x:v>15</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:5" ht="79.049999999999997">
@@ -3096,13 +3131,13 @@
         <x:v>44372</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
-        <x:v>240</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D6" s="12" t="s">
-        <x:v>19</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E6" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:5" ht="79.049999999999997">
@@ -3110,13 +3145,13 @@
         <x:v>44375</x:v>
       </x:c>
       <x:c r="C7" s="14" t="s">
-        <x:v>226</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D7" s="12" t="s">
-        <x:v>252</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="E7" s="12" t="s">
-        <x:v>194</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:5" ht="52.700000000000003">
@@ -3124,13 +3159,13 @@
         <x:v>44376</x:v>
       </x:c>
       <x:c r="C8" s="14" t="s">
-        <x:v>219</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D8" s="12" t="s">
-        <x:v>170</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E8" s="12" t="s">
-        <x:v>2</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:5" ht="52.700000000000003">
@@ -3138,13 +3173,13 @@
         <x:v>44377</x:v>
       </x:c>
       <x:c r="C9" s="19" t="s">
-        <x:v>236</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D9" s="12" t="s">
-        <x:v>21</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E9" s="12" t="s">
-        <x:v>182</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:5" ht="52.700000000000003">
@@ -3152,13 +3187,13 @@
         <x:v>44378</x:v>
       </x:c>
       <x:c r="C10" s="20" t="s">
-        <x:v>243</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D10" s="12" t="s">
-        <x:v>188</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E10" s="12" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:5" ht="65.849999999999994">
@@ -3166,13 +3201,13 @@
         <x:v>44379</x:v>
       </x:c>
       <x:c r="C11" s="22" t="s">
-        <x:v>241</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D11" s="12" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E11" s="12" t="s">
-        <x:v>195</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:5" ht="105.40000000000001">
@@ -3180,13 +3215,13 @@
         <x:v>44382</x:v>
       </x:c>
       <x:c r="C12" s="21" t="s">
-        <x:v>235</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D12" s="12" t="s">
-        <x:v>187</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E12" s="12" t="s">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:5" ht="52.700000000000003">
@@ -3194,13 +3229,13 @@
         <x:v>44383</x:v>
       </x:c>
       <x:c r="C13" s="23" t="s">
-        <x:v>243</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D13" s="12" t="s">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E13" s="12" t="s">
-        <x:v>26</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:5" ht="52.700000000000003">
@@ -3208,13 +3243,13 @@
         <x:v>44384</x:v>
       </x:c>
       <x:c r="C14" s="24" t="s">
-        <x:v>207</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D14" s="12" t="s">
-        <x:v>180</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E14" s="12" t="s">
-        <x:v>18</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:5" ht="52.700000000000003">
@@ -3222,13 +3257,13 @@
         <x:v>44385</x:v>
       </x:c>
       <x:c r="C15" s="30" t="s">
-        <x:v>210</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D15" s="12" t="s">
-        <x:v>186</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E15" s="12" t="s">
-        <x:v>17</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:5" ht="26.350000000000001">
@@ -3236,13 +3271,13 @@
         <x:v>44386</x:v>
       </x:c>
       <x:c r="C16" s="31" t="s">
-        <x:v>201</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D16" s="12" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="E16" s="12" t="s">
-        <x:v>22</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:5" ht="39.549999999999997">
@@ -3250,13 +3285,13 @@
         <x:v>44389</x:v>
       </x:c>
       <x:c r="C17" s="70" t="s">
-        <x:v>229</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D17" s="12" t="s">
-        <x:v>23</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E17" s="12" t="s">
-        <x:v>246</x:v>
+        <x:v>250</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:5" ht="26.350000000000001">
@@ -3264,13 +3299,13 @@
         <x:v>44390</x:v>
       </x:c>
       <x:c r="C18" s="71" t="s">
-        <x:v>228</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D18" s="12" t="s">
         <x:v>258</x:v>
       </x:c>
       <x:c r="E18" s="12" t="s">
-        <x:v>184</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:5" ht="26.350000000000001">
@@ -3278,13 +3313,13 @@
         <x:v>44391</x:v>
       </x:c>
       <x:c r="C19" s="71" t="s">
-        <x:v>243</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D19" s="12" t="s">
         <x:v>258</x:v>
       </x:c>
       <x:c r="E19" s="12" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:5" ht="26.350000000000001">
@@ -3292,13 +3327,13 @@
         <x:v>44392</x:v>
       </x:c>
       <x:c r="C20" s="14" t="s">
-        <x:v>238</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D20" s="12" t="s">
-        <x:v>9</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E20" s="11" t="s">
-        <x:v>223</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="2:5" ht="26.350000000000001">
@@ -3306,13 +3341,13 @@
         <x:v>44393</x:v>
       </x:c>
       <x:c r="C21" s="72" t="s">
-        <x:v>222</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D21" s="12" t="s">
-        <x:v>189</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E21" s="12" t="s">
-        <x:v>259</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="2:5" ht="26.350000000000001">
@@ -3320,13 +3355,13 @@
         <x:v>44396</x:v>
       </x:c>
       <x:c r="C22" s="73" t="s">
-        <x:v>244</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D22" s="11" t="s">
-        <x:v>245</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="E22" s="12" t="s">
-        <x:v>24</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="2:5" ht="26.350000000000001">
@@ -3334,13 +3369,13 @@
         <x:v>44397</x:v>
       </x:c>
       <x:c r="C23" s="74" t="s">
-        <x:v>204</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D23" s="12" t="s">
-        <x:v>196</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="E23" s="12" t="s">
-        <x:v>197</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="2:5" ht="39.549999999999997">
@@ -3348,55 +3383,65 @@
         <x:v>44398</x:v>
       </x:c>
       <x:c r="C24" s="14" t="s">
-        <x:v>199</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D24" s="11" t="s">
-        <x:v>198</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E24" s="12" t="s">
-        <x:v>8</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="2:5" ht="26.350000000000001">
       <x:c r="B25" s="13">
         <x:v>44399</x:v>
       </x:c>
-      <x:c r="C25" s="100" t="s">
+      <x:c r="C25" s="75" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D25" s="11" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E25" s="12" t="s">
         <x:v>268</x:v>
       </x:c>
-      <x:c r="D25" s="11" t="s">
-        <x:v>198</x:v>
-      </x:c>
-      <x:c r="E25" s="12" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="2:5">
+    </x:row>
+    <x:row r="26" spans="2:5" ht="26.350000000000001">
       <x:c r="B26" s="13">
         <x:v>44400</x:v>
       </x:c>
-      <x:c r="C26" s="10"/>
+      <x:c r="C26" s="14" t="s">
+        <x:v>273</x:v>
+      </x:c>
       <x:c r="D26" s="11" t="s">
-        <x:v>28</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E26" s="11" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="2:5">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="2:5" ht="39.549999999999997">
       <x:c r="B27" s="13">
         <x:v>44403</x:v>
       </x:c>
-      <x:c r="C27" s="10"/>
-      <x:c r="D27" s="11"/>
-      <x:c r="E27" s="11"/>
-    </x:row>
-    <x:row r="28" spans="2:5">
+      <x:c r="C27" s="101" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="D27" s="12" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E27" s="12" t="s">
+        <x:v>272</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="2:5" ht="26.350000000000001">
       <x:c r="B28" s="13">
         <x:v>44404</x:v>
       </x:c>
       <x:c r="C28" s="10"/>
-      <x:c r="D28" s="11"/>
+      <x:c r="D28" s="12" t="s">
+        <x:v>271</x:v>
+      </x:c>
       <x:c r="E28" s="11"/>
     </x:row>
     <x:row r="29" spans="2:5">
@@ -3539,78 +3584,78 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="17.149999999999999">
       <x:c r="A1" s="26" t="s">
-        <x:v>209</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B1" s="33" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C1" s="34" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="D1" s="34" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="E1" s="34" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="F1" s="34" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="G1" s="34" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="C1" s="34" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="D1" s="34" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="E1" s="34" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="F1" s="34" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="G1" s="34" t="s">
-        <x:v>80</x:v>
-      </x:c>
       <x:c r="H1" s="34" t="s">
-        <x:v>40</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="I1" s="35" t="s">
-        <x:v>51</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:9">
-      <x:c r="A2" s="83" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="B2" s="77" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C2" s="80" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="D2" s="80" t="s">
-        <x:v>75</x:v>
+      <x:c r="A2" s="84" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="B2" s="78" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="C2" s="81" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D2" s="81" t="s">
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E2" s="38" t="s">
-        <x:v>122</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="F2" s="38"/>
       <x:c r="G2" s="38"/>
       <x:c r="H2" s="38"/>
       <x:c r="I2" s="38" t="s">
-        <x:v>205</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
-      <x:c r="A3" s="84"/>
-      <x:c r="B3" s="78"/>
-      <x:c r="C3" s="81"/>
-      <x:c r="D3" s="81"/>
+      <x:c r="A3" s="85"/>
+      <x:c r="B3" s="79"/>
+      <x:c r="C3" s="82"/>
+      <x:c r="D3" s="82"/>
       <x:c r="E3" s="37" t="s">
-        <x:v>220</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F3" s="37"/>
       <x:c r="G3" s="37"/>
       <x:c r="H3" s="37"/>
       <x:c r="I3" s="37" t="s">
-        <x:v>157</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
-      <x:c r="A4" s="84"/>
-      <x:c r="B4" s="78"/>
-      <x:c r="C4" s="81"/>
-      <x:c r="D4" s="81"/>
+      <x:c r="A4" s="85"/>
+      <x:c r="B4" s="79"/>
+      <x:c r="C4" s="82"/>
+      <x:c r="D4" s="82"/>
       <x:c r="E4" s="37" t="s">
-        <x:v>117</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="F4" s="37"/>
       <x:c r="G4" s="37"/>
@@ -3618,42 +3663,42 @@
       <x:c r="I4" s="37"/>
     </x:row>
     <x:row r="5" spans="1:9">
-      <x:c r="A5" s="84"/>
-      <x:c r="B5" s="78"/>
-      <x:c r="C5" s="81"/>
-      <x:c r="D5" s="81"/>
-      <x:c r="E5" s="75" t="s">
-        <x:v>98</x:v>
+      <x:c r="A5" s="85"/>
+      <x:c r="B5" s="79"/>
+      <x:c r="C5" s="82"/>
+      <x:c r="D5" s="82"/>
+      <x:c r="E5" s="76" t="s">
+        <x:v>146</x:v>
       </x:c>
       <x:c r="F5" s="37" t="s">
-        <x:v>89</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="G5" s="37"/>
       <x:c r="H5" s="37"/>
       <x:c r="I5" s="37"/>
     </x:row>
     <x:row r="6" spans="1:9">
-      <x:c r="A6" s="84"/>
-      <x:c r="B6" s="78"/>
-      <x:c r="C6" s="81"/>
-      <x:c r="D6" s="76"/>
-      <x:c r="E6" s="76"/>
+      <x:c r="A6" s="85"/>
+      <x:c r="B6" s="79"/>
+      <x:c r="C6" s="82"/>
+      <x:c r="D6" s="77"/>
+      <x:c r="E6" s="77"/>
       <x:c r="F6" s="37" t="s">
-        <x:v>200</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G6" s="37"/>
       <x:c r="H6" s="37"/>
       <x:c r="I6" s="37"/>
     </x:row>
     <x:row r="7" spans="1:9">
-      <x:c r="A7" s="84"/>
-      <x:c r="B7" s="78"/>
-      <x:c r="C7" s="81"/>
-      <x:c r="D7" s="75" t="s">
-        <x:v>100</x:v>
+      <x:c r="A7" s="85"/>
+      <x:c r="B7" s="79"/>
+      <x:c r="C7" s="82"/>
+      <x:c r="D7" s="76" t="s">
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E7" s="37" t="s">
-        <x:v>47</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="F7" s="37"/>
       <x:c r="G7" s="37"/>
@@ -3661,91 +3706,91 @@
       <x:c r="I7" s="37"/>
     </x:row>
     <x:row r="8" spans="1:9">
-      <x:c r="A8" s="84"/>
-      <x:c r="B8" s="78"/>
-      <x:c r="C8" s="81"/>
-      <x:c r="D8" s="81"/>
+      <x:c r="A8" s="85"/>
+      <x:c r="B8" s="79"/>
+      <x:c r="C8" s="82"/>
+      <x:c r="D8" s="82"/>
       <x:c r="E8" s="37" t="s">
-        <x:v>69</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="F8" s="37"/>
       <x:c r="G8" s="37"/>
       <x:c r="H8" s="37"/>
       <x:c r="I8" s="37" t="s">
-        <x:v>179</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
-      <x:c r="A9" s="84"/>
-      <x:c r="B9" s="78"/>
-      <x:c r="C9" s="81"/>
-      <x:c r="D9" s="81"/>
+      <x:c r="A9" s="85"/>
+      <x:c r="B9" s="79"/>
+      <x:c r="C9" s="82"/>
+      <x:c r="D9" s="82"/>
       <x:c r="E9" s="37" t="s">
-        <x:v>66</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="F9" s="37"/>
       <x:c r="G9" s="37"/>
       <x:c r="H9" s="37"/>
       <x:c r="I9" s="37" t="s">
-        <x:v>159</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
-      <x:c r="A10" s="84"/>
-      <x:c r="B10" s="78"/>
-      <x:c r="C10" s="81"/>
-      <x:c r="D10" s="81"/>
-      <x:c r="E10" s="75" t="s">
-        <x:v>85</x:v>
+      <x:c r="A10" s="85"/>
+      <x:c r="B10" s="79"/>
+      <x:c r="C10" s="82"/>
+      <x:c r="D10" s="82"/>
+      <x:c r="E10" s="76" t="s">
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F10" s="37" t="s">
-        <x:v>143</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="G10" s="37"/>
       <x:c r="H10" s="37"/>
       <x:c r="I10" s="37"/>
     </x:row>
     <x:row r="11" spans="1:9">
-      <x:c r="A11" s="84"/>
-      <x:c r="B11" s="78"/>
-      <x:c r="C11" s="81"/>
-      <x:c r="D11" s="81"/>
-      <x:c r="E11" s="81"/>
+      <x:c r="A11" s="85"/>
+      <x:c r="B11" s="79"/>
+      <x:c r="C11" s="82"/>
+      <x:c r="D11" s="82"/>
+      <x:c r="E11" s="82"/>
       <x:c r="F11" s="37" t="s">
-        <x:v>95</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G11" s="37"/>
       <x:c r="H11" s="37"/>
       <x:c r="I11" s="37" t="s">
-        <x:v>249</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
-      <x:c r="A12" s="84"/>
-      <x:c r="B12" s="78"/>
-      <x:c r="C12" s="81"/>
-      <x:c r="D12" s="81"/>
-      <x:c r="E12" s="81"/>
+      <x:c r="A12" s="85"/>
+      <x:c r="B12" s="79"/>
+      <x:c r="C12" s="82"/>
+      <x:c r="D12" s="82"/>
+      <x:c r="E12" s="82"/>
       <x:c r="F12" s="37" t="s">
-        <x:v>33</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="G12" s="37"/>
       <x:c r="H12" s="37"/>
       <x:c r="I12" s="37"/>
     </x:row>
     <x:row r="13" spans="1:28">
-      <x:c r="A13" s="84"/>
-      <x:c r="B13" s="78"/>
-      <x:c r="C13" s="76"/>
-      <x:c r="D13" s="76"/>
-      <x:c r="E13" s="76"/>
+      <x:c r="A13" s="85"/>
+      <x:c r="B13" s="79"/>
+      <x:c r="C13" s="77"/>
+      <x:c r="D13" s="77"/>
+      <x:c r="E13" s="77"/>
       <x:c r="F13" s="37" t="s">
-        <x:v>57</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="G13" s="37"/>
       <x:c r="H13" s="37"/>
       <x:c r="I13" s="37" t="s">
-        <x:v>156</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="J13" s="29"/>
       <x:c r="K13" s="29"/>
@@ -3768,22 +3813,22 @@
       <x:c r="AB13" s="29"/>
     </x:row>
     <x:row r="14" spans="1:28">
-      <x:c r="A14" s="84"/>
-      <x:c r="B14" s="78"/>
-      <x:c r="C14" s="75" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="D14" s="75" t="s">
-        <x:v>83</x:v>
+      <x:c r="A14" s="85"/>
+      <x:c r="B14" s="79"/>
+      <x:c r="C14" s="76" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D14" s="76" t="s">
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E14" s="37" t="s">
-        <x:v>41</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="F14" s="37"/>
       <x:c r="G14" s="37"/>
       <x:c r="H14" s="37"/>
       <x:c r="I14" s="37" t="s">
-        <x:v>31</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="J14" s="29"/>
       <x:c r="K14" s="29"/>
@@ -3806,18 +3851,18 @@
       <x:c r="AB14" s="29"/>
     </x:row>
     <x:row r="15" spans="1:28">
-      <x:c r="A15" s="84"/>
-      <x:c r="B15" s="78"/>
-      <x:c r="C15" s="81"/>
-      <x:c r="D15" s="81"/>
+      <x:c r="A15" s="85"/>
+      <x:c r="B15" s="79"/>
+      <x:c r="C15" s="82"/>
+      <x:c r="D15" s="82"/>
       <x:c r="E15" s="37" t="s">
-        <x:v>142</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="F15" s="37"/>
       <x:c r="G15" s="37"/>
       <x:c r="H15" s="37"/>
       <x:c r="I15" s="37" t="s">
-        <x:v>97</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="J15" s="29"/>
       <x:c r="K15" s="29"/>
@@ -3840,12 +3885,12 @@
       <x:c r="AB15" s="29"/>
     </x:row>
     <x:row r="16" spans="1:28">
-      <x:c r="A16" s="84"/>
-      <x:c r="B16" s="78"/>
-      <x:c r="C16" s="81"/>
-      <x:c r="D16" s="81"/>
+      <x:c r="A16" s="85"/>
+      <x:c r="B16" s="79"/>
+      <x:c r="C16" s="82"/>
+      <x:c r="D16" s="82"/>
       <x:c r="E16" s="37" t="s">
-        <x:v>147</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F16" s="37"/>
       <x:c r="G16" s="37"/>
@@ -3871,18 +3916,18 @@
       <x:c r="AB16" s="29"/>
     </x:row>
     <x:row r="17" spans="1:28">
-      <x:c r="A17" s="84"/>
-      <x:c r="B17" s="78"/>
-      <x:c r="C17" s="81"/>
-      <x:c r="D17" s="76"/>
+      <x:c r="A17" s="85"/>
+      <x:c r="B17" s="79"/>
+      <x:c r="C17" s="82"/>
+      <x:c r="D17" s="77"/>
       <x:c r="E17" s="37" t="s">
-        <x:v>99</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="F17" s="37"/>
       <x:c r="G17" s="37"/>
       <x:c r="H17" s="37"/>
       <x:c r="I17" s="37" t="s">
-        <x:v>265</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="J17" s="29"/>
       <x:c r="K17" s="29"/>
@@ -3905,17 +3950,17 @@
       <x:c r="AB17" s="29"/>
     </x:row>
     <x:row r="18" spans="1:28">
-      <x:c r="A18" s="84"/>
-      <x:c r="B18" s="78"/>
-      <x:c r="C18" s="81"/>
+      <x:c r="A18" s="85"/>
+      <x:c r="B18" s="79"/>
+      <x:c r="C18" s="82"/>
       <x:c r="D18" s="37" t="s">
-        <x:v>233</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E18" s="37" t="s">
-        <x:v>225</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F18" s="37" t="s">
-        <x:v>140</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="G18" s="37"/>
       <x:c r="H18" s="37"/>
@@ -3941,18 +3986,18 @@
       <x:c r="AB18" s="29"/>
     </x:row>
     <x:row r="19" spans="1:28">
-      <x:c r="A19" s="84"/>
-      <x:c r="B19" s="78"/>
-      <x:c r="C19" s="81"/>
+      <x:c r="A19" s="85"/>
+      <x:c r="B19" s="79"/>
+      <x:c r="C19" s="82"/>
       <x:c r="D19" s="37" t="s">
-        <x:v>30</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E19" s="37"/>
       <x:c r="F19" s="37"/>
       <x:c r="G19" s="37"/>
       <x:c r="H19" s="37"/>
-      <x:c r="I19" s="75" t="s">
-        <x:v>206</x:v>
+      <x:c r="I19" s="76" t="s">
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J19" s="29"/>
       <x:c r="K19" s="29"/>
@@ -3975,17 +4020,17 @@
       <x:c r="AB19" s="29"/>
     </x:row>
     <x:row r="20" spans="1:28">
-      <x:c r="A20" s="84"/>
-      <x:c r="B20" s="78"/>
-      <x:c r="C20" s="81"/>
+      <x:c r="A20" s="85"/>
+      <x:c r="B20" s="79"/>
+      <x:c r="C20" s="82"/>
       <x:c r="D20" s="37" t="s">
-        <x:v>99</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E20" s="37"/>
       <x:c r="F20" s="37"/>
       <x:c r="G20" s="37"/>
       <x:c r="H20" s="37"/>
-      <x:c r="I20" s="81"/>
+      <x:c r="I20" s="82"/>
       <x:c r="J20" s="29"/>
       <x:c r="K20" s="29"/>
       <x:c r="L20" s="29"/>
@@ -4007,17 +4052,17 @@
       <x:c r="AB20" s="29"/>
     </x:row>
     <x:row r="21" spans="1:28">
-      <x:c r="A21" s="84"/>
-      <x:c r="B21" s="78"/>
-      <x:c r="C21" s="81"/>
+      <x:c r="A21" s="85"/>
+      <x:c r="B21" s="79"/>
+      <x:c r="C21" s="82"/>
       <x:c r="D21" s="37" t="s">
-        <x:v>147</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E21" s="37"/>
       <x:c r="F21" s="37"/>
       <x:c r="G21" s="37"/>
       <x:c r="H21" s="37"/>
-      <x:c r="I21" s="76"/>
+      <x:c r="I21" s="77"/>
       <x:c r="J21" s="29"/>
       <x:c r="K21" s="29"/>
       <x:c r="L21" s="29"/>
@@ -4039,11 +4084,11 @@
       <x:c r="AB21" s="29"/>
     </x:row>
     <x:row r="22" spans="1:28">
-      <x:c r="A22" s="84"/>
-      <x:c r="B22" s="79"/>
-      <x:c r="C22" s="76"/>
+      <x:c r="A22" s="85"/>
+      <x:c r="B22" s="80"/>
+      <x:c r="C22" s="77"/>
       <x:c r="D22" s="37" t="s">
-        <x:v>203</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E22" s="37"/>
       <x:c r="F22" s="37"/>
@@ -4071,12 +4116,12 @@
       <x:c r="AB22" s="29"/>
     </x:row>
     <x:row r="23" spans="1:28">
-      <x:c r="A23" s="84"/>
-      <x:c r="B23" s="82" t="s">
-        <x:v>115</x:v>
+      <x:c r="A23" s="85"/>
+      <x:c r="B23" s="83" t="s">
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C23" s="37" t="s">
-        <x:v>218</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D23" s="37"/>
       <x:c r="E23" s="37"/>
@@ -4105,10 +4150,10 @@
       <x:c r="AB23" s="29"/>
     </x:row>
     <x:row r="24" spans="1:28">
-      <x:c r="A24" s="84"/>
-      <x:c r="B24" s="78"/>
+      <x:c r="A24" s="85"/>
+      <x:c r="B24" s="79"/>
       <x:c r="C24" s="37" t="s">
-        <x:v>72</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D24" s="37"/>
       <x:c r="E24" s="37"/>
@@ -4137,10 +4182,10 @@
       <x:c r="AB24" s="29"/>
     </x:row>
     <x:row r="25" spans="1:28">
-      <x:c r="A25" s="84"/>
-      <x:c r="B25" s="78"/>
+      <x:c r="A25" s="85"/>
+      <x:c r="B25" s="79"/>
       <x:c r="C25" s="37" t="s">
-        <x:v>48</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="D25" s="37"/>
       <x:c r="E25" s="37"/>
@@ -4169,16 +4214,16 @@
       <x:c r="AB25" s="29"/>
     </x:row>
     <x:row r="26" spans="1:87">
-      <x:c r="A26" s="84"/>
-      <x:c r="B26" s="78"/>
-      <x:c r="C26" s="75" t="s">
-        <x:v>115</x:v>
+      <x:c r="A26" s="85"/>
+      <x:c r="B26" s="79"/>
+      <x:c r="C26" s="76" t="s">
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D26" s="37" t="s">
-        <x:v>132</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="E26" s="37" t="s">
-        <x:v>231</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F26" s="37"/>
       <x:c r="G26" s="37"/>
@@ -4264,17 +4309,17 @@
       <x:c r="CI26" s="29"/>
     </x:row>
     <x:row r="27" spans="1:87" s="1" customFormat="1">
-      <x:c r="A27" s="83"/>
-      <x:c r="B27" s="82"/>
-      <x:c r="C27" s="81"/>
-      <x:c r="D27" s="75" t="s">
-        <x:v>52</x:v>
+      <x:c r="A27" s="84"/>
+      <x:c r="B27" s="83"/>
+      <x:c r="C27" s="82"/>
+      <x:c r="D27" s="76" t="s">
+        <x:v>236</x:v>
       </x:c>
       <x:c r="E27" s="37" t="s">
-        <x:v>128</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F27" s="37" t="s">
-        <x:v>232</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G27" s="37"/>
       <x:c r="H27" s="37"/>
@@ -4359,15 +4404,15 @@
       <x:c r="CI27" s="29"/>
     </x:row>
     <x:row r="28" spans="1:87">
-      <x:c r="A28" s="84"/>
-      <x:c r="B28" s="78"/>
-      <x:c r="C28" s="81"/>
-      <x:c r="D28" s="76"/>
+      <x:c r="A28" s="85"/>
+      <x:c r="B28" s="79"/>
+      <x:c r="C28" s="82"/>
+      <x:c r="D28" s="77"/>
       <x:c r="E28" s="37" t="s">
-        <x:v>118</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F28" s="37" t="s">
-        <x:v>232</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G28" s="37"/>
       <x:c r="H28" s="37"/>
@@ -4452,14 +4497,14 @@
       <x:c r="CI28" s="29"/>
     </x:row>
     <x:row r="29" spans="1:87">
-      <x:c r="A29" s="84"/>
-      <x:c r="B29" s="78"/>
-      <x:c r="C29" s="81"/>
+      <x:c r="A29" s="85"/>
+      <x:c r="B29" s="79"/>
+      <x:c r="C29" s="82"/>
       <x:c r="D29" s="37" t="s">
-        <x:v>82</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E29" s="39" t="s">
-        <x:v>120</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="F29" s="39"/>
       <x:c r="G29" s="37"/>
@@ -4545,14 +4590,14 @@
       <x:c r="CI29" s="29"/>
     </x:row>
     <x:row r="30" spans="1:87">
-      <x:c r="A30" s="84"/>
-      <x:c r="B30" s="78"/>
-      <x:c r="C30" s="81"/>
+      <x:c r="A30" s="85"/>
+      <x:c r="B30" s="79"/>
+      <x:c r="C30" s="82"/>
       <x:c r="D30" s="37" t="s">
-        <x:v>148</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="E30" s="37" t="s">
-        <x:v>67</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="F30" s="37"/>
       <x:c r="G30" s="37"/>
@@ -4638,12 +4683,12 @@
       <x:c r="CI30" s="29"/>
     </x:row>
     <x:row r="31" spans="1:87" s="1" customFormat="1">
-      <x:c r="A31" s="83"/>
-      <x:c r="B31" s="82"/>
-      <x:c r="C31" s="81"/>
+      <x:c r="A31" s="84"/>
+      <x:c r="B31" s="83"/>
+      <x:c r="C31" s="82"/>
       <x:c r="D31" s="37"/>
       <x:c r="E31" s="37" t="s">
-        <x:v>86</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F31" s="37"/>
       <x:c r="G31" s="37"/>
@@ -4729,14 +4774,14 @@
       <x:c r="CI31" s="29"/>
     </x:row>
     <x:row r="32" spans="1:87">
-      <x:c r="A32" s="84"/>
-      <x:c r="B32" s="78"/>
-      <x:c r="C32" s="81"/>
+      <x:c r="A32" s="85"/>
+      <x:c r="B32" s="79"/>
+      <x:c r="C32" s="82"/>
       <x:c r="D32" s="37" t="s">
-        <x:v>133</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E32" s="37" t="s">
-        <x:v>91</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="F32" s="37"/>
       <x:c r="G32" s="37"/>
@@ -4822,11 +4867,11 @@
       <x:c r="CI32" s="29"/>
     </x:row>
     <x:row r="33" spans="1:87">
-      <x:c r="A33" s="84"/>
-      <x:c r="B33" s="78"/>
-      <x:c r="C33" s="76"/>
+      <x:c r="A33" s="85"/>
+      <x:c r="B33" s="79"/>
+      <x:c r="C33" s="77"/>
       <x:c r="D33" s="37" t="s">
-        <x:v>136</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E33" s="37"/>
       <x:c r="F33" s="37"/>
@@ -4913,13 +4958,13 @@
       <x:c r="CI33" s="29"/>
     </x:row>
     <x:row r="34" spans="1:87" s="1" customFormat="1">
-      <x:c r="A34" s="83"/>
-      <x:c r="B34" s="82"/>
-      <x:c r="C34" s="75" t="s">
-        <x:v>152</x:v>
+      <x:c r="A34" s="84"/>
+      <x:c r="B34" s="83"/>
+      <x:c r="C34" s="76" t="s">
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D34" s="37" t="s">
-        <x:v>96</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E34" s="37"/>
       <x:c r="F34" s="37"/>
@@ -5006,11 +5051,11 @@
       <x:c r="CI34" s="29"/>
     </x:row>
     <x:row r="35" spans="1:87" s="1" customFormat="1">
-      <x:c r="A35" s="84"/>
-      <x:c r="B35" s="78"/>
-      <x:c r="C35" s="81"/>
+      <x:c r="A35" s="85"/>
+      <x:c r="B35" s="79"/>
+      <x:c r="C35" s="82"/>
       <x:c r="D35" s="37" t="s">
-        <x:v>49</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E35" s="37"/>
       <x:c r="F35" s="37"/>
@@ -5097,11 +5142,11 @@
       <x:c r="CI35" s="29"/>
     </x:row>
     <x:row r="36" spans="1:87" s="1" customFormat="1">
-      <x:c r="A36" s="84"/>
-      <x:c r="B36" s="78"/>
-      <x:c r="C36" s="81"/>
+      <x:c r="A36" s="85"/>
+      <x:c r="B36" s="79"/>
+      <x:c r="C36" s="82"/>
       <x:c r="D36" s="37" t="s">
-        <x:v>43</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="E36" s="37"/>
       <x:c r="F36" s="37"/>
@@ -5188,11 +5233,11 @@
       <x:c r="CI36" s="29"/>
     </x:row>
     <x:row r="37" spans="1:87" s="1" customFormat="1">
-      <x:c r="A37" s="84"/>
-      <x:c r="B37" s="78"/>
-      <x:c r="C37" s="81"/>
+      <x:c r="A37" s="85"/>
+      <x:c r="B37" s="79"/>
+      <x:c r="C37" s="82"/>
       <x:c r="D37" s="37" t="s">
-        <x:v>38</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="E37" s="37"/>
       <x:c r="F37" s="37"/>
@@ -5279,11 +5324,11 @@
       <x:c r="CI37" s="29"/>
     </x:row>
     <x:row r="38" spans="1:87" s="1" customFormat="1">
-      <x:c r="A38" s="84"/>
-      <x:c r="B38" s="78"/>
-      <x:c r="C38" s="81"/>
+      <x:c r="A38" s="85"/>
+      <x:c r="B38" s="79"/>
+      <x:c r="C38" s="82"/>
       <x:c r="D38" s="37" t="s">
-        <x:v>139</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E38" s="37"/>
       <x:c r="F38" s="37"/>
@@ -5370,11 +5415,11 @@
       <x:c r="CI38" s="29"/>
     </x:row>
     <x:row r="39" spans="1:87" s="1" customFormat="1">
-      <x:c r="A39" s="83"/>
-      <x:c r="B39" s="82"/>
-      <x:c r="C39" s="76"/>
+      <x:c r="A39" s="84"/>
+      <x:c r="B39" s="83"/>
+      <x:c r="C39" s="77"/>
       <x:c r="D39" s="37" t="s">
-        <x:v>146</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E39" s="37"/>
       <x:c r="F39" s="37"/>
@@ -5461,12 +5506,12 @@
       <x:c r="CI39" s="29"/>
     </x:row>
     <x:row r="40" spans="1:87">
-      <x:c r="A40" s="84"/>
-      <x:c r="B40" s="82" t="s">
-        <x:v>74</x:v>
+      <x:c r="A40" s="85"/>
+      <x:c r="B40" s="83" t="s">
+        <x:v>230</x:v>
       </x:c>
       <x:c r="C40" s="37" t="s">
-        <x:v>42</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="D40" s="37"/>
       <x:c r="E40" s="37"/>
@@ -5554,10 +5599,10 @@
       <x:c r="CI40" s="29"/>
     </x:row>
     <x:row r="41" spans="1:87">
-      <x:c r="A41" s="84"/>
-      <x:c r="B41" s="78"/>
+      <x:c r="A41" s="85"/>
+      <x:c r="B41" s="79"/>
       <x:c r="C41" s="37" t="s">
-        <x:v>92</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D41" s="37"/>
       <x:c r="E41" s="37"/>
@@ -5645,10 +5690,10 @@
       <x:c r="CI41" s="29"/>
     </x:row>
     <x:row r="42" spans="1:87">
-      <x:c r="A42" s="84"/>
-      <x:c r="B42" s="78"/>
+      <x:c r="A42" s="85"/>
+      <x:c r="B42" s="79"/>
       <x:c r="C42" s="37" t="s">
-        <x:v>90</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D42" s="37"/>
       <x:c r="E42" s="37"/>
@@ -5736,10 +5781,10 @@
       <x:c r="CI42" s="29"/>
     </x:row>
     <x:row r="43" spans="1:87">
-      <x:c r="A43" s="84"/>
-      <x:c r="B43" s="78"/>
+      <x:c r="A43" s="85"/>
+      <x:c r="B43" s="79"/>
       <x:c r="C43" s="37" t="s">
-        <x:v>125</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D43" s="37"/>
       <x:c r="E43" s="37"/>
@@ -5827,10 +5872,10 @@
       <x:c r="CI43" s="29"/>
     </x:row>
     <x:row r="44" spans="1:87">
-      <x:c r="A44" s="84"/>
-      <x:c r="B44" s="78"/>
+      <x:c r="A44" s="85"/>
+      <x:c r="B44" s="79"/>
       <x:c r="C44" s="37" t="s">
-        <x:v>48</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="D44" s="37"/>
       <x:c r="E44" s="37"/>
@@ -5918,10 +5963,10 @@
       <x:c r="CI44" s="29"/>
     </x:row>
     <x:row r="45" spans="1:87">
-      <x:c r="A45" s="84"/>
-      <x:c r="B45" s="79"/>
+      <x:c r="A45" s="85"/>
+      <x:c r="B45" s="80"/>
       <x:c r="C45" s="37" t="s">
-        <x:v>112</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D45" s="37"/>
       <x:c r="E45" s="37"/>
@@ -6009,12 +6054,12 @@
       <x:c r="CI45" s="29"/>
     </x:row>
     <x:row r="46" spans="1:87">
-      <x:c r="A46" s="84"/>
-      <x:c r="B46" s="82" t="s">
-        <x:v>56</x:v>
+      <x:c r="A46" s="85"/>
+      <x:c r="B46" s="83" t="s">
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C46" s="37" t="s">
-        <x:v>39</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="D46" s="37"/>
       <x:c r="E46" s="37"/>
@@ -6102,10 +6147,10 @@
       <x:c r="CI46" s="29"/>
     </x:row>
     <x:row r="47" spans="1:87">
-      <x:c r="A47" s="84"/>
-      <x:c r="B47" s="78"/>
+      <x:c r="A47" s="85"/>
+      <x:c r="B47" s="79"/>
       <x:c r="C47" s="37" t="s">
-        <x:v>62</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="D47" s="37"/>
       <x:c r="E47" s="37"/>
@@ -6193,10 +6238,10 @@
       <x:c r="CI47" s="29"/>
     </x:row>
     <x:row r="48" spans="1:87">
-      <x:c r="A48" s="84"/>
-      <x:c r="B48" s="78"/>
+      <x:c r="A48" s="85"/>
+      <x:c r="B48" s="79"/>
       <x:c r="C48" s="37" t="s">
-        <x:v>114</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D48" s="37"/>
       <x:c r="E48" s="37"/>
@@ -6284,10 +6329,10 @@
       <x:c r="CI48" s="29"/>
     </x:row>
     <x:row r="49" spans="1:87">
-      <x:c r="A49" s="84"/>
-      <x:c r="B49" s="79"/>
+      <x:c r="A49" s="85"/>
+      <x:c r="B49" s="80"/>
       <x:c r="C49" s="37" t="s">
-        <x:v>129</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D49" s="37"/>
       <x:c r="E49" s="37"/>
@@ -6375,15 +6420,15 @@
       <x:c r="CI49" s="29"/>
     </x:row>
     <x:row r="50" spans="1:87">
-      <x:c r="A50" s="84"/>
-      <x:c r="B50" s="82" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="C50" s="75" t="s">
-        <x:v>218</x:v>
+      <x:c r="A50" s="85"/>
+      <x:c r="B50" s="83" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="C50" s="76" t="s">
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D50" s="37" t="s">
-        <x:v>101</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E50" s="37"/>
       <x:c r="F50" s="37"/>
@@ -6470,11 +6515,11 @@
       <x:c r="CI50" s="29"/>
     </x:row>
     <x:row r="51" spans="1:87">
-      <x:c r="A51" s="84"/>
-      <x:c r="B51" s="78"/>
-      <x:c r="C51" s="76"/>
+      <x:c r="A51" s="85"/>
+      <x:c r="B51" s="79"/>
+      <x:c r="C51" s="77"/>
       <x:c r="D51" s="37" t="s">
-        <x:v>144</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E51" s="37"/>
       <x:c r="F51" s="37"/>
@@ -6561,13 +6606,13 @@
       <x:c r="CI51" s="29"/>
     </x:row>
     <x:row r="52" spans="1:87">
-      <x:c r="A52" s="84"/>
-      <x:c r="B52" s="78"/>
-      <x:c r="C52" s="75" t="s">
-        <x:v>45</x:v>
+      <x:c r="A52" s="85"/>
+      <x:c r="B52" s="79"/>
+      <x:c r="C52" s="76" t="s">
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D52" s="37" t="s">
-        <x:v>234</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E52" s="37"/>
       <x:c r="F52" s="37"/>
@@ -6654,11 +6699,11 @@
       <x:c r="CI52" s="29"/>
     </x:row>
     <x:row r="53" spans="1:87">
-      <x:c r="A53" s="84"/>
-      <x:c r="B53" s="78"/>
-      <x:c r="C53" s="76"/>
+      <x:c r="A53" s="85"/>
+      <x:c r="B53" s="79"/>
+      <x:c r="C53" s="77"/>
       <x:c r="D53" s="37" t="s">
-        <x:v>230</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E53" s="37"/>
       <x:c r="F53" s="37"/>
@@ -6745,13 +6790,13 @@
       <x:c r="CI53" s="29"/>
     </x:row>
     <x:row r="54" spans="1:87">
-      <x:c r="A54" s="84"/>
-      <x:c r="B54" s="78"/>
-      <x:c r="C54" s="75" t="s">
-        <x:v>215</x:v>
+      <x:c r="A54" s="85"/>
+      <x:c r="B54" s="79"/>
+      <x:c r="C54" s="76" t="s">
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D54" s="37" t="s">
-        <x:v>237</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E54" s="37"/>
       <x:c r="F54" s="37"/>
@@ -6838,11 +6883,11 @@
       <x:c r="CI54" s="29"/>
     </x:row>
     <x:row r="55" spans="1:87">
-      <x:c r="A55" s="84"/>
-      <x:c r="B55" s="78"/>
-      <x:c r="C55" s="81"/>
+      <x:c r="A55" s="85"/>
+      <x:c r="B55" s="79"/>
+      <x:c r="C55" s="82"/>
       <x:c r="D55" s="37" t="s">
-        <x:v>213</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E55" s="37"/>
       <x:c r="F55" s="37"/>
@@ -6929,11 +6974,11 @@
       <x:c r="CI55" s="29"/>
     </x:row>
     <x:row r="56" spans="1:87">
-      <x:c r="A56" s="84"/>
-      <x:c r="B56" s="78"/>
-      <x:c r="C56" s="76"/>
+      <x:c r="A56" s="85"/>
+      <x:c r="B56" s="79"/>
+      <x:c r="C56" s="77"/>
       <x:c r="D56" s="37" t="s">
-        <x:v>162</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E56" s="37"/>
       <x:c r="F56" s="37"/>
@@ -7020,13 +7065,13 @@
       <x:c r="CI56" s="29"/>
     </x:row>
     <x:row r="57" spans="1:87">
-      <x:c r="A57" s="84"/>
-      <x:c r="B57" s="78"/>
-      <x:c r="C57" s="75" t="s">
-        <x:v>123</x:v>
+      <x:c r="A57" s="85"/>
+      <x:c r="B57" s="79"/>
+      <x:c r="C57" s="76" t="s">
+        <x:v>163</x:v>
       </x:c>
       <x:c r="D57" s="37" t="s">
-        <x:v>165</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E57" s="37"/>
       <x:c r="F57" s="37"/>
@@ -7113,11 +7158,11 @@
       <x:c r="CI57" s="29"/>
     </x:row>
     <x:row r="58" spans="1:87">
-      <x:c r="A58" s="84"/>
-      <x:c r="B58" s="78"/>
-      <x:c r="C58" s="76"/>
+      <x:c r="A58" s="85"/>
+      <x:c r="B58" s="79"/>
+      <x:c r="C58" s="77"/>
       <x:c r="D58" s="37" t="s">
-        <x:v>208</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E58" s="37"/>
       <x:c r="F58" s="37"/>
@@ -7204,13 +7249,13 @@
       <x:c r="CI58" s="29"/>
     </x:row>
     <x:row r="59" spans="1:87">
-      <x:c r="A59" s="84"/>
-      <x:c r="B59" s="78"/>
-      <x:c r="C59" s="75" t="s">
-        <x:v>239</x:v>
+      <x:c r="A59" s="85"/>
+      <x:c r="B59" s="79"/>
+      <x:c r="C59" s="76" t="s">
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D59" s="37" t="s">
-        <x:v>161</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E59" s="37"/>
       <x:c r="F59" s="37"/>
@@ -7297,11 +7342,11 @@
       <x:c r="CI59" s="29"/>
     </x:row>
     <x:row r="60" spans="1:87">
-      <x:c r="A60" s="84"/>
-      <x:c r="B60" s="78"/>
-      <x:c r="C60" s="76"/>
+      <x:c r="A60" s="85"/>
+      <x:c r="B60" s="79"/>
+      <x:c r="C60" s="77"/>
       <x:c r="D60" s="37" t="s">
-        <x:v>158</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E60" s="37"/>
       <x:c r="F60" s="37"/>
@@ -7388,13 +7433,13 @@
       <x:c r="CI60" s="29"/>
     </x:row>
     <x:row r="61" spans="1:87">
-      <x:c r="A61" s="84"/>
-      <x:c r="B61" s="78"/>
-      <x:c r="C61" s="75" t="s">
-        <x:v>141</x:v>
+      <x:c r="A61" s="85"/>
+      <x:c r="B61" s="79"/>
+      <x:c r="C61" s="76" t="s">
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D61" s="37" t="s">
-        <x:v>34</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E61" s="37"/>
       <x:c r="F61" s="37"/>
@@ -7481,11 +7526,11 @@
       <x:c r="CI61" s="29"/>
     </x:row>
     <x:row r="62" spans="1:87">
-      <x:c r="A62" s="85"/>
-      <x:c r="B62" s="79"/>
-      <x:c r="C62" s="76"/>
+      <x:c r="A62" s="86"/>
+      <x:c r="B62" s="80"/>
+      <x:c r="C62" s="77"/>
       <x:c r="D62" s="37" t="s">
-        <x:v>124</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="E62" s="37"/>
       <x:c r="F62" s="37"/>
@@ -9527,288 +9572,288 @@
   <x:sheetData>
     <x:row r="1" spans="1:8" ht="17.149999999999999">
       <x:c r="A1" s="32" t="s">
-        <x:v>209</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B1" s="33" t="s">
-        <x:v>126</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C1" s="34" t="s">
-        <x:v>110</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D1" s="34" t="s">
-        <x:v>149</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="E1" s="34" t="s">
-        <x:v>113</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F1" s="34" t="s">
-        <x:v>87</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="G1" s="34" t="s">
-        <x:v>40</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="H1" s="35" t="s">
-        <x:v>54</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8" ht="16.75" customHeight="1">
-      <x:c r="A2" s="83" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="B2" s="77" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="C2" s="90" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="D2" s="88" t="s">
-        <x:v>83</x:v>
+      <x:c r="A2" s="84" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="B2" s="78" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="C2" s="91" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D2" s="89" t="s">
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E2" s="58" t="s">
-        <x:v>211</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F2" s="58"/>
       <x:c r="G2" s="58"/>
       <x:c r="H2" s="58" t="s">
-        <x:v>163</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="84"/>
-      <x:c r="B3" s="78"/>
-      <x:c r="C3" s="91"/>
-      <x:c r="D3" s="89"/>
+      <x:c r="A3" s="85"/>
+      <x:c r="B3" s="79"/>
+      <x:c r="C3" s="92"/>
+      <x:c r="D3" s="90"/>
       <x:c r="E3" s="59" t="s">
-        <x:v>130</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="F3" s="59"/>
       <x:c r="G3" s="59"/>
       <x:c r="H3" s="59" t="s">
-        <x:v>109</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="A4" s="84"/>
-      <x:c r="B4" s="78"/>
-      <x:c r="C4" s="91"/>
-      <x:c r="D4" s="87"/>
+      <x:c r="A4" s="85"/>
+      <x:c r="B4" s="79"/>
+      <x:c r="C4" s="92"/>
+      <x:c r="D4" s="88"/>
       <x:c r="E4" s="59" t="s">
-        <x:v>98</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="F4" s="59"/>
       <x:c r="G4" s="59"/>
       <x:c r="H4" s="59" t="s">
-        <x:v>160</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="84"/>
-      <x:c r="B5" s="78"/>
-      <x:c r="C5" s="91"/>
-      <x:c r="D5" s="86" t="s">
-        <x:v>100</x:v>
+      <x:c r="A5" s="85"/>
+      <x:c r="B5" s="79"/>
+      <x:c r="C5" s="92"/>
+      <x:c r="D5" s="87" t="s">
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E5" s="60" t="s">
-        <x:v>105</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="F5" s="59"/>
       <x:c r="G5" s="59"/>
       <x:c r="H5" s="59" t="s">
-        <x:v>263</x:v>
+        <x:v>259</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="A6" s="84"/>
-      <x:c r="B6" s="78"/>
-      <x:c r="C6" s="92"/>
-      <x:c r="D6" s="87"/>
+      <x:c r="A6" s="85"/>
+      <x:c r="B6" s="79"/>
+      <x:c r="C6" s="93"/>
+      <x:c r="D6" s="88"/>
       <x:c r="E6" s="60" t="s">
-        <x:v>66</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="F6" s="59"/>
       <x:c r="G6" s="59"/>
       <x:c r="H6" s="59" t="s">
-        <x:v>169</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="84"/>
-      <x:c r="B7" s="78"/>
-      <x:c r="C7" s="94" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D7" s="86" t="s">
-        <x:v>166</x:v>
-      </x:c>
-      <x:c r="E7" s="86" t="s">
-        <x:v>83</x:v>
+      <x:c r="A7" s="85"/>
+      <x:c r="B7" s="79"/>
+      <x:c r="C7" s="95" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="D7" s="87" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="E7" s="87" t="s">
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F7" s="59" t="s">
-        <x:v>41</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="G7" s="59"/>
       <x:c r="H7" s="59"/>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="84"/>
-      <x:c r="B8" s="78"/>
-      <x:c r="C8" s="91"/>
-      <x:c r="D8" s="89"/>
-      <x:c r="E8" s="89"/>
+      <x:c r="A8" s="85"/>
+      <x:c r="B8" s="79"/>
+      <x:c r="C8" s="92"/>
+      <x:c r="D8" s="90"/>
+      <x:c r="E8" s="90"/>
       <x:c r="F8" s="59" t="s">
-        <x:v>242</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G8" s="59"/>
       <x:c r="H8" s="59"/>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="84"/>
-      <x:c r="B9" s="78"/>
-      <x:c r="C9" s="91"/>
-      <x:c r="D9" s="89"/>
-      <x:c r="E9" s="89"/>
+      <x:c r="A9" s="85"/>
+      <x:c r="B9" s="79"/>
+      <x:c r="C9" s="92"/>
+      <x:c r="D9" s="90"/>
+      <x:c r="E9" s="90"/>
       <x:c r="F9" s="59" t="s">
-        <x:v>94</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="G9" s="59"/>
       <x:c r="H9" s="59"/>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="84"/>
-      <x:c r="B10" s="78"/>
-      <x:c r="C10" s="91"/>
-      <x:c r="D10" s="89"/>
-      <x:c r="E10" s="89"/>
+      <x:c r="A10" s="85"/>
+      <x:c r="B10" s="79"/>
+      <x:c r="C10" s="92"/>
+      <x:c r="D10" s="90"/>
+      <x:c r="E10" s="90"/>
       <x:c r="F10" s="59" t="s">
-        <x:v>30</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="G10" s="59"/>
       <x:c r="H10" s="59"/>
     </x:row>
     <x:row r="11" spans="1:8" ht="16.75">
-      <x:c r="A11" s="84"/>
-      <x:c r="B11" s="95"/>
-      <x:c r="C11" s="96"/>
-      <x:c r="D11" s="93"/>
-      <x:c r="E11" s="93"/>
+      <x:c r="A11" s="85"/>
+      <x:c r="B11" s="96"/>
+      <x:c r="C11" s="97"/>
+      <x:c r="D11" s="94"/>
+      <x:c r="E11" s="94"/>
       <x:c r="F11" s="61" t="s">
-        <x:v>108</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="G11" s="61"/>
       <x:c r="H11" s="61"/>
     </x:row>
     <x:row r="12" spans="1:8">
-      <x:c r="A12" s="84"/>
-      <x:c r="B12" s="78" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C12" s="91" t="s">
-        <x:v>127</x:v>
+      <x:c r="A12" s="85"/>
+      <x:c r="B12" s="79" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="C12" s="92" t="s">
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D12" s="58" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="E12" s="89" t="s">
-        <x:v>164</x:v>
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="E12" s="90" t="s">
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F12" s="58"/>
       <x:c r="G12" s="58"/>
       <x:c r="H12" s="58"/>
     </x:row>
     <x:row r="13" spans="1:8">
-      <x:c r="A13" s="84"/>
-      <x:c r="B13" s="78"/>
-      <x:c r="C13" s="91"/>
+      <x:c r="A13" s="85"/>
+      <x:c r="B13" s="79"/>
+      <x:c r="C13" s="92"/>
       <x:c r="D13" s="60" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="E13" s="89"/>
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="E13" s="90"/>
       <x:c r="F13" s="59"/>
       <x:c r="G13" s="59"/>
       <x:c r="H13" s="59"/>
     </x:row>
     <x:row r="14" spans="1:8">
-      <x:c r="A14" s="84"/>
-      <x:c r="B14" s="78"/>
-      <x:c r="C14" s="91"/>
+      <x:c r="A14" s="85"/>
+      <x:c r="B14" s="79"/>
+      <x:c r="C14" s="92"/>
       <x:c r="D14" s="60" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="E14" s="89"/>
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="E14" s="90"/>
       <x:c r="F14" s="59"/>
       <x:c r="G14" s="59"/>
       <x:c r="H14" s="59"/>
     </x:row>
     <x:row r="15" spans="1:8">
-      <x:c r="A15" s="84"/>
-      <x:c r="B15" s="78"/>
-      <x:c r="C15" s="92"/>
+      <x:c r="A15" s="85"/>
+      <x:c r="B15" s="79"/>
+      <x:c r="C15" s="93"/>
       <x:c r="D15" s="60" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="E15" s="87"/>
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="E15" s="88"/>
       <x:c r="F15" s="59"/>
       <x:c r="G15" s="59"/>
       <x:c r="H15" s="59"/>
     </x:row>
     <x:row r="16" spans="1:8">
-      <x:c r="A16" s="84"/>
-      <x:c r="B16" s="78"/>
-      <x:c r="C16" s="94" t="s">
-        <x:v>153</x:v>
+      <x:c r="A16" s="85"/>
+      <x:c r="B16" s="79"/>
+      <x:c r="C16" s="95" t="s">
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D16" s="60" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="E16" s="86" t="s">
-        <x:v>218</x:v>
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="E16" s="87" t="s">
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F16" s="59" t="s">
-        <x:v>101</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="G16" s="59"/>
-      <x:c r="H16" s="86" t="s">
-        <x:v>264</x:v>
+      <x:c r="H16" s="87" t="s">
+        <x:v>266</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
-      <x:c r="A17" s="84"/>
-      <x:c r="B17" s="78"/>
-      <x:c r="C17" s="92"/>
+      <x:c r="A17" s="85"/>
+      <x:c r="B17" s="79"/>
+      <x:c r="C17" s="93"/>
       <x:c r="D17" s="59" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="E17" s="87"/>
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="E17" s="88"/>
       <x:c r="F17" s="59" t="s">
-        <x:v>144</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="G17" s="59"/>
-      <x:c r="H17" s="87"/>
+      <x:c r="H17" s="88"/>
     </x:row>
     <x:row r="18" spans="1:8" ht="16.75">
-      <x:c r="A18" s="84"/>
-      <x:c r="B18" s="95"/>
+      <x:c r="A18" s="85"/>
+      <x:c r="B18" s="96"/>
       <x:c r="C18" s="62" t="s">
-        <x:v>107</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D18" s="61"/>
       <x:c r="E18" s="61"/>
       <x:c r="F18" s="61"/>
       <x:c r="G18" s="61"/>
       <x:c r="H18" s="61" t="s">
-        <x:v>155</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
-      <x:c r="A19" s="84"/>
-      <x:c r="B19" s="78" t="s">
-        <x:v>214</x:v>
-      </x:c>
-      <x:c r="C19" s="91" t="s">
-        <x:v>74</x:v>
+      <x:c r="A19" s="85"/>
+      <x:c r="B19" s="79" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C19" s="92" t="s">
+        <x:v>230</x:v>
       </x:c>
       <x:c r="D19" s="58" t="s">
-        <x:v>42</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E19" s="58"/>
       <x:c r="F19" s="58"/>
@@ -9816,11 +9861,11 @@
       <x:c r="H19" s="58"/>
     </x:row>
     <x:row r="20" spans="1:8">
-      <x:c r="A20" s="84"/>
-      <x:c r="B20" s="78"/>
-      <x:c r="C20" s="91"/>
+      <x:c r="A20" s="85"/>
+      <x:c r="B20" s="79"/>
+      <x:c r="C20" s="92"/>
       <x:c r="D20" s="59" t="s">
-        <x:v>63</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="E20" s="59"/>
       <x:c r="F20" s="59"/>
@@ -9828,11 +9873,11 @@
       <x:c r="H20" s="59"/>
     </x:row>
     <x:row r="21" spans="1:8">
-      <x:c r="A21" s="84"/>
-      <x:c r="B21" s="78"/>
-      <x:c r="C21" s="91"/>
+      <x:c r="A21" s="85"/>
+      <x:c r="B21" s="79"/>
+      <x:c r="C21" s="92"/>
       <x:c r="D21" s="59" t="s">
-        <x:v>90</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E21" s="59"/>
       <x:c r="F21" s="59"/>
@@ -9840,11 +9885,11 @@
       <x:c r="H21" s="59"/>
     </x:row>
     <x:row r="22" spans="1:8">
-      <x:c r="A22" s="84"/>
-      <x:c r="B22" s="78"/>
-      <x:c r="C22" s="91"/>
+      <x:c r="A22" s="85"/>
+      <x:c r="B22" s="79"/>
+      <x:c r="C22" s="92"/>
       <x:c r="D22" s="59" t="s">
-        <x:v>48</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E22" s="59"/>
       <x:c r="F22" s="59"/>
@@ -9852,11 +9897,11 @@
       <x:c r="H22" s="59"/>
     </x:row>
     <x:row r="23" spans="1:8">
-      <x:c r="A23" s="84"/>
-      <x:c r="B23" s="78"/>
-      <x:c r="C23" s="92"/>
+      <x:c r="A23" s="85"/>
+      <x:c r="B23" s="79"/>
+      <x:c r="C23" s="93"/>
       <x:c r="D23" s="59" t="s">
-        <x:v>112</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E23" s="59"/>
       <x:c r="F23" s="59"/>
@@ -9864,90 +9909,90 @@
       <x:c r="H23" s="59"/>
     </x:row>
     <x:row r="24" spans="1:8">
-      <x:c r="A24" s="83"/>
-      <x:c r="B24" s="82"/>
-      <x:c r="C24" s="94" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="D24" s="86" t="s">
-        <x:v>46</x:v>
+      <x:c r="A24" s="84"/>
+      <x:c r="B24" s="83"/>
+      <x:c r="C24" s="95" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="D24" s="87" t="s">
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E24" s="59" t="s">
-        <x:v>58</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="F24" s="59"/>
       <x:c r="G24" s="59"/>
       <x:c r="H24" s="59"/>
     </x:row>
     <x:row r="25" spans="1:8">
-      <x:c r="A25" s="84"/>
-      <x:c r="B25" s="78"/>
-      <x:c r="C25" s="91"/>
-      <x:c r="D25" s="87"/>
+      <x:c r="A25" s="85"/>
+      <x:c r="B25" s="79"/>
+      <x:c r="C25" s="92"/>
+      <x:c r="D25" s="88"/>
       <x:c r="E25" s="59" t="s">
-        <x:v>60</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="F25" s="59"/>
       <x:c r="G25" s="59"/>
       <x:c r="H25" s="59"/>
     </x:row>
     <x:row r="26" spans="1:8">
-      <x:c r="A26" s="83"/>
-      <x:c r="B26" s="82"/>
-      <x:c r="C26" s="91"/>
-      <x:c r="D26" s="86" t="s">
-        <x:v>36</x:v>
+      <x:c r="A26" s="84"/>
+      <x:c r="B26" s="83"/>
+      <x:c r="C26" s="92"/>
+      <x:c r="D26" s="87" t="s">
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E26" s="59" t="s">
-        <x:v>35</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="F26" s="59"/>
       <x:c r="G26" s="59"/>
       <x:c r="H26" s="59"/>
     </x:row>
     <x:row r="27" spans="1:8">
-      <x:c r="A27" s="84"/>
-      <x:c r="B27" s="78"/>
-      <x:c r="C27" s="91"/>
-      <x:c r="D27" s="89"/>
+      <x:c r="A27" s="85"/>
+      <x:c r="B27" s="79"/>
+      <x:c r="C27" s="92"/>
+      <x:c r="D27" s="90"/>
       <x:c r="E27" s="59" t="s">
-        <x:v>65</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="F27" s="59"/>
       <x:c r="G27" s="59"/>
       <x:c r="H27" s="59"/>
     </x:row>
     <x:row r="28" spans="1:8">
-      <x:c r="A28" s="84"/>
-      <x:c r="B28" s="78"/>
-      <x:c r="C28" s="91"/>
-      <x:c r="D28" s="89"/>
+      <x:c r="A28" s="85"/>
+      <x:c r="B28" s="79"/>
+      <x:c r="C28" s="92"/>
+      <x:c r="D28" s="90"/>
       <x:c r="E28" s="59" t="s">
-        <x:v>61</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="F28" s="59"/>
       <x:c r="G28" s="59"/>
       <x:c r="H28" s="59"/>
     </x:row>
     <x:row r="29" spans="1:8" ht="16.75">
-      <x:c r="A29" s="84"/>
-      <x:c r="B29" s="95"/>
-      <x:c r="C29" s="96"/>
-      <x:c r="D29" s="93"/>
+      <x:c r="A29" s="85"/>
+      <x:c r="B29" s="96"/>
+      <x:c r="C29" s="97"/>
+      <x:c r="D29" s="94"/>
       <x:c r="E29" s="61" t="s">
-        <x:v>37</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="F29" s="61"/>
       <x:c r="G29" s="61"/>
       <x:c r="H29" s="61"/>
     </x:row>
     <x:row r="30" spans="1:8">
-      <x:c r="A30" s="84"/>
-      <x:c r="B30" s="78" t="s">
-        <x:v>56</x:v>
+      <x:c r="A30" s="85"/>
+      <x:c r="B30" s="79" t="s">
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C30" s="63" t="s">
-        <x:v>39</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="D30" s="58"/>
       <x:c r="E30" s="58"/>
@@ -9956,10 +10001,10 @@
       <x:c r="H30" s="58"/>
     </x:row>
     <x:row r="31" spans="1:8">
-      <x:c r="A31" s="84"/>
-      <x:c r="B31" s="78"/>
+      <x:c r="A31" s="85"/>
+      <x:c r="B31" s="79"/>
       <x:c r="C31" s="57" t="s">
-        <x:v>62</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="D31" s="59"/>
       <x:c r="E31" s="59"/>
@@ -9968,10 +10013,10 @@
       <x:c r="H31" s="59"/>
     </x:row>
     <x:row r="32" spans="1:8">
-      <x:c r="A32" s="84"/>
-      <x:c r="B32" s="78"/>
+      <x:c r="A32" s="85"/>
+      <x:c r="B32" s="79"/>
       <x:c r="C32" s="57" t="s">
-        <x:v>114</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D32" s="59"/>
       <x:c r="E32" s="59"/>
@@ -9980,10 +10025,10 @@
       <x:c r="H32" s="59"/>
     </x:row>
     <x:row r="33" spans="1:8" ht="16.75">
-      <x:c r="A33" s="84"/>
-      <x:c r="B33" s="95"/>
+      <x:c r="A33" s="85"/>
+      <x:c r="B33" s="96"/>
       <x:c r="C33" s="64" t="s">
-        <x:v>129</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D33" s="61"/>
       <x:c r="E33" s="61"/>
@@ -9992,12 +10037,12 @@
       <x:c r="H33" s="61"/>
     </x:row>
     <x:row r="34" spans="1:8" ht="16.75" customHeight="1">
-      <x:c r="A34" s="84"/>
-      <x:c r="B34" s="77" t="s">
-        <x:v>154</x:v>
+      <x:c r="A34" s="85"/>
+      <x:c r="B34" s="78" t="s">
+        <x:v>194</x:v>
       </x:c>
       <x:c r="C34" s="63" t="s">
-        <x:v>212</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D34" s="58"/>
       <x:c r="E34" s="58"/>
@@ -10006,13 +10051,13 @@
       <x:c r="H34" s="58"/>
     </x:row>
     <x:row r="35" spans="1:8">
-      <x:c r="A35" s="84"/>
-      <x:c r="B35" s="78"/>
-      <x:c r="C35" s="75" t="s">
-        <x:v>141</x:v>
+      <x:c r="A35" s="85"/>
+      <x:c r="B35" s="79"/>
+      <x:c r="C35" s="76" t="s">
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D35" s="59" t="s">
-        <x:v>34</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E35" s="59"/>
       <x:c r="F35" s="59"/>
@@ -10020,11 +10065,11 @@
       <x:c r="H35" s="59"/>
     </x:row>
     <x:row r="36" spans="1:8">
-      <x:c r="A36" s="84"/>
-      <x:c r="B36" s="78"/>
-      <x:c r="C36" s="81"/>
+      <x:c r="A36" s="85"/>
+      <x:c r="B36" s="79"/>
+      <x:c r="C36" s="82"/>
       <x:c r="D36" s="59" t="s">
-        <x:v>124</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="E36" s="59"/>
       <x:c r="F36" s="59"/>
@@ -10032,11 +10077,11 @@
       <x:c r="H36" s="59"/>
     </x:row>
     <x:row r="37" spans="1:8">
-      <x:c r="A37" s="84"/>
-      <x:c r="B37" s="78"/>
-      <x:c r="C37" s="81"/>
+      <x:c r="A37" s="85"/>
+      <x:c r="B37" s="79"/>
+      <x:c r="C37" s="82"/>
       <x:c r="D37" s="59" t="s">
-        <x:v>202</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E37" s="59"/>
       <x:c r="F37" s="59"/>
@@ -10044,11 +10089,11 @@
       <x:c r="H37" s="59"/>
     </x:row>
     <x:row r="38" spans="1:8">
-      <x:c r="A38" s="84"/>
-      <x:c r="B38" s="78"/>
-      <x:c r="C38" s="81"/>
+      <x:c r="A38" s="85"/>
+      <x:c r="B38" s="79"/>
+      <x:c r="C38" s="82"/>
       <x:c r="D38" s="58" t="s">
-        <x:v>81</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E38" s="58"/>
       <x:c r="F38" s="58"/>
@@ -10056,11 +10101,11 @@
       <x:c r="H38" s="58"/>
     </x:row>
     <x:row r="39" spans="1:8">
-      <x:c r="A39" s="84"/>
-      <x:c r="B39" s="78"/>
-      <x:c r="C39" s="81"/>
+      <x:c r="A39" s="85"/>
+      <x:c r="B39" s="79"/>
+      <x:c r="C39" s="82"/>
       <x:c r="D39" s="59" t="s">
-        <x:v>79</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E39" s="59"/>
       <x:c r="F39" s="59"/>
@@ -10068,11 +10113,11 @@
       <x:c r="H39" s="59"/>
     </x:row>
     <x:row r="40" spans="1:8" ht="16.75">
-      <x:c r="A40" s="97"/>
-      <x:c r="B40" s="95"/>
-      <x:c r="C40" s="99"/>
+      <x:c r="A40" s="98"/>
+      <x:c r="B40" s="96"/>
+      <x:c r="C40" s="100"/>
       <x:c r="D40" s="47" t="s">
-        <x:v>84</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E40" s="47"/>
       <x:c r="F40" s="47"/>
@@ -10122,7 +10167,7 @@
     <x:row r="45" spans="1:8">
       <x:c r="A45" s="44"/>
       <x:c r="B45" s="44"/>
-      <x:c r="C45" s="98"/>
+      <x:c r="C45" s="99"/>
       <x:c r="D45" s="56"/>
       <x:c r="E45" s="46"/>
       <x:c r="F45" s="46"/>
@@ -10132,7 +10177,7 @@
     <x:row r="46" spans="1:8">
       <x:c r="A46" s="44"/>
       <x:c r="B46" s="44"/>
-      <x:c r="C46" s="98"/>
+      <x:c r="C46" s="99"/>
       <x:c r="D46" s="56"/>
       <x:c r="E46" s="46"/>
       <x:c r="F46" s="46"/>
@@ -10142,7 +10187,7 @@
     <x:row r="47" spans="1:8">
       <x:c r="A47" s="44"/>
       <x:c r="B47" s="44"/>
-      <x:c r="C47" s="98"/>
+      <x:c r="C47" s="99"/>
       <x:c r="D47" s="56"/>
       <x:c r="E47" s="46"/>
       <x:c r="F47" s="46"/>
@@ -10152,7 +10197,7 @@
     <x:row r="48" spans="1:8">
       <x:c r="A48" s="44"/>
       <x:c r="B48" s="44"/>
-      <x:c r="C48" s="98"/>
+      <x:c r="C48" s="99"/>
       <x:c r="D48" s="56"/>
       <x:c r="E48" s="46"/>
       <x:c r="F48" s="46"/>
@@ -10162,7 +10207,7 @@
     <x:row r="49" spans="1:8">
       <x:c r="A49" s="44"/>
       <x:c r="B49" s="44"/>
-      <x:c r="C49" s="98"/>
+      <x:c r="C49" s="99"/>
       <x:c r="D49" s="56"/>
       <x:c r="E49" s="46"/>
       <x:c r="F49" s="46"/>
@@ -10172,7 +10217,7 @@
     <x:row r="50" spans="1:8">
       <x:c r="A50" s="44"/>
       <x:c r="B50" s="44"/>
-      <x:c r="C50" s="98"/>
+      <x:c r="C50" s="99"/>
       <x:c r="D50" s="56"/>
       <x:c r="E50" s="46"/>
       <x:c r="F50" s="46"/>
@@ -10182,7 +10227,7 @@
     <x:row r="51" spans="1:8">
       <x:c r="A51" s="44"/>
       <x:c r="B51" s="44"/>
-      <x:c r="C51" s="98"/>
+      <x:c r="C51" s="99"/>
       <x:c r="D51" s="56"/>
       <x:c r="E51" s="46"/>
       <x:c r="F51" s="46"/>
@@ -10192,7 +10237,7 @@
     <x:row r="52" spans="1:8">
       <x:c r="A52" s="44"/>
       <x:c r="B52" s="44"/>
-      <x:c r="C52" s="98"/>
+      <x:c r="C52" s="99"/>
       <x:c r="D52" s="56"/>
       <x:c r="E52" s="46"/>
       <x:c r="F52" s="46"/>
@@ -10202,7 +10247,7 @@
     <x:row r="53" spans="1:8">
       <x:c r="A53" s="44"/>
       <x:c r="B53" s="44"/>
-      <x:c r="C53" s="98"/>
+      <x:c r="C53" s="99"/>
       <x:c r="D53" s="56"/>
       <x:c r="E53" s="46"/>
       <x:c r="F53" s="46"/>
@@ -10212,7 +10257,7 @@
     <x:row r="54" spans="1:8">
       <x:c r="A54" s="44"/>
       <x:c r="B54" s="44"/>
-      <x:c r="C54" s="98"/>
+      <x:c r="C54" s="99"/>
       <x:c r="D54" s="56"/>
       <x:c r="E54" s="46"/>
       <x:c r="F54" s="46"/>
@@ -10222,7 +10267,7 @@
     <x:row r="55" spans="1:8">
       <x:c r="A55" s="44"/>
       <x:c r="B55" s="44"/>
-      <x:c r="C55" s="98"/>
+      <x:c r="C55" s="99"/>
       <x:c r="D55" s="56"/>
       <x:c r="E55" s="46"/>
       <x:c r="F55" s="46"/>
@@ -10232,7 +10277,7 @@
     <x:row r="56" spans="1:8">
       <x:c r="A56" s="44"/>
       <x:c r="B56" s="44"/>
-      <x:c r="C56" s="98"/>
+      <x:c r="C56" s="99"/>
       <x:c r="D56" s="56"/>
       <x:c r="E56" s="46"/>
       <x:c r="F56" s="46"/>
@@ -10242,7 +10287,7 @@
     <x:row r="57" spans="1:8">
       <x:c r="A57" s="44"/>
       <x:c r="B57" s="44"/>
-      <x:c r="C57" s="98"/>
+      <x:c r="C57" s="99"/>
       <x:c r="D57" s="56"/>
       <x:c r="E57" s="46"/>
       <x:c r="F57" s="46"/>
@@ -10366,94 +10411,94 @@
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="48"/>
       <x:c r="B2" s="36" t="s">
-        <x:v>44</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="C2" s="36" t="s">
-        <x:v>217</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D2" s="36" t="s">
-        <x:v>121</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E2" s="36" t="s">
-        <x:v>138</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="F2" s="36" t="s">
-        <x:v>54</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6" ht="16.75">
       <x:c r="A3" s="48"/>
-      <x:c r="B3" s="77" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="C3" s="80" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="D3" s="80" t="s">
-        <x:v>103</x:v>
+      <x:c r="B3" s="78" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C3" s="81" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="D3" s="81" t="s">
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E3" s="49" t="s">
-        <x:v>12</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F3" s="65"/>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="48"/>
-      <x:c r="B4" s="78"/>
-      <x:c r="C4" s="81"/>
-      <x:c r="D4" s="81"/>
+      <x:c r="B4" s="79"/>
+      <x:c r="C4" s="82"/>
+      <x:c r="D4" s="82"/>
       <x:c r="E4" s="50" t="s">
-        <x:v>267</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="F4" s="66"/>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="48"/>
-      <x:c r="B5" s="78"/>
-      <x:c r="C5" s="81"/>
-      <x:c r="D5" s="81"/>
+      <x:c r="B5" s="79"/>
+      <x:c r="C5" s="82"/>
+      <x:c r="D5" s="82"/>
       <x:c r="E5" s="50" t="s">
-        <x:v>190</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F5" s="66"/>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="48"/>
-      <x:c r="B6" s="78"/>
-      <x:c r="C6" s="81"/>
-      <x:c r="D6" s="81"/>
+      <x:c r="B6" s="79"/>
+      <x:c r="C6" s="82"/>
+      <x:c r="D6" s="82"/>
       <x:c r="E6" s="50" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F6" s="66"/>
     </x:row>
     <x:row r="7" spans="1:6" ht="32.75">
       <x:c r="A7" s="48"/>
-      <x:c r="B7" s="78"/>
-      <x:c r="C7" s="81"/>
-      <x:c r="D7" s="76"/>
+      <x:c r="B7" s="79"/>
+      <x:c r="C7" s="82"/>
+      <x:c r="D7" s="77"/>
       <x:c r="E7" s="51" t="s">
-        <x:v>181</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F7" s="66"/>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="48"/>
-      <x:c r="B8" s="78"/>
-      <x:c r="C8" s="81"/>
-      <x:c r="D8" s="75" t="s">
-        <x:v>70</x:v>
+      <x:c r="B8" s="79"/>
+      <x:c r="C8" s="82"/>
+      <x:c r="D8" s="76" t="s">
+        <x:v>240</x:v>
       </x:c>
       <x:c r="E8" s="52" t="s">
-        <x:v>11</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F8" s="66"/>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="48"/>
-      <x:c r="B9" s="78"/>
-      <x:c r="C9" s="81"/>
-      <x:c r="D9" s="81"/>
+      <x:c r="B9" s="79"/>
+      <x:c r="C9" s="82"/>
+      <x:c r="D9" s="82"/>
       <x:c r="E9" s="50" t="s">
         <x:v>253</x:v>
       </x:c>
@@ -10461,293 +10506,293 @@
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="48"/>
-      <x:c r="B10" s="78"/>
-      <x:c r="C10" s="81"/>
-      <x:c r="D10" s="76"/>
+      <x:c r="B10" s="79"/>
+      <x:c r="C10" s="82"/>
+      <x:c r="D10" s="77"/>
       <x:c r="E10" s="53" t="s">
-        <x:v>191</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F10" s="66"/>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="48"/>
-      <x:c r="B11" s="78"/>
-      <x:c r="C11" s="81"/>
-      <x:c r="D11" s="75" t="s">
-        <x:v>71</x:v>
+      <x:c r="B11" s="79"/>
+      <x:c r="C11" s="82"/>
+      <x:c r="D11" s="76" t="s">
+        <x:v>227</x:v>
       </x:c>
       <x:c r="E11" s="52" t="s">
-        <x:v>174</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F11" s="66"/>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="48"/>
-      <x:c r="B12" s="78"/>
-      <x:c r="C12" s="76"/>
-      <x:c r="D12" s="76"/>
+      <x:c r="B12" s="79"/>
+      <x:c r="C12" s="77"/>
+      <x:c r="D12" s="77"/>
       <x:c r="E12" s="53" t="s">
-        <x:v>192</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F12" s="66"/>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="48"/>
-      <x:c r="B13" s="78"/>
-      <x:c r="C13" s="75" t="s">
-        <x:v>224</x:v>
-      </x:c>
-      <x:c r="D13" s="75" t="s">
-        <x:v>74</x:v>
+      <x:c r="B13" s="79"/>
+      <x:c r="C13" s="76" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D13" s="76" t="s">
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E13" s="52" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="F13" s="66"/>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="48"/>
-      <x:c r="B14" s="78"/>
-      <x:c r="C14" s="81"/>
-      <x:c r="D14" s="81"/>
+      <x:c r="B14" s="79"/>
+      <x:c r="C14" s="82"/>
+      <x:c r="D14" s="82"/>
       <x:c r="E14" s="50" t="s">
-        <x:v>10</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F14" s="66"/>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="48"/>
-      <x:c r="B15" s="78"/>
-      <x:c r="C15" s="81"/>
-      <x:c r="D15" s="81"/>
+      <x:c r="B15" s="79"/>
+      <x:c r="C15" s="82"/>
+      <x:c r="D15" s="82"/>
       <x:c r="E15" s="50" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="F15" s="66"/>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="48"/>
-      <x:c r="B16" s="78"/>
-      <x:c r="C16" s="81"/>
-      <x:c r="D16" s="76"/>
+      <x:c r="B16" s="79"/>
+      <x:c r="C16" s="82"/>
+      <x:c r="D16" s="77"/>
       <x:c r="E16" s="53" t="s">
-        <x:v>177</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F16" s="66"/>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="48"/>
-      <x:c r="B17" s="78"/>
-      <x:c r="C17" s="81"/>
-      <x:c r="D17" s="75" t="s">
-        <x:v>32</x:v>
+      <x:c r="B17" s="79"/>
+      <x:c r="C17" s="82"/>
+      <x:c r="D17" s="76" t="s">
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E17" s="52" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="F17" s="66"/>
     </x:row>
     <x:row r="18" spans="1:6" ht="32.75">
       <x:c r="A18" s="48"/>
-      <x:c r="B18" s="78"/>
-      <x:c r="C18" s="76"/>
-      <x:c r="D18" s="76"/>
+      <x:c r="B18" s="79"/>
+      <x:c r="C18" s="77"/>
+      <x:c r="D18" s="77"/>
       <x:c r="E18" s="51" t="s">
-        <x:v>185</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F18" s="66"/>
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="48"/>
-      <x:c r="B19" s="78"/>
-      <x:c r="C19" s="75" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D19" s="75" t="s">
-        <x:v>167</x:v>
+      <x:c r="B19" s="79"/>
+      <x:c r="C19" s="76" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="D19" s="76" t="s">
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E19" s="52" t="s">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="F19" s="66"/>
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="48"/>
-      <x:c r="B20" s="78"/>
-      <x:c r="C20" s="81"/>
-      <x:c r="D20" s="76"/>
+      <x:c r="B20" s="79"/>
+      <x:c r="C20" s="82"/>
+      <x:c r="D20" s="77"/>
       <x:c r="E20" s="53" t="s">
-        <x:v>193</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F20" s="66"/>
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="48"/>
-      <x:c r="B21" s="78"/>
-      <x:c r="C21" s="81"/>
-      <x:c r="D21" s="75" t="s">
-        <x:v>221</x:v>
+      <x:c r="B21" s="79"/>
+      <x:c r="C21" s="82"/>
+      <x:c r="D21" s="76" t="s">
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E21" s="52" t="s">
-        <x:v>266</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="F21" s="66"/>
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="48"/>
-      <x:c r="B22" s="78"/>
-      <x:c r="C22" s="81"/>
-      <x:c r="D22" s="76"/>
+      <x:c r="B22" s="79"/>
+      <x:c r="C22" s="82"/>
+      <x:c r="D22" s="77"/>
       <x:c r="E22" s="53" t="s">
-        <x:v>173</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F22" s="66"/>
     </x:row>
     <x:row r="23" spans="1:6">
       <x:c r="A23" s="48"/>
-      <x:c r="B23" s="78"/>
-      <x:c r="C23" s="81"/>
+      <x:c r="B23" s="79"/>
+      <x:c r="C23" s="82"/>
       <x:c r="D23" s="37" t="s">
-        <x:v>68</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="E23" s="54" t="s">
-        <x:v>175</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F23" s="66"/>
     </x:row>
     <x:row r="24" spans="1:6">
       <x:c r="A24" s="48"/>
-      <x:c r="B24" s="78"/>
-      <x:c r="C24" s="81"/>
-      <x:c r="D24" s="75" t="s">
-        <x:v>227</x:v>
+      <x:c r="B24" s="79"/>
+      <x:c r="C24" s="82"/>
+      <x:c r="D24" s="76" t="s">
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E24" s="52" t="s">
-        <x:v>168</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F24" s="66"/>
     </x:row>
     <x:row r="25" spans="1:6">
       <x:c r="A25" s="48"/>
-      <x:c r="B25" s="78"/>
-      <x:c r="C25" s="81"/>
-      <x:c r="D25" s="81"/>
+      <x:c r="B25" s="79"/>
+      <x:c r="C25" s="82"/>
+      <x:c r="D25" s="82"/>
       <x:c r="E25" s="50" t="s">
-        <x:v>176</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F25" s="66"/>
     </x:row>
     <x:row r="26" spans="1:6">
       <x:c r="A26" s="48"/>
-      <x:c r="B26" s="78"/>
-      <x:c r="C26" s="81"/>
-      <x:c r="D26" s="81"/>
+      <x:c r="B26" s="79"/>
+      <x:c r="C26" s="82"/>
+      <x:c r="D26" s="82"/>
       <x:c r="E26" s="50" t="s">
-        <x:v>178</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F26" s="66"/>
     </x:row>
     <x:row r="27" spans="1:6" ht="16.75">
       <x:c r="A27" s="48"/>
-      <x:c r="B27" s="95"/>
-      <x:c r="C27" s="99"/>
-      <x:c r="D27" s="99"/>
+      <x:c r="B27" s="96"/>
+      <x:c r="C27" s="100"/>
+      <x:c r="D27" s="100"/>
       <x:c r="E27" s="55" t="s">
-        <x:v>248</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="F27" s="67"/>
     </x:row>
     <x:row r="28" spans="1:6" ht="16.75">
       <x:c r="A28" s="48"/>
-      <x:c r="B28" s="77" t="s">
-        <x:v>119</x:v>
+      <x:c r="B28" s="78" t="s">
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C28" s="68" t="s">
-        <x:v>104</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D28" s="68" t="s">
-        <x:v>64</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="E28" s="69" t="s">
-        <x:v>254</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="F28" s="65"/>
     </x:row>
     <x:row r="29" spans="1:6">
       <x:c r="A29" s="48"/>
-      <x:c r="B29" s="78"/>
-      <x:c r="C29" s="75" t="s">
-        <x:v>131</x:v>
+      <x:c r="B29" s="79"/>
+      <x:c r="C29" s="76" t="s">
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D29" s="37" t="s">
-        <x:v>29</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E29" s="54" t="s">
-        <x:v>172</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F29" s="66"/>
     </x:row>
     <x:row r="30" spans="1:6">
       <x:c r="A30" s="48"/>
-      <x:c r="B30" s="78"/>
-      <x:c r="C30" s="81"/>
-      <x:c r="D30" s="75" t="s">
-        <x:v>59</x:v>
+      <x:c r="B30" s="79"/>
+      <x:c r="C30" s="82"/>
+      <x:c r="D30" s="76" t="s">
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E30" s="52" t="s">
-        <x:v>256</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="F30" s="66"/>
     </x:row>
     <x:row r="31" spans="1:6">
       <x:c r="A31" s="48"/>
-      <x:c r="B31" s="78"/>
-      <x:c r="C31" s="81"/>
-      <x:c r="D31" s="81"/>
+      <x:c r="B31" s="79"/>
+      <x:c r="C31" s="82"/>
+      <x:c r="D31" s="82"/>
       <x:c r="E31" s="50" t="s">
-        <x:v>171</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F31" s="66"/>
     </x:row>
     <x:row r="32" spans="1:6">
       <x:c r="A32" s="48"/>
-      <x:c r="B32" s="78"/>
-      <x:c r="C32" s="81"/>
-      <x:c r="D32" s="81"/>
+      <x:c r="B32" s="79"/>
+      <x:c r="C32" s="82"/>
+      <x:c r="D32" s="82"/>
       <x:c r="E32" s="50" t="s">
-        <x:v>7</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F32" s="66"/>
     </x:row>
     <x:row r="33" spans="1:6" ht="16.75">
       <x:c r="A33" s="48"/>
-      <x:c r="B33" s="95"/>
-      <x:c r="C33" s="99"/>
-      <x:c r="D33" s="99"/>
+      <x:c r="B33" s="96"/>
+      <x:c r="C33" s="100"/>
+      <x:c r="D33" s="100"/>
       <x:c r="E33" s="55" t="s">
-        <x:v>257</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="F33" s="67"/>
     </x:row>
     <x:row r="34" spans="1:6">
       <x:c r="A34" s="48"/>
-      <x:c r="B34" s="78" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="C34" s="81"/>
-      <x:c r="D34" s="81"/>
+      <x:c r="B34" s="79" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="C34" s="82"/>
+      <x:c r="D34" s="82"/>
       <x:c r="E34" s="50" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F34" s="66"/>
     </x:row>
     <x:row r="35" spans="1:6" ht="16.75">
       <x:c r="A35" s="48"/>
-      <x:c r="B35" s="95"/>
-      <x:c r="C35" s="99"/>
-      <x:c r="D35" s="99"/>
+      <x:c r="B35" s="96"/>
+      <x:c r="C35" s="100"/>
+      <x:c r="D35" s="100"/>
       <x:c r="E35" s="55" t="s">
-        <x:v>262</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="F35" s="67"/>
     </x:row>

--- a/2021_Summer/jp.hong/Datebook_jph.xlsx
+++ b/2021_Summer/jp.hong/Datebook_jph.xlsx
@@ -22,32 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="274">
-  <x:si>
-    <x:t>비밀번호는 특수문자 포함 8자리 이상 12자리 이하 이어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주행 거리 정보를 받아 계산하여 남은 수명에 대해 알려 주어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 추가 자료조사(관련 코드)
-2. FlowChart 수정 및 보완</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어플의 예약기능을 통해 예약한 경우 업체로부터 일정 수수료를 받는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. Git 목록 삭제
-2. 요구사항 분석
-3. 인터페이스 구상도 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성 (미완)
-2. 스피너 및 캘린더 뷰 다이어리 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소유한 차량이 여러 대일 경우 차량의 정보를 추가할 수 있어야 한다.</x:t>
-  </x:si>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="277">
   <x:si>
     <x:t>1. 요구사항 분석 (실현성 확인)
 2. 데이터 흐름도 수정
@@ -56,45 +31,6 @@
 4. Flow_Chart 작성
 5. 필요 자료 추가 조사
  -&gt; 주유, 부품들의 수명정보(?) 어떻게 자동으로 받아올지 알아봐야함 -&gt; 블루투스 =&gt; 블루투스 연동 어떻게?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 화면을 들어가게 되면 아이디와 비밀번호의 입력 창, 회원가입 버튼과
-로그인 버튼이 나와야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 경쟁 어플 메뉴트리 수정
-2. 요구사항, 기능정의 순서 수정
-3. 한계점 수정
-블루투스 -&gt; 사진 촬영 ====&gt; 대체하게 되면 글자 인식하는 코드 필요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
- - 컴퓨터 견적 추천 앱
- - 주차시 사고발생 알림 앱
-2. 주제 아이디어 최종 선정
- - 차량 관리 어플
-3. 개발 계획서 및 요구사항 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. DateBook_Comment 부분 수정
-2. GIT보고서 수정
- - 설치 과정 추가
- - 명령어 부분 내용 추가
-3. PPT 머릿글 요약 작성 - (미완)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-1. Datebook Comment 부분 요약
-1-2. GIT 보고서 다시 작성
-1-3. PPT 머릿글 요약 작성
-1-4. 파일명 수정
-1-5 최종 아이디어 선정 이유 작성
-2. 요구사항 수집 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 필요 자료 추가 조사
-2. 한계점 및 필요기술 추가
- - 차량 블루투스와 어플 연결 어떻게?
- - 연결이 된다면 원하는 정보만 어떻게 가져 올건지?</x:t>
   </x:si>
   <x:si>
     <x:t>1. 현장실습 OT
@@ -105,332 +41,6 @@
  - 제품 기획 
  - 개발 기획  
  - 개발 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 수집 및 정의
- - 관련 필요 자료 조사
- - 기능적/ 비기능적 요구사항 내용 추가
-2. 개발에 필요한 요구사항 분석 (실현성 확인)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 진행사항 체크 및 2주차 목표 설정
-2. 06.28 회의록 작성
-3. 상용화 된 타 앱 기능 분석
-4. 요구사항 정의
- - 회원가입, DB, 무결성 (미완)
-5. vi사용법 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 07.02 회의록 작성
-2. Git 업로드 한 것 중 중복된 것들 삭제
-3. 어플 흐름 구상도 작성
-4. 요구사항/기능 정의/기능 설계 3가지 부분으로 나누어 요구사항 수정(미완)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 정의 및 분석 - 체계화
- - 기능 / 비기능적 요구사항 분류 및 수정
-2. 요구사항 분석
-3. 구현 가능 여부 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06.22, 06.23 회의록 작성
-2. Git 환경 설정
-3. Git 설정 화면 캡처 및 보고서 작성
-4. 캡스톤 아이디어 도출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
-2. 최종 아이디어 선정
-3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성(login, join, 내 차고, 차량 정보) 미완
-2. 블루투스 관련 자료 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06_30 회의록 작성
-2. 요구사항 수정 및 관련 필요 자료 조사
-3. 15:00 ~ 지도교수 면담</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. (2-2) 수익적 요소 추가
-2. (4-1) 기능정의 추가
-3. 추가 자료 조사
- - 비슷한 어플(마이클) 화면 구성 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품의 종류를 다르게 하여 여러가지를 선택 할 수 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정 기능을 통해 작성했던 글을 수정 할 수 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택 된 부품은 값의 변조 없이 알맞은 값이 저장되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유, 연비, 운행거리, 정비 및 기타비용 총액/월별 지출액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사라지거나 위치가 바뀐 정보를 수시로 업데이트 해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. vi 명령어 설명서 작성
-2. 요구사항 정의 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록된 사용자만이 자신이 등록한 차량의 정보를 확인해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입시 필요한 정보 및 소유한 차량의 정보를 포함해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외부에서 받아오는 정보(지도, 가격 등)에 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 날짜를 기록할 수 있도록 다이어리 형식으로 제공해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점검 스케쥴 및 일정 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차종, 차번호, 연식 등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 정비소 찾아보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험료 확인 및 갱신일 알림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이달의 정비/세차 혜택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유소 포인트 적립 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방문 정비소 기록, 메모</x:t>
-  </x:si>
-  <x:si>
-    <x:t>항목 및 정비 주기 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기아 커넥티드카 연동하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 무료 판매 견적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품 별 남은 수명 보여줌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
-2. 브리핑 준비
-3. 견학 보고서 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성(각 화면 기능 설명 채우기)
-2. 각 화면 플로우 차트 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 플로우 차트 작성
-2. 설계 계획서 작성
-3. Menu_Tree 도식화 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 계획하고 있는 어플의 메뉴트리 작성 및 ppt 수정
-2. 요구사항 추가 및 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>코엑스 전시회 견학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 판매견적 받기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 형태로 존재</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:22
-18:01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:34
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친구 초대 이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 정보 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:40
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자주 하는 질문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진행 방향 ---&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유사 모델 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:35
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 정보 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 기본 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09:00
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 보험 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>community</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:33
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Community</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약/견적 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:43
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:36
-18:07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비소 지도 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 보험료 계산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운전자 보험료 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운전자 추천 서비스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스 (메뉴)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 보험 선호도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:25
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰 보유 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:23
-15:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:36
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:27
-18:05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 장착점 예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 정비소 예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:30
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 보험료 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 연동 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:27
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:32
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>할인 쿠폰 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품 교체 예상 견적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:43
-18:01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:36
-18:04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고장사례(리콜사례)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:30
-18:04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:32
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판의 글을 삭제하거나 올리기 위한 '글쓰기'버튼과 '글 삭제' 버튼이 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 예약을 하는 과정에서 사용자가 선택한 지점과 선택된 지점의 정보가 일치해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 가입시 아이디, 비밀번호, 이름, 전화번호, 생년월일, 차종의 정보를 받아야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알맞은 ID값과 패스워드 값이 입력 될 경우 그에 맞는 회원 정보가 로그인 되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 화면 시퀀스 작성 (설명, 커뮤니티, 알림, 설정화면 추가)
-2. 추가 자료 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
- - 디스크 바이너리 데이터 분석 툴
- - 헤더와 푸터를 이용한 카빙 툴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 앱 화면별 Sequence 작성
-2. 앱 화면별 어떻게 구성할 것인지 구상
-3. 추가 자료조사</x:t>
   </x:si>
   <x:si>
     <x:t>1. 실습 환경 설정 및 설명
@@ -444,26 +54,635 @@
  - 차량 관리 어플</x:t>
   </x:si>
   <x:si>
+    <x:t>1. 필요 자료 추가 조사
+2. 한계점 및 필요기술 추가
+ - 차량 블루투스와 어플 연결 어떻게?
+ - 연결이 된다면 원하는 정보만 어떻게 가져 올건지?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+ - 컴퓨터 견적 추천 앱
+ - 주차시 사고발생 알림 앱
+2. 주제 아이디어 최종 선정
+ - 차량 관리 어플
+3. 개발 계획서 및 요구사항 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. DateBook_Comment 부분 수정
+2. GIT보고서 수정
+ - 설치 과정 추가
+ - 명령어 부분 내용 추가
+3. PPT 머릿글 요약 작성 - (미완)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 경쟁 어플 메뉴트리 수정
+2. 요구사항, 기능정의 순서 수정
+3. 한계점 수정
+블루투스 -&gt; 사진 촬영 ====&gt; 대체하게 되면 글자 인식하는 코드 필요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 정의
+2. 지도교수 방문
+ - 진행사항 보고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 이전 프로젝트 리뷰(전체 흐름 파악)
+2. 요구사항 정의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 정의 및 분석 - 체계화
+ - 기능 / 비기능적 요구사항 분류 및 수정
+2. 요구사항 분석
+3. 구현 가능 여부 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06.22, 06.23 회의록 작성
+2. Git 환경 설정
+3. Git 설정 화면 캡처 및 보고서 작성
+4. 캡스톤 아이디어 도출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>휴가계, 파일위치
+회의록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-1. Datebook Comment 부분 요약
+1-2. GIT 보고서 다시 작성
+1-3. PPT 머릿글 요약 작성
+1-4. 파일명 수정
+1-5 최종 아이디어 선정 이유 작성
+2. 요구사항 수집 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주행 거리 정보를 받아 계산하여 남은 수명에 대해 알려 주어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어플의 예약기능을 통해 예약한 경우 업체로부터 일정 수수료를 받는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 추가 자료조사(관련 코드)
+2. FlowChart 수정 및 보완</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호는 특수문자 포함 8자리 이상 12자리 이하 이어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Git 목록 삭제
+2. 요구사항 분석
+3. 인터페이스 구상도 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소유한 차량이 여러 대일 경우 차량의 정보를 추가할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성 (미완)
+2. 스피너 및 캘린더 뷰 다이어리 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이달의 정비/세차 혜택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검 스케쥴 및 일정 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품 별 남은 수명 보여줌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방문 정비소 기록, 메모</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유소 포인트 적립 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>항목 및 정비 주기 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기아 커넥티드카 연동하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차종, 차번호, 연식 등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 무료 판매 견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험료 확인 및 갱신일 알림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 정비소 찾아보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>만족도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>편집</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계절별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>손세차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보안성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상황별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>봄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이클</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Q&amp;A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>겨울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장마철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타이어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가을</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리뷰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채팅창</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인기글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭설철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>달력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무결성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공식 서비스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타 항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경기/인천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어플 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차 정보 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수리견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>함수의 계산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모아보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모두의 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 시기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결함/리콜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연차, 보험료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자차 게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오너들의 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기록 및 통계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균연비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 구매</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공유게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 방문 장소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메모 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약 교체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비기능적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신 글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용 가이드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이어리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객상담</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 검사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균 연비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>더 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카카오톡 문의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에어컨필터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tips</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 시세</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오늘 교체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에어컨 필터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>견적 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험사 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이클 이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필요 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연비 랭킹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수익적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Home</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첫예약할인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 후기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 주변 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일정 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>디테일링</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타이어샵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALL*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>setting</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엔진오일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택 된 부품은 값의 변조 없이 알맞은 값이 저장되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+2. 브리핑 준비
+3. 견학 보고서 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록된 사용자만이 자신이 등록한 차량의 정보를 확인해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정 기능을 통해 작성했던 글을 수정 할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품의 종류를 다르게 하여 여러가지를 선택 할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입시 필요한 정보 및 소유한 차량의 정보를 포함해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 브리핑 준비
+ - 메모장 정리
+2. 견학 보고서 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사라지거나 위치가 바뀐 정보를 수시로 업데이트 해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외부에서 받아오는 정보(지도, 가격 등)에 변조가 없어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유, 연비, 운행거리, 정비 및 기타비용 총액/월별 지출액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. vi 명령어 설명서 작성
+2. 요구사항 정의 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 날짜를 기록할 수 있도록 다이어리 형식으로 제공해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 플로우 차트 작성
+2. 설계 계획서 작성
+3. Menu_Tree 도식화 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성(각 화면 기능 설명 채우기)
+2. 각 화면 플로우 차트 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 계획하고 있는 어플의 메뉴트리 작성 및 ppt 수정
+2. 요구사항 추가 및 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고장사례(리콜사례)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:30
+18:04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:32
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 앱 화면별 Sequence 작성
+2. 앱 화면별 어떻게 구성할 것인지 구상
+3. 추가 자료조사</x:t>
+  </x:si>
+  <x:si>
     <x:t>1. vi 명령어 설명서 작성 완료
 2. 요구사항 정의 및 분류
  - 기능적 요구사항
  - 비기능적 요구사항</x:t>
   </x:si>
   <x:si>
-    <x:t>주행 거리별 check list</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 정보(오너들의 평균 정보)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교체할 부품을 선택 받아야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점검내역서(정비소 제공 문서)</x:t>
-  </x:si>
-  <x:si>
     <x:t>회원가입을 위해 시도한 비밀번호가 7자리 이하이거나 13자리 이상일 경우
 비밀번호 입력 오류 메세지가 출력되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알맞은 ID값과 패스워드 값이 입력 될 경우 그에 맞는 회원 정보가 로그인 되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+ - 디스크 바이너리 데이터 분석 툴
+ - 헤더와 푸터를 이용한 카빙 툴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판의 글을 삭제하거나 올리기 위한 '글쓰기'버튼과 '글 삭제' 버튼이 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 예약을 하는 과정에서 사용자가 선택한 지점과 선택된 지점의 정보가 일치해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 화면 시퀀스 작성 (설명, 커뮤니티, 알림, 설정화면 추가)
+2. 추가 자료 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 가입시 아이디, 비밀번호, 이름, 전화번호, 생년월일, 차종의 정보를 받아야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 수집 및 정의
+ - 관련 필요 자료 조사
+ - 기능적/ 비기능적 요구사항 내용 추가
+2. 개발에 필요한 요구사항 분석 (실현성 확인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 화면을 들어가게 되면 아이디와 비밀번호의 입력 창, 회원가입 버튼과
+로그인 버튼이 나와야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성(login, join, 내 차고, 차량 정보) 미완
+2. 블루투스 관련 자료 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06_30 회의록 작성
+2. 요구사항 수정 및 관련 필요 자료 조사
+3. 15:00 ~ 지도교수 면담</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+2. 최종 아이디어 선정
+3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인에 성공했다면 로그인 버튼이 아닌 로그 아웃 버튼을 보여주어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중복되는 아이디로 가입시도시 아이디 입력 오류 메세지가 출력되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성(설명,컨테이너등 정보 채우기)
+2. 기능플로우 작성</x:t>
   </x:si>
   <x:si>
     <x:t>1. 추가 자료조사
@@ -481,392 +700,249 @@
 3. 구현 가능 여부 확인</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 메뉴시퀀스 작성(설명,컨테이너등 정보 채우기)
-2. 기능플로우 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중복되는 아이디로 가입시도시 아이디 입력 오류 메세지가 출력되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인에 성공했다면 로그인 버튼이 아닌 로그 아웃 버튼을 보여주어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차 정보 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어플 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수리견적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경기/인천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공식 서비스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타 항목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>함수의 계산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모아보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공유게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기록 및 통계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오너들의 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균연비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모두의 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 구매</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 시기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결함/리콜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연차, 보험료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자차 게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신 글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 방문 장소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Home</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연비 랭킹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험사 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용 가이드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균 연비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오늘 교체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 항목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이클 이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>더 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에어컨필터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tips</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비기능적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약 교체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필요 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 시세</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Menu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수익적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카카오톡 문의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 검사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첫예약할인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메모 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에어컨 필터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>견적 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이어리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객상담</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALL*</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엔진오일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타이어샵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>디테일링</x:t>
-  </x:si>
-  <x:si>
-    <x:t>setting</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 후기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일정 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 주변 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상황별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>편집</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보안성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>만족도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>봄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계절별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>손세차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인기글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Q&amp;A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>겨울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채팅창</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리뷰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭설철</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>달력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이클</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가을</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타이어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장마철</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점검</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무결성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰</x:t>
+    <x:t>1. (2-2) 수익적 요소 추가
+2. (4-1) 기능정의 추가
+3. 추가 자료 조사
+ - 비슷한 어플(마이클) 화면 구성 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:25
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:30
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 보험료 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운전자 보험료 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스 (메뉴)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 연동 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:36
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비소 지도 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험료 계산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운전자 추천 서비스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험 선호도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:23
+15:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:27
+18:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 장착점 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 정비소 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰 보유 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:27
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>할인 쿠폰 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:36
+18:04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:43
+18:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:32
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품 교체 예상 견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친구 초대 이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:34
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 정보 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:40
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 판매견적 받기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 형태로 존재</x:t>
+  </x:si>
+  <x:si>
+    <x:t>코엑스 전시회 견학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:22
+18:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유사 모델 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진행 방향 ---&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 기본 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>community</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:36
+18:07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:35
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:43
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 정보 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자주 하는 질문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09:00
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:33
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약/견적 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Community</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 진행사항 체크 및 2주차 목표 설정
+2. 06.28 회의록 작성
+3. 상용화 된 타 앱 기능 분석
+4. 요구사항 정의
+ - 회원가입, DB, 무결성 (미완)
+5. vi사용법 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 07.02 회의록 작성
+2. Git 업로드 한 것 중 중복된 것들 삭제
+3. 어플 흐름 구상도 작성
+4. 요구사항/기능 정의/기능 설계 3가지 부분으로 나누어 요구사항 수정(미완)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 정보(오너들의 평균 정보)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교체할 부품을 선택 받아야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주행 거리별 check list</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검내역서(정비소 제공 문서)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:32
+18:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:34
+12:37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DB에 저장된 내용들은 변조가 없어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어플 내 광고를 통해 일정 수입료를 받는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 계약서 작성
+2. 현장실습 오리엔테이션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유량, 연비, 운행 거리 및 기타 비용 통계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 화면 시퀀스 작성
+2. 추가 자료 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판을 이용하기 위해서는 로그인을 해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성
+ - 화면별 세부기능 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 주제 아이디어 선정
+2. 요구사항 정의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APP종료시 입력된 데이터는 변조가 없어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이콘을 활용하여 한 눈에 확인하기 쉬워야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 각 버튼 및 창 기능 설명, 기능 플로우 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험, 범칙금, 주차요금, 톨게이트 비용, 차량용품 등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Menu_Tree 수정(완료)
+2. 추가 자료 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판의 글들은 페이지당 20개씩 보여주어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>할인률, 총액의 계산 과정에 오류가 있어선 안된다.</x:t>
   </x:si>
   <x:si>
     <x:t>1. 06.28 회의록 작성
@@ -876,23 +952,7 @@
     <x:t>부품들의 시세변동을 지속적으로 업데이트 해야 한다.</x:t>
   </x:si>
   <x:si>
-    <x:t>할인률, 총액의 계산 과정에 오류가 있어선 안된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험, 범칙금, 주차요금, 톨게이트 비용, 차량용품 등</x:t>
-  </x:si>
-  <x:si>
     <x:t>채팅방 및 게시판에 들어가기 위해서는 로그인을 해야한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 각 버튼 및 창 기능 설명, 기능 플로우 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. Menu_Tree 수정(완료)
-2. 추가 자료 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판의 글들은 페이지당 20개씩 보여주어야 한다.</x:t>
   </x:si>
   <x:si>
     <x:t>1. 요구사항 정의 및 분석 보완
@@ -902,75 +962,28 @@
     <x:t>로그인 실패시 로그인 오류 메세지를 출력해야 한다.</x:t>
   </x:si>
   <x:si>
+    <x:t>1. 화면 플로우 마무리
+2. Setting창 화면 추가</x:t>
+  </x:si>
+  <x:si>
     <x:t>1. 화면 플로우 작업
 2. 정비예약화면 아이콘 추가</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 화면 플로우 마무리
-2. Setting창 화면 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:32
-18:05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 계약서 작성
-2. 현장실습 오리엔테이션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 화면 시퀀스 작성
-2. 추가 자료 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유량, 연비, 운행 거리 및 기타 비용 통계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어플 내 광고를 통해 일정 수입료를 받는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판을 이용하기 위해서는 로그인을 해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이콘을 활용하여 한 눈에 확인하기 쉬워야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>APP종료시 입력된 데이터는 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성
- - 화면별 세부기능 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DB에 저장된 내용들은 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>다이어리에 메모한 사항 달력에 날짜 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 형태로 존재, 결함/리콜 내역</x:t>
   </x:si>
   <x:si>
     <x:t>1. 아이디어 도출
  - USB 복구 툴</x:t>
   </x:si>
   <x:si>
+    <x:t>게시판 형태로 존재, 결함/리콜 내역</x:t>
+  </x:si>
+  <x:si>
     <x:t>중복되는 아이디는 가입이 되어선 안된다.</x:t>
   </x:si>
   <x:si>
     <x:t>정확한 위치의 지도 정보를 받아와야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 주제 아이디어 선정
-2. 요구사항 정의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 브리핑 준비
- - 메모장 정리
-2. 견학 보고서 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:34
-12:37</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1535,7 +1548,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="102">
+  <x:cellXfs count="103">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -2126,6 +2139,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -2351,13 +2377,13 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
@@ -3052,11 +3078,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="B2:E42"/>
+  <x:dimension ref="B2:F42"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:pane xSplit="0" ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" activeCell="D28" activeCellId="0" sqref="D28:D28"/>
+    <x:sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:pane xSplit="0" ySplit="2" topLeftCell="C24" activePane="bottomLeft" state="frozen"/>
+      <x:selection pane="bottomLeft" activeCell="E35" activeCellId="0" sqref="E35:E35"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.199999999999999"/>
@@ -3066,22 +3092,23 @@
     <x:col min="3" max="3" width="8.796875" style="3" bestFit="1" customWidth="1"/>
     <x:col min="4" max="4" width="45.68359375" style="4" bestFit="1" customWidth="1"/>
     <x:col min="5" max="5" width="55.09765625" style="4" customWidth="1"/>
-    <x:col min="6" max="16384" width="8.796875" style="3"/>
+    <x:col min="6" max="6" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
+    <x:col min="7" max="16384" width="8.796875" style="3"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" ht="6.5999999999999996" customHeight="1"/>
     <x:row r="2" spans="2:5" ht="31.199999999999999" customHeight="1">
       <x:c r="B2" s="5" t="s">
-        <x:v>121</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C2" s="6" t="s">
-        <x:v>192</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D2" s="6" t="s">
-        <x:v>120</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E2" s="7" t="s">
-        <x:v>132</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:5" ht="105.75">
@@ -3089,13 +3116,13 @@
         <x:v>44369</x:v>
       </x:c>
       <x:c r="C3" s="15" t="s">
-        <x:v>64</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="D3" s="9" t="s">
-        <x:v>257</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="E3" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:5" ht="118.55">
@@ -3103,13 +3130,13 @@
         <x:v>44370</x:v>
       </x:c>
       <x:c r="C4" s="14" t="s">
-        <x:v>64</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="D4" s="12" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E4" s="12" t="s">
-        <x:v>105</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:5" ht="79.049999999999997">
@@ -3117,13 +3144,13 @@
         <x:v>44371</x:v>
       </x:c>
       <x:c r="C5" s="16" t="s">
-        <x:v>86</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D5" s="12" t="s">
-        <x:v>20</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="E5" s="12" t="s">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:5" ht="79.049999999999997">
@@ -3131,13 +3158,13 @@
         <x:v>44372</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
-        <x:v>86</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D6" s="12" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="E6" s="17" t="s">
-        <x:v>11</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:5" ht="79.049999999999997">
@@ -3145,13 +3172,13 @@
         <x:v>44375</x:v>
       </x:c>
       <x:c r="C7" s="14" t="s">
-        <x:v>83</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D7" s="12" t="s">
-        <x:v>244</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E7" s="12" t="s">
-        <x:v>16</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:5" ht="52.700000000000003">
@@ -3159,13 +3186,13 @@
         <x:v>44376</x:v>
       </x:c>
       <x:c r="C8" s="14" t="s">
-        <x:v>72</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="D8" s="12" t="s">
-        <x:v>29</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="E8" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:5" ht="52.700000000000003">
@@ -3173,13 +3200,13 @@
         <x:v>44377</x:v>
       </x:c>
       <x:c r="C9" s="19" t="s">
-        <x:v>81</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="D9" s="12" t="s">
-        <x:v>18</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E9" s="12" t="s">
-        <x:v>22</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:5" ht="52.700000000000003">
@@ -3187,13 +3214,13 @@
         <x:v>44378</x:v>
       </x:c>
       <x:c r="C10" s="20" t="s">
-        <x:v>97</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D10" s="12" t="s">
-        <x:v>114</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E10" s="12" t="s">
-        <x:v>15</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:5" ht="65.849999999999994">
@@ -3201,13 +3228,13 @@
         <x:v>44379</x:v>
       </x:c>
       <x:c r="C11" s="22" t="s">
-        <x:v>89</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="D11" s="12" t="s">
-        <x:v>4</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E11" s="12" t="s">
-        <x:v>17</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:5" ht="105.40000000000001">
@@ -3215,13 +3242,13 @@
         <x:v>44382</x:v>
       </x:c>
       <x:c r="C12" s="21" t="s">
-        <x:v>79</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D12" s="12" t="s">
-        <x:v>113</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="E12" s="12" t="s">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:5" ht="52.700000000000003">
@@ -3229,13 +3256,13 @@
         <x:v>44383</x:v>
       </x:c>
       <x:c r="C13" s="23" t="s">
-        <x:v>97</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D13" s="12" t="s">
-        <x:v>2</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E13" s="12" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:5" ht="52.700000000000003">
@@ -3243,13 +3270,13 @@
         <x:v>44384</x:v>
       </x:c>
       <x:c r="C14" s="24" t="s">
-        <x:v>53</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="D14" s="12" t="s">
-        <x:v>104</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E14" s="12" t="s">
-        <x:v>23</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:5" ht="52.700000000000003">
@@ -3257,13 +3284,13 @@
         <x:v>44385</x:v>
       </x:c>
       <x:c r="C15" s="30" t="s">
-        <x:v>70</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="D15" s="12" t="s">
-        <x:v>112</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="E15" s="12" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:5" ht="26.350000000000001">
@@ -3271,13 +3298,13 @@
         <x:v>44386</x:v>
       </x:c>
       <x:c r="C16" s="31" t="s">
-        <x:v>57</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D16" s="12" t="s">
-        <x:v>252</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="E16" s="12" t="s">
-        <x:v>48</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:5" ht="39.549999999999997">
@@ -3285,13 +3312,13 @@
         <x:v>44389</x:v>
       </x:c>
       <x:c r="C17" s="70" t="s">
-        <x:v>90</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D17" s="12" t="s">
-        <x:v>47</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E17" s="12" t="s">
-        <x:v>250</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:5" ht="26.350000000000001">
@@ -3299,13 +3326,13 @@
         <x:v>44390</x:v>
       </x:c>
       <x:c r="C18" s="71" t="s">
-        <x:v>93</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="D18" s="12" t="s">
-        <x:v>258</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E18" s="12" t="s">
-        <x:v>21</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:5" ht="26.350000000000001">
@@ -3313,13 +3340,13 @@
         <x:v>44391</x:v>
       </x:c>
       <x:c r="C19" s="71" t="s">
-        <x:v>97</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D19" s="12" t="s">
-        <x:v>258</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E19" s="12" t="s">
-        <x:v>5</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:5" ht="26.350000000000001">
@@ -3327,13 +3354,13 @@
         <x:v>44392</x:v>
       </x:c>
       <x:c r="C20" s="14" t="s">
-        <x:v>82</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D20" s="12" t="s">
-        <x:v>102</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="E20" s="11" t="s">
-        <x:v>71</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="2:5" ht="26.350000000000001">
@@ -3341,13 +3368,13 @@
         <x:v>44393</x:v>
       </x:c>
       <x:c r="C21" s="72" t="s">
-        <x:v>67</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="D21" s="12" t="s">
-        <x:v>115</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E21" s="12" t="s">
-        <x:v>264</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="2:5" ht="26.350000000000001">
@@ -3355,13 +3382,13 @@
         <x:v>44396</x:v>
       </x:c>
       <x:c r="C22" s="73" t="s">
-        <x:v>96</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D22" s="11" t="s">
-        <x:v>249</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="E22" s="12" t="s">
-        <x:v>46</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="2:5" ht="26.350000000000001">
@@ -3369,13 +3396,13 @@
         <x:v>44397</x:v>
       </x:c>
       <x:c r="C23" s="74" t="s">
-        <x:v>54</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D23" s="12" t="s">
-        <x:v>255</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="E23" s="12" t="s">
-        <x:v>254</x:v>
+        <x:v>271</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="2:5" ht="39.549999999999997">
@@ -3383,13 +3410,13 @@
         <x:v>44398</x:v>
       </x:c>
       <x:c r="C24" s="14" t="s">
-        <x:v>61</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="D24" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="E24" s="12" t="s">
-        <x:v>103</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="2:5" ht="26.350000000000001">
@@ -3397,13 +3424,13 @@
         <x:v>44399</x:v>
       </x:c>
       <x:c r="C25" s="75" t="s">
-        <x:v>94</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="D25" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="E25" s="12" t="s">
-        <x:v>268</x:v>
+        <x:v>273</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="2:5" ht="26.350000000000001">
@@ -3411,45 +3438,54 @@
         <x:v>44400</x:v>
       </x:c>
       <x:c r="C26" s="14" t="s">
-        <x:v>273</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="D26" s="11" t="s">
-        <x:v>49</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E26" s="11" t="s">
-        <x:v>49</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="2:5" ht="39.549999999999997">
       <x:c r="B27" s="13">
         <x:v>44403</x:v>
       </x:c>
-      <x:c r="C27" s="101" t="s">
-        <x:v>256</x:v>
+      <x:c r="C27" s="76" t="s">
+        <x:v>248</x:v>
       </x:c>
       <x:c r="D27" s="12" t="s">
-        <x:v>45</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E27" s="12" t="s">
-        <x:v>272</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="2:5" ht="26.350000000000001">
+        <x:v>163</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="2:6" ht="39.549999999999997">
       <x:c r="B28" s="13">
         <x:v>44404</x:v>
       </x:c>
-      <x:c r="C28" s="10"/>
+      <x:c r="C28" s="14" t="s">
+        <x:v>221</x:v>
+      </x:c>
       <x:c r="D28" s="12" t="s">
-        <x:v>271</x:v>
-      </x:c>
-      <x:c r="E28" s="11"/>
-    </x:row>
-    <x:row r="29" spans="2:5">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="E28" s="12" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F28" s="102" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="2:5" ht="26.350000000000001">
       <x:c r="B29" s="13">
         <x:v>44405</x:v>
       </x:c>
       <x:c r="C29" s="10"/>
-      <x:c r="D29" s="11"/>
+      <x:c r="D29" s="12" t="s">
+        <x:v>8</x:v>
+      </x:c>
       <x:c r="E29" s="11"/>
     </x:row>
     <x:row r="30" spans="2:5">
@@ -3584,78 +3620,78 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="17.149999999999999">
       <x:c r="A1" s="26" t="s">
-        <x:v>59</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B1" s="33" t="s">
-        <x:v>171</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C1" s="34" t="s">
-        <x:v>147</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D1" s="34" t="s">
-        <x:v>190</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E1" s="34" t="s">
-        <x:v>145</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F1" s="34" t="s">
-        <x:v>152</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G1" s="34" t="s">
-        <x:v>126</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H1" s="34" t="s">
-        <x:v>206</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I1" s="35" t="s">
-        <x:v>234</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:9">
-      <x:c r="A2" s="84" t="s">
-        <x:v>228</x:v>
-      </x:c>
-      <x:c r="B2" s="78" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="C2" s="81" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="D2" s="81" t="s">
-        <x:v>119</x:v>
+      <x:c r="A2" s="85" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B2" s="79" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C2" s="82" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D2" s="82" t="s">
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E2" s="38" t="s">
-        <x:v>170</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F2" s="38"/>
       <x:c r="G2" s="38"/>
       <x:c r="H2" s="38"/>
       <x:c r="I2" s="38" t="s">
-        <x:v>51</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
-      <x:c r="A3" s="85"/>
-      <x:c r="B3" s="79"/>
-      <x:c r="C3" s="82"/>
-      <x:c r="D3" s="82"/>
+      <x:c r="A3" s="86"/>
+      <x:c r="B3" s="80"/>
+      <x:c r="C3" s="83"/>
+      <x:c r="D3" s="83"/>
       <x:c r="E3" s="37" t="s">
-        <x:v>65</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="F3" s="37"/>
       <x:c r="G3" s="37"/>
       <x:c r="H3" s="37"/>
       <x:c r="I3" s="37" t="s">
-        <x:v>37</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
-      <x:c r="A4" s="85"/>
-      <x:c r="B4" s="79"/>
-      <x:c r="C4" s="82"/>
-      <x:c r="D4" s="82"/>
+      <x:c r="A4" s="86"/>
+      <x:c r="B4" s="80"/>
+      <x:c r="C4" s="83"/>
+      <x:c r="D4" s="83"/>
       <x:c r="E4" s="37" t="s">
-        <x:v>177</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F4" s="37"/>
       <x:c r="G4" s="37"/>
@@ -3663,42 +3699,42 @@
       <x:c r="I4" s="37"/>
     </x:row>
     <x:row r="5" spans="1:9">
-      <x:c r="A5" s="85"/>
-      <x:c r="B5" s="79"/>
-      <x:c r="C5" s="82"/>
-      <x:c r="D5" s="82"/>
-      <x:c r="E5" s="76" t="s">
-        <x:v>146</x:v>
+      <x:c r="A5" s="86"/>
+      <x:c r="B5" s="80"/>
+      <x:c r="C5" s="83"/>
+      <x:c r="D5" s="83"/>
+      <x:c r="E5" s="77" t="s">
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F5" s="37" t="s">
-        <x:v>154</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="G5" s="37"/>
       <x:c r="H5" s="37"/>
       <x:c r="I5" s="37"/>
     </x:row>
     <x:row r="6" spans="1:9">
-      <x:c r="A6" s="85"/>
-      <x:c r="B6" s="79"/>
-      <x:c r="C6" s="82"/>
-      <x:c r="D6" s="77"/>
-      <x:c r="E6" s="77"/>
+      <x:c r="A6" s="86"/>
+      <x:c r="B6" s="80"/>
+      <x:c r="C6" s="83"/>
+      <x:c r="D6" s="78"/>
+      <x:c r="E6" s="78"/>
       <x:c r="F6" s="37" t="s">
-        <x:v>56</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="G6" s="37"/>
       <x:c r="H6" s="37"/>
       <x:c r="I6" s="37"/>
     </x:row>
     <x:row r="7" spans="1:9">
-      <x:c r="A7" s="85"/>
-      <x:c r="B7" s="79"/>
-      <x:c r="C7" s="82"/>
-      <x:c r="D7" s="76" t="s">
-        <x:v>157</x:v>
+      <x:c r="A7" s="86"/>
+      <x:c r="B7" s="80"/>
+      <x:c r="C7" s="83"/>
+      <x:c r="D7" s="77" t="s">
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E7" s="37" t="s">
-        <x:v>208</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F7" s="37"/>
       <x:c r="G7" s="37"/>
@@ -3706,91 +3742,91 @@
       <x:c r="I7" s="37"/>
     </x:row>
     <x:row r="8" spans="1:9">
-      <x:c r="A8" s="85"/>
-      <x:c r="B8" s="79"/>
-      <x:c r="C8" s="82"/>
-      <x:c r="D8" s="82"/>
+      <x:c r="A8" s="86"/>
+      <x:c r="B8" s="80"/>
+      <x:c r="C8" s="83"/>
+      <x:c r="D8" s="83"/>
       <x:c r="E8" s="37" t="s">
-        <x:v>225</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F8" s="37"/>
       <x:c r="G8" s="37"/>
       <x:c r="H8" s="37"/>
       <x:c r="I8" s="37" t="s">
-        <x:v>27</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
-      <x:c r="A9" s="85"/>
-      <x:c r="B9" s="79"/>
-      <x:c r="C9" s="82"/>
-      <x:c r="D9" s="82"/>
+      <x:c r="A9" s="86"/>
+      <x:c r="B9" s="80"/>
+      <x:c r="C9" s="83"/>
+      <x:c r="D9" s="83"/>
       <x:c r="E9" s="37" t="s">
-        <x:v>241</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F9" s="37"/>
       <x:c r="G9" s="37"/>
       <x:c r="H9" s="37"/>
       <x:c r="I9" s="37" t="s">
-        <x:v>34</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
-      <x:c r="A10" s="85"/>
-      <x:c r="B10" s="79"/>
-      <x:c r="C10" s="82"/>
-      <x:c r="D10" s="82"/>
-      <x:c r="E10" s="76" t="s">
-        <x:v>128</x:v>
+      <x:c r="A10" s="86"/>
+      <x:c r="B10" s="80"/>
+      <x:c r="C10" s="83"/>
+      <x:c r="D10" s="83"/>
+      <x:c r="E10" s="77" t="s">
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F10" s="37" t="s">
-        <x:v>162</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G10" s="37"/>
       <x:c r="H10" s="37"/>
       <x:c r="I10" s="37"/>
     </x:row>
     <x:row r="11" spans="1:9">
-      <x:c r="A11" s="85"/>
-      <x:c r="B11" s="79"/>
-      <x:c r="C11" s="82"/>
-      <x:c r="D11" s="82"/>
-      <x:c r="E11" s="82"/>
+      <x:c r="A11" s="86"/>
+      <x:c r="B11" s="80"/>
+      <x:c r="C11" s="83"/>
+      <x:c r="D11" s="83"/>
+      <x:c r="E11" s="83"/>
       <x:c r="F11" s="37" t="s">
-        <x:v>134</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G11" s="37"/>
       <x:c r="H11" s="37"/>
       <x:c r="I11" s="37" t="s">
-        <x:v>247</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
-      <x:c r="A12" s="85"/>
-      <x:c r="B12" s="79"/>
-      <x:c r="C12" s="82"/>
-      <x:c r="D12" s="82"/>
-      <x:c r="E12" s="82"/>
+      <x:c r="A12" s="86"/>
+      <x:c r="B12" s="80"/>
+      <x:c r="C12" s="83"/>
+      <x:c r="D12" s="83"/>
+      <x:c r="E12" s="83"/>
       <x:c r="F12" s="37" t="s">
-        <x:v>200</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G12" s="37"/>
       <x:c r="H12" s="37"/>
       <x:c r="I12" s="37"/>
     </x:row>
     <x:row r="13" spans="1:28">
-      <x:c r="A13" s="85"/>
-      <x:c r="B13" s="79"/>
-      <x:c r="C13" s="77"/>
-      <x:c r="D13" s="77"/>
-      <x:c r="E13" s="77"/>
+      <x:c r="A13" s="86"/>
+      <x:c r="B13" s="80"/>
+      <x:c r="C13" s="78"/>
+      <x:c r="D13" s="78"/>
+      <x:c r="E13" s="78"/>
       <x:c r="F13" s="37" t="s">
-        <x:v>233</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G13" s="37"/>
       <x:c r="H13" s="37"/>
       <x:c r="I13" s="37" t="s">
-        <x:v>41</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J13" s="29"/>
       <x:c r="K13" s="29"/>
@@ -3813,22 +3849,22 @@
       <x:c r="AB13" s="29"/>
     </x:row>
     <x:row r="14" spans="1:28">
-      <x:c r="A14" s="85"/>
-      <x:c r="B14" s="79"/>
-      <x:c r="C14" s="76" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="D14" s="76" t="s">
-        <x:v>125</x:v>
+      <x:c r="A14" s="86"/>
+      <x:c r="B14" s="80"/>
+      <x:c r="C14" s="77" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D14" s="77" t="s">
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E14" s="37" t="s">
-        <x:v>217</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F14" s="37"/>
       <x:c r="G14" s="37"/>
       <x:c r="H14" s="37"/>
       <x:c r="I14" s="37" t="s">
-        <x:v>202</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J14" s="29"/>
       <x:c r="K14" s="29"/>
@@ -3851,18 +3887,18 @@
       <x:c r="AB14" s="29"/>
     </x:row>
     <x:row r="15" spans="1:28">
-      <x:c r="A15" s="85"/>
-      <x:c r="B15" s="79"/>
-      <x:c r="C15" s="82"/>
-      <x:c r="D15" s="82"/>
+      <x:c r="A15" s="86"/>
+      <x:c r="B15" s="80"/>
+      <x:c r="C15" s="83"/>
+      <x:c r="D15" s="83"/>
       <x:c r="E15" s="37" t="s">
-        <x:v>160</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F15" s="37"/>
       <x:c r="G15" s="37"/>
       <x:c r="H15" s="37"/>
       <x:c r="I15" s="37" t="s">
-        <x:v>156</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="J15" s="29"/>
       <x:c r="K15" s="29"/>
@@ -3885,12 +3921,12 @@
       <x:c r="AB15" s="29"/>
     </x:row>
     <x:row r="16" spans="1:28">
-      <x:c r="A16" s="85"/>
-      <x:c r="B16" s="79"/>
-      <x:c r="C16" s="82"/>
-      <x:c r="D16" s="82"/>
+      <x:c r="A16" s="86"/>
+      <x:c r="B16" s="80"/>
+      <x:c r="C16" s="83"/>
+      <x:c r="D16" s="83"/>
       <x:c r="E16" s="37" t="s">
-        <x:v>195</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="F16" s="37"/>
       <x:c r="G16" s="37"/>
@@ -3916,18 +3952,18 @@
       <x:c r="AB16" s="29"/>
     </x:row>
     <x:row r="17" spans="1:28">
-      <x:c r="A17" s="85"/>
-      <x:c r="B17" s="79"/>
-      <x:c r="C17" s="82"/>
-      <x:c r="D17" s="77"/>
+      <x:c r="A17" s="86"/>
+      <x:c r="B17" s="80"/>
+      <x:c r="C17" s="83"/>
+      <x:c r="D17" s="78"/>
       <x:c r="E17" s="37" t="s">
-        <x:v>149</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F17" s="37"/>
       <x:c r="G17" s="37"/>
       <x:c r="H17" s="37"/>
       <x:c r="I17" s="37" t="s">
-        <x:v>267</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="J17" s="29"/>
       <x:c r="K17" s="29"/>
@@ -3950,17 +3986,17 @@
       <x:c r="AB17" s="29"/>
     </x:row>
     <x:row r="18" spans="1:28">
-      <x:c r="A18" s="85"/>
-      <x:c r="B18" s="79"/>
-      <x:c r="C18" s="82"/>
+      <x:c r="A18" s="86"/>
+      <x:c r="B18" s="80"/>
+      <x:c r="C18" s="83"/>
       <x:c r="D18" s="37" t="s">
-        <x:v>78</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="E18" s="37" t="s">
-        <x:v>74</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="F18" s="37" t="s">
-        <x:v>158</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G18" s="37"/>
       <x:c r="H18" s="37"/>
@@ -3986,18 +4022,18 @@
       <x:c r="AB18" s="29"/>
     </x:row>
     <x:row r="19" spans="1:28">
-      <x:c r="A19" s="85"/>
-      <x:c r="B19" s="79"/>
-      <x:c r="C19" s="82"/>
+      <x:c r="A19" s="86"/>
+      <x:c r="B19" s="80"/>
+      <x:c r="C19" s="83"/>
       <x:c r="D19" s="37" t="s">
-        <x:v>216</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="37"/>
       <x:c r="F19" s="37"/>
       <x:c r="G19" s="37"/>
       <x:c r="H19" s="37"/>
-      <x:c r="I19" s="76" t="s">
-        <x:v>52</x:v>
+      <x:c r="I19" s="77" t="s">
+        <x:v>223</x:v>
       </x:c>
       <x:c r="J19" s="29"/>
       <x:c r="K19" s="29"/>
@@ -4020,17 +4056,17 @@
       <x:c r="AB19" s="29"/>
     </x:row>
     <x:row r="20" spans="1:28">
-      <x:c r="A20" s="85"/>
-      <x:c r="B20" s="79"/>
-      <x:c r="C20" s="82"/>
+      <x:c r="A20" s="86"/>
+      <x:c r="B20" s="80"/>
+      <x:c r="C20" s="83"/>
       <x:c r="D20" s="37" t="s">
-        <x:v>149</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E20" s="37"/>
       <x:c r="F20" s="37"/>
       <x:c r="G20" s="37"/>
       <x:c r="H20" s="37"/>
-      <x:c r="I20" s="82"/>
+      <x:c r="I20" s="83"/>
       <x:c r="J20" s="29"/>
       <x:c r="K20" s="29"/>
       <x:c r="L20" s="29"/>
@@ -4052,17 +4088,17 @@
       <x:c r="AB20" s="29"/>
     </x:row>
     <x:row r="21" spans="1:28">
-      <x:c r="A21" s="85"/>
-      <x:c r="B21" s="79"/>
-      <x:c r="C21" s="82"/>
+      <x:c r="A21" s="86"/>
+      <x:c r="B21" s="80"/>
+      <x:c r="C21" s="83"/>
       <x:c r="D21" s="37" t="s">
-        <x:v>195</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E21" s="37"/>
       <x:c r="F21" s="37"/>
       <x:c r="G21" s="37"/>
       <x:c r="H21" s="37"/>
-      <x:c r="I21" s="77"/>
+      <x:c r="I21" s="78"/>
       <x:c r="J21" s="29"/>
       <x:c r="K21" s="29"/>
       <x:c r="L21" s="29"/>
@@ -4084,11 +4120,11 @@
       <x:c r="AB21" s="29"/>
     </x:row>
     <x:row r="22" spans="1:28">
-      <x:c r="A22" s="85"/>
-      <x:c r="B22" s="80"/>
-      <x:c r="C22" s="77"/>
+      <x:c r="A22" s="86"/>
+      <x:c r="B22" s="81"/>
+      <x:c r="C22" s="78"/>
       <x:c r="D22" s="37" t="s">
-        <x:v>60</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="E22" s="37"/>
       <x:c r="F22" s="37"/>
@@ -4116,12 +4152,12 @@
       <x:c r="AB22" s="29"/>
     </x:row>
     <x:row r="23" spans="1:28">
-      <x:c r="A23" s="85"/>
-      <x:c r="B23" s="83" t="s">
-        <x:v>189</x:v>
+      <x:c r="A23" s="86"/>
+      <x:c r="B23" s="84" t="s">
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C23" s="37" t="s">
-        <x:v>69</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="D23" s="37"/>
       <x:c r="E23" s="37"/>
@@ -4150,10 +4186,10 @@
       <x:c r="AB23" s="29"/>
     </x:row>
     <x:row r="24" spans="1:28">
-      <x:c r="A24" s="85"/>
-      <x:c r="B24" s="79"/>
+      <x:c r="A24" s="86"/>
+      <x:c r="B24" s="80"/>
       <x:c r="C24" s="37" t="s">
-        <x:v>243</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D24" s="37"/>
       <x:c r="E24" s="37"/>
@@ -4182,10 +4218,10 @@
       <x:c r="AB24" s="29"/>
     </x:row>
     <x:row r="25" spans="1:28">
-      <x:c r="A25" s="85"/>
-      <x:c r="B25" s="79"/>
+      <x:c r="A25" s="86"/>
+      <x:c r="B25" s="80"/>
       <x:c r="C25" s="37" t="s">
-        <x:v>198</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D25" s="37"/>
       <x:c r="E25" s="37"/>
@@ -4214,16 +4250,16 @@
       <x:c r="AB25" s="29"/>
     </x:row>
     <x:row r="26" spans="1:87">
-      <x:c r="A26" s="85"/>
-      <x:c r="B26" s="79"/>
-      <x:c r="C26" s="76" t="s">
-        <x:v>189</x:v>
+      <x:c r="A26" s="86"/>
+      <x:c r="B26" s="80"/>
+      <x:c r="C26" s="77" t="s">
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D26" s="37" t="s">
-        <x:v>184</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E26" s="37" t="s">
-        <x:v>85</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="F26" s="37"/>
       <x:c r="G26" s="37"/>
@@ -4309,17 +4345,17 @@
       <x:c r="CI26" s="29"/>
     </x:row>
     <x:row r="27" spans="1:87" s="1" customFormat="1">
-      <x:c r="A27" s="84"/>
-      <x:c r="B27" s="83"/>
-      <x:c r="C27" s="82"/>
-      <x:c r="D27" s="76" t="s">
-        <x:v>236</x:v>
+      <x:c r="A27" s="85"/>
+      <x:c r="B27" s="84"/>
+      <x:c r="C27" s="83"/>
+      <x:c r="D27" s="77" t="s">
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E27" s="37" t="s">
-        <x:v>161</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F27" s="37" t="s">
-        <x:v>84</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="G27" s="37"/>
       <x:c r="H27" s="37"/>
@@ -4404,15 +4440,15 @@
       <x:c r="CI27" s="29"/>
     </x:row>
     <x:row r="28" spans="1:87">
-      <x:c r="A28" s="85"/>
-      <x:c r="B28" s="79"/>
-      <x:c r="C28" s="82"/>
-      <x:c r="D28" s="77"/>
+      <x:c r="A28" s="86"/>
+      <x:c r="B28" s="80"/>
+      <x:c r="C28" s="83"/>
+      <x:c r="D28" s="78"/>
       <x:c r="E28" s="37" t="s">
-        <x:v>168</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F28" s="37" t="s">
-        <x:v>84</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="G28" s="37"/>
       <x:c r="H28" s="37"/>
@@ -4497,14 +4533,14 @@
       <x:c r="CI28" s="29"/>
     </x:row>
     <x:row r="29" spans="1:87">
-      <x:c r="A29" s="85"/>
-      <x:c r="B29" s="79"/>
-      <x:c r="C29" s="82"/>
+      <x:c r="A29" s="86"/>
+      <x:c r="B29" s="80"/>
+      <x:c r="C29" s="83"/>
       <x:c r="D29" s="37" t="s">
-        <x:v>123</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E29" s="39" t="s">
-        <x:v>179</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="F29" s="39"/>
       <x:c r="G29" s="37"/>
@@ -4590,14 +4626,14 @@
       <x:c r="CI29" s="29"/>
     </x:row>
     <x:row r="30" spans="1:87">
-      <x:c r="A30" s="85"/>
-      <x:c r="B30" s="79"/>
-      <x:c r="C30" s="82"/>
+      <x:c r="A30" s="86"/>
+      <x:c r="B30" s="80"/>
+      <x:c r="C30" s="83"/>
       <x:c r="D30" s="37" t="s">
-        <x:v>193</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E30" s="37" t="s">
-        <x:v>235</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F30" s="37"/>
       <x:c r="G30" s="37"/>
@@ -4683,12 +4719,12 @@
       <x:c r="CI30" s="29"/>
     </x:row>
     <x:row r="31" spans="1:87" s="1" customFormat="1">
-      <x:c r="A31" s="84"/>
-      <x:c r="B31" s="83"/>
-      <x:c r="C31" s="82"/>
+      <x:c r="A31" s="85"/>
+      <x:c r="B31" s="84"/>
+      <x:c r="C31" s="83"/>
       <x:c r="D31" s="37"/>
       <x:c r="E31" s="37" t="s">
-        <x:v>129</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F31" s="37"/>
       <x:c r="G31" s="37"/>
@@ -4774,14 +4810,14 @@
       <x:c r="CI31" s="29"/>
     </x:row>
     <x:row r="32" spans="1:87">
-      <x:c r="A32" s="85"/>
-      <x:c r="B32" s="79"/>
-      <x:c r="C32" s="82"/>
+      <x:c r="A32" s="86"/>
+      <x:c r="B32" s="80"/>
+      <x:c r="C32" s="83"/>
       <x:c r="D32" s="37" t="s">
-        <x:v>165</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E32" s="37" t="s">
-        <x:v>144</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F32" s="37"/>
       <x:c r="G32" s="37"/>
@@ -4867,11 +4903,11 @@
       <x:c r="CI32" s="29"/>
     </x:row>
     <x:row r="33" spans="1:87">
-      <x:c r="A33" s="85"/>
-      <x:c r="B33" s="79"/>
-      <x:c r="C33" s="77"/>
+      <x:c r="A33" s="86"/>
+      <x:c r="B33" s="80"/>
+      <x:c r="C33" s="78"/>
       <x:c r="D33" s="37" t="s">
-        <x:v>176</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E33" s="37"/>
       <x:c r="F33" s="37"/>
@@ -4958,13 +4994,13 @@
       <x:c r="CI33" s="29"/>
     </x:row>
     <x:row r="34" spans="1:87" s="1" customFormat="1">
-      <x:c r="A34" s="84"/>
-      <x:c r="B34" s="83"/>
-      <x:c r="C34" s="76" t="s">
-        <x:v>197</x:v>
+      <x:c r="A34" s="85"/>
+      <x:c r="B34" s="84"/>
+      <x:c r="C34" s="77" t="s">
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D34" s="37" t="s">
-        <x:v>131</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E34" s="37"/>
       <x:c r="F34" s="37"/>
@@ -5051,11 +5087,11 @@
       <x:c r="CI34" s="29"/>
     </x:row>
     <x:row r="35" spans="1:87" s="1" customFormat="1">
-      <x:c r="A35" s="85"/>
-      <x:c r="B35" s="79"/>
-      <x:c r="C35" s="82"/>
+      <x:c r="A35" s="86"/>
+      <x:c r="B35" s="80"/>
+      <x:c r="C35" s="83"/>
       <x:c r="D35" s="37" t="s">
-        <x:v>238</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E35" s="37"/>
       <x:c r="F35" s="37"/>
@@ -5142,11 +5178,11 @@
       <x:c r="CI35" s="29"/>
     </x:row>
     <x:row r="36" spans="1:87" s="1" customFormat="1">
-      <x:c r="A36" s="85"/>
-      <x:c r="B36" s="79"/>
-      <x:c r="C36" s="82"/>
+      <x:c r="A36" s="86"/>
+      <x:c r="B36" s="80"/>
+      <x:c r="C36" s="83"/>
       <x:c r="D36" s="37" t="s">
-        <x:v>210</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E36" s="37"/>
       <x:c r="F36" s="37"/>
@@ -5233,11 +5269,11 @@
       <x:c r="CI36" s="29"/>
     </x:row>
     <x:row r="37" spans="1:87" s="1" customFormat="1">
-      <x:c r="A37" s="85"/>
-      <x:c r="B37" s="79"/>
-      <x:c r="C37" s="82"/>
+      <x:c r="A37" s="86"/>
+      <x:c r="B37" s="80"/>
+      <x:c r="C37" s="83"/>
       <x:c r="D37" s="37" t="s">
-        <x:v>205</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E37" s="37"/>
       <x:c r="F37" s="37"/>
@@ -5324,11 +5360,11 @@
       <x:c r="CI37" s="29"/>
     </x:row>
     <x:row r="38" spans="1:87" s="1" customFormat="1">
-      <x:c r="A38" s="85"/>
-      <x:c r="B38" s="79"/>
-      <x:c r="C38" s="82"/>
+      <x:c r="A38" s="86"/>
+      <x:c r="B38" s="80"/>
+      <x:c r="C38" s="83"/>
       <x:c r="D38" s="37" t="s">
-        <x:v>187</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E38" s="37"/>
       <x:c r="F38" s="37"/>
@@ -5415,11 +5451,11 @@
       <x:c r="CI38" s="29"/>
     </x:row>
     <x:row r="39" spans="1:87" s="1" customFormat="1">
-      <x:c r="A39" s="84"/>
-      <x:c r="B39" s="83"/>
-      <x:c r="C39" s="77"/>
+      <x:c r="A39" s="85"/>
+      <x:c r="B39" s="84"/>
+      <x:c r="C39" s="78"/>
       <x:c r="D39" s="37" t="s">
-        <x:v>174</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E39" s="37"/>
       <x:c r="F39" s="37"/>
@@ -5506,12 +5542,12 @@
       <x:c r="CI39" s="29"/>
     </x:row>
     <x:row r="40" spans="1:87">
-      <x:c r="A40" s="85"/>
-      <x:c r="B40" s="83" t="s">
-        <x:v>230</x:v>
+      <x:c r="A40" s="86"/>
+      <x:c r="B40" s="84" t="s">
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C40" s="37" t="s">
-        <x:v>209</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D40" s="37"/>
       <x:c r="E40" s="37"/>
@@ -5599,10 +5635,10 @@
       <x:c r="CI40" s="29"/>
     </x:row>
     <x:row r="41" spans="1:87">
-      <x:c r="A41" s="85"/>
-      <x:c r="B41" s="79"/>
+      <x:c r="A41" s="86"/>
+      <x:c r="B41" s="80"/>
       <x:c r="C41" s="37" t="s">
-        <x:v>153</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D41" s="37"/>
       <x:c r="E41" s="37"/>
@@ -5690,10 +5726,10 @@
       <x:c r="CI41" s="29"/>
     </x:row>
     <x:row r="42" spans="1:87">
-      <x:c r="A42" s="85"/>
-      <x:c r="B42" s="79"/>
+      <x:c r="A42" s="86"/>
+      <x:c r="B42" s="80"/>
       <x:c r="C42" s="37" t="s">
-        <x:v>151</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D42" s="37"/>
       <x:c r="E42" s="37"/>
@@ -5781,10 +5817,10 @@
       <x:c r="CI42" s="29"/>
     </x:row>
     <x:row r="43" spans="1:87">
-      <x:c r="A43" s="85"/>
-      <x:c r="B43" s="79"/>
+      <x:c r="A43" s="86"/>
+      <x:c r="B43" s="80"/>
       <x:c r="C43" s="37" t="s">
-        <x:v>166</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D43" s="37"/>
       <x:c r="E43" s="37"/>
@@ -5872,10 +5908,10 @@
       <x:c r="CI43" s="29"/>
     </x:row>
     <x:row r="44" spans="1:87">
-      <x:c r="A44" s="85"/>
-      <x:c r="B44" s="79"/>
+      <x:c r="A44" s="86"/>
+      <x:c r="B44" s="80"/>
       <x:c r="C44" s="37" t="s">
-        <x:v>198</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D44" s="37"/>
       <x:c r="E44" s="37"/>
@@ -5963,10 +5999,10 @@
       <x:c r="CI44" s="29"/>
     </x:row>
     <x:row r="45" spans="1:87">
-      <x:c r="A45" s="85"/>
-      <x:c r="B45" s="80"/>
+      <x:c r="A45" s="86"/>
+      <x:c r="B45" s="81"/>
       <x:c r="C45" s="37" t="s">
-        <x:v>142</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D45" s="37"/>
       <x:c r="E45" s="37"/>
@@ -6054,12 +6090,12 @@
       <x:c r="CI45" s="29"/>
     </x:row>
     <x:row r="46" spans="1:87">
-      <x:c r="A46" s="85"/>
-      <x:c r="B46" s="83" t="s">
-        <x:v>224</x:v>
+      <x:c r="A46" s="86"/>
+      <x:c r="B46" s="84" t="s">
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C46" s="37" t="s">
-        <x:v>207</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D46" s="37"/>
       <x:c r="E46" s="37"/>
@@ -6147,10 +6183,10 @@
       <x:c r="CI46" s="29"/>
     </x:row>
     <x:row r="47" spans="1:87">
-      <x:c r="A47" s="85"/>
-      <x:c r="B47" s="79"/>
+      <x:c r="A47" s="86"/>
+      <x:c r="B47" s="80"/>
       <x:c r="C47" s="37" t="s">
-        <x:v>223</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D47" s="37"/>
       <x:c r="E47" s="37"/>
@@ -6238,10 +6274,10 @@
       <x:c r="CI47" s="29"/>
     </x:row>
     <x:row r="48" spans="1:87">
-      <x:c r="A48" s="85"/>
-      <x:c r="B48" s="79"/>
+      <x:c r="A48" s="86"/>
+      <x:c r="B48" s="80"/>
       <x:c r="C48" s="37" t="s">
-        <x:v>148</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D48" s="37"/>
       <x:c r="E48" s="37"/>
@@ -6329,10 +6365,10 @@
       <x:c r="CI48" s="29"/>
     </x:row>
     <x:row r="49" spans="1:87">
-      <x:c r="A49" s="85"/>
-      <x:c r="B49" s="80"/>
+      <x:c r="A49" s="86"/>
+      <x:c r="B49" s="81"/>
       <x:c r="C49" s="37" t="s">
-        <x:v>175</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D49" s="37"/>
       <x:c r="E49" s="37"/>
@@ -6420,15 +6456,15 @@
       <x:c r="CI49" s="29"/>
     </x:row>
     <x:row r="50" spans="1:87">
-      <x:c r="A50" s="85"/>
-      <x:c r="B50" s="83" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="C50" s="76" t="s">
-        <x:v>69</x:v>
+      <x:c r="A50" s="86"/>
+      <x:c r="B50" s="84" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C50" s="77" t="s">
+        <x:v>240</x:v>
       </x:c>
       <x:c r="D50" s="37" t="s">
-        <x:v>130</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E50" s="37"/>
       <x:c r="F50" s="37"/>
@@ -6515,11 +6551,11 @@
       <x:c r="CI50" s="29"/>
     </x:row>
     <x:row r="51" spans="1:87">
-      <x:c r="A51" s="85"/>
-      <x:c r="B51" s="79"/>
-      <x:c r="C51" s="77"/>
+      <x:c r="A51" s="86"/>
+      <x:c r="B51" s="80"/>
+      <x:c r="C51" s="78"/>
       <x:c r="D51" s="37" t="s">
-        <x:v>173</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E51" s="37"/>
       <x:c r="F51" s="37"/>
@@ -6606,13 +6642,13 @@
       <x:c r="CI51" s="29"/>
     </x:row>
     <x:row r="52" spans="1:87">
-      <x:c r="A52" s="85"/>
-      <x:c r="B52" s="79"/>
-      <x:c r="C52" s="76" t="s">
+      <x:c r="A52" s="86"/>
+      <x:c r="B52" s="80"/>
+      <x:c r="C52" s="77" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D52" s="37" t="s">
         <x:v>213</x:v>
-      </x:c>
-      <x:c r="D52" s="37" t="s">
-        <x:v>91</x:v>
       </x:c>
       <x:c r="E52" s="37"/>
       <x:c r="F52" s="37"/>
@@ -6699,11 +6735,11 @@
       <x:c r="CI52" s="29"/>
     </x:row>
     <x:row r="53" spans="1:87">
-      <x:c r="A53" s="85"/>
-      <x:c r="B53" s="79"/>
-      <x:c r="C53" s="77"/>
+      <x:c r="A53" s="86"/>
+      <x:c r="B53" s="80"/>
+      <x:c r="C53" s="78"/>
       <x:c r="D53" s="37" t="s">
-        <x:v>80</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E53" s="37"/>
       <x:c r="F53" s="37"/>
@@ -6790,13 +6826,13 @@
       <x:c r="CI53" s="29"/>
     </x:row>
     <x:row r="54" spans="1:87">
-      <x:c r="A54" s="85"/>
-      <x:c r="B54" s="79"/>
-      <x:c r="C54" s="76" t="s">
-        <x:v>76</x:v>
+      <x:c r="A54" s="86"/>
+      <x:c r="B54" s="80"/>
+      <x:c r="C54" s="77" t="s">
+        <x:v>205</x:v>
       </x:c>
       <x:c r="D54" s="37" t="s">
-        <x:v>87</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E54" s="37"/>
       <x:c r="F54" s="37"/>
@@ -6883,11 +6919,11 @@
       <x:c r="CI54" s="29"/>
     </x:row>
     <x:row r="55" spans="1:87">
-      <x:c r="A55" s="85"/>
-      <x:c r="B55" s="79"/>
-      <x:c r="C55" s="82"/>
+      <x:c r="A55" s="86"/>
+      <x:c r="B55" s="80"/>
+      <x:c r="C55" s="83"/>
       <x:c r="D55" s="37" t="s">
-        <x:v>75</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E55" s="37"/>
       <x:c r="F55" s="37"/>
@@ -6974,11 +7010,11 @@
       <x:c r="CI55" s="29"/>
     </x:row>
     <x:row r="56" spans="1:87">
-      <x:c r="A56" s="85"/>
-      <x:c r="B56" s="79"/>
-      <x:c r="C56" s="77"/>
+      <x:c r="A56" s="86"/>
+      <x:c r="B56" s="80"/>
+      <x:c r="C56" s="78"/>
       <x:c r="D56" s="37" t="s">
-        <x:v>43</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E56" s="37"/>
       <x:c r="F56" s="37"/>
@@ -7065,13 +7101,13 @@
       <x:c r="CI56" s="29"/>
     </x:row>
     <x:row r="57" spans="1:87">
-      <x:c r="A57" s="85"/>
-      <x:c r="B57" s="79"/>
-      <x:c r="C57" s="76" t="s">
-        <x:v>163</x:v>
+      <x:c r="A57" s="86"/>
+      <x:c r="B57" s="80"/>
+      <x:c r="C57" s="77" t="s">
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D57" s="37" t="s">
-        <x:v>38</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E57" s="37"/>
       <x:c r="F57" s="37"/>
@@ -7158,11 +7194,11 @@
       <x:c r="CI57" s="29"/>
     </x:row>
     <x:row r="58" spans="1:87">
-      <x:c r="A58" s="85"/>
-      <x:c r="B58" s="79"/>
-      <x:c r="C58" s="77"/>
+      <x:c r="A58" s="86"/>
+      <x:c r="B58" s="80"/>
+      <x:c r="C58" s="78"/>
       <x:c r="D58" s="37" t="s">
-        <x:v>55</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="E58" s="37"/>
       <x:c r="F58" s="37"/>
@@ -7249,13 +7285,13 @@
       <x:c r="CI58" s="29"/>
     </x:row>
     <x:row r="59" spans="1:87">
-      <x:c r="A59" s="85"/>
-      <x:c r="B59" s="79"/>
-      <x:c r="C59" s="76" t="s">
-        <x:v>88</x:v>
+      <x:c r="A59" s="86"/>
+      <x:c r="B59" s="80"/>
+      <x:c r="C59" s="77" t="s">
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D59" s="37" t="s">
-        <x:v>42</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E59" s="37"/>
       <x:c r="F59" s="37"/>
@@ -7342,11 +7378,11 @@
       <x:c r="CI59" s="29"/>
     </x:row>
     <x:row r="60" spans="1:87">
-      <x:c r="A60" s="85"/>
-      <x:c r="B60" s="79"/>
-      <x:c r="C60" s="77"/>
+      <x:c r="A60" s="86"/>
+      <x:c r="B60" s="80"/>
+      <x:c r="C60" s="78"/>
       <x:c r="D60" s="37" t="s">
-        <x:v>39</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E60" s="37"/>
       <x:c r="F60" s="37"/>
@@ -7433,13 +7469,13 @@
       <x:c r="CI60" s="29"/>
     </x:row>
     <x:row r="61" spans="1:87">
-      <x:c r="A61" s="85"/>
-      <x:c r="B61" s="79"/>
-      <x:c r="C61" s="76" t="s">
-        <x:v>159</x:v>
+      <x:c r="A61" s="86"/>
+      <x:c r="B61" s="80"/>
+      <x:c r="C61" s="77" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D61" s="37" t="s">
-        <x:v>211</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E61" s="37"/>
       <x:c r="F61" s="37"/>
@@ -7526,11 +7562,11 @@
       <x:c r="CI61" s="29"/>
     </x:row>
     <x:row r="62" spans="1:87">
-      <x:c r="A62" s="86"/>
-      <x:c r="B62" s="80"/>
-      <x:c r="C62" s="77"/>
+      <x:c r="A62" s="87"/>
+      <x:c r="B62" s="81"/>
+      <x:c r="C62" s="78"/>
       <x:c r="D62" s="37" t="s">
-        <x:v>182</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E62" s="37"/>
       <x:c r="F62" s="37"/>
@@ -9572,288 +9608,288 @@
   <x:sheetData>
     <x:row r="1" spans="1:8" ht="17.149999999999999">
       <x:c r="A1" s="32" t="s">
-        <x:v>59</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B1" s="33" t="s">
-        <x:v>171</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C1" s="34" t="s">
-        <x:v>147</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D1" s="34" t="s">
-        <x:v>190</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E1" s="34" t="s">
-        <x:v>145</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F1" s="34" t="s">
-        <x:v>152</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G1" s="34" t="s">
-        <x:v>206</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H1" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8" ht="16.75" customHeight="1">
-      <x:c r="A2" s="84" t="s">
-        <x:v>191</x:v>
-      </x:c>
-      <x:c r="B2" s="78" t="s">
+      <x:c r="A2" s="85" t="s">
         <x:v>155</x:v>
       </x:c>
-      <x:c r="C2" s="91" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="D2" s="89" t="s">
-        <x:v>125</x:v>
+      <x:c r="B2" s="79" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C2" s="92" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D2" s="90" t="s">
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E2" s="58" t="s">
-        <x:v>63</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="F2" s="58"/>
       <x:c r="G2" s="58"/>
       <x:c r="H2" s="58" t="s">
-        <x:v>35</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="85"/>
-      <x:c r="B3" s="79"/>
-      <x:c r="C3" s="92"/>
-      <x:c r="D3" s="90"/>
+      <x:c r="A3" s="86"/>
+      <x:c r="B3" s="80"/>
+      <x:c r="C3" s="93"/>
+      <x:c r="D3" s="91"/>
       <x:c r="E3" s="59" t="s">
-        <x:v>180</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F3" s="59"/>
       <x:c r="G3" s="59"/>
       <x:c r="H3" s="59" t="s">
-        <x:v>150</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="A4" s="85"/>
-      <x:c r="B4" s="79"/>
-      <x:c r="C4" s="92"/>
-      <x:c r="D4" s="88"/>
+      <x:c r="A4" s="86"/>
+      <x:c r="B4" s="80"/>
+      <x:c r="C4" s="93"/>
+      <x:c r="D4" s="89"/>
       <x:c r="E4" s="59" t="s">
-        <x:v>146</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F4" s="59"/>
       <x:c r="G4" s="59"/>
       <x:c r="H4" s="59" t="s">
-        <x:v>40</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="85"/>
-      <x:c r="B5" s="79"/>
-      <x:c r="C5" s="92"/>
-      <x:c r="D5" s="87" t="s">
-        <x:v>157</x:v>
+      <x:c r="A5" s="86"/>
+      <x:c r="B5" s="80"/>
+      <x:c r="C5" s="93"/>
+      <x:c r="D5" s="88" t="s">
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E5" s="60" t="s">
-        <x:v>138</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F5" s="59"/>
       <x:c r="G5" s="59"/>
       <x:c r="H5" s="59" t="s">
-        <x:v>259</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="A6" s="85"/>
-      <x:c r="B6" s="79"/>
-      <x:c r="C6" s="93"/>
-      <x:c r="D6" s="88"/>
+      <x:c r="A6" s="86"/>
+      <x:c r="B6" s="80"/>
+      <x:c r="C6" s="94"/>
+      <x:c r="D6" s="89"/>
       <x:c r="E6" s="60" t="s">
-        <x:v>241</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F6" s="59"/>
       <x:c r="G6" s="59"/>
       <x:c r="H6" s="59" t="s">
-        <x:v>110</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="85"/>
-      <x:c r="B7" s="79"/>
-      <x:c r="C7" s="95" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="D7" s="87" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="E7" s="87" t="s">
-        <x:v>125</x:v>
+      <x:c r="A7" s="86"/>
+      <x:c r="B7" s="80"/>
+      <x:c r="C7" s="96" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D7" s="88" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="E7" s="88" t="s">
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F7" s="59" t="s">
-        <x:v>217</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G7" s="59"/>
       <x:c r="H7" s="59"/>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="85"/>
-      <x:c r="B8" s="79"/>
-      <x:c r="C8" s="92"/>
-      <x:c r="D8" s="90"/>
-      <x:c r="E8" s="90"/>
+      <x:c r="A8" s="86"/>
+      <x:c r="B8" s="80"/>
+      <x:c r="C8" s="93"/>
+      <x:c r="D8" s="91"/>
+      <x:c r="E8" s="91"/>
       <x:c r="F8" s="59" t="s">
-        <x:v>95</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="G8" s="59"/>
       <x:c r="H8" s="59"/>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="85"/>
-      <x:c r="B9" s="79"/>
-      <x:c r="C9" s="92"/>
-      <x:c r="D9" s="90"/>
-      <x:c r="E9" s="90"/>
+      <x:c r="A9" s="86"/>
+      <x:c r="B9" s="80"/>
+      <x:c r="C9" s="93"/>
+      <x:c r="D9" s="91"/>
+      <x:c r="E9" s="91"/>
       <x:c r="F9" s="59" t="s">
-        <x:v>141</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="G9" s="59"/>
       <x:c r="H9" s="59"/>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="85"/>
-      <x:c r="B10" s="79"/>
-      <x:c r="C10" s="92"/>
-      <x:c r="D10" s="90"/>
-      <x:c r="E10" s="90"/>
+      <x:c r="A10" s="86"/>
+      <x:c r="B10" s="80"/>
+      <x:c r="C10" s="93"/>
+      <x:c r="D10" s="91"/>
+      <x:c r="E10" s="91"/>
       <x:c r="F10" s="59" t="s">
-        <x:v>216</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G10" s="59"/>
       <x:c r="H10" s="59"/>
     </x:row>
     <x:row r="11" spans="1:8" ht="16.75">
-      <x:c r="A11" s="85"/>
-      <x:c r="B11" s="96"/>
-      <x:c r="C11" s="97"/>
-      <x:c r="D11" s="94"/>
-      <x:c r="E11" s="94"/>
+      <x:c r="A11" s="86"/>
+      <x:c r="B11" s="97"/>
+      <x:c r="C11" s="98"/>
+      <x:c r="D11" s="95"/>
+      <x:c r="E11" s="95"/>
       <x:c r="F11" s="61" t="s">
-        <x:v>137</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="G11" s="61"/>
       <x:c r="H11" s="61"/>
     </x:row>
     <x:row r="12" spans="1:8">
-      <x:c r="A12" s="85"/>
-      <x:c r="B12" s="79" t="s">
-        <x:v>221</x:v>
-      </x:c>
-      <x:c r="C12" s="92" t="s">
-        <x:v>188</x:v>
+      <x:c r="A12" s="86"/>
+      <x:c r="B12" s="80" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C12" s="93" t="s">
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D12" s="58" t="s">
-        <x:v>236</x:v>
-      </x:c>
-      <x:c r="E12" s="90" t="s">
-        <x:v>36</x:v>
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E12" s="91" t="s">
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F12" s="58"/>
       <x:c r="G12" s="58"/>
       <x:c r="H12" s="58"/>
     </x:row>
     <x:row r="13" spans="1:8">
-      <x:c r="A13" s="85"/>
-      <x:c r="B13" s="79"/>
-      <x:c r="C13" s="92"/>
+      <x:c r="A13" s="86"/>
+      <x:c r="B13" s="80"/>
+      <x:c r="C13" s="93"/>
       <x:c r="D13" s="60" t="s">
-        <x:v>184</x:v>
-      </x:c>
-      <x:c r="E13" s="90"/>
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="E13" s="91"/>
       <x:c r="F13" s="59"/>
       <x:c r="G13" s="59"/>
       <x:c r="H13" s="59"/>
     </x:row>
     <x:row r="14" spans="1:8">
-      <x:c r="A14" s="85"/>
-      <x:c r="B14" s="79"/>
-      <x:c r="C14" s="92"/>
+      <x:c r="A14" s="86"/>
+      <x:c r="B14" s="80"/>
+      <x:c r="C14" s="93"/>
       <x:c r="D14" s="60" t="s">
-        <x:v>178</x:v>
-      </x:c>
-      <x:c r="E14" s="90"/>
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E14" s="91"/>
       <x:c r="F14" s="59"/>
       <x:c r="G14" s="59"/>
       <x:c r="H14" s="59"/>
     </x:row>
     <x:row r="15" spans="1:8">
-      <x:c r="A15" s="85"/>
-      <x:c r="B15" s="79"/>
-      <x:c r="C15" s="93"/>
+      <x:c r="A15" s="86"/>
+      <x:c r="B15" s="80"/>
+      <x:c r="C15" s="94"/>
       <x:c r="D15" s="60" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="E15" s="88"/>
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="E15" s="89"/>
       <x:c r="F15" s="59"/>
       <x:c r="G15" s="59"/>
       <x:c r="H15" s="59"/>
     </x:row>
     <x:row r="16" spans="1:8">
-      <x:c r="A16" s="85"/>
-      <x:c r="B16" s="79"/>
-      <x:c r="C16" s="95" t="s">
-        <x:v>196</x:v>
+      <x:c r="A16" s="86"/>
+      <x:c r="B16" s="80"/>
+      <x:c r="C16" s="96" t="s">
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D16" s="60" t="s">
-        <x:v>181</x:v>
-      </x:c>
-      <x:c r="E16" s="87" t="s">
-        <x:v>69</x:v>
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="E16" s="88" t="s">
+        <x:v>240</x:v>
       </x:c>
       <x:c r="F16" s="59" t="s">
-        <x:v>130</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G16" s="59"/>
-      <x:c r="H16" s="87" t="s">
-        <x:v>266</x:v>
+      <x:c r="H16" s="88" t="s">
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
-      <x:c r="A17" s="85"/>
-      <x:c r="B17" s="79"/>
-      <x:c r="C17" s="93"/>
+      <x:c r="A17" s="86"/>
+      <x:c r="B17" s="80"/>
+      <x:c r="C17" s="94"/>
       <x:c r="D17" s="59" t="s">
-        <x:v>226</x:v>
-      </x:c>
-      <x:c r="E17" s="88"/>
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E17" s="89"/>
       <x:c r="F17" s="59" t="s">
-        <x:v>173</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G17" s="59"/>
-      <x:c r="H17" s="88"/>
+      <x:c r="H17" s="89"/>
     </x:row>
     <x:row r="18" spans="1:8" ht="16.75">
-      <x:c r="A18" s="85"/>
-      <x:c r="B18" s="96"/>
+      <x:c r="A18" s="86"/>
+      <x:c r="B18" s="97"/>
       <x:c r="C18" s="62" t="s">
-        <x:v>136</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D18" s="61"/>
       <x:c r="E18" s="61"/>
       <x:c r="F18" s="61"/>
       <x:c r="G18" s="61"/>
       <x:c r="H18" s="61" t="s">
-        <x:v>44</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
-      <x:c r="A19" s="85"/>
-      <x:c r="B19" s="79" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C19" s="92" t="s">
-        <x:v>230</x:v>
+      <x:c r="A19" s="86"/>
+      <x:c r="B19" s="80" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="C19" s="93" t="s">
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D19" s="58" t="s">
-        <x:v>209</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E19" s="58"/>
       <x:c r="F19" s="58"/>
@@ -9861,11 +9897,11 @@
       <x:c r="H19" s="58"/>
     </x:row>
     <x:row r="20" spans="1:8">
-      <x:c r="A20" s="85"/>
-      <x:c r="B20" s="79"/>
-      <x:c r="C20" s="92"/>
+      <x:c r="A20" s="86"/>
+      <x:c r="B20" s="80"/>
+      <x:c r="C20" s="93"/>
       <x:c r="D20" s="59" t="s">
-        <x:v>219</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E20" s="59"/>
       <x:c r="F20" s="59"/>
@@ -9873,11 +9909,11 @@
       <x:c r="H20" s="59"/>
     </x:row>
     <x:row r="21" spans="1:8">
-      <x:c r="A21" s="85"/>
-      <x:c r="B21" s="79"/>
-      <x:c r="C21" s="92"/>
+      <x:c r="A21" s="86"/>
+      <x:c r="B21" s="80"/>
+      <x:c r="C21" s="93"/>
       <x:c r="D21" s="59" t="s">
-        <x:v>151</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E21" s="59"/>
       <x:c r="F21" s="59"/>
@@ -9885,11 +9921,11 @@
       <x:c r="H21" s="59"/>
     </x:row>
     <x:row r="22" spans="1:8">
-      <x:c r="A22" s="85"/>
-      <x:c r="B22" s="79"/>
-      <x:c r="C22" s="92"/>
+      <x:c r="A22" s="86"/>
+      <x:c r="B22" s="80"/>
+      <x:c r="C22" s="93"/>
       <x:c r="D22" s="59" t="s">
-        <x:v>198</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E22" s="59"/>
       <x:c r="F22" s="59"/>
@@ -9897,11 +9933,11 @@
       <x:c r="H22" s="59"/>
     </x:row>
     <x:row r="23" spans="1:8">
-      <x:c r="A23" s="85"/>
-      <x:c r="B23" s="79"/>
-      <x:c r="C23" s="93"/>
+      <x:c r="A23" s="86"/>
+      <x:c r="B23" s="80"/>
+      <x:c r="C23" s="94"/>
       <x:c r="D23" s="59" t="s">
-        <x:v>142</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E23" s="59"/>
       <x:c r="F23" s="59"/>
@@ -9909,90 +9945,90 @@
       <x:c r="H23" s="59"/>
     </x:row>
     <x:row r="24" spans="1:8">
-      <x:c r="A24" s="84"/>
-      <x:c r="B24" s="83"/>
-      <x:c r="C24" s="95" t="s">
-        <x:v>166</x:v>
-      </x:c>
-      <x:c r="D24" s="87" t="s">
-        <x:v>199</x:v>
+      <x:c r="A24" s="85"/>
+      <x:c r="B24" s="84"/>
+      <x:c r="C24" s="96" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="D24" s="88" t="s">
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E24" s="59" t="s">
-        <x:v>239</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F24" s="59"/>
       <x:c r="G24" s="59"/>
       <x:c r="H24" s="59"/>
     </x:row>
     <x:row r="25" spans="1:8">
-      <x:c r="A25" s="85"/>
-      <x:c r="B25" s="79"/>
-      <x:c r="C25" s="92"/>
-      <x:c r="D25" s="88"/>
+      <x:c r="A25" s="86"/>
+      <x:c r="B25" s="80"/>
+      <x:c r="C25" s="93"/>
+      <x:c r="D25" s="89"/>
       <x:c r="E25" s="59" t="s">
-        <x:v>218</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F25" s="59"/>
       <x:c r="G25" s="59"/>
       <x:c r="H25" s="59"/>
     </x:row>
     <x:row r="26" spans="1:8">
-      <x:c r="A26" s="84"/>
-      <x:c r="B26" s="83"/>
-      <x:c r="C26" s="92"/>
-      <x:c r="D26" s="87" t="s">
-        <x:v>204</x:v>
+      <x:c r="A26" s="85"/>
+      <x:c r="B26" s="84"/>
+      <x:c r="C26" s="93"/>
+      <x:c r="D26" s="88" t="s">
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E26" s="59" t="s">
-        <x:v>203</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F26" s="59"/>
       <x:c r="G26" s="59"/>
       <x:c r="H26" s="59"/>
     </x:row>
     <x:row r="27" spans="1:8">
-      <x:c r="A27" s="85"/>
-      <x:c r="B27" s="79"/>
-      <x:c r="C27" s="92"/>
-      <x:c r="D27" s="90"/>
+      <x:c r="A27" s="86"/>
+      <x:c r="B27" s="80"/>
+      <x:c r="C27" s="93"/>
+      <x:c r="D27" s="91"/>
       <x:c r="E27" s="59" t="s">
-        <x:v>222</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F27" s="59"/>
       <x:c r="G27" s="59"/>
       <x:c r="H27" s="59"/>
     </x:row>
     <x:row r="28" spans="1:8">
-      <x:c r="A28" s="85"/>
-      <x:c r="B28" s="79"/>
-      <x:c r="C28" s="92"/>
-      <x:c r="D28" s="90"/>
+      <x:c r="A28" s="86"/>
+      <x:c r="B28" s="80"/>
+      <x:c r="C28" s="93"/>
+      <x:c r="D28" s="91"/>
       <x:c r="E28" s="59" t="s">
-        <x:v>231</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F28" s="59"/>
       <x:c r="G28" s="59"/>
       <x:c r="H28" s="59"/>
     </x:row>
     <x:row r="29" spans="1:8" ht="16.75">
-      <x:c r="A29" s="85"/>
-      <x:c r="B29" s="96"/>
-      <x:c r="C29" s="97"/>
-      <x:c r="D29" s="94"/>
+      <x:c r="A29" s="86"/>
+      <x:c r="B29" s="97"/>
+      <x:c r="C29" s="98"/>
+      <x:c r="D29" s="95"/>
       <x:c r="E29" s="61" t="s">
-        <x:v>212</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F29" s="61"/>
       <x:c r="G29" s="61"/>
       <x:c r="H29" s="61"/>
     </x:row>
     <x:row r="30" spans="1:8">
-      <x:c r="A30" s="85"/>
-      <x:c r="B30" s="79" t="s">
-        <x:v>224</x:v>
+      <x:c r="A30" s="86"/>
+      <x:c r="B30" s="80" t="s">
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C30" s="63" t="s">
-        <x:v>207</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D30" s="58"/>
       <x:c r="E30" s="58"/>
@@ -10001,10 +10037,10 @@
       <x:c r="H30" s="58"/>
     </x:row>
     <x:row r="31" spans="1:8">
-      <x:c r="A31" s="85"/>
-      <x:c r="B31" s="79"/>
+      <x:c r="A31" s="86"/>
+      <x:c r="B31" s="80"/>
       <x:c r="C31" s="57" t="s">
-        <x:v>223</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D31" s="59"/>
       <x:c r="E31" s="59"/>
@@ -10013,10 +10049,10 @@
       <x:c r="H31" s="59"/>
     </x:row>
     <x:row r="32" spans="1:8">
-      <x:c r="A32" s="85"/>
-      <x:c r="B32" s="79"/>
+      <x:c r="A32" s="86"/>
+      <x:c r="B32" s="80"/>
       <x:c r="C32" s="57" t="s">
-        <x:v>148</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D32" s="59"/>
       <x:c r="E32" s="59"/>
@@ -10025,10 +10061,10 @@
       <x:c r="H32" s="59"/>
     </x:row>
     <x:row r="33" spans="1:8" ht="16.75">
-      <x:c r="A33" s="85"/>
-      <x:c r="B33" s="96"/>
+      <x:c r="A33" s="86"/>
+      <x:c r="B33" s="97"/>
       <x:c r="C33" s="64" t="s">
-        <x:v>175</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D33" s="61"/>
       <x:c r="E33" s="61"/>
@@ -10037,12 +10073,12 @@
       <x:c r="H33" s="61"/>
     </x:row>
     <x:row r="34" spans="1:8" ht="16.75" customHeight="1">
-      <x:c r="A34" s="85"/>
-      <x:c r="B34" s="78" t="s">
-        <x:v>194</x:v>
+      <x:c r="A34" s="86"/>
+      <x:c r="B34" s="79" t="s">
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C34" s="63" t="s">
-        <x:v>62</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D34" s="58"/>
       <x:c r="E34" s="58"/>
@@ -10051,13 +10087,13 @@
       <x:c r="H34" s="58"/>
     </x:row>
     <x:row r="35" spans="1:8">
-      <x:c r="A35" s="85"/>
-      <x:c r="B35" s="79"/>
-      <x:c r="C35" s="76" t="s">
-        <x:v>159</x:v>
+      <x:c r="A35" s="86"/>
+      <x:c r="B35" s="80"/>
+      <x:c r="C35" s="77" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D35" s="59" t="s">
-        <x:v>211</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E35" s="59"/>
       <x:c r="F35" s="59"/>
@@ -10065,11 +10101,11 @@
       <x:c r="H35" s="59"/>
     </x:row>
     <x:row r="36" spans="1:8">
-      <x:c r="A36" s="85"/>
-      <x:c r="B36" s="79"/>
-      <x:c r="C36" s="82"/>
+      <x:c r="A36" s="86"/>
+      <x:c r="B36" s="80"/>
+      <x:c r="C36" s="83"/>
       <x:c r="D36" s="59" t="s">
-        <x:v>182</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E36" s="59"/>
       <x:c r="F36" s="59"/>
@@ -10077,11 +10113,11 @@
       <x:c r="H36" s="59"/>
     </x:row>
     <x:row r="37" spans="1:8">
-      <x:c r="A37" s="85"/>
-      <x:c r="B37" s="79"/>
-      <x:c r="C37" s="82"/>
+      <x:c r="A37" s="86"/>
+      <x:c r="B37" s="80"/>
+      <x:c r="C37" s="83"/>
       <x:c r="D37" s="59" t="s">
-        <x:v>58</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="E37" s="59"/>
       <x:c r="F37" s="59"/>
@@ -10089,11 +10125,11 @@
       <x:c r="H37" s="59"/>
     </x:row>
     <x:row r="38" spans="1:8">
-      <x:c r="A38" s="85"/>
-      <x:c r="B38" s="79"/>
-      <x:c r="C38" s="82"/>
+      <x:c r="A38" s="86"/>
+      <x:c r="B38" s="80"/>
+      <x:c r="C38" s="83"/>
       <x:c r="D38" s="58" t="s">
-        <x:v>118</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E38" s="58"/>
       <x:c r="F38" s="58"/>
@@ -10101,11 +10137,11 @@
       <x:c r="H38" s="58"/>
     </x:row>
     <x:row r="39" spans="1:8">
-      <x:c r="A39" s="85"/>
-      <x:c r="B39" s="79"/>
-      <x:c r="C39" s="82"/>
+      <x:c r="A39" s="86"/>
+      <x:c r="B39" s="80"/>
+      <x:c r="C39" s="83"/>
       <x:c r="D39" s="59" t="s">
-        <x:v>122</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E39" s="59"/>
       <x:c r="F39" s="59"/>
@@ -10113,11 +10149,11 @@
       <x:c r="H39" s="59"/>
     </x:row>
     <x:row r="40" spans="1:8" ht="16.75">
-      <x:c r="A40" s="98"/>
-      <x:c r="B40" s="96"/>
-      <x:c r="C40" s="100"/>
+      <x:c r="A40" s="99"/>
+      <x:c r="B40" s="97"/>
+      <x:c r="C40" s="101"/>
       <x:c r="D40" s="47" t="s">
-        <x:v>127</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E40" s="47"/>
       <x:c r="F40" s="47"/>
@@ -10167,7 +10203,7 @@
     <x:row r="45" spans="1:8">
       <x:c r="A45" s="44"/>
       <x:c r="B45" s="44"/>
-      <x:c r="C45" s="99"/>
+      <x:c r="C45" s="100"/>
       <x:c r="D45" s="56"/>
       <x:c r="E45" s="46"/>
       <x:c r="F45" s="46"/>
@@ -10177,7 +10213,7 @@
     <x:row r="46" spans="1:8">
       <x:c r="A46" s="44"/>
       <x:c r="B46" s="44"/>
-      <x:c r="C46" s="99"/>
+      <x:c r="C46" s="100"/>
       <x:c r="D46" s="56"/>
       <x:c r="E46" s="46"/>
       <x:c r="F46" s="46"/>
@@ -10187,7 +10223,7 @@
     <x:row r="47" spans="1:8">
       <x:c r="A47" s="44"/>
       <x:c r="B47" s="44"/>
-      <x:c r="C47" s="99"/>
+      <x:c r="C47" s="100"/>
       <x:c r="D47" s="56"/>
       <x:c r="E47" s="46"/>
       <x:c r="F47" s="46"/>
@@ -10197,7 +10233,7 @@
     <x:row r="48" spans="1:8">
       <x:c r="A48" s="44"/>
       <x:c r="B48" s="44"/>
-      <x:c r="C48" s="99"/>
+      <x:c r="C48" s="100"/>
       <x:c r="D48" s="56"/>
       <x:c r="E48" s="46"/>
       <x:c r="F48" s="46"/>
@@ -10207,7 +10243,7 @@
     <x:row r="49" spans="1:8">
       <x:c r="A49" s="44"/>
       <x:c r="B49" s="44"/>
-      <x:c r="C49" s="99"/>
+      <x:c r="C49" s="100"/>
       <x:c r="D49" s="56"/>
       <x:c r="E49" s="46"/>
       <x:c r="F49" s="46"/>
@@ -10217,7 +10253,7 @@
     <x:row r="50" spans="1:8">
       <x:c r="A50" s="44"/>
       <x:c r="B50" s="44"/>
-      <x:c r="C50" s="99"/>
+      <x:c r="C50" s="100"/>
       <x:c r="D50" s="56"/>
       <x:c r="E50" s="46"/>
       <x:c r="F50" s="46"/>
@@ -10227,7 +10263,7 @@
     <x:row r="51" spans="1:8">
       <x:c r="A51" s="44"/>
       <x:c r="B51" s="44"/>
-      <x:c r="C51" s="99"/>
+      <x:c r="C51" s="100"/>
       <x:c r="D51" s="56"/>
       <x:c r="E51" s="46"/>
       <x:c r="F51" s="46"/>
@@ -10237,7 +10273,7 @@
     <x:row r="52" spans="1:8">
       <x:c r="A52" s="44"/>
       <x:c r="B52" s="44"/>
-      <x:c r="C52" s="99"/>
+      <x:c r="C52" s="100"/>
       <x:c r="D52" s="56"/>
       <x:c r="E52" s="46"/>
       <x:c r="F52" s="46"/>
@@ -10247,7 +10283,7 @@
     <x:row r="53" spans="1:8">
       <x:c r="A53" s="44"/>
       <x:c r="B53" s="44"/>
-      <x:c r="C53" s="99"/>
+      <x:c r="C53" s="100"/>
       <x:c r="D53" s="56"/>
       <x:c r="E53" s="46"/>
       <x:c r="F53" s="46"/>
@@ -10257,7 +10293,7 @@
     <x:row r="54" spans="1:8">
       <x:c r="A54" s="44"/>
       <x:c r="B54" s="44"/>
-      <x:c r="C54" s="99"/>
+      <x:c r="C54" s="100"/>
       <x:c r="D54" s="56"/>
       <x:c r="E54" s="46"/>
       <x:c r="F54" s="46"/>
@@ -10267,7 +10303,7 @@
     <x:row r="55" spans="1:8">
       <x:c r="A55" s="44"/>
       <x:c r="B55" s="44"/>
-      <x:c r="C55" s="99"/>
+      <x:c r="C55" s="100"/>
       <x:c r="D55" s="56"/>
       <x:c r="E55" s="46"/>
       <x:c r="F55" s="46"/>
@@ -10277,7 +10313,7 @@
     <x:row r="56" spans="1:8">
       <x:c r="A56" s="44"/>
       <x:c r="B56" s="44"/>
-      <x:c r="C56" s="99"/>
+      <x:c r="C56" s="100"/>
       <x:c r="D56" s="56"/>
       <x:c r="E56" s="46"/>
       <x:c r="F56" s="46"/>
@@ -10287,7 +10323,7 @@
     <x:row r="57" spans="1:8">
       <x:c r="A57" s="44"/>
       <x:c r="B57" s="44"/>
-      <x:c r="C57" s="99"/>
+      <x:c r="C57" s="100"/>
       <x:c r="D57" s="56"/>
       <x:c r="E57" s="46"/>
       <x:c r="F57" s="46"/>
@@ -10411,388 +10447,388 @@
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="48"/>
       <x:c r="B2" s="36" t="s">
-        <x:v>214</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C2" s="36" t="s">
-        <x:v>77</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D2" s="36" t="s">
-        <x:v>169</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E2" s="36" t="s">
-        <x:v>186</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="F2" s="36" t="s">
-        <x:v>229</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6" ht="16.75">
       <x:c r="A3" s="48"/>
-      <x:c r="B3" s="78" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="C3" s="81" t="s">
-        <x:v>185</x:v>
-      </x:c>
-      <x:c r="D3" s="81" t="s">
-        <x:v>133</x:v>
+      <x:c r="B3" s="79" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C3" s="82" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D3" s="82" t="s">
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E3" s="49" t="s">
-        <x:v>100</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="F3" s="65"/>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="48"/>
-      <x:c r="B4" s="79"/>
-      <x:c r="C4" s="82"/>
-      <x:c r="D4" s="82"/>
+      <x:c r="B4" s="80"/>
+      <x:c r="C4" s="83"/>
+      <x:c r="D4" s="83"/>
       <x:c r="E4" s="50" t="s">
-        <x:v>269</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="F4" s="66"/>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="48"/>
-      <x:c r="B5" s="79"/>
-      <x:c r="C5" s="82"/>
-      <x:c r="D5" s="82"/>
+      <x:c r="B5" s="80"/>
+      <x:c r="C5" s="83"/>
+      <x:c r="D5" s="83"/>
       <x:c r="E5" s="50" t="s">
-        <x:v>116</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="F5" s="66"/>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="48"/>
-      <x:c r="B6" s="79"/>
-      <x:c r="C6" s="82"/>
-      <x:c r="D6" s="82"/>
+      <x:c r="B6" s="80"/>
+      <x:c r="C6" s="83"/>
+      <x:c r="D6" s="83"/>
       <x:c r="E6" s="50" t="s">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F6" s="66"/>
     </x:row>
     <x:row r="7" spans="1:6" ht="32.75">
       <x:c r="A7" s="48"/>
-      <x:c r="B7" s="79"/>
-      <x:c r="C7" s="82"/>
-      <x:c r="D7" s="77"/>
+      <x:c r="B7" s="80"/>
+      <x:c r="C7" s="83"/>
+      <x:c r="D7" s="78"/>
       <x:c r="E7" s="51" t="s">
-        <x:v>111</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="F7" s="66"/>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="48"/>
-      <x:c r="B8" s="79"/>
-      <x:c r="C8" s="82"/>
-      <x:c r="D8" s="76" t="s">
-        <x:v>240</x:v>
+      <x:c r="B8" s="80"/>
+      <x:c r="C8" s="83"/>
+      <x:c r="D8" s="77" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E8" s="52" t="s">
-        <x:v>101</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="F8" s="66"/>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="48"/>
-      <x:c r="B9" s="79"/>
-      <x:c r="C9" s="82"/>
-      <x:c r="D9" s="82"/>
+      <x:c r="B9" s="80"/>
+      <x:c r="C9" s="83"/>
+      <x:c r="D9" s="83"/>
       <x:c r="E9" s="50" t="s">
-        <x:v>253</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="F9" s="66"/>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="48"/>
-      <x:c r="B10" s="79"/>
-      <x:c r="C10" s="82"/>
-      <x:c r="D10" s="77"/>
+      <x:c r="B10" s="80"/>
+      <x:c r="C10" s="83"/>
+      <x:c r="D10" s="78"/>
       <x:c r="E10" s="53" t="s">
-        <x:v>117</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="F10" s="66"/>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="48"/>
-      <x:c r="B11" s="79"/>
-      <x:c r="C11" s="82"/>
-      <x:c r="D11" s="76" t="s">
-        <x:v>227</x:v>
+      <x:c r="B11" s="80"/>
+      <x:c r="C11" s="83"/>
+      <x:c r="D11" s="77" t="s">
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E11" s="52" t="s">
-        <x:v>31</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="F11" s="66"/>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="48"/>
-      <x:c r="B12" s="79"/>
-      <x:c r="C12" s="77"/>
-      <x:c r="D12" s="77"/>
+      <x:c r="B12" s="80"/>
+      <x:c r="C12" s="78"/>
+      <x:c r="D12" s="78"/>
       <x:c r="E12" s="53" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F12" s="66"/>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="48"/>
-      <x:c r="B13" s="79"/>
-      <x:c r="C13" s="76" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="D13" s="76" t="s">
-        <x:v>230</x:v>
+      <x:c r="B13" s="80"/>
+      <x:c r="C13" s="77" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="D13" s="77" t="s">
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E13" s="52" t="s">
-        <x:v>261</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="F13" s="66"/>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="48"/>
-      <x:c r="B14" s="79"/>
-      <x:c r="C14" s="82"/>
-      <x:c r="D14" s="82"/>
+      <x:c r="B14" s="80"/>
+      <x:c r="C14" s="83"/>
+      <x:c r="D14" s="83"/>
       <x:c r="E14" s="50" t="s">
-        <x:v>98</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="F14" s="66"/>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="48"/>
-      <x:c r="B15" s="79"/>
-      <x:c r="C15" s="82"/>
-      <x:c r="D15" s="82"/>
+      <x:c r="B15" s="80"/>
+      <x:c r="C15" s="83"/>
+      <x:c r="D15" s="83"/>
       <x:c r="E15" s="50" t="s">
-        <x:v>251</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="F15" s="66"/>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="48"/>
-      <x:c r="B16" s="79"/>
-      <x:c r="C16" s="82"/>
-      <x:c r="D16" s="77"/>
+      <x:c r="B16" s="80"/>
+      <x:c r="C16" s="83"/>
+      <x:c r="D16" s="78"/>
       <x:c r="E16" s="53" t="s">
-        <x:v>25</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="F16" s="66"/>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="48"/>
-      <x:c r="B17" s="79"/>
-      <x:c r="C17" s="82"/>
-      <x:c r="D17" s="76" t="s">
-        <x:v>215</x:v>
+      <x:c r="B17" s="80"/>
+      <x:c r="C17" s="83"/>
+      <x:c r="D17" s="77" t="s">
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E17" s="52" t="s">
-        <x:v>248</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="F17" s="66"/>
     </x:row>
     <x:row r="18" spans="1:6" ht="32.75">
       <x:c r="A18" s="48"/>
-      <x:c r="B18" s="79"/>
-      <x:c r="C18" s="77"/>
-      <x:c r="D18" s="77"/>
+      <x:c r="B18" s="80"/>
+      <x:c r="C18" s="78"/>
+      <x:c r="D18" s="78"/>
       <x:c r="E18" s="51" t="s">
-        <x:v>8</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="F18" s="66"/>
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="48"/>
-      <x:c r="B19" s="79"/>
-      <x:c r="C19" s="76" t="s">
-        <x:v>232</x:v>
-      </x:c>
-      <x:c r="D19" s="76" t="s">
-        <x:v>107</x:v>
+      <x:c r="B19" s="80"/>
+      <x:c r="C19" s="77" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D19" s="77" t="s">
+        <x:v>246</x:v>
       </x:c>
       <x:c r="E19" s="52" t="s">
-        <x:v>262</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="F19" s="66"/>
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="48"/>
-      <x:c r="B20" s="79"/>
-      <x:c r="C20" s="82"/>
-      <x:c r="D20" s="77"/>
+      <x:c r="B20" s="80"/>
+      <x:c r="C20" s="83"/>
+      <x:c r="D20" s="78"/>
       <x:c r="E20" s="53" t="s">
-        <x:v>1</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F20" s="66"/>
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="48"/>
-      <x:c r="B21" s="79"/>
-      <x:c r="C21" s="82"/>
-      <x:c r="D21" s="76" t="s">
-        <x:v>73</x:v>
+      <x:c r="B21" s="80"/>
+      <x:c r="C21" s="83"/>
+      <x:c r="D21" s="77" t="s">
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E21" s="52" t="s">
-        <x:v>270</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="F21" s="66"/>
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="48"/>
-      <x:c r="B22" s="79"/>
-      <x:c r="C22" s="82"/>
-      <x:c r="D22" s="77"/>
+      <x:c r="B22" s="80"/>
+      <x:c r="C22" s="83"/>
+      <x:c r="D22" s="78"/>
       <x:c r="E22" s="53" t="s">
-        <x:v>28</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F22" s="66"/>
     </x:row>
     <x:row r="23" spans="1:6">
       <x:c r="A23" s="48"/>
-      <x:c r="B23" s="79"/>
-      <x:c r="C23" s="82"/>
+      <x:c r="B23" s="80"/>
+      <x:c r="C23" s="83"/>
       <x:c r="D23" s="37" t="s">
-        <x:v>226</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E23" s="54" t="s">
-        <x:v>33</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F23" s="66"/>
     </x:row>
     <x:row r="24" spans="1:6">
       <x:c r="A24" s="48"/>
-      <x:c r="B24" s="79"/>
-      <x:c r="C24" s="82"/>
-      <x:c r="D24" s="76" t="s">
-        <x:v>92</x:v>
+      <x:c r="B24" s="80"/>
+      <x:c r="C24" s="83"/>
+      <x:c r="D24" s="77" t="s">
+        <x:v>217</x:v>
       </x:c>
       <x:c r="E24" s="52" t="s">
-        <x:v>109</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="F24" s="66"/>
     </x:row>
     <x:row r="25" spans="1:6">
       <x:c r="A25" s="48"/>
-      <x:c r="B25" s="79"/>
-      <x:c r="C25" s="82"/>
-      <x:c r="D25" s="82"/>
+      <x:c r="B25" s="80"/>
+      <x:c r="C25" s="83"/>
+      <x:c r="D25" s="83"/>
       <x:c r="E25" s="50" t="s">
-        <x:v>24</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F25" s="66"/>
     </x:row>
     <x:row r="26" spans="1:6">
       <x:c r="A26" s="48"/>
-      <x:c r="B26" s="79"/>
-      <x:c r="C26" s="82"/>
-      <x:c r="D26" s="82"/>
+      <x:c r="B26" s="80"/>
+      <x:c r="C26" s="83"/>
+      <x:c r="D26" s="83"/>
       <x:c r="E26" s="50" t="s">
-        <x:v>26</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F26" s="66"/>
     </x:row>
     <x:row r="27" spans="1:6" ht="16.75">
       <x:c r="A27" s="48"/>
-      <x:c r="B27" s="96"/>
-      <x:c r="C27" s="100"/>
-      <x:c r="D27" s="100"/>
+      <x:c r="B27" s="97"/>
+      <x:c r="C27" s="101"/>
+      <x:c r="D27" s="101"/>
       <x:c r="E27" s="55" t="s">
-        <x:v>245</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="F27" s="67"/>
     </x:row>
     <x:row r="28" spans="1:6" ht="16.75">
       <x:c r="A28" s="48"/>
-      <x:c r="B28" s="78" t="s">
-        <x:v>167</x:v>
+      <x:c r="B28" s="79" t="s">
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C28" s="68" t="s">
-        <x:v>135</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D28" s="68" t="s">
-        <x:v>220</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E28" s="69" t="s">
-        <x:v>246</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="F28" s="65"/>
     </x:row>
     <x:row r="29" spans="1:6">
       <x:c r="A29" s="48"/>
-      <x:c r="B29" s="79"/>
-      <x:c r="C29" s="76" t="s">
-        <x:v>183</x:v>
+      <x:c r="B29" s="80"/>
+      <x:c r="C29" s="77" t="s">
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D29" s="37" t="s">
-        <x:v>201</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E29" s="54" t="s">
-        <x:v>30</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="F29" s="66"/>
     </x:row>
     <x:row r="30" spans="1:6">
       <x:c r="A30" s="48"/>
-      <x:c r="B30" s="79"/>
-      <x:c r="C30" s="82"/>
-      <x:c r="D30" s="76" t="s">
-        <x:v>242</x:v>
+      <x:c r="B30" s="80"/>
+      <x:c r="C30" s="83"/>
+      <x:c r="D30" s="77" t="s">
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E30" s="52" t="s">
-        <x:v>263</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="F30" s="66"/>
     </x:row>
     <x:row r="31" spans="1:6">
       <x:c r="A31" s="48"/>
-      <x:c r="B31" s="79"/>
-      <x:c r="C31" s="82"/>
-      <x:c r="D31" s="82"/>
+      <x:c r="B31" s="80"/>
+      <x:c r="C31" s="83"/>
+      <x:c r="D31" s="83"/>
       <x:c r="E31" s="50" t="s">
-        <x:v>32</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="F31" s="66"/>
     </x:row>
     <x:row r="32" spans="1:6">
       <x:c r="A32" s="48"/>
-      <x:c r="B32" s="79"/>
-      <x:c r="C32" s="82"/>
-      <x:c r="D32" s="82"/>
+      <x:c r="B32" s="80"/>
+      <x:c r="C32" s="83"/>
+      <x:c r="D32" s="83"/>
       <x:c r="E32" s="50" t="s">
-        <x:v>99</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="F32" s="66"/>
     </x:row>
     <x:row r="33" spans="1:6" ht="16.75">
       <x:c r="A33" s="48"/>
-      <x:c r="B33" s="96"/>
-      <x:c r="C33" s="100"/>
-      <x:c r="D33" s="100"/>
+      <x:c r="B33" s="97"/>
+      <x:c r="C33" s="101"/>
+      <x:c r="D33" s="101"/>
       <x:c r="E33" s="55" t="s">
-        <x:v>265</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="F33" s="67"/>
     </x:row>
     <x:row r="34" spans="1:6">
       <x:c r="A34" s="48"/>
-      <x:c r="B34" s="79" t="s">
-        <x:v>172</x:v>
-      </x:c>
-      <x:c r="C34" s="82"/>
-      <x:c r="D34" s="82"/>
+      <x:c r="B34" s="80" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C34" s="83"/>
+      <x:c r="D34" s="83"/>
       <x:c r="E34" s="50" t="s">
-        <x:v>3</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F34" s="66"/>
     </x:row>
     <x:row r="35" spans="1:6" ht="16.75">
       <x:c r="A35" s="48"/>
-      <x:c r="B35" s="96"/>
-      <x:c r="C35" s="100"/>
-      <x:c r="D35" s="100"/>
+      <x:c r="B35" s="97"/>
+      <x:c r="C35" s="101"/>
+      <x:c r="D35" s="101"/>
       <x:c r="E35" s="55" t="s">
-        <x:v>260</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="F35" s="67"/>
     </x:row>

--- a/2021_Summer/jp.hong/Datebook_jph.xlsx
+++ b/2021_Summer/jp.hong/Datebook_jph.xlsx
@@ -9,20 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="8568"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="8568" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Datebook" sheetId="1" r:id="rId4"/>
-    <x:sheet name="Menu_Tree_MC" sheetId="2" r:id="rId5"/>
-    <x:sheet name="Menu_Tree_Ours" sheetId="3" r:id="rId6"/>
-    <x:sheet name="Def_Func" sheetId="4" r:id="rId7"/>
+    <x:sheet name="registry artifacts" sheetId="2" r:id="rId5"/>
+    <x:sheet name="Menu_Tree_MC" sheetId="3" r:id="rId6"/>
+    <x:sheet name="Menu_Tree_Ours" sheetId="4" r:id="rId7"/>
+    <x:sheet name="Def_Func" sheetId="5" r:id="rId8"/>
   </x:sheets>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="277">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="366">
+  <x:si>
+    <x:t>Vendor 정보, 제품명, Revision number 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 추가한 공유 폴더 목록, 경로, 권한, 이름 정보 확인</x:t>
+  </x:si>
   <x:si>
     <x:t>1. 요구사항 분석 (실현성 확인)
 2. 데이터 흐름도 수정
@@ -33,14 +40,146 @@
  -&gt; 주유, 부품들의 수명정보(?) 어떻게 자동으로 받아올지 알아봐야함 -&gt; 블루투스 =&gt; 블루투스 연동 어떻게?</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 현장실습 OT
- - 기업 소개 및 업무 설명
- - 앞으로 수행하게 될 프로젝트 설명
-2. 기존에 진행했던 캡스톤프로젝트 첨언
-3. 제품 개발 과정 설명
- - 제품 기획 
- - 개발 기획  
- - 개발 설계</x:t>
+    <x:t>표준 시간대의 일광절약 시간을 나타내는 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SID(Security Identifier) 보안식별자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>표준시간 동안 현지 시간 변환에 사용되는 분. 대부분 0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TimeZone Information</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주요 하위 키 값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Startup Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운영체제 식별자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조직 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알맞은 ID값과 패스워드 값이 입력 될 경우 그에 맞는 회원 정보가 로그인 되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 예약을 하는 과정에서 사용자가 선택한 지점과 선택된 지점의 정보가 일치해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 화면 시퀀스 작성 (설명, 커뮤니티, 알림, 설정화면 추가)
+2. 추가 자료 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+ - 디스크 바이너리 데이터 분석 툴
+ - 헤더와 푸터를 이용한 카빙 툴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판의 글을 삭제하거나 올리기 위한 '글쓰기'버튼과 '글 삭제' 버튼이 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 가입시 아이디, 비밀번호, 이름, 전화번호, 생년월일, 차종의 정보를 받아야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+ - 컴퓨터 견적 추천 앱
+ - 주차시 사고발생 알림 앱
+2. 주제 아이디어 최종 선정
+ - 차량 관리 어플
+3. 개발 계획서 및 요구사항 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. DateBook_Comment 부분 수정
+2. GIT보고서 수정
+ - 설치 과정 추가
+ - 명령어 부분 내용 추가
+3. PPT 머릿글 요약 작성 - (미완)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 경쟁 어플 메뉴트리 수정
+2. 요구사항, 기능정의 순서 수정
+3. 한계점 수정
+블루투스 -&gt; 사진 촬영 ====&gt; 대체하게 되면 글자 인식하는 코드 필요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장치명이 설정된 경우 - 장치명을 변경하지 않는다면 최초 연결 시간
+장치명이 설정되지 않은 경우 - 연결된 볼륨명이 변경되지 않고 계속 사용되면 최초 연결시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-1. Datebook Comment 부분 요약
+1-2. GIT 보고서 다시 작성
+1-3. PPT 머릿글 요약 작성
+1-4. 파일명 수정
+1-5 최종 아이디어 선정 이유 작성
+2. 요구사항 수집 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 정보(오너들의 평균 정보)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주행 거리별 check list</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교체할 부품을 선택 받아야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검내역서(정비소 제공 문서)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 필요 자료 추가 조사
+2. 한계점 및 필요기술 추가
+ - 차량 블루투스와 어플 연결 어떻게?
+ - 연결이 된다면 원하는 정보만 어떻게 가져 올건지?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Install Software</x:t>
+  </x:si>
+  <x:si>
+    <x:t>system information</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무선랜 접속 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현지 시간 변환에 대한 현재 분 UTC와 현지 시간의 차이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일광 절약 시간동안 현지 시간 변환에 사용되는 분,대부분 -60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. (2-2) 수익적 요소 추가
+2. (4-1) 기능정의 추가
+3. 추가 자료 조사
+ - 비슷한 어플(마이클) 화면 구성 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 진행사항 체크 및 2주차 목표 설정
+2. 06.28 회의록 작성
+3. 상용화 된 타 앱 기능 분석
+4. 요구사항 정의
+ - 회원가입, DB, 무결성 (미완)
+5. vi사용법 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 07.02 회의록 작성
+2. Git 업로드 한 것 중 중복된 것들 삭제
+3. 어플 흐름 구상도 작성
+4. 요구사항/기능 정의/기능 설계 3가지 부분으로 나누어 요구사항 수정(미완)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:25
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:30
+18:00</x:t>
   </x:si>
   <x:si>
     <x:t>1. 실습 환경 설정 및 설명
@@ -54,40 +193,14 @@
  - 차량 관리 어플</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 필요 자료 추가 조사
-2. 한계점 및 필요기술 추가
- - 차량 블루투스와 어플 연결 어떻게?
- - 연결이 된다면 원하는 정보만 어떻게 가져 올건지?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
- - 컴퓨터 견적 추천 앱
- - 주차시 사고발생 알림 앱
-2. 주제 아이디어 최종 선정
- - 차량 관리 어플
-3. 개발 계획서 및 요구사항 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. DateBook_Comment 부분 수정
-2. GIT보고서 수정
- - 설치 과정 추가
- - 명령어 부분 내용 추가
-3. PPT 머릿글 요약 작성 - (미완)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 경쟁 어플 메뉴트리 수정
-2. 요구사항, 기능정의 순서 수정
-3. 한계점 수정
-블루투스 -&gt; 사진 촬영 ====&gt; 대체하게 되면 글자 인식하는 코드 필요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 정의
-2. 지도교수 방문
- - 진행사항 보고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 이전 프로젝트 리뷰(전체 흐름 파악)
-2. 요구사항 정의</x:t>
+    <x:t>1. 현장실습 OT
+ - 기업 소개 및 업무 설명
+ - 앞으로 수행하게 될 프로젝트 설명
+2. 기존에 진행했던 캡스톤프로젝트 첨언
+3. 제품 개발 과정 설명
+ - 제품 기획 
+ - 개발 기획  
+ - 개발 설계</x:t>
   </x:si>
   <x:si>
     <x:t>1. 요구사항 정의 및 분석 - 체계화
@@ -102,212 +215,10 @@
 4. 캡스톤 아이디어 도출</x:t>
   </x:si>
   <x:si>
-    <x:t>휴가계, 파일위치
-회의록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-1. Datebook Comment 부분 요약
-1-2. GIT 보고서 다시 작성
-1-3. PPT 머릿글 요약 작성
-1-4. 파일명 수정
-1-5 최종 아이디어 선정 이유 작성
-2. 요구사항 수집 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주행 거리 정보를 받아 계산하여 남은 수명에 대해 알려 주어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어플의 예약기능을 통해 예약한 경우 업체로부터 일정 수수료를 받는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 추가 자료조사(관련 코드)
-2. FlowChart 수정 및 보완</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호는 특수문자 포함 8자리 이상 12자리 이하 이어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. Git 목록 삭제
-2. 요구사항 분석
-3. 인터페이스 구상도 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소유한 차량이 여러 대일 경우 차량의 정보를 추가할 수 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성 (미완)
-2. 스피너 및 캘린더 뷰 다이어리 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이달의 정비/세차 혜택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점검 스케쥴 및 일정 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품 별 남은 수명 보여줌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방문 정비소 기록, 메모</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유소 포인트 적립 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>항목 및 정비 주기 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기아 커넥티드카 연동하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차종, 차번호, 연식 등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 무료 판매 견적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험료 확인 및 갱신일 알림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 정비소 찾아보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>만족도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>편집</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계절별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>손세차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보안성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상황별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>봄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이클</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Q&amp;A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>겨울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장마철</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타이어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가을</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리뷰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채팅창</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인기글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭설철</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>달력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무결성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점검</x:t>
+    <x:t>시스템에 등록 된 컴퓨터 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment</x:t>
   </x:si>
   <x:si>
     <x:t>알림설정</x:t>
@@ -322,235 +233,268 @@
     <x:t>공식 서비스</x:t>
   </x:si>
   <x:si>
-    <x:t>Comment</x:t>
+    <x:t>내 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차 정보 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경기/인천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어플 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수리견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goal</x:t>
   </x:si>
   <x:si>
     <x:t>기타 항목</x:t>
   </x:si>
   <x:si>
-    <x:t>정비 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경기/인천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어플 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차 정보 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수리견적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 정보</x:t>
+    <x:t>모아보기</x:t>
   </x:si>
   <x:si>
     <x:t>함수의 계산</x:t>
   </x:si>
   <x:si>
-    <x:t>모아보기</x:t>
+    <x:t>Depth 1</x:t>
   </x:si>
   <x:si>
     <x:t>모두의 차고</x:t>
   </x:si>
   <x:si>
-    <x:t>Depth 1</x:t>
-  </x:si>
-  <x:si>
     <x:t>정비 시기</x:t>
   </x:si>
   <x:si>
     <x:t>결함/리콜</x:t>
   </x:si>
   <x:si>
+    <x:t>오너들의 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기록 및 통계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공유게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균연비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 구매</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타 정보</x:t>
+  </x:si>
+  <x:si>
     <x:t>연차, 보험료</x:t>
   </x:si>
   <x:si>
     <x:t>자차 게시판</x:t>
   </x:si>
   <x:si>
-    <x:t>오너들의 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기록 및 통계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균연비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 구매</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공유게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글 작성</x:t>
-  </x:si>
-  <x:si>
     <x:t>내 방문 장소</x:t>
   </x:si>
   <x:si>
     <x:t>메모 입력</x:t>
   </x:si>
   <x:si>
+    <x:t>고객상담</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에어컨 필터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연비 랭킹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수익적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Home</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첫예약할인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 시세</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 후기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이어리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비기능적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오늘 교체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신 글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 검사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균 연비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에어컨필터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험사 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필요 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 주변 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>더 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용 가이드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>견적 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이클 이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tips</x:t>
+  </x:si>
+  <x:si>
     <x:t>예약 교체</x:t>
   </x:si>
   <x:si>
-    <x:t>비기능적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신 글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용 가이드</x:t>
-  </x:si>
-  <x:si>
     <x:t>정비 항목</x:t>
   </x:si>
   <x:si>
-    <x:t>보험 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이어리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객상담</x:t>
-  </x:si>
-  <x:si>
     <x:t>정비 내역</x:t>
   </x:si>
   <x:si>
-    <x:t>자동차 검사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균 연비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>더 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Menu</x:t>
-  </x:si>
-  <x:si>
     <x:t>카카오톡 문의</x:t>
   </x:si>
   <x:si>
-    <x:t>에어컨필터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tips</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 시세</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오늘 교체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에어컨 필터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>견적 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험사 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이클 이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필요 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연비 랭킹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수익적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Home</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첫예약할인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 후기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 주변 검색</x:t>
+    <x:t>타이어샵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALL*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능 설명</x:t>
   </x:si>
   <x:si>
     <x:t>일정 관리</x:t>
   </x:si>
   <x:si>
+    <x:t>엔진오일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>setting</x:t>
+  </x:si>
+  <x:si>
     <x:t>Depth 2</x:t>
   </x:si>
   <x:si>
-    <x:t>정비 예약</x:t>
-  </x:si>
-  <x:si>
     <x:t>디테일링</x:t>
   </x:si>
   <x:si>
-    <x:t>타이어샵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALL*</x:t>
-  </x:si>
-  <x:si>
-    <x:t>setting</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엔진오일</x:t>
+    <x:t>사라지거나 위치가 바뀐 정보를 수시로 업데이트 해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 날짜를 기록할 수 있도록 다이어리 형식으로 제공해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. vi 명령어 설명서 작성
+2. 요구사항 정의 및 분석</x:t>
   </x:si>
   <x:si>
     <x:t>선택 된 부품은 값의 변조 없이 알맞은 값이 저장되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 브리핑 준비
+ - 메모장 정리
+2. 견학 보고서 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 정의
+2. 지도교수 방문
+ - 진행사항 보고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유, 연비, 운행거리, 정비 및 기타비용 총액/월별 지출액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록된 사용자만이 자신이 등록한 차량의 정보를 확인해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정 기능을 통해 작성했던 글을 수정 할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 이전 프로젝트 리뷰(전체 흐름 파악)
+2. 요구사항 정의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입시 필요한 정보 및 소유한 차량의 정보를 포함해야 한다.</x:t>
   </x:si>
   <x:si>
     <x:t>1. 아이디어 도출
@@ -558,37 +502,59 @@
 3. 견학 보고서 작성</x:t>
   </x:si>
   <x:si>
-    <x:t>등록된 사용자만이 자신이 등록한 차량의 정보를 확인해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정 기능을 통해 작성했던 글을 수정 할 수 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>부품의 종류를 다르게 하여 여러가지를 선택 할 수 있어야 한다.</x:t>
   </x:si>
   <x:si>
-    <x:t>회원가입시 필요한 정보 및 소유한 차량의 정보를 포함해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 브리핑 준비
- - 메모장 정리
-2. 견학 보고서 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사라지거나 위치가 바뀐 정보를 수시로 업데이트 해야 한다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>외부에서 받아오는 정보(지도, 가격 등)에 변조가 없어야 한다.</x:t>
   </x:si>
   <x:si>
-    <x:t>주유, 연비, 운행거리, 정비 및 기타비용 총액/월별 지출액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. vi 명령어 설명서 작성
-2. 요구사항 정의 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 날짜를 기록할 수 있도록 다이어리 형식으로 제공해야 한다.</x:t>
+    <x:t>파일 및 폴더 실행 정보를 통한 사용자 행위 파악 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 최근에 열거나 실행한 파일 및 폴더 정보 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작업 관리자의 서비스 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스 및 드라이버 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설치된 프로그램 목록 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shared Resource</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StandardBias</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RDP Connection</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DaylightStart</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:37
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 정의
+2. 관련자료 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Installed Software List</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마지막으로 접근한 레지스트리 키 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성(각 화면 기능 설명 채우기)
+2. 각 화면 플로우 차트 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 계획하고 있는 어플의 메뉴트리 작성 및 ppt 수정
+2. 요구사항 추가 및 수정</x:t>
   </x:si>
   <x:si>
     <x:t>1. 플로우 차트 작성
@@ -596,28 +562,55 @@
 3. Menu_Tree 도식화 수정</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 메뉴시퀀스 작성(각 화면 기능 설명 채우기)
-2. 각 화면 플로우 차트 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 계획하고 있는 어플의 메뉴트리 작성 및 ppt 수정
-2. 요구사항 추가 및 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고장사례(리콜사례)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:30
-18:04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:32
-18:03</x:t>
+    <x:t>08:25
+15:54</x:t>
   </x:si>
   <x:si>
     <x:t>1. 앱 화면별 Sequence 작성
 2. 앱 화면별 어떻게 구성할 것인지 구상
 3. 추가 자료조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무선 AP 마지막 접속 시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원격 데스크탑 연결 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>네트워크 드라이브 연결 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Device Class ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USB Information</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TimeZoneKeyName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StandardStart</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StandardName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DaylightName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dhcp가 할당해준 IP주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>F / V 값 계정 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템 사용자 프로필 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실행창에 입력한 정보 확인</x:t>
   </x:si>
   <x:si>
     <x:t>1. vi 명령어 설명서 작성 완료
@@ -626,29 +619,40 @@
  - 비기능적 요구사항</x:t>
   </x:si>
   <x:si>
-    <x:t>회원가입을 위해 시도한 비밀번호가 7자리 이하이거나 13자리 이상일 경우
-비밀번호 입력 오류 메세지가 출력되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알맞은 ID값과 패스워드 값이 입력 될 경우 그에 맞는 회원 정보가 로그인 되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
- - 디스크 바이너리 데이터 분석 툴
- - 헤더와 푸터를 이용한 카빙 툴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판의 글을 삭제하거나 올리기 위한 '글쓰기'버튼과 '글 삭제' 버튼이 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 예약을 하는 과정에서 사용자가 선택한 지점과 선택된 지점의 정보가 일치해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 화면 시퀀스 작성 (설명, 커뮤니티, 알림, 설정화면 추가)
-2. 추가 자료 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 가입시 아이디, 비밀번호, 이름, 전화번호, 생년월일, 차종의 정보를 받아야 한다.</x:t>
+    <x:t>일광 절약 시간에서 표준시간으로 전환될 때의 날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 표준시간대의 표준 시간을 나타내는 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인에 성공했다면 로그인 버튼이 아닌 로그 아웃 버튼을 보여주어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성(설명,컨테이너등 정보 채우기)
+2. 기능플로우 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중복되는 아이디로 가입시도시 아이디 입력 오류 메세지가 출력되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 인터페이스 구상도 작성
+2. 요구사항 분류하여 수정
+3. 추가 자료조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 추가 자료조사
+2. 요구사항 추가 조사
+3. 경쟁 어플 기능 비교 보완</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 수집 및 정의
+2. 요구사항 분석
+3. 구현 가능 여부 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 주제아이디어 선정 - 사용자 기록 추적 프로그램 (레지스트리 이용)
+2. 레지스트리 분석으로 알아낼 수 있는 정보들 정리
+3.. 요구사항 정의</x:t>
   </x:si>
   <x:si>
     <x:t>1. 요구사항 수집 및 정의
@@ -657,10 +661,6 @@
 2. 개발에 필요한 요구사항 분석 (실현성 확인)</x:t>
   </x:si>
   <x:si>
-    <x:t>로그인 화면을 들어가게 되면 아이디와 비밀번호의 입력 창, 회원가입 버튼과
-로그인 버튼이 나와야 한다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>1. 메뉴시퀀스 작성(login, join, 내 차고, 차량 정보) 미완
 2. 블루투스 관련 자료 조사</x:t>
   </x:si>
@@ -675,49 +675,270 @@
 3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
   </x:si>
   <x:si>
-    <x:t>로그인에 성공했다면 로그인 버튼이 아닌 로그 아웃 버튼을 보여주어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중복되는 아이디로 가입시도시 아이디 입력 오류 메세지가 출력되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성(설명,컨테이너등 정보 채우기)
-2. 기능플로우 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 추가 자료조사
-2. 요구사항 추가 조사
-3. 경쟁 어플 기능 비교 보완</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 인터페이스 구상도 작성
-2. 요구사항 분류하여 수정
-3. 추가 자료조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 수집 및 정의
+    <x:t>로그인 화면을 들어가게 되면 아이디와 비밀번호의 입력 창, 회원가입 버튼과
+로그인 버튼이 나와야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입을 위해 시도한 비밀번호가 7자리 이하이거나 13자리 이상일 경우
+비밀번호 입력 오류 메세지가 출력되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최초 연결 시각 (레지스트리 키의 마지막 쓰기 시간)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운영체제 세부 버전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운영체제 설치 날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LastVisitedPidMRU - 탐색기를 통해 열어본 폴더 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RecentDocs - 최근 실행한 문서, 그림, 동영상 등의 파일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어플의 예약기능을 통해 예약한 경우 업체로부터 일정 수수료를 받는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 추가 자료조사(관련 코드)
+2. FlowChart 수정 및 보완</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소유한 차량이 여러 대일 경우 차량의 정보를 추가할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성 (미완)
+2. 스피너 및 캘린더 뷰 다이어리 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주행 거리 정보를 받아 계산하여 남은 수명에 대해 알려 주어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Git 목록 삭제
 2. 요구사항 분석
-3. 구현 가능 여부 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. (2-2) 수익적 요소 추가
-2. (4-1) 기능정의 추가
-3. 추가 자료 조사
- - 비슷한 어플(마이클) 화면 구성 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:25
-18:02</x:t>
+3. 인터페이스 구상도 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호는 특수문자 포함 8자리 이상 12자리 이하 이어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유소 포인트 적립 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품 별 남은 수명 보여줌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이달의 정비/세차 혜택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>휴가계, 파일위치
+회의록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검 스케쥴 및 일정 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 정비소 찾아보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기아 커넥티드카 연동하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 무료 판매 견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험료 확인 및 갱신일 알림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방문 정비소 기록, 메모</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차종, 차번호, 연식 등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>항목 및 정비 주기 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마지막으로 로그인 한 사용자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>각 사용자 별 기본 경로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DaylightBias</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ActiveTimeBias</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계절별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>봄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>겨울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장마철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Q&amp;A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이클</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가을</x:t>
+  </x:si>
+  <x:si>
+    <x:t>손세차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>편집</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리뷰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타이어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>만족도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보안성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상황별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭설철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무결성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채팅창</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인기글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>달력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SID구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>value</x:t>
   </x:si>
   <x:si>
     <x:t>08:30
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 보험료 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운전자 보험료 확인</x:t>
+18:04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:32
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고장사례(리콜사례)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:23
+15:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:27
+18:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 정비소 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운전자 추천 서비스</x:t>
   </x:si>
   <x:si>
     <x:t>서비스 (메뉴)</x:t>
@@ -730,33 +951,13 @@
 18:02</x:t>
   </x:si>
   <x:si>
-    <x:t>정비소 지도 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 보험료 계산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운전자 추천 서비스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 보험 선호도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:23
-15:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:27
-18:05</x:t>
-  </x:si>
-  <x:si>
     <x:t>가까운 장착점 예약</x:t>
   </x:si>
   <x:si>
-    <x:t>가까운 정비소 예약</x:t>
-  </x:si>
-  <x:si>
     <x:t>쿠폰 보유 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운전자 보험료 확인</x:t>
   </x:si>
   <x:si>
     <x:t>08:27
@@ -766,211 +967,215 @@
     <x:t>할인 쿠폰 등록</x:t>
   </x:si>
   <x:si>
+    <x:t>정비소 지도 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 보험료 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험 선호도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험료 계산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품 교체 예상 견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:43
+18:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:34
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 정보 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:40
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 판매견적 받기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 형태로 존재</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친구 초대 이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>코엑스 전시회 견학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:22
+18:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유사 모델 보기</x:t>
+  </x:si>
+  <x:si>
     <x:t>08:36
 18:04</x:t>
   </x:si>
   <x:si>
-    <x:t>08:43
-18:01</x:t>
+    <x:t>1. 메뉴시퀀스 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진행 방향 ---&gt;</x:t>
   </x:si>
   <x:si>
     <x:t>08:32
 18:02</x:t>
   </x:si>
   <x:si>
-    <x:t>부품 교체 예상 견적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친구 초대 이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:34
+    <x:t>예약/견적 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Community</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 기본 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>community</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자주 하는 질문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:43
 18:02</x:t>
   </x:si>
   <x:si>
-    <x:t>내 차 정보 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:40
+    <x:t>09:00
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:35
 18:03</x:t>
   </x:si>
   <x:si>
-    <x:t>내 차 판매견적 받기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 형태로 존재</x:t>
-  </x:si>
-  <x:si>
-    <x:t>코엑스 전시회 견학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:22
-18:01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유사 모델 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진행 방향 ---&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 기본 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>community</x:t>
+    <x:t>08:33
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:32
+18:05</x:t>
   </x:si>
   <x:si>
     <x:t>08:36
 18:07</x:t>
   </x:si>
   <x:si>
-    <x:t>08:35
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 보험 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:43
-18:02</x:t>
-  </x:si>
-  <x:si>
     <x:t>회원 정보 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자주 하는 질문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09:00
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:33
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약/견적 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Community</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 진행사항 체크 및 2주차 목표 설정
-2. 06.28 회의록 작성
-3. 상용화 된 타 앱 기능 분석
-4. 요구사항 정의
- - 회원가입, DB, 무결성 (미완)
-5. vi사용법 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 07.02 회의록 작성
-2. Git 업로드 한 것 중 중복된 것들 삭제
-3. 어플 흐름 구상도 작성
-4. 요구사항/기능 정의/기능 설계 3가지 부분으로 나누어 요구사항 수정(미완)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 정보(오너들의 평균 정보)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교체할 부품을 선택 받아야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주행 거리별 check list</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점검내역서(정비소 제공 문서)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:32
-18:05</x:t>
   </x:si>
   <x:si>
     <x:t>08:34
 12:37</x:t>
   </x:si>
   <x:si>
+    <x:t>RunMRU - (시작 - 실행) 또는 Ctrl + R을 통해 실행한 명령 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>네트워크 인터페이스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험, 범칙금, 주차요금, 톨게이트 비용, 차량용품 등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채팅방 및 게시판에 들어가기 위해서는 로그인을 해야한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 실패시 로그인 오류 메세지를 출력해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판의 글들은 페이지당 20개씩 보여주어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 각 버튼 및 창 기능 설명, 기능 플로우 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 화면 플로우 마무리
+2. Setting창 화면 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 화면 플로우 작업
+2. 정비예약화면 아이콘 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>할인률, 총액의 계산 과정에 오류가 있어선 안된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 정의 및 분석 보완
+2. 기능정의 보완</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06.28 회의록 작성
+2. 요구사항 정의 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Menu_Tree 수정(완료)
+2. 추가 자료 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품들의 시세변동을 지속적으로 업데이트 해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어플 내 광고를 통해 일정 수입료를 받는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이콘을 활용하여 한 눈에 확인하기 쉬워야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유량, 연비, 운행 거리 및 기타 비용 통계</x:t>
+  </x:si>
+  <x:si>
     <x:t>DB에 저장된 내용들은 변조가 없어야 한다.</x:t>
   </x:si>
   <x:si>
-    <x:t>어플 내 광고를 통해 일정 수입료를 받는다.</x:t>
+    <x:t>1. 메뉴시퀀스 작성
+ - 화면별 세부기능 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APP종료시 입력된 데이터는 변조가 없어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 주제 아이디어 선정
+2. 요구사항 정의</x:t>
   </x:si>
   <x:si>
     <x:t>1. 계약서 작성
 2. 현장실습 오리엔테이션</x:t>
   </x:si>
   <x:si>
-    <x:t>주유량, 연비, 운행 거리 및 기타 비용 통계</x:t>
+    <x:t>게시판을 이용하기 위해서는 로그인을 해야 한다.</x:t>
   </x:si>
   <x:si>
     <x:t>1. 화면 시퀀스 작성
 2. 추가 자료 조사</x:t>
   </x:si>
   <x:si>
-    <x:t>게시판을 이용하기 위해서는 로그인을 해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성
- - 화면별 세부기능 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 주제 아이디어 선정
-2. 요구사항 정의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>APP종료시 입력된 데이터는 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이콘을 활용하여 한 눈에 확인하기 쉬워야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 각 버튼 및 창 기능 설명, 기능 플로우 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험, 범칙금, 주차요금, 톨게이트 비용, 차량용품 등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. Menu_Tree 수정(완료)
-2. 추가 자료 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판의 글들은 페이지당 20개씩 보여주어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>할인률, 총액의 계산 과정에 오류가 있어선 안된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06.28 회의록 작성
-2. 요구사항 정의 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품들의 시세변동을 지속적으로 업데이트 해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채팅방 및 게시판에 들어가기 위해서는 로그인을 해야한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 정의 및 분석 보완
-2. 기능정의 보완</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 실패시 로그인 오류 메세지를 출력해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 화면 플로우 마무리
-2. Setting창 화면 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 화면 플로우 작업
-2. 정비예약화면 아이콘 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이어리에 메모한 사항 달력에 날짜 표시</x:t>
+    <x:t>로컬 컴퓨터의 표준 시간대 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>표준시간에서 일광 절약시간으로 전환될 때의 날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그온 한 사용자 상관없이 자동 실행되는 항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 사용자가 로그온 시 자동 실행되는 항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>휴지통을 통해 삭제되는지, 거치지 않고 삭제되는지 결정</x:t>
   </x:si>
   <x:si>
     <x:t>1. 아이디어 도출
@@ -980,10 +1185,79 @@
     <x:t>게시판 형태로 존재, 결함/리콜 내역</x:t>
   </x:si>
   <x:si>
+    <x:t>정확한 위치의 지도 정보를 받아와야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이어리에 메모한 사항 달력에 날짜 표시</x:t>
+  </x:si>
+  <x:si>
     <x:t>중복되는 아이디는 가입이 되어선 안된다.</x:t>
   </x:si>
   <x:si>
-    <x:t>정확한 위치의 지도 정보를 받아와야 한다.</x:t>
+    <x:t>사용자가 시스템에 추가한 Volume</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템 기본 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마지막 종료 시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bias</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여름 휴가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Device Class ID 하위키로 Serial 정보 여부에 따라 두 가지로 분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운영체제 설치 루트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템 사용자 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MRU List</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운영체제 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OpenSavePidMRU - 탐색기를 통해 열어보거나 저장한 파일 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실행한 프로그램의 경로와 실행 유형, 실행 횟수, 최종 실행 시간 정보 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value : AutoShareServer를 통해 기본적인 공유목록 상태 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>etc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Network Interface</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템 시간 동안 GMT에서 offset된 시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템종료 시 페이지 파일 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>네트워크 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Unique Instance ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Services/Drivers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Assist</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1065,7 +1339,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="34">
+  <x:borders count="42">
     <x:border>
       <x:left>
         <x:color indexed="64"/>
@@ -1539,6 +1813,130 @@
         <x:color indexed="64"/>
       </x:top>
       <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border diagonalDown="1">
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+      <x:diagonal style="thin">
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalDown="1">
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+      <x:diagonal style="thin">
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalDown="1">
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal style="thin">
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalDown="1">
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal style="thin">
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -1548,7 +1946,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="103">
+  <x:cellXfs count="117">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -2152,6 +2550,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -2377,17 +2788,136 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3080,16 +3610,16 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B2:F42"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:pane xSplit="0" ySplit="2" topLeftCell="C24" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" activeCell="E35" activeCellId="0" sqref="E35:E35"/>
+    <x:sheetView topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:pane xSplit="0" ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <x:selection pane="bottomLeft" activeCell="E30" activeCellId="0" sqref="E30:E30"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.199999999999999"/>
   <x:cols>
     <x:col min="1" max="1" width="1.796875" style="3" customWidth="1"/>
     <x:col min="2" max="2" width="10" style="3" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="8.796875" style="3" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="10.24609375" style="3" bestFit="1" customWidth="1"/>
     <x:col min="4" max="4" width="45.68359375" style="4" bestFit="1" customWidth="1"/>
     <x:col min="5" max="5" width="55.09765625" style="4" customWidth="1"/>
     <x:col min="6" max="6" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -3099,16 +3629,16 @@
     <x:row r="1" ht="6.5999999999999996" customHeight="1"/>
     <x:row r="2" spans="2:5" ht="31.199999999999999" customHeight="1">
       <x:c r="B2" s="5" t="s">
-        <x:v>90</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C2" s="6" t="s">
-        <x:v>154</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D2" s="6" t="s">
-        <x:v>84</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E2" s="7" t="s">
-        <x:v>81</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:5" ht="105.75">
@@ -3116,13 +3646,13 @@
         <x:v>44369</x:v>
       </x:c>
       <x:c r="C3" s="15" t="s">
-        <x:v>238</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="D3" s="9" t="s">
-        <x:v>252</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="E3" s="9" t="s">
-        <x:v>1</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:5" ht="118.55">
@@ -3130,13 +3660,13 @@
         <x:v>44370</x:v>
       </x:c>
       <x:c r="C4" s="14" t="s">
-        <x:v>238</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="D4" s="12" t="s">
-        <x:v>10</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E4" s="12" t="s">
-        <x:v>2</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:5" ht="79.049999999999997">
@@ -3144,13 +3674,13 @@
         <x:v>44371</x:v>
       </x:c>
       <x:c r="C5" s="16" t="s">
-        <x:v>197</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D5" s="12" t="s">
-        <x:v>188</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="E5" s="12" t="s">
-        <x:v>4</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:5" ht="79.049999999999997">
@@ -3158,13 +3688,13 @@
         <x:v>44372</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
-        <x:v>197</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D6" s="12" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E6" s="17" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:5" ht="79.049999999999997">
@@ -3172,13 +3702,13 @@
         <x:v>44375</x:v>
       </x:c>
       <x:c r="C7" s="14" t="s">
-        <x:v>208</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="D7" s="12" t="s">
-        <x:v>265</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="E7" s="12" t="s">
-        <x:v>242</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:5" ht="52.700000000000003">
@@ -3186,13 +3716,13 @@
         <x:v>44376</x:v>
       </x:c>
       <x:c r="C8" s="14" t="s">
-        <x:v>232</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="D8" s="12" t="s">
-        <x:v>167</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E8" s="12" t="s">
-        <x:v>176</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:5" ht="52.700000000000003">
@@ -3200,13 +3730,13 @@
         <x:v>44377</x:v>
       </x:c>
       <x:c r="C9" s="19" t="s">
-        <x:v>207</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="D9" s="12" t="s">
-        <x:v>9</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E9" s="12" t="s">
-        <x:v>187</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:5" ht="52.700000000000003">
@@ -3214,13 +3744,13 @@
         <x:v>44378</x:v>
       </x:c>
       <x:c r="C10" s="20" t="s">
-        <x:v>174</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="D10" s="12" t="s">
-        <x:v>194</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E10" s="12" t="s">
-        <x:v>184</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:5" ht="65.849999999999994">
@@ -3228,13 +3758,13 @@
         <x:v>44379</x:v>
       </x:c>
       <x:c r="C11" s="22" t="s">
-        <x:v>212</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="D11" s="12" t="s">
-        <x:v>17</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E11" s="12" t="s">
-        <x:v>243</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:5" ht="105.40000000000001">
@@ -3242,13 +3772,13 @@
         <x:v>44382</x:v>
       </x:c>
       <x:c r="C12" s="21" t="s">
-        <x:v>196</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D12" s="12" t="s">
-        <x:v>193</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E12" s="12" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:5" ht="52.700000000000003">
@@ -3256,13 +3786,13 @@
         <x:v>44383</x:v>
       </x:c>
       <x:c r="C13" s="23" t="s">
-        <x:v>174</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="D13" s="12" t="s">
-        <x:v>15</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E13" s="12" t="s">
-        <x:v>3</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:5" ht="52.700000000000003">
@@ -3270,13 +3800,13 @@
         <x:v>44384</x:v>
       </x:c>
       <x:c r="C14" s="24" t="s">
-        <x:v>225</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="D14" s="12" t="s">
-        <x:v>175</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E14" s="12" t="s">
-        <x:v>195</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:5" ht="52.700000000000003">
@@ -3284,13 +3814,13 @@
         <x:v>44385</x:v>
       </x:c>
       <x:c r="C15" s="30" t="s">
-        <x:v>235</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="D15" s="12" t="s">
-        <x:v>192</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E15" s="12" t="s">
-        <x:v>6</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:5" ht="26.350000000000001">
@@ -3298,13 +3828,13 @@
         <x:v>44386</x:v>
       </x:c>
       <x:c r="C16" s="31" t="s">
-        <x:v>221</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="D16" s="12" t="s">
-        <x:v>268</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="E16" s="12" t="s">
-        <x:v>171</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:5" ht="39.549999999999997">
@@ -3312,13 +3842,13 @@
         <x:v>44389</x:v>
       </x:c>
       <x:c r="C17" s="70" t="s">
-        <x:v>216</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="D17" s="12" t="s">
-        <x:v>169</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E17" s="12" t="s">
-        <x:v>262</x:v>
+        <x:v>322</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:5" ht="26.350000000000001">
@@ -3326,13 +3856,13 @@
         <x:v>44390</x:v>
       </x:c>
       <x:c r="C18" s="71" t="s">
-        <x:v>215</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="D18" s="12" t="s">
-        <x:v>254</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="E18" s="12" t="s">
-        <x:v>186</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:5" ht="26.350000000000001">
@@ -3340,13 +3870,13 @@
         <x:v>44391</x:v>
       </x:c>
       <x:c r="C19" s="71" t="s">
-        <x:v>174</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="D19" s="12" t="s">
-        <x:v>254</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="E19" s="12" t="s">
-        <x:v>19</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:5" ht="26.350000000000001">
@@ -3354,13 +3884,13 @@
         <x:v>44392</x:v>
       </x:c>
       <x:c r="C20" s="14" t="s">
-        <x:v>202</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="D20" s="12" t="s">
-        <x:v>182</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E20" s="11" t="s">
-        <x:v>228</x:v>
+        <x:v>293</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="2:5" ht="26.350000000000001">
@@ -3368,13 +3898,13 @@
         <x:v>44393</x:v>
       </x:c>
       <x:c r="C21" s="72" t="s">
-        <x:v>239</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="D21" s="12" t="s">
-        <x:v>191</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E21" s="12" t="s">
-        <x:v>256</x:v>
+        <x:v>328</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="2:5" ht="26.350000000000001">
@@ -3382,13 +3912,13 @@
         <x:v>44396</x:v>
       </x:c>
       <x:c r="C22" s="73" t="s">
-        <x:v>173</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="D22" s="11" t="s">
-        <x:v>260</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="E22" s="12" t="s">
-        <x:v>170</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="2:5" ht="26.350000000000001">
@@ -3396,13 +3926,13 @@
         <x:v>44397</x:v>
       </x:c>
       <x:c r="C23" s="74" t="s">
-        <x:v>219</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="D23" s="12" t="s">
-        <x:v>270</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="E23" s="12" t="s">
-        <x:v>271</x:v>
+        <x:v>318</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="2:5" ht="39.549999999999997">
@@ -3410,13 +3940,13 @@
         <x:v>44398</x:v>
       </x:c>
       <x:c r="C24" s="14" t="s">
-        <x:v>233</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="D24" s="11" t="s">
-        <x:v>226</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="E24" s="12" t="s">
-        <x:v>179</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="2:5" ht="26.350000000000001">
@@ -3424,13 +3954,13 @@
         <x:v>44399</x:v>
       </x:c>
       <x:c r="C25" s="75" t="s">
-        <x:v>214</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="D25" s="11" t="s">
-        <x:v>226</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="E25" s="12" t="s">
-        <x:v>273</x:v>
+        <x:v>339</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="2:5" ht="26.350000000000001">
@@ -3438,13 +3968,13 @@
         <x:v>44400</x:v>
       </x:c>
       <x:c r="C26" s="14" t="s">
-        <x:v>249</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="D26" s="11" t="s">
-        <x:v>224</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="E26" s="11" t="s">
-        <x:v>224</x:v>
+        <x:v>288</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="2:5" ht="39.549999999999997">
@@ -3452,13 +3982,13 @@
         <x:v>44403</x:v>
       </x:c>
       <x:c r="C27" s="76" t="s">
-        <x:v>248</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="D27" s="12" t="s">
-        <x:v>158</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E27" s="12" t="s">
-        <x:v>163</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="2:6" ht="39.549999999999997">
@@ -3466,35 +3996,45 @@
         <x:v>44404</x:v>
       </x:c>
       <x:c r="C28" s="14" t="s">
-        <x:v>221</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="D28" s="12" t="s">
-        <x:v>257</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="E28" s="12" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F28" s="102" t="s">
-        <x:v>11</x:v>
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="F28" s="77" t="s">
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="2:5" ht="26.350000000000001">
       <x:c r="B29" s="13">
         <x:v>44405</x:v>
       </x:c>
-      <x:c r="C29" s="10"/>
+      <x:c r="C29" s="14" t="s">
+        <x:v>153</x:v>
+      </x:c>
       <x:c r="D29" s="12" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E29" s="11"/>
-    </x:row>
-    <x:row r="30" spans="2:5">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E29" s="12" t="s">
+        <x:v>147</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="2:5" ht="39.549999999999997">
       <x:c r="B30" s="13">
         <x:v>44406</x:v>
       </x:c>
-      <x:c r="C30" s="10"/>
-      <x:c r="D30" s="11"/>
-      <x:c r="E30" s="11"/>
+      <x:c r="C30" s="14" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="D30" s="12" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="E30" s="12" t="s">
+        <x:v>178</x:v>
+      </x:c>
     </x:row>
     <x:row r="31" spans="2:5">
       <x:c r="B31" s="13">
@@ -3508,17 +4048,19 @@
       <x:c r="B32" s="13">
         <x:v>44410</x:v>
       </x:c>
-      <x:c r="C32" s="10"/>
-      <x:c r="D32" s="11"/>
-      <x:c r="E32" s="11"/>
+      <x:c r="C32" s="105"/>
+      <x:c r="D32" s="103" t="s">
+        <x:v>348</x:v>
+      </x:c>
+      <x:c r="E32" s="105"/>
     </x:row>
     <x:row r="33" spans="2:5">
       <x:c r="B33" s="13">
         <x:v>44411</x:v>
       </x:c>
-      <x:c r="C33" s="10"/>
-      <x:c r="D33" s="11"/>
-      <x:c r="E33" s="11"/>
+      <x:c r="C33" s="106"/>
+      <x:c r="D33" s="104"/>
+      <x:c r="E33" s="106"/>
     </x:row>
     <x:row r="34" spans="2:5">
       <x:c r="B34" s="13">
@@ -3593,12 +4135,536 @@
       <x:c r="E42" s="11"/>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="3">
+    <x:mergeCell ref="D32:D33"/>
+    <x:mergeCell ref="C32:C33"/>
+    <x:mergeCell ref="E32:E33"/>
+  </x:mergeCells>
   <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet5"/>
+  <x:dimension ref="B1:N51"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="E25" activeCellId="0" sqref="E25:E25"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="1" max="1" width="8.796875" customWidth="1"/>
+    <x:col min="3" max="3" width="20.078125" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="52.3125" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="76.66796875" bestFit="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="14:14">
+      <x:c r="N1" t="s">
+        <x:v>260</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="2:5" ht="16.75" customHeight="1">
+      <x:c r="B2" s="107" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C2" s="107" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D2" s="113" t="s">
+        <x:v>345</x:v>
+      </x:c>
+      <x:c r="E2" s="49"/>
+    </x:row>
+    <x:row r="3" spans="2:5">
+      <x:c r="B3" s="108"/>
+      <x:c r="C3" s="108"/>
+      <x:c r="D3" s="101" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E3" s="50" t="s">
+        <x:v>353</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="2:5">
+      <x:c r="B4" s="108"/>
+      <x:c r="C4" s="108"/>
+      <x:c r="D4" s="101"/>
+      <x:c r="E4" s="50" t="s">
+        <x:v>362</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="2:5">
+      <x:c r="B5" s="108"/>
+      <x:c r="C5" s="108"/>
+      <x:c r="D5" s="101"/>
+      <x:c r="E5" s="50" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="2:5">
+      <x:c r="B6" s="108"/>
+      <x:c r="C6" s="108"/>
+      <x:c r="D6" s="101"/>
+      <x:c r="E6" s="50" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="2:5">
+      <x:c r="B7" s="108"/>
+      <x:c r="C7" s="108"/>
+      <x:c r="D7" s="101"/>
+      <x:c r="E7" s="50" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="2:5">
+      <x:c r="B8" s="108"/>
+      <x:c r="C8" s="108"/>
+      <x:c r="D8" s="101"/>
+      <x:c r="E8" s="50" t="s">
+        <x:v>187</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="2:5">
+      <x:c r="B9" s="108"/>
+      <x:c r="C9" s="108"/>
+      <x:c r="D9" s="101"/>
+      <x:c r="E9" s="50" t="s">
+        <x:v>350</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="2:5">
+      <x:c r="B10" s="108"/>
+      <x:c r="C10" s="108"/>
+      <x:c r="D10" s="56" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E10" s="50"/>
+    </x:row>
+    <x:row r="11" spans="2:5" ht="16.75">
+      <x:c r="B11" s="108"/>
+      <x:c r="C11" s="109"/>
+      <x:c r="D11" s="114" t="s">
+        <x:v>346</x:v>
+      </x:c>
+      <x:c r="E11" s="55"/>
+    </x:row>
+    <x:row r="12" spans="2:14" ht="16.75">
+      <x:c r="B12" s="108"/>
+      <x:c r="C12" s="107" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D12" s="113" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="E12" s="49"/>
+      <x:c r="N12" t="s">
+        <x:v>161</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="2:14">
+      <x:c r="B13" s="108"/>
+      <x:c r="C13" s="108"/>
+      <x:c r="D13" s="56" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="E13" s="50"/>
+      <x:c r="N13" t="s">
+        <x:v>162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="2:14">
+      <x:c r="B14" s="108"/>
+      <x:c r="C14" s="108"/>
+      <x:c r="D14" s="56" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="E14" s="50"/>
+      <x:c r="N14" t="s">
+        <x:v>163</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="2:14">
+      <x:c r="B15" s="108"/>
+      <x:c r="C15" s="108"/>
+      <x:c r="D15" s="56" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E15" s="50"/>
+      <x:c r="N15" t="s">
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="2:14">
+      <x:c r="B16" s="108"/>
+      <x:c r="C16" s="108"/>
+      <x:c r="D16" s="56" t="s">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="E16" s="50"/>
+      <x:c r="N16" t="s">
+        <x:v>145</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="2:14">
+      <x:c r="B17" s="108"/>
+      <x:c r="C17" s="108"/>
+      <x:c r="D17" s="56" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E17" s="50"/>
+      <x:c r="N17" t="s">
+        <x:v>164</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="2:14">
+      <x:c r="B18" s="108"/>
+      <x:c r="C18" s="108"/>
+      <x:c r="D18" s="56" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E18" s="50"/>
+      <x:c r="N18" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="2:14">
+      <x:c r="B19" s="108"/>
+      <x:c r="C19" s="108"/>
+      <x:c r="D19" s="56" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E19" s="50"/>
+      <x:c r="N19" t="s">
+        <x:v>347</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="2:14" ht="16.75">
+      <x:c r="B20" s="108"/>
+      <x:c r="C20" s="109"/>
+      <x:c r="D20" s="114" t="s">
+        <x:v>359</x:v>
+      </x:c>
+      <x:c r="E20" s="55"/>
+      <x:c r="N20" t="s">
+        <x:v>212</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="2:5" ht="16.75">
+      <x:c r="B21" s="108"/>
+      <x:c r="C21" s="107" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="D21" s="110" t="s">
+        <x:v>351</x:v>
+      </x:c>
+      <x:c r="E21" s="49" t="s">
+        <x:v>166</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="2:5">
+      <x:c r="B22" s="108"/>
+      <x:c r="C22" s="108"/>
+      <x:c r="D22" s="45" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="E22" s="50"/>
+    </x:row>
+    <x:row r="23" spans="2:5">
+      <x:c r="B23" s="108"/>
+      <x:c r="C23" s="108"/>
+      <x:c r="D23" s="45" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E23" s="50" t="s">
+        <x:v>259</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="2:5">
+      <x:c r="B24" s="108"/>
+      <x:c r="C24" s="108"/>
+      <x:c r="D24" s="45" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="E24" s="50"/>
+    </x:row>
+    <x:row r="25" spans="2:5" ht="16.75">
+      <x:c r="B25" s="108"/>
+      <x:c r="C25" s="109"/>
+      <x:c r="D25" s="111" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="E25" s="55"/>
+    </x:row>
+    <x:row r="26" spans="2:5" ht="16.75">
+      <x:c r="B26" s="108"/>
+      <x:c r="C26" s="107" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D26" s="110" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="E26" s="49" t="s">
+        <x:v>141</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="2:5" ht="16.75">
+      <x:c r="B27" s="108"/>
+      <x:c r="C27" s="109"/>
+      <x:c r="D27" s="111" t="s">
+        <x:v>365</x:v>
+      </x:c>
+      <x:c r="E27" s="55" t="s">
+        <x:v>355</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="2:5" ht="16.75">
+      <x:c r="B28" s="108"/>
+      <x:c r="C28" s="107" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="D28" s="110" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="E28" s="49" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="2:5">
+      <x:c r="B29" s="108"/>
+      <x:c r="C29" s="108"/>
+      <x:c r="D29" s="45" t="s">
+        <x:v>363</x:v>
+      </x:c>
+      <x:c r="E29" s="50" t="s">
+        <x:v>349</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="2:5" ht="33.149999999999999">
+      <x:c r="B30" s="108"/>
+      <x:c r="C30" s="109"/>
+      <x:c r="D30" s="111" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="E30" s="112" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="2:5" ht="16.75">
+      <x:c r="B31" s="108"/>
+      <x:c r="C31" s="107" t="s">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c r="D31" s="110" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="E31" s="49" t="s">
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="2:5">
+      <x:c r="B32" s="108"/>
+      <x:c r="C32" s="108"/>
+      <x:c r="D32" s="45" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="E32" s="50" t="s">
+        <x:v>310</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="2:5">
+      <x:c r="B33" s="108"/>
+      <x:c r="C33" s="108"/>
+      <x:c r="D33" s="45" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="E33" s="50" t="s">
+        <x:v>188</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="2:5" ht="16.75">
+      <x:c r="B34" s="108"/>
+      <x:c r="C34" s="109"/>
+      <x:c r="D34" s="111"/>
+      <x:c r="E34" s="55" t="s">
+        <x:v>354</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="2:5" ht="16.75">
+      <x:c r="B35" s="108"/>
+      <x:c r="C35" s="107" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D35" s="116" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E35" s="49"/>
+    </x:row>
+    <x:row r="36" spans="2:5" ht="16.75">
+      <x:c r="B36" s="108"/>
+      <x:c r="C36" s="109"/>
+      <x:c r="D36" s="115" t="s">
+        <x:v>356</x:v>
+      </x:c>
+      <x:c r="E36" s="55"/>
+    </x:row>
+    <x:row r="37" spans="2:5" ht="16.75">
+      <x:c r="B37" s="108"/>
+      <x:c r="C37" s="107" t="s">
+        <x:v>358</x:v>
+      </x:c>
+      <x:c r="D37" s="110" t="s">
+        <x:v>361</x:v>
+      </x:c>
+      <x:c r="E37" s="49"/>
+    </x:row>
+    <x:row r="38" spans="2:5">
+      <x:c r="B38" s="108"/>
+      <x:c r="C38" s="108"/>
+      <x:c r="D38" s="45" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="E38" s="50"/>
+    </x:row>
+    <x:row r="39" spans="2:5">
+      <x:c r="B39" s="108"/>
+      <x:c r="C39" s="108"/>
+      <x:c r="D39" s="45" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="E39" s="50"/>
+    </x:row>
+    <x:row r="40" spans="2:5">
+      <x:c r="B40" s="108"/>
+      <x:c r="C40" s="108"/>
+      <x:c r="D40" s="45" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E40" s="50"/>
+    </x:row>
+    <x:row r="41" spans="2:5" ht="16.75">
+      <x:c r="B41" s="108"/>
+      <x:c r="C41" s="109"/>
+      <x:c r="D41" s="111" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="E41" s="55"/>
+    </x:row>
+    <x:row r="42" spans="2:5" ht="16.75">
+      <x:c r="B42" s="108"/>
+      <x:c r="C42" s="107" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="D42" s="116" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="E42" s="49"/>
+    </x:row>
+    <x:row r="43" spans="2:5" ht="16.75">
+      <x:c r="B43" s="108"/>
+      <x:c r="C43" s="109"/>
+      <x:c r="D43" s="115" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="E43" s="55"/>
+    </x:row>
+    <x:row r="44" spans="2:5" ht="16.75">
+      <x:c r="B44" s="108"/>
+      <x:c r="C44" s="107" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D44" s="110" t="s">
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="E44" s="49"/>
+    </x:row>
+    <x:row r="45" spans="2:5" ht="16.75">
+      <x:c r="B45" s="108"/>
+      <x:c r="C45" s="109"/>
+      <x:c r="D45" s="111" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="E45" s="55"/>
+    </x:row>
+    <x:row r="46" spans="2:5" ht="16.75">
+      <x:c r="B46" s="108"/>
+      <x:c r="C46" s="107" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D46" s="110" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="E46" s="49"/>
+    </x:row>
+    <x:row r="47" spans="2:5">
+      <x:c r="B47" s="108"/>
+      <x:c r="C47" s="108"/>
+      <x:c r="D47" s="45" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="E47" s="50"/>
+    </x:row>
+    <x:row r="48" spans="2:5" ht="16.75">
+      <x:c r="B48" s="108"/>
+      <x:c r="C48" s="109"/>
+      <x:c r="D48" s="111" t="s">
+        <x:v>344</x:v>
+      </x:c>
+      <x:c r="E48" s="55"/>
+    </x:row>
+    <x:row r="49" spans="2:5" ht="16.75">
+      <x:c r="B49" s="108"/>
+      <x:c r="C49" s="107" t="s">
+        <x:v>357</x:v>
+      </x:c>
+      <x:c r="D49" s="110" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="E49" s="49"/>
+    </x:row>
+    <x:row r="50" spans="2:5">
+      <x:c r="B50" s="108"/>
+      <x:c r="C50" s="108"/>
+      <x:c r="D50" s="45" t="s">
+        <x:v>360</x:v>
+      </x:c>
+      <x:c r="E50" s="50"/>
+    </x:row>
+    <x:row r="51" spans="2:5" ht="16.75">
+      <x:c r="B51" s="109"/>
+      <x:c r="C51" s="109"/>
+      <x:c r="D51" s="111" t="s">
+        <x:v>338</x:v>
+      </x:c>
+      <x:c r="E51" s="55"/>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="14">
+    <x:mergeCell ref="C2:C11"/>
+    <x:mergeCell ref="C12:C20"/>
+    <x:mergeCell ref="D3:D9"/>
+    <x:mergeCell ref="C26:C27"/>
+    <x:mergeCell ref="C21:C25"/>
+    <x:mergeCell ref="C31:C34"/>
+    <x:mergeCell ref="C28:C30"/>
+    <x:mergeCell ref="C37:C41"/>
+    <x:mergeCell ref="C35:C36"/>
+    <x:mergeCell ref="C49:C51"/>
+    <x:mergeCell ref="C46:C48"/>
+    <x:mergeCell ref="C44:C45"/>
+    <x:mergeCell ref="C42:C43"/>
+    <x:mergeCell ref="B2:B51"/>
+  </x:mergeCells>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A1:CI1048573"/>
@@ -3620,78 +4686,78 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="17.149999999999999">
       <x:c r="A1" s="26" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="B1" s="33" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C1" s="34" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D1" s="34" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="E1" s="34" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="F1" s="34" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="G1" s="34" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H1" s="34" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="I1" s="35" t="s">
+        <x:v>233</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:9">
+      <x:c r="A2" s="86" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="B2" s="80" t="s">
         <x:v>229</x:v>
       </x:c>
-      <x:c r="B1" s="33" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="C1" s="34" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="D1" s="34" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="E1" s="34" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="F1" s="34" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="G1" s="34" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="H1" s="34" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="I1" s="35" t="s">
-        <x:v>46</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:9">
-      <x:c r="A2" s="85" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="B2" s="79" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="C2" s="82" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="D2" s="82" t="s">
-        <x:v>89</x:v>
+      <x:c r="C2" s="83" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D2" s="83" t="s">
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E2" s="38" t="s">
-        <x:v>130</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F2" s="38"/>
       <x:c r="G2" s="38"/>
       <x:c r="H2" s="38"/>
       <x:c r="I2" s="38" t="s">
-        <x:v>222</x:v>
+        <x:v>285</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
-      <x:c r="A3" s="86"/>
-      <x:c r="B3" s="80"/>
-      <x:c r="C3" s="83"/>
-      <x:c r="D3" s="83"/>
+      <x:c r="A3" s="87"/>
+      <x:c r="B3" s="81"/>
+      <x:c r="C3" s="84"/>
+      <x:c r="D3" s="84"/>
       <x:c r="E3" s="37" t="s">
-        <x:v>234</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="F3" s="37"/>
       <x:c r="G3" s="37"/>
       <x:c r="H3" s="37"/>
       <x:c r="I3" s="37" t="s">
-        <x:v>29</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
-      <x:c r="A4" s="86"/>
-      <x:c r="B4" s="80"/>
-      <x:c r="C4" s="83"/>
-      <x:c r="D4" s="83"/>
+      <x:c r="A4" s="87"/>
+      <x:c r="B4" s="81"/>
+      <x:c r="C4" s="84"/>
+      <x:c r="D4" s="84"/>
       <x:c r="E4" s="37" t="s">
-        <x:v>112</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F4" s="37"/>
       <x:c r="G4" s="37"/>
@@ -3699,42 +4765,42 @@
       <x:c r="I4" s="37"/>
     </x:row>
     <x:row r="5" spans="1:9">
-      <x:c r="A5" s="86"/>
-      <x:c r="B5" s="80"/>
-      <x:c r="C5" s="83"/>
-      <x:c r="D5" s="83"/>
-      <x:c r="E5" s="77" t="s">
-        <x:v>108</x:v>
+      <x:c r="A5" s="87"/>
+      <x:c r="B5" s="81"/>
+      <x:c r="C5" s="84"/>
+      <x:c r="D5" s="84"/>
+      <x:c r="E5" s="78" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F5" s="37" t="s">
-        <x:v>111</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G5" s="37"/>
       <x:c r="H5" s="37"/>
       <x:c r="I5" s="37"/>
     </x:row>
     <x:row r="6" spans="1:9">
-      <x:c r="A6" s="86"/>
-      <x:c r="B6" s="80"/>
-      <x:c r="C6" s="83"/>
-      <x:c r="D6" s="78"/>
-      <x:c r="E6" s="78"/>
+      <x:c r="A6" s="87"/>
+      <x:c r="B6" s="81"/>
+      <x:c r="C6" s="84"/>
+      <x:c r="D6" s="79"/>
+      <x:c r="E6" s="79"/>
       <x:c r="F6" s="37" t="s">
-        <x:v>220</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="G6" s="37"/>
       <x:c r="H6" s="37"/>
       <x:c r="I6" s="37"/>
     </x:row>
     <x:row r="7" spans="1:9">
-      <x:c r="A7" s="86"/>
-      <x:c r="B7" s="80"/>
-      <x:c r="C7" s="83"/>
-      <x:c r="D7" s="77" t="s">
-        <x:v>137</x:v>
+      <x:c r="A7" s="87"/>
+      <x:c r="B7" s="81"/>
+      <x:c r="C7" s="84"/>
+      <x:c r="D7" s="78" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E7" s="37" t="s">
-        <x:v>42</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="F7" s="37"/>
       <x:c r="G7" s="37"/>
@@ -3742,91 +4808,91 @@
       <x:c r="I7" s="37"/>
     </x:row>
     <x:row r="8" spans="1:9">
-      <x:c r="A8" s="86"/>
-      <x:c r="B8" s="80"/>
-      <x:c r="C8" s="83"/>
-      <x:c r="D8" s="83"/>
+      <x:c r="A8" s="87"/>
+      <x:c r="B8" s="81"/>
+      <x:c r="C8" s="84"/>
+      <x:c r="D8" s="84"/>
       <x:c r="E8" s="37" t="s">
-        <x:v>54</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="F8" s="37"/>
       <x:c r="G8" s="37"/>
       <x:c r="H8" s="37"/>
       <x:c r="I8" s="37" t="s">
-        <x:v>166</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
-      <x:c r="A9" s="86"/>
-      <x:c r="B9" s="80"/>
-      <x:c r="C9" s="83"/>
-      <x:c r="D9" s="83"/>
+      <x:c r="A9" s="87"/>
+      <x:c r="B9" s="81"/>
+      <x:c r="C9" s="84"/>
+      <x:c r="D9" s="84"/>
       <x:c r="E9" s="37" t="s">
-        <x:v>76</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="F9" s="37"/>
       <x:c r="G9" s="37"/>
       <x:c r="H9" s="37"/>
       <x:c r="I9" s="37" t="s">
-        <x:v>21</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
-      <x:c r="A10" s="86"/>
-      <x:c r="B10" s="80"/>
-      <x:c r="C10" s="83"/>
-      <x:c r="D10" s="83"/>
-      <x:c r="E10" s="77" t="s">
-        <x:v>83</x:v>
+      <x:c r="A10" s="87"/>
+      <x:c r="B10" s="81"/>
+      <x:c r="C10" s="84"/>
+      <x:c r="D10" s="84"/>
+      <x:c r="E10" s="78" t="s">
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F10" s="37" t="s">
-        <x:v>118</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G10" s="37"/>
       <x:c r="H10" s="37"/>
       <x:c r="I10" s="37"/>
     </x:row>
     <x:row r="11" spans="1:9">
-      <x:c r="A11" s="86"/>
-      <x:c r="B11" s="80"/>
-      <x:c r="C11" s="83"/>
-      <x:c r="D11" s="83"/>
-      <x:c r="E11" s="83"/>
+      <x:c r="A11" s="87"/>
+      <x:c r="B11" s="81"/>
+      <x:c r="C11" s="84"/>
+      <x:c r="D11" s="84"/>
+      <x:c r="E11" s="84"/>
       <x:c r="F11" s="37" t="s">
-        <x:v>82</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G11" s="37"/>
       <x:c r="H11" s="37"/>
       <x:c r="I11" s="37" t="s">
-        <x:v>261</x:v>
+        <x:v>312</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
-      <x:c r="A12" s="86"/>
-      <x:c r="B12" s="80"/>
-      <x:c r="C12" s="83"/>
-      <x:c r="D12" s="83"/>
-      <x:c r="E12" s="83"/>
+      <x:c r="A12" s="87"/>
+      <x:c r="B12" s="81"/>
+      <x:c r="C12" s="84"/>
+      <x:c r="D12" s="84"/>
+      <x:c r="E12" s="84"/>
       <x:c r="F12" s="37" t="s">
-        <x:v>32</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="G12" s="37"/>
       <x:c r="H12" s="37"/>
       <x:c r="I12" s="37"/>
     </x:row>
     <x:row r="13" spans="1:28">
-      <x:c r="A13" s="86"/>
-      <x:c r="B13" s="80"/>
-      <x:c r="C13" s="78"/>
-      <x:c r="D13" s="78"/>
-      <x:c r="E13" s="78"/>
+      <x:c r="A13" s="87"/>
+      <x:c r="B13" s="81"/>
+      <x:c r="C13" s="79"/>
+      <x:c r="D13" s="79"/>
+      <x:c r="E13" s="79"/>
       <x:c r="F13" s="37" t="s">
-        <x:v>66</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="G13" s="37"/>
       <x:c r="H13" s="37"/>
       <x:c r="I13" s="37" t="s">
-        <x:v>25</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="J13" s="29"/>
       <x:c r="K13" s="29"/>
@@ -3849,22 +4915,22 @@
       <x:c r="AB13" s="29"/>
     </x:row>
     <x:row r="14" spans="1:28">
-      <x:c r="A14" s="86"/>
-      <x:c r="B14" s="80"/>
-      <x:c r="C14" s="77" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="D14" s="77" t="s">
-        <x:v>93</x:v>
+      <x:c r="A14" s="87"/>
+      <x:c r="B14" s="81"/>
+      <x:c r="C14" s="78" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D14" s="78" t="s">
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E14" s="37" t="s">
-        <x:v>64</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="F14" s="37"/>
       <x:c r="G14" s="37"/>
       <x:c r="H14" s="37"/>
       <x:c r="I14" s="37" t="s">
-        <x:v>31</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="J14" s="29"/>
       <x:c r="K14" s="29"/>
@@ -3887,18 +4953,18 @@
       <x:c r="AB14" s="29"/>
     </x:row>
     <x:row r="15" spans="1:28">
-      <x:c r="A15" s="86"/>
-      <x:c r="B15" s="80"/>
-      <x:c r="C15" s="83"/>
-      <x:c r="D15" s="83"/>
+      <x:c r="A15" s="87"/>
+      <x:c r="B15" s="81"/>
+      <x:c r="C15" s="84"/>
+      <x:c r="D15" s="84"/>
       <x:c r="E15" s="37" t="s">
-        <x:v>124</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F15" s="37"/>
       <x:c r="G15" s="37"/>
       <x:c r="H15" s="37"/>
       <x:c r="I15" s="37" t="s">
-        <x:v>138</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="J15" s="29"/>
       <x:c r="K15" s="29"/>
@@ -3921,12 +4987,12 @@
       <x:c r="AB15" s="29"/>
     </x:row>
     <x:row r="16" spans="1:28">
-      <x:c r="A16" s="86"/>
-      <x:c r="B16" s="80"/>
-      <x:c r="C16" s="83"/>
-      <x:c r="D16" s="83"/>
+      <x:c r="A16" s="87"/>
+      <x:c r="B16" s="81"/>
+      <x:c r="C16" s="84"/>
+      <x:c r="D16" s="84"/>
       <x:c r="E16" s="37" t="s">
-        <x:v>143</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F16" s="37"/>
       <x:c r="G16" s="37"/>
@@ -3952,18 +5018,18 @@
       <x:c r="AB16" s="29"/>
     </x:row>
     <x:row r="17" spans="1:28">
-      <x:c r="A17" s="86"/>
-      <x:c r="B17" s="80"/>
-      <x:c r="C17" s="83"/>
-      <x:c r="D17" s="78"/>
+      <x:c r="A17" s="87"/>
+      <x:c r="B17" s="81"/>
+      <x:c r="C17" s="84"/>
+      <x:c r="D17" s="79"/>
       <x:c r="E17" s="37" t="s">
-        <x:v>99</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F17" s="37"/>
       <x:c r="G17" s="37"/>
       <x:c r="H17" s="37"/>
       <x:c r="I17" s="37" t="s">
-        <x:v>274</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="J17" s="29"/>
       <x:c r="K17" s="29"/>
@@ -3986,17 +5052,17 @@
       <x:c r="AB17" s="29"/>
     </x:row>
     <x:row r="18" spans="1:28">
-      <x:c r="A18" s="86"/>
-      <x:c r="B18" s="80"/>
-      <x:c r="C18" s="83"/>
+      <x:c r="A18" s="87"/>
+      <x:c r="B18" s="81"/>
+      <x:c r="C18" s="84"/>
       <x:c r="D18" s="37" t="s">
-        <x:v>206</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="E18" s="37" t="s">
-        <x:v>204</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F18" s="37" t="s">
-        <x:v>134</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G18" s="37"/>
       <x:c r="H18" s="37"/>
@@ -4022,18 +5088,18 @@
       <x:c r="AB18" s="29"/>
     </x:row>
     <x:row r="19" spans="1:28">
-      <x:c r="A19" s="86"/>
-      <x:c r="B19" s="80"/>
-      <x:c r="C19" s="83"/>
+      <x:c r="A19" s="87"/>
+      <x:c r="B19" s="81"/>
+      <x:c r="C19" s="84"/>
       <x:c r="D19" s="37" t="s">
-        <x:v>56</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E19" s="37"/>
       <x:c r="F19" s="37"/>
       <x:c r="G19" s="37"/>
       <x:c r="H19" s="37"/>
-      <x:c r="I19" s="77" t="s">
-        <x:v>223</x:v>
+      <x:c r="I19" s="78" t="s">
+        <x:v>286</x:v>
       </x:c>
       <x:c r="J19" s="29"/>
       <x:c r="K19" s="29"/>
@@ -4056,17 +5122,17 @@
       <x:c r="AB19" s="29"/>
     </x:row>
     <x:row r="20" spans="1:28">
-      <x:c r="A20" s="86"/>
-      <x:c r="B20" s="80"/>
-      <x:c r="C20" s="83"/>
+      <x:c r="A20" s="87"/>
+      <x:c r="B20" s="81"/>
+      <x:c r="C20" s="84"/>
       <x:c r="D20" s="37" t="s">
-        <x:v>99</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E20" s="37"/>
       <x:c r="F20" s="37"/>
       <x:c r="G20" s="37"/>
       <x:c r="H20" s="37"/>
-      <x:c r="I20" s="83"/>
+      <x:c r="I20" s="84"/>
       <x:c r="J20" s="29"/>
       <x:c r="K20" s="29"/>
       <x:c r="L20" s="29"/>
@@ -4088,17 +5154,17 @@
       <x:c r="AB20" s="29"/>
     </x:row>
     <x:row r="21" spans="1:28">
-      <x:c r="A21" s="86"/>
-      <x:c r="B21" s="80"/>
-      <x:c r="C21" s="83"/>
+      <x:c r="A21" s="87"/>
+      <x:c r="B21" s="81"/>
+      <x:c r="C21" s="84"/>
       <x:c r="D21" s="37" t="s">
-        <x:v>143</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E21" s="37"/>
       <x:c r="F21" s="37"/>
       <x:c r="G21" s="37"/>
       <x:c r="H21" s="37"/>
-      <x:c r="I21" s="78"/>
+      <x:c r="I21" s="79"/>
       <x:c r="J21" s="29"/>
       <x:c r="K21" s="29"/>
       <x:c r="L21" s="29"/>
@@ -4120,11 +5186,11 @@
       <x:c r="AB21" s="29"/>
     </x:row>
     <x:row r="22" spans="1:28">
-      <x:c r="A22" s="86"/>
-      <x:c r="B22" s="81"/>
-      <x:c r="C22" s="78"/>
+      <x:c r="A22" s="87"/>
+      <x:c r="B22" s="82"/>
+      <x:c r="C22" s="79"/>
       <x:c r="D22" s="37" t="s">
-        <x:v>227</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="E22" s="37"/>
       <x:c r="F22" s="37"/>
@@ -4152,12 +5218,12 @@
       <x:c r="AB22" s="29"/>
     </x:row>
     <x:row r="23" spans="1:28">
-      <x:c r="A23" s="86"/>
-      <x:c r="B23" s="84" t="s">
-        <x:v>147</x:v>
+      <x:c r="A23" s="87"/>
+      <x:c r="B23" s="85" t="s">
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C23" s="37" t="s">
-        <x:v>240</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="D23" s="37"/>
       <x:c r="E23" s="37"/>
@@ -4186,10 +5252,10 @@
       <x:c r="AB23" s="29"/>
     </x:row>
     <x:row r="24" spans="1:28">
-      <x:c r="A24" s="86"/>
-      <x:c r="B24" s="80"/>
+      <x:c r="A24" s="87"/>
+      <x:c r="B24" s="81"/>
       <x:c r="C24" s="37" t="s">
-        <x:v>74</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="D24" s="37"/>
       <x:c r="E24" s="37"/>
@@ -4218,10 +5284,10 @@
       <x:c r="AB24" s="29"/>
     </x:row>
     <x:row r="25" spans="1:28">
-      <x:c r="A25" s="86"/>
-      <x:c r="B25" s="80"/>
+      <x:c r="A25" s="87"/>
+      <x:c r="B25" s="81"/>
       <x:c r="C25" s="37" t="s">
-        <x:v>35</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D25" s="37"/>
       <x:c r="E25" s="37"/>
@@ -4250,16 +5316,16 @@
       <x:c r="AB25" s="29"/>
     </x:row>
     <x:row r="26" spans="1:87">
-      <x:c r="A26" s="86"/>
-      <x:c r="B26" s="80"/>
-      <x:c r="C26" s="77" t="s">
-        <x:v>147</x:v>
+      <x:c r="A26" s="87"/>
+      <x:c r="B26" s="81"/>
+      <x:c r="C26" s="78" t="s">
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D26" s="37" t="s">
-        <x:v>156</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E26" s="37" t="s">
-        <x:v>210</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="F26" s="37"/>
       <x:c r="G26" s="37"/>
@@ -4345,17 +5411,17 @@
       <x:c r="CI26" s="29"/>
     </x:row>
     <x:row r="27" spans="1:87" s="1" customFormat="1">
-      <x:c r="A27" s="85"/>
-      <x:c r="B27" s="84"/>
-      <x:c r="C27" s="83"/>
-      <x:c r="D27" s="77" t="s">
-        <x:v>53</x:v>
+      <x:c r="A27" s="86"/>
+      <x:c r="B27" s="85"/>
+      <x:c r="C27" s="84"/>
+      <x:c r="D27" s="78" t="s">
+        <x:v>237</x:v>
       </x:c>
       <x:c r="E27" s="37" t="s">
-        <x:v>131</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F27" s="37" t="s">
-        <x:v>209</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="G27" s="37"/>
       <x:c r="H27" s="37"/>
@@ -4440,15 +5506,15 @@
       <x:c r="CI27" s="29"/>
     </x:row>
     <x:row r="28" spans="1:87">
-      <x:c r="A28" s="86"/>
-      <x:c r="B28" s="80"/>
-      <x:c r="C28" s="83"/>
-      <x:c r="D28" s="78"/>
+      <x:c r="A28" s="87"/>
+      <x:c r="B28" s="81"/>
+      <x:c r="C28" s="84"/>
+      <x:c r="D28" s="79"/>
       <x:c r="E28" s="37" t="s">
-        <x:v>113</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F28" s="37" t="s">
-        <x:v>209</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="G28" s="37"/>
       <x:c r="H28" s="37"/>
@@ -4533,14 +5599,14 @@
       <x:c r="CI28" s="29"/>
     </x:row>
     <x:row r="29" spans="1:87">
-      <x:c r="A29" s="86"/>
-      <x:c r="B29" s="80"/>
-      <x:c r="C29" s="83"/>
+      <x:c r="A29" s="87"/>
+      <x:c r="B29" s="81"/>
+      <x:c r="C29" s="84"/>
       <x:c r="D29" s="37" t="s">
-        <x:v>91</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E29" s="39" t="s">
-        <x:v>133</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F29" s="39"/>
       <x:c r="G29" s="37"/>
@@ -4626,14 +5692,14 @@
       <x:c r="CI29" s="29"/>
     </x:row>
     <x:row r="30" spans="1:87">
-      <x:c r="A30" s="86"/>
-      <x:c r="B30" s="80"/>
-      <x:c r="C30" s="83"/>
+      <x:c r="A30" s="87"/>
+      <x:c r="B30" s="81"/>
+      <x:c r="C30" s="84"/>
       <x:c r="D30" s="37" t="s">
-        <x:v>148</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E30" s="37" t="s">
-        <x:v>52</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="F30" s="37"/>
       <x:c r="G30" s="37"/>
@@ -4719,12 +5785,12 @@
       <x:c r="CI30" s="29"/>
     </x:row>
     <x:row r="31" spans="1:87" s="1" customFormat="1">
-      <x:c r="A31" s="85"/>
-      <x:c r="B31" s="84"/>
-      <x:c r="C31" s="83"/>
+      <x:c r="A31" s="86"/>
+      <x:c r="B31" s="85"/>
+      <x:c r="C31" s="84"/>
       <x:c r="D31" s="37"/>
       <x:c r="E31" s="37" t="s">
-        <x:v>86</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F31" s="37"/>
       <x:c r="G31" s="37"/>
@@ -4810,14 +5876,14 @@
       <x:c r="CI31" s="29"/>
     </x:row>
     <x:row r="32" spans="1:87">
-      <x:c r="A32" s="86"/>
-      <x:c r="B32" s="80"/>
-      <x:c r="C32" s="83"/>
+      <x:c r="A32" s="87"/>
+      <x:c r="B32" s="81"/>
+      <x:c r="C32" s="84"/>
       <x:c r="D32" s="37" t="s">
-        <x:v>128</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="37" t="s">
-        <x:v>106</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F32" s="37"/>
       <x:c r="G32" s="37"/>
@@ -4903,11 +5969,11 @@
       <x:c r="CI32" s="29"/>
     </x:row>
     <x:row r="33" spans="1:87">
-      <x:c r="A33" s="86"/>
-      <x:c r="B33" s="80"/>
-      <x:c r="C33" s="78"/>
+      <x:c r="A33" s="87"/>
+      <x:c r="B33" s="81"/>
+      <x:c r="C33" s="79"/>
       <x:c r="D33" s="37" t="s">
-        <x:v>141</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E33" s="37"/>
       <x:c r="F33" s="37"/>
@@ -4994,13 +6060,13 @@
       <x:c r="CI33" s="29"/>
     </x:row>
     <x:row r="34" spans="1:87" s="1" customFormat="1">
-      <x:c r="A34" s="85"/>
-      <x:c r="B34" s="84"/>
-      <x:c r="C34" s="77" t="s">
-        <x:v>144</x:v>
+      <x:c r="A34" s="86"/>
+      <x:c r="B34" s="85"/>
+      <x:c r="C34" s="78" t="s">
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D34" s="37" t="s">
-        <x:v>80</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E34" s="37"/>
       <x:c r="F34" s="37"/>
@@ -5087,11 +6153,11 @@
       <x:c r="CI34" s="29"/>
     </x:row>
     <x:row r="35" spans="1:87" s="1" customFormat="1">
-      <x:c r="A35" s="86"/>
-      <x:c r="B35" s="80"/>
-      <x:c r="C35" s="83"/>
+      <x:c r="A35" s="87"/>
+      <x:c r="B35" s="81"/>
+      <x:c r="C35" s="84"/>
       <x:c r="D35" s="37" t="s">
-        <x:v>62</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="E35" s="37"/>
       <x:c r="F35" s="37"/>
@@ -5178,11 +6244,11 @@
       <x:c r="CI35" s="29"/>
     </x:row>
     <x:row r="36" spans="1:87" s="1" customFormat="1">
-      <x:c r="A36" s="86"/>
-      <x:c r="B36" s="80"/>
-      <x:c r="C36" s="83"/>
+      <x:c r="A36" s="87"/>
+      <x:c r="B36" s="81"/>
+      <x:c r="C36" s="84"/>
       <x:c r="D36" s="37" t="s">
-        <x:v>59</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="E36" s="37"/>
       <x:c r="F36" s="37"/>
@@ -5269,11 +6335,11 @@
       <x:c r="CI36" s="29"/>
     </x:row>
     <x:row r="37" spans="1:87" s="1" customFormat="1">
-      <x:c r="A37" s="86"/>
-      <x:c r="B37" s="80"/>
-      <x:c r="C37" s="83"/>
+      <x:c r="A37" s="87"/>
+      <x:c r="B37" s="81"/>
+      <x:c r="C37" s="84"/>
       <x:c r="D37" s="37" t="s">
-        <x:v>34</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="E37" s="37"/>
       <x:c r="F37" s="37"/>
@@ -5360,11 +6426,11 @@
       <x:c r="CI37" s="29"/>
     </x:row>
     <x:row r="38" spans="1:87" s="1" customFormat="1">
-      <x:c r="A38" s="86"/>
-      <x:c r="B38" s="80"/>
-      <x:c r="C38" s="83"/>
+      <x:c r="A38" s="87"/>
+      <x:c r="B38" s="81"/>
+      <x:c r="C38" s="84"/>
       <x:c r="D38" s="37" t="s">
-        <x:v>149</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E38" s="37"/>
       <x:c r="F38" s="37"/>
@@ -5451,11 +6517,11 @@
       <x:c r="CI38" s="29"/>
     </x:row>
     <x:row r="39" spans="1:87" s="1" customFormat="1">
-      <x:c r="A39" s="85"/>
-      <x:c r="B39" s="84"/>
-      <x:c r="C39" s="78"/>
+      <x:c r="A39" s="86"/>
+      <x:c r="B39" s="85"/>
+      <x:c r="C39" s="79"/>
       <x:c r="D39" s="37" t="s">
-        <x:v>123</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E39" s="37"/>
       <x:c r="F39" s="37"/>
@@ -5542,12 +6608,12 @@
       <x:c r="CI39" s="29"/>
     </x:row>
     <x:row r="40" spans="1:87">
-      <x:c r="A40" s="86"/>
-      <x:c r="B40" s="84" t="s">
-        <x:v>41</x:v>
+      <x:c r="A40" s="87"/>
+      <x:c r="B40" s="85" t="s">
+        <x:v>216</x:v>
       </x:c>
       <x:c r="C40" s="37" t="s">
-        <x:v>68</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="D40" s="37"/>
       <x:c r="E40" s="37"/>
@@ -5635,10 +6701,10 @@
       <x:c r="CI40" s="29"/>
     </x:row>
     <x:row r="41" spans="1:87">
-      <x:c r="A41" s="86"/>
-      <x:c r="B41" s="80"/>
+      <x:c r="A41" s="87"/>
+      <x:c r="B41" s="81"/>
       <x:c r="C41" s="37" t="s">
-        <x:v>116</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D41" s="37"/>
       <x:c r="E41" s="37"/>
@@ -5726,10 +6792,10 @@
       <x:c r="CI41" s="29"/>
     </x:row>
     <x:row r="42" spans="1:87">
-      <x:c r="A42" s="86"/>
-      <x:c r="B42" s="80"/>
+      <x:c r="A42" s="87"/>
+      <x:c r="B42" s="81"/>
       <x:c r="C42" s="37" t="s">
-        <x:v>101</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D42" s="37"/>
       <x:c r="E42" s="37"/>
@@ -5817,10 +6883,10 @@
       <x:c r="CI42" s="29"/>
     </x:row>
     <x:row r="43" spans="1:87">
-      <x:c r="A43" s="86"/>
-      <x:c r="B43" s="80"/>
+      <x:c r="A43" s="87"/>
+      <x:c r="B43" s="81"/>
       <x:c r="C43" s="37" t="s">
-        <x:v>129</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D43" s="37"/>
       <x:c r="E43" s="37"/>
@@ -5908,10 +6974,10 @@
       <x:c r="CI43" s="29"/>
     </x:row>
     <x:row r="44" spans="1:87">
-      <x:c r="A44" s="86"/>
-      <x:c r="B44" s="80"/>
+      <x:c r="A44" s="87"/>
+      <x:c r="B44" s="81"/>
       <x:c r="C44" s="37" t="s">
-        <x:v>35</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D44" s="37"/>
       <x:c r="E44" s="37"/>
@@ -5999,10 +7065,10 @@
       <x:c r="CI44" s="29"/>
     </x:row>
     <x:row r="45" spans="1:87">
-      <x:c r="A45" s="86"/>
-      <x:c r="B45" s="81"/>
+      <x:c r="A45" s="87"/>
+      <x:c r="B45" s="82"/>
       <x:c r="C45" s="37" t="s">
-        <x:v>110</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D45" s="37"/>
       <x:c r="E45" s="37"/>
@@ -6090,12 +7156,12 @@
       <x:c r="CI45" s="29"/>
     </x:row>
     <x:row r="46" spans="1:87">
-      <x:c r="A46" s="86"/>
-      <x:c r="B46" s="84" t="s">
-        <x:v>71</x:v>
+      <x:c r="A46" s="87"/>
+      <x:c r="B46" s="85" t="s">
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C46" s="37" t="s">
-        <x:v>38</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="D46" s="37"/>
       <x:c r="E46" s="37"/>
@@ -6183,10 +7249,10 @@
       <x:c r="CI46" s="29"/>
     </x:row>
     <x:row r="47" spans="1:87">
-      <x:c r="A47" s="86"/>
-      <x:c r="B47" s="80"/>
+      <x:c r="A47" s="87"/>
+      <x:c r="B47" s="81"/>
       <x:c r="C47" s="37" t="s">
-        <x:v>57</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="D47" s="37"/>
       <x:c r="E47" s="37"/>
@@ -6274,10 +7340,10 @@
       <x:c r="CI47" s="29"/>
     </x:row>
     <x:row r="48" spans="1:87">
-      <x:c r="A48" s="86"/>
-      <x:c r="B48" s="80"/>
+      <x:c r="A48" s="87"/>
+      <x:c r="B48" s="81"/>
       <x:c r="C48" s="37" t="s">
-        <x:v>98</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D48" s="37"/>
       <x:c r="E48" s="37"/>
@@ -6365,10 +7431,10 @@
       <x:c r="CI48" s="29"/>
     </x:row>
     <x:row r="49" spans="1:87">
-      <x:c r="A49" s="86"/>
-      <x:c r="B49" s="81"/>
+      <x:c r="A49" s="87"/>
+      <x:c r="B49" s="82"/>
       <x:c r="C49" s="37" t="s">
-        <x:v>122</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D49" s="37"/>
       <x:c r="E49" s="37"/>
@@ -6456,15 +7522,15 @@
       <x:c r="CI49" s="29"/>
     </x:row>
     <x:row r="50" spans="1:87">
-      <x:c r="A50" s="86"/>
-      <x:c r="B50" s="84" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="C50" s="77" t="s">
-        <x:v>240</x:v>
+      <x:c r="A50" s="87"/>
+      <x:c r="B50" s="85" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C50" s="78" t="s">
+        <x:v>296</x:v>
       </x:c>
       <x:c r="D50" s="37" t="s">
-        <x:v>87</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E50" s="37"/>
       <x:c r="F50" s="37"/>
@@ -6551,11 +7617,11 @@
       <x:c r="CI50" s="29"/>
     </x:row>
     <x:row r="51" spans="1:87">
-      <x:c r="A51" s="86"/>
-      <x:c r="B51" s="80"/>
-      <x:c r="C51" s="78"/>
+      <x:c r="A51" s="87"/>
+      <x:c r="B51" s="81"/>
+      <x:c r="C51" s="79"/>
       <x:c r="D51" s="37" t="s">
-        <x:v>127</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E51" s="37"/>
       <x:c r="F51" s="37"/>
@@ -6642,13 +7708,13 @@
       <x:c r="CI51" s="29"/>
     </x:row>
     <x:row r="52" spans="1:87">
-      <x:c r="A52" s="86"/>
-      <x:c r="B52" s="80"/>
-      <x:c r="C52" s="77" t="s">
-        <x:v>60</x:v>
+      <x:c r="A52" s="87"/>
+      <x:c r="B52" s="81"/>
+      <x:c r="C52" s="78" t="s">
+        <x:v>232</x:v>
       </x:c>
       <x:c r="D52" s="37" t="s">
-        <x:v>213</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="E52" s="37"/>
       <x:c r="F52" s="37"/>
@@ -6735,11 +7801,11 @@
       <x:c r="CI52" s="29"/>
     </x:row>
     <x:row r="53" spans="1:87">
-      <x:c r="A53" s="86"/>
-      <x:c r="B53" s="80"/>
-      <x:c r="C53" s="78"/>
+      <x:c r="A53" s="87"/>
+      <x:c r="B53" s="81"/>
+      <x:c r="C53" s="79"/>
       <x:c r="D53" s="37" t="s">
-        <x:v>211</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="E53" s="37"/>
       <x:c r="F53" s="37"/>
@@ -6826,13 +7892,13 @@
       <x:c r="CI53" s="29"/>
     </x:row>
     <x:row r="54" spans="1:87">
-      <x:c r="A54" s="86"/>
-      <x:c r="B54" s="80"/>
-      <x:c r="C54" s="77" t="s">
-        <x:v>205</x:v>
+      <x:c r="A54" s="87"/>
+      <x:c r="B54" s="81"/>
+      <x:c r="C54" s="78" t="s">
+        <x:v>267</x:v>
       </x:c>
       <x:c r="D54" s="37" t="s">
-        <x:v>198</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="E54" s="37"/>
       <x:c r="F54" s="37"/>
@@ -6919,11 +7985,11 @@
       <x:c r="CI54" s="29"/>
     </x:row>
     <x:row r="55" spans="1:87">
-      <x:c r="A55" s="86"/>
-      <x:c r="B55" s="80"/>
-      <x:c r="C55" s="83"/>
+      <x:c r="A55" s="87"/>
+      <x:c r="B55" s="81"/>
+      <x:c r="C55" s="84"/>
       <x:c r="D55" s="37" t="s">
-        <x:v>199</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="E55" s="37"/>
       <x:c r="F55" s="37"/>
@@ -7010,11 +8076,11 @@
       <x:c r="CI55" s="29"/>
     </x:row>
     <x:row r="56" spans="1:87">
-      <x:c r="A56" s="86"/>
-      <x:c r="B56" s="80"/>
-      <x:c r="C56" s="78"/>
+      <x:c r="A56" s="87"/>
+      <x:c r="B56" s="81"/>
+      <x:c r="C56" s="79"/>
       <x:c r="D56" s="37" t="s">
-        <x:v>28</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E56" s="37"/>
       <x:c r="F56" s="37"/>
@@ -7101,13 +8167,13 @@
       <x:c r="CI56" s="29"/>
     </x:row>
     <x:row r="57" spans="1:87">
-      <x:c r="A57" s="86"/>
-      <x:c r="B57" s="80"/>
-      <x:c r="C57" s="77" t="s">
-        <x:v>135</x:v>
+      <x:c r="A57" s="87"/>
+      <x:c r="B57" s="81"/>
+      <x:c r="C57" s="78" t="s">
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D57" s="37" t="s">
-        <x:v>20</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E57" s="37"/>
       <x:c r="F57" s="37"/>
@@ -7194,11 +8260,11 @@
       <x:c r="CI57" s="29"/>
     </x:row>
     <x:row r="58" spans="1:87">
-      <x:c r="A58" s="86"/>
-      <x:c r="B58" s="80"/>
-      <x:c r="C58" s="78"/>
+      <x:c r="A58" s="87"/>
+      <x:c r="B58" s="81"/>
+      <x:c r="C58" s="79"/>
       <x:c r="D58" s="37" t="s">
-        <x:v>218</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="E58" s="37"/>
       <x:c r="F58" s="37"/>
@@ -7285,13 +8351,13 @@
       <x:c r="CI58" s="29"/>
     </x:row>
     <x:row r="59" spans="1:87">
-      <x:c r="A59" s="86"/>
-      <x:c r="B59" s="80"/>
-      <x:c r="C59" s="77" t="s">
-        <x:v>201</x:v>
+      <x:c r="A59" s="87"/>
+      <x:c r="B59" s="81"/>
+      <x:c r="C59" s="78" t="s">
+        <x:v>269</x:v>
       </x:c>
       <x:c r="D59" s="37" t="s">
-        <x:v>26</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E59" s="37"/>
       <x:c r="F59" s="37"/>
@@ -7378,11 +8444,11 @@
       <x:c r="CI59" s="29"/>
     </x:row>
     <x:row r="60" spans="1:87">
-      <x:c r="A60" s="86"/>
-      <x:c r="B60" s="80"/>
-      <x:c r="C60" s="78"/>
+      <x:c r="A60" s="87"/>
+      <x:c r="B60" s="81"/>
+      <x:c r="C60" s="79"/>
       <x:c r="D60" s="37" t="s">
-        <x:v>24</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="E60" s="37"/>
       <x:c r="F60" s="37"/>
@@ -7469,13 +8535,13 @@
       <x:c r="CI60" s="29"/>
     </x:row>
     <x:row r="61" spans="1:87">
-      <x:c r="A61" s="86"/>
-      <x:c r="B61" s="80"/>
-      <x:c r="C61" s="77" t="s">
-        <x:v>117</x:v>
+      <x:c r="A61" s="87"/>
+      <x:c r="B61" s="81"/>
+      <x:c r="C61" s="78" t="s">
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D61" s="37" t="s">
-        <x:v>47</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E61" s="37"/>
       <x:c r="F61" s="37"/>
@@ -7562,11 +8628,11 @@
       <x:c r="CI61" s="29"/>
     </x:row>
     <x:row r="62" spans="1:87">
-      <x:c r="A62" s="87"/>
-      <x:c r="B62" s="81"/>
-      <x:c r="C62" s="78"/>
+      <x:c r="A62" s="88"/>
+      <x:c r="B62" s="82"/>
+      <x:c r="C62" s="79"/>
       <x:c r="D62" s="37" t="s">
-        <x:v>121</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E62" s="37"/>
       <x:c r="F62" s="37"/>
@@ -9585,7 +10651,7 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="A1:H60"/>
@@ -9608,288 +10674,288 @@
   <x:sheetData>
     <x:row r="1" spans="1:8" ht="17.149999999999999">
       <x:c r="A1" s="32" t="s">
-        <x:v>229</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1" s="33" t="s">
-        <x:v>126</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C1" s="34" t="s">
-        <x:v>97</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D1" s="34" t="s">
-        <x:v>146</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E1" s="34" t="s">
-        <x:v>107</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F1" s="34" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="G1" s="34" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="H1" s="35" t="s">
+        <x:v>219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8" ht="16.75" customHeight="1">
+      <x:c r="A2" s="86" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="G1" s="34" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="H1" s="35" t="s">
-        <x:v>58</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:8" ht="16.75" customHeight="1">
-      <x:c r="A2" s="85" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="B2" s="79" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="C2" s="92" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="D2" s="90" t="s">
-        <x:v>93</x:v>
+      <x:c r="B2" s="80" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C2" s="93" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D2" s="91" t="s">
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E2" s="58" t="s">
-        <x:v>230</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="F2" s="58"/>
       <x:c r="G2" s="58"/>
       <x:c r="H2" s="58" t="s">
-        <x:v>27</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="86"/>
-      <x:c r="B3" s="80"/>
-      <x:c r="C3" s="93"/>
-      <x:c r="D3" s="91"/>
+      <x:c r="A3" s="87"/>
+      <x:c r="B3" s="81"/>
+      <x:c r="C3" s="94"/>
+      <x:c r="D3" s="92"/>
       <x:c r="E3" s="59" t="s">
-        <x:v>119</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F3" s="59"/>
       <x:c r="G3" s="59"/>
       <x:c r="H3" s="59" t="s">
-        <x:v>100</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="A4" s="86"/>
-      <x:c r="B4" s="80"/>
-      <x:c r="C4" s="93"/>
-      <x:c r="D4" s="89"/>
+      <x:c r="A4" s="87"/>
+      <x:c r="B4" s="81"/>
+      <x:c r="C4" s="94"/>
+      <x:c r="D4" s="90"/>
       <x:c r="E4" s="59" t="s">
-        <x:v>108</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F4" s="59"/>
       <x:c r="G4" s="59"/>
       <x:c r="H4" s="59" t="s">
-        <x:v>23</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="86"/>
-      <x:c r="B5" s="80"/>
-      <x:c r="C5" s="93"/>
-      <x:c r="D5" s="88" t="s">
-        <x:v>137</x:v>
+      <x:c r="A5" s="87"/>
+      <x:c r="B5" s="81"/>
+      <x:c r="C5" s="94"/>
+      <x:c r="D5" s="89" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E5" s="60" t="s">
-        <x:v>103</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F5" s="59"/>
       <x:c r="G5" s="59"/>
       <x:c r="H5" s="59" t="s">
-        <x:v>253</x:v>
+        <x:v>326</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="A6" s="86"/>
-      <x:c r="B6" s="80"/>
-      <x:c r="C6" s="94"/>
-      <x:c r="D6" s="89"/>
+      <x:c r="A6" s="87"/>
+      <x:c r="B6" s="81"/>
+      <x:c r="C6" s="95"/>
+      <x:c r="D6" s="90"/>
       <x:c r="E6" s="60" t="s">
-        <x:v>76</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="F6" s="59"/>
       <x:c r="G6" s="59"/>
       <x:c r="H6" s="59" t="s">
-        <x:v>247</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="86"/>
-      <x:c r="B7" s="80"/>
-      <x:c r="C7" s="96" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D7" s="88" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="E7" s="88" t="s">
-        <x:v>93</x:v>
+      <x:c r="A7" s="87"/>
+      <x:c r="B7" s="81"/>
+      <x:c r="C7" s="97" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D7" s="89" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E7" s="89" t="s">
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F7" s="59" t="s">
-        <x:v>64</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="G7" s="59"/>
       <x:c r="H7" s="59"/>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="86"/>
-      <x:c r="B8" s="80"/>
-      <x:c r="C8" s="93"/>
-      <x:c r="D8" s="91"/>
-      <x:c r="E8" s="91"/>
+      <x:c r="A8" s="87"/>
+      <x:c r="B8" s="81"/>
+      <x:c r="C8" s="94"/>
+      <x:c r="D8" s="92"/>
+      <x:c r="E8" s="92"/>
       <x:c r="F8" s="59" t="s">
-        <x:v>172</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="G8" s="59"/>
       <x:c r="H8" s="59"/>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="86"/>
-      <x:c r="B9" s="80"/>
-      <x:c r="C9" s="93"/>
-      <x:c r="D9" s="91"/>
-      <x:c r="E9" s="91"/>
+      <x:c r="A9" s="87"/>
+      <x:c r="B9" s="81"/>
+      <x:c r="C9" s="94"/>
+      <x:c r="D9" s="92"/>
+      <x:c r="E9" s="92"/>
       <x:c r="F9" s="59" t="s">
-        <x:v>105</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G9" s="59"/>
       <x:c r="H9" s="59"/>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="86"/>
-      <x:c r="B10" s="80"/>
-      <x:c r="C10" s="93"/>
-      <x:c r="D10" s="91"/>
-      <x:c r="E10" s="91"/>
+      <x:c r="A10" s="87"/>
+      <x:c r="B10" s="81"/>
+      <x:c r="C10" s="94"/>
+      <x:c r="D10" s="92"/>
+      <x:c r="E10" s="92"/>
       <x:c r="F10" s="59" t="s">
-        <x:v>56</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="G10" s="59"/>
       <x:c r="H10" s="59"/>
     </x:row>
     <x:row r="11" spans="1:8" ht="16.75">
-      <x:c r="A11" s="86"/>
-      <x:c r="B11" s="97"/>
-      <x:c r="C11" s="98"/>
-      <x:c r="D11" s="95"/>
-      <x:c r="E11" s="95"/>
+      <x:c r="A11" s="87"/>
+      <x:c r="B11" s="98"/>
+      <x:c r="C11" s="99"/>
+      <x:c r="D11" s="96"/>
+      <x:c r="E11" s="96"/>
       <x:c r="F11" s="61" t="s">
-        <x:v>109</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G11" s="61"/>
       <x:c r="H11" s="61"/>
     </x:row>
     <x:row r="12" spans="1:8">
-      <x:c r="A12" s="86"/>
-      <x:c r="B12" s="80" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="C12" s="93" t="s">
-        <x:v>153</x:v>
+      <x:c r="A12" s="87"/>
+      <x:c r="B12" s="81" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="C12" s="94" t="s">
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D12" s="58" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="E12" s="91" t="s">
-        <x:v>30</x:v>
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="E12" s="92" t="s">
+        <x:v>202</x:v>
       </x:c>
       <x:c r="F12" s="58"/>
       <x:c r="G12" s="58"/>
       <x:c r="H12" s="58"/>
     </x:row>
     <x:row r="13" spans="1:8">
-      <x:c r="A13" s="86"/>
-      <x:c r="B13" s="80"/>
-      <x:c r="C13" s="93"/>
+      <x:c r="A13" s="87"/>
+      <x:c r="B13" s="81"/>
+      <x:c r="C13" s="94"/>
       <x:c r="D13" s="60" t="s">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="E13" s="91"/>
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="E13" s="92"/>
       <x:c r="F13" s="59"/>
       <x:c r="G13" s="59"/>
       <x:c r="H13" s="59"/>
     </x:row>
     <x:row r="14" spans="1:8">
-      <x:c r="A14" s="86"/>
-      <x:c r="B14" s="80"/>
-      <x:c r="C14" s="93"/>
+      <x:c r="A14" s="87"/>
+      <x:c r="B14" s="81"/>
+      <x:c r="C14" s="94"/>
       <x:c r="D14" s="60" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="E14" s="91"/>
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E14" s="92"/>
       <x:c r="F14" s="59"/>
       <x:c r="G14" s="59"/>
       <x:c r="H14" s="59"/>
     </x:row>
     <x:row r="15" spans="1:8">
-      <x:c r="A15" s="86"/>
-      <x:c r="B15" s="80"/>
-      <x:c r="C15" s="94"/>
+      <x:c r="A15" s="87"/>
+      <x:c r="B15" s="81"/>
+      <x:c r="C15" s="95"/>
       <x:c r="D15" s="60" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="E15" s="89"/>
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E15" s="90"/>
       <x:c r="F15" s="59"/>
       <x:c r="G15" s="59"/>
       <x:c r="H15" s="59"/>
     </x:row>
     <x:row r="16" spans="1:8">
-      <x:c r="A16" s="86"/>
-      <x:c r="B16" s="80"/>
-      <x:c r="C16" s="96" t="s">
-        <x:v>145</x:v>
+      <x:c r="A16" s="87"/>
+      <x:c r="B16" s="81"/>
+      <x:c r="C16" s="97" t="s">
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D16" s="60" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="E16" s="88" t="s">
-        <x:v>240</x:v>
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="E16" s="89" t="s">
+        <x:v>296</x:v>
       </x:c>
       <x:c r="F16" s="59" t="s">
-        <x:v>87</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G16" s="59"/>
-      <x:c r="H16" s="88" t="s">
-        <x:v>272</x:v>
+      <x:c r="H16" s="89" t="s">
+        <x:v>342</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
-      <x:c r="A17" s="86"/>
-      <x:c r="B17" s="80"/>
-      <x:c r="C17" s="94"/>
+      <x:c r="A17" s="87"/>
+      <x:c r="B17" s="81"/>
+      <x:c r="C17" s="95"/>
       <x:c r="D17" s="59" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="E17" s="89"/>
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="E17" s="90"/>
       <x:c r="F17" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G17" s="59"/>
-      <x:c r="H17" s="89"/>
+      <x:c r="H17" s="90"/>
     </x:row>
     <x:row r="18" spans="1:8" ht="16.75">
-      <x:c r="A18" s="86"/>
-      <x:c r="B18" s="97"/>
+      <x:c r="A18" s="87"/>
+      <x:c r="B18" s="98"/>
       <x:c r="C18" s="62" t="s">
-        <x:v>95</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D18" s="61"/>
       <x:c r="E18" s="61"/>
       <x:c r="F18" s="61"/>
       <x:c r="G18" s="61"/>
       <x:c r="H18" s="61" t="s">
-        <x:v>22</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
-      <x:c r="A19" s="86"/>
-      <x:c r="B19" s="80" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="C19" s="93" t="s">
-        <x:v>41</x:v>
+      <x:c r="A19" s="87"/>
+      <x:c r="B19" s="81" t="s">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="C19" s="94" t="s">
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D19" s="58" t="s">
-        <x:v>68</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E19" s="58"/>
       <x:c r="F19" s="58"/>
@@ -9897,11 +10963,11 @@
       <x:c r="H19" s="58"/>
     </x:row>
     <x:row r="20" spans="1:8">
-      <x:c r="A20" s="86"/>
-      <x:c r="B20" s="80"/>
-      <x:c r="C20" s="93"/>
+      <x:c r="A20" s="87"/>
+      <x:c r="B20" s="81"/>
+      <x:c r="C20" s="94"/>
       <x:c r="D20" s="59" t="s">
-        <x:v>67</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="E20" s="59"/>
       <x:c r="F20" s="59"/>
@@ -9909,11 +10975,11 @@
       <x:c r="H20" s="59"/>
     </x:row>
     <x:row r="21" spans="1:8">
-      <x:c r="A21" s="86"/>
-      <x:c r="B21" s="80"/>
-      <x:c r="C21" s="93"/>
+      <x:c r="A21" s="87"/>
+      <x:c r="B21" s="81"/>
+      <x:c r="C21" s="94"/>
       <x:c r="D21" s="59" t="s">
-        <x:v>101</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E21" s="59"/>
       <x:c r="F21" s="59"/>
@@ -9921,11 +10987,11 @@
       <x:c r="H21" s="59"/>
     </x:row>
     <x:row r="22" spans="1:8">
-      <x:c r="A22" s="86"/>
-      <x:c r="B22" s="80"/>
-      <x:c r="C22" s="93"/>
+      <x:c r="A22" s="87"/>
+      <x:c r="B22" s="81"/>
+      <x:c r="C22" s="94"/>
       <x:c r="D22" s="59" t="s">
-        <x:v>35</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="E22" s="59"/>
       <x:c r="F22" s="59"/>
@@ -9933,11 +10999,11 @@
       <x:c r="H22" s="59"/>
     </x:row>
     <x:row r="23" spans="1:8">
-      <x:c r="A23" s="86"/>
-      <x:c r="B23" s="80"/>
-      <x:c r="C23" s="94"/>
+      <x:c r="A23" s="87"/>
+      <x:c r="B23" s="81"/>
+      <x:c r="C23" s="95"/>
       <x:c r="D23" s="59" t="s">
-        <x:v>110</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E23" s="59"/>
       <x:c r="F23" s="59"/>
@@ -9945,90 +11011,90 @@
       <x:c r="H23" s="59"/>
     </x:row>
     <x:row r="24" spans="1:8">
-      <x:c r="A24" s="85"/>
-      <x:c r="B24" s="84"/>
-      <x:c r="C24" s="96" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="D24" s="88" t="s">
-        <x:v>39</x:v>
+      <x:c r="A24" s="86"/>
+      <x:c r="B24" s="85"/>
+      <x:c r="C24" s="97" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D24" s="89" t="s">
+        <x:v>240</x:v>
       </x:c>
       <x:c r="E24" s="59" t="s">
-        <x:v>51</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="F24" s="59"/>
       <x:c r="G24" s="59"/>
       <x:c r="H24" s="59"/>
     </x:row>
     <x:row r="25" spans="1:8">
-      <x:c r="A25" s="86"/>
-      <x:c r="B25" s="80"/>
-      <x:c r="C25" s="93"/>
-      <x:c r="D25" s="89"/>
+      <x:c r="A25" s="87"/>
+      <x:c r="B25" s="81"/>
+      <x:c r="C25" s="94"/>
+      <x:c r="D25" s="90"/>
       <x:c r="E25" s="59" t="s">
-        <x:v>70</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="F25" s="59"/>
       <x:c r="G25" s="59"/>
       <x:c r="H25" s="59"/>
     </x:row>
     <x:row r="26" spans="1:8">
-      <x:c r="A26" s="85"/>
-      <x:c r="B26" s="84"/>
-      <x:c r="C26" s="93"/>
-      <x:c r="D26" s="88" t="s">
-        <x:v>33</x:v>
+      <x:c r="A26" s="86"/>
+      <x:c r="B26" s="85"/>
+      <x:c r="C26" s="94"/>
+      <x:c r="D26" s="89" t="s">
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E26" s="59" t="s">
-        <x:v>40</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="F26" s="59"/>
       <x:c r="G26" s="59"/>
       <x:c r="H26" s="59"/>
     </x:row>
     <x:row r="27" spans="1:8">
-      <x:c r="A27" s="86"/>
-      <x:c r="B27" s="80"/>
-      <x:c r="C27" s="93"/>
-      <x:c r="D27" s="91"/>
+      <x:c r="A27" s="87"/>
+      <x:c r="B27" s="81"/>
+      <x:c r="C27" s="94"/>
+      <x:c r="D27" s="92"/>
       <x:c r="E27" s="59" t="s">
-        <x:v>45</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="F27" s="59"/>
       <x:c r="G27" s="59"/>
       <x:c r="H27" s="59"/>
     </x:row>
     <x:row r="28" spans="1:8">
-      <x:c r="A28" s="86"/>
-      <x:c r="B28" s="80"/>
-      <x:c r="C28" s="93"/>
-      <x:c r="D28" s="91"/>
+      <x:c r="A28" s="87"/>
+      <x:c r="B28" s="81"/>
+      <x:c r="C28" s="94"/>
+      <x:c r="D28" s="92"/>
       <x:c r="E28" s="59" t="s">
-        <x:v>55</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="F28" s="59"/>
       <x:c r="G28" s="59"/>
       <x:c r="H28" s="59"/>
     </x:row>
     <x:row r="29" spans="1:8" ht="16.75">
-      <x:c r="A29" s="86"/>
-      <x:c r="B29" s="97"/>
-      <x:c r="C29" s="98"/>
-      <x:c r="D29" s="95"/>
+      <x:c r="A29" s="87"/>
+      <x:c r="B29" s="98"/>
+      <x:c r="C29" s="99"/>
+      <x:c r="D29" s="96"/>
       <x:c r="E29" s="61" t="s">
-        <x:v>48</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="F29" s="61"/>
       <x:c r="G29" s="61"/>
       <x:c r="H29" s="61"/>
     </x:row>
     <x:row r="30" spans="1:8">
-      <x:c r="A30" s="86"/>
-      <x:c r="B30" s="80" t="s">
-        <x:v>71</x:v>
+      <x:c r="A30" s="87"/>
+      <x:c r="B30" s="81" t="s">
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C30" s="63" t="s">
-        <x:v>38</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="D30" s="58"/>
       <x:c r="E30" s="58"/>
@@ -10037,10 +11103,10 @@
       <x:c r="H30" s="58"/>
     </x:row>
     <x:row r="31" spans="1:8">
-      <x:c r="A31" s="86"/>
-      <x:c r="B31" s="80"/>
+      <x:c r="A31" s="87"/>
+      <x:c r="B31" s="81"/>
       <x:c r="C31" s="57" t="s">
-        <x:v>57</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="D31" s="59"/>
       <x:c r="E31" s="59"/>
@@ -10049,10 +11115,10 @@
       <x:c r="H31" s="59"/>
     </x:row>
     <x:row r="32" spans="1:8">
-      <x:c r="A32" s="86"/>
-      <x:c r="B32" s="80"/>
+      <x:c r="A32" s="87"/>
+      <x:c r="B32" s="81"/>
       <x:c r="C32" s="57" t="s">
-        <x:v>98</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D32" s="59"/>
       <x:c r="E32" s="59"/>
@@ -10061,10 +11127,10 @@
       <x:c r="H32" s="59"/>
     </x:row>
     <x:row r="33" spans="1:8" ht="16.75">
-      <x:c r="A33" s="86"/>
-      <x:c r="B33" s="97"/>
+      <x:c r="A33" s="87"/>
+      <x:c r="B33" s="98"/>
       <x:c r="C33" s="64" t="s">
-        <x:v>122</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D33" s="61"/>
       <x:c r="E33" s="61"/>
@@ -10073,12 +11139,12 @@
       <x:c r="H33" s="61"/>
     </x:row>
     <x:row r="34" spans="1:8" ht="16.75" customHeight="1">
-      <x:c r="A34" s="86"/>
-      <x:c r="B34" s="79" t="s">
-        <x:v>151</x:v>
+      <x:c r="A34" s="87"/>
+      <x:c r="B34" s="80" t="s">
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C34" s="63" t="s">
-        <x:v>236</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="D34" s="58"/>
       <x:c r="E34" s="58"/>
@@ -10087,13 +11153,13 @@
       <x:c r="H34" s="58"/>
     </x:row>
     <x:row r="35" spans="1:8">
-      <x:c r="A35" s="86"/>
-      <x:c r="B35" s="80"/>
-      <x:c r="C35" s="77" t="s">
-        <x:v>117</x:v>
+      <x:c r="A35" s="87"/>
+      <x:c r="B35" s="81"/>
+      <x:c r="C35" s="78" t="s">
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D35" s="59" t="s">
-        <x:v>47</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E35" s="59"/>
       <x:c r="F35" s="59"/>
@@ -10101,11 +11167,11 @@
       <x:c r="H35" s="59"/>
     </x:row>
     <x:row r="36" spans="1:8">
-      <x:c r="A36" s="86"/>
-      <x:c r="B36" s="80"/>
-      <x:c r="C36" s="83"/>
+      <x:c r="A36" s="87"/>
+      <x:c r="B36" s="81"/>
+      <x:c r="C36" s="84"/>
       <x:c r="D36" s="59" t="s">
-        <x:v>121</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E36" s="59"/>
       <x:c r="F36" s="59"/>
@@ -10113,11 +11179,11 @@
       <x:c r="H36" s="59"/>
     </x:row>
     <x:row r="37" spans="1:8">
-      <x:c r="A37" s="86"/>
-      <x:c r="B37" s="80"/>
-      <x:c r="C37" s="83"/>
+      <x:c r="A37" s="87"/>
+      <x:c r="B37" s="81"/>
+      <x:c r="C37" s="84"/>
       <x:c r="D37" s="59" t="s">
-        <x:v>237</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E37" s="59"/>
       <x:c r="F37" s="59"/>
@@ -10125,11 +11191,11 @@
       <x:c r="H37" s="59"/>
     </x:row>
     <x:row r="38" spans="1:8">
-      <x:c r="A38" s="86"/>
-      <x:c r="B38" s="80"/>
-      <x:c r="C38" s="83"/>
+      <x:c r="A38" s="87"/>
+      <x:c r="B38" s="81"/>
+      <x:c r="C38" s="84"/>
       <x:c r="D38" s="58" t="s">
-        <x:v>77</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E38" s="58"/>
       <x:c r="F38" s="58"/>
@@ -10137,11 +11203,11 @@
       <x:c r="H38" s="58"/>
     </x:row>
     <x:row r="39" spans="1:8">
-      <x:c r="A39" s="86"/>
-      <x:c r="B39" s="80"/>
-      <x:c r="C39" s="83"/>
+      <x:c r="A39" s="87"/>
+      <x:c r="B39" s="81"/>
+      <x:c r="C39" s="84"/>
       <x:c r="D39" s="59" t="s">
-        <x:v>88</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E39" s="59"/>
       <x:c r="F39" s="59"/>
@@ -10149,11 +11215,11 @@
       <x:c r="H39" s="59"/>
     </x:row>
     <x:row r="40" spans="1:8" ht="16.75">
-      <x:c r="A40" s="99"/>
-      <x:c r="B40" s="97"/>
-      <x:c r="C40" s="101"/>
+      <x:c r="A40" s="100"/>
+      <x:c r="B40" s="98"/>
+      <x:c r="C40" s="102"/>
       <x:c r="D40" s="47" t="s">
-        <x:v>79</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E40" s="47"/>
       <x:c r="F40" s="47"/>
@@ -10203,7 +11269,7 @@
     <x:row r="45" spans="1:8">
       <x:c r="A45" s="44"/>
       <x:c r="B45" s="44"/>
-      <x:c r="C45" s="100"/>
+      <x:c r="C45" s="101"/>
       <x:c r="D45" s="56"/>
       <x:c r="E45" s="46"/>
       <x:c r="F45" s="46"/>
@@ -10213,7 +11279,7 @@
     <x:row r="46" spans="1:8">
       <x:c r="A46" s="44"/>
       <x:c r="B46" s="44"/>
-      <x:c r="C46" s="100"/>
+      <x:c r="C46" s="101"/>
       <x:c r="D46" s="56"/>
       <x:c r="E46" s="46"/>
       <x:c r="F46" s="46"/>
@@ -10223,7 +11289,7 @@
     <x:row r="47" spans="1:8">
       <x:c r="A47" s="44"/>
       <x:c r="B47" s="44"/>
-      <x:c r="C47" s="100"/>
+      <x:c r="C47" s="101"/>
       <x:c r="D47" s="56"/>
       <x:c r="E47" s="46"/>
       <x:c r="F47" s="46"/>
@@ -10233,7 +11299,7 @@
     <x:row r="48" spans="1:8">
       <x:c r="A48" s="44"/>
       <x:c r="B48" s="44"/>
-      <x:c r="C48" s="100"/>
+      <x:c r="C48" s="101"/>
       <x:c r="D48" s="56"/>
       <x:c r="E48" s="46"/>
       <x:c r="F48" s="46"/>
@@ -10243,7 +11309,7 @@
     <x:row r="49" spans="1:8">
       <x:c r="A49" s="44"/>
       <x:c r="B49" s="44"/>
-      <x:c r="C49" s="100"/>
+      <x:c r="C49" s="101"/>
       <x:c r="D49" s="56"/>
       <x:c r="E49" s="46"/>
       <x:c r="F49" s="46"/>
@@ -10253,7 +11319,7 @@
     <x:row r="50" spans="1:8">
       <x:c r="A50" s="44"/>
       <x:c r="B50" s="44"/>
-      <x:c r="C50" s="100"/>
+      <x:c r="C50" s="101"/>
       <x:c r="D50" s="56"/>
       <x:c r="E50" s="46"/>
       <x:c r="F50" s="46"/>
@@ -10263,7 +11329,7 @@
     <x:row r="51" spans="1:8">
       <x:c r="A51" s="44"/>
       <x:c r="B51" s="44"/>
-      <x:c r="C51" s="100"/>
+      <x:c r="C51" s="101"/>
       <x:c r="D51" s="56"/>
       <x:c r="E51" s="46"/>
       <x:c r="F51" s="46"/>
@@ -10273,7 +11339,7 @@
     <x:row r="52" spans="1:8">
       <x:c r="A52" s="44"/>
       <x:c r="B52" s="44"/>
-      <x:c r="C52" s="100"/>
+      <x:c r="C52" s="101"/>
       <x:c r="D52" s="56"/>
       <x:c r="E52" s="46"/>
       <x:c r="F52" s="46"/>
@@ -10283,7 +11349,7 @@
     <x:row r="53" spans="1:8">
       <x:c r="A53" s="44"/>
       <x:c r="B53" s="44"/>
-      <x:c r="C53" s="100"/>
+      <x:c r="C53" s="101"/>
       <x:c r="D53" s="56"/>
       <x:c r="E53" s="46"/>
       <x:c r="F53" s="46"/>
@@ -10293,7 +11359,7 @@
     <x:row r="54" spans="1:8">
       <x:c r="A54" s="44"/>
       <x:c r="B54" s="44"/>
-      <x:c r="C54" s="100"/>
+      <x:c r="C54" s="101"/>
       <x:c r="D54" s="56"/>
       <x:c r="E54" s="46"/>
       <x:c r="F54" s="46"/>
@@ -10303,7 +11369,7 @@
     <x:row r="55" spans="1:8">
       <x:c r="A55" s="44"/>
       <x:c r="B55" s="44"/>
-      <x:c r="C55" s="100"/>
+      <x:c r="C55" s="101"/>
       <x:c r="D55" s="56"/>
       <x:c r="E55" s="46"/>
       <x:c r="F55" s="46"/>
@@ -10313,7 +11379,7 @@
     <x:row r="56" spans="1:8">
       <x:c r="A56" s="44"/>
       <x:c r="B56" s="44"/>
-      <x:c r="C56" s="100"/>
+      <x:c r="C56" s="101"/>
       <x:c r="D56" s="56"/>
       <x:c r="E56" s="46"/>
       <x:c r="F56" s="46"/>
@@ -10323,7 +11389,7 @@
     <x:row r="57" spans="1:8">
       <x:c r="A57" s="44"/>
       <x:c r="B57" s="44"/>
-      <x:c r="C57" s="100"/>
+      <x:c r="C57" s="101"/>
       <x:c r="D57" s="56"/>
       <x:c r="E57" s="46"/>
       <x:c r="F57" s="46"/>
@@ -10389,7 +11455,7 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet4"/>
   <x:dimension ref="A1:AH45"/>
@@ -10447,388 +11513,388 @@
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="48"/>
       <x:c r="B2" s="36" t="s">
-        <x:v>50</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="C2" s="36" t="s">
-        <x:v>200</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="D2" s="36" t="s">
-        <x:v>136</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E2" s="36" t="s">
-        <x:v>152</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F2" s="36" t="s">
-        <x:v>58</x:v>
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6" ht="16.75">
       <x:c r="A3" s="48"/>
-      <x:c r="B3" s="79" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C3" s="82" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="D3" s="82" t="s">
-        <x:v>85</x:v>
+      <x:c r="B3" s="80" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C3" s="83" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D3" s="83" t="s">
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E3" s="49" t="s">
-        <x:v>183</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F3" s="65"/>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="48"/>
-      <x:c r="B4" s="80"/>
-      <x:c r="C4" s="83"/>
-      <x:c r="D4" s="83"/>
+      <x:c r="B4" s="81"/>
+      <x:c r="C4" s="84"/>
+      <x:c r="D4" s="84"/>
       <x:c r="E4" s="50" t="s">
-        <x:v>275</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="F4" s="66"/>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="48"/>
-      <x:c r="B5" s="80"/>
-      <x:c r="C5" s="83"/>
-      <x:c r="D5" s="83"/>
+      <x:c r="B5" s="81"/>
+      <x:c r="C5" s="84"/>
+      <x:c r="D5" s="84"/>
       <x:c r="E5" s="50" t="s">
-        <x:v>190</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="F5" s="66"/>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="48"/>
-      <x:c r="B6" s="80"/>
-      <x:c r="C6" s="83"/>
-      <x:c r="D6" s="83"/>
+      <x:c r="B6" s="81"/>
+      <x:c r="C6" s="84"/>
+      <x:c r="D6" s="84"/>
       <x:c r="E6" s="50" t="s">
-        <x:v>16</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="F6" s="66"/>
     </x:row>
     <x:row r="7" spans="1:6" ht="32.75">
       <x:c r="A7" s="48"/>
-      <x:c r="B7" s="80"/>
-      <x:c r="C7" s="83"/>
-      <x:c r="D7" s="78"/>
+      <x:c r="B7" s="81"/>
+      <x:c r="C7" s="84"/>
+      <x:c r="D7" s="79"/>
       <x:c r="E7" s="51" t="s">
-        <x:v>177</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="F7" s="66"/>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="48"/>
-      <x:c r="B8" s="80"/>
-      <x:c r="C8" s="83"/>
-      <x:c r="D8" s="77" t="s">
-        <x:v>75</x:v>
+      <x:c r="B8" s="81"/>
+      <x:c r="C8" s="84"/>
+      <x:c r="D8" s="78" t="s">
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E8" s="52" t="s">
-        <x:v>178</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F8" s="66"/>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="48"/>
-      <x:c r="B9" s="80"/>
-      <x:c r="C9" s="83"/>
-      <x:c r="D9" s="83"/>
+      <x:c r="B9" s="81"/>
+      <x:c r="C9" s="84"/>
+      <x:c r="D9" s="84"/>
       <x:c r="E9" s="50" t="s">
-        <x:v>269</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="F9" s="66"/>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="48"/>
-      <x:c r="B10" s="80"/>
-      <x:c r="C10" s="83"/>
-      <x:c r="D10" s="78"/>
+      <x:c r="B10" s="81"/>
+      <x:c r="C10" s="84"/>
+      <x:c r="D10" s="79"/>
       <x:c r="E10" s="53" t="s">
-        <x:v>189</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="F10" s="66"/>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="48"/>
-      <x:c r="B11" s="80"/>
-      <x:c r="C11" s="83"/>
-      <x:c r="D11" s="77" t="s">
-        <x:v>61</x:v>
+      <x:c r="B11" s="81"/>
+      <x:c r="C11" s="84"/>
+      <x:c r="D11" s="78" t="s">
+        <x:v>236</x:v>
       </x:c>
       <x:c r="E11" s="52" t="s">
-        <x:v>162</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="F11" s="66"/>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="48"/>
-      <x:c r="B12" s="80"/>
-      <x:c r="C12" s="78"/>
-      <x:c r="D12" s="78"/>
+      <x:c r="B12" s="81"/>
+      <x:c r="C12" s="79"/>
+      <x:c r="D12" s="79"/>
       <x:c r="E12" s="53" t="s">
-        <x:v>18</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="F12" s="66"/>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="48"/>
-      <x:c r="B13" s="80"/>
-      <x:c r="C13" s="77" t="s">
-        <x:v>241</x:v>
-      </x:c>
-      <x:c r="D13" s="77" t="s">
-        <x:v>41</x:v>
+      <x:c r="B13" s="81"/>
+      <x:c r="C13" s="78" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="D13" s="78" t="s">
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E13" s="52" t="s">
-        <x:v>255</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="F13" s="66"/>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="48"/>
-      <x:c r="B14" s="80"/>
-      <x:c r="C14" s="83"/>
-      <x:c r="D14" s="83"/>
+      <x:c r="B14" s="81"/>
+      <x:c r="C14" s="84"/>
+      <x:c r="D14" s="84"/>
       <x:c r="E14" s="50" t="s">
-        <x:v>180</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F14" s="66"/>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="48"/>
-      <x:c r="B15" s="80"/>
-      <x:c r="C15" s="83"/>
-      <x:c r="D15" s="83"/>
+      <x:c r="B15" s="81"/>
+      <x:c r="C15" s="84"/>
+      <x:c r="D15" s="84"/>
       <x:c r="E15" s="50" t="s">
-        <x:v>263</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="F15" s="66"/>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="48"/>
-      <x:c r="B16" s="80"/>
-      <x:c r="C16" s="83"/>
-      <x:c r="D16" s="78"/>
+      <x:c r="B16" s="81"/>
+      <x:c r="C16" s="84"/>
+      <x:c r="D16" s="79"/>
       <x:c r="E16" s="53" t="s">
-        <x:v>160</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F16" s="66"/>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="48"/>
-      <x:c r="B17" s="80"/>
-      <x:c r="C17" s="83"/>
-      <x:c r="D17" s="77" t="s">
-        <x:v>65</x:v>
+      <x:c r="B17" s="81"/>
+      <x:c r="C17" s="84"/>
+      <x:c r="D17" s="78" t="s">
+        <x:v>247</x:v>
       </x:c>
       <x:c r="E17" s="52" t="s">
-        <x:v>267</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="F17" s="66"/>
     </x:row>
     <x:row r="18" spans="1:6" ht="32.75">
       <x:c r="A18" s="48"/>
-      <x:c r="B18" s="80"/>
-      <x:c r="C18" s="78"/>
-      <x:c r="D18" s="78"/>
+      <x:c r="B18" s="81"/>
+      <x:c r="C18" s="79"/>
+      <x:c r="D18" s="79"/>
       <x:c r="E18" s="51" t="s">
-        <x:v>185</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="F18" s="66"/>
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="48"/>
-      <x:c r="B19" s="80"/>
-      <x:c r="C19" s="77" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D19" s="77" t="s">
-        <x:v>246</x:v>
+      <x:c r="B19" s="81"/>
+      <x:c r="C19" s="78" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="D19" s="78" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E19" s="52" t="s">
-        <x:v>259</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="F19" s="66"/>
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="48"/>
-      <x:c r="B20" s="80"/>
-      <x:c r="C20" s="83"/>
-      <x:c r="D20" s="78"/>
+      <x:c r="B20" s="81"/>
+      <x:c r="C20" s="84"/>
+      <x:c r="D20" s="79"/>
       <x:c r="E20" s="53" t="s">
-        <x:v>13</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F20" s="66"/>
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="48"/>
-      <x:c r="B21" s="80"/>
-      <x:c r="C21" s="83"/>
-      <x:c r="D21" s="77" t="s">
-        <x:v>203</x:v>
+      <x:c r="B21" s="81"/>
+      <x:c r="C21" s="84"/>
+      <x:c r="D21" s="78" t="s">
+        <x:v>276</x:v>
       </x:c>
       <x:c r="E21" s="52" t="s">
-        <x:v>276</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="F21" s="66"/>
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="48"/>
-      <x:c r="B22" s="80"/>
-      <x:c r="C22" s="83"/>
-      <x:c r="D22" s="78"/>
+      <x:c r="B22" s="81"/>
+      <x:c r="C22" s="84"/>
+      <x:c r="D22" s="79"/>
       <x:c r="E22" s="53" t="s">
-        <x:v>164</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F22" s="66"/>
     </x:row>
     <x:row r="23" spans="1:6">
       <x:c r="A23" s="48"/>
-      <x:c r="B23" s="80"/>
-      <x:c r="C23" s="83"/>
+      <x:c r="B23" s="81"/>
+      <x:c r="C23" s="84"/>
       <x:c r="D23" s="37" t="s">
-        <x:v>72</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="E23" s="54" t="s">
-        <x:v>168</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F23" s="66"/>
     </x:row>
     <x:row r="24" spans="1:6">
       <x:c r="A24" s="48"/>
-      <x:c r="B24" s="80"/>
-      <x:c r="C24" s="83"/>
-      <x:c r="D24" s="77" t="s">
-        <x:v>217</x:v>
+      <x:c r="B24" s="81"/>
+      <x:c r="C24" s="84"/>
+      <x:c r="D24" s="78" t="s">
+        <x:v>280</x:v>
       </x:c>
       <x:c r="E24" s="52" t="s">
-        <x:v>245</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F24" s="66"/>
     </x:row>
     <x:row r="25" spans="1:6">
       <x:c r="A25" s="48"/>
-      <x:c r="B25" s="80"/>
-      <x:c r="C25" s="83"/>
-      <x:c r="D25" s="83"/>
+      <x:c r="B25" s="81"/>
+      <x:c r="C25" s="84"/>
+      <x:c r="D25" s="84"/>
       <x:c r="E25" s="50" t="s">
-        <x:v>161</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F25" s="66"/>
     </x:row>
     <x:row r="26" spans="1:6">
       <x:c r="A26" s="48"/>
-      <x:c r="B26" s="80"/>
-      <x:c r="C26" s="83"/>
-      <x:c r="D26" s="83"/>
+      <x:c r="B26" s="81"/>
+      <x:c r="C26" s="84"/>
+      <x:c r="D26" s="84"/>
       <x:c r="E26" s="50" t="s">
-        <x:v>157</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="F26" s="66"/>
     </x:row>
     <x:row r="27" spans="1:6" ht="16.75">
       <x:c r="A27" s="48"/>
-      <x:c r="B27" s="97"/>
-      <x:c r="C27" s="101"/>
-      <x:c r="D27" s="101"/>
+      <x:c r="B27" s="98"/>
+      <x:c r="C27" s="102"/>
+      <x:c r="D27" s="102"/>
       <x:c r="E27" s="55" t="s">
-        <x:v>266</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="F27" s="67"/>
     </x:row>
     <x:row r="28" spans="1:6" ht="16.75">
       <x:c r="A28" s="48"/>
-      <x:c r="B28" s="79" t="s">
-        <x:v>114</x:v>
+      <x:c r="B28" s="80" t="s">
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C28" s="68" t="s">
-        <x:v>94</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D28" s="68" t="s">
-        <x:v>49</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E28" s="69" t="s">
-        <x:v>264</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="F28" s="65"/>
     </x:row>
     <x:row r="29" spans="1:6">
       <x:c r="A29" s="48"/>
-      <x:c r="B29" s="80"/>
-      <x:c r="C29" s="77" t="s">
-        <x:v>150</x:v>
+      <x:c r="B29" s="81"/>
+      <x:c r="C29" s="78" t="s">
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D29" s="37" t="s">
-        <x:v>37</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="E29" s="54" t="s">
-        <x:v>159</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F29" s="66"/>
     </x:row>
     <x:row r="30" spans="1:6">
       <x:c r="A30" s="48"/>
-      <x:c r="B30" s="80"/>
-      <x:c r="C30" s="83"/>
-      <x:c r="D30" s="77" t="s">
-        <x:v>73</x:v>
+      <x:c r="B30" s="81"/>
+      <x:c r="C30" s="84"/>
+      <x:c r="D30" s="78" t="s">
+        <x:v>245</x:v>
       </x:c>
       <x:c r="E30" s="52" t="s">
-        <x:v>258</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="F30" s="66"/>
     </x:row>
     <x:row r="31" spans="1:6">
       <x:c r="A31" s="48"/>
-      <x:c r="B31" s="80"/>
-      <x:c r="C31" s="83"/>
-      <x:c r="D31" s="83"/>
+      <x:c r="B31" s="81"/>
+      <x:c r="C31" s="84"/>
+      <x:c r="D31" s="84"/>
       <x:c r="E31" s="50" t="s">
-        <x:v>165</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="F31" s="66"/>
     </x:row>
     <x:row r="32" spans="1:6">
       <x:c r="A32" s="48"/>
-      <x:c r="B32" s="80"/>
-      <x:c r="C32" s="83"/>
-      <x:c r="D32" s="83"/>
+      <x:c r="B32" s="81"/>
+      <x:c r="C32" s="84"/>
+      <x:c r="D32" s="84"/>
       <x:c r="E32" s="50" t="s">
-        <x:v>181</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F32" s="66"/>
     </x:row>
     <x:row r="33" spans="1:6" ht="16.75">
       <x:c r="A33" s="48"/>
-      <x:c r="B33" s="97"/>
-      <x:c r="C33" s="101"/>
-      <x:c r="D33" s="101"/>
+      <x:c r="B33" s="98"/>
+      <x:c r="C33" s="102"/>
+      <x:c r="D33" s="102"/>
       <x:c r="E33" s="55" t="s">
-        <x:v>250</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="F33" s="67"/>
     </x:row>
     <x:row r="34" spans="1:6">
       <x:c r="A34" s="48"/>
-      <x:c r="B34" s="80" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="C34" s="83"/>
-      <x:c r="D34" s="83"/>
+      <x:c r="B34" s="81" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C34" s="84"/>
+      <x:c r="D34" s="84"/>
       <x:c r="E34" s="50" t="s">
-        <x:v>14</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="F34" s="66"/>
     </x:row>
     <x:row r="35" spans="1:6" ht="16.75">
       <x:c r="A35" s="48"/>
-      <x:c r="B35" s="97"/>
-      <x:c r="C35" s="101"/>
-      <x:c r="D35" s="101"/>
+      <x:c r="B35" s="98"/>
+      <x:c r="C35" s="102"/>
+      <x:c r="D35" s="102"/>
       <x:c r="E35" s="55" t="s">
-        <x:v>251</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="F35" s="67"/>
     </x:row>

--- a/2021_Summer/jp.hong/Datebook_jph.xlsx
+++ b/2021_Summer/jp.hong/Datebook_jph.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="366">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="371">
   <x:si>
     <x:t>1. 요구사항 분석 (실현성 확인)
 2. 데이터 흐름도 수정
@@ -34,66 +34,25 @@
  -&gt; 주유, 부품들의 수명정보(?) 어떻게 자동으로 받아올지 알아봐야함 -&gt; 블루투스 =&gt; 블루투스 연동 어떻게?</x:t>
   </x:si>
   <x:si>
-    <x:t>1. DateBook_Comment 부분 수정
-2. GIT보고서 수정
- - 설치 과정 추가
- - 명령어 부분 내용 추가
-3. PPT 머릿글 요약 작성 - (미완)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 경쟁 어플 메뉴트리 수정
-2. 요구사항, 기능정의 순서 수정
-3. 한계점 수정
-블루투스 -&gt; 사진 촬영 ====&gt; 대체하게 되면 글자 인식하는 코드 필요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장치명이 설정된 경우 - 장치명을 변경하지 않는다면 최초 연결 시간
-장치명이 설정되지 않은 경우 - 연결된 볼륨명이 변경되지 않고 계속 사용되면 최초 연결시간</x:t>
+    <x:t>정비 예약을 하는 과정에서 사용자가 선택한 지점과 선택된 지점의 정보가 일치해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 화면 시퀀스 작성 (설명, 커뮤니티, 알림, 설정화면 추가)
+2. 추가 자료 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판의 글을 삭제하거나 올리기 위한 '글쓰기'버튼과 '글 삭제' 버튼이 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알맞은 ID값과 패스워드 값이 입력 될 경우 그에 맞는 회원 정보가 로그인 되어야 한다.</x:t>
   </x:si>
   <x:si>
     <x:t>1. 아이디어 도출
- - 컴퓨터 견적 추천 앱
- - 주차시 사고발생 알림 앱
-2. 주제 아이디어 최종 선정
- - 차량 관리 어플
-3. 개발 계획서 및 요구사항 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호는 특수문자 포함 8자리 이상 12자리 이하 이어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주행 거리 정보를 받아 계산하여 남은 수명에 대해 알려 주어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. Git 목록 삭제
-2. 요구사항 분석
-3. 인터페이스 구상도 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. (2-2) 수익적 요소 추가
-2. (4-1) 기능정의 추가
-3. 추가 자료 조사
- - 비슷한 어플(마이클) 화면 구성 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LastVisitedPidMRU - 탐색기를 통해 열어본 폴더 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RecentDocs - 최근 실행한 문서, 그림, 동영상 등의 파일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어플의 예약기능을 통해 예약한 경우 업체로부터 일정 수수료를 받는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 추가 자료조사(관련 코드)
-2. FlowChart 수정 및 보완</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성 (미완)
-2. 스피너 및 캘린더 뷰 다이어리 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소유한 차량이 여러 대일 경우 차량의 정보를 추가할 수 있어야 한다.</x:t>
+ - 디스크 바이너리 데이터 분석 툴
+ - 헤더와 푸터를 이용한 카빙 툴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 가입시 아이디, 비밀번호, 이름, 전화번호, 생년월일, 차종의 정보를 받아야 한다.</x:t>
   </x:si>
   <x:si>
     <x:t>1. 현장실습 OT
@@ -106,8 +65,69 @@
  - 개발 설계</x:t>
   </x:si>
   <x:si>
+    <x:t>1. 계획하고 있는 어플의 메뉴트리 작성 및 ppt 수정
+2. 요구사항 추가 및 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 플로우 차트 작성
+2. 설계 계획서 작성
+3. Menu_Tree 도식화 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RunMRU - (시작 - 실행) 또는 Ctrl + R을 통해 실행한 명령 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성(각 화면 기능 설명 채우기)
+2. 각 화면 플로우 차트 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Device Class ID 하위키로 Serial 정보 여부에 따라 두 가지로 분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-1. Datebook Comment 부분 요약
+1-2. GIT 보고서 다시 작성
+1-3. PPT 머릿글 요약 작성
+1-4. 파일명 수정
+1-5 최종 아이디어 선정 이유 작성
+2. 요구사항 수집 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 기능 정의 보완
+2. 관련 자료 수집
+3. 스토리보드 제작</x:t>
+  </x:si>
+  <x:si>
     <x:t>회원가입을 위해 시도한 비밀번호가 7자리 이하이거나 13자리 이상일 경우
 비밀번호 입력 오류 메세지가 출력되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. DateBook_Comment 부분 수정
+2. GIT보고서 수정
+ - 설치 과정 추가
+ - 명령어 부분 내용 추가
+3. PPT 머릿글 요약 작성 - (미완)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 경쟁 어플 메뉴트리 수정
+2. 요구사항, 기능정의 순서 수정
+3. 한계점 수정
+블루투스 -&gt; 사진 촬영 ====&gt; 대체하게 되면 글자 인식하는 코드 필요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장치명이 설정된 경우 - 장치명을 변경하지 않는다면 최초 연결 시간
+장치명이 설정되지 않은 경우 - 연결된 볼륨명이 변경되지 않고 계속 사용되면 최초 연결시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+ - 컴퓨터 견적 추천 앱
+ - 주차시 사고발생 알림 앱
+2. 주제 아이디어 최종 선정
+ - 차량 관리 어플
+3. 개발 계획서 및 요구사항 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 기능 정의
+2. 관련자료 수집</x:t>
   </x:si>
   <x:si>
     <x:t>1. 실습 환경 설정 및 설명
@@ -121,28 +141,197 @@
  - 차량 관리 어플</x:t>
   </x:si>
   <x:si>
-    <x:t>1-1. Datebook Comment 부분 요약
-1-2. GIT 보고서 다시 작성
-1-3. PPT 머릿글 요약 작성
-1-4. 파일명 수정
-1-5 최종 아이디어 선정 이유 작성
-2. 요구사항 수집 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 필요 자료 추가 조사
-2. 한계점 및 필요기술 추가
- - 차량 블루투스와 어플 연결 어떻게?
- - 연결이 된다면 원하는 정보만 어떻게 가져 올건지?</x:t>
+    <x:t>08:40
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>달력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상황별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭설철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무결성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타이어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>etc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장마철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>편집</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인기글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가을</x:t>
+  </x:si>
+  <x:si>
+    <x:t>겨울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채팅창</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Q&amp;A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>만족도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계절별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>봄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리뷰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보안성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>손세차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이클</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일광 절약 시간동안 현지 시간 변환에 사용되는 분,대부분 -60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택 된 부품은 값의 변조 없이 알맞은 값이 저장되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록된 사용자만이 자신이 등록한 차량의 정보를 확인해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유, 연비, 운행거리, 정비 및 기타비용 총액/월별 지출액</x:t>
   </x:si>
   <x:si>
     <x:t>1. vi 명령어 설명서 작성
 2. 요구사항 정의 및 분석</x:t>
   </x:si>
   <x:si>
+    <x:t>수정 기능을 통해 작성했던 글을 수정 할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현지 시간 변환에 대한 현재 분 UTC와 현지 시간의 차이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사라지거나 위치가 바뀐 정보를 수시로 업데이트 해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 추가한 공유 폴더 목록, 경로, 권한, 이름 정보 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+2. 브리핑 준비
+3. 견학 보고서 작성</x:t>
+  </x:si>
+  <x:si>
     <x:t>Vendor 정보, 제품명, Revision number 확인</x:t>
   </x:si>
   <x:si>
-    <x:t>등록된 사용자만이 자신이 등록한 차량의 정보를 확인해야 한다.</x:t>
+    <x:t>부품의 종류를 다르게 하여 여러가지를 선택 할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입시 필요한 정보 및 소유한 차량의 정보를 포함해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외부에서 받아오는 정보(지도, 가격 등)에 변조가 없어야 한다.</x:t>
   </x:si>
   <x:si>
     <x:t>1. 요구사항 정의
@@ -150,25 +339,8 @@
  - 진행사항 보고</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 아이디어 도출
-2. 브리핑 준비
-3. 견학 보고서 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사라지거나 위치가 바뀐 정보를 수시로 업데이트 해야 한다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>1. 이전 프로젝트 리뷰(전체 흐름 파악)
 2. 요구사항 정의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유, 연비, 운행거리, 정비 및 기타비용 총액/월별 지출액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품의 종류를 다르게 하여 여러가지를 선택 할 수 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입시 필요한 정보 및 소유한 차량의 정보를 포함해야 한다.</x:t>
   </x:si>
   <x:si>
     <x:t>1. 브리핑 준비
@@ -176,25 +348,12 @@
 2. 견학 보고서 작성</x:t>
   </x:si>
   <x:si>
-    <x:t>외부에서 받아오는 정보(지도, 가격 등)에 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 추가한 공유 폴더 목록, 경로, 권한, 이름 정보 확인</x:t>
-  </x:si>
-  <x:si>
     <x:t>정비 날짜를 기록할 수 있도록 다이어리 형식으로 제공해야 한다.</x:t>
   </x:si>
   <x:si>
-    <x:t>일광 절약 시간동안 현지 시간 변환에 사용되는 분,대부분 -60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현지 시간 변환에 대한 현재 분 UTC와 현지 시간의 차이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정 기능을 통해 작성했던 글을 수정 할 수 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택 된 부품은 값의 변조 없이 알맞은 값이 저장되어야 한다.</x:t>
+    <x:t>1. 앱 화면별 Sequence 작성
+2. 앱 화면별 어떻게 구성할 것인지 구상
+3. 추가 자료조사</x:t>
   </x:si>
   <x:si>
     <x:t>1. 06.22, 06.23 회의록 작성
@@ -209,11 +368,11 @@
 3. 구현 가능 여부 확인</x:t>
   </x:si>
   <x:si>
-    <x:t>08:36
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중복되는 아이디로 가입시도시 아이디 입력 오류 메세지가 출력되어야 한다.</x:t>
+    <x:t>1. 메뉴시퀀스 작성(설명,컨테이너등 정보 채우기)
+2. 기능플로우 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OpenSavePidMRU - 탐색기를 통해 열어보거나 저장한 파일 목록</x:t>
   </x:si>
   <x:si>
     <x:t>1. 인터페이스 구상도 작성
@@ -226,53 +385,129 @@
 3. 구현 가능 여부 확인</x:t>
   </x:si>
   <x:si>
-    <x:t>OpenSavePidMRU - 탐색기를 통해 열어보거나 저장한 파일 목록</x:t>
-  </x:si>
-  <x:si>
     <x:t>1. 추가 자료조사
 2. 요구사항 추가 조사
 3. 경쟁 어플 기능 비교 보완</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 메뉴시퀀스 작성(설명,컨테이너등 정보 채우기)
-2. 기능플로우 작성</x:t>
+    <x:t>Value : AutoShareServer를 통해 기본적인 공유목록 상태 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인에 성공했다면 로그인 버튼이 아닌 로그 아웃 버튼을 보여주어야 한다.</x:t>
   </x:si>
   <x:si>
     <x:t>실행한 프로그램의 경로와 실행 유형, 실행 횟수, 최종 실행 시간 정보 확인</x:t>
   </x:si>
   <x:si>
-    <x:t>Value : AutoShareServer를 통해 기본적인 공유목록 상태 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인에 성공했다면 로그인 버튼이 아닌 로그 아웃 버튼을 보여주어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 앱 화면별 Sequence 작성
-2. 앱 화면별 어떻게 구성할 것인지 구상
-3. 추가 자료조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Device Class ID 하위키로 Serial 정보 여부에 따라 두 가지로 분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 계획하고 있는 어플의 메뉴트리 작성 및 ppt 수정
-2. 요구사항 추가 및 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RunMRU - (시작 - 실행) 또는 Ctrl + R을 통해 실행한 명령 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성(각 화면 기능 설명 채우기)
-2. 각 화면 플로우 차트 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 플로우 차트 작성
-2. 설계 계획서 작성
-3. Menu_Tree 도식화 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 정의
-2. 관련자료 수집</x:t>
+    <x:t>중복되는 아이디로 가입시도시 아이디 입력 오류 메세지가 출력되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 수집 및 정의
+ - 관련 필요 자료 조사
+ - 기능적/ 비기능적 요구사항 내용 추가
+2. 개발에 필요한 요구사항 분석 (실현성 확인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 주제아이디어 선정 - 사용자 기록 추적 프로그램 (레지스트리 이용)
+2. 레지스트리 분석으로 알아낼 수 있는 정보들 정리
+3.. 요구사항 정의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06_30 회의록 작성
+2. 요구사항 수정 및 관련 필요 자료 조사
+3. 15:00 ~ 지도교수 면담</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 화면을 들어가게 되면 아이디와 비밀번호의 입력 창, 회원가입 버튼과
+로그인 버튼이 나와야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+2. 최종 아이디어 선정
+3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성(login, join, 내 차고, 차량 정보) 미완
+2. 블루투스 관련 자료 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어플의 예약기능을 통해 예약한 경우 업체로부터 일정 수수료를 받는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주행 거리 정보를 받아 계산하여 남은 수명에 대해 알려 주어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LastVisitedPidMRU - 탐색기를 통해 열어본 폴더 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호는 특수문자 포함 8자리 이상 12자리 이하 이어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 추가 자료조사(관련 코드)
+2. FlowChart 수정 및 보완</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소유한 차량이 여러 대일 경우 차량의 정보를 추가할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Git 목록 삭제
+2. 요구사항 분석
+3. 인터페이스 구상도 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RecentDocs - 최근 실행한 문서, 그림, 동영상 등의 파일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성 (미완)
+2. 스피너 및 캘린더 뷰 다이어리 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주행 거리별 check list</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로컬 컴퓨터의 표준 시간대 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>system information</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Unique Instance ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Startup Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템종료 시 페이지 파일 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교체할 부품을 선택 받아야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Services/Drivers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검내역서(정비소 제공 문서)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템에 등록 된 컴퓨터 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Network Interface</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 정보(오너들의 평균 정보)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 레지스트리 접근 코드 작업</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Install Software</x:t>
+  </x:si>
+  <x:si>
+    <x:t>표준시간 동안 현지 시간 변환에 사용되는 분. 대부분 0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SID(Security Identifier) 보안식별자</x:t>
   </x:si>
   <x:si>
     <x:t>1. vi 명령어 설명서 작성 완료
@@ -295,92 +530,71 @@
 5. vi사용법 설명</x:t>
   </x:si>
   <x:si>
-    <x:t>회원 가입시 아이디, 비밀번호, 이름, 전화번호, 생년월일, 차종의 정보를 받아야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 예약을 하는 과정에서 사용자가 선택한 지점과 선택된 지점의 정보가 일치해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판의 글을 삭제하거나 올리기 위한 '글쓰기'버튼과 '글 삭제' 버튼이 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 화면 시퀀스 작성 (설명, 커뮤니티, 알림, 설정화면 추가)
-2. 추가 자료 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알맞은 ID값과 패스워드 값이 입력 될 경우 그에 맞는 회원 정보가 로그인 되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
- - 디스크 바이너리 데이터 분석 툴
- - 헤더와 푸터를 이용한 카빙 툴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
-2. 최종 아이디어 선정
-3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06_30 회의록 작성
-2. 요구사항 수정 및 관련 필요 자료 조사
-3. 15:00 ~ 지도교수 면담</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 화면을 들어가게 되면 아이디와 비밀번호의 입력 창, 회원가입 버튼과
-로그인 버튼이 나와야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성(login, join, 내 차고, 차량 정보) 미완
-2. 블루투스 관련 자료 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 수집 및 정의
- - 관련 필요 자료 조사
- - 기능적/ 비기능적 요구사항 내용 추가
-2. 개발에 필요한 요구사항 분석 (실현성 확인)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 주제아이디어 선정 - 사용자 기록 추적 프로그램 (레지스트리 이용)
-2. 레지스트리 분석으로 알아낼 수 있는 정보들 정리
-3.. 요구사항 정의</x:t>
+    <x:t>1. (2-2) 수익적 요소 추가
+2. (4-1) 기능정의 추가
+3. 추가 자료 조사
+ - 비슷한 어플(마이클) 화면 구성 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 필요 자료 추가 조사
+2. 한계점 및 필요기술 추가
+ - 차량 블루투스와 어플 연결 어떻게?
+ - 연결이 된다면 원하는 정보만 어떻게 가져 올건지?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:36
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마지막 종료 시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템 기본 정보</x:t>
   </x:si>
   <x:si>
     <x:t>MRU List</x:t>
   </x:si>
   <x:si>
-    <x:t>시스템 기본 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마지막 종료 시간</x:t>
-  </x:si>
-  <x:si>
     <x:t>운영체제 설치 루트</x:t>
   </x:si>
   <x:si>
-    <x:t>시스템 사용자 목록</x:t>
+    <x:t>08:22
+18:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:36
+18:04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 보험료 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험 선호도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출</x:t>
   </x:si>
   <x:si>
     <x:t>내 차 판매견적 받기</x:t>
   </x:si>
   <x:si>
+    <x:t>내 차 정보 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유사 모델 보기</x:t>
+  </x:si>
+  <x:si>
     <x:t>게시판 형태로 존재</x:t>
-  </x:si>
-  <x:si>
-    <x:t>코엑스 전시회 견학</x:t>
   </x:si>
   <x:si>
     <x:t>08:43
 18:01</x:t>
   </x:si>
   <x:si>
-    <x:t>08:22
-18:01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 보험 선호도</x:t>
-  </x:si>
-  <x:si>
     <x:t>부품 교체 예상 견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템 사용자 목록</x:t>
   </x:si>
   <x:si>
     <x:t>08:40
@@ -391,561 +605,120 @@
 18:02</x:t>
   </x:si>
   <x:si>
-    <x:t>유사 모델 보기</x:t>
+    <x:t>코엑스 전시회 견학</x:t>
   </x:si>
   <x:si>
     <x:t>친구 초대 이벤트</x:t>
   </x:si>
   <x:si>
+    <x:t>08:43
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>community</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 정보 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 기본 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Community</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자주 하는 질문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진행 방향 ---&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:32
+18:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험료 계산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:33
+18:02</x:t>
+  </x:si>
+  <x:si>
     <x:t>08:36
-18:04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 보험료 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 정보 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 보험료 계산</x:t>
+18:07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:32
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약/견적 내역</x:t>
   </x:si>
   <x:si>
     <x:t>08:35
 18:03</x:t>
   </x:si>
   <x:si>
-    <x:t>08:33
+    <x:t>무선랜 접속 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>네트워크 인터페이스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주요 하위 키 값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:34
+12:37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Assist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:25
 18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약/견적 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 보험 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:32
-18:05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:36
-18:07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진행 방향 ---&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 정보 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자주 하는 질문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:32
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:43
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>community</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 기본 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Community</x:t>
   </x:si>
   <x:si>
     <x:t>09:00
 18:00</x:t>
   </x:si>
   <x:si>
-    <x:t>네트워크 인터페이스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:34
-12:37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User Assist</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주행 거리별 check list</x:t>
-  </x:si>
-  <x:si>
-    <x:t>system information</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로컬 컴퓨터의 표준 시간대 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Unique Instance ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Startup Services</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템종료 시 페이지 파일 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Services/Drivers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점검내역서(정비소 제공 문서)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Install Software</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Network Interface</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 정보(오너들의 평균 정보)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교체할 부품을 선택 받아야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템에 등록 된 컴퓨터 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>표준시간 동안 현지 시간 변환에 사용되는 분. 대부분 0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SID(Security Identifier) 보안식별자</x:t>
-  </x:si>
-  <x:si>
     <x:t>운영체제 식별자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주요 하위 키 값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무선랜 접속 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:25
-18:02</x:t>
   </x:si>
   <x:si>
     <x:t>08:30
 18:00</x:t>
   </x:si>
   <x:si>
-    <x:t>내 차 메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연차, 보험료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 방문 장소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연비 랭킹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수익적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객상담</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 시기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Home</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>함수의 계산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타 항목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메모 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수리견적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기록 및 통계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에어컨 필터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균연비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오너들의 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어플 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결함/리콜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모아보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모두의 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 구매</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자차 게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공유게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비기능적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Menu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>견적 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이클 이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카카오톡 문의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필요 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이어리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험사 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에어컨필터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용 가이드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오늘 교체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 후기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 검사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tips</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 항목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균 연비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>더 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약 교체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첫예약할인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALL*</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신 글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 시세</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타이어샵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 주변 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>setting</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SID구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일정 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운영체제 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bias</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엔진오일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>디테일링</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>value</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여름 휴가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>네트워크 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조직 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차 정보 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공식 서비스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경기/인천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>달력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타이어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상황별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무결성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>etc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭설철</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채팅창</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점검</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>만족도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인기글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보안성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계절별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>겨울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Q&amp;A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>봄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장마철</x:t>
-  </x:si>
-  <x:si>
-    <x:t>편집</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가을</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리뷰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>손세차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이클</x:t>
+    <x:t>가까운 정비소 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운전자 추천 서비스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰 보유 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스 (메뉴)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비소 지도 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 연동 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 장착점 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:27
+18:03</x:t>
   </x:si>
   <x:si>
     <x:t>08:27
@@ -956,182 +729,510 @@
 18:03</x:t>
   </x:si>
   <x:si>
-    <x:t>운전자 추천 서비스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 연동 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 장착점 예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비소 지도 정보</x:t>
-  </x:si>
-  <x:si>
     <x:t>고장사례(리콜사례)</x:t>
   </x:si>
   <x:si>
-    <x:t>쿠폰 보유 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:27
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 정비소 예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스 (메뉴)</x:t>
+    <x:t>운전자 보험료 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>할인 쿠폰 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:23
+15:03</x:t>
   </x:si>
   <x:si>
     <x:t>08:36
 18:02</x:t>
   </x:si>
   <x:si>
-    <x:t>운전자 보험료 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>할인 쿠폰 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:23
-15:03</x:t>
-  </x:si>
-  <x:si>
     <x:t>08:30
 18:04</x:t>
   </x:si>
   <x:si>
+    <x:t>운영체제 설치 날짜</x:t>
+  </x:si>
+  <x:si>
     <x:t>운영체제 세부 버전</x:t>
   </x:si>
   <x:si>
-    <x:t>운영체제 설치 날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 최근에 열거나 실행한 파일 및 폴더 정보 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파일 및 폴더 실행 정보를 통한 사용자 행위 파악 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최초 연결 시각 (레지스트리 키의 마지막 쓰기 시간)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험, 범칙금, 주차요금, 톨게이트 비용, 차량용품 등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채팅방 및 게시판에 들어가기 위해서는 로그인을 해야한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 실패시 로그인 오류 메세지를 출력해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>할인률, 총액의 계산 과정에 오류가 있어선 안된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품들의 시세변동을 지속적으로 업데이트 해야 한다.</x:t>
+    <x:t>08:37
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:25
+15:54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bias</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공식 서비스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>네트워크 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차 정보 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여름 휴가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조직 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경기/인천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엔진오일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>value</x:t>
+  </x:si>
+  <x:si>
+    <x:t>디테일링</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타 항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 방문 장소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수익적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수리견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객상담</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메모 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Home</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연차, 보험료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>함수의 계산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연비 랭킹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 시기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tips</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이클 이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용 가이드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공유게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필요 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모두의 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>견적 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카카오톡 문의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험사 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기록 및 통계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오너들의 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자차 게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에어컨필터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비기능적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결함/리콜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모아보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에어컨 필터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 구매</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오늘 교체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균연비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어플 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이어리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 후기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 검사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 시세</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SID구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일정 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운영체제 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타이어샵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>setting</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균 연비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약 교체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첫예약할인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALL*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>더 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신 글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 주변 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>표준 시간대의 일광절약 시간을 나타내는 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성
+ - 화면별 세부기능 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 사용자가 로그온 시 자동 실행되는 항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템 시간 동안 GMT에서 offset된 시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 계약서 작성
+2. 현장실습 오리엔테이션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어플 내 광고를 통해 일정 수입료를 받는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>표준시간에서 일광 절약시간으로 전환될 때의 날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이콘을 활용하여 한 눈에 확인하기 쉬워야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 표준시간대의 표준 시간을 나타내는 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APP종료시 입력된 데이터는 변조가 없어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유량, 연비, 운행 거리 및 기타 비용 통계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DB에 저장된 내용들은 변조가 없어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판을 이용하기 위해서는 로그인을 해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일광 절약 시간에서 표준시간으로 전환될 때의 날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그온 한 사용자 상관없이 자동 실행되는 항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 화면 시퀀스 작성
+2. 추가 자료 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 주제 아이디어 선정
+2. 요구사항 정의</x:t>
   </x:si>
   <x:si>
     <x:t>1. 요구사항 정의 및 분석 보완
 2. 기능정의 보완</x:t>
   </x:si>
   <x:si>
+    <x:t>1. 화면 플로우 마무리
+2. Setting창 화면 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 최근에 열거나 실행한 파일 및 폴더 정보 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최초 연결 시각 (레지스트리 키의 마지막 쓰기 시간)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채팅방 및 게시판에 들어가기 위해서는 로그인을 해야한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 실패시 로그인 오류 메세지를 출력해야 한다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>게시판의 글들은 페이지당 20개씩 보여주어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06.28 회의록 작성
+2. 요구사항 정의 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험, 범칙금, 주차요금, 톨게이트 비용, 차량용품 등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>할인률, 총액의 계산 과정에 오류가 있어선 안된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품들의 시세변동을 지속적으로 업데이트 해야 한다.</x:t>
   </x:si>
   <x:si>
     <x:t>1. 화면 플로우 작업
 2. 정비예약화면 아이콘 추가</x:t>
   </x:si>
   <x:si>
+    <x:t>파일 및 폴더 실행 정보를 통한 사용자 행위 파악 가능</x:t>
+  </x:si>
+  <x:si>
     <x:t>1. Menu_Tree 수정(완료)
 2. 추가 자료 조사</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 06.28 회의록 작성
-2. 요구사항 정의 및 분석</x:t>
-  </x:si>
-  <x:si>
     <x:t>1. 각 버튼 및 창 기능 설명, 기능 플로우 추가</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 화면 플로우 마무리
-2. Setting창 화면 추가</x:t>
-  </x:si>
-  <x:si>
     <x:t>휴지통을 통해 삭제되는지, 거치지 않고 삭제되는지 결정</x:t>
   </x:si>
   <x:si>
-    <x:t>표준 시간대의 일광절약 시간을 나타내는 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 계약서 작성
-2. 현장실습 오리엔테이션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유량, 연비, 운행 거리 및 기타 비용 통계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판을 이용하기 위해서는 로그인을 해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어플 내 광고를 통해 일정 수입료를 받는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이콘을 활용하여 한 눈에 확인하기 쉬워야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 화면 시퀀스 작성
-2. 추가 자료 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>표준시간에서 일광 절약시간으로 전환될 때의 날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성
- - 화면별 세부기능 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일광 절약 시간에서 표준시간으로 전환될 때의 날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 사용자가 로그온 시 자동 실행되는 항목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템 시간 동안 GMT에서 offset된 시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DB에 저장된 내용들은 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 주제 아이디어 선정
-2. 요구사항 정의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 표준시간대의 표준 시간을 나타내는 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>APP종료시 입력된 데이터는 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그온 한 사용자 상관없이 자동 실행되는 항목</x:t>
+    <x:t>이달의 정비/세차 혜택</x:t>
   </x:si>
   <x:si>
     <x:t>Device Class ID</x:t>
   </x:si>
   <x:si>
-    <x:t>이달의 정비/세차 혜택</x:t>
-  </x:si>
-  <x:si>
     <x:t>dhcp가 할당해준 IP주소</x:t>
   </x:si>
   <x:si>
     <x:t>작업 관리자의 서비스 목록</x:t>
   </x:si>
   <x:si>
+    <x:t>DaylightStart</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실행창에 입력한 정보 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StandardBias</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마지막으로 로그인 한 사용자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설치된 프로그램 목록 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험료 확인 및 갱신일 알림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DaylightBias</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RDP Connection</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TimeZoneKeyName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USB Information</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StandardName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>항목 및 정비 주기 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ActiveTimeBias</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DaylightName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 무료 판매 견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차종, 차번호, 연식 등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유소 포인트 적립 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원격 데스크탑 연결 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 정비소 찾아보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검 스케쥴 및 일정 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shared Resource</x:t>
+  </x:si>
+  <x:si>
+    <x:t>각 사용자 별 기본 경로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방문 정비소 기록, 메모</x:t>
+  </x:si>
+  <x:si>
+    <x:t>네트워크 드라이브 연결 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무선 AP 마지막 접속 시간</x:t>
+  </x:si>
+  <x:si>
     <x:t>기아 커넥티드카 연동하기</x:t>
   </x:si>
   <x:si>
-    <x:t>원격 데스크탑 연결 정보</x:t>
+    <x:t>부품 별 남은 수명 보여줌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템 사용자 프로필 목록</x:t>
   </x:si>
   <x:si>
     <x:t>F / V 값 계정 정보</x:t>
@@ -1140,124 +1241,43 @@
     <x:t>서비스 및 드라이버 목록</x:t>
   </x:si>
   <x:si>
-    <x:t>DaylightName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품 별 남은 수명 보여줌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StandardBias</x:t>
-  </x:si>
-  <x:si>
-    <x:t>네트워크 드라이브 연결 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템 사용자 프로필 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무선 AP 마지막 접속 시간</x:t>
-  </x:si>
-  <x:si>
     <x:t>StandardStart</x:t>
   </x:si>
   <x:si>
-    <x:t>USB Information</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StandardName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유소 포인트 적립 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RDP Connection</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DaylightStart</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TimeZoneKeyName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 정비소 찾아보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점검 스케쥴 및 일정 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실행창에 입력한 정보 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shared Resource</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설치된 프로그램 목록 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마지막으로 로그인 한 사용자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>각 사용자 별 기본 경로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험료 확인 및 갱신일 알림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차종, 차번호, 연식 등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DaylightBias</x:t>
-  </x:si>
-  <x:si>
-    <x:t>항목 및 정비 주기 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ActiveTimeBias</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 무료 판매 견적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방문 정비소 기록, 메모</x:t>
+    <x:t>TimeZone Information</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이어리에 메모한 사항 달력에 날짜 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 시스템에 추가한 Volume</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Installed Software List</x:t>
   </x:si>
   <x:si>
     <x:t>정확한 위치의 지도 정보를 받아와야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중복되는 아이디는 가입이 되어선 안된다.</x:t>
   </x:si>
   <x:si>
     <x:t>1. 아이디어 도출
  - USB 복구 툴</x:t>
   </x:si>
   <x:si>
-    <x:t>TimeZone Information</x:t>
+    <x:t>1. 요구사항 정의
+2. 관련자료 수집</x:t>
   </x:si>
   <x:si>
     <x:t>게시판 형태로 존재, 결함/리콜 내역</x:t>
   </x:si>
   <x:si>
-    <x:t>다이어리에 메모한 사항 달력에 날짜 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 시스템에 추가한 Volume</x:t>
-  </x:si>
-  <x:si>
     <x:t>마지막으로 접근한 레지스트리 키 정보</x:t>
   </x:si>
   <x:si>
-    <x:t>Installed Software List</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중복되는 아이디는 가입이 되어선 안된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:25
-15:54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:37
-18:02</x:t>
+    <x:t>1. 레지스트리 접근 및 정보 추출 코드 정리
+2. 요구사항 보완</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1946,7 +1966,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="119">
+  <x:cellXfs count="120">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -2607,6 +2627,71 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -2653,58 +2738,6 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -3628,7 +3661,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:pane xSplit="0" ySplit="2" topLeftCell="C20" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" activeCell="E30" activeCellId="1" sqref="D31:D31 E30:E30"/>
+      <x:selection pane="bottomLeft" activeCell="C35" activeCellId="0" sqref="C35:C35"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.199999999999999"/>
@@ -3645,16 +3678,16 @@
     <x:row r="1" ht="6.5999999999999996" customHeight="1"/>
     <x:row r="2" spans="2:5" ht="31.199999999999999" customHeight="1">
       <x:c r="B2" s="6" t="s">
-        <x:v>136</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="C2" s="7" t="s">
-        <x:v>194</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="D2" s="7" t="s">
-        <x:v>156</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="E2" s="8" t="s">
-        <x:v>218</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:5" ht="105.75">
@@ -3662,13 +3695,13 @@
         <x:v>44369</x:v>
       </x:c>
       <x:c r="C3" s="16" t="s">
-        <x:v>108</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D3" s="10" t="s">
-        <x:v>303</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="E3" s="10" t="s">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:5" ht="118.55">
@@ -3676,13 +3709,13 @@
         <x:v>44370</x:v>
       </x:c>
       <x:c r="C4" s="15" t="s">
-        <x:v>108</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D4" s="13" t="s">
-        <x:v>38</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E4" s="13" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:5" ht="79.049999999999997">
@@ -3690,13 +3723,13 @@
         <x:v>44371</x:v>
       </x:c>
       <x:c r="C5" s="17" t="s">
-        <x:v>131</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="D5" s="13" t="s">
-        <x:v>66</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E5" s="13" t="s">
-        <x:v>4</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:5" ht="79.049999999999997">
@@ -3704,13 +3737,13 @@
         <x:v>44372</x:v>
       </x:c>
       <x:c r="C6" s="19" t="s">
-        <x:v>131</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="D6" s="13" t="s">
-        <x:v>18</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E6" s="18" t="s">
-        <x:v>1</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:5" ht="79.049999999999997">
@@ -3718,13 +3751,13 @@
         <x:v>44375</x:v>
       </x:c>
       <x:c r="C7" s="15" t="s">
-        <x:v>268</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D7" s="13" t="s">
-        <x:v>298</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="E7" s="13" t="s">
-        <x:v>59</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:5" ht="52.700000000000003">
@@ -3732,13 +3765,13 @@
         <x:v>44376</x:v>
       </x:c>
       <x:c r="C8" s="15" t="s">
-        <x:v>98</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D8" s="13" t="s">
-        <x:v>20</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E8" s="13" t="s">
-        <x:v>57</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:5" ht="52.700000000000003">
@@ -3746,13 +3779,13 @@
         <x:v>44377</x:v>
       </x:c>
       <x:c r="C9" s="20" t="s">
-        <x:v>282</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D9" s="13" t="s">
-        <x:v>39</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E9" s="13" t="s">
-        <x:v>67</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:5" ht="52.700000000000003">
@@ -3760,13 +3793,13 @@
         <x:v>44378</x:v>
       </x:c>
       <x:c r="C10" s="21" t="s">
-        <x:v>269</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="D10" s="13" t="s">
-        <x:v>43</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E10" s="13" t="s">
-        <x:v>70</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:5" ht="65.849999999999994">
@@ -3774,13 +3807,13 @@
         <x:v>44379</x:v>
       </x:c>
       <x:c r="C11" s="23" t="s">
-        <x:v>276</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D11" s="13" t="s">
-        <x:v>7</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E11" s="13" t="s">
-        <x:v>58</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:5" ht="105.40000000000001">
@@ -3788,10 +3821,10 @@
         <x:v>44382</x:v>
       </x:c>
       <x:c r="C12" s="22" t="s">
-        <x:v>130</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D12" s="13" t="s">
-        <x:v>42</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E12" s="13" t="s">
         <x:v>0</x:v>
@@ -3802,13 +3835,13 @@
         <x:v>44383</x:v>
       </x:c>
       <x:c r="C13" s="24" t="s">
-        <x:v>269</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="D13" s="13" t="s">
-        <x:v>12</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E13" s="13" t="s">
-        <x:v>19</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:5" ht="52.700000000000003">
@@ -3816,13 +3849,13 @@
         <x:v>44384</x:v>
       </x:c>
       <x:c r="C14" s="25" t="s">
-        <x:v>81</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D14" s="13" t="s">
-        <x:v>50</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E14" s="13" t="s">
-        <x:v>8</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:5" ht="52.700000000000003">
@@ -3830,13 +3863,13 @@
         <x:v>44385</x:v>
       </x:c>
       <x:c r="C15" s="31" t="s">
-        <x:v>104</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D15" s="13" t="s">
-        <x:v>45</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E15" s="13" t="s">
-        <x:v>2</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:5" ht="26.350000000000001">
@@ -3844,13 +3877,13 @@
         <x:v>44386</x:v>
       </x:c>
       <x:c r="C16" s="32" t="s">
-        <x:v>84</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D16" s="13" t="s">
-        <x:v>294</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="E16" s="13" t="s">
-        <x:v>52</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:5" ht="39.549999999999997">
@@ -3858,13 +3891,13 @@
         <x:v>44389</x:v>
       </x:c>
       <x:c r="C17" s="71" t="s">
-        <x:v>103</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D17" s="13" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E17" s="13" t="s">
-        <x:v>297</x:v>
+        <x:v>321</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:5" ht="26.350000000000001">
@@ -3872,13 +3905,13 @@
         <x:v>44390</x:v>
       </x:c>
       <x:c r="C18" s="72" t="s">
-        <x:v>80</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D18" s="13" t="s">
-        <x:v>308</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="E18" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:5" ht="26.350000000000001">
@@ -3886,13 +3919,13 @@
         <x:v>44391</x:v>
       </x:c>
       <x:c r="C19" s="72" t="s">
-        <x:v>269</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="D19" s="13" t="s">
-        <x:v>308</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="E19" s="13" t="s">
-        <x:v>13</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:5" ht="26.350000000000001">
@@ -3900,13 +3933,13 @@
         <x:v>44392</x:v>
       </x:c>
       <x:c r="C20" s="15" t="s">
-        <x:v>279</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D20" s="13" t="s">
-        <x:v>63</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E20" s="12" t="s">
-        <x:v>101</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="2:5" ht="26.350000000000001">
@@ -3914,13 +3947,13 @@
         <x:v>44393</x:v>
       </x:c>
       <x:c r="C21" s="73" t="s">
-        <x:v>94</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D21" s="13" t="s">
-        <x:v>46</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E21" s="13" t="s">
-        <x:v>310</x:v>
+        <x:v>292</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="2:5" ht="26.350000000000001">
@@ -3928,13 +3961,13 @@
         <x:v>44396</x:v>
       </x:c>
       <x:c r="C22" s="74" t="s">
-        <x:v>283</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="D22" s="12" t="s">
-        <x:v>299</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="E22" s="13" t="s">
-        <x:v>54</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="2:5" ht="26.350000000000001">
@@ -3942,13 +3975,13 @@
         <x:v>44397</x:v>
       </x:c>
       <x:c r="C23" s="75" t="s">
-        <x:v>85</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D23" s="13" t="s">
-        <x:v>300</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="E23" s="13" t="s">
-        <x:v>296</x:v>
+        <x:v>319</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="2:5" ht="39.549999999999997">
@@ -3956,13 +3989,13 @@
         <x:v>44398</x:v>
       </x:c>
       <x:c r="C24" s="15" t="s">
-        <x:v>93</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D24" s="12" t="s">
-        <x:v>90</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E24" s="13" t="s">
-        <x:v>65</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="2:5" ht="26.350000000000001">
@@ -3970,13 +4003,13 @@
         <x:v>44399</x:v>
       </x:c>
       <x:c r="C25" s="76" t="s">
-        <x:v>88</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D25" s="12" t="s">
-        <x:v>90</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E25" s="13" t="s">
-        <x:v>356</x:v>
+        <x:v>366</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="2:5" ht="26.350000000000001">
@@ -3984,13 +4017,13 @@
         <x:v>44400</x:v>
       </x:c>
       <x:c r="C26" s="15" t="s">
-        <x:v>110</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D26" s="12" t="s">
-        <x:v>79</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E26" s="12" t="s">
-        <x:v>79</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="2:5" ht="39.549999999999997">
@@ -3998,13 +4031,13 @@
         <x:v>44403</x:v>
       </x:c>
       <x:c r="C27" s="77" t="s">
-        <x:v>97</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D27" s="13" t="s">
-        <x:v>24</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="13" t="s">
-        <x:v>30</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="2:6" ht="39.549999999999997">
@@ -4012,13 +4045,13 @@
         <x:v>44404</x:v>
       </x:c>
       <x:c r="C28" s="15" t="s">
-        <x:v>84</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D28" s="13" t="s">
-        <x:v>315</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="E28" s="13" t="s">
-        <x:v>23</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F28" s="78"/>
     </x:row>
@@ -4027,13 +4060,13 @@
         <x:v>44405</x:v>
       </x:c>
       <x:c r="C29" s="15" t="s">
-        <x:v>364</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D29" s="13" t="s">
-        <x:v>26</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="13" t="s">
-        <x:v>56</x:v>
+        <x:v>367</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="2:5" ht="39.549999999999997">
@@ -4041,59 +4074,69 @@
         <x:v>44406</x:v>
       </x:c>
       <x:c r="C30" s="15" t="s">
-        <x:v>365</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D30" s="13" t="s">
-        <x:v>315</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="E30" s="13" t="s">
-        <x:v>71</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="2:5" ht="26.350000000000001">
       <x:c r="B31" s="14">
         <x:v>44407</x:v>
       </x:c>
-      <x:c r="C31" s="118" t="s">
-        <x:v>40</x:v>
+      <x:c r="C31" s="86" t="s">
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D31" s="13" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="E31" s="12"/>
+        <x:v>367</x:v>
+      </x:c>
+      <x:c r="E31" s="12" t="s">
+        <x:v>128</x:v>
+      </x:c>
     </x:row>
     <x:row r="32" spans="2:5">
       <x:c r="B32" s="14">
         <x:v>44410</x:v>
       </x:c>
-      <x:c r="C32" s="92"/>
-      <x:c r="D32" s="90" t="s">
-        <x:v>206</x:v>
-      </x:c>
-      <x:c r="E32" s="92"/>
+      <x:c r="C32" s="89"/>
+      <x:c r="D32" s="87" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="E32" s="89"/>
     </x:row>
     <x:row r="33" spans="2:5">
       <x:c r="B33" s="14">
         <x:v>44411</x:v>
       </x:c>
-      <x:c r="C33" s="93"/>
-      <x:c r="D33" s="91"/>
-      <x:c r="E33" s="93"/>
-    </x:row>
-    <x:row r="34" spans="2:5">
+      <x:c r="C33" s="90"/>
+      <x:c r="D33" s="88"/>
+      <x:c r="E33" s="90"/>
+    </x:row>
+    <x:row r="34" spans="2:5" ht="26.350000000000001">
       <x:c r="B34" s="14">
         <x:v>44412</x:v>
       </x:c>
-      <x:c r="C34" s="11"/>
-      <x:c r="D34" s="12"/>
-      <x:c r="E34" s="12"/>
-    </x:row>
-    <x:row r="35" spans="2:5">
+      <x:c r="C34" s="119" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D34" s="13" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E34" s="13" t="s">
+        <x:v>370</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="2:5" ht="39.549999999999997">
       <x:c r="B35" s="14">
         <x:v>44413</x:v>
       </x:c>
       <x:c r="C35" s="11"/>
-      <x:c r="D35" s="12"/>
+      <x:c r="D35" s="13" t="s">
+        <x:v>14</x:v>
+      </x:c>
       <x:c r="E35" s="12"/>
     </x:row>
     <x:row r="36" spans="2:5">
@@ -4182,358 +4225,358 @@
   <x:sheetData>
     <x:row r="1" spans="14:14">
       <x:c r="N1" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="2:5" ht="16.75" customHeight="1">
-      <x:c r="B2" s="86" t="s">
-        <x:v>256</x:v>
-      </x:c>
-      <x:c r="C2" s="86" t="s">
-        <x:v>113</x:v>
+      <x:c r="B2" s="91" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C2" s="91" t="s">
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D2" s="82" t="s">
-        <x:v>73</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E2" s="50"/>
     </x:row>
     <x:row r="3" spans="2:5">
-      <x:c r="B3" s="87"/>
-      <x:c r="C3" s="87"/>
-      <x:c r="D3" s="89" t="s">
-        <x:v>128</x:v>
+      <x:c r="B3" s="92"/>
+      <x:c r="C3" s="92"/>
+      <x:c r="D3" s="94" t="s">
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E3" s="51" t="s">
+        <x:v>276</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="2:5">
+      <x:c r="B4" s="92"/>
+      <x:c r="C4" s="92"/>
+      <x:c r="D4" s="94"/>
+      <x:c r="E4" s="51" t="s">
+        <x:v>220</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="2:5">
+      <x:c r="B5" s="92"/>
+      <x:c r="C5" s="92"/>
+      <x:c r="D5" s="94"/>
+      <x:c r="E5" s="51" t="s">
+        <x:v>217</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="2:5">
+      <x:c r="B6" s="92"/>
+      <x:c r="C6" s="92"/>
+      <x:c r="D6" s="94"/>
+      <x:c r="E6" s="51" t="s">
+        <x:v>181</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="2:5">
+      <x:c r="B7" s="92"/>
+      <x:c r="C7" s="92"/>
+      <x:c r="D7" s="94"/>
+      <x:c r="E7" s="51" t="s">
+        <x:v>200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="2:5">
+      <x:c r="B8" s="92"/>
+      <x:c r="C8" s="92"/>
+      <x:c r="D8" s="94"/>
+      <x:c r="E8" s="51" t="s">
         <x:v>199</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="2:5">
-      <x:c r="B4" s="87"/>
-      <x:c r="C4" s="87"/>
-      <x:c r="D4" s="89"/>
-      <x:c r="E4" s="51" t="s">
-        <x:v>203</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="2:5">
-      <x:c r="B5" s="87"/>
-      <x:c r="C5" s="87"/>
-      <x:c r="D5" s="89"/>
-      <x:c r="E5" s="51" t="s">
-        <x:v>208</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="2:5">
-      <x:c r="B6" s="87"/>
-      <x:c r="C6" s="87"/>
-      <x:c r="D6" s="89"/>
-      <x:c r="E6" s="51" t="s">
-        <x:v>127</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="2:5">
-      <x:c r="B7" s="87"/>
-      <x:c r="C7" s="87"/>
-      <x:c r="D7" s="89"/>
-      <x:c r="E7" s="51" t="s">
-        <x:v>284</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="2:5">
-      <x:c r="B8" s="87"/>
-      <x:c r="C8" s="87"/>
-      <x:c r="D8" s="89"/>
-      <x:c r="E8" s="51" t="s">
-        <x:v>285</x:v>
-      </x:c>
-    </x:row>
     <x:row r="9" spans="2:5">
-      <x:c r="B9" s="87"/>
-      <x:c r="C9" s="87"/>
-      <x:c r="D9" s="89"/>
+      <x:c r="B9" s="92"/>
+      <x:c r="C9" s="92"/>
+      <x:c r="D9" s="94"/>
       <x:c r="E9" s="51" t="s">
-        <x:v>75</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:5">
-      <x:c r="B10" s="87"/>
-      <x:c r="C10" s="87"/>
+      <x:c r="B10" s="92"/>
+      <x:c r="C10" s="92"/>
       <x:c r="D10" s="57" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E10" s="51"/>
     </x:row>
     <x:row r="11" spans="2:5" ht="16.75">
-      <x:c r="B11" s="87"/>
-      <x:c r="C11" s="88"/>
+      <x:c r="B11" s="92"/>
+      <x:c r="C11" s="93"/>
       <x:c r="D11" s="83" t="s">
-        <x:v>74</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E11" s="56"/>
     </x:row>
     <x:row r="12" spans="2:14" ht="16.75">
-      <x:c r="B12" s="87"/>
-      <x:c r="C12" s="86" t="s">
-        <x:v>357</x:v>
+      <x:c r="B12" s="92"/>
+      <x:c r="C12" s="91" t="s">
+        <x:v>360</x:v>
       </x:c>
       <x:c r="D12" s="82" t="s">
-        <x:v>114</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E12" s="50"/>
       <x:c r="N12" s="1" t="s">
-        <x:v>339</x:v>
+        <x:v>336</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:14">
-      <x:c r="B13" s="87"/>
-      <x:c r="C13" s="87"/>
+      <x:c r="B13" s="92"/>
+      <x:c r="C13" s="92"/>
       <x:c r="D13" s="57" t="s">
-        <x:v>311</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="E13" s="51"/>
       <x:c r="N13" s="1" t="s">
-        <x:v>333</x:v>
+        <x:v>359</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:14">
-      <x:c r="B14" s="87"/>
-      <x:c r="C14" s="87"/>
+      <x:c r="B14" s="92"/>
+      <x:c r="C14" s="92"/>
       <x:c r="D14" s="57" t="s">
-        <x:v>316</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="E14" s="51"/>
       <x:c r="N14" s="1" t="s">
-        <x:v>335</x:v>
+        <x:v>338</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:14">
-      <x:c r="B15" s="87"/>
-      <x:c r="C15" s="87"/>
+      <x:c r="B15" s="92"/>
+      <x:c r="C15" s="92"/>
       <x:c r="D15" s="57" t="s">
-        <x:v>125</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E15" s="51"/>
       <x:c r="N15" s="1" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:14">
-      <x:c r="B16" s="87"/>
-      <x:c r="C16" s="87"/>
+      <x:c r="B16" s="92"/>
+      <x:c r="C16" s="92"/>
       <x:c r="D16" s="57" t="s">
-        <x:v>309</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="E16" s="51"/>
       <x:c r="N16" s="1" t="s">
-        <x:v>338</x:v>
+        <x:v>328</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:14">
-      <x:c r="B17" s="87"/>
-      <x:c r="C17" s="87"/>
+      <x:c r="B17" s="92"/>
+      <x:c r="C17" s="92"/>
       <x:c r="D17" s="57" t="s">
-        <x:v>302</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="E17" s="51"/>
       <x:c r="N17" s="1" t="s">
-        <x:v>327</x:v>
+        <x:v>341</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:14">
-      <x:c r="B18" s="87"/>
-      <x:c r="C18" s="87"/>
+      <x:c r="B18" s="92"/>
+      <x:c r="C18" s="92"/>
       <x:c r="D18" s="57" t="s">
-        <x:v>34</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E18" s="51"/>
       <x:c r="N18" s="1" t="s">
-        <x:v>350</x:v>
+        <x:v>334</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:14">
-      <x:c r="B19" s="87"/>
-      <x:c r="C19" s="87"/>
+      <x:c r="B19" s="92"/>
+      <x:c r="C19" s="92"/>
       <x:c r="D19" s="57" t="s">
-        <x:v>35</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E19" s="51"/>
       <x:c r="N19" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:14" ht="16.75">
-      <x:c r="B20" s="87"/>
-      <x:c r="C20" s="88"/>
+      <x:c r="B20" s="92"/>
+      <x:c r="C20" s="93"/>
       <x:c r="D20" s="83" t="s">
-        <x:v>313</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="E20" s="56"/>
       <x:c r="N20" s="1" t="s">
-        <x:v>352</x:v>
+        <x:v>340</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="2:5" ht="16.75">
-      <x:c r="B21" s="87"/>
-      <x:c r="C21" s="86" t="s">
-        <x:v>345</x:v>
+      <x:c r="B21" s="92"/>
+      <x:c r="C21" s="91" t="s">
+        <x:v>342</x:v>
       </x:c>
       <x:c r="D21" s="79" t="s">
-        <x:v>76</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E21" s="50" t="s">
+        <x:v>357</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="2:5">
+      <x:c r="B22" s="92"/>
+      <x:c r="C22" s="92"/>
+      <x:c r="D22" s="46" t="s">
+        <x:v>356</x:v>
+      </x:c>
+      <x:c r="E22" s="51"/>
+    </x:row>
+    <x:row r="23" spans="2:5">
+      <x:c r="B23" s="92"/>
+      <x:c r="C23" s="92"/>
+      <x:c r="D23" s="46" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E23" s="51" t="s">
+        <x:v>274</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="2:5">
+      <x:c r="B24" s="92"/>
+      <x:c r="C24" s="92"/>
+      <x:c r="D24" s="46" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="E24" s="51"/>
+    </x:row>
+    <x:row r="25" spans="2:5" ht="16.75">
+      <x:c r="B25" s="92"/>
+      <x:c r="C25" s="93"/>
+      <x:c r="D25" s="80" t="s">
+        <x:v>350</x:v>
+      </x:c>
+      <x:c r="E25" s="56"/>
+    </x:row>
+    <x:row r="26" spans="2:5" ht="16.75">
+      <x:c r="B26" s="92"/>
+      <x:c r="C26" s="91" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="D26" s="79" t="s">
+        <x:v>363</x:v>
+      </x:c>
+      <x:c r="E26" s="50" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="2:5" ht="16.75">
+      <x:c r="B27" s="92"/>
+      <x:c r="C27" s="93"/>
+      <x:c r="D27" s="80" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="E27" s="56" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="2:5" ht="16.75">
+      <x:c r="B28" s="92"/>
+      <x:c r="C28" s="91" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="D28" s="79" t="s">
         <x:v>325</x:v>
       </x:c>
-    </x:row>
-    <x:row r="22" spans="2:5">
-      <x:c r="B22" s="87"/>
-      <x:c r="C22" s="87"/>
-      <x:c r="D22" s="46" t="s">
-        <x:v>331</x:v>
-      </x:c>
-      <x:c r="E22" s="51"/>
-    </x:row>
-    <x:row r="23" spans="2:5">
-      <x:c r="B23" s="87"/>
-      <x:c r="C23" s="87"/>
-      <x:c r="D23" s="46" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="E23" s="51" t="s">
-        <x:v>197</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="2:5">
-      <x:c r="B24" s="87"/>
-      <x:c r="C24" s="87"/>
-      <x:c r="D24" s="46" t="s">
-        <x:v>346</x:v>
-      </x:c>
-      <x:c r="E24" s="51"/>
-    </x:row>
-    <x:row r="25" spans="2:5" ht="16.75">
-      <x:c r="B25" s="87"/>
-      <x:c r="C25" s="88"/>
-      <x:c r="D25" s="80" t="s">
-        <x:v>347</x:v>
-      </x:c>
-      <x:c r="E25" s="56"/>
-    </x:row>
-    <x:row r="26" spans="2:5" ht="16.75">
-      <x:c r="B26" s="87"/>
-      <x:c r="C26" s="86" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="D26" s="79" t="s">
-        <x:v>362</x:v>
-      </x:c>
-      <x:c r="E26" s="50" t="s">
-        <x:v>344</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="2:5" ht="16.75">
-      <x:c r="B27" s="87"/>
-      <x:c r="C27" s="88"/>
-      <x:c r="D27" s="80" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="E27" s="56" t="s">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="2:5" ht="16.75">
-      <x:c r="B28" s="87"/>
-      <x:c r="C28" s="86" t="s">
-        <x:v>334</x:v>
-      </x:c>
-      <x:c r="D28" s="79" t="s">
-        <x:v>319</x:v>
-      </x:c>
       <x:c r="E28" s="50" t="s">
-        <x:v>21</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="2:5">
-      <x:c r="B29" s="87"/>
-      <x:c r="C29" s="87"/>
+      <x:c r="B29" s="92"/>
+      <x:c r="C29" s="92"/>
       <x:c r="D29" s="46" t="s">
-        <x:v>115</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E29" s="51" t="s">
-        <x:v>51</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="2:5" ht="33.149999999999999">
-      <x:c r="B30" s="87"/>
-      <x:c r="C30" s="88"/>
+      <x:c r="B30" s="92"/>
+      <x:c r="C30" s="93"/>
       <x:c r="D30" s="80" t="s">
-        <x:v>288</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="E30" s="81" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="2:5" ht="16.75">
-      <x:c r="B31" s="87"/>
-      <x:c r="C31" s="86" t="s">
-        <x:v>72</x:v>
+      <x:c r="B31" s="92"/>
+      <x:c r="C31" s="91" t="s">
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D31" s="79" t="s">
-        <x:v>286</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="E31" s="50" t="s">
+        <x:v>114</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="2:5">
+      <x:c r="B32" s="92"/>
+      <x:c r="C32" s="92"/>
+      <x:c r="D32" s="46" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="E32" s="51" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="2:5">
-      <x:c r="B32" s="87"/>
-      <x:c r="C32" s="87"/>
-      <x:c r="D32" s="46" t="s">
-        <x:v>287</x:v>
-      </x:c>
-      <x:c r="E32" s="51" t="s">
-        <x:v>53</x:v>
-      </x:c>
-    </x:row>
     <x:row r="33" spans="2:5">
-      <x:c r="B33" s="87"/>
-      <x:c r="C33" s="87"/>
+      <x:c r="B33" s="92"/>
+      <x:c r="C33" s="92"/>
       <x:c r="D33" s="46" t="s">
-        <x:v>342</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="E33" s="51" t="s">
-        <x:v>9</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="2:5" ht="16.75">
-      <x:c r="B34" s="87"/>
-      <x:c r="C34" s="88"/>
+      <x:c r="B34" s="92"/>
+      <x:c r="C34" s="93"/>
       <x:c r="D34" s="80"/>
       <x:c r="E34" s="56" t="s">
-        <x:v>44</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="2:5" ht="16.75">
-      <x:c r="B35" s="87"/>
-      <x:c r="C35" s="86" t="s">
-        <x:v>343</x:v>
+      <x:c r="B35" s="92"/>
+      <x:c r="C35" s="91" t="s">
+        <x:v>349</x:v>
       </x:c>
       <x:c r="D35" s="85" t="s">
-        <x:v>32</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E35" s="50"/>
     </x:row>
     <x:row r="36" spans="2:5" ht="16.75">
-      <x:c r="B36" s="87"/>
-      <x:c r="C36" s="88"/>
+      <x:c r="B36" s="92"/>
+      <x:c r="C36" s="93"/>
       <x:c r="D36" s="84" t="s">
-        <x:v>48</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E36" s="56"/>
     </x:row>
     <x:row r="37" spans="2:5" ht="16.75">
-      <x:c r="B37" s="87"/>
-      <x:c r="C37" s="86" t="s">
-        <x:v>121</x:v>
+      <x:c r="B37" s="92"/>
+      <x:c r="C37" s="91" t="s">
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D37" s="79" t="s">
         <x:v>207</x:v>
@@ -4541,122 +4584,122 @@
       <x:c r="E37" s="50"/>
     </x:row>
     <x:row r="38" spans="2:5">
-      <x:c r="B38" s="87"/>
-      <x:c r="C38" s="87"/>
+      <x:c r="B38" s="92"/>
+      <x:c r="C38" s="92"/>
       <x:c r="D38" s="46" t="s">
-        <x:v>109</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E38" s="51"/>
     </x:row>
     <x:row r="39" spans="2:5">
-      <x:c r="B39" s="87"/>
-      <x:c r="C39" s="87"/>
+      <x:c r="B39" s="92"/>
+      <x:c r="C39" s="92"/>
       <x:c r="D39" s="46" t="s">
-        <x:v>321</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="E39" s="51"/>
     </x:row>
     <x:row r="40" spans="2:5">
-      <x:c r="B40" s="87"/>
-      <x:c r="C40" s="87"/>
+      <x:c r="B40" s="92"/>
+      <x:c r="C40" s="92"/>
       <x:c r="D40" s="46" t="s">
-        <x:v>129</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E40" s="51"/>
     </x:row>
     <x:row r="41" spans="2:5" ht="16.75">
-      <x:c r="B41" s="87"/>
-      <x:c r="C41" s="88"/>
+      <x:c r="B41" s="92"/>
+      <x:c r="C41" s="93"/>
       <x:c r="D41" s="80" t="s">
-        <x:v>332</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="E41" s="56"/>
     </x:row>
     <x:row r="42" spans="2:5" ht="16.75">
-      <x:c r="B42" s="87"/>
-      <x:c r="C42" s="86" t="s">
-        <x:v>118</x:v>
+      <x:c r="B42" s="92"/>
+      <x:c r="C42" s="91" t="s">
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D42" s="85" t="s">
-        <x:v>326</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="E42" s="50"/>
     </x:row>
     <x:row r="43" spans="2:5" ht="16.75">
-      <x:c r="B43" s="87"/>
-      <x:c r="C43" s="88"/>
+      <x:c r="B43" s="92"/>
+      <x:c r="C43" s="93"/>
       <x:c r="D43" s="84" t="s">
-        <x:v>322</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="E43" s="56"/>
     </x:row>
     <x:row r="44" spans="2:5" ht="16.75">
-      <x:c r="B44" s="87"/>
-      <x:c r="C44" s="86" t="s">
-        <x:v>116</x:v>
+      <x:c r="B44" s="92"/>
+      <x:c r="C44" s="91" t="s">
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D44" s="79" t="s">
-        <x:v>318</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="E44" s="50"/>
     </x:row>
     <x:row r="45" spans="2:5" ht="16.75">
-      <x:c r="B45" s="87"/>
-      <x:c r="C45" s="88"/>
+      <x:c r="B45" s="92"/>
+      <x:c r="C45" s="93"/>
       <x:c r="D45" s="80" t="s">
-        <x:v>312</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="E45" s="56"/>
     </x:row>
     <x:row r="46" spans="2:5" ht="16.75">
-      <x:c r="B46" s="87"/>
-      <x:c r="C46" s="86" t="s">
-        <x:v>337</x:v>
+      <x:c r="B46" s="92"/>
+      <x:c r="C46" s="91" t="s">
+        <x:v>335</x:v>
       </x:c>
       <x:c r="D46" s="79" t="s">
-        <x:v>324</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="E46" s="50"/>
     </x:row>
     <x:row r="47" spans="2:5">
-      <x:c r="B47" s="87"/>
-      <x:c r="C47" s="87"/>
+      <x:c r="B47" s="92"/>
+      <x:c r="C47" s="92"/>
       <x:c r="D47" s="46" t="s">
-        <x:v>330</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="E47" s="51"/>
     </x:row>
     <x:row r="48" spans="2:5" ht="16.75">
-      <x:c r="B48" s="87"/>
-      <x:c r="C48" s="88"/>
+      <x:c r="B48" s="92"/>
+      <x:c r="C48" s="93"/>
       <x:c r="D48" s="80" t="s">
-        <x:v>360</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="E48" s="56"/>
     </x:row>
     <x:row r="49" spans="2:5" ht="16.75">
-      <x:c r="B49" s="87"/>
-      <x:c r="C49" s="86" t="s">
-        <x:v>234</x:v>
+      <x:c r="B49" s="92"/>
+      <x:c r="C49" s="91" t="s">
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D49" s="79" t="s">
-        <x:v>361</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="E49" s="50"/>
     </x:row>
     <x:row r="50" spans="2:5">
-      <x:c r="B50" s="87"/>
-      <x:c r="C50" s="87"/>
+      <x:c r="B50" s="92"/>
+      <x:c r="C50" s="92"/>
       <x:c r="D50" s="46" t="s">
-        <x:v>117</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E50" s="51"/>
     </x:row>
     <x:row r="51" spans="2:5" ht="16.75">
-      <x:c r="B51" s="88"/>
-      <x:c r="C51" s="88"/>
+      <x:c r="B51" s="93"/>
+      <x:c r="C51" s="93"/>
       <x:c r="D51" s="80" t="s">
-        <x:v>301</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="E51" s="56"/>
     </x:row>
@@ -4677,7 +4720,7 @@
     <x:mergeCell ref="C42:C43"/>
     <x:mergeCell ref="B2:B51"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -4704,78 +4747,78 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="17.149999999999999">
       <x:c r="A1" s="27" t="s">
-        <x:v>99</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B1" s="34" t="s">
-        <x:v>165</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="C1" s="35" t="s">
-        <x:v>147</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D1" s="35" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="E1" s="35" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="F1" s="35" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="G1" s="35" t="s">
         <x:v>205</x:v>
       </x:c>
-      <x:c r="E1" s="35" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="F1" s="35" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="G1" s="35" t="s">
-        <x:v>210</x:v>
-      </x:c>
       <x:c r="H1" s="35" t="s">
-        <x:v>255</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="I1" s="36" t="s">
-        <x:v>237</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:9">
-      <x:c r="A2" s="102" t="s">
-        <x:v>267</x:v>
-      </x:c>
-      <x:c r="B2" s="96" t="s">
-        <x:v>262</x:v>
-      </x:c>
-      <x:c r="C2" s="99" t="s">
+      <x:c r="A2" s="103" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B2" s="97" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C2" s="100" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="D2" s="100" t="s">
         <x:v>209</x:v>
       </x:c>
-      <x:c r="D2" s="99" t="s">
-        <x:v>212</x:v>
-      </x:c>
       <x:c r="E2" s="39" t="s">
-        <x:v>190</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="F2" s="39"/>
       <x:c r="G2" s="39"/>
       <x:c r="H2" s="39"/>
       <x:c r="I2" s="39" t="s">
-        <x:v>77</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
-      <x:c r="A3" s="103"/>
-      <x:c r="B3" s="97"/>
-      <x:c r="C3" s="100"/>
-      <x:c r="D3" s="100"/>
+      <x:c r="A3" s="104"/>
+      <x:c r="B3" s="98"/>
+      <x:c r="C3" s="101"/>
+      <x:c r="D3" s="101"/>
       <x:c r="E3" s="38" t="s">
-        <x:v>96</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="F3" s="38"/>
       <x:c r="G3" s="38"/>
       <x:c r="H3" s="38"/>
       <x:c r="I3" s="38" t="s">
-        <x:v>348</x:v>
+        <x:v>333</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
-      <x:c r="A4" s="103"/>
-      <x:c r="B4" s="97"/>
-      <x:c r="C4" s="100"/>
-      <x:c r="D4" s="100"/>
+      <x:c r="A4" s="104"/>
+      <x:c r="B4" s="98"/>
+      <x:c r="C4" s="101"/>
+      <x:c r="D4" s="101"/>
       <x:c r="E4" s="38" t="s">
-        <x:v>148</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="F4" s="38"/>
       <x:c r="G4" s="38"/>
@@ -4783,42 +4826,42 @@
       <x:c r="I4" s="38"/>
     </x:row>
     <x:row r="5" spans="1:9">
-      <x:c r="A5" s="103"/>
-      <x:c r="B5" s="97"/>
-      <x:c r="C5" s="100"/>
-      <x:c r="D5" s="100"/>
-      <x:c r="E5" s="94" t="s">
-        <x:v>154</x:v>
+      <x:c r="A5" s="104"/>
+      <x:c r="B5" s="98"/>
+      <x:c r="C5" s="101"/>
+      <x:c r="D5" s="101"/>
+      <x:c r="E5" s="95" t="s">
+        <x:v>259</x:v>
       </x:c>
       <x:c r="F5" s="38" t="s">
-        <x:v>134</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="G5" s="38"/>
       <x:c r="H5" s="38"/>
       <x:c r="I5" s="38"/>
     </x:row>
     <x:row r="6" spans="1:9">
-      <x:c r="A6" s="103"/>
-      <x:c r="B6" s="97"/>
-      <x:c r="C6" s="100"/>
-      <x:c r="D6" s="95"/>
-      <x:c r="E6" s="95"/>
+      <x:c r="A6" s="104"/>
+      <x:c r="B6" s="98"/>
+      <x:c r="C6" s="101"/>
+      <x:c r="D6" s="96"/>
+      <x:c r="E6" s="96"/>
       <x:c r="F6" s="38" t="s">
-        <x:v>91</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="G6" s="38"/>
       <x:c r="H6" s="38"/>
       <x:c r="I6" s="38"/>
     </x:row>
     <x:row r="7" spans="1:9">
-      <x:c r="A7" s="103"/>
-      <x:c r="B7" s="97"/>
-      <x:c r="C7" s="100"/>
-      <x:c r="D7" s="94" t="s">
-        <x:v>132</x:v>
+      <x:c r="A7" s="104"/>
+      <x:c r="B7" s="98"/>
+      <x:c r="C7" s="101"/>
+      <x:c r="D7" s="95" t="s">
+        <x:v>227</x:v>
       </x:c>
       <x:c r="E7" s="38" t="s">
-        <x:v>241</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F7" s="38"/>
       <x:c r="G7" s="38"/>
@@ -4826,91 +4869,91 @@
       <x:c r="I7" s="38"/>
     </x:row>
     <x:row r="8" spans="1:9">
-      <x:c r="A8" s="103"/>
-      <x:c r="B8" s="97"/>
-      <x:c r="C8" s="100"/>
-      <x:c r="D8" s="100"/>
+      <x:c r="A8" s="104"/>
+      <x:c r="B8" s="98"/>
+      <x:c r="C8" s="101"/>
+      <x:c r="D8" s="101"/>
       <x:c r="E8" s="38" t="s">
-        <x:v>254</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F8" s="38"/>
       <x:c r="G8" s="38"/>
       <x:c r="H8" s="38"/>
       <x:c r="I8" s="38" t="s">
-        <x:v>27</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
-      <x:c r="A9" s="103"/>
-      <x:c r="B9" s="97"/>
-      <x:c r="C9" s="100"/>
-      <x:c r="D9" s="100"/>
+      <x:c r="A9" s="104"/>
+      <x:c r="B9" s="98"/>
+      <x:c r="C9" s="101"/>
+      <x:c r="D9" s="101"/>
       <x:c r="E9" s="38" t="s">
-        <x:v>239</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F9" s="38"/>
       <x:c r="G9" s="38"/>
       <x:c r="H9" s="38"/>
       <x:c r="I9" s="38" t="s">
-        <x:v>341</x:v>
+        <x:v>348</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
-      <x:c r="A10" s="103"/>
-      <x:c r="B10" s="97"/>
-      <x:c r="C10" s="100"/>
-      <x:c r="D10" s="100"/>
-      <x:c r="E10" s="94" t="s">
-        <x:v>157</x:v>
+      <x:c r="A10" s="104"/>
+      <x:c r="B10" s="98"/>
+      <x:c r="C10" s="101"/>
+      <x:c r="D10" s="101"/>
+      <x:c r="E10" s="95" t="s">
+        <x:v>269</x:v>
       </x:c>
       <x:c r="F10" s="38" t="s">
-        <x:v>182</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="G10" s="38"/>
       <x:c r="H10" s="38"/>
       <x:c r="I10" s="38"/>
     </x:row>
     <x:row r="11" spans="1:9">
-      <x:c r="A11" s="103"/>
-      <x:c r="B11" s="97"/>
-      <x:c r="C11" s="100"/>
-      <x:c r="D11" s="100"/>
-      <x:c r="E11" s="100"/>
+      <x:c r="A11" s="104"/>
+      <x:c r="B11" s="98"/>
+      <x:c r="C11" s="101"/>
+      <x:c r="D11" s="101"/>
+      <x:c r="E11" s="101"/>
       <x:c r="F11" s="38" t="s">
-        <x:v>146</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="G11" s="38"/>
       <x:c r="H11" s="38"/>
       <x:c r="I11" s="38" t="s">
-        <x:v>289</x:v>
+        <x:v>316</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
-      <x:c r="A12" s="103"/>
-      <x:c r="B12" s="97"/>
-      <x:c r="C12" s="100"/>
-      <x:c r="D12" s="100"/>
-      <x:c r="E12" s="100"/>
+      <x:c r="A12" s="104"/>
+      <x:c r="B12" s="98"/>
+      <x:c r="C12" s="101"/>
+      <x:c r="D12" s="101"/>
+      <x:c r="E12" s="101"/>
       <x:c r="F12" s="38" t="s">
-        <x:v>259</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G12" s="38"/>
       <x:c r="H12" s="38"/>
       <x:c r="I12" s="38"/>
     </x:row>
     <x:row r="13" spans="1:28">
-      <x:c r="A13" s="103"/>
-      <x:c r="B13" s="97"/>
-      <x:c r="C13" s="95"/>
-      <x:c r="D13" s="95"/>
-      <x:c r="E13" s="95"/>
+      <x:c r="A13" s="104"/>
+      <x:c r="B13" s="98"/>
+      <x:c r="C13" s="96"/>
+      <x:c r="D13" s="96"/>
+      <x:c r="E13" s="96"/>
       <x:c r="F13" s="38" t="s">
-        <x:v>233</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G13" s="38"/>
       <x:c r="H13" s="38"/>
       <x:c r="I13" s="38" t="s">
-        <x:v>351</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="J13" s="30"/>
       <x:c r="K13" s="30"/>
@@ -4933,22 +4976,22 @@
       <x:c r="AB13" s="30"/>
     </x:row>
     <x:row r="14" spans="1:28">
-      <x:c r="A14" s="103"/>
-      <x:c r="B14" s="97"/>
-      <x:c r="C14" s="94" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="D14" s="94" t="s">
-        <x:v>217</x:v>
+      <x:c r="A14" s="104"/>
+      <x:c r="B14" s="98"/>
+      <x:c r="C14" s="95" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="D14" s="95" t="s">
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E14" s="38" t="s">
-        <x:v>223</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F14" s="38"/>
       <x:c r="G14" s="38"/>
       <x:c r="H14" s="38"/>
       <x:c r="I14" s="38" t="s">
-        <x:v>242</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J14" s="30"/>
       <x:c r="K14" s="30"/>
@@ -4971,18 +5014,18 @@
       <x:c r="AB14" s="30"/>
     </x:row>
     <x:row r="15" spans="1:28">
-      <x:c r="A15" s="103"/>
-      <x:c r="B15" s="97"/>
-      <x:c r="C15" s="100"/>
-      <x:c r="D15" s="100"/>
+      <x:c r="A15" s="104"/>
+      <x:c r="B15" s="98"/>
+      <x:c r="C15" s="101"/>
+      <x:c r="D15" s="101"/>
       <x:c r="E15" s="38" t="s">
-        <x:v>183</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="F15" s="38"/>
       <x:c r="G15" s="38"/>
       <x:c r="H15" s="38"/>
       <x:c r="I15" s="38" t="s">
-        <x:v>137</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="J15" s="30"/>
       <x:c r="K15" s="30"/>
@@ -5005,12 +5048,12 @@
       <x:c r="AB15" s="30"/>
     </x:row>
     <x:row r="16" spans="1:28">
-      <x:c r="A16" s="103"/>
-      <x:c r="B16" s="97"/>
-      <x:c r="C16" s="100"/>
-      <x:c r="D16" s="100"/>
+      <x:c r="A16" s="104"/>
+      <x:c r="B16" s="98"/>
+      <x:c r="C16" s="101"/>
+      <x:c r="D16" s="101"/>
       <x:c r="E16" s="38" t="s">
-        <x:v>179</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="F16" s="38"/>
       <x:c r="G16" s="38"/>
@@ -5036,18 +5079,18 @@
       <x:c r="AB16" s="30"/>
     </x:row>
     <x:row r="17" spans="1:28">
-      <x:c r="A17" s="103"/>
-      <x:c r="B17" s="97"/>
-      <x:c r="C17" s="100"/>
-      <x:c r="D17" s="95"/>
+      <x:c r="A17" s="104"/>
+      <x:c r="B17" s="98"/>
+      <x:c r="C17" s="101"/>
+      <x:c r="D17" s="96"/>
       <x:c r="E17" s="38" t="s">
-        <x:v>158</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="F17" s="38"/>
       <x:c r="G17" s="38"/>
       <x:c r="H17" s="38"/>
       <x:c r="I17" s="38" t="s">
-        <x:v>358</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="J17" s="30"/>
       <x:c r="K17" s="30"/>
@@ -5070,17 +5113,17 @@
       <x:c r="AB17" s="30"/>
     </x:row>
     <x:row r="18" spans="1:28">
-      <x:c r="A18" s="103"/>
-      <x:c r="B18" s="97"/>
-      <x:c r="C18" s="100"/>
+      <x:c r="A18" s="104"/>
+      <x:c r="B18" s="98"/>
+      <x:c r="C18" s="101"/>
       <x:c r="D18" s="38" t="s">
-        <x:v>82</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E18" s="38" t="s">
-        <x:v>92</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="F18" s="38" t="s">
-        <x:v>174</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="G18" s="38"/>
       <x:c r="H18" s="38"/>
@@ -5106,18 +5149,18 @@
       <x:c r="AB18" s="30"/>
     </x:row>
     <x:row r="19" spans="1:28">
-      <x:c r="A19" s="103"/>
-      <x:c r="B19" s="97"/>
-      <x:c r="C19" s="100"/>
+      <x:c r="A19" s="104"/>
+      <x:c r="B19" s="98"/>
+      <x:c r="C19" s="101"/>
       <x:c r="D19" s="38" t="s">
-        <x:v>263</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="38"/>
       <x:c r="F19" s="38"/>
       <x:c r="G19" s="38"/>
       <x:c r="H19" s="38"/>
-      <x:c r="I19" s="94" t="s">
-        <x:v>78</x:v>
+      <x:c r="I19" s="95" t="s">
+        <x:v>150</x:v>
       </x:c>
       <x:c r="J19" s="30"/>
       <x:c r="K19" s="30"/>
@@ -5140,17 +5183,17 @@
       <x:c r="AB19" s="30"/>
     </x:row>
     <x:row r="20" spans="1:28">
-      <x:c r="A20" s="103"/>
-      <x:c r="B20" s="97"/>
-      <x:c r="C20" s="100"/>
+      <x:c r="A20" s="104"/>
+      <x:c r="B20" s="98"/>
+      <x:c r="C20" s="101"/>
       <x:c r="D20" s="38" t="s">
-        <x:v>158</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="E20" s="38"/>
       <x:c r="F20" s="38"/>
       <x:c r="G20" s="38"/>
       <x:c r="H20" s="38"/>
-      <x:c r="I20" s="100"/>
+      <x:c r="I20" s="101"/>
       <x:c r="J20" s="30"/>
       <x:c r="K20" s="30"/>
       <x:c r="L20" s="30"/>
@@ -5172,17 +5215,17 @@
       <x:c r="AB20" s="30"/>
     </x:row>
     <x:row r="21" spans="1:28">
-      <x:c r="A21" s="103"/>
-      <x:c r="B21" s="97"/>
-      <x:c r="C21" s="100"/>
+      <x:c r="A21" s="104"/>
+      <x:c r="B21" s="98"/>
+      <x:c r="C21" s="101"/>
       <x:c r="D21" s="38" t="s">
-        <x:v>179</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="E21" s="38"/>
       <x:c r="F21" s="38"/>
       <x:c r="G21" s="38"/>
       <x:c r="H21" s="38"/>
-      <x:c r="I21" s="95"/>
+      <x:c r="I21" s="96"/>
       <x:c r="J21" s="30"/>
       <x:c r="K21" s="30"/>
       <x:c r="L21" s="30"/>
@@ -5204,11 +5247,11 @@
       <x:c r="AB21" s="30"/>
     </x:row>
     <x:row r="22" spans="1:28">
-      <x:c r="A22" s="103"/>
-      <x:c r="B22" s="98"/>
-      <x:c r="C22" s="95"/>
+      <x:c r="A22" s="104"/>
+      <x:c r="B22" s="99"/>
+      <x:c r="C22" s="96"/>
       <x:c r="D22" s="38" t="s">
-        <x:v>86</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E22" s="38"/>
       <x:c r="F22" s="38"/>
@@ -5236,12 +5279,12 @@
       <x:c r="AB22" s="30"/>
     </x:row>
     <x:row r="23" spans="1:28">
-      <x:c r="A23" s="103"/>
-      <x:c r="B23" s="101" t="s">
-        <x:v>169</x:v>
+      <x:c r="A23" s="104"/>
+      <x:c r="B23" s="102" t="s">
+        <x:v>264</x:v>
       </x:c>
       <x:c r="C23" s="38" t="s">
-        <x:v>95</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D23" s="38"/>
       <x:c r="E23" s="38"/>
@@ -5270,10 +5313,10 @@
       <x:c r="AB23" s="30"/>
     </x:row>
     <x:row r="24" spans="1:28">
-      <x:c r="A24" s="103"/>
-      <x:c r="B24" s="97"/>
+      <x:c r="A24" s="104"/>
+      <x:c r="B24" s="98"/>
       <x:c r="C24" s="38" t="s">
-        <x:v>235</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D24" s="38"/>
       <x:c r="E24" s="38"/>
@@ -5302,10 +5345,10 @@
       <x:c r="AB24" s="30"/>
     </x:row>
     <x:row r="25" spans="1:28">
-      <x:c r="A25" s="103"/>
-      <x:c r="B25" s="97"/>
+      <x:c r="A25" s="104"/>
+      <x:c r="B25" s="98"/>
       <x:c r="C25" s="38" t="s">
-        <x:v>252</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D25" s="38"/>
       <x:c r="E25" s="38"/>
@@ -5334,16 +5377,16 @@
       <x:c r="AB25" s="30"/>
     </x:row>
     <x:row r="26" spans="1:87">
-      <x:c r="A26" s="103"/>
-      <x:c r="B26" s="97"/>
-      <x:c r="C26" s="94" t="s">
-        <x:v>169</x:v>
+      <x:c r="A26" s="104"/>
+      <x:c r="B26" s="98"/>
+      <x:c r="C26" s="95" t="s">
+        <x:v>264</x:v>
       </x:c>
       <x:c r="D26" s="38" t="s">
-        <x:v>201</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="E26" s="38" t="s">
-        <x:v>277</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="F26" s="38"/>
       <x:c r="G26" s="38"/>
@@ -5429,17 +5472,17 @@
       <x:c r="CI26" s="30"/>
     </x:row>
     <x:row r="27" spans="1:87" s="2" customFormat="1">
-      <x:c r="A27" s="102"/>
-      <x:c r="B27" s="101"/>
-      <x:c r="C27" s="100"/>
-      <x:c r="D27" s="94" t="s">
-        <x:v>225</x:v>
+      <x:c r="A27" s="103"/>
+      <x:c r="B27" s="102"/>
+      <x:c r="C27" s="101"/>
+      <x:c r="D27" s="95" t="s">
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E27" s="38" t="s">
-        <x:v>177</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="F27" s="38" t="s">
-        <x:v>272</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="G27" s="38"/>
       <x:c r="H27" s="38"/>
@@ -5524,15 +5567,15 @@
       <x:c r="CI27" s="30"/>
     </x:row>
     <x:row r="28" spans="1:87">
-      <x:c r="A28" s="103"/>
-      <x:c r="B28" s="97"/>
-      <x:c r="C28" s="100"/>
-      <x:c r="D28" s="95"/>
+      <x:c r="A28" s="104"/>
+      <x:c r="B28" s="98"/>
+      <x:c r="C28" s="101"/>
+      <x:c r="D28" s="96"/>
       <x:c r="E28" s="38" t="s">
-        <x:v>185</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F28" s="38" t="s">
-        <x:v>272</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="G28" s="38"/>
       <x:c r="H28" s="38"/>
@@ -5617,14 +5660,14 @@
       <x:c r="CI28" s="30"/>
     </x:row>
     <x:row r="29" spans="1:87">
-      <x:c r="A29" s="103"/>
-      <x:c r="B29" s="97"/>
-      <x:c r="C29" s="100"/>
+      <x:c r="A29" s="104"/>
+      <x:c r="B29" s="98"/>
+      <x:c r="C29" s="101"/>
       <x:c r="D29" s="38" t="s">
-        <x:v>149</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E29" s="40" t="s">
-        <x:v>166</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="F29" s="40"/>
       <x:c r="G29" s="38"/>
@@ -5710,14 +5753,14 @@
       <x:c r="CI29" s="30"/>
     </x:row>
     <x:row r="30" spans="1:87">
-      <x:c r="A30" s="103"/>
-      <x:c r="B30" s="97"/>
-      <x:c r="C30" s="100"/>
+      <x:c r="A30" s="104"/>
+      <x:c r="B30" s="98"/>
+      <x:c r="C30" s="101"/>
       <x:c r="D30" s="38" t="s">
-        <x:v>202</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="E30" s="38" t="s">
-        <x:v>248</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F30" s="38"/>
       <x:c r="G30" s="38"/>
@@ -5803,12 +5846,12 @@
       <x:c r="CI30" s="30"/>
     </x:row>
     <x:row r="31" spans="1:87" s="2" customFormat="1">
-      <x:c r="A31" s="102"/>
-      <x:c r="B31" s="101"/>
-      <x:c r="C31" s="100"/>
+      <x:c r="A31" s="103"/>
+      <x:c r="B31" s="102"/>
+      <x:c r="C31" s="101"/>
       <x:c r="D31" s="38"/>
       <x:c r="E31" s="38" t="s">
-        <x:v>216</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="F31" s="38"/>
       <x:c r="G31" s="38"/>
@@ -5894,14 +5937,14 @@
       <x:c r="CI31" s="30"/>
     </x:row>
     <x:row r="32" spans="1:87">
-      <x:c r="A32" s="103"/>
-      <x:c r="B32" s="97"/>
-      <x:c r="C32" s="100"/>
+      <x:c r="A32" s="104"/>
+      <x:c r="B32" s="98"/>
+      <x:c r="C32" s="101"/>
       <x:c r="D32" s="38" t="s">
-        <x:v>175</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="E32" s="38" t="s">
-        <x:v>161</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="F32" s="38"/>
       <x:c r="G32" s="38"/>
@@ -5987,11 +6030,11 @@
       <x:c r="CI32" s="30"/>
     </x:row>
     <x:row r="33" spans="1:87">
-      <x:c r="A33" s="103"/>
-      <x:c r="B33" s="97"/>
-      <x:c r="C33" s="95"/>
+      <x:c r="A33" s="104"/>
+      <x:c r="B33" s="98"/>
+      <x:c r="C33" s="96"/>
       <x:c r="D33" s="38" t="s">
-        <x:v>186</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="E33" s="38"/>
       <x:c r="F33" s="38"/>
@@ -6078,13 +6121,13 @@
       <x:c r="CI33" s="30"/>
     </x:row>
     <x:row r="34" spans="1:87" s="2" customFormat="1">
-      <x:c r="A34" s="102"/>
-      <x:c r="B34" s="101"/>
-      <x:c r="C34" s="94" t="s">
-        <x:v>192</x:v>
+      <x:c r="A34" s="103"/>
+      <x:c r="B34" s="102"/>
+      <x:c r="C34" s="95" t="s">
+        <x:v>290</x:v>
       </x:c>
       <x:c r="D34" s="38" t="s">
-        <x:v>214</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E34" s="38"/>
       <x:c r="F34" s="38"/>
@@ -6171,11 +6214,11 @@
       <x:c r="CI34" s="30"/>
     </x:row>
     <x:row r="35" spans="1:87" s="2" customFormat="1">
-      <x:c r="A35" s="103"/>
-      <x:c r="B35" s="97"/>
-      <x:c r="C35" s="100"/>
+      <x:c r="A35" s="104"/>
+      <x:c r="B35" s="98"/>
+      <x:c r="C35" s="101"/>
       <x:c r="D35" s="38" t="s">
-        <x:v>220</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E35" s="38"/>
       <x:c r="F35" s="38"/>
@@ -6262,11 +6305,11 @@
       <x:c r="CI35" s="30"/>
     </x:row>
     <x:row r="36" spans="1:87" s="2" customFormat="1">
-      <x:c r="A36" s="103"/>
-      <x:c r="B36" s="97"/>
-      <x:c r="C36" s="100"/>
+      <x:c r="A36" s="104"/>
+      <x:c r="B36" s="98"/>
+      <x:c r="C36" s="101"/>
       <x:c r="D36" s="38" t="s">
-        <x:v>264</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E36" s="38"/>
       <x:c r="F36" s="38"/>
@@ -6353,11 +6396,11 @@
       <x:c r="CI36" s="30"/>
     </x:row>
     <x:row r="37" spans="1:87" s="2" customFormat="1">
-      <x:c r="A37" s="103"/>
-      <x:c r="B37" s="97"/>
-      <x:c r="C37" s="100"/>
+      <x:c r="A37" s="104"/>
+      <x:c r="B37" s="98"/>
+      <x:c r="C37" s="101"/>
       <x:c r="D37" s="38" t="s">
-        <x:v>266</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E37" s="38"/>
       <x:c r="F37" s="38"/>
@@ -6444,11 +6487,11 @@
       <x:c r="CI37" s="30"/>
     </x:row>
     <x:row r="38" spans="1:87" s="2" customFormat="1">
-      <x:c r="A38" s="103"/>
-      <x:c r="B38" s="97"/>
-      <x:c r="C38" s="100"/>
+      <x:c r="A38" s="104"/>
+      <x:c r="B38" s="98"/>
+      <x:c r="C38" s="101"/>
       <x:c r="D38" s="38" t="s">
-        <x:v>191</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="E38" s="38"/>
       <x:c r="F38" s="38"/>
@@ -6535,11 +6578,11 @@
       <x:c r="CI38" s="30"/>
     </x:row>
     <x:row r="39" spans="1:87" s="2" customFormat="1">
-      <x:c r="A39" s="102"/>
-      <x:c r="B39" s="101"/>
-      <x:c r="C39" s="95"/>
+      <x:c r="A39" s="103"/>
+      <x:c r="B39" s="102"/>
+      <x:c r="C39" s="96"/>
       <x:c r="D39" s="38" t="s">
-        <x:v>180</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="E39" s="38"/>
       <x:c r="F39" s="38"/>
@@ -6626,12 +6669,12 @@
       <x:c r="CI39" s="30"/>
     </x:row>
     <x:row r="40" spans="1:87">
-      <x:c r="A40" s="103"/>
-      <x:c r="B40" s="101" t="s">
-        <x:v>257</x:v>
+      <x:c r="A40" s="104"/>
+      <x:c r="B40" s="102" t="s">
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C40" s="38" t="s">
-        <x:v>244</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D40" s="38"/>
       <x:c r="E40" s="38"/>
@@ -6719,10 +6762,10 @@
       <x:c r="CI40" s="30"/>
     </x:row>
     <x:row r="41" spans="1:87">
-      <x:c r="A41" s="103"/>
-      <x:c r="B41" s="97"/>
+      <x:c r="A41" s="104"/>
+      <x:c r="B41" s="98"/>
       <x:c r="C41" s="38" t="s">
-        <x:v>189</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="D41" s="38"/>
       <x:c r="E41" s="38"/>
@@ -6810,10 +6853,10 @@
       <x:c r="CI41" s="30"/>
     </x:row>
     <x:row r="42" spans="1:87">
-      <x:c r="A42" s="103"/>
-      <x:c r="B42" s="97"/>
+      <x:c r="A42" s="104"/>
+      <x:c r="B42" s="98"/>
       <x:c r="C42" s="38" t="s">
-        <x:v>162</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="D42" s="38"/>
       <x:c r="E42" s="38"/>
@@ -6901,10 +6944,10 @@
       <x:c r="CI42" s="30"/>
     </x:row>
     <x:row r="43" spans="1:87">
-      <x:c r="A43" s="103"/>
-      <x:c r="B43" s="97"/>
+      <x:c r="A43" s="104"/>
+      <x:c r="B43" s="98"/>
       <x:c r="C43" s="38" t="s">
-        <x:v>181</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="D43" s="38"/>
       <x:c r="E43" s="38"/>
@@ -6992,10 +7035,10 @@
       <x:c r="CI43" s="30"/>
     </x:row>
     <x:row r="44" spans="1:87">
-      <x:c r="A44" s="103"/>
-      <x:c r="B44" s="97"/>
+      <x:c r="A44" s="104"/>
+      <x:c r="B44" s="98"/>
       <x:c r="C44" s="38" t="s">
-        <x:v>252</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D44" s="38"/>
       <x:c r="E44" s="38"/>
@@ -7083,10 +7126,10 @@
       <x:c r="CI44" s="30"/>
     </x:row>
     <x:row r="45" spans="1:87">
-      <x:c r="A45" s="103"/>
-      <x:c r="B45" s="98"/>
+      <x:c r="A45" s="104"/>
+      <x:c r="B45" s="99"/>
       <x:c r="C45" s="38" t="s">
-        <x:v>139</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="D45" s="38"/>
       <x:c r="E45" s="38"/>
@@ -7174,12 +7217,12 @@
       <x:c r="CI45" s="30"/>
     </x:row>
     <x:row r="46" spans="1:87">
-      <x:c r="A46" s="103"/>
-      <x:c r="B46" s="101" t="s">
-        <x:v>226</x:v>
+      <x:c r="A46" s="104"/>
+      <x:c r="B46" s="102" t="s">
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C46" s="38" t="s">
-        <x:v>243</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D46" s="38"/>
       <x:c r="E46" s="38"/>
@@ -7267,10 +7310,10 @@
       <x:c r="CI46" s="30"/>
     </x:row>
     <x:row r="47" spans="1:87">
-      <x:c r="A47" s="103"/>
-      <x:c r="B47" s="97"/>
+      <x:c r="A47" s="104"/>
+      <x:c r="B47" s="98"/>
       <x:c r="C47" s="38" t="s">
-        <x:v>260</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D47" s="38"/>
       <x:c r="E47" s="38"/>
@@ -7358,10 +7401,10 @@
       <x:c r="CI47" s="30"/>
     </x:row>
     <x:row r="48" spans="1:87">
-      <x:c r="A48" s="103"/>
-      <x:c r="B48" s="97"/>
+      <x:c r="A48" s="104"/>
+      <x:c r="B48" s="98"/>
       <x:c r="C48" s="38" t="s">
-        <x:v>142</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="D48" s="38"/>
       <x:c r="E48" s="38"/>
@@ -7449,10 +7492,10 @@
       <x:c r="CI48" s="30"/>
     </x:row>
     <x:row r="49" spans="1:87">
-      <x:c r="A49" s="103"/>
-      <x:c r="B49" s="98"/>
+      <x:c r="A49" s="104"/>
+      <x:c r="B49" s="99"/>
       <x:c r="C49" s="38" t="s">
-        <x:v>193</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="D49" s="38"/>
       <x:c r="E49" s="38"/>
@@ -7540,15 +7583,15 @@
       <x:c r="CI49" s="30"/>
     </x:row>
     <x:row r="50" spans="1:87">
-      <x:c r="A50" s="103"/>
-      <x:c r="B50" s="101" t="s">
-        <x:v>184</x:v>
-      </x:c>
-      <x:c r="C50" s="94" t="s">
-        <x:v>95</x:v>
+      <x:c r="A50" s="104"/>
+      <x:c r="B50" s="102" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="C50" s="95" t="s">
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D50" s="38" t="s">
-        <x:v>219</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E50" s="38"/>
       <x:c r="F50" s="38"/>
@@ -7635,11 +7678,11 @@
       <x:c r="CI50" s="30"/>
     </x:row>
     <x:row r="51" spans="1:87">
-      <x:c r="A51" s="103"/>
-      <x:c r="B51" s="97"/>
-      <x:c r="C51" s="95"/>
+      <x:c r="A51" s="104"/>
+      <x:c r="B51" s="98"/>
+      <x:c r="C51" s="96"/>
       <x:c r="D51" s="38" t="s">
-        <x:v>168</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="E51" s="38"/>
       <x:c r="F51" s="38"/>
@@ -7726,13 +7769,13 @@
       <x:c r="CI51" s="30"/>
     </x:row>
     <x:row r="52" spans="1:87">
-      <x:c r="A52" s="103"/>
-      <x:c r="B52" s="97"/>
-      <x:c r="C52" s="94" t="s">
-        <x:v>265</x:v>
+      <x:c r="A52" s="104"/>
+      <x:c r="B52" s="98"/>
+      <x:c r="C52" s="95" t="s">
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D52" s="38" t="s">
-        <x:v>281</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E52" s="38"/>
       <x:c r="F52" s="38"/>
@@ -7819,11 +7862,11 @@
       <x:c r="CI52" s="30"/>
     </x:row>
     <x:row r="53" spans="1:87">
-      <x:c r="A53" s="103"/>
-      <x:c r="B53" s="97"/>
-      <x:c r="C53" s="95"/>
+      <x:c r="A53" s="104"/>
+      <x:c r="B53" s="98"/>
+      <x:c r="C53" s="96"/>
       <x:c r="D53" s="38" t="s">
-        <x:v>275</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="E53" s="38"/>
       <x:c r="F53" s="38"/>
@@ -7910,13 +7953,13 @@
       <x:c r="CI53" s="30"/>
     </x:row>
     <x:row r="54" spans="1:87">
-      <x:c r="A54" s="103"/>
-      <x:c r="B54" s="97"/>
-      <x:c r="C54" s="94" t="s">
-        <x:v>270</x:v>
+      <x:c r="A54" s="104"/>
+      <x:c r="B54" s="98"/>
+      <x:c r="C54" s="95" t="s">
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D54" s="38" t="s">
-        <x:v>89</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E54" s="38"/>
       <x:c r="F54" s="38"/>
@@ -8003,11 +8046,11 @@
       <x:c r="CI54" s="30"/>
     </x:row>
     <x:row r="55" spans="1:87">
-      <x:c r="A55" s="103"/>
-      <x:c r="B55" s="97"/>
-      <x:c r="C55" s="100"/>
+      <x:c r="A55" s="104"/>
+      <x:c r="B55" s="98"/>
+      <x:c r="C55" s="101"/>
       <x:c r="D55" s="38" t="s">
-        <x:v>280</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E55" s="38"/>
       <x:c r="F55" s="38"/>
@@ -8094,11 +8137,11 @@
       <x:c r="CI55" s="30"/>
     </x:row>
     <x:row r="56" spans="1:87">
-      <x:c r="A56" s="103"/>
-      <x:c r="B56" s="97"/>
-      <x:c r="C56" s="95"/>
+      <x:c r="A56" s="104"/>
+      <x:c r="B56" s="98"/>
+      <x:c r="C56" s="96"/>
       <x:c r="D56" s="38" t="s">
-        <x:v>353</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="E56" s="38"/>
       <x:c r="F56" s="38"/>
@@ -8185,13 +8228,13 @@
       <x:c r="CI56" s="30"/>
     </x:row>
     <x:row r="57" spans="1:87">
-      <x:c r="A57" s="103"/>
-      <x:c r="B57" s="97"/>
-      <x:c r="C57" s="94" t="s">
-        <x:v>167</x:v>
+      <x:c r="A57" s="104"/>
+      <x:c r="B57" s="98"/>
+      <x:c r="C57" s="95" t="s">
+        <x:v>242</x:v>
       </x:c>
       <x:c r="D57" s="38" t="s">
-        <x:v>320</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="E57" s="38"/>
       <x:c r="F57" s="38"/>
@@ -8278,11 +8321,11 @@
       <x:c r="CI57" s="30"/>
     </x:row>
     <x:row r="58" spans="1:87">
-      <x:c r="A58" s="103"/>
-      <x:c r="B58" s="97"/>
-      <x:c r="C58" s="95"/>
+      <x:c r="A58" s="104"/>
+      <x:c r="B58" s="98"/>
+      <x:c r="C58" s="96"/>
       <x:c r="D58" s="38" t="s">
-        <x:v>87</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E58" s="38"/>
       <x:c r="F58" s="38"/>
@@ -8369,13 +8412,13 @@
       <x:c r="CI58" s="30"/>
     </x:row>
     <x:row r="59" spans="1:87">
-      <x:c r="A59" s="103"/>
-      <x:c r="B59" s="97"/>
-      <x:c r="C59" s="94" t="s">
-        <x:v>271</x:v>
+      <x:c r="A59" s="104"/>
+      <x:c r="B59" s="98"/>
+      <x:c r="C59" s="95" t="s">
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D59" s="38" t="s">
-        <x:v>323</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="E59" s="38"/>
       <x:c r="F59" s="38"/>
@@ -8462,11 +8505,11 @@
       <x:c r="CI59" s="30"/>
     </x:row>
     <x:row r="60" spans="1:87">
-      <x:c r="A60" s="103"/>
-      <x:c r="B60" s="97"/>
-      <x:c r="C60" s="95"/>
+      <x:c r="A60" s="104"/>
+      <x:c r="B60" s="98"/>
+      <x:c r="C60" s="96"/>
       <x:c r="D60" s="38" t="s">
-        <x:v>336</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="E60" s="38"/>
       <x:c r="F60" s="38"/>
@@ -8553,13 +8596,13 @@
       <x:c r="CI60" s="30"/>
     </x:row>
     <x:row r="61" spans="1:87">
-      <x:c r="A61" s="103"/>
-      <x:c r="B61" s="97"/>
-      <x:c r="C61" s="94" t="s">
-        <x:v>176</x:v>
+      <x:c r="A61" s="104"/>
+      <x:c r="B61" s="98"/>
+      <x:c r="C61" s="95" t="s">
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D61" s="38" t="s">
-        <x:v>251</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E61" s="38"/>
       <x:c r="F61" s="38"/>
@@ -8646,11 +8689,11 @@
       <x:c r="CI61" s="30"/>
     </x:row>
     <x:row r="62" spans="1:87">
-      <x:c r="A62" s="104"/>
-      <x:c r="B62" s="98"/>
-      <x:c r="C62" s="95"/>
+      <x:c r="A62" s="105"/>
+      <x:c r="B62" s="99"/>
+      <x:c r="C62" s="96"/>
       <x:c r="D62" s="38" t="s">
-        <x:v>141</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="E62" s="38"/>
       <x:c r="F62" s="38"/>
@@ -10692,288 +10735,288 @@
   <x:sheetData>
     <x:row r="1" spans="1:8" ht="17.149999999999999">
       <x:c r="A1" s="33" t="s">
-        <x:v>99</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B1" s="34" t="s">
-        <x:v>165</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="C1" s="35" t="s">
-        <x:v>147</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D1" s="35" t="s">
-        <x:v>205</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E1" s="35" t="s">
-        <x:v>138</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="F1" s="35" t="s">
-        <x:v>144</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="G1" s="35" t="s">
-        <x:v>255</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="H1" s="36" t="s">
-        <x:v>249</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8" ht="16.75" customHeight="1">
-      <x:c r="A2" s="102" t="s">
-        <x:v>195</x:v>
-      </x:c>
-      <x:c r="B2" s="96" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="C2" s="109" t="s">
-        <x:v>209</x:v>
-      </x:c>
-      <x:c r="D2" s="107" t="s">
-        <x:v>217</x:v>
+      <x:c r="A2" s="103" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="B2" s="97" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="C2" s="110" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="D2" s="108" t="s">
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E2" s="59" t="s">
-        <x:v>106</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="F2" s="59"/>
       <x:c r="G2" s="59"/>
       <x:c r="H2" s="59" t="s">
-        <x:v>349</x:v>
+        <x:v>344</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="103"/>
-      <x:c r="B3" s="97"/>
-      <x:c r="C3" s="110"/>
-      <x:c r="D3" s="108"/>
+      <x:c r="A3" s="104"/>
+      <x:c r="B3" s="98"/>
+      <x:c r="C3" s="111"/>
+      <x:c r="D3" s="109"/>
       <x:c r="E3" s="60" t="s">
-        <x:v>187</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="F3" s="60"/>
       <x:c r="G3" s="60"/>
       <x:c r="H3" s="60" t="s">
-        <x:v>133</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="A4" s="103"/>
-      <x:c r="B4" s="97"/>
-      <x:c r="C4" s="110"/>
-      <x:c r="D4" s="106"/>
+      <x:c r="A4" s="104"/>
+      <x:c r="B4" s="98"/>
+      <x:c r="C4" s="111"/>
+      <x:c r="D4" s="107"/>
       <x:c r="E4" s="60" t="s">
-        <x:v>154</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="F4" s="60"/>
       <x:c r="G4" s="60"/>
       <x:c r="H4" s="60" t="s">
-        <x:v>354</x:v>
+        <x:v>351</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="103"/>
-      <x:c r="B5" s="97"/>
-      <x:c r="C5" s="110"/>
-      <x:c r="D5" s="105" t="s">
-        <x:v>132</x:v>
+      <x:c r="A5" s="104"/>
+      <x:c r="B5" s="98"/>
+      <x:c r="C5" s="111"/>
+      <x:c r="D5" s="106" t="s">
+        <x:v>227</x:v>
       </x:c>
       <x:c r="E5" s="61" t="s">
-        <x:v>150</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="F5" s="60"/>
       <x:c r="G5" s="60"/>
       <x:c r="H5" s="60" t="s">
-        <x:v>304</x:v>
+        <x:v>301</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="A6" s="103"/>
-      <x:c r="B6" s="97"/>
-      <x:c r="C6" s="111"/>
-      <x:c r="D6" s="106"/>
+      <x:c r="A6" s="104"/>
+      <x:c r="B6" s="98"/>
+      <x:c r="C6" s="112"/>
+      <x:c r="D6" s="107"/>
       <x:c r="E6" s="61" t="s">
-        <x:v>239</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F6" s="60"/>
       <x:c r="G6" s="60"/>
       <x:c r="H6" s="60" t="s">
-        <x:v>119</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="103"/>
-      <x:c r="B7" s="97"/>
-      <x:c r="C7" s="113" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="D7" s="105" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="E7" s="105" t="s">
-        <x:v>217</x:v>
+      <x:c r="A7" s="104"/>
+      <x:c r="B7" s="98"/>
+      <x:c r="C7" s="114" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="D7" s="106" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="E7" s="106" t="s">
+        <x:v>208</x:v>
       </x:c>
       <x:c r="F7" s="60" t="s">
-        <x:v>223</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G7" s="60"/>
       <x:c r="H7" s="60"/>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="103"/>
-      <x:c r="B8" s="97"/>
-      <x:c r="C8" s="110"/>
-      <x:c r="D8" s="108"/>
-      <x:c r="E8" s="108"/>
+      <x:c r="A8" s="104"/>
+      <x:c r="B8" s="98"/>
+      <x:c r="C8" s="111"/>
+      <x:c r="D8" s="109"/>
+      <x:c r="E8" s="109"/>
       <x:c r="F8" s="60" t="s">
-        <x:v>274</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="G8" s="60"/>
       <x:c r="H8" s="60"/>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="103"/>
-      <x:c r="B9" s="97"/>
-      <x:c r="C9" s="110"/>
-      <x:c r="D9" s="108"/>
-      <x:c r="E9" s="108"/>
+      <x:c r="A9" s="104"/>
+      <x:c r="B9" s="98"/>
+      <x:c r="C9" s="111"/>
+      <x:c r="D9" s="109"/>
+      <x:c r="E9" s="109"/>
       <x:c r="F9" s="60" t="s">
-        <x:v>152</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="G9" s="60"/>
       <x:c r="H9" s="60"/>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="103"/>
-      <x:c r="B10" s="97"/>
-      <x:c r="C10" s="110"/>
-      <x:c r="D10" s="108"/>
-      <x:c r="E10" s="108"/>
+      <x:c r="A10" s="104"/>
+      <x:c r="B10" s="98"/>
+      <x:c r="C10" s="111"/>
+      <x:c r="D10" s="109"/>
+      <x:c r="E10" s="109"/>
       <x:c r="F10" s="60" t="s">
-        <x:v>263</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G10" s="60"/>
       <x:c r="H10" s="60"/>
     </x:row>
     <x:row r="11" spans="1:8" ht="16.75">
-      <x:c r="A11" s="103"/>
-      <x:c r="B11" s="114"/>
-      <x:c r="C11" s="115"/>
-      <x:c r="D11" s="112"/>
-      <x:c r="E11" s="112"/>
+      <x:c r="A11" s="104"/>
+      <x:c r="B11" s="115"/>
+      <x:c r="C11" s="116"/>
+      <x:c r="D11" s="113"/>
+      <x:c r="E11" s="113"/>
       <x:c r="F11" s="62" t="s">
-        <x:v>163</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="G11" s="62"/>
       <x:c r="H11" s="62"/>
     </x:row>
     <x:row r="12" spans="1:8">
-      <x:c r="A12" s="103"/>
-      <x:c r="B12" s="97" t="s">
-        <x:v>246</x:v>
-      </x:c>
-      <x:c r="C12" s="110" t="s">
-        <x:v>172</x:v>
+      <x:c r="A12" s="104"/>
+      <x:c r="B12" s="98" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C12" s="111" t="s">
+        <x:v>256</x:v>
       </x:c>
       <x:c r="D12" s="59" t="s">
-        <x:v>225</x:v>
-      </x:c>
-      <x:c r="E12" s="108" t="s">
-        <x:v>340</x:v>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E12" s="109" t="s">
+        <x:v>347</x:v>
       </x:c>
       <x:c r="F12" s="59"/>
       <x:c r="G12" s="59"/>
       <x:c r="H12" s="59"/>
     </x:row>
     <x:row r="13" spans="1:8">
-      <x:c r="A13" s="103"/>
-      <x:c r="B13" s="97"/>
-      <x:c r="C13" s="110"/>
+      <x:c r="A13" s="104"/>
+      <x:c r="B13" s="98"/>
+      <x:c r="C13" s="111"/>
       <x:c r="D13" s="61" t="s">
-        <x:v>201</x:v>
-      </x:c>
-      <x:c r="E13" s="108"/>
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="E13" s="109"/>
       <x:c r="F13" s="60"/>
       <x:c r="G13" s="60"/>
       <x:c r="H13" s="60"/>
     </x:row>
     <x:row r="14" spans="1:8">
-      <x:c r="A14" s="103"/>
-      <x:c r="B14" s="97"/>
-      <x:c r="C14" s="110"/>
+      <x:c r="A14" s="104"/>
+      <x:c r="B14" s="98"/>
+      <x:c r="C14" s="111"/>
       <x:c r="D14" s="61" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="E14" s="108"/>
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E14" s="109"/>
       <x:c r="F14" s="60"/>
       <x:c r="G14" s="60"/>
       <x:c r="H14" s="60"/>
     </x:row>
     <x:row r="15" spans="1:8">
-      <x:c r="A15" s="103"/>
-      <x:c r="B15" s="97"/>
-      <x:c r="C15" s="111"/>
+      <x:c r="A15" s="104"/>
+      <x:c r="B15" s="98"/>
+      <x:c r="C15" s="112"/>
       <x:c r="D15" s="61" t="s">
-        <x:v>180</x:v>
-      </x:c>
-      <x:c r="E15" s="106"/>
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="E15" s="107"/>
       <x:c r="F15" s="60"/>
       <x:c r="G15" s="60"/>
       <x:c r="H15" s="60"/>
     </x:row>
     <x:row r="16" spans="1:8">
-      <x:c r="A16" s="103"/>
-      <x:c r="B16" s="97"/>
-      <x:c r="C16" s="113" t="s">
-        <x:v>198</x:v>
+      <x:c r="A16" s="104"/>
+      <x:c r="B16" s="98"/>
+      <x:c r="C16" s="114" t="s">
+        <x:v>275</x:v>
       </x:c>
       <x:c r="D16" s="61" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="E16" s="105" t="s">
-        <x:v>95</x:v>
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="E16" s="106" t="s">
+        <x:v>172</x:v>
       </x:c>
       <x:c r="F16" s="60" t="s">
-        <x:v>219</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="G16" s="60"/>
-      <x:c r="H16" s="105" t="s">
-        <x:v>359</x:v>
+      <x:c r="H16" s="106" t="s">
+        <x:v>361</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
-      <x:c r="A17" s="103"/>
-      <x:c r="B17" s="97"/>
-      <x:c r="C17" s="111"/>
+      <x:c r="A17" s="104"/>
+      <x:c r="B17" s="98"/>
+      <x:c r="C17" s="112"/>
       <x:c r="D17" s="60" t="s">
-        <x:v>221</x:v>
-      </x:c>
-      <x:c r="E17" s="106"/>
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E17" s="107"/>
       <x:c r="F17" s="60" t="s">
-        <x:v>168</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="G17" s="60"/>
-      <x:c r="H17" s="106"/>
+      <x:c r="H17" s="107"/>
     </x:row>
     <x:row r="18" spans="1:8" ht="16.75">
-      <x:c r="A18" s="103"/>
-      <x:c r="B18" s="114"/>
+      <x:c r="A18" s="104"/>
+      <x:c r="B18" s="115"/>
       <x:c r="C18" s="63" t="s">
-        <x:v>159</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="D18" s="62"/>
       <x:c r="E18" s="62"/>
       <x:c r="F18" s="62"/>
       <x:c r="G18" s="62"/>
       <x:c r="H18" s="62" t="s">
-        <x:v>328</x:v>
+        <x:v>355</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
-      <x:c r="A19" s="103"/>
-      <x:c r="B19" s="97" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="C19" s="110" t="s">
-        <x:v>257</x:v>
+      <x:c r="A19" s="104"/>
+      <x:c r="B19" s="98" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="C19" s="111" t="s">
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D19" s="59" t="s">
-        <x:v>244</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E19" s="59"/>
       <x:c r="F19" s="59"/>
@@ -10981,11 +11024,11 @@
       <x:c r="H19" s="59"/>
     </x:row>
     <x:row r="20" spans="1:8">
-      <x:c r="A20" s="103"/>
-      <x:c r="B20" s="97"/>
-      <x:c r="C20" s="110"/>
+      <x:c r="A20" s="104"/>
+      <x:c r="B20" s="98"/>
+      <x:c r="C20" s="111"/>
       <x:c r="D20" s="60" t="s">
-        <x:v>224</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E20" s="60"/>
       <x:c r="F20" s="60"/>
@@ -10993,11 +11036,11 @@
       <x:c r="H20" s="60"/>
     </x:row>
     <x:row r="21" spans="1:8">
-      <x:c r="A21" s="103"/>
-      <x:c r="B21" s="97"/>
-      <x:c r="C21" s="110"/>
+      <x:c r="A21" s="104"/>
+      <x:c r="B21" s="98"/>
+      <x:c r="C21" s="111"/>
       <x:c r="D21" s="60" t="s">
-        <x:v>162</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="E21" s="60"/>
       <x:c r="F21" s="60"/>
@@ -11005,11 +11048,11 @@
       <x:c r="H21" s="60"/>
     </x:row>
     <x:row r="22" spans="1:8">
-      <x:c r="A22" s="103"/>
-      <x:c r="B22" s="97"/>
-      <x:c r="C22" s="110"/>
+      <x:c r="A22" s="104"/>
+      <x:c r="B22" s="98"/>
+      <x:c r="C22" s="111"/>
       <x:c r="D22" s="60" t="s">
-        <x:v>252</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E22" s="60"/>
       <x:c r="F22" s="60"/>
@@ -11017,11 +11060,11 @@
       <x:c r="H22" s="60"/>
     </x:row>
     <x:row r="23" spans="1:8">
-      <x:c r="A23" s="103"/>
-      <x:c r="B23" s="97"/>
-      <x:c r="C23" s="111"/>
+      <x:c r="A23" s="104"/>
+      <x:c r="B23" s="98"/>
+      <x:c r="C23" s="112"/>
       <x:c r="D23" s="60" t="s">
-        <x:v>139</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E23" s="60"/>
       <x:c r="F23" s="60"/>
@@ -11029,90 +11072,90 @@
       <x:c r="H23" s="60"/>
     </x:row>
     <x:row r="24" spans="1:8">
-      <x:c r="A24" s="102"/>
-      <x:c r="B24" s="101"/>
-      <x:c r="C24" s="113" t="s">
-        <x:v>181</x:v>
-      </x:c>
-      <x:c r="D24" s="105" t="s">
-        <x:v>228</x:v>
+      <x:c r="A24" s="103"/>
+      <x:c r="B24" s="102"/>
+      <x:c r="C24" s="114" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="D24" s="106" t="s">
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E24" s="60" t="s">
-        <x:v>258</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F24" s="60"/>
       <x:c r="G24" s="60"/>
       <x:c r="H24" s="60"/>
     </x:row>
     <x:row r="25" spans="1:8">
-      <x:c r="A25" s="103"/>
-      <x:c r="B25" s="97"/>
-      <x:c r="C25" s="110"/>
-      <x:c r="D25" s="106"/>
+      <x:c r="A25" s="104"/>
+      <x:c r="B25" s="98"/>
+      <x:c r="C25" s="111"/>
+      <x:c r="D25" s="107"/>
       <x:c r="E25" s="60" t="s">
-        <x:v>236</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F25" s="60"/>
       <x:c r="G25" s="60"/>
       <x:c r="H25" s="60"/>
     </x:row>
     <x:row r="26" spans="1:8">
-      <x:c r="A26" s="102"/>
-      <x:c r="B26" s="101"/>
-      <x:c r="C26" s="110"/>
-      <x:c r="D26" s="105" t="s">
-        <x:v>247</x:v>
+      <x:c r="A26" s="103"/>
+      <x:c r="B26" s="102"/>
+      <x:c r="C26" s="111"/>
+      <x:c r="D26" s="106" t="s">
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E26" s="60" t="s">
-        <x:v>253</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F26" s="60"/>
       <x:c r="G26" s="60"/>
       <x:c r="H26" s="60"/>
     </x:row>
     <x:row r="27" spans="1:8">
-      <x:c r="A27" s="103"/>
-      <x:c r="B27" s="97"/>
-      <x:c r="C27" s="110"/>
-      <x:c r="D27" s="108"/>
+      <x:c r="A27" s="104"/>
+      <x:c r="B27" s="98"/>
+      <x:c r="C27" s="111"/>
+      <x:c r="D27" s="109"/>
       <x:c r="E27" s="60" t="s">
-        <x:v>230</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F27" s="60"/>
       <x:c r="G27" s="60"/>
       <x:c r="H27" s="60"/>
     </x:row>
     <x:row r="28" spans="1:8">
-      <x:c r="A28" s="103"/>
-      <x:c r="B28" s="97"/>
-      <x:c r="C28" s="110"/>
-      <x:c r="D28" s="108"/>
+      <x:c r="A28" s="104"/>
+      <x:c r="B28" s="98"/>
+      <x:c r="C28" s="111"/>
+      <x:c r="D28" s="109"/>
       <x:c r="E28" s="60" t="s">
-        <x:v>261</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F28" s="60"/>
       <x:c r="G28" s="60"/>
       <x:c r="H28" s="60"/>
     </x:row>
     <x:row r="29" spans="1:8" ht="16.75">
-      <x:c r="A29" s="103"/>
-      <x:c r="B29" s="114"/>
-      <x:c r="C29" s="115"/>
-      <x:c r="D29" s="112"/>
+      <x:c r="A29" s="104"/>
+      <x:c r="B29" s="115"/>
+      <x:c r="C29" s="116"/>
+      <x:c r="D29" s="113"/>
       <x:c r="E29" s="62" t="s">
-        <x:v>250</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F29" s="62"/>
       <x:c r="G29" s="62"/>
       <x:c r="H29" s="62"/>
     </x:row>
     <x:row r="30" spans="1:8">
-      <x:c r="A30" s="103"/>
-      <x:c r="B30" s="97" t="s">
-        <x:v>226</x:v>
+      <x:c r="A30" s="104"/>
+      <x:c r="B30" s="98" t="s">
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C30" s="64" t="s">
-        <x:v>243</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D30" s="59"/>
       <x:c r="E30" s="59"/>
@@ -11121,10 +11164,10 @@
       <x:c r="H30" s="59"/>
     </x:row>
     <x:row r="31" spans="1:8">
-      <x:c r="A31" s="103"/>
-      <x:c r="B31" s="97"/>
+      <x:c r="A31" s="104"/>
+      <x:c r="B31" s="98"/>
       <x:c r="C31" s="58" t="s">
-        <x:v>260</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D31" s="60"/>
       <x:c r="E31" s="60"/>
@@ -11133,10 +11176,10 @@
       <x:c r="H31" s="60"/>
     </x:row>
     <x:row r="32" spans="1:8">
-      <x:c r="A32" s="103"/>
-      <x:c r="B32" s="97"/>
+      <x:c r="A32" s="104"/>
+      <x:c r="B32" s="98"/>
       <x:c r="C32" s="58" t="s">
-        <x:v>142</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="D32" s="60"/>
       <x:c r="E32" s="60"/>
@@ -11145,10 +11188,10 @@
       <x:c r="H32" s="60"/>
     </x:row>
     <x:row r="33" spans="1:8" ht="16.75">
-      <x:c r="A33" s="103"/>
-      <x:c r="B33" s="114"/>
+      <x:c r="A33" s="104"/>
+      <x:c r="B33" s="115"/>
       <x:c r="C33" s="65" t="s">
-        <x:v>193</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="D33" s="62"/>
       <x:c r="E33" s="62"/>
@@ -11157,12 +11200,12 @@
       <x:c r="H33" s="62"/>
     </x:row>
     <x:row r="34" spans="1:8" ht="16.75" customHeight="1">
-      <x:c r="A34" s="103"/>
-      <x:c r="B34" s="96" t="s">
-        <x:v>196</x:v>
+      <x:c r="A34" s="104"/>
+      <x:c r="B34" s="97" t="s">
+        <x:v>280</x:v>
       </x:c>
       <x:c r="C34" s="64" t="s">
-        <x:v>100</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D34" s="59"/>
       <x:c r="E34" s="59"/>
@@ -11171,13 +11214,13 @@
       <x:c r="H34" s="59"/>
     </x:row>
     <x:row r="35" spans="1:8">
-      <x:c r="A35" s="103"/>
-      <x:c r="B35" s="97"/>
-      <x:c r="C35" s="94" t="s">
-        <x:v>176</x:v>
+      <x:c r="A35" s="104"/>
+      <x:c r="B35" s="98"/>
+      <x:c r="C35" s="95" t="s">
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D35" s="60" t="s">
-        <x:v>251</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E35" s="60"/>
       <x:c r="F35" s="60"/>
@@ -11185,11 +11228,11 @@
       <x:c r="H35" s="60"/>
     </x:row>
     <x:row r="36" spans="1:8">
-      <x:c r="A36" s="103"/>
-      <x:c r="B36" s="97"/>
-      <x:c r="C36" s="100"/>
+      <x:c r="A36" s="104"/>
+      <x:c r="B36" s="98"/>
+      <x:c r="C36" s="101"/>
       <x:c r="D36" s="60" t="s">
-        <x:v>141</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="E36" s="60"/>
       <x:c r="F36" s="60"/>
@@ -11197,11 +11240,11 @@
       <x:c r="H36" s="60"/>
     </x:row>
     <x:row r="37" spans="1:8">
-      <x:c r="A37" s="103"/>
-      <x:c r="B37" s="97"/>
-      <x:c r="C37" s="100"/>
+      <x:c r="A37" s="104"/>
+      <x:c r="B37" s="98"/>
+      <x:c r="C37" s="101"/>
       <x:c r="D37" s="60" t="s">
-        <x:v>102</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="E37" s="60"/>
       <x:c r="F37" s="60"/>
@@ -11209,11 +11252,11 @@
       <x:c r="H37" s="60"/>
     </x:row>
     <x:row r="38" spans="1:8">
-      <x:c r="A38" s="103"/>
-      <x:c r="B38" s="97"/>
-      <x:c r="C38" s="100"/>
+      <x:c r="A38" s="104"/>
+      <x:c r="B38" s="98"/>
+      <x:c r="C38" s="101"/>
       <x:c r="D38" s="59" t="s">
-        <x:v>213</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="E38" s="59"/>
       <x:c r="F38" s="59"/>
@@ -11221,11 +11264,11 @@
       <x:c r="H38" s="59"/>
     </x:row>
     <x:row r="39" spans="1:8">
-      <x:c r="A39" s="103"/>
-      <x:c r="B39" s="97"/>
-      <x:c r="C39" s="100"/>
+      <x:c r="A39" s="104"/>
+      <x:c r="B39" s="98"/>
+      <x:c r="C39" s="101"/>
       <x:c r="D39" s="60" t="s">
-        <x:v>155</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="E39" s="60"/>
       <x:c r="F39" s="60"/>
@@ -11233,11 +11276,11 @@
       <x:c r="H39" s="60"/>
     </x:row>
     <x:row r="40" spans="1:8" ht="16.75">
-      <x:c r="A40" s="116"/>
-      <x:c r="B40" s="114"/>
-      <x:c r="C40" s="117"/>
+      <x:c r="A40" s="117"/>
+      <x:c r="B40" s="115"/>
+      <x:c r="C40" s="118"/>
       <x:c r="D40" s="48" t="s">
-        <x:v>215</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E40" s="48"/>
       <x:c r="F40" s="48"/>
@@ -11287,7 +11330,7 @@
     <x:row r="45" spans="1:8">
       <x:c r="A45" s="45"/>
       <x:c r="B45" s="45"/>
-      <x:c r="C45" s="89"/>
+      <x:c r="C45" s="94"/>
       <x:c r="D45" s="57"/>
       <x:c r="E45" s="47"/>
       <x:c r="F45" s="47"/>
@@ -11297,7 +11340,7 @@
     <x:row r="46" spans="1:8">
       <x:c r="A46" s="45"/>
       <x:c r="B46" s="45"/>
-      <x:c r="C46" s="89"/>
+      <x:c r="C46" s="94"/>
       <x:c r="D46" s="57"/>
       <x:c r="E46" s="47"/>
       <x:c r="F46" s="47"/>
@@ -11307,7 +11350,7 @@
     <x:row r="47" spans="1:8">
       <x:c r="A47" s="45"/>
       <x:c r="B47" s="45"/>
-      <x:c r="C47" s="89"/>
+      <x:c r="C47" s="94"/>
       <x:c r="D47" s="57"/>
       <x:c r="E47" s="47"/>
       <x:c r="F47" s="47"/>
@@ -11317,7 +11360,7 @@
     <x:row r="48" spans="1:8">
       <x:c r="A48" s="45"/>
       <x:c r="B48" s="45"/>
-      <x:c r="C48" s="89"/>
+      <x:c r="C48" s="94"/>
       <x:c r="D48" s="57"/>
       <x:c r="E48" s="47"/>
       <x:c r="F48" s="47"/>
@@ -11327,7 +11370,7 @@
     <x:row r="49" spans="1:8">
       <x:c r="A49" s="45"/>
       <x:c r="B49" s="45"/>
-      <x:c r="C49" s="89"/>
+      <x:c r="C49" s="94"/>
       <x:c r="D49" s="57"/>
       <x:c r="E49" s="47"/>
       <x:c r="F49" s="47"/>
@@ -11337,7 +11380,7 @@
     <x:row r="50" spans="1:8">
       <x:c r="A50" s="45"/>
       <x:c r="B50" s="45"/>
-      <x:c r="C50" s="89"/>
+      <x:c r="C50" s="94"/>
       <x:c r="D50" s="57"/>
       <x:c r="E50" s="47"/>
       <x:c r="F50" s="47"/>
@@ -11347,7 +11390,7 @@
     <x:row r="51" spans="1:8">
       <x:c r="A51" s="45"/>
       <x:c r="B51" s="45"/>
-      <x:c r="C51" s="89"/>
+      <x:c r="C51" s="94"/>
       <x:c r="D51" s="57"/>
       <x:c r="E51" s="47"/>
       <x:c r="F51" s="47"/>
@@ -11357,7 +11400,7 @@
     <x:row r="52" spans="1:8">
       <x:c r="A52" s="45"/>
       <x:c r="B52" s="45"/>
-      <x:c r="C52" s="89"/>
+      <x:c r="C52" s="94"/>
       <x:c r="D52" s="57"/>
       <x:c r="E52" s="47"/>
       <x:c r="F52" s="47"/>
@@ -11367,7 +11410,7 @@
     <x:row r="53" spans="1:8">
       <x:c r="A53" s="45"/>
       <x:c r="B53" s="45"/>
-      <x:c r="C53" s="89"/>
+      <x:c r="C53" s="94"/>
       <x:c r="D53" s="57"/>
       <x:c r="E53" s="47"/>
       <x:c r="F53" s="47"/>
@@ -11377,7 +11420,7 @@
     <x:row r="54" spans="1:8">
       <x:c r="A54" s="45"/>
       <x:c r="B54" s="45"/>
-      <x:c r="C54" s="89"/>
+      <x:c r="C54" s="94"/>
       <x:c r="D54" s="57"/>
       <x:c r="E54" s="47"/>
       <x:c r="F54" s="47"/>
@@ -11387,7 +11430,7 @@
     <x:row r="55" spans="1:8">
       <x:c r="A55" s="45"/>
       <x:c r="B55" s="45"/>
-      <x:c r="C55" s="89"/>
+      <x:c r="C55" s="94"/>
       <x:c r="D55" s="57"/>
       <x:c r="E55" s="47"/>
       <x:c r="F55" s="47"/>
@@ -11397,7 +11440,7 @@
     <x:row r="56" spans="1:8">
       <x:c r="A56" s="45"/>
       <x:c r="B56" s="45"/>
-      <x:c r="C56" s="89"/>
+      <x:c r="C56" s="94"/>
       <x:c r="D56" s="57"/>
       <x:c r="E56" s="47"/>
       <x:c r="F56" s="47"/>
@@ -11407,7 +11450,7 @@
     <x:row r="57" spans="1:8">
       <x:c r="A57" s="45"/>
       <x:c r="B57" s="45"/>
-      <x:c r="C57" s="89"/>
+      <x:c r="C57" s="94"/>
       <x:c r="D57" s="57"/>
       <x:c r="E57" s="47"/>
       <x:c r="F57" s="47"/>
@@ -11531,388 +11574,388 @@
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="49"/>
       <x:c r="B2" s="37" t="s">
-        <x:v>240</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C2" s="37" t="s">
-        <x:v>278</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D2" s="37" t="s">
-        <x:v>171</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="E2" s="37" t="s">
-        <x:v>170</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="F2" s="37" t="s">
-        <x:v>249</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6" ht="16.75">
       <x:c r="A3" s="49"/>
-      <x:c r="B3" s="96" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="C3" s="99" t="s">
-        <x:v>178</x:v>
-      </x:c>
-      <x:c r="D3" s="99" t="s">
-        <x:v>211</x:v>
+      <x:c r="B3" s="97" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="C3" s="100" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="D3" s="100" t="s">
+        <x:v>214</x:v>
       </x:c>
       <x:c r="E3" s="50" t="s">
-        <x:v>60</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F3" s="66"/>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="49"/>
-      <x:c r="B4" s="97"/>
-      <x:c r="C4" s="100"/>
-      <x:c r="D4" s="100"/>
+      <x:c r="B4" s="98"/>
+      <x:c r="C4" s="101"/>
+      <x:c r="D4" s="101"/>
       <x:c r="E4" s="51" t="s">
-        <x:v>363</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="F4" s="67"/>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="49"/>
-      <x:c r="B5" s="97"/>
-      <x:c r="C5" s="100"/>
-      <x:c r="D5" s="100"/>
+      <x:c r="B5" s="98"/>
+      <x:c r="C5" s="101"/>
+      <x:c r="D5" s="101"/>
       <x:c r="E5" s="51" t="s">
-        <x:v>41</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F5" s="67"/>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="49"/>
-      <x:c r="B6" s="97"/>
-      <x:c r="C6" s="100"/>
-      <x:c r="D6" s="100"/>
+      <x:c r="B6" s="98"/>
+      <x:c r="C6" s="101"/>
+      <x:c r="D6" s="101"/>
       <x:c r="E6" s="51" t="s">
-        <x:v>5</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F6" s="67"/>
     </x:row>
     <x:row r="7" spans="1:6" ht="32.75">
       <x:c r="A7" s="49"/>
-      <x:c r="B7" s="97"/>
-      <x:c r="C7" s="100"/>
-      <x:c r="D7" s="95"/>
+      <x:c r="B7" s="98"/>
+      <x:c r="C7" s="101"/>
+      <x:c r="D7" s="96"/>
       <x:c r="E7" s="52" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F7" s="67"/>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="49"/>
-      <x:c r="B8" s="97"/>
-      <x:c r="C8" s="100"/>
-      <x:c r="D8" s="94" t="s">
-        <x:v>231</x:v>
+      <x:c r="B8" s="98"/>
+      <x:c r="C8" s="101"/>
+      <x:c r="D8" s="95" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E8" s="53" t="s">
-        <x:v>64</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F8" s="67"/>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="49"/>
-      <x:c r="B9" s="97"/>
-      <x:c r="C9" s="100"/>
-      <x:c r="D9" s="100"/>
+      <x:c r="B9" s="98"/>
+      <x:c r="C9" s="101"/>
+      <x:c r="D9" s="101"/>
       <x:c r="E9" s="51" t="s">
-        <x:v>291</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="F9" s="67"/>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="49"/>
-      <x:c r="B10" s="97"/>
-      <x:c r="C10" s="100"/>
-      <x:c r="D10" s="95"/>
+      <x:c r="B10" s="98"/>
+      <x:c r="C10" s="101"/>
+      <x:c r="D10" s="96"/>
       <x:c r="E10" s="54" t="s">
-        <x:v>49</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F10" s="67"/>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="49"/>
-      <x:c r="B11" s="97"/>
-      <x:c r="C11" s="100"/>
-      <x:c r="D11" s="94" t="s">
-        <x:v>232</x:v>
+      <x:c r="B11" s="98"/>
+      <x:c r="C11" s="101"/>
+      <x:c r="D11" s="95" t="s">
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E11" s="53" t="s">
-        <x:v>29</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F11" s="67"/>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="49"/>
-      <x:c r="B12" s="97"/>
-      <x:c r="C12" s="95"/>
-      <x:c r="D12" s="95"/>
+      <x:c r="B12" s="98"/>
+      <x:c r="C12" s="96"/>
+      <x:c r="D12" s="96"/>
       <x:c r="E12" s="54" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F12" s="67"/>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="49"/>
-      <x:c r="B13" s="97"/>
-      <x:c r="C13" s="94" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="D13" s="94" t="s">
-        <x:v>257</x:v>
+      <x:c r="B13" s="98"/>
+      <x:c r="C13" s="95" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="D13" s="95" t="s">
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E13" s="53" t="s">
-        <x:v>305</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="F13" s="67"/>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="49"/>
-      <x:c r="B14" s="97"/>
-      <x:c r="C14" s="100"/>
-      <x:c r="D14" s="100"/>
+      <x:c r="B14" s="98"/>
+      <x:c r="C14" s="101"/>
+      <x:c r="D14" s="101"/>
       <x:c r="E14" s="51" t="s">
-        <x:v>62</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F14" s="67"/>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="49"/>
-      <x:c r="B15" s="97"/>
-      <x:c r="C15" s="100"/>
-      <x:c r="D15" s="100"/>
+      <x:c r="B15" s="98"/>
+      <x:c r="C15" s="101"/>
+      <x:c r="D15" s="101"/>
       <x:c r="E15" s="51" t="s">
-        <x:v>295</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="F15" s="67"/>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="49"/>
-      <x:c r="B16" s="97"/>
-      <x:c r="C16" s="100"/>
-      <x:c r="D16" s="95"/>
+      <x:c r="B16" s="98"/>
+      <x:c r="C16" s="101"/>
+      <x:c r="D16" s="96"/>
       <x:c r="E16" s="54" t="s">
-        <x:v>36</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F16" s="67"/>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="49"/>
-      <x:c r="B17" s="97"/>
-      <x:c r="C17" s="100"/>
-      <x:c r="D17" s="94" t="s">
-        <x:v>238</x:v>
+      <x:c r="B17" s="98"/>
+      <x:c r="C17" s="101"/>
+      <x:c r="D17" s="95" t="s">
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="53" t="s">
-        <x:v>290</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="F17" s="67"/>
     </x:row>
     <x:row r="18" spans="1:6" ht="32.75">
       <x:c r="A18" s="49"/>
-      <x:c r="B18" s="97"/>
-      <x:c r="C18" s="95"/>
-      <x:c r="D18" s="95"/>
+      <x:c r="B18" s="98"/>
+      <x:c r="C18" s="96"/>
+      <x:c r="D18" s="96"/>
       <x:c r="E18" s="52" t="s">
-        <x:v>68</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F18" s="67"/>
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="49"/>
-      <x:c r="B19" s="97"/>
-      <x:c r="C19" s="94" t="s">
-        <x:v>222</x:v>
-      </x:c>
-      <x:c r="D19" s="94" t="s">
-        <x:v>112</x:v>
+      <x:c r="B19" s="98"/>
+      <x:c r="C19" s="95" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D19" s="95" t="s">
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E19" s="53" t="s">
-        <x:v>307</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="F19" s="67"/>
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="49"/>
-      <x:c r="B20" s="97"/>
-      <x:c r="C20" s="100"/>
-      <x:c r="D20" s="95"/>
+      <x:c r="B20" s="98"/>
+      <x:c r="C20" s="101"/>
+      <x:c r="D20" s="96"/>
       <x:c r="E20" s="54" t="s">
-        <x:v>6</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F20" s="67"/>
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="49"/>
-      <x:c r="B21" s="97"/>
-      <x:c r="C21" s="100"/>
-      <x:c r="D21" s="94" t="s">
-        <x:v>273</x:v>
+      <x:c r="B21" s="98"/>
+      <x:c r="C21" s="101"/>
+      <x:c r="D21" s="95" t="s">
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E21" s="53" t="s">
-        <x:v>355</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="F21" s="67"/>
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="49"/>
-      <x:c r="B22" s="97"/>
-      <x:c r="C22" s="100"/>
-      <x:c r="D22" s="95"/>
+      <x:c r="B22" s="98"/>
+      <x:c r="C22" s="101"/>
+      <x:c r="D22" s="96"/>
       <x:c r="E22" s="54" t="s">
-        <x:v>25</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F22" s="67"/>
     </x:row>
     <x:row r="23" spans="1:6">
       <x:c r="A23" s="49"/>
-      <x:c r="B23" s="97"/>
-      <x:c r="C23" s="100"/>
+      <x:c r="B23" s="98"/>
+      <x:c r="C23" s="101"/>
       <x:c r="D23" s="38" t="s">
-        <x:v>221</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E23" s="55" t="s">
-        <x:v>33</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F23" s="67"/>
     </x:row>
     <x:row r="24" spans="1:6">
       <x:c r="A24" s="49"/>
-      <x:c r="B24" s="97"/>
-      <x:c r="C24" s="100"/>
-      <x:c r="D24" s="94" t="s">
-        <x:v>83</x:v>
+      <x:c r="B24" s="98"/>
+      <x:c r="C24" s="101"/>
+      <x:c r="D24" s="95" t="s">
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E24" s="53" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F24" s="67"/>
     </x:row>
     <x:row r="25" spans="1:6">
       <x:c r="A25" s="49"/>
-      <x:c r="B25" s="97"/>
-      <x:c r="C25" s="100"/>
-      <x:c r="D25" s="100"/>
+      <x:c r="B25" s="98"/>
+      <x:c r="C25" s="101"/>
+      <x:c r="D25" s="101"/>
       <x:c r="E25" s="51" t="s">
-        <x:v>28</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F25" s="67"/>
     </x:row>
     <x:row r="26" spans="1:6">
       <x:c r="A26" s="49"/>
-      <x:c r="B26" s="97"/>
-      <x:c r="C26" s="100"/>
-      <x:c r="D26" s="100"/>
+      <x:c r="B26" s="98"/>
+      <x:c r="C26" s="101"/>
+      <x:c r="D26" s="101"/>
       <x:c r="E26" s="51" t="s">
-        <x:v>37</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F26" s="67"/>
     </x:row>
     <x:row r="27" spans="1:6" ht="16.75">
       <x:c r="A27" s="49"/>
-      <x:c r="B27" s="114"/>
-      <x:c r="C27" s="117"/>
-      <x:c r="D27" s="117"/>
+      <x:c r="B27" s="115"/>
+      <x:c r="C27" s="118"/>
+      <x:c r="D27" s="118"/>
       <x:c r="E27" s="56" t="s">
-        <x:v>293</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="F27" s="68"/>
     </x:row>
     <x:row r="28" spans="1:6" ht="16.75">
       <x:c r="A28" s="49"/>
-      <x:c r="B28" s="96" t="s">
-        <x:v>164</x:v>
+      <x:c r="B28" s="97" t="s">
+        <x:v>258</x:v>
       </x:c>
       <x:c r="C28" s="69" t="s">
-        <x:v>145</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D28" s="69" t="s">
-        <x:v>227</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E28" s="70" t="s">
-        <x:v>292</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="F28" s="66"/>
     </x:row>
     <x:row r="29" spans="1:6">
       <x:c r="A29" s="49"/>
-      <x:c r="B29" s="97"/>
-      <x:c r="C29" s="94" t="s">
-        <x:v>188</x:v>
+      <x:c r="B29" s="98"/>
+      <x:c r="C29" s="95" t="s">
+        <x:v>285</x:v>
       </x:c>
       <x:c r="D29" s="38" t="s">
-        <x:v>245</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E29" s="55" t="s">
-        <x:v>22</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F29" s="67"/>
     </x:row>
     <x:row r="30" spans="1:6">
       <x:c r="A30" s="49"/>
-      <x:c r="B30" s="97"/>
-      <x:c r="C30" s="100"/>
-      <x:c r="D30" s="94" t="s">
-        <x:v>229</x:v>
+      <x:c r="B30" s="98"/>
+      <x:c r="C30" s="101"/>
+      <x:c r="D30" s="95" t="s">
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E30" s="53" t="s">
-        <x:v>317</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="F30" s="67"/>
     </x:row>
     <x:row r="31" spans="1:6">
       <x:c r="A31" s="49"/>
-      <x:c r="B31" s="97"/>
-      <x:c r="C31" s="100"/>
-      <x:c r="D31" s="100"/>
+      <x:c r="B31" s="98"/>
+      <x:c r="C31" s="101"/>
+      <x:c r="D31" s="101"/>
       <x:c r="E31" s="51" t="s">
-        <x:v>31</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F31" s="67"/>
     </x:row>
     <x:row r="32" spans="1:6">
       <x:c r="A32" s="49"/>
-      <x:c r="B32" s="97"/>
-      <x:c r="C32" s="100"/>
-      <x:c r="D32" s="100"/>
+      <x:c r="B32" s="98"/>
+      <x:c r="C32" s="101"/>
+      <x:c r="D32" s="101"/>
       <x:c r="E32" s="51" t="s">
-        <x:v>61</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F32" s="67"/>
     </x:row>
     <x:row r="33" spans="1:6" ht="16.75">
       <x:c r="A33" s="49"/>
-      <x:c r="B33" s="114"/>
-      <x:c r="C33" s="117"/>
-      <x:c r="D33" s="117"/>
+      <x:c r="B33" s="115"/>
+      <x:c r="C33" s="118"/>
+      <x:c r="D33" s="118"/>
       <x:c r="E33" s="56" t="s">
-        <x:v>314</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="F33" s="68"/>
     </x:row>
     <x:row r="34" spans="1:6">
       <x:c r="A34" s="49"/>
-      <x:c r="B34" s="97" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="C34" s="100"/>
-      <x:c r="D34" s="100"/>
+      <x:c r="B34" s="98" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="C34" s="101"/>
+      <x:c r="D34" s="101"/>
       <x:c r="E34" s="51" t="s">
-        <x:v>11</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F34" s="67"/>
     </x:row>
     <x:row r="35" spans="1:6" ht="16.75">
       <x:c r="A35" s="49"/>
-      <x:c r="B35" s="114"/>
-      <x:c r="C35" s="117"/>
-      <x:c r="D35" s="117"/>
+      <x:c r="B35" s="115"/>
+      <x:c r="C35" s="118"/>
+      <x:c r="D35" s="118"/>
       <x:c r="E35" s="56" t="s">
-        <x:v>306</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="F35" s="68"/>
     </x:row>

--- a/2021_Summer/jp.hong/Datebook_jph.xlsx
+++ b/2021_Summer/jp.hong/Datebook_jph.xlsx
@@ -17,13 +17,37 @@
     <x:sheet name="Menu_Tree_MC" sheetId="3" r:id="rId6"/>
     <x:sheet name="Menu_Tree_Ours" sheetId="4" r:id="rId7"/>
     <x:sheet name="Def_Func" sheetId="5" r:id="rId8"/>
+    <x:sheet name="Menu_Tree_Forensic" sheetId="6" r:id="rId9"/>
   </x:sheets>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="371">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="384">
+  <x:si>
+    <x:t>excel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Forensic</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 레지스트리 접근 및 정보 추출 코드 정리
+2. 요구사항 보완</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RecentDocs - 최근 실행한 문서, 그림, 동영상 등의 파일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성 (미완)
+2. 스피너 및 캘린더 뷰 다이어리 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 필요 자료 추가 조사
+2. 한계점 및 필요기술 추가
+ - 차량 블루투스와 어플 연결 어떻게?
+ - 연결이 된다면 원하는 정보만 어떻게 가져 올건지?</x:t>
+  </x:si>
   <x:si>
     <x:t>1. 요구사항 분석 (실현성 확인)
 2. 데이터 흐름도 수정
@@ -37,22 +61,30 @@
     <x:t>정비 예약을 하는 과정에서 사용자가 선택한 지점과 선택된 지점의 정보가 일치해야 한다.</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 화면 시퀀스 작성 (설명, 커뮤니티, 알림, 설정화면 추가)
-2. 추가 자료 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판의 글을 삭제하거나 올리기 위한 '글쓰기'버튼과 '글 삭제' 버튼이 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알맞은 ID값과 패스워드 값이 입력 될 경우 그에 맞는 회원 정보가 로그인 되어야 한다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>1. 아이디어 도출
  - 디스크 바이너리 데이터 분석 툴
  - 헤더와 푸터를 이용한 카빙 툴</x:t>
   </x:si>
   <x:si>
     <x:t>회원 가입시 아이디, 비밀번호, 이름, 전화번호, 생년월일, 차종의 정보를 받아야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알맞은 ID값과 패스워드 값이 입력 될 경우 그에 맞는 회원 정보가 로그인 되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 화면 시퀀스 작성 (설명, 커뮤니티, 알림, 설정화면 추가)
+2. 추가 자료 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판의 글을 삭제하거나 올리기 위한 '글쓰기'버튼과 '글 삭제' 버튼이 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-1. Datebook Comment 부분 요약
+1-2. GIT 보고서 다시 작성
+1-3. PPT 머릿글 요약 작성
+1-4. 파일명 수정
+1-5 최종 아이디어 선정 이유 작성
+2. 요구사항 수집 및 분석</x:t>
   </x:si>
   <x:si>
     <x:t>1. 현장실습 OT
@@ -65,69 +97,28 @@
  - 개발 설계</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 계획하고 있는 어플의 메뉴트리 작성 및 ppt 수정
-2. 요구사항 추가 및 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 플로우 차트 작성
-2. 설계 계획서 작성
-3. Menu_Tree 도식화 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RunMRU - (시작 - 실행) 또는 Ctrl + R을 통해 실행한 명령 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성(각 화면 기능 설명 채우기)
-2. 각 화면 플로우 차트 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Device Class ID 하위키로 Serial 정보 여부에 따라 두 가지로 분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-1. Datebook Comment 부분 요약
-1-2. GIT 보고서 다시 작성
-1-3. PPT 머릿글 요약 작성
-1-4. 파일명 수정
-1-5 최종 아이디어 선정 이유 작성
-2. 요구사항 수집 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 기능 정의 보완
-2. 관련 자료 수집
-3. 스토리보드 제작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입을 위해 시도한 비밀번호가 7자리 이하이거나 13자리 이상일 경우
-비밀번호 입력 오류 메세지가 출력되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. DateBook_Comment 부분 수정
-2. GIT보고서 수정
- - 설치 과정 추가
- - 명령어 부분 내용 추가
-3. PPT 머릿글 요약 작성 - (미완)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 경쟁 어플 메뉴트리 수정
-2. 요구사항, 기능정의 순서 수정
-3. 한계점 수정
-블루투스 -&gt; 사진 촬영 ====&gt; 대체하게 되면 글자 인식하는 코드 필요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장치명이 설정된 경우 - 장치명을 변경하지 않는다면 최초 연결 시간
-장치명이 설정되지 않은 경우 - 연결된 볼륨명이 변경되지 않고 계속 사용되면 최초 연결시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
- - 컴퓨터 견적 추천 앱
- - 주차시 사고발생 알림 앱
-2. 주제 아이디어 최종 선정
- - 차량 관리 어플
-3. 개발 계획서 및 요구사항 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 기능 정의
-2. 관련자료 수집</x:t>
+    <x:t>비밀번호는 특수문자 포함 8자리 이상 12자리 이하 이어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 추가 자료조사(관련 코드)
+2. FlowChart 수정 및 보완</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소유한 차량이 여러 대일 경우 차량의 정보를 추가할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Git 목록 삭제
+2. 요구사항 분석
+3. 인터페이스 구상도 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주행 거리 정보를 받아 계산하여 남은 수명에 대해 알려 주어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어플의 예약기능을 통해 예약한 경우 업체로부터 일정 수수료를 받는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LastVisitedPidMRU - 탐색기를 통해 열어본 폴더 목록</x:t>
   </x:si>
   <x:si>
     <x:t>1. 실습 환경 설정 및 설명
@@ -141,214 +132,94 @@
  - 차량 관리 어플</x:t>
   </x:si>
   <x:si>
-    <x:t>08:40
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>달력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상황별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭설철</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무결성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타이어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>etc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장마철</x:t>
-  </x:si>
-  <x:si>
-    <x:t>편집</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인기글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가을</x:t>
-  </x:si>
-  <x:si>
-    <x:t>겨울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채팅창</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Q&amp;A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>만족도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계절별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>봄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리뷰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보안성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점검</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>손세차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이클</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일광 절약 시간동안 현지 시간 변환에 사용되는 분,대부분 -60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택 된 부품은 값의 변조 없이 알맞은 값이 저장되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록된 사용자만이 자신이 등록한 차량의 정보를 확인해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유, 연비, 운행거리, 정비 및 기타비용 총액/월별 지출액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. vi 명령어 설명서 작성
-2. 요구사항 정의 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정 기능을 통해 작성했던 글을 수정 할 수 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현지 시간 변환에 대한 현재 분 UTC와 현지 시간의 차이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사라지거나 위치가 바뀐 정보를 수시로 업데이트 해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 추가한 공유 폴더 목록, 경로, 권한, 이름 정보 확인</x:t>
+    <x:t>Device Class ID 하위키로 Serial 정보 여부에 따라 두 가지로 분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성(각 화면 기능 설명 채우기)
+2. 각 화면 플로우 차트 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 계획하고 있는 어플의 메뉴트리 작성 및 ppt 수정
+2. 요구사항 추가 및 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RunMRU - (시작 - 실행) 또는 Ctrl + R을 통해 실행한 명령 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 플로우 차트 작성
+2. 설계 계획서 작성
+3. Menu_Tree 도식화 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로컬 컴퓨터의 표준 시간대 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Services/Drivers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검내역서(정비소 제공 문서)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Startup Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Unique Instance ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>system information</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Network Interface</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 기능 정의
+2. 관련자료 수집</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주행 거리별 check list</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템종료 시 페이지 파일 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교체할 부품을 선택 받아야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템에 등록 된 컴퓨터 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 정보(오너들의 평균 정보)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 레지스트리 접근 코드 작업</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Install Software</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. DateBook_Comment 부분 수정
+2. GIT보고서 수정
+ - 설치 과정 추가
+ - 명령어 부분 내용 추가
+3. PPT 머릿글 요약 작성 - (미완)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 경쟁 어플 메뉴트리 수정
+2. 요구사항, 기능정의 순서 수정
+3. 한계점 수정
+블루투스 -&gt; 사진 촬영 ====&gt; 대체하게 되면 글자 인식하는 코드 필요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장치명이 설정된 경우 - 장치명을 변경하지 않는다면 최초 연결 시간
+장치명이 설정되지 않은 경우 - 연결된 볼륨명이 변경되지 않고 계속 사용되면 최초 연결시간</x:t>
   </x:si>
   <x:si>
     <x:t>1. 아이디어 도출
-2. 브리핑 준비
-3. 견학 보고서 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vendor 정보, 제품명, Revision number 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품의 종류를 다르게 하여 여러가지를 선택 할 수 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입시 필요한 정보 및 소유한 차량의 정보를 포함해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외부에서 받아오는 정보(지도, 가격 등)에 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 정의
-2. 지도교수 방문
- - 진행사항 보고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 이전 프로젝트 리뷰(전체 흐름 파악)
-2. 요구사항 정의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 브리핑 준비
- - 메모장 정리
-2. 견학 보고서 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 날짜를 기록할 수 있도록 다이어리 형식으로 제공해야 한다.</x:t>
+ - 컴퓨터 견적 추천 앱
+ - 주차시 사고발생 알림 앱
+2. 주제 아이디어 최종 선정
+ - 차량 관리 어플
+3. 개발 계획서 및 요구사항 작성</x:t>
   </x:si>
   <x:si>
     <x:t>1. 앱 화면별 Sequence 작성
@@ -368,11 +239,107 @@
 3. 구현 가능 여부 확인</x:t>
   </x:si>
   <x:si>
+    <x:t>exe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>chrome</x:t>
+  </x:si>
+  <x:si>
+    <x:t>word</x:t>
+  </x:si>
+  <x:si>
+    <x:t>export</x:t>
+  </x:si>
+  <x:si>
+    <x:t>exit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>help</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록된 사용자만이 자신이 등록한 차량의 정보를 확인해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. vi 명령어 설명서 작성
+2. 요구사항 정의 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+2. 브리핑 준비
+3. 견학 보고서 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor 정보, 제품명, Revision number 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외부에서 받아오는 정보(지도, 가격 등)에 변조가 없어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품의 종류를 다르게 하여 여러가지를 선택 할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 이전 프로젝트 리뷰(전체 흐름 파악)
+2. 요구사항 정의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입시 필요한 정보 및 소유한 차량의 정보를 포함해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 브리핑 준비
+ - 메모장 정리
+2. 견학 보고서 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정 기능을 통해 작성했던 글을 수정 할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일광 절약 시간동안 현지 시간 변환에 사용되는 분,대부분 -60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택 된 부품은 값의 변조 없이 알맞은 값이 저장되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 기능 정의 보완
+2. 관련 자료 수집
+3. 스토리보드 제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유, 연비, 운행거리, 정비 및 기타비용 총액/월별 지출액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 날짜를 기록할 수 있도록 다이어리 형식으로 제공해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사라지거나 위치가 바뀐 정보를 수시로 업데이트 해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현지 시간 변환에 대한 현재 분 UTC와 현지 시간의 차이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 정의
+2. 지도교수 방문
+ - 진행사항 보고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 추가한 공유 폴더 목록, 경로, 권한, 이름 정보 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>excel 파일로 출력된 정보 저장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:40
+18:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:52
+18:02</x:t>
+  </x:si>
+  <x:si>
     <x:t>1. 메뉴시퀀스 작성(설명,컨테이너등 정보 채우기)
 2. 기능플로우 작성</x:t>
   </x:si>
   <x:si>
-    <x:t>OpenSavePidMRU - 탐색기를 통해 열어보거나 저장한 파일 목록</x:t>
+    <x:t>Value : AutoShareServer를 통해 기본적인 공유목록 상태 확인</x:t>
   </x:si>
   <x:si>
     <x:t>1. 인터페이스 구상도 작성
@@ -380,26 +347,30 @@
 3. 추가 자료조사</x:t>
   </x:si>
   <x:si>
+    <x:t>로그인에 성공했다면 로그인 버튼이 아닌 로그 아웃 버튼을 보여주어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실행한 프로그램의 경로와 실행 유형, 실행 횟수, 최종 실행 시간 정보 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중복되는 아이디로 가입시도시 아이디 입력 오류 메세지가 출력되어야 한다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>1. 요구사항 수집 및 정의
 2. 요구사항 분석
 3. 구현 가능 여부 확인</x:t>
   </x:si>
   <x:si>
+    <x:t>OpenSavePidMRU - 탐색기를 통해 열어보거나 저장한 파일 목록</x:t>
+  </x:si>
+  <x:si>
     <x:t>1. 추가 자료조사
 2. 요구사항 추가 조사
 3. 경쟁 어플 기능 비교 보완</x:t>
   </x:si>
   <x:si>
-    <x:t>Value : AutoShareServer를 통해 기본적인 공유목록 상태 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인에 성공했다면 로그인 버튼이 아닌 로그 아웃 버튼을 보여주어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실행한 프로그램의 경로와 실행 유형, 실행 횟수, 최종 실행 시간 정보 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중복되는 아이디로 가입시도시 아이디 입력 오류 메세지가 출력되어야 한다.</x:t>
+    <x:t>로그인 화면을 들어가게 되면 아이디와 비밀번호의 입력 창, 회원가입 버튼과
+로그인 버튼이 나와야 한다.</x:t>
   </x:si>
   <x:si>
     <x:t>1. 요구사항 수집 및 정의
@@ -413,95 +384,10 @@
 3.. 요구사항 정의</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 06_30 회의록 작성
-2. 요구사항 수정 및 관련 필요 자료 조사
-3. 15:00 ~ 지도교수 면담</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 화면을 들어가게 되면 아이디와 비밀번호의 입력 창, 회원가입 버튼과
-로그인 버튼이 나와야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
-2. 최종 아이디어 선정
-3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성(login, join, 내 차고, 차량 정보) 미완
-2. 블루투스 관련 자료 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어플의 예약기능을 통해 예약한 경우 업체로부터 일정 수수료를 받는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주행 거리 정보를 받아 계산하여 남은 수명에 대해 알려 주어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LastVisitedPidMRU - 탐색기를 통해 열어본 폴더 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호는 특수문자 포함 8자리 이상 12자리 이하 이어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 추가 자료조사(관련 코드)
-2. FlowChart 수정 및 보완</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소유한 차량이 여러 대일 경우 차량의 정보를 추가할 수 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. Git 목록 삭제
-2. 요구사항 분석
-3. 인터페이스 구상도 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RecentDocs - 최근 실행한 문서, 그림, 동영상 등의 파일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성 (미완)
-2. 스피너 및 캘린더 뷰 다이어리 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주행 거리별 check list</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로컬 컴퓨터의 표준 시간대 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>system information</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Unique Instance ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Startup Services</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템종료 시 페이지 파일 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교체할 부품을 선택 받아야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Services/Drivers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점검내역서(정비소 제공 문서)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템에 등록 된 컴퓨터 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Network Interface</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 정보(오너들의 평균 정보)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 레지스트리 접근 코드 작업</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Install Software</x:t>
+    <x:t>1. (2-2) 수익적 요소 추가
+2. (4-1) 기능정의 추가
+3. 추가 자료 조사
+ - 비슷한 어플(마이클) 화면 구성 조사</x:t>
   </x:si>
   <x:si>
     <x:t>표준시간 동안 현지 시간 변환에 사용되는 분. 대부분 0</x:t>
@@ -514,6 +400,15 @@
 2. 요구사항 정의 및 분류
  - 기능적 요구사항
  - 비기능적 요구사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입을 위해 시도한 비밀번호가 7자리 이하이거나 13자리 이상일 경우
+비밀번호 입력 오류 메세지가 출력되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06_30 회의록 작성
+2. 요구사항 수정 및 관련 필요 자료 조사
+3. 15:00 ~ 지도교수 면담</x:t>
   </x:si>
   <x:si>
     <x:t>1. 07.02 회의록 작성
@@ -530,34 +425,454 @@
 5. vi사용법 설명</x:t>
   </x:si>
   <x:si>
-    <x:t>1. (2-2) 수익적 요소 추가
-2. (4-1) 기능정의 추가
-3. 추가 자료 조사
- - 비슷한 어플(마이클) 화면 구성 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 필요 자료 추가 조사
-2. 한계점 및 필요기술 추가
- - 차량 블루투스와 어플 연결 어떻게?
- - 연결이 된다면 원하는 정보만 어떻게 가져 올건지?</x:t>
+    <x:t>1. 아이디어 도출
+2. 최종 아이디어 선정
+3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성(login, join, 내 차고, 차량 정보) 미완
+2. 블루투스 관련 자료 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>etc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>달력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상황별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타이어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭설철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무결성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장마철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>편집</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인기글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Q&amp;A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계절별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>손세차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>만족도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보안성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리뷰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이클</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채팅창</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가을</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>겨울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>봄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차 정보 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bias</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조직 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>네트워크 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공식 서비스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여름 휴가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경기/인천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엔진오일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>value</x:t>
+  </x:si>
+  <x:si>
+    <x:t>디테일링</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타 항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 방문 장소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수리견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>함수의 계산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필요 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tips</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모두의 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오너들의 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자차 게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연비 랭킹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에어컨필터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비기능적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객상담</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용 가이드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메모 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공유게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험사 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기록 및 통계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카카오톡 문의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Home</x:t>
+  </x:si>
+  <x:si>
+    <x:t>견적 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 시기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이클 이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수익적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연차, 보험료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 시세</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타이어샵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균 연비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오늘 교체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약 교체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결함/리콜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SID구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첫예약할인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALL*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>setting</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균연비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 검사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일정 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운영체제 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>더 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신 글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 주변 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에어컨 필터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 구매</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모아보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어플 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이어리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 후기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운영체제 설치 루트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마지막 종료 시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 보험료 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 판매견적 받기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 정보 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MRU List</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유사 모델 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템 기본 정보</x:t>
   </x:si>
   <x:si>
     <x:t>08:36
 18:03</x:t>
   </x:si>
   <x:si>
-    <x:t>마지막 종료 시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템 기본 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MRU List</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운영체제 설치 루트</x:t>
-  </x:si>
-  <x:si>
     <x:t>08:22
 18:01</x:t>
   </x:si>
@@ -566,35 +881,36 @@
 18:04</x:t>
   </x:si>
   <x:si>
-    <x:t>내 차 보험료 확인</x:t>
-  </x:si>
-  <x:si>
     <x:t>자동차 보험 선호도</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 아이디어 도출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 판매견적 받기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 정보 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유사 모델 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 형태로 존재</x:t>
+    <x:t>시스템 사용자 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>코엑스 전시회 견학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:43
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 정보 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 기본 정보</x:t>
   </x:si>
   <x:si>
     <x:t>08:43
 18:01</x:t>
   </x:si>
   <x:si>
-    <x:t>부품 교체 예상 견적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템 사용자 목록</x:t>
+    <x:t>community</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자주 하는 질문</x:t>
   </x:si>
   <x:si>
     <x:t>08:40
@@ -605,91 +921,99 @@
 18:02</x:t>
   </x:si>
   <x:si>
-    <x:t>코엑스 전시회 견학</x:t>
+    <x:t>Community</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진행 방향 ---&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품 교체 예상 견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 형태로 존재</x:t>
   </x:si>
   <x:si>
     <x:t>친구 초대 이벤트</x:t>
   </x:si>
   <x:si>
-    <x:t>08:43
+    <x:t>네트워크 인터페이스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험료 계산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:33
 18:02</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 메뉴시퀀스 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>community</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 정보 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 기본 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Community</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자주 하는 질문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진행 방향 ---&gt;</x:t>
+    <x:t>예약/견적 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:35
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:34
+12:37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Assist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:32
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주요 하위 키 값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무선랜 접속 정보</x:t>
   </x:si>
   <x:si>
     <x:t>08:32
 18:05</x:t>
   </x:si>
   <x:si>
-    <x:t>자동차 보험료 계산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:33
+    <x:t>08:25
 18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09:00
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운영체제 식별자</x:t>
   </x:si>
   <x:si>
     <x:t>08:36
 18:07</x:t>
   </x:si>
   <x:si>
-    <x:t>자동차 보험 정보</x:t>
+    <x:t>서비스 (메뉴)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>할인 쿠폰 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고장사례(리콜사례)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:23
+15:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비소 지도 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:36
+18:02</x:t>
   </x:si>
   <x:si>
     <x:t>08:32
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약/견적 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:35
 18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무선랜 접속 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>네트워크 인터페이스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주요 하위 키 값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:34
-12:37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User Assist</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:25
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09:00
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운영체제 식별자</x:t>
   </x:si>
   <x:si>
     <x:t>08:30
@@ -699,50 +1023,33 @@
     <x:t>가까운 정비소 예약</x:t>
   </x:si>
   <x:si>
-    <x:t>운전자 추천 서비스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰 보유 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스 (메뉴)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비소 지도 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 연동 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 장착점 예약</x:t>
+    <x:t>08:27
+18:05</x:t>
   </x:si>
   <x:si>
     <x:t>08:27
 18:03</x:t>
   </x:si>
   <x:si>
-    <x:t>08:27
-18:05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:32
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고장사례(리콜사례)</x:t>
+    <x:t>데이터 연동 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운전자 추천 서비스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 장착점 예약</x:t>
   </x:si>
   <x:si>
     <x:t>운전자 보험료 확인</x:t>
   </x:si>
   <x:si>
-    <x:t>할인 쿠폰 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:23
-15:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:36
+    <x:t>쿠폰 보유 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운영체제 설치 날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:37
 18:02</x:t>
   </x:si>
   <x:si>
@@ -750,282 +1057,122 @@
 18:04</x:t>
   </x:si>
   <x:si>
-    <x:t>운영체제 설치 날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운영체제 세부 버전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:37
-18:02</x:t>
-  </x:si>
-  <x:si>
     <x:t>08:25
 15:54</x:t>
   </x:si>
   <x:si>
-    <x:t>Bias</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공식 서비스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>네트워크 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차 정보 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여름 휴가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조직 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경기/인천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엔진오일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>value</x:t>
-  </x:si>
-  <x:si>
-    <x:t>디테일링</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타 항목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 방문 장소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수익적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수리견적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객상담</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메모 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Home</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연차, 보험료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>함수의 계산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연비 랭킹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 시기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tips</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이클 이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용 가이드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공유게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필요 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모두의 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Menu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>견적 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카카오톡 문의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험사 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기록 및 통계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오너들의 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자차 게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에어컨필터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비기능적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결함/리콜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모아보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에어컨 필터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 구매</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오늘 교체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균연비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어플 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이어리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 후기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 검사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 시세</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SID구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일정 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운영체제 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 항목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타이어샵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>setting</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균 연비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약 교체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첫예약할인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALL*</x:t>
-  </x:si>
-  <x:si>
-    <x:t>더 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신 글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 주변 검색</x:t>
+    <x:t>운영체제 세부 버전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이달의 정비/세차 혜택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Device Class ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DaylightStart</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실행창에 입력한 정보 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StandardBias</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마지막으로 로그인 한 사용자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설치된 프로그램 목록 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RDP Connection</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TimeZoneKeyName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험료 확인 및 갱신일 알림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작업 관리자의 서비스 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dhcp가 할당해준 IP주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DaylightBias</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방문 정비소 기록, 메모</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템 사용자 프로필 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>F / V 값 계정 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스 및 드라이버 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DaylightName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차종, 차번호, 연식 등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StandardStart</x:t>
+  </x:si>
+  <x:si>
+    <x:t>네트워크 드라이브 연결 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 무료 판매 견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 정비소 찾아보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>각 사용자 별 기본 경로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무선 AP 마지막 접속 시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기아 커넥티드카 연동하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StandardName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>항목 및 정비 주기 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ActiveTimeBias</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USB Information</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원격 데스크탑 연결 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검 스케쥴 및 일정 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품 별 남은 수명 보여줌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shared Resource</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유소 포인트 적립 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 사용자가 로그온 시 자동 실행되는 항목</x:t>
   </x:si>
   <x:si>
     <x:t>표준 시간대의 일광절약 시간을 나타내는 이름</x:t>
@@ -1035,54 +1182,60 @@
  - 화면별 세부기능 설계</x:t>
   </x:si>
   <x:si>
-    <x:t>해당 사용자가 로그온 시 자동 실행되는 항목</x:t>
+    <x:t>어플 내 광고를 통해 일정 수입료를 받는다.</x:t>
   </x:si>
   <x:si>
     <x:t>시스템 시간 동안 GMT에서 offset된 시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 표준시간대의 표준 시간을 나타내는 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>표준시간에서 일광 절약시간으로 전환될 때의 날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APP종료시 입력된 데이터는 변조가 없어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유량, 연비, 운행 거리 및 기타 비용 통계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DB에 저장된 내용들은 변조가 없어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판을 이용하기 위해서는 로그인을 해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일광 절약 시간에서 표준시간으로 전환될 때의 날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이콘을 활용하여 한 눈에 확인하기 쉬워야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그온 한 사용자 상관없이 자동 실행되는 항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 화면 시퀀스 작성
+2. 추가 자료 조사</x:t>
   </x:si>
   <x:si>
     <x:t>1. 계약서 작성
 2. 현장실습 오리엔테이션</x:t>
   </x:si>
   <x:si>
-    <x:t>어플 내 광고를 통해 일정 수입료를 받는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>표준시간에서 일광 절약시간으로 전환될 때의 날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이콘을 활용하여 한 눈에 확인하기 쉬워야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 표준시간대의 표준 시간을 나타내는 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>APP종료시 입력된 데이터는 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유량, 연비, 운행 거리 및 기타 비용 통계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DB에 저장된 내용들은 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판을 이용하기 위해서는 로그인을 해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일광 절약 시간에서 표준시간으로 전환될 때의 날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그온 한 사용자 상관없이 자동 실행되는 항목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 화면 시퀀스 작성
-2. 추가 자료 조사</x:t>
-  </x:si>
-  <x:si>
     <x:t>1. 주제 아이디어 선정
 2. 요구사항 정의</x:t>
   </x:si>
   <x:si>
+    <x:t>사용자가 최근에 열거나 실행한 파일 및 폴더 정보 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채팅방 및 게시판에 들어가기 위해서는 로그인을 해야한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 실패시 로그인 오류 메세지를 출력해야 한다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>1. 요구사항 정의 및 분석 보완
 2. 기능정의 보완</x:t>
   </x:si>
@@ -1091,32 +1244,20 @@
 2. Setting창 화면 추가</x:t>
   </x:si>
   <x:si>
-    <x:t>사용자가 최근에 열거나 실행한 파일 및 폴더 정보 확인</x:t>
-  </x:si>
-  <x:si>
     <x:t>최초 연결 시각 (레지스트리 키의 마지막 쓰기 시간)</x:t>
   </x:si>
   <x:si>
-    <x:t>채팅방 및 게시판에 들어가기 위해서는 로그인을 해야한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 실패시 로그인 오류 메세지를 출력해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판의 글들은 페이지당 20개씩 보여주어야 한다.</x:t>
+    <x:t>할인률, 총액의 계산 과정에 오류가 있어선 안된다.</x:t>
   </x:si>
   <x:si>
     <x:t>1. 06.28 회의록 작성
 2. 요구사항 정의 및 분석</x:t>
   </x:si>
   <x:si>
-    <x:t>보험, 범칙금, 주차요금, 톨게이트 비용, 차량용품 등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>할인률, 총액의 계산 과정에 오류가 있어선 안된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품들의 시세변동을 지속적으로 업데이트 해야 한다.</x:t>
+    <x:t>1. 각 버튼 및 창 기능 설명, 기능 플로우 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>휴지통을 통해 삭제되는지, 거치지 않고 삭제되는지 결정</x:t>
   </x:si>
   <x:si>
     <x:t>1. 화면 플로우 작업
@@ -1126,158 +1267,59 @@
     <x:t>파일 및 폴더 실행 정보를 통한 사용자 행위 파악 가능</x:t>
   </x:si>
   <x:si>
+    <x:t>보험, 범칙금, 주차요금, 톨게이트 비용, 차량용품 등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품들의 시세변동을 지속적으로 업데이트 해야 한다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>1. Menu_Tree 수정(완료)
 2. 추가 자료 조사</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 각 버튼 및 창 기능 설명, 기능 플로우 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>휴지통을 통해 삭제되는지, 거치지 않고 삭제되는지 결정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이달의 정비/세차 혜택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Device Class ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dhcp가 할당해준 IP주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작업 관리자의 서비스 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DaylightStart</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실행창에 입력한 정보 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StandardBias</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마지막으로 로그인 한 사용자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설치된 프로그램 목록 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험료 확인 및 갱신일 알림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DaylightBias</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RDP Connection</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TimeZoneKeyName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USB Information</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StandardName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>항목 및 정비 주기 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ActiveTimeBias</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DaylightName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 무료 판매 견적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차종, 차번호, 연식 등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유소 포인트 적립 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원격 데스크탑 연결 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 정비소 찾아보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점검 스케쥴 및 일정 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shared Resource</x:t>
-  </x:si>
-  <x:si>
-    <x:t>각 사용자 별 기본 경로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방문 정비소 기록, 메모</x:t>
-  </x:si>
-  <x:si>
-    <x:t>네트워크 드라이브 연결 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무선 AP 마지막 접속 시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기아 커넥티드카 연동하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품 별 남은 수명 보여줌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템 사용자 프로필 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>F / V 값 계정 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스 및 드라이버 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StandardStart</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TimeZone Information</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이어리에 메모한 사항 달력에 날짜 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 시스템에 추가한 Volume</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Installed Software List</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정확한 위치의 지도 정보를 받아와야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중복되는 아이디는 가입이 되어선 안된다.</x:t>
+    <x:t>게시판의 글들은 페이지당 20개씩 보여주어야 한다.</x:t>
   </x:si>
   <x:si>
     <x:t>1. 아이디어 도출
  - USB 복구 툴</x:t>
   </x:si>
   <x:si>
+    <x:t>Installed Software List</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정확한 위치의 지도 정보를 받아와야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 형태로 존재, 결함/리콜 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이어리에 메모한 사항 달력에 날짜 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 시스템에 추가한 Volume</x:t>
+  </x:si>
+  <x:si>
     <x:t>1. 요구사항 정의
 2. 관련자료 수집</x:t>
   </x:si>
   <x:si>
-    <x:t>게시판 형태로 존재, 결함/리콜 내역</x:t>
+    <x:t>중복되는 아이디는 가입이 되어선 안된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TimeZone Information</x:t>
   </x:si>
   <x:si>
     <x:t>마지막으로 접근한 레지스트리 키 정보</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 레지스트리 접근 및 정보 추출 코드 정리
-2. 요구사항 보완</x:t>
+    <x:t>Main_Menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>usb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 기능 정의 보완
+2. 기능정의 - 메뉴트리 추가</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1359,7 +1401,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="42">
+  <x:borders count="45">
     <x:border>
       <x:left>
         <x:color indexed="64"/>
@@ -1957,6 +1999,48 @@
         <x:color indexed="64"/>
       </x:top>
       <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -1966,7 +2050,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="120">
+  <x:cellXfs count="134">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -2967,6 +3051,108 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3660,8 +3846,8 @@
   <x:dimension ref="B2:F42"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:pane xSplit="0" ySplit="2" topLeftCell="C20" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" activeCell="C35" activeCellId="0" sqref="C35:C35"/>
+      <x:pane xSplit="0" ySplit="2" topLeftCell="C26" activePane="bottomLeft" state="frozen"/>
+      <x:selection pane="bottomLeft" activeCell="E35" activeCellId="0" sqref="E35:E35"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.199999999999999"/>
@@ -3678,16 +3864,16 @@
     <x:row r="1" ht="6.5999999999999996" customHeight="1"/>
     <x:row r="2" spans="2:5" ht="31.199999999999999" customHeight="1">
       <x:c r="B2" s="6" t="s">
-        <x:v>229</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="C2" s="7" t="s">
-        <x:v>289</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D2" s="7" t="s">
-        <x:v>246</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E2" s="8" t="s">
-        <x:v>206</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:5" ht="105.75">
@@ -3695,13 +3881,13 @@
         <x:v>44369</x:v>
       </x:c>
       <x:c r="C3" s="16" t="s">
-        <x:v>180</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="D3" s="10" t="s">
-        <x:v>295</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="E3" s="10" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:5" ht="118.55">
@@ -3709,13 +3895,13 @@
         <x:v>44370</x:v>
       </x:c>
       <x:c r="C4" s="15" t="s">
-        <x:v>180</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="D4" s="13" t="s">
-        <x:v>90</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E4" s="13" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:5" ht="79.049999999999997">
@@ -3723,13 +3909,13 @@
         <x:v>44371</x:v>
       </x:c>
       <x:c r="C5" s="17" t="s">
-        <x:v>182</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="D5" s="13" t="s">
-        <x:v>105</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E5" s="13" t="s">
-        <x:v>19</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:5" ht="79.049999999999997">
@@ -3737,13 +3923,13 @@
         <x:v>44372</x:v>
       </x:c>
       <x:c r="C6" s="19" t="s">
-        <x:v>182</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="D6" s="13" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E6" s="18" t="s">
-        <x:v>16</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:5" ht="79.049999999999997">
@@ -3751,13 +3937,13 @@
         <x:v>44375</x:v>
       </x:c>
       <x:c r="C7" s="15" t="s">
-        <x:v>191</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="D7" s="13" t="s">
-        <x:v>315</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="E7" s="13" t="s">
-        <x:v>134</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:5" ht="52.700000000000003">
@@ -3765,13 +3951,13 @@
         <x:v>44376</x:v>
       </x:c>
       <x:c r="C8" s="15" t="s">
-        <x:v>169</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="D8" s="13" t="s">
-        <x:v>75</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E8" s="13" t="s">
-        <x:v>132</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:5" ht="52.700000000000003">
@@ -3779,13 +3965,13 @@
         <x:v>44377</x:v>
       </x:c>
       <x:c r="C9" s="20" t="s">
-        <x:v>196</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="D9" s="13" t="s">
-        <x:v>91</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E9" s="13" t="s">
-        <x:v>103</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:5" ht="52.700000000000003">
@@ -3793,13 +3979,13 @@
         <x:v>44378</x:v>
       </x:c>
       <x:c r="C10" s="21" t="s">
-        <x:v>192</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="D10" s="13" t="s">
-        <x:v>95</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E10" s="13" t="s">
-        <x:v>101</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:5" ht="65.849999999999994">
@@ -3807,13 +3993,13 @@
         <x:v>44379</x:v>
       </x:c>
       <x:c r="C11" s="23" t="s">
-        <x:v>190</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="D11" s="13" t="s">
-        <x:v>113</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E11" s="13" t="s">
-        <x:v>133</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:5" ht="105.40000000000001">
@@ -3821,13 +4007,13 @@
         <x:v>44382</x:v>
       </x:c>
       <x:c r="C12" s="22" t="s">
-        <x:v>179</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="D12" s="13" t="s">
-        <x:v>94</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E12" s="13" t="s">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:5" ht="52.700000000000003">
@@ -3835,13 +4021,13 @@
         <x:v>44383</x:v>
       </x:c>
       <x:c r="C13" s="24" t="s">
-        <x:v>192</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="D13" s="13" t="s">
-        <x:v>111</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E13" s="13" t="s">
-        <x:v>136</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:5" ht="52.700000000000003">
@@ -3849,13 +4035,13 @@
         <x:v>44384</x:v>
       </x:c>
       <x:c r="C14" s="25" t="s">
-        <x:v>142</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="D14" s="13" t="s">
-        <x:v>89</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E14" s="13" t="s">
-        <x:v>135</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:5" ht="52.700000000000003">
@@ -3863,13 +4049,13 @@
         <x:v>44385</x:v>
       </x:c>
       <x:c r="C15" s="31" t="s">
-        <x:v>158</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D15" s="13" t="s">
-        <x:v>96</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E15" s="13" t="s">
-        <x:v>17</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:5" ht="26.350000000000001">
@@ -3877,13 +4063,13 @@
         <x:v>44386</x:v>
       </x:c>
       <x:c r="C16" s="32" t="s">
-        <x:v>154</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D16" s="13" t="s">
-        <x:v>308</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="E16" s="13" t="s">
-        <x:v>8</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:5" ht="39.549999999999997">
@@ -3891,13 +4077,13 @@
         <x:v>44389</x:v>
       </x:c>
       <x:c r="C17" s="71" t="s">
-        <x:v>171</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="D17" s="13" t="s">
-        <x:v>9</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E17" s="13" t="s">
-        <x:v>321</x:v>
+        <x:v>369</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:5" ht="26.350000000000001">
@@ -3905,13 +4091,13 @@
         <x:v>44390</x:v>
       </x:c>
       <x:c r="C18" s="72" t="s">
-        <x:v>151</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="D18" s="13" t="s">
-        <x:v>306</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="E18" s="13" t="s">
-        <x:v>106</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:5" ht="26.350000000000001">
@@ -3919,13 +4105,13 @@
         <x:v>44391</x:v>
       </x:c>
       <x:c r="C19" s="72" t="s">
-        <x:v>192</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="D19" s="13" t="s">
-        <x:v>306</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="E19" s="13" t="s">
-        <x:v>115</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:5" ht="26.350000000000001">
@@ -3933,13 +4119,13 @@
         <x:v>44392</x:v>
       </x:c>
       <x:c r="C20" s="15" t="s">
-        <x:v>197</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="D20" s="13" t="s">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E20" s="12" t="s">
-        <x:v>159</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="2:5" ht="26.350000000000001">
@@ -3947,13 +4133,13 @@
         <x:v>44393</x:v>
       </x:c>
       <x:c r="C21" s="73" t="s">
-        <x:v>168</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="D21" s="13" t="s">
-        <x:v>92</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E21" s="13" t="s">
-        <x:v>292</x:v>
+        <x:v>340</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="2:5" ht="26.350000000000001">
@@ -3961,13 +4147,13 @@
         <x:v>44396</x:v>
       </x:c>
       <x:c r="C22" s="74" t="s">
-        <x:v>198</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="D22" s="12" t="s">
-        <x:v>322</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="E22" s="13" t="s">
-        <x:v>11</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="2:5" ht="26.350000000000001">
@@ -3975,13 +4161,13 @@
         <x:v>44397</x:v>
       </x:c>
       <x:c r="C23" s="75" t="s">
-        <x:v>155</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="D23" s="13" t="s">
-        <x:v>309</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="E23" s="13" t="s">
-        <x:v>319</x:v>
+        <x:v>365</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="2:5" ht="39.549999999999997">
@@ -3989,13 +4175,13 @@
         <x:v>44398</x:v>
       </x:c>
       <x:c r="C24" s="15" t="s">
-        <x:v>173</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="D24" s="12" t="s">
-        <x:v>146</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="E24" s="13" t="s">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="2:5" ht="26.350000000000001">
@@ -4003,13 +4189,13 @@
         <x:v>44399</x:v>
       </x:c>
       <x:c r="C25" s="76" t="s">
-        <x:v>143</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="D25" s="12" t="s">
-        <x:v>146</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="E25" s="13" t="s">
-        <x:v>366</x:v>
+        <x:v>371</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="2:5" ht="26.350000000000001">
@@ -4017,13 +4203,13 @@
         <x:v>44400</x:v>
       </x:c>
       <x:c r="C26" s="15" t="s">
-        <x:v>177</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="D26" s="12" t="s">
-        <x:v>156</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="E26" s="12" t="s">
-        <x:v>156</x:v>
+        <x:v>250</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="2:5" ht="39.549999999999997">
@@ -4031,13 +4217,13 @@
         <x:v>44403</x:v>
       </x:c>
       <x:c r="C27" s="77" t="s">
-        <x:v>166</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="D27" s="13" t="s">
-        <x:v>80</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E27" s="13" t="s">
-        <x:v>87</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="2:6" ht="39.549999999999997">
@@ -4045,13 +4231,13 @@
         <x:v>44404</x:v>
       </x:c>
       <x:c r="C28" s="15" t="s">
-        <x:v>154</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D28" s="13" t="s">
-        <x:v>307</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="E28" s="13" t="s">
-        <x:v>85</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F28" s="78"/>
     </x:row>
@@ -4060,13 +4246,13 @@
         <x:v>44405</x:v>
       </x:c>
       <x:c r="C29" s="15" t="s">
-        <x:v>202</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="D29" s="13" t="s">
-        <x:v>86</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E29" s="13" t="s">
-        <x:v>367</x:v>
+        <x:v>377</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="2:5" ht="39.549999999999997">
@@ -4074,13 +4260,13 @@
         <x:v>44406</x:v>
       </x:c>
       <x:c r="C30" s="15" t="s">
-        <x:v>201</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="D30" s="13" t="s">
-        <x:v>307</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="E30" s="13" t="s">
-        <x:v>102</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="2:5" ht="26.350000000000001">
@@ -4088,13 +4274,13 @@
         <x:v>44407</x:v>
       </x:c>
       <x:c r="C31" s="86" t="s">
-        <x:v>137</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="D31" s="13" t="s">
-        <x:v>367</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="E31" s="12" t="s">
-        <x:v>128</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="2:5">
@@ -4103,7 +4289,7 @@
       </x:c>
       <x:c r="C32" s="89"/>
       <x:c r="D32" s="87" t="s">
-        <x:v>216</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="E32" s="89"/>
     </x:row>
@@ -4120,24 +4306,28 @@
         <x:v>44412</x:v>
       </x:c>
       <x:c r="C34" s="119" t="s">
-        <x:v>22</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D34" s="13" t="s">
-        <x:v>20</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E34" s="13" t="s">
-        <x:v>370</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="2:5" ht="39.549999999999997">
       <x:c r="B35" s="14">
         <x:v>44413</x:v>
       </x:c>
-      <x:c r="C35" s="11"/>
+      <x:c r="C35" s="15" t="s">
+        <x:v>77</x:v>
+      </x:c>
       <x:c r="D35" s="13" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E35" s="12"/>
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E35" s="13" t="s">
+        <x:v>383</x:v>
+      </x:c>
     </x:row>
     <x:row r="36" spans="2:5">
       <x:c r="B36" s="14">
@@ -4225,18 +4415,18 @@
   <x:sheetData>
     <x:row r="1" spans="14:14">
       <x:c r="N1" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="2:5" ht="16.75" customHeight="1">
       <x:c r="B2" s="91" t="s">
-        <x:v>57</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C2" s="91" t="s">
-        <x:v>118</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D2" s="82" t="s">
-        <x:v>139</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="E2" s="50"/>
     </x:row>
@@ -4244,10 +4434,10 @@
       <x:c r="B3" s="92"/>
       <x:c r="C3" s="92"/>
       <x:c r="D3" s="94" t="s">
-        <x:v>176</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="E3" s="51" t="s">
-        <x:v>276</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:5">
@@ -4255,7 +4445,7 @@
       <x:c r="C4" s="92"/>
       <x:c r="D4" s="94"/>
       <x:c r="E4" s="51" t="s">
-        <x:v>220</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:5">
@@ -4263,7 +4453,7 @@
       <x:c r="C5" s="92"/>
       <x:c r="D5" s="94"/>
       <x:c r="E5" s="51" t="s">
-        <x:v>217</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:5">
@@ -4271,7 +4461,7 @@
       <x:c r="C6" s="92"/>
       <x:c r="D6" s="94"/>
       <x:c r="E6" s="51" t="s">
-        <x:v>181</x:v>
+        <x:v>279</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:5">
@@ -4279,7 +4469,7 @@
       <x:c r="C7" s="92"/>
       <x:c r="D7" s="94"/>
       <x:c r="E7" s="51" t="s">
-        <x:v>200</x:v>
+        <x:v>301</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:5">
@@ -4287,7 +4477,7 @@
       <x:c r="C8" s="92"/>
       <x:c r="D8" s="94"/>
       <x:c r="E8" s="51" t="s">
-        <x:v>199</x:v>
+        <x:v>297</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:5">
@@ -4295,14 +4485,14 @@
       <x:c r="C9" s="92"/>
       <x:c r="D9" s="94"/>
       <x:c r="E9" s="51" t="s">
-        <x:v>141</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:5">
       <x:c r="B10" s="92"/>
       <x:c r="C10" s="92"/>
       <x:c r="D10" s="57" t="s">
-        <x:v>125</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E10" s="51"/>
     </x:row>
@@ -4310,128 +4500,128 @@
       <x:c r="B11" s="92"/>
       <x:c r="C11" s="93"/>
       <x:c r="D11" s="83" t="s">
-        <x:v>138</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E11" s="56"/>
     </x:row>
     <x:row r="12" spans="2:14" ht="16.75">
       <x:c r="B12" s="92"/>
       <x:c r="C12" s="91" t="s">
-        <x:v>360</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="D12" s="82" t="s">
-        <x:v>117</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E12" s="50"/>
       <x:c r="N12" s="1" t="s">
-        <x:v>336</x:v>
+        <x:v>310</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:14">
       <x:c r="B13" s="92"/>
       <x:c r="C13" s="92"/>
       <x:c r="D13" s="57" t="s">
-        <x:v>304</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="E13" s="51"/>
       <x:c r="N13" s="1" t="s">
-        <x:v>359</x:v>
+        <x:v>321</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:14">
       <x:c r="B14" s="92"/>
       <x:c r="C14" s="92"/>
       <x:c r="D14" s="57" t="s">
-        <x:v>299</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="E14" s="51"/>
       <x:c r="N14" s="1" t="s">
-        <x:v>338</x:v>
+        <x:v>329</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:14">
       <x:c r="B15" s="92"/>
       <x:c r="C15" s="92"/>
       <x:c r="D15" s="57" t="s">
-        <x:v>130</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E15" s="51"/>
       <x:c r="N15" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>306</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:14">
       <x:c r="B16" s="92"/>
       <x:c r="C16" s="92"/>
       <x:c r="D16" s="57" t="s">
-        <x:v>297</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="E16" s="51"/>
       <x:c r="N16" s="1" t="s">
-        <x:v>328</x:v>
+        <x:v>304</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:14">
       <x:c r="B17" s="92"/>
       <x:c r="C17" s="92"/>
       <x:c r="D17" s="57" t="s">
-        <x:v>291</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="E17" s="51"/>
       <x:c r="N17" s="1" t="s">
-        <x:v>341</x:v>
+        <x:v>319</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:14">
       <x:c r="B18" s="92"/>
       <x:c r="C18" s="92"/>
       <x:c r="D18" s="57" t="s">
-        <x:v>71</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E18" s="51"/>
       <x:c r="N18" s="1" t="s">
-        <x:v>334</x:v>
+        <x:v>314</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:14">
       <x:c r="B19" s="92"/>
       <x:c r="C19" s="92"/>
       <x:c r="D19" s="57" t="s">
-        <x:v>77</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E19" s="51"/>
       <x:c r="N19" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:14" ht="16.75">
       <x:c r="B20" s="92"/>
       <x:c r="C20" s="93"/>
       <x:c r="D20" s="83" t="s">
-        <x:v>294</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="E20" s="56"/>
       <x:c r="N20" s="1" t="s">
-        <x:v>340</x:v>
+        <x:v>331</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="2:5" ht="16.75">
       <x:c r="B21" s="92"/>
       <x:c r="C21" s="91" t="s">
-        <x:v>342</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="D21" s="79" t="s">
-        <x:v>153</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="E21" s="50" t="s">
-        <x:v>357</x:v>
+        <x:v>317</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="2:5">
       <x:c r="B22" s="92"/>
       <x:c r="C22" s="92"/>
       <x:c r="D22" s="46" t="s">
-        <x:v>356</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="E22" s="51"/>
     </x:row>
@@ -4439,17 +4629,17 @@
       <x:c r="B23" s="92"/>
       <x:c r="C23" s="92"/>
       <x:c r="D23" s="46" t="s">
-        <x:v>131</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E23" s="51" t="s">
-        <x:v>274</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="2:5">
       <x:c r="B24" s="92"/>
       <x:c r="C24" s="92"/>
       <x:c r="D24" s="46" t="s">
-        <x:v>331</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="E24" s="51"/>
     </x:row>
@@ -4457,94 +4647,94 @@
       <x:c r="B25" s="92"/>
       <x:c r="C25" s="93"/>
       <x:c r="D25" s="80" t="s">
-        <x:v>350</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="E25" s="56"/>
     </x:row>
     <x:row r="26" spans="2:5" ht="16.75">
       <x:c r="B26" s="92"/>
       <x:c r="C26" s="91" t="s">
-        <x:v>129</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D26" s="79" t="s">
-        <x:v>363</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="E26" s="50" t="s">
-        <x:v>332</x:v>
+        <x:v>308</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="2:5" ht="16.75">
       <x:c r="B27" s="92"/>
       <x:c r="C27" s="93"/>
       <x:c r="D27" s="80" t="s">
-        <x:v>178</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="E27" s="56" t="s">
-        <x:v>99</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="2:5" ht="16.75">
       <x:c r="B28" s="92"/>
       <x:c r="C28" s="91" t="s">
-        <x:v>337</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="D28" s="79" t="s">
-        <x:v>325</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="E28" s="50" t="s">
-        <x:v>81</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="2:5">
       <x:c r="B29" s="92"/>
       <x:c r="C29" s="92"/>
       <x:c r="D29" s="46" t="s">
-        <x:v>119</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E29" s="51" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="2:5" ht="33.149999999999999">
       <x:c r="B30" s="92"/>
       <x:c r="C30" s="93"/>
       <x:c r="D30" s="80" t="s">
-        <x:v>311</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="E30" s="81" t="s">
-        <x:v>18</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="2:5" ht="16.75">
       <x:c r="B31" s="92"/>
       <x:c r="C31" s="91" t="s">
-        <x:v>140</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="D31" s="79" t="s">
-        <x:v>310</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="E31" s="50" t="s">
-        <x:v>114</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="2:5">
       <x:c r="B32" s="92"/>
       <x:c r="C32" s="92"/>
       <x:c r="D32" s="46" t="s">
-        <x:v>320</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="E32" s="51" t="s">
-        <x:v>10</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="2:5">
       <x:c r="B33" s="92"/>
       <x:c r="C33" s="92"/>
       <x:c r="D33" s="46" t="s">
-        <x:v>329</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="E33" s="51" t="s">
-        <x:v>109</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="2:5" ht="16.75">
@@ -4552,16 +4742,16 @@
       <x:c r="C34" s="93"/>
       <x:c r="D34" s="80"/>
       <x:c r="E34" s="56" t="s">
-        <x:v>93</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="2:5" ht="16.75">
       <x:c r="B35" s="92"/>
       <x:c r="C35" s="91" t="s">
-        <x:v>349</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="D35" s="85" t="s">
-        <x:v>79</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E35" s="50"/>
     </x:row>
@@ -4569,17 +4759,17 @@
       <x:c r="B36" s="92"/>
       <x:c r="C36" s="93"/>
       <x:c r="D36" s="84" t="s">
-        <x:v>97</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E36" s="56"/>
     </x:row>
     <x:row r="37" spans="2:5" ht="16.75">
       <x:c r="B37" s="92"/>
       <x:c r="C37" s="91" t="s">
-        <x:v>126</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D37" s="79" t="s">
-        <x:v>207</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E37" s="50"/>
     </x:row>
@@ -4587,7 +4777,7 @@
       <x:c r="B38" s="92"/>
       <x:c r="C38" s="92"/>
       <x:c r="D38" s="46" t="s">
-        <x:v>175</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E38" s="51"/>
     </x:row>
@@ -4595,7 +4785,7 @@
       <x:c r="B39" s="92"/>
       <x:c r="C39" s="92"/>
       <x:c r="D39" s="46" t="s">
-        <x:v>326</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="E39" s="51"/>
     </x:row>
@@ -4603,7 +4793,7 @@
       <x:c r="B40" s="92"/>
       <x:c r="C40" s="92"/>
       <x:c r="D40" s="46" t="s">
-        <x:v>174</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="E40" s="51"/>
     </x:row>
@@ -4611,17 +4801,17 @@
       <x:c r="B41" s="92"/>
       <x:c r="C41" s="93"/>
       <x:c r="D41" s="80" t="s">
-        <x:v>353</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="E41" s="56"/>
     </x:row>
     <x:row r="42" spans="2:5" ht="16.75">
       <x:c r="B42" s="92"/>
       <x:c r="C42" s="91" t="s">
-        <x:v>123</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D42" s="85" t="s">
-        <x:v>358</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="E42" s="50"/>
     </x:row>
@@ -4629,17 +4819,17 @@
       <x:c r="B43" s="92"/>
       <x:c r="C43" s="93"/>
       <x:c r="D43" s="84" t="s">
-        <x:v>327</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="E43" s="56"/>
     </x:row>
     <x:row r="44" spans="2:5" ht="16.75">
       <x:c r="B44" s="92"/>
       <x:c r="C44" s="91" t="s">
-        <x:v>120</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D44" s="79" t="s">
-        <x:v>305</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="E44" s="50"/>
     </x:row>
@@ -4647,17 +4837,17 @@
       <x:c r="B45" s="92"/>
       <x:c r="C45" s="93"/>
       <x:c r="D45" s="80" t="s">
-        <x:v>293</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="E45" s="56"/>
     </x:row>
     <x:row r="46" spans="2:5" ht="16.75">
       <x:c r="B46" s="92"/>
       <x:c r="C46" s="91" t="s">
-        <x:v>335</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="D46" s="79" t="s">
-        <x:v>346</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="E46" s="50"/>
     </x:row>
@@ -4665,7 +4855,7 @@
       <x:c r="B47" s="92"/>
       <x:c r="C47" s="92"/>
       <x:c r="D47" s="46" t="s">
-        <x:v>352</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="E47" s="51"/>
     </x:row>
@@ -4673,17 +4863,17 @@
       <x:c r="B48" s="92"/>
       <x:c r="C48" s="93"/>
       <x:c r="D48" s="80" t="s">
-        <x:v>362</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="E48" s="56"/>
     </x:row>
     <x:row r="49" spans="2:5" ht="16.75">
       <x:c r="B49" s="92"/>
       <x:c r="C49" s="91" t="s">
-        <x:v>35</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D49" s="79" t="s">
-        <x:v>369</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="E49" s="50"/>
     </x:row>
@@ -4691,7 +4881,7 @@
       <x:c r="B50" s="92"/>
       <x:c r="C50" s="92"/>
       <x:c r="D50" s="46" t="s">
-        <x:v>121</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E50" s="51"/>
     </x:row>
@@ -4699,7 +4889,7 @@
       <x:c r="B51" s="93"/>
       <x:c r="C51" s="93"/>
       <x:c r="D51" s="80" t="s">
-        <x:v>323</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="E51" s="56"/>
     </x:row>
@@ -4720,7 +4910,7 @@
     <x:mergeCell ref="C42:C43"/>
     <x:mergeCell ref="B2:B51"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -4747,54 +4937,54 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="17.149999999999999">
       <x:c r="A1" s="27" t="s">
-        <x:v>165</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B1" s="34" t="s">
-        <x:v>249</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C1" s="35" t="s">
-        <x:v>224</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D1" s="35" t="s">
-        <x:v>215</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E1" s="35" t="s">
-        <x:v>226</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="F1" s="35" t="s">
-        <x:v>240</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="G1" s="35" t="s">
-        <x:v>205</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="H1" s="35" t="s">
-        <x:v>64</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I1" s="36" t="s">
-        <x:v>44</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:9">
       <x:c r="A2" s="103" t="s">
-        <x:v>70</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B2" s="97" t="s">
-        <x:v>54</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C2" s="100" t="s">
-        <x:v>213</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D2" s="100" t="s">
-        <x:v>209</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E2" s="39" t="s">
-        <x:v>273</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="F2" s="39"/>
       <x:c r="G2" s="39"/>
       <x:c r="H2" s="39"/>
       <x:c r="I2" s="39" t="s">
-        <x:v>147</x:v>
+        <x:v>240</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -4803,13 +4993,13 @@
       <x:c r="C3" s="101"/>
       <x:c r="D3" s="101"/>
       <x:c r="E3" s="38" t="s">
-        <x:v>170</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="F3" s="38"/>
       <x:c r="G3" s="38"/>
       <x:c r="H3" s="38"/>
       <x:c r="I3" s="38" t="s">
-        <x:v>333</x:v>
+        <x:v>311</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -4818,7 +5008,7 @@
       <x:c r="C4" s="101"/>
       <x:c r="D4" s="101"/>
       <x:c r="E4" s="38" t="s">
-        <x:v>233</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="F4" s="38"/>
       <x:c r="G4" s="38"/>
@@ -4831,10 +5021,10 @@
       <x:c r="C5" s="101"/>
       <x:c r="D5" s="101"/>
       <x:c r="E5" s="95" t="s">
-        <x:v>259</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="F5" s="38" t="s">
-        <x:v>225</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="G5" s="38"/>
       <x:c r="H5" s="38"/>
@@ -4847,7 +5037,7 @@
       <x:c r="D6" s="96"/>
       <x:c r="E6" s="96"/>
       <x:c r="F6" s="38" t="s">
-        <x:v>148</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="G6" s="38"/>
       <x:c r="H6" s="38"/>
@@ -4858,10 +5048,10 @@
       <x:c r="B7" s="98"/>
       <x:c r="C7" s="101"/>
       <x:c r="D7" s="95" t="s">
-        <x:v>227</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="E7" s="38" t="s">
-        <x:v>40</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F7" s="38"/>
       <x:c r="G7" s="38"/>
@@ -4874,13 +5064,13 @@
       <x:c r="C8" s="101"/>
       <x:c r="D8" s="101"/>
       <x:c r="E8" s="38" t="s">
-        <x:v>63</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F8" s="38"/>
       <x:c r="G8" s="38"/>
       <x:c r="H8" s="38"/>
       <x:c r="I8" s="38" t="s">
-        <x:v>74</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -4889,13 +5079,13 @@
       <x:c r="C9" s="101"/>
       <x:c r="D9" s="101"/>
       <x:c r="E9" s="38" t="s">
-        <x:v>66</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F9" s="38"/>
       <x:c r="G9" s="38"/>
       <x:c r="H9" s="38"/>
       <x:c r="I9" s="38" t="s">
-        <x:v>348</x:v>
+        <x:v>334</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -4904,10 +5094,10 @@
       <x:c r="C10" s="101"/>
       <x:c r="D10" s="101"/>
       <x:c r="E10" s="95" t="s">
-        <x:v>269</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="F10" s="38" t="s">
-        <x:v>277</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="G10" s="38"/>
       <x:c r="H10" s="38"/>
@@ -4920,12 +5110,12 @@
       <x:c r="D11" s="101"/>
       <x:c r="E11" s="101"/>
       <x:c r="F11" s="38" t="s">
-        <x:v>223</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="G11" s="38"/>
       <x:c r="H11" s="38"/>
       <x:c r="I11" s="38" t="s">
-        <x:v>316</x:v>
+        <x:v>367</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -4935,7 +5125,7 @@
       <x:c r="D12" s="101"/>
       <x:c r="E12" s="101"/>
       <x:c r="F12" s="38" t="s">
-        <x:v>43</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G12" s="38"/>
       <x:c r="H12" s="38"/>
@@ -4948,12 +5138,12 @@
       <x:c r="D13" s="96"/>
       <x:c r="E13" s="96"/>
       <x:c r="F13" s="38" t="s">
-        <x:v>37</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G13" s="38"/>
       <x:c r="H13" s="38"/>
       <x:c r="I13" s="38" t="s">
-        <x:v>339</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="J13" s="30"/>
       <x:c r="K13" s="30"/>
@@ -4979,19 +5169,19 @@
       <x:c r="A14" s="104"/>
       <x:c r="B14" s="98"/>
       <x:c r="C14" s="95" t="s">
-        <x:v>247</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D14" s="95" t="s">
-        <x:v>208</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E14" s="38" t="s">
-        <x:v>25</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F14" s="38"/>
       <x:c r="G14" s="38"/>
       <x:c r="H14" s="38"/>
       <x:c r="I14" s="38" t="s">
-        <x:v>53</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="J14" s="30"/>
       <x:c r="K14" s="30"/>
@@ -5019,13 +5209,13 @@
       <x:c r="C15" s="101"/>
       <x:c r="D15" s="101"/>
       <x:c r="E15" s="38" t="s">
-        <x:v>281</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="F15" s="38"/>
       <x:c r="G15" s="38"/>
       <x:c r="H15" s="38"/>
       <x:c r="I15" s="38" t="s">
-        <x:v>237</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="J15" s="30"/>
       <x:c r="K15" s="30"/>
@@ -5053,7 +5243,7 @@
       <x:c r="C16" s="101"/>
       <x:c r="D16" s="101"/>
       <x:c r="E16" s="38" t="s">
-        <x:v>271</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="F16" s="38"/>
       <x:c r="G16" s="38"/>
@@ -5084,13 +5274,13 @@
       <x:c r="C17" s="101"/>
       <x:c r="D17" s="96"/>
       <x:c r="E17" s="38" t="s">
-        <x:v>260</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="F17" s="38"/>
       <x:c r="G17" s="38"/>
       <x:c r="H17" s="38"/>
       <x:c r="I17" s="38" t="s">
-        <x:v>368</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="J17" s="30"/>
       <x:c r="K17" s="30"/>
@@ -5117,13 +5307,13 @@
       <x:c r="B18" s="98"/>
       <x:c r="C18" s="101"/>
       <x:c r="D18" s="38" t="s">
-        <x:v>145</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E18" s="38" t="s">
-        <x:v>167</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="F18" s="38" t="s">
-        <x:v>252</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="G18" s="38"/>
       <x:c r="H18" s="38"/>
@@ -5153,14 +5343,14 @@
       <x:c r="B19" s="98"/>
       <x:c r="C19" s="101"/>
       <x:c r="D19" s="38" t="s">
-        <x:v>58</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E19" s="38"/>
       <x:c r="F19" s="38"/>
       <x:c r="G19" s="38"/>
       <x:c r="H19" s="38"/>
       <x:c r="I19" s="95" t="s">
-        <x:v>150</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="J19" s="30"/>
       <x:c r="K19" s="30"/>
@@ -5187,7 +5377,7 @@
       <x:c r="B20" s="98"/>
       <x:c r="C20" s="101"/>
       <x:c r="D20" s="38" t="s">
-        <x:v>260</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="E20" s="38"/>
       <x:c r="F20" s="38"/>
@@ -5219,7 +5409,7 @@
       <x:c r="B21" s="98"/>
       <x:c r="C21" s="101"/>
       <x:c r="D21" s="38" t="s">
-        <x:v>271</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="E21" s="38"/>
       <x:c r="F21" s="38"/>
@@ -5251,7 +5441,7 @@
       <x:c r="B22" s="99"/>
       <x:c r="C22" s="96"/>
       <x:c r="D22" s="38" t="s">
-        <x:v>149</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="E22" s="38"/>
       <x:c r="F22" s="38"/>
@@ -5281,10 +5471,10 @@
     <x:row r="23" spans="1:28">
       <x:c r="A23" s="104"/>
       <x:c r="B23" s="102" t="s">
-        <x:v>264</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="C23" s="38" t="s">
-        <x:v>172</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="D23" s="38"/>
       <x:c r="E23" s="38"/>
@@ -5316,7 +5506,7 @@
       <x:c r="A24" s="104"/>
       <x:c r="B24" s="98"/>
       <x:c r="C24" s="38" t="s">
-        <x:v>23</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D24" s="38"/>
       <x:c r="E24" s="38"/>
@@ -5348,7 +5538,7 @@
       <x:c r="A25" s="104"/>
       <x:c r="B25" s="98"/>
       <x:c r="C25" s="38" t="s">
-        <x:v>62</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D25" s="38"/>
       <x:c r="E25" s="38"/>
@@ -5380,13 +5570,13 @@
       <x:c r="A26" s="104"/>
       <x:c r="B26" s="98"/>
       <x:c r="C26" s="95" t="s">
-        <x:v>264</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="D26" s="38" t="s">
-        <x:v>219</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E26" s="38" t="s">
-        <x:v>183</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="F26" s="38"/>
       <x:c r="G26" s="38"/>
@@ -5476,13 +5666,13 @@
       <x:c r="B27" s="102"/>
       <x:c r="C27" s="101"/>
       <x:c r="D27" s="95" t="s">
-        <x:v>34</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E27" s="38" t="s">
-        <x:v>265</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="F27" s="38" t="s">
-        <x:v>189</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="G27" s="38"/>
       <x:c r="H27" s="38"/>
@@ -5572,10 +5762,10 @@
       <x:c r="C28" s="101"/>
       <x:c r="D28" s="96"/>
       <x:c r="E28" s="38" t="s">
-        <x:v>282</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="F28" s="38" t="s">
-        <x:v>189</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="G28" s="38"/>
       <x:c r="H28" s="38"/>
@@ -5664,10 +5854,10 @@
       <x:c r="B29" s="98"/>
       <x:c r="C29" s="101"/>
       <x:c r="D29" s="38" t="s">
-        <x:v>230</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E29" s="40" t="s">
-        <x:v>250</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="F29" s="40"/>
       <x:c r="G29" s="38"/>
@@ -5757,10 +5947,10 @@
       <x:c r="B30" s="98"/>
       <x:c r="C30" s="101"/>
       <x:c r="D30" s="38" t="s">
-        <x:v>222</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="E30" s="38" t="s">
-        <x:v>61</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F30" s="38"/>
       <x:c r="G30" s="38"/>
@@ -5851,7 +6041,7 @@
       <x:c r="C31" s="101"/>
       <x:c r="D31" s="38"/>
       <x:c r="E31" s="38" t="s">
-        <x:v>218</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F31" s="38"/>
       <x:c r="G31" s="38"/>
@@ -5941,10 +6131,10 @@
       <x:c r="B32" s="98"/>
       <x:c r="C32" s="101"/>
       <x:c r="D32" s="38" t="s">
-        <x:v>257</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E32" s="38" t="s">
-        <x:v>263</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="F32" s="38"/>
       <x:c r="G32" s="38"/>
@@ -6034,7 +6224,7 @@
       <x:c r="B33" s="98"/>
       <x:c r="C33" s="96"/>
       <x:c r="D33" s="38" t="s">
-        <x:v>283</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E33" s="38"/>
       <x:c r="F33" s="38"/>
@@ -6124,10 +6314,10 @@
       <x:c r="A34" s="103"/>
       <x:c r="B34" s="102"/>
       <x:c r="C34" s="95" t="s">
-        <x:v>290</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="D34" s="38" t="s">
-        <x:v>204</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="E34" s="38"/>
       <x:c r="F34" s="38"/>
@@ -6218,7 +6408,7 @@
       <x:c r="B35" s="98"/>
       <x:c r="C35" s="101"/>
       <x:c r="D35" s="38" t="s">
-        <x:v>39</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E35" s="38"/>
       <x:c r="F35" s="38"/>
@@ -6309,7 +6499,7 @@
       <x:c r="B36" s="98"/>
       <x:c r="C36" s="101"/>
       <x:c r="D36" s="38" t="s">
-        <x:v>67</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E36" s="38"/>
       <x:c r="F36" s="38"/>
@@ -6400,7 +6590,7 @@
       <x:c r="B37" s="98"/>
       <x:c r="C37" s="101"/>
       <x:c r="D37" s="38" t="s">
-        <x:v>69</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E37" s="38"/>
       <x:c r="F37" s="38"/>
@@ -6491,7 +6681,7 @@
       <x:c r="B38" s="98"/>
       <x:c r="C38" s="101"/>
       <x:c r="D38" s="38" t="s">
-        <x:v>278</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="E38" s="38"/>
       <x:c r="F38" s="38"/>
@@ -6582,7 +6772,7 @@
       <x:c r="B39" s="102"/>
       <x:c r="C39" s="96"/>
       <x:c r="D39" s="38" t="s">
-        <x:v>272</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="E39" s="38"/>
       <x:c r="F39" s="38"/>
@@ -6671,10 +6861,10 @@
     <x:row r="40" spans="1:87">
       <x:c r="A40" s="104"/>
       <x:c r="B40" s="102" t="s">
-        <x:v>65</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C40" s="38" t="s">
-        <x:v>46</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D40" s="38"/>
       <x:c r="E40" s="38"/>
@@ -6765,7 +6955,7 @@
       <x:c r="A41" s="104"/>
       <x:c r="B41" s="98"/>
       <x:c r="C41" s="38" t="s">
-        <x:v>287</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="D41" s="38"/>
       <x:c r="E41" s="38"/>
@@ -6856,7 +7046,7 @@
       <x:c r="A42" s="104"/>
       <x:c r="B42" s="98"/>
       <x:c r="C42" s="38" t="s">
-        <x:v>255</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D42" s="38"/>
       <x:c r="E42" s="38"/>
@@ -6947,7 +7137,7 @@
       <x:c r="A43" s="104"/>
       <x:c r="B43" s="98"/>
       <x:c r="C43" s="38" t="s">
-        <x:v>241</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D43" s="38"/>
       <x:c r="E43" s="38"/>
@@ -7038,7 +7228,7 @@
       <x:c r="A44" s="104"/>
       <x:c r="B44" s="98"/>
       <x:c r="C44" s="38" t="s">
-        <x:v>62</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D44" s="38"/>
       <x:c r="E44" s="38"/>
@@ -7129,7 +7319,7 @@
       <x:c r="A45" s="104"/>
       <x:c r="B45" s="99"/>
       <x:c r="C45" s="38" t="s">
-        <x:v>238</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D45" s="38"/>
       <x:c r="E45" s="38"/>
@@ -7219,10 +7409,10 @@
     <x:row r="46" spans="1:87">
       <x:c r="A46" s="104"/>
       <x:c r="B46" s="102" t="s">
-        <x:v>38</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C46" s="38" t="s">
-        <x:v>45</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D46" s="38"/>
       <x:c r="E46" s="38"/>
@@ -7313,7 +7503,7 @@
       <x:c r="A47" s="104"/>
       <x:c r="B47" s="98"/>
       <x:c r="C47" s="38" t="s">
-        <x:v>41</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D47" s="38"/>
       <x:c r="E47" s="38"/>
@@ -7404,7 +7594,7 @@
       <x:c r="A48" s="104"/>
       <x:c r="B48" s="98"/>
       <x:c r="C48" s="38" t="s">
-        <x:v>239</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D48" s="38"/>
       <x:c r="E48" s="38"/>
@@ -7495,7 +7685,7 @@
       <x:c r="A49" s="104"/>
       <x:c r="B49" s="99"/>
       <x:c r="C49" s="38" t="s">
-        <x:v>288</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="D49" s="38"/>
       <x:c r="E49" s="38"/>
@@ -7585,13 +7775,13 @@
     <x:row r="50" spans="1:87">
       <x:c r="A50" s="104"/>
       <x:c r="B50" s="102" t="s">
-        <x:v>286</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C50" s="95" t="s">
-        <x:v>172</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="D50" s="38" t="s">
-        <x:v>212</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E50" s="38"/>
       <x:c r="F50" s="38"/>
@@ -7682,7 +7872,7 @@
       <x:c r="B51" s="98"/>
       <x:c r="C51" s="96"/>
       <x:c r="D51" s="38" t="s">
-        <x:v>251</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="E51" s="38"/>
       <x:c r="F51" s="38"/>
@@ -7772,10 +7962,10 @@
       <x:c r="A52" s="104"/>
       <x:c r="B52" s="98"/>
       <x:c r="C52" s="95" t="s">
-        <x:v>68</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D52" s="38" t="s">
-        <x:v>195</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="E52" s="38"/>
       <x:c r="F52" s="38"/>
@@ -7866,7 +8056,7 @@
       <x:c r="B53" s="98"/>
       <x:c r="C53" s="96"/>
       <x:c r="D53" s="38" t="s">
-        <x:v>185</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="E53" s="38"/>
       <x:c r="F53" s="38"/>
@@ -7956,10 +8146,10 @@
       <x:c r="A54" s="104"/>
       <x:c r="B54" s="98"/>
       <x:c r="C54" s="95" t="s">
-        <x:v>184</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="D54" s="38" t="s">
-        <x:v>144</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="E54" s="38"/>
       <x:c r="F54" s="38"/>
@@ -8050,7 +8240,7 @@
       <x:c r="B55" s="98"/>
       <x:c r="C55" s="101"/>
       <x:c r="D55" s="38" t="s">
-        <x:v>194</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="E55" s="38"/>
       <x:c r="F55" s="38"/>
@@ -8141,7 +8331,7 @@
       <x:c r="B56" s="98"/>
       <x:c r="C56" s="96"/>
       <x:c r="D56" s="38" t="s">
-        <x:v>343</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="E56" s="38"/>
       <x:c r="F56" s="38"/>
@@ -8231,10 +8421,10 @@
       <x:c r="A57" s="104"/>
       <x:c r="B57" s="98"/>
       <x:c r="C57" s="95" t="s">
-        <x:v>242</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D57" s="38" t="s">
-        <x:v>324</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="E57" s="38"/>
       <x:c r="F57" s="38"/>
@@ -8325,7 +8515,7 @@
       <x:c r="B58" s="98"/>
       <x:c r="C58" s="96"/>
       <x:c r="D58" s="38" t="s">
-        <x:v>157</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="E58" s="38"/>
       <x:c r="F58" s="38"/>
@@ -8415,10 +8605,10 @@
       <x:c r="A59" s="104"/>
       <x:c r="B59" s="98"/>
       <x:c r="C59" s="95" t="s">
-        <x:v>188</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="D59" s="38" t="s">
-        <x:v>354</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="E59" s="38"/>
       <x:c r="F59" s="38"/>
@@ -8509,7 +8699,7 @@
       <x:c r="B60" s="98"/>
       <x:c r="C60" s="96"/>
       <x:c r="D60" s="38" t="s">
-        <x:v>345</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="E60" s="38"/>
       <x:c r="F60" s="38"/>
@@ -8599,10 +8789,10 @@
       <x:c r="A61" s="104"/>
       <x:c r="B61" s="98"/>
       <x:c r="C61" s="95" t="s">
-        <x:v>243</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D61" s="38" t="s">
-        <x:v>52</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E61" s="38"/>
       <x:c r="F61" s="38"/>
@@ -8693,7 +8883,7 @@
       <x:c r="B62" s="99"/>
       <x:c r="C62" s="96"/>
       <x:c r="D62" s="38" t="s">
-        <x:v>232</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E62" s="38"/>
       <x:c r="F62" s="38"/>
@@ -10717,9 +10907,9 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="A1:H60"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" activeCell="E27" activeCellId="0" sqref="E27:E27"/>
+    <x:sheetView topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:pane xSplit="0" ySplit="1" topLeftCell="C5" activePane="bottomLeft" state="frozen"/>
+      <x:selection pane="bottomLeft" activeCell="D2" activeCellId="0" sqref="D2:D4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -10735,50 +10925,50 @@
   <x:sheetData>
     <x:row r="1" spans="1:8" ht="17.149999999999999">
       <x:c r="A1" s="33" t="s">
-        <x:v>165</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B1" s="34" t="s">
-        <x:v>249</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C1" s="35" t="s">
-        <x:v>224</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D1" s="35" t="s">
-        <x:v>215</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E1" s="35" t="s">
-        <x:v>226</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="F1" s="35" t="s">
-        <x:v>240</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="G1" s="35" t="s">
-        <x:v>64</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H1" s="36" t="s">
-        <x:v>48</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8" ht="16.75" customHeight="1">
       <x:c r="A2" s="103" t="s">
-        <x:v>279</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B2" s="97" t="s">
-        <x:v>234</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="C2" s="110" t="s">
-        <x:v>213</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D2" s="108" t="s">
-        <x:v>208</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E2" s="59" t="s">
-        <x:v>162</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="F2" s="59"/>
       <x:c r="G2" s="59"/>
       <x:c r="H2" s="59" t="s">
-        <x:v>344</x:v>
+        <x:v>320</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -10787,12 +10977,12 @@
       <x:c r="C3" s="111"/>
       <x:c r="D3" s="109"/>
       <x:c r="E3" s="60" t="s">
-        <x:v>284</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="F3" s="60"/>
       <x:c r="G3" s="60"/>
       <x:c r="H3" s="60" t="s">
-        <x:v>235</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -10801,12 +10991,12 @@
       <x:c r="C4" s="111"/>
       <x:c r="D4" s="107"/>
       <x:c r="E4" s="60" t="s">
-        <x:v>259</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="F4" s="60"/>
       <x:c r="G4" s="60"/>
       <x:c r="H4" s="60" t="s">
-        <x:v>351</x:v>
+        <x:v>315</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
@@ -10814,15 +11004,15 @@
       <x:c r="B5" s="98"/>
       <x:c r="C5" s="111"/>
       <x:c r="D5" s="106" t="s">
-        <x:v>227</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="E5" s="61" t="s">
-        <x:v>253</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F5" s="60"/>
       <x:c r="G5" s="60"/>
       <x:c r="H5" s="60" t="s">
-        <x:v>301</x:v>
+        <x:v>346</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
@@ -10831,28 +11021,28 @@
       <x:c r="C6" s="112"/>
       <x:c r="D6" s="107"/>
       <x:c r="E6" s="61" t="s">
-        <x:v>66</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F6" s="60"/>
       <x:c r="G6" s="60"/>
       <x:c r="H6" s="60" t="s">
-        <x:v>124</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="104"/>
       <x:c r="B7" s="98"/>
       <x:c r="C7" s="114" t="s">
-        <x:v>254</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D7" s="106" t="s">
-        <x:v>127</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E7" s="106" t="s">
-        <x:v>208</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="F7" s="60" t="s">
-        <x:v>25</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="G7" s="60"/>
       <x:c r="H7" s="60"/>
@@ -10864,7 +11054,7 @@
       <x:c r="D8" s="109"/>
       <x:c r="E8" s="109"/>
       <x:c r="F8" s="60" t="s">
-        <x:v>193</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="G8" s="60"/>
       <x:c r="H8" s="60"/>
@@ -10876,7 +11066,7 @@
       <x:c r="D9" s="109"/>
       <x:c r="E9" s="109"/>
       <x:c r="F9" s="60" t="s">
-        <x:v>267</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="G9" s="60"/>
       <x:c r="H9" s="60"/>
@@ -10888,7 +11078,7 @@
       <x:c r="D10" s="109"/>
       <x:c r="E10" s="109"/>
       <x:c r="F10" s="60" t="s">
-        <x:v>58</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G10" s="60"/>
       <x:c r="H10" s="60"/>
@@ -10900,7 +11090,7 @@
       <x:c r="D11" s="113"/>
       <x:c r="E11" s="113"/>
       <x:c r="F11" s="62" t="s">
-        <x:v>244</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="G11" s="62"/>
       <x:c r="H11" s="62"/>
@@ -10908,16 +11098,16 @@
     <x:row r="12" spans="1:8">
       <x:c r="A12" s="104"/>
       <x:c r="B12" s="98" t="s">
-        <x:v>47</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C12" s="111" t="s">
-        <x:v>256</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D12" s="59" t="s">
-        <x:v>34</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E12" s="109" t="s">
-        <x:v>347</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="F12" s="59"/>
       <x:c r="G12" s="59"/>
@@ -10928,7 +11118,7 @@
       <x:c r="B13" s="98"/>
       <x:c r="C13" s="111"/>
       <x:c r="D13" s="61" t="s">
-        <x:v>219</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E13" s="109"/>
       <x:c r="F13" s="60"/>
@@ -10940,7 +11130,7 @@
       <x:c r="B14" s="98"/>
       <x:c r="C14" s="111"/>
       <x:c r="D14" s="61" t="s">
-        <x:v>262</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="E14" s="109"/>
       <x:c r="F14" s="60"/>
@@ -10952,7 +11142,7 @@
       <x:c r="B15" s="98"/>
       <x:c r="C15" s="112"/>
       <x:c r="D15" s="61" t="s">
-        <x:v>272</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="E15" s="107"/>
       <x:c r="F15" s="60"/>
@@ -10963,20 +11153,20 @@
       <x:c r="A16" s="104"/>
       <x:c r="B16" s="98"/>
       <x:c r="C16" s="114" t="s">
-        <x:v>275</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="D16" s="61" t="s">
-        <x:v>270</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="E16" s="106" t="s">
-        <x:v>172</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="F16" s="60" t="s">
-        <x:v>212</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="G16" s="60"/>
       <x:c r="H16" s="106" t="s">
-        <x:v>361</x:v>
+        <x:v>375</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -10984,11 +11174,11 @@
       <x:c r="B17" s="98"/>
       <x:c r="C17" s="112"/>
       <x:c r="D17" s="60" t="s">
-        <x:v>24</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E17" s="107"/>
       <x:c r="F17" s="60" t="s">
-        <x:v>251</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="G17" s="60"/>
       <x:c r="H17" s="107"/>
@@ -10997,26 +11187,26 @@
       <x:c r="A18" s="104"/>
       <x:c r="B18" s="115"/>
       <x:c r="C18" s="63" t="s">
-        <x:v>261</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="D18" s="62"/>
       <x:c r="E18" s="62"/>
       <x:c r="F18" s="62"/>
       <x:c r="G18" s="62"/>
       <x:c r="H18" s="62" t="s">
-        <x:v>355</x:v>
+        <x:v>335</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="104"/>
       <x:c r="B19" s="98" t="s">
-        <x:v>160</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="C19" s="111" t="s">
-        <x:v>65</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D19" s="59" t="s">
-        <x:v>46</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E19" s="59"/>
       <x:c r="F19" s="59"/>
@@ -11028,7 +11218,7 @@
       <x:c r="B20" s="98"/>
       <x:c r="C20" s="111"/>
       <x:c r="D20" s="60" t="s">
-        <x:v>26</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E20" s="60"/>
       <x:c r="F20" s="60"/>
@@ -11040,7 +11230,7 @@
       <x:c r="B21" s="98"/>
       <x:c r="C21" s="111"/>
       <x:c r="D21" s="60" t="s">
-        <x:v>255</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E21" s="60"/>
       <x:c r="F21" s="60"/>
@@ -11052,7 +11242,7 @@
       <x:c r="B22" s="98"/>
       <x:c r="C22" s="111"/>
       <x:c r="D22" s="60" t="s">
-        <x:v>62</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E22" s="60"/>
       <x:c r="F22" s="60"/>
@@ -11064,7 +11254,7 @@
       <x:c r="B23" s="98"/>
       <x:c r="C23" s="112"/>
       <x:c r="D23" s="60" t="s">
-        <x:v>238</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E23" s="60"/>
       <x:c r="F23" s="60"/>
@@ -11075,13 +11265,13 @@
       <x:c r="A24" s="103"/>
       <x:c r="B24" s="102"/>
       <x:c r="C24" s="114" t="s">
-        <x:v>241</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D24" s="106" t="s">
-        <x:v>29</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E24" s="60" t="s">
-        <x:v>42</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F24" s="60"/>
       <x:c r="G24" s="60"/>
@@ -11093,7 +11283,7 @@
       <x:c r="C25" s="111"/>
       <x:c r="D25" s="107"/>
       <x:c r="E25" s="60" t="s">
-        <x:v>32</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F25" s="60"/>
       <x:c r="G25" s="60"/>
@@ -11104,10 +11294,10 @@
       <x:c r="B26" s="102"/>
       <x:c r="C26" s="111"/>
       <x:c r="D26" s="106" t="s">
-        <x:v>55</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E26" s="60" t="s">
-        <x:v>56</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="F26" s="60"/>
       <x:c r="G26" s="60"/>
@@ -11119,7 +11309,7 @@
       <x:c r="C27" s="111"/>
       <x:c r="D27" s="109"/>
       <x:c r="E27" s="60" t="s">
-        <x:v>30</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F27" s="60"/>
       <x:c r="G27" s="60"/>
@@ -11131,7 +11321,7 @@
       <x:c r="C28" s="111"/>
       <x:c r="D28" s="109"/>
       <x:c r="E28" s="60" t="s">
-        <x:v>49</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="F28" s="60"/>
       <x:c r="G28" s="60"/>
@@ -11143,7 +11333,7 @@
       <x:c r="C29" s="116"/>
       <x:c r="D29" s="113"/>
       <x:c r="E29" s="62" t="s">
-        <x:v>50</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F29" s="62"/>
       <x:c r="G29" s="62"/>
@@ -11152,10 +11342,10 @@
     <x:row r="30" spans="1:8">
       <x:c r="A30" s="104"/>
       <x:c r="B30" s="98" t="s">
-        <x:v>38</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C30" s="64" t="s">
-        <x:v>45</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D30" s="59"/>
       <x:c r="E30" s="59"/>
@@ -11167,7 +11357,7 @@
       <x:c r="A31" s="104"/>
       <x:c r="B31" s="98"/>
       <x:c r="C31" s="58" t="s">
-        <x:v>41</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D31" s="60"/>
       <x:c r="E31" s="60"/>
@@ -11179,7 +11369,7 @@
       <x:c r="A32" s="104"/>
       <x:c r="B32" s="98"/>
       <x:c r="C32" s="58" t="s">
-        <x:v>239</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D32" s="60"/>
       <x:c r="E32" s="60"/>
@@ -11191,7 +11381,7 @@
       <x:c r="A33" s="104"/>
       <x:c r="B33" s="115"/>
       <x:c r="C33" s="65" t="s">
-        <x:v>288</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="D33" s="62"/>
       <x:c r="E33" s="62"/>
@@ -11202,10 +11392,10 @@
     <x:row r="34" spans="1:8" ht="16.75" customHeight="1">
       <x:c r="A34" s="104"/>
       <x:c r="B34" s="97" t="s">
-        <x:v>280</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="C34" s="64" t="s">
-        <x:v>161</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D34" s="59"/>
       <x:c r="E34" s="59"/>
@@ -11217,10 +11407,10 @@
       <x:c r="A35" s="104"/>
       <x:c r="B35" s="98"/>
       <x:c r="C35" s="95" t="s">
-        <x:v>243</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D35" s="60" t="s">
-        <x:v>52</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E35" s="60"/>
       <x:c r="F35" s="60"/>
@@ -11232,7 +11422,7 @@
       <x:c r="B36" s="98"/>
       <x:c r="C36" s="101"/>
       <x:c r="D36" s="60" t="s">
-        <x:v>232</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E36" s="60"/>
       <x:c r="F36" s="60"/>
@@ -11244,7 +11434,7 @@
       <x:c r="B37" s="98"/>
       <x:c r="C37" s="101"/>
       <x:c r="D37" s="60" t="s">
-        <x:v>164</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="E37" s="60"/>
       <x:c r="F37" s="60"/>
@@ -11256,7 +11446,7 @@
       <x:c r="B38" s="98"/>
       <x:c r="C38" s="101"/>
       <x:c r="D38" s="59" t="s">
-        <x:v>210</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E38" s="59"/>
       <x:c r="F38" s="59"/>
@@ -11268,7 +11458,7 @@
       <x:c r="B39" s="98"/>
       <x:c r="C39" s="101"/>
       <x:c r="D39" s="60" t="s">
-        <x:v>268</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="E39" s="60"/>
       <x:c r="F39" s="60"/>
@@ -11280,7 +11470,7 @@
       <x:c r="B40" s="115"/>
       <x:c r="C40" s="118"/>
       <x:c r="D40" s="48" t="s">
-        <x:v>211</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E40" s="48"/>
       <x:c r="F40" s="48"/>
@@ -11574,34 +11764,34 @@
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="49"/>
       <x:c r="B2" s="37" t="s">
-        <x:v>59</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C2" s="37" t="s">
-        <x:v>186</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="D2" s="37" t="s">
-        <x:v>245</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E2" s="37" t="s">
-        <x:v>248</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F2" s="37" t="s">
-        <x:v>48</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6" ht="16.75">
       <x:c r="A3" s="49"/>
       <x:c r="B3" s="97" t="s">
-        <x:v>231</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C3" s="100" t="s">
-        <x:v>266</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D3" s="100" t="s">
-        <x:v>214</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="E3" s="50" t="s">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F3" s="66"/>
     </x:row>
@@ -11611,7 +11801,7 @@
       <x:c r="C4" s="101"/>
       <x:c r="D4" s="101"/>
       <x:c r="E4" s="51" t="s">
-        <x:v>365</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="F4" s="67"/>
     </x:row>
@@ -11621,7 +11811,7 @@
       <x:c r="C5" s="101"/>
       <x:c r="D5" s="101"/>
       <x:c r="E5" s="51" t="s">
-        <x:v>100</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F5" s="67"/>
     </x:row>
@@ -11631,7 +11821,7 @@
       <x:c r="C6" s="101"/>
       <x:c r="D6" s="101"/>
       <x:c r="E6" s="51" t="s">
-        <x:v>110</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F6" s="67"/>
     </x:row>
@@ -11641,7 +11831,7 @@
       <x:c r="C7" s="101"/>
       <x:c r="D7" s="96"/>
       <x:c r="E7" s="52" t="s">
-        <x:v>15</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F7" s="67"/>
     </x:row>
@@ -11650,10 +11840,10 @@
       <x:c r="B8" s="98"/>
       <x:c r="C8" s="101"/>
       <x:c r="D8" s="95" t="s">
-        <x:v>27</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E8" s="53" t="s">
-        <x:v>4</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F8" s="67"/>
     </x:row>
@@ -11663,7 +11853,7 @@
       <x:c r="C9" s="101"/>
       <x:c r="D9" s="101"/>
       <x:c r="E9" s="51" t="s">
-        <x:v>313</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="F9" s="67"/>
     </x:row>
@@ -11673,7 +11863,7 @@
       <x:c r="C10" s="101"/>
       <x:c r="D10" s="96"/>
       <x:c r="E10" s="54" t="s">
-        <x:v>98</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F10" s="67"/>
     </x:row>
@@ -11682,10 +11872,10 @@
       <x:c r="B11" s="98"/>
       <x:c r="C11" s="101"/>
       <x:c r="D11" s="95" t="s">
-        <x:v>31</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E11" s="53" t="s">
-        <x:v>83</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F11" s="67"/>
     </x:row>
@@ -11695,7 +11885,7 @@
       <x:c r="C12" s="96"/>
       <x:c r="D12" s="96"/>
       <x:c r="E12" s="54" t="s">
-        <x:v>112</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F12" s="67"/>
     </x:row>
@@ -11703,13 +11893,13 @@
       <x:c r="A13" s="49"/>
       <x:c r="B13" s="98"/>
       <x:c r="C13" s="95" t="s">
-        <x:v>163</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="D13" s="95" t="s">
-        <x:v>65</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E13" s="53" t="s">
-        <x:v>303</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="F13" s="67"/>
     </x:row>
@@ -11719,7 +11909,7 @@
       <x:c r="C14" s="101"/>
       <x:c r="D14" s="101"/>
       <x:c r="E14" s="51" t="s">
-        <x:v>3</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F14" s="67"/>
     </x:row>
@@ -11729,7 +11919,7 @@
       <x:c r="C15" s="101"/>
       <x:c r="D15" s="101"/>
       <x:c r="E15" s="51" t="s">
-        <x:v>314</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="F15" s="67"/>
     </x:row>
@@ -11739,7 +11929,7 @@
       <x:c r="C16" s="101"/>
       <x:c r="D16" s="96"/>
       <x:c r="E16" s="54" t="s">
-        <x:v>76</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F16" s="67"/>
     </x:row>
@@ -11748,10 +11938,10 @@
       <x:c r="B17" s="98"/>
       <x:c r="C17" s="101"/>
       <x:c r="D17" s="95" t="s">
-        <x:v>51</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E17" s="53" t="s">
-        <x:v>312</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="F17" s="67"/>
     </x:row>
@@ -11761,7 +11951,7 @@
       <x:c r="C18" s="96"/>
       <x:c r="D18" s="96"/>
       <x:c r="E18" s="52" t="s">
-        <x:v>104</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F18" s="67"/>
     </x:row>
@@ -11769,13 +11959,13 @@
       <x:c r="A19" s="49"/>
       <x:c r="B19" s="98"/>
       <x:c r="C19" s="95" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D19" s="95" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D19" s="95" t="s">
-        <x:v>116</x:v>
-      </x:c>
       <x:c r="E19" s="53" t="s">
-        <x:v>298</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="F19" s="67"/>
     </x:row>
@@ -11785,7 +11975,7 @@
       <x:c r="C20" s="101"/>
       <x:c r="D20" s="96"/>
       <x:c r="E20" s="54" t="s">
-        <x:v>108</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F20" s="67"/>
     </x:row>
@@ -11794,10 +11984,10 @@
       <x:c r="B21" s="98"/>
       <x:c r="C21" s="101"/>
       <x:c r="D21" s="95" t="s">
-        <x:v>187</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="E21" s="53" t="s">
-        <x:v>364</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="F21" s="67"/>
     </x:row>
@@ -11807,7 +11997,7 @@
       <x:c r="C22" s="101"/>
       <x:c r="D22" s="96"/>
       <x:c r="E22" s="54" t="s">
-        <x:v>78</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F22" s="67"/>
     </x:row>
@@ -11816,10 +12006,10 @@
       <x:c r="B23" s="98"/>
       <x:c r="C23" s="101"/>
       <x:c r="D23" s="38" t="s">
-        <x:v>24</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E23" s="55" t="s">
-        <x:v>88</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F23" s="67"/>
     </x:row>
@@ -11828,10 +12018,10 @@
       <x:c r="B24" s="98"/>
       <x:c r="C24" s="101"/>
       <x:c r="D24" s="95" t="s">
-        <x:v>152</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="E24" s="53" t="s">
-        <x:v>122</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F24" s="67"/>
     </x:row>
@@ -11841,7 +12031,7 @@
       <x:c r="C25" s="101"/>
       <x:c r="D25" s="101"/>
       <x:c r="E25" s="51" t="s">
-        <x:v>82</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F25" s="67"/>
     </x:row>
@@ -11851,7 +12041,7 @@
       <x:c r="C26" s="101"/>
       <x:c r="D26" s="101"/>
       <x:c r="E26" s="51" t="s">
-        <x:v>72</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F26" s="67"/>
     </x:row>
@@ -11861,23 +12051,23 @@
       <x:c r="C27" s="118"/>
       <x:c r="D27" s="118"/>
       <x:c r="E27" s="56" t="s">
-        <x:v>318</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="F27" s="68"/>
     </x:row>
     <x:row r="28" spans="1:6" ht="16.75">
       <x:c r="A28" s="49"/>
       <x:c r="B28" s="97" t="s">
-        <x:v>258</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C28" s="69" t="s">
-        <x:v>236</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D28" s="69" t="s">
-        <x:v>28</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E28" s="70" t="s">
-        <x:v>317</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="F28" s="66"/>
     </x:row>
@@ -11885,13 +12075,13 @@
       <x:c r="A29" s="49"/>
       <x:c r="B29" s="98"/>
       <x:c r="C29" s="95" t="s">
-        <x:v>285</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="D29" s="38" t="s">
-        <x:v>60</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E29" s="55" t="s">
-        <x:v>73</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F29" s="67"/>
     </x:row>
@@ -11900,10 +12090,10 @@
       <x:c r="B30" s="98"/>
       <x:c r="C30" s="101"/>
       <x:c r="D30" s="95" t="s">
-        <x:v>33</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E30" s="53" t="s">
-        <x:v>300</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="F30" s="67"/>
     </x:row>
@@ -11913,7 +12103,7 @@
       <x:c r="C31" s="101"/>
       <x:c r="D31" s="101"/>
       <x:c r="E31" s="51" t="s">
-        <x:v>84</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F31" s="67"/>
     </x:row>
@@ -11923,7 +12113,7 @@
       <x:c r="C32" s="101"/>
       <x:c r="D32" s="101"/>
       <x:c r="E32" s="51" t="s">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F32" s="67"/>
     </x:row>
@@ -11933,19 +12123,19 @@
       <x:c r="C33" s="118"/>
       <x:c r="D33" s="118"/>
       <x:c r="E33" s="56" t="s">
-        <x:v>302</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="F33" s="68"/>
     </x:row>
     <x:row r="34" spans="1:6">
       <x:c r="A34" s="49"/>
       <x:c r="B34" s="98" t="s">
-        <x:v>228</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="C34" s="101"/>
       <x:c r="D34" s="101"/>
       <x:c r="E34" s="51" t="s">
-        <x:v>107</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F34" s="67"/>
     </x:row>
@@ -11955,7 +12145,7 @@
       <x:c r="C35" s="118"/>
       <x:c r="D35" s="118"/>
       <x:c r="E35" s="56" t="s">
-        <x:v>296</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="F35" s="68"/>
     </x:row>
@@ -12033,4 +12223,460 @@
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet6"/>
+  <x:dimension ref="A1:G40"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="A1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="C32" activeCellId="0" sqref="C32:C32"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="10.86328125" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="13.16015625" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="25.71484375" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="20.921875" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="7.5" customWidth="1"/>
+    <x:col min="7" max="7" width="36.109375" bestFit="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:7" ht="17.149999999999999">
+      <x:c r="A1" s="33" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="B1" s="120" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="C1" s="121" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="D1" s="121" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="E1" s="121" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="F1" s="121" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="G1" s="122" t="s">
+        <x:v>133</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:7" ht="16.75" customHeight="1">
+      <x:c r="A2" s="103" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" s="128" t="s">
+        <x:v>381</x:v>
+      </x:c>
+      <x:c r="C2" s="91" t="s">
+        <x:v>382</x:v>
+      </x:c>
+      <x:c r="D2" s="125" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E2" s="124"/>
+      <x:c r="F2" s="124"/>
+      <x:c r="G2" s="131" t="s">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:7" ht="16.75">
+      <x:c r="A3" s="104"/>
+      <x:c r="B3" s="129"/>
+      <x:c r="C3" s="93"/>
+      <x:c r="D3" s="127" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E3" s="45"/>
+      <x:c r="F3" s="45"/>
+      <x:c r="G3" s="133"/>
+    </x:row>
+    <x:row r="4" spans="1:7" ht="16.75" customHeight="1">
+      <x:c r="A4" s="104"/>
+      <x:c r="B4" s="129"/>
+      <x:c r="C4" s="91" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D4" s="125" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E4" s="124"/>
+      <x:c r="F4" s="124"/>
+      <x:c r="G4" s="131" t="s">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:7" ht="16.75">
+      <x:c r="A5" s="104"/>
+      <x:c r="B5" s="129"/>
+      <x:c r="C5" s="93"/>
+      <x:c r="D5" s="127" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E5" s="123"/>
+      <x:c r="F5" s="123"/>
+      <x:c r="G5" s="132"/>
+    </x:row>
+    <x:row r="6" spans="1:7" ht="16.75" customHeight="1">
+      <x:c r="A6" s="104"/>
+      <x:c r="B6" s="129"/>
+      <x:c r="C6" s="91" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D6" s="125" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E6" s="124"/>
+      <x:c r="F6" s="124"/>
+      <x:c r="G6" s="131" t="s">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:7" ht="16.75">
+      <x:c r="A7" s="104"/>
+      <x:c r="B7" s="129"/>
+      <x:c r="C7" s="93"/>
+      <x:c r="D7" s="127" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E7" s="123"/>
+      <x:c r="F7" s="123"/>
+      <x:c r="G7" s="132"/>
+    </x:row>
+    <x:row r="8" spans="1:7" ht="16.75" customHeight="1">
+      <x:c r="A8" s="104"/>
+      <x:c r="B8" s="129"/>
+      <x:c r="C8" s="91" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D8" s="131" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E8" s="124"/>
+      <x:c r="F8" s="124"/>
+      <x:c r="G8" s="131" t="s">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:7" ht="16.75">
+      <x:c r="A9" s="104"/>
+      <x:c r="B9" s="129"/>
+      <x:c r="C9" s="93"/>
+      <x:c r="D9" s="132" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E9" s="123"/>
+      <x:c r="F9" s="123"/>
+      <x:c r="G9" s="132"/>
+    </x:row>
+    <x:row r="10" spans="1:7" ht="16.75" customHeight="1">
+      <x:c r="A10" s="104"/>
+      <x:c r="B10" s="129"/>
+      <x:c r="C10" s="91" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D10" s="131" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E10" s="124"/>
+      <x:c r="F10" s="124"/>
+      <x:c r="G10" s="131" t="s">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:7" ht="16.75">
+      <x:c r="A11" s="104"/>
+      <x:c r="B11" s="129"/>
+      <x:c r="C11" s="130"/>
+      <x:c r="D11" s="132" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E11" s="123"/>
+      <x:c r="F11" s="123"/>
+      <x:c r="G11" s="132"/>
+    </x:row>
+    <x:row r="12" spans="1:7" ht="16.75" customHeight="1">
+      <x:c r="A12" s="104"/>
+      <x:c r="B12" s="129"/>
+      <x:c r="C12" s="91" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D12" s="126"/>
+      <x:c r="E12" s="45"/>
+      <x:c r="F12" s="45"/>
+      <x:c r="G12" s="133"/>
+    </x:row>
+    <x:row r="13" spans="1:7" ht="16.75">
+      <x:c r="A13" s="117"/>
+      <x:c r="B13" s="130"/>
+      <x:c r="C13" s="93"/>
+      <x:c r="D13" s="127"/>
+      <x:c r="E13" s="123"/>
+      <x:c r="F13" s="123"/>
+      <x:c r="G13" s="132"/>
+    </x:row>
+    <x:row r="14" spans="1:7">
+      <x:c r="A14" s="44"/>
+      <x:c r="B14" s="45"/>
+      <x:c r="C14" s="45"/>
+      <x:c r="D14" s="45"/>
+      <x:c r="E14" s="45"/>
+      <x:c r="F14" s="45"/>
+      <x:c r="G14" s="45"/>
+    </x:row>
+    <x:row r="15" spans="1:7">
+      <x:c r="A15" s="44"/>
+      <x:c r="B15" s="45"/>
+      <x:c r="C15" s="45"/>
+      <x:c r="D15" s="45"/>
+      <x:c r="E15" s="45"/>
+      <x:c r="F15" s="45"/>
+      <x:c r="G15" s="45"/>
+    </x:row>
+    <x:row r="16" spans="1:7">
+      <x:c r="A16" s="44"/>
+      <x:c r="B16" s="45"/>
+      <x:c r="C16" s="45"/>
+      <x:c r="D16" s="45"/>
+      <x:c r="E16" s="45"/>
+      <x:c r="F16" s="45"/>
+      <x:c r="G16" s="45"/>
+    </x:row>
+    <x:row r="17" spans="1:7">
+      <x:c r="A17" s="44"/>
+      <x:c r="B17" s="45"/>
+      <x:c r="C17" s="45"/>
+      <x:c r="D17" s="45"/>
+      <x:c r="E17" s="45"/>
+      <x:c r="F17" s="45"/>
+      <x:c r="G17" s="45"/>
+    </x:row>
+    <x:row r="18" spans="1:7">
+      <x:c r="A18" s="44"/>
+      <x:c r="B18" s="45"/>
+      <x:c r="C18" s="45"/>
+      <x:c r="D18" s="45"/>
+      <x:c r="E18" s="45"/>
+      <x:c r="F18" s="45"/>
+      <x:c r="G18" s="45"/>
+    </x:row>
+    <x:row r="19" spans="1:7">
+      <x:c r="A19" s="44"/>
+      <x:c r="B19" s="45"/>
+      <x:c r="C19" s="45"/>
+      <x:c r="D19" s="45"/>
+      <x:c r="E19" s="45"/>
+      <x:c r="F19" s="45"/>
+      <x:c r="G19" s="45"/>
+    </x:row>
+    <x:row r="20" spans="1:7">
+      <x:c r="A20" s="44"/>
+      <x:c r="B20" s="45"/>
+      <x:c r="C20" s="45"/>
+      <x:c r="D20" s="45"/>
+      <x:c r="E20" s="45"/>
+      <x:c r="F20" s="45"/>
+      <x:c r="G20" s="45"/>
+    </x:row>
+    <x:row r="21" spans="1:7">
+      <x:c r="A21" s="44"/>
+      <x:c r="B21" s="45"/>
+      <x:c r="C21" s="45"/>
+      <x:c r="D21" s="45"/>
+      <x:c r="E21" s="45"/>
+      <x:c r="F21" s="45"/>
+      <x:c r="G21" s="45"/>
+    </x:row>
+    <x:row r="22" spans="1:7">
+      <x:c r="A22" s="44"/>
+      <x:c r="B22" s="45"/>
+      <x:c r="C22" s="45"/>
+      <x:c r="D22" s="45"/>
+      <x:c r="E22" s="45"/>
+      <x:c r="F22" s="45"/>
+      <x:c r="G22" s="45"/>
+    </x:row>
+    <x:row r="23" spans="1:7">
+      <x:c r="A23" s="44"/>
+      <x:c r="B23" s="45"/>
+      <x:c r="C23" s="45"/>
+      <x:c r="D23" s="45"/>
+      <x:c r="E23" s="45"/>
+      <x:c r="F23" s="45"/>
+      <x:c r="G23" s="45"/>
+    </x:row>
+    <x:row r="24" spans="1:7">
+      <x:c r="A24" s="44"/>
+      <x:c r="B24" s="45"/>
+      <x:c r="C24" s="45"/>
+      <x:c r="D24" s="45"/>
+      <x:c r="E24" s="45"/>
+      <x:c r="F24" s="45"/>
+      <x:c r="G24" s="45"/>
+    </x:row>
+    <x:row r="25" spans="1:7">
+      <x:c r="A25" s="44"/>
+      <x:c r="B25" s="45"/>
+      <x:c r="C25" s="45"/>
+      <x:c r="D25" s="45"/>
+      <x:c r="E25" s="45"/>
+      <x:c r="F25" s="45"/>
+      <x:c r="G25" s="45"/>
+    </x:row>
+    <x:row r="26" spans="1:7">
+      <x:c r="A26" s="44"/>
+      <x:c r="B26" s="45"/>
+      <x:c r="C26" s="45"/>
+      <x:c r="D26" s="45"/>
+      <x:c r="E26" s="45"/>
+      <x:c r="F26" s="45"/>
+      <x:c r="G26" s="45"/>
+    </x:row>
+    <x:row r="27" spans="1:7">
+      <x:c r="A27" s="44"/>
+      <x:c r="B27" s="45"/>
+      <x:c r="C27" s="45"/>
+      <x:c r="D27" s="45"/>
+      <x:c r="E27" s="45"/>
+      <x:c r="F27" s="45"/>
+      <x:c r="G27" s="45"/>
+    </x:row>
+    <x:row r="28" spans="1:7">
+      <x:c r="A28" s="44"/>
+      <x:c r="B28" s="45"/>
+      <x:c r="C28" s="45"/>
+      <x:c r="D28" s="45"/>
+      <x:c r="E28" s="45"/>
+      <x:c r="F28" s="45"/>
+      <x:c r="G28" s="45"/>
+    </x:row>
+    <x:row r="29" spans="1:7">
+      <x:c r="A29" s="44"/>
+      <x:c r="B29" s="45"/>
+      <x:c r="C29" s="45"/>
+      <x:c r="D29" s="45"/>
+      <x:c r="E29" s="45"/>
+      <x:c r="F29" s="45"/>
+      <x:c r="G29" s="45"/>
+    </x:row>
+    <x:row r="30" spans="1:7">
+      <x:c r="A30" s="44"/>
+      <x:c r="B30" s="45"/>
+      <x:c r="C30" s="45"/>
+      <x:c r="D30" s="45"/>
+      <x:c r="E30" s="45"/>
+      <x:c r="F30" s="45"/>
+      <x:c r="G30" s="45"/>
+    </x:row>
+    <x:row r="31" spans="1:7">
+      <x:c r="A31" s="44"/>
+      <x:c r="B31" s="45"/>
+      <x:c r="C31" s="45"/>
+      <x:c r="D31" s="45"/>
+      <x:c r="E31" s="45"/>
+      <x:c r="F31" s="45"/>
+      <x:c r="G31" s="45"/>
+    </x:row>
+    <x:row r="32" spans="1:7">
+      <x:c r="A32" s="44"/>
+      <x:c r="B32" s="45"/>
+      <x:c r="C32" s="45"/>
+      <x:c r="D32" s="45"/>
+      <x:c r="E32" s="45"/>
+      <x:c r="F32" s="45"/>
+      <x:c r="G32" s="45"/>
+    </x:row>
+    <x:row r="33" spans="1:7">
+      <x:c r="A33" s="44"/>
+      <x:c r="B33" s="45"/>
+      <x:c r="C33" s="45"/>
+      <x:c r="D33" s="45"/>
+      <x:c r="E33" s="45"/>
+      <x:c r="F33" s="45"/>
+      <x:c r="G33" s="45"/>
+    </x:row>
+    <x:row r="34" spans="1:7">
+      <x:c r="A34" s="44"/>
+      <x:c r="B34" s="45"/>
+      <x:c r="C34" s="45"/>
+      <x:c r="D34" s="45"/>
+      <x:c r="E34" s="45"/>
+      <x:c r="F34" s="45"/>
+      <x:c r="G34" s="45"/>
+    </x:row>
+    <x:row r="35" spans="1:7">
+      <x:c r="A35" s="44"/>
+      <x:c r="B35" s="45"/>
+      <x:c r="C35" s="45"/>
+      <x:c r="D35" s="45"/>
+      <x:c r="E35" s="45"/>
+      <x:c r="F35" s="45"/>
+      <x:c r="G35" s="45"/>
+    </x:row>
+    <x:row r="36" spans="1:7">
+      <x:c r="A36" s="44"/>
+      <x:c r="B36" s="45"/>
+      <x:c r="C36" s="45"/>
+      <x:c r="D36" s="45"/>
+      <x:c r="E36" s="45"/>
+      <x:c r="F36" s="45"/>
+      <x:c r="G36" s="45"/>
+    </x:row>
+    <x:row r="37" spans="1:7">
+      <x:c r="A37" s="44"/>
+      <x:c r="B37" s="45"/>
+      <x:c r="C37" s="45"/>
+      <x:c r="D37" s="45"/>
+      <x:c r="E37" s="45"/>
+      <x:c r="F37" s="45"/>
+      <x:c r="G37" s="45"/>
+    </x:row>
+    <x:row r="38" spans="1:7">
+      <x:c r="A38" s="44"/>
+      <x:c r="B38" s="45"/>
+      <x:c r="C38" s="45"/>
+      <x:c r="D38" s="45"/>
+      <x:c r="E38" s="45"/>
+      <x:c r="F38" s="45"/>
+      <x:c r="G38" s="45"/>
+    </x:row>
+    <x:row r="39" spans="1:7">
+      <x:c r="A39" s="44"/>
+      <x:c r="B39" s="45"/>
+      <x:c r="C39" s="45"/>
+      <x:c r="D39" s="45"/>
+      <x:c r="E39" s="45"/>
+      <x:c r="F39" s="45"/>
+      <x:c r="G39" s="45"/>
+    </x:row>
+    <x:row r="40" spans="1:7">
+      <x:c r="A40" s="44"/>
+      <x:c r="B40" s="45"/>
+      <x:c r="C40" s="45"/>
+      <x:c r="D40" s="45"/>
+      <x:c r="E40" s="45"/>
+      <x:c r="F40" s="45"/>
+      <x:c r="G40" s="45"/>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="8">
+    <x:mergeCell ref="B2:B13"/>
+    <x:mergeCell ref="C2:C3"/>
+    <x:mergeCell ref="C4:C5"/>
+    <x:mergeCell ref="C6:C7"/>
+    <x:mergeCell ref="C8:C9"/>
+    <x:mergeCell ref="C10:C11"/>
+    <x:mergeCell ref="C12:C13"/>
+    <x:mergeCell ref="A2:A13"/>
+  </x:mergeCells>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
 </file>
--- a/2021_Summer/jp.hong/Datebook_jph.xlsx
+++ b/2021_Summer/jp.hong/Datebook_jph.xlsx
@@ -9,27 +9,341 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="8568"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8592"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Datebook" sheetId="1" r:id="rId4"/>
-    <x:sheet name="registry artifacts" sheetId="2" r:id="rId5"/>
-    <x:sheet name="Menu_Tree_MC" sheetId="3" r:id="rId6"/>
-    <x:sheet name="Menu_Tree_Ours" sheetId="4" r:id="rId7"/>
-    <x:sheet name="Def_Func" sheetId="5" r:id="rId8"/>
-    <x:sheet name="Menu_Tree_Forensic" sheetId="6" r:id="rId9"/>
+    <x:sheet name="reg_artifact" sheetId="2" r:id="rId5"/>
+    <x:sheet name="registry artifacts" sheetId="3" r:id="rId6"/>
+    <x:sheet name="Menu_Tree_MC" sheetId="4" r:id="rId7"/>
+    <x:sheet name="Menu_Tree_Ours" sheetId="5" r:id="rId8"/>
+    <x:sheet name="Def_Func" sheetId="6" r:id="rId9"/>
+    <x:sheet name="Menu_Tree_Forensic" sheetId="7" r:id="rId10"/>
   </x:sheets>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="387">
-  <x:si>
-    <x:t>1. 필요 자료 추가 조사
-2. 한계점 및 필요기술 추가
- - 차량 블루투스와 어플 연결 어떻게?
- - 연결이 된다면 원하는 정보만 어떻게 가져 올건지?</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="432">
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성(login, join, 내 차고, 차량 정보) 미완
+2. 블루투스 관련 자료 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HKCU\Software\Microsoft\Windows\CurrentVersion\Explorer
+\ComDig32\LastVisitedMRU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최근 open되거나 save된 파일 목록을 기록 유지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 분석 (실현성 확인)
+2. 데이터 흐름도 수정
+ - 차량 관련 새소식 창 삭제 및 다른 사항 수정
+3. Menu_Tree 작성
+4. Flow_Chart 작성
+5. 필요 자료 추가 조사
+ -&gt; 주유, 부품들의 수명정보(?) 어떻게 자동으로 받아올지 알아봐야함 -&gt; 블루투스 =&gt; 블루투스 연동 어떻게?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 경쟁 어플 메뉴트리 수정
+2. 요구사항, 기능정의 순서 수정
+3. 한계점 수정
+블루투스 -&gt; 사진 촬영 ====&gt; 대체하게 되면 글자 인식하는 코드 필요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장치명이 설정된 경우 - 장치명을 변경하지 않는다면 최초 연결 시간
+장치명이 설정되지 않은 경우 - 연결된 볼륨명이 변경되지 않고 계속 사용되면 최초 연결시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. DateBook_Comment 부분 수정
+2. GIT보고서 수정
+ - 설치 과정 추가
+ - 명령어 부분 내용 추가
+3. PPT 머릿글 요약 작성 - (미완)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+ - 컴퓨터 견적 추천 앱
+ - 주차시 사고발생 알림 앱
+2. 주제 아이디어 최종 선정
+ - 차량 관리 어플
+3. 개발 계획서 및 요구사항 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 화면 시퀀스 작성 (설명, 커뮤니티, 알림, 설정화면 추가)
+2. 추가 자료 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알맞은 ID값과 패스워드 값이 입력 될 경우 그에 맞는 회원 정보가 로그인 되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 가입시 아이디, 비밀번호, 이름, 전화번호, 생년월일, 차종의 정보를 받아야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+ - 디스크 바이너리 데이터 분석 툴
+ - 헤더와 푸터를 이용한 카빙 툴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 예약을 하는 과정에서 사용자가 선택한 지점과 선택된 지점의 정보가 일치해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판의 글을 삭제하거나 올리기 위한 '글쓰기'버튼과 '글 삭제' 버튼이 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. (2-2) 수익적 요소 추가
+2. (4-1) 기능정의 추가
+3. 추가 자료 조사
+ - 비슷한 어플(마이클) 화면 구성 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 수집 및 정의
+ - 관련 필요 자료 조사
+ - 기능적/ 비기능적 요구사항 내용 추가
+2. 개발에 필요한 요구사항 분석 (실현성 확인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 주제아이디어 선정 - 사용자 기록 추적 프로그램 (레지스트리 이용)
+2. 레지스트리 분석으로 알아낼 수 있는 정보들 정리
+3.. 요구사항 정의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 추가 자료조사(관련 코드)
+2. FlowChart 수정 및 보완</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어플의 예약기능을 통해 예약한 경우 업체로부터 일정 수수료를 받는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Git 목록 삭제
+2. 요구사항 분석
+3. 인터페이스 구상도 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성 (미완)
+2. 스피너 및 캘린더 뷰 다이어리 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주행 거리 정보를 받아 계산하여 남은 수명에 대해 알려 주어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호는 특수문자 포함 8자리 이상 12자리 이하 이어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RecentDocs - 최근 실행한 문서, 그림, 동영상 등의 파일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LastVisitedPidMRU - 탐색기를 통해 열어본 폴더 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소유한 차량이 여러 대일 경우 차량의 정보를 추가할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 진행사항 체크 및 2주차 목표 설정
+2. 06.28 회의록 작성
+3. 상용화 된 타 앱 기능 분석
+4. 요구사항 정의
+ - 회원가입, DB, 무결성 (미완)
+5. vi사용법 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 07.02 회의록 작성
+2. Git 업로드 한 것 중 중복된 것들 삭제
+3. 어플 흐름 구상도 작성
+4. 요구사항/기능 정의/기능 설계 3가지 부분으로 나누어 요구사항 수정(미완)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 추가한 공유 폴더 목록, 경로, 권한, 이름 정보 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일광 절약 시간동안 현지 시간 변환에 사용되는 분,대부분 -60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입시 필요한 정보 및 소유한 차량의 정보를 포함해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품의 종류를 다르게 하여 여러가지를 선택 할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 정의
+2. 지도교수 방문
+ - 진행사항 보고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 브리핑 준비
+ - 메모장 정리
+2. 견학 보고서 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현지 시간 변환에 대한 현재 분 UTC와 현지 시간의 차이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. vi 명령어 설명서 작성
+2. 요구사항 정의 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외부에서 받아오는 정보(지도, 가격 등)에 변조가 없어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유, 연비, 운행거리, 정비 및 기타비용 총액/월별 지출액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정 기능을 통해 작성했던 글을 수정 할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+2. 브리핑 준비
+3. 견학 보고서 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor 정보, 제품명, Revision number 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 이전 프로젝트 리뷰(전체 흐름 파악)
+2. 요구사항 정의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 기능 정의 보완
+2. 관련 자료 수집
+3. 스토리보드 제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사라지거나 위치가 바뀐 정보를 수시로 업데이트 해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 날짜를 기록할 수 있도록 다이어리 형식으로 제공해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택 된 부품은 값의 변조 없이 알맞은 값이 저장되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록된 사용자만이 자신이 등록한 차량의 정보를 확인해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 레지스트리 접근 및 정보 추출 코드 정리
+2. 요구사항 보완</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-1. Datebook Comment 부분 요약
+1-2. GIT 보고서 다시 작성
+1-3. PPT 머릿글 요약 작성
+1-4. 파일명 수정
+1-5 최종 아이디어 선정 이유 작성
+2. 요구사항 수집 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최근 열린 폴더</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 현장실습 OT
+ - 기업 소개 및 업무 설명
+ - 앞으로 수행하게 될 프로젝트 설명
+2. 기존에 진행했던 캡스톤프로젝트 첨언
+3. 제품 개발 과정 설명
+ - 제품 기획 
+ - 개발 기획  
+ - 개발 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>history</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Device</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Google</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로그램</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HKCU\SOFTWARE\Microsoft\Windows\CurrentVersion\Explorer
+\ComDig32\OpenSaveMRU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Autorun Location</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 플로우 차트 작성
+2. 설계 계획서 작성
+3. Menu_Tree 도식화 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Device Class ID 하위키로 Serial 정보 여부에 따라 두 가지로 분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 계획하고 있는 어플의 메뉴트리 작성 및 ppt 수정
+2. 요구사항 추가 및 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성(각 화면 기능 설명 채우기)
+2. 각 화면 플로우 차트 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RunMRU - (시작 - 실행) 또는 Ctrl + R을 통해 실행한 명령 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 앱 화면별 Sequence 작성
+2. 앱 화면별 어떻게 구성할 것인지 구상
+3. 추가 자료조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 기능 정의 보완
+2. 관련 자료 수집 - 레지스트리 접근 코드 및 추출 정보 엑셀 출력 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 정의 및 분석 - 체계화
+ - 기능 / 비기능적 요구사항 분류 및 수정
+2. 요구사항 분석
+3. 구현 가능 여부 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06.22, 06.23 회의록 작성
+2. Git 환경 설정
+3. Git 설정 화면 캡처 및 보고서 작성
+4. 캡스톤 아이디어 도출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>install</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설치 파일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중복되는 아이디로 가입시도시 아이디 입력 오류 메세지가 출력되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인에 성공했다면 로그인 버튼이 아닌 로그 아웃 버튼을 보여주어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value : AutoShareServer를 통해 기본적인 공유목록 상태 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 수집 및 정의
+2. 요구사항 분석
+3. 구현 가능 여부 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 인터페이스 구상도 작성
+2. 요구사항 분류하여 수정
+3. 추가 자료조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OpenSavePidMRU - 탐색기를 통해 열어보거나 저장한 파일 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 추가 자료조사
+2. 요구사항 추가 조사
+3. 경쟁 어플 기능 비교 보완</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성(설명,컨테이너등 정보 채우기)
+2. 기능플로우 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실행한 프로그램의 경로와 실행 유형, 실행 횟수, 최종 실행 시간 정보 확인</x:t>
   </x:si>
   <x:si>
     <x:t>1. 실습 환경 설정 및 설명
@@ -43,828 +357,8 @@
  - 차량 관리 어플</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 앱 화면별 Sequence 작성
-2. 앱 화면별 어떻게 구성할 것인지 구상
-3. 추가 자료조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 경쟁 어플 메뉴트리 수정
-2. 요구사항, 기능정의 순서 수정
-3. 한계점 수정
-블루투스 -&gt; 사진 촬영 ====&gt; 대체하게 되면 글자 인식하는 코드 필요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장치명이 설정된 경우 - 장치명을 변경하지 않는다면 최초 연결 시간
-장치명이 설정되지 않은 경우 - 연결된 볼륨명이 변경되지 않고 계속 사용되면 최초 연결시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. DateBook_Comment 부분 수정
-2. GIT보고서 수정
- - 설치 과정 추가
- - 명령어 부분 내용 추가
-3. PPT 머릿글 요약 작성 - (미완)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
- - 컴퓨터 견적 추천 앱
- - 주차시 사고발생 알림 앱
-2. 주제 아이디어 최종 선정
- - 차량 관리 어플
-3. 개발 계획서 및 요구사항 작성</x:t>
-  </x:si>
-  <x:si>
     <x:t>회원가입을 위해 시도한 비밀번호가 7자리 이하이거나 13자리 이상일 경우
 비밀번호 입력 오류 메세지가 출력되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 현장실습 OT
- - 기업 소개 및 업무 설명
- - 앞으로 수행하게 될 프로젝트 설명
-2. 기존에 진행했던 캡스톤프로젝트 첨언
-3. 제품 개발 과정 설명
- - 제품 기획 
- - 개발 기획  
- - 개발 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-1. Datebook Comment 부분 요약
-1-2. GIT 보고서 다시 작성
-1-3. PPT 머릿글 요약 작성
-1-4. 파일명 수정
-1-5 최종 아이디어 선정 이유 작성
-2. 요구사항 수집 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 정의 및 분석 - 체계화
- - 기능 / 비기능적 요구사항 분류 및 수정
-2. 요구사항 분석
-3. 구현 가능 여부 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 06.22, 06.23 회의록 작성
-2. Git 환경 설정
-3. Git 설정 화면 캡처 및 보고서 작성
-4. 캡스톤 아이디어 도출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 추가한 공유 폴더 목록, 경로, 권한, 이름 정보 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일광 절약 시간동안 현지 시간 변환에 사용되는 분,대부분 -60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 날짜를 기록할 수 있도록 다이어리 형식으로 제공해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. vi 명령어 설명서 작성
-2. 요구사항 정의 및 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 이전 프로젝트 리뷰(전체 흐름 파악)
-2. 요구사항 정의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입시 필요한 정보 및 소유한 차량의 정보를 포함해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
-2. 브리핑 준비
-3. 견학 보고서 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vendor 정보, 제품명, Revision number 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품의 종류를 다르게 하여 여러가지를 선택 할 수 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정 기능을 통해 작성했던 글을 수정 할 수 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 기능 정의 보완
-2. 관련 자료 수집
-3. 스토리보드 제작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외부에서 받아오는 정보(지도, 가격 등)에 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사라지거나 위치가 바뀐 정보를 수시로 업데이트 해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 브리핑 준비
- - 메모장 정리
-2. 견학 보고서 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택 된 부품은 값의 변조 없이 알맞은 값이 저장되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유, 연비, 운행거리, 정비 및 기타비용 총액/월별 지출액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현지 시간 변환에 대한 현재 분 UTC와 현지 시간의 차이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 정의
-2. 지도교수 방문
- - 진행사항 보고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록된 사용자만이 자신이 등록한 차량의 정보를 확인해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 분석 (실현성 확인)
-2. 데이터 흐름도 수정
- - 차량 관련 새소식 창 삭제 및 다른 사항 수정
-3. Menu_Tree 작성
-4. Flow_Chart 작성
-5. 필요 자료 추가 조사
- -&gt; 주유, 부품들의 수명정보(?) 어떻게 자동으로 받아올지 알아봐야함 -&gt; 블루투스 =&gt; 블루투스 연동 어떻게?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실행창에 입력한 정보 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StandardBias</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RDP Connection</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Device Class ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설치된 프로그램 목록 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마지막으로 로그인 한 사용자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이달의 정비/세차 혜택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DaylightStart</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험료 확인 및 갱신일 알림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>F / V 값 계정 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템 사용자 프로필 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dhcp가 할당해준 IP주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스 및 드라이버 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차종, 차번호, 연식 등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TimeZoneKeyName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>네트워크 드라이브 연결 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 무료 판매 견적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 정비소 찾아보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작업 관리자의 서비스 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DaylightName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StandardStart</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DaylightBias</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방문 정비소 기록, 메모</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기아 커넥티드카 연동하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품 별 남은 수명 보여줌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shared Resource</x:t>
-  </x:si>
-  <x:si>
-    <x:t>각 사용자 별 기본 경로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유소 포인트 적립 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StandardName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무선 AP 마지막 접속 시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ActiveTimeBias</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USB Information</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원격 데스크탑 연결 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점검 스케쥴 및 일정 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>항목 및 정비 주기 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:45
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Device Class ID 하위키로 Serial 정보 여부에 따라 두 가지로 분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 플로우 차트 작성
-2. 설계 계획서 작성
-3. Menu_Tree 도식화 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 계획하고 있는 어플의 메뉴트리 작성 및 ppt 수정
-2. 요구사항 추가 및 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성(각 화면 기능 설명 채우기)
-2. 각 화면 플로우 차트 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RunMRU - (시작 - 실행) 또는 Ctrl + R을 통해 실행한 명령 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>word</x:t>
-  </x:si>
-  <x:si>
-    <x:t>exit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>chrome</x:t>
-  </x:si>
-  <x:si>
-    <x:t>export</x:t>
-  </x:si>
-  <x:si>
-    <x:t>excel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조직 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bias</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>네트워크 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차 정보 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>help</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공식 서비스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여름 휴가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엔진오일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경기/인천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>value</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 방문 장소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수리견적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필요 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>함수의 계산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>디테일링</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타 항목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tips</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모두의 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오너들의 차고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자차 게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타이어샵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오늘 교체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공유게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약 교체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결함/리콜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SID구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기록 및 통계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객상담</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용 가이드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메모 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Home</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에어컨필터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>견적 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이클 이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연차, 보험료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균 연비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연비 랭킹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비기능적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험사 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카카오톡 문의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 시기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수익적 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Menu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 시세</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일정 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모아보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 항목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 주변 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운영체제 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균연비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>setting</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첫예약할인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 검사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>더 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALL*</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 구매</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신 글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어플 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에어컨 필터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이어리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 후기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Forensic</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:40
-18:05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:52
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마지막 종료 시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 판매견적 받기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MRU List</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운영체제 설치 루트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 보험료 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 차 정보 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유사 모델 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템 기본 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>community</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:40
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:34
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 보험 선호도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:22
-18:01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자주 하는 질문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Community</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:36
-18:04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 기본 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:43
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 정보 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템 사용자 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>코엑스 전시회 견학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:43
-18:01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:36
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 형태로 존재</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품 교체 예상 견적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약/견적 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주요 하위 키 값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 보험 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무선랜 접속 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:32
-18:05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User Assist</x:t>
-  </x:si>
-  <x:si>
-    <x:t>네트워크 인터페이스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진행 방향 ---&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:32
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동차 보험료 계산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:35
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:34
-12:37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:33
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친구 초대 이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:27
-18:05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스 (메뉴)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:27
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:25
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:36
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:30
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:23
-15:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:32
-18:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비소 지도 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09:00
-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 연동 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:36
-18:07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 정비소 예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>할인 쿠폰 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운영체제 식별자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고장사례(리콜사례)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운전자 보험료 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:37
-18:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:30
-18:04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운영체제 설치 날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:25
-15:54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 장착점 예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운영체제 세부 버전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰 보유 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운전자 추천 서비스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_Menu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호는 특수문자 포함 8자리 이상 12자리 이하 이어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 추가 자료조사(관련 코드)
-2. FlowChart 수정 및 보완</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. Git 목록 삭제
-2. 요구사항 분석
-3. 인터페이스 구상도 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성 (미완)
-2. 스피너 및 캘린더 뷰 다이어리 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주행 거리 정보를 받아 계산하여 남은 수명에 대해 알려 주어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어플의 예약기능을 통해 예약한 경우 업체로부터 일정 수수료를 받는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LastVisitedPidMRU - 탐색기를 통해 열어본 폴더 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소유한 차량이 여러 대일 경우 차량의 정보를 추가할 수 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RecentDocs - 최근 실행한 문서, 그림, 동영상 등의 파일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 레지스트리 접근 및 정보 추출 코드 정리
-2. 요구사항 보완</x:t>
   </x:si>
   <x:si>
     <x:t>1. vi 명령어 설명서 작성 완료
@@ -878,12 +372,743 @@
 3. 15:00 ~ 지도교수 면담</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 메뉴시퀀스 작성(login, join, 내 차고, 차량 정보) 미완
-2. 블루투스 관련 자료 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 화면을 들어가게 되면 아이디와 비밀번호의 입력 창, 회원가입 버튼과
-로그인 버튼이 나와야 한다.</x:t>
+    <x:t>08:45
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 정보(오너들의 평균 정보)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>excel 파일로 출력된 정보 저장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Install Software</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로컬 컴퓨터의 표준 시간대 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Startup Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 기능 정의
+2. 관련자료 수집</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Unique Instance ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Services/Drivers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주행 거리별 check list</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검내역서(정비소 제공 문서)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Network Interface</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교체할 부품을 선택 받아야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>system information</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템종료 시 페이지 파일 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 레지스트리 접근 코드 작업</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템에 등록 된 컴퓨터 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HKLM\SYSTEM\ControlSet00x\Enum\USBSTOR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 필요 자료 추가 조사
+2. 한계점 및 필요기술 추가
+ - 차량 블루투스와 어플 연결 어떻게?
+ - 연결이 된다면 원하는 정보만 어떻게 가져 올건지?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유사 모델 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>community</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 보험료 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:40
+18:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마지막 종료 시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 정보 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Forensic</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 판매견적 받기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템 기본 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:52
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MRU List</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운영체제 설치 루트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품 교체 예상 견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험 선호도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:22
+18:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Community</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 기본 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템 사용자 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자주 하는 질문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 정보 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>코엑스 전시회 견학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:43
+18:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 형태로 존재</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:36
+18:04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:36
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:40
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:34
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:43
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스 (메뉴)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험료 계산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Assist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:27
+18:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약/견적 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 보험 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>네트워크 인터페이스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:35
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:34
+12:37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친구 초대 이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:33
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주요 하위 키 값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:32
+18:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진행 방향 ---&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무선랜 접속 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:32
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:25
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:36
+18:07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:36
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:23
+15:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비소 지도 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:30
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 연동 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운영체제 식별자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고장사례(리콜사례)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:27
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 정비소 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:32
+18:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:37
+18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운전자 보험료 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09:00
+18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>할인 쿠폰 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:30
+18:04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 장착점 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰 보유 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_Menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운영체제 설치 날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운영체제 세부 버전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운전자 추천 서비스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:25
+15:54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\USERS\YOUR\APPDATA\LOCAL\GOOGLE\CHROME\USERDATA\DEFAULT\</x:t>
+  </x:si>
+  <x:si>
+    <x:t>etc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>exe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>달력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭설철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인기글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가을</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>만족도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계절별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상황별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보안성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타이어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장마철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Q&amp;A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채팅창</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무결성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이클</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>편집</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>손세차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리뷰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>봄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>겨울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>usb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MRU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용 가이드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공유게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필요 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타 항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수리견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>디테일링</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타이어샵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결함/리콜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tips</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오늘 교체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SID구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오너들의 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객상담</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약 교체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기록 및 통계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메모 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 방문 장소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Home</x:t>
+  </x:si>
+  <x:si>
+    <x:t>견적 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자차 게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>함수의 계산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모두의 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이클 이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에어컨필터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 시기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연비 랭킹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 주변 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>더 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일정 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연차, 보험료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험사 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수익적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모아보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카카오톡 문의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비기능적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 시세</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운영체제 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균 연비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>setting</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첫예약할인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 검사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능적 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균연비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 구매</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에어컨 필터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어플 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALL*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신 글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이어리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정비 후기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>excel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>chrome</x:t>
+  </x:si>
+  <x:si>
+    <x:t>네트워크 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조직 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bias</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공식 서비스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>exit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>export</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠폰 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>word</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차 정보 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>help</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경기/인천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여름 휴가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>value</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엔진오일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth 3</x:t>
   </x:si>
   <x:si>
     <x:t>1. 아이디어 도출
@@ -891,411 +1116,294 @@
 3. 최종 아이디어 관련 자료, 필요 기술 정리, 문서화</x:t>
   </x:si>
   <x:si>
-    <x:t>회원 가입시 아이디, 비밀번호, 이름, 전화번호, 생년월일, 차종의 정보를 받아야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판의 글을 삭제하거나 올리기 위한 '글쓰기'버튼과 '글 삭제' 버튼이 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 화면 시퀀스 작성 (설명, 커뮤니티, 알림, 설정화면 추가)
-2. 추가 자료 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비 예약을 하는 과정에서 사용자가 선택한 지점과 선택된 지점의 정보가 일치해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알맞은 ID값과 패스워드 값이 입력 될 경우 그에 맞는 회원 정보가 로그인 되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
- - 디스크 바이너리 데이터 분석 툴
- - 헤더와 푸터를 이용한 카빙 툴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Services/Drivers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점검내역서(정비소 제공 문서)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주행 거리별 check list</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 정보(오너들의 평균 정보)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>excel 파일로 출력된 정보 저장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Install Software</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Network Interface</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교체할 부품을 선택 받아야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로컬 컴퓨터의 표준 시간대 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 기능 정의
-2. 관련자료 수집</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Startup Services</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Unique Instance ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>system information</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템종료 시 페이지 파일 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템에 등록 된 컴퓨터 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 레지스트리 접근 코드 작업</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중복되는 아이디로 가입시도시 아이디 입력 오류 메세지가 출력되어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value : AutoShareServer를 통해 기본적인 공유목록 상태 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실행한 프로그램의 경로와 실행 유형, 실행 횟수, 최종 실행 시간 정보 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성(설명,컨테이너등 정보 채우기)
-2. 기능플로우 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인에 성공했다면 로그인 버튼이 아닌 로그 아웃 버튼을 보여주어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OpenSavePidMRU - 탐색기를 통해 열어보거나 저장한 파일 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 인터페이스 구상도 작성
-2. 요구사항 분류하여 수정
-3. 추가 자료조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 수집 및 정의
-2. 요구사항 분석
-3. 구현 가능 여부 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 추가 자료조사
-2. 요구사항 추가 조사
-3. 경쟁 어플 기능 비교 보완</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 주제아이디어 선정 - 사용자 기록 추적 프로그램 (레지스트리 이용)
-2. 레지스트리 분석으로 알아낼 수 있는 정보들 정리
-3.. 요구사항 정의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 수집 및 정의
- - 관련 필요 자료 조사
- - 기능적/ 비기능적 요구사항 내용 추가
-2. 개발에 필요한 요구사항 분석 (실현성 확인)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 07.02 회의록 작성
-2. Git 업로드 한 것 중 중복된 것들 삭제
-3. 어플 흐름 구상도 작성
-4. 요구사항/기능 정의/기능 설계 3가지 부분으로 나누어 요구사항 수정(미완)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 진행사항 체크 및 2주차 목표 설정
-2. 06.28 회의록 작성
-3. 상용화 된 타 앱 기능 분석
-4. 요구사항 정의
- - 회원가입, DB, 무결성 (미완)
-5. vi사용법 설명</x:t>
+    <x:t>로그인 화면을 들어가게 되면 아이디와 비밀번호의 입력 창, 회원가입 버튼과
+로그인 버튼이 나와야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> - NTFS파일 시스템에 의해서 mount된 volume목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모든 USB관련 목록 - 마우스, 키보드, 데이터 저장 장치 등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>windows가 구동되면서 실행되어야하는 프로그램 목록 기록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StandardBias</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험료 확인 및 갱신일 알림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스 및 드라이버 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TimeZoneKeyName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>F / V 값 계정 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>각 사용자 별 기본 경로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DaylightName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>네트워크 드라이브 연결 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StandardStart</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이달의 정비/세차 혜택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작업 관리자의 서비스 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방문 정비소 기록, 메모</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품 별 남은 수명 보여줌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dhcp가 할당해준 IP주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기아 커넥티드카 연동하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RDP Connection</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실행창에 입력한 정보 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설치된 프로그램 목록 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마지막으로 로그인 한 사용자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Device Class ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DaylightStart</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템 사용자 프로필 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 정비소 찾아보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차종, 차번호, 연식 등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 차 무료 판매 견적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shared Resource</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DaylightBias</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StandardName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USB Information</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ActiveTimeBias</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원격 데스크탑 연결 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점검 스케쥴 및 일정 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>항목 및 정비 주기 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무선 AP 마지막 접속 시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유소 포인트 적립 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HKLM\SYSTEM\MountedDevices</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 06.28 회의록 작성
+2. 요구사항 정의 및 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SID(Security Identifier) 보안식별자</x:t>
   </x:si>
   <x:si>
     <x:t>표준시간 동안 현지 시간 변환에 사용되는 분. 대부분 0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SID(Security Identifier) 보안식별자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. (2-2) 수익적 요소 추가
-2. (4-1) 기능정의 추가
-3. 추가 자료 조사
- - 비슷한 어플(마이클) 화면 구성 조사</x:t>
   </x:si>
   <x:si>
     <x:t>1. 화면 플로우 마무리
 2. Setting창 화면 추가</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 06.28 회의록 작성
-2. 요구사항 정의 및 분석</x:t>
+    <x:t>1. 요구사항 정의 및 분석 보완
+2. 기능정의 보완</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 화면 플로우 작업
+2. 정비예약화면 아이콘 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 실패시 로그인 오류 메세지를 출력해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험, 범칙금, 주차요금, 톨게이트 비용, 차량용품 등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최초 연결 시각 (레지스트리 키의 마지막 쓰기 시간)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판의 글들은 페이지당 20개씩 보여주어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 최근에 열거나 실행한 파일 및 폴더 정보 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파일 및 폴더 실행 정보를 통한 사용자 행위 파악 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 기능 정의 보완
+2. 기능정의 - 메뉴트리 추가</x:t>
   </x:si>
   <x:si>
     <x:t>1. Menu_Tree 수정(완료)
 2. 추가 자료 조사</x:t>
   </x:si>
   <x:si>
-    <x:t>게시판의 글들은 페이지당 20개씩 보여주어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 실패시 로그인 오류 메세지를 출력해야 한다.</x:t>
+    <x:t>1. 각 버튼 및 창 기능 설명, 기능 플로우 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>할인률, 총액의 계산 과정에 오류가 있어선 안된다.</x:t>
   </x:si>
   <x:si>
     <x:t>채팅방 및 게시판에 들어가기 위해서는 로그인을 해야한다.</x:t>
   </x:si>
   <x:si>
+    <x:t>부품들의 시세변동을 지속적으로 업데이트 해야 한다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>휴지통을 통해 삭제되는지, 거치지 않고 삭제되는지 결정</x:t>
   </x:si>
   <x:si>
-    <x:t>사용자가 최근에 열거나 실행한 파일 및 폴더 정보 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>할인률, 총액의 계산 과정에 오류가 있어선 안된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 정의 및 분석 보완
-2. 기능정의 보완</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파일 및 폴더 실행 정보를 통한 사용자 행위 파악 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험, 범칙금, 주차요금, 톨게이트 비용, 차량용품 등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 각 버튼 및 창 기능 설명, 기능 플로우 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 화면 플로우 작업
-2. 정비예약화면 아이콘 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품들의 시세변동을 지속적으로 업데이트 해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최초 연결 시각 (레지스트리 키의 마지막 쓰기 시간)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 기능 정의 보완
-2. 기능정의 - 메뉴트리 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>exe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>etc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>달력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭설철</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인기글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>편집</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계절별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>손세차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Q&amp;A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리뷰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이클</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채팅창</x:t>
-  </x:si>
-  <x:si>
-    <x:t>만족도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠폰함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타이어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보안성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상황별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무결성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장마철</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>봄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점검</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>겨울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가을</x:t>
-  </x:si>
-  <x:si>
-    <x:t>usb</x:t>
+    <x:t>1. 레지스트리 추출 정보 다시 정리(Master key, Sub key값 별)
+2. 레지스트리 정보 추출 코드 수집</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HKCU\SOFTWARE\Microsoft\Windows\CurrentVersion\Explorer\UserAssist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HKCU\Software\Microsoft\Windows\CurrentVersion\Explorer
+\RecentDocs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판을 이용하기 위해서는 로그인을 해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 사용자가 로그온 시 자동 실행되는 항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>표준 시간대의 일광절약 시간을 나타내는 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>표준시간에서 일광 절약시간으로 전환될 때의 날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이콘을 활용하여 한 눈에 확인하기 쉬워야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어플 내 광고를 통해 일정 수입료를 받는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템 시간 동안 GMT에서 offset된 시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APP종료시 입력된 데이터는 변조가 없어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유량, 연비, 운행 거리 및 기타 비용 통계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 화면 시퀀스 작성
+2. 추가 자료 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DB에 저장된 내용들은 변조가 없어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일광 절약 시간에서 표준시간으로 전환될 때의 날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 메뉴시퀀스 작성
+ - 화면별 세부기능 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 표준시간대의 표준 시간을 나타내는 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 계약서 작성
+2. 현장실습 오리엔테이션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그온 한 사용자 상관없이 자동 실행되는 항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 주제 아이디어 선정
+2. 요구사항 정의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이 키는 [시작] -&gt; [실행]을 선택하여 실행된 명령어 (예 : cmd, regedit등) 의 목록을 유지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HKCU\Software\Microsoft\Windows\CurrentVersion\Explorer
+\RunMRU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 아이디어 도출
+ - USB 복구 툴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 정의
+2. 관련자료 수집</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TimeZone Information</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마지막으로 접근한 레지스트리 키 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 시스템에 추가한 Volume</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중복되는 아이디는 가입이 되어선 안된다.</x:t>
   </x:si>
   <x:si>
     <x:t>1. 기능 정의 보완
 2. 관련 자료 수집</x:t>
   </x:si>
   <x:si>
-    <x:t>DB에 저장된 내용들은 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판을 이용하기 위해서는 로그인을 해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>APP종료시 입력된 데이터는 변조가 없어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 주제 아이디어 선정
-2. 요구사항 정의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>표준 시간대의 일광절약 시간을 나타내는 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템 시간 동안 GMT에서 offset된 시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어플 내 광고를 통해 일정 수입료를 받는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 표준시간대의 표준 시간을 나타내는 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유량, 연비, 운행 거리 및 기타 비용 통계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 화면 시퀀스 작성
-2. 추가 자료 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 사용자가 로그온 시 자동 실행되는 항목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 메뉴시퀀스 작성
- - 화면별 세부기능 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>표준시간에서 일광 절약시간으로 전환될 때의 날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일광 절약 시간에서 표준시간으로 전환될 때의 날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이콘을 활용하여 한 눈에 확인하기 쉬워야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그온 한 사용자 상관없이 자동 실행되는 항목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 계약서 작성
-2. 현장실습 오리엔테이션</x:t>
+    <x:t>다이어리에 메모한 사항 달력에 날짜 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Installed Software List</x:t>
   </x:si>
   <x:si>
     <x:t>정확한 위치의 지도 정보를 받아와야 한다.</x:t>
@@ -1304,41 +1412,78 @@
     <x:t>게시판 형태로 존재, 결함/리콜 내역</x:t>
   </x:si>
   <x:si>
-    <x:t>마지막으로 접근한 레지스트리 키 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Installed Software List</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 아이디어 도출
- - USB 복구 툴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 시스템에 추가한 Volume</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 정의
-2. 관련자료 수집</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중복되는 아이디는 가입이 되어선 안된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TimeZone Information</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이어리에 메모한 사항 달력에 날짜 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 기능 정의 보완
-2. 관련 자료 수집 - 레지스트리 접근 코드 및 추출 정보 엑셀 출력 코드</x:t>
+    <x:t>설치된 프로그램 목록 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SqlDB Browser</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HKCU\Software\Microsoft\SearchAssistant\ACMru</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USB관련</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최근 검색한 내용을 포함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HKLM\SYSTEM\CurrentControlSet\Enum\USB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가장 최근에 사용된 파일, 프로그램 등에 대한 정보 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최근 사용된 실행 프로그램의 파일명과 open/save한 파일이 존재하는 폴더 path로 이루어짐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HKLM\SOFTWARE\Microsoft\Current Version\RunServicesOnce</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 Windows 탐색기를 통해서 열거나 실행한 파일, 폴더 정보 저장
+최근 문서(recent)와 동일하지만 확장자별로 그룹화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HKLM\SOFTWARE\Microsoft\Current Version\RunOnce(Ex)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HKLM\SOFTWARE\Microsoft\Current Version\RunServices</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HKLM\SOFTWARE\Microsoft\CurrentVersion\Run</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HKLM\SOFTWARE\Microsoft\Windows\CurrentVersion\Uninstall</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USB 장치 정보 저장
+ - Unique instance ID : USB장치의 Unique ID로서 동일 Device Class ID를 갖더라도 장치 별로 구별.
+ - HKLM\SYSTEM\MountedDevices를 참조하여 어떤 USB장치가 어떤 드라이브에 mount되어있는지 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Google Chrome Internet History</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HKEY_USERS\Serial_Num1001\SOFTWARE\HNC\Hwp\8.0\HwpFrame\RecentFile</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HKU\{USER}\SOFTWARE\Microsoft\Office\{Version}\App}\Place MRU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한글 파일 실행 기록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. reg_artifact 시트 추가 (레지스트리 아티팩트 경로)
+2. regipy 코드 분석하여 핵심 코드 추출 작업</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="8">
+  <x:fonts count="11">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -1380,8 +1525,77 @@
       <x:color rgb="ffffffff"/>
       <x:b val="1"/>
     </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
+          <hs:underlineShape val="solid"/>
+          <hs:underlineType val="1"/>
+          <hs:underlineColor rgb="ff0000ff"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff3d4444"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff3d4444"/>
+          <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="9"/>
+          <x:color rgb="ff3d4444"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="9"/>
+          <x:color rgb="ff3d4444"/>
+          <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:fonts>
-  <x:fills count="6">
+  <x:fills count="8">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -1412,6 +1626,18 @@
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffffff00"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffffffff"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
   </x:fills>
   <x:borders count="45">
     <x:border>
@@ -2062,7 +2288,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="136">
+  <x:cellXfs count="148">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -2815,6 +3041,19 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -3181,6 +3420,59 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3873,9 +4165,9 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B2:F42"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:pane xSplit="0" ySplit="2" topLeftCell="C26" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" activeCell="E37" activeCellId="0" sqref="E37:E37"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:pane xSplit="0" ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <x:selection pane="bottomLeft" activeCell="E50" activeCellId="0" sqref="E50:E50"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.199999999999999"/>
@@ -3883,7 +4175,7 @@
     <x:col min="1" max="1" width="1.796875" style="5" customWidth="1"/>
     <x:col min="2" max="2" width="10" style="5" bestFit="1" customWidth="1"/>
     <x:col min="3" max="3" width="10.24609375" style="5" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="4" width="45.68359375" style="6" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="47.203125" style="6" bestFit="1" customWidth="1"/>
     <x:col min="5" max="5" width="55.09765625" style="6" customWidth="1"/>
     <x:col min="6" max="6" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
     <x:col min="7" max="16384" width="8.796875" style="5"/>
@@ -3892,16 +4184,16 @@
     <x:row r="1" ht="6.5999999999999996" customHeight="1"/>
     <x:row r="2" spans="2:5" ht="31.199999999999999" customHeight="1">
       <x:c r="B2" s="7" t="s">
-        <x:v>136</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="C2" s="8" t="s">
-        <x:v>155</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="D2" s="8" t="s">
-        <x:v>108</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E2" s="9" t="s">
-        <x:v>88</x:v>
+        <x:v>310</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:5" ht="105.75">
@@ -3909,13 +4201,13 @@
         <x:v>44369</x:v>
       </x:c>
       <x:c r="C3" s="17" t="s">
-        <x:v>221</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D3" s="11" t="s">
-        <x:v>375</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="E3" s="11" t="s">
-        <x:v>8</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:5" ht="118.55">
@@ -3923,13 +4215,13 @@
         <x:v>44370</x:v>
       </x:c>
       <x:c r="C4" s="16" t="s">
-        <x:v>221</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D4" s="14" t="s">
-        <x:v>11</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E4" s="14" t="s">
-        <x:v>1</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:5" ht="79.049999999999997">
@@ -3937,13 +4229,13 @@
         <x:v>44371</x:v>
       </x:c>
       <x:c r="C5" s="18" t="s">
-        <x:v>217</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D5" s="14" t="s">
-        <x:v>252</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="E5" s="14" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:5" ht="79.049999999999997">
@@ -3951,13 +4243,13 @@
         <x:v>44372</x:v>
       </x:c>
       <x:c r="C6" s="20" t="s">
-        <x:v>217</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D6" s="14" t="s">
-        <x:v>9</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E6" s="19" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:5" ht="79.049999999999997">
@@ -3965,13 +4257,13 @@
         <x:v>44375</x:v>
       </x:c>
       <x:c r="C7" s="16" t="s">
-        <x:v>212</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D7" s="14" t="s">
-        <x:v>292</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="E7" s="14" t="s">
-        <x:v>287</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:5" ht="52.700000000000003">
@@ -3979,13 +4271,13 @@
         <x:v>44376</x:v>
       </x:c>
       <x:c r="C8" s="16" t="s">
-        <x:v>223</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D8" s="14" t="s">
-        <x:v>15</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E8" s="14" t="s">
-        <x:v>248</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:5" ht="52.700000000000003">
@@ -3993,13 +4285,13 @@
         <x:v>44377</x:v>
       </x:c>
       <x:c r="C9" s="21" t="s">
-        <x:v>218</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D9" s="14" t="s">
-        <x:v>10</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E9" s="14" t="s">
-        <x:v>249</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:5" ht="52.700000000000003">
@@ -4007,13 +4299,13 @@
         <x:v>44378</x:v>
       </x:c>
       <x:c r="C10" s="22" t="s">
-        <x:v>219</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D10" s="14" t="s">
-        <x:v>282</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E10" s="14" t="s">
-        <x:v>285</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:5" ht="65.849999999999994">
@@ -4021,13 +4313,13 @@
         <x:v>44379</x:v>
       </x:c>
       <x:c r="C11" s="24" t="s">
-        <x:v>214</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D11" s="14" t="s">
-        <x:v>240</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E11" s="14" t="s">
-        <x:v>286</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:5" ht="105.40000000000001">
@@ -4035,13 +4327,13 @@
         <x:v>44382</x:v>
       </x:c>
       <x:c r="C12" s="23" t="s">
-        <x:v>215</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D12" s="14" t="s">
-        <x:v>281</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E12" s="14" t="s">
-        <x:v>31</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:5" ht="52.700000000000003">
@@ -4049,13 +4341,13 @@
         <x:v>44383</x:v>
       </x:c>
       <x:c r="C13" s="25" t="s">
-        <x:v>219</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D13" s="14" t="s">
-        <x:v>239</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E13" s="14" t="s">
-        <x:v>0</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:5" ht="52.700000000000003">
@@ -4063,13 +4355,13 @@
         <x:v>44384</x:v>
       </x:c>
       <x:c r="C14" s="26" t="s">
-        <x:v>185</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D14" s="14" t="s">
-        <x:v>2</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E14" s="14" t="s">
-        <x:v>290</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:5" ht="52.700000000000003">
@@ -4077,13 +4369,13 @@
         <x:v>44385</x:v>
       </x:c>
       <x:c r="C15" s="32" t="s">
-        <x:v>190</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D15" s="14" t="s">
-        <x:v>283</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E15" s="14" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:5" ht="26.350000000000001">
@@ -4091,13 +4383,13 @@
         <x:v>44386</x:v>
       </x:c>
       <x:c r="C16" s="33" t="s">
-        <x:v>182</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D16" s="14" t="s">
-        <x:v>300</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="E16" s="14" t="s">
-        <x:v>71</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:5" ht="39.549999999999997">
@@ -4105,13 +4397,13 @@
         <x:v>44389</x:v>
       </x:c>
       <x:c r="C17" s="72" t="s">
-        <x:v>206</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D17" s="14" t="s">
-        <x:v>70</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E17" s="14" t="s">
-        <x:v>293</x:v>
+        <x:v>372</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:5" ht="26.350000000000001">
@@ -4119,13 +4411,13 @@
         <x:v>44390</x:v>
       </x:c>
       <x:c r="C18" s="73" t="s">
-        <x:v>194</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D18" s="14" t="s">
-        <x:v>368</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="E18" s="14" t="s">
-        <x:v>250</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:5" ht="26.350000000000001">
@@ -4133,13 +4425,13 @@
         <x:v>44391</x:v>
       </x:c>
       <x:c r="C19" s="73" t="s">
-        <x:v>219</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D19" s="14" t="s">
-        <x:v>368</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="E19" s="14" t="s">
-        <x:v>241</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:5" ht="26.350000000000001">
@@ -4147,13 +4439,13 @@
         <x:v>44392</x:v>
       </x:c>
       <x:c r="C20" s="16" t="s">
-        <x:v>216</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D20" s="14" t="s">
-        <x:v>255</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E20" s="13" t="s">
-        <x:v>181</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="2:5" ht="26.350000000000001">
@@ -4161,13 +4453,13 @@
         <x:v>44393</x:v>
       </x:c>
       <x:c r="C21" s="74" t="s">
-        <x:v>210</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D21" s="14" t="s">
-        <x:v>278</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E21" s="14" t="s">
-        <x:v>370</x:v>
+        <x:v>393</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="2:5" ht="26.350000000000001">
@@ -4175,13 +4467,13 @@
         <x:v>44396</x:v>
       </x:c>
       <x:c r="C22" s="75" t="s">
-        <x:v>230</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D22" s="13" t="s">
-        <x:v>303</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="E22" s="14" t="s">
-        <x:v>72</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="2:5" ht="26.350000000000001">
@@ -4189,13 +4481,13 @@
         <x:v>44397</x:v>
       </x:c>
       <x:c r="C23" s="76" t="s">
-        <x:v>183</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D23" s="14" t="s">
-        <x:v>291</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="E23" s="14" t="s">
-        <x:v>304</x:v>
+        <x:v>364</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="2:5" ht="39.549999999999997">
@@ -4203,13 +4495,13 @@
         <x:v>44398</x:v>
       </x:c>
       <x:c r="C24" s="16" t="s">
-        <x:v>208</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D24" s="13" t="s">
-        <x:v>176</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E24" s="14" t="s">
-        <x:v>258</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="2:5" ht="26.350000000000001">
@@ -4217,13 +4509,13 @@
         <x:v>44399</x:v>
       </x:c>
       <x:c r="C25" s="77" t="s">
-        <x:v>188</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D25" s="13" t="s">
-        <x:v>176</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E25" s="14" t="s">
-        <x:v>380</x:v>
+        <x:v>400</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="2:5" ht="26.350000000000001">
@@ -4231,13 +4523,13 @@
         <x:v>44400</x:v>
       </x:c>
       <x:c r="C26" s="16" t="s">
-        <x:v>209</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D26" s="13" t="s">
-        <x:v>193</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E26" s="13" t="s">
-        <x:v>193</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="2:5" ht="39.549999999999997">
@@ -4245,13 +4537,13 @@
         <x:v>44403</x:v>
       </x:c>
       <x:c r="C27" s="78" t="s">
-        <x:v>202</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D27" s="14" t="s">
-        <x:v>18</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E27" s="14" t="s">
-        <x:v>25</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="2:6" ht="39.549999999999997">
@@ -4259,13 +4551,13 @@
         <x:v>44404</x:v>
       </x:c>
       <x:c r="C28" s="16" t="s">
-        <x:v>182</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D28" s="14" t="s">
-        <x:v>362</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="E28" s="14" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F28" s="79"/>
     </x:row>
@@ -4274,13 +4566,13 @@
         <x:v>44405</x:v>
       </x:c>
       <x:c r="C29" s="16" t="s">
-        <x:v>232</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D29" s="14" t="s">
-        <x:v>16</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E29" s="14" t="s">
-        <x:v>382</x:v>
+        <x:v>401</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="2:5" ht="39.549999999999997">
@@ -4288,13 +4580,13 @@
         <x:v>44406</x:v>
       </x:c>
       <x:c r="C30" s="16" t="s">
-        <x:v>229</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D30" s="14" t="s">
-        <x:v>362</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="E30" s="14" t="s">
-        <x:v>284</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="2:5" ht="26.350000000000001">
@@ -4302,45 +4594,45 @@
         <x:v>44407</x:v>
       </x:c>
       <x:c r="C31" s="87" t="s">
-        <x:v>195</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D31" s="14" t="s">
-        <x:v>382</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="E31" s="13" t="s">
-        <x:v>274</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="2:5">
       <x:c r="B32" s="15">
         <x:v>44410</x:v>
       </x:c>
-      <x:c r="C32" s="102"/>
-      <x:c r="D32" s="100" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="E32" s="102"/>
+      <x:c r="C32" s="103"/>
+      <x:c r="D32" s="101" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="E32" s="103"/>
     </x:row>
     <x:row r="33" spans="2:5">
       <x:c r="B33" s="15">
         <x:v>44411</x:v>
       </x:c>
-      <x:c r="C33" s="103"/>
-      <x:c r="D33" s="101"/>
-      <x:c r="E33" s="103"/>
+      <x:c r="C33" s="104"/>
+      <x:c r="D33" s="102"/>
+      <x:c r="E33" s="104"/>
     </x:row>
     <x:row r="34" spans="2:5" ht="26.350000000000001">
       <x:c r="B34" s="15">
         <x:v>44412</x:v>
       </x:c>
       <x:c r="C34" s="88" t="s">
-        <x:v>169</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D34" s="14" t="s">
-        <x:v>268</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E34" s="14" t="s">
-        <x:v>247</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="2:5" ht="39.549999999999997">
@@ -4348,36 +4640,42 @@
         <x:v>44413</x:v>
       </x:c>
       <x:c r="C35" s="16" t="s">
-        <x:v>170</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D35" s="14" t="s">
-        <x:v>22</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E35" s="14" t="s">
-        <x:v>307</x:v>
+        <x:v>371</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="2:5" ht="26.350000000000001">
       <x:c r="B36" s="15">
         <x:v>44414</x:v>
       </x:c>
-      <x:c r="C36" s="135" t="s">
-        <x:v>68</x:v>
+      <x:c r="C36" s="100" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D36" s="14" t="s">
-        <x:v>358</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="E36" s="14" t="s">
-        <x:v>386</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="2:5">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="2:5" ht="26.350000000000001">
       <x:c r="B37" s="15">
         <x:v>44417</x:v>
       </x:c>
-      <x:c r="C37" s="12"/>
-      <x:c r="D37" s="13"/>
-      <x:c r="E37" s="13"/>
+      <x:c r="C37" s="136" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="D37" s="14" t="s">
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="E37" s="14" t="s">
+        <x:v>431</x:v>
+      </x:c>
     </x:row>
     <x:row r="38" spans="2:5">
       <x:c r="B38" s="15">
@@ -4432,11 +4730,298 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet7"/>
+  <x:dimension ref="A1:F26"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="A1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="E25" activeCellId="0" sqref="E25:E25"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="1" max="1" width="8.796875" customWidth="1"/>
+    <x:col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="46.49609375" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="74.0390625" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="87.40234375" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="11.19921875" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="4:4">
+      <x:c r="D1" t="s">
+        <x:v>427</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5" ht="32.75">
+      <x:c r="A2" s="138" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="B2" s="138" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="C2" s="139" t="s">
+        <x:v>417</x:v>
+      </x:c>
+      <x:c r="D2" s="140" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E2" s="27" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5" ht="32.75">
+      <x:c r="A3" s="138"/>
+      <x:c r="B3" s="138"/>
+      <x:c r="C3" s="39"/>
+      <x:c r="D3" s="140" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E3" s="27" t="s">
+        <x:v>418</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5">
+      <x:c r="A4" s="138"/>
+      <x:c r="B4" s="138"/>
+      <x:c r="C4" s="109" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="D4" s="137" t="s">
+        <x:v>429</x:v>
+      </x:c>
+      <x:c r="E4" s="137" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5" ht="32.75">
+      <x:c r="A5" s="138"/>
+      <x:c r="B5" s="138"/>
+      <x:c r="C5" s="110"/>
+      <x:c r="D5" s="141" t="s">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="E5" s="141" t="s">
+        <x:v>420</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5" ht="32.75">
+      <x:c r="A6" s="138"/>
+      <x:c r="B6" s="138"/>
+      <x:c r="C6" s="39"/>
+      <x:c r="D6" s="140" t="s">
+        <x:v>399</x:v>
+      </x:c>
+      <x:c r="E6" s="27" t="s">
+        <x:v>398</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="A7" s="138"/>
+      <x:c r="B7" s="138"/>
+      <x:c r="C7" s="39"/>
+      <x:c r="D7" s="27" t="s">
+        <x:v>413</x:v>
+      </x:c>
+      <x:c r="E7" s="27" t="s">
+        <x:v>415</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5">
+      <x:c r="A8" s="138"/>
+      <x:c r="B8" s="138"/>
+      <x:c r="C8" s="39" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D8" s="142" t="s">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="E8" s="142" t="s">
+        <x:v>76</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5">
+      <x:c r="A9" s="138"/>
+      <x:c r="B9" s="138" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C9" s="39"/>
+      <x:c r="D9" s="27" t="s">
+        <x:v>423</x:v>
+      </x:c>
+      <x:c r="E9" s="27" t="s">
+        <x:v>321</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5">
+      <x:c r="A10" s="138"/>
+      <x:c r="B10" s="138"/>
+      <x:c r="C10" s="39"/>
+      <x:c r="D10" s="27" t="s">
+        <x:v>421</x:v>
+      </x:c>
+      <x:c r="E10" s="27"/>
+    </x:row>
+    <x:row r="11" spans="1:5">
+      <x:c r="A11" s="138"/>
+      <x:c r="B11" s="138"/>
+      <x:c r="C11" s="39"/>
+      <x:c r="D11" s="27" t="s">
+        <x:v>422</x:v>
+      </x:c>
+      <x:c r="E11" s="27"/>
+    </x:row>
+    <x:row r="12" spans="1:5">
+      <x:c r="A12" s="138"/>
+      <x:c r="B12" s="138"/>
+      <x:c r="C12" s="39"/>
+      <x:c r="D12" s="27" t="s">
+        <x:v>419</x:v>
+      </x:c>
+      <x:c r="E12" s="27"/>
+    </x:row>
+    <x:row r="13" spans="1:5">
+      <x:c r="A13" s="138"/>
+      <x:c r="B13" s="39" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C13" s="39" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D13" s="144" t="s">
+        <x:v>424</x:v>
+      </x:c>
+      <x:c r="E13" s="142" t="s">
+        <x:v>411</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:5">
+      <x:c r="A14" s="138"/>
+      <x:c r="B14" s="138" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C14" s="138" t="s">
+        <x:v>414</x:v>
+      </x:c>
+      <x:c r="D14" s="27" t="s">
+        <x:v>358</x:v>
+      </x:c>
+      <x:c r="E14" s="27" t="s">
+        <x:v>319</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:5">
+      <x:c r="A15" s="138"/>
+      <x:c r="B15" s="138"/>
+      <x:c r="C15" s="138"/>
+      <x:c r="D15" s="27" t="s">
+        <x:v>416</x:v>
+      </x:c>
+      <x:c r="E15" s="27" t="s">
+        <x:v>320</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:5" ht="65.5">
+      <x:c r="A16" s="138"/>
+      <x:c r="B16" s="138"/>
+      <x:c r="C16" s="138"/>
+      <x:c r="D16" s="142" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="E16" s="141" t="s">
+        <x:v>425</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:5">
+      <x:c r="A17" s="27" t="s">
+        <x:v>412</x:v>
+      </x:c>
+      <x:c r="B17" s="39" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C17" s="39" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D17" s="143" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="E17" s="142" t="s">
+        <x:v>426</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:5">
+      <x:c r="A18" s="27"/>
+      <x:c r="B18" s="27"/>
+      <x:c r="C18" s="27"/>
+      <x:c r="D18" s="147" t="s">
+        <x:v>428</x:v>
+      </x:c>
+      <x:c r="E18" s="142" t="s">
+        <x:v>430</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="3:5">
+      <x:c r="C19" s="47"/>
+      <x:c r="D19" s="145"/>
+      <x:c r="E19" s="47"/>
+    </x:row>
+    <x:row r="20" spans="3:5">
+      <x:c r="C20" s="47"/>
+      <x:c r="D20" s="145"/>
+      <x:c r="E20" s="47"/>
+    </x:row>
+    <x:row r="21" spans="3:5">
+      <x:c r="C21" s="47"/>
+      <x:c r="D21" s="146"/>
+      <x:c r="E21" s="47"/>
+    </x:row>
+    <x:row r="22" spans="4:6">
+      <x:c r="D22" s="47"/>
+      <x:c r="E22" s="47"/>
+      <x:c r="F22" s="47"/>
+    </x:row>
+    <x:row r="23" spans="4:6">
+      <x:c r="D23" s="47"/>
+      <x:c r="F23" s="47"/>
+    </x:row>
+    <x:row r="24" spans="4:6">
+      <x:c r="D24" s="47"/>
+      <x:c r="E24" s="47"/>
+      <x:c r="F24" s="47"/>
+    </x:row>
+    <x:row r="25" spans="4:6">
+      <x:c r="D25" s="47"/>
+      <x:c r="E25" s="47"/>
+      <x:c r="F25" s="47"/>
+    </x:row>
+    <x:row r="26" spans="4:6">
+      <x:c r="D26" s="47"/>
+      <x:c r="E26" s="47"/>
+      <x:c r="F26" s="47"/>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="6">
+    <x:mergeCell ref="B2:B8"/>
+    <x:mergeCell ref="B9:B12"/>
+    <x:mergeCell ref="B14:B16"/>
+    <x:mergeCell ref="C14:C16"/>
+    <x:mergeCell ref="A2:A16"/>
+    <x:mergeCell ref="C4:C5"/>
+  </x:mergeCells>
+  <x:hyperlinks>
+    <x:hyperlink ref="D17:D17" r:id="rId1"/>
+  </x:hyperlinks>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet5"/>
   <x:dimension ref="B1:N51"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A7" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E39" activeCellId="0" sqref="E39:E39"/>
+    <x:sheetView topLeftCell="A31" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="E21" activeCellId="0" sqref="E21:E21"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -4449,481 +5034,481 @@
   <x:sheetData>
     <x:row r="1" spans="14:14">
       <x:c r="N1" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>314</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="2:5" ht="16.75" customHeight="1">
-      <x:c r="B2" s="104" t="s">
-        <x:v>355</x:v>
-      </x:c>
-      <x:c r="C2" s="104" t="s">
-        <x:v>271</x:v>
+      <x:c r="B2" s="105" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="C2" s="105" t="s">
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D2" s="83" t="s">
-        <x:v>179</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E2" s="51"/>
     </x:row>
     <x:row r="3" spans="2:5">
-      <x:c r="B3" s="105"/>
-      <x:c r="C3" s="105"/>
-      <x:c r="D3" s="107" t="s">
-        <x:v>199</x:v>
+      <x:c r="B3" s="106"/>
+      <x:c r="C3" s="106"/>
+      <x:c r="D3" s="108" t="s">
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E3" s="52" t="s">
-        <x:v>151</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:5">
-      <x:c r="B4" s="105"/>
-      <x:c r="C4" s="105"/>
-      <x:c r="D4" s="107"/>
+      <x:c r="B4" s="106"/>
+      <x:c r="C4" s="106"/>
+      <x:c r="D4" s="108"/>
       <x:c r="E4" s="52" t="s">
-        <x:v>81</x:v>
+        <x:v>305</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:5">
-      <x:c r="B5" s="105"/>
-      <x:c r="C5" s="105"/>
-      <x:c r="D5" s="107"/>
+      <x:c r="B5" s="106"/>
+      <x:c r="C5" s="106"/>
+      <x:c r="D5" s="108"/>
       <x:c r="E5" s="52" t="s">
-        <x:v>79</x:v>
+        <x:v>295</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:5">
-      <x:c r="B6" s="105"/>
-      <x:c r="C6" s="105"/>
-      <x:c r="D6" s="107"/>
+      <x:c r="B6" s="106"/>
+      <x:c r="C6" s="106"/>
+      <x:c r="D6" s="108"/>
       <x:c r="E6" s="52" t="s">
-        <x:v>226</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:5">
-      <x:c r="B7" s="105"/>
-      <x:c r="C7" s="105"/>
-      <x:c r="D7" s="107"/>
+      <x:c r="B7" s="106"/>
+      <x:c r="C7" s="106"/>
+      <x:c r="D7" s="108"/>
       <x:c r="E7" s="52" t="s">
-        <x:v>234</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:5">
-      <x:c r="B8" s="105"/>
-      <x:c r="C8" s="105"/>
-      <x:c r="D8" s="107"/>
+      <x:c r="B8" s="106"/>
+      <x:c r="C8" s="106"/>
+      <x:c r="D8" s="108"/>
       <x:c r="E8" s="52" t="s">
-        <x:v>231</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:5">
-      <x:c r="B9" s="105"/>
-      <x:c r="C9" s="105"/>
-      <x:c r="D9" s="107"/>
+      <x:c r="B9" s="106"/>
+      <x:c r="C9" s="106"/>
+      <x:c r="D9" s="108"/>
       <x:c r="E9" s="52" t="s">
-        <x:v>174</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:5">
-      <x:c r="B10" s="105"/>
-      <x:c r="C10" s="105"/>
+      <x:c r="B10" s="106"/>
+      <x:c r="C10" s="106"/>
       <x:c r="D10" s="58" t="s">
-        <x:v>273</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E10" s="52"/>
     </x:row>
     <x:row r="11" spans="2:5" ht="16.75">
-      <x:c r="B11" s="105"/>
-      <x:c r="C11" s="106"/>
+      <x:c r="B11" s="106"/>
+      <x:c r="C11" s="107"/>
       <x:c r="D11" s="84" t="s">
-        <x:v>171</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E11" s="57"/>
     </x:row>
     <x:row r="12" spans="2:14" ht="16.75">
-      <x:c r="B12" s="105"/>
-      <x:c r="C12" s="104" t="s">
-        <x:v>384</x:v>
+      <x:c r="B12" s="106"/>
+      <x:c r="C12" s="105" t="s">
+        <x:v>402</x:v>
       </x:c>
       <x:c r="D12" s="83" t="s">
-        <x:v>267</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E12" s="51"/>
       <x:c r="N12" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>325</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:14">
-      <x:c r="B13" s="105"/>
-      <x:c r="C13" s="105"/>
+      <x:c r="B13" s="106"/>
+      <x:c r="C13" s="106"/>
       <x:c r="D13" s="58" t="s">
-        <x:v>372</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="E13" s="52"/>
       <x:c r="N13" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>330</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:14">
-      <x:c r="B14" s="105"/>
-      <x:c r="C14" s="105"/>
+      <x:c r="B14" s="106"/>
+      <x:c r="C14" s="106"/>
       <x:c r="D14" s="58" t="s">
-        <x:v>366</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="E14" s="52"/>
       <x:c r="N14" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>350</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:14">
-      <x:c r="B15" s="105"/>
-      <x:c r="C15" s="105"/>
+      <x:c r="B15" s="106"/>
+      <x:c r="C15" s="106"/>
       <x:c r="D15" s="58" t="s">
-        <x:v>288</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="E15" s="52"/>
       <x:c r="N15" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>322</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:14">
-      <x:c r="B16" s="105"/>
-      <x:c r="C16" s="105"/>
+      <x:c r="B16" s="106"/>
+      <x:c r="C16" s="106"/>
       <x:c r="D16" s="58" t="s">
-        <x:v>371</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E16" s="52"/>
       <x:c r="N16" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>342</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:14">
-      <x:c r="B17" s="105"/>
-      <x:c r="C17" s="105"/>
+      <x:c r="B17" s="106"/>
+      <x:c r="C17" s="106"/>
       <x:c r="D17" s="58" t="s">
-        <x:v>363</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="E17" s="52"/>
       <x:c r="N17" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>328</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:14">
-      <x:c r="B18" s="105"/>
-      <x:c r="C18" s="105"/>
+      <x:c r="B18" s="106"/>
+      <x:c r="C18" s="106"/>
       <x:c r="D18" s="58" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E18" s="52"/>
       <x:c r="N18" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>349</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:14">
-      <x:c r="B19" s="105"/>
-      <x:c r="C19" s="105"/>
+      <x:c r="B19" s="106"/>
+      <x:c r="C19" s="106"/>
       <x:c r="D19" s="58" t="s">
-        <x:v>28</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E19" s="52"/>
       <x:c r="N19" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>297</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:14" ht="16.75">
-      <x:c r="B20" s="105"/>
-      <x:c r="C20" s="106"/>
+      <x:c r="B20" s="106"/>
+      <x:c r="C20" s="107"/>
       <x:c r="D20" s="84" t="s">
-        <x:v>364</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="E20" s="57"/>
       <x:c r="N20" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>352</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="2:5" ht="16.75">
-      <x:c r="B21" s="105"/>
-      <x:c r="C21" s="104" t="s">
-        <x:v>48</x:v>
+      <x:c r="B21" s="106"/>
+      <x:c r="C21" s="105" t="s">
+        <x:v>344</x:v>
       </x:c>
       <x:c r="D21" s="80" t="s">
-        <x:v>192</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E21" s="51" t="s">
-        <x:v>41</x:v>
+        <x:v>326</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="2:5">
-      <x:c r="B22" s="105"/>
-      <x:c r="C22" s="105"/>
+      <x:c r="B22" s="106"/>
+      <x:c r="C22" s="106"/>
       <x:c r="D22" s="47" t="s">
-        <x:v>42</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="E22" s="52"/>
     </x:row>
     <x:row r="23" spans="2:5">
-      <x:c r="B23" s="105"/>
-      <x:c r="C23" s="105"/>
+      <x:c r="B23" s="106"/>
+      <x:c r="C23" s="106"/>
       <x:c r="D23" s="47" t="s">
-        <x:v>289</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="E23" s="52" t="s">
-        <x:v>119</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="2:5">
-      <x:c r="B24" s="105"/>
-      <x:c r="C24" s="105"/>
+      <x:c r="B24" s="106"/>
+      <x:c r="C24" s="106"/>
       <x:c r="D24" s="47" t="s">
-        <x:v>37</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="E24" s="52"/>
     </x:row>
     <x:row r="25" spans="2:5" ht="16.75">
-      <x:c r="B25" s="105"/>
-      <x:c r="C25" s="106"/>
+      <x:c r="B25" s="106"/>
+      <x:c r="C25" s="107"/>
       <x:c r="D25" s="81" t="s">
-        <x:v>59</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="E25" s="57"/>
     </x:row>
     <x:row r="26" spans="2:5" ht="16.75">
-      <x:c r="B26" s="105"/>
-      <x:c r="C26" s="104" t="s">
-        <x:v>264</x:v>
+      <x:c r="B26" s="106"/>
+      <x:c r="C26" s="105" t="s">
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D26" s="80" t="s">
-        <x:v>379</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="E26" s="51" t="s">
-        <x:v>36</x:v>
+        <x:v>339</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="2:5" ht="16.75">
-      <x:c r="B27" s="105"/>
-      <x:c r="C27" s="106"/>
+      <x:c r="B27" s="106"/>
+      <x:c r="C27" s="107"/>
       <x:c r="D27" s="81" t="s">
-        <x:v>203</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E27" s="57" t="s">
-        <x:v>277</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="2:5" ht="16.75">
-      <x:c r="B28" s="105"/>
-      <x:c r="C28" s="104" t="s">
-        <x:v>64</x:v>
+      <x:c r="B28" s="106"/>
+      <x:c r="C28" s="105" t="s">
+        <x:v>351</x:v>
       </x:c>
       <x:c r="D28" s="80" t="s">
-        <x:v>35</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="E28" s="51" t="s">
-        <x:v>19</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="2:5">
-      <x:c r="B29" s="105"/>
-      <x:c r="C29" s="105"/>
+      <x:c r="B29" s="106"/>
+      <x:c r="C29" s="106"/>
       <x:c r="D29" s="47" t="s">
-        <x:v>270</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="52" t="s">
-        <x:v>69</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="2:5" ht="33.149999999999999">
-      <x:c r="B30" s="105"/>
-      <x:c r="C30" s="106"/>
+      <x:c r="B30" s="106"/>
+      <x:c r="C30" s="107"/>
       <x:c r="D30" s="81" t="s">
-        <x:v>306</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="E30" s="82" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="2:5" ht="16.75">
-      <x:c r="B31" s="105"/>
-      <x:c r="C31" s="104" t="s">
-        <x:v>173</x:v>
+      <x:c r="B31" s="106"/>
+      <x:c r="C31" s="105" t="s">
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D31" s="80" t="s">
-        <x:v>298</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="E31" s="51" t="s">
-        <x:v>246</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="2:5">
-      <x:c r="B32" s="105"/>
-      <x:c r="C32" s="105"/>
+      <x:c r="B32" s="106"/>
+      <x:c r="C32" s="106"/>
       <x:c r="D32" s="47" t="s">
-        <x:v>301</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="E32" s="52" t="s">
-        <x:v>73</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="2:5">
-      <x:c r="B33" s="105"/>
-      <x:c r="C33" s="105"/>
+      <x:c r="B33" s="106"/>
+      <x:c r="C33" s="106"/>
       <x:c r="D33" s="47" t="s">
-        <x:v>32</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="E33" s="52" t="s">
-        <x:v>244</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="2:5" ht="16.75">
-      <x:c r="B34" s="105"/>
-      <x:c r="C34" s="106"/>
+      <x:c r="B34" s="106"/>
+      <x:c r="C34" s="107"/>
       <x:c r="D34" s="81"/>
       <x:c r="E34" s="57" t="s">
-        <x:v>280</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="2:5" ht="16.75">
-      <x:c r="B35" s="105"/>
-      <x:c r="C35" s="104" t="s">
-        <x:v>58</x:v>
+      <x:c r="B35" s="106"/>
+      <x:c r="C35" s="105" t="s">
+        <x:v>348</x:v>
       </x:c>
       <x:c r="D35" s="86" t="s">
-        <x:v>12</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E35" s="51"/>
     </x:row>
     <x:row r="36" spans="2:5" ht="16.75">
-      <x:c r="B36" s="105"/>
-      <x:c r="C36" s="106"/>
+      <x:c r="B36" s="106"/>
+      <x:c r="C36" s="107"/>
       <x:c r="D36" s="85" t="s">
-        <x:v>276</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E36" s="57"/>
     </x:row>
     <x:row r="37" spans="2:5" ht="16.75">
-      <x:c r="B37" s="105"/>
-      <x:c r="C37" s="104" t="s">
-        <x:v>265</x:v>
+      <x:c r="B37" s="106"/>
+      <x:c r="C37" s="105" t="s">
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D37" s="80" t="s">
-        <x:v>85</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="E37" s="51"/>
     </x:row>
     <x:row r="38" spans="2:5">
-      <x:c r="B38" s="105"/>
-      <x:c r="C38" s="105"/>
+      <x:c r="B38" s="106"/>
+      <x:c r="C38" s="106"/>
       <x:c r="D38" s="47" t="s">
-        <x:v>204</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E38" s="52"/>
     </x:row>
     <x:row r="39" spans="2:5">
-      <x:c r="B39" s="105"/>
-      <x:c r="C39" s="105"/>
+      <x:c r="B39" s="106"/>
+      <x:c r="C39" s="106"/>
       <x:c r="D39" s="47" t="s">
-        <x:v>43</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="E39" s="52"/>
     </x:row>
     <x:row r="40" spans="2:5">
-      <x:c r="B40" s="105"/>
-      <x:c r="C40" s="105"/>
+      <x:c r="B40" s="106"/>
+      <x:c r="C40" s="106"/>
       <x:c r="D40" s="47" t="s">
-        <x:v>201</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E40" s="52"/>
     </x:row>
     <x:row r="41" spans="2:5" ht="16.75">
-      <x:c r="B41" s="105"/>
-      <x:c r="C41" s="106"/>
+      <x:c r="B41" s="106"/>
+      <x:c r="C41" s="107"/>
       <x:c r="D41" s="81" t="s">
-        <x:v>62</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="E41" s="57"/>
     </x:row>
     <x:row r="42" spans="2:5" ht="16.75">
-      <x:c r="B42" s="105"/>
-      <x:c r="C42" s="104" t="s">
-        <x:v>259</x:v>
+      <x:c r="B42" s="106"/>
+      <x:c r="C42" s="105" t="s">
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D42" s="86" t="s">
-        <x:v>44</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="E42" s="51"/>
     </x:row>
     <x:row r="43" spans="2:5" ht="16.75">
-      <x:c r="B43" s="105"/>
-      <x:c r="C43" s="106"/>
+      <x:c r="B43" s="106"/>
+      <x:c r="C43" s="107"/>
       <x:c r="D43" s="85" t="s">
-        <x:v>51</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="E43" s="57"/>
     </x:row>
     <x:row r="44" spans="2:5" ht="16.75">
-      <x:c r="B44" s="105"/>
-      <x:c r="C44" s="104" t="s">
-        <x:v>269</x:v>
+      <x:c r="B44" s="106"/>
+      <x:c r="C44" s="105" t="s">
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D44" s="80" t="s">
-        <x:v>374</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="E44" s="51"/>
     </x:row>
     <x:row r="45" spans="2:5" ht="16.75">
-      <x:c r="B45" s="105"/>
-      <x:c r="C45" s="106"/>
+      <x:c r="B45" s="106"/>
+      <x:c r="C45" s="107"/>
       <x:c r="D45" s="81" t="s">
-        <x:v>369</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="E45" s="57"/>
     </x:row>
     <x:row r="46" spans="2:5" ht="16.75">
-      <x:c r="B46" s="105"/>
-      <x:c r="C46" s="104" t="s">
-        <x:v>34</x:v>
+      <x:c r="B46" s="106"/>
+      <x:c r="C46" s="105" t="s">
+        <x:v>337</x:v>
       </x:c>
       <x:c r="D46" s="80" t="s">
-        <x:v>65</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="E46" s="51"/>
     </x:row>
     <x:row r="47" spans="2:5">
-      <x:c r="B47" s="105"/>
-      <x:c r="C47" s="105"/>
+      <x:c r="B47" s="106"/>
+      <x:c r="C47" s="106"/>
       <x:c r="D47" s="47" t="s">
-        <x:v>47</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="E47" s="52"/>
     </x:row>
     <x:row r="48" spans="2:5" ht="16.75">
-      <x:c r="B48" s="105"/>
-      <x:c r="C48" s="106"/>
+      <x:c r="B48" s="106"/>
+      <x:c r="C48" s="107"/>
       <x:c r="D48" s="81" t="s">
-        <x:v>381</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="E48" s="57"/>
     </x:row>
     <x:row r="49" spans="2:5" ht="16.75">
-      <x:c r="B49" s="105"/>
-      <x:c r="C49" s="104" t="s">
-        <x:v>309</x:v>
+      <x:c r="B49" s="106"/>
+      <x:c r="C49" s="105" t="s">
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D49" s="80" t="s">
-        <x:v>378</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="E49" s="51"/>
     </x:row>
     <x:row r="50" spans="2:5">
-      <x:c r="B50" s="105"/>
-      <x:c r="C50" s="105"/>
+      <x:c r="B50" s="106"/>
+      <x:c r="C50" s="106"/>
       <x:c r="D50" s="47" t="s">
-        <x:v>272</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E50" s="52"/>
     </x:row>
     <x:row r="51" spans="2:5" ht="16.75">
-      <x:c r="B51" s="106"/>
-      <x:c r="C51" s="106"/>
+      <x:c r="B51" s="107"/>
+      <x:c r="C51" s="107"/>
       <x:c r="D51" s="81" t="s">
-        <x:v>297</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="E51" s="57"/>
     </x:row>
@@ -4949,7 +5534,7 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A1:CI1048573"/>
@@ -4971,78 +5556,78 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="17.149999999999999">
       <x:c r="A1" s="28" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="B1" s="35" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="C1" s="36" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="D1" s="36" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="E1" s="36" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="F1" s="36" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="G1" s="36" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="H1" s="36" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="I1" s="37" t="s">
+        <x:v>208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:9">
+      <x:c r="A2" s="117" t="s">
         <x:v>205</x:v>
       </x:c>
-      <x:c r="B1" s="35" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="C1" s="36" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="D1" s="36" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E1" s="36" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="F1" s="36" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="G1" s="36" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="H1" s="36" t="s">
-        <x:v>324</x:v>
-      </x:c>
-      <x:c r="I1" s="37" t="s">
-        <x:v>344</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:9">
-      <x:c r="A2" s="116" t="s">
-        <x:v>334</x:v>
-      </x:c>
-      <x:c r="B2" s="110" t="s">
-        <x:v>335</x:v>
-      </x:c>
-      <x:c r="C2" s="113" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="D2" s="113" t="s">
-        <x:v>86</x:v>
+      <x:c r="B2" s="111" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="C2" s="114" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="D2" s="114" t="s">
+        <x:v>306</x:v>
       </x:c>
       <x:c r="E2" s="40" t="s">
-        <x:v>144</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="F2" s="40"/>
       <x:c r="G2" s="40"/>
       <x:c r="H2" s="40"/>
       <x:c r="I2" s="40" t="s">
-        <x:v>172</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
-      <x:c r="A3" s="117"/>
-      <x:c r="B3" s="111"/>
-      <x:c r="C3" s="114"/>
-      <x:c r="D3" s="114"/>
+      <x:c r="A3" s="118"/>
+      <x:c r="B3" s="112"/>
+      <x:c r="C3" s="115"/>
+      <x:c r="D3" s="115"/>
       <x:c r="E3" s="39" t="s">
-        <x:v>200</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F3" s="39"/>
       <x:c r="G3" s="39"/>
       <x:c r="H3" s="39"/>
       <x:c r="I3" s="39" t="s">
-        <x:v>40</x:v>
+        <x:v>323</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
-      <x:c r="A4" s="117"/>
-      <x:c r="B4" s="111"/>
-      <x:c r="C4" s="114"/>
-      <x:c r="D4" s="114"/>
+      <x:c r="A4" s="118"/>
+      <x:c r="B4" s="112"/>
+      <x:c r="C4" s="115"/>
+      <x:c r="D4" s="115"/>
       <x:c r="E4" s="39" t="s">
-        <x:v>126</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="F4" s="39"/>
       <x:c r="G4" s="39"/>
@@ -5050,42 +5635,42 @@
       <x:c r="I4" s="39"/>
     </x:row>
     <x:row r="5" spans="1:9">
-      <x:c r="A5" s="117"/>
-      <x:c r="B5" s="111"/>
-      <x:c r="C5" s="114"/>
-      <x:c r="D5" s="114"/>
-      <x:c r="E5" s="108" t="s">
-        <x:v>165</x:v>
+      <x:c r="A5" s="118"/>
+      <x:c r="B5" s="112"/>
+      <x:c r="C5" s="115"/>
+      <x:c r="D5" s="115"/>
+      <x:c r="E5" s="109" t="s">
+        <x:v>290</x:v>
       </x:c>
       <x:c r="F5" s="39" t="s">
-        <x:v>101</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="G5" s="39"/>
       <x:c r="H5" s="39"/>
       <x:c r="I5" s="39"/>
     </x:row>
     <x:row r="6" spans="1:9">
-      <x:c r="A6" s="117"/>
-      <x:c r="B6" s="111"/>
-      <x:c r="C6" s="114"/>
-      <x:c r="D6" s="109"/>
-      <x:c r="E6" s="109"/>
+      <x:c r="A6" s="118"/>
+      <x:c r="B6" s="112"/>
+      <x:c r="C6" s="115"/>
+      <x:c r="D6" s="110"/>
+      <x:c r="E6" s="110"/>
       <x:c r="F6" s="39" t="s">
-        <x:v>177</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="G6" s="39"/>
       <x:c r="H6" s="39"/>
       <x:c r="I6" s="39"/>
     </x:row>
     <x:row r="7" spans="1:9">
-      <x:c r="A7" s="117"/>
-      <x:c r="B7" s="111"/>
-      <x:c r="C7" s="114"/>
-      <x:c r="D7" s="108" t="s">
-        <x:v>100</x:v>
+      <x:c r="A7" s="118"/>
+      <x:c r="B7" s="112"/>
+      <x:c r="C7" s="115"/>
+      <x:c r="D7" s="109" t="s">
+        <x:v>232</x:v>
       </x:c>
       <x:c r="E7" s="39" t="s">
-        <x:v>347</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F7" s="39"/>
       <x:c r="G7" s="39"/>
@@ -5093,91 +5678,91 @@
       <x:c r="I7" s="39"/>
     </x:row>
     <x:row r="8" spans="1:9">
-      <x:c r="A8" s="117"/>
-      <x:c r="B8" s="111"/>
-      <x:c r="C8" s="114"/>
-      <x:c r="D8" s="114"/>
+      <x:c r="A8" s="118"/>
+      <x:c r="B8" s="112"/>
+      <x:c r="C8" s="115"/>
+      <x:c r="D8" s="115"/>
       <x:c r="E8" s="39" t="s">
-        <x:v>327</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F8" s="39"/>
       <x:c r="G8" s="39"/>
       <x:c r="H8" s="39"/>
       <x:c r="I8" s="39" t="s">
-        <x:v>27</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
-      <x:c r="A9" s="117"/>
-      <x:c r="B9" s="111"/>
-      <x:c r="C9" s="114"/>
-      <x:c r="D9" s="114"/>
+      <x:c r="A9" s="118"/>
+      <x:c r="B9" s="112"/>
+      <x:c r="C9" s="115"/>
+      <x:c r="D9" s="115"/>
       <x:c r="E9" s="39" t="s">
-        <x:v>352</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="F9" s="39"/>
       <x:c r="G9" s="39"/>
       <x:c r="H9" s="39"/>
       <x:c r="I9" s="39" t="s">
-        <x:v>66</x:v>
+        <x:v>354</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
-      <x:c r="A10" s="117"/>
-      <x:c r="B10" s="111"/>
-      <x:c r="C10" s="114"/>
-      <x:c r="D10" s="114"/>
-      <x:c r="E10" s="108" t="s">
-        <x:v>162</x:v>
+      <x:c r="A10" s="118"/>
+      <x:c r="B10" s="112"/>
+      <x:c r="C10" s="115"/>
+      <x:c r="D10" s="115"/>
+      <x:c r="E10" s="109" t="s">
+        <x:v>287</x:v>
       </x:c>
       <x:c r="F10" s="39" t="s">
-        <x:v>148</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="G10" s="39"/>
       <x:c r="H10" s="39"/>
       <x:c r="I10" s="39"/>
     </x:row>
     <x:row r="11" spans="1:9">
-      <x:c r="A11" s="117"/>
-      <x:c r="B11" s="111"/>
-      <x:c r="C11" s="114"/>
-      <x:c r="D11" s="114"/>
-      <x:c r="E11" s="114"/>
+      <x:c r="A11" s="118"/>
+      <x:c r="B11" s="112"/>
+      <x:c r="C11" s="115"/>
+      <x:c r="D11" s="115"/>
+      <x:c r="E11" s="115"/>
       <x:c r="F11" s="39" t="s">
-        <x:v>107</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="G11" s="39"/>
       <x:c r="H11" s="39"/>
       <x:c r="I11" s="39" t="s">
-        <x:v>302</x:v>
+        <x:v>366</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
-      <x:c r="A12" s="117"/>
-      <x:c r="B12" s="111"/>
-      <x:c r="C12" s="114"/>
-      <x:c r="D12" s="114"/>
-      <x:c r="E12" s="114"/>
+      <x:c r="A12" s="118"/>
+      <x:c r="B12" s="112"/>
+      <x:c r="C12" s="115"/>
+      <x:c r="D12" s="115"/>
+      <x:c r="E12" s="115"/>
       <x:c r="F12" s="39" t="s">
-        <x:v>326</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="G12" s="39"/>
       <x:c r="H12" s="39"/>
       <x:c r="I12" s="39"/>
     </x:row>
     <x:row r="13" spans="1:28">
-      <x:c r="A13" s="117"/>
-      <x:c r="B13" s="111"/>
-      <x:c r="C13" s="109"/>
-      <x:c r="D13" s="109"/>
-      <x:c r="E13" s="109"/>
+      <x:c r="A13" s="118"/>
+      <x:c r="B13" s="112"/>
+      <x:c r="C13" s="110"/>
+      <x:c r="D13" s="110"/>
+      <x:c r="E13" s="110"/>
       <x:c r="F13" s="39" t="s">
-        <x:v>316</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="G13" s="39"/>
       <x:c r="H13" s="39"/>
       <x:c r="I13" s="39" t="s">
-        <x:v>67</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="J13" s="31"/>
       <x:c r="K13" s="31"/>
@@ -5200,22 +5785,22 @@
       <x:c r="AB13" s="31"/>
     </x:row>
     <x:row r="14" spans="1:28">
-      <x:c r="A14" s="117"/>
-      <x:c r="B14" s="111"/>
-      <x:c r="C14" s="108" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="D14" s="108" t="s">
-        <x:v>83</x:v>
+      <x:c r="A14" s="118"/>
+      <x:c r="B14" s="112"/>
+      <x:c r="C14" s="109" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="D14" s="109" t="s">
+        <x:v>307</x:v>
       </x:c>
       <x:c r="E14" s="39" t="s">
-        <x:v>311</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="F14" s="39"/>
       <x:c r="G14" s="39"/>
       <x:c r="H14" s="39"/>
       <x:c r="I14" s="39" t="s">
-        <x:v>339</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="J14" s="31"/>
       <x:c r="K14" s="31"/>
@@ -5238,18 +5823,18 @@
       <x:c r="AB14" s="31"/>
     </x:row>
     <x:row r="15" spans="1:28">
-      <x:c r="A15" s="117"/>
-      <x:c r="B15" s="111"/>
-      <x:c r="C15" s="114"/>
-      <x:c r="D15" s="114"/>
+      <x:c r="A15" s="118"/>
+      <x:c r="B15" s="112"/>
+      <x:c r="C15" s="115"/>
+      <x:c r="D15" s="115"/>
       <x:c r="E15" s="39" t="s">
-        <x:v>133</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="F15" s="39"/>
       <x:c r="G15" s="39"/>
       <x:c r="H15" s="39"/>
       <x:c r="I15" s="39" t="s">
-        <x:v>134</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="J15" s="31"/>
       <x:c r="K15" s="31"/>
@@ -5272,12 +5857,12 @@
       <x:c r="AB15" s="31"/>
     </x:row>
     <x:row r="16" spans="1:28">
-      <x:c r="A16" s="117"/>
-      <x:c r="B16" s="111"/>
-      <x:c r="C16" s="114"/>
-      <x:c r="D16" s="114"/>
+      <x:c r="A16" s="118"/>
+      <x:c r="B16" s="112"/>
+      <x:c r="C16" s="115"/>
+      <x:c r="D16" s="115"/>
       <x:c r="E16" s="39" t="s">
-        <x:v>167</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="F16" s="39"/>
       <x:c r="G16" s="39"/>
@@ -5303,18 +5888,18 @@
       <x:c r="AB16" s="31"/>
     </x:row>
     <x:row r="17" spans="1:28">
-      <x:c r="A17" s="117"/>
-      <x:c r="B17" s="111"/>
-      <x:c r="C17" s="114"/>
-      <x:c r="D17" s="109"/>
+      <x:c r="A17" s="118"/>
+      <x:c r="B17" s="112"/>
+      <x:c r="C17" s="115"/>
+      <x:c r="D17" s="110"/>
       <x:c r="E17" s="39" t="s">
-        <x:v>117</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="F17" s="39"/>
       <x:c r="G17" s="39"/>
       <x:c r="H17" s="39"/>
       <x:c r="I17" s="39" t="s">
-        <x:v>377</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="J17" s="31"/>
       <x:c r="K17" s="31"/>
@@ -5337,17 +5922,17 @@
       <x:c r="AB17" s="31"/>
     </x:row>
     <x:row r="18" spans="1:28">
-      <x:c r="A18" s="117"/>
-      <x:c r="B18" s="111"/>
-      <x:c r="C18" s="114"/>
+      <x:c r="A18" s="118"/>
+      <x:c r="B18" s="112"/>
+      <x:c r="C18" s="115"/>
       <x:c r="D18" s="39" t="s">
-        <x:v>184</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E18" s="39" t="s">
-        <x:v>207</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F18" s="39" t="s">
-        <x:v>138</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="G18" s="39"/>
       <x:c r="H18" s="39"/>
@@ -5373,18 +5958,18 @@
       <x:c r="AB18" s="31"/>
     </x:row>
     <x:row r="19" spans="1:28">
-      <x:c r="A19" s="117"/>
-      <x:c r="B19" s="111"/>
-      <x:c r="C19" s="114"/>
+      <x:c r="A19" s="118"/>
+      <x:c r="B19" s="112"/>
+      <x:c r="C19" s="115"/>
       <x:c r="D19" s="39" t="s">
-        <x:v>332</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E19" s="39"/>
       <x:c r="F19" s="39"/>
       <x:c r="G19" s="39"/>
       <x:c r="H19" s="39"/>
-      <x:c r="I19" s="108" t="s">
-        <x:v>196</x:v>
+      <x:c r="I19" s="109" t="s">
+        <x:v>124</x:v>
       </x:c>
       <x:c r="J19" s="31"/>
       <x:c r="K19" s="31"/>
@@ -5407,17 +5992,17 @@
       <x:c r="AB19" s="31"/>
     </x:row>
     <x:row r="20" spans="1:28">
-      <x:c r="A20" s="117"/>
-      <x:c r="B20" s="111"/>
-      <x:c r="C20" s="114"/>
+      <x:c r="A20" s="118"/>
+      <x:c r="B20" s="112"/>
+      <x:c r="C20" s="115"/>
       <x:c r="D20" s="39" t="s">
-        <x:v>117</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="E20" s="39"/>
       <x:c r="F20" s="39"/>
       <x:c r="G20" s="39"/>
       <x:c r="H20" s="39"/>
-      <x:c r="I20" s="114"/>
+      <x:c r="I20" s="115"/>
       <x:c r="J20" s="31"/>
       <x:c r="K20" s="31"/>
       <x:c r="L20" s="31"/>
@@ -5439,17 +6024,17 @@
       <x:c r="AB20" s="31"/>
     </x:row>
     <x:row r="21" spans="1:28">
-      <x:c r="A21" s="117"/>
-      <x:c r="B21" s="111"/>
-      <x:c r="C21" s="114"/>
+      <x:c r="A21" s="118"/>
+      <x:c r="B21" s="112"/>
+      <x:c r="C21" s="115"/>
       <x:c r="D21" s="39" t="s">
-        <x:v>167</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="E21" s="39"/>
       <x:c r="F21" s="39"/>
       <x:c r="G21" s="39"/>
       <x:c r="H21" s="39"/>
-      <x:c r="I21" s="109"/>
+      <x:c r="I21" s="110"/>
       <x:c r="J21" s="31"/>
       <x:c r="K21" s="31"/>
       <x:c r="L21" s="31"/>
@@ -5471,11 +6056,11 @@
       <x:c r="AB21" s="31"/>
     </x:row>
     <x:row r="22" spans="1:28">
-      <x:c r="A22" s="117"/>
-      <x:c r="B22" s="112"/>
-      <x:c r="C22" s="109"/>
+      <x:c r="A22" s="118"/>
+      <x:c r="B22" s="113"/>
+      <x:c r="C22" s="110"/>
       <x:c r="D22" s="39" t="s">
-        <x:v>178</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E22" s="39"/>
       <x:c r="F22" s="39"/>
@@ -5503,12 +6088,12 @@
       <x:c r="AB22" s="31"/>
     </x:row>
     <x:row r="23" spans="1:28">
-      <x:c r="A23" s="117"/>
-      <x:c r="B23" s="115" t="s">
-        <x:v>166</x:v>
+      <x:c r="A23" s="118"/>
+      <x:c r="B23" s="116" t="s">
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C23" s="39" t="s">
-        <x:v>198</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D23" s="39"/>
       <x:c r="E23" s="39"/>
@@ -5537,10 +6122,10 @@
       <x:c r="AB23" s="31"/>
     </x:row>
     <x:row r="24" spans="1:28">
-      <x:c r="A24" s="117"/>
-      <x:c r="B24" s="111"/>
+      <x:c r="A24" s="118"/>
+      <x:c r="B24" s="112"/>
       <x:c r="C24" s="39" t="s">
-        <x:v>313</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="D24" s="39"/>
       <x:c r="E24" s="39"/>
@@ -5569,10 +6154,10 @@
       <x:c r="AB24" s="31"/>
     </x:row>
     <x:row r="25" spans="1:28">
-      <x:c r="A25" s="117"/>
-      <x:c r="B25" s="111"/>
+      <x:c r="A25" s="118"/>
+      <x:c r="B25" s="112"/>
       <x:c r="C25" s="39" t="s">
-        <x:v>318</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D25" s="39"/>
       <x:c r="E25" s="39"/>
@@ -5601,16 +6186,16 @@
       <x:c r="AB25" s="31"/>
     </x:row>
     <x:row r="26" spans="1:87">
-      <x:c r="A26" s="117"/>
-      <x:c r="B26" s="111"/>
-      <x:c r="C26" s="108" t="s">
-        <x:v>166</x:v>
+      <x:c r="A26" s="118"/>
+      <x:c r="B26" s="112"/>
+      <x:c r="C26" s="109" t="s">
+        <x:v>283</x:v>
       </x:c>
       <x:c r="D26" s="39" t="s">
-        <x:v>96</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="E26" s="39" t="s">
-        <x:v>224</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="F26" s="39"/>
       <x:c r="G26" s="39"/>
@@ -5696,17 +6281,17 @@
       <x:c r="CI26" s="31"/>
     </x:row>
     <x:row r="27" spans="1:87" s="3" customFormat="1">
-      <x:c r="A27" s="116"/>
-      <x:c r="B27" s="115"/>
-      <x:c r="C27" s="114"/>
-      <x:c r="D27" s="108" t="s">
-        <x:v>341</x:v>
+      <x:c r="A27" s="117"/>
+      <x:c r="B27" s="116"/>
+      <x:c r="C27" s="115"/>
+      <x:c r="D27" s="109" t="s">
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E27" s="39" t="s">
-        <x:v>114</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="F27" s="39" t="s">
-        <x:v>233</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="G27" s="39"/>
       <x:c r="H27" s="39"/>
@@ -5791,15 +6376,15 @@
       <x:c r="CI27" s="31"/>
     </x:row>
     <x:row r="28" spans="1:87">
-      <x:c r="A28" s="117"/>
-      <x:c r="B28" s="111"/>
-      <x:c r="C28" s="114"/>
-      <x:c r="D28" s="109"/>
+      <x:c r="A28" s="118"/>
+      <x:c r="B28" s="112"/>
+      <x:c r="C28" s="115"/>
+      <x:c r="D28" s="110"/>
       <x:c r="E28" s="39" t="s">
-        <x:v>116</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="F28" s="39" t="s">
-        <x:v>233</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="G28" s="39"/>
       <x:c r="H28" s="39"/>
@@ -5884,14 +6469,14 @@
       <x:c r="CI28" s="31"/>
     </x:row>
     <x:row r="29" spans="1:87">
-      <x:c r="A29" s="117"/>
-      <x:c r="B29" s="111"/>
-      <x:c r="C29" s="114"/>
+      <x:c r="A29" s="118"/>
+      <x:c r="B29" s="112"/>
+      <x:c r="C29" s="115"/>
       <x:c r="D29" s="39" t="s">
-        <x:v>102</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E29" s="41" t="s">
-        <x:v>129</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="F29" s="41"/>
       <x:c r="G29" s="39"/>
@@ -5977,14 +6562,14 @@
       <x:c r="CI29" s="31"/>
     </x:row>
     <x:row r="30" spans="1:87">
-      <x:c r="A30" s="117"/>
-      <x:c r="B30" s="111"/>
-      <x:c r="C30" s="114"/>
+      <x:c r="A30" s="118"/>
+      <x:c r="B30" s="112"/>
+      <x:c r="C30" s="115"/>
       <x:c r="D30" s="39" t="s">
-        <x:v>106</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E30" s="39" t="s">
-        <x:v>336</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="F30" s="39"/>
       <x:c r="G30" s="39"/>
@@ -6070,12 +6655,12 @@
       <x:c r="CI30" s="31"/>
     </x:row>
     <x:row r="31" spans="1:87" s="3" customFormat="1">
-      <x:c r="A31" s="116"/>
-      <x:c r="B31" s="115"/>
-      <x:c r="C31" s="114"/>
+      <x:c r="A31" s="117"/>
+      <x:c r="B31" s="116"/>
+      <x:c r="C31" s="115"/>
       <x:c r="D31" s="39"/>
       <x:c r="E31" s="39" t="s">
-        <x:v>97</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="F31" s="39"/>
       <x:c r="G31" s="39"/>
@@ -6161,14 +6746,14 @@
       <x:c r="CI31" s="31"/>
     </x:row>
     <x:row r="32" spans="1:87">
-      <x:c r="A32" s="117"/>
-      <x:c r="B32" s="111"/>
-      <x:c r="C32" s="114"/>
+      <x:c r="A32" s="118"/>
+      <x:c r="B32" s="112"/>
+      <x:c r="C32" s="115"/>
       <x:c r="D32" s="39" t="s">
-        <x:v>128</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="E32" s="39" t="s">
-        <x:v>159</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="F32" s="39"/>
       <x:c r="G32" s="39"/>
@@ -6254,11 +6839,11 @@
       <x:c r="CI32" s="31"/>
     </x:row>
     <x:row r="33" spans="1:87">
-      <x:c r="A33" s="117"/>
-      <x:c r="B33" s="111"/>
-      <x:c r="C33" s="109"/>
+      <x:c r="A33" s="118"/>
+      <x:c r="B33" s="112"/>
+      <x:c r="C33" s="110"/>
       <x:c r="D33" s="39" t="s">
-        <x:v>154</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="E33" s="39"/>
       <x:c r="F33" s="39"/>
@@ -6345,13 +6930,13 @@
       <x:c r="CI33" s="31"/>
     </x:row>
     <x:row r="34" spans="1:87" s="3" customFormat="1">
-      <x:c r="A34" s="116"/>
-      <x:c r="B34" s="115"/>
-      <x:c r="C34" s="108" t="s">
-        <x:v>149</x:v>
+      <x:c r="A34" s="117"/>
+      <x:c r="B34" s="116"/>
+      <x:c r="C34" s="109" t="s">
+        <x:v>260</x:v>
       </x:c>
       <x:c r="D34" s="39" t="s">
-        <x:v>91</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="E34" s="39"/>
       <x:c r="F34" s="39"/>
@@ -6438,11 +7023,11 @@
       <x:c r="CI34" s="31"/>
     </x:row>
     <x:row r="35" spans="1:87" s="3" customFormat="1">
-      <x:c r="A35" s="117"/>
-      <x:c r="B35" s="111"/>
-      <x:c r="C35" s="114"/>
+      <x:c r="A35" s="118"/>
+      <x:c r="B35" s="112"/>
+      <x:c r="C35" s="115"/>
       <x:c r="D35" s="39" t="s">
-        <x:v>348</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E35" s="39"/>
       <x:c r="F35" s="39"/>
@@ -6529,11 +7114,11 @@
       <x:c r="CI35" s="31"/>
     </x:row>
     <x:row r="36" spans="1:87" s="3" customFormat="1">
-      <x:c r="A36" s="117"/>
-      <x:c r="B36" s="111"/>
-      <x:c r="C36" s="114"/>
+      <x:c r="A36" s="118"/>
+      <x:c r="B36" s="112"/>
+      <x:c r="C36" s="115"/>
       <x:c r="D36" s="39" t="s">
-        <x:v>331</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="E36" s="39"/>
       <x:c r="F36" s="39"/>
@@ -6620,11 +7205,11 @@
       <x:c r="CI36" s="31"/>
     </x:row>
     <x:row r="37" spans="1:87" s="3" customFormat="1">
-      <x:c r="A37" s="117"/>
-      <x:c r="B37" s="111"/>
-      <x:c r="C37" s="114"/>
+      <x:c r="A37" s="118"/>
+      <x:c r="B37" s="112"/>
+      <x:c r="C37" s="115"/>
       <x:c r="D37" s="39" t="s">
-        <x:v>329</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="E37" s="39"/>
       <x:c r="F37" s="39"/>
@@ -6711,11 +7296,11 @@
       <x:c r="CI37" s="31"/>
     </x:row>
     <x:row r="38" spans="1:87" s="3" customFormat="1">
-      <x:c r="A38" s="117"/>
-      <x:c r="B38" s="111"/>
-      <x:c r="C38" s="114"/>
+      <x:c r="A38" s="118"/>
+      <x:c r="B38" s="112"/>
+      <x:c r="C38" s="115"/>
       <x:c r="D38" s="39" t="s">
-        <x:v>113</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E38" s="39"/>
       <x:c r="F38" s="39"/>
@@ -6802,11 +7387,11 @@
       <x:c r="CI38" s="31"/>
     </x:row>
     <x:row r="39" spans="1:87" s="3" customFormat="1">
-      <x:c r="A39" s="116"/>
-      <x:c r="B39" s="115"/>
-      <x:c r="C39" s="109"/>
+      <x:c r="A39" s="117"/>
+      <x:c r="B39" s="116"/>
+      <x:c r="C39" s="110"/>
       <x:c r="D39" s="39" t="s">
-        <x:v>156</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="E39" s="39"/>
       <x:c r="F39" s="39"/>
@@ -6893,12 +7478,12 @@
       <x:c r="CI39" s="31"/>
     </x:row>
     <x:row r="40" spans="1:87">
-      <x:c r="A40" s="117"/>
-      <x:c r="B40" s="115" t="s">
-        <x:v>337</x:v>
+      <x:c r="A40" s="118"/>
+      <x:c r="B40" s="116" t="s">
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C40" s="39" t="s">
-        <x:v>323</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D40" s="39"/>
       <x:c r="E40" s="39"/>
@@ -6986,10 +7571,10 @@
       <x:c r="CI40" s="31"/>
     </x:row>
     <x:row r="41" spans="1:87">
-      <x:c r="A41" s="117"/>
-      <x:c r="B41" s="111"/>
+      <x:c r="A41" s="118"/>
+      <x:c r="B41" s="112"/>
       <x:c r="C41" s="39" t="s">
-        <x:v>160</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="D41" s="39"/>
       <x:c r="E41" s="39"/>
@@ -7077,10 +7662,10 @@
       <x:c r="CI41" s="31"/>
     </x:row>
     <x:row r="42" spans="1:87">
-      <x:c r="A42" s="117"/>
-      <x:c r="B42" s="111"/>
+      <x:c r="A42" s="118"/>
+      <x:c r="B42" s="112"/>
       <x:c r="C42" s="39" t="s">
-        <x:v>112</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="D42" s="39"/>
       <x:c r="E42" s="39"/>
@@ -7168,10 +7753,10 @@
       <x:c r="CI42" s="31"/>
     </x:row>
     <x:row r="43" spans="1:87">
-      <x:c r="A43" s="117"/>
-      <x:c r="B43" s="111"/>
+      <x:c r="A43" s="118"/>
+      <x:c r="B43" s="112"/>
       <x:c r="C43" s="39" t="s">
-        <x:v>109</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="D43" s="39"/>
       <x:c r="E43" s="39"/>
@@ -7259,10 +7844,10 @@
       <x:c r="CI43" s="31"/>
     </x:row>
     <x:row r="44" spans="1:87">
-      <x:c r="A44" s="117"/>
-      <x:c r="B44" s="111"/>
+      <x:c r="A44" s="118"/>
+      <x:c r="B44" s="112"/>
       <x:c r="C44" s="39" t="s">
-        <x:v>318</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D44" s="39"/>
       <x:c r="E44" s="39"/>
@@ -7350,10 +7935,10 @@
       <x:c r="CI44" s="31"/>
     </x:row>
     <x:row r="45" spans="1:87">
-      <x:c r="A45" s="117"/>
-      <x:c r="B45" s="112"/>
+      <x:c r="A45" s="118"/>
+      <x:c r="B45" s="113"/>
       <x:c r="C45" s="39" t="s">
-        <x:v>121</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="D45" s="39"/>
       <x:c r="E45" s="39"/>
@@ -7441,12 +8026,12 @@
       <x:c r="CI45" s="31"/>
     </x:row>
     <x:row r="46" spans="1:87">
-      <x:c r="A46" s="117"/>
-      <x:c r="B46" s="115" t="s">
-        <x:v>321</x:v>
+      <x:c r="A46" s="118"/>
+      <x:c r="B46" s="116" t="s">
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C46" s="39" t="s">
-        <x:v>320</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D46" s="39"/>
       <x:c r="E46" s="39"/>
@@ -7534,10 +8119,10 @@
       <x:c r="CI46" s="31"/>
     </x:row>
     <x:row r="47" spans="1:87">
-      <x:c r="A47" s="117"/>
-      <x:c r="B47" s="111"/>
+      <x:c r="A47" s="118"/>
+      <x:c r="B47" s="112"/>
       <x:c r="C47" s="39" t="s">
-        <x:v>342</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D47" s="39"/>
       <x:c r="E47" s="39"/>
@@ -7625,10 +8210,10 @@
       <x:c r="CI47" s="31"/>
     </x:row>
     <x:row r="48" spans="1:87">
-      <x:c r="A48" s="117"/>
-      <x:c r="B48" s="111"/>
+      <x:c r="A48" s="118"/>
+      <x:c r="B48" s="112"/>
       <x:c r="C48" s="39" t="s">
-        <x:v>140</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="D48" s="39"/>
       <x:c r="E48" s="39"/>
@@ -7716,10 +8301,10 @@
       <x:c r="CI48" s="31"/>
     </x:row>
     <x:row r="49" spans="1:87">
-      <x:c r="A49" s="117"/>
-      <x:c r="B49" s="112"/>
+      <x:c r="A49" s="118"/>
+      <x:c r="B49" s="113"/>
       <x:c r="C49" s="39" t="s">
-        <x:v>150</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="D49" s="39"/>
       <x:c r="E49" s="39"/>
@@ -7807,15 +8392,15 @@
       <x:c r="CI49" s="31"/>
     </x:row>
     <x:row r="50" spans="1:87">
-      <x:c r="A50" s="117"/>
-      <x:c r="B50" s="115" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="C50" s="108" t="s">
-        <x:v>198</x:v>
+      <x:c r="A50" s="118"/>
+      <x:c r="B50" s="116" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="C50" s="109" t="s">
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D50" s="39" t="s">
-        <x:v>93</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="E50" s="39"/>
       <x:c r="F50" s="39"/>
@@ -7902,11 +8487,11 @@
       <x:c r="CI50" s="31"/>
     </x:row>
     <x:row r="51" spans="1:87">
-      <x:c r="A51" s="117"/>
-      <x:c r="B51" s="111"/>
-      <x:c r="C51" s="109"/>
+      <x:c r="A51" s="118"/>
+      <x:c r="B51" s="112"/>
+      <x:c r="C51" s="110"/>
       <x:c r="D51" s="39" t="s">
-        <x:v>139</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="E51" s="39"/>
       <x:c r="F51" s="39"/>
@@ -7993,13 +8578,13 @@
       <x:c r="CI51" s="31"/>
     </x:row>
     <x:row r="52" spans="1:87">
-      <x:c r="A52" s="117"/>
-      <x:c r="B52" s="111"/>
-      <x:c r="C52" s="108" t="s">
-        <x:v>340</x:v>
+      <x:c r="A52" s="118"/>
+      <x:c r="B52" s="112"/>
+      <x:c r="C52" s="109" t="s">
+        <x:v>211</x:v>
       </x:c>
       <x:c r="D52" s="39" t="s">
-        <x:v>225</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E52" s="39"/>
       <x:c r="F52" s="39"/>
@@ -8086,11 +8671,11 @@
       <x:c r="CI52" s="31"/>
     </x:row>
     <x:row r="53" spans="1:87">
-      <x:c r="A53" s="117"/>
-      <x:c r="B53" s="111"/>
-      <x:c r="C53" s="109"/>
+      <x:c r="A53" s="118"/>
+      <x:c r="B53" s="112"/>
+      <x:c r="C53" s="110"/>
       <x:c r="D53" s="39" t="s">
-        <x:v>235</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="E53" s="39"/>
       <x:c r="F53" s="39"/>
@@ -8177,13 +8762,13 @@
       <x:c r="CI53" s="31"/>
     </x:row>
     <x:row r="54" spans="1:87">
-      <x:c r="A54" s="117"/>
-      <x:c r="B54" s="111"/>
-      <x:c r="C54" s="108" t="s">
-        <x:v>236</x:v>
+      <x:c r="A54" s="118"/>
+      <x:c r="B54" s="112"/>
+      <x:c r="C54" s="109" t="s">
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D54" s="39" t="s">
-        <x:v>175</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E54" s="39"/>
       <x:c r="F54" s="39"/>
@@ -8270,11 +8855,11 @@
       <x:c r="CI54" s="31"/>
     </x:row>
     <x:row r="55" spans="1:87">
-      <x:c r="A55" s="117"/>
-      <x:c r="B55" s="111"/>
-      <x:c r="C55" s="114"/>
+      <x:c r="A55" s="118"/>
+      <x:c r="B55" s="112"/>
+      <x:c r="C55" s="115"/>
       <x:c r="D55" s="39" t="s">
-        <x:v>228</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="E55" s="39"/>
       <x:c r="F55" s="39"/>
@@ -8361,11 +8946,11 @@
       <x:c r="CI55" s="31"/>
     </x:row>
     <x:row r="56" spans="1:87">
-      <x:c r="A56" s="117"/>
-      <x:c r="B56" s="111"/>
-      <x:c r="C56" s="109"/>
+      <x:c r="A56" s="118"/>
+      <x:c r="B56" s="112"/>
+      <x:c r="C56" s="110"/>
       <x:c r="D56" s="39" t="s">
-        <x:v>49</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="E56" s="39"/>
       <x:c r="F56" s="39"/>
@@ -8452,13 +9037,13 @@
       <x:c r="CI56" s="31"/>
     </x:row>
     <x:row r="57" spans="1:87">
-      <x:c r="A57" s="117"/>
-      <x:c r="B57" s="111"/>
-      <x:c r="C57" s="108" t="s">
-        <x:v>130</x:v>
+      <x:c r="A57" s="118"/>
+      <x:c r="B57" s="112"/>
+      <x:c r="C57" s="109" t="s">
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D57" s="39" t="s">
-        <x:v>38</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="E57" s="39"/>
       <x:c r="F57" s="39"/>
@@ -8545,11 +9130,11 @@
       <x:c r="CI57" s="31"/>
     </x:row>
     <x:row r="58" spans="1:87">
-      <x:c r="A58" s="117"/>
-      <x:c r="B58" s="111"/>
-      <x:c r="C58" s="109"/>
+      <x:c r="A58" s="118"/>
+      <x:c r="B58" s="112"/>
+      <x:c r="C58" s="110"/>
       <x:c r="D58" s="39" t="s">
-        <x:v>211</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E58" s="39"/>
       <x:c r="F58" s="39"/>
@@ -8636,13 +9221,13 @@
       <x:c r="CI58" s="31"/>
     </x:row>
     <x:row r="59" spans="1:87">
-      <x:c r="A59" s="117"/>
-      <x:c r="B59" s="111"/>
-      <x:c r="C59" s="108" t="s">
-        <x:v>222</x:v>
+      <x:c r="A59" s="118"/>
+      <x:c r="B59" s="112"/>
+      <x:c r="C59" s="109" t="s">
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D59" s="39" t="s">
-        <x:v>56</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="E59" s="39"/>
       <x:c r="F59" s="39"/>
@@ -8729,11 +9314,11 @@
       <x:c r="CI59" s="31"/>
     </x:row>
     <x:row r="60" spans="1:87">
-      <x:c r="A60" s="117"/>
-      <x:c r="B60" s="111"/>
-      <x:c r="C60" s="109"/>
+      <x:c r="A60" s="118"/>
+      <x:c r="B60" s="112"/>
+      <x:c r="C60" s="110"/>
       <x:c r="D60" s="39" t="s">
-        <x:v>60</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="E60" s="39"/>
       <x:c r="F60" s="39"/>
@@ -8820,13 +9405,13 @@
       <x:c r="CI60" s="31"/>
     </x:row>
     <x:row r="61" spans="1:87">
-      <x:c r="A61" s="117"/>
-      <x:c r="B61" s="111"/>
-      <x:c r="C61" s="108" t="s">
-        <x:v>125</x:v>
+      <x:c r="A61" s="118"/>
+      <x:c r="B61" s="112"/>
+      <x:c r="C61" s="109" t="s">
+        <x:v>223</x:v>
       </x:c>
       <x:c r="D61" s="39" t="s">
-        <x:v>330</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E61" s="39"/>
       <x:c r="F61" s="39"/>
@@ -8913,11 +9498,11 @@
       <x:c r="CI61" s="31"/>
     </x:row>
     <x:row r="62" spans="1:87">
-      <x:c r="A62" s="118"/>
-      <x:c r="B62" s="112"/>
-      <x:c r="C62" s="109"/>
+      <x:c r="A62" s="119"/>
+      <x:c r="B62" s="113"/>
+      <x:c r="C62" s="110"/>
       <x:c r="D62" s="39" t="s">
-        <x:v>124</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E62" s="39"/>
       <x:c r="F62" s="39"/>
@@ -10936,7 +11521,7 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="A1:H60"/>
@@ -10959,288 +11544,288 @@
   <x:sheetData>
     <x:row r="1" spans="1:8" ht="17.149999999999999">
       <x:c r="A1" s="34" t="s">
-        <x:v>205</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B1" s="35" t="s">
-        <x:v>142</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="C1" s="36" t="s">
-        <x:v>104</x:v>
+        